--- a/data/website stock.xlsx
+++ b/data/website stock.xlsx
@@ -68,214 +68,214 @@
     <t>Value</t>
   </si>
   <si>
-    <t>.1001 PATRIKA</t>
-  </si>
-  <si>
-    <t>1002 PATRIKA</t>
-  </si>
-  <si>
-    <t>1003 PATRIKA</t>
-  </si>
-  <si>
-    <t>1004 PATRIKA</t>
-  </si>
-  <si>
-    <t>1005 PATRIKA</t>
-  </si>
-  <si>
-    <t>1006 PATRIKA</t>
-  </si>
-  <si>
-    <t>1007 PATRIKA</t>
-  </si>
-  <si>
-    <t>1008 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>1009 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>1010 PATRIKA</t>
-  </si>
-  <si>
-    <t>1011 PATRIKA</t>
-  </si>
-  <si>
-    <t>1012 PATRIKA</t>
-  </si>
-  <si>
-    <t>1013 PATRIKA</t>
-  </si>
-  <si>
-    <t>1014 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>1015 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>1016 PATRIKA</t>
-  </si>
-  <si>
-    <t>1017 PATRIKA</t>
-  </si>
-  <si>
-    <t>1018 PATRIKA</t>
-  </si>
-  <si>
-    <t>1019 PATRIKA</t>
-  </si>
-  <si>
-    <t>1020 PATRIKA</t>
-  </si>
-  <si>
-    <t>1021 PATRIKA</t>
-  </si>
-  <si>
-    <t>1022 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>1023 PATRIKA</t>
-  </si>
-  <si>
-    <t>1024 PATRIKA</t>
-  </si>
-  <si>
-    <t>1025 PATRIKA</t>
-  </si>
-  <si>
-    <t>1026 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>1027 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>1028 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>1029 PATRIKA</t>
-  </si>
-  <si>
-    <t>1030 PATRIKA</t>
-  </si>
-  <si>
-    <t>1031 PATRIKA</t>
-  </si>
-  <si>
-    <t>1032 PATRIKA</t>
-  </si>
-  <si>
-    <t>1033 PATRIKA</t>
-  </si>
-  <si>
-    <t>1034 PATRIKA</t>
-  </si>
-  <si>
-    <t>1035 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>1101 PATRIKA</t>
-  </si>
-  <si>
-    <t>1102 PATRIKA</t>
-  </si>
-  <si>
-    <t>1103 PATRIKA</t>
-  </si>
-  <si>
-    <t>1104 PATRIKA</t>
-  </si>
-  <si>
-    <t>1105 PATRIKA</t>
-  </si>
-  <si>
-    <t>1106 PATRIKA</t>
-  </si>
-  <si>
-    <t>1107 PATRIKA</t>
-  </si>
-  <si>
-    <t>1109 PATRIKA</t>
-  </si>
-  <si>
-    <t>1110 PATRIKA</t>
-  </si>
-  <si>
-    <t>1112 PATRIKA</t>
-  </si>
-  <si>
-    <t>1113 PATRIKA</t>
-  </si>
-  <si>
-    <t>1114 PATRIKA</t>
-  </si>
-  <si>
-    <t>1115 PATRIKA</t>
-  </si>
-  <si>
-    <t>1116 PATRIKA</t>
-  </si>
-  <si>
-    <t>1117 PATRIKA</t>
-  </si>
-  <si>
-    <t>1118 PATRIKA</t>
-  </si>
-  <si>
-    <t>1119 PATRIKA</t>
-  </si>
-  <si>
-    <t>1120 PATRIKA</t>
-  </si>
-  <si>
-    <t>1121 PATRIKA</t>
-  </si>
-  <si>
-    <t>1122 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>1123 PATRIKA</t>
-  </si>
-  <si>
-    <t>1124 PATRIKA</t>
-  </si>
-  <si>
-    <t>1125 PATRIKA</t>
-  </si>
-  <si>
-    <t>1126 PATRIKA</t>
-  </si>
-  <si>
-    <t>1127 PATRIKA</t>
-  </si>
-  <si>
-    <t>1128 PATRIKA</t>
-  </si>
-  <si>
-    <t>1129 PATRIKA</t>
-  </si>
-  <si>
-    <t>1130 PATRIKA</t>
-  </si>
-  <si>
-    <t>1131 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>1132 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>1133 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>1134 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>1135 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>1150 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>1151 PATRIKA (DCU)</t>
+    <t>.1001 PATRIKA (25/251)</t>
+  </si>
+  <si>
+    <t>1002 PATRIKA (25/262)</t>
+  </si>
+  <si>
+    <t>1003 PATRIKA (25/261)</t>
+  </si>
+  <si>
+    <t>1004 PATRIKA (25/361/861)</t>
+  </si>
+  <si>
+    <t>1005 PATRIKA (25/362/862)</t>
+  </si>
+  <si>
+    <t>1006 PATRIKA (25/282)</t>
+  </si>
+  <si>
+    <t>1007 PATRIKA (25/281)</t>
+  </si>
+  <si>
+    <t>1008 PATRIKA (JC) (2595 PINK)</t>
+  </si>
+  <si>
+    <t>1009 PATRIKA (JC) (2595 ORANGE)</t>
+  </si>
+  <si>
+    <t>1010 PATRIKA (6321)</t>
+  </si>
+  <si>
+    <t>1011 PATRIKA (2563 OFFSET NEW)</t>
+  </si>
+  <si>
+    <t>1012 PATRIKA (2564 OFFSET NEW)</t>
+  </si>
+  <si>
+    <t>1013 PATRIKA (2568 OFFSET NEW)</t>
+  </si>
+  <si>
+    <t>1014 PATRIKA (JC) (11043 OFFSET)</t>
+  </si>
+  <si>
+    <t>1015 PATRIKA (DCU) (11041 OFFSET NEW)</t>
+  </si>
+  <si>
+    <t>1016 PATRIKA (1011 OFFSET)</t>
+  </si>
+  <si>
+    <t>1017 PATRIKA (1014 OFFSET)</t>
+  </si>
+  <si>
+    <t>1018 PATRIKA (10081 OFFSET NEW)</t>
+  </si>
+  <si>
+    <t>1019 PATRIKA (1222 SBC)</t>
+  </si>
+  <si>
+    <t>1020 PATRIKA (1235)</t>
+  </si>
+  <si>
+    <t>1021 PATRIKA (2101 VV)</t>
+  </si>
+  <si>
+    <t>1022 PATRIKA (JC) (25409)</t>
+  </si>
+  <si>
+    <t>1023 PATRIKA (25418)</t>
+  </si>
+  <si>
+    <t>1024 PATRIKA (25322)</t>
+  </si>
+  <si>
+    <t>1025 PATRIKA (25323)</t>
+  </si>
+  <si>
+    <t>1026 PATRIKA (JC) (1173 SBC)</t>
+  </si>
+  <si>
+    <t>1027 PATRIKA (JC) (5346)</t>
+  </si>
+  <si>
+    <t>1028 PATRIKA (JC) (2596)</t>
+  </si>
+  <si>
+    <t>1029 PATRIKA (1042)</t>
+  </si>
+  <si>
+    <t>1030 PATRIKA (1043)</t>
+  </si>
+  <si>
+    <t>1031 PATRIKA (GOPAL 11)</t>
+  </si>
+  <si>
+    <t>1032 PATRIKA (GOPAL 1)</t>
+  </si>
+  <si>
+    <t>1033 PATRIKA (2002 YLW)</t>
+  </si>
+  <si>
+    <t>1034 PATRIKA (2003 R)</t>
+  </si>
+  <si>
+    <t>1035 PATRIKA (DCU) (2201 ROSHAN)</t>
+  </si>
+  <si>
+    <t>1101 PATRIKA (2591 ORANGE)</t>
+  </si>
+  <si>
+    <t>1102 PATRIKA (2591 PINK)</t>
+  </si>
+  <si>
+    <t>1103 PATRIKA (271 NEHA)</t>
+  </si>
+  <si>
+    <t>1104 PATRIKA (272 NEHA)</t>
+  </si>
+  <si>
+    <t>1105 PATRIKA (276-A)</t>
+  </si>
+  <si>
+    <t>1106 PATRIKA (25419)</t>
+  </si>
+  <si>
+    <t>1107 PATRIKA (25420)</t>
+  </si>
+  <si>
+    <t>1109 PATRIKA (25421)</t>
+  </si>
+  <si>
+    <t>1110 PATRIKA (25422)</t>
+  </si>
+  <si>
+    <t>1112 PATRIKA (277-B)</t>
+  </si>
+  <si>
+    <t>1113 PATRIKA (1819 MONARCH)</t>
+  </si>
+  <si>
+    <t>1114 PATRIKA (1709)</t>
+  </si>
+  <si>
+    <t>1115 PATRIKA (1678 PRINCE)</t>
+  </si>
+  <si>
+    <t>1116 PATRIKA (JSK 1153)</t>
+  </si>
+  <si>
+    <t>1117 PATRIKA (1155 JSK)</t>
+  </si>
+  <si>
+    <t>1118 PATRIKA (NEW SAVASHREE-57)</t>
+  </si>
+  <si>
+    <t>1119 PATRIKA (NEW SAVASHREE-55)</t>
+  </si>
+  <si>
+    <t>1120 PATRIKA (NEW SAVASHREE-59)</t>
+  </si>
+  <si>
+    <t>1121 PATRIKA (NEW SAVASHREE-53)</t>
+  </si>
+  <si>
+    <t>1122 PATRIKA (DCU) (NEW SAVASHREE-54)</t>
+  </si>
+  <si>
+    <t>1123 PATRIKA (LED-51)</t>
+  </si>
+  <si>
+    <t>1124 PATRIKA (LED-52)</t>
+  </si>
+  <si>
+    <t>1125 PATRIKA (LED-53)</t>
+  </si>
+  <si>
+    <t>1126 PATRIKA (LED-54)</t>
+  </si>
+  <si>
+    <t>1127 PATRIKA (NEW ECO-52)</t>
+  </si>
+  <si>
+    <t>1128 PATRIKA (NEW ECO-55)</t>
+  </si>
+  <si>
+    <t>1129 PATRIKA (NEW ECO-56)</t>
+  </si>
+  <si>
+    <t>1130 PATRIKA (NEW ECO-59)</t>
+  </si>
+  <si>
+    <t>1131 PATRIKA (DCU) (NEW ECO- 51)</t>
+  </si>
+  <si>
+    <t>1132 PATRIKA (DCU) (NEW ECO- 53)</t>
+  </si>
+  <si>
+    <t>1133 PATRIKA (DCU) (NEW ECO- 57)</t>
+  </si>
+  <si>
+    <t>1134 PATRIKA (DCU) (NEW ECO- 58)</t>
+  </si>
+  <si>
+    <t>1135 PATRIKA (DCU) (NEW ECO- 54)</t>
+  </si>
+  <si>
+    <t>1150 PATRIKA (DCU) (NEW SAVASHREE-58)</t>
+  </si>
+  <si>
+    <t>1151 PATRIKA (DCU) (NEW SAVASHREE-56)</t>
   </si>
   <si>
     <t>2025 ALBUM (JC)</t>
@@ -308,109 +308,109 @@
     <t>2025- INVITAION (BOX) SAMPLES</t>
   </si>
   <si>
-    <t>2101 PATRIKA (L) (NEED TO CHECK STOCK IFRST)</t>
-  </si>
-  <si>
-    <t>2102 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>2103 PATRIKA (L) ( NEED TO CHECK STOCK FIRST)</t>
-  </si>
-  <si>
-    <t>2104 PATRIKA</t>
-  </si>
-  <si>
-    <t>2105 PATRIKA</t>
-  </si>
-  <si>
-    <t>2106 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>2107 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>2108 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>2109 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>2110 PATRIKA</t>
-  </si>
-  <si>
-    <t>2111 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>2112 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>2113 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>2114 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>2115 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>2116 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>2117 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>2118 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>2119 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>2120 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>2121 PATRIKA</t>
-  </si>
-  <si>
-    <t>2122 PATRIKA</t>
-  </si>
-  <si>
-    <t>2123 PATRIKA</t>
-  </si>
-  <si>
-    <t>2124 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>2125 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>2126 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>2127 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>2128 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>2129 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>2130 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>2131 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>2132 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>2133 PATRIKA</t>
-  </si>
-  <si>
-    <t>2134 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>2135 PATRIKA *-*</t>
+    <t>2101 PATRIKA (L) (NEED TO CHECK STOCK IFRST) (LUXYA - 51)</t>
+  </si>
+  <si>
+    <t>2102 PATRIKA *-* (LUXYA - 52)</t>
+  </si>
+  <si>
+    <t>2103 PATRIKA (L) ( NEED TO CHECK STOCK FIRST) (LUXYA - 53)</t>
+  </si>
+  <si>
+    <t>2104 PATRIKA (LUXYA - 54)</t>
+  </si>
+  <si>
+    <t>2105 PATRIKA (LUXYA - 55)</t>
+  </si>
+  <si>
+    <t>2106 PATRIKA (L) (LUXYA - 56)</t>
+  </si>
+  <si>
+    <t>2107 PATRIKA *-* (LUXYA - 57)</t>
+  </si>
+  <si>
+    <t>2108 PATRIKA *-* (LUXYA - 59)</t>
+  </si>
+  <si>
+    <t>2109 PATRIKA (L) (LUXYA - 60)</t>
+  </si>
+  <si>
+    <t>2110 PATRIKA (LUXYA - 61)</t>
+  </si>
+  <si>
+    <t>2111 PATRIKA *-* (LUXYA - 62)</t>
+  </si>
+  <si>
+    <t>2112 PATRIKA (L) (LEGACY - 01)</t>
+  </si>
+  <si>
+    <t>2113 PATRIKA (L) (LEGACY - 02)</t>
+  </si>
+  <si>
+    <t>2114 PATRIKA (L) (LEGACY - 03)</t>
+  </si>
+  <si>
+    <t>2115 PATRIKA (L) (LEGACY - 04)</t>
+  </si>
+  <si>
+    <t>2116 PATRIKA (L) (LEGACY - 05)</t>
+  </si>
+  <si>
+    <t>2117 PATRIKA *-* (LEGACY - 06)</t>
+  </si>
+  <si>
+    <t>2118 PATRIKA (L) (LEGACY - 07)</t>
+  </si>
+  <si>
+    <t>2119 PATRIKA (L) (LEGACY - 08)</t>
+  </si>
+  <si>
+    <t>2120 PATRIKA (L) (LEGACY - 09)</t>
+  </si>
+  <si>
+    <t>2121 PATRIKA (LEGACY - 10)</t>
+  </si>
+  <si>
+    <t>2122 PATRIKA (LEGACY - 11)</t>
+  </si>
+  <si>
+    <t>2123 PATRIKA (LEGACY - 12)</t>
+  </si>
+  <si>
+    <t>2124 PATRIKA *-* (LOTTERY - 71)</t>
+  </si>
+  <si>
+    <t>2125 PATRIKA *-* (LOTTERY - 72)</t>
+  </si>
+  <si>
+    <t>2126 PATRIKA *-* (LOTTERY - 73)</t>
+  </si>
+  <si>
+    <t>2127 PATRIKA *-* (LOTTERY - 74)</t>
+  </si>
+  <si>
+    <t>2128 PATRIKA *-* (LOTTERY - 75)</t>
+  </si>
+  <si>
+    <t>2129 PATRIKA *-* (LOTTERY - 76)</t>
+  </si>
+  <si>
+    <t>2130 PATRIKA *-* (LOTTERY - 77)</t>
+  </si>
+  <si>
+    <t>2131 PATRIKA *-* (LOTTERY - 78)</t>
+  </si>
+  <si>
+    <t>2132 PATRIKA *-* (LOTTERY - 79)</t>
+  </si>
+  <si>
+    <t>2133 PATRIKA (LOTTERY - 80)</t>
+  </si>
+  <si>
+    <t>2134 PATRIKA *-* (LOTTERY - 81)</t>
+  </si>
+  <si>
+    <t>2135 PATRIKA *-* (LOTTERY - 82)</t>
   </si>
   <si>
     <t>240 ENVELOPE</t>
@@ -431,1189 +431,1189 @@
     <t>330 ENVELOPE (B)</t>
   </si>
   <si>
-    <t>4251 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>4252 PATRIKA</t>
-  </si>
-  <si>
-    <t>4253 PATRIKA (ANE WALA)</t>
-  </si>
-  <si>
-    <t>4254 PATRIKA (4210)</t>
-  </si>
-  <si>
-    <t>4255 PATRIKA - B (DCU)</t>
-  </si>
-  <si>
-    <t>4255 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>4256 PATRIKA (JC) *-*</t>
-  </si>
-  <si>
-    <t>4257 PATRIKA</t>
-  </si>
-  <si>
-    <t>4258 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>4259 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>4260 PATRIKA</t>
-  </si>
-  <si>
-    <t>4261 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>4262 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>4263 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>4264 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>4265 PATRIKA</t>
-  </si>
-  <si>
-    <t>4266 PATRIKA</t>
-  </si>
-  <si>
-    <t>4267 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>4268 PATRIKA (JC) *-*</t>
-  </si>
-  <si>
-    <t>4269 PATRIKA</t>
-  </si>
-  <si>
-    <t>4270 PATRIKA</t>
-  </si>
-  <si>
-    <t>4271 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>4272 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>4273 PATRIKA</t>
-  </si>
-  <si>
-    <t>4274 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>4275 PATRIKA</t>
-  </si>
-  <si>
-    <t>4276 PATRIKA (JC) *-*</t>
-  </si>
-  <si>
-    <t>4277 PATRIKA (JC) *-*</t>
-  </si>
-  <si>
-    <t>4278 PATRIKA</t>
-  </si>
-  <si>
-    <t>4279 PATRIKA</t>
-  </si>
-  <si>
-    <t>4280 PATRIKA</t>
-  </si>
-  <si>
-    <t>4281 PATRIKA</t>
-  </si>
-  <si>
-    <t>4282 PATRIKA</t>
-  </si>
-  <si>
-    <t>4283 PATRIKA - B (YELLOW)</t>
-  </si>
-  <si>
-    <t>4283 PATRIKA (GOLDEN)</t>
-  </si>
-  <si>
-    <t>4284 PATRIKA</t>
-  </si>
-  <si>
-    <t>4285 PATRIKA (JC) *-*</t>
-  </si>
-  <si>
-    <t>4286 PATRIKA</t>
-  </si>
-  <si>
-    <t>4287 PATRIKA</t>
-  </si>
-  <si>
-    <t>4288 PATRIKA</t>
-  </si>
-  <si>
-    <t>4289 PATRIKA</t>
-  </si>
-  <si>
-    <t>4290 PATRIKA</t>
-  </si>
-  <si>
-    <t>4291 PATRIKA</t>
-  </si>
-  <si>
-    <t>4292 PATRIKA</t>
-  </si>
-  <si>
-    <t>4293 PATRIKA</t>
-  </si>
-  <si>
-    <t>4294 PATRIKA</t>
-  </si>
-  <si>
-    <t>4295 PATRIKA (ANE W H)</t>
-  </si>
-  <si>
-    <t>4296 PATRIKA (ANE WALA)</t>
-  </si>
-  <si>
-    <t>4297 PATRIKA</t>
-  </si>
-  <si>
-    <t>4298 PATRIKA</t>
-  </si>
-  <si>
-    <t>4299 PATRIKA</t>
-  </si>
-  <si>
-    <t>4300 PATRIKA</t>
-  </si>
-  <si>
-    <t>4301 PATRIKA</t>
-  </si>
-  <si>
-    <t>4302 PATRIKA</t>
-  </si>
-  <si>
-    <t>4303 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>4304 PATRIKA</t>
-  </si>
-  <si>
-    <t>4305 PATRIKA</t>
-  </si>
-  <si>
-    <t>4306 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>4307 PATRIKA</t>
-  </si>
-  <si>
-    <t>4308 PATRIKA</t>
-  </si>
-  <si>
-    <t>4309 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>4310 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>4311 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>4312 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5051 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>5052 PATRIKA</t>
-  </si>
-  <si>
-    <t>5053 PATRIKA</t>
-  </si>
-  <si>
-    <t>5054 PATRIKA *-* (6000)</t>
-  </si>
-  <si>
-    <t>5055 PATRIKA</t>
-  </si>
-  <si>
-    <t>5056 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5057 PATRIKA</t>
-  </si>
-  <si>
-    <t>5058 PATRIKA</t>
-  </si>
-  <si>
-    <t>5059 PATRIKA</t>
-  </si>
-  <si>
-    <t>5060 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5061 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5062 PATRIKA</t>
-  </si>
-  <si>
-    <t>5063 PATRIKA</t>
-  </si>
-  <si>
-    <t>5064 PATRIKA</t>
-  </si>
-  <si>
-    <t>5065 PATRIKA</t>
-  </si>
-  <si>
-    <t>5066 PATRIKA</t>
-  </si>
-  <si>
-    <t>5067 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5068 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5069 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5070 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5071 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>5072 PATRIKA</t>
-  </si>
-  <si>
-    <t>5073 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>5074 PATRIKA</t>
-  </si>
-  <si>
-    <t>5075 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5076 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5077 PATRIKA</t>
-  </si>
-  <si>
-    <t>5078 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5079 PATRIKA (ANE WALA)</t>
-  </si>
-  <si>
-    <t>5080 PATRIKA</t>
-  </si>
-  <si>
-    <t>5081 PATRIKA</t>
-  </si>
-  <si>
-    <t>5083 PATRIKA</t>
-  </si>
-  <si>
-    <t>5084 PATRIKA</t>
-  </si>
-  <si>
-    <t>5085 PATRIKA</t>
-  </si>
-  <si>
-    <t>5086 PATRIKA (JC) *-*</t>
-  </si>
-  <si>
-    <t>5087 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5088 PATRIKA</t>
-  </si>
-  <si>
-    <t>5089 PATRIKA</t>
-  </si>
-  <si>
-    <t>5090 PATRIKA</t>
-  </si>
-  <si>
-    <t>5091 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5092 PATRIKA</t>
-  </si>
-  <si>
-    <t>5093 PATRIKA (5400)</t>
-  </si>
-  <si>
-    <t>5094 PATRIKA</t>
-  </si>
-  <si>
-    <t>5095 PATRIKA</t>
-  </si>
-  <si>
-    <t>5096 PATRIKA</t>
-  </si>
-  <si>
-    <t>5097 PATRIKA</t>
-  </si>
-  <si>
-    <t>5098 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>5099 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>5100 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5102 PATRIKA (5021)</t>
-  </si>
-  <si>
-    <t>5103 PATRIKA</t>
-  </si>
-  <si>
-    <t>5104 PATRIKA</t>
-  </si>
-  <si>
-    <t>5105 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5106 PATRIKA (AN WALA)</t>
-  </si>
-  <si>
-    <t>5107 PATRIKA</t>
-  </si>
-  <si>
-    <t>5108 PATRIKA</t>
-  </si>
-  <si>
-    <t>5109 PATRIKA</t>
-  </si>
-  <si>
-    <t>5110 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5111 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5112 PATRIKA (JC) *-*</t>
-  </si>
-  <si>
-    <t>5113 PATRIKA</t>
-  </si>
-  <si>
-    <t>5114 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>5115 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5116 PATRIKA</t>
-  </si>
-  <si>
-    <t>5117 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5118 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5501 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5502 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>5503 PATRIKA</t>
-  </si>
-  <si>
-    <t>5504 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5505 PATRIKA (JC) *-*</t>
-  </si>
-  <si>
-    <t>5506 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>5507 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5508 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5509 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5510 PATRIKA (JC) *-*</t>
-  </si>
-  <si>
-    <t>5511 PATRIKA (JC) *-*</t>
-  </si>
-  <si>
-    <t>5512 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5513 PATRIKA</t>
-  </si>
-  <si>
-    <t>5514 PATRIKA</t>
-  </si>
-  <si>
-    <t>5515 PATRIKA</t>
-  </si>
-  <si>
-    <t>5516 PATRIKA (JC) *-*</t>
-  </si>
-  <si>
-    <t>5517 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>5518 PATRIKA (JC) *-*</t>
-  </si>
-  <si>
-    <t>5519 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>5520 PATRIKA</t>
-  </si>
-  <si>
-    <t>5521 PATRIKA (JC) *-*</t>
-  </si>
-  <si>
-    <t>5522 PATRIKA</t>
-  </si>
-  <si>
-    <t>5523 PATRIKA</t>
-  </si>
-  <si>
-    <t>5524 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5525 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>5526 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5527 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5528 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>5529 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>5530 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>5531 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5532 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>5533 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>5534 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>5535 PATRIKA (JC) *-*</t>
-  </si>
-  <si>
-    <t>5537 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5538 PATRIKA (JC) *-*</t>
-  </si>
-  <si>
-    <t>5539 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5540 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>5541 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5542 PATRIKA</t>
-  </si>
-  <si>
-    <t>5543 PATRIKA</t>
-  </si>
-  <si>
-    <t>5544 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>5545 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>5546 PATRIKA</t>
-  </si>
-  <si>
-    <t>5547 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>5548 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5549 PATRIKA</t>
-  </si>
-  <si>
-    <t>5550 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>5551 PATRIKA</t>
-  </si>
-  <si>
-    <t>5552 PATRIKA (JC) *-*</t>
-  </si>
-  <si>
-    <t>5553 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>5554 PATRIKA (F/G)</t>
-  </si>
-  <si>
-    <t>5555 PATRIKA</t>
-  </si>
-  <si>
-    <t>5556 PATRIKA *-* (ANE WALA)</t>
-  </si>
-  <si>
-    <t>5557 PATRIKA</t>
-  </si>
-  <si>
-    <t>5558 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>5559 PATRIKA (1500)</t>
-  </si>
-  <si>
-    <t>5560 PATRIKA (F/G) *-*</t>
-  </si>
-  <si>
-    <t>5561 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>5562 PATRIKA *-* (ANE WALA)</t>
-  </si>
-  <si>
-    <t>5563 PATRIKA</t>
-  </si>
-  <si>
-    <t>5564 PATRIKA (JC) *-*</t>
-  </si>
-  <si>
-    <t>5565 PATRIKA</t>
-  </si>
-  <si>
-    <t>5566 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>5567 PATRIKA</t>
-  </si>
-  <si>
-    <t>5568 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>5569 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>5570 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>5571 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>5572 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>5573 PATRIKA</t>
-  </si>
-  <si>
-    <t>5574 PATRIKA</t>
-  </si>
-  <si>
-    <t>5575 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>5576 PATRIKA</t>
-  </si>
-  <si>
-    <t>5577 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>5578 PATRIKA (JC) *-*</t>
-  </si>
-  <si>
-    <t>5579 PATRIKA (JC) *-*</t>
-  </si>
-  <si>
-    <t>5580 PATRIKA</t>
-  </si>
-  <si>
-    <t>5581 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>5582 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>5583 PATRIKA</t>
-  </si>
-  <si>
-    <t>5584 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5585 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>5586 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>5587 PATRIKA</t>
-  </si>
-  <si>
-    <t>5588 PATRIKA (JC) *-*</t>
-  </si>
-  <si>
-    <t>5589 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>5590 PATRIKA</t>
-  </si>
-  <si>
-    <t>5591 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5592 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>5593 PATRIKA</t>
-  </si>
-  <si>
-    <t>5594 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5595 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>5596 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>5597 PATRIKA (JC) *-*</t>
-  </si>
-  <si>
-    <t>5599 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>5600 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5601 PATRIKA</t>
-  </si>
-  <si>
-    <t>5602 PATRIKA</t>
-  </si>
-  <si>
-    <t>5603 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>5604 PATRIKA</t>
-  </si>
-  <si>
-    <t>5605 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5606 PATRIKA *-* (ANE WALA)</t>
-  </si>
-  <si>
-    <t>5607 PATRIKA</t>
-  </si>
-  <si>
-    <t>5608 PATRIKA</t>
-  </si>
-  <si>
-    <t>5609 PATRIKA</t>
-  </si>
-  <si>
-    <t>5610 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5611 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>5612 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5613 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5614 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>5615 PATRIKA</t>
-  </si>
-  <si>
-    <t>5616 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5617 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>5618 PATRIKA (JC) *-*</t>
-  </si>
-  <si>
-    <t>5619 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5620 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5621 PATRIKA (JC) *-*</t>
-  </si>
-  <si>
-    <t>5622 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>5623 PATRIKA</t>
-  </si>
-  <si>
-    <t>5624 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5625 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>6601 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>6602 PATRIKA</t>
-  </si>
-  <si>
-    <t>6603 PATRIKA</t>
-  </si>
-  <si>
-    <t>6604 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>6605 PATRIKA ANE WALA</t>
-  </si>
-  <si>
-    <t>6606 PATRIKA</t>
-  </si>
-  <si>
-    <t>6607 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>6608 PATRIKA</t>
-  </si>
-  <si>
-    <t>6609 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>6610 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>6611 PATRIKA</t>
-  </si>
-  <si>
-    <t>6612 PATRIKA</t>
-  </si>
-  <si>
-    <t>6613 PATRIKA</t>
-  </si>
-  <si>
-    <t>6614 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>6615 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>6616 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>6617 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>6618 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>6619 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>6620 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>6621 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>6622 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>6623 PATRIKA</t>
-  </si>
-  <si>
-    <t>6624 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>6625 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>6626 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>6627 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>6628 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>6629 PATRIKA (6525 OLD) *-*</t>
-  </si>
-  <si>
-    <t>6630 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>6631 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>6632 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>6633 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>6634 PATRIKA</t>
-  </si>
-  <si>
-    <t>6635 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>6636 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>6637 PATRIKA</t>
-  </si>
-  <si>
-    <t>6638 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>6639 PATRIKA</t>
-  </si>
-  <si>
-    <t>6640 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>6641 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>6642 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>6643 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>6644 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>6645 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>6646 PATRIKA *-* (700)</t>
-  </si>
-  <si>
-    <t>6647 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>6648 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>6649 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>6650 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>6651 PATRIKA</t>
-  </si>
-  <si>
-    <t>6652 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>6653 PATRIKA *-* (ANE WALA)</t>
-  </si>
-  <si>
-    <t>6654 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>6655 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>6656 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>6657 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>6658 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>6659 PATRIKA</t>
-  </si>
-  <si>
-    <t>6660 PATRIKA</t>
-  </si>
-  <si>
-    <t>6661 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>6662 PATRIKA</t>
-  </si>
-  <si>
-    <t>6663 PATRIKA</t>
-  </si>
-  <si>
-    <t>6664 PATRIKA *-* (3500)</t>
-  </si>
-  <si>
-    <t>6665 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>6666 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>6667 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>6668 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>6669 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>6670 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>6671 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>6672 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>6673 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>6674 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>6675 PATRIKA *-* (1800)</t>
-  </si>
-  <si>
-    <t>6676 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>6677 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>7265 PATRIKA (O.C.)</t>
-  </si>
-  <si>
-    <t>7283 PATRIKA {F} (O.C.)</t>
-  </si>
-  <si>
-    <t>7287 PATRIKA (O.C.)</t>
-  </si>
-  <si>
-    <t>7288 PATRIKA (O.C.)</t>
-  </si>
-  <si>
-    <t>7293 PATRIKA (O.C.)</t>
-  </si>
-  <si>
-    <t>7309 PATRIKA (O.C.)</t>
-  </si>
-  <si>
-    <t>7312 PATRIKA (O.C.)</t>
-  </si>
-  <si>
-    <t>7319 PATRIKA (O.C.)</t>
-  </si>
-  <si>
-    <t>7332 PATRIKA (O.C.)</t>
-  </si>
-  <si>
-    <t>7342 PATRIKA (O.C.)</t>
-  </si>
-  <si>
-    <t>7344 PATRIKA (O.C.)</t>
-  </si>
-  <si>
-    <t>7345 PATRIKA (O.C.)</t>
-  </si>
-  <si>
-    <t>7401 PATRIKA</t>
-  </si>
-  <si>
-    <t>7402 PATRIKA</t>
-  </si>
-  <si>
-    <t>7403 PATRIKA</t>
-  </si>
-  <si>
-    <t>7404 PATRIKA</t>
-  </si>
-  <si>
-    <t>7405 PATRIKA</t>
-  </si>
-  <si>
-    <t>7406 PATRIKA</t>
-  </si>
-  <si>
-    <t>7407 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>7408 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>7409 PATRIKA</t>
-  </si>
-  <si>
-    <t>7410 PATRIKA</t>
-  </si>
-  <si>
-    <t>7411 PATRIKA</t>
-  </si>
-  <si>
-    <t>7412 PATRIKA (Time Lagega)</t>
-  </si>
-  <si>
-    <t>7413 PATRIKA</t>
-  </si>
-  <si>
-    <t>7414 PATRIKA</t>
-  </si>
-  <si>
-    <t>7415 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>7416 PATRIKA (1800)</t>
-  </si>
-  <si>
-    <t>7417 PATRIKA</t>
-  </si>
-  <si>
-    <t>7418 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>7419 PATRIKA</t>
-  </si>
-  <si>
-    <t>7420 PATRIKA</t>
-  </si>
-  <si>
-    <t>7421 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>7422 PATRIKA</t>
-  </si>
-  <si>
-    <t>7423 PATRIKA</t>
-  </si>
-  <si>
-    <t>7424 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>7425 PATRIKA</t>
-  </si>
-  <si>
-    <t>7426 PATRIKA (F/G)</t>
-  </si>
-  <si>
-    <t>7427 PATRIKA</t>
-  </si>
-  <si>
-    <t>7428 PATRIKA</t>
-  </si>
-  <si>
-    <t>7429 PATRIKA (F/G) *-* (ANE WALA)</t>
-  </si>
-  <si>
-    <t>7430 PATRIKA</t>
-  </si>
-  <si>
-    <t>7431 PATRIKA</t>
-  </si>
-  <si>
-    <t>7432 PATRIKA</t>
-  </si>
-  <si>
-    <t>7433 PATRIKA</t>
-  </si>
-  <si>
-    <t>7434 PATRIKA</t>
-  </si>
-  <si>
-    <t>7435 PATRIKA</t>
-  </si>
-  <si>
-    <t>7436 PATRIKA</t>
-  </si>
-  <si>
-    <t>7437 PATRIKA</t>
-  </si>
-  <si>
-    <t>7438 PATRIKA</t>
-  </si>
-  <si>
-    <t>7439 PATRIKA</t>
-  </si>
-  <si>
-    <t>7440 PATRIKA</t>
-  </si>
-  <si>
-    <t>7441 PATRIKA *-*</t>
-  </si>
-  <si>
-    <t>7442 PATRIKA</t>
-  </si>
-  <si>
-    <t>7443 PATRIKA</t>
-  </si>
-  <si>
-    <t>7444 PATRIKA</t>
-  </si>
-  <si>
-    <t>7445 PATRIKA</t>
-  </si>
-  <si>
-    <t>7446 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>7447 PATRIKA</t>
-  </si>
-  <si>
-    <t>7448 PATRIKA</t>
-  </si>
-  <si>
-    <t>7449 PATRIKA</t>
-  </si>
-  <si>
-    <t>7450 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>7451 PATRIKA (ANE WALA)</t>
-  </si>
-  <si>
-    <t>7452 PATRIKA (ANE WALA)</t>
-  </si>
-  <si>
-    <t>9001 CARD (O.C.)</t>
+    <t>4251 PATRIKA (JC) (5342)</t>
+  </si>
+  <si>
+    <t>4252 PATRIKA (5207)</t>
+  </si>
+  <si>
+    <t>4253 PATRIKA (ANE WALA) (5206)</t>
+  </si>
+  <si>
+    <t>4254 PATRIKA (4210) (10273/10277)</t>
+  </si>
+  <si>
+    <t>4255 PATRIKA - B (DCU) (AS-02 (B))</t>
+  </si>
+  <si>
+    <t>4255 PATRIKA (JC) (AS-02 (NEW))</t>
+  </si>
+  <si>
+    <t>4256 PATRIKA (JC) *-* (1352 VV)</t>
+  </si>
+  <si>
+    <t>4257 PATRIKA (82)</t>
+  </si>
+  <si>
+    <t>4258 PATRIKA (JC) (1129)</t>
+  </si>
+  <si>
+    <t>4259 PATRIKA (JC) (101 SBC)</t>
+  </si>
+  <si>
+    <t>4260 PATRIKA (1102)</t>
+  </si>
+  <si>
+    <t>4261 PATRIKA (JC) (959)</t>
+  </si>
+  <si>
+    <t>4262 PATRIKA (JC) (S-201 GANESH JI)</t>
+  </si>
+  <si>
+    <t>4263 PATRIKA (JC) (2571)</t>
+  </si>
+  <si>
+    <t>4264 PATRIKA (DCU) (1351)</t>
+  </si>
+  <si>
+    <t>4265 PATRIKA (83)</t>
+  </si>
+  <si>
+    <t>4266 PATRIKA (25-145)</t>
+  </si>
+  <si>
+    <t>4267 PATRIKA (JC) (25-046)</t>
+  </si>
+  <si>
+    <t>4268 PATRIKA (JC) *-* (S-296)</t>
+  </si>
+  <si>
+    <t>4269 PATRIKA (111 SBC)</t>
+  </si>
+  <si>
+    <t>4270 PATRIKA (1151 GGN)</t>
+  </si>
+  <si>
+    <t>4271 PATRIKA (JC) (25216)</t>
+  </si>
+  <si>
+    <t>4272 PATRIKA (JC) (1231 SBC CRM)</t>
+  </si>
+  <si>
+    <t>4273 PATRIKA (2547)</t>
+  </si>
+  <si>
+    <t>4274 PATRIKA (JC) (25369)</t>
+  </si>
+  <si>
+    <t>4275 PATRIKA (25367)</t>
+  </si>
+  <si>
+    <t>4276 PATRIKA (JC) *-* (2632)</t>
+  </si>
+  <si>
+    <t>4277 PATRIKA (JC) *-* (25365)</t>
+  </si>
+  <si>
+    <t>4278 PATRIKA (25368)</t>
+  </si>
+  <si>
+    <t>4279 PATRIKA (1031)</t>
+  </si>
+  <si>
+    <t>4280 PATRIKA (25301)</t>
+  </si>
+  <si>
+    <t>4281 PATRIKA (25312 MYRA)</t>
+  </si>
+  <si>
+    <t>4282 PATRIKA (3117)</t>
+  </si>
+  <si>
+    <t>4283 PATRIKA - B (YELLOW) (3116-YLW)</t>
+  </si>
+  <si>
+    <t>4283 PATRIKA (GOLDEN) (3116)</t>
+  </si>
+  <si>
+    <t>4284 PATRIKA (1173 VV)</t>
+  </si>
+  <si>
+    <t>4285 PATRIKA (JC) *-* (4626)</t>
+  </si>
+  <si>
+    <t>4286 PATRIKA (5254  RJN)</t>
+  </si>
+  <si>
+    <t>4287 PATRIKA (25402)</t>
+  </si>
+  <si>
+    <t>4288 PATRIKA (10001 NEW)</t>
+  </si>
+  <si>
+    <t>4289 PATRIKA (10002 NEW)</t>
+  </si>
+  <si>
+    <t>4290 PATRIKA (316 MYRA)</t>
+  </si>
+  <si>
+    <t>4291 PATRIKA (25401)</t>
+  </si>
+  <si>
+    <t>4292 PATRIKA (25311)</t>
+  </si>
+  <si>
+    <t>4293 PATRIKA (25312)</t>
+  </si>
+  <si>
+    <t>4294 PATRIKA (5273)</t>
+  </si>
+  <si>
+    <t>4295 PATRIKA (ANE W H) (286-A)</t>
+  </si>
+  <si>
+    <t>4296 PATRIKA (ANE WALA) (1407)</t>
+  </si>
+  <si>
+    <t>4297 PATRIKA (306)</t>
+  </si>
+  <si>
+    <t>4298 PATRIKA (5501)</t>
+  </si>
+  <si>
+    <t>4299 PATRIKA (2011)</t>
+  </si>
+  <si>
+    <t>4300 PATRIKA (25314)</t>
+  </si>
+  <si>
+    <t>4301 PATRIKA (25315)</t>
+  </si>
+  <si>
+    <t>4302 PATRIKA (1402)</t>
+  </si>
+  <si>
+    <t>4303 PATRIKA (JC) (1234*-M)</t>
+  </si>
+  <si>
+    <t>4304 PATRIKA (5172)</t>
+  </si>
+  <si>
+    <t>4305 PATRIKA (25313)</t>
+  </si>
+  <si>
+    <t>4306 PATRIKA (JC) (427 LOTUS)</t>
+  </si>
+  <si>
+    <t>4307 PATRIKA (BALAJI 5202)</t>
+  </si>
+  <si>
+    <t>4308 PATRIKA (LOTUS 430)</t>
+  </si>
+  <si>
+    <t>4309 PATRIKA (DCU) (3751 Patta)</t>
+  </si>
+  <si>
+    <t>4310 PATRIKA (DCU) (3752 Swastik)</t>
+  </si>
+  <si>
+    <t>4311 PATRIKA (DCU) (251 KBC)</t>
+  </si>
+  <si>
+    <t>4312 PATRIKA (DCU) (273-A)</t>
+  </si>
+  <si>
+    <t>5051 PATRIKA *-* (5087)</t>
+  </si>
+  <si>
+    <t>5052 PATRIKA (5295)</t>
+  </si>
+  <si>
+    <t>5053 PATRIKA (5213)</t>
+  </si>
+  <si>
+    <t>5054 PATRIKA *-* (6000) (25/162)</t>
+  </si>
+  <si>
+    <t>5055 PATRIKA (25/272)</t>
+  </si>
+  <si>
+    <t>5056 PATRIKA (JC) (25/271)</t>
+  </si>
+  <si>
+    <t>5057 PATRIKA (25/171)</t>
+  </si>
+  <si>
+    <t>5058 PATRIKA (8802)</t>
+  </si>
+  <si>
+    <t>5059 PATRIKA (8803)</t>
+  </si>
+  <si>
+    <t>5060 PATRIKA (JC) (7713)</t>
+  </si>
+  <si>
+    <t>5061 PATRIKA (DCU) (1405)</t>
+  </si>
+  <si>
+    <t>5062 PATRIKA (7705)</t>
+  </si>
+  <si>
+    <t>5063 PATRIKA (2522 GE)</t>
+  </si>
+  <si>
+    <t>5064 PATRIKA (2517 GE)</t>
+  </si>
+  <si>
+    <t>5065 PATRIKA (2527)</t>
+  </si>
+  <si>
+    <t>5066 PATRIKA (2536)</t>
+  </si>
+  <si>
+    <t>5067 PATRIKA (JC) (S-301)</t>
+  </si>
+  <si>
+    <t>5068 PATRIKA (DCU) (S-305)</t>
+  </si>
+  <si>
+    <t>5069 PATRIKA (JC) (1103)</t>
+  </si>
+  <si>
+    <t>5070 PATRIKA (JC) (2156  YELLOW)</t>
+  </si>
+  <si>
+    <t>5071 PATRIKA *-* (741)</t>
+  </si>
+  <si>
+    <t>5072 PATRIKA (5347 DIRECT)</t>
+  </si>
+  <si>
+    <t>5073 PATRIKA *-* (3161)</t>
+  </si>
+  <si>
+    <t>5074 PATRIKA (1151 VV)</t>
+  </si>
+  <si>
+    <t>5075 PATRIKA (JC) (25-082)</t>
+  </si>
+  <si>
+    <t>5076 PATRIKA (JC) (3701 SBC)</t>
+  </si>
+  <si>
+    <t>5077 PATRIKA (2081)</t>
+  </si>
+  <si>
+    <t>5078 PATRIKA (DCU) (2156 CREAM)</t>
+  </si>
+  <si>
+    <t>5079 PATRIKA (ANE WALA) (296-A (NEHA)</t>
+  </si>
+  <si>
+    <t>5080 PATRIKA (2501 GE NEW)</t>
+  </si>
+  <si>
+    <t>5081 PATRIKA (2520 GE)</t>
+  </si>
+  <si>
+    <t>5083 PATRIKA (5267)</t>
+  </si>
+  <si>
+    <t>5084 PATRIKA (5258 RJ)</t>
+  </si>
+  <si>
+    <t>5085 PATRIKA (2023)</t>
+  </si>
+  <si>
+    <t>5086 PATRIKA (JC) *-* (942)</t>
+  </si>
+  <si>
+    <t>5087 PATRIKA (JC) (2206)</t>
+  </si>
+  <si>
+    <t>5088 PATRIKA (25214)</t>
+  </si>
+  <si>
+    <t>5089 PATRIKA (2061 SBC)</t>
+  </si>
+  <si>
+    <t>5090 PATRIKA (5236 RJ)</t>
+  </si>
+  <si>
+    <t>5091 PATRIKA (JC) (1411 KBC)</t>
+  </si>
+  <si>
+    <t>5092 PATRIKA (05 NAVIN BHAI)</t>
+  </si>
+  <si>
+    <t>5093 PATRIKA (5400) (5350)</t>
+  </si>
+  <si>
+    <t>5094 PATRIKA (5251)</t>
+  </si>
+  <si>
+    <t>5095 PATRIKA (5240)</t>
+  </si>
+  <si>
+    <t>5096 PATRIKA (25316)</t>
+  </si>
+  <si>
+    <t>5097 PATRIKA (25321)</t>
+  </si>
+  <si>
+    <t>5098 PATRIKA *-* (857)</t>
+  </si>
+  <si>
+    <t>5099 PATRIKA *-* (852 DHANESH)</t>
+  </si>
+  <si>
+    <t>5100 PATRIKA (DCU) (5339)</t>
+  </si>
+  <si>
+    <t>5102 PATRIKA (5021) (2456)</t>
+  </si>
+  <si>
+    <t>5103 PATRIKA (2071)</t>
+  </si>
+  <si>
+    <t>5104 PATRIKA (5261 RJND)</t>
+  </si>
+  <si>
+    <t>5105 PATRIKA (JC) (5335)</t>
+  </si>
+  <si>
+    <t>5106 PATRIKA (AN WALA) (253-A / 257-A)</t>
+  </si>
+  <si>
+    <t>5107 PATRIKA (5356 RJ)</t>
+  </si>
+  <si>
+    <t>5108 PATRIKA (5333)</t>
+  </si>
+  <si>
+    <t>5109 PATRIKA (5308)</t>
+  </si>
+  <si>
+    <t>5110 PATRIKA (JC) (AS-402)</t>
+  </si>
+  <si>
+    <t>5111 PATRIKA (JC) (5313)</t>
+  </si>
+  <si>
+    <t>5112 PATRIKA (JC) *-* (25437)</t>
+  </si>
+  <si>
+    <t>5113 PATRIKA (5305)</t>
+  </si>
+  <si>
+    <t>5114 PATRIKA *-* (2091)</t>
+  </si>
+  <si>
+    <t>5115 PATRIKA (DCU) (5363 RJND)</t>
+  </si>
+  <si>
+    <t>5116 PATRIKA (2031)</t>
+  </si>
+  <si>
+    <t>5117 PATRIKA (DCU) (3331)</t>
+  </si>
+  <si>
+    <t>5118 PATRIKA (DCU) (25436)</t>
+  </si>
+  <si>
+    <t>5501 PATRIKA (DCU) (985 PISTA)</t>
+  </si>
+  <si>
+    <t>5502 PATRIKA *-* (5355 NICE)</t>
+  </si>
+  <si>
+    <t>5503 PATRIKA (5186)</t>
+  </si>
+  <si>
+    <t>5504 PATRIKA (JC) (7033)</t>
+  </si>
+  <si>
+    <t>5505 PATRIKA (JC) *-* (2282)</t>
+  </si>
+  <si>
+    <t>5506 PATRIKA *-* (25/122)</t>
+  </si>
+  <si>
+    <t>5507 PATRIKA (JC) (8055 VV)</t>
+  </si>
+  <si>
+    <t>5508 PATRIKA (JC) (612 VV)</t>
+  </si>
+  <si>
+    <t>5509 PATRIKA (JC) (25/072)</t>
+  </si>
+  <si>
+    <t>5510 PATRIKA (JC) *-* (AS-950)</t>
+  </si>
+  <si>
+    <t>5511 PATRIKA (JC) *-* (2528)</t>
+  </si>
+  <si>
+    <t>5512 PATRIKA (JC) (2525 /2552)</t>
+  </si>
+  <si>
+    <t>5513 PATRIKA (2515)</t>
+  </si>
+  <si>
+    <t>5514 PATRIKA (2542)</t>
+  </si>
+  <si>
+    <t>5515 PATRIKA (2523)</t>
+  </si>
+  <si>
+    <t>5516 PATRIKA (JC) *-* (5302 VV)</t>
+  </si>
+  <si>
+    <t>5517 PATRIKA *-* (6301)</t>
+  </si>
+  <si>
+    <t>5518 PATRIKA (JC) *-* (922)</t>
+  </si>
+  <si>
+    <t>5519 PATRIKA *-* (7066)</t>
+  </si>
+  <si>
+    <t>5520 PATRIKA (1054)</t>
+  </si>
+  <si>
+    <t>5521 PATRIKA (JC) *-* (35)</t>
+  </si>
+  <si>
+    <t>5522 PATRIKA (2231)</t>
+  </si>
+  <si>
+    <t>5523 PATRIKA (2232)</t>
+  </si>
+  <si>
+    <t>5524 PATRIKA (DCU) (5382)</t>
+  </si>
+  <si>
+    <t>5525 PATRIKA *-* (5283)</t>
+  </si>
+  <si>
+    <t>5526 PATRIKA (DCU) (NEW LUSTER - 01)</t>
+  </si>
+  <si>
+    <t>5527 PATRIKA (DCU) (NEW LUSTER - 02)</t>
+  </si>
+  <si>
+    <t>5528 PATRIKA *-* (NEW LUSTER - 03)</t>
+  </si>
+  <si>
+    <t>5529 PATRIKA *-* (NEW LUSTER - 04)</t>
+  </si>
+  <si>
+    <t>5530 PATRIKA *-* (NEW LUSTER - 05)</t>
+  </si>
+  <si>
+    <t>5531 PATRIKA (DCU) (NEW LUSTER - 06)</t>
+  </si>
+  <si>
+    <t>5532 PATRIKA *-* (NEW LUSTER - 07)</t>
+  </si>
+  <si>
+    <t>5533 PATRIKA *-* (NEW LUSTER - 08)</t>
+  </si>
+  <si>
+    <t>5534 PATRIKA *-* (NEW LUSTER - 09)</t>
+  </si>
+  <si>
+    <t>5535 PATRIKA (JC) *-* (1007)</t>
+  </si>
+  <si>
+    <t>5537 PATRIKA (JC) (25-052)</t>
+  </si>
+  <si>
+    <t>5538 PATRIKA (JC) *-* (7073)</t>
+  </si>
+  <si>
+    <t>5539 PATRIKA (JC) (2942)</t>
+  </si>
+  <si>
+    <t>5540 PATRIKA *-* (S-96)</t>
+  </si>
+  <si>
+    <t>5541 PATRIKA (JC) (2101)</t>
+  </si>
+  <si>
+    <t>5542 PATRIKA (2261)</t>
+  </si>
+  <si>
+    <t>5543 PATRIKA (2353)</t>
+  </si>
+  <si>
+    <t>5544 PATRIKA *-* (2732)</t>
+  </si>
+  <si>
+    <t>5545 PATRIKA *-* (2791)</t>
+  </si>
+  <si>
+    <t>5546 PATRIKA (718)</t>
+  </si>
+  <si>
+    <t>5547 PATRIKA *-* (S-32)</t>
+  </si>
+  <si>
+    <t>5548 PATRIKA (DCU) (2792)</t>
+  </si>
+  <si>
+    <t>5549 PATRIKA (5261 NICE)</t>
+  </si>
+  <si>
+    <t>5550 PATRIKA *-* (5424)</t>
+  </si>
+  <si>
+    <t>5551 PATRIKA (5231)</t>
+  </si>
+  <si>
+    <t>5552 PATRIKA (JC) *-* (S-163)</t>
+  </si>
+  <si>
+    <t>5553 PATRIKA *-* (5004)</t>
+  </si>
+  <si>
+    <t>5554 PATRIKA (F/G) (5379)</t>
+  </si>
+  <si>
+    <t>5555 PATRIKA (2903)</t>
+  </si>
+  <si>
+    <t>5556 PATRIKA *-* (ANE WALA) (2952)</t>
+  </si>
+  <si>
+    <t>5557 PATRIKA (2312 SBC)</t>
+  </si>
+  <si>
+    <t>5558 PATRIKA *-* (121 NEHA)</t>
+  </si>
+  <si>
+    <t>5559 PATRIKA (1500) (2293)</t>
+  </si>
+  <si>
+    <t>5560 PATRIKA (F/G) *-* (2915)</t>
+  </si>
+  <si>
+    <t>5561 PATRIKA *-* (25358)</t>
+  </si>
+  <si>
+    <t>5562 PATRIKA *-* (ANE WALA) (114-B (NEHA))</t>
+  </si>
+  <si>
+    <t>5563 PATRIKA (5387)</t>
+  </si>
+  <si>
+    <t>5564 PATRIKA (JC) *-* (S-107)</t>
+  </si>
+  <si>
+    <t>5565 PATRIKA (175)</t>
+  </si>
+  <si>
+    <t>5566 PATRIKA *-* (1742-B)</t>
+  </si>
+  <si>
+    <t>5567 PATRIKA (1679)</t>
+  </si>
+  <si>
+    <t>5568 PATRIKA *-* (3002)</t>
+  </si>
+  <si>
+    <t>5569 PATRIKA *-* (S-39)</t>
+  </si>
+  <si>
+    <t>5570 PATRIKA *-* (S-74)</t>
+  </si>
+  <si>
+    <t>5571 PATRIKA *-* (25353)</t>
+  </si>
+  <si>
+    <t>5572 PATRIKA *-* (25351)</t>
+  </si>
+  <si>
+    <t>5573 PATRIKA (2205)</t>
+  </si>
+  <si>
+    <t>5574 PATRIKA (25335)</t>
+  </si>
+  <si>
+    <t>5575 PATRIKA *-* (S-77)</t>
+  </si>
+  <si>
+    <t>5576 PATRIKA (2531)</t>
+  </si>
+  <si>
+    <t>5577 PATRIKA *-* (5808)</t>
+  </si>
+  <si>
+    <t>5578 PATRIKA (JC) *-* (AS-104 / S-50)</t>
+  </si>
+  <si>
+    <t>5579 PATRIKA (JC) *-* (AS-102)</t>
+  </si>
+  <si>
+    <t>5580 PATRIKA (S-326)</t>
+  </si>
+  <si>
+    <t>5581 PATRIKA *-* (3471)</t>
+  </si>
+  <si>
+    <t>5582 PATRIKA *-* (3512 SBC)</t>
+  </si>
+  <si>
+    <t>5583 PATRIKA (3211 SBC)</t>
+  </si>
+  <si>
+    <t>5584 PATRIKA (JC) (2202 SBC)</t>
+  </si>
+  <si>
+    <t>5585 PATRIKA *-* (1201 KBC)</t>
+  </si>
+  <si>
+    <t>5586 PATRIKA *-* (S-51)</t>
+  </si>
+  <si>
+    <t>5587 PATRIKA (2264)</t>
+  </si>
+  <si>
+    <t>5588 PATRIKA (JC) *-* (1006)</t>
+  </si>
+  <si>
+    <t>5589 PATRIKA *-* (25133)</t>
+  </si>
+  <si>
+    <t>5590 PATRIKA (3131 SBC)</t>
+  </si>
+  <si>
+    <t>5591 PATRIKA (DCU) (3735 YLW)</t>
+  </si>
+  <si>
+    <t>5592 PATRIKA *-* (2365)</t>
+  </si>
+  <si>
+    <t>5593 PATRIKA (2803)</t>
+  </si>
+  <si>
+    <t>5594 PATRIKA (JC) (2931)</t>
+  </si>
+  <si>
+    <t>5595 PATRIKA *-* (226)</t>
+  </si>
+  <si>
+    <t>5596 PATRIKA *-* (2541)</t>
+  </si>
+  <si>
+    <t>5597 PATRIKA (JC) *-* (AS-104 (B))</t>
+  </si>
+  <si>
+    <t>5599 PATRIKA *-* (77-B)</t>
+  </si>
+  <si>
+    <t>5600 PATRIKA (JC) (25324)</t>
+  </si>
+  <si>
+    <t>5601 PATRIKA (2771)</t>
+  </si>
+  <si>
+    <t>5602 PATRIKA (3271)</t>
+  </si>
+  <si>
+    <t>5603 PATRIKA *-* (6125)</t>
+  </si>
+  <si>
+    <t>5604 PATRIKA (242-A)</t>
+  </si>
+  <si>
+    <t>5605 PATRIKA (JC) (3102)</t>
+  </si>
+  <si>
+    <t>5606 PATRIKA *-* (ANE WALA) (221-A)</t>
+  </si>
+  <si>
+    <t>5607 PATRIKA (25442)</t>
+  </si>
+  <si>
+    <t>5608 PATRIKA (25440)</t>
+  </si>
+  <si>
+    <t>5609 PATRIKA (993)</t>
+  </si>
+  <si>
+    <t>5610 PATRIKA (JC) (2373)</t>
+  </si>
+  <si>
+    <t>5611 PATRIKA *-* (1211)</t>
+  </si>
+  <si>
+    <t>5612 PATRIKA (DCU) (5276)</t>
+  </si>
+  <si>
+    <t>5613 PATRIKA (JC) (1841-A)</t>
+  </si>
+  <si>
+    <t>5614 PATRIKA *-* (2331)</t>
+  </si>
+  <si>
+    <t>5615 PATRIKA (2111)</t>
+  </si>
+  <si>
+    <t>5616 PATRIKA (DCU) (7069)</t>
+  </si>
+  <si>
+    <t>5617 PATRIKA *-* (7067)</t>
+  </si>
+  <si>
+    <t>5618 PATRIKA (JC) *-* (S-52)</t>
+  </si>
+  <si>
+    <t>5619 PATRIKA (JC) (1131)</t>
+  </si>
+  <si>
+    <t>5620 PATRIKA (JC) (15)</t>
+  </si>
+  <si>
+    <t>5621 PATRIKA (JC) *-* (5297)</t>
+  </si>
+  <si>
+    <t>5622 PATRIKA *-* (25337)</t>
+  </si>
+  <si>
+    <t>5623 PATRIKA (064)</t>
+  </si>
+  <si>
+    <t>5624 PATRIKA (JC) (2753)</t>
+  </si>
+  <si>
+    <t>5625 PATRIKA (DCU) (772)</t>
+  </si>
+  <si>
+    <t>6601 PATRIKA (L) (5164)</t>
+  </si>
+  <si>
+    <t>6602 PATRIKA (5126)</t>
+  </si>
+  <si>
+    <t>6603 PATRIKA (5111)</t>
+  </si>
+  <si>
+    <t>6604 PATRIKA *-* (5196)</t>
+  </si>
+  <si>
+    <t>6605 PATRIKA ANE WALA (5191)</t>
+  </si>
+  <si>
+    <t>6606 PATRIKA (3023)</t>
+  </si>
+  <si>
+    <t>6607 PATRIKA *-* (0523)</t>
+  </si>
+  <si>
+    <t>6608 PATRIKA (95)</t>
+  </si>
+  <si>
+    <t>6609 PATRIKA *-* (3053)</t>
+  </si>
+  <si>
+    <t>6610 PATRIKA *-* (3019)</t>
+  </si>
+  <si>
+    <t>6611 PATRIKA (3017 VV)</t>
+  </si>
+  <si>
+    <t>6612 PATRIKA (3015)</t>
+  </si>
+  <si>
+    <t>6613 PATRIKA (25164)</t>
+  </si>
+  <si>
+    <t>6614 PATRIKA (DCU) (25131)</t>
+  </si>
+  <si>
+    <t>6615 PATRIKA *-* (915 GAGAN)</t>
+  </si>
+  <si>
+    <t>6616 PATRIKA *-* (911 GAGAN)</t>
+  </si>
+  <si>
+    <t>6617 PATRIKA *-* (3422)</t>
+  </si>
+  <si>
+    <t>6618 PATRIKA *-* (3423)</t>
+  </si>
+  <si>
+    <t>6619 PATRIKA *-* (1193)</t>
+  </si>
+  <si>
+    <t>6620 PATRIKA *-* (1045 GGN (PADDING))</t>
+  </si>
+  <si>
+    <t>6621 PATRIKA *-* (7108 (PADDING))</t>
+  </si>
+  <si>
+    <t>6622 PATRIKA *-* (7259 (PADDING))</t>
+  </si>
+  <si>
+    <t>6623 PATRIKA (25184)</t>
+  </si>
+  <si>
+    <t>6624 PATRIKA *-* (25135)</t>
+  </si>
+  <si>
+    <t>6625 PATRIKA *-* (25116)</t>
+  </si>
+  <si>
+    <t>6626 PATRIKA *-* (25161)</t>
+  </si>
+  <si>
+    <t>6627 PATRIKA *-* (25111)</t>
+  </si>
+  <si>
+    <t>6628 PATRIKA *-* (805 SBC)</t>
+  </si>
+  <si>
+    <t>6629 PATRIKA (6525 OLD) *-* (812 NEW SBC)</t>
+  </si>
+  <si>
+    <t>6630 PATRIKA *-* (5510 NICE)</t>
+  </si>
+  <si>
+    <t>6631 PATRIKA (DCU) (OLD AP ITEM)</t>
+  </si>
+  <si>
+    <t>6632 PATRIKA (DCU) (932)</t>
+  </si>
+  <si>
+    <t>6633 PATRIKA *-* (7081 VP)</t>
+  </si>
+  <si>
+    <t>6634 PATRIKA (3562)</t>
+  </si>
+  <si>
+    <t>6635 PATRIKA *-* (S-313)</t>
+  </si>
+  <si>
+    <t>6636 PATRIKA *-* (25183)</t>
+  </si>
+  <si>
+    <t>6637 PATRIKA (25162 GE)</t>
+  </si>
+  <si>
+    <t>6638 PATRIKA *-* (3014)</t>
+  </si>
+  <si>
+    <t>6639 PATRIKA (2291)</t>
+  </si>
+  <si>
+    <t>6640 PATRIKA *-* (5737 PADING)</t>
+  </si>
+  <si>
+    <t>6641 PATRIKA *-* (5435)</t>
+  </si>
+  <si>
+    <t>6642 PATRIKA *-* (5411 RJ)</t>
+  </si>
+  <si>
+    <t>6643 PATRIKA *-* (25380)</t>
+  </si>
+  <si>
+    <t>6644 PATRIKA (DCU) (25132)</t>
+  </si>
+  <si>
+    <t>6645 PATRIKA *-* (3031)</t>
+  </si>
+  <si>
+    <t>6646 PATRIKA *-* (700) (3034)</t>
+  </si>
+  <si>
+    <t>6647 PATRIKA *-* (25382)</t>
+  </si>
+  <si>
+    <t>6648 PATRIKA *-* (5011 (PADDING))</t>
+  </si>
+  <si>
+    <t>6649 PATRIKA *-* (3402)</t>
+  </si>
+  <si>
+    <t>6650 PATRIKA *-* (3431)</t>
+  </si>
+  <si>
+    <t>6651 PATRIKA (3421)</t>
+  </si>
+  <si>
+    <t>6652 PATRIKA *-* (2764 SBC)</t>
+  </si>
+  <si>
+    <t>6653 PATRIKA *-* (ANE WALA) (834 SBC NEW)</t>
+  </si>
+  <si>
+    <t>6654 PATRIKA *-* (3461)</t>
+  </si>
+  <si>
+    <t>6655 PATRIKA *-* (7129 (PADDING))</t>
+  </si>
+  <si>
+    <t>6656 PATRIKA (L) (7113 (PADDING))</t>
+  </si>
+  <si>
+    <t>6657 PATRIKA *-* (563  DHANESH)</t>
+  </si>
+  <si>
+    <t>6658 PATRIKA *-* (5319)</t>
+  </si>
+  <si>
+    <t>6659 PATRIKA (25193 (Padding))</t>
+  </si>
+  <si>
+    <t>6660 PATRIKA (25194 (Padding))</t>
+  </si>
+  <si>
+    <t>6661 PATRIKA *-* (1281)</t>
+  </si>
+  <si>
+    <t>6662 PATRIKA (3424)</t>
+  </si>
+  <si>
+    <t>6663 PATRIKA (7103 (PADDING))</t>
+  </si>
+  <si>
+    <t>6664 PATRIKA *-* (3500) (5823)</t>
+  </si>
+  <si>
+    <t>6665 PATRIKA *-* (603 DHANESH)</t>
+  </si>
+  <si>
+    <t>6666 PATRIKA *-* (1192 KBC)</t>
+  </si>
+  <si>
+    <t>6667 PATRIKA *-* (1192 SBC)</t>
+  </si>
+  <si>
+    <t>6668 PATRIKA (DCU) (8102)</t>
+  </si>
+  <si>
+    <t>6669 PATRIKA (DCU) (6197)</t>
+  </si>
+  <si>
+    <t>6670 PATRIKA *-* (1868)</t>
+  </si>
+  <si>
+    <t>6671 PATRIKA *-* (1872)</t>
+  </si>
+  <si>
+    <t>6672 PATRIKA *-* (6132)</t>
+  </si>
+  <si>
+    <t>6673 PATRIKA (DCU) (6196)</t>
+  </si>
+  <si>
+    <t>6674 PATRIKA (DCU) (1503)</t>
+  </si>
+  <si>
+    <t>6675 PATRIKA *-* (1800) (1282)</t>
+  </si>
+  <si>
+    <t>6676 PATRIKA (DCU) (533 KBC)</t>
+  </si>
+  <si>
+    <t>6677 PATRIKA (DCU) (25191 PADDING)</t>
+  </si>
+  <si>
+    <t>7265 PATRIKA (O.C.) (133)</t>
+  </si>
+  <si>
+    <t>7283 PATRIKA {F} (O.C.) (4148)</t>
+  </si>
+  <si>
+    <t>7287 PATRIKA (O.C.) (1522)</t>
+  </si>
+  <si>
+    <t>7288 PATRIKA (O.C.) (1178)</t>
+  </si>
+  <si>
+    <t>7293 PATRIKA (O.C.) (AS-20)</t>
+  </si>
+  <si>
+    <t>7309 PATRIKA (O.C.) (4087)</t>
+  </si>
+  <si>
+    <t>7312 PATRIKA (O.C.) (SBC 7312)</t>
+  </si>
+  <si>
+    <t>7319 PATRIKA (O.C.) (2204)</t>
+  </si>
+  <si>
+    <t>7332 PATRIKA (O.C.) (2482)</t>
+  </si>
+  <si>
+    <t>7342 PATRIKA (O.C.) (12)</t>
+  </si>
+  <si>
+    <t>7344 PATRIKA (O.C.) (INV B.P. RED (11))</t>
+  </si>
+  <si>
+    <t>7345 PATRIKA (O.C.) (INV B.P. GOLDEN (120) 5)</t>
+  </si>
+  <si>
+    <t>7401 PATRIKA (25/252)</t>
+  </si>
+  <si>
+    <t>7402 PATRIKA (25/264-263)</t>
+  </si>
+  <si>
+    <t>7403 PATRIKA (25/363/863)</t>
+  </si>
+  <si>
+    <t>7404 PATRIKA (25/283)</t>
+  </si>
+  <si>
+    <t>7405 PATRIKA (25/273)</t>
+  </si>
+  <si>
+    <t>7406 PATRIKA (25/172)</t>
+  </si>
+  <si>
+    <t>7407 PATRIKA *-* (7145 VP)</t>
+  </si>
+  <si>
+    <t>7408 PATRIKA (DCU) (25895)</t>
+  </si>
+  <si>
+    <t>7409 PATRIKA (2521)</t>
+  </si>
+  <si>
+    <t>7410 PATRIKA (2526)</t>
+  </si>
+  <si>
+    <t>7411 PATRIKA (2535)</t>
+  </si>
+  <si>
+    <t>7412 PATRIKA (Time Lagega) (84)</t>
+  </si>
+  <si>
+    <t>7413 PATRIKA (2543 OFFSET NEW)</t>
+  </si>
+  <si>
+    <t>7414 PATRIKA (1015 GREEN OFFSET)</t>
+  </si>
+  <si>
+    <t>7415 PATRIKA *-* (3162 SBC)</t>
+  </si>
+  <si>
+    <t>7416 PATRIKA (1800) (2234)</t>
+  </si>
+  <si>
+    <t>7417 PATRIKA (S-201 INV)</t>
+  </si>
+  <si>
+    <t>7418 PATRIKA *-* (1639)</t>
+  </si>
+  <si>
+    <t>7419 PATRIKA (5121)</t>
+  </si>
+  <si>
+    <t>7420 PATRIKA (720)</t>
+  </si>
+  <si>
+    <t>7421 PATRIKA *-* (25-146)</t>
+  </si>
+  <si>
+    <t>7422 PATRIKA (7302)</t>
+  </si>
+  <si>
+    <t>7423 PATRIKA (254 SBC)</t>
+  </si>
+  <si>
+    <t>7424 PATRIKA *-* (25-047)</t>
+  </si>
+  <si>
+    <t>7425 PATRIKA (2082)</t>
+  </si>
+  <si>
+    <t>7426 PATRIKA (F/G) (4052)</t>
+  </si>
+  <si>
+    <t>7427 PATRIKA (2103)</t>
+  </si>
+  <si>
+    <t>7428 PATRIKA (1223 SBC)</t>
+  </si>
+  <si>
+    <t>7429 PATRIKA (F/G) *-* (ANE WALA) (1851 MONARCH)</t>
+  </si>
+  <si>
+    <t>7430 PATRIKA (6310 GE)</t>
+  </si>
+  <si>
+    <t>7431 PATRIKA (2532)</t>
+  </si>
+  <si>
+    <t>7432 PATRIKA (1174)</t>
+  </si>
+  <si>
+    <t>7433 PATRIKA (1034)</t>
+  </si>
+  <si>
+    <t>7434 PATRIKA (2204 INV)</t>
+  </si>
+  <si>
+    <t>7435 PATRIKA (06)</t>
+  </si>
+  <si>
+    <t>7436 PATRIKA (303)</t>
+  </si>
+  <si>
+    <t>7437 PATRIKA (25323 INV)</t>
+  </si>
+  <si>
+    <t>7438 PATRIKA (25413)</t>
+  </si>
+  <si>
+    <t>7439 PATRIKA (2597)</t>
+  </si>
+  <si>
+    <t>7440 PATRIKA (25896)</t>
+  </si>
+  <si>
+    <t>7441 PATRIKA *-* (243-C)</t>
+  </si>
+  <si>
+    <t>7442 PATRIKA (1855)</t>
+  </si>
+  <si>
+    <t>7443 PATRIKA (1044 SBC)</t>
+  </si>
+  <si>
+    <t>7444 PATRIKA (2014)</t>
+  </si>
+  <si>
+    <t>7445 PATRIKA (2006)</t>
+  </si>
+  <si>
+    <t>7446 PATRIKA (DCU) (6106)</t>
+  </si>
+  <si>
+    <t>7447 PATRIKA (GOPAL 32)</t>
+  </si>
+  <si>
+    <t>7448 PATRIKA (2005- G)</t>
+  </si>
+  <si>
+    <t>7449 PATRIKA (5180)</t>
+  </si>
+  <si>
+    <t>7450 PATRIKA (DCU) (3753)</t>
+  </si>
+  <si>
+    <t>7451 PATRIKA (ANE WALA) (273 NEHA)</t>
+  </si>
+  <si>
+    <t>7452 PATRIKA (ANE WALA) (278-B)</t>
+  </si>
+  <si>
+    <t>9001 CARD (O.C.) (2498 Cream)</t>
   </si>
   <si>
     <t>9221 CARDS - YELLOW</t>
@@ -1637,250 +1637,250 @@
     <t>9227 CARDS (9*5 OFFSET)</t>
   </si>
   <si>
-    <t>9228 CARDS (Y)</t>
-  </si>
-  <si>
-    <t>9229 CARDS - B (DCU)</t>
-  </si>
-  <si>
-    <t>9229 CARDS (C)</t>
+    <t>9228 CARDS (Y) (ORANGE WITH ONLY FOIL)</t>
+  </si>
+  <si>
+    <t>9229 CARDS - B (DCU) (GOLDEN WITH GANESH JI &amp; FOIL)</t>
+  </si>
+  <si>
+    <t>9229 CARDS (C) (CREAM WITH GANESH JI &amp; FOIL)</t>
   </si>
   <si>
     <t>9230 (CARD) 9*5 SCREEN</t>
   </si>
   <si>
-    <t>9301 CARDS</t>
-  </si>
-  <si>
-    <t>9302 CARDS</t>
-  </si>
-  <si>
-    <t>9303 CARDS</t>
-  </si>
-  <si>
-    <t>9304 CARDS</t>
-  </si>
-  <si>
-    <t>9305 CARDS (9070) (1500)</t>
-  </si>
-  <si>
-    <t>9306 CARDS</t>
-  </si>
-  <si>
-    <t>9307 CARDS *-* (600</t>
-  </si>
-  <si>
-    <t>9308 CARDS</t>
-  </si>
-  <si>
-    <t>9309 CARDS *-* (ANE WALA)</t>
-  </si>
-  <si>
-    <t>9310 CARDS</t>
-  </si>
-  <si>
-    <t>9311 CARDS</t>
-  </si>
-  <si>
-    <t>9312 CARDS *-*</t>
-  </si>
-  <si>
-    <t>9313 CARDS *-*</t>
-  </si>
-  <si>
-    <t>9314 CARDS</t>
-  </si>
-  <si>
-    <t>9315 CARDS (DCU)</t>
-  </si>
-  <si>
-    <t>9316 CARDS (DCU)</t>
-  </si>
-  <si>
-    <t>9317 CARDS</t>
-  </si>
-  <si>
-    <t>9318 CARDS</t>
-  </si>
-  <si>
-    <t>9319 CARDS</t>
-  </si>
-  <si>
-    <t>9320 CARDS</t>
-  </si>
-  <si>
-    <t>9321 CARDS</t>
-  </si>
-  <si>
-    <t>9322 CARDS *-*</t>
-  </si>
-  <si>
-    <t>9323 CARDS (9005 OLD)</t>
-  </si>
-  <si>
-    <t>9324 CARDS</t>
-  </si>
-  <si>
-    <t>9325 CARDS</t>
-  </si>
-  <si>
-    <t>9326 CARDS</t>
-  </si>
-  <si>
-    <t>9327 CARDS</t>
-  </si>
-  <si>
-    <t>9328 CARDS</t>
-  </si>
-  <si>
-    <t>9329 CARDS</t>
-  </si>
-  <si>
-    <t>9330 CARDS *-*</t>
-  </si>
-  <si>
-    <t>9331 CARDS *-* (ANE WALA)</t>
-  </si>
-  <si>
-    <t>9332 CARDS</t>
-  </si>
-  <si>
-    <t>9333 CARDS (ANE WALA)</t>
-  </si>
-  <si>
-    <t>9334 CARDS</t>
-  </si>
-  <si>
-    <t>9335 CARDS (9003 OLD)</t>
-  </si>
-  <si>
-    <t>9336 CARDS</t>
-  </si>
-  <si>
-    <t>9337 CARDS</t>
-  </si>
-  <si>
-    <t>9338 CARDS</t>
-  </si>
-  <si>
-    <t>9339 CARDS</t>
-  </si>
-  <si>
-    <t>9340 CARDS</t>
-  </si>
-  <si>
-    <t>9341 CARDS</t>
-  </si>
-  <si>
-    <t>9342 CARDS</t>
-  </si>
-  <si>
-    <t>9343 CARDS</t>
-  </si>
-  <si>
-    <t>9344 CARDS</t>
-  </si>
-  <si>
-    <t>9345 CARDS</t>
-  </si>
-  <si>
-    <t>9346 CARDS</t>
-  </si>
-  <si>
-    <t>9347 CARDS</t>
-  </si>
-  <si>
-    <t>9348 CARDS *-*</t>
-  </si>
-  <si>
-    <t>9349 CARDS</t>
-  </si>
-  <si>
-    <t>9350 CARDS *-*</t>
-  </si>
-  <si>
-    <t>9351 CARDS *-*</t>
-  </si>
-  <si>
-    <t>9352 CARDS *-*</t>
-  </si>
-  <si>
-    <t>9353 CARDS</t>
-  </si>
-  <si>
-    <t>9354 CARDS (DCU)</t>
-  </si>
-  <si>
-    <t>9355 CARDS</t>
-  </si>
-  <si>
-    <t>9356 CARDS</t>
-  </si>
-  <si>
-    <t>9357 CARDS</t>
-  </si>
-  <si>
-    <t>9358 CARDS</t>
-  </si>
-  <si>
-    <t>9359 CARDS</t>
-  </si>
-  <si>
-    <t>9360 CARDS *-*</t>
-  </si>
-  <si>
-    <t>9361 CARDS</t>
-  </si>
-  <si>
-    <t>9362 CARDS</t>
-  </si>
-  <si>
-    <t>9363 CARDS *-*</t>
-  </si>
-  <si>
-    <t>9364 CARDS *-*</t>
-  </si>
-  <si>
-    <t>9365 CARDS</t>
-  </si>
-  <si>
-    <t>9366 CARDS</t>
-  </si>
-  <si>
-    <t>9367 CARDS</t>
-  </si>
-  <si>
-    <t>9368 CARDS</t>
-  </si>
-  <si>
-    <t>9369 CARDS</t>
-  </si>
-  <si>
-    <t>9370 CARDS</t>
-  </si>
-  <si>
-    <t>9371 CARDS</t>
-  </si>
-  <si>
-    <t>9372 CARDS</t>
-  </si>
-  <si>
-    <t>9373 CARDS</t>
-  </si>
-  <si>
-    <t>9374 CARDS</t>
-  </si>
-  <si>
-    <t>9375 CARDS</t>
-  </si>
-  <si>
-    <t>9376 CARDS</t>
-  </si>
-  <si>
-    <t>9377 CARDS (DCU)</t>
-  </si>
-  <si>
-    <t>9378 CARDS</t>
+    <t>9301 CARDS (4242)</t>
+  </si>
+  <si>
+    <t>9302 CARDS (5076)</t>
+  </si>
+  <si>
+    <t>9303 CARDS (5080 Pink)</t>
+  </si>
+  <si>
+    <t>9304 CARDS (5083 Blue)</t>
+  </si>
+  <si>
+    <t>9305 CARDS (9070) (1500) (4701 Nice)</t>
+  </si>
+  <si>
+    <t>9306 CARDS (0543 Nice)</t>
+  </si>
+  <si>
+    <t>9307 CARDS *-* (600 (5243 Nice)</t>
+  </si>
+  <si>
+    <t>9308 CARDS (9852)</t>
+  </si>
+  <si>
+    <t>9309 CARDS *-* (ANE WALA) (9561 Vp)</t>
+  </si>
+  <si>
+    <t>9310 CARDS (3103)</t>
+  </si>
+  <si>
+    <t>9311 CARDS (3115)</t>
+  </si>
+  <si>
+    <t>9312 CARDS *-* (208 VV)</t>
+  </si>
+  <si>
+    <t>9313 CARDS *-* (216)</t>
+  </si>
+  <si>
+    <t>9314 CARDS (P-1)</t>
+  </si>
+  <si>
+    <t>9315 CARDS (DCU) (P-2)</t>
+  </si>
+  <si>
+    <t>9316 CARDS (DCU) (P-3)</t>
+  </si>
+  <si>
+    <t>9317 CARDS (P-4)</t>
+  </si>
+  <si>
+    <t>9318 CARDS (25905)</t>
+  </si>
+  <si>
+    <t>9319 CARDS (25906)</t>
+  </si>
+  <si>
+    <t>9320 CARDS (S-20)</t>
+  </si>
+  <si>
+    <t>9321 CARDS (22912 GANESH JI)</t>
+  </si>
+  <si>
+    <t>9322 CARDS *-* (22912 COMMON)</t>
+  </si>
+  <si>
+    <t>9323 CARDS (9005 OLD) (9*5 CREAM FOIL NEW)</t>
+  </si>
+  <si>
+    <t>9324 CARDS (9*5 PINK FOIL NEW)</t>
+  </si>
+  <si>
+    <t>9325 CARDS (5229)</t>
+  </si>
+  <si>
+    <t>9326 CARDS (1601)</t>
+  </si>
+  <si>
+    <t>9327 CARDS (25908)</t>
+  </si>
+  <si>
+    <t>9328 CARDS (2543)</t>
+  </si>
+  <si>
+    <t>9329 CARDS (3606)</t>
+  </si>
+  <si>
+    <t>9330 CARDS *-* (9557)</t>
+  </si>
+  <si>
+    <t>9331 CARDS *-* (ANE WALA) (9560)</t>
+  </si>
+  <si>
+    <t>9332 CARDS (9847)</t>
+  </si>
+  <si>
+    <t>9333 CARDS (ANE WALA) (6042)</t>
+  </si>
+  <si>
+    <t>9334 CARDS (10X6 WHITE (2898))</t>
+  </si>
+  <si>
+    <t>9335 CARDS (9003 OLD) (9*5 WHITE)</t>
+  </si>
+  <si>
+    <t>9336 CARDS (2884)</t>
+  </si>
+  <si>
+    <t>9337 CARDS (1635 AP)</t>
+  </si>
+  <si>
+    <t>9338 CARDS (1637 AP)</t>
+  </si>
+  <si>
+    <t>9339 CARDS (5361)</t>
+  </si>
+  <si>
+    <t>9340 CARDS (5658)</t>
+  </si>
+  <si>
+    <t>9341 CARDS (5497)</t>
+  </si>
+  <si>
+    <t>9342 CARDS (2861)</t>
+  </si>
+  <si>
+    <t>9343 CARDS (9*5 WHTE GE HEAVY)</t>
+  </si>
+  <si>
+    <t>9344 CARDS (689)</t>
+  </si>
+  <si>
+    <t>9345 CARDS (358 KALYANI)</t>
+  </si>
+  <si>
+    <t>9346 CARDS (359)</t>
+  </si>
+  <si>
+    <t>9347 CARDS (2853)</t>
+  </si>
+  <si>
+    <t>9348 CARDS *-* (S-124)</t>
+  </si>
+  <si>
+    <t>9349 CARDS (S-120)</t>
+  </si>
+  <si>
+    <t>9350 CARDS *-* (1632)</t>
+  </si>
+  <si>
+    <t>9351 CARDS *-* (1603)</t>
+  </si>
+  <si>
+    <t>9352 CARDS *-* (1606 AP)</t>
+  </si>
+  <si>
+    <t>9353 CARDS (1618)</t>
+  </si>
+  <si>
+    <t>9354 CARDS (DCU) (345)</t>
+  </si>
+  <si>
+    <t>9355 CARDS (1624)</t>
+  </si>
+  <si>
+    <t>9356 CARDS (2895/2897)</t>
+  </si>
+  <si>
+    <t>9357 CARDS (2872)</t>
+  </si>
+  <si>
+    <t>9358 CARDS (WHITE PATTA)</t>
+  </si>
+  <si>
+    <t>9359 CARDS (PITCH PATTA)</t>
+  </si>
+  <si>
+    <t>9360 CARDS *-* (GOL ANDA)</t>
+  </si>
+  <si>
+    <t>9361 CARDS (25426)</t>
+  </si>
+  <si>
+    <t>9362 CARDS (363)</t>
+  </si>
+  <si>
+    <t>9363 CARDS *-* (1652)</t>
+  </si>
+  <si>
+    <t>9364 CARDS *-* (1612)</t>
+  </si>
+  <si>
+    <t>9365 CARDS (25429)</t>
+  </si>
+  <si>
+    <t>9366 CARDS (25427 GOLDEN)</t>
+  </si>
+  <si>
+    <t>9367 CARDS (5652)</t>
+  </si>
+  <si>
+    <t>9368 CARDS (9*5 SET 25/26 GOLDEN (25425))</t>
+  </si>
+  <si>
+    <t>9369 CARDS (9*5 SET 25/26 YELLOW (25424))</t>
+  </si>
+  <si>
+    <t>9370 CARDS (9*5 SET 25/26 RED (25423))</t>
+  </si>
+  <si>
+    <t>9371 CARDS (3111 VP)</t>
+  </si>
+  <si>
+    <t>9372 CARDS (9*5 YLW SET (2841))</t>
+  </si>
+  <si>
+    <t>9373 CARDS (1482)</t>
+  </si>
+  <si>
+    <t>9374 CARDS (1485)</t>
+  </si>
+  <si>
+    <t>9375 CARDS (1452 WHITE)</t>
+  </si>
+  <si>
+    <t>9376 CARDS (1529 PRINCE)</t>
+  </si>
+  <si>
+    <t>9377 CARDS (DCU) (9*5 SET GREEN (009))</t>
+  </si>
+  <si>
+    <t>9378 CARDS (2892)</t>
   </si>
   <si>
     <t>9379 CARDS - R</t>
@@ -1913,16 +1913,16 @@
     <t>9388 CARDS (DCU)</t>
   </si>
   <si>
-    <t>9389 CARDS</t>
-  </si>
-  <si>
-    <t>9390 CARDS (DCU)</t>
-  </si>
-  <si>
-    <t>9*4 ENVELOPE (SBC)</t>
-  </si>
-  <si>
-    <t>9*5 ENVELOPE (FOIL) SBC</t>
+    <t>9389 CARDS (9147 RJ)</t>
+  </si>
+  <si>
+    <t>9390 CARDS (DCU) (118KBC)</t>
+  </si>
+  <si>
+    <t>9*4 ENVELOPE (SBC) (CHOTA ENVELOPE (60/40 BILL))</t>
+  </si>
+  <si>
+    <t>9*5 ENVELOPE (FOIL) SBC (BADA ENVLP WITH FOIL (60/40 BILL))</t>
   </si>
   <si>
     <t>ACRYLIC NAME PLATE</t>
@@ -1946,37 +1946,37 @@
     <t>POCKET ENVELOPE - 300 NO.</t>
   </si>
   <si>
-    <t>Ri-01 ENVELOPE</t>
-  </si>
-  <si>
-    <t>Ri-02 ENVELOPE</t>
-  </si>
-  <si>
-    <t>Ri-03 ENVELOPE</t>
-  </si>
-  <si>
-    <t>Ri-04 ENVELOPE</t>
-  </si>
-  <si>
-    <t>Ri-05 ENVELOPE</t>
-  </si>
-  <si>
-    <t>Ri-06 ENVELOPE</t>
-  </si>
-  <si>
-    <t>Ri-07 ENVELOPE</t>
-  </si>
-  <si>
-    <t>Ri-08 ENVELOPE</t>
-  </si>
-  <si>
-    <t>Ri-09 ENVELOPE</t>
+    <t>Ri-01 ENVELOPE (LX01)</t>
+  </si>
+  <si>
+    <t>Ri-02 ENVELOPE (LX02)</t>
+  </si>
+  <si>
+    <t>Ri-03 ENVELOPE (LX03)</t>
+  </si>
+  <si>
+    <t>Ri-04 ENVELOPE (LX04)</t>
+  </si>
+  <si>
+    <t>Ri-05 ENVELOPE (LX05)</t>
+  </si>
+  <si>
+    <t>Ri-06 ENVELOPE (LX06)</t>
+  </si>
+  <si>
+    <t>Ri-07 ENVELOPE (LX07)</t>
+  </si>
+  <si>
+    <t>Ri-08 ENVELOPE (LX08)</t>
+  </si>
+  <si>
+    <t>Ri-09 ENVELOPE (LX09)</t>
   </si>
   <si>
     <t>RIBBON (रिबीन)</t>
   </si>
   <si>
-    <t>गोल गणेश / गोल फ्लावर</t>
+    <t>गोल गणेश / गोल फ्लावर (GOL GANESH OR GOL FLOWER)</t>
   </si>
   <si>
     <t>Grand Total</t>
@@ -2509,7 +2509,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
@@ -3750,10 +3750,10 @@
         <v>85</v>
       </c>
       <c r="B82" s="24">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C82" s="25">
-        <v>-0.18</v>
+        <v>-0.19</v>
       </c>
       <c r="D82" s="28"/>
       <c r="E82" s="29"/>
@@ -3763,10 +3763,10 @@
         <v>86</v>
       </c>
       <c r="B83" s="24">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C83" s="25">
-        <v>-0.57999999999999996</v>
+        <v>-0.59</v>
       </c>
       <c r="D83" s="28"/>
       <c r="E83" s="29"/>
@@ -3839,10 +3839,10 @@
         <v>92</v>
       </c>
       <c r="B89" s="24">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C89" s="25">
-        <v>-0.49</v>
+        <v>-0.5</v>
       </c>
       <c r="D89" s="28"/>
       <c r="E89" s="29"/>
@@ -3865,16 +3865,16 @@
         <v>94</v>
       </c>
       <c r="B91" s="24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C91" s="25">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="D91" s="26">
         <v>12.5</v>
       </c>
       <c r="E91" s="27">
-        <v>218.75</v>
+        <v>181.25</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -3984,16 +3984,16 @@
         <v>101</v>
       </c>
       <c r="B98" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C98" s="25">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D98" s="26">
         <v>12.5</v>
       </c>
       <c r="E98" s="27">
-        <v>250</v>
+        <v>237.5</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -4065,16 +4065,16 @@
         <v>106</v>
       </c>
       <c r="B103" s="24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C103" s="25">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="D103" s="26">
         <v>18.5</v>
       </c>
       <c r="E103" s="27">
-        <v>157.25</v>
+        <v>129.5</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -4789,16 +4789,16 @@
         <v>150</v>
       </c>
       <c r="B147" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C147" s="25">
-        <v>38.5</v>
+        <v>36.5</v>
       </c>
       <c r="D147" s="26">
         <v>2.8</v>
       </c>
       <c r="E147" s="27">
-        <v>107.8</v>
+        <v>102.2</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -5084,15 +5084,17 @@
       <c r="A165" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="B165" s="24"/>
+      <c r="B165" s="24">
+        <v>1</v>
+      </c>
       <c r="C165" s="25">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D165" s="26">
         <v>2.6</v>
       </c>
       <c r="E165" s="27">
-        <v>195</v>
+        <v>187.2</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -5694,16 +5696,16 @@
         <v>205</v>
       </c>
       <c r="B202" s="24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C202" s="25">
-        <v>36</v>
+        <v>37.5</v>
       </c>
       <c r="D202" s="26">
         <v>3.8</v>
       </c>
       <c r="E202" s="27">
-        <v>136.80000000000001</v>
+        <v>142.5</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
@@ -5806,15 +5808,17 @@
       <c r="A209" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="B209" s="24"/>
+      <c r="B209" s="24">
+        <v>1</v>
+      </c>
       <c r="C209" s="25">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D209" s="26">
         <v>4.25</v>
       </c>
       <c r="E209" s="27">
-        <v>191.25</v>
+        <v>187</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -5952,16 +5956,16 @@
         <v>221</v>
       </c>
       <c r="B218" s="24">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C218" s="25">
-        <v>39.5</v>
+        <v>37.5</v>
       </c>
       <c r="D218" s="26">
         <v>4.28</v>
       </c>
       <c r="E218" s="27">
-        <v>169.06</v>
+        <v>160.5</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -6890,16 +6894,16 @@
         <v>279</v>
       </c>
       <c r="B276" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C276" s="25">
-        <v>31.5</v>
+        <v>29.5</v>
       </c>
       <c r="D276" s="26">
         <v>5.25</v>
       </c>
       <c r="E276" s="27">
-        <v>165.38</v>
+        <v>154.88</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
@@ -6954,16 +6958,16 @@
         <v>283</v>
       </c>
       <c r="B280" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C280" s="25">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="D280" s="26">
         <v>10</v>
       </c>
       <c r="E280" s="27">
-        <v>145</v>
+        <v>130</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
@@ -7101,16 +7105,16 @@
         <v>292</v>
       </c>
       <c r="B289" s="24">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C289" s="25">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="D289" s="26">
         <v>9</v>
       </c>
       <c r="E289" s="27">
-        <v>157.5</v>
+        <v>144</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
@@ -7135,16 +7139,16 @@
         <v>294</v>
       </c>
       <c r="B291" s="24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C291" s="25">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D291" s="26">
         <v>9</v>
       </c>
       <c r="E291" s="27">
-        <v>99</v>
+        <v>72</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
@@ -7316,16 +7320,16 @@
         <v>305</v>
       </c>
       <c r="B302" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C302" s="25">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D302" s="26">
         <v>5.7</v>
       </c>
       <c r="E302" s="27">
-        <v>148.19999999999999</v>
+        <v>108.3</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
@@ -7401,16 +7405,16 @@
         <v>310</v>
       </c>
       <c r="B307" s="24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C307" s="25">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D307" s="26">
         <v>9.1999999999999993</v>
       </c>
       <c r="E307" s="27">
-        <v>266.8</v>
+        <v>230</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
@@ -7640,16 +7644,16 @@
         <v>325</v>
       </c>
       <c r="B322" s="24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C322" s="25">
-        <v>-10</v>
+        <v>-11.5</v>
       </c>
       <c r="D322" s="26">
         <v>6.6</v>
       </c>
       <c r="E322" s="27">
-        <v>-66</v>
+        <v>-75.900000000000006</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
@@ -7725,16 +7729,16 @@
         <v>330</v>
       </c>
       <c r="B327" s="24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C327" s="25">
-        <v>20.5</v>
+        <v>18.5</v>
       </c>
       <c r="D327" s="26">
         <v>4.5</v>
       </c>
       <c r="E327" s="27">
-        <v>92.25</v>
+        <v>83.25</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
@@ -7986,15 +7990,17 @@
       <c r="A343" s="23" t="s">
         <v>346</v>
       </c>
-      <c r="B343" s="24"/>
+      <c r="B343" s="24">
+        <v>1</v>
+      </c>
       <c r="C343" s="25">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D343" s="26">
         <v>5.7</v>
       </c>
       <c r="E343" s="27">
-        <v>79.8</v>
+        <v>74.099999999999994</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
@@ -8062,16 +8068,16 @@
         <v>351</v>
       </c>
       <c r="B348" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C348" s="25">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="D348" s="26">
         <v>7</v>
       </c>
       <c r="E348" s="27">
-        <v>14</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
@@ -8898,16 +8904,16 @@
         <v>403</v>
       </c>
       <c r="B400" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C400" s="25">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D400" s="26">
         <v>16.3</v>
       </c>
       <c r="E400" s="27">
-        <v>260.8</v>
+        <v>211.9</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
@@ -9542,17 +9548,11 @@
         <v>443</v>
       </c>
       <c r="B440" s="24">
-        <v>1</v>
-      </c>
-      <c r="C440" s="25">
         <v>3</v>
       </c>
-      <c r="D440" s="26">
-        <v>32</v>
-      </c>
-      <c r="E440" s="27">
-        <v>96</v>
-      </c>
+      <c r="C440" s="29"/>
+      <c r="D440" s="28"/>
+      <c r="E440" s="29"/>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" s="23" t="s">
@@ -10158,16 +10158,16 @@
         <v>481</v>
       </c>
       <c r="B478" s="24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C478" s="25">
-        <v>61.5</v>
+        <v>58</v>
       </c>
       <c r="D478" s="26">
         <v>3</v>
       </c>
       <c r="E478" s="27">
-        <v>184.5</v>
+        <v>174</v>
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.25">
@@ -10175,16 +10175,16 @@
         <v>482</v>
       </c>
       <c r="B479" s="24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C479" s="25">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D479" s="26">
         <v>3.8</v>
       </c>
       <c r="E479" s="27">
-        <v>136.80000000000001</v>
+        <v>125.4</v>
       </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.25">
@@ -10367,16 +10367,16 @@
         <v>494</v>
       </c>
       <c r="B491" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C491" s="25">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="D491" s="26">
         <v>4.5</v>
       </c>
       <c r="E491" s="27">
-        <v>87.75</v>
+        <v>78.75</v>
       </c>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.25">
@@ -10384,16 +10384,16 @@
         <v>495</v>
       </c>
       <c r="B492" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C492" s="25">
-        <v>22</v>
+        <v>20.5</v>
       </c>
       <c r="D492" s="26">
         <v>6.5</v>
       </c>
       <c r="E492" s="27">
-        <v>143</v>
+        <v>133.25</v>
       </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.25">
@@ -10733,16 +10733,16 @@
         <v>516</v>
       </c>
       <c r="B513" s="24">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C513" s="25">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="D513" s="26">
         <v>3.5</v>
       </c>
       <c r="E513" s="27">
-        <v>68.25</v>
+        <v>61.25</v>
       </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.25">
@@ -10929,16 +10929,16 @@
         <v>528</v>
       </c>
       <c r="B525" s="24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C525" s="25">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D525" s="26">
         <v>1.8</v>
       </c>
       <c r="E525" s="27">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.25">
@@ -10946,16 +10946,16 @@
         <v>529</v>
       </c>
       <c r="B526" s="24">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C526" s="25">
-        <v>411.5</v>
+        <v>408.5</v>
       </c>
       <c r="D526" s="26">
         <v>1.5</v>
       </c>
       <c r="E526" s="27">
-        <v>617.25</v>
+        <v>612.75</v>
       </c>
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.25">
@@ -11201,16 +11201,16 @@
         <v>546</v>
       </c>
       <c r="B543" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C543" s="25">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D543" s="26">
         <v>5.5</v>
       </c>
       <c r="E543" s="27">
-        <v>115.5</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.25">
@@ -11465,16 +11465,16 @@
         <v>562</v>
       </c>
       <c r="B559" s="24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C559" s="25">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D559" s="26">
         <v>1.5</v>
       </c>
       <c r="E559" s="27">
-        <v>88.5</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="560" spans="1:5" x14ac:dyDescent="0.25">
@@ -11793,16 +11793,16 @@
         <v>582</v>
       </c>
       <c r="B579" s="24">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C579" s="25">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D579" s="26">
         <v>2.85</v>
       </c>
       <c r="E579" s="27">
-        <v>45.6</v>
+        <v>39.9</v>
       </c>
     </row>
     <row r="580" spans="1:5" x14ac:dyDescent="0.25">
@@ -11923,16 +11923,16 @@
         <v>590</v>
       </c>
       <c r="B587" s="24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C587" s="25">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="D587" s="26">
         <v>4.8</v>
       </c>
       <c r="E587" s="27">
-        <v>88.8</v>
+        <v>79.2</v>
       </c>
     </row>
     <row r="588" spans="1:5" x14ac:dyDescent="0.25">
@@ -12021,15 +12021,9 @@
       <c r="B593" s="24">
         <v>18</v>
       </c>
-      <c r="C593" s="25">
-        <v>2.5</v>
-      </c>
-      <c r="D593" s="26">
-        <v>3.1</v>
-      </c>
-      <c r="E593" s="27">
-        <v>7.75</v>
-      </c>
+      <c r="C593" s="29"/>
+      <c r="D593" s="28"/>
+      <c r="E593" s="29"/>
     </row>
     <row r="594" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A594" s="23" t="s">
@@ -12319,16 +12313,16 @@
         <v>614</v>
       </c>
       <c r="B611" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C611" s="25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D611" s="26">
         <v>4.25</v>
       </c>
       <c r="E611" s="27">
-        <v>102</v>
+        <v>97.75</v>
       </c>
     </row>
     <row r="612" spans="1:5" x14ac:dyDescent="0.25">
@@ -12415,10 +12409,10 @@
         <v>620</v>
       </c>
       <c r="B617" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C617" s="25">
-        <v>42</v>
+        <v>41.5</v>
       </c>
       <c r="D617" s="28"/>
       <c r="E617" s="29"/>
@@ -12452,10 +12446,10 @@
         <v>623</v>
       </c>
       <c r="B620" s="24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C620" s="25">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D620" s="28"/>
       <c r="E620" s="29"/>
@@ -12524,16 +12518,16 @@
         <v>629</v>
       </c>
       <c r="B626" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C626" s="25">
-        <v>55</v>
+        <v>54.5</v>
       </c>
       <c r="D626" s="26">
         <v>2.77</v>
       </c>
       <c r="E626" s="27">
-        <v>152.22999999999999</v>
+        <v>150.84</v>
       </c>
     </row>
     <row r="627" spans="1:5" x14ac:dyDescent="0.25">
@@ -12855,11 +12849,11 @@
       </c>
       <c r="B648" s="31"/>
       <c r="C648" s="32">
-        <v>18122.79</v>
+        <v>18034.259999999998</v>
       </c>
       <c r="D648" s="33"/>
       <c r="E648" s="34">
-        <v>74919.02</v>
+        <v>74360.22</v>
       </c>
     </row>
   </sheetData>

--- a/data/website stock.xlsx
+++ b/data/website stock.xlsx
@@ -35,7 +35,7 @@
     <t>Stock Group Summary</t>
   </si>
   <si>
-    <t>1-Jul-25 to 1-Nov-25</t>
+    <t>1-Jul-25 to 24-Oct-25</t>
   </si>
   <si>
     <t/>
@@ -569,10 +569,10 @@
     <t>4294 PATRIKA (5273)</t>
   </si>
   <si>
-    <t>4295 PATRIKA (ANE W H) (286-A)</t>
-  </si>
-  <si>
-    <t>4296 PATRIKA (ANE WALA) (1407)</t>
+    <t>4295 PATRIKA (286-A)</t>
+  </si>
+  <si>
+    <t>4296 PATRIKA (1407)</t>
   </si>
   <si>
     <t>4297 PATRIKA (306)</t>
@@ -632,7 +632,7 @@
     <t>5053 PATRIKA (5213)</t>
   </si>
   <si>
-    <t>5054 PATRIKA *-* (6000) (25/162)</t>
+    <t>5054 PATRIKA *-* (25/162)</t>
   </si>
   <si>
     <t>5055 PATRIKA (25/272)</t>
@@ -707,7 +707,7 @@
     <t>5078 PATRIKA (DCU) (2156 CREAM)</t>
   </si>
   <si>
-    <t>5079 PATRIKA (ANE WALA) (296-A (NEHA)</t>
+    <t>5079 PATRIKA (296-A (NEHA)</t>
   </si>
   <si>
     <t>5080 PATRIKA (2501 GE NEW)</t>
@@ -746,7 +746,7 @@
     <t>5092 PATRIKA (05 NAVIN BHAI)</t>
   </si>
   <si>
-    <t>5093 PATRIKA (5400) (5350)</t>
+    <t>5093 PATRIKA (5350)</t>
   </si>
   <si>
     <t>5094 PATRIKA (5251)</t>
@@ -782,7 +782,7 @@
     <t>5105 PATRIKA (JC) (5335)</t>
   </si>
   <si>
-    <t>5106 PATRIKA (AN WALA) (253-A / 257-A)</t>
+    <t>5106 PATRIKA (253-A / 257-A)</t>
   </si>
   <si>
     <t>5107 PATRIKA (5356 RJ)</t>
@@ -983,7 +983,7 @@
     <t>5555 PATRIKA (2903)</t>
   </si>
   <si>
-    <t>5556 PATRIKA *-* (ANE WALA) (2952)</t>
+    <t>5556 PATRIKA *-* (2952)</t>
   </si>
   <si>
     <t>5557 PATRIKA (2312 SBC)</t>
@@ -992,7 +992,7 @@
     <t>5558 PATRIKA *-* (121 NEHA)</t>
   </si>
   <si>
-    <t>5559 PATRIKA (1500) (2293)</t>
+    <t>5559 PATRIKA (2293)</t>
   </si>
   <si>
     <t>5560 PATRIKA (F/G) *-* (2915)</t>
@@ -1001,7 +1001,7 @@
     <t>5561 PATRIKA *-* (25358)</t>
   </si>
   <si>
-    <t>5562 PATRIKA *-* (ANE WALA) (114-B (NEHA))</t>
+    <t>5562 PATRIKA *-* (114-B (NEHA))</t>
   </si>
   <si>
     <t>5563 PATRIKA (5387)</t>
@@ -1130,7 +1130,7 @@
     <t>5605 PATRIKA (JC) (3102)</t>
   </si>
   <si>
-    <t>5606 PATRIKA *-* (ANE WALA) (221-A)</t>
+    <t>5606 PATRIKA *-* (221-A)</t>
   </si>
   <si>
     <t>5607 PATRIKA (25442)</t>
@@ -1202,7 +1202,7 @@
     <t>6604 PATRIKA *-* (5196)</t>
   </si>
   <si>
-    <t>6605 PATRIKA ANE WALA (5191)</t>
+    <t>6605 PATRIKA (5191)</t>
   </si>
   <si>
     <t>6606 PATRIKA (3023)</t>
@@ -1325,7 +1325,7 @@
     <t>6645 PATRIKA *-* (3031)</t>
   </si>
   <si>
-    <t>6646 PATRIKA *-* (700) (3034)</t>
+    <t>6646 PATRIKA *-* (3034)</t>
   </si>
   <si>
     <t>6647 PATRIKA *-* (25382)</t>
@@ -1346,7 +1346,7 @@
     <t>6652 PATRIKA *-* (2764 SBC)</t>
   </si>
   <si>
-    <t>6653 PATRIKA *-* (ANE WALA) (834 SBC NEW)</t>
+    <t>6653 PATRIKA *-* (834 SBC NEW)</t>
   </si>
   <si>
     <t>6654 PATRIKA *-* (3461)</t>
@@ -1379,7 +1379,7 @@
     <t>6663 PATRIKA (7103 (PADDING))</t>
   </si>
   <si>
-    <t>6664 PATRIKA *-* (3500) (5823)</t>
+    <t>6664 PATRIKA *-* (5823)</t>
   </si>
   <si>
     <t>6665 PATRIKA *-* (603 DHANESH)</t>
@@ -1412,7 +1412,7 @@
     <t>6674 PATRIKA (DCU) (1503)</t>
   </si>
   <si>
-    <t>6675 PATRIKA *-* (1800) (1282)</t>
+    <t>6675 PATRIKA *-* (1282)</t>
   </si>
   <si>
     <t>6676 PATRIKA (DCU) (533 KBC)</t>
@@ -1502,7 +1502,7 @@
     <t>7415 PATRIKA *-* (3162 SBC)</t>
   </si>
   <si>
-    <t>7416 PATRIKA (1800) (2234)</t>
+    <t>7416 PATRIKA (2234)</t>
   </si>
   <si>
     <t>7417 PATRIKA (S-201 INV)</t>
@@ -1541,7 +1541,7 @@
     <t>7428 PATRIKA (1223 SBC)</t>
   </si>
   <si>
-    <t>7429 PATRIKA (F/G) *-* (ANE WALA) (1851 MONARCH)</t>
+    <t>7429 PATRIKA (F/G) *-* (1851 MONARCH)</t>
   </si>
   <si>
     <t>7430 PATRIKA (6310 GE)</t>
@@ -1607,10 +1607,10 @@
     <t>7450 PATRIKA (DCU) (3753)</t>
   </si>
   <si>
-    <t>7451 PATRIKA (ANE WALA) (273 NEHA)</t>
-  </si>
-  <si>
-    <t>7452 PATRIKA (ANE WALA) (278-B)</t>
+    <t>7451 PATRIKA (273 NEHA)</t>
+  </si>
+  <si>
+    <t>7452 PATRIKA (278-B)</t>
   </si>
   <si>
     <t>9001 CARD (O.C.) (2498 Cream)</t>
@@ -1661,13 +1661,13 @@
     <t>9304 CARDS (5083 Blue)</t>
   </si>
   <si>
-    <t>9305 CARDS (9070) (1500) (4701 Nice)</t>
+    <t>9305 CARDS (9070) (4701 Nice)</t>
   </si>
   <si>
     <t>9306 CARDS (0543 Nice)</t>
   </si>
   <si>
-    <t>9307 CARDS *-* (600 (5243 Nice)</t>
+    <t>9307 CARDS *-* (5243 Nice)</t>
   </si>
   <si>
     <t>9308 CARDS (9852)</t>
@@ -2848,16 +2848,16 @@
         <v>27</v>
       </c>
       <c r="B24" s="24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C24" s="25">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="D24" s="26">
         <v>1.65</v>
       </c>
       <c r="E24" s="27">
-        <v>15.68</v>
+        <v>12.38</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -2880,16 +2880,16 @@
         <v>29</v>
       </c>
       <c r="B26" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C26" s="25">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D26" s="26">
         <v>2</v>
       </c>
       <c r="E26" s="27">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3016,16 +3016,16 @@
         <v>37</v>
       </c>
       <c r="B34" s="24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C34" s="25">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D34" s="26">
         <v>2.2999999999999998</v>
       </c>
       <c r="E34" s="27">
-        <v>400.2</v>
+        <v>388.7</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -3033,16 +3033,16 @@
         <v>38</v>
       </c>
       <c r="B35" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C35" s="25">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D35" s="26">
         <v>2.2999999999999998</v>
       </c>
       <c r="E35" s="27">
-        <v>395.6</v>
+        <v>384.1</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -3800,10 +3800,10 @@
         <v>89</v>
       </c>
       <c r="B86" s="24">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C86" s="25">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="D86" s="28"/>
       <c r="E86" s="29"/>
@@ -3813,10 +3813,10 @@
         <v>90</v>
       </c>
       <c r="B87" s="24">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C87" s="25">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="D87" s="28"/>
       <c r="E87" s="29"/>
@@ -3865,16 +3865,16 @@
         <v>94</v>
       </c>
       <c r="B91" s="24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C91" s="25">
-        <v>14.5</v>
+        <v>9.5</v>
       </c>
       <c r="D91" s="26">
         <v>12.5</v>
       </c>
       <c r="E91" s="27">
-        <v>181.25</v>
+        <v>118.75</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -3899,16 +3899,16 @@
         <v>96</v>
       </c>
       <c r="B93" s="24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C93" s="25">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="D93" s="26">
         <v>12.5</v>
       </c>
       <c r="E93" s="27">
-        <v>193.75</v>
+        <v>168.75</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -4561,16 +4561,16 @@
         <v>136</v>
       </c>
       <c r="B133" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C133" s="25">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="D133" s="26">
         <v>3.25</v>
       </c>
       <c r="E133" s="27">
-        <v>43.88</v>
+        <v>37.380000000000003</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -4806,16 +4806,16 @@
         <v>151</v>
       </c>
       <c r="B148" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C148" s="25">
-        <v>27.5</v>
+        <v>22.5</v>
       </c>
       <c r="D148" s="26">
         <v>2.65</v>
       </c>
       <c r="E148" s="27">
-        <v>72.88</v>
+        <v>59.63</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -4953,16 +4953,16 @@
         <v>160</v>
       </c>
       <c r="B157" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C157" s="25">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D157" s="26">
         <v>4.5</v>
       </c>
       <c r="E157" s="27">
-        <v>184.5</v>
+        <v>171</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -5196,16 +5196,16 @@
         <v>175</v>
       </c>
       <c r="B172" s="24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C172" s="25">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D172" s="26">
         <v>2.7</v>
       </c>
       <c r="E172" s="27">
-        <v>59.4</v>
+        <v>48.6</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -5213,16 +5213,16 @@
         <v>176</v>
       </c>
       <c r="B173" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C173" s="25">
-        <v>29.5</v>
+        <v>124.5</v>
       </c>
       <c r="D173" s="26">
         <v>2.2999999999999998</v>
       </c>
       <c r="E173" s="27">
-        <v>67.849999999999994</v>
+        <v>286.35000000000002</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -5281,16 +5281,16 @@
         <v>180</v>
       </c>
       <c r="B177" s="24">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C177" s="25">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D177" s="26">
         <v>3.88</v>
       </c>
       <c r="E177" s="27">
-        <v>186</v>
+        <v>155</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -5301,13 +5301,13 @@
         <v>7</v>
       </c>
       <c r="C178" s="25">
-        <v>0.5</v>
+        <v>99.5</v>
       </c>
       <c r="D178" s="26">
-        <v>3.26</v>
+        <v>3.25</v>
       </c>
       <c r="E178" s="27">
-        <v>1.63</v>
+        <v>323.38</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -5315,16 +5315,16 @@
         <v>182</v>
       </c>
       <c r="B179" s="24">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C179" s="25">
-        <v>-1</v>
+        <v>60</v>
       </c>
       <c r="D179" s="26">
         <v>3.5</v>
       </c>
       <c r="E179" s="27">
-        <v>-3.5</v>
+        <v>210</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
@@ -5466,16 +5466,16 @@
         <v>191</v>
       </c>
       <c r="B188" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C188" s="25">
-        <v>140.5</v>
+        <v>137.5</v>
       </c>
       <c r="D188" s="26">
         <v>3.5</v>
       </c>
       <c r="E188" s="27">
-        <v>491.75</v>
+        <v>481.25</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -5628,16 +5628,16 @@
         <v>201</v>
       </c>
       <c r="B198" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C198" s="25">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D198" s="26">
         <v>4.8</v>
       </c>
       <c r="E198" s="27">
-        <v>52.8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -5645,16 +5645,16 @@
         <v>202</v>
       </c>
       <c r="B199" s="24">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C199" s="25">
-        <v>7.5</v>
+        <v>64.5</v>
       </c>
       <c r="D199" s="26">
         <v>6.3</v>
       </c>
       <c r="E199" s="27">
-        <v>47.25</v>
+        <v>406.35</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
@@ -5662,16 +5662,16 @@
         <v>203</v>
       </c>
       <c r="B200" s="24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" s="25">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D200" s="26">
         <v>3</v>
       </c>
       <c r="E200" s="27">
-        <v>396</v>
+        <v>387</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
@@ -5713,16 +5713,16 @@
         <v>206</v>
       </c>
       <c r="B203" s="24">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C203" s="25">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D203" s="26">
         <v>3.9</v>
       </c>
       <c r="E203" s="27">
-        <v>46.8</v>
+        <v>23.4</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
@@ -5956,16 +5956,16 @@
         <v>221</v>
       </c>
       <c r="B218" s="24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C218" s="25">
-        <v>37.5</v>
+        <v>35.5</v>
       </c>
       <c r="D218" s="26">
         <v>4.28</v>
       </c>
       <c r="E218" s="27">
-        <v>160.5</v>
+        <v>151.94</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -5973,16 +5973,16 @@
         <v>222</v>
       </c>
       <c r="B219" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C219" s="25">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D219" s="26">
         <v>6</v>
       </c>
       <c r="E219" s="27">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -6057,13 +6057,13 @@
         <v>3</v>
       </c>
       <c r="C224" s="25">
-        <v>8.5</v>
+        <v>18.5</v>
       </c>
       <c r="D224" s="26">
         <v>4.5</v>
       </c>
       <c r="E224" s="27">
-        <v>38.25</v>
+        <v>83.25</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
@@ -6105,16 +6105,16 @@
         <v>230</v>
       </c>
       <c r="B227" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C227" s="25">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D227" s="26">
         <v>4.4000000000000004</v>
       </c>
       <c r="E227" s="27">
-        <v>145.1</v>
+        <v>131.9</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
@@ -6122,16 +6122,16 @@
         <v>231</v>
       </c>
       <c r="B228" s="24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C228" s="25">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D228" s="26">
         <v>4.3099999999999996</v>
       </c>
       <c r="E228" s="27">
-        <v>267.17</v>
+        <v>254.24</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
@@ -6220,16 +6220,16 @@
         <v>237</v>
       </c>
       <c r="B234" s="24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C234" s="25">
-        <v>20.5</v>
+        <v>19.5</v>
       </c>
       <c r="D234" s="26">
         <v>4.7</v>
       </c>
       <c r="E234" s="27">
-        <v>96.35</v>
+        <v>91.65</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
@@ -6272,13 +6272,13 @@
         <v>9</v>
       </c>
       <c r="C237" s="25">
-        <v>-0.5</v>
+        <v>53.5</v>
       </c>
       <c r="D237" s="26">
         <v>6</v>
       </c>
       <c r="E237" s="27">
-        <v>-3</v>
+        <v>321</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
@@ -6401,16 +6401,16 @@
         <v>248</v>
       </c>
       <c r="B245" s="24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C245" s="25">
-        <v>66.5</v>
+        <v>63.5</v>
       </c>
       <c r="D245" s="26">
         <v>4.5</v>
       </c>
       <c r="E245" s="27">
-        <v>299.25</v>
+        <v>285.75</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
@@ -6470,13 +6470,13 @@
         <v>3</v>
       </c>
       <c r="C249" s="25">
-        <v>18.5</v>
+        <v>67.5</v>
       </c>
       <c r="D249" s="26">
         <v>3.15</v>
       </c>
       <c r="E249" s="27">
-        <v>58.28</v>
+        <v>212.63</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
@@ -6518,16 +6518,16 @@
         <v>255</v>
       </c>
       <c r="B252" s="24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C252" s="25">
-        <v>70.5</v>
+        <v>67.5</v>
       </c>
       <c r="D252" s="26">
         <v>4.16</v>
       </c>
       <c r="E252" s="27">
-        <v>293.27999999999997</v>
+        <v>280.8</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
@@ -6754,13 +6754,13 @@
         <v>5</v>
       </c>
       <c r="C267" s="25">
-        <v>10.35</v>
+        <v>14.35</v>
       </c>
       <c r="D267" s="26">
         <v>9.4499999999999993</v>
       </c>
       <c r="E267" s="27">
-        <v>97.81</v>
+        <v>135.61000000000001</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
@@ -7024,16 +7024,16 @@
         <v>287</v>
       </c>
       <c r="B284" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C284" s="25">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D284" s="26">
         <v>4.28</v>
       </c>
       <c r="E284" s="27">
-        <v>115.56</v>
+        <v>94.16</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
@@ -7105,16 +7105,16 @@
         <v>292</v>
       </c>
       <c r="B289" s="24">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C289" s="25">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D289" s="26">
         <v>9</v>
       </c>
       <c r="E289" s="27">
-        <v>144</v>
+        <v>108</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
@@ -7320,16 +7320,16 @@
         <v>305</v>
       </c>
       <c r="B302" s="24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C302" s="25">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D302" s="26">
         <v>5.7</v>
       </c>
       <c r="E302" s="27">
-        <v>108.3</v>
+        <v>148.19999999999999</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
@@ -7551,13 +7551,13 @@
         <v>3</v>
       </c>
       <c r="C316" s="25">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D316" s="26">
         <v>6.65</v>
       </c>
       <c r="E316" s="27">
-        <v>39.9</v>
+        <v>126.35</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
@@ -7596,13 +7596,13 @@
         <v>2</v>
       </c>
       <c r="C319" s="25">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D319" s="26">
         <v>6.18</v>
       </c>
       <c r="E319" s="27">
-        <v>105.06</v>
+        <v>197.76</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
@@ -7613,13 +7613,13 @@
         <v>12</v>
       </c>
       <c r="C320" s="25">
-        <v>6.5</v>
+        <v>54.5</v>
       </c>
       <c r="D320" s="26">
         <v>7.13</v>
       </c>
       <c r="E320" s="27">
-        <v>46.35</v>
+        <v>388.59</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
@@ -7644,16 +7644,16 @@
         <v>325</v>
       </c>
       <c r="B322" s="24">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C322" s="25">
-        <v>-11.5</v>
+        <v>13.5</v>
       </c>
       <c r="D322" s="26">
         <v>6.6</v>
       </c>
       <c r="E322" s="27">
-        <v>-75.900000000000006</v>
+        <v>89.1</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
@@ -7695,16 +7695,16 @@
         <v>328</v>
       </c>
       <c r="B325" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C325" s="25">
-        <v>29</v>
+        <v>27.5</v>
       </c>
       <c r="D325" s="26">
         <v>8.1999999999999993</v>
       </c>
       <c r="E325" s="27">
-        <v>237.8</v>
+        <v>225.5</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
@@ -7829,16 +7829,16 @@
         <v>336</v>
       </c>
       <c r="B333" s="24">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C333" s="25">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D333" s="26">
         <v>3.6</v>
       </c>
       <c r="E333" s="27">
-        <v>129.6</v>
+        <v>100.8</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
@@ -7943,15 +7943,17 @@
       <c r="A340" s="23" t="s">
         <v>343</v>
       </c>
-      <c r="B340" s="24"/>
+      <c r="B340" s="24">
+        <v>1</v>
+      </c>
       <c r="C340" s="25">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D340" s="26">
         <v>5.3</v>
       </c>
       <c r="E340" s="27">
-        <v>90.1</v>
+        <v>79.5</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
@@ -8088,13 +8090,13 @@
         <v>3</v>
       </c>
       <c r="C349" s="25">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D349" s="26">
         <v>8.5500000000000007</v>
       </c>
       <c r="E349" s="27">
-        <v>68.400000000000006</v>
+        <v>128.25</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
@@ -8348,13 +8350,13 @@
         <v>10</v>
       </c>
       <c r="C365" s="25">
-        <v>-9.5</v>
+        <v>20.5</v>
       </c>
       <c r="D365" s="26">
         <v>5.2</v>
       </c>
       <c r="E365" s="27">
-        <v>-49.4</v>
+        <v>106.6</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
@@ -8394,16 +8396,16 @@
         <v>371</v>
       </c>
       <c r="B368" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C368" s="25">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D368" s="26">
         <v>5.3</v>
       </c>
       <c r="E368" s="27">
-        <v>318</v>
+        <v>302.10000000000002</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
@@ -8618,16 +8620,16 @@
         <v>385</v>
       </c>
       <c r="B382" s="24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C382" s="25">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D382" s="26">
         <v>5</v>
       </c>
       <c r="E382" s="27">
-        <v>70</v>
+        <v>45</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
@@ -8696,15 +8698,17 @@
       <c r="A387" s="23" t="s">
         <v>390</v>
       </c>
-      <c r="B387" s="24"/>
+      <c r="B387" s="24">
+        <v>1</v>
+      </c>
       <c r="C387" s="25">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="D387" s="26">
         <v>13</v>
       </c>
       <c r="E387" s="27">
-        <v>123.5</v>
+        <v>91</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
@@ -8732,13 +8736,13 @@
         <v>2</v>
       </c>
       <c r="C389" s="25">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D389" s="26">
         <v>8.75</v>
       </c>
       <c r="E389" s="27">
-        <v>26.25</v>
+        <v>96.25</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
@@ -8811,15 +8815,17 @@
       <c r="A394" s="23" t="s">
         <v>397</v>
       </c>
-      <c r="B394" s="24"/>
+      <c r="B394" s="24">
+        <v>1</v>
+      </c>
       <c r="C394" s="25">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D394" s="26">
         <v>11</v>
       </c>
       <c r="E394" s="27">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
@@ -9000,16 +9006,16 @@
         <v>409</v>
       </c>
       <c r="B406" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C406" s="25">
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="D406" s="26">
         <v>22.5</v>
       </c>
       <c r="E406" s="27">
-        <v>258.75</v>
+        <v>213.75</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
@@ -9047,16 +9053,16 @@
         <v>412</v>
       </c>
       <c r="B409" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C409" s="25">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D409" s="26">
         <v>10.5</v>
       </c>
       <c r="E409" s="27">
-        <v>157.5</v>
+        <v>115.5</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
@@ -9171,16 +9177,16 @@
         <v>420</v>
       </c>
       <c r="B417" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C417" s="25">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="D417" s="26">
         <v>16</v>
       </c>
       <c r="E417" s="27">
-        <v>200</v>
+        <v>168</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
@@ -9254,16 +9260,16 @@
         <v>425</v>
       </c>
       <c r="B422" s="24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C422" s="25">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="D422" s="26">
         <v>9.5</v>
       </c>
       <c r="E422" s="27">
-        <v>118.75</v>
+        <v>99.75</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
@@ -9385,13 +9391,13 @@
         <v>1</v>
       </c>
       <c r="C430" s="25">
-        <v>4.5</v>
+        <v>11.5</v>
       </c>
       <c r="D430" s="26">
         <v>11.88</v>
       </c>
       <c r="E430" s="27">
-        <v>53.46</v>
+        <v>136.62</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
@@ -9483,13 +9489,13 @@
         <v>2</v>
       </c>
       <c r="C436" s="25">
-        <v>2.5</v>
+        <v>22.5</v>
       </c>
       <c r="D436" s="26">
         <v>9.26</v>
       </c>
       <c r="E436" s="27">
-        <v>23.15</v>
+        <v>208.35</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
@@ -9500,13 +9506,13 @@
         <v>3</v>
       </c>
       <c r="C437" s="25">
-        <v>11.5</v>
+        <v>21</v>
       </c>
       <c r="D437" s="26">
         <v>10.45</v>
       </c>
       <c r="E437" s="27">
-        <v>120.18</v>
+        <v>219.45</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
@@ -9675,13 +9681,13 @@
         <v>11</v>
       </c>
       <c r="C448" s="25">
-        <v>-7.5</v>
+        <v>27.5</v>
       </c>
       <c r="D448" s="26">
         <v>11.25</v>
       </c>
       <c r="E448" s="27">
-        <v>-84.38</v>
+        <v>309.38</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.25">
@@ -9844,13 +9850,13 @@
       </c>
       <c r="B459" s="24"/>
       <c r="C459" s="25">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D459" s="26">
         <v>12.8</v>
       </c>
       <c r="E459" s="27">
-        <v>51.2</v>
+        <v>281.60000000000002</v>
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.25">
@@ -10336,13 +10342,13 @@
         <v>10</v>
       </c>
       <c r="C489" s="25">
-        <v>-1.5</v>
+        <v>36.5</v>
       </c>
       <c r="D489" s="26">
         <v>4.28</v>
       </c>
       <c r="E489" s="27">
-        <v>-6.42</v>
+        <v>156.22</v>
       </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.25">
@@ -10500,13 +10506,13 @@
         <v>9</v>
       </c>
       <c r="C499" s="25">
-        <v>9.5</v>
+        <v>25.5</v>
       </c>
       <c r="D499" s="26">
         <v>9.5</v>
       </c>
       <c r="E499" s="27">
-        <v>90.25</v>
+        <v>242.25</v>
       </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.25">
@@ -10551,13 +10557,13 @@
         <v>23</v>
       </c>
       <c r="C502" s="25">
-        <v>-6.5</v>
+        <v>41.5</v>
       </c>
       <c r="D502" s="26">
         <v>3.9</v>
       </c>
       <c r="E502" s="27">
-        <v>-25.35</v>
+        <v>161.85</v>
       </c>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.25">
@@ -10912,16 +10918,16 @@
         <v>527</v>
       </c>
       <c r="B524" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C524" s="25">
-        <v>27</v>
+        <v>133</v>
       </c>
       <c r="D524" s="26">
         <v>1.4</v>
       </c>
       <c r="E524" s="27">
-        <v>37.799999999999997</v>
+        <v>186.2</v>
       </c>
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.25">
@@ -10929,16 +10935,16 @@
         <v>528</v>
       </c>
       <c r="B525" s="24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C525" s="25">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="D525" s="26">
         <v>1.8</v>
       </c>
       <c r="E525" s="27">
-        <v>27</v>
+        <v>221.4</v>
       </c>
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.25">
@@ -10976,10 +10982,10 @@
         <v>531</v>
       </c>
       <c r="B528" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C528" s="25">
-        <v>61</v>
+        <v>60.5</v>
       </c>
       <c r="D528" s="28"/>
       <c r="E528" s="29"/>
@@ -11015,10 +11021,10 @@
         <v>534</v>
       </c>
       <c r="B531" s="24">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C531" s="25">
-        <v>97</v>
+        <v>85.5</v>
       </c>
       <c r="D531" s="28"/>
       <c r="E531" s="29"/>
@@ -11028,16 +11034,16 @@
         <v>535</v>
       </c>
       <c r="B532" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C532" s="25">
-        <v>508.5</v>
+        <v>498.5</v>
       </c>
       <c r="D532" s="26">
         <v>0.87</v>
       </c>
       <c r="E532" s="27">
-        <v>442.4</v>
+        <v>433.7</v>
       </c>
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.25">
@@ -11045,10 +11051,10 @@
         <v>536</v>
       </c>
       <c r="B533" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C533" s="25">
-        <v>-9</v>
+        <v>-29</v>
       </c>
       <c r="D533" s="28"/>
       <c r="E533" s="29"/>
@@ -11075,16 +11081,16 @@
         <v>538</v>
       </c>
       <c r="B535" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C535" s="25">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D535" s="26">
         <v>0.85</v>
       </c>
       <c r="E535" s="27">
-        <v>14.45</v>
+        <v>5.95</v>
       </c>
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.25">
@@ -11112,7 +11118,7 @@
         <v>8</v>
       </c>
       <c r="C537" s="25">
-        <v>-310</v>
+        <v>-300</v>
       </c>
       <c r="D537" s="28"/>
       <c r="E537" s="29"/>
@@ -11187,13 +11193,13 @@
         <v>2</v>
       </c>
       <c r="C542" s="25">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D542" s="26">
         <v>10</v>
       </c>
       <c r="E542" s="27">
-        <v>20</v>
+        <v>170</v>
       </c>
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.25">
@@ -11221,13 +11227,13 @@
         <v>1</v>
       </c>
       <c r="C544" s="25">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D544" s="26">
         <v>5</v>
       </c>
       <c r="E544" s="27">
-        <v>45</v>
+        <v>75</v>
       </c>
     </row>
     <row r="545" spans="1:5" x14ac:dyDescent="0.25">
@@ -11253,13 +11259,13 @@
         <v>3</v>
       </c>
       <c r="C546" s="25">
-        <v>-1.5</v>
+        <v>8.5</v>
       </c>
       <c r="D546" s="26">
         <v>3.5</v>
       </c>
       <c r="E546" s="27">
-        <v>-5.25</v>
+        <v>29.75</v>
       </c>
     </row>
     <row r="547" spans="1:5" x14ac:dyDescent="0.25">
@@ -11382,16 +11388,16 @@
         <v>557</v>
       </c>
       <c r="B554" s="24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C554" s="25">
-        <v>14.5</v>
+        <v>9.5</v>
       </c>
       <c r="D554" s="26">
         <v>2.8</v>
       </c>
       <c r="E554" s="27">
-        <v>40.61</v>
+        <v>26.61</v>
       </c>
     </row>
     <row r="555" spans="1:5" x14ac:dyDescent="0.25">
@@ -11433,16 +11439,16 @@
         <v>560</v>
       </c>
       <c r="B557" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C557" s="25">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D557" s="26">
         <v>1.5</v>
       </c>
       <c r="E557" s="27">
-        <v>112.5</v>
+        <v>109.5</v>
       </c>
     </row>
     <row r="558" spans="1:5" x14ac:dyDescent="0.25">
@@ -11482,16 +11488,16 @@
         <v>563</v>
       </c>
       <c r="B560" s="24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C560" s="25">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D560" s="26">
         <v>2.2799999999999998</v>
       </c>
       <c r="E560" s="27">
-        <v>59.28</v>
+        <v>57</v>
       </c>
     </row>
     <row r="561" spans="1:5" x14ac:dyDescent="0.25">
@@ -11616,9 +11622,15 @@
       <c r="B568" s="24">
         <v>1</v>
       </c>
-      <c r="C568" s="29"/>
-      <c r="D568" s="28"/>
-      <c r="E568" s="29"/>
+      <c r="C568" s="25">
+        <v>12</v>
+      </c>
+      <c r="D568" s="26">
+        <v>3.5</v>
+      </c>
+      <c r="E568" s="27">
+        <v>42</v>
+      </c>
     </row>
     <row r="569" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A569" s="23" t="s">
@@ -11657,16 +11669,16 @@
         <v>574</v>
       </c>
       <c r="B571" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C571" s="25">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="D571" s="26">
         <v>3.1</v>
       </c>
       <c r="E571" s="27">
-        <v>58.9</v>
+        <v>51.15</v>
       </c>
     </row>
     <row r="572" spans="1:5" x14ac:dyDescent="0.25">
@@ -12096,16 +12108,16 @@
         <v>601</v>
       </c>
       <c r="B598" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C598" s="25">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D598" s="26">
         <v>2.5</v>
       </c>
       <c r="E598" s="27">
-        <v>70</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.25">
@@ -12181,16 +12193,16 @@
         <v>606</v>
       </c>
       <c r="B603" s="24">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C603" s="25">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D603" s="26">
         <v>2.25</v>
       </c>
       <c r="E603" s="27">
-        <v>135</v>
+        <v>112.5</v>
       </c>
     </row>
     <row r="604" spans="1:5" x14ac:dyDescent="0.25">
@@ -12230,16 +12242,16 @@
         <v>609</v>
       </c>
       <c r="B606" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C606" s="25">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D606" s="26">
         <v>2.75</v>
       </c>
       <c r="E606" s="27">
-        <v>126.5</v>
+        <v>112.75</v>
       </c>
     </row>
     <row r="607" spans="1:5" x14ac:dyDescent="0.25">
@@ -12446,10 +12458,10 @@
         <v>623</v>
       </c>
       <c r="B620" s="24">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C620" s="25">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D620" s="28"/>
       <c r="E620" s="29"/>
@@ -12639,10 +12651,10 @@
         <v>638</v>
       </c>
       <c r="B635" s="24">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C635" s="25">
-        <v>-0.27</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="D635" s="28"/>
       <c r="E635" s="29"/>
@@ -12849,11 +12861,11 @@
       </c>
       <c r="B648" s="31"/>
       <c r="C648" s="32">
-        <v>18034.259999999998</v>
+        <v>18861.23</v>
       </c>
       <c r="D648" s="33"/>
       <c r="E648" s="34">
-        <v>74360.22</v>
+        <v>78373.39</v>
       </c>
     </row>
   </sheetData>

--- a/data/website stock.xlsx
+++ b/data/website stock.xlsx
@@ -35,7 +35,7 @@
     <t>Stock Group Summary</t>
   </si>
   <si>
-    <t>1-Jul-25 to 24-Oct-25</t>
+    <t>1-Jul-25 to 28-Oct-25</t>
   </si>
   <si>
     <t/>
@@ -68,214 +68,214 @@
     <t>Value</t>
   </si>
   <si>
-    <t>.1001 PATRIKA (25/251)</t>
-  </si>
-  <si>
-    <t>1002 PATRIKA (25/262)</t>
-  </si>
-  <si>
-    <t>1003 PATRIKA (25/261)</t>
-  </si>
-  <si>
-    <t>1004 PATRIKA (25/361/861)</t>
-  </si>
-  <si>
-    <t>1005 PATRIKA (25/362/862)</t>
-  </si>
-  <si>
-    <t>1006 PATRIKA (25/282)</t>
-  </si>
-  <si>
-    <t>1007 PATRIKA (25/281)</t>
-  </si>
-  <si>
-    <t>1008 PATRIKA (JC) (2595 PINK)</t>
-  </si>
-  <si>
-    <t>1009 PATRIKA (JC) (2595 ORANGE)</t>
-  </si>
-  <si>
-    <t>1010 PATRIKA (6321)</t>
-  </si>
-  <si>
-    <t>1011 PATRIKA (2563 OFFSET NEW)</t>
-  </si>
-  <si>
-    <t>1012 PATRIKA (2564 OFFSET NEW)</t>
-  </si>
-  <si>
-    <t>1013 PATRIKA (2568 OFFSET NEW)</t>
-  </si>
-  <si>
-    <t>1014 PATRIKA (JC) (11043 OFFSET)</t>
-  </si>
-  <si>
-    <t>1015 PATRIKA (DCU) (11041 OFFSET NEW)</t>
-  </si>
-  <si>
-    <t>1016 PATRIKA (1011 OFFSET)</t>
-  </si>
-  <si>
-    <t>1017 PATRIKA (1014 OFFSET)</t>
-  </si>
-  <si>
-    <t>1018 PATRIKA (10081 OFFSET NEW)</t>
-  </si>
-  <si>
-    <t>1019 PATRIKA (1222 SBC)</t>
-  </si>
-  <si>
-    <t>1020 PATRIKA (1235)</t>
-  </si>
-  <si>
-    <t>1021 PATRIKA (2101 VV)</t>
-  </si>
-  <si>
-    <t>1022 PATRIKA (JC) (25409)</t>
-  </si>
-  <si>
-    <t>1023 PATRIKA (25418)</t>
-  </si>
-  <si>
-    <t>1024 PATRIKA (25322)</t>
-  </si>
-  <si>
-    <t>1025 PATRIKA (25323)</t>
-  </si>
-  <si>
-    <t>1026 PATRIKA (JC) (1173 SBC)</t>
-  </si>
-  <si>
-    <t>1027 PATRIKA (JC) (5346)</t>
-  </si>
-  <si>
-    <t>1028 PATRIKA (JC) (2596)</t>
-  </si>
-  <si>
-    <t>1029 PATRIKA (1042)</t>
-  </si>
-  <si>
-    <t>1030 PATRIKA (1043)</t>
-  </si>
-  <si>
-    <t>1031 PATRIKA (GOPAL 11)</t>
-  </si>
-  <si>
-    <t>1032 PATRIKA (GOPAL 1)</t>
-  </si>
-  <si>
-    <t>1033 PATRIKA (2002 YLW)</t>
-  </si>
-  <si>
-    <t>1034 PATRIKA (2003 R)</t>
-  </si>
-  <si>
-    <t>1035 PATRIKA (DCU) (2201 ROSHAN)</t>
-  </si>
-  <si>
-    <t>1101 PATRIKA (2591 ORANGE)</t>
-  </si>
-  <si>
-    <t>1102 PATRIKA (2591 PINK)</t>
-  </si>
-  <si>
-    <t>1103 PATRIKA (271 NEHA)</t>
-  </si>
-  <si>
-    <t>1104 PATRIKA (272 NEHA)</t>
-  </si>
-  <si>
-    <t>1105 PATRIKA (276-A)</t>
-  </si>
-  <si>
-    <t>1106 PATRIKA (25419)</t>
-  </si>
-  <si>
-    <t>1107 PATRIKA (25420)</t>
-  </si>
-  <si>
-    <t>1109 PATRIKA (25421)</t>
-  </si>
-  <si>
-    <t>1110 PATRIKA (25422)</t>
-  </si>
-  <si>
-    <t>1112 PATRIKA (277-B)</t>
-  </si>
-  <si>
-    <t>1113 PATRIKA (1819 MONARCH)</t>
-  </si>
-  <si>
-    <t>1114 PATRIKA (1709)</t>
-  </si>
-  <si>
-    <t>1115 PATRIKA (1678 PRINCE)</t>
-  </si>
-  <si>
-    <t>1116 PATRIKA (JSK 1153)</t>
-  </si>
-  <si>
-    <t>1117 PATRIKA (1155 JSK)</t>
-  </si>
-  <si>
-    <t>1118 PATRIKA (NEW SAVASHREE-57)</t>
-  </si>
-  <si>
-    <t>1119 PATRIKA (NEW SAVASHREE-55)</t>
-  </si>
-  <si>
-    <t>1120 PATRIKA (NEW SAVASHREE-59)</t>
-  </si>
-  <si>
-    <t>1121 PATRIKA (NEW SAVASHREE-53)</t>
-  </si>
-  <si>
-    <t>1122 PATRIKA (DCU) (NEW SAVASHREE-54)</t>
-  </si>
-  <si>
-    <t>1123 PATRIKA (LED-51)</t>
-  </si>
-  <si>
-    <t>1124 PATRIKA (LED-52)</t>
-  </si>
-  <si>
-    <t>1125 PATRIKA (LED-53)</t>
-  </si>
-  <si>
-    <t>1126 PATRIKA (LED-54)</t>
-  </si>
-  <si>
-    <t>1127 PATRIKA (NEW ECO-52)</t>
-  </si>
-  <si>
-    <t>1128 PATRIKA (NEW ECO-55)</t>
-  </si>
-  <si>
-    <t>1129 PATRIKA (NEW ECO-56)</t>
-  </si>
-  <si>
-    <t>1130 PATRIKA (NEW ECO-59)</t>
-  </si>
-  <si>
-    <t>1131 PATRIKA (DCU) (NEW ECO- 51)</t>
-  </si>
-  <si>
-    <t>1132 PATRIKA (DCU) (NEW ECO- 53)</t>
-  </si>
-  <si>
-    <t>1133 PATRIKA (DCU) (NEW ECO- 57)</t>
-  </si>
-  <si>
-    <t>1134 PATRIKA (DCU) (NEW ECO- 58)</t>
-  </si>
-  <si>
-    <t>1135 PATRIKA (DCU) (NEW ECO- 54)</t>
-  </si>
-  <si>
-    <t>1150 PATRIKA (DCU) (NEW SAVASHREE-58)</t>
-  </si>
-  <si>
-    <t>1151 PATRIKA (DCU) (NEW SAVASHREE-56)</t>
+    <t>.1001 PATRIKA</t>
+  </si>
+  <si>
+    <t>1002 PATRIKA</t>
+  </si>
+  <si>
+    <t>1003 PATRIKA</t>
+  </si>
+  <si>
+    <t>1004 PATRIKA</t>
+  </si>
+  <si>
+    <t>1005 PATRIKA</t>
+  </si>
+  <si>
+    <t>1006 PATRIKA</t>
+  </si>
+  <si>
+    <t>1007 PATRIKA</t>
+  </si>
+  <si>
+    <t>1008 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>1009 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>1010 PATRIKA</t>
+  </si>
+  <si>
+    <t>1011 PATRIKA</t>
+  </si>
+  <si>
+    <t>1012 PATRIKA</t>
+  </si>
+  <si>
+    <t>1013 PATRIKA</t>
+  </si>
+  <si>
+    <t>1014 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>1015 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>1016 PATRIKA</t>
+  </si>
+  <si>
+    <t>1017 PATRIKA</t>
+  </si>
+  <si>
+    <t>1018 PATRIKA</t>
+  </si>
+  <si>
+    <t>1019 PATRIKA</t>
+  </si>
+  <si>
+    <t>1020 PATRIKA</t>
+  </si>
+  <si>
+    <t>1021 PATRIKA</t>
+  </si>
+  <si>
+    <t>1022 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>1023 PATRIKA</t>
+  </si>
+  <si>
+    <t>1024 PATRIKA</t>
+  </si>
+  <si>
+    <t>1025 PATRIKA</t>
+  </si>
+  <si>
+    <t>1026 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>1027 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>1028 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>1029 PATRIKA</t>
+  </si>
+  <si>
+    <t>1030 PATRIKA</t>
+  </si>
+  <si>
+    <t>1031 PATRIKA</t>
+  </si>
+  <si>
+    <t>1032 PATRIKA</t>
+  </si>
+  <si>
+    <t>1033 PATRIKA</t>
+  </si>
+  <si>
+    <t>1034 PATRIKA</t>
+  </si>
+  <si>
+    <t>1035 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>1101 PATRIKA</t>
+  </si>
+  <si>
+    <t>1102 PATRIKA</t>
+  </si>
+  <si>
+    <t>1103 PATRIKA</t>
+  </si>
+  <si>
+    <t>1104 PATRIKA</t>
+  </si>
+  <si>
+    <t>1105 PATRIKA</t>
+  </si>
+  <si>
+    <t>1106 PATRIKA</t>
+  </si>
+  <si>
+    <t>1107 PATRIKA</t>
+  </si>
+  <si>
+    <t>1109 PATRIKA</t>
+  </si>
+  <si>
+    <t>1110 PATRIKA</t>
+  </si>
+  <si>
+    <t>1112 PATRIKA</t>
+  </si>
+  <si>
+    <t>1113 PATRIKA</t>
+  </si>
+  <si>
+    <t>1114 PATRIKA</t>
+  </si>
+  <si>
+    <t>1115 PATRIKA</t>
+  </si>
+  <si>
+    <t>1116 PATRIKA</t>
+  </si>
+  <si>
+    <t>1117 PATRIKA</t>
+  </si>
+  <si>
+    <t>1118 PATRIKA</t>
+  </si>
+  <si>
+    <t>1119 PATRIKA</t>
+  </si>
+  <si>
+    <t>1120 PATRIKA</t>
+  </si>
+  <si>
+    <t>1121 PATRIKA</t>
+  </si>
+  <si>
+    <t>1122 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>1123 PATRIKA</t>
+  </si>
+  <si>
+    <t>1124 PATRIKA</t>
+  </si>
+  <si>
+    <t>1125 PATRIKA</t>
+  </si>
+  <si>
+    <t>1126 PATRIKA</t>
+  </si>
+  <si>
+    <t>1127 PATRIKA</t>
+  </si>
+  <si>
+    <t>1128 PATRIKA</t>
+  </si>
+  <si>
+    <t>1129 PATRIKA</t>
+  </si>
+  <si>
+    <t>1130 PATRIKA</t>
+  </si>
+  <si>
+    <t>1131 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>1132 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>1133 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>1134 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>1135 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>1150 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>1151 PATRIKA (DCU)</t>
   </si>
   <si>
     <t>2025 ALBUM (JC)</t>
@@ -308,109 +308,109 @@
     <t>2025- INVITAION (BOX) SAMPLES</t>
   </si>
   <si>
-    <t>2101 PATRIKA (L) (NEED TO CHECK STOCK IFRST) (LUXYA - 51)</t>
-  </si>
-  <si>
-    <t>2102 PATRIKA *-* (LUXYA - 52)</t>
-  </si>
-  <si>
-    <t>2103 PATRIKA (L) ( NEED TO CHECK STOCK FIRST) (LUXYA - 53)</t>
-  </si>
-  <si>
-    <t>2104 PATRIKA (LUXYA - 54)</t>
-  </si>
-  <si>
-    <t>2105 PATRIKA (LUXYA - 55)</t>
-  </si>
-  <si>
-    <t>2106 PATRIKA (L) (LUXYA - 56)</t>
-  </si>
-  <si>
-    <t>2107 PATRIKA *-* (LUXYA - 57)</t>
-  </si>
-  <si>
-    <t>2108 PATRIKA *-* (LUXYA - 59)</t>
-  </si>
-  <si>
-    <t>2109 PATRIKA (L) (LUXYA - 60)</t>
-  </si>
-  <si>
-    <t>2110 PATRIKA (LUXYA - 61)</t>
-  </si>
-  <si>
-    <t>2111 PATRIKA *-* (LUXYA - 62)</t>
-  </si>
-  <si>
-    <t>2112 PATRIKA (L) (LEGACY - 01)</t>
-  </si>
-  <si>
-    <t>2113 PATRIKA (L) (LEGACY - 02)</t>
-  </si>
-  <si>
-    <t>2114 PATRIKA (L) (LEGACY - 03)</t>
-  </si>
-  <si>
-    <t>2115 PATRIKA (L) (LEGACY - 04)</t>
-  </si>
-  <si>
-    <t>2116 PATRIKA (L) (LEGACY - 05)</t>
-  </si>
-  <si>
-    <t>2117 PATRIKA *-* (LEGACY - 06)</t>
-  </si>
-  <si>
-    <t>2118 PATRIKA (L) (LEGACY - 07)</t>
-  </si>
-  <si>
-    <t>2119 PATRIKA (L) (LEGACY - 08)</t>
-  </si>
-  <si>
-    <t>2120 PATRIKA (L) (LEGACY - 09)</t>
-  </si>
-  <si>
-    <t>2121 PATRIKA (LEGACY - 10)</t>
-  </si>
-  <si>
-    <t>2122 PATRIKA (LEGACY - 11)</t>
-  </si>
-  <si>
-    <t>2123 PATRIKA (LEGACY - 12)</t>
-  </si>
-  <si>
-    <t>2124 PATRIKA *-* (LOTTERY - 71)</t>
-  </si>
-  <si>
-    <t>2125 PATRIKA *-* (LOTTERY - 72)</t>
-  </si>
-  <si>
-    <t>2126 PATRIKA *-* (LOTTERY - 73)</t>
-  </si>
-  <si>
-    <t>2127 PATRIKA *-* (LOTTERY - 74)</t>
-  </si>
-  <si>
-    <t>2128 PATRIKA *-* (LOTTERY - 75)</t>
-  </si>
-  <si>
-    <t>2129 PATRIKA *-* (LOTTERY - 76)</t>
-  </si>
-  <si>
-    <t>2130 PATRIKA *-* (LOTTERY - 77)</t>
-  </si>
-  <si>
-    <t>2131 PATRIKA *-* (LOTTERY - 78)</t>
-  </si>
-  <si>
-    <t>2132 PATRIKA *-* (LOTTERY - 79)</t>
-  </si>
-  <si>
-    <t>2133 PATRIKA (LOTTERY - 80)</t>
-  </si>
-  <si>
-    <t>2134 PATRIKA *-* (LOTTERY - 81)</t>
-  </si>
-  <si>
-    <t>2135 PATRIKA *-* (LOTTERY - 82)</t>
+    <t>2101 PATRIKA (L)</t>
+  </si>
+  <si>
+    <t>2102 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>2103 PATRIKA (L)</t>
+  </si>
+  <si>
+    <t>2104 PATRIKA</t>
+  </si>
+  <si>
+    <t>2105 PATRIKA</t>
+  </si>
+  <si>
+    <t>2106 PATRIKA (L)</t>
+  </si>
+  <si>
+    <t>2107 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>2108 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>2109 PATRIKA (L)</t>
+  </si>
+  <si>
+    <t>2110 PATRIKA</t>
+  </si>
+  <si>
+    <t>2111 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>2112 PATRIKA (L)</t>
+  </si>
+  <si>
+    <t>2113 PATRIKA (L)</t>
+  </si>
+  <si>
+    <t>2114 PATRIKA (L)</t>
+  </si>
+  <si>
+    <t>2115 PATRIKA (L)</t>
+  </si>
+  <si>
+    <t>2116 PATRIKA (L)</t>
+  </si>
+  <si>
+    <t>2117 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>2118 PATRIKA (L)</t>
+  </si>
+  <si>
+    <t>2119 PATRIKA (L)</t>
+  </si>
+  <si>
+    <t>2120 PATRIKA (L)</t>
+  </si>
+  <si>
+    <t>2121 PATRIKA</t>
+  </si>
+  <si>
+    <t>2122 PATRIKA</t>
+  </si>
+  <si>
+    <t>2123 PATRIKA</t>
+  </si>
+  <si>
+    <t>2124 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>2125 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>2126 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>2127 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>2128 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>2129 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>2130 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>2131 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>2132 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>2133 PATRIKA</t>
+  </si>
+  <si>
+    <t>2134 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>2135 PATRIKA *-* (M)</t>
   </si>
   <si>
     <t>240 ENVELOPE</t>
@@ -431,1189 +431,1189 @@
     <t>330 ENVELOPE (B)</t>
   </si>
   <si>
-    <t>4251 PATRIKA (JC) (5342)</t>
-  </si>
-  <si>
-    <t>4252 PATRIKA (5207)</t>
-  </si>
-  <si>
-    <t>4253 PATRIKA (ANE WALA) (5206)</t>
-  </si>
-  <si>
-    <t>4254 PATRIKA (4210) (10273/10277)</t>
-  </si>
-  <si>
-    <t>4255 PATRIKA - B (DCU) (AS-02 (B))</t>
-  </si>
-  <si>
-    <t>4255 PATRIKA (JC) (AS-02 (NEW))</t>
-  </si>
-  <si>
-    <t>4256 PATRIKA (JC) *-* (1352 VV)</t>
-  </si>
-  <si>
-    <t>4257 PATRIKA (82)</t>
-  </si>
-  <si>
-    <t>4258 PATRIKA (JC) (1129)</t>
-  </si>
-  <si>
-    <t>4259 PATRIKA (JC) (101 SBC)</t>
-  </si>
-  <si>
-    <t>4260 PATRIKA (1102)</t>
-  </si>
-  <si>
-    <t>4261 PATRIKA (JC) (959)</t>
-  </si>
-  <si>
-    <t>4262 PATRIKA (JC) (S-201 GANESH JI)</t>
-  </si>
-  <si>
-    <t>4263 PATRIKA (JC) (2571)</t>
-  </si>
-  <si>
-    <t>4264 PATRIKA (DCU) (1351)</t>
-  </si>
-  <si>
-    <t>4265 PATRIKA (83)</t>
-  </si>
-  <si>
-    <t>4266 PATRIKA (25-145)</t>
-  </si>
-  <si>
-    <t>4267 PATRIKA (JC) (25-046)</t>
-  </si>
-  <si>
-    <t>4268 PATRIKA (JC) *-* (S-296)</t>
-  </si>
-  <si>
-    <t>4269 PATRIKA (111 SBC)</t>
-  </si>
-  <si>
-    <t>4270 PATRIKA (1151 GGN)</t>
-  </si>
-  <si>
-    <t>4271 PATRIKA (JC) (25216)</t>
-  </si>
-  <si>
-    <t>4272 PATRIKA (JC) (1231 SBC CRM)</t>
-  </si>
-  <si>
-    <t>4273 PATRIKA (2547)</t>
-  </si>
-  <si>
-    <t>4274 PATRIKA (JC) (25369)</t>
-  </si>
-  <si>
-    <t>4275 PATRIKA (25367)</t>
-  </si>
-  <si>
-    <t>4276 PATRIKA (JC) *-* (2632)</t>
-  </si>
-  <si>
-    <t>4277 PATRIKA (JC) *-* (25365)</t>
-  </si>
-  <si>
-    <t>4278 PATRIKA (25368)</t>
-  </si>
-  <si>
-    <t>4279 PATRIKA (1031)</t>
-  </si>
-  <si>
-    <t>4280 PATRIKA (25301)</t>
-  </si>
-  <si>
-    <t>4281 PATRIKA (25312 MYRA)</t>
-  </si>
-  <si>
-    <t>4282 PATRIKA (3117)</t>
-  </si>
-  <si>
-    <t>4283 PATRIKA - B (YELLOW) (3116-YLW)</t>
-  </si>
-  <si>
-    <t>4283 PATRIKA (GOLDEN) (3116)</t>
-  </si>
-  <si>
-    <t>4284 PATRIKA (1173 VV)</t>
-  </si>
-  <si>
-    <t>4285 PATRIKA (JC) *-* (4626)</t>
-  </si>
-  <si>
-    <t>4286 PATRIKA (5254  RJN)</t>
-  </si>
-  <si>
-    <t>4287 PATRIKA (25402)</t>
-  </si>
-  <si>
-    <t>4288 PATRIKA (10001 NEW)</t>
-  </si>
-  <si>
-    <t>4289 PATRIKA (10002 NEW)</t>
-  </si>
-  <si>
-    <t>4290 PATRIKA (316 MYRA)</t>
-  </si>
-  <si>
-    <t>4291 PATRIKA (25401)</t>
-  </si>
-  <si>
-    <t>4292 PATRIKA (25311)</t>
-  </si>
-  <si>
-    <t>4293 PATRIKA (25312)</t>
-  </si>
-  <si>
-    <t>4294 PATRIKA (5273)</t>
-  </si>
-  <si>
-    <t>4295 PATRIKA (286-A)</t>
-  </si>
-  <si>
-    <t>4296 PATRIKA (1407)</t>
-  </si>
-  <si>
-    <t>4297 PATRIKA (306)</t>
-  </si>
-  <si>
-    <t>4298 PATRIKA (5501)</t>
-  </si>
-  <si>
-    <t>4299 PATRIKA (2011)</t>
-  </si>
-  <si>
-    <t>4300 PATRIKA (25314)</t>
-  </si>
-  <si>
-    <t>4301 PATRIKA (25315)</t>
-  </si>
-  <si>
-    <t>4302 PATRIKA (1402)</t>
-  </si>
-  <si>
-    <t>4303 PATRIKA (JC) (1234*-M)</t>
-  </si>
-  <si>
-    <t>4304 PATRIKA (5172)</t>
-  </si>
-  <si>
-    <t>4305 PATRIKA (25313)</t>
-  </si>
-  <si>
-    <t>4306 PATRIKA (JC) (427 LOTUS)</t>
-  </si>
-  <si>
-    <t>4307 PATRIKA (BALAJI 5202)</t>
-  </si>
-  <si>
-    <t>4308 PATRIKA (LOTUS 430)</t>
-  </si>
-  <si>
-    <t>4309 PATRIKA (DCU) (3751 Patta)</t>
-  </si>
-  <si>
-    <t>4310 PATRIKA (DCU) (3752 Swastik)</t>
-  </si>
-  <si>
-    <t>4311 PATRIKA (DCU) (251 KBC)</t>
-  </si>
-  <si>
-    <t>4312 PATRIKA (DCU) (273-A)</t>
-  </si>
-  <si>
-    <t>5051 PATRIKA *-* (5087)</t>
-  </si>
-  <si>
-    <t>5052 PATRIKA (5295)</t>
-  </si>
-  <si>
-    <t>5053 PATRIKA (5213)</t>
-  </si>
-  <si>
-    <t>5054 PATRIKA *-* (25/162)</t>
-  </si>
-  <si>
-    <t>5055 PATRIKA (25/272)</t>
-  </si>
-  <si>
-    <t>5056 PATRIKA (JC) (25/271)</t>
-  </si>
-  <si>
-    <t>5057 PATRIKA (25/171)</t>
-  </si>
-  <si>
-    <t>5058 PATRIKA (8802)</t>
-  </si>
-  <si>
-    <t>5059 PATRIKA (8803)</t>
-  </si>
-  <si>
-    <t>5060 PATRIKA (JC) (7713)</t>
-  </si>
-  <si>
-    <t>5061 PATRIKA (DCU) (1405)</t>
-  </si>
-  <si>
-    <t>5062 PATRIKA (7705)</t>
-  </si>
-  <si>
-    <t>5063 PATRIKA (2522 GE)</t>
-  </si>
-  <si>
-    <t>5064 PATRIKA (2517 GE)</t>
-  </si>
-  <si>
-    <t>5065 PATRIKA (2527)</t>
-  </si>
-  <si>
-    <t>5066 PATRIKA (2536)</t>
-  </si>
-  <si>
-    <t>5067 PATRIKA (JC) (S-301)</t>
-  </si>
-  <si>
-    <t>5068 PATRIKA (DCU) (S-305)</t>
-  </si>
-  <si>
-    <t>5069 PATRIKA (JC) (1103)</t>
-  </si>
-  <si>
-    <t>5070 PATRIKA (JC) (2156  YELLOW)</t>
-  </si>
-  <si>
-    <t>5071 PATRIKA *-* (741)</t>
-  </si>
-  <si>
-    <t>5072 PATRIKA (5347 DIRECT)</t>
-  </si>
-  <si>
-    <t>5073 PATRIKA *-* (3161)</t>
-  </si>
-  <si>
-    <t>5074 PATRIKA (1151 VV)</t>
-  </si>
-  <si>
-    <t>5075 PATRIKA (JC) (25-082)</t>
-  </si>
-  <si>
-    <t>5076 PATRIKA (JC) (3701 SBC)</t>
-  </si>
-  <si>
-    <t>5077 PATRIKA (2081)</t>
-  </si>
-  <si>
-    <t>5078 PATRIKA (DCU) (2156 CREAM)</t>
-  </si>
-  <si>
-    <t>5079 PATRIKA (296-A (NEHA)</t>
-  </si>
-  <si>
-    <t>5080 PATRIKA (2501 GE NEW)</t>
-  </si>
-  <si>
-    <t>5081 PATRIKA (2520 GE)</t>
-  </si>
-  <si>
-    <t>5083 PATRIKA (5267)</t>
-  </si>
-  <si>
-    <t>5084 PATRIKA (5258 RJ)</t>
-  </si>
-  <si>
-    <t>5085 PATRIKA (2023)</t>
-  </si>
-  <si>
-    <t>5086 PATRIKA (JC) *-* (942)</t>
-  </si>
-  <si>
-    <t>5087 PATRIKA (JC) (2206)</t>
-  </si>
-  <si>
-    <t>5088 PATRIKA (25214)</t>
-  </si>
-  <si>
-    <t>5089 PATRIKA (2061 SBC)</t>
-  </si>
-  <si>
-    <t>5090 PATRIKA (5236 RJ)</t>
-  </si>
-  <si>
-    <t>5091 PATRIKA (JC) (1411 KBC)</t>
-  </si>
-  <si>
-    <t>5092 PATRIKA (05 NAVIN BHAI)</t>
-  </si>
-  <si>
-    <t>5093 PATRIKA (5350)</t>
-  </si>
-  <si>
-    <t>5094 PATRIKA (5251)</t>
-  </si>
-  <si>
-    <t>5095 PATRIKA (5240)</t>
-  </si>
-  <si>
-    <t>5096 PATRIKA (25316)</t>
-  </si>
-  <si>
-    <t>5097 PATRIKA (25321)</t>
-  </si>
-  <si>
-    <t>5098 PATRIKA *-* (857)</t>
-  </si>
-  <si>
-    <t>5099 PATRIKA *-* (852 DHANESH)</t>
-  </si>
-  <si>
-    <t>5100 PATRIKA (DCU) (5339)</t>
-  </si>
-  <si>
-    <t>5102 PATRIKA (5021) (2456)</t>
-  </si>
-  <si>
-    <t>5103 PATRIKA (2071)</t>
-  </si>
-  <si>
-    <t>5104 PATRIKA (5261 RJND)</t>
-  </si>
-  <si>
-    <t>5105 PATRIKA (JC) (5335)</t>
-  </si>
-  <si>
-    <t>5106 PATRIKA (253-A / 257-A)</t>
-  </si>
-  <si>
-    <t>5107 PATRIKA (5356 RJ)</t>
-  </si>
-  <si>
-    <t>5108 PATRIKA (5333)</t>
-  </si>
-  <si>
-    <t>5109 PATRIKA (5308)</t>
-  </si>
-  <si>
-    <t>5110 PATRIKA (JC) (AS-402)</t>
-  </si>
-  <si>
-    <t>5111 PATRIKA (JC) (5313)</t>
-  </si>
-  <si>
-    <t>5112 PATRIKA (JC) *-* (25437)</t>
-  </si>
-  <si>
-    <t>5113 PATRIKA (5305)</t>
-  </si>
-  <si>
-    <t>5114 PATRIKA *-* (2091)</t>
-  </si>
-  <si>
-    <t>5115 PATRIKA (DCU) (5363 RJND)</t>
-  </si>
-  <si>
-    <t>5116 PATRIKA (2031)</t>
-  </si>
-  <si>
-    <t>5117 PATRIKA (DCU) (3331)</t>
-  </si>
-  <si>
-    <t>5118 PATRIKA (DCU) (25436)</t>
-  </si>
-  <si>
-    <t>5501 PATRIKA (DCU) (985 PISTA)</t>
-  </si>
-  <si>
-    <t>5502 PATRIKA *-* (5355 NICE)</t>
-  </si>
-  <si>
-    <t>5503 PATRIKA (5186)</t>
-  </si>
-  <si>
-    <t>5504 PATRIKA (JC) (7033)</t>
-  </si>
-  <si>
-    <t>5505 PATRIKA (JC) *-* (2282)</t>
-  </si>
-  <si>
-    <t>5506 PATRIKA *-* (25/122)</t>
-  </si>
-  <si>
-    <t>5507 PATRIKA (JC) (8055 VV)</t>
-  </si>
-  <si>
-    <t>5508 PATRIKA (JC) (612 VV)</t>
-  </si>
-  <si>
-    <t>5509 PATRIKA (JC) (25/072)</t>
-  </si>
-  <si>
-    <t>5510 PATRIKA (JC) *-* (AS-950)</t>
-  </si>
-  <si>
-    <t>5511 PATRIKA (JC) *-* (2528)</t>
-  </si>
-  <si>
-    <t>5512 PATRIKA (JC) (2525 /2552)</t>
-  </si>
-  <si>
-    <t>5513 PATRIKA (2515)</t>
-  </si>
-  <si>
-    <t>5514 PATRIKA (2542)</t>
-  </si>
-  <si>
-    <t>5515 PATRIKA (2523)</t>
-  </si>
-  <si>
-    <t>5516 PATRIKA (JC) *-* (5302 VV)</t>
-  </si>
-  <si>
-    <t>5517 PATRIKA *-* (6301)</t>
-  </si>
-  <si>
-    <t>5518 PATRIKA (JC) *-* (922)</t>
-  </si>
-  <si>
-    <t>5519 PATRIKA *-* (7066)</t>
-  </si>
-  <si>
-    <t>5520 PATRIKA (1054)</t>
-  </si>
-  <si>
-    <t>5521 PATRIKA (JC) *-* (35)</t>
-  </si>
-  <si>
-    <t>5522 PATRIKA (2231)</t>
-  </si>
-  <si>
-    <t>5523 PATRIKA (2232)</t>
-  </si>
-  <si>
-    <t>5524 PATRIKA (DCU) (5382)</t>
-  </si>
-  <si>
-    <t>5525 PATRIKA *-* (5283)</t>
-  </si>
-  <si>
-    <t>5526 PATRIKA (DCU) (NEW LUSTER - 01)</t>
-  </si>
-  <si>
-    <t>5527 PATRIKA (DCU) (NEW LUSTER - 02)</t>
-  </si>
-  <si>
-    <t>5528 PATRIKA *-* (NEW LUSTER - 03)</t>
-  </si>
-  <si>
-    <t>5529 PATRIKA *-* (NEW LUSTER - 04)</t>
-  </si>
-  <si>
-    <t>5530 PATRIKA *-* (NEW LUSTER - 05)</t>
-  </si>
-  <si>
-    <t>5531 PATRIKA (DCU) (NEW LUSTER - 06)</t>
-  </si>
-  <si>
-    <t>5532 PATRIKA *-* (NEW LUSTER - 07)</t>
-  </si>
-  <si>
-    <t>5533 PATRIKA *-* (NEW LUSTER - 08)</t>
-  </si>
-  <si>
-    <t>5534 PATRIKA *-* (NEW LUSTER - 09)</t>
-  </si>
-  <si>
-    <t>5535 PATRIKA (JC) *-* (1007)</t>
-  </si>
-  <si>
-    <t>5537 PATRIKA (JC) (25-052)</t>
-  </si>
-  <si>
-    <t>5538 PATRIKA (JC) *-* (7073)</t>
-  </si>
-  <si>
-    <t>5539 PATRIKA (JC) (2942)</t>
-  </si>
-  <si>
-    <t>5540 PATRIKA *-* (S-96)</t>
-  </si>
-  <si>
-    <t>5541 PATRIKA (JC) (2101)</t>
-  </si>
-  <si>
-    <t>5542 PATRIKA (2261)</t>
-  </si>
-  <si>
-    <t>5543 PATRIKA (2353)</t>
-  </si>
-  <si>
-    <t>5544 PATRIKA *-* (2732)</t>
-  </si>
-  <si>
-    <t>5545 PATRIKA *-* (2791)</t>
-  </si>
-  <si>
-    <t>5546 PATRIKA (718)</t>
-  </si>
-  <si>
-    <t>5547 PATRIKA *-* (S-32)</t>
-  </si>
-  <si>
-    <t>5548 PATRIKA (DCU) (2792)</t>
-  </si>
-  <si>
-    <t>5549 PATRIKA (5261 NICE)</t>
-  </si>
-  <si>
-    <t>5550 PATRIKA *-* (5424)</t>
-  </si>
-  <si>
-    <t>5551 PATRIKA (5231)</t>
-  </si>
-  <si>
-    <t>5552 PATRIKA (JC) *-* (S-163)</t>
-  </si>
-  <si>
-    <t>5553 PATRIKA *-* (5004)</t>
-  </si>
-  <si>
-    <t>5554 PATRIKA (F/G) (5379)</t>
-  </si>
-  <si>
-    <t>5555 PATRIKA (2903)</t>
-  </si>
-  <si>
-    <t>5556 PATRIKA *-* (2952)</t>
-  </si>
-  <si>
-    <t>5557 PATRIKA (2312 SBC)</t>
-  </si>
-  <si>
-    <t>5558 PATRIKA *-* (121 NEHA)</t>
-  </si>
-  <si>
-    <t>5559 PATRIKA (2293)</t>
-  </si>
-  <si>
-    <t>5560 PATRIKA (F/G) *-* (2915)</t>
-  </si>
-  <si>
-    <t>5561 PATRIKA *-* (25358)</t>
-  </si>
-  <si>
-    <t>5562 PATRIKA *-* (114-B (NEHA))</t>
-  </si>
-  <si>
-    <t>5563 PATRIKA (5387)</t>
-  </si>
-  <si>
-    <t>5564 PATRIKA (JC) *-* (S-107)</t>
-  </si>
-  <si>
-    <t>5565 PATRIKA (175)</t>
-  </si>
-  <si>
-    <t>5566 PATRIKA *-* (1742-B)</t>
-  </si>
-  <si>
-    <t>5567 PATRIKA (1679)</t>
-  </si>
-  <si>
-    <t>5568 PATRIKA *-* (3002)</t>
-  </si>
-  <si>
-    <t>5569 PATRIKA *-* (S-39)</t>
-  </si>
-  <si>
-    <t>5570 PATRIKA *-* (S-74)</t>
-  </si>
-  <si>
-    <t>5571 PATRIKA *-* (25353)</t>
-  </si>
-  <si>
-    <t>5572 PATRIKA *-* (25351)</t>
-  </si>
-  <si>
-    <t>5573 PATRIKA (2205)</t>
-  </si>
-  <si>
-    <t>5574 PATRIKA (25335)</t>
-  </si>
-  <si>
-    <t>5575 PATRIKA *-* (S-77)</t>
-  </si>
-  <si>
-    <t>5576 PATRIKA (2531)</t>
-  </si>
-  <si>
-    <t>5577 PATRIKA *-* (5808)</t>
-  </si>
-  <si>
-    <t>5578 PATRIKA (JC) *-* (AS-104 / S-50)</t>
-  </si>
-  <si>
-    <t>5579 PATRIKA (JC) *-* (AS-102)</t>
-  </si>
-  <si>
-    <t>5580 PATRIKA (S-326)</t>
-  </si>
-  <si>
-    <t>5581 PATRIKA *-* (3471)</t>
-  </si>
-  <si>
-    <t>5582 PATRIKA *-* (3512 SBC)</t>
-  </si>
-  <si>
-    <t>5583 PATRIKA (3211 SBC)</t>
-  </si>
-  <si>
-    <t>5584 PATRIKA (JC) (2202 SBC)</t>
-  </si>
-  <si>
-    <t>5585 PATRIKA *-* (1201 KBC)</t>
-  </si>
-  <si>
-    <t>5586 PATRIKA *-* (S-51)</t>
-  </si>
-  <si>
-    <t>5587 PATRIKA (2264)</t>
-  </si>
-  <si>
-    <t>5588 PATRIKA (JC) *-* (1006)</t>
-  </si>
-  <si>
-    <t>5589 PATRIKA *-* (25133)</t>
-  </si>
-  <si>
-    <t>5590 PATRIKA (3131 SBC)</t>
-  </si>
-  <si>
-    <t>5591 PATRIKA (DCU) (3735 YLW)</t>
-  </si>
-  <si>
-    <t>5592 PATRIKA *-* (2365)</t>
-  </si>
-  <si>
-    <t>5593 PATRIKA (2803)</t>
-  </si>
-  <si>
-    <t>5594 PATRIKA (JC) (2931)</t>
-  </si>
-  <si>
-    <t>5595 PATRIKA *-* (226)</t>
-  </si>
-  <si>
-    <t>5596 PATRIKA *-* (2541)</t>
-  </si>
-  <si>
-    <t>5597 PATRIKA (JC) *-* (AS-104 (B))</t>
-  </si>
-  <si>
-    <t>5599 PATRIKA *-* (77-B)</t>
-  </si>
-  <si>
-    <t>5600 PATRIKA (JC) (25324)</t>
-  </si>
-  <si>
-    <t>5601 PATRIKA (2771)</t>
-  </si>
-  <si>
-    <t>5602 PATRIKA (3271)</t>
-  </si>
-  <si>
-    <t>5603 PATRIKA *-* (6125)</t>
-  </si>
-  <si>
-    <t>5604 PATRIKA (242-A)</t>
-  </si>
-  <si>
-    <t>5605 PATRIKA (JC) (3102)</t>
-  </si>
-  <si>
-    <t>5606 PATRIKA *-* (221-A)</t>
-  </si>
-  <si>
-    <t>5607 PATRIKA (25442)</t>
-  </si>
-  <si>
-    <t>5608 PATRIKA (25440)</t>
-  </si>
-  <si>
-    <t>5609 PATRIKA (993)</t>
-  </si>
-  <si>
-    <t>5610 PATRIKA (JC) (2373)</t>
-  </si>
-  <si>
-    <t>5611 PATRIKA *-* (1211)</t>
-  </si>
-  <si>
-    <t>5612 PATRIKA (DCU) (5276)</t>
-  </si>
-  <si>
-    <t>5613 PATRIKA (JC) (1841-A)</t>
-  </si>
-  <si>
-    <t>5614 PATRIKA *-* (2331)</t>
-  </si>
-  <si>
-    <t>5615 PATRIKA (2111)</t>
-  </si>
-  <si>
-    <t>5616 PATRIKA (DCU) (7069)</t>
-  </si>
-  <si>
-    <t>5617 PATRIKA *-* (7067)</t>
-  </si>
-  <si>
-    <t>5618 PATRIKA (JC) *-* (S-52)</t>
-  </si>
-  <si>
-    <t>5619 PATRIKA (JC) (1131)</t>
-  </si>
-  <si>
-    <t>5620 PATRIKA (JC) (15)</t>
-  </si>
-  <si>
-    <t>5621 PATRIKA (JC) *-* (5297)</t>
-  </si>
-  <si>
-    <t>5622 PATRIKA *-* (25337)</t>
-  </si>
-  <si>
-    <t>5623 PATRIKA (064)</t>
-  </si>
-  <si>
-    <t>5624 PATRIKA (JC) (2753)</t>
-  </si>
-  <si>
-    <t>5625 PATRIKA (DCU) (772)</t>
-  </si>
-  <si>
-    <t>6601 PATRIKA (L) (5164)</t>
-  </si>
-  <si>
-    <t>6602 PATRIKA (5126)</t>
-  </si>
-  <si>
-    <t>6603 PATRIKA (5111)</t>
-  </si>
-  <si>
-    <t>6604 PATRIKA *-* (5196)</t>
-  </si>
-  <si>
-    <t>6605 PATRIKA (5191)</t>
-  </si>
-  <si>
-    <t>6606 PATRIKA (3023)</t>
-  </si>
-  <si>
-    <t>6607 PATRIKA *-* (0523)</t>
-  </si>
-  <si>
-    <t>6608 PATRIKA (95)</t>
-  </si>
-  <si>
-    <t>6609 PATRIKA *-* (3053)</t>
-  </si>
-  <si>
-    <t>6610 PATRIKA *-* (3019)</t>
-  </si>
-  <si>
-    <t>6611 PATRIKA (3017 VV)</t>
-  </si>
-  <si>
-    <t>6612 PATRIKA (3015)</t>
-  </si>
-  <si>
-    <t>6613 PATRIKA (25164)</t>
-  </si>
-  <si>
-    <t>6614 PATRIKA (DCU) (25131)</t>
-  </si>
-  <si>
-    <t>6615 PATRIKA *-* (915 GAGAN)</t>
-  </si>
-  <si>
-    <t>6616 PATRIKA *-* (911 GAGAN)</t>
-  </si>
-  <si>
-    <t>6617 PATRIKA *-* (3422)</t>
-  </si>
-  <si>
-    <t>6618 PATRIKA *-* (3423)</t>
-  </si>
-  <si>
-    <t>6619 PATRIKA *-* (1193)</t>
-  </si>
-  <si>
-    <t>6620 PATRIKA *-* (1045 GGN (PADDING))</t>
-  </si>
-  <si>
-    <t>6621 PATRIKA *-* (7108 (PADDING))</t>
-  </si>
-  <si>
-    <t>6622 PATRIKA *-* (7259 (PADDING))</t>
-  </si>
-  <si>
-    <t>6623 PATRIKA (25184)</t>
-  </si>
-  <si>
-    <t>6624 PATRIKA *-* (25135)</t>
-  </si>
-  <si>
-    <t>6625 PATRIKA *-* (25116)</t>
-  </si>
-  <si>
-    <t>6626 PATRIKA *-* (25161)</t>
-  </si>
-  <si>
-    <t>6627 PATRIKA *-* (25111)</t>
-  </si>
-  <si>
-    <t>6628 PATRIKA *-* (805 SBC)</t>
-  </si>
-  <si>
-    <t>6629 PATRIKA (6525 OLD) *-* (812 NEW SBC)</t>
-  </si>
-  <si>
-    <t>6630 PATRIKA *-* (5510 NICE)</t>
-  </si>
-  <si>
-    <t>6631 PATRIKA (DCU) (OLD AP ITEM)</t>
-  </si>
-  <si>
-    <t>6632 PATRIKA (DCU) (932)</t>
-  </si>
-  <si>
-    <t>6633 PATRIKA *-* (7081 VP)</t>
-  </si>
-  <si>
-    <t>6634 PATRIKA (3562)</t>
-  </si>
-  <si>
-    <t>6635 PATRIKA *-* (S-313)</t>
-  </si>
-  <si>
-    <t>6636 PATRIKA *-* (25183)</t>
-  </si>
-  <si>
-    <t>6637 PATRIKA (25162 GE)</t>
-  </si>
-  <si>
-    <t>6638 PATRIKA *-* (3014)</t>
-  </si>
-  <si>
-    <t>6639 PATRIKA (2291)</t>
-  </si>
-  <si>
-    <t>6640 PATRIKA *-* (5737 PADING)</t>
-  </si>
-  <si>
-    <t>6641 PATRIKA *-* (5435)</t>
-  </si>
-  <si>
-    <t>6642 PATRIKA *-* (5411 RJ)</t>
-  </si>
-  <si>
-    <t>6643 PATRIKA *-* (25380)</t>
-  </si>
-  <si>
-    <t>6644 PATRIKA (DCU) (25132)</t>
-  </si>
-  <si>
-    <t>6645 PATRIKA *-* (3031)</t>
-  </si>
-  <si>
-    <t>6646 PATRIKA *-* (3034)</t>
-  </si>
-  <si>
-    <t>6647 PATRIKA *-* (25382)</t>
-  </si>
-  <si>
-    <t>6648 PATRIKA *-* (5011 (PADDING))</t>
-  </si>
-  <si>
-    <t>6649 PATRIKA *-* (3402)</t>
-  </si>
-  <si>
-    <t>6650 PATRIKA *-* (3431)</t>
-  </si>
-  <si>
-    <t>6651 PATRIKA (3421)</t>
-  </si>
-  <si>
-    <t>6652 PATRIKA *-* (2764 SBC)</t>
-  </si>
-  <si>
-    <t>6653 PATRIKA *-* (834 SBC NEW)</t>
-  </si>
-  <si>
-    <t>6654 PATRIKA *-* (3461)</t>
-  </si>
-  <si>
-    <t>6655 PATRIKA *-* (7129 (PADDING))</t>
-  </si>
-  <si>
-    <t>6656 PATRIKA (L) (7113 (PADDING))</t>
-  </si>
-  <si>
-    <t>6657 PATRIKA *-* (563  DHANESH)</t>
-  </si>
-  <si>
-    <t>6658 PATRIKA *-* (5319)</t>
-  </si>
-  <si>
-    <t>6659 PATRIKA (25193 (Padding))</t>
-  </si>
-  <si>
-    <t>6660 PATRIKA (25194 (Padding))</t>
-  </si>
-  <si>
-    <t>6661 PATRIKA *-* (1281)</t>
-  </si>
-  <si>
-    <t>6662 PATRIKA (3424)</t>
-  </si>
-  <si>
-    <t>6663 PATRIKA (7103 (PADDING))</t>
-  </si>
-  <si>
-    <t>6664 PATRIKA *-* (5823)</t>
-  </si>
-  <si>
-    <t>6665 PATRIKA *-* (603 DHANESH)</t>
-  </si>
-  <si>
-    <t>6666 PATRIKA *-* (1192 KBC)</t>
-  </si>
-  <si>
-    <t>6667 PATRIKA *-* (1192 SBC)</t>
-  </si>
-  <si>
-    <t>6668 PATRIKA (DCU) (8102)</t>
-  </si>
-  <si>
-    <t>6669 PATRIKA (DCU) (6197)</t>
-  </si>
-  <si>
-    <t>6670 PATRIKA *-* (1868)</t>
-  </si>
-  <si>
-    <t>6671 PATRIKA *-* (1872)</t>
-  </si>
-  <si>
-    <t>6672 PATRIKA *-* (6132)</t>
-  </si>
-  <si>
-    <t>6673 PATRIKA (DCU) (6196)</t>
-  </si>
-  <si>
-    <t>6674 PATRIKA (DCU) (1503)</t>
-  </si>
-  <si>
-    <t>6675 PATRIKA *-* (1282)</t>
-  </si>
-  <si>
-    <t>6676 PATRIKA (DCU) (533 KBC)</t>
-  </si>
-  <si>
-    <t>6677 PATRIKA (DCU) (25191 PADDING)</t>
-  </si>
-  <si>
-    <t>7265 PATRIKA (O.C.) (133)</t>
-  </si>
-  <si>
-    <t>7283 PATRIKA {F} (O.C.) (4148)</t>
-  </si>
-  <si>
-    <t>7287 PATRIKA (O.C.) (1522)</t>
-  </si>
-  <si>
-    <t>7288 PATRIKA (O.C.) (1178)</t>
-  </si>
-  <si>
-    <t>7293 PATRIKA (O.C.) (AS-20)</t>
-  </si>
-  <si>
-    <t>7309 PATRIKA (O.C.) (4087)</t>
-  </si>
-  <si>
-    <t>7312 PATRIKA (O.C.) (SBC 7312)</t>
-  </si>
-  <si>
-    <t>7319 PATRIKA (O.C.) (2204)</t>
-  </si>
-  <si>
-    <t>7332 PATRIKA (O.C.) (2482)</t>
-  </si>
-  <si>
-    <t>7342 PATRIKA (O.C.) (12)</t>
-  </si>
-  <si>
-    <t>7344 PATRIKA (O.C.) (INV B.P. RED (11))</t>
-  </si>
-  <si>
-    <t>7345 PATRIKA (O.C.) (INV B.P. GOLDEN (120) 5)</t>
-  </si>
-  <si>
-    <t>7401 PATRIKA (25/252)</t>
-  </si>
-  <si>
-    <t>7402 PATRIKA (25/264-263)</t>
-  </si>
-  <si>
-    <t>7403 PATRIKA (25/363/863)</t>
-  </si>
-  <si>
-    <t>7404 PATRIKA (25/283)</t>
-  </si>
-  <si>
-    <t>7405 PATRIKA (25/273)</t>
-  </si>
-  <si>
-    <t>7406 PATRIKA (25/172)</t>
-  </si>
-  <si>
-    <t>7407 PATRIKA *-* (7145 VP)</t>
-  </si>
-  <si>
-    <t>7408 PATRIKA (DCU) (25895)</t>
-  </si>
-  <si>
-    <t>7409 PATRIKA (2521)</t>
-  </si>
-  <si>
-    <t>7410 PATRIKA (2526)</t>
-  </si>
-  <si>
-    <t>7411 PATRIKA (2535)</t>
-  </si>
-  <si>
-    <t>7412 PATRIKA (Time Lagega) (84)</t>
-  </si>
-  <si>
-    <t>7413 PATRIKA (2543 OFFSET NEW)</t>
-  </si>
-  <si>
-    <t>7414 PATRIKA (1015 GREEN OFFSET)</t>
-  </si>
-  <si>
-    <t>7415 PATRIKA *-* (3162 SBC)</t>
-  </si>
-  <si>
-    <t>7416 PATRIKA (2234)</t>
-  </si>
-  <si>
-    <t>7417 PATRIKA (S-201 INV)</t>
-  </si>
-  <si>
-    <t>7418 PATRIKA *-* (1639)</t>
-  </si>
-  <si>
-    <t>7419 PATRIKA (5121)</t>
-  </si>
-  <si>
-    <t>7420 PATRIKA (720)</t>
-  </si>
-  <si>
-    <t>7421 PATRIKA *-* (25-146)</t>
-  </si>
-  <si>
-    <t>7422 PATRIKA (7302)</t>
-  </si>
-  <si>
-    <t>7423 PATRIKA (254 SBC)</t>
-  </si>
-  <si>
-    <t>7424 PATRIKA *-* (25-047)</t>
-  </si>
-  <si>
-    <t>7425 PATRIKA (2082)</t>
-  </si>
-  <si>
-    <t>7426 PATRIKA (F/G) (4052)</t>
-  </si>
-  <si>
-    <t>7427 PATRIKA (2103)</t>
-  </si>
-  <si>
-    <t>7428 PATRIKA (1223 SBC)</t>
-  </si>
-  <si>
-    <t>7429 PATRIKA (F/G) *-* (1851 MONARCH)</t>
-  </si>
-  <si>
-    <t>7430 PATRIKA (6310 GE)</t>
-  </si>
-  <si>
-    <t>7431 PATRIKA (2532)</t>
-  </si>
-  <si>
-    <t>7432 PATRIKA (1174)</t>
-  </si>
-  <si>
-    <t>7433 PATRIKA (1034)</t>
-  </si>
-  <si>
-    <t>7434 PATRIKA (2204 INV)</t>
-  </si>
-  <si>
-    <t>7435 PATRIKA (06)</t>
-  </si>
-  <si>
-    <t>7436 PATRIKA (303)</t>
-  </si>
-  <si>
-    <t>7437 PATRIKA (25323 INV)</t>
-  </si>
-  <si>
-    <t>7438 PATRIKA (25413)</t>
-  </si>
-  <si>
-    <t>7439 PATRIKA (2597)</t>
-  </si>
-  <si>
-    <t>7440 PATRIKA (25896)</t>
-  </si>
-  <si>
-    <t>7441 PATRIKA *-* (243-C)</t>
-  </si>
-  <si>
-    <t>7442 PATRIKA (1855)</t>
-  </si>
-  <si>
-    <t>7443 PATRIKA (1044 SBC)</t>
-  </si>
-  <si>
-    <t>7444 PATRIKA (2014)</t>
-  </si>
-  <si>
-    <t>7445 PATRIKA (2006)</t>
-  </si>
-  <si>
-    <t>7446 PATRIKA (DCU) (6106)</t>
-  </si>
-  <si>
-    <t>7447 PATRIKA (GOPAL 32)</t>
-  </si>
-  <si>
-    <t>7448 PATRIKA (2005- G)</t>
-  </si>
-  <si>
-    <t>7449 PATRIKA (5180)</t>
-  </si>
-  <si>
-    <t>7450 PATRIKA (DCU) (3753)</t>
-  </si>
-  <si>
-    <t>7451 PATRIKA (273 NEHA)</t>
-  </si>
-  <si>
-    <t>7452 PATRIKA (278-B)</t>
-  </si>
-  <si>
-    <t>9001 CARD (O.C.) (2498 Cream)</t>
+    <t>4251 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>4252 PATRIKA</t>
+  </si>
+  <si>
+    <t>4253 PATRIKA (ANE WALA)</t>
+  </si>
+  <si>
+    <t>4254 PATRIKA (4210)</t>
+  </si>
+  <si>
+    <t>4255 PATRIKA - B (DCU)</t>
+  </si>
+  <si>
+    <t>4255 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>4256 PATRIKA (JC) *-* (M)</t>
+  </si>
+  <si>
+    <t>4257 PATRIKA</t>
+  </si>
+  <si>
+    <t>4258 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>4259 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>4260 PATRIKA</t>
+  </si>
+  <si>
+    <t>4261 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>4262 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>4263 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>4264 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>4265 PATRIKA</t>
+  </si>
+  <si>
+    <t>4266 PATRIKA</t>
+  </si>
+  <si>
+    <t>4267 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>4268 PATRIKA (JC) *-* (M+T)</t>
+  </si>
+  <si>
+    <t>4269 PATRIKA</t>
+  </si>
+  <si>
+    <t>4270 PATRIKA</t>
+  </si>
+  <si>
+    <t>4271 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>4272 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>4273 PATRIKA</t>
+  </si>
+  <si>
+    <t>4274 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>4275 PATRIKA</t>
+  </si>
+  <si>
+    <t>4276 PATRIKA (JC) *-* (M)</t>
+  </si>
+  <si>
+    <t>4277 PATRIKA (JC) *-* (M)</t>
+  </si>
+  <si>
+    <t>4278 PATRIKA</t>
+  </si>
+  <si>
+    <t>4279 PATRIKA</t>
+  </si>
+  <si>
+    <t>4280 PATRIKA</t>
+  </si>
+  <si>
+    <t>4281 PATRIKA</t>
+  </si>
+  <si>
+    <t>4282 PATRIKA</t>
+  </si>
+  <si>
+    <t>4283 PATRIKA - B (YELLOW)</t>
+  </si>
+  <si>
+    <t>4283 PATRIKA (GOLDEN)</t>
+  </si>
+  <si>
+    <t>4284 PATRIKA</t>
+  </si>
+  <si>
+    <t>4285 PATRIKA (JC) *-* (M)</t>
+  </si>
+  <si>
+    <t>4286 PATRIKA</t>
+  </si>
+  <si>
+    <t>4287 PATRIKA</t>
+  </si>
+  <si>
+    <t>4288 PATRIKA</t>
+  </si>
+  <si>
+    <t>4289 PATRIKA</t>
+  </si>
+  <si>
+    <t>4290 PATRIKA</t>
+  </si>
+  <si>
+    <t>4291 PATRIKA</t>
+  </si>
+  <si>
+    <t>4292 PATRIKA</t>
+  </si>
+  <si>
+    <t>4293 PATRIKA</t>
+  </si>
+  <si>
+    <t>4294 PATRIKA</t>
+  </si>
+  <si>
+    <t>4295 PATRIKA</t>
+  </si>
+  <si>
+    <t>4296 PATRIKA</t>
+  </si>
+  <si>
+    <t>4297 PATRIKA</t>
+  </si>
+  <si>
+    <t>4298 PATRIKA</t>
+  </si>
+  <si>
+    <t>4299 PATRIKA</t>
+  </si>
+  <si>
+    <t>4300 PATRIKA</t>
+  </si>
+  <si>
+    <t>4301 PATRIKA</t>
+  </si>
+  <si>
+    <t>4302 PATRIKA</t>
+  </si>
+  <si>
+    <t>4303 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>4304 PATRIKA</t>
+  </si>
+  <si>
+    <t>4305 PATRIKA</t>
+  </si>
+  <si>
+    <t>4306 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>4307 PATRIKA</t>
+  </si>
+  <si>
+    <t>4308 PATRIKA</t>
+  </si>
+  <si>
+    <t>4309 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>4310 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>4311 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>4312 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>5051 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5052 PATRIKA</t>
+  </si>
+  <si>
+    <t>5053 PATRIKA</t>
+  </si>
+  <si>
+    <t>5054 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5055 PATRIKA</t>
+  </si>
+  <si>
+    <t>5056 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>5057 PATRIKA</t>
+  </si>
+  <si>
+    <t>5058 PATRIKA</t>
+  </si>
+  <si>
+    <t>5059 PATRIKA</t>
+  </si>
+  <si>
+    <t>5060 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>5061 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>5062 PATRIKA</t>
+  </si>
+  <si>
+    <t>5063 PATRIKA</t>
+  </si>
+  <si>
+    <t>5064 PATRIKA</t>
+  </si>
+  <si>
+    <t>5065 PATRIKA</t>
+  </si>
+  <si>
+    <t>5066 PATRIKA</t>
+  </si>
+  <si>
+    <t>5067 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>5068 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>5069 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>5070 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>5071 PATRIKA *-* (D)</t>
+  </si>
+  <si>
+    <t>5072 PATRIKA</t>
+  </si>
+  <si>
+    <t>5073 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5074 PATRIKA</t>
+  </si>
+  <si>
+    <t>5075 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>5076 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>5077 PATRIKA</t>
+  </si>
+  <si>
+    <t>5078 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>5079 PATRIKA</t>
+  </si>
+  <si>
+    <t>5080 PATRIKA</t>
+  </si>
+  <si>
+    <t>5081 PATRIKA</t>
+  </si>
+  <si>
+    <t>5083 PATRIKA</t>
+  </si>
+  <si>
+    <t>5084 PATRIKA</t>
+  </si>
+  <si>
+    <t>5085 PATRIKA</t>
+  </si>
+  <si>
+    <t>5086 PATRIKA (JC) *-* (M+D)</t>
+  </si>
+  <si>
+    <t>5087 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>5088 PATRIKA</t>
+  </si>
+  <si>
+    <t>5089 PATRIKA</t>
+  </si>
+  <si>
+    <t>5090 PATRIKA</t>
+  </si>
+  <si>
+    <t>5091 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>5092 PATRIKA</t>
+  </si>
+  <si>
+    <t>5093 PATRIKA</t>
+  </si>
+  <si>
+    <t>5094 PATRIKA</t>
+  </si>
+  <si>
+    <t>5095 PATRIKA</t>
+  </si>
+  <si>
+    <t>5096 PATRIKA</t>
+  </si>
+  <si>
+    <t>5097 PATRIKA</t>
+  </si>
+  <si>
+    <t>5098 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5099 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5100 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>5102 PATRIKA (5021)</t>
+  </si>
+  <si>
+    <t>5103 PATRIKA</t>
+  </si>
+  <si>
+    <t>5104 PATRIKA</t>
+  </si>
+  <si>
+    <t>5105 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>5106 PATRIKA</t>
+  </si>
+  <si>
+    <t>5107 PATRIKA</t>
+  </si>
+  <si>
+    <t>5108 PATRIKA</t>
+  </si>
+  <si>
+    <t>5109 PATRIKA</t>
+  </si>
+  <si>
+    <t>5110 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>5111 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>5112 PATRIKA (JC) *-* (M)</t>
+  </si>
+  <si>
+    <t>5113 PATRIKA</t>
+  </si>
+  <si>
+    <t>5114 PATRIKA *-* (D)</t>
+  </si>
+  <si>
+    <t>5115 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>5116 PATRIKA</t>
+  </si>
+  <si>
+    <t>5117 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>5118 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>5501 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>5502 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5503 PATRIKA</t>
+  </si>
+  <si>
+    <t>5504 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>5505 PATRIKA (JC) *-* (M)</t>
+  </si>
+  <si>
+    <t>5506 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5507 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>5508 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>5509 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>5510 PATRIKA (JC) *-* (M)</t>
+  </si>
+  <si>
+    <t>5511 PATRIKA (JC) *-* (M)</t>
+  </si>
+  <si>
+    <t>5512 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>5513 PATRIKA</t>
+  </si>
+  <si>
+    <t>5514 PATRIKA</t>
+  </si>
+  <si>
+    <t>5515 PATRIKA</t>
+  </si>
+  <si>
+    <t>5516 PATRIKA (JC) *-* (M)</t>
+  </si>
+  <si>
+    <t>5517 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5518 PATRIKA (JC) *-* (M)</t>
+  </si>
+  <si>
+    <t>5519 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5520 PATRIKA</t>
+  </si>
+  <si>
+    <t>5521 PATRIKA (JC) *-* (M)</t>
+  </si>
+  <si>
+    <t>5522 PATRIKA</t>
+  </si>
+  <si>
+    <t>5523 PATRIKA</t>
+  </si>
+  <si>
+    <t>5524 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>5525 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5526 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>5527 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>5528 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5529 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5530 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5531 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>5532 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5533 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5534 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5535 PATRIKA (JC) *-* (M)</t>
+  </si>
+  <si>
+    <t>5537 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>5538 PATRIKA (JC) *-* (M)</t>
+  </si>
+  <si>
+    <t>5539 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>5540 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5541 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>5542 PATRIKA</t>
+  </si>
+  <si>
+    <t>5543 PATRIKA</t>
+  </si>
+  <si>
+    <t>5544 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5545 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5546 PATRIKA</t>
+  </si>
+  <si>
+    <t>5547 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5548 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>5549 PATRIKA</t>
+  </si>
+  <si>
+    <t>5550 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5551 PATRIKA</t>
+  </si>
+  <si>
+    <t>5552 PATRIKA (JC) *-* (M)</t>
+  </si>
+  <si>
+    <t>5553 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5554 PATRIKA *-* (F/G)</t>
+  </si>
+  <si>
+    <t>5555 PATRIKA</t>
+  </si>
+  <si>
+    <t>5556 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5557 PATRIKA</t>
+  </si>
+  <si>
+    <t>5558 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5559 PATRIKA</t>
+  </si>
+  <si>
+    <t>5560 PATRIKA (F/G) *-*</t>
+  </si>
+  <si>
+    <t>5561 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5562 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5563 PATRIKA</t>
+  </si>
+  <si>
+    <t>5564 PATRIKA (JC) *-* (M)</t>
+  </si>
+  <si>
+    <t>5565 PATRIKA</t>
+  </si>
+  <si>
+    <t>5566 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5567 PATRIKA</t>
+  </si>
+  <si>
+    <t>5568 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5569 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5570 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5571 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5572 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5573 PATRIKA</t>
+  </si>
+  <si>
+    <t>5574 PATRIKA</t>
+  </si>
+  <si>
+    <t>5575 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5576 PATRIKA</t>
+  </si>
+  <si>
+    <t>5577 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5578 PATRIKA (JC) *-* (M)</t>
+  </si>
+  <si>
+    <t>5579 PATRIKA (JC) *-* (M)</t>
+  </si>
+  <si>
+    <t>5580 PATRIKA</t>
+  </si>
+  <si>
+    <t>5581 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5582 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5583 PATRIKA</t>
+  </si>
+  <si>
+    <t>5584 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>5585 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5586 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5587 PATRIKA</t>
+  </si>
+  <si>
+    <t>5588 PATRIKA (JC) *-* (M)</t>
+  </si>
+  <si>
+    <t>5589 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5590 PATRIKA</t>
+  </si>
+  <si>
+    <t>5591 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>5592 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5593 PATRIKA</t>
+  </si>
+  <si>
+    <t>5594 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>5595 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5596 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5597 PATRIKA (JC) *-* (M)</t>
+  </si>
+  <si>
+    <t>5599 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5600 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>5601 PATRIKA</t>
+  </si>
+  <si>
+    <t>5602 PATRIKA</t>
+  </si>
+  <si>
+    <t>5603 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5604 PATRIKA</t>
+  </si>
+  <si>
+    <t>5605 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>5606 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5607 PATRIKA</t>
+  </si>
+  <si>
+    <t>5608 PATRIKA</t>
+  </si>
+  <si>
+    <t>5609 PATRIKA</t>
+  </si>
+  <si>
+    <t>5610 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>5611 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5612 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>5613 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>5614 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5615 PATRIKA</t>
+  </si>
+  <si>
+    <t>5616 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>5617 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5618 PATRIKA (JC) *-* (M)</t>
+  </si>
+  <si>
+    <t>5619 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>5620 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>5621 PATRIKA (JC) *-* (M)</t>
+  </si>
+  <si>
+    <t>5622 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5623 PATRIKA</t>
+  </si>
+  <si>
+    <t>5624 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>5625 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>6601 PATRIKA (L)</t>
+  </si>
+  <si>
+    <t>6602 PATRIKA</t>
+  </si>
+  <si>
+    <t>6603 PATRIKA</t>
+  </si>
+  <si>
+    <t>6604 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6605 PATRIKA</t>
+  </si>
+  <si>
+    <t>6606 PATRIKA</t>
+  </si>
+  <si>
+    <t>6607 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6608 PATRIKA</t>
+  </si>
+  <si>
+    <t>6609 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6610 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6611 PATRIKA</t>
+  </si>
+  <si>
+    <t>6612 PATRIKA</t>
+  </si>
+  <si>
+    <t>6613 PATRIKA</t>
+  </si>
+  <si>
+    <t>6614 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>6615 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6616 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6617 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6618 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6619 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6620 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6621 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6622 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6623 PATRIKA</t>
+  </si>
+  <si>
+    <t>6624 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6625 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6626 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6627 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6628 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6629 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6630 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6631 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>6632 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>6633 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6634 PATRIKA</t>
+  </si>
+  <si>
+    <t>6635 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6636 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6637 PATRIKA</t>
+  </si>
+  <si>
+    <t>6638 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6639 PATRIKA</t>
+  </si>
+  <si>
+    <t>6640 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6641 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6642 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6643 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6644 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>6645 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6646 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6647 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6648 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6649 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6650 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6651 PATRIKA</t>
+  </si>
+  <si>
+    <t>6652 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6653 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6654 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6655 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6656 PATRIKA (L)</t>
+  </si>
+  <si>
+    <t>6657 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6658 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6659 PATRIKA</t>
+  </si>
+  <si>
+    <t>6660 PATRIKA</t>
+  </si>
+  <si>
+    <t>6661 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6662 PATRIKA</t>
+  </si>
+  <si>
+    <t>6663 PATRIKA</t>
+  </si>
+  <si>
+    <t>6664 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6665 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6666 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6667 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6668 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>6669 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>6670 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6671 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6672 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6673 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>6674 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>6675 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6676 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>6677 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>7265 PATRIKA (O.C.)</t>
+  </si>
+  <si>
+    <t>7283 PATRIKA {F} (O.C.)</t>
+  </si>
+  <si>
+    <t>7287 PATRIKA (O.C.)</t>
+  </si>
+  <si>
+    <t>7288 PATRIKA (O.C.)</t>
+  </si>
+  <si>
+    <t>7293 PATRIKA (O.C.)</t>
+  </si>
+  <si>
+    <t>7309 PATRIKA (O.C.)</t>
+  </si>
+  <si>
+    <t>7312 PATRIKA (O.C.)</t>
+  </si>
+  <si>
+    <t>7319 PATRIKA (O.C.)</t>
+  </si>
+  <si>
+    <t>7332 PATRIKA (O.C.)</t>
+  </si>
+  <si>
+    <t>7342 PATRIKA (O.C.)</t>
+  </si>
+  <si>
+    <t>7344 PATRIKA (O.C.)</t>
+  </si>
+  <si>
+    <t>7345 PATRIKA (O.C.)</t>
+  </si>
+  <si>
+    <t>7401 PATRIKA</t>
+  </si>
+  <si>
+    <t>7402 PATRIKA</t>
+  </si>
+  <si>
+    <t>7403 PATRIKA</t>
+  </si>
+  <si>
+    <t>7404 PATRIKA</t>
+  </si>
+  <si>
+    <t>7405 PATRIKA</t>
+  </si>
+  <si>
+    <t>7406 PATRIKA</t>
+  </si>
+  <si>
+    <t>7407 PATRIKA *-* (F)</t>
+  </si>
+  <si>
+    <t>7408 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>7409 PATRIKA</t>
+  </si>
+  <si>
+    <t>7410 PATRIKA</t>
+  </si>
+  <si>
+    <t>7411 PATRIKA</t>
+  </si>
+  <si>
+    <t>7412 PATRIKA (Time Lagega) Select Another</t>
+  </si>
+  <si>
+    <t>7413 PATRIKA</t>
+  </si>
+  <si>
+    <t>7414 PATRIKA</t>
+  </si>
+  <si>
+    <t>7415 PATRIKA *-* (F)</t>
+  </si>
+  <si>
+    <t>7416 PATRIKA</t>
+  </si>
+  <si>
+    <t>7417 PATRIKA</t>
+  </si>
+  <si>
+    <t>7418 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>7419 PATRIKA</t>
+  </si>
+  <si>
+    <t>7420 PATRIKA</t>
+  </si>
+  <si>
+    <t>7421 PATRIKA *-* (F)</t>
+  </si>
+  <si>
+    <t>7422 PATRIKA</t>
+  </si>
+  <si>
+    <t>7423 PATRIKA</t>
+  </si>
+  <si>
+    <t>7424 PATRIKA *-* (F)</t>
+  </si>
+  <si>
+    <t>7425 PATRIKA</t>
+  </si>
+  <si>
+    <t>7426 PATRIKA (F/G) *-*</t>
+  </si>
+  <si>
+    <t>7427 PATRIKA</t>
+  </si>
+  <si>
+    <t>7428 PATRIKA</t>
+  </si>
+  <si>
+    <t>7429 PATRIKA (F/G) *-*</t>
+  </si>
+  <si>
+    <t>7430 PATRIKA</t>
+  </si>
+  <si>
+    <t>7431 PATRIKA</t>
+  </si>
+  <si>
+    <t>7432 PATRIKA</t>
+  </si>
+  <si>
+    <t>7433 PATRIKA</t>
+  </si>
+  <si>
+    <t>7434 PATRIKA</t>
+  </si>
+  <si>
+    <t>7435 PATRIKA</t>
+  </si>
+  <si>
+    <t>7436 PATRIKA</t>
+  </si>
+  <si>
+    <t>7437 PATRIKA</t>
+  </si>
+  <si>
+    <t>7438 PATRIKA</t>
+  </si>
+  <si>
+    <t>7439 PATRIKA</t>
+  </si>
+  <si>
+    <t>7440 PATRIKA</t>
+  </si>
+  <si>
+    <t>7441 PATRIKA *-* (F)</t>
+  </si>
+  <si>
+    <t>7442 PATRIKA</t>
+  </si>
+  <si>
+    <t>7443 PATRIKA</t>
+  </si>
+  <si>
+    <t>7444 PATRIKA</t>
+  </si>
+  <si>
+    <t>7445 PATRIKA</t>
+  </si>
+  <si>
+    <t>7446 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>7447 PATRIKA</t>
+  </si>
+  <si>
+    <t>7448 PATRIKA</t>
+  </si>
+  <si>
+    <t>7449 PATRIKA</t>
+  </si>
+  <si>
+    <t>7450 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>7451 PATRIKA</t>
+  </si>
+  <si>
+    <t>7452 PATRIKA</t>
+  </si>
+  <si>
+    <t>9001 CARD (O.C.)</t>
   </si>
   <si>
     <t>9221 CARDS - YELLOW</t>
@@ -1637,250 +1637,250 @@
     <t>9227 CARDS (9*5 OFFSET)</t>
   </si>
   <si>
-    <t>9228 CARDS (Y) (ORANGE WITH ONLY FOIL)</t>
-  </si>
-  <si>
-    <t>9229 CARDS - B (DCU) (GOLDEN WITH GANESH JI &amp; FOIL)</t>
-  </si>
-  <si>
-    <t>9229 CARDS (C) (CREAM WITH GANESH JI &amp; FOIL)</t>
+    <t>9228 CARDS (Y)</t>
+  </si>
+  <si>
+    <t>9229 CARDS - B (DCU)</t>
+  </si>
+  <si>
+    <t>9229 CARDS (C)</t>
   </si>
   <si>
     <t>9230 (CARD) 9*5 SCREEN</t>
   </si>
   <si>
-    <t>9301 CARDS (4242)</t>
-  </si>
-  <si>
-    <t>9302 CARDS (5076)</t>
-  </si>
-  <si>
-    <t>9303 CARDS (5080 Pink)</t>
-  </si>
-  <si>
-    <t>9304 CARDS (5083 Blue)</t>
-  </si>
-  <si>
-    <t>9305 CARDS (9070) (4701 Nice)</t>
-  </si>
-  <si>
-    <t>9306 CARDS (0543 Nice)</t>
-  </si>
-  <si>
-    <t>9307 CARDS *-* (5243 Nice)</t>
-  </si>
-  <si>
-    <t>9308 CARDS (9852)</t>
-  </si>
-  <si>
-    <t>9309 CARDS *-* (ANE WALA) (9561 Vp)</t>
-  </si>
-  <si>
-    <t>9310 CARDS (3103)</t>
-  </si>
-  <si>
-    <t>9311 CARDS (3115)</t>
-  </si>
-  <si>
-    <t>9312 CARDS *-* (208 VV)</t>
-  </si>
-  <si>
-    <t>9313 CARDS *-* (216)</t>
-  </si>
-  <si>
-    <t>9314 CARDS (P-1)</t>
-  </si>
-  <si>
-    <t>9315 CARDS (DCU) (P-2)</t>
-  </si>
-  <si>
-    <t>9316 CARDS (DCU) (P-3)</t>
-  </si>
-  <si>
-    <t>9317 CARDS (P-4)</t>
-  </si>
-  <si>
-    <t>9318 CARDS (25905)</t>
-  </si>
-  <si>
-    <t>9319 CARDS (25906)</t>
-  </si>
-  <si>
-    <t>9320 CARDS (S-20)</t>
-  </si>
-  <si>
-    <t>9321 CARDS (22912 GANESH JI)</t>
-  </si>
-  <si>
-    <t>9322 CARDS *-* (22912 COMMON)</t>
-  </si>
-  <si>
-    <t>9323 CARDS (9005 OLD) (9*5 CREAM FOIL NEW)</t>
-  </si>
-  <si>
-    <t>9324 CARDS (9*5 PINK FOIL NEW)</t>
-  </si>
-  <si>
-    <t>9325 CARDS (5229)</t>
-  </si>
-  <si>
-    <t>9326 CARDS (1601)</t>
-  </si>
-  <si>
-    <t>9327 CARDS (25908)</t>
-  </si>
-  <si>
-    <t>9328 CARDS (2543)</t>
-  </si>
-  <si>
-    <t>9329 CARDS (3606)</t>
-  </si>
-  <si>
-    <t>9330 CARDS *-* (9557)</t>
-  </si>
-  <si>
-    <t>9331 CARDS *-* (ANE WALA) (9560)</t>
-  </si>
-  <si>
-    <t>9332 CARDS (9847)</t>
-  </si>
-  <si>
-    <t>9333 CARDS (ANE WALA) (6042)</t>
-  </si>
-  <si>
-    <t>9334 CARDS (10X6 WHITE (2898))</t>
-  </si>
-  <si>
-    <t>9335 CARDS (9003 OLD) (9*5 WHITE)</t>
-  </si>
-  <si>
-    <t>9336 CARDS (2884)</t>
-  </si>
-  <si>
-    <t>9337 CARDS (1635 AP)</t>
-  </si>
-  <si>
-    <t>9338 CARDS (1637 AP)</t>
-  </si>
-  <si>
-    <t>9339 CARDS (5361)</t>
-  </si>
-  <si>
-    <t>9340 CARDS (5658)</t>
-  </si>
-  <si>
-    <t>9341 CARDS (5497)</t>
-  </si>
-  <si>
-    <t>9342 CARDS (2861)</t>
-  </si>
-  <si>
-    <t>9343 CARDS (9*5 WHTE GE HEAVY)</t>
-  </si>
-  <si>
-    <t>9344 CARDS (689)</t>
-  </si>
-  <si>
-    <t>9345 CARDS (358 KALYANI)</t>
-  </si>
-  <si>
-    <t>9346 CARDS (359)</t>
-  </si>
-  <si>
-    <t>9347 CARDS (2853)</t>
-  </si>
-  <si>
-    <t>9348 CARDS *-* (S-124)</t>
-  </si>
-  <si>
-    <t>9349 CARDS (S-120)</t>
-  </si>
-  <si>
-    <t>9350 CARDS *-* (1632)</t>
-  </si>
-  <si>
-    <t>9351 CARDS *-* (1603)</t>
-  </si>
-  <si>
-    <t>9352 CARDS *-* (1606 AP)</t>
-  </si>
-  <si>
-    <t>9353 CARDS (1618)</t>
-  </si>
-  <si>
-    <t>9354 CARDS (DCU) (345)</t>
-  </si>
-  <si>
-    <t>9355 CARDS (1624)</t>
-  </si>
-  <si>
-    <t>9356 CARDS (2895/2897)</t>
-  </si>
-  <si>
-    <t>9357 CARDS (2872)</t>
-  </si>
-  <si>
-    <t>9358 CARDS (WHITE PATTA)</t>
-  </si>
-  <si>
-    <t>9359 CARDS (PITCH PATTA)</t>
-  </si>
-  <si>
-    <t>9360 CARDS *-* (GOL ANDA)</t>
-  </si>
-  <si>
-    <t>9361 CARDS (25426)</t>
-  </si>
-  <si>
-    <t>9362 CARDS (363)</t>
-  </si>
-  <si>
-    <t>9363 CARDS *-* (1652)</t>
-  </si>
-  <si>
-    <t>9364 CARDS *-* (1612)</t>
-  </si>
-  <si>
-    <t>9365 CARDS (25429)</t>
-  </si>
-  <si>
-    <t>9366 CARDS (25427 GOLDEN)</t>
-  </si>
-  <si>
-    <t>9367 CARDS (5652)</t>
-  </si>
-  <si>
-    <t>9368 CARDS (9*5 SET 25/26 GOLDEN (25425))</t>
-  </si>
-  <si>
-    <t>9369 CARDS (9*5 SET 25/26 YELLOW (25424))</t>
-  </si>
-  <si>
-    <t>9370 CARDS (9*5 SET 25/26 RED (25423))</t>
-  </si>
-  <si>
-    <t>9371 CARDS (3111 VP)</t>
-  </si>
-  <si>
-    <t>9372 CARDS (9*5 YLW SET (2841))</t>
-  </si>
-  <si>
-    <t>9373 CARDS (1482)</t>
-  </si>
-  <si>
-    <t>9374 CARDS (1485)</t>
-  </si>
-  <si>
-    <t>9375 CARDS (1452 WHITE)</t>
-  </si>
-  <si>
-    <t>9376 CARDS (1529 PRINCE)</t>
-  </si>
-  <si>
-    <t>9377 CARDS (DCU) (9*5 SET GREEN (009))</t>
-  </si>
-  <si>
-    <t>9378 CARDS (2892)</t>
+    <t>9301 CARDS</t>
+  </si>
+  <si>
+    <t>9302 CARDS</t>
+  </si>
+  <si>
+    <t>9303 CARDS</t>
+  </si>
+  <si>
+    <t>9304 CARDS</t>
+  </si>
+  <si>
+    <t>9305 CARDS (9070)</t>
+  </si>
+  <si>
+    <t>9306 CARDS</t>
+  </si>
+  <si>
+    <t>9307 CARDS *-* (M)</t>
+  </si>
+  <si>
+    <t>9308 CARDS</t>
+  </si>
+  <si>
+    <t>9309 CARDS *-* (T)</t>
+  </si>
+  <si>
+    <t>9310 CARDS</t>
+  </si>
+  <si>
+    <t>9311 CARDS</t>
+  </si>
+  <si>
+    <t>9312 CARDS *-* (T)</t>
+  </si>
+  <si>
+    <t>9313 CARDS *-* (T)</t>
+  </si>
+  <si>
+    <t>9314 CARDS</t>
+  </si>
+  <si>
+    <t>9315 CARDS (DCU)</t>
+  </si>
+  <si>
+    <t>9316 CARDS (DCU)</t>
+  </si>
+  <si>
+    <t>9317 CARDS</t>
+  </si>
+  <si>
+    <t>9318 CARDS</t>
+  </si>
+  <si>
+    <t>9319 CARDS</t>
+  </si>
+  <si>
+    <t>9320 CARDS</t>
+  </si>
+  <si>
+    <t>9321 CARDS</t>
+  </si>
+  <si>
+    <t>9322 CARDS *-* (M)</t>
+  </si>
+  <si>
+    <t>9323 CARDS (9005 OLD)</t>
+  </si>
+  <si>
+    <t>9324 CARDS</t>
+  </si>
+  <si>
+    <t>9325 CARDS</t>
+  </si>
+  <si>
+    <t>9326 CARDS</t>
+  </si>
+  <si>
+    <t>9327 CARDS</t>
+  </si>
+  <si>
+    <t>9328 CARDS</t>
+  </si>
+  <si>
+    <t>9329 CARDS (Desgin H/d)</t>
+  </si>
+  <si>
+    <t>9330 CARDS *-* (T)</t>
+  </si>
+  <si>
+    <t>9331 CARDS *-*  (T)</t>
+  </si>
+  <si>
+    <t>9332 CARDS</t>
+  </si>
+  <si>
+    <t>9333 CARDS</t>
+  </si>
+  <si>
+    <t>9334 CARDS</t>
+  </si>
+  <si>
+    <t>9335 CARDS (9003 OLD)</t>
+  </si>
+  <si>
+    <t>9336 CARDS</t>
+  </si>
+  <si>
+    <t>9337 CARDS</t>
+  </si>
+  <si>
+    <t>9338 CARDS</t>
+  </si>
+  <si>
+    <t>9339 CARDS</t>
+  </si>
+  <si>
+    <t>9340 CARDS</t>
+  </si>
+  <si>
+    <t>9341 CARDS</t>
+  </si>
+  <si>
+    <t>9342 CARDS</t>
+  </si>
+  <si>
+    <t>9343 CARDS</t>
+  </si>
+  <si>
+    <t>9344 CARDS</t>
+  </si>
+  <si>
+    <t>9345 CARDS</t>
+  </si>
+  <si>
+    <t>9346 CARDS</t>
+  </si>
+  <si>
+    <t>9347 CARDS</t>
+  </si>
+  <si>
+    <t>9348 CARDS *-* (D)</t>
+  </si>
+  <si>
+    <t>9349 CARDS</t>
+  </si>
+  <si>
+    <t>9350 CARDS *-* (T)</t>
+  </si>
+  <si>
+    <t>9351 CARDS *-* (T)</t>
+  </si>
+  <si>
+    <t>9352 CARDS *-* (T)</t>
+  </si>
+  <si>
+    <t>9353 CARDS</t>
+  </si>
+  <si>
+    <t>9354 CARDS (DCU)</t>
+  </si>
+  <si>
+    <t>9355 CARDS</t>
+  </si>
+  <si>
+    <t>9356 CARDS</t>
+  </si>
+  <si>
+    <t>9357 CARDS</t>
+  </si>
+  <si>
+    <t>9358 CARDS</t>
+  </si>
+  <si>
+    <t>9359 CARDS</t>
+  </si>
+  <si>
+    <t>9360 CARDS *-* (M)</t>
+  </si>
+  <si>
+    <t>9361 CARDS</t>
+  </si>
+  <si>
+    <t>9362 CARDS</t>
+  </si>
+  <si>
+    <t>9363 CARDS *-* (T)</t>
+  </si>
+  <si>
+    <t>9364 CARDS *-* (T)</t>
+  </si>
+  <si>
+    <t>9365 CARDS</t>
+  </si>
+  <si>
+    <t>9366 CARDS</t>
+  </si>
+  <si>
+    <t>9367 CARDS</t>
+  </si>
+  <si>
+    <t>9368 CARDS</t>
+  </si>
+  <si>
+    <t>9369 CARDS</t>
+  </si>
+  <si>
+    <t>9370 CARDS</t>
+  </si>
+  <si>
+    <t>9371 CARDS</t>
+  </si>
+  <si>
+    <t>9372 CARDS</t>
+  </si>
+  <si>
+    <t>9373 CARDS</t>
+  </si>
+  <si>
+    <t>9374 CARDS</t>
+  </si>
+  <si>
+    <t>9375 CARDS</t>
+  </si>
+  <si>
+    <t>9376 CARDS</t>
+  </si>
+  <si>
+    <t>9377 CARDS (DCU)</t>
+  </si>
+  <si>
+    <t>9378 CARDS</t>
   </si>
   <si>
     <t>9379 CARDS - R</t>
@@ -1913,16 +1913,16 @@
     <t>9388 CARDS (DCU)</t>
   </si>
   <si>
-    <t>9389 CARDS (9147 RJ)</t>
-  </si>
-  <si>
-    <t>9390 CARDS (DCU) (118KBC)</t>
-  </si>
-  <si>
-    <t>9*4 ENVELOPE (SBC) (CHOTA ENVELOPE (60/40 BILL))</t>
-  </si>
-  <si>
-    <t>9*5 ENVELOPE (FOIL) SBC (BADA ENVLP WITH FOIL (60/40 BILL))</t>
+    <t>9389 CARDS</t>
+  </si>
+  <si>
+    <t>9390 CARDS (DCU)</t>
+  </si>
+  <si>
+    <t>9*4 ENVELOPE (SBC)</t>
+  </si>
+  <si>
+    <t>9*5 ENVELOPE (FOIL) SBC</t>
   </si>
   <si>
     <t>ACRYLIC NAME PLATE</t>
@@ -1946,37 +1946,37 @@
     <t>POCKET ENVELOPE - 300 NO.</t>
   </si>
   <si>
-    <t>Ri-01 ENVELOPE (LX01)</t>
-  </si>
-  <si>
-    <t>Ri-02 ENVELOPE (LX02)</t>
-  </si>
-  <si>
-    <t>Ri-03 ENVELOPE (LX03)</t>
-  </si>
-  <si>
-    <t>Ri-04 ENVELOPE (LX04)</t>
-  </si>
-  <si>
-    <t>Ri-05 ENVELOPE (LX05)</t>
-  </si>
-  <si>
-    <t>Ri-06 ENVELOPE (LX06)</t>
-  </si>
-  <si>
-    <t>Ri-07 ENVELOPE (LX07)</t>
-  </si>
-  <si>
-    <t>Ri-08 ENVELOPE (LX08)</t>
-  </si>
-  <si>
-    <t>Ri-09 ENVELOPE (LX09)</t>
+    <t>Ri-01 ENVELOPE</t>
+  </si>
+  <si>
+    <t>Ri-02 ENVELOPE</t>
+  </si>
+  <si>
+    <t>Ri-03 ENVELOPE</t>
+  </si>
+  <si>
+    <t>Ri-04 ENVELOPE</t>
+  </si>
+  <si>
+    <t>Ri-05 ENVELOPE</t>
+  </si>
+  <si>
+    <t>Ri-06 ENVELOPE</t>
+  </si>
+  <si>
+    <t>Ri-07 ENVELOPE</t>
+  </si>
+  <si>
+    <t>Ri-08 ENVELOPE</t>
+  </si>
+  <si>
+    <t>Ri-09 ENVELOPE</t>
   </si>
   <si>
     <t>RIBBON (रिबीन)</t>
   </si>
   <si>
-    <t>गोल गणेश / गोल फ्लावर (GOL GANESH OR GOL FLOWER)</t>
+    <t>गोल गणेश / गोल फ्लावर</t>
   </si>
   <si>
     <t>Grand Total</t>
@@ -2509,7 +2509,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
@@ -2631,16 +2631,16 @@
         <v>14</v>
       </c>
       <c r="B11" s="24">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C11" s="25">
-        <v>102.5</v>
+        <v>95.5</v>
       </c>
       <c r="D11" s="26">
         <v>1.8</v>
       </c>
       <c r="E11" s="27">
-        <v>184.5</v>
+        <v>171.9</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -2682,16 +2682,16 @@
         <v>17</v>
       </c>
       <c r="B14" s="24">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C14" s="25">
-        <v>142.5</v>
+        <v>138.5</v>
       </c>
       <c r="D14" s="26">
         <v>2</v>
       </c>
       <c r="E14" s="27">
-        <v>285</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -2733,16 +2733,16 @@
         <v>20</v>
       </c>
       <c r="B17" s="24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C17" s="25">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D17" s="26">
         <v>2.1</v>
       </c>
       <c r="E17" s="27">
-        <v>178.5</v>
+        <v>159.6</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -2780,16 +2780,16 @@
         <v>23</v>
       </c>
       <c r="B20" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" s="25">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D20" s="26">
         <v>2.6</v>
       </c>
       <c r="E20" s="27">
-        <v>72.8</v>
+        <v>59.8</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -2797,16 +2797,16 @@
         <v>24</v>
       </c>
       <c r="B21" s="24">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C21" s="25">
-        <v>140.5</v>
+        <v>133.5</v>
       </c>
       <c r="D21" s="26">
         <v>1.8</v>
       </c>
       <c r="E21" s="27">
-        <v>252.9</v>
+        <v>240.3</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2814,16 +2814,16 @@
         <v>25</v>
       </c>
       <c r="B22" s="24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C22" s="25">
-        <v>152</v>
+        <v>143.5</v>
       </c>
       <c r="D22" s="26">
         <v>1.8</v>
       </c>
       <c r="E22" s="27">
-        <v>273.60000000000002</v>
+        <v>258.3</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -2831,16 +2831,16 @@
         <v>26</v>
       </c>
       <c r="B23" s="24">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C23" s="25">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D23" s="26">
         <v>1.8</v>
       </c>
       <c r="E23" s="27">
-        <v>46.8</v>
+        <v>34.200000000000003</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2848,16 +2848,16 @@
         <v>27</v>
       </c>
       <c r="B24" s="24">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C24" s="25">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
       <c r="D24" s="26">
         <v>1.65</v>
       </c>
       <c r="E24" s="27">
-        <v>12.38</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -2880,16 +2880,16 @@
         <v>29</v>
       </c>
       <c r="B26" s="24">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C26" s="25">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D26" s="26">
         <v>2</v>
       </c>
       <c r="E26" s="27">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -2897,16 +2897,16 @@
         <v>30</v>
       </c>
       <c r="B27" s="24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C27" s="25">
-        <v>28</v>
+        <v>20.5</v>
       </c>
       <c r="D27" s="26">
         <v>2</v>
       </c>
       <c r="E27" s="27">
-        <v>56</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -2948,16 +2948,16 @@
         <v>33</v>
       </c>
       <c r="B30" s="24">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C30" s="25">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D30" s="26">
         <v>2.85</v>
       </c>
       <c r="E30" s="27">
-        <v>54.15</v>
+        <v>37.049999999999997</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -2965,16 +2965,16 @@
         <v>34</v>
       </c>
       <c r="B31" s="24">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C31" s="25">
-        <v>85.5</v>
+        <v>77.5</v>
       </c>
       <c r="D31" s="26">
         <v>2.8</v>
       </c>
       <c r="E31" s="27">
-        <v>239.4</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -2999,16 +2999,16 @@
         <v>36</v>
       </c>
       <c r="B33" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33" s="25">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D33" s="26">
         <v>2.5</v>
       </c>
       <c r="E33" s="27">
-        <v>57.5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -3033,16 +3033,16 @@
         <v>38</v>
       </c>
       <c r="B35" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C35" s="25">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D35" s="26">
         <v>2.2999999999999998</v>
       </c>
       <c r="E35" s="27">
-        <v>384.1</v>
+        <v>374.9</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -3095,16 +3095,16 @@
         <v>42</v>
       </c>
       <c r="B39" s="24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C39" s="25">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D39" s="26">
         <v>2.14</v>
       </c>
       <c r="E39" s="27">
-        <v>47.08</v>
+        <v>34.24</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -3115,13 +3115,13 @@
         <v>5</v>
       </c>
       <c r="C40" s="25">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D40" s="26">
         <v>2.14</v>
       </c>
       <c r="E40" s="27">
-        <v>27.82</v>
+        <v>38.520000000000003</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -3149,13 +3149,13 @@
         <v>14</v>
       </c>
       <c r="C42" s="25">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="D42" s="26">
         <v>2.35</v>
       </c>
       <c r="E42" s="27">
-        <v>4.7</v>
+        <v>8.23</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -3163,16 +3163,16 @@
         <v>46</v>
       </c>
       <c r="B43" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C43" s="25">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D43" s="26">
         <v>2.66</v>
       </c>
       <c r="E43" s="27">
-        <v>61.18</v>
+        <v>53.2</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -3393,13 +3393,13 @@
       </c>
       <c r="B58" s="24"/>
       <c r="C58" s="25">
-        <v>68.75</v>
+        <v>65.75</v>
       </c>
       <c r="D58" s="26">
         <v>1.9</v>
       </c>
       <c r="E58" s="27">
-        <v>130.63</v>
+        <v>124.93</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -3603,13 +3603,13 @@
       </c>
       <c r="B72" s="24"/>
       <c r="C72" s="25">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D72" s="26">
         <v>1.2</v>
       </c>
       <c r="E72" s="27">
-        <v>12</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -3618,13 +3618,13 @@
       </c>
       <c r="B73" s="24"/>
       <c r="C73" s="25">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D73" s="26">
         <v>1.2</v>
       </c>
       <c r="E73" s="27">
-        <v>12</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -3737,10 +3737,10 @@
         <v>84</v>
       </c>
       <c r="B81" s="24">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C81" s="25">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="D81" s="28"/>
       <c r="E81" s="29"/>
@@ -3750,10 +3750,10 @@
         <v>85</v>
       </c>
       <c r="B82" s="24">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="C82" s="25">
-        <v>-0.19</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="D82" s="28"/>
       <c r="E82" s="29"/>
@@ -3763,10 +3763,10 @@
         <v>86</v>
       </c>
       <c r="B83" s="24">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="C83" s="25">
-        <v>-0.59</v>
+        <v>-0.69</v>
       </c>
       <c r="D83" s="28"/>
       <c r="E83" s="29"/>
@@ -3787,10 +3787,10 @@
         <v>88</v>
       </c>
       <c r="B85" s="24">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="C85" s="25">
-        <v>-0.34</v>
+        <v>-0.5</v>
       </c>
       <c r="D85" s="28"/>
       <c r="E85" s="29"/>
@@ -3800,10 +3800,10 @@
         <v>89</v>
       </c>
       <c r="B86" s="24">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C86" s="25">
-        <v>0.19</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D86" s="28"/>
       <c r="E86" s="29"/>
@@ -3813,10 +3813,10 @@
         <v>90</v>
       </c>
       <c r="B87" s="24">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C87" s="25">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="D87" s="28"/>
       <c r="E87" s="29"/>
@@ -3839,10 +3839,10 @@
         <v>92</v>
       </c>
       <c r="B89" s="24">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C89" s="25">
-        <v>-0.5</v>
+        <v>-0.52</v>
       </c>
       <c r="D89" s="28"/>
       <c r="E89" s="29"/>
@@ -3868,13 +3868,13 @@
         <v>11</v>
       </c>
       <c r="C91" s="25">
-        <v>9.5</v>
+        <v>-0.5</v>
       </c>
       <c r="D91" s="26">
         <v>12.5</v>
       </c>
       <c r="E91" s="27">
-        <v>118.75</v>
+        <v>-6.25</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -3882,16 +3882,16 @@
         <v>95</v>
       </c>
       <c r="B92" s="24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C92" s="25">
-        <v>31.5</v>
+        <v>30.5</v>
       </c>
       <c r="D92" s="26">
         <v>12.5</v>
       </c>
       <c r="E92" s="27">
-        <v>393.75</v>
+        <v>381.25</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -3899,7 +3899,7 @@
         <v>96</v>
       </c>
       <c r="B93" s="24">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C93" s="25">
         <v>13.5</v>
@@ -3950,16 +3950,16 @@
         <v>99</v>
       </c>
       <c r="B96" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C96" s="25">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="D96" s="26">
         <v>12.5</v>
       </c>
       <c r="E96" s="27">
-        <v>250</v>
+        <v>218.75</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -3987,13 +3987,13 @@
         <v>3</v>
       </c>
       <c r="C98" s="25">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="D98" s="26">
         <v>12.5</v>
       </c>
       <c r="E98" s="27">
-        <v>237.5</v>
+        <v>206.25</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -4001,16 +4001,16 @@
         <v>102</v>
       </c>
       <c r="B99" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C99" s="25">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D99" s="26">
         <v>12.5</v>
       </c>
       <c r="E99" s="27">
-        <v>287.5</v>
+        <v>250</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -4048,16 +4048,16 @@
         <v>105</v>
       </c>
       <c r="B102" s="24">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C102" s="25">
-        <v>3</v>
+        <v>-1.5</v>
       </c>
       <c r="D102" s="26">
         <v>18.5</v>
       </c>
       <c r="E102" s="27">
-        <v>55.5</v>
+        <v>-27.75</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -4065,16 +4065,16 @@
         <v>106</v>
       </c>
       <c r="B103" s="24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" s="25">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="D103" s="26">
         <v>18.5</v>
       </c>
       <c r="E103" s="27">
-        <v>129.5</v>
+        <v>101.75</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -4082,16 +4082,16 @@
         <v>107</v>
       </c>
       <c r="B104" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C104" s="25">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="D104" s="26">
         <v>18.5</v>
       </c>
       <c r="E104" s="27">
-        <v>305.25</v>
+        <v>277.5</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -4116,16 +4116,16 @@
         <v>109</v>
       </c>
       <c r="B106" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C106" s="25">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="D106" s="26">
         <v>18.5</v>
       </c>
       <c r="E106" s="27">
-        <v>342.25</v>
+        <v>305.25</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -4136,13 +4136,13 @@
         <v>1</v>
       </c>
       <c r="C107" s="25">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="D107" s="26">
         <v>18.5</v>
       </c>
       <c r="E107" s="27">
-        <v>185</v>
+        <v>175.75</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -4150,16 +4150,16 @@
         <v>111</v>
       </c>
       <c r="B108" s="24">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C108" s="25">
-        <v>7</v>
+        <v>1.5</v>
       </c>
       <c r="D108" s="26">
         <v>18.5</v>
       </c>
       <c r="E108" s="27">
-        <v>129.5</v>
+        <v>27.75</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -4184,16 +4184,16 @@
         <v>113</v>
       </c>
       <c r="B110" s="24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C110" s="25">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="D110" s="26">
         <v>18.5</v>
       </c>
       <c r="E110" s="27">
-        <v>185</v>
+        <v>101.75</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -4201,16 +4201,16 @@
         <v>114</v>
       </c>
       <c r="B111" s="24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C111" s="25">
-        <v>21.5</v>
+        <v>21</v>
       </c>
       <c r="D111" s="26">
         <v>18.5</v>
       </c>
       <c r="E111" s="27">
-        <v>397.75</v>
+        <v>388.5</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -4252,16 +4252,16 @@
         <v>117</v>
       </c>
       <c r="B114" s="24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C114" s="25">
-        <v>13.5</v>
+        <v>7.5</v>
       </c>
       <c r="D114" s="26">
         <v>11.5</v>
       </c>
       <c r="E114" s="27">
-        <v>155.25</v>
+        <v>86.25</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -4269,16 +4269,16 @@
         <v>118</v>
       </c>
       <c r="B115" s="24">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C115" s="25">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="D115" s="26">
         <v>11.5</v>
       </c>
       <c r="E115" s="27">
-        <v>40.25</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -4286,16 +4286,16 @@
         <v>119</v>
       </c>
       <c r="B116" s="24">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C116" s="25">
-        <v>19.5</v>
+        <v>15.5</v>
       </c>
       <c r="D116" s="26">
         <v>11.5</v>
       </c>
       <c r="E116" s="27">
-        <v>224.25</v>
+        <v>178.25</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -4320,16 +4320,16 @@
         <v>121</v>
       </c>
       <c r="B118" s="24">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C118" s="25">
-        <v>20.5</v>
+        <v>16</v>
       </c>
       <c r="D118" s="26">
         <v>11.5</v>
       </c>
       <c r="E118" s="27">
-        <v>235.75</v>
+        <v>184</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -4354,16 +4354,16 @@
         <v>123</v>
       </c>
       <c r="B120" s="24">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C120" s="25">
-        <v>13</v>
+        <v>-3</v>
       </c>
       <c r="D120" s="26">
         <v>11.5</v>
       </c>
       <c r="E120" s="27">
-        <v>149.5</v>
+        <v>-34.5</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -4371,16 +4371,16 @@
         <v>124</v>
       </c>
       <c r="B121" s="24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C121" s="25">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="D121" s="26">
         <v>11.5</v>
       </c>
       <c r="E121" s="27">
-        <v>126.5</v>
+        <v>97.75</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -4425,13 +4425,13 @@
         <v>11</v>
       </c>
       <c r="C124" s="25">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="D124" s="26">
         <v>11.5</v>
       </c>
       <c r="E124" s="27">
-        <v>172.5</v>
+        <v>143.75</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -4439,16 +4439,16 @@
         <v>128</v>
       </c>
       <c r="B125" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C125" s="25">
-        <v>23.5</v>
+        <v>21.5</v>
       </c>
       <c r="D125" s="26">
         <v>11.5</v>
       </c>
       <c r="E125" s="27">
-        <v>270.25</v>
+        <v>247.25</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -4467,16 +4467,16 @@
         <v>130</v>
       </c>
       <c r="B127" s="24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" s="25">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="D127" s="26">
         <v>0.95</v>
       </c>
       <c r="E127" s="27">
-        <v>214.7</v>
+        <v>205.2</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -4484,16 +4484,16 @@
         <v>131</v>
       </c>
       <c r="B128" s="24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C128" s="25">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D128" s="26">
         <v>1</v>
       </c>
       <c r="E128" s="27">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -4501,16 +4501,16 @@
         <v>132</v>
       </c>
       <c r="B129" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C129" s="25">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="D129" s="26">
         <v>1</v>
       </c>
       <c r="E129" s="27">
-        <v>173</v>
+        <v>153</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -4518,16 +4518,16 @@
         <v>133</v>
       </c>
       <c r="B130" s="24">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C130" s="25">
-        <v>82</v>
+        <v>-28</v>
       </c>
       <c r="D130" s="26">
         <v>1.1499999999999999</v>
       </c>
       <c r="E130" s="27">
-        <v>94.3</v>
+        <v>-32.200000000000003</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -4595,16 +4595,16 @@
         <v>138</v>
       </c>
       <c r="B135" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C135" s="25">
-        <v>100.5</v>
+        <v>95.5</v>
       </c>
       <c r="D135" s="26">
         <v>2.7</v>
       </c>
       <c r="E135" s="27">
-        <v>271.35000000000002</v>
+        <v>257.85000000000002</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -4659,16 +4659,16 @@
         <v>142</v>
       </c>
       <c r="B139" s="24">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C139" s="25">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="D139" s="26">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="E139" s="27">
-        <v>386.4</v>
+        <v>336</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -4708,16 +4708,16 @@
         <v>145</v>
       </c>
       <c r="B142" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C142" s="25">
-        <v>16.5</v>
+        <v>11.5</v>
       </c>
       <c r="D142" s="26">
         <v>3.33</v>
       </c>
       <c r="E142" s="27">
-        <v>54.95</v>
+        <v>38.299999999999997</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -4795,10 +4795,10 @@
         <v>36.5</v>
       </c>
       <c r="D147" s="26">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="E147" s="27">
-        <v>102.2</v>
+        <v>100.81</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -4806,16 +4806,16 @@
         <v>151</v>
       </c>
       <c r="B148" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C148" s="25">
-        <v>22.5</v>
+        <v>21.5</v>
       </c>
       <c r="D148" s="26">
         <v>2.65</v>
       </c>
       <c r="E148" s="27">
-        <v>59.63</v>
+        <v>56.98</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -4855,16 +4855,16 @@
         <v>154</v>
       </c>
       <c r="B151" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C151" s="25">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="D151" s="26">
         <v>3.56</v>
       </c>
       <c r="E151" s="27">
-        <v>69.42</v>
+        <v>64.08</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -4919,16 +4919,16 @@
         <v>158</v>
       </c>
       <c r="B155" s="24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C155" s="25">
-        <v>33.5</v>
+        <v>22.5</v>
       </c>
       <c r="D155" s="26">
         <v>4.5</v>
       </c>
       <c r="E155" s="27">
-        <v>150.75</v>
+        <v>101.25</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -4953,16 +4953,16 @@
         <v>160</v>
       </c>
       <c r="B157" s="24">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C157" s="25">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D157" s="26">
         <v>4.5</v>
       </c>
       <c r="E157" s="27">
-        <v>171</v>
+        <v>139.5</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -5034,16 +5034,16 @@
         <v>165</v>
       </c>
       <c r="B162" s="24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C162" s="25">
-        <v>66.5</v>
+        <v>64.5</v>
       </c>
       <c r="D162" s="26">
         <v>3.4</v>
       </c>
       <c r="E162" s="27">
-        <v>226.1</v>
+        <v>219.3</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -5051,16 +5051,16 @@
         <v>166</v>
       </c>
       <c r="B163" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C163" s="25">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D163" s="26">
         <v>2.7</v>
       </c>
       <c r="E163" s="27">
-        <v>259.2</v>
+        <v>256.5</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -5068,16 +5068,16 @@
         <v>167</v>
       </c>
       <c r="B164" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C164" s="25">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D164" s="26">
         <v>2.6</v>
       </c>
       <c r="E164" s="27">
-        <v>197.6</v>
+        <v>184.6</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -5085,16 +5085,16 @@
         <v>168</v>
       </c>
       <c r="B165" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C165" s="25">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D165" s="26">
         <v>2.6</v>
       </c>
       <c r="E165" s="27">
-        <v>187.2</v>
+        <v>174.2</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -5145,16 +5145,16 @@
         <v>172</v>
       </c>
       <c r="B169" s="24">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C169" s="25">
-        <v>77.5</v>
+        <v>71.5</v>
       </c>
       <c r="D169" s="26">
         <v>3.89</v>
       </c>
       <c r="E169" s="27">
-        <v>301.48</v>
+        <v>278.14</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -5179,16 +5179,16 @@
         <v>174</v>
       </c>
       <c r="B171" s="24">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C171" s="25">
-        <v>12.5</v>
+        <v>-2</v>
       </c>
       <c r="D171" s="26">
         <v>2.7</v>
       </c>
       <c r="E171" s="27">
-        <v>33.75</v>
+        <v>-5.4</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -5196,16 +5196,16 @@
         <v>175</v>
       </c>
       <c r="B172" s="24">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C172" s="25">
-        <v>18</v>
+        <v>1.5</v>
       </c>
       <c r="D172" s="26">
         <v>2.7</v>
       </c>
       <c r="E172" s="27">
-        <v>48.6</v>
+        <v>4.05</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -5230,16 +5230,16 @@
         <v>177</v>
       </c>
       <c r="B174" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C174" s="25">
-        <v>43</v>
+        <v>42.5</v>
       </c>
       <c r="D174" s="26">
         <v>4.5</v>
       </c>
       <c r="E174" s="27">
-        <v>193.5</v>
+        <v>191.25</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -5247,16 +5247,16 @@
         <v>178</v>
       </c>
       <c r="B175" s="24">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C175" s="25">
-        <v>55.5</v>
+        <v>35.5</v>
       </c>
       <c r="D175" s="26">
         <v>3</v>
       </c>
       <c r="E175" s="27">
-        <v>166.5</v>
+        <v>106.5</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -5264,16 +5264,16 @@
         <v>179</v>
       </c>
       <c r="B176" s="24">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C176" s="25">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D176" s="26">
         <v>3</v>
       </c>
       <c r="E176" s="27">
-        <v>162</v>
+        <v>102</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -5281,16 +5281,16 @@
         <v>180</v>
       </c>
       <c r="B177" s="24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C177" s="25">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D177" s="26">
         <v>3.88</v>
       </c>
       <c r="E177" s="27">
-        <v>155</v>
+        <v>151.13</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -5298,16 +5298,16 @@
         <v>181</v>
       </c>
       <c r="B178" s="24">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C178" s="25">
-        <v>99.5</v>
+        <v>89.5</v>
       </c>
       <c r="D178" s="26">
         <v>3.25</v>
       </c>
       <c r="E178" s="27">
-        <v>323.38</v>
+        <v>290.88</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -5315,16 +5315,16 @@
         <v>182</v>
       </c>
       <c r="B179" s="24">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C179" s="25">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="D179" s="26">
         <v>3.5</v>
       </c>
       <c r="E179" s="27">
-        <v>210</v>
+        <v>126</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
@@ -5332,16 +5332,16 @@
         <v>183</v>
       </c>
       <c r="B180" s="24">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C180" s="25">
-        <v>35.5</v>
+        <v>28.5</v>
       </c>
       <c r="D180" s="26">
         <v>2.7</v>
       </c>
       <c r="E180" s="27">
-        <v>95.85</v>
+        <v>76.95</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
@@ -5349,16 +5349,16 @@
         <v>184</v>
       </c>
       <c r="B181" s="24">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C181" s="25">
-        <v>21.5</v>
+        <v>8</v>
       </c>
       <c r="D181" s="26">
         <v>3.16</v>
       </c>
       <c r="E181" s="27">
-        <v>67.94</v>
+        <v>25.28</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
@@ -5366,16 +5366,16 @@
         <v>185</v>
       </c>
       <c r="B182" s="24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C182" s="25">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D182" s="26">
         <v>2.66</v>
       </c>
       <c r="E182" s="27">
-        <v>53.2</v>
+        <v>29.26</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
@@ -5383,16 +5383,16 @@
         <v>186</v>
       </c>
       <c r="B183" s="24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C183" s="25">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D183" s="26">
         <v>4</v>
       </c>
       <c r="E183" s="27">
-        <v>128</v>
+        <v>92</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
@@ -5400,16 +5400,16 @@
         <v>187</v>
       </c>
       <c r="B184" s="24">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C184" s="25">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="D184" s="26">
         <v>4</v>
       </c>
       <c r="E184" s="27">
-        <v>372</v>
+        <v>308</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -5466,16 +5466,16 @@
         <v>191</v>
       </c>
       <c r="B188" s="24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C188" s="25">
-        <v>137.5</v>
+        <v>131</v>
       </c>
       <c r="D188" s="26">
         <v>3.5</v>
       </c>
       <c r="E188" s="27">
-        <v>481.25</v>
+        <v>458.5</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -5500,16 +5500,16 @@
         <v>193</v>
       </c>
       <c r="B190" s="24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C190" s="25">
-        <v>128</v>
+        <v>127.5</v>
       </c>
       <c r="D190" s="26">
         <v>3.25</v>
       </c>
       <c r="E190" s="27">
-        <v>416</v>
+        <v>414.38</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -5517,16 +5517,16 @@
         <v>194</v>
       </c>
       <c r="B191" s="24">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C191" s="25">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D191" s="26">
         <v>3.25</v>
       </c>
       <c r="E191" s="27">
-        <v>169</v>
+        <v>172.25</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -5594,16 +5594,16 @@
         <v>199</v>
       </c>
       <c r="B196" s="24">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C196" s="25">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D196" s="26">
         <v>8.25</v>
       </c>
       <c r="E196" s="27">
-        <v>74.25</v>
+        <v>41.25</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
@@ -5611,16 +5611,16 @@
         <v>200</v>
       </c>
       <c r="B197" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C197" s="25">
-        <v>25</v>
+        <v>23.5</v>
       </c>
       <c r="D197" s="26">
         <v>5.75</v>
       </c>
       <c r="E197" s="27">
-        <v>143.75</v>
+        <v>135.13</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
@@ -5628,16 +5628,16 @@
         <v>201</v>
       </c>
       <c r="B198" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C198" s="25">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D198" s="26">
         <v>4.8</v>
       </c>
       <c r="E198" s="27">
-        <v>48</v>
+        <v>38.4</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -5645,16 +5645,16 @@
         <v>202</v>
       </c>
       <c r="B199" s="24">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C199" s="25">
-        <v>64.5</v>
+        <v>38.5</v>
       </c>
       <c r="D199" s="26">
         <v>6.3</v>
       </c>
       <c r="E199" s="27">
-        <v>406.35</v>
+        <v>242.55</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
@@ -5662,16 +5662,16 @@
         <v>203</v>
       </c>
       <c r="B200" s="24">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C200" s="25">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D200" s="26">
         <v>3</v>
       </c>
       <c r="E200" s="27">
-        <v>387</v>
+        <v>360</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
@@ -5696,16 +5696,16 @@
         <v>205</v>
       </c>
       <c r="B202" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C202" s="25">
-        <v>37.5</v>
+        <v>32.5</v>
       </c>
       <c r="D202" s="26">
         <v>3.8</v>
       </c>
       <c r="E202" s="27">
-        <v>142.5</v>
+        <v>123.5</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
@@ -5713,16 +5713,16 @@
         <v>206</v>
       </c>
       <c r="B203" s="24">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C203" s="25">
-        <v>6</v>
+        <v>22.5</v>
       </c>
       <c r="D203" s="26">
         <v>3.9</v>
       </c>
       <c r="E203" s="27">
-        <v>23.4</v>
+        <v>87.75</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
@@ -5730,16 +5730,16 @@
         <v>207</v>
       </c>
       <c r="B204" s="24">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C204" s="25">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D204" s="26">
         <v>3.9</v>
       </c>
       <c r="E204" s="27">
-        <v>78</v>
+        <v>54.6</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
@@ -5792,16 +5792,16 @@
         <v>211</v>
       </c>
       <c r="B208" s="24">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C208" s="25">
-        <v>47</v>
+        <v>34.5</v>
       </c>
       <c r="D208" s="26">
         <v>3.5</v>
       </c>
       <c r="E208" s="27">
-        <v>164.5</v>
+        <v>120.75</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -5809,16 +5809,16 @@
         <v>212</v>
       </c>
       <c r="B209" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C209" s="25">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D209" s="26">
         <v>4.25</v>
       </c>
       <c r="E209" s="27">
-        <v>187</v>
+        <v>165.75</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -5826,16 +5826,16 @@
         <v>213</v>
       </c>
       <c r="B210" s="24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C210" s="25">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="D210" s="26">
         <v>3.5</v>
       </c>
       <c r="E210" s="27">
-        <v>24.5</v>
+        <v>33.25</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -5956,16 +5956,16 @@
         <v>221</v>
       </c>
       <c r="B218" s="24">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C218" s="25">
-        <v>35.5</v>
+        <v>10.5</v>
       </c>
       <c r="D218" s="26">
         <v>4.28</v>
       </c>
       <c r="E218" s="27">
-        <v>151.94</v>
+        <v>44.94</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -5990,16 +5990,16 @@
         <v>223</v>
       </c>
       <c r="B220" s="24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C220" s="25">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D220" s="26">
         <v>4.5</v>
       </c>
       <c r="E220" s="27">
-        <v>211.5</v>
+        <v>193.5</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
@@ -6022,17 +6022,11 @@
         <v>225</v>
       </c>
       <c r="B222" s="24">
-        <v>11</v>
-      </c>
-      <c r="C222" s="25">
-        <v>5</v>
-      </c>
-      <c r="D222" s="26">
-        <v>3.1</v>
-      </c>
-      <c r="E222" s="27">
-        <v>15.5</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C222" s="29"/>
+      <c r="D222" s="28"/>
+      <c r="E222" s="29"/>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="23" t="s">
@@ -6054,16 +6048,16 @@
         <v>227</v>
       </c>
       <c r="B224" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C224" s="25">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="D224" s="26">
         <v>4.5</v>
       </c>
       <c r="E224" s="27">
-        <v>83.25</v>
+        <v>74.25</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
@@ -6071,16 +6065,16 @@
         <v>228</v>
       </c>
       <c r="B225" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C225" s="25">
-        <v>19</v>
+        <v>14.5</v>
       </c>
       <c r="D225" s="26">
         <v>6.25</v>
       </c>
       <c r="E225" s="27">
-        <v>118.75</v>
+        <v>90.63</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
@@ -6088,16 +6082,16 @@
         <v>229</v>
       </c>
       <c r="B226" s="24">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C226" s="25">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D226" s="26">
         <v>4.25</v>
       </c>
       <c r="E226" s="27">
-        <v>187</v>
+        <v>165.75</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
@@ -6105,16 +6099,16 @@
         <v>230</v>
       </c>
       <c r="B227" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C227" s="25">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D227" s="26">
         <v>4.4000000000000004</v>
       </c>
       <c r="E227" s="27">
-        <v>131.9</v>
+        <v>109.92</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
@@ -6122,16 +6116,16 @@
         <v>231</v>
       </c>
       <c r="B228" s="24">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C228" s="25">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="D228" s="26">
         <v>4.3099999999999996</v>
       </c>
       <c r="E228" s="27">
-        <v>254.24</v>
+        <v>176.68</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
@@ -6188,16 +6182,16 @@
         <v>235</v>
       </c>
       <c r="B232" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C232" s="25">
-        <v>64.5</v>
+        <v>63.5</v>
       </c>
       <c r="D232" s="26">
         <v>6.5</v>
       </c>
       <c r="E232" s="27">
-        <v>419.25</v>
+        <v>412.75</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
@@ -6220,16 +6214,16 @@
         <v>237</v>
       </c>
       <c r="B234" s="24">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C234" s="25">
-        <v>19.5</v>
+        <v>6.5</v>
       </c>
       <c r="D234" s="26">
         <v>4.7</v>
       </c>
       <c r="E234" s="27">
-        <v>91.65</v>
+        <v>30.55</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
@@ -6252,16 +6246,16 @@
         <v>239</v>
       </c>
       <c r="B236" s="24">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C236" s="25">
-        <v>74</v>
+        <v>64.5</v>
       </c>
       <c r="D236" s="26">
         <v>4.5</v>
       </c>
       <c r="E236" s="27">
-        <v>333</v>
+        <v>290.25</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
@@ -6269,16 +6263,16 @@
         <v>240</v>
       </c>
       <c r="B237" s="24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C237" s="25">
-        <v>53.5</v>
+        <v>47.5</v>
       </c>
       <c r="D237" s="26">
-        <v>6</v>
+        <v>6.16</v>
       </c>
       <c r="E237" s="27">
-        <v>321</v>
+        <v>292.51</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
@@ -6286,16 +6280,16 @@
         <v>241</v>
       </c>
       <c r="B238" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C238" s="25">
-        <v>16.5</v>
+        <v>42.5</v>
       </c>
       <c r="D238" s="26">
         <v>5</v>
       </c>
       <c r="E238" s="27">
-        <v>82.5</v>
+        <v>212.5</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
@@ -6337,16 +6331,16 @@
         <v>244</v>
       </c>
       <c r="B241" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C241" s="25">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D241" s="26">
         <v>6</v>
       </c>
       <c r="E241" s="27">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
@@ -6435,16 +6429,16 @@
         <v>250</v>
       </c>
       <c r="B247" s="24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C247" s="25">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D247" s="26">
         <v>4.91</v>
       </c>
       <c r="E247" s="27">
-        <v>274.95</v>
+        <v>270.04000000000002</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
@@ -6467,16 +6461,16 @@
         <v>252</v>
       </c>
       <c r="B249" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C249" s="25">
-        <v>67.5</v>
+        <v>66</v>
       </c>
       <c r="D249" s="26">
         <v>3.15</v>
       </c>
       <c r="E249" s="27">
-        <v>212.63</v>
+        <v>207.9</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
@@ -6484,16 +6478,16 @@
         <v>253</v>
       </c>
       <c r="B250" s="24">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C250" s="25">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D250" s="26">
         <v>5.92</v>
       </c>
       <c r="E250" s="27">
-        <v>100.7</v>
+        <v>82.93</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
@@ -6518,16 +6512,16 @@
         <v>255</v>
       </c>
       <c r="B252" s="24">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C252" s="25">
-        <v>67.5</v>
+        <v>64</v>
       </c>
       <c r="D252" s="26">
         <v>4.16</v>
       </c>
       <c r="E252" s="27">
-        <v>280.8</v>
+        <v>266.24</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
@@ -6566,15 +6560,17 @@
       <c r="A255" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="B255" s="24"/>
+      <c r="B255" s="24">
+        <v>1</v>
+      </c>
       <c r="C255" s="25">
-        <v>43.5</v>
+        <v>41.5</v>
       </c>
       <c r="D255" s="26">
         <v>4.5</v>
       </c>
       <c r="E255" s="27">
-        <v>195.75</v>
+        <v>186.75</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
@@ -6582,16 +6578,16 @@
         <v>259</v>
       </c>
       <c r="B256" s="24">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C256" s="25">
-        <v>165</v>
+        <v>156.5</v>
       </c>
       <c r="D256" s="26">
         <v>4.29</v>
       </c>
       <c r="E256" s="27">
-        <v>707.07</v>
+        <v>670.64</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
@@ -6631,16 +6627,16 @@
         <v>262</v>
       </c>
       <c r="B259" s="24">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C259" s="25">
-        <v>14.5</v>
+        <v>8.5</v>
       </c>
       <c r="D259" s="26">
         <v>5.13</v>
       </c>
       <c r="E259" s="27">
-        <v>74.39</v>
+        <v>43.61</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
@@ -6689,16 +6685,16 @@
         <v>266</v>
       </c>
       <c r="B263" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C263" s="25">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D263" s="26">
         <v>11.5</v>
       </c>
       <c r="E263" s="27">
-        <v>264.5</v>
+        <v>230</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
@@ -6751,16 +6747,16 @@
         <v>270</v>
       </c>
       <c r="B267" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C267" s="25">
-        <v>14.35</v>
+        <v>13.35</v>
       </c>
       <c r="D267" s="26">
         <v>9.4499999999999993</v>
       </c>
       <c r="E267" s="27">
-        <v>135.61000000000001</v>
+        <v>126.16</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
@@ -6894,16 +6890,16 @@
         <v>279</v>
       </c>
       <c r="B276" s="24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C276" s="25">
-        <v>29.5</v>
+        <v>27.5</v>
       </c>
       <c r="D276" s="26">
         <v>5.25</v>
       </c>
       <c r="E276" s="27">
-        <v>154.88</v>
+        <v>144.38</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
@@ -6926,16 +6922,16 @@
         <v>281</v>
       </c>
       <c r="B278" s="24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C278" s="25">
-        <v>10</v>
+        <v>-4</v>
       </c>
       <c r="D278" s="26">
         <v>6.75</v>
       </c>
       <c r="E278" s="27">
-        <v>67.5</v>
+        <v>-27</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
@@ -6958,16 +6954,16 @@
         <v>283</v>
       </c>
       <c r="B280" s="24">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C280" s="25">
-        <v>13</v>
+        <v>5.5</v>
       </c>
       <c r="D280" s="26">
         <v>10</v>
       </c>
       <c r="E280" s="27">
-        <v>130</v>
+        <v>55</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
@@ -7007,16 +7003,16 @@
         <v>286</v>
       </c>
       <c r="B283" s="24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C283" s="25">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D283" s="26">
         <v>4.28</v>
       </c>
       <c r="E283" s="27">
-        <v>256.8</v>
+        <v>248.24</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
@@ -7024,16 +7020,16 @@
         <v>287</v>
       </c>
       <c r="B284" s="24">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C284" s="25">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D284" s="26">
         <v>4.28</v>
       </c>
       <c r="E284" s="27">
-        <v>94.16</v>
+        <v>81.319999999999993</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
@@ -7056,16 +7052,16 @@
         <v>289</v>
       </c>
       <c r="B286" s="24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C286" s="25">
-        <v>24.5</v>
+        <v>16.5</v>
       </c>
       <c r="D286" s="26">
         <v>7.87</v>
       </c>
       <c r="E286" s="27">
-        <v>192.86</v>
+        <v>129.88999999999999</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
@@ -7105,16 +7101,16 @@
         <v>292</v>
       </c>
       <c r="B289" s="24">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C289" s="25">
-        <v>12</v>
+        <v>3.5</v>
       </c>
       <c r="D289" s="26">
         <v>9</v>
       </c>
       <c r="E289" s="27">
-        <v>108</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
@@ -7142,13 +7138,13 @@
         <v>8</v>
       </c>
       <c r="C291" s="25">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D291" s="26">
         <v>9</v>
       </c>
       <c r="E291" s="27">
-        <v>72</v>
+        <v>36</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
@@ -7173,16 +7169,16 @@
         <v>296</v>
       </c>
       <c r="B293" s="24">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C293" s="25">
-        <v>19.5</v>
+        <v>14.5</v>
       </c>
       <c r="D293" s="26">
         <v>9</v>
       </c>
       <c r="E293" s="27">
-        <v>175.5</v>
+        <v>130.5</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
@@ -7320,16 +7316,16 @@
         <v>305</v>
       </c>
       <c r="B302" s="24">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C302" s="25">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D302" s="26">
         <v>5.7</v>
       </c>
       <c r="E302" s="27">
-        <v>148.19999999999999</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
@@ -7337,16 +7333,16 @@
         <v>306</v>
       </c>
       <c r="B303" s="24">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C303" s="25">
-        <v>37.5</v>
+        <v>25</v>
       </c>
       <c r="D303" s="26">
         <v>5.94</v>
       </c>
       <c r="E303" s="27">
-        <v>222.75</v>
+        <v>148.5</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
@@ -7354,16 +7350,16 @@
         <v>307</v>
       </c>
       <c r="B304" s="24">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C304" s="25">
-        <v>17.5</v>
+        <v>11</v>
       </c>
       <c r="D304" s="26">
         <v>6.4</v>
       </c>
       <c r="E304" s="27">
-        <v>112</v>
+        <v>70.400000000000006</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
@@ -7371,16 +7367,16 @@
         <v>308</v>
       </c>
       <c r="B305" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C305" s="25">
-        <v>17.5</v>
+        <v>20.5</v>
       </c>
       <c r="D305" s="26">
         <v>7.36</v>
       </c>
       <c r="E305" s="27">
-        <v>128.80000000000001</v>
+        <v>150.88</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
@@ -7388,16 +7384,16 @@
         <v>309</v>
       </c>
       <c r="B306" s="24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C306" s="25">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="D306" s="26">
         <v>4.75</v>
       </c>
       <c r="E306" s="27">
-        <v>47.5</v>
+        <v>40.380000000000003</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
@@ -7405,16 +7401,16 @@
         <v>310</v>
       </c>
       <c r="B307" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C307" s="25">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D307" s="26">
         <v>9.1999999999999993</v>
       </c>
       <c r="E307" s="27">
-        <v>230</v>
+        <v>239.2</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
@@ -7452,31 +7448,33 @@
         <v>313</v>
       </c>
       <c r="B310" s="24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C310" s="25">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="D310" s="26">
         <v>7.52</v>
       </c>
       <c r="E310" s="27">
-        <v>82.72</v>
+        <v>101.52</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="23" t="s">
         <v>314</v>
       </c>
-      <c r="B311" s="24"/>
+      <c r="B311" s="24">
+        <v>1</v>
+      </c>
       <c r="C311" s="25">
-        <v>28.5</v>
+        <v>26.5</v>
       </c>
       <c r="D311" s="26">
         <v>6.5</v>
       </c>
       <c r="E311" s="27">
-        <v>185.25</v>
+        <v>172.25</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
@@ -7516,31 +7514,33 @@
         <v>317</v>
       </c>
       <c r="B314" s="24">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C314" s="25">
-        <v>-7</v>
+        <v>10</v>
       </c>
       <c r="D314" s="26">
-        <v>7.52</v>
+        <v>7.51</v>
       </c>
       <c r="E314" s="27">
-        <v>-52.64</v>
+        <v>75.099999999999994</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="23" t="s">
         <v>318</v>
       </c>
-      <c r="B315" s="24"/>
+      <c r="B315" s="24">
+        <v>2</v>
+      </c>
       <c r="C315" s="25">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D315" s="26">
         <v>7.13</v>
       </c>
       <c r="E315" s="27">
-        <v>149.72999999999999</v>
+        <v>128.34</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
@@ -7548,16 +7548,16 @@
         <v>319</v>
       </c>
       <c r="B316" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C316" s="25">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="D316" s="26">
         <v>6.65</v>
       </c>
       <c r="E316" s="27">
-        <v>126.35</v>
+        <v>103.08</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
@@ -7565,16 +7565,16 @@
         <v>320</v>
       </c>
       <c r="B317" s="24">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C317" s="25">
-        <v>11.5</v>
+        <v>2</v>
       </c>
       <c r="D317" s="26">
         <v>5.94</v>
       </c>
       <c r="E317" s="27">
-        <v>68.31</v>
+        <v>11.88</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
@@ -7613,13 +7613,13 @@
         <v>12</v>
       </c>
       <c r="C320" s="25">
-        <v>54.5</v>
+        <v>53.5</v>
       </c>
       <c r="D320" s="26">
         <v>7.13</v>
       </c>
       <c r="E320" s="27">
-        <v>388.59</v>
+        <v>381.46</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
@@ -7627,16 +7627,16 @@
         <v>324</v>
       </c>
       <c r="B321" s="24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C321" s="25">
-        <v>14</v>
+        <v>6.5</v>
       </c>
       <c r="D321" s="26">
         <v>7</v>
       </c>
       <c r="E321" s="27">
-        <v>98</v>
+        <v>45.5</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
@@ -7644,16 +7644,16 @@
         <v>325</v>
       </c>
       <c r="B322" s="24">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C322" s="25">
-        <v>13.5</v>
+        <v>-1.5</v>
       </c>
       <c r="D322" s="26">
         <v>6.6</v>
       </c>
       <c r="E322" s="27">
-        <v>89.1</v>
+        <v>-9.9</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
@@ -7661,16 +7661,16 @@
         <v>326</v>
       </c>
       <c r="B323" s="24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C323" s="25">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D323" s="26">
         <v>7.52</v>
       </c>
       <c r="E323" s="27">
-        <v>142.88</v>
+        <v>165.44</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
@@ -7695,16 +7695,16 @@
         <v>328</v>
       </c>
       <c r="B325" s="24">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C325" s="25">
-        <v>27.5</v>
+        <v>23</v>
       </c>
       <c r="D325" s="26">
         <v>8.1999999999999993</v>
       </c>
       <c r="E325" s="27">
-        <v>225.5</v>
+        <v>188.6</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
@@ -7712,16 +7712,16 @@
         <v>329</v>
       </c>
       <c r="B326" s="24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C326" s="25">
-        <v>8.5</v>
+        <v>4.5</v>
       </c>
       <c r="D326" s="26">
         <v>8.1999999999999993</v>
       </c>
       <c r="E326" s="27">
-        <v>69.7</v>
+        <v>36.9</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
@@ -7729,16 +7729,16 @@
         <v>330</v>
       </c>
       <c r="B327" s="24">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C327" s="25">
-        <v>18.5</v>
+        <v>6.9</v>
       </c>
       <c r="D327" s="26">
         <v>4.5</v>
       </c>
       <c r="E327" s="27">
-        <v>83.25</v>
+        <v>31.05</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
@@ -7746,16 +7746,16 @@
         <v>331</v>
       </c>
       <c r="B328" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C328" s="25">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="D328" s="26">
         <v>8.08</v>
       </c>
       <c r="E328" s="27">
-        <v>177.76</v>
+        <v>157.56</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
@@ -7778,16 +7778,16 @@
         <v>333</v>
       </c>
       <c r="B330" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C330" s="25">
-        <v>13.5</v>
+        <v>7.5</v>
       </c>
       <c r="D330" s="26">
         <v>8.25</v>
       </c>
       <c r="E330" s="27">
-        <v>111.38</v>
+        <v>61.88</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
@@ -7812,16 +7812,16 @@
         <v>335</v>
       </c>
       <c r="B332" s="24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C332" s="25">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="D332" s="26">
         <v>9.5</v>
       </c>
       <c r="E332" s="27">
-        <v>133</v>
+        <v>147.25</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
@@ -7829,16 +7829,16 @@
         <v>336</v>
       </c>
       <c r="B333" s="24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C333" s="25">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D333" s="26">
         <v>3.6</v>
       </c>
       <c r="E333" s="27">
-        <v>100.8</v>
+        <v>79.2</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
@@ -7849,13 +7849,13 @@
         <v>4</v>
       </c>
       <c r="C334" s="25">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="D334" s="26">
         <v>6</v>
       </c>
       <c r="E334" s="27">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
@@ -7896,15 +7896,17 @@
       <c r="A337" s="23" t="s">
         <v>340</v>
       </c>
-      <c r="B337" s="24"/>
+      <c r="B337" s="24">
+        <v>3</v>
+      </c>
       <c r="C337" s="25">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D337" s="26">
         <v>9.75</v>
       </c>
       <c r="E337" s="27">
-        <v>185.25</v>
+        <v>117</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
@@ -7944,16 +7946,16 @@
         <v>343</v>
       </c>
       <c r="B340" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C340" s="25">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D340" s="26">
         <v>5.3</v>
       </c>
       <c r="E340" s="27">
-        <v>79.5</v>
+        <v>68.900000000000006</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
@@ -7993,16 +7995,16 @@
         <v>346</v>
       </c>
       <c r="B343" s="24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C343" s="25">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D343" s="26">
         <v>5.7</v>
       </c>
       <c r="E343" s="27">
-        <v>74.099999999999994</v>
+        <v>34.200000000000003</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
@@ -8021,16 +8023,16 @@
         <v>348</v>
       </c>
       <c r="B345" s="24">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C345" s="25">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D345" s="26">
         <v>9.5</v>
       </c>
       <c r="E345" s="27">
-        <v>114</v>
+        <v>66.5</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
@@ -8073,13 +8075,13 @@
         <v>4</v>
       </c>
       <c r="C348" s="25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D348" s="26">
         <v>7</v>
       </c>
       <c r="E348" s="27">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
@@ -8087,16 +8089,16 @@
         <v>352</v>
       </c>
       <c r="B349" s="24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C349" s="25">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="D349" s="26">
         <v>8.5500000000000007</v>
       </c>
       <c r="E349" s="27">
-        <v>128.25</v>
+        <v>81.23</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
@@ -8104,31 +8106,33 @@
         <v>353</v>
       </c>
       <c r="B350" s="24">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C350" s="25">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="D350" s="26">
         <v>6.65</v>
       </c>
       <c r="E350" s="27">
-        <v>46.55</v>
+        <v>16.63</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="23" t="s">
         <v>354</v>
       </c>
-      <c r="B351" s="24"/>
+      <c r="B351" s="24">
+        <v>1</v>
+      </c>
       <c r="C351" s="25">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D351" s="26">
         <v>7.6</v>
       </c>
       <c r="E351" s="27">
-        <v>114</v>
+        <v>76</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
@@ -8152,15 +8156,17 @@
       <c r="A353" s="23" t="s">
         <v>356</v>
       </c>
-      <c r="B353" s="24"/>
+      <c r="B353" s="24">
+        <v>1</v>
+      </c>
       <c r="C353" s="25">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D353" s="26">
         <v>6.4</v>
       </c>
       <c r="E353" s="27">
-        <v>134.4</v>
+        <v>128</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
@@ -8200,16 +8206,16 @@
         <v>359</v>
       </c>
       <c r="B356" s="24">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C356" s="25">
-        <v>22.5</v>
+        <v>19.5</v>
       </c>
       <c r="D356" s="26">
         <v>7</v>
       </c>
       <c r="E356" s="27">
-        <v>157.5</v>
+        <v>136.5</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
@@ -8347,16 +8353,16 @@
         <v>368</v>
       </c>
       <c r="B365" s="24">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C365" s="25">
-        <v>20.5</v>
+        <v>17</v>
       </c>
       <c r="D365" s="26">
         <v>5.2</v>
       </c>
       <c r="E365" s="27">
-        <v>106.6</v>
+        <v>88.4</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
@@ -8428,16 +8434,16 @@
         <v>373</v>
       </c>
       <c r="B370" s="24">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C370" s="25">
-        <v>32.5</v>
+        <v>16.5</v>
       </c>
       <c r="D370" s="26">
         <v>5.9</v>
       </c>
       <c r="E370" s="27">
-        <v>191.75</v>
+        <v>97.35</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
@@ -8477,16 +8483,16 @@
         <v>376</v>
       </c>
       <c r="B373" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C373" s="25">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="D373" s="26">
         <v>6.46</v>
       </c>
       <c r="E373" s="27">
-        <v>106.59</v>
+        <v>93.67</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
@@ -8603,16 +8609,16 @@
         <v>384</v>
       </c>
       <c r="B381" s="24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C381" s="25">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D381" s="26">
         <v>6</v>
       </c>
       <c r="E381" s="27">
-        <v>108</v>
+        <v>84</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
@@ -8620,16 +8626,16 @@
         <v>385</v>
       </c>
       <c r="B382" s="24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C382" s="25">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D382" s="26">
         <v>5</v>
       </c>
       <c r="E382" s="27">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
@@ -8716,16 +8722,16 @@
         <v>391</v>
       </c>
       <c r="B388" s="24">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C388" s="25">
-        <v>24.5</v>
+        <v>20.5</v>
       </c>
       <c r="D388" s="26">
         <v>11.75</v>
       </c>
       <c r="E388" s="27">
-        <v>287.88</v>
+        <v>240.88</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
@@ -8750,16 +8756,16 @@
         <v>393</v>
       </c>
       <c r="B390" s="24">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C390" s="25">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="D390" s="26">
         <v>9.75</v>
       </c>
       <c r="E390" s="27">
-        <v>58.5</v>
+        <v>-58.5</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
@@ -8864,15 +8870,17 @@
       <c r="A397" s="23" t="s">
         <v>400</v>
       </c>
-      <c r="B397" s="24"/>
+      <c r="B397" s="24">
+        <v>2</v>
+      </c>
       <c r="C397" s="25">
-        <v>6</v>
+        <v>-2</v>
       </c>
       <c r="D397" s="26">
         <v>10.5</v>
       </c>
       <c r="E397" s="27">
-        <v>63</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
@@ -8927,31 +8935,33 @@
         <v>404</v>
       </c>
       <c r="B401" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C401" s="25">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D401" s="26">
         <v>9.75</v>
       </c>
       <c r="E401" s="27">
-        <v>136.5</v>
+        <v>107.25</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" s="23" t="s">
         <v>405</v>
       </c>
-      <c r="B402" s="24"/>
+      <c r="B402" s="24">
+        <v>1</v>
+      </c>
       <c r="C402" s="25">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D402" s="26">
         <v>9.75</v>
       </c>
       <c r="E402" s="27">
-        <v>68.25</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
@@ -9006,16 +9016,16 @@
         <v>409</v>
       </c>
       <c r="B406" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C406" s="25">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="D406" s="26">
         <v>22.5</v>
       </c>
       <c r="E406" s="27">
-        <v>213.75</v>
+        <v>202.5</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
@@ -9069,15 +9079,17 @@
       <c r="A410" s="23" t="s">
         <v>413</v>
       </c>
-      <c r="B410" s="24"/>
+      <c r="B410" s="24">
+        <v>3</v>
+      </c>
       <c r="C410" s="25">
-        <v>6.5</v>
+        <v>-3.5</v>
       </c>
       <c r="D410" s="26">
         <v>10</v>
       </c>
       <c r="E410" s="27">
-        <v>65</v>
+        <v>-35</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
@@ -9117,16 +9129,16 @@
         <v>416</v>
       </c>
       <c r="B413" s="24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C413" s="25">
-        <v>43.16</v>
+        <v>41.16</v>
       </c>
       <c r="D413" s="26">
         <v>8.5500000000000007</v>
       </c>
       <c r="E413" s="27">
-        <v>369.02</v>
+        <v>351.92</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
@@ -9226,16 +9238,16 @@
         <v>423</v>
       </c>
       <c r="B420" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C420" s="25">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="D420" s="26">
         <v>18</v>
       </c>
       <c r="E420" s="27">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
@@ -9243,16 +9255,16 @@
         <v>424</v>
       </c>
       <c r="B421" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C421" s="25">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="D421" s="26">
         <v>10</v>
       </c>
       <c r="E421" s="27">
-        <v>135</v>
+        <v>120</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
@@ -9263,13 +9275,13 @@
         <v>11</v>
       </c>
       <c r="C422" s="25">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="D422" s="26">
         <v>9.5</v>
       </c>
       <c r="E422" s="27">
-        <v>99.75</v>
+        <v>118.75</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
@@ -9277,16 +9289,16 @@
         <v>426</v>
       </c>
       <c r="B423" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C423" s="25">
-        <v>13.25</v>
+        <v>12.75</v>
       </c>
       <c r="D423" s="26">
         <v>13.5</v>
       </c>
       <c r="E423" s="27">
-        <v>178.88</v>
+        <v>172.13</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
@@ -9326,16 +9338,16 @@
         <v>429</v>
       </c>
       <c r="B426" s="24">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C426" s="25">
-        <v>10.5</v>
+        <v>7</v>
       </c>
       <c r="D426" s="26">
         <v>10</v>
       </c>
       <c r="E426" s="27">
-        <v>105</v>
+        <v>70</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
@@ -9492,10 +9504,10 @@
         <v>22.5</v>
       </c>
       <c r="D436" s="26">
-        <v>9.26</v>
+        <v>9.17</v>
       </c>
       <c r="E436" s="27">
-        <v>208.35</v>
+        <v>206.4</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
@@ -9503,16 +9515,16 @@
         <v>440</v>
       </c>
       <c r="B437" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C437" s="25">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="D437" s="26">
         <v>10.45</v>
       </c>
       <c r="E437" s="27">
-        <v>219.45</v>
+        <v>193.33</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
@@ -9537,16 +9549,16 @@
         <v>442</v>
       </c>
       <c r="B439" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C439" s="25">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="D439" s="26">
         <v>26</v>
       </c>
       <c r="E439" s="27">
-        <v>455</v>
+        <v>442</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.25">
@@ -9556,9 +9568,15 @@
       <c r="B440" s="24">
         <v>3</v>
       </c>
-      <c r="C440" s="29"/>
-      <c r="D440" s="28"/>
-      <c r="E440" s="29"/>
+      <c r="C440" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="D440" s="26">
+        <v>32</v>
+      </c>
+      <c r="E440" s="27">
+        <v>48</v>
+      </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" s="23" t="s">
@@ -9629,16 +9647,16 @@
         <v>448</v>
       </c>
       <c r="B445" s="24">
+        <v>2</v>
+      </c>
+      <c r="C445" s="25">
         <v>1</v>
-      </c>
-      <c r="C445" s="25">
-        <v>4.5</v>
       </c>
       <c r="D445" s="26">
         <v>12.8</v>
       </c>
       <c r="E445" s="27">
-        <v>57.6</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.25">
@@ -9678,16 +9696,16 @@
         <v>451</v>
       </c>
       <c r="B448" s="24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C448" s="25">
-        <v>27.5</v>
+        <v>24.5</v>
       </c>
       <c r="D448" s="26">
         <v>11.25</v>
       </c>
       <c r="E448" s="27">
-        <v>309.38</v>
+        <v>275.63</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.25">
@@ -9709,15 +9727,17 @@
       <c r="A450" s="23" t="s">
         <v>453</v>
       </c>
-      <c r="B450" s="24"/>
+      <c r="B450" s="24">
+        <v>1</v>
+      </c>
       <c r="C450" s="25">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="D450" s="26">
         <v>13.8</v>
       </c>
       <c r="E450" s="27">
-        <v>144.9</v>
+        <v>124.2</v>
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.25">
@@ -9725,16 +9745,16 @@
         <v>454</v>
       </c>
       <c r="B451" s="24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C451" s="25">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="D451" s="26">
         <v>18.5</v>
       </c>
       <c r="E451" s="27">
-        <v>148</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.25">
@@ -9994,16 +10014,16 @@
         <v>471</v>
       </c>
       <c r="B468" s="24">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C468" s="25">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="D468" s="26">
         <v>5.23</v>
       </c>
       <c r="E468" s="27">
-        <v>78.45</v>
+        <v>39.229999999999997</v>
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.25">
@@ -10164,16 +10184,16 @@
         <v>481</v>
       </c>
       <c r="B478" s="24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C478" s="25">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D478" s="26">
         <v>3</v>
       </c>
       <c r="E478" s="27">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.25">
@@ -10181,16 +10201,16 @@
         <v>482</v>
       </c>
       <c r="B479" s="24">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C479" s="25">
-        <v>33</v>
+        <v>25.5</v>
       </c>
       <c r="D479" s="26">
         <v>3.8</v>
       </c>
       <c r="E479" s="27">
-        <v>125.4</v>
+        <v>96.9</v>
       </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.25">
@@ -10288,16 +10308,16 @@
         <v>489</v>
       </c>
       <c r="B486" s="24">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C486" s="25">
-        <v>35.5</v>
+        <v>25</v>
       </c>
       <c r="D486" s="26">
         <v>1.8</v>
       </c>
       <c r="E486" s="27">
-        <v>63.9</v>
+        <v>45</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.25">
@@ -10305,16 +10325,16 @@
         <v>490</v>
       </c>
       <c r="B487" s="24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C487" s="25">
-        <v>22.5</v>
+        <v>18</v>
       </c>
       <c r="D487" s="26">
         <v>2</v>
       </c>
       <c r="E487" s="27">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.25">
@@ -10356,16 +10376,16 @@
         <v>493</v>
       </c>
       <c r="B490" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C490" s="25">
-        <v>20.5</v>
+        <v>19.5</v>
       </c>
       <c r="D490" s="26">
         <v>3.56</v>
       </c>
       <c r="E490" s="27">
-        <v>72.98</v>
+        <v>69.42</v>
       </c>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.25">
@@ -10373,16 +10393,16 @@
         <v>494</v>
       </c>
       <c r="B491" s="24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C491" s="25">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="D491" s="26">
         <v>4.5</v>
       </c>
       <c r="E491" s="27">
-        <v>78.75</v>
+        <v>87.75</v>
       </c>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.25">
@@ -10390,16 +10410,16 @@
         <v>495</v>
       </c>
       <c r="B492" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C492" s="25">
-        <v>20.5</v>
+        <v>19</v>
       </c>
       <c r="D492" s="26">
         <v>6.5</v>
       </c>
       <c r="E492" s="27">
-        <v>133.25</v>
+        <v>123.5</v>
       </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.25">
@@ -10452,16 +10472,16 @@
         <v>499</v>
       </c>
       <c r="B496" s="24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C496" s="25">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="D496" s="26">
         <v>4.75</v>
       </c>
       <c r="E496" s="27">
-        <v>30.88</v>
+        <v>14.25</v>
       </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.25">
@@ -10469,16 +10489,16 @@
         <v>500</v>
       </c>
       <c r="B497" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C497" s="25">
-        <v>26.5</v>
+        <v>24.5</v>
       </c>
       <c r="D497" s="26">
         <v>3.45</v>
       </c>
       <c r="E497" s="27">
-        <v>91.43</v>
+        <v>84.53</v>
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.25">
@@ -10503,16 +10523,16 @@
         <v>502</v>
       </c>
       <c r="B499" s="24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C499" s="25">
-        <v>25.5</v>
+        <v>24.5</v>
       </c>
       <c r="D499" s="26">
         <v>9.5</v>
       </c>
       <c r="E499" s="27">
-        <v>242.25</v>
+        <v>232.75</v>
       </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.25">
@@ -10537,16 +10557,16 @@
         <v>504</v>
       </c>
       <c r="B501" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C501" s="25">
-        <v>36.5</v>
+        <v>31.5</v>
       </c>
       <c r="D501" s="26">
         <v>2.38</v>
       </c>
       <c r="E501" s="27">
-        <v>86.87</v>
+        <v>74.97</v>
       </c>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.25">
@@ -10554,16 +10574,16 @@
         <v>505</v>
       </c>
       <c r="B502" s="24">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C502" s="25">
-        <v>41.5</v>
+        <v>32.5</v>
       </c>
       <c r="D502" s="26">
         <v>3.9</v>
       </c>
       <c r="E502" s="27">
-        <v>161.85</v>
+        <v>126.75</v>
       </c>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.25">
@@ -10571,31 +10591,33 @@
         <v>506</v>
       </c>
       <c r="B503" s="24">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C503" s="25">
-        <v>27.5</v>
+        <v>16.5</v>
       </c>
       <c r="D503" s="26">
         <v>1.8</v>
       </c>
       <c r="E503" s="27">
-        <v>49.5</v>
+        <v>29.7</v>
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="B504" s="24"/>
+      <c r="B504" s="24">
+        <v>1</v>
+      </c>
       <c r="C504" s="25">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D504" s="26">
         <v>4.5</v>
       </c>
       <c r="E504" s="27">
-        <v>99</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.25">
@@ -10654,16 +10676,16 @@
         <v>511</v>
       </c>
       <c r="B508" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C508" s="25">
-        <v>53.97</v>
+        <v>48.97</v>
       </c>
       <c r="D508" s="26">
         <v>4.5</v>
       </c>
       <c r="E508" s="27">
-        <v>242.87</v>
+        <v>220.37</v>
       </c>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.25">
@@ -10671,16 +10693,16 @@
         <v>512</v>
       </c>
       <c r="B509" s="24">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C509" s="25">
-        <v>60.8</v>
+        <v>59.8</v>
       </c>
       <c r="D509" s="26">
         <v>3.14</v>
       </c>
       <c r="E509" s="27">
-        <v>190.91</v>
+        <v>187.77</v>
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.25">
@@ -10688,16 +10710,16 @@
         <v>513</v>
       </c>
       <c r="B510" s="24">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C510" s="25">
-        <v>109.75</v>
+        <v>106.25</v>
       </c>
       <c r="D510" s="26">
         <v>2.2999999999999998</v>
       </c>
       <c r="E510" s="27">
-        <v>252.43</v>
+        <v>244.38</v>
       </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.25">
@@ -10739,16 +10761,16 @@
         <v>516</v>
       </c>
       <c r="B513" s="24">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C513" s="25">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="D513" s="26">
         <v>3.5</v>
       </c>
       <c r="E513" s="27">
-        <v>61.25</v>
+        <v>54.25</v>
       </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.25">
@@ -10786,16 +10808,16 @@
         <v>519</v>
       </c>
       <c r="B516" s="24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C516" s="25">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="D516" s="26">
         <v>2.14</v>
       </c>
       <c r="E516" s="27">
-        <v>35.31</v>
+        <v>28.89</v>
       </c>
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.25">
@@ -10820,16 +10842,16 @@
         <v>521</v>
       </c>
       <c r="B518" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C518" s="25">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D518" s="26">
         <v>2.66</v>
       </c>
       <c r="E518" s="27">
-        <v>50.54</v>
+        <v>42.56</v>
       </c>
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.25">
@@ -10869,16 +10891,16 @@
         <v>524</v>
       </c>
       <c r="B521" s="24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C521" s="25">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D521" s="26">
         <v>2.66</v>
       </c>
       <c r="E521" s="27">
-        <v>74.48</v>
+        <v>66.5</v>
       </c>
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.25">
@@ -10952,16 +10974,16 @@
         <v>529</v>
       </c>
       <c r="B526" s="24">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C526" s="25">
-        <v>408.5</v>
+        <v>405.5</v>
       </c>
       <c r="D526" s="26">
         <v>1.5</v>
       </c>
       <c r="E526" s="27">
-        <v>612.75</v>
+        <v>608.25</v>
       </c>
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.25">
@@ -10969,10 +10991,10 @@
         <v>530</v>
       </c>
       <c r="B527" s="24">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C527" s="25">
-        <v>94.5</v>
+        <v>56.5</v>
       </c>
       <c r="D527" s="28"/>
       <c r="E527" s="29"/>
@@ -10982,10 +11004,10 @@
         <v>531</v>
       </c>
       <c r="B528" s="24">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C528" s="25">
-        <v>60.5</v>
+        <v>55.5</v>
       </c>
       <c r="D528" s="28"/>
       <c r="E528" s="29"/>
@@ -10995,10 +11017,10 @@
         <v>532</v>
       </c>
       <c r="B529" s="24">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C529" s="25">
-        <v>-48</v>
+        <v>-60</v>
       </c>
       <c r="D529" s="28"/>
       <c r="E529" s="29"/>
@@ -11021,10 +11043,10 @@
         <v>534</v>
       </c>
       <c r="B531" s="24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C531" s="25">
-        <v>85.5</v>
+        <v>84.5</v>
       </c>
       <c r="D531" s="28"/>
       <c r="E531" s="29"/>
@@ -11034,16 +11056,16 @@
         <v>535</v>
       </c>
       <c r="B532" s="24">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C532" s="25">
-        <v>498.5</v>
+        <v>470.5</v>
       </c>
       <c r="D532" s="26">
         <v>0.87</v>
       </c>
       <c r="E532" s="27">
-        <v>433.7</v>
+        <v>409.34</v>
       </c>
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.25">
@@ -11081,16 +11103,16 @@
         <v>538</v>
       </c>
       <c r="B535" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C535" s="25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D535" s="26">
         <v>0.85</v>
       </c>
       <c r="E535" s="27">
-        <v>5.95</v>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.25">
@@ -11098,17 +11120,11 @@
         <v>539</v>
       </c>
       <c r="B536" s="24">
-        <v>4</v>
-      </c>
-      <c r="C536" s="25">
-        <v>-1</v>
-      </c>
-      <c r="D536" s="26">
-        <v>0.85</v>
-      </c>
-      <c r="E536" s="27">
-        <v>-0.85</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C536" s="29"/>
+      <c r="D536" s="28"/>
+      <c r="E536" s="29"/>
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A537" s="23" t="s">
@@ -11120,8 +11136,12 @@
       <c r="C537" s="25">
         <v>-300</v>
       </c>
-      <c r="D537" s="28"/>
-      <c r="E537" s="29"/>
+      <c r="D537" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="E537" s="27">
+        <v>-120</v>
+      </c>
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A538" s="23" t="s">
@@ -11159,15 +11179,17 @@
       <c r="A540" s="23" t="s">
         <v>543</v>
       </c>
-      <c r="B540" s="24"/>
+      <c r="B540" s="24">
+        <v>1</v>
+      </c>
       <c r="C540" s="25">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="D540" s="26">
         <v>8.25</v>
       </c>
       <c r="E540" s="27">
-        <v>78.38</v>
+        <v>53.63</v>
       </c>
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.25">
@@ -11190,16 +11212,16 @@
         <v>545</v>
       </c>
       <c r="B542" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C542" s="25">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D542" s="26">
         <v>10</v>
       </c>
       <c r="E542" s="27">
-        <v>170</v>
+        <v>120</v>
       </c>
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.25">
@@ -11207,16 +11229,16 @@
         <v>546</v>
       </c>
       <c r="B543" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C543" s="25">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D543" s="26">
         <v>5.5</v>
       </c>
       <c r="E543" s="27">
-        <v>82.5</v>
+        <v>93.5</v>
       </c>
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.25">
@@ -11224,31 +11246,33 @@
         <v>547</v>
       </c>
       <c r="B544" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C544" s="25">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="D544" s="26">
         <v>5</v>
       </c>
       <c r="E544" s="27">
-        <v>75</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="545" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A545" s="23" t="s">
         <v>548</v>
       </c>
-      <c r="B545" s="24"/>
+      <c r="B545" s="24">
+        <v>1</v>
+      </c>
       <c r="C545" s="25">
-        <v>15.01</v>
+        <v>13.01</v>
       </c>
       <c r="D545" s="26">
         <v>4.5</v>
       </c>
       <c r="E545" s="27">
-        <v>67.55</v>
+        <v>58.55</v>
       </c>
     </row>
     <row r="546" spans="1:5" x14ac:dyDescent="0.25">
@@ -11256,16 +11280,16 @@
         <v>549</v>
       </c>
       <c r="B546" s="24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C546" s="25">
-        <v>8.5</v>
+        <v>1.5</v>
       </c>
       <c r="D546" s="26">
         <v>3.5</v>
       </c>
       <c r="E546" s="27">
-        <v>29.75</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="547" spans="1:5" x14ac:dyDescent="0.25">
@@ -11290,16 +11314,16 @@
         <v>551</v>
       </c>
       <c r="B548" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C548" s="25">
-        <v>32.5</v>
+        <v>30.5</v>
       </c>
       <c r="D548" s="26">
         <v>4</v>
       </c>
       <c r="E548" s="27">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.25">
@@ -11307,31 +11331,33 @@
         <v>552</v>
       </c>
       <c r="B549" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C549" s="25">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="D549" s="26">
         <v>6.5</v>
       </c>
       <c r="E549" s="27">
-        <v>55.25</v>
+        <v>48.75</v>
       </c>
     </row>
     <row r="550" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A550" s="23" t="s">
         <v>553</v>
       </c>
-      <c r="B550" s="24"/>
+      <c r="B550" s="24">
+        <v>1</v>
+      </c>
       <c r="C550" s="25">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="D550" s="26">
         <v>6.5</v>
       </c>
       <c r="E550" s="27">
-        <v>61.75</v>
+        <v>52</v>
       </c>
     </row>
     <row r="551" spans="1:5" x14ac:dyDescent="0.25">
@@ -11339,16 +11365,16 @@
         <v>554</v>
       </c>
       <c r="B551" s="24">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C551" s="25">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D551" s="26">
         <v>2.82</v>
       </c>
       <c r="E551" s="27">
-        <v>146.44999999999999</v>
+        <v>101.39</v>
       </c>
     </row>
     <row r="552" spans="1:5" x14ac:dyDescent="0.25">
@@ -11388,7 +11414,7 @@
         <v>557</v>
       </c>
       <c r="B554" s="24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C554" s="25">
         <v>9.5</v>
@@ -11422,16 +11448,16 @@
         <v>559</v>
       </c>
       <c r="B556" s="24">
+        <v>3</v>
+      </c>
+      <c r="C556" s="25">
         <v>1</v>
-      </c>
-      <c r="C556" s="25">
-        <v>15</v>
       </c>
       <c r="D556" s="26">
         <v>4</v>
       </c>
       <c r="E556" s="27">
-        <v>60</v>
+        <v>4</v>
       </c>
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.25">
@@ -11471,16 +11497,16 @@
         <v>562</v>
       </c>
       <c r="B559" s="24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C559" s="25">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D559" s="26">
         <v>1.5</v>
       </c>
       <c r="E559" s="27">
-        <v>82.5</v>
+        <v>81</v>
       </c>
     </row>
     <row r="560" spans="1:5" x14ac:dyDescent="0.25">
@@ -11488,16 +11514,16 @@
         <v>563</v>
       </c>
       <c r="B560" s="24">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C560" s="25">
-        <v>25</v>
+        <v>14.5</v>
       </c>
       <c r="D560" s="26">
         <v>2.2799999999999998</v>
       </c>
       <c r="E560" s="27">
-        <v>57</v>
+        <v>33.06</v>
       </c>
     </row>
     <row r="561" spans="1:5" x14ac:dyDescent="0.25">
@@ -11505,16 +11531,16 @@
         <v>564</v>
       </c>
       <c r="B561" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C561" s="25">
-        <v>22.5</v>
+        <v>21</v>
       </c>
       <c r="D561" s="26">
         <v>2.2799999999999998</v>
       </c>
       <c r="E561" s="27">
-        <v>51.3</v>
+        <v>47.88</v>
       </c>
     </row>
     <row r="562" spans="1:5" x14ac:dyDescent="0.25">
@@ -11557,13 +11583,13 @@
         <v>2</v>
       </c>
       <c r="C564" s="25">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D564" s="26">
         <v>3</v>
       </c>
       <c r="E564" s="27">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.25">
@@ -11571,16 +11597,16 @@
         <v>568</v>
       </c>
       <c r="B565" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C565" s="25">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="D565" s="26">
         <v>4.6500000000000004</v>
       </c>
       <c r="E565" s="27">
-        <v>11.63</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="566" spans="1:5" x14ac:dyDescent="0.25">
@@ -11588,16 +11614,16 @@
         <v>569</v>
       </c>
       <c r="B566" s="24">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C566" s="25">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D566" s="26">
         <v>5</v>
       </c>
       <c r="E566" s="27">
-        <v>140</v>
+        <v>75</v>
       </c>
     </row>
     <row r="567" spans="1:5" x14ac:dyDescent="0.25">
@@ -11620,16 +11646,16 @@
         <v>571</v>
       </c>
       <c r="B568" s="24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C568" s="25">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D568" s="26">
         <v>3.5</v>
       </c>
       <c r="E568" s="27">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="569" spans="1:5" x14ac:dyDescent="0.25">
@@ -11655,13 +11681,13 @@
         <v>1</v>
       </c>
       <c r="C570" s="25">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D570" s="26">
         <v>5.45</v>
       </c>
       <c r="E570" s="27">
-        <v>21.8</v>
+        <v>92.65</v>
       </c>
     </row>
     <row r="571" spans="1:5" x14ac:dyDescent="0.25">
@@ -11669,16 +11695,16 @@
         <v>574</v>
       </c>
       <c r="B571" s="24">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C571" s="25">
-        <v>16.5</v>
+        <v>3</v>
       </c>
       <c r="D571" s="26">
         <v>3.1</v>
       </c>
       <c r="E571" s="27">
-        <v>51.15</v>
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="572" spans="1:5" x14ac:dyDescent="0.25">
@@ -11686,16 +11712,16 @@
         <v>575</v>
       </c>
       <c r="B572" s="24">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C572" s="25">
-        <v>14.5</v>
+        <v>1.5</v>
       </c>
       <c r="D572" s="26">
         <v>1.7</v>
       </c>
       <c r="E572" s="27">
-        <v>24.65</v>
+        <v>2.5499999999999998</v>
       </c>
     </row>
     <row r="573" spans="1:5" x14ac:dyDescent="0.25">
@@ -11703,16 +11729,16 @@
         <v>576</v>
       </c>
       <c r="B573" s="24">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C573" s="25">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D573" s="26">
         <v>3.33</v>
       </c>
       <c r="E573" s="27">
-        <v>29.97</v>
+        <v>19.98</v>
       </c>
     </row>
     <row r="574" spans="1:5" x14ac:dyDescent="0.25">
@@ -11737,16 +11763,16 @@
         <v>578</v>
       </c>
       <c r="B575" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C575" s="25">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D575" s="26">
         <v>3.5</v>
       </c>
       <c r="E575" s="27">
-        <v>98</v>
+        <v>77</v>
       </c>
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.25">
@@ -11757,13 +11783,13 @@
         <v>2</v>
       </c>
       <c r="C576" s="25">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="D576" s="26">
         <v>7.5</v>
       </c>
       <c r="E576" s="27">
-        <v>71.25</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="577" spans="1:5" x14ac:dyDescent="0.25">
@@ -11771,16 +11797,16 @@
         <v>580</v>
       </c>
       <c r="B577" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C577" s="25">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="D577" s="26">
         <v>8.75</v>
       </c>
       <c r="E577" s="27">
-        <v>166.25</v>
+        <v>144.38</v>
       </c>
     </row>
     <row r="578" spans="1:5" x14ac:dyDescent="0.25">
@@ -11805,31 +11831,33 @@
         <v>582</v>
       </c>
       <c r="B579" s="24">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C579" s="25">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="D579" s="26">
         <v>2.85</v>
       </c>
       <c r="E579" s="27">
-        <v>39.9</v>
+        <v>29.93</v>
       </c>
     </row>
     <row r="580" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A580" s="23" t="s">
         <v>583</v>
       </c>
-      <c r="B580" s="24"/>
+      <c r="B580" s="24">
+        <v>7</v>
+      </c>
       <c r="C580" s="25">
-        <v>48</v>
+        <v>33.5</v>
       </c>
       <c r="D580" s="26">
         <v>2</v>
       </c>
       <c r="E580" s="27">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="581" spans="1:5" x14ac:dyDescent="0.25">
@@ -11884,16 +11912,16 @@
         <v>587</v>
       </c>
       <c r="B584" s="24">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C584" s="25">
-        <v>38.5</v>
+        <v>33</v>
       </c>
       <c r="D584" s="26">
         <v>3.1</v>
       </c>
       <c r="E584" s="27">
-        <v>119.35</v>
+        <v>102.3</v>
       </c>
     </row>
     <row r="585" spans="1:5" x14ac:dyDescent="0.25">
@@ -11918,16 +11946,16 @@
         <v>589</v>
       </c>
       <c r="B586" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C586" s="25">
-        <v>13.5</v>
+        <v>9.5</v>
       </c>
       <c r="D586" s="26">
         <v>3.8</v>
       </c>
       <c r="E586" s="27">
-        <v>51.3</v>
+        <v>36.1</v>
       </c>
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.25">
@@ -11938,13 +11966,13 @@
         <v>7</v>
       </c>
       <c r="C587" s="25">
-        <v>16.5</v>
+        <v>12.5</v>
       </c>
       <c r="D587" s="26">
         <v>4.8</v>
       </c>
       <c r="E587" s="27">
-        <v>79.2</v>
+        <v>60</v>
       </c>
     </row>
     <row r="588" spans="1:5" x14ac:dyDescent="0.25">
@@ -11952,16 +11980,16 @@
         <v>591</v>
       </c>
       <c r="B588" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C588" s="25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D588" s="26">
         <v>6.75</v>
       </c>
       <c r="E588" s="27">
-        <v>33.75</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="589" spans="1:5" x14ac:dyDescent="0.25">
@@ -12031,27 +12059,33 @@
         <v>596</v>
       </c>
       <c r="B593" s="24">
-        <v>18</v>
-      </c>
-      <c r="C593" s="29"/>
-      <c r="D593" s="28"/>
-      <c r="E593" s="29"/>
+        <v>23</v>
+      </c>
+      <c r="C593" s="25">
+        <v>-7</v>
+      </c>
+      <c r="D593" s="26">
+        <v>3.1</v>
+      </c>
+      <c r="E593" s="27">
+        <v>-21.7</v>
+      </c>
     </row>
     <row r="594" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A594" s="23" t="s">
         <v>597</v>
       </c>
       <c r="B594" s="24">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C594" s="25">
-        <v>17</v>
+        <v>10.5</v>
       </c>
       <c r="D594" s="26">
         <v>3.6</v>
       </c>
       <c r="E594" s="27">
-        <v>61.2</v>
+        <v>37.799999999999997</v>
       </c>
     </row>
     <row r="595" spans="1:5" x14ac:dyDescent="0.25">
@@ -12059,16 +12093,16 @@
         <v>598</v>
       </c>
       <c r="B595" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C595" s="25">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="D595" s="26">
         <v>3.5</v>
       </c>
       <c r="E595" s="27">
-        <v>29.75</v>
+        <v>19.25</v>
       </c>
     </row>
     <row r="596" spans="1:5" x14ac:dyDescent="0.25">
@@ -12091,16 +12125,16 @@
         <v>600</v>
       </c>
       <c r="B597" s="24">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C597" s="25">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D597" s="26">
         <v>3.75</v>
       </c>
       <c r="E597" s="27">
-        <v>52.5</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.25">
@@ -12108,16 +12142,16 @@
         <v>601</v>
       </c>
       <c r="B598" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C598" s="25">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D598" s="26">
         <v>2.5</v>
       </c>
       <c r="E598" s="27">
-        <v>57.5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.25">
@@ -12142,16 +12176,16 @@
         <v>603</v>
       </c>
       <c r="B600" s="24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C600" s="25">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="D600" s="26">
         <v>5.75</v>
       </c>
       <c r="E600" s="27">
-        <v>37.380000000000003</v>
+        <v>20.13</v>
       </c>
     </row>
     <row r="601" spans="1:5" x14ac:dyDescent="0.25">
@@ -12159,16 +12193,16 @@
         <v>604</v>
       </c>
       <c r="B601" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C601" s="25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D601" s="26">
         <v>5.8</v>
       </c>
       <c r="E601" s="27">
-        <v>17.399999999999999</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="602" spans="1:5" x14ac:dyDescent="0.25">
@@ -12176,16 +12210,16 @@
         <v>605</v>
       </c>
       <c r="B602" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C602" s="25">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D602" s="26">
         <v>2.25</v>
       </c>
       <c r="E602" s="27">
-        <v>166.5</v>
+        <v>157.5</v>
       </c>
     </row>
     <row r="603" spans="1:5" x14ac:dyDescent="0.25">
@@ -12193,16 +12227,16 @@
         <v>606</v>
       </c>
       <c r="B603" s="24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C603" s="25">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D603" s="26">
         <v>2.25</v>
       </c>
       <c r="E603" s="27">
-        <v>112.5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="604" spans="1:5" x14ac:dyDescent="0.25">
@@ -12259,16 +12293,16 @@
         <v>610</v>
       </c>
       <c r="B607" s="24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C607" s="25">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D607" s="26">
         <v>2.75</v>
       </c>
       <c r="E607" s="27">
-        <v>112.75</v>
+        <v>115.5</v>
       </c>
     </row>
     <row r="608" spans="1:5" x14ac:dyDescent="0.25">
@@ -12276,16 +12310,16 @@
         <v>611</v>
       </c>
       <c r="B608" s="24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C608" s="25">
-        <v>16.5</v>
+        <v>11</v>
       </c>
       <c r="D608" s="26">
         <v>4</v>
       </c>
       <c r="E608" s="27">
-        <v>66</v>
+        <v>44</v>
       </c>
     </row>
     <row r="609" spans="1:5" x14ac:dyDescent="0.25">
@@ -12325,16 +12359,16 @@
         <v>614</v>
       </c>
       <c r="B611" s="24">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C611" s="25">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D611" s="26">
         <v>4.25</v>
       </c>
       <c r="E611" s="27">
-        <v>97.75</v>
+        <v>72.25</v>
       </c>
     </row>
     <row r="612" spans="1:5" x14ac:dyDescent="0.25">
@@ -12408,10 +12442,10 @@
         <v>619</v>
       </c>
       <c r="B616" s="24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C616" s="25">
-        <v>49.5</v>
+        <v>45.5</v>
       </c>
       <c r="D616" s="28"/>
       <c r="E616" s="29"/>
@@ -12434,10 +12468,10 @@
         <v>621</v>
       </c>
       <c r="B618" s="24">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C618" s="25">
-        <v>82.69</v>
+        <v>75.69</v>
       </c>
       <c r="D618" s="28"/>
       <c r="E618" s="29"/>
@@ -12458,10 +12492,10 @@
         <v>623</v>
       </c>
       <c r="B620" s="24">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C620" s="25">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D620" s="28"/>
       <c r="E620" s="29"/>
@@ -12471,10 +12505,10 @@
         <v>624</v>
       </c>
       <c r="B621" s="24">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C621" s="25">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D621" s="28"/>
       <c r="E621" s="29"/>
@@ -12484,11 +12518,9 @@
         <v>625</v>
       </c>
       <c r="B622" s="24">
-        <v>9</v>
-      </c>
-      <c r="C622" s="25">
-        <v>1.5</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C622" s="29"/>
       <c r="D622" s="28"/>
       <c r="E622" s="29"/>
     </row>
@@ -12497,10 +12529,10 @@
         <v>626</v>
       </c>
       <c r="B623" s="24">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C623" s="25">
-        <v>11.5</v>
+        <v>-2.5</v>
       </c>
       <c r="D623" s="28"/>
       <c r="E623" s="29"/>
@@ -12509,9 +12541,11 @@
       <c r="A624" s="23" t="s">
         <v>627</v>
       </c>
-      <c r="B624" s="24"/>
+      <c r="B624" s="24">
+        <v>5</v>
+      </c>
       <c r="C624" s="25">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D624" s="28"/>
       <c r="E624" s="29"/>
@@ -12530,16 +12564,16 @@
         <v>629</v>
       </c>
       <c r="B626" s="24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C626" s="25">
-        <v>54.5</v>
+        <v>47.5</v>
       </c>
       <c r="D626" s="26">
         <v>2.77</v>
       </c>
       <c r="E626" s="27">
-        <v>150.84</v>
+        <v>131.47</v>
       </c>
     </row>
     <row r="627" spans="1:5" x14ac:dyDescent="0.25">
@@ -12651,10 +12685,10 @@
         <v>638</v>
       </c>
       <c r="B635" s="24">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C635" s="25">
-        <v>-0.28000000000000003</v>
+        <v>-0.3</v>
       </c>
       <c r="D635" s="28"/>
       <c r="E635" s="29"/>
@@ -12681,16 +12715,16 @@
         <v>640</v>
       </c>
       <c r="B637" s="24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C637" s="25">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D637" s="26">
         <v>2.5</v>
       </c>
       <c r="E637" s="27">
-        <v>50</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.25">
@@ -12766,16 +12800,16 @@
         <v>645</v>
       </c>
       <c r="B642" s="24">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C642" s="25">
-        <v>11.25</v>
+        <v>1.25</v>
       </c>
       <c r="D642" s="26">
         <v>2.5</v>
       </c>
       <c r="E642" s="27">
-        <v>28.13</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="643" spans="1:5" x14ac:dyDescent="0.25">
@@ -12783,16 +12817,16 @@
         <v>646</v>
       </c>
       <c r="B643" s="24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C643" s="25">
-        <v>26.25</v>
+        <v>25.25</v>
       </c>
       <c r="D643" s="26">
         <v>2.5</v>
       </c>
       <c r="E643" s="27">
-        <v>65.63</v>
+        <v>63.13</v>
       </c>
     </row>
     <row r="644" spans="1:5" x14ac:dyDescent="0.25">
@@ -12817,16 +12851,16 @@
         <v>648</v>
       </c>
       <c r="B645" s="24">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C645" s="25">
-        <v>47.25</v>
+        <v>46.25</v>
       </c>
       <c r="D645" s="26">
         <v>2.5</v>
       </c>
       <c r="E645" s="27">
-        <v>118.13</v>
+        <v>115.63</v>
       </c>
     </row>
     <row r="646" spans="1:5" x14ac:dyDescent="0.25">
@@ -12834,10 +12868,10 @@
         <v>649</v>
       </c>
       <c r="B646" s="24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C646" s="25">
-        <v>-19.5</v>
+        <v>-22.5</v>
       </c>
       <c r="D646" s="28"/>
       <c r="E646" s="29"/>
@@ -12847,10 +12881,10 @@
         <v>650</v>
       </c>
       <c r="B647" s="24">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C647" s="25">
-        <v>-75</v>
+        <v>-84</v>
       </c>
       <c r="D647" s="28"/>
       <c r="E647" s="29"/>
@@ -12861,11 +12895,11 @@
       </c>
       <c r="B648" s="31"/>
       <c r="C648" s="32">
-        <v>18861.23</v>
+        <v>17391.650000000001</v>
       </c>
       <c r="D648" s="33"/>
       <c r="E648" s="34">
-        <v>78373.39</v>
+        <v>72218.52</v>
       </c>
     </row>
   </sheetData>

--- a/data/website stock.xlsx
+++ b/data/website stock.xlsx
@@ -341,7 +341,7 @@
     <t>2111 PATRIKA *-* (M)</t>
   </si>
   <si>
-    <t>2112 PATRIKA (L)</t>
+    <t>2112 PATRIKA (L) (30.10)</t>
   </si>
   <si>
     <t>2113 PATRIKA (L)</t>
@@ -371,7 +371,7 @@
     <t>2121 PATRIKA</t>
   </si>
   <si>
-    <t>2122 PATRIKA</t>
+    <t>2122 PATRIKA (30.12)</t>
   </si>
   <si>
     <t>2123 PATRIKA</t>
@@ -1001,7 +1001,7 @@
     <t>5561 PATRIKA *-* (M)</t>
   </si>
   <si>
-    <t>5562 PATRIKA *-* (M)</t>
+    <t>5562 PATRIKA *-* (M) (01.11)</t>
   </si>
   <si>
     <t>5563 PATRIKA</t>
@@ -1901,13 +1901,13 @@
     <t>9384 CARDS - GOLDEN</t>
   </si>
   <si>
-    <t>9385 CARDS - RED</t>
-  </si>
-  <si>
-    <t>9386 CARDS - CREAM</t>
-  </si>
-  <si>
-    <t>9387 CARDS - GOLDEN</t>
+    <t>9385 CARDS - RED (Mil Jayega)</t>
+  </si>
+  <si>
+    <t>9386 CARDS - CREAM (Mil Jayega)</t>
+  </si>
+  <si>
+    <t>9387 CARDS - GOLDEN (Mil Jayega)</t>
   </si>
   <si>
     <t>9388 CARDS (DCU)</t>
@@ -2831,16 +2831,16 @@
         <v>26</v>
       </c>
       <c r="B23" s="24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C23" s="25">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="D23" s="26">
         <v>1.8</v>
       </c>
       <c r="E23" s="27">
-        <v>34.200000000000003</v>
+        <v>33.299999999999997</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2931,16 +2931,16 @@
         <v>32</v>
       </c>
       <c r="B29" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29" s="25">
-        <v>30.5</v>
+        <v>28.5</v>
       </c>
       <c r="D29" s="26">
         <v>2.38</v>
       </c>
       <c r="E29" s="27">
-        <v>72.59</v>
+        <v>67.83</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -3016,16 +3016,16 @@
         <v>37</v>
       </c>
       <c r="B34" s="24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" s="25">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D34" s="26">
         <v>2.2999999999999998</v>
       </c>
       <c r="E34" s="27">
-        <v>388.7</v>
+        <v>386.4</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -3033,16 +3033,16 @@
         <v>38</v>
       </c>
       <c r="B35" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C35" s="25">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D35" s="26">
         <v>2.2999999999999998</v>
       </c>
       <c r="E35" s="27">
-        <v>374.9</v>
+        <v>372.6</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -3129,16 +3129,16 @@
         <v>44</v>
       </c>
       <c r="B41" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C41" s="25">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D41" s="26">
         <v>2.35</v>
       </c>
       <c r="E41" s="27">
-        <v>82.25</v>
+        <v>75.2</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -3146,16 +3146,16 @@
         <v>45</v>
       </c>
       <c r="B42" s="24">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C42" s="25">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="D42" s="26">
         <v>2.35</v>
       </c>
       <c r="E42" s="27">
-        <v>8.23</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -3750,10 +3750,10 @@
         <v>85</v>
       </c>
       <c r="B82" s="24">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C82" s="25">
-        <v>-0.28999999999999998</v>
+        <v>-0.32</v>
       </c>
       <c r="D82" s="28"/>
       <c r="E82" s="29"/>
@@ -3763,10 +3763,10 @@
         <v>86</v>
       </c>
       <c r="B83" s="24">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C83" s="25">
-        <v>-0.69</v>
+        <v>-0.74</v>
       </c>
       <c r="D83" s="28"/>
       <c r="E83" s="29"/>
@@ -3775,9 +3775,11 @@
       <c r="A84" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="B84" s="24"/>
+      <c r="B84" s="24">
+        <v>2</v>
+      </c>
       <c r="C84" s="25">
-        <v>0.31</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D84" s="28"/>
       <c r="E84" s="29"/>
@@ -3787,10 +3789,10 @@
         <v>88</v>
       </c>
       <c r="B85" s="24">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C85" s="25">
-        <v>-0.5</v>
+        <v>-0.57999999999999996</v>
       </c>
       <c r="D85" s="28"/>
       <c r="E85" s="29"/>
@@ -3800,10 +3802,10 @@
         <v>89</v>
       </c>
       <c r="B86" s="24">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C86" s="25">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="D86" s="28"/>
       <c r="E86" s="29"/>
@@ -3839,10 +3841,10 @@
         <v>92</v>
       </c>
       <c r="B89" s="24">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C89" s="25">
-        <v>-0.52</v>
+        <v>-0.53</v>
       </c>
       <c r="D89" s="28"/>
       <c r="E89" s="29"/>
@@ -3868,13 +3870,13 @@
         <v>11</v>
       </c>
       <c r="C91" s="25">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="D91" s="26">
         <v>12.5</v>
       </c>
       <c r="E91" s="27">
-        <v>-6.25</v>
+        <v>-18.75</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -3899,16 +3901,16 @@
         <v>96</v>
       </c>
       <c r="B93" s="24">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C93" s="25">
-        <v>13.5</v>
+        <v>4</v>
       </c>
       <c r="D93" s="26">
         <v>12.5</v>
       </c>
       <c r="E93" s="27">
-        <v>168.75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -4017,15 +4019,17 @@
       <c r="A100" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="B100" s="24"/>
+      <c r="B100" s="24">
+        <v>1</v>
+      </c>
       <c r="C100" s="25">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D100" s="26">
         <v>12.5</v>
       </c>
       <c r="E100" s="27">
-        <v>262.5</v>
+        <v>225</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -4320,16 +4324,16 @@
         <v>121</v>
       </c>
       <c r="B118" s="24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C118" s="25">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D118" s="26">
         <v>11.5</v>
       </c>
       <c r="E118" s="27">
-        <v>184</v>
+        <v>161</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -4354,16 +4358,16 @@
         <v>123</v>
       </c>
       <c r="B120" s="24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C120" s="25">
-        <v>-3</v>
+        <v>5</v>
       </c>
       <c r="D120" s="26">
         <v>11.5</v>
       </c>
       <c r="E120" s="27">
-        <v>-34.5</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -4371,16 +4375,16 @@
         <v>124</v>
       </c>
       <c r="B121" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C121" s="25">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="D121" s="26">
         <v>11.5</v>
       </c>
       <c r="E121" s="27">
-        <v>97.75</v>
+        <v>92</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -4501,16 +4505,16 @@
         <v>132</v>
       </c>
       <c r="B129" s="24">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C129" s="25">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="D129" s="26">
         <v>1</v>
       </c>
       <c r="E129" s="27">
-        <v>153</v>
+        <v>113</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -4518,16 +4522,16 @@
         <v>133</v>
       </c>
       <c r="B130" s="24">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C130" s="25">
-        <v>-28</v>
+        <v>-35</v>
       </c>
       <c r="D130" s="26">
         <v>1.1499999999999999</v>
       </c>
       <c r="E130" s="27">
-        <v>-32.200000000000003</v>
+        <v>-40.25</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -4564,13 +4568,13 @@
         <v>5</v>
       </c>
       <c r="C133" s="25">
-        <v>11.5</v>
+        <v>23.5</v>
       </c>
       <c r="D133" s="26">
         <v>3.25</v>
       </c>
       <c r="E133" s="27">
-        <v>37.380000000000003</v>
+        <v>76.38</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -4581,13 +4585,13 @@
         <v>2</v>
       </c>
       <c r="C134" s="25">
-        <v>14.45</v>
+        <v>22.45</v>
       </c>
       <c r="D134" s="26">
         <v>3.25</v>
       </c>
       <c r="E134" s="27">
-        <v>46.96</v>
+        <v>72.959999999999994</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -4659,16 +4663,16 @@
         <v>142</v>
       </c>
       <c r="B139" s="24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" s="25">
-        <v>121</v>
+        <v>118.5</v>
       </c>
       <c r="D139" s="26">
         <v>2.78</v>
       </c>
       <c r="E139" s="27">
-        <v>336</v>
+        <v>329.05</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -4953,16 +4957,16 @@
         <v>160</v>
       </c>
       <c r="B157" s="24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" s="25">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D157" s="26">
         <v>4.5</v>
       </c>
       <c r="E157" s="27">
-        <v>139.5</v>
+        <v>126</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -5002,16 +5006,16 @@
         <v>163</v>
       </c>
       <c r="B160" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C160" s="25">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D160" s="26">
         <v>4.5</v>
       </c>
       <c r="E160" s="27">
-        <v>450</v>
+        <v>441</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -5179,16 +5183,16 @@
         <v>174</v>
       </c>
       <c r="B171" s="24">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C171" s="25">
-        <v>-2</v>
+        <v>-6.5</v>
       </c>
       <c r="D171" s="26">
         <v>2.7</v>
       </c>
       <c r="E171" s="27">
-        <v>-5.4</v>
+        <v>-17.55</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -5196,16 +5200,16 @@
         <v>175</v>
       </c>
       <c r="B172" s="24">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C172" s="25">
-        <v>1.5</v>
+        <v>-4.5</v>
       </c>
       <c r="D172" s="26">
         <v>2.7</v>
       </c>
       <c r="E172" s="27">
-        <v>4.05</v>
+        <v>-12.15</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -5213,16 +5217,16 @@
         <v>176</v>
       </c>
       <c r="B173" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C173" s="25">
-        <v>124.5</v>
+        <v>122.5</v>
       </c>
       <c r="D173" s="26">
         <v>2.2999999999999998</v>
       </c>
       <c r="E173" s="27">
-        <v>286.35000000000002</v>
+        <v>281.75</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -5281,16 +5285,16 @@
         <v>180</v>
       </c>
       <c r="B177" s="24">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C177" s="25">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D177" s="26">
         <v>3.88</v>
       </c>
       <c r="E177" s="27">
-        <v>151.13</v>
+        <v>147.25</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -5298,16 +5302,16 @@
         <v>181</v>
       </c>
       <c r="B178" s="24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C178" s="25">
-        <v>89.5</v>
+        <v>89</v>
       </c>
       <c r="D178" s="26">
         <v>3.25</v>
       </c>
       <c r="E178" s="27">
-        <v>290.88</v>
+        <v>289.25</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -5332,16 +5336,16 @@
         <v>183</v>
       </c>
       <c r="B180" s="24">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C180" s="25">
-        <v>28.5</v>
+        <v>23.5</v>
       </c>
       <c r="D180" s="26">
         <v>2.7</v>
       </c>
       <c r="E180" s="27">
-        <v>76.95</v>
+        <v>63.45</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
@@ -5400,16 +5404,16 @@
         <v>187</v>
       </c>
       <c r="B184" s="24">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C184" s="25">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D184" s="26">
         <v>4</v>
       </c>
       <c r="E184" s="27">
-        <v>308</v>
+        <v>324</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -5500,16 +5504,16 @@
         <v>193</v>
       </c>
       <c r="B190" s="24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C190" s="25">
-        <v>127.5</v>
+        <v>126.5</v>
       </c>
       <c r="D190" s="26">
         <v>3.25</v>
       </c>
       <c r="E190" s="27">
-        <v>414.38</v>
+        <v>411.13</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -5517,16 +5521,16 @@
         <v>194</v>
       </c>
       <c r="B191" s="24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C191" s="25">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D191" s="26">
         <v>3.25</v>
       </c>
       <c r="E191" s="27">
-        <v>172.25</v>
+        <v>162.5</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -5594,16 +5598,16 @@
         <v>199</v>
       </c>
       <c r="B196" s="24">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C196" s="25">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="D196" s="26">
-        <v>8.25</v>
+        <v>8.26</v>
       </c>
       <c r="E196" s="27">
-        <v>41.25</v>
+        <v>4.13</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
@@ -5628,16 +5632,16 @@
         <v>201</v>
       </c>
       <c r="B198" s="24">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C198" s="25">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D198" s="26">
         <v>4.8</v>
       </c>
       <c r="E198" s="27">
-        <v>38.4</v>
+        <v>96</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -5645,16 +5649,16 @@
         <v>202</v>
       </c>
       <c r="B199" s="24">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C199" s="25">
-        <v>38.5</v>
+        <v>33.5</v>
       </c>
       <c r="D199" s="26">
         <v>6.3</v>
       </c>
       <c r="E199" s="27">
-        <v>242.55</v>
+        <v>211.05</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
@@ -5662,16 +5666,16 @@
         <v>203</v>
       </c>
       <c r="B200" s="24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C200" s="25">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D200" s="26">
         <v>3</v>
       </c>
       <c r="E200" s="27">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
@@ -5713,16 +5717,16 @@
         <v>206</v>
       </c>
       <c r="B203" s="24">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C203" s="25">
-        <v>22.5</v>
+        <v>20.5</v>
       </c>
       <c r="D203" s="26">
         <v>3.9</v>
       </c>
       <c r="E203" s="27">
-        <v>87.75</v>
+        <v>79.95</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
@@ -5730,16 +5734,16 @@
         <v>207</v>
       </c>
       <c r="B204" s="24">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C204" s="25">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D204" s="26">
         <v>3.9</v>
       </c>
       <c r="E204" s="27">
-        <v>54.6</v>
+        <v>46.8</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
@@ -5826,16 +5830,16 @@
         <v>213</v>
       </c>
       <c r="B210" s="24">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C210" s="25">
-        <v>9.5</v>
+        <v>3.5</v>
       </c>
       <c r="D210" s="26">
         <v>3.5</v>
       </c>
       <c r="E210" s="27">
-        <v>33.25</v>
+        <v>12.25</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -5956,16 +5960,16 @@
         <v>221</v>
       </c>
       <c r="B218" s="24">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C218" s="25">
-        <v>10.5</v>
+        <v>0.5</v>
       </c>
       <c r="D218" s="26">
         <v>4.28</v>
       </c>
       <c r="E218" s="27">
-        <v>44.94</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -6217,13 +6221,13 @@
         <v>12</v>
       </c>
       <c r="C234" s="25">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="D234" s="26">
         <v>4.7</v>
       </c>
       <c r="E234" s="27">
-        <v>30.55</v>
+        <v>32.9</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
@@ -6347,15 +6351,17 @@
       <c r="A242" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="B242" s="24"/>
+      <c r="B242" s="24">
+        <v>1</v>
+      </c>
       <c r="C242" s="25">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D242" s="26">
         <v>5.76</v>
       </c>
       <c r="E242" s="27">
-        <v>155.52000000000001</v>
+        <v>149.76</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
@@ -6363,16 +6369,16 @@
         <v>246</v>
       </c>
       <c r="B243" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C243" s="25">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="D243" s="26">
         <v>4.5</v>
       </c>
       <c r="E243" s="27">
-        <v>31.5</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
@@ -6429,16 +6435,16 @@
         <v>250</v>
       </c>
       <c r="B247" s="24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C247" s="25">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D247" s="26">
         <v>4.91</v>
       </c>
       <c r="E247" s="27">
-        <v>270.04000000000002</v>
+        <v>265.13</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
@@ -6461,16 +6467,16 @@
         <v>252</v>
       </c>
       <c r="B249" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C249" s="25">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D249" s="26">
         <v>3.15</v>
       </c>
       <c r="E249" s="27">
-        <v>207.9</v>
+        <v>198.45</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
@@ -6478,16 +6484,16 @@
         <v>253</v>
       </c>
       <c r="B250" s="24">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C250" s="25">
-        <v>14</v>
+        <v>4.5</v>
       </c>
       <c r="D250" s="26">
         <v>5.92</v>
       </c>
       <c r="E250" s="27">
-        <v>82.93</v>
+        <v>26.66</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
@@ -6512,16 +6518,16 @@
         <v>255</v>
       </c>
       <c r="B252" s="24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C252" s="25">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D252" s="26">
         <v>4.16</v>
       </c>
       <c r="E252" s="27">
-        <v>266.24</v>
+        <v>257.92</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
@@ -6578,16 +6584,16 @@
         <v>259</v>
       </c>
       <c r="B256" s="24">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C256" s="25">
-        <v>156.5</v>
+        <v>158.5</v>
       </c>
       <c r="D256" s="26">
         <v>4.29</v>
       </c>
       <c r="E256" s="27">
-        <v>670.64</v>
+        <v>679.21</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
@@ -7020,16 +7026,16 @@
         <v>287</v>
       </c>
       <c r="B284" s="24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C284" s="25">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D284" s="26">
         <v>4.28</v>
       </c>
       <c r="E284" s="27">
-        <v>81.319999999999993</v>
+        <v>59.92</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
@@ -7135,16 +7141,16 @@
         <v>294</v>
       </c>
       <c r="B291" s="24">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C291" s="25">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="D291" s="26">
         <v>9</v>
       </c>
       <c r="E291" s="27">
-        <v>36</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
@@ -7282,16 +7288,16 @@
         <v>303</v>
       </c>
       <c r="B300" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C300" s="25">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="D300" s="26">
         <v>8.6999999999999993</v>
       </c>
       <c r="E300" s="27">
-        <v>126.15</v>
+        <v>113.1</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
@@ -7350,16 +7356,16 @@
         <v>307</v>
       </c>
       <c r="B304" s="24">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C304" s="25">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="D304" s="26">
         <v>6.4</v>
       </c>
       <c r="E304" s="27">
-        <v>70.400000000000006</v>
+        <v>54.4</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
@@ -7384,16 +7390,16 @@
         <v>309</v>
       </c>
       <c r="B306" s="24">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C306" s="25">
-        <v>8.5</v>
+        <v>1</v>
       </c>
       <c r="D306" s="26">
         <v>4.75</v>
       </c>
       <c r="E306" s="27">
-        <v>40.380000000000003</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
@@ -7401,16 +7407,16 @@
         <v>310</v>
       </c>
       <c r="B307" s="24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C307" s="25">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D307" s="26">
         <v>9.1999999999999993</v>
       </c>
       <c r="E307" s="27">
-        <v>239.2</v>
+        <v>211.6</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
@@ -7481,15 +7487,17 @@
       <c r="A312" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="B312" s="24"/>
+      <c r="B312" s="24">
+        <v>1</v>
+      </c>
       <c r="C312" s="25">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="D312" s="26">
         <v>7.3</v>
       </c>
       <c r="E312" s="27">
-        <v>142.35</v>
+        <v>120.45</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
@@ -7514,16 +7522,16 @@
         <v>317</v>
       </c>
       <c r="B314" s="24">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C314" s="25">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="D314" s="26">
         <v>7.51</v>
       </c>
       <c r="E314" s="27">
-        <v>75.099999999999994</v>
+        <v>86.37</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
@@ -7613,13 +7621,13 @@
         <v>12</v>
       </c>
       <c r="C320" s="25">
-        <v>53.5</v>
+        <v>29.5</v>
       </c>
       <c r="D320" s="26">
         <v>7.13</v>
       </c>
       <c r="E320" s="27">
-        <v>381.46</v>
+        <v>210.34</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
@@ -7627,16 +7635,16 @@
         <v>324</v>
       </c>
       <c r="B321" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C321" s="25">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="D321" s="26">
         <v>7</v>
       </c>
       <c r="E321" s="27">
-        <v>45.5</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
@@ -7644,16 +7652,16 @@
         <v>325</v>
       </c>
       <c r="B322" s="24">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C322" s="25">
-        <v>-1.5</v>
+        <v>-5</v>
       </c>
       <c r="D322" s="26">
         <v>6.6</v>
       </c>
       <c r="E322" s="27">
-        <v>-9.9</v>
+        <v>-33</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
@@ -7661,16 +7669,16 @@
         <v>326</v>
       </c>
       <c r="B323" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C323" s="25">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D323" s="26">
         <v>7.52</v>
       </c>
       <c r="E323" s="27">
-        <v>165.44</v>
+        <v>127.84</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
@@ -7695,16 +7703,16 @@
         <v>328</v>
       </c>
       <c r="B325" s="24">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C325" s="25">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D325" s="26">
         <v>8.1999999999999993</v>
       </c>
       <c r="E325" s="27">
-        <v>188.6</v>
+        <v>155.80000000000001</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
@@ -7712,16 +7720,16 @@
         <v>329</v>
       </c>
       <c r="B326" s="24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C326" s="25">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="D326" s="26">
         <v>8.1999999999999993</v>
       </c>
       <c r="E326" s="27">
-        <v>36.9</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
@@ -7729,16 +7737,16 @@
         <v>330</v>
       </c>
       <c r="B327" s="24">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C327" s="25">
-        <v>6.9</v>
+        <v>1.9</v>
       </c>
       <c r="D327" s="26">
         <v>4.5</v>
       </c>
       <c r="E327" s="27">
-        <v>31.05</v>
+        <v>8.5500000000000007</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
@@ -7746,16 +7754,16 @@
         <v>331</v>
       </c>
       <c r="B328" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C328" s="25">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="D328" s="26">
         <v>8.08</v>
       </c>
       <c r="E328" s="27">
-        <v>157.56</v>
+        <v>141.4</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
@@ -7812,16 +7820,16 @@
         <v>335</v>
       </c>
       <c r="B332" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C332" s="25">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="D332" s="26">
         <v>9.5</v>
       </c>
       <c r="E332" s="27">
-        <v>147.25</v>
+        <v>118.75</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
@@ -7832,13 +7840,13 @@
         <v>11</v>
       </c>
       <c r="C333" s="25">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D333" s="26">
         <v>3.6</v>
       </c>
       <c r="E333" s="27">
-        <v>79.2</v>
+        <v>86.4</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
@@ -7846,16 +7854,16 @@
         <v>337</v>
       </c>
       <c r="B334" s="24">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C334" s="25">
-        <v>62.5</v>
+        <v>60.5</v>
       </c>
       <c r="D334" s="26">
         <v>6</v>
       </c>
       <c r="E334" s="27">
-        <v>375</v>
+        <v>363</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
@@ -8106,16 +8114,16 @@
         <v>353</v>
       </c>
       <c r="B350" s="24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C350" s="25">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="D350" s="26">
         <v>6.65</v>
       </c>
       <c r="E350" s="27">
-        <v>16.63</v>
+        <v>26.6</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
@@ -8206,16 +8214,16 @@
         <v>359</v>
       </c>
       <c r="B356" s="24">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C356" s="25">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="D356" s="26">
         <v>7</v>
       </c>
       <c r="E356" s="27">
-        <v>136.5</v>
+        <v>129.5</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
@@ -8353,16 +8361,16 @@
         <v>368</v>
       </c>
       <c r="B365" s="24">
+        <v>15</v>
+      </c>
+      <c r="C365" s="25">
         <v>13</v>
-      </c>
-      <c r="C365" s="25">
-        <v>17</v>
       </c>
       <c r="D365" s="26">
         <v>5.2</v>
       </c>
       <c r="E365" s="27">
-        <v>88.4</v>
+        <v>67.599999999999994</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
@@ -8626,17 +8634,11 @@
         <v>385</v>
       </c>
       <c r="B382" s="24">
-        <v>9</v>
-      </c>
-      <c r="C382" s="25">
-        <v>6</v>
-      </c>
-      <c r="D382" s="26">
-        <v>5</v>
-      </c>
-      <c r="E382" s="27">
-        <v>30</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C382" s="29"/>
+      <c r="D382" s="28"/>
+      <c r="E382" s="29"/>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="23" t="s">
@@ -8722,16 +8724,16 @@
         <v>391</v>
       </c>
       <c r="B388" s="24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C388" s="25">
-        <v>20.5</v>
+        <v>18.5</v>
       </c>
       <c r="D388" s="26">
         <v>11.75</v>
       </c>
       <c r="E388" s="27">
-        <v>240.88</v>
+        <v>217.38</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
@@ -8772,15 +8774,17 @@
       <c r="A391" s="23" t="s">
         <v>394</v>
       </c>
-      <c r="B391" s="24"/>
+      <c r="B391" s="24">
+        <v>1</v>
+      </c>
       <c r="C391" s="25">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="D391" s="26">
         <v>15.5</v>
       </c>
       <c r="E391" s="27">
-        <v>147.25</v>
+        <v>131.75</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
@@ -8822,16 +8826,16 @@
         <v>397</v>
       </c>
       <c r="B394" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C394" s="25">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D394" s="26">
         <v>11</v>
       </c>
       <c r="E394" s="27">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
@@ -8935,16 +8939,16 @@
         <v>404</v>
       </c>
       <c r="B401" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C401" s="25">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="D401" s="26">
         <v>9.75</v>
       </c>
       <c r="E401" s="27">
-        <v>107.25</v>
+        <v>82.88</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
@@ -8952,16 +8956,16 @@
         <v>405</v>
       </c>
       <c r="B402" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C402" s="25">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="D402" s="26">
         <v>9.75</v>
       </c>
       <c r="E402" s="27">
-        <v>19.5</v>
+        <v>-29.25</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
@@ -8985,15 +8989,17 @@
       <c r="A404" s="23" t="s">
         <v>407</v>
       </c>
-      <c r="B404" s="24"/>
+      <c r="B404" s="24">
+        <v>1</v>
+      </c>
       <c r="C404" s="25">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="D404" s="26">
         <v>29.7</v>
       </c>
       <c r="E404" s="27">
-        <v>282.14999999999998</v>
+        <v>252.45</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
@@ -9016,16 +9022,16 @@
         <v>409</v>
       </c>
       <c r="B406" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C406" s="25">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="D406" s="26">
         <v>22.5</v>
       </c>
       <c r="E406" s="27">
-        <v>202.5</v>
+        <v>191.25</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
@@ -9063,16 +9069,16 @@
         <v>412</v>
       </c>
       <c r="B409" s="24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C409" s="25">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="D409" s="26">
         <v>10.5</v>
       </c>
       <c r="E409" s="27">
-        <v>115.5</v>
+        <v>89.25</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
@@ -9272,16 +9278,16 @@
         <v>425</v>
       </c>
       <c r="B422" s="24">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C422" s="25">
-        <v>12.5</v>
+        <v>7</v>
       </c>
       <c r="D422" s="26">
         <v>9.5</v>
       </c>
       <c r="E422" s="27">
-        <v>118.75</v>
+        <v>66.5</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
@@ -9289,16 +9295,16 @@
         <v>426</v>
       </c>
       <c r="B423" s="24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C423" s="25">
-        <v>12.75</v>
+        <v>11.75</v>
       </c>
       <c r="D423" s="26">
         <v>13.5</v>
       </c>
       <c r="E423" s="27">
-        <v>172.13</v>
+        <v>158.63</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
@@ -9321,16 +9327,16 @@
         <v>428</v>
       </c>
       <c r="B425" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C425" s="25">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="D425" s="26">
         <v>10</v>
       </c>
       <c r="E425" s="27">
-        <v>185</v>
+        <v>165</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
@@ -9354,15 +9360,17 @@
       <c r="A427" s="23" t="s">
         <v>430</v>
       </c>
-      <c r="B427" s="24"/>
+      <c r="B427" s="24">
+        <v>1</v>
+      </c>
       <c r="C427" s="25">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="D427" s="26">
         <v>13</v>
       </c>
       <c r="E427" s="27">
-        <v>162.5</v>
+        <v>136.5</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
@@ -9484,13 +9492,13 @@
         <v>3</v>
       </c>
       <c r="C435" s="25">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D435" s="26">
         <v>9</v>
       </c>
       <c r="E435" s="27">
-        <v>162</v>
+        <v>252</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
@@ -9501,13 +9509,13 @@
         <v>2</v>
       </c>
       <c r="C436" s="25">
-        <v>22.5</v>
+        <v>2.5</v>
       </c>
       <c r="D436" s="26">
-        <v>9.17</v>
+        <v>9.26</v>
       </c>
       <c r="E436" s="27">
-        <v>206.4</v>
+        <v>23.15</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
@@ -9515,16 +9523,16 @@
         <v>440</v>
       </c>
       <c r="B437" s="24">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C437" s="25">
-        <v>18.5</v>
+        <v>11</v>
       </c>
       <c r="D437" s="26">
         <v>10.45</v>
       </c>
       <c r="E437" s="27">
-        <v>193.33</v>
+        <v>114.95</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
@@ -9647,16 +9655,16 @@
         <v>448</v>
       </c>
       <c r="B445" s="24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C445" s="25">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D445" s="26">
         <v>12.8</v>
       </c>
       <c r="E445" s="27">
-        <v>12.8</v>
+        <v>-12.8</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.25">
@@ -9696,16 +9704,16 @@
         <v>451</v>
       </c>
       <c r="B448" s="24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C448" s="25">
-        <v>24.5</v>
+        <v>22.5</v>
       </c>
       <c r="D448" s="26">
         <v>11.25</v>
       </c>
       <c r="E448" s="27">
-        <v>275.63</v>
+        <v>253.13</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.25">
@@ -10082,16 +10090,16 @@
         <v>475</v>
       </c>
       <c r="B472" s="24">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C472" s="25">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="D472" s="26">
         <v>1.4</v>
       </c>
       <c r="E472" s="27">
-        <v>256.2</v>
+        <v>240.8</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.25">
@@ -10099,16 +10107,16 @@
         <v>476</v>
       </c>
       <c r="B473" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C473" s="25">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="D473" s="26">
         <v>1.4</v>
       </c>
       <c r="E473" s="27">
-        <v>218.4</v>
+        <v>204.4</v>
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.25">
@@ -10184,16 +10192,16 @@
         <v>481</v>
       </c>
       <c r="B478" s="24">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C478" s="25">
-        <v>56</v>
+        <v>49.5</v>
       </c>
       <c r="D478" s="26">
         <v>3</v>
       </c>
       <c r="E478" s="27">
-        <v>168</v>
+        <v>148.5</v>
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.25">
@@ -10359,16 +10367,16 @@
         <v>492</v>
       </c>
       <c r="B489" s="24">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C489" s="25">
-        <v>36.5</v>
+        <v>32.5</v>
       </c>
       <c r="D489" s="26">
         <v>4.28</v>
       </c>
       <c r="E489" s="27">
-        <v>156.22</v>
+        <v>139.1</v>
       </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.25">
@@ -10410,16 +10418,16 @@
         <v>495</v>
       </c>
       <c r="B492" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C492" s="25">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="D492" s="26">
         <v>6.5</v>
       </c>
       <c r="E492" s="27">
-        <v>123.5</v>
+        <v>113.75</v>
       </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.25">
@@ -10472,16 +10480,16 @@
         <v>499</v>
       </c>
       <c r="B496" s="24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C496" s="25">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="D496" s="26">
         <v>4.75</v>
       </c>
       <c r="E496" s="27">
-        <v>14.25</v>
+        <v>11.88</v>
       </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.25">
@@ -10659,16 +10667,16 @@
         <v>510</v>
       </c>
       <c r="B507" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C507" s="25">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D507" s="26">
         <v>3.6</v>
       </c>
       <c r="E507" s="27">
-        <v>25.2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.25">
@@ -11004,10 +11012,10 @@
         <v>531</v>
       </c>
       <c r="B528" s="24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C528" s="25">
-        <v>55.5</v>
+        <v>51.5</v>
       </c>
       <c r="D528" s="28"/>
       <c r="E528" s="29"/>
@@ -11017,10 +11025,10 @@
         <v>532</v>
       </c>
       <c r="B529" s="24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C529" s="25">
-        <v>-60</v>
+        <v>-64</v>
       </c>
       <c r="D529" s="28"/>
       <c r="E529" s="29"/>
@@ -11043,10 +11051,10 @@
         <v>534</v>
       </c>
       <c r="B531" s="24">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C531" s="25">
-        <v>84.5</v>
+        <v>76.5</v>
       </c>
       <c r="D531" s="28"/>
       <c r="E531" s="29"/>
@@ -11056,16 +11064,16 @@
         <v>535</v>
       </c>
       <c r="B532" s="24">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C532" s="25">
-        <v>470.5</v>
+        <v>464.5</v>
       </c>
       <c r="D532" s="26">
         <v>0.87</v>
       </c>
       <c r="E532" s="27">
-        <v>409.34</v>
+        <v>404.12</v>
       </c>
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.25">
@@ -11086,16 +11094,16 @@
         <v>537</v>
       </c>
       <c r="B534" s="24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C534" s="25">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D534" s="26">
         <v>0.85</v>
       </c>
       <c r="E534" s="27">
-        <v>6.8</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.25">
@@ -11212,16 +11220,16 @@
         <v>545</v>
       </c>
       <c r="B542" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C542" s="25">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D542" s="26">
         <v>10</v>
       </c>
       <c r="E542" s="27">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.25">
@@ -11229,16 +11237,16 @@
         <v>546</v>
       </c>
       <c r="B543" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C543" s="25">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D543" s="26">
         <v>5.5</v>
       </c>
       <c r="E543" s="27">
-        <v>93.5</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.25">
@@ -11280,16 +11288,16 @@
         <v>549</v>
       </c>
       <c r="B546" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C546" s="25">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="D546" s="26">
         <v>3.5</v>
       </c>
       <c r="E546" s="27">
-        <v>5.25</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="547" spans="1:5" x14ac:dyDescent="0.25">
@@ -11314,16 +11322,16 @@
         <v>551</v>
       </c>
       <c r="B548" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C548" s="25">
-        <v>30.5</v>
+        <v>29.5</v>
       </c>
       <c r="D548" s="26">
         <v>4</v>
       </c>
       <c r="E548" s="27">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.25">
@@ -11448,16 +11456,16 @@
         <v>559</v>
       </c>
       <c r="B556" s="24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C556" s="25">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D556" s="26">
         <v>4</v>
       </c>
       <c r="E556" s="27">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.25">
@@ -11497,16 +11505,16 @@
         <v>562</v>
       </c>
       <c r="B559" s="24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C559" s="25">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D559" s="26">
         <v>1.5</v>
       </c>
       <c r="E559" s="27">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="560" spans="1:5" x14ac:dyDescent="0.25">
@@ -11531,16 +11539,16 @@
         <v>564</v>
       </c>
       <c r="B561" s="24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C561" s="25">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D561" s="26">
         <v>2.2799999999999998</v>
       </c>
       <c r="E561" s="27">
-        <v>47.88</v>
+        <v>38.76</v>
       </c>
     </row>
     <row r="562" spans="1:5" x14ac:dyDescent="0.25">
@@ -11597,33 +11605,27 @@
         <v>568</v>
       </c>
       <c r="B565" s="24">
-        <v>5</v>
-      </c>
-      <c r="C565" s="25">
-        <v>1.5</v>
-      </c>
-      <c r="D565" s="26">
-        <v>4.6500000000000004</v>
-      </c>
-      <c r="E565" s="27">
-        <v>6.98</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C565" s="29"/>
+      <c r="D565" s="28"/>
+      <c r="E565" s="29"/>
     </row>
     <row r="566" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A566" s="23" t="s">
         <v>569</v>
       </c>
       <c r="B566" s="24">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C566" s="25">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D566" s="26">
         <v>5</v>
       </c>
       <c r="E566" s="27">
-        <v>75</v>
+        <v>25</v>
       </c>
     </row>
     <row r="567" spans="1:5" x14ac:dyDescent="0.25">
@@ -11712,16 +11714,16 @@
         <v>575</v>
       </c>
       <c r="B572" s="24">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C572" s="25">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="D572" s="26">
         <v>1.7</v>
       </c>
       <c r="E572" s="27">
-        <v>2.5499999999999998</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="573" spans="1:5" x14ac:dyDescent="0.25">
@@ -11763,16 +11765,16 @@
         <v>578</v>
       </c>
       <c r="B575" s="24">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C575" s="25">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="D575" s="26">
         <v>3.5</v>
       </c>
       <c r="E575" s="27">
-        <v>77</v>
+        <v>68.25</v>
       </c>
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.25">
@@ -11848,16 +11850,16 @@
         <v>583</v>
       </c>
       <c r="B580" s="24">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C580" s="25">
-        <v>33.5</v>
+        <v>27</v>
       </c>
       <c r="D580" s="26">
         <v>2</v>
       </c>
       <c r="E580" s="27">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="581" spans="1:5" x14ac:dyDescent="0.25">
@@ -12059,16 +12061,16 @@
         <v>596</v>
       </c>
       <c r="B593" s="24">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C593" s="25">
-        <v>-7</v>
+        <v>-13</v>
       </c>
       <c r="D593" s="26">
         <v>3.1</v>
       </c>
       <c r="E593" s="27">
-        <v>-21.7</v>
+        <v>-40.299999999999997</v>
       </c>
     </row>
     <row r="594" spans="1:5" x14ac:dyDescent="0.25">
@@ -12076,16 +12078,16 @@
         <v>597</v>
       </c>
       <c r="B594" s="24">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C594" s="25">
-        <v>10.5</v>
+        <v>2.5</v>
       </c>
       <c r="D594" s="26">
         <v>3.6</v>
       </c>
       <c r="E594" s="27">
-        <v>37.799999999999997</v>
+        <v>9</v>
       </c>
     </row>
     <row r="595" spans="1:5" x14ac:dyDescent="0.25">
@@ -12142,16 +12144,16 @@
         <v>601</v>
       </c>
       <c r="B598" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C598" s="25">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D598" s="26">
         <v>2.5</v>
       </c>
       <c r="E598" s="27">
-        <v>45</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.25">
@@ -12259,16 +12261,16 @@
         <v>608</v>
       </c>
       <c r="B605" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C605" s="25">
-        <v>46.5</v>
+        <v>42.5</v>
       </c>
       <c r="D605" s="26">
         <v>2.75</v>
       </c>
       <c r="E605" s="27">
-        <v>127.88</v>
+        <v>116.88</v>
       </c>
     </row>
     <row r="606" spans="1:5" x14ac:dyDescent="0.25">
@@ -12293,16 +12295,16 @@
         <v>610</v>
       </c>
       <c r="B607" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C607" s="25">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D607" s="26">
         <v>2.75</v>
       </c>
       <c r="E607" s="27">
-        <v>115.5</v>
+        <v>101.75</v>
       </c>
     </row>
     <row r="608" spans="1:5" x14ac:dyDescent="0.25">
@@ -12442,10 +12444,10 @@
         <v>619</v>
       </c>
       <c r="B616" s="24">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C616" s="25">
-        <v>45.5</v>
+        <v>40.5</v>
       </c>
       <c r="D616" s="28"/>
       <c r="E616" s="29"/>
@@ -12455,10 +12457,10 @@
         <v>620</v>
       </c>
       <c r="B617" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C617" s="25">
-        <v>41.5</v>
+        <v>40.5</v>
       </c>
       <c r="D617" s="28"/>
       <c r="E617" s="29"/>
@@ -12468,10 +12470,10 @@
         <v>621</v>
       </c>
       <c r="B618" s="24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C618" s="25">
-        <v>75.69</v>
+        <v>74.19</v>
       </c>
       <c r="D618" s="28"/>
       <c r="E618" s="29"/>
@@ -12492,10 +12494,10 @@
         <v>623</v>
       </c>
       <c r="B620" s="24">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C620" s="25">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D620" s="28"/>
       <c r="E620" s="29"/>
@@ -12505,10 +12507,10 @@
         <v>624</v>
       </c>
       <c r="B621" s="24">
+        <v>6</v>
+      </c>
+      <c r="C621" s="25">
         <v>5</v>
-      </c>
-      <c r="C621" s="25">
-        <v>7</v>
       </c>
       <c r="D621" s="28"/>
       <c r="E621" s="29"/>
@@ -12529,10 +12531,10 @@
         <v>626</v>
       </c>
       <c r="B623" s="24">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C623" s="25">
-        <v>-2.5</v>
+        <v>-5.5</v>
       </c>
       <c r="D623" s="28"/>
       <c r="E623" s="29"/>
@@ -12542,10 +12544,10 @@
         <v>627</v>
       </c>
       <c r="B624" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C624" s="25">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D624" s="28"/>
       <c r="E624" s="29"/>
@@ -12564,16 +12566,16 @@
         <v>629</v>
       </c>
       <c r="B626" s="24">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C626" s="25">
-        <v>47.5</v>
+        <v>42.5</v>
       </c>
       <c r="D626" s="26">
         <v>2.77</v>
       </c>
       <c r="E626" s="27">
-        <v>131.47</v>
+        <v>117.63</v>
       </c>
     </row>
     <row r="627" spans="1:5" x14ac:dyDescent="0.25">
@@ -12685,10 +12687,10 @@
         <v>638</v>
       </c>
       <c r="B635" s="24">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C635" s="25">
-        <v>-0.3</v>
+        <v>-0.31</v>
       </c>
       <c r="D635" s="28"/>
       <c r="E635" s="29"/>
@@ -12868,10 +12870,10 @@
         <v>649</v>
       </c>
       <c r="B646" s="24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C646" s="25">
-        <v>-22.5</v>
+        <v>-24.5</v>
       </c>
       <c r="D646" s="28"/>
       <c r="E646" s="29"/>
@@ -12895,11 +12897,11 @@
       </c>
       <c r="B648" s="31"/>
       <c r="C648" s="32">
-        <v>17391.650000000001</v>
+        <v>17013.939999999999</v>
       </c>
       <c r="D648" s="33"/>
       <c r="E648" s="34">
-        <v>72218.52</v>
+        <v>70439.240000000005</v>
       </c>
     </row>
   </sheetData>

--- a/data/website stock.xlsx
+++ b/data/website stock.xlsx
@@ -35,7 +35,7 @@
     <t>Stock Group Summary</t>
   </si>
   <si>
-    <t>1-Jul-25 to 10-Nov-25</t>
+    <t>1-Jul-25 to 11-Nov-25</t>
   </si>
   <si>
     <t/>
@@ -173,31 +173,31 @@
     <t>1035 PATRIKA (DCU)</t>
   </si>
   <si>
-    <t>1101 PATRIKA</t>
-  </si>
-  <si>
-    <t>1102 PATRIKA</t>
-  </si>
-  <si>
-    <t>1103 PATRIKA</t>
-  </si>
-  <si>
-    <t>1104 PATRIKA</t>
+    <t>1101 PATRIKA (O.2591)</t>
+  </si>
+  <si>
+    <t>1102 PATRIKA (P.2591)</t>
+  </si>
+  <si>
+    <t>1103 PATRIKA(N-271)</t>
+  </si>
+  <si>
+    <t>1104 PATRIKA(N-272)</t>
   </si>
   <si>
     <t>1105 PATRIKA</t>
   </si>
   <si>
-    <t>1106 PATRIKA</t>
-  </si>
-  <si>
-    <t>1107 PATRIKA</t>
-  </si>
-  <si>
-    <t>1109 PATRIKA</t>
-  </si>
-  <si>
-    <t>1110 PATRIKA</t>
+    <t>1106 PATRIKA-YELLOW</t>
+  </si>
+  <si>
+    <t>1107 PATRIKA-RED</t>
+  </si>
+  <si>
+    <t>1109 PATRIKA-BIG Y</t>
+  </si>
+  <si>
+    <t>1110 PATRIKA-BIG R</t>
   </si>
   <si>
     <t>1112 PATRIKA</t>
@@ -206,28 +206,28 @@
     <t>1113 PATRIKA</t>
   </si>
   <si>
-    <t>1114 PATRIKA</t>
-  </si>
-  <si>
-    <t>1115 PATRIKA</t>
-  </si>
-  <si>
-    <t>1116 PATRIKA</t>
-  </si>
-  <si>
-    <t>1117 PATRIKA</t>
-  </si>
-  <si>
-    <t>1118 PATRIKA</t>
-  </si>
-  <si>
-    <t>1119 PATRIKA</t>
-  </si>
-  <si>
-    <t>1120 PATRIKA</t>
-  </si>
-  <si>
-    <t>1121 PATRIKA</t>
+    <t>1114 PATRIKA-BROWN</t>
+  </si>
+  <si>
+    <t>1115 PATRIKA-CREAM</t>
+  </si>
+  <si>
+    <t>1116 PATRIKA (1153)</t>
+  </si>
+  <si>
+    <t>1117 PATRIKA (1155)</t>
+  </si>
+  <si>
+    <t>1118 PATRIKA (सवाश्री-57)</t>
+  </si>
+  <si>
+    <t>1119 PATRIKA(सवाश्री-55)</t>
+  </si>
+  <si>
+    <t>1120 PATRIKA(सवाश्री-59)</t>
+  </si>
+  <si>
+    <t>1121 PATRIKA(सवाश्री-53)</t>
   </si>
   <si>
     <t>1122 PATRIKA (DCU)</t>
@@ -272,43 +272,43 @@
     <t>1135 PATRIKA (DCU) Eco-54</t>
   </si>
   <si>
-    <t>1136 PATRIKA</t>
-  </si>
-  <si>
-    <t>1137 PATRIKA</t>
-  </si>
-  <si>
-    <t>1138 PATRIKA</t>
-  </si>
-  <si>
-    <t>1139 PATRIKA</t>
-  </si>
-  <si>
-    <t>1140 PATRIKA</t>
-  </si>
-  <si>
-    <t>1141 PATRIKA</t>
-  </si>
-  <si>
-    <t>1142 PATRIKA</t>
-  </si>
-  <si>
-    <t>1143 PATRIKA</t>
-  </si>
-  <si>
-    <t>1144 PATRIKA</t>
-  </si>
-  <si>
-    <t>1145 PATRIKA</t>
-  </si>
-  <si>
-    <t>1147 PATRIKA</t>
-  </si>
-  <si>
-    <t>1148 PATRIKA</t>
-  </si>
-  <si>
-    <t>1149 PATRIKA</t>
+    <t>1136 PATRIKA (R)</t>
+  </si>
+  <si>
+    <t>1137 PATRIKA (P)</t>
+  </si>
+  <si>
+    <t>1138 PATRIKA (BR)</t>
+  </si>
+  <si>
+    <t>1139 PATRIKA (BY)</t>
+  </si>
+  <si>
+    <t>1140 PATRIKA (BB)</t>
+  </si>
+  <si>
+    <t>1141 PATRIKA (R)</t>
+  </si>
+  <si>
+    <t>1142 PATRIKA (P)</t>
+  </si>
+  <si>
+    <t>1143 PATRIKA (G)</t>
+  </si>
+  <si>
+    <t>1144 PATRIKA (BR)</t>
+  </si>
+  <si>
+    <t>1145 PATRIKA (BY)</t>
+  </si>
+  <si>
+    <t>1147 PATRIKA (S.201)</t>
+  </si>
+  <si>
+    <t>1148 PATRIKA (S.202)</t>
+  </si>
+  <si>
+    <t>1149 PATRIKA (S.204)</t>
   </si>
   <si>
     <t>1150 PATRIKA (DCU)</t>
@@ -329,25 +329,25 @@
     <t>1155 PATRIKA</t>
   </si>
   <si>
-    <t>1156 PATRIKA</t>
-  </si>
-  <si>
-    <t>1157 PATRIKA</t>
-  </si>
-  <si>
-    <t>1158 PATRIKA</t>
-  </si>
-  <si>
-    <t>1159 PATRIKA</t>
-  </si>
-  <si>
-    <t>1160 PATRIKA</t>
-  </si>
-  <si>
-    <t>1161 PATRIKA</t>
-  </si>
-  <si>
-    <t>1162 PATRIKA</t>
+    <t>1156 PATRIKA-YELLOW</t>
+  </si>
+  <si>
+    <t>1157 PATRIKA-CREAM</t>
+  </si>
+  <si>
+    <t>1158 PATRIKA-GOLDEN</t>
+  </si>
+  <si>
+    <t>1159 PATRIKA-WHITE</t>
+  </si>
+  <si>
+    <t>1160 PATRIKA-PINK</t>
+  </si>
+  <si>
+    <t>1161 PATRIKA (01)</t>
+  </si>
+  <si>
+    <t>1162 PATRIKA (02)</t>
   </si>
   <si>
     <t>2025 ALBUM (JC)</t>
@@ -977,7 +977,7 @@
     <t>5527 PATRIKA (DCU)</t>
   </si>
   <si>
-    <t>5528 PATRIKA *-* (M) WEDNES</t>
+    <t>5528 PATRIKA *-* (M)</t>
   </si>
   <si>
     <t>5529 PATRIKA *-* (M)</t>
@@ -1025,7 +1025,7 @@
     <t>5543 PATRIKA</t>
   </si>
   <si>
-    <t>5544 PATRIKA *-* (M) WEDNES</t>
+    <t>5544 PATRIKA *-* (M)</t>
   </si>
   <si>
     <t>5545 PATRIKA *-* (M)</t>
@@ -1259,7 +1259,7 @@
     <t>5622 PATRIKA *-* (M)</t>
   </si>
   <si>
-    <t>5623 PATRIKA (WEDNES)</t>
+    <t>5623 PATRIKA</t>
   </si>
   <si>
     <t>5624 PATRIKA (JC)</t>
@@ -1391,7 +1391,7 @@
     <t>6641 PATRIKA *-* (M)</t>
   </si>
   <si>
-    <t>6642 PATRIKA *-* (M) WEDNESDAY</t>
+    <t>6642 PATRIKA *-* (M)</t>
   </si>
   <si>
     <t>6643 PATRIKA *-* (M)</t>
@@ -1808,7 +1808,7 @@
     <t>9327 CARDS</t>
   </si>
   <si>
-    <t>9328 CARDS-4000 (WEDNESDAY )</t>
+    <t>9328 CARDS-4000</t>
   </si>
   <si>
     <t>9329 CARDS (Desgin H/d) TUES</t>
@@ -1871,7 +1871,7 @@
     <t>9348 CARDS *-* (D)</t>
   </si>
   <si>
-    <t>9349 CARDS -WEDNESDAY (WITH OUT WINDOW)</t>
+    <t>9349 CARDS (W/o Window)</t>
   </si>
   <si>
     <t>9350 CARDS *-* (T)</t>
@@ -1892,7 +1892,7 @@
     <t>9355 CARDS</t>
   </si>
   <si>
-    <t>9356 CARDS (2200) MONDAY</t>
+    <t>9356 CARDS</t>
   </si>
   <si>
     <t>9357 CARDS SATURDAY 2800</t>
@@ -2587,7 +2587,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
@@ -2777,16 +2777,16 @@
         <v>18</v>
       </c>
       <c r="B15" s="24">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C15" s="25">
-        <v>96.5</v>
+        <v>92</v>
       </c>
       <c r="D15" s="26">
         <v>2</v>
       </c>
       <c r="E15" s="27">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -2950,13 +2950,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="25">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="D25" s="26">
         <v>1.65</v>
       </c>
       <c r="E25" s="27">
-        <v>12.38</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2981,16 +2981,16 @@
         <v>30</v>
       </c>
       <c r="B27" s="24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C27" s="25">
-        <v>6.5</v>
+        <v>123.5</v>
       </c>
       <c r="D27" s="26">
         <v>2</v>
       </c>
       <c r="E27" s="27">
-        <v>13</v>
+        <v>247</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -3015,16 +3015,16 @@
         <v>32</v>
       </c>
       <c r="B29" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C29" s="25">
-        <v>55.5</v>
+        <v>55</v>
       </c>
       <c r="D29" s="26">
         <v>2.38</v>
       </c>
       <c r="E29" s="27">
-        <v>132.09</v>
+        <v>130.9</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -3196,16 +3196,16 @@
         <v>43</v>
       </c>
       <c r="B40" s="24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C40" s="25">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="D40" s="26">
         <v>2.14</v>
       </c>
       <c r="E40" s="27">
-        <v>36.380000000000003</v>
+        <v>119.84</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -3213,16 +3213,16 @@
         <v>44</v>
       </c>
       <c r="B41" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C41" s="25">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D41" s="26">
         <v>2.35</v>
       </c>
       <c r="E41" s="27">
-        <v>65.8</v>
+        <v>42.3</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -3247,16 +3247,16 @@
         <v>46</v>
       </c>
       <c r="B43" s="24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C43" s="25">
-        <v>64.5</v>
+        <v>63.5</v>
       </c>
       <c r="D43" s="26">
         <v>2.66</v>
       </c>
       <c r="E43" s="27">
-        <v>171.57</v>
+        <v>168.91</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -3333,13 +3333,13 @@
         <v>2</v>
       </c>
       <c r="C48" s="25">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="D48" s="26">
         <v>1.4</v>
       </c>
       <c r="E48" s="27">
-        <v>67.2</v>
+        <v>151.19999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -3362,31 +3362,33 @@
         <v>53</v>
       </c>
       <c r="B50" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C50" s="25">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="D50" s="26">
         <v>1.8</v>
       </c>
       <c r="E50" s="27">
-        <v>64.8</v>
+        <v>216</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B51" s="24"/>
+      <c r="B51" s="24">
+        <v>1</v>
+      </c>
       <c r="C51" s="25">
-        <v>173.5</v>
+        <v>172.5</v>
       </c>
       <c r="D51" s="26">
         <v>2.5</v>
       </c>
       <c r="E51" s="27">
-        <v>433.75</v>
+        <v>431.25</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -3500,15 +3502,17 @@
       <c r="A59" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="B59" s="24"/>
+      <c r="B59" s="24">
+        <v>1</v>
+      </c>
       <c r="C59" s="25">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D59" s="26">
         <v>1.05</v>
       </c>
       <c r="E59" s="27">
-        <v>160.65</v>
+        <v>155.4</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -3516,16 +3520,16 @@
         <v>63</v>
       </c>
       <c r="B60" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C60" s="25">
-        <v>150.5</v>
+        <v>145.5</v>
       </c>
       <c r="D60" s="26">
         <v>1.05</v>
       </c>
       <c r="E60" s="27">
-        <v>158.03</v>
+        <v>152.78</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -3631,16 +3635,16 @@
         <v>70</v>
       </c>
       <c r="B67" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C67" s="25">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D67" s="26">
         <v>1.4</v>
       </c>
       <c r="E67" s="27">
-        <v>168</v>
+        <v>165.2</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -3648,16 +3652,16 @@
         <v>71</v>
       </c>
       <c r="B68" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C68" s="25">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D68" s="26">
         <v>1.4</v>
       </c>
       <c r="E68" s="27">
-        <v>161</v>
+        <v>158.19999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -3889,7 +3893,7 @@
         <v>5</v>
       </c>
       <c r="C84" s="25">
-        <v>-57</v>
+        <v>30</v>
       </c>
       <c r="D84" s="29"/>
       <c r="E84" s="28"/>
@@ -3902,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="C85" s="25">
-        <v>-9</v>
+        <v>149</v>
       </c>
       <c r="D85" s="29"/>
       <c r="E85" s="28"/>
@@ -3913,7 +3917,7 @@
       </c>
       <c r="B86" s="24"/>
       <c r="C86" s="25">
-        <v>-7</v>
+        <v>140</v>
       </c>
       <c r="D86" s="29"/>
       <c r="E86" s="28"/>
@@ -3924,7 +3928,7 @@
       </c>
       <c r="B87" s="24"/>
       <c r="C87" s="25">
-        <v>-7</v>
+        <v>93</v>
       </c>
       <c r="D87" s="29"/>
       <c r="E87" s="28"/>
@@ -3935,13 +3939,13 @@
       </c>
       <c r="B88" s="24"/>
       <c r="C88" s="25">
-        <v>-7</v>
+        <v>93</v>
       </c>
       <c r="D88" s="26">
         <v>3.2</v>
       </c>
       <c r="E88" s="27">
-        <v>-22.4</v>
+        <v>297.60000000000002</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -4163,10 +4167,10 @@
         <v>108</v>
       </c>
       <c r="B105" s="24">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C105" s="25">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="D105" s="29"/>
       <c r="E105" s="28"/>
@@ -4211,10 +4215,10 @@
         <v>112</v>
       </c>
       <c r="B109" s="24">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C109" s="25">
-        <v>-0.87</v>
+        <v>-0.91</v>
       </c>
       <c r="D109" s="29"/>
       <c r="E109" s="28"/>
@@ -4224,10 +4228,10 @@
         <v>113</v>
       </c>
       <c r="B110" s="24">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C110" s="25">
-        <v>-0.81</v>
+        <v>-0.85</v>
       </c>
       <c r="D110" s="29"/>
       <c r="E110" s="28"/>
@@ -4339,13 +4343,13 @@
         <v>28</v>
       </c>
       <c r="C118" s="25">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="D118" s="26">
         <v>12.5</v>
       </c>
       <c r="E118" s="27">
-        <v>12.5</v>
+        <v>637.5</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -4387,16 +4391,16 @@
         <v>124</v>
       </c>
       <c r="B121" s="24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C121" s="25">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D121" s="26">
         <v>12.5</v>
       </c>
       <c r="E121" s="27">
-        <v>162.5</v>
+        <v>137.5</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -4504,16 +4508,16 @@
         <v>131</v>
       </c>
       <c r="B128" s="24">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C128" s="25">
-        <v>17.5</v>
+        <v>6</v>
       </c>
       <c r="D128" s="26">
         <v>18.5</v>
       </c>
       <c r="E128" s="27">
-        <v>323.75</v>
+        <v>111</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -4640,16 +4644,16 @@
         <v>139</v>
       </c>
       <c r="B136" s="24">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C136" s="25">
-        <v>29.5</v>
+        <v>26.5</v>
       </c>
       <c r="D136" s="26">
         <v>18.5</v>
       </c>
       <c r="E136" s="27">
-        <v>545.75</v>
+        <v>490.25</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -4708,16 +4712,16 @@
         <v>143</v>
       </c>
       <c r="B140" s="24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" s="25">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="D140" s="26">
         <v>11.5</v>
       </c>
       <c r="E140" s="27">
-        <v>201.25</v>
+        <v>189.75</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -4926,13 +4930,13 @@
         <v>11</v>
       </c>
       <c r="C153" s="25">
-        <v>-52</v>
+        <v>98</v>
       </c>
       <c r="D153" s="26">
         <v>1</v>
       </c>
       <c r="E153" s="27">
-        <v>-52</v>
+        <v>98</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -4951,16 +4955,16 @@
         <v>158</v>
       </c>
       <c r="B155" s="24">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C155" s="25">
-        <v>-28</v>
+        <v>120</v>
       </c>
       <c r="D155" s="26">
         <v>1.1499999999999999</v>
       </c>
       <c r="E155" s="27">
-        <v>-32.200000000000003</v>
+        <v>138</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -5092,16 +5096,16 @@
         <v>167</v>
       </c>
       <c r="B164" s="24">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C164" s="25">
-        <v>112.5</v>
+        <v>107.5</v>
       </c>
       <c r="D164" s="26">
         <v>2.78</v>
       </c>
       <c r="E164" s="27">
-        <v>312.39</v>
+        <v>298.51</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -5143,16 +5147,16 @@
         <v>170</v>
       </c>
       <c r="B167" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C167" s="25">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="D167" s="26">
         <v>3.33</v>
       </c>
       <c r="E167" s="27">
-        <v>14.99</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -5244,13 +5248,13 @@
         <v>20</v>
       </c>
       <c r="C173" s="25">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="D173" s="26">
         <v>2.65</v>
       </c>
       <c r="E173" s="27">
-        <v>119.25</v>
+        <v>331.25</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -5307,16 +5311,16 @@
         <v>180</v>
       </c>
       <c r="B177" s="24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C177" s="25">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="D177" s="26">
         <v>5</v>
       </c>
       <c r="E177" s="27">
-        <v>42.5</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -5443,31 +5447,33 @@
         <v>188</v>
       </c>
       <c r="B185" s="24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C185" s="25">
-        <v>85.5</v>
+        <v>84.5</v>
       </c>
       <c r="D185" s="26">
         <v>4.5</v>
       </c>
       <c r="E185" s="27">
-        <v>384.75</v>
+        <v>380.25</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="B186" s="24"/>
+      <c r="B186" s="24">
+        <v>1</v>
+      </c>
       <c r="C186" s="25">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D186" s="26">
         <v>2.85</v>
       </c>
       <c r="E186" s="27">
-        <v>71.25</v>
+        <v>65.55</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -5475,16 +5481,16 @@
         <v>190</v>
       </c>
       <c r="B187" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C187" s="25">
-        <v>64.5</v>
+        <v>63</v>
       </c>
       <c r="D187" s="26">
         <v>3.4</v>
       </c>
       <c r="E187" s="27">
-        <v>219.3</v>
+        <v>214.2</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -5509,16 +5515,16 @@
         <v>192</v>
       </c>
       <c r="B189" s="24">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C189" s="25">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D189" s="26">
         <v>2.6</v>
       </c>
       <c r="E189" s="27">
-        <v>158.6</v>
+        <v>148.19999999999999</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -5586,16 +5592,16 @@
         <v>197</v>
       </c>
       <c r="B194" s="24">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C194" s="25">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D194" s="26">
         <v>3.89</v>
       </c>
       <c r="E194" s="27">
-        <v>178.94</v>
+        <v>171.16</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
@@ -5603,16 +5609,16 @@
         <v>198</v>
       </c>
       <c r="B195" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C195" s="25">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D195" s="26">
         <v>4.5</v>
       </c>
       <c r="E195" s="27">
-        <v>126</v>
+        <v>121.5</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
@@ -5637,16 +5643,16 @@
         <v>200</v>
       </c>
       <c r="B197" s="24">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C197" s="25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D197" s="26">
         <v>2.7</v>
       </c>
       <c r="E197" s="27">
-        <v>2.7</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
@@ -5705,16 +5711,16 @@
         <v>204</v>
       </c>
       <c r="B201" s="24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201" s="25">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D201" s="26">
         <v>3</v>
       </c>
       <c r="E201" s="27">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
@@ -5722,16 +5728,16 @@
         <v>205</v>
       </c>
       <c r="B202" s="24">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C202" s="25">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D202" s="26">
         <v>3.91</v>
       </c>
       <c r="E202" s="27">
-        <v>332.48</v>
+        <v>324.66000000000003</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
@@ -5793,13 +5799,13 @@
         <v>9</v>
       </c>
       <c r="C206" s="25">
-        <v>1.5</v>
+        <v>31.22</v>
       </c>
       <c r="D206" s="26">
         <v>3.16</v>
       </c>
       <c r="E206" s="27">
-        <v>4.74</v>
+        <v>98.66</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
@@ -5824,16 +5830,16 @@
         <v>211</v>
       </c>
       <c r="B208" s="24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C208" s="25">
-        <v>109.5</v>
+        <v>108.5</v>
       </c>
       <c r="D208" s="26">
         <v>4</v>
       </c>
       <c r="E208" s="27">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -5858,16 +5864,16 @@
         <v>213</v>
       </c>
       <c r="B210" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C210" s="25">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D210" s="26">
         <v>3.5</v>
       </c>
       <c r="E210" s="27">
-        <v>220.5</v>
+        <v>217</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -5895,13 +5901,13 @@
         <v>2</v>
       </c>
       <c r="C212" s="25">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="D212" s="26">
         <v>3.95</v>
       </c>
       <c r="E212" s="27">
-        <v>82.92</v>
+        <v>454.21</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -5909,16 +5915,16 @@
         <v>216</v>
       </c>
       <c r="B213" s="24">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C213" s="25">
-        <v>116.5</v>
+        <v>111.5</v>
       </c>
       <c r="D213" s="26">
         <v>3.5</v>
       </c>
       <c r="E213" s="27">
-        <v>407.75</v>
+        <v>390.25</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -5943,16 +5949,16 @@
         <v>218</v>
       </c>
       <c r="B215" s="24">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C215" s="25">
-        <v>107.5</v>
+        <v>105.5</v>
       </c>
       <c r="D215" s="26">
         <v>3.25</v>
       </c>
       <c r="E215" s="27">
-        <v>349.38</v>
+        <v>342.88</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
@@ -6071,16 +6077,16 @@
         <v>226</v>
       </c>
       <c r="B223" s="24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C223" s="25">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="D223" s="26">
         <v>4.8</v>
       </c>
       <c r="E223" s="27">
-        <v>36</v>
+        <v>33.6</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
@@ -6088,16 +6094,16 @@
         <v>227</v>
       </c>
       <c r="B224" s="24">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C224" s="25">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D224" s="26">
         <v>6.3</v>
       </c>
       <c r="E224" s="27">
-        <v>371.7</v>
+        <v>365.4</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
@@ -6173,16 +6179,16 @@
         <v>232</v>
       </c>
       <c r="B229" s="24">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C229" s="25">
-        <v>52</v>
+        <v>50.5</v>
       </c>
       <c r="D229" s="26">
         <v>3.9</v>
       </c>
       <c r="E229" s="27">
-        <v>202.8</v>
+        <v>196.95</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
@@ -6223,13 +6229,13 @@
         <v>1</v>
       </c>
       <c r="C232" s="25">
-        <v>6.5</v>
+        <v>26.5</v>
       </c>
       <c r="D232" s="26">
         <v>6</v>
       </c>
       <c r="E232" s="27">
-        <v>39</v>
+        <v>159</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
@@ -6254,16 +6260,16 @@
         <v>237</v>
       </c>
       <c r="B234" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C234" s="25">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D234" s="26">
         <v>4.25</v>
       </c>
       <c r="E234" s="27">
-        <v>144.5</v>
+        <v>140.25</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
@@ -6403,16 +6409,16 @@
         <v>246</v>
       </c>
       <c r="B243" s="24">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C243" s="25">
-        <v>90.5</v>
+        <v>78.5</v>
       </c>
       <c r="D243" s="26">
         <v>4.28</v>
       </c>
       <c r="E243" s="27">
-        <v>387.34</v>
+        <v>335.98</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
@@ -6504,13 +6510,13 @@
         <v>9</v>
       </c>
       <c r="C249" s="25">
-        <v>3.5</v>
+        <v>43.5</v>
       </c>
       <c r="D249" s="26">
         <v>4.5</v>
       </c>
       <c r="E249" s="27">
-        <v>15.75</v>
+        <v>195.75</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
@@ -6535,16 +6541,16 @@
         <v>254</v>
       </c>
       <c r="B251" s="24">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C251" s="25">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D251" s="26">
         <v>4.25</v>
       </c>
       <c r="E251" s="27">
-        <v>182.75</v>
+        <v>157.25</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
@@ -6586,16 +6592,16 @@
         <v>257</v>
       </c>
       <c r="B254" s="24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C254" s="25">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D254" s="26">
         <v>4.28</v>
       </c>
       <c r="E254" s="27">
-        <v>145.52000000000001</v>
+        <v>115.56</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
@@ -6705,16 +6711,16 @@
         <v>264</v>
       </c>
       <c r="B261" s="24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C261" s="25">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D261" s="26">
         <v>4.5</v>
       </c>
       <c r="E261" s="27">
-        <v>220.5</v>
+        <v>216</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
@@ -6790,16 +6796,16 @@
         <v>269</v>
       </c>
       <c r="B266" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C266" s="25">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D266" s="26">
         <v>6</v>
       </c>
       <c r="E266" s="27">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
@@ -6824,16 +6830,16 @@
         <v>271</v>
       </c>
       <c r="B268" s="24">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C268" s="25">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D268" s="26">
         <v>4.5</v>
       </c>
       <c r="E268" s="27">
-        <v>189</v>
+        <v>153</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
@@ -6873,16 +6879,16 @@
         <v>274</v>
       </c>
       <c r="B271" s="24">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C271" s="25">
-        <v>39</v>
+        <v>35.5</v>
       </c>
       <c r="D271" s="26">
         <v>3.8</v>
       </c>
       <c r="E271" s="27">
-        <v>148.19999999999999</v>
+        <v>134.9</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
@@ -6890,16 +6896,16 @@
         <v>275</v>
       </c>
       <c r="B272" s="24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C272" s="25">
-        <v>21.5</v>
+        <v>14.5</v>
       </c>
       <c r="D272" s="26">
         <v>4.91</v>
       </c>
       <c r="E272" s="27">
-        <v>105.56</v>
+        <v>71.19</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
@@ -6922,16 +6928,16 @@
         <v>277</v>
       </c>
       <c r="B274" s="24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C274" s="25">
-        <v>52.5</v>
+        <v>52</v>
       </c>
       <c r="D274" s="26">
         <v>3.15</v>
       </c>
       <c r="E274" s="27">
-        <v>165.38</v>
+        <v>163.80000000000001</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
@@ -6939,16 +6945,16 @@
         <v>278</v>
       </c>
       <c r="B275" s="24">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C275" s="25">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D275" s="26">
         <v>5.96</v>
       </c>
       <c r="E275" s="27">
-        <v>202.53</v>
+        <v>196.84</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
@@ -6973,16 +6979,16 @@
         <v>280</v>
       </c>
       <c r="B277" s="24">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C277" s="25">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D277" s="26">
         <v>4.16</v>
       </c>
       <c r="E277" s="27">
-        <v>195.52</v>
+        <v>183.04</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
@@ -7392,13 +7398,13 @@
         <v>12</v>
       </c>
       <c r="C303" s="25">
-        <v>6.5</v>
+        <v>46.5</v>
       </c>
       <c r="D303" s="26">
         <v>6.75</v>
       </c>
       <c r="E303" s="27">
-        <v>43.88</v>
+        <v>313.88</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
@@ -7604,16 +7610,16 @@
         <v>319</v>
       </c>
       <c r="B316" s="24">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C316" s="25">
-        <v>69.5</v>
+        <v>64</v>
       </c>
       <c r="D316" s="26">
         <v>9</v>
       </c>
       <c r="E316" s="27">
-        <v>625.5</v>
+        <v>576</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
@@ -7655,16 +7661,16 @@
         <v>322</v>
       </c>
       <c r="B319" s="24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C319" s="25">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="D319" s="26">
         <v>9</v>
       </c>
       <c r="E319" s="27">
-        <v>31.5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
@@ -7997,13 +8003,13 @@
         <v>22</v>
       </c>
       <c r="C340" s="25">
-        <v>-8</v>
+        <v>32</v>
       </c>
       <c r="D340" s="26">
-        <v>7.66</v>
+        <v>7.71</v>
       </c>
       <c r="E340" s="27">
-        <v>-61.26</v>
+        <v>246.87</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
@@ -8062,16 +8068,16 @@
         <v>347</v>
       </c>
       <c r="B344" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C344" s="25">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D344" s="26">
         <v>7.2</v>
       </c>
       <c r="E344" s="27">
-        <v>208.8</v>
+        <v>194.4</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
@@ -8096,16 +8102,16 @@
         <v>349</v>
       </c>
       <c r="B346" s="24">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C346" s="25">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D346" s="26">
         <v>7.13</v>
       </c>
       <c r="E346" s="27">
-        <v>71.3</v>
+        <v>49.91</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
@@ -8130,16 +8136,16 @@
         <v>351</v>
       </c>
       <c r="B348" s="24">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C348" s="25">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="D348" s="26">
         <v>6.6</v>
       </c>
       <c r="E348" s="27">
-        <v>23.1</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
@@ -8181,16 +8187,16 @@
         <v>354</v>
       </c>
       <c r="B351" s="24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C351" s="25">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D351" s="26">
         <v>8.1999999999999993</v>
       </c>
       <c r="E351" s="27">
-        <v>139.4</v>
+        <v>131.19999999999999</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
@@ -8334,16 +8340,16 @@
         <v>363</v>
       </c>
       <c r="B360" s="24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C360" s="25">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D360" s="26">
         <v>6</v>
       </c>
       <c r="E360" s="27">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
@@ -8485,16 +8491,16 @@
         <v>372</v>
       </c>
       <c r="B369" s="24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C369" s="25">
-        <v>-4</v>
+        <v>22</v>
       </c>
       <c r="D369" s="26">
         <v>5.7</v>
       </c>
       <c r="E369" s="27">
-        <v>-22.8</v>
+        <v>125.4</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
@@ -8519,16 +8525,16 @@
         <v>374</v>
       </c>
       <c r="B371" s="24">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C371" s="25">
-        <v>17.5</v>
+        <v>20.5</v>
       </c>
       <c r="D371" s="26">
         <v>9.5</v>
       </c>
       <c r="E371" s="27">
-        <v>166.25</v>
+        <v>194.75</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
@@ -8585,16 +8591,16 @@
         <v>378</v>
       </c>
       <c r="B375" s="24">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C375" s="25">
-        <v>23.5</v>
+        <v>17</v>
       </c>
       <c r="D375" s="26">
         <v>8.5500000000000007</v>
       </c>
       <c r="E375" s="27">
-        <v>200.93</v>
+        <v>145.35</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
@@ -8702,16 +8708,16 @@
         <v>385</v>
       </c>
       <c r="B382" s="24">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C382" s="25">
-        <v>35.5</v>
+        <v>34</v>
       </c>
       <c r="D382" s="26">
         <v>7</v>
       </c>
       <c r="E382" s="27">
-        <v>248.5</v>
+        <v>238</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
@@ -8734,16 +8740,16 @@
         <v>387</v>
       </c>
       <c r="B384" s="24">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C384" s="25">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D384" s="26">
         <v>7.5</v>
       </c>
       <c r="E384" s="27">
-        <v>292.5</v>
+        <v>255</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
@@ -8815,16 +8821,16 @@
         <v>392</v>
       </c>
       <c r="B389" s="24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C389" s="25">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D389" s="26">
         <v>5.7</v>
       </c>
       <c r="E389" s="27">
-        <v>245.1</v>
+        <v>239.4</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
@@ -8849,16 +8855,16 @@
         <v>394</v>
       </c>
       <c r="B391" s="24">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C391" s="25">
-        <v>25.5</v>
+        <v>22</v>
       </c>
       <c r="D391" s="26">
         <v>5.2</v>
       </c>
       <c r="E391" s="27">
-        <v>132.6</v>
+        <v>114.4</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
@@ -8930,16 +8936,16 @@
         <v>399</v>
       </c>
       <c r="B396" s="24">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C396" s="25">
-        <v>38</v>
+        <v>30.5</v>
       </c>
       <c r="D396" s="26">
         <v>5.9</v>
       </c>
       <c r="E396" s="27">
-        <v>224.2</v>
+        <v>179.95</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
@@ -8979,17 +8985,11 @@
         <v>402</v>
       </c>
       <c r="B399" s="24">
-        <v>11</v>
-      </c>
-      <c r="C399" s="25">
-        <v>2</v>
-      </c>
-      <c r="D399" s="26">
-        <v>6.46</v>
-      </c>
-      <c r="E399" s="27">
-        <v>12.92</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C399" s="28"/>
+      <c r="D399" s="29"/>
+      <c r="E399" s="28"/>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="23" t="s">
@@ -9031,13 +9031,13 @@
         <v>5</v>
       </c>
       <c r="C402" s="25">
-        <v>11.5</v>
+        <v>21.5</v>
       </c>
       <c r="D402" s="26">
         <v>9</v>
       </c>
       <c r="E402" s="27">
-        <v>103.5</v>
+        <v>193.5</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
@@ -9764,13 +9764,13 @@
         <v>4</v>
       </c>
       <c r="C447" s="25">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D447" s="26">
         <v>10</v>
       </c>
       <c r="E447" s="27">
-        <v>40</v>
+        <v>200</v>
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.25">
@@ -9778,16 +9778,16 @@
         <v>451</v>
       </c>
       <c r="B448" s="24">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C448" s="25">
-        <v>-3</v>
+        <v>-5.5</v>
       </c>
       <c r="D448" s="26">
         <v>9.5</v>
       </c>
       <c r="E448" s="27">
-        <v>-28.5</v>
+        <v>-52.25</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.25">
@@ -9959,16 +9959,16 @@
         <v>462</v>
       </c>
       <c r="B459" s="24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C459" s="25">
-        <v>2.5</v>
+        <v>-1.5</v>
       </c>
       <c r="D459" s="26">
         <v>9.26</v>
       </c>
       <c r="E459" s="27">
-        <v>23.15</v>
+        <v>-13.89</v>
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.25">
@@ -10038,16 +10038,16 @@
         <v>467</v>
       </c>
       <c r="B464" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C464" s="25">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="D464" s="26">
         <v>10</v>
       </c>
       <c r="E464" s="27">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.25">
@@ -10058,13 +10058,13 @@
         <v>10</v>
       </c>
       <c r="C465" s="25">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D465" s="26">
         <v>26</v>
       </c>
       <c r="E465" s="27">
-        <v>208</v>
+        <v>520</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.25">
@@ -10153,16 +10153,16 @@
         <v>474</v>
       </c>
       <c r="B471" s="24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C471" s="25">
-        <v>-6.5</v>
+        <v>-10</v>
       </c>
       <c r="D471" s="26">
         <v>12.8</v>
       </c>
       <c r="E471" s="27">
-        <v>-83.2</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.25">
@@ -10594,16 +10594,16 @@
         <v>501</v>
       </c>
       <c r="B498" s="24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C498" s="25">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D498" s="26">
         <v>1.4</v>
       </c>
       <c r="E498" s="27">
-        <v>229.6</v>
+        <v>225.4</v>
       </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.25">
@@ -10662,16 +10662,16 @@
         <v>505</v>
       </c>
       <c r="B502" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C502" s="25">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D502" s="26">
         <v>2</v>
       </c>
       <c r="E502" s="27">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.25">
@@ -10696,16 +10696,16 @@
         <v>507</v>
       </c>
       <c r="B504" s="24">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C504" s="25">
-        <v>48.5</v>
+        <v>43.5</v>
       </c>
       <c r="D504" s="26">
         <v>3</v>
       </c>
       <c r="E504" s="27">
-        <v>145.5</v>
+        <v>130.5</v>
       </c>
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.25">
@@ -10973,16 +10973,16 @@
         <v>524</v>
       </c>
       <c r="B521" s="24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C521" s="25">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D521" s="26">
         <v>4.28</v>
       </c>
       <c r="E521" s="27">
-        <v>94.16</v>
+        <v>89.88</v>
       </c>
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.25">
@@ -11092,16 +11092,16 @@
         <v>531</v>
       </c>
       <c r="B528" s="24">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C528" s="25">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="D528" s="26">
         <v>3.9</v>
       </c>
       <c r="E528" s="27">
-        <v>60.45</v>
+        <v>46.8</v>
       </c>
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.25">
@@ -11109,16 +11109,16 @@
         <v>532</v>
       </c>
       <c r="B529" s="24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C529" s="25">
-        <v>48.5</v>
+        <v>47.5</v>
       </c>
       <c r="D529" s="26">
         <v>1.8</v>
       </c>
       <c r="E529" s="27">
-        <v>87.3</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.25">
@@ -11211,16 +11211,16 @@
         <v>538</v>
       </c>
       <c r="B535" s="24">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C535" s="25">
-        <v>58.3</v>
+        <v>57.3</v>
       </c>
       <c r="D535" s="26">
         <v>3.14</v>
       </c>
       <c r="E535" s="27">
-        <v>183.06</v>
+        <v>179.92</v>
       </c>
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.25">
@@ -11524,10 +11524,10 @@
         <v>557</v>
       </c>
       <c r="B554" s="24">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C554" s="25">
-        <v>27.5</v>
+        <v>20.5</v>
       </c>
       <c r="D554" s="29"/>
       <c r="E554" s="28"/>
@@ -11537,10 +11537,10 @@
         <v>558</v>
       </c>
       <c r="B555" s="24">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C555" s="25">
-        <v>-144.5</v>
+        <v>-153.5</v>
       </c>
       <c r="D555" s="29"/>
       <c r="E555" s="28"/>
@@ -11563,10 +11563,10 @@
         <v>560</v>
       </c>
       <c r="B557" s="24">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C557" s="25">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D557" s="29"/>
       <c r="E557" s="28"/>
@@ -11593,10 +11593,10 @@
         <v>562</v>
       </c>
       <c r="B559" s="24">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C559" s="25">
-        <v>-31</v>
+        <v>-40</v>
       </c>
       <c r="D559" s="29"/>
       <c r="E559" s="28"/>
@@ -11606,16 +11606,16 @@
         <v>563</v>
       </c>
       <c r="B560" s="24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C560" s="25">
-        <v>153.5</v>
+        <v>151.5</v>
       </c>
       <c r="D560" s="26">
         <v>0.85</v>
       </c>
       <c r="E560" s="27">
-        <v>130.47999999999999</v>
+        <v>128.78</v>
       </c>
     </row>
     <row r="561" spans="1:5" x14ac:dyDescent="0.25">
@@ -11640,16 +11640,16 @@
         <v>565</v>
       </c>
       <c r="B562" s="24">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C562" s="25">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D562" s="26">
         <v>0.85</v>
       </c>
       <c r="E562" s="27">
-        <v>45.9</v>
+        <v>45.05</v>
       </c>
     </row>
     <row r="563" spans="1:5" x14ac:dyDescent="0.25">
@@ -11757,16 +11757,16 @@
         <v>572</v>
       </c>
       <c r="B569" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C569" s="25">
-        <v>12.5</v>
+        <v>9.5</v>
       </c>
       <c r="D569" s="26">
         <v>5.5</v>
       </c>
       <c r="E569" s="27">
-        <v>68.75</v>
+        <v>52.25</v>
       </c>
     </row>
     <row r="570" spans="1:5" x14ac:dyDescent="0.25">
@@ -11808,16 +11808,16 @@
         <v>575</v>
       </c>
       <c r="B572" s="24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C572" s="25">
-        <v>12.5</v>
+        <v>9.5</v>
       </c>
       <c r="D572" s="26">
         <v>3.5</v>
       </c>
       <c r="E572" s="27">
-        <v>43.75</v>
+        <v>33.25</v>
       </c>
     </row>
     <row r="573" spans="1:5" x14ac:dyDescent="0.25">
@@ -11893,16 +11893,16 @@
         <v>580</v>
       </c>
       <c r="B577" s="24">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C577" s="25">
-        <v>-1.5</v>
+        <v>50.5</v>
       </c>
       <c r="D577" s="26">
-        <v>2.81</v>
+        <v>2.76</v>
       </c>
       <c r="E577" s="27">
-        <v>-4.22</v>
+        <v>139.47999999999999</v>
       </c>
     </row>
     <row r="578" spans="1:5" x14ac:dyDescent="0.25">
@@ -11959,16 +11959,16 @@
         <v>584</v>
       </c>
       <c r="B581" s="24">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C581" s="25">
-        <v>60.5</v>
+        <v>57</v>
       </c>
       <c r="D581" s="26">
         <v>4</v>
       </c>
       <c r="E581" s="27">
-        <v>242</v>
+        <v>228</v>
       </c>
     </row>
     <row r="582" spans="1:5" x14ac:dyDescent="0.25">
@@ -12042,16 +12042,16 @@
         <v>589</v>
       </c>
       <c r="B586" s="24">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C586" s="25">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D586" s="26">
         <v>2.2799999999999998</v>
       </c>
       <c r="E586" s="27">
-        <v>186.96</v>
+        <v>182.4</v>
       </c>
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.25">
@@ -12104,16 +12104,16 @@
         <v>593</v>
       </c>
       <c r="B590" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C590" s="25">
-        <v>40.5</v>
+        <v>38.5</v>
       </c>
       <c r="D590" s="26">
         <v>3</v>
       </c>
       <c r="E590" s="27">
-        <v>121.5</v>
+        <v>115.5</v>
       </c>
     </row>
     <row r="591" spans="1:5" x14ac:dyDescent="0.25">
@@ -12121,16 +12121,16 @@
         <v>594</v>
       </c>
       <c r="B591" s="24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C591" s="25">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D591" s="26">
         <v>4.6500000000000004</v>
       </c>
       <c r="E591" s="27">
-        <v>130.19999999999999</v>
+        <v>120.9</v>
       </c>
     </row>
     <row r="592" spans="1:5" x14ac:dyDescent="0.25">
@@ -12138,16 +12138,16 @@
         <v>595</v>
       </c>
       <c r="B592" s="24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C592" s="25">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D592" s="26">
         <v>5</v>
       </c>
       <c r="E592" s="27">
-        <v>160</v>
+        <v>130</v>
       </c>
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.25">
@@ -12223,16 +12223,16 @@
         <v>600</v>
       </c>
       <c r="B597" s="24">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C597" s="25">
-        <v>9</v>
+        <v>60.5</v>
       </c>
       <c r="D597" s="26">
         <v>3.1</v>
       </c>
       <c r="E597" s="27">
-        <v>27.9</v>
+        <v>187.55</v>
       </c>
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.25">
@@ -12240,16 +12240,16 @@
         <v>601</v>
       </c>
       <c r="B598" s="24">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C598" s="25">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D598" s="26">
         <v>1.7</v>
       </c>
       <c r="E598" s="27">
-        <v>129.19999999999999</v>
+        <v>120.7</v>
       </c>
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.25">
@@ -12291,16 +12291,16 @@
         <v>604</v>
       </c>
       <c r="B601" s="24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C601" s="25">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="D601" s="26">
         <v>3.5</v>
       </c>
       <c r="E601" s="27">
-        <v>54.25</v>
+        <v>47.25</v>
       </c>
     </row>
     <row r="602" spans="1:5" x14ac:dyDescent="0.25">
@@ -12342,16 +12342,16 @@
         <v>607</v>
       </c>
       <c r="B604" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C604" s="25">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D604" s="26">
         <v>6.25</v>
       </c>
       <c r="E604" s="27">
-        <v>100</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="605" spans="1:5" x14ac:dyDescent="0.25">
@@ -12359,16 +12359,16 @@
         <v>608</v>
       </c>
       <c r="B605" s="24">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C605" s="25">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D605" s="26">
         <v>2.85</v>
       </c>
       <c r="E605" s="27">
-        <v>54.15</v>
+        <v>31.35</v>
       </c>
     </row>
     <row r="606" spans="1:5" x14ac:dyDescent="0.25">
@@ -12447,13 +12447,13 @@
         <v>10</v>
       </c>
       <c r="C610" s="25">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="D610" s="26">
         <v>3.1</v>
       </c>
       <c r="E610" s="27">
-        <v>65.099999999999994</v>
+        <v>142.6</v>
       </c>
     </row>
     <row r="611" spans="1:5" x14ac:dyDescent="0.25">
@@ -12478,16 +12478,16 @@
         <v>615</v>
       </c>
       <c r="B612" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C612" s="25">
-        <v>45</v>
+        <v>42.5</v>
       </c>
       <c r="D612" s="26">
         <v>3.8</v>
       </c>
       <c r="E612" s="27">
-        <v>171</v>
+        <v>161.5</v>
       </c>
     </row>
     <row r="613" spans="1:5" x14ac:dyDescent="0.25">
@@ -12497,9 +12497,15 @@
       <c r="B613" s="24">
         <v>16</v>
       </c>
-      <c r="C613" s="28"/>
-      <c r="D613" s="29"/>
-      <c r="E613" s="28"/>
+      <c r="C613" s="25">
+        <v>30</v>
+      </c>
+      <c r="D613" s="26">
+        <v>4.8</v>
+      </c>
+      <c r="E613" s="27">
+        <v>144</v>
+      </c>
     </row>
     <row r="614" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A614" s="23" t="s">
@@ -12509,13 +12515,13 @@
         <v>5</v>
       </c>
       <c r="C614" s="25">
-        <v>0.5</v>
+        <v>10.5</v>
       </c>
       <c r="D614" s="26">
-        <v>6.76</v>
+        <v>6.75</v>
       </c>
       <c r="E614" s="27">
-        <v>3.38</v>
+        <v>70.88</v>
       </c>
     </row>
     <row r="615" spans="1:5" x14ac:dyDescent="0.25">
@@ -12606,16 +12612,16 @@
         <v>623</v>
       </c>
       <c r="B620" s="24">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C620" s="25">
-        <v>-5.5</v>
+        <v>20.5</v>
       </c>
       <c r="D620" s="26">
         <v>3.6</v>
       </c>
       <c r="E620" s="27">
-        <v>-19.8</v>
+        <v>73.8</v>
       </c>
     </row>
     <row r="621" spans="1:5" x14ac:dyDescent="0.25">
@@ -12674,16 +12680,16 @@
         <v>627</v>
       </c>
       <c r="B624" s="24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C624" s="25">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D624" s="26">
         <v>2.5</v>
       </c>
       <c r="E624" s="27">
-        <v>27.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.25">
@@ -12845,13 +12851,13 @@
         <v>16</v>
       </c>
       <c r="C634" s="25">
-        <v>27.5</v>
+        <v>22.5</v>
       </c>
       <c r="D634" s="26">
         <v>4</v>
       </c>
       <c r="E634" s="27">
-        <v>110</v>
+        <v>90</v>
       </c>
     </row>
     <row r="635" spans="1:5" x14ac:dyDescent="0.25">
@@ -12893,16 +12899,16 @@
         <v>640</v>
       </c>
       <c r="B637" s="24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C637" s="25">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D637" s="26">
         <v>4.25</v>
       </c>
       <c r="E637" s="27">
-        <v>51</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.25">
@@ -12976,10 +12982,10 @@
         <v>645</v>
       </c>
       <c r="B642" s="24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C642" s="25">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D642" s="29"/>
       <c r="E642" s="28"/>
@@ -13002,10 +13008,10 @@
         <v>647</v>
       </c>
       <c r="B644" s="24">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C644" s="25">
-        <v>64.69</v>
+        <v>64.19</v>
       </c>
       <c r="D644" s="29"/>
       <c r="E644" s="28"/>
@@ -13080,10 +13086,10 @@
         <v>653</v>
       </c>
       <c r="B650" s="24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C650" s="25">
-        <v>-17</v>
+        <v>-18</v>
       </c>
       <c r="D650" s="29"/>
       <c r="E650" s="28"/>
@@ -13223,10 +13229,10 @@
         <v>664</v>
       </c>
       <c r="B661" s="24">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C661" s="25">
-        <v>-0.38</v>
+        <v>-0.39</v>
       </c>
       <c r="D661" s="29"/>
       <c r="E661" s="28"/>
@@ -13253,16 +13259,16 @@
         <v>666</v>
       </c>
       <c r="B663" s="24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C663" s="25">
-        <v>33.5</v>
+        <v>32.5</v>
       </c>
       <c r="D663" s="26">
         <v>2.5</v>
       </c>
       <c r="E663" s="27">
-        <v>83.75</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="664" spans="1:5" x14ac:dyDescent="0.25">
@@ -13270,16 +13276,16 @@
         <v>667</v>
       </c>
       <c r="B664" s="24">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C664" s="25">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D664" s="26">
         <v>2.5</v>
       </c>
       <c r="E664" s="27">
-        <v>95</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="665" spans="1:5" x14ac:dyDescent="0.25">
@@ -13287,16 +13293,16 @@
         <v>668</v>
       </c>
       <c r="B665" s="24">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C665" s="25">
-        <v>76.25</v>
+        <v>73.75</v>
       </c>
       <c r="D665" s="26">
         <v>2.5</v>
       </c>
       <c r="E665" s="27">
-        <v>190.63</v>
+        <v>184.38</v>
       </c>
     </row>
     <row r="666" spans="1:5" x14ac:dyDescent="0.25">
@@ -13304,16 +13310,16 @@
         <v>669</v>
       </c>
       <c r="B666" s="24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C666" s="25">
-        <v>-3.5</v>
+        <v>75.5</v>
       </c>
       <c r="D666" s="26">
         <v>2.5</v>
       </c>
       <c r="E666" s="27">
-        <v>-8.75</v>
+        <v>188.75</v>
       </c>
     </row>
     <row r="667" spans="1:5" x14ac:dyDescent="0.25">
@@ -13321,16 +13327,16 @@
         <v>670</v>
       </c>
       <c r="B667" s="24">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C667" s="25">
-        <v>19.5</v>
+        <v>47</v>
       </c>
       <c r="D667" s="26">
         <v>2.5</v>
       </c>
       <c r="E667" s="27">
-        <v>48.75</v>
+        <v>117.5</v>
       </c>
     </row>
     <row r="668" spans="1:5" x14ac:dyDescent="0.25">
@@ -13338,16 +13344,16 @@
         <v>671</v>
       </c>
       <c r="B668" s="24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C668" s="25">
-        <v>-14.25</v>
+        <v>54.75</v>
       </c>
       <c r="D668" s="26">
         <v>2.5</v>
       </c>
       <c r="E668" s="27">
-        <v>-35.630000000000003</v>
+        <v>136.88</v>
       </c>
     </row>
     <row r="669" spans="1:5" x14ac:dyDescent="0.25">
@@ -13355,16 +13361,16 @@
         <v>672</v>
       </c>
       <c r="B669" s="24">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C669" s="25">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D669" s="26">
         <v>2.5</v>
       </c>
       <c r="E669" s="27">
-        <v>102.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="670" spans="1:5" x14ac:dyDescent="0.25">
@@ -13375,13 +13381,13 @@
         <v>20</v>
       </c>
       <c r="C670" s="25">
-        <v>1.75</v>
+        <v>51.75</v>
       </c>
       <c r="D670" s="26">
         <v>2.5</v>
       </c>
       <c r="E670" s="27">
-        <v>4.38</v>
+        <v>129.38</v>
       </c>
     </row>
     <row r="671" spans="1:5" x14ac:dyDescent="0.25">
@@ -13389,16 +13395,16 @@
         <v>674</v>
       </c>
       <c r="B671" s="24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C671" s="25">
-        <v>65.25</v>
+        <v>84.25</v>
       </c>
       <c r="D671" s="26">
         <v>2.5</v>
       </c>
       <c r="E671" s="27">
-        <v>163.13</v>
+        <v>210.63</v>
       </c>
     </row>
     <row r="672" spans="1:5" x14ac:dyDescent="0.25">
@@ -13419,10 +13425,10 @@
         <v>676</v>
       </c>
       <c r="B673" s="24">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C673" s="25">
-        <v>-162</v>
+        <v>-171</v>
       </c>
       <c r="D673" s="29"/>
       <c r="E673" s="28"/>
@@ -13433,11 +13439,11 @@
       </c>
       <c r="B674" s="31"/>
       <c r="C674" s="32">
-        <v>19544.98</v>
+        <v>21339.1</v>
       </c>
       <c r="D674" s="33"/>
       <c r="E674" s="34">
-        <v>78776.56</v>
+        <v>82845.45</v>
       </c>
     </row>
   </sheetData>

--- a/data/website stock.xlsx
+++ b/data/website stock.xlsx
@@ -35,7 +35,7 @@
     <t>Stock Group Summary</t>
   </si>
   <si>
-    <t>1-Jul-25 to 12-Nov-25</t>
+    <t>1-Jul-25 to 14-Nov-25</t>
   </si>
   <si>
     <t/>
@@ -773,7 +773,7 @@
     <t>5072 PATRIKA</t>
   </si>
   <si>
-    <t>5073 PATRIKA *-* (M) 10 K MONDAY</t>
+    <t>5073 PATRIKA *-* (M)</t>
   </si>
   <si>
     <t>5074 PATRIKA</t>
@@ -896,7 +896,7 @@
     <t>5115 PATRIKA (DCU)</t>
   </si>
   <si>
-    <t>5116 PATRIKA (MONDAY)</t>
+    <t>5116 PATRIKA</t>
   </si>
   <si>
     <t>5117 PATRIKA (DCU)</t>
@@ -908,7 +908,7 @@
     <t>5501 PATRIKA (DCU)</t>
   </si>
   <si>
-    <t>5502 PATRIKA *-* (M)-Puchana</t>
+    <t>5502 PATRIKA *-* (M)</t>
   </si>
   <si>
     <t>5503 PATRIKA</t>
@@ -1040,7 +1040,7 @@
     <t>5545 PATRIKA *-* (M)</t>
   </si>
   <si>
-    <t>5546 PATRIKA (MONDAY)</t>
+    <t>5546 PATRIKA</t>
   </si>
   <si>
     <t>5547 PATRIKA *-* (M)</t>
@@ -1289,7 +1289,7 @@
     <t>6604 PATRIKA *-* (M)</t>
   </si>
   <si>
-    <t>6605 PATRIKA THURSD</t>
+    <t>6605 PATRIKA</t>
   </si>
   <si>
     <t>6606 PATRIKA</t>
@@ -1358,7 +1358,7 @@
     <t>6627 PATRIKA *-* (M)</t>
   </si>
   <si>
-    <t>6628 PATRIKA *-* (M) MONDAY 1K</t>
+    <t>6628 PATRIKA *-* (M)</t>
   </si>
   <si>
     <t>6629 PATRIKA *-* (M)</t>
@@ -2747,16 +2747,16 @@
         <v>15</v>
       </c>
       <c r="B12" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" s="25">
-        <v>55.5</v>
+        <v>51.5</v>
       </c>
       <c r="D12" s="26">
         <v>1.95</v>
       </c>
       <c r="E12" s="27">
-        <v>108.23</v>
+        <v>100.43</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -2781,16 +2781,16 @@
         <v>17</v>
       </c>
       <c r="B14" s="24">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" s="25">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D14" s="26">
         <v>2</v>
       </c>
       <c r="E14" s="27">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -2798,16 +2798,16 @@
         <v>18</v>
       </c>
       <c r="B15" s="24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15" s="25">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D15" s="26">
         <v>2</v>
       </c>
       <c r="E15" s="27">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -2832,16 +2832,16 @@
         <v>20</v>
       </c>
       <c r="B17" s="24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" s="25">
-        <v>45.5</v>
+        <v>43.5</v>
       </c>
       <c r="D17" s="26">
         <v>2.1</v>
       </c>
       <c r="E17" s="27">
-        <v>95.55</v>
+        <v>91.35</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -2954,13 +2954,13 @@
         <v>16</v>
       </c>
       <c r="C24" s="25">
-        <v>0.5</v>
+        <v>120.5</v>
       </c>
       <c r="D24" s="26">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="E24" s="27">
-        <v>0.83</v>
+        <v>198.83</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -3036,16 +3036,16 @@
         <v>32</v>
       </c>
       <c r="B29" s="24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C29" s="25">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D29" s="26">
         <v>2.38</v>
       </c>
       <c r="E29" s="27">
-        <v>130.9</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -3237,13 +3237,13 @@
         <v>5</v>
       </c>
       <c r="C41" s="25">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="D41" s="26">
         <v>2.35</v>
       </c>
       <c r="E41" s="27">
-        <v>42.3</v>
+        <v>126.9</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -3251,16 +3251,16 @@
         <v>45</v>
       </c>
       <c r="B42" s="24">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C42" s="25">
-        <v>-1</v>
+        <v>105</v>
       </c>
       <c r="D42" s="26">
         <v>2.35</v>
       </c>
       <c r="E42" s="27">
-        <v>-2.35</v>
+        <v>246.75</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -3320,13 +3320,13 @@
         <v>2</v>
       </c>
       <c r="C46" s="25">
-        <v>7</v>
+        <v>115</v>
       </c>
       <c r="D46" s="26">
         <v>1.25</v>
       </c>
       <c r="E46" s="27">
-        <v>8.75</v>
+        <v>143.75</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -3334,16 +3334,16 @@
         <v>50</v>
       </c>
       <c r="B47" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C47" s="25">
-        <v>12.5</v>
+        <v>119.5</v>
       </c>
       <c r="D47" s="26">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="E47" s="27">
-        <v>16.25</v>
+        <v>150.6</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -3354,13 +3354,13 @@
         <v>3</v>
       </c>
       <c r="C48" s="25">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D48" s="26">
         <v>1.4</v>
       </c>
       <c r="E48" s="27">
-        <v>144.19999999999999</v>
+        <v>142.80000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -3371,13 +3371,13 @@
         <v>2</v>
       </c>
       <c r="C49" s="25">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D49" s="26">
         <v>1.4</v>
       </c>
       <c r="E49" s="27">
-        <v>58.8</v>
+        <v>57.4</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -3385,16 +3385,16 @@
         <v>53</v>
       </c>
       <c r="B50" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C50" s="25">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D50" s="26">
         <v>1.8</v>
       </c>
       <c r="E50" s="27">
-        <v>203.4</v>
+        <v>183.6</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -3405,13 +3405,13 @@
         <v>3</v>
       </c>
       <c r="C51" s="25">
-        <v>162.5</v>
+        <v>161.5</v>
       </c>
       <c r="D51" s="26">
         <v>2.5</v>
       </c>
       <c r="E51" s="27">
-        <v>406.25</v>
+        <v>403.75</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -3422,13 +3422,13 @@
         <v>1</v>
       </c>
       <c r="C52" s="25">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D52" s="26">
         <v>2.5</v>
       </c>
       <c r="E52" s="27">
-        <v>345</v>
+        <v>342.5</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -3439,13 +3439,13 @@
         <v>1</v>
       </c>
       <c r="C53" s="25">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D53" s="26">
         <v>2.75</v>
       </c>
       <c r="E53" s="27">
-        <v>132</v>
+        <v>129.25</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -3456,13 +3456,13 @@
         <v>1</v>
       </c>
       <c r="C54" s="25">
-        <v>54.75</v>
+        <v>53.75</v>
       </c>
       <c r="D54" s="26">
         <v>2.75</v>
       </c>
       <c r="E54" s="27">
-        <v>150.56</v>
+        <v>147.81</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -3487,16 +3487,16 @@
         <v>59</v>
       </c>
       <c r="B56" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C56" s="25">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="D56" s="26">
         <v>1.9</v>
       </c>
       <c r="E56" s="27">
-        <v>186.2</v>
+        <v>146.30000000000001</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -3572,9 +3572,15 @@
         <v>64</v>
       </c>
       <c r="B61" s="24"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="28"/>
+      <c r="C61" s="25">
+        <v>10</v>
+      </c>
+      <c r="D61" s="26">
+        <v>1.65</v>
+      </c>
+      <c r="E61" s="27">
+        <v>16.5</v>
+      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="23" t="s">
@@ -3584,13 +3590,13 @@
         <v>1</v>
       </c>
       <c r="C62" s="25">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D62" s="26">
         <v>1.65</v>
       </c>
       <c r="E62" s="27">
-        <v>79.2</v>
+        <v>77.55</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -3598,9 +3604,15 @@
         <v>66</v>
       </c>
       <c r="B63" s="24"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="29"/>
-      <c r="E63" s="28"/>
+      <c r="C63" s="25">
+        <v>10</v>
+      </c>
+      <c r="D63" s="26">
+        <v>1.65</v>
+      </c>
+      <c r="E63" s="27">
+        <v>16.5</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="23" t="s">
@@ -3610,13 +3622,13 @@
         <v>2</v>
       </c>
       <c r="C64" s="25">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D64" s="26">
         <v>1.65</v>
       </c>
       <c r="E64" s="27">
-        <v>51.15</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -3627,13 +3639,13 @@
         <v>2</v>
       </c>
       <c r="C65" s="25">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D65" s="26">
         <v>1.65</v>
       </c>
       <c r="E65" s="27">
-        <v>51.15</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -3641,16 +3653,16 @@
         <v>69</v>
       </c>
       <c r="B66" s="24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C66" s="25">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D66" s="26">
         <v>1.65</v>
       </c>
       <c r="E66" s="27">
-        <v>59.4</v>
+        <v>51.15</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -3659,13 +3671,13 @@
       </c>
       <c r="B67" s="24"/>
       <c r="C67" s="25">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D67" s="26">
         <v>1.65</v>
       </c>
       <c r="E67" s="27">
-        <v>115.5</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -3673,16 +3685,16 @@
         <v>71</v>
       </c>
       <c r="B68" s="24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C68" s="25">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D68" s="26">
         <v>1.4</v>
       </c>
       <c r="E68" s="27">
-        <v>96.6</v>
+        <v>81.2</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -3690,16 +3702,16 @@
         <v>72</v>
       </c>
       <c r="B69" s="24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C69" s="25">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D69" s="26">
         <v>1.4</v>
       </c>
       <c r="E69" s="27">
-        <v>116.2</v>
+        <v>117.6</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -3707,16 +3719,16 @@
         <v>73</v>
       </c>
       <c r="B70" s="24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C70" s="25">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D70" s="26">
         <v>1.4</v>
       </c>
       <c r="E70" s="27">
-        <v>123.2</v>
+        <v>124.6</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -3727,13 +3739,13 @@
         <v>4</v>
       </c>
       <c r="C71" s="25">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D71" s="26">
         <v>1.4</v>
       </c>
       <c r="E71" s="27">
-        <v>124.6</v>
+        <v>123.2</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -3741,16 +3753,16 @@
         <v>75</v>
       </c>
       <c r="B72" s="24">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C72" s="25">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D72" s="26">
         <v>1.2</v>
       </c>
       <c r="E72" s="27">
-        <v>45.6</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -3761,13 +3773,13 @@
         <v>3</v>
       </c>
       <c r="C73" s="25">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D73" s="26">
         <v>1.2</v>
       </c>
       <c r="E73" s="27">
-        <v>61.2</v>
+        <v>60</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -3778,13 +3790,13 @@
         <v>2</v>
       </c>
       <c r="C74" s="25">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D74" s="26">
         <v>1.2</v>
       </c>
       <c r="E74" s="27">
-        <v>62.4</v>
+        <v>61.2</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -3810,13 +3822,13 @@
         <v>2</v>
       </c>
       <c r="C76" s="25">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D76" s="26">
         <v>1.2</v>
       </c>
       <c r="E76" s="27">
-        <v>67.2</v>
+        <v>66</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -3941,7 +3953,7 @@
       </c>
       <c r="B85" s="24"/>
       <c r="C85" s="25">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="D85" s="29"/>
       <c r="E85" s="28"/>
@@ -3951,7 +3963,9 @@
         <v>89</v>
       </c>
       <c r="B86" s="24"/>
-      <c r="C86" s="28"/>
+      <c r="C86" s="25">
+        <v>40</v>
+      </c>
       <c r="D86" s="29"/>
       <c r="E86" s="28"/>
     </row>
@@ -3999,10 +4013,10 @@
         <v>93</v>
       </c>
       <c r="B90" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C90" s="25">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="D90" s="29"/>
       <c r="E90" s="28"/>
@@ -4012,16 +4026,16 @@
         <v>94</v>
       </c>
       <c r="B91" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C91" s="25">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="D91" s="26">
         <v>3.2</v>
       </c>
       <c r="E91" s="27">
-        <v>281.60000000000002</v>
+        <v>217.6</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -4119,7 +4133,7 @@
       </c>
       <c r="B99" s="24"/>
       <c r="C99" s="25">
-        <v>53</v>
+        <v>293</v>
       </c>
       <c r="D99" s="29"/>
       <c r="E99" s="28"/>
@@ -4220,7 +4234,7 @@
         <v>2</v>
       </c>
       <c r="C106" s="25">
-        <v>-21</v>
+        <v>121</v>
       </c>
       <c r="D106" s="29"/>
       <c r="E106" s="28"/>
@@ -4233,7 +4247,7 @@
         <v>2</v>
       </c>
       <c r="C107" s="25">
-        <v>-21</v>
+        <v>61</v>
       </c>
       <c r="D107" s="29"/>
       <c r="E107" s="28"/>
@@ -4256,10 +4270,10 @@
         <v>112</v>
       </c>
       <c r="B109" s="24">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C109" s="25">
-        <v>-0.08</v>
+        <v>-0.09</v>
       </c>
       <c r="D109" s="29"/>
       <c r="E109" s="28"/>
@@ -4269,10 +4283,10 @@
         <v>113</v>
       </c>
       <c r="B110" s="24">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C110" s="25">
-        <v>-0.19</v>
+        <v>-0.21</v>
       </c>
       <c r="D110" s="29"/>
       <c r="E110" s="28"/>
@@ -4291,10 +4305,10 @@
         <v>115</v>
       </c>
       <c r="B112" s="24">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C112" s="25">
-        <v>-0.91</v>
+        <v>-0.96</v>
       </c>
       <c r="D112" s="29"/>
       <c r="E112" s="28"/>
@@ -4304,10 +4318,10 @@
         <v>116</v>
       </c>
       <c r="B113" s="24">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C113" s="25">
-        <v>-0.93</v>
+        <v>-0.98</v>
       </c>
       <c r="D113" s="29"/>
       <c r="E113" s="28"/>
@@ -4356,10 +4370,10 @@
         <v>120</v>
       </c>
       <c r="B117" s="24">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C117" s="25">
-        <v>-0.59</v>
+        <v>-0.6</v>
       </c>
       <c r="D117" s="29"/>
       <c r="E117" s="28"/>
@@ -4416,16 +4430,16 @@
         <v>124</v>
       </c>
       <c r="B121" s="24">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C121" s="25">
-        <v>51</v>
+        <v>49.5</v>
       </c>
       <c r="D121" s="26">
         <v>12.5</v>
       </c>
       <c r="E121" s="27">
-        <v>637.5</v>
+        <v>618.75</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -4467,16 +4481,16 @@
         <v>127</v>
       </c>
       <c r="B124" s="24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C124" s="25">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="D124" s="26">
         <v>12.5</v>
       </c>
       <c r="E124" s="27">
-        <v>162.5</v>
+        <v>156.25</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -4487,13 +4501,13 @@
         <v>12</v>
       </c>
       <c r="C125" s="25">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D125" s="26">
         <v>12.5</v>
       </c>
       <c r="E125" s="27">
-        <v>200</v>
+        <v>325</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -4518,16 +4532,16 @@
         <v>130</v>
       </c>
       <c r="B127" s="24">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C127" s="25">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D127" s="26">
         <v>12.5</v>
       </c>
       <c r="E127" s="27">
-        <v>125</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -4635,16 +4649,16 @@
         <v>137</v>
       </c>
       <c r="B134" s="24">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C134" s="25">
-        <v>47</v>
+        <v>31.5</v>
       </c>
       <c r="D134" s="26">
         <v>18.5</v>
       </c>
       <c r="E134" s="27">
-        <v>869.5</v>
+        <v>582.75</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -4768,13 +4782,13 @@
         <v>6</v>
       </c>
       <c r="C142" s="25">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D142" s="26">
         <v>11.5</v>
       </c>
       <c r="E142" s="27">
-        <v>195.5</v>
+        <v>310.5</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -4836,13 +4850,13 @@
         <v>11</v>
       </c>
       <c r="C146" s="25">
-        <v>22.5</v>
+        <v>32.5</v>
       </c>
       <c r="D146" s="26">
         <v>11.5</v>
       </c>
       <c r="E146" s="27">
-        <v>258.75</v>
+        <v>373.75</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -4870,13 +4884,13 @@
         <v>8</v>
       </c>
       <c r="C148" s="25">
-        <v>21.5</v>
+        <v>41.5</v>
       </c>
       <c r="D148" s="26">
         <v>11.5</v>
       </c>
       <c r="E148" s="27">
-        <v>247.25</v>
+        <v>477.25</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -4935,16 +4949,16 @@
         <v>155</v>
       </c>
       <c r="B152" s="24">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C152" s="25">
-        <v>41.5</v>
+        <v>50</v>
       </c>
       <c r="D152" s="26">
         <v>11.5</v>
       </c>
       <c r="E152" s="27">
-        <v>477.25</v>
+        <v>575</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -5166,16 +5180,16 @@
         <v>170</v>
       </c>
       <c r="B167" s="24">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C167" s="25">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D167" s="26">
         <v>2.78</v>
       </c>
       <c r="E167" s="27">
-        <v>305.45</v>
+        <v>286.01</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -5220,13 +5234,13 @@
         <v>6</v>
       </c>
       <c r="C170" s="25">
-        <v>2.5</v>
+        <v>54.5</v>
       </c>
       <c r="D170" s="26">
         <v>3.33</v>
       </c>
       <c r="E170" s="27">
-        <v>8.33</v>
+        <v>181.49</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -5315,16 +5329,16 @@
         <v>179</v>
       </c>
       <c r="B176" s="24">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C176" s="25">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D176" s="26">
         <v>2.65</v>
       </c>
       <c r="E176" s="27">
-        <v>331.25</v>
+        <v>325.95</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -5367,13 +5381,13 @@
         <v>3</v>
       </c>
       <c r="C179" s="25">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="D179" s="26">
         <v>3.56</v>
       </c>
       <c r="E179" s="27">
-        <v>64.08</v>
+        <v>153.08000000000001</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
@@ -5384,13 +5398,13 @@
         <v>11</v>
       </c>
       <c r="C180" s="25">
-        <v>7.5</v>
+        <v>37</v>
       </c>
       <c r="D180" s="26">
         <v>5</v>
       </c>
       <c r="E180" s="27">
-        <v>37.5</v>
+        <v>185</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
@@ -5466,16 +5480,16 @@
         <v>188</v>
       </c>
       <c r="B185" s="24">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C185" s="25">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D185" s="26">
         <v>4.5</v>
       </c>
       <c r="E185" s="27">
-        <v>252</v>
+        <v>229.5</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
@@ -5585,16 +5599,16 @@
         <v>195</v>
       </c>
       <c r="B192" s="24">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C192" s="25">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D192" s="26">
         <v>2.6</v>
       </c>
       <c r="E192" s="27">
-        <v>148.19999999999999</v>
+        <v>135.19999999999999</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
@@ -5662,16 +5676,16 @@
         <v>200</v>
       </c>
       <c r="B197" s="24">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C197" s="25">
-        <v>44</v>
+        <v>43.5</v>
       </c>
       <c r="D197" s="26">
         <v>3.89</v>
       </c>
       <c r="E197" s="27">
-        <v>171.16</v>
+        <v>169.22</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
@@ -5696,16 +5710,16 @@
         <v>202</v>
       </c>
       <c r="B199" s="24">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C199" s="25">
-        <v>117.5</v>
+        <v>111</v>
       </c>
       <c r="D199" s="26">
         <v>2.7</v>
       </c>
       <c r="E199" s="27">
-        <v>317.25</v>
+        <v>299.7</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
@@ -5781,16 +5795,16 @@
         <v>207</v>
       </c>
       <c r="B204" s="24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C204" s="25">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D204" s="26">
         <v>3</v>
       </c>
       <c r="E204" s="27">
-        <v>291</v>
+        <v>261</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
@@ -5798,16 +5812,16 @@
         <v>208</v>
       </c>
       <c r="B205" s="24">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C205" s="25">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D205" s="26">
         <v>3.91</v>
       </c>
       <c r="E205" s="27">
-        <v>324.66000000000003</v>
+        <v>305.10000000000002</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
@@ -5883,16 +5897,16 @@
         <v>213</v>
       </c>
       <c r="B210" s="24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C210" s="25">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D210" s="26">
         <v>2.66</v>
       </c>
       <c r="E210" s="27">
-        <v>69.16</v>
+        <v>55.86</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -5903,13 +5917,13 @@
         <v>9</v>
       </c>
       <c r="C211" s="25">
-        <v>108.5</v>
+        <v>104.5</v>
       </c>
       <c r="D211" s="26">
         <v>4</v>
       </c>
       <c r="E211" s="27">
-        <v>434</v>
+        <v>418</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -5974,10 +5988,10 @@
         <v>115</v>
       </c>
       <c r="D215" s="26">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="E215" s="27">
-        <v>454.21</v>
+        <v>455.04</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
@@ -5985,16 +5999,16 @@
         <v>219</v>
       </c>
       <c r="B216" s="24">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C216" s="25">
-        <v>109.5</v>
+        <v>100</v>
       </c>
       <c r="D216" s="26">
         <v>3.5</v>
       </c>
       <c r="E216" s="27">
-        <v>383.25</v>
+        <v>350</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -6019,16 +6033,16 @@
         <v>221</v>
       </c>
       <c r="B218" s="24">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C218" s="25">
-        <v>101</v>
+        <v>95.5</v>
       </c>
       <c r="D218" s="26">
         <v>3.25</v>
       </c>
       <c r="E218" s="27">
-        <v>328.25</v>
+        <v>310.38</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -6039,13 +6053,13 @@
         <v>19</v>
       </c>
       <c r="C219" s="25">
-        <v>24.5</v>
+        <v>84.5</v>
       </c>
       <c r="D219" s="26">
         <v>3.25</v>
       </c>
       <c r="E219" s="27">
-        <v>79.63</v>
+        <v>274.63</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -6130,16 +6144,16 @@
         <v>228</v>
       </c>
       <c r="B225" s="24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C225" s="25">
-        <v>14.5</v>
+        <v>23.5</v>
       </c>
       <c r="D225" s="26">
         <v>5.75</v>
       </c>
       <c r="E225" s="27">
-        <v>83.38</v>
+        <v>135.13</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
@@ -6164,16 +6178,16 @@
         <v>230</v>
       </c>
       <c r="B227" s="24">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C227" s="25">
-        <v>60.5</v>
+        <v>58.5</v>
       </c>
       <c r="D227" s="26">
         <v>6.3</v>
       </c>
       <c r="E227" s="27">
-        <v>381.15</v>
+        <v>368.55</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
@@ -6215,16 +6229,16 @@
         <v>233</v>
       </c>
       <c r="B230" s="24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C230" s="25">
-        <v>58</v>
+        <v>56.5</v>
       </c>
       <c r="D230" s="26">
         <v>3.8</v>
       </c>
       <c r="E230" s="27">
-        <v>220.4</v>
+        <v>214.7</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
@@ -6232,16 +6246,16 @@
         <v>234</v>
       </c>
       <c r="B231" s="24">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C231" s="25">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D231" s="26">
         <v>3.9</v>
       </c>
       <c r="E231" s="27">
-        <v>187.2</v>
+        <v>183.3</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
@@ -6316,13 +6330,13 @@
         <v>11</v>
       </c>
       <c r="C236" s="25">
-        <v>19.5</v>
+        <v>21.5</v>
       </c>
       <c r="D236" s="26">
         <v>3.5</v>
       </c>
       <c r="E236" s="27">
-        <v>68.25</v>
+        <v>75.25</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
@@ -6330,16 +6344,16 @@
         <v>240</v>
       </c>
       <c r="B237" s="24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C237" s="25">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D237" s="26">
         <v>4.25</v>
       </c>
       <c r="E237" s="27">
-        <v>136</v>
+        <v>140.25</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
@@ -6364,16 +6378,16 @@
         <v>242</v>
       </c>
       <c r="B239" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C239" s="25">
-        <v>23.5</v>
+        <v>22.5</v>
       </c>
       <c r="D239" s="26">
         <v>4</v>
       </c>
       <c r="E239" s="27">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
@@ -6467,16 +6481,16 @@
         <v>249</v>
       </c>
       <c r="B246" s="24">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C246" s="25">
-        <v>78.5</v>
+        <v>74</v>
       </c>
       <c r="D246" s="26">
         <v>4.28</v>
       </c>
       <c r="E246" s="27">
-        <v>335.98</v>
+        <v>316.72000000000003</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
@@ -6599,16 +6613,16 @@
         <v>257</v>
       </c>
       <c r="B254" s="24">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C254" s="25">
-        <v>37</v>
+        <v>39.869999999999997</v>
       </c>
       <c r="D254" s="26">
         <v>4.25</v>
       </c>
       <c r="E254" s="27">
-        <v>157.25</v>
+        <v>169.45</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
@@ -6625,7 +6639,7 @@
         <v>4.42</v>
       </c>
       <c r="E255" s="27">
-        <v>203.43</v>
+        <v>203.27</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
@@ -6633,16 +6647,16 @@
         <v>259</v>
       </c>
       <c r="B256" s="24">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C256" s="25">
-        <v>31.5</v>
+        <v>26.5</v>
       </c>
       <c r="D256" s="26">
         <v>4.3099999999999996</v>
       </c>
       <c r="E256" s="27">
-        <v>135.74</v>
+        <v>114.19</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
@@ -6650,16 +6664,16 @@
         <v>260</v>
       </c>
       <c r="B257" s="24">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C257" s="25">
-        <v>27</v>
+        <v>29.5</v>
       </c>
       <c r="D257" s="26">
         <v>4.28</v>
       </c>
       <c r="E257" s="27">
-        <v>115.56</v>
+        <v>126.26</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
@@ -6735,16 +6749,16 @@
         <v>265</v>
       </c>
       <c r="B262" s="24">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C262" s="25">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D262" s="26">
-        <v>4.7</v>
+        <v>4.79</v>
       </c>
       <c r="E262" s="27">
-        <v>277.3</v>
+        <v>277.97000000000003</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
@@ -6769,16 +6783,16 @@
         <v>267</v>
       </c>
       <c r="B264" s="24">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C264" s="25">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D264" s="26">
         <v>4.5</v>
       </c>
       <c r="E264" s="27">
-        <v>216</v>
+        <v>211.5</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
@@ -6803,16 +6817,16 @@
         <v>269</v>
       </c>
       <c r="B266" s="24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C266" s="25">
-        <v>42.5</v>
+        <v>30.5</v>
       </c>
       <c r="D266" s="26">
         <v>5.0999999999999996</v>
       </c>
       <c r="E266" s="27">
-        <v>216.75</v>
+        <v>155.55000000000001</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
@@ -6854,16 +6868,16 @@
         <v>272</v>
       </c>
       <c r="B269" s="24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C269" s="25">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D269" s="26">
         <v>6</v>
       </c>
       <c r="E269" s="27">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
@@ -6871,16 +6885,16 @@
         <v>273</v>
       </c>
       <c r="B270" s="24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C270" s="25">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="D270" s="26">
         <v>5.76</v>
       </c>
       <c r="E270" s="27">
-        <v>66.239999999999995</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
@@ -6888,16 +6902,16 @@
         <v>274</v>
       </c>
       <c r="B271" s="24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C271" s="25">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D271" s="26">
         <v>4.5</v>
       </c>
       <c r="E271" s="27">
-        <v>126</v>
+        <v>153</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
@@ -6954,16 +6968,16 @@
         <v>278</v>
       </c>
       <c r="B275" s="24">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C275" s="25">
-        <v>7.5</v>
+        <v>37</v>
       </c>
       <c r="D275" s="26">
-        <v>4.91</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E275" s="27">
-        <v>36.82</v>
+        <v>181.38</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
@@ -7003,16 +7017,16 @@
         <v>281</v>
       </c>
       <c r="B278" s="24">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C278" s="25">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D278" s="26">
         <v>5.97</v>
       </c>
       <c r="E278" s="27">
-        <v>202.81</v>
+        <v>196.98</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
@@ -7020,16 +7034,16 @@
         <v>282</v>
       </c>
       <c r="B279" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C279" s="25">
-        <v>26</v>
+        <v>22.5</v>
       </c>
       <c r="D279" s="26">
         <v>5.4</v>
       </c>
       <c r="E279" s="27">
-        <v>140.4</v>
+        <v>121.5</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
@@ -7103,16 +7117,16 @@
         <v>287</v>
       </c>
       <c r="B284" s="24">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C284" s="25">
-        <v>125.5</v>
+        <v>125</v>
       </c>
       <c r="D284" s="26">
         <v>4.29</v>
       </c>
       <c r="E284" s="27">
-        <v>537.79999999999995</v>
+        <v>535.66</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
@@ -7123,13 +7137,13 @@
         <v>5</v>
       </c>
       <c r="C285" s="25">
-        <v>9.5</v>
+        <v>29.5</v>
       </c>
       <c r="D285" s="26">
         <v>4.75</v>
       </c>
       <c r="E285" s="27">
-        <v>45.13</v>
+        <v>140.13</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
@@ -7137,16 +7151,16 @@
         <v>289</v>
       </c>
       <c r="B286" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C286" s="25">
-        <v>23.5</v>
+        <v>22.5</v>
       </c>
       <c r="D286" s="26">
         <v>5.8</v>
       </c>
       <c r="E286" s="27">
-        <v>136.30000000000001</v>
+        <v>130.5</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
@@ -7154,16 +7168,16 @@
         <v>290</v>
       </c>
       <c r="B287" s="24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C287" s="25">
-        <v>38.5</v>
+        <v>31.5</v>
       </c>
       <c r="D287" s="26">
         <v>5.13</v>
       </c>
       <c r="E287" s="27">
-        <v>197.51</v>
+        <v>161.6</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
@@ -7215,13 +7229,13 @@
         <v>4</v>
       </c>
       <c r="C291" s="25">
-        <v>13</v>
+        <v>23.5</v>
       </c>
       <c r="D291" s="26">
         <v>11.5</v>
       </c>
       <c r="E291" s="27">
-        <v>149.5</v>
+        <v>270.25</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
@@ -7245,15 +7259,17 @@
       <c r="A293" s="23" t="s">
         <v>296</v>
       </c>
-      <c r="B293" s="24"/>
+      <c r="B293" s="24">
+        <v>1</v>
+      </c>
       <c r="C293" s="25">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="D293" s="26">
         <v>7.85</v>
       </c>
       <c r="E293" s="27">
-        <v>82.43</v>
+        <v>78.5</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
@@ -7276,16 +7292,16 @@
         <v>298</v>
       </c>
       <c r="B295" s="24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C295" s="25">
-        <v>19.850000000000001</v>
+        <v>14.85</v>
       </c>
       <c r="D295" s="26">
         <v>9.4499999999999993</v>
       </c>
       <c r="E295" s="27">
-        <v>187.58</v>
+        <v>140.33000000000001</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
@@ -7421,16 +7437,16 @@
         <v>307</v>
       </c>
       <c r="B304" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C304" s="25">
-        <v>28.5</v>
+        <v>28</v>
       </c>
       <c r="D304" s="26">
         <v>5.25</v>
       </c>
       <c r="E304" s="27">
-        <v>149.63</v>
+        <v>147</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
@@ -7490,13 +7506,13 @@
         <v>11</v>
       </c>
       <c r="C308" s="25">
-        <v>8.5</v>
+        <v>18</v>
       </c>
       <c r="D308" s="26">
         <v>10</v>
       </c>
       <c r="E308" s="27">
-        <v>85</v>
+        <v>180</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
@@ -7536,16 +7552,16 @@
         <v>314</v>
       </c>
       <c r="B311" s="24">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C311" s="25">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D311" s="26">
         <v>4.28</v>
       </c>
       <c r="E311" s="27">
-        <v>214</v>
+        <v>209.72</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
@@ -7722,13 +7738,13 @@
         <v>8</v>
       </c>
       <c r="C322" s="25">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D322" s="26">
         <v>9</v>
       </c>
       <c r="E322" s="27">
-        <v>27</v>
+        <v>207</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
@@ -7736,16 +7752,16 @@
         <v>326</v>
       </c>
       <c r="B323" s="24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C323" s="25">
-        <v>6.5</v>
+        <v>19.5</v>
       </c>
       <c r="D323" s="26">
         <v>9</v>
       </c>
       <c r="E323" s="27">
-        <v>58.5</v>
+        <v>175.5</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
@@ -7873,16 +7889,16 @@
         <v>335</v>
       </c>
       <c r="B332" s="24">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C332" s="25">
-        <v>14.5</v>
+        <v>37.5</v>
       </c>
       <c r="D332" s="26">
         <v>5.94</v>
       </c>
       <c r="E332" s="27">
-        <v>86.13</v>
+        <v>222.75</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
@@ -7924,7 +7940,7 @@
         <v>338</v>
       </c>
       <c r="B335" s="24">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C335" s="25">
         <v>6.85</v>
@@ -7990,16 +8006,16 @@
         <v>342</v>
       </c>
       <c r="B339" s="24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C339" s="25">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D339" s="26">
-        <v>7.66</v>
+        <v>7.82</v>
       </c>
       <c r="E339" s="27">
-        <v>214.55</v>
+        <v>211.01</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
@@ -8024,16 +8040,16 @@
         <v>344</v>
       </c>
       <c r="B341" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C341" s="25">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="D341" s="26">
         <v>7.3</v>
       </c>
       <c r="E341" s="27">
-        <v>120.45</v>
+        <v>109.5</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
@@ -8092,16 +8108,16 @@
         <v>348</v>
       </c>
       <c r="B345" s="24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C345" s="25">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="D345" s="26">
         <v>6.65</v>
       </c>
       <c r="E345" s="27">
-        <v>59.85</v>
+        <v>69.83</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
@@ -8109,16 +8125,16 @@
         <v>349</v>
       </c>
       <c r="B346" s="24">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C346" s="25">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D346" s="26">
         <v>5.94</v>
       </c>
       <c r="E346" s="27">
-        <v>213.84</v>
+        <v>184.14</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
@@ -8160,16 +8176,16 @@
         <v>352</v>
       </c>
       <c r="B349" s="24">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C349" s="25">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D349" s="26">
         <v>7.13</v>
       </c>
       <c r="E349" s="27">
-        <v>49.91</v>
+        <v>57.04</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
@@ -8194,16 +8210,16 @@
         <v>354</v>
       </c>
       <c r="B351" s="24">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C351" s="25">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="D351" s="26">
         <v>6.6</v>
       </c>
       <c r="E351" s="27">
-        <v>19.8</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
@@ -8299,13 +8315,13 @@
         <v>8</v>
       </c>
       <c r="C357" s="25">
-        <v>11</v>
+        <v>22.5</v>
       </c>
       <c r="D357" s="26">
         <v>8.08</v>
       </c>
       <c r="E357" s="27">
-        <v>88.88</v>
+        <v>181.8</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
@@ -8384,13 +8400,13 @@
         <v>18</v>
       </c>
       <c r="C362" s="25">
-        <v>0.5</v>
+        <v>20.5</v>
       </c>
       <c r="D362" s="26">
         <v>3.6</v>
       </c>
       <c r="E362" s="27">
-        <v>1.8</v>
+        <v>73.8</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
@@ -8398,16 +8414,16 @@
         <v>366</v>
       </c>
       <c r="B363" s="24">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C363" s="25">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D363" s="26">
         <v>6</v>
       </c>
       <c r="E363" s="27">
-        <v>294</v>
+        <v>276</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
@@ -8415,16 +8431,16 @@
         <v>367</v>
       </c>
       <c r="B364" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C364" s="25">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="D364" s="26">
         <v>10.199999999999999</v>
       </c>
       <c r="E364" s="27">
-        <v>127.5</v>
+        <v>117.3</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
@@ -8449,16 +8465,16 @@
         <v>369</v>
       </c>
       <c r="B366" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C366" s="25">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="D366" s="26">
         <v>9.75</v>
       </c>
       <c r="E366" s="27">
-        <v>136.5</v>
+        <v>131.63</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
@@ -8503,28 +8519,30 @@
         <v>6</v>
       </c>
       <c r="C369" s="25">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D369" s="26">
         <v>5.3</v>
       </c>
       <c r="E369" s="27">
-        <v>26.5</v>
+        <v>185.5</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="23" t="s">
         <v>373</v>
       </c>
-      <c r="B370" s="24"/>
+      <c r="B370" s="24">
+        <v>1</v>
+      </c>
       <c r="C370" s="25">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D370" s="26">
         <v>8.5500000000000007</v>
       </c>
       <c r="E370" s="27">
-        <v>68.400000000000006</v>
+        <v>51.3</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
@@ -8549,16 +8567,16 @@
         <v>375</v>
       </c>
       <c r="B372" s="24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C372" s="25">
-        <v>24</v>
+        <v>23.5</v>
       </c>
       <c r="D372" s="26">
         <v>5.7</v>
       </c>
       <c r="E372" s="27">
-        <v>136.80000000000001</v>
+        <v>133.94999999999999</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
@@ -8600,16 +8618,16 @@
         <v>378</v>
       </c>
       <c r="B375" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C375" s="25">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="D375" s="26">
         <v>8.6999999999999993</v>
       </c>
       <c r="E375" s="27">
-        <v>117.45</v>
+        <v>108.75</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
@@ -8669,13 +8687,13 @@
         <v>7</v>
       </c>
       <c r="C379" s="25">
-        <v>0.5</v>
+        <v>30.5</v>
       </c>
       <c r="D379" s="26">
-        <v>6.66</v>
+        <v>6.65</v>
       </c>
       <c r="E379" s="27">
-        <v>3.33</v>
+        <v>202.83</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
@@ -8754,13 +8772,13 @@
         <v>17</v>
       </c>
       <c r="C384" s="25">
-        <v>9.5</v>
+        <v>21.5</v>
       </c>
       <c r="D384" s="26">
         <v>6.65</v>
       </c>
       <c r="E384" s="27">
-        <v>63.18</v>
+        <v>142.97999999999999</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
@@ -8768,16 +8786,16 @@
         <v>388</v>
       </c>
       <c r="B385" s="24">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C385" s="25">
-        <v>34</v>
+        <v>32.5</v>
       </c>
       <c r="D385" s="26">
         <v>7</v>
       </c>
       <c r="E385" s="27">
-        <v>238</v>
+        <v>227.5</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
@@ -8915,16 +8933,16 @@
         <v>397</v>
       </c>
       <c r="B394" s="24">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C394" s="25">
-        <v>21</v>
+        <v>23.5</v>
       </c>
       <c r="D394" s="26">
         <v>5.2</v>
       </c>
       <c r="E394" s="27">
-        <v>109.2</v>
+        <v>122.2</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
@@ -8967,13 +8985,13 @@
         <v>21</v>
       </c>
       <c r="C397" s="25">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="D397" s="26">
         <v>5.3</v>
       </c>
       <c r="E397" s="27">
-        <v>84.8</v>
+        <v>87.45</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
@@ -8999,13 +9017,13 @@
         <v>28</v>
       </c>
       <c r="C399" s="25">
-        <v>30.5</v>
+        <v>6.5</v>
       </c>
       <c r="D399" s="26">
-        <v>5.9</v>
+        <v>6.01</v>
       </c>
       <c r="E399" s="27">
-        <v>179.95</v>
+        <v>39.049999999999997</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
@@ -9181,13 +9199,13 @@
         <v>13</v>
       </c>
       <c r="C411" s="25">
-        <v>11</v>
+        <v>38.5</v>
       </c>
       <c r="D411" s="26">
         <v>5</v>
       </c>
       <c r="E411" s="27">
-        <v>55</v>
+        <v>192.5</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
@@ -9308,16 +9326,16 @@
         <v>422</v>
       </c>
       <c r="B419" s="24">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C419" s="25">
-        <v>9.5</v>
+        <v>4.5</v>
       </c>
       <c r="D419" s="26">
         <v>9.75</v>
       </c>
       <c r="E419" s="27">
-        <v>92.63</v>
+        <v>43.88</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
@@ -9428,13 +9446,13 @@
         <v>3</v>
       </c>
       <c r="C426" s="25">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="D426" s="26">
         <v>10.5</v>
       </c>
       <c r="E426" s="27">
-        <v>-42</v>
+        <v>42</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
@@ -9524,13 +9542,13 @@
         <v>7</v>
       </c>
       <c r="C432" s="25">
-        <v>-2</v>
+        <v>12</v>
       </c>
       <c r="D432" s="26">
         <v>14.25</v>
       </c>
       <c r="E432" s="27">
-        <v>-28.5</v>
+        <v>171</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
@@ -9636,16 +9654,16 @@
         <v>442</v>
       </c>
       <c r="B439" s="24">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C439" s="25">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="D439" s="26">
         <v>10</v>
       </c>
       <c r="E439" s="27">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.25">
@@ -9671,13 +9689,13 @@
         <v>10</v>
       </c>
       <c r="C441" s="25">
-        <v>-0.5</v>
+        <v>16.5</v>
       </c>
       <c r="D441" s="26">
-        <v>8.56</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="E441" s="27">
-        <v>-4.28</v>
+        <v>141.08000000000001</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.25">
@@ -9685,16 +9703,16 @@
         <v>445</v>
       </c>
       <c r="B442" s="24">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C442" s="25">
-        <v>19.16</v>
+        <v>23.16</v>
       </c>
       <c r="D442" s="26">
         <v>8.5500000000000007</v>
       </c>
       <c r="E442" s="27">
-        <v>163.82</v>
+        <v>198.02</v>
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.25">
@@ -9801,13 +9819,13 @@
         <v>2</v>
       </c>
       <c r="C449" s="25">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D449" s="26">
         <v>18</v>
       </c>
       <c r="E449" s="27">
-        <v>36</v>
+        <v>144</v>
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.25">
@@ -9832,16 +9850,16 @@
         <v>454</v>
       </c>
       <c r="B451" s="24">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C451" s="25">
-        <v>-5.5</v>
+        <v>36</v>
       </c>
       <c r="D451" s="26">
         <v>9.5</v>
       </c>
       <c r="E451" s="27">
-        <v>-52.25</v>
+        <v>342</v>
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.25">
@@ -9905,16 +9923,16 @@
         <v>459</v>
       </c>
       <c r="B456" s="24">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C456" s="25">
-        <v>11.5</v>
+        <v>8</v>
       </c>
       <c r="D456" s="26">
-        <v>10</v>
+        <v>10.17</v>
       </c>
       <c r="E456" s="27">
-        <v>115</v>
+        <v>81.38</v>
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.25">
@@ -9954,16 +9972,16 @@
         <v>462</v>
       </c>
       <c r="B459" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C459" s="25">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="D459" s="26">
         <v>11.4</v>
       </c>
       <c r="E459" s="27">
-        <v>119.7</v>
+        <v>108.3</v>
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.25">
@@ -10023,13 +10041,13 @@
         <v>4</v>
       </c>
       <c r="C463" s="25">
-        <v>0.5</v>
+        <v>20.5</v>
       </c>
       <c r="D463" s="26">
         <v>9.26</v>
       </c>
       <c r="E463" s="27">
-        <v>4.63</v>
+        <v>189.83</v>
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.25">
@@ -10073,9 +10091,15 @@
       <c r="B466" s="24">
         <v>4</v>
       </c>
-      <c r="C466" s="28"/>
-      <c r="D466" s="29"/>
-      <c r="E466" s="28"/>
+      <c r="C466" s="25">
+        <v>10</v>
+      </c>
+      <c r="D466" s="26">
+        <v>9.26</v>
+      </c>
+      <c r="E466" s="27">
+        <v>92.6</v>
+      </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467" s="23" t="s">
@@ -10217,13 +10241,13 @@
         <v>8</v>
       </c>
       <c r="C475" s="25">
-        <v>-10</v>
+        <v>4</v>
       </c>
       <c r="D475" s="26">
         <v>12.8</v>
       </c>
       <c r="E475" s="27">
-        <v>-128</v>
+        <v>51.2</v>
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.25">
@@ -10440,16 +10464,16 @@
         <v>492</v>
       </c>
       <c r="B489" s="24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C489" s="25">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D489" s="26">
         <v>12.8</v>
       </c>
       <c r="E489" s="27">
-        <v>256</v>
+        <v>230.4</v>
       </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.25">
@@ -10672,16 +10696,16 @@
         <v>506</v>
       </c>
       <c r="B503" s="24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C503" s="25">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D503" s="26">
         <v>1.4</v>
       </c>
       <c r="E503" s="27">
-        <v>189</v>
+        <v>183.4</v>
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.25">
@@ -10898,16 +10922,16 @@
         <v>520</v>
       </c>
       <c r="B517" s="24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C517" s="25">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="D517" s="26">
         <v>2</v>
       </c>
       <c r="E517" s="27">
-        <v>28</v>
+        <v>106</v>
       </c>
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.25">
@@ -11000,16 +11024,16 @@
         <v>526</v>
       </c>
       <c r="B523" s="24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C523" s="25">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D523" s="26">
         <v>4.75</v>
       </c>
       <c r="E523" s="27">
-        <v>61.75</v>
+        <v>52.25</v>
       </c>
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.25">
@@ -11071,13 +11095,13 @@
         <v>6</v>
       </c>
       <c r="C527" s="25">
-        <v>61.5</v>
+        <v>21.5</v>
       </c>
       <c r="D527" s="26">
         <v>3.45</v>
       </c>
       <c r="E527" s="27">
-        <v>212.18</v>
+        <v>74.180000000000007</v>
       </c>
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.25">
@@ -11105,13 +11129,13 @@
         <v>21</v>
       </c>
       <c r="C529" s="25">
-        <v>-1</v>
+        <v>39</v>
       </c>
       <c r="D529" s="26">
         <v>9.5</v>
       </c>
       <c r="E529" s="27">
-        <v>-9.5</v>
+        <v>370.5</v>
       </c>
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.25">
@@ -11153,7 +11177,7 @@
         <v>535</v>
       </c>
       <c r="B532" s="24">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C532" s="25">
         <v>17.5</v>
@@ -11170,16 +11194,16 @@
         <v>536</v>
       </c>
       <c r="B533" s="24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C533" s="25">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D533" s="26">
         <v>1.8</v>
       </c>
       <c r="E533" s="27">
-        <v>84.6</v>
+        <v>82.8</v>
       </c>
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.25">
@@ -11373,15 +11397,17 @@
       <c r="A545" s="23" t="s">
         <v>548</v>
       </c>
-      <c r="B545" s="24"/>
+      <c r="B545" s="24">
+        <v>1</v>
+      </c>
       <c r="C545" s="25">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D545" s="26">
         <v>3.6</v>
       </c>
       <c r="E545" s="27">
-        <v>100.8</v>
+        <v>93.6</v>
       </c>
     </row>
     <row r="546" spans="1:5" x14ac:dyDescent="0.25">
@@ -11406,16 +11432,16 @@
         <v>550</v>
       </c>
       <c r="B547" s="24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C547" s="25">
-        <v>37</v>
+        <v>38.5</v>
       </c>
       <c r="D547" s="26">
         <v>2.66</v>
       </c>
       <c r="E547" s="27">
-        <v>98.42</v>
+        <v>102.41</v>
       </c>
     </row>
     <row r="548" spans="1:5" x14ac:dyDescent="0.25">
@@ -11472,16 +11498,16 @@
         <v>554</v>
       </c>
       <c r="B551" s="24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C551" s="25">
-        <v>21</v>
+        <v>20.5</v>
       </c>
       <c r="D551" s="26">
         <v>2.66</v>
       </c>
       <c r="E551" s="27">
-        <v>55.86</v>
+        <v>54.53</v>
       </c>
     </row>
     <row r="552" spans="1:5" x14ac:dyDescent="0.25">
@@ -11607,7 +11633,7 @@
         <v>25</v>
       </c>
       <c r="C559" s="25">
-        <v>-10.5</v>
+        <v>-9.5</v>
       </c>
       <c r="D559" s="29"/>
       <c r="E559" s="28"/>
@@ -11617,7 +11643,7 @@
         <v>563</v>
       </c>
       <c r="B560" s="24">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C560" s="25">
         <v>14.5</v>
@@ -11633,7 +11659,7 @@
         <v>29</v>
       </c>
       <c r="C561" s="25">
-        <v>-163.5</v>
+        <v>-164.5</v>
       </c>
       <c r="D561" s="29"/>
       <c r="E561" s="28"/>
@@ -11646,7 +11672,7 @@
         <v>6</v>
       </c>
       <c r="C562" s="25">
-        <v>42.5</v>
+        <v>41.5</v>
       </c>
       <c r="D562" s="29"/>
       <c r="E562" s="28"/>
@@ -11659,7 +11685,7 @@
         <v>18</v>
       </c>
       <c r="C563" s="25">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D563" s="29"/>
       <c r="E563" s="28"/>
@@ -11672,13 +11698,13 @@
         <v>25</v>
       </c>
       <c r="C564" s="25">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D564" s="26">
         <v>0.87</v>
       </c>
       <c r="E564" s="27">
-        <v>354.09</v>
+        <v>353.22</v>
       </c>
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.25">
@@ -11686,10 +11712,10 @@
         <v>568</v>
       </c>
       <c r="B565" s="24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C565" s="25">
-        <v>-40</v>
+        <v>-60</v>
       </c>
       <c r="D565" s="29"/>
       <c r="E565" s="28"/>
@@ -11702,13 +11728,13 @@
         <v>14</v>
       </c>
       <c r="C566" s="25">
-        <v>124.5</v>
+        <v>123.5</v>
       </c>
       <c r="D566" s="26">
         <v>0.85</v>
       </c>
       <c r="E566" s="27">
-        <v>105.83</v>
+        <v>104.98</v>
       </c>
     </row>
     <row r="567" spans="1:5" x14ac:dyDescent="0.25">
@@ -11736,13 +11762,13 @@
         <v>18</v>
       </c>
       <c r="C568" s="25">
-        <v>28</v>
+        <v>202</v>
       </c>
       <c r="D568" s="26">
         <v>0.85</v>
       </c>
       <c r="E568" s="27">
-        <v>23.8</v>
+        <v>171.7</v>
       </c>
     </row>
     <row r="569" spans="1:5" x14ac:dyDescent="0.25">
@@ -11799,16 +11825,16 @@
         <v>575</v>
       </c>
       <c r="B572" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C572" s="25">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="D572" s="26">
         <v>8.25</v>
       </c>
       <c r="E572" s="27">
-        <v>53.63</v>
+        <v>45.38</v>
       </c>
     </row>
     <row r="573" spans="1:5" x14ac:dyDescent="0.25">
@@ -11819,13 +11845,13 @@
         <v>1</v>
       </c>
       <c r="C573" s="25">
-        <v>17.5</v>
+        <v>7.5</v>
       </c>
       <c r="D573" s="26">
         <v>8.25</v>
       </c>
       <c r="E573" s="27">
-        <v>144.38</v>
+        <v>61.88</v>
       </c>
     </row>
     <row r="574" spans="1:5" x14ac:dyDescent="0.25">
@@ -11887,13 +11913,13 @@
         <v>4</v>
       </c>
       <c r="C577" s="25">
-        <v>6.01</v>
+        <v>18.010000000000002</v>
       </c>
       <c r="D577" s="26">
         <v>4.5</v>
       </c>
       <c r="E577" s="27">
-        <v>27.05</v>
+        <v>81.05</v>
       </c>
     </row>
     <row r="578" spans="1:5" x14ac:dyDescent="0.25">
@@ -11918,16 +11944,16 @@
         <v>582</v>
       </c>
       <c r="B579" s="24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C579" s="25">
-        <v>37</v>
+        <v>35.5</v>
       </c>
       <c r="D579" s="26">
         <v>5.75</v>
       </c>
       <c r="E579" s="27">
-        <v>212.75</v>
+        <v>204.13</v>
       </c>
     </row>
     <row r="580" spans="1:5" x14ac:dyDescent="0.25">
@@ -11986,16 +12012,16 @@
         <v>586</v>
       </c>
       <c r="B583" s="24">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C583" s="25">
-        <v>45.5</v>
+        <v>34.5</v>
       </c>
       <c r="D583" s="26">
-        <v>2.76</v>
+        <v>2.79</v>
       </c>
       <c r="E583" s="27">
-        <v>125.67</v>
+        <v>96.42</v>
       </c>
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.25">
@@ -12052,16 +12078,16 @@
         <v>590</v>
       </c>
       <c r="B587" s="24">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C587" s="25">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D587" s="26">
         <v>4</v>
       </c>
       <c r="E587" s="27">
-        <v>220</v>
+        <v>228</v>
       </c>
     </row>
     <row r="588" spans="1:5" x14ac:dyDescent="0.25">
@@ -12086,16 +12112,16 @@
         <v>592</v>
       </c>
       <c r="B589" s="24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C589" s="25">
-        <v>62</v>
+        <v>60.5</v>
       </c>
       <c r="D589" s="26">
         <v>1.5</v>
       </c>
       <c r="E589" s="27">
-        <v>93</v>
+        <v>90.75</v>
       </c>
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.25">
@@ -12231,16 +12257,16 @@
         <v>601</v>
       </c>
       <c r="B598" s="24">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C598" s="25">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D598" s="26">
         <v>5</v>
       </c>
       <c r="E598" s="27">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.25">
@@ -12333,16 +12359,16 @@
         <v>607</v>
       </c>
       <c r="B604" s="24">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C604" s="25">
-        <v>66</v>
+        <v>62.5</v>
       </c>
       <c r="D604" s="26">
         <v>1.7</v>
       </c>
       <c r="E604" s="27">
-        <v>112.2</v>
+        <v>106.25</v>
       </c>
     </row>
     <row r="605" spans="1:5" x14ac:dyDescent="0.25">
@@ -12353,13 +12379,13 @@
         <v>17</v>
       </c>
       <c r="C605" s="25">
-        <v>17</v>
+        <v>52.5</v>
       </c>
       <c r="D605" s="26">
         <v>3.33</v>
       </c>
       <c r="E605" s="27">
-        <v>56.61</v>
+        <v>174.83</v>
       </c>
     </row>
     <row r="606" spans="1:5" x14ac:dyDescent="0.25">
@@ -12452,16 +12478,16 @@
         <v>614</v>
       </c>
       <c r="B611" s="24">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C611" s="25">
-        <v>12</v>
+        <v>39.5</v>
       </c>
       <c r="D611" s="26">
         <v>2.85</v>
       </c>
       <c r="E611" s="27">
-        <v>34.200000000000003</v>
+        <v>112.58</v>
       </c>
     </row>
     <row r="612" spans="1:5" x14ac:dyDescent="0.25">
@@ -12554,16 +12580,16 @@
         <v>620</v>
       </c>
       <c r="B617" s="24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C617" s="25">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D617" s="26">
         <v>5.5</v>
       </c>
       <c r="E617" s="27">
-        <v>110</v>
+        <v>104.5</v>
       </c>
     </row>
     <row r="618" spans="1:5" x14ac:dyDescent="0.25">
@@ -12571,16 +12597,16 @@
         <v>621</v>
       </c>
       <c r="B618" s="24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C618" s="25">
-        <v>37.5</v>
+        <v>68</v>
       </c>
       <c r="D618" s="26">
         <v>3.8</v>
       </c>
       <c r="E618" s="27">
-        <v>142.5</v>
+        <v>258.39999999999998</v>
       </c>
     </row>
     <row r="619" spans="1:5" x14ac:dyDescent="0.25">
@@ -12620,16 +12646,16 @@
         <v>624</v>
       </c>
       <c r="B621" s="24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C621" s="25">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D621" s="26">
         <v>6.75</v>
       </c>
       <c r="E621" s="27">
-        <v>47.25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="622" spans="1:5" x14ac:dyDescent="0.25">
@@ -12706,13 +12732,13 @@
         <v>52</v>
       </c>
       <c r="C626" s="25">
-        <v>0.5</v>
+        <v>26.5</v>
       </c>
       <c r="D626" s="26">
         <v>3.1</v>
       </c>
       <c r="E626" s="27">
-        <v>1.55</v>
+        <v>82.15</v>
       </c>
     </row>
     <row r="627" spans="1:5" x14ac:dyDescent="0.25">
@@ -12908,13 +12934,13 @@
         <v>7</v>
       </c>
       <c r="C638" s="25">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="D638" s="26">
         <v>2.75</v>
       </c>
       <c r="E638" s="27">
-        <v>99</v>
+        <v>181.5</v>
       </c>
     </row>
     <row r="639" spans="1:5" x14ac:dyDescent="0.25">
@@ -12925,13 +12951,13 @@
         <v>5</v>
       </c>
       <c r="C639" s="25">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="D639" s="26">
         <v>2.75</v>
       </c>
       <c r="E639" s="27">
-        <v>440</v>
+        <v>192.5</v>
       </c>
     </row>
     <row r="640" spans="1:5" x14ac:dyDescent="0.25">
@@ -12942,13 +12968,13 @@
         <v>7</v>
       </c>
       <c r="C640" s="25">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="D640" s="26">
         <v>2.75</v>
       </c>
       <c r="E640" s="27">
-        <v>79.75</v>
+        <v>162.25</v>
       </c>
     </row>
     <row r="641" spans="1:5" x14ac:dyDescent="0.25">
@@ -12959,13 +12985,13 @@
         <v>16</v>
       </c>
       <c r="C641" s="25">
-        <v>23.5</v>
+        <v>33.5</v>
       </c>
       <c r="D641" s="26">
         <v>4</v>
       </c>
       <c r="E641" s="27">
-        <v>94</v>
+        <v>134</v>
       </c>
     </row>
     <row r="642" spans="1:5" x14ac:dyDescent="0.25">
@@ -13059,13 +13085,13 @@
       </c>
       <c r="B647" s="24"/>
       <c r="C647" s="25">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D647" s="26">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="E647" s="27">
-        <v>165</v>
+        <v>240</v>
       </c>
     </row>
     <row r="648" spans="1:5" x14ac:dyDescent="0.25">
@@ -13076,13 +13102,13 @@
         <v>5</v>
       </c>
       <c r="C648" s="25">
-        <v>12.5</v>
+        <v>35.5</v>
       </c>
       <c r="D648" s="26">
         <v>3.6</v>
       </c>
       <c r="E648" s="27">
-        <v>45</v>
+        <v>127.8</v>
       </c>
     </row>
     <row r="649" spans="1:5" x14ac:dyDescent="0.25">
@@ -13116,10 +13142,10 @@
         <v>654</v>
       </c>
       <c r="B651" s="24">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C651" s="25">
-        <v>64.19</v>
+        <v>62.19</v>
       </c>
       <c r="D651" s="29"/>
       <c r="E651" s="28"/>
@@ -13168,10 +13194,10 @@
         <v>658</v>
       </c>
       <c r="B655" s="24">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C655" s="25">
-        <v>-55</v>
+        <v>-50</v>
       </c>
       <c r="D655" s="29"/>
       <c r="E655" s="28"/>
@@ -13219,13 +13245,13 @@
         <v>14</v>
       </c>
       <c r="C659" s="25">
-        <v>11.5</v>
+        <v>141.5</v>
       </c>
       <c r="D659" s="26">
-        <v>2.77</v>
+        <v>2.83</v>
       </c>
       <c r="E659" s="27">
-        <v>31.83</v>
+        <v>400.47</v>
       </c>
     </row>
     <row r="660" spans="1:5" x14ac:dyDescent="0.25">
@@ -13384,16 +13410,16 @@
         <v>674</v>
       </c>
       <c r="B671" s="24">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C671" s="25">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D671" s="26">
         <v>2.5</v>
       </c>
       <c r="E671" s="27">
-        <v>92.5</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="672" spans="1:5" x14ac:dyDescent="0.25">
@@ -13401,16 +13427,16 @@
         <v>675</v>
       </c>
       <c r="B672" s="24">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C672" s="25">
-        <v>73.75</v>
+        <v>72.75</v>
       </c>
       <c r="D672" s="26">
         <v>2.5</v>
       </c>
       <c r="E672" s="27">
-        <v>184.38</v>
+        <v>181.88</v>
       </c>
     </row>
     <row r="673" spans="1:5" x14ac:dyDescent="0.25">
@@ -13452,16 +13478,16 @@
         <v>678</v>
       </c>
       <c r="B675" s="24">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C675" s="25">
-        <v>54.75</v>
+        <v>52.75</v>
       </c>
       <c r="D675" s="26">
         <v>2.5</v>
       </c>
       <c r="E675" s="27">
-        <v>136.88</v>
+        <v>131.88</v>
       </c>
     </row>
     <row r="676" spans="1:5" x14ac:dyDescent="0.25">
@@ -13533,10 +13559,10 @@
         <v>683</v>
       </c>
       <c r="B680" s="24">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C680" s="25">
-        <v>-168</v>
+        <v>-167.5</v>
       </c>
       <c r="D680" s="29"/>
       <c r="E680" s="28"/>
@@ -13547,11 +13573,11 @@
       </c>
       <c r="B681" s="31"/>
       <c r="C681" s="32">
-        <v>20869.95</v>
+        <v>22707.18</v>
       </c>
       <c r="D681" s="33"/>
       <c r="E681" s="34">
-        <v>83433.570000000007</v>
+        <v>88542.74</v>
       </c>
     </row>
   </sheetData>

--- a/data/website stock.xlsx
+++ b/data/website stock.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="686">
   <si>
     <t>Order Estimate - (from 1-Jul-2023)</t>
   </si>
@@ -218,13 +218,13 @@
     <t>1117 PATRIKA (1155)</t>
   </si>
   <si>
-    <t>1118 PATRIKA - B</t>
+    <t>1118 PATRIKA - B (DCU)</t>
   </si>
   <si>
     <t>1118 PATRIKA (सवाश्री-57)</t>
   </si>
   <si>
-    <t>1119 PATRIKA - B</t>
+    <t>1119 PATRIKA - B (DCU)</t>
   </si>
   <si>
     <t>1119 PATRIKA(सवाश्री-55)</t>
@@ -260,7 +260,7 @@
     <t>1129 PATRIKA (Eco-56)</t>
   </si>
   <si>
-    <t>1130 PATRIKA - B (ECO-60)</t>
+    <t>1130 PATRIKA - B (ECO-60) (DCU)</t>
   </si>
   <si>
     <t>1130 PATRIKA (Eco-59)</t>
@@ -326,16 +326,16 @@
     <t>1151 PATRIKA (DCU)</t>
   </si>
   <si>
-    <t>1152 PATRIKA</t>
-  </si>
-  <si>
-    <t>1153 PATRIKA</t>
-  </si>
-  <si>
-    <t>1154 PATRIKA</t>
-  </si>
-  <si>
-    <t>1155 PATRIKA</t>
+    <t>1152 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>1153 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>1154 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>1155 PATRIKA (DCU)</t>
   </si>
   <si>
     <t>1156 PATRIKA-YELLOW</t>
@@ -1103,7 +1103,7 @@
     <t>5566 PATRIKA *-* (M)</t>
   </si>
   <si>
-    <t>5567 PATRIKA (MONDAY)</t>
+    <t>5567 PATRIKA</t>
   </si>
   <si>
     <t>5568 PATRIKA *-* (M)</t>
@@ -1352,7 +1352,7 @@
     <t>6625 PATRIKA *-* (M)</t>
   </si>
   <si>
-    <t>6626 PATRIKA *-* (M) 1600 (MONDAY)</t>
+    <t>6626 PATRIKA *-* (M)</t>
   </si>
   <si>
     <t>6627 PATRIKA *-* (M)</t>
@@ -2016,6 +2016,9 @@
   </si>
   <si>
     <t>9390 CARDS (DCU)</t>
+  </si>
+  <si>
+    <t>9391 CARDS</t>
   </si>
   <si>
     <t>9*4 ENVELOPE (SBC)</t>
@@ -2602,7 +2605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E681"/>
+  <dimension ref="A1:E682"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2747,16 +2750,16 @@
         <v>15</v>
       </c>
       <c r="B12" s="24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12" s="25">
-        <v>51.5</v>
+        <v>50.5</v>
       </c>
       <c r="D12" s="26">
         <v>1.95</v>
       </c>
       <c r="E12" s="27">
-        <v>100.43</v>
+        <v>98.48</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -3121,16 +3124,16 @@
         <v>37</v>
       </c>
       <c r="B34" s="24">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C34" s="25">
-        <v>144.5</v>
+        <v>142.5</v>
       </c>
       <c r="D34" s="26">
         <v>2.2999999999999998</v>
       </c>
       <c r="E34" s="27">
-        <v>332.35</v>
+        <v>327.75</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -3317,16 +3320,16 @@
         <v>49</v>
       </c>
       <c r="B46" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C46" s="25">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D46" s="26">
         <v>1.25</v>
       </c>
       <c r="E46" s="27">
-        <v>143.75</v>
+        <v>131.25</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -3337,13 +3340,13 @@
         <v>3</v>
       </c>
       <c r="C47" s="25">
-        <v>119.5</v>
+        <v>110.5</v>
       </c>
       <c r="D47" s="26">
         <v>1.26</v>
       </c>
       <c r="E47" s="27">
-        <v>150.6</v>
+        <v>139.26</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -3402,16 +3405,16 @@
         <v>54</v>
       </c>
       <c r="B51" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C51" s="25">
-        <v>161.5</v>
+        <v>155.5</v>
       </c>
       <c r="D51" s="26">
         <v>2.5</v>
       </c>
       <c r="E51" s="27">
-        <v>403.75</v>
+        <v>388.75</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -3453,16 +3456,16 @@
         <v>57</v>
       </c>
       <c r="B54" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C54" s="25">
-        <v>53.75</v>
+        <v>47.75</v>
       </c>
       <c r="D54" s="26">
         <v>2.75</v>
       </c>
       <c r="E54" s="27">
-        <v>147.81</v>
+        <v>131.31</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -3487,16 +3490,16 @@
         <v>59</v>
       </c>
       <c r="B56" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C56" s="25">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D56" s="26">
         <v>1.9</v>
       </c>
       <c r="E56" s="27">
-        <v>146.30000000000001</v>
+        <v>127.3</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -3587,16 +3590,16 @@
         <v>65</v>
       </c>
       <c r="B62" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C62" s="25">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D62" s="26">
         <v>1.65</v>
       </c>
       <c r="E62" s="27">
-        <v>77.55</v>
+        <v>67.650000000000006</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -3619,16 +3622,16 @@
         <v>67</v>
       </c>
       <c r="B64" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C64" s="25">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D64" s="26">
         <v>1.65</v>
       </c>
       <c r="E64" s="27">
-        <v>49.5</v>
+        <v>39.6</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -3636,16 +3639,16 @@
         <v>68</v>
       </c>
       <c r="B65" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C65" s="25">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D65" s="26">
         <v>1.65</v>
       </c>
       <c r="E65" s="27">
-        <v>49.5</v>
+        <v>39.6</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -3653,16 +3656,16 @@
         <v>69</v>
       </c>
       <c r="B66" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C66" s="25">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D66" s="26">
         <v>1.65</v>
       </c>
       <c r="E66" s="27">
-        <v>51.15</v>
+        <v>41.25</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -3685,16 +3688,16 @@
         <v>71</v>
       </c>
       <c r="B68" s="24">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C68" s="25">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="D68" s="26">
         <v>1.4</v>
       </c>
       <c r="E68" s="27">
-        <v>81.2</v>
+        <v>53.2</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -3702,16 +3705,16 @@
         <v>72</v>
       </c>
       <c r="B69" s="24">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C69" s="25">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="D69" s="26">
         <v>1.4</v>
       </c>
       <c r="E69" s="27">
-        <v>117.6</v>
+        <v>89.6</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -3719,16 +3722,16 @@
         <v>73</v>
       </c>
       <c r="B70" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C70" s="25">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D70" s="26">
         <v>1.4</v>
       </c>
       <c r="E70" s="27">
-        <v>124.6</v>
+        <v>110.6</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -3736,16 +3739,16 @@
         <v>74</v>
       </c>
       <c r="B71" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C71" s="25">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D71" s="26">
         <v>1.4</v>
       </c>
       <c r="E71" s="27">
-        <v>123.2</v>
+        <v>109.2</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -3951,9 +3954,11 @@
       <c r="A85" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="B85" s="24"/>
+      <c r="B85" s="24">
+        <v>1</v>
+      </c>
       <c r="C85" s="25">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D85" s="29"/>
       <c r="E85" s="28"/>
@@ -3974,10 +3979,10 @@
         <v>90</v>
       </c>
       <c r="B87" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C87" s="25">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D87" s="29"/>
       <c r="E87" s="28"/>
@@ -3987,10 +3992,10 @@
         <v>91</v>
       </c>
       <c r="B88" s="24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C88" s="25">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="D88" s="29"/>
       <c r="E88" s="28"/>
@@ -4013,10 +4018,10 @@
         <v>93</v>
       </c>
       <c r="B90" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C90" s="25">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D90" s="29"/>
       <c r="E90" s="28"/>
@@ -4026,16 +4031,16 @@
         <v>94</v>
       </c>
       <c r="B91" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C91" s="25">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D91" s="26">
         <v>3.2</v>
       </c>
       <c r="E91" s="27">
-        <v>217.6</v>
+        <v>185.6</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -4154,76 +4159,84 @@
         <v>104</v>
       </c>
       <c r="B101" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C101" s="25">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D101" s="26">
         <v>2.5</v>
       </c>
       <c r="E101" s="27">
-        <v>72.5</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="B102" s="24"/>
+      <c r="B102" s="24">
+        <v>1</v>
+      </c>
       <c r="C102" s="25">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D102" s="26">
         <v>2.5</v>
       </c>
       <c r="E102" s="27">
-        <v>107.5</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="B103" s="24"/>
+      <c r="B103" s="24">
+        <v>1</v>
+      </c>
       <c r="C103" s="25">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D103" s="26">
         <v>2.5</v>
       </c>
       <c r="E103" s="27">
-        <v>107.5</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="B104" s="24"/>
+      <c r="B104" s="24">
+        <v>1</v>
+      </c>
       <c r="C104" s="25">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D104" s="26">
         <v>2.5</v>
       </c>
       <c r="E104" s="27">
-        <v>107.5</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="B105" s="24"/>
+      <c r="B105" s="24">
+        <v>1</v>
+      </c>
       <c r="C105" s="25">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D105" s="26">
         <v>2.5</v>
       </c>
       <c r="E105" s="27">
-        <v>107.5</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -4231,10 +4244,10 @@
         <v>109</v>
       </c>
       <c r="B106" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C106" s="25">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D106" s="29"/>
       <c r="E106" s="28"/>
@@ -4244,10 +4257,10 @@
         <v>110</v>
       </c>
       <c r="B107" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C107" s="25">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D107" s="29"/>
       <c r="E107" s="28"/>
@@ -4305,10 +4318,10 @@
         <v>115</v>
       </c>
       <c r="B112" s="24">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C112" s="25">
-        <v>-0.96</v>
+        <v>-0.99</v>
       </c>
       <c r="D112" s="29"/>
       <c r="E112" s="28"/>
@@ -4318,10 +4331,10 @@
         <v>116</v>
       </c>
       <c r="B113" s="24">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C113" s="25">
-        <v>-0.98</v>
+        <v>-1.02</v>
       </c>
       <c r="D113" s="29"/>
       <c r="E113" s="28"/>
@@ -4416,13 +4429,13 @@
         <v>19</v>
       </c>
       <c r="C120" s="25">
-        <v>19.5</v>
+        <v>21.5</v>
       </c>
       <c r="D120" s="26">
         <v>12.5</v>
       </c>
       <c r="E120" s="27">
-        <v>243.75</v>
+        <v>268.75</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -4532,16 +4545,16 @@
         <v>130</v>
       </c>
       <c r="B127" s="24">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C127" s="25">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="D127" s="26">
         <v>12.5</v>
       </c>
       <c r="E127" s="27">
-        <v>87.5</v>
+        <v>106.25</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -4598,16 +4611,16 @@
         <v>134</v>
       </c>
       <c r="B131" s="24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C131" s="25">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="D131" s="26">
         <v>18.5</v>
       </c>
       <c r="E131" s="27">
-        <v>74</v>
+        <v>46.25</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -4652,13 +4665,13 @@
         <v>14</v>
       </c>
       <c r="C134" s="25">
-        <v>31.5</v>
+        <v>11.5</v>
       </c>
       <c r="D134" s="26">
         <v>18.5</v>
       </c>
       <c r="E134" s="27">
-        <v>582.75</v>
+        <v>212.75</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -4680,13 +4693,13 @@
         <v>5</v>
       </c>
       <c r="C136" s="25">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D136" s="26">
         <v>18.5</v>
       </c>
       <c r="E136" s="27">
-        <v>481</v>
+        <v>351.5</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -4714,13 +4727,13 @@
         <v>7</v>
       </c>
       <c r="C138" s="25">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D138" s="26">
         <v>18.5</v>
       </c>
       <c r="E138" s="27">
-        <v>592</v>
+        <v>314.5</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -4731,13 +4744,13 @@
         <v>18</v>
       </c>
       <c r="C139" s="25">
-        <v>41.5</v>
+        <v>26.5</v>
       </c>
       <c r="D139" s="26">
         <v>18.5</v>
       </c>
       <c r="E139" s="27">
-        <v>767.75</v>
+        <v>490.25</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -4745,16 +4758,16 @@
         <v>143</v>
       </c>
       <c r="B140" s="24">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C140" s="25">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="D140" s="26">
         <v>18.5</v>
       </c>
       <c r="E140" s="27">
-        <v>305.25</v>
+        <v>259</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -4901,13 +4914,13 @@
         <v>5</v>
       </c>
       <c r="C149" s="25">
-        <v>47.5</v>
+        <v>29.5</v>
       </c>
       <c r="D149" s="26">
         <v>11.5</v>
       </c>
       <c r="E149" s="27">
-        <v>546.25</v>
+        <v>339.25</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -4952,13 +4965,13 @@
         <v>17</v>
       </c>
       <c r="C152" s="25">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D152" s="26">
         <v>11.5</v>
       </c>
       <c r="E152" s="27">
-        <v>575</v>
+        <v>402.5</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -5011,16 +5024,16 @@
         <v>159</v>
       </c>
       <c r="B156" s="24">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C156" s="25">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="D156" s="26">
         <v>1</v>
       </c>
       <c r="E156" s="27">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -5039,16 +5052,16 @@
         <v>161</v>
       </c>
       <c r="B158" s="24">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C158" s="25">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D158" s="26">
         <v>1.1499999999999999</v>
       </c>
       <c r="E158" s="27">
-        <v>60.95</v>
+        <v>43.7</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -5116,16 +5129,16 @@
         <v>166</v>
       </c>
       <c r="B163" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C163" s="25">
-        <v>90.5</v>
+        <v>89.5</v>
       </c>
       <c r="D163" s="26">
         <v>2.7</v>
       </c>
       <c r="E163" s="27">
-        <v>244.35</v>
+        <v>241.65</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -5247,15 +5260,17 @@
       <c r="A171" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="B171" s="24"/>
+      <c r="B171" s="24">
+        <v>1</v>
+      </c>
       <c r="C171" s="25">
-        <v>16.5</v>
+        <v>10.5</v>
       </c>
       <c r="D171" s="26">
         <v>4.25</v>
       </c>
       <c r="E171" s="27">
-        <v>70.13</v>
+        <v>44.63</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -5315,13 +5330,13 @@
         <v>4</v>
       </c>
       <c r="C175" s="25">
-        <v>28.5</v>
+        <v>30.5</v>
       </c>
       <c r="D175" s="26">
         <v>2.76</v>
       </c>
       <c r="E175" s="27">
-        <v>78.72</v>
+        <v>84.24</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -5346,16 +5361,16 @@
         <v>180</v>
       </c>
       <c r="B177" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C177" s="25">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D177" s="26">
         <v>3.45</v>
       </c>
       <c r="E177" s="27">
-        <v>117.3</v>
+        <v>96.6</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -5480,16 +5495,16 @@
         <v>188</v>
       </c>
       <c r="B185" s="24">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C185" s="25">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D185" s="26">
         <v>4.5</v>
       </c>
       <c r="E185" s="27">
-        <v>229.5</v>
+        <v>225</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
@@ -5599,16 +5614,16 @@
         <v>195</v>
       </c>
       <c r="B192" s="24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C192" s="25">
-        <v>52</v>
+        <v>51.5</v>
       </c>
       <c r="D192" s="26">
         <v>2.6</v>
       </c>
       <c r="E192" s="27">
-        <v>135.19999999999999</v>
+        <v>133.9</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
@@ -5710,16 +5725,16 @@
         <v>202</v>
       </c>
       <c r="B199" s="24">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C199" s="25">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D199" s="26">
         <v>2.7</v>
       </c>
       <c r="E199" s="27">
-        <v>299.7</v>
+        <v>291.60000000000002</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
@@ -5999,16 +6014,16 @@
         <v>219</v>
       </c>
       <c r="B216" s="24">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C216" s="25">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D216" s="26">
         <v>3.5</v>
       </c>
       <c r="E216" s="27">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -6144,16 +6159,16 @@
         <v>228</v>
       </c>
       <c r="B225" s="24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C225" s="25">
-        <v>23.5</v>
+        <v>21.5</v>
       </c>
       <c r="D225" s="26">
         <v>5.75</v>
       </c>
       <c r="E225" s="27">
-        <v>135.13</v>
+        <v>123.63</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
@@ -6178,16 +6193,16 @@
         <v>230</v>
       </c>
       <c r="B227" s="24">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C227" s="25">
-        <v>58.5</v>
+        <v>58</v>
       </c>
       <c r="D227" s="26">
         <v>6.3</v>
       </c>
       <c r="E227" s="27">
-        <v>368.55</v>
+        <v>365.4</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
@@ -6327,16 +6342,16 @@
         <v>239</v>
       </c>
       <c r="B236" s="24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C236" s="25">
-        <v>21.5</v>
+        <v>20.5</v>
       </c>
       <c r="D236" s="26">
         <v>3.5</v>
       </c>
       <c r="E236" s="27">
-        <v>75.25</v>
+        <v>71.75</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
@@ -6481,16 +6496,16 @@
         <v>249</v>
       </c>
       <c r="B246" s="24">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C246" s="25">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D246" s="26">
         <v>4.28</v>
       </c>
       <c r="E246" s="27">
-        <v>316.72000000000003</v>
+        <v>308.16000000000003</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
@@ -6515,16 +6530,16 @@
         <v>251</v>
       </c>
       <c r="B248" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C248" s="25">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D248" s="26">
         <v>4.5</v>
       </c>
       <c r="E248" s="27">
-        <v>157.5</v>
+        <v>112.5</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
@@ -6681,16 +6696,16 @@
         <v>261</v>
       </c>
       <c r="B258" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C258" s="25">
-        <v>16.5</v>
+        <v>10.5</v>
       </c>
       <c r="D258" s="26">
         <v>4.28</v>
       </c>
       <c r="E258" s="27">
-        <v>70.62</v>
+        <v>44.94</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
@@ -6698,17 +6713,11 @@
         <v>262</v>
       </c>
       <c r="B259" s="24">
-        <v>3</v>
-      </c>
-      <c r="C259" s="25">
-        <v>2.5</v>
-      </c>
-      <c r="D259" s="26">
-        <v>6.25</v>
-      </c>
-      <c r="E259" s="27">
-        <v>15.63</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C259" s="28"/>
+      <c r="D259" s="29"/>
+      <c r="E259" s="28"/>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="23" t="s">
@@ -6755,10 +6764,10 @@
         <v>58</v>
       </c>
       <c r="D262" s="26">
-        <v>4.79</v>
+        <v>4.82</v>
       </c>
       <c r="E262" s="27">
-        <v>277.97000000000003</v>
+        <v>279.45999999999998</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
@@ -6766,16 +6775,16 @@
         <v>266</v>
       </c>
       <c r="B263" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C263" s="25">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D263" s="26">
         <v>4.0999999999999996</v>
       </c>
       <c r="E263" s="27">
-        <v>82</v>
+        <v>41</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
@@ -6934,16 +6943,16 @@
         <v>276</v>
       </c>
       <c r="B273" s="24">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C273" s="25">
-        <v>48</v>
+        <v>47.5</v>
       </c>
       <c r="D273" s="26">
         <v>4.5</v>
       </c>
       <c r="E273" s="27">
-        <v>216</v>
+        <v>213.75</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
@@ -6951,16 +6960,16 @@
         <v>277</v>
       </c>
       <c r="B274" s="24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C274" s="25">
-        <v>35.5</v>
+        <v>32.5</v>
       </c>
       <c r="D274" s="26">
         <v>3.8</v>
       </c>
       <c r="E274" s="27">
-        <v>134.9</v>
+        <v>123.5</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
@@ -6968,16 +6977,16 @@
         <v>278</v>
       </c>
       <c r="B275" s="24">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C275" s="25">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D275" s="26">
         <v>4.9000000000000004</v>
       </c>
       <c r="E275" s="27">
-        <v>181.38</v>
+        <v>176.48</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
@@ -7026,7 +7035,7 @@
         <v>5.97</v>
       </c>
       <c r="E278" s="27">
-        <v>196.98</v>
+        <v>197.17</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
@@ -7068,16 +7077,16 @@
         <v>284</v>
       </c>
       <c r="B281" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C281" s="25">
-        <v>26.5</v>
+        <v>16.5</v>
       </c>
       <c r="D281" s="26">
         <v>5.7</v>
       </c>
       <c r="E281" s="27">
-        <v>151.05000000000001</v>
+        <v>94.05</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
@@ -7117,16 +7126,16 @@
         <v>287</v>
       </c>
       <c r="B284" s="24">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C284" s="25">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D284" s="26">
         <v>4.29</v>
       </c>
       <c r="E284" s="27">
-        <v>535.66</v>
+        <v>522.79999999999995</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
@@ -7229,13 +7238,13 @@
         <v>4</v>
       </c>
       <c r="C291" s="25">
-        <v>23.5</v>
+        <v>18.5</v>
       </c>
       <c r="D291" s="26">
         <v>11.5</v>
       </c>
       <c r="E291" s="27">
-        <v>270.25</v>
+        <v>212.75</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
@@ -7370,15 +7379,17 @@
       <c r="A300" s="23" t="s">
         <v>303</v>
       </c>
-      <c r="B300" s="24"/>
+      <c r="B300" s="24">
+        <v>1</v>
+      </c>
       <c r="C300" s="25">
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
       <c r="D300" s="26">
         <v>6.5</v>
       </c>
       <c r="E300" s="27">
-        <v>81.25</v>
+        <v>48.75</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
@@ -7469,16 +7480,16 @@
         <v>309</v>
       </c>
       <c r="B306" s="24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C306" s="25">
-        <v>47.5</v>
+        <v>46.5</v>
       </c>
       <c r="D306" s="26">
         <v>6.75</v>
       </c>
       <c r="E306" s="27">
-        <v>320.63</v>
+        <v>313.88</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
@@ -7653,13 +7664,13 @@
         <v>27</v>
       </c>
       <c r="C317" s="25">
-        <v>79</v>
+        <v>41.5</v>
       </c>
       <c r="D317" s="26">
         <v>9</v>
       </c>
       <c r="E317" s="27">
-        <v>711</v>
+        <v>373.5</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
@@ -7687,13 +7698,13 @@
         <v>16</v>
       </c>
       <c r="C319" s="25">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="D319" s="26">
         <v>9</v>
       </c>
       <c r="E319" s="27">
-        <v>873</v>
+        <v>603</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
@@ -7721,13 +7732,13 @@
         <v>18</v>
       </c>
       <c r="C321" s="25">
-        <v>64.5</v>
+        <v>34.5</v>
       </c>
       <c r="D321" s="26">
         <v>9</v>
       </c>
       <c r="E321" s="27">
-        <v>580.5</v>
+        <v>310.5</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
@@ -7768,15 +7779,17 @@
       <c r="A324" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="B324" s="24"/>
+      <c r="B324" s="24">
+        <v>1</v>
+      </c>
       <c r="C324" s="25">
-        <v>10.5</v>
+        <v>5.5</v>
       </c>
       <c r="D324" s="26">
         <v>7</v>
       </c>
       <c r="E324" s="27">
-        <v>73.5</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
@@ -7784,16 +7797,16 @@
         <v>328</v>
       </c>
       <c r="B325" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C325" s="25">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D325" s="26">
         <v>3.4</v>
       </c>
       <c r="E325" s="27">
-        <v>200.6</v>
+        <v>166.6</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
@@ -8108,16 +8121,16 @@
         <v>348</v>
       </c>
       <c r="B345" s="24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C345" s="25">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="D345" s="26">
         <v>6.65</v>
       </c>
       <c r="E345" s="27">
-        <v>69.83</v>
+        <v>59.85</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
@@ -8567,16 +8580,16 @@
         <v>375</v>
       </c>
       <c r="B372" s="24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C372" s="25">
-        <v>23.5</v>
+        <v>23</v>
       </c>
       <c r="D372" s="26">
         <v>5.7</v>
       </c>
       <c r="E372" s="27">
-        <v>133.94999999999999</v>
+        <v>131.1</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
@@ -8786,16 +8799,16 @@
         <v>388</v>
       </c>
       <c r="B385" s="24">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C385" s="25">
-        <v>32.5</v>
+        <v>34</v>
       </c>
       <c r="D385" s="26">
         <v>7</v>
       </c>
       <c r="E385" s="27">
-        <v>227.5</v>
+        <v>238</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
@@ -9131,15 +9144,17 @@
       <c r="A407" s="23" t="s">
         <v>410</v>
       </c>
-      <c r="B407" s="24"/>
+      <c r="B407" s="24">
+        <v>1</v>
+      </c>
       <c r="C407" s="25">
-        <v>13.5</v>
+        <v>7.5</v>
       </c>
       <c r="D407" s="26">
         <v>5.23</v>
       </c>
       <c r="E407" s="27">
-        <v>70.61</v>
+        <v>39.229999999999997</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
@@ -9326,16 +9341,16 @@
         <v>422</v>
       </c>
       <c r="B419" s="24">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C419" s="25">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="D419" s="26">
         <v>9.75</v>
       </c>
       <c r="E419" s="27">
-        <v>43.88</v>
+        <v>68.25</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
@@ -9654,16 +9669,16 @@
         <v>442</v>
       </c>
       <c r="B439" s="24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C439" s="25">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="D439" s="26">
         <v>10</v>
       </c>
       <c r="E439" s="27">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.25">
@@ -9686,16 +9701,16 @@
         <v>444</v>
       </c>
       <c r="B441" s="24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C441" s="25">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="D441" s="26">
         <v>8.5500000000000007</v>
       </c>
       <c r="E441" s="27">
-        <v>141.08000000000001</v>
+        <v>115.43</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.25">
@@ -9923,16 +9938,16 @@
         <v>459</v>
       </c>
       <c r="B456" s="24">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C456" s="25">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="D456" s="26">
         <v>10.17</v>
       </c>
       <c r="E456" s="27">
-        <v>81.38</v>
+        <v>66.12</v>
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.25">
@@ -9972,16 +9987,16 @@
         <v>462</v>
       </c>
       <c r="B459" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C459" s="25">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="D459" s="26">
         <v>11.4</v>
       </c>
       <c r="E459" s="27">
-        <v>108.3</v>
+        <v>96.9</v>
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.25">
@@ -10106,16 +10121,16 @@
         <v>470</v>
       </c>
       <c r="B467" s="24">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C467" s="25">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="D467" s="26">
-        <v>10.46</v>
+        <v>10.45</v>
       </c>
       <c r="E467" s="27">
-        <v>5.23</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.25">
@@ -10319,16 +10334,16 @@
         <v>483</v>
       </c>
       <c r="B480" s="24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C480" s="25">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D480" s="26">
         <v>13.8</v>
       </c>
       <c r="E480" s="27">
-        <v>55.2</v>
+        <v>82.8</v>
       </c>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.25">
@@ -10764,16 +10779,16 @@
         <v>510</v>
       </c>
       <c r="B507" s="24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C507" s="25">
-        <v>83</v>
+        <v>80.5</v>
       </c>
       <c r="D507" s="26">
         <v>2.1</v>
       </c>
       <c r="E507" s="27">
-        <v>174.3</v>
+        <v>169.05</v>
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.25">
@@ -10845,16 +10860,16 @@
         <v>515</v>
       </c>
       <c r="B512" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C512" s="25">
-        <v>22.5</v>
+        <v>20.5</v>
       </c>
       <c r="D512" s="26">
         <v>3.5</v>
       </c>
       <c r="E512" s="27">
-        <v>78.75</v>
+        <v>71.75</v>
       </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.25">
@@ -11024,16 +11039,16 @@
         <v>526</v>
       </c>
       <c r="B523" s="24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C523" s="25">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D523" s="26">
         <v>4.75</v>
       </c>
       <c r="E523" s="27">
-        <v>52.25</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.25">
@@ -11109,16 +11124,16 @@
         <v>531</v>
       </c>
       <c r="B528" s="24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C528" s="25">
-        <v>19.5</v>
+        <v>15.5</v>
       </c>
       <c r="D528" s="26">
         <v>3.1</v>
       </c>
       <c r="E528" s="27">
-        <v>60.45</v>
+        <v>48.05</v>
       </c>
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.25">
@@ -11129,13 +11144,13 @@
         <v>21</v>
       </c>
       <c r="C529" s="25">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D529" s="26">
         <v>9.5</v>
       </c>
       <c r="E529" s="27">
-        <v>370.5</v>
+        <v>446.5</v>
       </c>
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.25">
@@ -11143,16 +11158,16 @@
         <v>533</v>
       </c>
       <c r="B530" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C530" s="25">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D530" s="26">
         <v>2.8</v>
       </c>
       <c r="E530" s="27">
-        <v>42</v>
+        <v>39.200000000000003</v>
       </c>
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.25">
@@ -11177,16 +11192,16 @@
         <v>535</v>
       </c>
       <c r="B532" s="24">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C532" s="25">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="D532" s="26">
         <v>3.9</v>
       </c>
       <c r="E532" s="27">
-        <v>68.25</v>
+        <v>66.3</v>
       </c>
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.25">
@@ -11364,16 +11379,16 @@
         <v>546</v>
       </c>
       <c r="B543" s="24">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C543" s="25">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D543" s="26">
         <v>3.5</v>
       </c>
       <c r="E543" s="27">
-        <v>143.5</v>
+        <v>150.5</v>
       </c>
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.25">
@@ -11547,16 +11562,16 @@
         <v>557</v>
       </c>
       <c r="B554" s="24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C554" s="25">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D554" s="26">
         <v>1.4</v>
       </c>
       <c r="E554" s="27">
-        <v>331.8</v>
+        <v>330.4</v>
       </c>
     </row>
     <row r="555" spans="1:5" x14ac:dyDescent="0.25">
@@ -11613,16 +11628,16 @@
         <v>561</v>
       </c>
       <c r="B558" s="24">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C558" s="25">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D558" s="26">
         <v>1.5</v>
       </c>
       <c r="E558" s="27">
-        <v>583.5</v>
+        <v>582</v>
       </c>
     </row>
     <row r="559" spans="1:5" x14ac:dyDescent="0.25">
@@ -11656,10 +11671,10 @@
         <v>564</v>
       </c>
       <c r="B561" s="24">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C561" s="25">
-        <v>-164.5</v>
+        <v>-276.5</v>
       </c>
       <c r="D561" s="29"/>
       <c r="E561" s="28"/>
@@ -11685,7 +11700,7 @@
         <v>18</v>
       </c>
       <c r="C563" s="25">
-        <v>16</v>
+        <v>-4</v>
       </c>
       <c r="D563" s="29"/>
       <c r="E563" s="28"/>
@@ -11695,16 +11710,16 @@
         <v>567</v>
       </c>
       <c r="B564" s="24">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C564" s="25">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D564" s="26">
         <v>0.87</v>
       </c>
       <c r="E564" s="27">
-        <v>353.22</v>
+        <v>351.48</v>
       </c>
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.25">
@@ -11808,16 +11823,16 @@
         <v>574</v>
       </c>
       <c r="B571" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C571" s="25">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="D571" s="26">
         <v>5.5</v>
       </c>
       <c r="E571" s="27">
-        <v>68.75</v>
+        <v>57.75</v>
       </c>
     </row>
     <row r="572" spans="1:5" x14ac:dyDescent="0.25">
@@ -11859,16 +11874,16 @@
         <v>577</v>
       </c>
       <c r="B574" s="24">
+        <v>9</v>
+      </c>
+      <c r="C574" s="25">
         <v>8</v>
-      </c>
-      <c r="C574" s="25">
-        <v>11</v>
       </c>
       <c r="D574" s="26">
         <v>10</v>
       </c>
       <c r="E574" s="27">
-        <v>110</v>
+        <v>80</v>
       </c>
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.25">
@@ -12012,16 +12027,16 @@
         <v>586</v>
       </c>
       <c r="B583" s="24">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C583" s="25">
-        <v>34.5</v>
+        <v>30.5</v>
       </c>
       <c r="D583" s="26">
         <v>2.79</v>
       </c>
       <c r="E583" s="27">
-        <v>96.42</v>
+        <v>85.24</v>
       </c>
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.25">
@@ -12144,16 +12159,16 @@
         <v>594</v>
       </c>
       <c r="B591" s="24">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C591" s="25">
-        <v>12.75</v>
+        <v>11.75</v>
       </c>
       <c r="D591" s="26">
         <v>1.5</v>
       </c>
       <c r="E591" s="27">
-        <v>19.13</v>
+        <v>17.63</v>
       </c>
     </row>
     <row r="592" spans="1:5" x14ac:dyDescent="0.25">
@@ -12240,16 +12255,16 @@
         <v>600</v>
       </c>
       <c r="B597" s="24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C597" s="25">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D597" s="26">
         <v>4.6500000000000004</v>
       </c>
       <c r="E597" s="27">
-        <v>120.9</v>
+        <v>116.25</v>
       </c>
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.25">
@@ -12393,16 +12408,16 @@
         <v>609</v>
       </c>
       <c r="B606" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C606" s="25">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="D606" s="26">
         <v>3.5</v>
       </c>
       <c r="E606" s="27">
-        <v>54.25</v>
+        <v>47.25</v>
       </c>
     </row>
     <row r="607" spans="1:5" x14ac:dyDescent="0.25">
@@ -12478,16 +12493,16 @@
         <v>614</v>
       </c>
       <c r="B611" s="24">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C611" s="25">
-        <v>39.5</v>
+        <v>37.5</v>
       </c>
       <c r="D611" s="26">
         <v>2.85</v>
       </c>
       <c r="E611" s="27">
-        <v>112.58</v>
+        <v>106.88</v>
       </c>
     </row>
     <row r="612" spans="1:5" x14ac:dyDescent="0.25">
@@ -12729,16 +12744,16 @@
         <v>629</v>
       </c>
       <c r="B626" s="24">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C626" s="25">
-        <v>26.5</v>
+        <v>22</v>
       </c>
       <c r="D626" s="26">
         <v>3.1</v>
       </c>
       <c r="E626" s="27">
-        <v>82.15</v>
+        <v>68.2</v>
       </c>
     </row>
     <row r="627" spans="1:5" x14ac:dyDescent="0.25">
@@ -13142,10 +13157,10 @@
         <v>654</v>
       </c>
       <c r="B651" s="24">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C651" s="25">
-        <v>62.19</v>
+        <v>57.19</v>
       </c>
       <c r="D651" s="29"/>
       <c r="E651" s="28"/>
@@ -13171,7 +13186,7 @@
         <v>17</v>
       </c>
       <c r="C653" s="25">
-        <v>-33</v>
+        <v>-13</v>
       </c>
       <c r="D653" s="29"/>
       <c r="E653" s="28"/>
@@ -13197,7 +13212,7 @@
         <v>27</v>
       </c>
       <c r="C655" s="25">
-        <v>-50</v>
+        <v>-20</v>
       </c>
       <c r="D655" s="29"/>
       <c r="E655" s="28"/>
@@ -13207,10 +13222,10 @@
         <v>659</v>
       </c>
       <c r="B656" s="24">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C656" s="25">
-        <v>-47</v>
+        <v>-22</v>
       </c>
       <c r="D656" s="29"/>
       <c r="E656" s="28"/>
@@ -13223,7 +13238,7 @@
         <v>13</v>
       </c>
       <c r="C657" s="25">
-        <v>-18</v>
+        <v>2</v>
       </c>
       <c r="D657" s="29"/>
       <c r="E657" s="28"/>
@@ -13242,16 +13257,16 @@
         <v>662</v>
       </c>
       <c r="B659" s="24">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C659" s="25">
-        <v>141.5</v>
+        <v>139.5</v>
       </c>
       <c r="D659" s="26">
         <v>2.83</v>
       </c>
       <c r="E659" s="27">
-        <v>400.47</v>
+        <v>394.81</v>
       </c>
     </row>
     <row r="660" spans="1:5" x14ac:dyDescent="0.25">
@@ -13275,14 +13290,10 @@
       </c>
       <c r="B661" s="24"/>
       <c r="C661" s="25">
-        <v>502</v>
-      </c>
-      <c r="D661" s="26">
-        <v>0.82</v>
-      </c>
-      <c r="E661" s="27">
-        <v>411.64</v>
-      </c>
+        <v>9.5</v>
+      </c>
+      <c r="D661" s="29"/>
+      <c r="E661" s="28"/>
     </row>
     <row r="662" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A662" s="23" t="s">
@@ -13290,27 +13301,29 @@
       </c>
       <c r="B662" s="24"/>
       <c r="C662" s="25">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D662" s="26">
-        <v>1.1499999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="E662" s="27">
-        <v>575</v>
+        <v>411.64</v>
       </c>
     </row>
     <row r="663" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A663" s="23" t="s">
         <v>666</v>
       </c>
-      <c r="B663" s="24">
-        <v>1</v>
-      </c>
+      <c r="B663" s="24"/>
       <c r="C663" s="25">
-        <v>-0.5</v>
-      </c>
-      <c r="D663" s="29"/>
-      <c r="E663" s="28"/>
+        <v>500</v>
+      </c>
+      <c r="D663" s="26">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E663" s="27">
+        <v>575</v>
+      </c>
     </row>
     <row r="664" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A664" s="23" t="s">
@@ -13319,7 +13332,9 @@
       <c r="B664" s="24">
         <v>1</v>
       </c>
-      <c r="C664" s="28"/>
+      <c r="C664" s="25">
+        <v>-0.5</v>
+      </c>
       <c r="D664" s="29"/>
       <c r="E664" s="28"/>
     </row>
@@ -13328,11 +13343,9 @@
         <v>668</v>
       </c>
       <c r="B665" s="24">
-        <v>2</v>
-      </c>
-      <c r="C665" s="25">
-        <v>-0.02</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C665" s="28"/>
       <c r="D665" s="29"/>
       <c r="E665" s="28"/>
     </row>
@@ -13340,8 +13353,12 @@
       <c r="A666" s="23" t="s">
         <v>669</v>
       </c>
-      <c r="B666" s="24"/>
-      <c r="C666" s="28"/>
+      <c r="B666" s="24">
+        <v>2</v>
+      </c>
+      <c r="C666" s="25">
+        <v>-0.02</v>
+      </c>
       <c r="D666" s="29"/>
       <c r="E666" s="28"/>
     </row>
@@ -13349,12 +13366,8 @@
       <c r="A667" s="23" t="s">
         <v>670</v>
       </c>
-      <c r="B667" s="24">
-        <v>38</v>
-      </c>
-      <c r="C667" s="25">
-        <v>-0.38</v>
-      </c>
+      <c r="B667" s="24"/>
+      <c r="C667" s="28"/>
       <c r="D667" s="29"/>
       <c r="E667" s="28"/>
     </row>
@@ -13363,10 +13376,10 @@
         <v>671</v>
       </c>
       <c r="B668" s="24">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C668" s="25">
-        <v>-0.41</v>
+        <v>-0.38</v>
       </c>
       <c r="D668" s="29"/>
       <c r="E668" s="28"/>
@@ -13376,33 +13389,29 @@
         <v>672</v>
       </c>
       <c r="B669" s="24">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C669" s="25">
-        <v>-90</v>
-      </c>
-      <c r="D669" s="26">
-        <v>1</v>
-      </c>
-      <c r="E669" s="27">
-        <v>-90</v>
-      </c>
+        <v>-0.42</v>
+      </c>
+      <c r="D669" s="29"/>
+      <c r="E669" s="28"/>
     </row>
     <row r="670" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A670" s="23" t="s">
         <v>673</v>
       </c>
       <c r="B670" s="24">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C670" s="25">
-        <v>32.5</v>
+        <v>-90</v>
       </c>
       <c r="D670" s="26">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="E670" s="27">
-        <v>81.25</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="671" spans="1:5" x14ac:dyDescent="0.25">
@@ -13410,16 +13419,16 @@
         <v>674</v>
       </c>
       <c r="B671" s="24">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C671" s="25">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D671" s="26">
         <v>2.5</v>
       </c>
       <c r="E671" s="27">
-        <v>87.5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="672" spans="1:5" x14ac:dyDescent="0.25">
@@ -13427,16 +13436,16 @@
         <v>675</v>
       </c>
       <c r="B672" s="24">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C672" s="25">
-        <v>72.75</v>
+        <v>34.5</v>
       </c>
       <c r="D672" s="26">
         <v>2.5</v>
       </c>
       <c r="E672" s="27">
-        <v>181.88</v>
+        <v>86.25</v>
       </c>
     </row>
     <row r="673" spans="1:5" x14ac:dyDescent="0.25">
@@ -13444,16 +13453,16 @@
         <v>676</v>
       </c>
       <c r="B673" s="24">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C673" s="25">
-        <v>73.5</v>
+        <v>71.75</v>
       </c>
       <c r="D673" s="26">
         <v>2.5</v>
       </c>
       <c r="E673" s="27">
-        <v>183.75</v>
+        <v>179.38</v>
       </c>
     </row>
     <row r="674" spans="1:5" x14ac:dyDescent="0.25">
@@ -13461,16 +13470,16 @@
         <v>677</v>
       </c>
       <c r="B674" s="24">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C674" s="25">
-        <v>47</v>
+        <v>73.5</v>
       </c>
       <c r="D674" s="26">
         <v>2.5</v>
       </c>
       <c r="E674" s="27">
-        <v>117.5</v>
+        <v>183.75</v>
       </c>
     </row>
     <row r="675" spans="1:5" x14ac:dyDescent="0.25">
@@ -13478,16 +13487,16 @@
         <v>678</v>
       </c>
       <c r="B675" s="24">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C675" s="25">
-        <v>52.75</v>
+        <v>46.5</v>
       </c>
       <c r="D675" s="26">
         <v>2.5</v>
       </c>
       <c r="E675" s="27">
-        <v>131.88</v>
+        <v>116.25</v>
       </c>
     </row>
     <row r="676" spans="1:5" x14ac:dyDescent="0.25">
@@ -13495,16 +13504,16 @@
         <v>679</v>
       </c>
       <c r="B676" s="24">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C676" s="25">
-        <v>40</v>
+        <v>52.75</v>
       </c>
       <c r="D676" s="26">
         <v>2.5</v>
       </c>
       <c r="E676" s="27">
-        <v>100</v>
+        <v>131.88</v>
       </c>
     </row>
     <row r="677" spans="1:5" x14ac:dyDescent="0.25">
@@ -13512,16 +13521,16 @@
         <v>680</v>
       </c>
       <c r="B677" s="24">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C677" s="25">
-        <v>51.75</v>
+        <v>39.25</v>
       </c>
       <c r="D677" s="26">
         <v>2.5</v>
       </c>
       <c r="E677" s="27">
-        <v>129.38</v>
+        <v>98.13</v>
       </c>
     </row>
     <row r="678" spans="1:5" x14ac:dyDescent="0.25">
@@ -13529,16 +13538,16 @@
         <v>681</v>
       </c>
       <c r="B678" s="24">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C678" s="25">
-        <v>84.25</v>
+        <v>51.75</v>
       </c>
       <c r="D678" s="26">
         <v>2.5</v>
       </c>
       <c r="E678" s="27">
-        <v>210.63</v>
+        <v>129.38</v>
       </c>
     </row>
     <row r="679" spans="1:5" x14ac:dyDescent="0.25">
@@ -13546,38 +13555,55 @@
         <v>682</v>
       </c>
       <c r="B679" s="24">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C679" s="25">
-        <v>-26.5</v>
-      </c>
-      <c r="D679" s="29"/>
-      <c r="E679" s="28"/>
+        <v>83.5</v>
+      </c>
+      <c r="D679" s="26">
+        <v>2.5</v>
+      </c>
+      <c r="E679" s="27">
+        <v>208.75</v>
+      </c>
     </row>
     <row r="680" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A680" s="23" t="s">
         <v>683</v>
       </c>
       <c r="B680" s="24">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="C680" s="25">
-        <v>-167.5</v>
+        <v>-26.5</v>
       </c>
       <c r="D680" s="29"/>
       <c r="E680" s="28"/>
     </row>
     <row r="681" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A681" s="30" t="s">
+      <c r="A681" s="23" t="s">
         <v>684</v>
       </c>
-      <c r="B681" s="31"/>
-      <c r="C681" s="32">
-        <v>22707.18</v>
-      </c>
-      <c r="D681" s="33"/>
-      <c r="E681" s="34">
-        <v>88542.74</v>
+      <c r="B681" s="24">
+        <v>61</v>
+      </c>
+      <c r="C681" s="25">
+        <v>-168</v>
+      </c>
+      <c r="D681" s="29"/>
+      <c r="E681" s="28"/>
+    </row>
+    <row r="682" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A682" s="30" t="s">
+        <v>685</v>
+      </c>
+      <c r="B682" s="31"/>
+      <c r="C682" s="32">
+        <v>22091.1</v>
+      </c>
+      <c r="D682" s="33"/>
+      <c r="E682" s="34">
+        <v>85309.66</v>
       </c>
     </row>
   </sheetData>

--- a/data/website stock.xlsx
+++ b/data/website stock.xlsx
@@ -35,7 +35,7 @@
     <t>Stock Group Summary</t>
   </si>
   <si>
-    <t>1-Jul-25 to 14-Nov-25</t>
+    <t>1-Jul-25 to 18-Nov-25</t>
   </si>
   <si>
     <t/>
@@ -464,7 +464,7 @@
     <t>2124 PATRIKA *-* (M)</t>
   </si>
   <si>
-    <t>2125 PATRIKA *-* (M) 2500 MONDAY</t>
+    <t>2125 PATRIKA *-* (M)</t>
   </si>
   <si>
     <t>2126 PATRIKA *-* (M)</t>
@@ -2801,16 +2801,16 @@
         <v>18</v>
       </c>
       <c r="B15" s="24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15" s="25">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D15" s="26">
         <v>2</v>
       </c>
       <c r="E15" s="27">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -2818,16 +2818,16 @@
         <v>19</v>
       </c>
       <c r="B16" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" s="25">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D16" s="26">
         <v>2.1</v>
       </c>
       <c r="E16" s="27">
-        <v>201.6</v>
+        <v>191.1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -2869,16 +2869,16 @@
         <v>22</v>
       </c>
       <c r="B19" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" s="25">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D19" s="26">
         <v>1.8</v>
       </c>
       <c r="E19" s="27">
-        <v>70.2</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -2937,16 +2937,16 @@
         <v>26</v>
       </c>
       <c r="B23" s="24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C23" s="25">
-        <v>54.5</v>
+        <v>53.5</v>
       </c>
       <c r="D23" s="26">
         <v>1.8</v>
       </c>
       <c r="E23" s="27">
-        <v>98.1</v>
+        <v>96.3</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2954,16 +2954,16 @@
         <v>27</v>
       </c>
       <c r="B24" s="24">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C24" s="25">
-        <v>120.5</v>
+        <v>90.5</v>
       </c>
       <c r="D24" s="26">
         <v>1.65</v>
       </c>
       <c r="E24" s="27">
-        <v>198.83</v>
+        <v>149.33000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -3090,33 +3090,27 @@
         <v>35</v>
       </c>
       <c r="B32" s="24">
-        <v>1</v>
-      </c>
-      <c r="C32" s="25">
-        <v>29.5</v>
-      </c>
-      <c r="D32" s="26">
-        <v>2.5</v>
-      </c>
-      <c r="E32" s="27">
-        <v>73.75</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C32" s="28"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="28"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
         <v>36</v>
       </c>
       <c r="B33" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C33" s="25">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="D33" s="26">
         <v>2.5</v>
       </c>
       <c r="E33" s="27">
-        <v>45</v>
+        <v>41.25</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -3320,16 +3314,16 @@
         <v>49</v>
       </c>
       <c r="B46" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C46" s="25">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D46" s="26">
         <v>1.25</v>
       </c>
       <c r="E46" s="27">
-        <v>131.25</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -3337,16 +3331,16 @@
         <v>50</v>
       </c>
       <c r="B47" s="24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C47" s="25">
-        <v>110.5</v>
+        <v>99.5</v>
       </c>
       <c r="D47" s="26">
         <v>1.26</v>
       </c>
       <c r="E47" s="27">
-        <v>139.26</v>
+        <v>125.4</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -3354,16 +3348,16 @@
         <v>51</v>
       </c>
       <c r="B48" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C48" s="25">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D48" s="26">
         <v>1.4</v>
       </c>
       <c r="E48" s="27">
-        <v>142.80000000000001</v>
+        <v>134.4</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -3439,16 +3433,16 @@
         <v>56</v>
       </c>
       <c r="B53" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C53" s="25">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D53" s="26">
         <v>2.75</v>
       </c>
       <c r="E53" s="27">
-        <v>129.25</v>
+        <v>112.75</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -3473,16 +3467,16 @@
         <v>58</v>
       </c>
       <c r="B55" s="24">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C55" s="25">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D55" s="26">
         <v>1.8</v>
       </c>
       <c r="E55" s="27">
-        <v>50.4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -3541,16 +3535,16 @@
         <v>62</v>
       </c>
       <c r="B59" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C59" s="25">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D59" s="26">
         <v>1.05</v>
       </c>
       <c r="E59" s="27">
-        <v>139.65</v>
+        <v>133.35</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -3558,16 +3552,16 @@
         <v>63</v>
       </c>
       <c r="B60" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C60" s="25">
-        <v>120.5</v>
+        <v>114.5</v>
       </c>
       <c r="D60" s="26">
         <v>1.05</v>
       </c>
       <c r="E60" s="27">
-        <v>126.53</v>
+        <v>120.23</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -3590,16 +3584,16 @@
         <v>65</v>
       </c>
       <c r="B62" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C62" s="25">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D62" s="26">
         <v>1.65</v>
       </c>
       <c r="E62" s="27">
-        <v>67.650000000000006</v>
+        <v>51.15</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -3622,16 +3616,16 @@
         <v>67</v>
       </c>
       <c r="B64" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C64" s="25">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D64" s="26">
         <v>1.65</v>
       </c>
       <c r="E64" s="27">
-        <v>39.6</v>
+        <v>23.1</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -3656,16 +3650,16 @@
         <v>69</v>
       </c>
       <c r="B66" s="24">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C66" s="25">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D66" s="26">
         <v>1.65</v>
       </c>
       <c r="E66" s="27">
-        <v>41.25</v>
+        <v>14.85</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -3688,16 +3682,16 @@
         <v>71</v>
       </c>
       <c r="B68" s="24">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C68" s="25">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D68" s="26">
         <v>1.4</v>
       </c>
       <c r="E68" s="27">
-        <v>53.2</v>
+        <v>30.8</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -3705,16 +3699,16 @@
         <v>72</v>
       </c>
       <c r="B69" s="24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C69" s="25">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D69" s="26">
         <v>1.4</v>
       </c>
       <c r="E69" s="27">
-        <v>89.6</v>
+        <v>75.599999999999994</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -3722,16 +3716,16 @@
         <v>73</v>
       </c>
       <c r="B70" s="24">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C70" s="25">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="D70" s="26">
         <v>1.4</v>
       </c>
       <c r="E70" s="27">
-        <v>110.6</v>
+        <v>79.8</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -3739,16 +3733,16 @@
         <v>74</v>
       </c>
       <c r="B71" s="24">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C71" s="25">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D71" s="26">
         <v>1.4</v>
       </c>
       <c r="E71" s="27">
-        <v>109.2</v>
+        <v>86.8</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -3756,16 +3750,16 @@
         <v>75</v>
       </c>
       <c r="B72" s="24">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C72" s="25">
-        <v>24</v>
+        <v>14.5</v>
       </c>
       <c r="D72" s="26">
         <v>1.2</v>
       </c>
       <c r="E72" s="27">
-        <v>28.8</v>
+        <v>17.399999999999999</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -3773,16 +3767,16 @@
         <v>76</v>
       </c>
       <c r="B73" s="24">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C73" s="25">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D73" s="26">
         <v>1.2</v>
       </c>
       <c r="E73" s="27">
-        <v>60</v>
+        <v>38.4</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -3924,22 +3918,34 @@
         <v>85</v>
       </c>
       <c r="B82" s="24">
-        <v>1</v>
-      </c>
-      <c r="C82" s="28"/>
-      <c r="D82" s="29"/>
-      <c r="E82" s="28"/>
+        <v>3</v>
+      </c>
+      <c r="C82" s="25">
+        <v>356</v>
+      </c>
+      <c r="D82" s="26">
+        <v>1.3</v>
+      </c>
+      <c r="E82" s="27">
+        <v>462.8</v>
+      </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="23" t="s">
         <v>86</v>
       </c>
       <c r="B83" s="24">
-        <v>1</v>
-      </c>
-      <c r="C83" s="28"/>
-      <c r="D83" s="29"/>
-      <c r="E83" s="28"/>
+        <v>2</v>
+      </c>
+      <c r="C83" s="25">
+        <v>252</v>
+      </c>
+      <c r="D83" s="26">
+        <v>1.3</v>
+      </c>
+      <c r="E83" s="27">
+        <v>327.60000000000002</v>
+      </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="23" t="s">
@@ -3955,34 +3961,44 @@
         <v>88</v>
       </c>
       <c r="B85" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C85" s="25">
-        <v>83</v>
-      </c>
-      <c r="D85" s="29"/>
-      <c r="E85" s="28"/>
+        <v>78</v>
+      </c>
+      <c r="D85" s="26">
+        <v>1.7</v>
+      </c>
+      <c r="E85" s="27">
+        <v>132.6</v>
+      </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="B86" s="24"/>
+      <c r="B86" s="24">
+        <v>2</v>
+      </c>
       <c r="C86" s="25">
-        <v>40</v>
-      </c>
-      <c r="D86" s="29"/>
-      <c r="E86" s="28"/>
+        <v>29</v>
+      </c>
+      <c r="D86" s="26">
+        <v>1.7</v>
+      </c>
+      <c r="E86" s="27">
+        <v>49.3</v>
+      </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="23" t="s">
         <v>90</v>
       </c>
       <c r="B87" s="24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C87" s="25">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D87" s="29"/>
       <c r="E87" s="28"/>
@@ -4005,10 +4021,10 @@
         <v>92</v>
       </c>
       <c r="B89" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C89" s="25">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D89" s="29"/>
       <c r="E89" s="28"/>
@@ -4021,26 +4037,30 @@
         <v>3</v>
       </c>
       <c r="C90" s="25">
-        <v>58</v>
-      </c>
-      <c r="D90" s="29"/>
-      <c r="E90" s="28"/>
+        <v>157</v>
+      </c>
+      <c r="D90" s="26">
+        <v>0.99</v>
+      </c>
+      <c r="E90" s="27">
+        <v>156.21</v>
+      </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="23" t="s">
         <v>94</v>
       </c>
       <c r="B91" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C91" s="25">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="D91" s="26">
-        <v>3.2</v>
+        <v>2.76</v>
       </c>
       <c r="E91" s="27">
-        <v>185.6</v>
+        <v>303.54000000000002</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -4048,10 +4068,10 @@
         <v>95</v>
       </c>
       <c r="B92" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C92" s="25">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D92" s="29"/>
       <c r="E92" s="28"/>
@@ -4061,10 +4081,10 @@
         <v>96</v>
       </c>
       <c r="B93" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C93" s="25">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D93" s="29"/>
       <c r="E93" s="28"/>
@@ -4159,16 +4179,16 @@
         <v>104</v>
       </c>
       <c r="B101" s="24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C101" s="25">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D101" s="26">
         <v>2.5</v>
       </c>
       <c r="E101" s="27">
-        <v>57.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -4176,16 +4196,16 @@
         <v>105</v>
       </c>
       <c r="B102" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C102" s="25">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D102" s="26">
         <v>2.5</v>
       </c>
       <c r="E102" s="27">
-        <v>92.5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -4193,16 +4213,16 @@
         <v>106</v>
       </c>
       <c r="B103" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C103" s="25">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D103" s="26">
         <v>2.5</v>
       </c>
       <c r="E103" s="27">
-        <v>92.5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -4210,16 +4230,16 @@
         <v>107</v>
       </c>
       <c r="B104" s="24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C104" s="25">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D104" s="26">
         <v>2.5</v>
       </c>
       <c r="E104" s="27">
-        <v>92.5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -4227,16 +4247,16 @@
         <v>108</v>
       </c>
       <c r="B105" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C105" s="25">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D105" s="26">
         <v>2.5</v>
       </c>
       <c r="E105" s="27">
-        <v>92.5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -4244,10 +4264,10 @@
         <v>109</v>
       </c>
       <c r="B106" s="24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C106" s="25">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D106" s="29"/>
       <c r="E106" s="28"/>
@@ -4257,10 +4277,10 @@
         <v>110</v>
       </c>
       <c r="B107" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C107" s="25">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D107" s="29"/>
       <c r="E107" s="28"/>
@@ -4270,10 +4290,10 @@
         <v>111</v>
       </c>
       <c r="B108" s="24">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C108" s="25">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="D108" s="29"/>
       <c r="E108" s="28"/>
@@ -4283,10 +4303,10 @@
         <v>112</v>
       </c>
       <c r="B109" s="24">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C109" s="25">
-        <v>-0.09</v>
+        <v>-0.12</v>
       </c>
       <c r="D109" s="29"/>
       <c r="E109" s="28"/>
@@ -4296,10 +4316,10 @@
         <v>113</v>
       </c>
       <c r="B110" s="24">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C110" s="25">
-        <v>-0.21</v>
+        <v>-0.24</v>
       </c>
       <c r="D110" s="29"/>
       <c r="E110" s="28"/>
@@ -4318,10 +4338,10 @@
         <v>115</v>
       </c>
       <c r="B112" s="24">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C112" s="25">
-        <v>-0.99</v>
+        <v>-1.02</v>
       </c>
       <c r="D112" s="29"/>
       <c r="E112" s="28"/>
@@ -4331,10 +4351,10 @@
         <v>116</v>
       </c>
       <c r="B113" s="24">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="C113" s="25">
-        <v>-1.02</v>
+        <v>-1.1100000000000001</v>
       </c>
       <c r="D113" s="29"/>
       <c r="E113" s="28"/>
@@ -4383,10 +4403,10 @@
         <v>120</v>
       </c>
       <c r="B117" s="24">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C117" s="25">
-        <v>-0.6</v>
+        <v>-0.63</v>
       </c>
       <c r="D117" s="29"/>
       <c r="E117" s="28"/>
@@ -4409,16 +4429,16 @@
         <v>122</v>
       </c>
       <c r="B119" s="24">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C119" s="25">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="D119" s="26">
         <v>12.5</v>
       </c>
       <c r="E119" s="27">
-        <v>193.75</v>
+        <v>187.5</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -4426,16 +4446,16 @@
         <v>123</v>
       </c>
       <c r="B120" s="24">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C120" s="25">
-        <v>21.5</v>
+        <v>23.5</v>
       </c>
       <c r="D120" s="26">
         <v>12.5</v>
       </c>
       <c r="E120" s="27">
-        <v>268.75</v>
+        <v>293.75</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -4545,16 +4565,16 @@
         <v>130</v>
       </c>
       <c r="B127" s="24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C127" s="25">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="D127" s="26">
         <v>12.5</v>
       </c>
       <c r="E127" s="27">
-        <v>106.25</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -4594,16 +4614,16 @@
         <v>133</v>
       </c>
       <c r="B130" s="24">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C130" s="25">
-        <v>44</v>
+        <v>42.5</v>
       </c>
       <c r="D130" s="26">
         <v>18.5</v>
       </c>
       <c r="E130" s="27">
-        <v>814</v>
+        <v>786.25</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -4611,16 +4631,16 @@
         <v>134</v>
       </c>
       <c r="B131" s="24">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C131" s="25">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="D131" s="26">
         <v>18.5</v>
       </c>
       <c r="E131" s="27">
-        <v>46.25</v>
+        <v>27.75</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -4724,16 +4744,16 @@
         <v>141</v>
       </c>
       <c r="B138" s="24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" s="25">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="D138" s="26">
         <v>18.5</v>
       </c>
       <c r="E138" s="27">
-        <v>314.5</v>
+        <v>305.25</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -4758,16 +4778,16 @@
         <v>143</v>
       </c>
       <c r="B140" s="24">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C140" s="25">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D140" s="26">
         <v>18.5</v>
       </c>
       <c r="E140" s="27">
-        <v>259</v>
+        <v>240.5</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -5052,16 +5072,16 @@
         <v>161</v>
       </c>
       <c r="B158" s="24">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C158" s="25">
-        <v>38</v>
+        <v>-10</v>
       </c>
       <c r="D158" s="26">
         <v>1.1499999999999999</v>
       </c>
       <c r="E158" s="27">
-        <v>43.7</v>
+        <v>-11.5</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -5193,16 +5213,16 @@
         <v>170</v>
       </c>
       <c r="B167" s="24">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C167" s="25">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D167" s="26">
         <v>2.78</v>
       </c>
       <c r="E167" s="27">
-        <v>286.01</v>
+        <v>266.57</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -5244,16 +5264,16 @@
         <v>173</v>
       </c>
       <c r="B170" s="24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C170" s="25">
-        <v>54.5</v>
+        <v>52.5</v>
       </c>
       <c r="D170" s="26">
         <v>3.33</v>
       </c>
       <c r="E170" s="27">
-        <v>181.49</v>
+        <v>174.83</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -5295,17 +5315,11 @@
         <v>176</v>
       </c>
       <c r="B173" s="24">
-        <v>5</v>
-      </c>
-      <c r="C173" s="25">
-        <v>13.5</v>
-      </c>
-      <c r="D173" s="26">
-        <v>3</v>
-      </c>
-      <c r="E173" s="27">
-        <v>40.5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C173" s="28"/>
+      <c r="D173" s="29"/>
+      <c r="E173" s="28"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="23" t="s">
@@ -5393,16 +5407,16 @@
         <v>182</v>
       </c>
       <c r="B179" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C179" s="25">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D179" s="26">
         <v>3.56</v>
       </c>
       <c r="E179" s="27">
-        <v>153.08000000000001</v>
+        <v>149.52000000000001</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
@@ -5597,16 +5611,16 @@
         <v>194</v>
       </c>
       <c r="B191" s="24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C191" s="25">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D191" s="26">
         <v>2.7</v>
       </c>
       <c r="E191" s="27">
-        <v>237.6</v>
+        <v>232.2</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -5691,16 +5705,16 @@
         <v>200</v>
       </c>
       <c r="B197" s="24">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C197" s="25">
-        <v>43.5</v>
+        <v>40.5</v>
       </c>
       <c r="D197" s="26">
         <v>3.89</v>
       </c>
       <c r="E197" s="27">
-        <v>169.22</v>
+        <v>157.55000000000001</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
@@ -5708,16 +5722,16 @@
         <v>201</v>
       </c>
       <c r="B198" s="24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" s="25">
-        <v>26.5</v>
+        <v>25.5</v>
       </c>
       <c r="D198" s="26">
         <v>4.5</v>
       </c>
       <c r="E198" s="27">
-        <v>119.25</v>
+        <v>114.75</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -5725,16 +5739,16 @@
         <v>202</v>
       </c>
       <c r="B199" s="24">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C199" s="25">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D199" s="26">
         <v>2.7</v>
       </c>
       <c r="E199" s="27">
-        <v>291.60000000000002</v>
+        <v>278.10000000000002</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
@@ -5864,13 +5878,13 @@
         <v>21</v>
       </c>
       <c r="C207" s="25">
-        <v>22.5</v>
+        <v>72.5</v>
       </c>
       <c r="D207" s="26">
         <v>3.5</v>
       </c>
       <c r="E207" s="27">
-        <v>78.75</v>
+        <v>253.75</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
@@ -5878,16 +5892,16 @@
         <v>211</v>
       </c>
       <c r="B208" s="24">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C208" s="25">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D208" s="26">
         <v>2.7</v>
       </c>
       <c r="E208" s="27">
-        <v>170.1</v>
+        <v>164.7</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -5895,16 +5909,16 @@
         <v>212</v>
       </c>
       <c r="B209" s="24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C209" s="25">
-        <v>31.22</v>
+        <v>30.22</v>
       </c>
       <c r="D209" s="26">
         <v>3.16</v>
       </c>
       <c r="E209" s="27">
-        <v>98.66</v>
+        <v>95.5</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -5997,16 +6011,16 @@
         <v>218</v>
       </c>
       <c r="B215" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C215" s="25">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D215" s="26">
         <v>3.96</v>
       </c>
       <c r="E215" s="27">
-        <v>455.04</v>
+        <v>451.09</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
@@ -6014,16 +6028,16 @@
         <v>219</v>
       </c>
       <c r="B216" s="24">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C216" s="25">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D216" s="26">
         <v>3.5</v>
       </c>
       <c r="E216" s="27">
-        <v>343</v>
+        <v>332.5</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -6031,33 +6045,27 @@
         <v>220</v>
       </c>
       <c r="B217" s="24">
-        <v>1</v>
-      </c>
-      <c r="C217" s="25">
-        <v>15.5</v>
-      </c>
-      <c r="D217" s="26">
-        <v>3.25</v>
-      </c>
-      <c r="E217" s="27">
-        <v>50.38</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C217" s="28"/>
+      <c r="D217" s="29"/>
+      <c r="E217" s="28"/>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="23" t="s">
         <v>221</v>
       </c>
       <c r="B218" s="24">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C218" s="25">
-        <v>95.5</v>
+        <v>95</v>
       </c>
       <c r="D218" s="26">
         <v>3.25</v>
       </c>
       <c r="E218" s="27">
-        <v>310.38</v>
+        <v>308.75</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -6065,16 +6073,16 @@
         <v>222</v>
       </c>
       <c r="B219" s="24">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C219" s="25">
-        <v>84.5</v>
+        <v>77.5</v>
       </c>
       <c r="D219" s="26">
         <v>3.25</v>
       </c>
       <c r="E219" s="27">
-        <v>274.63</v>
+        <v>251.88</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -6159,16 +6167,16 @@
         <v>228</v>
       </c>
       <c r="B225" s="24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C225" s="25">
-        <v>21.5</v>
+        <v>18.5</v>
       </c>
       <c r="D225" s="26">
         <v>5.75</v>
       </c>
       <c r="E225" s="27">
-        <v>123.63</v>
+        <v>106.38</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
@@ -6193,16 +6201,16 @@
         <v>230</v>
       </c>
       <c r="B227" s="24">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C227" s="25">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D227" s="26">
         <v>6.3</v>
       </c>
       <c r="E227" s="27">
-        <v>365.4</v>
+        <v>296.10000000000002</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
@@ -6261,16 +6269,16 @@
         <v>234</v>
       </c>
       <c r="B231" s="24">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C231" s="25">
-        <v>47</v>
+        <v>89.5</v>
       </c>
       <c r="D231" s="26">
         <v>3.9</v>
       </c>
       <c r="E231" s="27">
-        <v>183.3</v>
+        <v>349.05</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
@@ -6278,16 +6286,16 @@
         <v>235</v>
       </c>
       <c r="B232" s="24">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C232" s="25">
-        <v>51.5</v>
+        <v>50.5</v>
       </c>
       <c r="D232" s="26">
         <v>3.9</v>
       </c>
       <c r="E232" s="27">
-        <v>200.85</v>
+        <v>196.95</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
@@ -6342,16 +6350,16 @@
         <v>239</v>
       </c>
       <c r="B236" s="24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C236" s="25">
-        <v>20.5</v>
+        <v>19.5</v>
       </c>
       <c r="D236" s="26">
         <v>3.5</v>
       </c>
       <c r="E236" s="27">
-        <v>71.75</v>
+        <v>68.25</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
@@ -6496,16 +6504,16 @@
         <v>249</v>
       </c>
       <c r="B246" s="24">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C246" s="25">
-        <v>72</v>
+        <v>60.5</v>
       </c>
       <c r="D246" s="26">
         <v>4.28</v>
       </c>
       <c r="E246" s="27">
-        <v>308.16000000000003</v>
+        <v>258.94</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
@@ -6562,16 +6570,16 @@
         <v>253</v>
       </c>
       <c r="B250" s="24">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C250" s="25">
-        <v>13</v>
+        <v>60.5</v>
       </c>
       <c r="D250" s="26">
         <v>3.1</v>
       </c>
       <c r="E250" s="27">
-        <v>40.299999999999997</v>
+        <v>187.55</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
@@ -6628,16 +6636,16 @@
         <v>257</v>
       </c>
       <c r="B254" s="24">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C254" s="25">
-        <v>39.869999999999997</v>
+        <v>35.369999999999997</v>
       </c>
       <c r="D254" s="26">
         <v>4.25</v>
       </c>
       <c r="E254" s="27">
-        <v>169.45</v>
+        <v>150.32</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
@@ -6662,16 +6670,16 @@
         <v>259</v>
       </c>
       <c r="B256" s="24">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C256" s="25">
-        <v>26.5</v>
+        <v>25.5</v>
       </c>
       <c r="D256" s="26">
         <v>4.3099999999999996</v>
       </c>
       <c r="E256" s="27">
-        <v>114.19</v>
+        <v>109.88</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
@@ -6761,13 +6769,13 @@
         <v>19</v>
       </c>
       <c r="C262" s="25">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="D262" s="26">
-        <v>4.82</v>
+        <v>4.84</v>
       </c>
       <c r="E262" s="27">
-        <v>279.45999999999998</v>
+        <v>571.20000000000005</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
@@ -6775,17 +6783,11 @@
         <v>266</v>
       </c>
       <c r="B263" s="24">
-        <v>2</v>
-      </c>
-      <c r="C263" s="25">
-        <v>10</v>
-      </c>
-      <c r="D263" s="26">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="E263" s="27">
-        <v>41</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C263" s="28"/>
+      <c r="D263" s="29"/>
+      <c r="E263" s="28"/>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="23" t="s">
@@ -6798,10 +6800,10 @@
         <v>47</v>
       </c>
       <c r="D264" s="26">
-        <v>4.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E264" s="27">
-        <v>211.5</v>
+        <v>216.1</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
@@ -6809,16 +6811,16 @@
         <v>268</v>
       </c>
       <c r="B265" s="24">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C265" s="25">
-        <v>38.5</v>
+        <v>62.5</v>
       </c>
       <c r="D265" s="26">
-        <v>6.16</v>
+        <v>6.18</v>
       </c>
       <c r="E265" s="27">
-        <v>237.08</v>
+        <v>386.27</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
@@ -6860,16 +6862,16 @@
         <v>271</v>
       </c>
       <c r="B268" s="24">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C268" s="25">
-        <v>22.5</v>
+        <v>17.5</v>
       </c>
       <c r="D268" s="26">
         <v>5</v>
       </c>
       <c r="E268" s="27">
-        <v>112.5</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
@@ -6943,16 +6945,16 @@
         <v>276</v>
       </c>
       <c r="B273" s="24">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C273" s="25">
-        <v>47.5</v>
+        <v>47</v>
       </c>
       <c r="D273" s="26">
         <v>4.5</v>
       </c>
       <c r="E273" s="27">
-        <v>213.75</v>
+        <v>211.5</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
@@ -6977,16 +6979,16 @@
         <v>278</v>
       </c>
       <c r="B275" s="24">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C275" s="25">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="D275" s="26">
-        <v>4.9000000000000004</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="E275" s="27">
-        <v>176.48</v>
+        <v>543.16999999999996</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
@@ -7029,13 +7031,13 @@
         <v>46</v>
       </c>
       <c r="C278" s="25">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D278" s="26">
-        <v>5.97</v>
+        <v>5.98</v>
       </c>
       <c r="E278" s="27">
-        <v>197.17</v>
+        <v>221.12</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
@@ -7060,16 +7062,16 @@
         <v>283</v>
       </c>
       <c r="B280" s="24">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C280" s="25">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D280" s="26">
         <v>4.16</v>
       </c>
       <c r="E280" s="27">
-        <v>183.04</v>
+        <v>145.6</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
@@ -7180,13 +7182,13 @@
         <v>13</v>
       </c>
       <c r="C287" s="25">
-        <v>31.5</v>
+        <v>79.5</v>
       </c>
       <c r="D287" s="26">
         <v>5.13</v>
       </c>
       <c r="E287" s="27">
-        <v>161.6</v>
+        <v>407.84</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
@@ -7480,16 +7482,16 @@
         <v>309</v>
       </c>
       <c r="B306" s="24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C306" s="25">
-        <v>46.5</v>
+        <v>44.5</v>
       </c>
       <c r="D306" s="26">
         <v>6.75</v>
       </c>
       <c r="E306" s="27">
-        <v>313.88</v>
+        <v>300.38</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
@@ -7514,16 +7516,16 @@
         <v>311</v>
       </c>
       <c r="B308" s="24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C308" s="25">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="D308" s="26">
         <v>10</v>
       </c>
       <c r="E308" s="27">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
@@ -7531,16 +7533,16 @@
         <v>312</v>
       </c>
       <c r="B309" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C309" s="25">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="D309" s="26">
         <v>11</v>
       </c>
       <c r="E309" s="27">
-        <v>126.5</v>
+        <v>121</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
@@ -7729,16 +7731,16 @@
         <v>324</v>
       </c>
       <c r="B321" s="24">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C321" s="25">
-        <v>34.5</v>
+        <v>34</v>
       </c>
       <c r="D321" s="26">
         <v>9</v>
       </c>
       <c r="E321" s="27">
-        <v>310.5</v>
+        <v>306</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
@@ -7746,16 +7748,16 @@
         <v>325</v>
       </c>
       <c r="B322" s="24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C322" s="25">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D322" s="26">
         <v>9</v>
       </c>
       <c r="E322" s="27">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
@@ -7868,16 +7870,16 @@
         <v>333</v>
       </c>
       <c r="B330" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C330" s="25">
-        <v>9.5</v>
+        <v>4.5</v>
       </c>
       <c r="D330" s="26">
         <v>5.5</v>
       </c>
       <c r="E330" s="27">
-        <v>52.25</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
@@ -7953,16 +7955,16 @@
         <v>338</v>
       </c>
       <c r="B335" s="24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C335" s="25">
-        <v>6.85</v>
+        <v>5.85</v>
       </c>
       <c r="D335" s="26">
         <v>4.75</v>
       </c>
       <c r="E335" s="27">
-        <v>32.54</v>
+        <v>27.79</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
@@ -8019,16 +8021,16 @@
         <v>342</v>
       </c>
       <c r="B339" s="24">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C339" s="25">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D339" s="26">
         <v>7.82</v>
       </c>
       <c r="E339" s="27">
-        <v>211.01</v>
+        <v>187.56</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
@@ -8226,13 +8228,13 @@
         <v>31</v>
       </c>
       <c r="C351" s="25">
-        <v>2.5</v>
+        <v>71.5</v>
       </c>
       <c r="D351" s="26">
         <v>6.6</v>
       </c>
       <c r="E351" s="27">
-        <v>16.5</v>
+        <v>471.9</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
@@ -8291,16 +8293,16 @@
         <v>358</v>
       </c>
       <c r="B355" s="24">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C355" s="25">
-        <v>17</v>
+        <v>11.5</v>
       </c>
       <c r="D355" s="26">
         <v>8.1999999999999993</v>
       </c>
       <c r="E355" s="27">
-        <v>139.4</v>
+        <v>94.3</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
@@ -8308,16 +8310,16 @@
         <v>359</v>
       </c>
       <c r="B356" s="24">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C356" s="25">
-        <v>6.85</v>
+        <v>105.35</v>
       </c>
       <c r="D356" s="26">
         <v>4.5</v>
       </c>
       <c r="E356" s="27">
-        <v>30.83</v>
+        <v>474.08</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
@@ -8362,13 +8364,13 @@
         <v>5</v>
       </c>
       <c r="C359" s="25">
-        <v>6.5</v>
+        <v>36.5</v>
       </c>
       <c r="D359" s="26">
         <v>8.25</v>
       </c>
       <c r="E359" s="27">
-        <v>53.63</v>
+        <v>301.13</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
@@ -8410,16 +8412,16 @@
         <v>365</v>
       </c>
       <c r="B362" s="24">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C362" s="25">
-        <v>20.5</v>
+        <v>38.5</v>
       </c>
       <c r="D362" s="26">
         <v>3.6</v>
       </c>
       <c r="E362" s="27">
-        <v>73.8</v>
+        <v>138.6</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
@@ -8447,13 +8449,13 @@
         <v>4</v>
       </c>
       <c r="C364" s="25">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="D364" s="26">
         <v>10.199999999999999</v>
       </c>
       <c r="E364" s="27">
-        <v>117.3</v>
+        <v>107.1</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
@@ -8563,16 +8565,16 @@
         <v>374</v>
       </c>
       <c r="B371" s="24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C371" s="25">
-        <v>23.5</v>
+        <v>22.5</v>
       </c>
       <c r="D371" s="26">
         <v>5.7</v>
       </c>
       <c r="E371" s="27">
-        <v>133.94999999999999</v>
+        <v>128.25</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
@@ -8597,16 +8599,16 @@
         <v>376</v>
       </c>
       <c r="B373" s="24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C373" s="25">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D373" s="26">
         <v>3.6</v>
       </c>
       <c r="E373" s="27">
-        <v>68.400000000000006</v>
+        <v>32.4</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
@@ -8617,13 +8619,13 @@
         <v>11</v>
       </c>
       <c r="C374" s="25">
-        <v>20.5</v>
+        <v>36.5</v>
       </c>
       <c r="D374" s="26">
         <v>9.5</v>
       </c>
       <c r="E374" s="27">
-        <v>194.75</v>
+        <v>346.75</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
@@ -8680,16 +8682,16 @@
         <v>381</v>
       </c>
       <c r="B378" s="24">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C378" s="25">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="D378" s="26">
         <v>8.5500000000000007</v>
       </c>
       <c r="E378" s="27">
-        <v>153.9</v>
+        <v>149.63</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
@@ -8765,33 +8767,27 @@
         <v>386</v>
       </c>
       <c r="B383" s="24">
-        <v>1</v>
-      </c>
-      <c r="C383" s="25">
-        <v>5.5</v>
-      </c>
-      <c r="D383" s="26">
-        <v>5.46</v>
-      </c>
-      <c r="E383" s="27">
-        <v>30.03</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C383" s="28"/>
+      <c r="D383" s="29"/>
+      <c r="E383" s="28"/>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="23" t="s">
         <v>387</v>
       </c>
       <c r="B384" s="24">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C384" s="25">
-        <v>21.5</v>
+        <v>20.5</v>
       </c>
       <c r="D384" s="26">
         <v>6.65</v>
       </c>
       <c r="E384" s="27">
-        <v>142.97999999999999</v>
+        <v>136.33000000000001</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
@@ -8912,16 +8908,16 @@
         <v>395</v>
       </c>
       <c r="B392" s="24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C392" s="25">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D392" s="26">
         <v>5.7</v>
       </c>
       <c r="E392" s="27">
-        <v>239.4</v>
+        <v>210.9</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
@@ -8946,16 +8942,16 @@
         <v>397</v>
       </c>
       <c r="B394" s="24">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C394" s="25">
-        <v>23.5</v>
+        <v>23</v>
       </c>
       <c r="D394" s="26">
         <v>5.2</v>
       </c>
       <c r="E394" s="27">
-        <v>122.2</v>
+        <v>119.6</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
@@ -8998,13 +8994,13 @@
         <v>21</v>
       </c>
       <c r="C397" s="25">
-        <v>16.5</v>
+        <v>66.5</v>
       </c>
       <c r="D397" s="26">
         <v>5.3</v>
       </c>
       <c r="E397" s="27">
-        <v>87.45</v>
+        <v>352.45</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
@@ -9030,13 +9026,13 @@
         <v>28</v>
       </c>
       <c r="C399" s="25">
-        <v>6.5</v>
+        <v>86.5</v>
       </c>
       <c r="D399" s="26">
-        <v>6.01</v>
+        <v>6.15</v>
       </c>
       <c r="E399" s="27">
-        <v>39.049999999999997</v>
+        <v>531.64</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
@@ -9307,16 +9303,16 @@
         <v>420</v>
       </c>
       <c r="B417" s="24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C417" s="25">
-        <v>21.5</v>
+        <v>19.5</v>
       </c>
       <c r="D417" s="26">
         <v>11.75</v>
       </c>
       <c r="E417" s="27">
-        <v>252.63</v>
+        <v>229.13</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
@@ -9442,15 +9438,17 @@
       <c r="A425" s="23" t="s">
         <v>428</v>
       </c>
-      <c r="B425" s="24"/>
+      <c r="B425" s="24">
+        <v>1</v>
+      </c>
       <c r="C425" s="25">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="D425" s="26">
         <v>9</v>
       </c>
       <c r="E425" s="27">
-        <v>85.5</v>
+        <v>72</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
@@ -9475,16 +9473,16 @@
         <v>430</v>
       </c>
       <c r="B427" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C427" s="25">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="D427" s="26">
         <v>18</v>
       </c>
       <c r="E427" s="27">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
@@ -9701,16 +9699,16 @@
         <v>444</v>
       </c>
       <c r="B441" s="24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C441" s="25">
-        <v>13.5</v>
+        <v>9</v>
       </c>
       <c r="D441" s="26">
         <v>8.5500000000000007</v>
       </c>
       <c r="E441" s="27">
-        <v>115.43</v>
+        <v>76.95</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.25">
@@ -9780,16 +9778,16 @@
         <v>449</v>
       </c>
       <c r="B446" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C446" s="25">
-        <v>10.5</v>
+        <v>8</v>
       </c>
       <c r="D446" s="26">
         <v>16</v>
       </c>
       <c r="E446" s="27">
-        <v>168</v>
+        <v>128</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.25">
@@ -9834,13 +9832,13 @@
         <v>2</v>
       </c>
       <c r="C449" s="25">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D449" s="26">
         <v>18</v>
       </c>
       <c r="E449" s="27">
-        <v>144</v>
+        <v>252</v>
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.25">
@@ -9865,16 +9863,16 @@
         <v>454</v>
       </c>
       <c r="B451" s="24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C451" s="25">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D451" s="26">
         <v>9.5</v>
       </c>
       <c r="E451" s="27">
-        <v>342</v>
+        <v>304</v>
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.25">
@@ -9896,7 +9894,7 @@
         <v>1</v>
       </c>
       <c r="C453" s="25">
-        <v>0.25</v>
+        <v>4.25</v>
       </c>
       <c r="D453" s="29"/>
       <c r="E453" s="28"/>
@@ -9905,15 +9903,17 @@
       <c r="A454" s="23" t="s">
         <v>457</v>
       </c>
-      <c r="B454" s="24"/>
+      <c r="B454" s="24">
+        <v>1</v>
+      </c>
       <c r="C454" s="25">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="D454" s="26">
         <v>25</v>
       </c>
       <c r="E454" s="27">
-        <v>250</v>
+        <v>212.5</v>
       </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.25">
@@ -9941,13 +9941,13 @@
         <v>17</v>
       </c>
       <c r="C456" s="25">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="D456" s="26">
-        <v>10.17</v>
+        <v>10.220000000000001</v>
       </c>
       <c r="E456" s="27">
-        <v>66.12</v>
+        <v>153.22999999999999</v>
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.25">
@@ -9987,16 +9987,16 @@
         <v>462</v>
       </c>
       <c r="B459" s="24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C459" s="25">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="D459" s="26">
         <v>11.4</v>
       </c>
       <c r="E459" s="27">
-        <v>96.9</v>
+        <v>108.3</v>
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.25">
@@ -10021,16 +10021,16 @@
         <v>464</v>
       </c>
       <c r="B461" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C461" s="25">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="D461" s="26">
         <v>13</v>
       </c>
       <c r="E461" s="27">
-        <v>117</v>
+        <v>110.5</v>
       </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.25">
@@ -10204,16 +10204,16 @@
         <v>475</v>
       </c>
       <c r="B472" s="24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C472" s="25">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="D472" s="26">
         <v>10.86</v>
       </c>
       <c r="E472" s="27">
-        <v>81.430000000000007</v>
+        <v>65.14</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.25">
@@ -10256,13 +10256,13 @@
         <v>8</v>
       </c>
       <c r="C475" s="25">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D475" s="26">
-        <v>12.8</v>
+        <v>13.23</v>
       </c>
       <c r="E475" s="27">
-        <v>51.2</v>
+        <v>304.37</v>
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.25">
@@ -10334,16 +10334,16 @@
         <v>483</v>
       </c>
       <c r="B480" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C480" s="25">
-        <v>6</v>
+        <v>-0.5</v>
       </c>
       <c r="D480" s="26">
         <v>13.8</v>
       </c>
       <c r="E480" s="27">
-        <v>82.8</v>
+        <v>-6.9</v>
       </c>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.25">
@@ -10406,10 +10406,10 @@
         <v>17.75</v>
       </c>
       <c r="D484" s="26">
-        <v>11.5</v>
+        <v>12.29</v>
       </c>
       <c r="E484" s="27">
-        <v>204.13</v>
+        <v>218.17</v>
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.25">
@@ -10423,10 +10423,10 @@
         <v>13.5</v>
       </c>
       <c r="D485" s="26">
-        <v>9.5</v>
+        <v>10.17</v>
       </c>
       <c r="E485" s="27">
-        <v>128.25</v>
+        <v>137.25</v>
       </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.25">
@@ -10694,16 +10694,16 @@
         <v>505</v>
       </c>
       <c r="B502" s="24">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C502" s="25">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D502" s="26">
         <v>1.4</v>
       </c>
       <c r="E502" s="27">
-        <v>225.4</v>
+        <v>221.2</v>
       </c>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.25">
@@ -11005,16 +11005,16 @@
         <v>524</v>
       </c>
       <c r="B521" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C521" s="25">
-        <v>14</v>
+        <v>12.9</v>
       </c>
       <c r="D521" s="26">
         <v>4.5</v>
       </c>
       <c r="E521" s="27">
-        <v>63</v>
+        <v>58.05</v>
       </c>
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.25">
@@ -11039,16 +11039,16 @@
         <v>526</v>
       </c>
       <c r="B523" s="24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C523" s="25">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D523" s="26">
         <v>4.75</v>
       </c>
       <c r="E523" s="27">
-        <v>47.5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.25">
@@ -11090,16 +11090,16 @@
         <v>529</v>
       </c>
       <c r="B526" s="24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C526" s="25">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="D526" s="26">
         <v>4.75</v>
       </c>
       <c r="E526" s="27">
-        <v>90.25</v>
+        <v>83.13</v>
       </c>
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.25">
@@ -11107,16 +11107,16 @@
         <v>530</v>
       </c>
       <c r="B527" s="24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C527" s="25">
-        <v>21.5</v>
+        <v>20.5</v>
       </c>
       <c r="D527" s="26">
         <v>3.45</v>
       </c>
       <c r="E527" s="27">
-        <v>74.180000000000007</v>
+        <v>70.73</v>
       </c>
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.25">
@@ -11124,16 +11124,16 @@
         <v>531</v>
       </c>
       <c r="B528" s="24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C528" s="25">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="D528" s="26">
         <v>3.1</v>
       </c>
       <c r="E528" s="27">
-        <v>48.05</v>
+        <v>44.95</v>
       </c>
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.25">
@@ -11192,16 +11192,16 @@
         <v>535</v>
       </c>
       <c r="B532" s="24">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C532" s="25">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D532" s="26">
         <v>3.9</v>
       </c>
       <c r="E532" s="27">
-        <v>66.3</v>
+        <v>89.7</v>
       </c>
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.25">
@@ -11311,16 +11311,16 @@
         <v>542</v>
       </c>
       <c r="B539" s="24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C539" s="25">
-        <v>54.8</v>
+        <v>53.8</v>
       </c>
       <c r="D539" s="26">
         <v>3.14</v>
       </c>
       <c r="E539" s="27">
-        <v>172.07</v>
+        <v>168.93</v>
       </c>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.25">
@@ -11328,16 +11328,16 @@
         <v>543</v>
       </c>
       <c r="B540" s="24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C540" s="25">
-        <v>104.25</v>
+        <v>102.25</v>
       </c>
       <c r="D540" s="26">
         <v>2.2999999999999998</v>
       </c>
       <c r="E540" s="27">
-        <v>239.78</v>
+        <v>235.18</v>
       </c>
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.25">
@@ -11433,13 +11433,13 @@
         <v>9</v>
       </c>
       <c r="C546" s="25">
-        <v>48.5</v>
+        <v>51.5</v>
       </c>
       <c r="D546" s="26">
         <v>2.14</v>
       </c>
       <c r="E546" s="27">
-        <v>103.79</v>
+        <v>110.21</v>
       </c>
     </row>
     <row r="547" spans="1:5" x14ac:dyDescent="0.25">
@@ -11447,16 +11447,16 @@
         <v>550</v>
       </c>
       <c r="B547" s="24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C547" s="25">
-        <v>38.5</v>
+        <v>33.5</v>
       </c>
       <c r="D547" s="26">
         <v>2.66</v>
       </c>
       <c r="E547" s="27">
-        <v>102.41</v>
+        <v>89.11</v>
       </c>
     </row>
     <row r="548" spans="1:5" x14ac:dyDescent="0.25">
@@ -11467,13 +11467,13 @@
         <v>9</v>
       </c>
       <c r="C548" s="25">
-        <v>8.5</v>
+        <v>68.5</v>
       </c>
       <c r="D548" s="26">
         <v>2.66</v>
       </c>
       <c r="E548" s="27">
-        <v>22.61</v>
+        <v>182.21</v>
       </c>
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.25">
@@ -11562,16 +11562,16 @@
         <v>557</v>
       </c>
       <c r="B554" s="24">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C554" s="25">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="D554" s="26">
         <v>1.4</v>
       </c>
       <c r="E554" s="27">
-        <v>330.4</v>
+        <v>309.39999999999998</v>
       </c>
     </row>
     <row r="555" spans="1:5" x14ac:dyDescent="0.25">
@@ -11579,16 +11579,16 @@
         <v>558</v>
       </c>
       <c r="B555" s="24">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C555" s="25">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D555" s="26">
         <v>1.8</v>
       </c>
       <c r="E555" s="27">
-        <v>210.6</v>
+        <v>199.8</v>
       </c>
     </row>
     <row r="556" spans="1:5" x14ac:dyDescent="0.25">
@@ -11658,10 +11658,10 @@
         <v>563</v>
       </c>
       <c r="B560" s="24">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C560" s="25">
-        <v>14.5</v>
+        <v>3.5</v>
       </c>
       <c r="D560" s="29"/>
       <c r="E560" s="28"/>
@@ -11671,10 +11671,10 @@
         <v>564</v>
       </c>
       <c r="B561" s="24">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C561" s="25">
-        <v>-276.5</v>
+        <v>-316.5</v>
       </c>
       <c r="D561" s="29"/>
       <c r="E561" s="28"/>
@@ -11697,10 +11697,10 @@
         <v>566</v>
       </c>
       <c r="B563" s="24">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C563" s="25">
-        <v>-4</v>
+        <v>-9</v>
       </c>
       <c r="D563" s="29"/>
       <c r="E563" s="28"/>
@@ -11710,16 +11710,16 @@
         <v>567</v>
       </c>
       <c r="B564" s="24">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C564" s="25">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D564" s="26">
         <v>0.87</v>
       </c>
       <c r="E564" s="27">
-        <v>351.48</v>
+        <v>349.74</v>
       </c>
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.25">
@@ -11774,16 +11774,16 @@
         <v>571</v>
       </c>
       <c r="B568" s="24">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C568" s="25">
-        <v>202</v>
+        <v>162</v>
       </c>
       <c r="D568" s="26">
         <v>0.85</v>
       </c>
       <c r="E568" s="27">
-        <v>171.7</v>
+        <v>137.69999999999999</v>
       </c>
     </row>
     <row r="569" spans="1:5" x14ac:dyDescent="0.25">
@@ -11791,16 +11791,16 @@
         <v>572</v>
       </c>
       <c r="B569" s="24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C569" s="25">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="D569" s="26">
         <v>0.4</v>
       </c>
       <c r="E569" s="27">
-        <v>45.6</v>
+        <v>33.6</v>
       </c>
     </row>
     <row r="570" spans="1:5" x14ac:dyDescent="0.25">
@@ -11823,16 +11823,16 @@
         <v>574</v>
       </c>
       <c r="B571" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C571" s="25">
-        <v>10.5</v>
+        <v>8.5</v>
       </c>
       <c r="D571" s="26">
         <v>5.5</v>
       </c>
       <c r="E571" s="27">
-        <v>57.75</v>
+        <v>46.75</v>
       </c>
     </row>
     <row r="572" spans="1:5" x14ac:dyDescent="0.25">
@@ -11894,13 +11894,13 @@
         <v>5</v>
       </c>
       <c r="C575" s="25">
-        <v>12.5</v>
+        <v>25.5</v>
       </c>
       <c r="D575" s="26">
         <v>5.5</v>
       </c>
       <c r="E575" s="27">
-        <v>68.75</v>
+        <v>140.25</v>
       </c>
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.25">
@@ -11925,16 +11925,16 @@
         <v>580</v>
       </c>
       <c r="B577" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C577" s="25">
-        <v>18.010000000000002</v>
+        <v>13.01</v>
       </c>
       <c r="D577" s="26">
         <v>4.5</v>
       </c>
       <c r="E577" s="27">
-        <v>81.05</v>
+        <v>58.55</v>
       </c>
     </row>
     <row r="578" spans="1:5" x14ac:dyDescent="0.25">
@@ -11942,16 +11942,16 @@
         <v>581</v>
       </c>
       <c r="B578" s="24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C578" s="25">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="D578" s="26">
         <v>3.5</v>
       </c>
       <c r="E578" s="27">
-        <v>26.25</v>
+        <v>22.75</v>
       </c>
     </row>
     <row r="579" spans="1:5" x14ac:dyDescent="0.25">
@@ -12027,16 +12027,16 @@
         <v>586</v>
       </c>
       <c r="B583" s="24">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C583" s="25">
-        <v>30.5</v>
+        <v>26.5</v>
       </c>
       <c r="D583" s="26">
         <v>2.79</v>
       </c>
       <c r="E583" s="27">
-        <v>85.24</v>
+        <v>74.06</v>
       </c>
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.25">
@@ -12110,16 +12110,16 @@
         <v>591</v>
       </c>
       <c r="B588" s="24">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C588" s="25">
-        <v>0.5</v>
+        <v>19</v>
       </c>
       <c r="D588" s="26">
         <v>4</v>
       </c>
       <c r="E588" s="27">
-        <v>2</v>
+        <v>76</v>
       </c>
     </row>
     <row r="589" spans="1:5" x14ac:dyDescent="0.25">
@@ -12176,16 +12176,16 @@
         <v>595</v>
       </c>
       <c r="B592" s="24">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C592" s="25">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D592" s="26">
         <v>2.2799999999999998</v>
       </c>
       <c r="E592" s="27">
-        <v>175.56</v>
+        <v>173.28</v>
       </c>
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.25">
@@ -12272,16 +12272,16 @@
         <v>601</v>
       </c>
       <c r="B598" s="24">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C598" s="25">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="D598" s="26">
         <v>5</v>
       </c>
       <c r="E598" s="27">
-        <v>95</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.25">
@@ -12374,16 +12374,16 @@
         <v>607</v>
       </c>
       <c r="B604" s="24">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C604" s="25">
-        <v>62.5</v>
+        <v>60.5</v>
       </c>
       <c r="D604" s="26">
         <v>1.7</v>
       </c>
       <c r="E604" s="27">
-        <v>106.25</v>
+        <v>102.85</v>
       </c>
     </row>
     <row r="605" spans="1:5" x14ac:dyDescent="0.25">
@@ -12425,16 +12425,16 @@
         <v>610</v>
       </c>
       <c r="B607" s="24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C607" s="25">
-        <v>10.5</v>
+        <v>8.5</v>
       </c>
       <c r="D607" s="26">
         <v>3.5</v>
       </c>
       <c r="E607" s="27">
-        <v>36.75</v>
+        <v>29.75</v>
       </c>
     </row>
     <row r="608" spans="1:5" x14ac:dyDescent="0.25">
@@ -12493,16 +12493,16 @@
         <v>614</v>
       </c>
       <c r="B611" s="24">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C611" s="25">
-        <v>37.5</v>
+        <v>29.8</v>
       </c>
       <c r="D611" s="26">
         <v>2.85</v>
       </c>
       <c r="E611" s="27">
-        <v>106.88</v>
+        <v>84.93</v>
       </c>
     </row>
     <row r="612" spans="1:5" x14ac:dyDescent="0.25">
@@ -12513,13 +12513,13 @@
         <v>23</v>
       </c>
       <c r="C612" s="25">
-        <v>6.79</v>
+        <v>6.99</v>
       </c>
       <c r="D612" s="26">
         <v>2</v>
       </c>
       <c r="E612" s="27">
-        <v>13.58</v>
+        <v>13.98</v>
       </c>
     </row>
     <row r="613" spans="1:5" x14ac:dyDescent="0.25">
@@ -12578,16 +12578,16 @@
         <v>619</v>
       </c>
       <c r="B616" s="24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C616" s="25">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D616" s="26">
         <v>3.1</v>
       </c>
       <c r="E616" s="27">
-        <v>127.1</v>
+        <v>111.6</v>
       </c>
     </row>
     <row r="617" spans="1:5" x14ac:dyDescent="0.25">
@@ -12595,16 +12595,16 @@
         <v>620</v>
       </c>
       <c r="B617" s="24">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C617" s="25">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D617" s="26">
         <v>5.5</v>
       </c>
       <c r="E617" s="27">
-        <v>104.5</v>
+        <v>77</v>
       </c>
     </row>
     <row r="618" spans="1:5" x14ac:dyDescent="0.25">
@@ -12661,16 +12661,16 @@
         <v>624</v>
       </c>
       <c r="B621" s="24">
+        <v>8</v>
+      </c>
+      <c r="C621" s="25">
         <v>6</v>
-      </c>
-      <c r="C621" s="25">
-        <v>8</v>
       </c>
       <c r="D621" s="26">
         <v>6.75</v>
       </c>
       <c r="E621" s="27">
-        <v>54</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="622" spans="1:5" x14ac:dyDescent="0.25">
@@ -12744,16 +12744,16 @@
         <v>629</v>
       </c>
       <c r="B626" s="24">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C626" s="25">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D626" s="26">
         <v>3.1</v>
       </c>
       <c r="E626" s="27">
-        <v>68.2</v>
+        <v>37.200000000000003</v>
       </c>
     </row>
     <row r="627" spans="1:5" x14ac:dyDescent="0.25">
@@ -12761,16 +12761,16 @@
         <v>630</v>
       </c>
       <c r="B627" s="24">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C627" s="25">
-        <v>21.5</v>
+        <v>19.5</v>
       </c>
       <c r="D627" s="26">
         <v>3.6</v>
       </c>
       <c r="E627" s="27">
-        <v>77.400000000000006</v>
+        <v>70.2</v>
       </c>
     </row>
     <row r="628" spans="1:5" x14ac:dyDescent="0.25">
@@ -12829,16 +12829,16 @@
         <v>634</v>
       </c>
       <c r="B631" s="24">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C631" s="25">
-        <v>10</v>
+        <v>33.5</v>
       </c>
       <c r="D631" s="26">
         <v>2.5</v>
       </c>
       <c r="E631" s="27">
-        <v>25</v>
+        <v>83.75</v>
       </c>
     </row>
     <row r="632" spans="1:5" x14ac:dyDescent="0.25">
@@ -12914,16 +12914,16 @@
         <v>639</v>
       </c>
       <c r="B636" s="24">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C636" s="25">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D636" s="26">
         <v>2.25</v>
       </c>
       <c r="E636" s="27">
-        <v>157.5</v>
+        <v>141.75</v>
       </c>
     </row>
     <row r="637" spans="1:5" x14ac:dyDescent="0.25">
@@ -12997,16 +12997,16 @@
         <v>644</v>
       </c>
       <c r="B641" s="24">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C641" s="25">
-        <v>33.5</v>
+        <v>32.5</v>
       </c>
       <c r="D641" s="26">
         <v>4</v>
       </c>
       <c r="E641" s="27">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="642" spans="1:5" x14ac:dyDescent="0.25">
@@ -13082,16 +13082,16 @@
         <v>649</v>
       </c>
       <c r="B646" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C646" s="25">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D646" s="26">
         <v>5</v>
       </c>
       <c r="E646" s="27">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="647" spans="1:5" x14ac:dyDescent="0.25">
@@ -13157,10 +13157,10 @@
         <v>654</v>
       </c>
       <c r="B651" s="24">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C651" s="25">
-        <v>57.19</v>
+        <v>44.19</v>
       </c>
       <c r="D651" s="29"/>
       <c r="E651" s="28"/>
@@ -13196,10 +13196,10 @@
         <v>657</v>
       </c>
       <c r="B654" s="24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C654" s="25">
-        <v>-5.5</v>
+        <v>-7.5</v>
       </c>
       <c r="D654" s="29"/>
       <c r="E654" s="28"/>
@@ -13222,10 +13222,10 @@
         <v>659</v>
       </c>
       <c r="B656" s="24">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C656" s="25">
-        <v>-22</v>
+        <v>-28</v>
       </c>
       <c r="D656" s="29"/>
       <c r="E656" s="28"/>
@@ -13235,10 +13235,10 @@
         <v>660</v>
       </c>
       <c r="B657" s="24">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C657" s="25">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="D657" s="29"/>
       <c r="E657" s="28"/>
@@ -13257,16 +13257,16 @@
         <v>662</v>
       </c>
       <c r="B659" s="24">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C659" s="25">
-        <v>139.5</v>
+        <v>138</v>
       </c>
       <c r="D659" s="26">
-        <v>2.83</v>
+        <v>2.9</v>
       </c>
       <c r="E659" s="27">
-        <v>394.81</v>
+        <v>399.91</v>
       </c>
     </row>
     <row r="660" spans="1:5" x14ac:dyDescent="0.25">
@@ -13376,10 +13376,10 @@
         <v>671</v>
       </c>
       <c r="B668" s="24">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C668" s="25">
-        <v>-0.38</v>
+        <v>-0.39</v>
       </c>
       <c r="D668" s="29"/>
       <c r="E668" s="28"/>
@@ -13389,10 +13389,10 @@
         <v>672</v>
       </c>
       <c r="B669" s="24">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C669" s="25">
-        <v>-0.42</v>
+        <v>-0.43</v>
       </c>
       <c r="D669" s="29"/>
       <c r="E669" s="28"/>
@@ -13419,16 +13419,16 @@
         <v>674</v>
       </c>
       <c r="B671" s="24">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C671" s="25">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D671" s="26">
         <v>2.5</v>
       </c>
       <c r="E671" s="27">
-        <v>80</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="672" spans="1:5" x14ac:dyDescent="0.25">
@@ -13436,16 +13436,16 @@
         <v>675</v>
       </c>
       <c r="B672" s="24">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C672" s="25">
-        <v>34.5</v>
+        <v>34.25</v>
       </c>
       <c r="D672" s="26">
         <v>2.5</v>
       </c>
       <c r="E672" s="27">
-        <v>86.25</v>
+        <v>85.63</v>
       </c>
     </row>
     <row r="673" spans="1:5" x14ac:dyDescent="0.25">
@@ -13453,16 +13453,16 @@
         <v>676</v>
       </c>
       <c r="B673" s="24">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C673" s="25">
-        <v>71.75</v>
+        <v>69.25</v>
       </c>
       <c r="D673" s="26">
         <v>2.5</v>
       </c>
       <c r="E673" s="27">
-        <v>179.38</v>
+        <v>173.13</v>
       </c>
     </row>
     <row r="674" spans="1:5" x14ac:dyDescent="0.25">
@@ -13470,16 +13470,16 @@
         <v>677</v>
       </c>
       <c r="B674" s="24">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C674" s="25">
-        <v>73.5</v>
+        <v>72</v>
       </c>
       <c r="D674" s="26">
         <v>2.5</v>
       </c>
       <c r="E674" s="27">
-        <v>183.75</v>
+        <v>180</v>
       </c>
     </row>
     <row r="675" spans="1:5" x14ac:dyDescent="0.25">
@@ -13504,16 +13504,16 @@
         <v>679</v>
       </c>
       <c r="B676" s="24">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C676" s="25">
-        <v>52.75</v>
+        <v>47.75</v>
       </c>
       <c r="D676" s="26">
         <v>2.5</v>
       </c>
       <c r="E676" s="27">
-        <v>131.88</v>
+        <v>119.38</v>
       </c>
     </row>
     <row r="677" spans="1:5" x14ac:dyDescent="0.25">
@@ -13521,16 +13521,16 @@
         <v>680</v>
       </c>
       <c r="B677" s="24">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C677" s="25">
-        <v>39.25</v>
+        <v>38</v>
       </c>
       <c r="D677" s="26">
         <v>2.5</v>
       </c>
       <c r="E677" s="27">
-        <v>98.13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="678" spans="1:5" x14ac:dyDescent="0.25">
@@ -13538,16 +13538,16 @@
         <v>681</v>
       </c>
       <c r="B678" s="24">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C678" s="25">
-        <v>51.75</v>
+        <v>50.75</v>
       </c>
       <c r="D678" s="26">
         <v>2.5</v>
       </c>
       <c r="E678" s="27">
-        <v>129.38</v>
+        <v>126.88</v>
       </c>
     </row>
     <row r="679" spans="1:5" x14ac:dyDescent="0.25">
@@ -13555,16 +13555,16 @@
         <v>682</v>
       </c>
       <c r="B679" s="24">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C679" s="25">
-        <v>83.5</v>
+        <v>82.5</v>
       </c>
       <c r="D679" s="26">
         <v>2.5</v>
       </c>
       <c r="E679" s="27">
-        <v>208.75</v>
+        <v>206.25</v>
       </c>
     </row>
     <row r="680" spans="1:5" x14ac:dyDescent="0.25">
@@ -13585,10 +13585,10 @@
         <v>684</v>
       </c>
       <c r="B681" s="24">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C681" s="25">
-        <v>-168</v>
+        <v>-174</v>
       </c>
       <c r="D681" s="29"/>
       <c r="E681" s="28"/>
@@ -13599,11 +13599,11 @@
       </c>
       <c r="B682" s="31"/>
       <c r="C682" s="32">
-        <v>22091.1</v>
+        <v>22839.759999999998</v>
       </c>
       <c r="D682" s="33"/>
       <c r="E682" s="34">
-        <v>85309.66</v>
+        <v>88999.51</v>
       </c>
     </row>
   </sheetData>

--- a/data/website stock.xlsx
+++ b/data/website stock.xlsx
@@ -35,7 +35,7 @@
     <t>Stock Group Summary</t>
   </si>
   <si>
-    <t>1-Jul-25 to 18-Nov-25</t>
+    <t>1-Jul-25 to 20-Nov-25</t>
   </si>
   <si>
     <t/>
@@ -68,295 +68,295 @@
     <t>Value</t>
   </si>
   <si>
-    <t>.1001 PATRIKA</t>
-  </si>
-  <si>
-    <t>1002 PATRIKA</t>
-  </si>
-  <si>
-    <t>1003 PATRIKA</t>
-  </si>
-  <si>
-    <t>1004 PATRIKA</t>
-  </si>
-  <si>
-    <t>1005 PATRIKA</t>
-  </si>
-  <si>
-    <t>1006 PATRIKA</t>
-  </si>
-  <si>
-    <t>1007 PATRIKA</t>
-  </si>
-  <si>
-    <t>1008 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>1009 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>1010 PATRIKA</t>
-  </si>
-  <si>
-    <t>1011 PATRIKA</t>
-  </si>
-  <si>
-    <t>1012 PATRIKA</t>
-  </si>
-  <si>
-    <t>1013 PATRIKA</t>
-  </si>
-  <si>
-    <t>1014 PATRIKA</t>
-  </si>
-  <si>
-    <t>1015 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>1016 PATRIKA</t>
-  </si>
-  <si>
-    <t>1017 PATRIKA</t>
-  </si>
-  <si>
-    <t>1018 PATRIKA</t>
-  </si>
-  <si>
-    <t>1019 PATRIKA</t>
-  </si>
-  <si>
-    <t>1020 PATRIKA</t>
-  </si>
-  <si>
-    <t>1021 PATRIKA</t>
-  </si>
-  <si>
-    <t>1022 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>1023 PATRIKA</t>
-  </si>
-  <si>
-    <t>1024 PATRIKA</t>
-  </si>
-  <si>
-    <t>1025 PATRIKA</t>
-  </si>
-  <si>
-    <t>1026 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>1027 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>1028 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>1029 PATRIKA</t>
-  </si>
-  <si>
-    <t>1030 PATRIKA</t>
-  </si>
-  <si>
-    <t>1031 PATRIKA</t>
-  </si>
-  <si>
-    <t>1032 PATRIKA</t>
-  </si>
-  <si>
-    <t>1033 PATRIKA</t>
-  </si>
-  <si>
-    <t>1034 PATRIKA</t>
-  </si>
-  <si>
-    <t>1035 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>1101 PATRIKA (O.2591)</t>
-  </si>
-  <si>
-    <t>1102 PATRIKA (P.2591)</t>
-  </si>
-  <si>
-    <t>1103 PATRIKA(N-271)</t>
-  </si>
-  <si>
-    <t>1104 PATRIKA(N-272)</t>
-  </si>
-  <si>
-    <t>1105 PATRIKA</t>
-  </si>
-  <si>
-    <t>1106 PATRIKA-YELLOW</t>
-  </si>
-  <si>
-    <t>1107 PATRIKA-RED</t>
-  </si>
-  <si>
-    <t>1109 PATRIKA-BIG Y</t>
-  </si>
-  <si>
-    <t>1110 PATRIKA-BIG R</t>
-  </si>
-  <si>
-    <t>1112 PATRIKA</t>
-  </si>
-  <si>
-    <t>1113 PATRIKA</t>
-  </si>
-  <si>
-    <t>1114 PATRIKA-BROWN</t>
-  </si>
-  <si>
-    <t>1115 PATRIKA-CREAM</t>
-  </si>
-  <si>
-    <t>1116 PATRIKA (1153)</t>
-  </si>
-  <si>
-    <t>1117 PATRIKA (1155)</t>
-  </si>
-  <si>
-    <t>1118 PATRIKA - B (DCU)</t>
-  </si>
-  <si>
-    <t>1118 PATRIKA (सवाश्री-57)</t>
-  </si>
-  <si>
-    <t>1119 PATRIKA - B (DCU)</t>
-  </si>
-  <si>
-    <t>1119 PATRIKA(सवाश्री-55)</t>
-  </si>
-  <si>
-    <t>1120 PATRIKA(सवाश्री-59)</t>
-  </si>
-  <si>
-    <t>1121 PATRIKA(सवाश्री-53)</t>
-  </si>
-  <si>
-    <t>1122 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>1123 PATRIKA (LED-51)</t>
-  </si>
-  <si>
-    <t>1124 PATRIKA (LED-52)</t>
-  </si>
-  <si>
-    <t>1125 PATRIKA (LED-53)</t>
-  </si>
-  <si>
-    <t>1126 PATRIKA (LED-54)</t>
-  </si>
-  <si>
-    <t>1127 PATRIKA (Eco-52)</t>
-  </si>
-  <si>
-    <t>1128 PATRIKA (Eco-55)</t>
-  </si>
-  <si>
-    <t>1129 PATRIKA (Eco-56)</t>
-  </si>
-  <si>
-    <t>1130 PATRIKA - B (ECO-60) (DCU)</t>
-  </si>
-  <si>
-    <t>1130 PATRIKA (Eco-59)</t>
-  </si>
-  <si>
-    <t>1131 PATRIKA (DCU) Eco-51</t>
-  </si>
-  <si>
-    <t>1132 PATRIKA (DCU) Eco-53</t>
-  </si>
-  <si>
-    <t>1133 PATRIKA (DCU) Eco-57</t>
-  </si>
-  <si>
-    <t>1134 PATRIKA (DCU) Eco-58</t>
-  </si>
-  <si>
-    <t>1135 PATRIKA (DCU) Eco-54</t>
-  </si>
-  <si>
-    <t>1136 PATRIKA (R)</t>
-  </si>
-  <si>
-    <t>1137 PATRIKA (P)</t>
-  </si>
-  <si>
-    <t>1138 PATRIKA (BR)</t>
-  </si>
-  <si>
-    <t>1139 PATRIKA (BY)</t>
-  </si>
-  <si>
-    <t>1140 PATRIKA (BB)</t>
-  </si>
-  <si>
-    <t>1141 PATRIKA (R)</t>
-  </si>
-  <si>
-    <t>1142 PATRIKA (P)</t>
-  </si>
-  <si>
-    <t>1143 PATRIKA (G)</t>
-  </si>
-  <si>
-    <t>1144 PATRIKA (BR)</t>
-  </si>
-  <si>
-    <t>1145 PATRIKA (BY)</t>
-  </si>
-  <si>
-    <t>1147 PATRIKA (S.201)</t>
-  </si>
-  <si>
-    <t>1148 PATRIKA (S.202)</t>
-  </si>
-  <si>
-    <t>1149 PATRIKA (S.204)</t>
-  </si>
-  <si>
-    <t>1150 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>1151 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>1152 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>1153 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>1154 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>1155 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>1156 PATRIKA-YELLOW</t>
-  </si>
-  <si>
-    <t>1157 PATRIKA-CREAM</t>
-  </si>
-  <si>
-    <t>1158 PATRIKA-GOLDEN</t>
-  </si>
-  <si>
-    <t>1159 PATRIKA-WHITE</t>
-  </si>
-  <si>
-    <t>1160 PATRIKA-PINK</t>
-  </si>
-  <si>
-    <t>1161 PATRIKA (01)</t>
-  </si>
-  <si>
-    <t>1162 PATRIKA (02)</t>
+    <t>.1001 PATRIKA (25/251)</t>
+  </si>
+  <si>
+    <t>1002 PATRIKA (25/262)</t>
+  </si>
+  <si>
+    <t>1003 PATRIKA (25/261)</t>
+  </si>
+  <si>
+    <t>1004 PATRIKA (25/361/861)</t>
+  </si>
+  <si>
+    <t>1005 PATRIKA (25/362/862)</t>
+  </si>
+  <si>
+    <t>1006 PATRIKA (25/282)</t>
+  </si>
+  <si>
+    <t>1007 PATRIKA (25/281)</t>
+  </si>
+  <si>
+    <t>1008 PATRIKA (JC) (2595 PINK)</t>
+  </si>
+  <si>
+    <t>1009 PATRIKA (JC) (2595 ORANGE)</t>
+  </si>
+  <si>
+    <t>1010 PATRIKA (6321)</t>
+  </si>
+  <si>
+    <t>1011 PATRIKA (2563 OFFSET NEW)</t>
+  </si>
+  <si>
+    <t>1012 PATRIKA (2564 OFFSET NEW)</t>
+  </si>
+  <si>
+    <t>1013 PATRIKA (2568 OFFSET NEW)</t>
+  </si>
+  <si>
+    <t>1014 PATRIKA (11043 OFFSET)</t>
+  </si>
+  <si>
+    <t>1015 PATRIKA (DCU) (11041 OFFSET NEW)</t>
+  </si>
+  <si>
+    <t>1016 PATRIKA (1011 OFFSET)</t>
+  </si>
+  <si>
+    <t>1017 PATRIKA (1014 OFFSET)</t>
+  </si>
+  <si>
+    <t>1018 PATRIKA (10081 OFFSET NEW)</t>
+  </si>
+  <si>
+    <t>1019 PATRIKA (1222 SBC)</t>
+  </si>
+  <si>
+    <t>1020 PATRIKA (1235)</t>
+  </si>
+  <si>
+    <t>1021 PATRIKA (2101 VV)</t>
+  </si>
+  <si>
+    <t>1022 PATRIKA (JC) (25409)</t>
+  </si>
+  <si>
+    <t>1023 PATRIKA (25418)</t>
+  </si>
+  <si>
+    <t>1024 PATRIKA (25322)</t>
+  </si>
+  <si>
+    <t>1025 PATRIKA (25323)</t>
+  </si>
+  <si>
+    <t>1026 PATRIKA (JC) (1173 SBC)</t>
+  </si>
+  <si>
+    <t>1027 PATRIKA (JC) (5346)</t>
+  </si>
+  <si>
+    <t>1028 PATRIKA (JC) (2596)</t>
+  </si>
+  <si>
+    <t>1029 PATRIKA (1042)</t>
+  </si>
+  <si>
+    <t>1030 PATRIKA (1043)</t>
+  </si>
+  <si>
+    <t>1031 PATRIKA (GOPAL 11)</t>
+  </si>
+  <si>
+    <t>1032 PATRIKA (GOPAL 1)</t>
+  </si>
+  <si>
+    <t>1033 PATRIKA (2002 YLW)</t>
+  </si>
+  <si>
+    <t>1034 PATRIKA (2003 R)</t>
+  </si>
+  <si>
+    <t>1035 PATRIKA (DCU) (2201 ROSHAN)</t>
+  </si>
+  <si>
+    <t>1101 PATRIKA (O.2591) (2591 ORANGE)</t>
+  </si>
+  <si>
+    <t>1102 PATRIKA (P.2591) (2591 PINK)</t>
+  </si>
+  <si>
+    <t>1103 PATRIKA(N-271) (271 NEHA)</t>
+  </si>
+  <si>
+    <t>1104 PATRIKA(N-272) (272 NEHA)</t>
+  </si>
+  <si>
+    <t>1105 PATRIKA (276-A)</t>
+  </si>
+  <si>
+    <t>1106 PATRIKA-YELLOW (25419)</t>
+  </si>
+  <si>
+    <t>1107 PATRIKA-RED (25420)</t>
+  </si>
+  <si>
+    <t>1109 PATRIKA-BIG Y (25421)</t>
+  </si>
+  <si>
+    <t>1110 PATRIKA-BIG R (25422)</t>
+  </si>
+  <si>
+    <t>1112 PATRIKA (277-B)</t>
+  </si>
+  <si>
+    <t>1113 PATRIKA (1819 MONARCH)</t>
+  </si>
+  <si>
+    <t>1114 PATRIKA-BROWN (1709)</t>
+  </si>
+  <si>
+    <t>1115 PATRIKA-CREAM (1678 PRINCE)</t>
+  </si>
+  <si>
+    <t>1116 PATRIKA (1153) (JSK 1153)</t>
+  </si>
+  <si>
+    <t>1117 PATRIKA (1155) (1155 JSK)</t>
+  </si>
+  <si>
+    <t>1118 PATRIKA - B (DCU) (NEW SAVASHREE- 51)</t>
+  </si>
+  <si>
+    <t>1118 PATRIKA (सवाश्री-57) (NEW SAVASHREE-57)</t>
+  </si>
+  <si>
+    <t>1119 PATRIKA - B (DCU) (NEW SAVASHREE 52)</t>
+  </si>
+  <si>
+    <t>1119 PATRIKA(सवाश्री-55) (NEW SAVASHREE-55)</t>
+  </si>
+  <si>
+    <t>1120 PATRIKA(सवाश्री-59) (NEW SAVASHREE-59)</t>
+  </si>
+  <si>
+    <t>1121 PATRIKA(सवाश्री-53) (NEW SAVASHREE-53)</t>
+  </si>
+  <si>
+    <t>1122 PATRIKA (DCU) (NEW SAVASHREE-54)</t>
+  </si>
+  <si>
+    <t>1123 PATRIKA (LED-51) (LED-51)</t>
+  </si>
+  <si>
+    <t>1124 PATRIKA (LED-52) (LED-52)</t>
+  </si>
+  <si>
+    <t>1125 PATRIKA (LED-53) (LED-53)</t>
+  </si>
+  <si>
+    <t>1126 PATRIKA (LED-54) (LED-54)</t>
+  </si>
+  <si>
+    <t>1127 PATRIKA (Eco-52) (NEW ECO-52)</t>
+  </si>
+  <si>
+    <t>1128 PATRIKA (Eco-55) (NEW ECO-55)</t>
+  </si>
+  <si>
+    <t>1129 PATRIKA (Eco-56) (NEW ECO-56)</t>
+  </si>
+  <si>
+    <t>1130 PATRIKA - B (ECO-60) (DCU) (NEW ECO 60)</t>
+  </si>
+  <si>
+    <t>1130 PATRIKA (Eco-59) (NEW ECO-59)</t>
+  </si>
+  <si>
+    <t>1131 PATRIKA (DCU) Eco-51 (NEW ECO- 51)</t>
+  </si>
+  <si>
+    <t>1132 PATRIKA (DCU) Eco-53 (NEW ECO- 53)</t>
+  </si>
+  <si>
+    <t>1133 PATRIKA (DCU) Eco-57 (NEW ECO- 57)</t>
+  </si>
+  <si>
+    <t>1134 PATRIKA (DCU) Eco-58 (NEW ECO- 58)</t>
+  </si>
+  <si>
+    <t>1135 PATRIKA (DCU) Eco-54 (NEW ECO- 54)</t>
+  </si>
+  <si>
+    <t>1136 PATRIKA (R) (120 GSM RED)</t>
+  </si>
+  <si>
+    <t>1137 PATRIKA (P) (120 GSM YELLOW)</t>
+  </si>
+  <si>
+    <t>1138 PATRIKA (BR) (150 GSM FOIL (RED))</t>
+  </si>
+  <si>
+    <t>1139 PATRIKA (BY) (150 GSM FOIL (YELLOW))</t>
+  </si>
+  <si>
+    <t>1140 PATRIKA (BB) (150 GSM FOIL (BROWN))</t>
+  </si>
+  <si>
+    <t>1141 PATRIKA (R) (120 GSM (RED)SELF)</t>
+  </si>
+  <si>
+    <t>1142 PATRIKA (P) (120 GSM (YELLOW) SELF)</t>
+  </si>
+  <si>
+    <t>1143 PATRIKA (G) (120 GSM (OLD GOLDEN))</t>
+  </si>
+  <si>
+    <t>1144 PATRIKA (BR) (170 GSM WITH FOIL (RED))</t>
+  </si>
+  <si>
+    <t>1145 PATRIKA (BY) (170 GSM WITH FOIL (YELLOW))</t>
+  </si>
+  <si>
+    <t>1147 PATRIKA (S.201) (201 WESTERN)</t>
+  </si>
+  <si>
+    <t>1148 PATRIKA (S.202) (202 WESTERN)</t>
+  </si>
+  <si>
+    <t>1149 PATRIKA (S.204) (204 WESTERN)</t>
+  </si>
+  <si>
+    <t>1150 PATRIKA (DCU) (NEW SAVASHREE-58)</t>
+  </si>
+  <si>
+    <t>1151 PATRIKA (DCU) (NEW SAVASHREE-56)</t>
+  </si>
+  <si>
+    <t>1152 PATRIKA (DCU) (WESTERN 202 OLD)</t>
+  </si>
+  <si>
+    <t>1153 PATRIKA (DCU) (201 WESTERN (OLD))</t>
+  </si>
+  <si>
+    <t>1154 PATRIKA (DCU) (203 WESTERN A)</t>
+  </si>
+  <si>
+    <t>1155 PATRIKA (DCU) (WESTERN (203) B)</t>
+  </si>
+  <si>
+    <t>1156 PATRIKA-YELLOW (LU-51 (YELLOW))</t>
+  </si>
+  <si>
+    <t>1157 PATRIKA-CREAM (LU-52 (CREAM))</t>
+  </si>
+  <si>
+    <t>1158 PATRIKA-GOLDEN (LU-53 (GOLDEN))</t>
+  </si>
+  <si>
+    <t>1159 PATRIKA-WHITE (LU-54 (WHITE))</t>
+  </si>
+  <si>
+    <t>1160 PATRIKA-PINK (LU-55 (PINK))</t>
+  </si>
+  <si>
+    <t>1161 PATRIKA (01) (JCC 01)</t>
+  </si>
+  <si>
+    <t>1162 PATRIKA (02) (JCC 02)</t>
   </si>
   <si>
     <t>2025 ALBUM (JC)</t>
@@ -392,109 +392,109 @@
     <t>2025- INVITAION (BOX) SAMPLES</t>
   </si>
   <si>
-    <t>2101 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>2102 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2103 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>2104 PATRIKA</t>
-  </si>
-  <si>
-    <t>2105 PATRIKA</t>
-  </si>
-  <si>
-    <t>2106 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>2107 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2108 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2109 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>2110 PATRIKA</t>
-  </si>
-  <si>
-    <t>2111 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2112 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>2113 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>2114 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>2115 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>2116 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>2117 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2118 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>2119 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>2120 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>2121 PATRIKA</t>
-  </si>
-  <si>
-    <t>2122 PATRIKA</t>
-  </si>
-  <si>
-    <t>2123 PATRIKA</t>
-  </si>
-  <si>
-    <t>2124 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2125 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2126 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2127 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2128 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2129 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2130 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2131 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2132 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2133 PATRIKA</t>
-  </si>
-  <si>
-    <t>2134 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2135 PATRIKA *-* (M)</t>
+    <t>2101 PATRIKA (L) (LUXYA - 51)</t>
+  </si>
+  <si>
+    <t>2102 PATRIKA *-* (M) (LUXYA - 52)</t>
+  </si>
+  <si>
+    <t>2103 PATRIKA (L) (LUXYA - 53)</t>
+  </si>
+  <si>
+    <t>2104 PATRIKA (LUXYA - 54)</t>
+  </si>
+  <si>
+    <t>2105 PATRIKA (LUXYA - 55)</t>
+  </si>
+  <si>
+    <t>2106 PATRIKA (L) (LUXYA - 56)</t>
+  </si>
+  <si>
+    <t>2107 PATRIKA *-* (M) (LUXYA - 57)</t>
+  </si>
+  <si>
+    <t>2108 PATRIKA *-* (M) (LUXYA - 59)</t>
+  </si>
+  <si>
+    <t>2109 PATRIKA (L) (LUXYA - 60)</t>
+  </si>
+  <si>
+    <t>2110 PATRIKA (LUXYA - 61)</t>
+  </si>
+  <si>
+    <t>2111 PATRIKA *-* (M) (LUXYA - 62)</t>
+  </si>
+  <si>
+    <t>2112 PATRIKA (L) (LEGACY - 01)</t>
+  </si>
+  <si>
+    <t>2113 PATRIKA (L) (LEGACY - 02)</t>
+  </si>
+  <si>
+    <t>2114 PATRIKA (L) (LEGACY - 03)</t>
+  </si>
+  <si>
+    <t>2115 PATRIKA (L) (LEGACY - 04)</t>
+  </si>
+  <si>
+    <t>2116 PATRIKA (L) (LEGACY - 05)</t>
+  </si>
+  <si>
+    <t>2117 PATRIKA *-* (M) (LEGACY - 06)</t>
+  </si>
+  <si>
+    <t>2118 PATRIKA (L) (LEGACY - 07)</t>
+  </si>
+  <si>
+    <t>2119 PATRIKA (L) (LEGACY - 08)</t>
+  </si>
+  <si>
+    <t>2120 PATRIKA (L) (LEGACY - 09)</t>
+  </si>
+  <si>
+    <t>2121 PATRIKA (LEGACY - 10)</t>
+  </si>
+  <si>
+    <t>2122 PATRIKA (LEGACY - 11)</t>
+  </si>
+  <si>
+    <t>2123 PATRIKA (LEGACY - 12)</t>
+  </si>
+  <si>
+    <t>2124 PATRIKA *-* (M) (LOTTERY - 71)</t>
+  </si>
+  <si>
+    <t>2125 PATRIKA *-* (M) (LOTTERY - 72)</t>
+  </si>
+  <si>
+    <t>2126 PATRIKA *-* (M) (LOTTERY - 73)</t>
+  </si>
+  <si>
+    <t>2127 PATRIKA *-* (M) (LOTTERY - 74)</t>
+  </si>
+  <si>
+    <t>2128 PATRIKA *-* (M) (LOTTERY - 75)</t>
+  </si>
+  <si>
+    <t>2129 PATRIKA *-* (M) (LOTTERY - 76)</t>
+  </si>
+  <si>
+    <t>2130 PATRIKA *-* (M) (LOTTERY - 77)</t>
+  </si>
+  <si>
+    <t>2131 PATRIKA *-* (M) (LOTTERY - 78)</t>
+  </si>
+  <si>
+    <t>2132 PATRIKA *-* (M) (LOTTERY - 79)</t>
+  </si>
+  <si>
+    <t>2133 PATRIKA (LOTTERY - 80)</t>
+  </si>
+  <si>
+    <t>2134 PATRIKA *-* (M) (LOTTERY - 81)</t>
+  </si>
+  <si>
+    <t>2135 PATRIKA *-* (M) (LOTTERY - 82)</t>
   </si>
   <si>
     <t>240 ENVELOPE</t>
@@ -515,1207 +515,1207 @@
     <t>330 ENVELOPE (B)</t>
   </si>
   <si>
-    <t>4251 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>4252 PATRIKA</t>
-  </si>
-  <si>
-    <t>4253 PATRIKA</t>
-  </si>
-  <si>
-    <t>4254 PATRIKA (4210)</t>
-  </si>
-  <si>
-    <t>4255 PATRIKA - B (DCU)</t>
-  </si>
-  <si>
-    <t>4255 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>4256 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>4257 PATRIKA</t>
-  </si>
-  <si>
-    <t>4258 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>4259 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>4260 PATRIKA</t>
-  </si>
-  <si>
-    <t>4261 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>4262 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>4263 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>4264 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>4265 PATRIKA</t>
-  </si>
-  <si>
-    <t>4266 PATRIKA</t>
-  </si>
-  <si>
-    <t>4267 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>4268 PATRIKA (JC) *-* (M+T)</t>
-  </si>
-  <si>
-    <t>4269 PATRIKA</t>
-  </si>
-  <si>
-    <t>4270 PATRIKA</t>
-  </si>
-  <si>
-    <t>4271 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>4272 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>4273 PATRIKA</t>
-  </si>
-  <si>
-    <t>4274 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>4275 PATRIKA</t>
-  </si>
-  <si>
-    <t>4276 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>4277 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>4278 PATRIKA</t>
-  </si>
-  <si>
-    <t>4279 PATRIKA</t>
-  </si>
-  <si>
-    <t>4280 PATRIKA</t>
-  </si>
-  <si>
-    <t>4281 PATRIKA</t>
-  </si>
-  <si>
-    <t>4282 PATRIKA</t>
-  </si>
-  <si>
-    <t>4283 PATRIKA - B (YELLOW)</t>
-  </si>
-  <si>
-    <t>4283 PATRIKA (GOLDEN)</t>
-  </si>
-  <si>
-    <t>4284 PATRIKA</t>
-  </si>
-  <si>
-    <t>4285 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>4286 PATRIKA</t>
-  </si>
-  <si>
-    <t>4287 PATRIKA</t>
-  </si>
-  <si>
-    <t>4288 PATRIKA</t>
-  </si>
-  <si>
-    <t>4289 PATRIKA</t>
-  </si>
-  <si>
-    <t>4290 PATRIKA</t>
-  </si>
-  <si>
-    <t>4291 PATRIKA</t>
-  </si>
-  <si>
-    <t>4292 PATRIKA</t>
-  </si>
-  <si>
-    <t>4293 PATRIKA</t>
-  </si>
-  <si>
-    <t>4294 PATRIKA</t>
-  </si>
-  <si>
-    <t>4295 PATRIKA</t>
-  </si>
-  <si>
-    <t>4296 PATRIKA</t>
-  </si>
-  <si>
-    <t>4297 PATRIKA</t>
-  </si>
-  <si>
-    <t>4298 PATRIKA</t>
-  </si>
-  <si>
-    <t>4299 PATRIKA</t>
-  </si>
-  <si>
-    <t>4300 PATRIKA</t>
-  </si>
-  <si>
-    <t>4301 PATRIKA</t>
-  </si>
-  <si>
-    <t>4302 PATRIKA</t>
-  </si>
-  <si>
-    <t>4303 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>4304 PATRIKA</t>
-  </si>
-  <si>
-    <t>4305 PATRIKA</t>
-  </si>
-  <si>
-    <t>4306 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>4307 PATRIKA</t>
-  </si>
-  <si>
-    <t>4308 PATRIKA</t>
-  </si>
-  <si>
-    <t>4309 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>4310 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>4311 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>4312 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5051 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5052 PATRIKA</t>
-  </si>
-  <si>
-    <t>5053 PATRIKA</t>
-  </si>
-  <si>
-    <t>5054 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5055 PATRIKA</t>
-  </si>
-  <si>
-    <t>5056 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5057 PATRIKA</t>
-  </si>
-  <si>
-    <t>5058 PATRIKA</t>
-  </si>
-  <si>
-    <t>5059 PATRIKA</t>
-  </si>
-  <si>
-    <t>5060 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5061 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5062 PATRIKA</t>
-  </si>
-  <si>
-    <t>5063 PATRIKA</t>
-  </si>
-  <si>
-    <t>5064 PATRIKA</t>
-  </si>
-  <si>
-    <t>5065 PATRIKA</t>
-  </si>
-  <si>
-    <t>5066 PATRIKA</t>
-  </si>
-  <si>
-    <t>5067 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5068 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5069 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5070 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5071 PATRIKA *-* (D)</t>
-  </si>
-  <si>
-    <t>5072 PATRIKA</t>
-  </si>
-  <si>
-    <t>5073 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5074 PATRIKA</t>
-  </si>
-  <si>
-    <t>5075 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5076 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5077 PATRIKA</t>
-  </si>
-  <si>
-    <t>5078 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5079 PATRIKA</t>
-  </si>
-  <si>
-    <t>5080 PATRIKA</t>
-  </si>
-  <si>
-    <t>5081 PATRIKA</t>
-  </si>
-  <si>
-    <t>5083 PATRIKA</t>
-  </si>
-  <si>
-    <t>5084 PATRIKA</t>
-  </si>
-  <si>
-    <t>5085 PATRIKA</t>
-  </si>
-  <si>
-    <t>5086 PATRIKA (JC) *-* (M+D)</t>
-  </si>
-  <si>
-    <t>5087 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5088 PATRIKA</t>
-  </si>
-  <si>
-    <t>5089 PATRIKA</t>
-  </si>
-  <si>
-    <t>5090 PATRIKA</t>
-  </si>
-  <si>
-    <t>5091 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5092 PATRIKA</t>
-  </si>
-  <si>
-    <t>5093 PATRIKA</t>
-  </si>
-  <si>
-    <t>5094 PATRIKA</t>
-  </si>
-  <si>
-    <t>5095 PATRIKA</t>
-  </si>
-  <si>
-    <t>5096 PATRIKA</t>
-  </si>
-  <si>
-    <t>5097 PATRIKA</t>
-  </si>
-  <si>
-    <t>5098 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5099 PATRIKA *-* (M) MONDAY</t>
-  </si>
-  <si>
-    <t>5100 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5102 PATRIKA (5021)</t>
-  </si>
-  <si>
-    <t>5103 PATRIKA</t>
-  </si>
-  <si>
-    <t>5104 PATRIKA</t>
-  </si>
-  <si>
-    <t>5105 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5106 PATRIKA</t>
-  </si>
-  <si>
-    <t>5107 PATRIKA</t>
-  </si>
-  <si>
-    <t>5108 PATRIKA</t>
-  </si>
-  <si>
-    <t>5109 PATRIKA</t>
-  </si>
-  <si>
-    <t>5110 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5111 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5112 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5113 PATRIKA</t>
-  </si>
-  <si>
-    <t>5114 PATRIKA *-* (D)</t>
-  </si>
-  <si>
-    <t>5115 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5116 PATRIKA</t>
-  </si>
-  <si>
-    <t>5117 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5118 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5501 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5502 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5503 PATRIKA</t>
-  </si>
-  <si>
-    <t>5504 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5505 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5506 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5507 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5508 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5509 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5510 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5511 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5512 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5513 PATRIKA</t>
-  </si>
-  <si>
-    <t>5514 PATRIKA</t>
-  </si>
-  <si>
-    <t>5515 PATRIKA</t>
-  </si>
-  <si>
-    <t>5516 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5517 PATRIKA *-* (M) (Patti Aayegi)</t>
-  </si>
-  <si>
-    <t>5518 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5519 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5520 PATRIKA</t>
-  </si>
-  <si>
-    <t>5521 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5522 PATRIKA</t>
-  </si>
-  <si>
-    <t>5523 PATRIKA</t>
-  </si>
-  <si>
-    <t>5524 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5525 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5526 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5527 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5528 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5529 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5530 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5531 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5532 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5533 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5534 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5535 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5537 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5538 PATRIKA (JC) *-* (M)</t>
+    <t>4251 PATRIKA (JC) (5342)</t>
+  </si>
+  <si>
+    <t>4252 PATRIKA (5207)</t>
+  </si>
+  <si>
+    <t>4253 PATRIKA (5206)</t>
+  </si>
+  <si>
+    <t>4254 PATRIKA (4210) (10273/10277)</t>
+  </si>
+  <si>
+    <t>4255 PATRIKA - B (DCU) (AS-02 (B))</t>
+  </si>
+  <si>
+    <t>4255 PATRIKA (JC) (AS-02 (NEW))</t>
+  </si>
+  <si>
+    <t>4256 PATRIKA (JC) *-* (M) (1352 VV)</t>
+  </si>
+  <si>
+    <t>4257 PATRIKA (82)</t>
+  </si>
+  <si>
+    <t>4258 PATRIKA (JC) (1129)</t>
+  </si>
+  <si>
+    <t>4259 PATRIKA (JC) (101 SBC)</t>
+  </si>
+  <si>
+    <t>4260 PATRIKA (1102)</t>
+  </si>
+  <si>
+    <t>4261 PATRIKA (JC) (959)</t>
+  </si>
+  <si>
+    <t>4262 PATRIKA (JC) (S-201 GANESH JI)</t>
+  </si>
+  <si>
+    <t>4263 PATRIKA (JC) (2571)</t>
+  </si>
+  <si>
+    <t>4264 PATRIKA (DCU) (1351)</t>
+  </si>
+  <si>
+    <t>4265 PATRIKA (83)</t>
+  </si>
+  <si>
+    <t>4266 PATRIKA (25-145)</t>
+  </si>
+  <si>
+    <t>4267 PATRIKA (JC) (25-046)</t>
+  </si>
+  <si>
+    <t>4268 PATRIKA (JC) *-* (M+T) (S-296)</t>
+  </si>
+  <si>
+    <t>4269 PATRIKA (111 SBC)</t>
+  </si>
+  <si>
+    <t>4270 PATRIKA (1151 GGN)</t>
+  </si>
+  <si>
+    <t>4271 PATRIKA (JC) (25216)</t>
+  </si>
+  <si>
+    <t>4272 PATRIKA (JC) (1231 SBC CRM)</t>
+  </si>
+  <si>
+    <t>4273 PATRIKA (2547)</t>
+  </si>
+  <si>
+    <t>4274 PATRIKA (JC) (25369)</t>
+  </si>
+  <si>
+    <t>4275 PATRIKA (25367)</t>
+  </si>
+  <si>
+    <t>4276 PATRIKA (JC) *-* (M) (2632)</t>
+  </si>
+  <si>
+    <t>4277 PATRIKA (JC) *-* (M) (25365)</t>
+  </si>
+  <si>
+    <t>4278 PATRIKA (25368)</t>
+  </si>
+  <si>
+    <t>4279 PATRIKA (1031)</t>
+  </si>
+  <si>
+    <t>4280 PATRIKA (25301)</t>
+  </si>
+  <si>
+    <t>4281 PATRIKA (25312 MYRA)</t>
+  </si>
+  <si>
+    <t>4282 PATRIKA (3117)</t>
+  </si>
+  <si>
+    <t>4283 PATRIKA - B (YELLOW) (3116-YLW)</t>
+  </si>
+  <si>
+    <t>4283 PATRIKA (GOLDEN) (3116)</t>
+  </si>
+  <si>
+    <t>4284 PATRIKA (1173 VV)</t>
+  </si>
+  <si>
+    <t>4285 PATRIKA (JC) *-* (M) (4626)</t>
+  </si>
+  <si>
+    <t>4286 PATRIKA (5254  RJN)</t>
+  </si>
+  <si>
+    <t>4287 PATRIKA (25402)</t>
+  </si>
+  <si>
+    <t>4288 PATRIKA (10001 NEW)</t>
+  </si>
+  <si>
+    <t>4289 PATRIKA (10002 NEW)</t>
+  </si>
+  <si>
+    <t>4290 PATRIKA (316 MYRA)</t>
+  </si>
+  <si>
+    <t>4291 PATRIKA (25401)</t>
+  </si>
+  <si>
+    <t>4292 PATRIKA (25311)</t>
+  </si>
+  <si>
+    <t>4293 PATRIKA (25312)</t>
+  </si>
+  <si>
+    <t>4294 PATRIKA (5273)</t>
+  </si>
+  <si>
+    <t>4295 PATRIKA (286-A)</t>
+  </si>
+  <si>
+    <t>4296 PATRIKA (1407)</t>
+  </si>
+  <si>
+    <t>4297 PATRIKA (306)</t>
+  </si>
+  <si>
+    <t>4298 PATRIKA (5501)</t>
+  </si>
+  <si>
+    <t>4299 PATRIKA (2011)</t>
+  </si>
+  <si>
+    <t>4300 PATRIKA (25314)</t>
+  </si>
+  <si>
+    <t>4301 PATRIKA (25315)</t>
+  </si>
+  <si>
+    <t>4302 PATRIKA (1402)</t>
+  </si>
+  <si>
+    <t>4303 PATRIKA (JC) (1234*-M)</t>
+  </si>
+  <si>
+    <t>4304 PATRIKA (5172)</t>
+  </si>
+  <si>
+    <t>4305 PATRIKA (25313)</t>
+  </si>
+  <si>
+    <t>4306 PATRIKA (JC) (427 LOTUS)</t>
+  </si>
+  <si>
+    <t>4307 PATRIKA (BALAJI 5202)</t>
+  </si>
+  <si>
+    <t>4308 PATRIKA (LOTUS 430)</t>
+  </si>
+  <si>
+    <t>4309 PATRIKA (DCU) (3751 Patta)</t>
+  </si>
+  <si>
+    <t>4310 PATRIKA (DCU) (3752 Swastik)</t>
+  </si>
+  <si>
+    <t>4311 PATRIKA (DCU) (251 KBC)</t>
+  </si>
+  <si>
+    <t>4312 PATRIKA (DCU) (273-A)</t>
+  </si>
+  <si>
+    <t>5051 PATRIKA *-* (M) (5087)</t>
+  </si>
+  <si>
+    <t>5052 PATRIKA (5295)</t>
+  </si>
+  <si>
+    <t>5053 PATRIKA (5213)</t>
+  </si>
+  <si>
+    <t>5054 PATRIKA *-* (M) (25/162)</t>
+  </si>
+  <si>
+    <t>5055 PATRIKA (25/272)</t>
+  </si>
+  <si>
+    <t>5056 PATRIKA (JC) (25/271)</t>
+  </si>
+  <si>
+    <t>5057 PATRIKA (25/171)</t>
+  </si>
+  <si>
+    <t>5058 PATRIKA (8802)</t>
+  </si>
+  <si>
+    <t>5059 PATRIKA (8803)</t>
+  </si>
+  <si>
+    <t>5060 PATRIKA (JC) (7713)</t>
+  </si>
+  <si>
+    <t>5061 PATRIKA (DCU) (1405)</t>
+  </si>
+  <si>
+    <t>5062 PATRIKA (7705)</t>
+  </si>
+  <si>
+    <t>5063 PATRIKA (2522 GE)</t>
+  </si>
+  <si>
+    <t>5064 PATRIKA (2517 GE)</t>
+  </si>
+  <si>
+    <t>5065 PATRIKA (2527)</t>
+  </si>
+  <si>
+    <t>5066 PATRIKA (2536)</t>
+  </si>
+  <si>
+    <t>5067 PATRIKA (JC) (S-301)</t>
+  </si>
+  <si>
+    <t>5068 PATRIKA (DCU) (S-305)</t>
+  </si>
+  <si>
+    <t>5069 PATRIKA (JC) (1103)</t>
+  </si>
+  <si>
+    <t>5070 PATRIKA (JC) (2156  YELLOW)</t>
+  </si>
+  <si>
+    <t>5071 PATRIKA *-* (डोरी) (741)</t>
+  </si>
+  <si>
+    <t>5072 PATRIKA (5347 DIRECT)</t>
+  </si>
+  <si>
+    <t>5073 PATRIKA *-* (M) (3161)</t>
+  </si>
+  <si>
+    <t>5074 PATRIKA (1151 VV)</t>
+  </si>
+  <si>
+    <t>5075 PATRIKA (JC) (25-082)</t>
+  </si>
+  <si>
+    <t>5076 PATRIKA (JC) (3701 SBC)</t>
+  </si>
+  <si>
+    <t>5077 PATRIKA (2081)</t>
+  </si>
+  <si>
+    <t>5078 PATRIKA (DCU) (2156 CREAM)</t>
+  </si>
+  <si>
+    <t>5079 PATRIKA (296-A (NEHA)</t>
+  </si>
+  <si>
+    <t>5080 PATRIKA (2501 GE NEW)</t>
+  </si>
+  <si>
+    <t>5081 PATRIKA (2520 GE)</t>
+  </si>
+  <si>
+    <t>5083 PATRIKA (5267)</t>
+  </si>
+  <si>
+    <t>5084 PATRIKA (5258 RJ)</t>
+  </si>
+  <si>
+    <t>5085 PATRIKA (2023)</t>
+  </si>
+  <si>
+    <t>5086 PATRIKA (JC) *-* (M+D) (942)</t>
+  </si>
+  <si>
+    <t>5087 PATRIKA (JC) (2206)</t>
+  </si>
+  <si>
+    <t>5088 PATRIKA (25214)</t>
+  </si>
+  <si>
+    <t>5089 PATRIKA (2061 SBC)</t>
+  </si>
+  <si>
+    <t>5090 PATRIKA (5236 RJ)</t>
+  </si>
+  <si>
+    <t>5091 PATRIKA (JC) (1411 KBC)</t>
+  </si>
+  <si>
+    <t>5092 PATRIKA (05 NAVIN BHAI)</t>
+  </si>
+  <si>
+    <t>5093 PATRIKA (5350)</t>
+  </si>
+  <si>
+    <t>5094 PATRIKA (5251)</t>
+  </si>
+  <si>
+    <t>5095 PATRIKA (5240)</t>
+  </si>
+  <si>
+    <t>5096 PATRIKA (25316)</t>
+  </si>
+  <si>
+    <t>5097 PATRIKA (25321)</t>
+  </si>
+  <si>
+    <t>5098 PATRIKA *-* (M) (857)</t>
+  </si>
+  <si>
+    <t>5099 PATRIKA *-* (M) (852 DHANESH)</t>
+  </si>
+  <si>
+    <t>5100 PATRIKA (DCU) (5339)</t>
+  </si>
+  <si>
+    <t>5102 PATRIKA (5021) (2456)</t>
+  </si>
+  <si>
+    <t>5103 PATRIKA (2071)</t>
+  </si>
+  <si>
+    <t>5104 PATRIKA (5261 RJND)</t>
+  </si>
+  <si>
+    <t>5105 PATRIKA (JC) (5335)</t>
+  </si>
+  <si>
+    <t>5106 PATRIKA (253-A / 257-A)</t>
+  </si>
+  <si>
+    <t>5107 PATRIKA (5356 RJ)</t>
+  </si>
+  <si>
+    <t>5108 PATRIKA (5333)</t>
+  </si>
+  <si>
+    <t>5109 PATRIKA (5308)</t>
+  </si>
+  <si>
+    <t>5110 PATRIKA (JC) (AS-402)</t>
+  </si>
+  <si>
+    <t>5111 PATRIKA (JC) (5313)</t>
+  </si>
+  <si>
+    <t>5112 PATRIKA (JC) *-* (M) (25437)</t>
+  </si>
+  <si>
+    <t>5113 PATRIKA (5305)</t>
+  </si>
+  <si>
+    <t>5114 PATRIKA *-* (डोरी) (2091)</t>
+  </si>
+  <si>
+    <t>5115 PATRIKA (DCU) (5363 RJND)</t>
+  </si>
+  <si>
+    <t>5116 PATRIKA (2031)</t>
+  </si>
+  <si>
+    <t>5117 PATRIKA (DCU) (3331)</t>
+  </si>
+  <si>
+    <t>5118 PATRIKA (DCU) (25436)</t>
+  </si>
+  <si>
+    <t>5501 PATRIKA (DCU) (985 PISTA)</t>
+  </si>
+  <si>
+    <t>5502 PATRIKA *-* (M) (5355 NICE)</t>
+  </si>
+  <si>
+    <t>5503 PATRIKA (5186)</t>
+  </si>
+  <si>
+    <t>5504 PATRIKA (JC) (7033)</t>
+  </si>
+  <si>
+    <t>5505 PATRIKA (JC) *-* (M) (2282)</t>
+  </si>
+  <si>
+    <t>5506 PATRIKA *-* (M) (25/122)</t>
+  </si>
+  <si>
+    <t>5507 PATRIKA (JC) (8055 VV)</t>
+  </si>
+  <si>
+    <t>5508 PATRIKA (JC) (612 VV)</t>
+  </si>
+  <si>
+    <t>5509 PATRIKA (JC) (25/072)</t>
+  </si>
+  <si>
+    <t>5510 PATRIKA (JC) *-* (M) (AS-950)</t>
+  </si>
+  <si>
+    <t>5511 PATRIKA (JC) *-* (M) (2528)</t>
+  </si>
+  <si>
+    <t>5512 PATRIKA (JC) (2525 /2552)</t>
+  </si>
+  <si>
+    <t>5513 PATRIKA (2515)</t>
+  </si>
+  <si>
+    <t>5514 PATRIKA (2542)</t>
+  </si>
+  <si>
+    <t>5515 PATRIKA (2523)</t>
+  </si>
+  <si>
+    <t>5516 PATRIKA (JC) *-* (M) (5302 VV)</t>
+  </si>
+  <si>
+    <t>5517 PATRIKA *-* (M) (Patti Aayegi) (6301)</t>
+  </si>
+  <si>
+    <t>5518 PATRIKA (JC) *-* (M) (922)</t>
+  </si>
+  <si>
+    <t>5519 PATRIKA *-* (M) (7066)</t>
+  </si>
+  <si>
+    <t>5520 PATRIKA (1054)</t>
+  </si>
+  <si>
+    <t>5521 PATRIKA (JC) *-* (M) (35)</t>
+  </si>
+  <si>
+    <t>5522 PATRIKA (2231)</t>
+  </si>
+  <si>
+    <t>5523 PATRIKA (2232)</t>
+  </si>
+  <si>
+    <t>5524 PATRIKA (DCU) (5382)</t>
+  </si>
+  <si>
+    <t>5525 PATRIKA *-* (M) (5283)</t>
+  </si>
+  <si>
+    <t>5526 PATRIKA (DCU) (NEW LUSTER - 01)</t>
+  </si>
+  <si>
+    <t>5527 PATRIKA (DCU) (NEW LUSTER - 02)</t>
+  </si>
+  <si>
+    <t>5528 PATRIKA *-* (M) (NEW LUSTER - 03)</t>
+  </si>
+  <si>
+    <t>5529 PATRIKA *-* (M) (NEW LUSTER - 04)</t>
+  </si>
+  <si>
+    <t>5530 PATRIKA *-* (M) (NEW LUSTER - 05)</t>
+  </si>
+  <si>
+    <t>5531 PATRIKA (DCU) (NEW LUSTER - 06)</t>
+  </si>
+  <si>
+    <t>5532 PATRIKA *-* (M) (NEW LUSTER - 07)</t>
+  </si>
+  <si>
+    <t>5533 PATRIKA *-* (M) (NEW LUSTER - 08)</t>
+  </si>
+  <si>
+    <t>5534 PATRIKA *-* (M) (NEW LUSTER - 09)</t>
+  </si>
+  <si>
+    <t>5535 PATRIKA (JC) *-* (M) (1007)</t>
+  </si>
+  <si>
+    <t>5537 PATRIKA (JC) (25-052)</t>
+  </si>
+  <si>
+    <t>5538 PATRIKA (JC) *-* (M) (7073)</t>
   </si>
   <si>
     <t>5539 PATRIKA-B</t>
   </si>
   <si>
-    <t>5539 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5540 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5541 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5542 PATRIKA</t>
-  </si>
-  <si>
-    <t>5543 PATRIKA</t>
-  </si>
-  <si>
-    <t>5544 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5545 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5546 PATRIKA</t>
-  </si>
-  <si>
-    <t>5547 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5548 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5549 PATRIKA</t>
-  </si>
-  <si>
-    <t>5550 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5551 PATRIKA</t>
-  </si>
-  <si>
-    <t>5552 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5553 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5554 PATRIKA *-* (F/G)</t>
-  </si>
-  <si>
-    <t>5555 PATRIKA</t>
-  </si>
-  <si>
-    <t>5556 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5557 PATRIKA MONDAY</t>
-  </si>
-  <si>
-    <t>5558 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5559 PATRIKA</t>
-  </si>
-  <si>
-    <t>5560 PATRIKA (F/G) *-*</t>
-  </si>
-  <si>
-    <t>5561 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5562 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5563 PATRIKA</t>
-  </si>
-  <si>
-    <t>5564 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5565 PATRIKA</t>
-  </si>
-  <si>
-    <t>5566 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5567 PATRIKA</t>
-  </si>
-  <si>
-    <t>5568 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5569 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5570 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5571 PATRIKA *-* (M) MONDAY</t>
-  </si>
-  <si>
-    <t>5572 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5573 PATRIKA</t>
-  </si>
-  <si>
-    <t>5574 PATRIKA</t>
-  </si>
-  <si>
-    <t>5575 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5576 PATRIKA</t>
-  </si>
-  <si>
-    <t>5577 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5578 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5579 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5580 PATRIKA</t>
-  </si>
-  <si>
-    <t>5581 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5582 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5583 PATRIKA</t>
-  </si>
-  <si>
-    <t>5584 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5585 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5586 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5587 PATRIKA</t>
-  </si>
-  <si>
-    <t>5588 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5589 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5590 PATRIKA</t>
-  </si>
-  <si>
-    <t>5591 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5592 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5593 PATRIKA</t>
-  </si>
-  <si>
-    <t>5594 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5595 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5596 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5597 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5599 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5600 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5601 PATRIKA</t>
-  </si>
-  <si>
-    <t>5602 PATRIKA</t>
-  </si>
-  <si>
-    <t>5603 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5604 PATRIKA</t>
-  </si>
-  <si>
-    <t>5605 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5606 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5607 PATRIKA</t>
-  </si>
-  <si>
-    <t>5608 PATRIKA</t>
-  </si>
-  <si>
-    <t>5609 PATRIKA</t>
-  </si>
-  <si>
-    <t>5610 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5611 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5612 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5613 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5614 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5615 PATRIKA</t>
-  </si>
-  <si>
-    <t>5616 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5617 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5618 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5619 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5620 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5621 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5622 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5623 PATRIKA</t>
-  </si>
-  <si>
-    <t>5624 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5625 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>6601 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>6602 PATRIKA</t>
-  </si>
-  <si>
-    <t>6603 PATRIKA</t>
-  </si>
-  <si>
-    <t>6604 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6605 PATRIKA</t>
-  </si>
-  <si>
-    <t>6606 PATRIKA</t>
-  </si>
-  <si>
-    <t>6607 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6608 PATRIKA</t>
-  </si>
-  <si>
-    <t>6609 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6610 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6611 PATRIKA</t>
-  </si>
-  <si>
-    <t>6612 PATRIKA</t>
-  </si>
-  <si>
-    <t>6613 PATRIKA</t>
-  </si>
-  <si>
-    <t>6614 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>6615 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6616 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6617 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6618 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6619 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6620 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6621 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6622 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6623 PATRIKA</t>
-  </si>
-  <si>
-    <t>6624 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6625 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6626 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6627 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6628 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6629 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6630 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6631 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>6632 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>6633 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6634 PATRIKA</t>
-  </si>
-  <si>
-    <t>6635 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6636 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6637 PATRIKA</t>
-  </si>
-  <si>
-    <t>6638 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6639 PATRIKA</t>
+    <t>5539 PATRIKA (JC) (2942)</t>
+  </si>
+  <si>
+    <t>5540 PATRIKA *-* (M) (S-96)</t>
+  </si>
+  <si>
+    <t>5541 PATRIKA (JC) (2101)</t>
+  </si>
+  <si>
+    <t>5542 PATRIKA (2261)</t>
+  </si>
+  <si>
+    <t>5543 PATRIKA (2353)</t>
+  </si>
+  <si>
+    <t>5544 PATRIKA *-* (M) (2732)</t>
+  </si>
+  <si>
+    <t>5545 PATRIKA *-* (M) (2791)</t>
+  </si>
+  <si>
+    <t>5546 PATRIKA (718)</t>
+  </si>
+  <si>
+    <t>5547 PATRIKA *-* (M) (S-32)</t>
+  </si>
+  <si>
+    <t>5548 PATRIKA (DCU) (2792)</t>
+  </si>
+  <si>
+    <t>5549 PATRIKA (5261 NICE)</t>
+  </si>
+  <si>
+    <t>5550 PATRIKA *-* (M) (5424)</t>
+  </si>
+  <si>
+    <t>5551 PATRIKA (5231)</t>
+  </si>
+  <si>
+    <t>5552 PATRIKA (JC) *-* (M) (S-163)</t>
+  </si>
+  <si>
+    <t>5553 PATRIKA *-* (M) (5004)</t>
+  </si>
+  <si>
+    <t>5554 PATRIKA *-* (F/G) (5379)</t>
+  </si>
+  <si>
+    <t>5555 PATRIKA (2903)</t>
+  </si>
+  <si>
+    <t>5556 PATRIKA *-* (M) (2952)</t>
+  </si>
+  <si>
+    <t>5557 PATRIKA MONDAY (2312 SBC)</t>
+  </si>
+  <si>
+    <t>5558 PATRIKA *-* (M) (121 NEHA)</t>
+  </si>
+  <si>
+    <t>5559 PATRIKA (2293)</t>
+  </si>
+  <si>
+    <t>5560 PATRIKA (F/G) *-* (2915)</t>
+  </si>
+  <si>
+    <t>5561 PATRIKA *-* (M) (25358)</t>
+  </si>
+  <si>
+    <t>5562 PATRIKA *-* (M) (114-B (NEHA))</t>
+  </si>
+  <si>
+    <t>5563 PATRIKA (5387)</t>
+  </si>
+  <si>
+    <t>5564 PATRIKA (JC) *-* (M) (S-107)</t>
+  </si>
+  <si>
+    <t>5565 PATRIKA (175)</t>
+  </si>
+  <si>
+    <t>5566 PATRIKA *-* (M) (1742-B)</t>
+  </si>
+  <si>
+    <t>5567 PATRIKA (1679)</t>
+  </si>
+  <si>
+    <t>5568 PATRIKA *-* (M) (3002)</t>
+  </si>
+  <si>
+    <t>5569 PATRIKA *-* (M) (S-39)</t>
+  </si>
+  <si>
+    <t>5570 PATRIKA *-* (M) (S-74)</t>
+  </si>
+  <si>
+    <t>5571 PATRIKA *-* (M) MONDAY (25353)</t>
+  </si>
+  <si>
+    <t>5572 PATRIKA *-* (M) (25351)</t>
+  </si>
+  <si>
+    <t>5573 PATRIKA (2205)</t>
+  </si>
+  <si>
+    <t>5574 PATRIKA (25335)</t>
+  </si>
+  <si>
+    <t>5575 PATRIKA *-* (M) (S-77)</t>
+  </si>
+  <si>
+    <t>5576 PATRIKA (2531)</t>
+  </si>
+  <si>
+    <t>5577 PATRIKA *-* (M) (5808)</t>
+  </si>
+  <si>
+    <t>5578 PATRIKA (JC) *-* (M) (AS-104 / S-50)</t>
+  </si>
+  <si>
+    <t>5579 PATRIKA (JC) *-* (M) (AS-102)</t>
+  </si>
+  <si>
+    <t>5580 PATRIKA (S-326)</t>
+  </si>
+  <si>
+    <t>5581 PATRIKA *-* (M) (3471)</t>
+  </si>
+  <si>
+    <t>5582 PATRIKA *-* (M) (3512 SBC)</t>
+  </si>
+  <si>
+    <t>5583 PATRIKA (3211 SBC)</t>
+  </si>
+  <si>
+    <t>5584 PATRIKA (JC) (2202 SBC)</t>
+  </si>
+  <si>
+    <t>5585 PATRIKA *-* (M) (1201 KBC)</t>
+  </si>
+  <si>
+    <t>5586 PATRIKA *-* (M) (S-51)</t>
+  </si>
+  <si>
+    <t>5587 PATRIKA (2264)</t>
+  </si>
+  <si>
+    <t>5588 PATRIKA (JC) *-* (M) (1006)</t>
+  </si>
+  <si>
+    <t>5589 PATRIKA *-* (M) (25133)</t>
+  </si>
+  <si>
+    <t>5590 PATRIKA (3131 SBC)</t>
+  </si>
+  <si>
+    <t>5591 PATRIKA (DCU) (3735 YLW)</t>
+  </si>
+  <si>
+    <t>5592 PATRIKA *-* (M) (2365)</t>
+  </si>
+  <si>
+    <t>5593 PATRIKA (2803)</t>
+  </si>
+  <si>
+    <t>5594 PATRIKA (JC) (2931)</t>
+  </si>
+  <si>
+    <t>5595 PATRIKA *-* (M) (226)</t>
+  </si>
+  <si>
+    <t>5596 PATRIKA *-* (M) (2541)</t>
+  </si>
+  <si>
+    <t>5597 PATRIKA (JC) *-* (M) (AS-104 (B))</t>
+  </si>
+  <si>
+    <t>5599 PATRIKA *-* (M) (77-B)</t>
+  </si>
+  <si>
+    <t>5600 PATRIKA (JC) (25324)</t>
+  </si>
+  <si>
+    <t>5601 PATRIKA (2771)</t>
+  </si>
+  <si>
+    <t>5602 PATRIKA (3271)</t>
+  </si>
+  <si>
+    <t>5603 PATRIKA *-* (M) (6125)</t>
+  </si>
+  <si>
+    <t>5604 PATRIKA (242-A)</t>
+  </si>
+  <si>
+    <t>5605 PATRIKA (JC) (3102)</t>
+  </si>
+  <si>
+    <t>5606 PATRIKA *-* (M) (221-A)</t>
+  </si>
+  <si>
+    <t>5607 PATRIKA (25442)</t>
+  </si>
+  <si>
+    <t>5608 PATRIKA (25440)</t>
+  </si>
+  <si>
+    <t>5609 PATRIKA (993)</t>
+  </si>
+  <si>
+    <t>5610 PATRIKA (JC) (2373)</t>
+  </si>
+  <si>
+    <t>5611 PATRIKA *-* (M) (1211)</t>
+  </si>
+  <si>
+    <t>5612 PATRIKA (DCU) (5276)</t>
+  </si>
+  <si>
+    <t>5613 PATRIKA (JC) (1841-A)</t>
+  </si>
+  <si>
+    <t>5614 PATRIKA *-* (M) (2331)</t>
+  </si>
+  <si>
+    <t>5615 PATRIKA (2111)</t>
+  </si>
+  <si>
+    <t>5616 PATRIKA (DCU) (7069)</t>
+  </si>
+  <si>
+    <t>5617 PATRIKA *-* (M) (7067)</t>
+  </si>
+  <si>
+    <t>5618 PATRIKA (JC) *-* (M) (S-52)</t>
+  </si>
+  <si>
+    <t>5619 PATRIKA (JC) (1131)</t>
+  </si>
+  <si>
+    <t>5620 PATRIKA (JC) (15)</t>
+  </si>
+  <si>
+    <t>5621 PATRIKA (JC) *-* (M) (5297)</t>
+  </si>
+  <si>
+    <t>5622 PATRIKA *-* (M) (25337)</t>
+  </si>
+  <si>
+    <t>5623 PATRIKA (064)</t>
+  </si>
+  <si>
+    <t>5624 PATRIKA (JC) (2753)</t>
+  </si>
+  <si>
+    <t>5625 PATRIKA (DCU) (772)</t>
+  </si>
+  <si>
+    <t>6601 PATRIKA (L) (5164)</t>
+  </si>
+  <si>
+    <t>6602 PATRIKA (5126)</t>
+  </si>
+  <si>
+    <t>6603 PATRIKA (5111)</t>
+  </si>
+  <si>
+    <t>6604 PATRIKA *-* (M) (5196)</t>
+  </si>
+  <si>
+    <t>6605 PATRIKA (5191)</t>
+  </si>
+  <si>
+    <t>6606 PATRIKA (*-*) R (3023)</t>
+  </si>
+  <si>
+    <t>6607 PATRIKA *-* (M) (0523)</t>
+  </si>
+  <si>
+    <t>6608 PATRIKA (95)</t>
+  </si>
+  <si>
+    <t>6609 PATRIKA *-* (M) (3053)</t>
+  </si>
+  <si>
+    <t>6610 PATRIKA *-* (M) (3019)</t>
+  </si>
+  <si>
+    <t>6611 PATRIKA (3017 VV)</t>
+  </si>
+  <si>
+    <t>6612 PATRIKA (3015)</t>
+  </si>
+  <si>
+    <t>6613 PATRIKA (25164)</t>
+  </si>
+  <si>
+    <t>6614 PATRIKA (DCU) (25131)</t>
+  </si>
+  <si>
+    <t>6615 PATRIKA *-* (M) (915 GAGAN)</t>
+  </si>
+  <si>
+    <t>6616 PATRIKA *-* (M) (911 GAGAN)</t>
+  </si>
+  <si>
+    <t>6617 PATRIKA *-* (M) (3422)</t>
+  </si>
+  <si>
+    <t>6618 PATRIKA *-* (M) (3423)</t>
+  </si>
+  <si>
+    <t>6619 PATRIKA *-* (M) (1193)</t>
+  </si>
+  <si>
+    <t>6620 PATRIKA *-* (M) (1045 GGN (PADDING))</t>
+  </si>
+  <si>
+    <t>6621 PATRIKA *-* (M) (7108 (PADDING))</t>
+  </si>
+  <si>
+    <t>6622 PATRIKA *-* (M) (7259 (PADDING))</t>
+  </si>
+  <si>
+    <t>6623 PATRIKA (25184)</t>
+  </si>
+  <si>
+    <t>6624 PATRIKA *-* (M) (25135)</t>
+  </si>
+  <si>
+    <t>6625 PATRIKA *-* (M) (25116)</t>
+  </si>
+  <si>
+    <t>6626 PATRIKA *-* (M) (25161)</t>
+  </si>
+  <si>
+    <t>6627 PATRIKA *-* (M) (25111)</t>
+  </si>
+  <si>
+    <t>6628 PATRIKA *-* (M) (805 SBC)</t>
+  </si>
+  <si>
+    <t>6629 PATRIKA *-* (M) (812 NEW SBC)</t>
+  </si>
+  <si>
+    <t>6630 PATRIKA *-* (M) (5510 NICE)</t>
+  </si>
+  <si>
+    <t>6631 PATRIKA (DCU) (OLD AP ITEM)</t>
+  </si>
+  <si>
+    <t>6632 PATRIKA (DCU) (932)</t>
+  </si>
+  <si>
+    <t>6633 PATRIKA *-* (M) (7081 VP)</t>
+  </si>
+  <si>
+    <t>6634 PATRIKA (3562)</t>
+  </si>
+  <si>
+    <t>6635 PATRIKA *-* (M) (S-313)</t>
+  </si>
+  <si>
+    <t>6636 PATRIKA *-* (M) (25183)</t>
+  </si>
+  <si>
+    <t>6637 PATRIKA (25162 GE)</t>
+  </si>
+  <si>
+    <t>6638 PATRIKA *-* (M) (3014)</t>
+  </si>
+  <si>
+    <t>6639 PATRIKA (2291)</t>
   </si>
   <si>
     <t>6639 PATRIKA (B)</t>
   </si>
   <si>
-    <t>6640 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6641 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6642 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6643 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6644 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>6645 PATRIKA *-* (M) SATURDAY</t>
-  </si>
-  <si>
-    <t>6646 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6647 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6648 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6649 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6650 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6651 PATRIKA</t>
-  </si>
-  <si>
-    <t>6652 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6653 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6654 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6655 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6656 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>6657 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6658 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6659 PATRIKA</t>
-  </si>
-  <si>
-    <t>6660 PATRIKA</t>
-  </si>
-  <si>
-    <t>6661 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6662 PATRIKA</t>
-  </si>
-  <si>
-    <t>6663 PATRIKA</t>
-  </si>
-  <si>
-    <t>6664 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6665 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6666 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6667 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6668 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>6669 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>6670 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6671 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6672 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6673 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>6674 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>6675 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6676 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>6677 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>7265 PATRIKA (O.C.)</t>
-  </si>
-  <si>
-    <t>7283 PATRIKA {F} (O.C.)</t>
-  </si>
-  <si>
-    <t>7287 PATRIKA (O.C.)</t>
-  </si>
-  <si>
-    <t>7288 PATRIKA (O.C.)</t>
-  </si>
-  <si>
-    <t>7293 PATRIKA (O.C.)</t>
-  </si>
-  <si>
-    <t>7309 PATRIKA (O.C.)</t>
-  </si>
-  <si>
-    <t>7312 PATRIKA (O.C.)</t>
-  </si>
-  <si>
-    <t>7319 PATRIKA (O.C.)</t>
-  </si>
-  <si>
-    <t>7332 PATRIKA (O.C.)</t>
-  </si>
-  <si>
-    <t>7342 PATRIKA (O.C.)</t>
-  </si>
-  <si>
-    <t>7344 PATRIKA (O.C.)</t>
-  </si>
-  <si>
-    <t>7345 PATRIKA (O.C.)</t>
-  </si>
-  <si>
-    <t>7401 PATRIKA</t>
-  </si>
-  <si>
-    <t>7402 PATRIKA</t>
-  </si>
-  <si>
-    <t>7403 PATRIKA</t>
-  </si>
-  <si>
-    <t>7404 PATRIKA</t>
-  </si>
-  <si>
-    <t>7405 PATRIKA</t>
-  </si>
-  <si>
-    <t>7406 PATRIKA</t>
-  </si>
-  <si>
-    <t>7407 PATRIKA *-* (F)</t>
-  </si>
-  <si>
-    <t>7408 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>7409 PATRIKA</t>
-  </si>
-  <si>
-    <t>7410 PATRIKA</t>
-  </si>
-  <si>
-    <t>7411 PATRIKA</t>
-  </si>
-  <si>
-    <t>7412 PATRIKA (Time Lagega) Select Another</t>
-  </si>
-  <si>
-    <t>7414</t>
-  </si>
-  <si>
-    <t>7414 PATRIKA</t>
-  </si>
-  <si>
-    <t>7415 PATRIKA *-* (F)</t>
-  </si>
-  <si>
-    <t>7416 PATRIKA</t>
-  </si>
-  <si>
-    <t>7417 PATRIKA</t>
-  </si>
-  <si>
-    <t>7418 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>7419 PATRIKA</t>
-  </si>
-  <si>
-    <t>7420 PATRIKA</t>
-  </si>
-  <si>
-    <t>7421 PATRIKA *-* (F)</t>
-  </si>
-  <si>
-    <t>7422 PATRIKA</t>
-  </si>
-  <si>
-    <t>7423 PATRIKA</t>
-  </si>
-  <si>
-    <t>7424 PATRIKA *-* (F)</t>
-  </si>
-  <si>
-    <t>7425 PATRIKA</t>
-  </si>
-  <si>
-    <t>7426 PATRIKA (F/G) *-*</t>
-  </si>
-  <si>
-    <t>7427 PATRIKA</t>
-  </si>
-  <si>
-    <t>7428 PATRIKA</t>
-  </si>
-  <si>
-    <t>7429 PATRIKA (F/G) *-*</t>
-  </si>
-  <si>
-    <t>7430 PATRIKA</t>
-  </si>
-  <si>
-    <t>7431 PATRIKA</t>
-  </si>
-  <si>
-    <t>7432 PATRIKA</t>
-  </si>
-  <si>
-    <t>7433 PATRIKA</t>
-  </si>
-  <si>
-    <t>7434 PATRIKA</t>
-  </si>
-  <si>
-    <t>7435 PATRIKA</t>
-  </si>
-  <si>
-    <t>7436 PATRIKA</t>
-  </si>
-  <si>
-    <t>7437 PATRIKA</t>
-  </si>
-  <si>
-    <t>7438 PATRIKA</t>
-  </si>
-  <si>
-    <t>7439 PATRIKA</t>
-  </si>
-  <si>
-    <t>7440 PATRIKA</t>
-  </si>
-  <si>
-    <t>7441 PATRIKA *-* (F)</t>
-  </si>
-  <si>
-    <t>7442 PATRIKA</t>
-  </si>
-  <si>
-    <t>7443 PATRIKA</t>
-  </si>
-  <si>
-    <t>7444 PATRIKA</t>
-  </si>
-  <si>
-    <t>7445 PATRIKA</t>
-  </si>
-  <si>
-    <t>7446 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>7447 PATRIKA</t>
-  </si>
-  <si>
-    <t>7448 PATRIKA</t>
-  </si>
-  <si>
-    <t>7449 PATRIKA</t>
-  </si>
-  <si>
-    <t>7450 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>7451 PATRIKA</t>
-  </si>
-  <si>
-    <t>7452 PATRIKA</t>
-  </si>
-  <si>
-    <t>7453 PATRIKA (ECO - 61)</t>
-  </si>
-  <si>
-    <t>7454 PATRIKA (ECO -63)</t>
-  </si>
-  <si>
-    <t>9001 CARD (O.C.)</t>
+    <t>6640 PATRIKA *-* (M) (5737 PADING)</t>
+  </si>
+  <si>
+    <t>6641 PATRIKA *-* (M) (5435)</t>
+  </si>
+  <si>
+    <t>6642 PATRIKA *-* (M) (5411 RJ)</t>
+  </si>
+  <si>
+    <t>6643 PATRIKA *-* (M) (25380)</t>
+  </si>
+  <si>
+    <t>6644 PATRIKA (DCU) (25132)</t>
+  </si>
+  <si>
+    <t>6645 PATRIKA *-* (M) SATURDAY (3031)</t>
+  </si>
+  <si>
+    <t>6646 PATRIKA *-* (M) (3034)</t>
+  </si>
+  <si>
+    <t>6647 PATRIKA *-* (M) (25382)</t>
+  </si>
+  <si>
+    <t>6648 PATRIKA *-* (M) (5011 (PADDING))</t>
+  </si>
+  <si>
+    <t>6649 PATRIKA *-* (M) (3402)</t>
+  </si>
+  <si>
+    <t>6650 PATRIKA *-* (M) (3431)</t>
+  </si>
+  <si>
+    <t>6651 PATRIKA (3421)</t>
+  </si>
+  <si>
+    <t>6652 PATRIKA *-* (M) (2764 SBC)</t>
+  </si>
+  <si>
+    <t>6653 PATRIKA *-* (M) (834 SBC NEW)</t>
+  </si>
+  <si>
+    <t>6654 PATRIKA *-* (M) (3461)</t>
+  </si>
+  <si>
+    <t>6655 PATRIKA *-* (M) (7129 (PADDING))</t>
+  </si>
+  <si>
+    <t>6656 PATRIKA (L) (7113 (PADDING))</t>
+  </si>
+  <si>
+    <t>6657 PATRIKA *-* (M) (563  DHANESH)</t>
+  </si>
+  <si>
+    <t>6658 PATRIKA *-* (M) (5319)</t>
+  </si>
+  <si>
+    <t>6659 PATRIKA (25193 (Padding))</t>
+  </si>
+  <si>
+    <t>6660 PATRIKA (25194 (Padding))</t>
+  </si>
+  <si>
+    <t>6661 PATRIKA *-* (M) (1281)</t>
+  </si>
+  <si>
+    <t>6662 PATRIKA (3424)</t>
+  </si>
+  <si>
+    <t>6663 PATRIKA (7103 (PADDING))</t>
+  </si>
+  <si>
+    <t>6664 PATRIKA *-* (M) (5823)</t>
+  </si>
+  <si>
+    <t>6665 PATRIKA *-* (M) (603 DHANESH)</t>
+  </si>
+  <si>
+    <t>6666 PATRIKA *-* (M) (1192 KBC)</t>
+  </si>
+  <si>
+    <t>6667 PATRIKA *-* (M) (1192 SBC)</t>
+  </si>
+  <si>
+    <t>6668 PATRIKA (DCU) (8102)</t>
+  </si>
+  <si>
+    <t>6669 PATRIKA (DCU) (6197)</t>
+  </si>
+  <si>
+    <t>6670 PATRIKA *-* (M) (1868)</t>
+  </si>
+  <si>
+    <t>6671 PATRIKA *-* (M) (1872)</t>
+  </si>
+  <si>
+    <t>6672 PATRIKA *-* (M) (6132)</t>
+  </si>
+  <si>
+    <t>6673 PATRIKA (DCU) (6196)</t>
+  </si>
+  <si>
+    <t>6674 PATRIKA (DCU) (1503)</t>
+  </si>
+  <si>
+    <t>6675 PATRIKA *-* (M) (1282)</t>
+  </si>
+  <si>
+    <t>6676 PATRIKA (DCU) (533 KBC)</t>
+  </si>
+  <si>
+    <t>6677 PATRIKA (DCU) (25191 PADDING)</t>
+  </si>
+  <si>
+    <t>7265 PATRIKA (O.C.) (133)</t>
+  </si>
+  <si>
+    <t>7283 PATRIKA {F} (O.C.) (4148)</t>
+  </si>
+  <si>
+    <t>7287 PATRIKA (O.C.) (1522)</t>
+  </si>
+  <si>
+    <t>7288 PATRIKA (O.C.) (1178)</t>
+  </si>
+  <si>
+    <t>7293 PATRIKA (O.C.) (AS-20)</t>
+  </si>
+  <si>
+    <t>7309 PATRIKA (O.C.) (4087)</t>
+  </si>
+  <si>
+    <t>7312 PATRIKA (O.C.) (SBC 7312)</t>
+  </si>
+  <si>
+    <t>7319 PATRIKA (O.C.) (2204)</t>
+  </si>
+  <si>
+    <t>7332 PATRIKA (O.C.) (2482)</t>
+  </si>
+  <si>
+    <t>7342 PATRIKA (O.C.) (12)</t>
+  </si>
+  <si>
+    <t>7344 PATRIKA (O.C.) (INV B.P. RED (11))</t>
+  </si>
+  <si>
+    <t>7345 PATRIKA (O.C.) (INV B.P. GOLDEN (120) 5)</t>
+  </si>
+  <si>
+    <t>7401 PATRIKA (25/252)</t>
+  </si>
+  <si>
+    <t>7402 PATRIKA (25/264-263)</t>
+  </si>
+  <si>
+    <t>7403 PATRIKA (25/363/863)</t>
+  </si>
+  <si>
+    <t>7404 PATRIKA (25/283)</t>
+  </si>
+  <si>
+    <t>7405 PATRIKA (25/273)</t>
+  </si>
+  <si>
+    <t>7406 PATRIKA (25/172)</t>
+  </si>
+  <si>
+    <t>7407 PATRIKA *-* (F) (7145 VP)</t>
+  </si>
+  <si>
+    <t>7408 PATRIKA (DCU) (25895)</t>
+  </si>
+  <si>
+    <t>7409 PATRIKA (2521)</t>
+  </si>
+  <si>
+    <t>7410 PATRIKA (2526)</t>
+  </si>
+  <si>
+    <t>7411 PATRIKA (2535)</t>
+  </si>
+  <si>
+    <t>7412 PATRIKA (Time Lagega) Select Another (84)</t>
+  </si>
+  <si>
+    <t>7414 (2543 OFFSET NEW)</t>
+  </si>
+  <si>
+    <t>7414 PATRIKA (1015 GREEN OFFSET)</t>
+  </si>
+  <si>
+    <t>7415 PATRIKA *-* (F) (3162 SBC)</t>
+  </si>
+  <si>
+    <t>7416 PATRIKA (2234)</t>
+  </si>
+  <si>
+    <t>7417 PATRIKA (S-201 INV)</t>
+  </si>
+  <si>
+    <t>7418 PATRIKA *-* (डोरी) (1639)</t>
+  </si>
+  <si>
+    <t>7419 PATRIKA (5121)</t>
+  </si>
+  <si>
+    <t>7420 PATRIKA (720)</t>
+  </si>
+  <si>
+    <t>7421 PATRIKA *-* (F) (25-146)</t>
+  </si>
+  <si>
+    <t>7422 PATRIKA (3702)</t>
+  </si>
+  <si>
+    <t>7423 PATRIKA (254 SBC)</t>
+  </si>
+  <si>
+    <t>7424 PATRIKA *-* (F) (25-047)</t>
+  </si>
+  <si>
+    <t>7425 PATRIKA (2082)</t>
+  </si>
+  <si>
+    <t>7426 PATRIKA (F/G) *-* (4052)</t>
+  </si>
+  <si>
+    <t>7427 PATRIKA (2103)</t>
+  </si>
+  <si>
+    <t>7428 PATRIKA (1223 SBC)</t>
+  </si>
+  <si>
+    <t>7429 PATRIKA (F/G) *-* (1851 MONARCH)</t>
+  </si>
+  <si>
+    <t>7430 PATRIKA (6310 GE)</t>
+  </si>
+  <si>
+    <t>7431 PATRIKA (2532)</t>
+  </si>
+  <si>
+    <t>7432 PATRIKA (1174)</t>
+  </si>
+  <si>
+    <t>7433 PATRIKA (1034)</t>
+  </si>
+  <si>
+    <t>7434 PATRIKA (2204 INV)</t>
+  </si>
+  <si>
+    <t>7435 PATRIKA (06)</t>
+  </si>
+  <si>
+    <t>7436 PATRIKA (303)</t>
+  </si>
+  <si>
+    <t>7437 PATRIKA (25323 INV)</t>
+  </si>
+  <si>
+    <t>7438 PATRIKA (25413)</t>
+  </si>
+  <si>
+    <t>7439 PATRIKA (2597)</t>
+  </si>
+  <si>
+    <t>7440 PATRIKA (25896)</t>
+  </si>
+  <si>
+    <t>7441 PATRIKA *-* (F) (243-C)</t>
+  </si>
+  <si>
+    <t>7442 PATRIKA (1855)</t>
+  </si>
+  <si>
+    <t>7443 PATRIKA (1044 SBC)</t>
+  </si>
+  <si>
+    <t>7444 PATRIKA (2014)</t>
+  </si>
+  <si>
+    <t>7445 PATRIKA (2006)</t>
+  </si>
+  <si>
+    <t>7446 PATRIKA (DCU) (6106)</t>
+  </si>
+  <si>
+    <t>7447 PATRIKA (GOPAL 32)</t>
+  </si>
+  <si>
+    <t>7448 PATRIKA (2005- G)</t>
+  </si>
+  <si>
+    <t>7449 PATRIKA (5180)</t>
+  </si>
+  <si>
+    <t>7450 PATRIKA (DCU) (3753)</t>
+  </si>
+  <si>
+    <t>7451 PATRIKA (273 NEHA)</t>
+  </si>
+  <si>
+    <t>7452 PATRIKA (278-B)</t>
+  </si>
+  <si>
+    <t>7453 PATRIKA (ECO - 61) (NEW ECO 61)</t>
+  </si>
+  <si>
+    <t>7454 PATRIKA (ECO -63) (NEW ECO 63)</t>
+  </si>
+  <si>
+    <t>9001 CARD (O.C.) (2498 Cream)</t>
   </si>
   <si>
     <t>9221 CARDS - YELLOW</t>
   </si>
   <si>
-    <t>9222 CARDS - RED</t>
+    <t>9222 CARDS - RED (9205)</t>
   </si>
   <si>
     <t>9223 CARDS (9206-B) -GOLDEN</t>
@@ -1733,253 +1733,253 @@
     <t>9227 CARDS (9*5 OFFSET)</t>
   </si>
   <si>
-    <t>9228 CARDS (Y)</t>
-  </si>
-  <si>
-    <t>9229 CARDS - B (DCU)</t>
-  </si>
-  <si>
-    <t>9229 CARDS (C)</t>
+    <t>9228 CARDS (Y) (ORANGE WITH ONLY FOIL)</t>
+  </si>
+  <si>
+    <t>9229 CARDS - B (DCU) (GOLDEN WITH GANESH JI &amp; FOIL)</t>
+  </si>
+  <si>
+    <t>9229 CARDS (C) (CREAM WITH GANESH JI &amp; FOIL)</t>
   </si>
   <si>
     <t>9230 (CARD) 9*5 SCREEN</t>
   </si>
   <si>
-    <t>9301 CARDS</t>
-  </si>
-  <si>
-    <t>9302 CARDS</t>
-  </si>
-  <si>
-    <t>9303 CARDS</t>
-  </si>
-  <si>
-    <t>9304 CARDS</t>
-  </si>
-  <si>
-    <t>9305 CARDS (9070)</t>
-  </si>
-  <si>
-    <t>9306 CARDS</t>
-  </si>
-  <si>
-    <t>9307 CARDS *-* (M)</t>
-  </si>
-  <si>
-    <t>9308 CARDS</t>
-  </si>
-  <si>
-    <t>9309 CARDS *-* (T)</t>
-  </si>
-  <si>
-    <t>9310 CARDS</t>
-  </si>
-  <si>
-    <t>9311 CARDS</t>
-  </si>
-  <si>
-    <t>9312 CARDS *-* (T)</t>
-  </si>
-  <si>
-    <t>9313 CARDS *-* (T)</t>
-  </si>
-  <si>
-    <t>9314 CARDS</t>
-  </si>
-  <si>
-    <t>9315 CARDS (DCU)</t>
-  </si>
-  <si>
-    <t>9316 CARDS (DCU)</t>
-  </si>
-  <si>
-    <t>9317 CARDS</t>
-  </si>
-  <si>
-    <t>9318 CARDS</t>
-  </si>
-  <si>
-    <t>9319 CARDS</t>
-  </si>
-  <si>
-    <t>9320 CARDS</t>
-  </si>
-  <si>
-    <t>9321 CARDS</t>
-  </si>
-  <si>
-    <t>9322 CARDS *-* (M)</t>
-  </si>
-  <si>
-    <t>9323 CARDS (9005 OLD)</t>
-  </si>
-  <si>
-    <t>9324 CARDS</t>
-  </si>
-  <si>
-    <t>9325 CARDS</t>
-  </si>
-  <si>
-    <t>9326 CARDS</t>
-  </si>
-  <si>
-    <t>9327 CARDS</t>
-  </si>
-  <si>
-    <t>9328 CARDS</t>
-  </si>
-  <si>
-    <t>9329 CARDS (Desgin H/d)</t>
-  </si>
-  <si>
-    <t>9330 CARDS *-* (T)</t>
-  </si>
-  <si>
-    <t>9331 CARDS *-*  (T) MONDAY</t>
-  </si>
-  <si>
-    <t>9332 CARDS</t>
-  </si>
-  <si>
-    <t>9333 CARDS</t>
-  </si>
-  <si>
-    <t>9334 CARDS</t>
-  </si>
-  <si>
-    <t>9335 CARDS (9003 OLD)</t>
-  </si>
-  <si>
-    <t>9336 CARDS</t>
-  </si>
-  <si>
-    <t>9337 CARDS</t>
-  </si>
-  <si>
-    <t>9338 CARDS</t>
-  </si>
-  <si>
-    <t>9339 CARDS</t>
-  </si>
-  <si>
-    <t>9340 CARDS</t>
-  </si>
-  <si>
-    <t>9341 CARDS</t>
-  </si>
-  <si>
-    <t>9342 CARDS</t>
-  </si>
-  <si>
-    <t>9343 CARDS</t>
-  </si>
-  <si>
-    <t>9344 CARDS</t>
-  </si>
-  <si>
-    <t>9345 CARDS</t>
-  </si>
-  <si>
-    <t>9346 CARDS</t>
-  </si>
-  <si>
-    <t>9347 CARDS</t>
-  </si>
-  <si>
-    <t>9348 CARDS *-* (D)</t>
-  </si>
-  <si>
-    <t>9349 CARDS (W/o Window)</t>
-  </si>
-  <si>
-    <t>9350 CARDS *-* (T)</t>
-  </si>
-  <si>
-    <t>9351 Card - B</t>
-  </si>
-  <si>
-    <t>9351 CARDS *-* (T)</t>
-  </si>
-  <si>
-    <t>9352 CARDS *-* (T)</t>
-  </si>
-  <si>
-    <t>9353 CARDS</t>
-  </si>
-  <si>
-    <t>9354 CARDS (DCU)</t>
-  </si>
-  <si>
-    <t>9355 CARDS</t>
-  </si>
-  <si>
-    <t>9356 CARDS</t>
-  </si>
-  <si>
-    <t>9357 CARDS</t>
-  </si>
-  <si>
-    <t>9358 CARDS</t>
-  </si>
-  <si>
-    <t>9359 CARDS</t>
-  </si>
-  <si>
-    <t>9360 CARDS *-* (M)</t>
-  </si>
-  <si>
-    <t>9361 CARDS</t>
-  </si>
-  <si>
-    <t>9362 CARDS</t>
-  </si>
-  <si>
-    <t>9363 CARDS *-* (T)</t>
-  </si>
-  <si>
-    <t>9364 CARDS *-* (T)</t>
-  </si>
-  <si>
-    <t>9365 CARDS</t>
-  </si>
-  <si>
-    <t>9366 CARDS</t>
-  </si>
-  <si>
-    <t>9367 CARDS</t>
-  </si>
-  <si>
-    <t>9368 CARDS</t>
-  </si>
-  <si>
-    <t>9369 CARDS</t>
-  </si>
-  <si>
-    <t>9370 CARDS</t>
-  </si>
-  <si>
-    <t>9371 CARDS</t>
-  </si>
-  <si>
-    <t>9372 CARDS</t>
-  </si>
-  <si>
-    <t>9373 CARDS</t>
-  </si>
-  <si>
-    <t>9374 CARDS</t>
-  </si>
-  <si>
-    <t>9375 CARDS</t>
-  </si>
-  <si>
-    <t>9376 CARDS</t>
-  </si>
-  <si>
-    <t>9377 CARDS (DCU)</t>
-  </si>
-  <si>
-    <t>9378 CARDS</t>
+    <t>9301 CARDS (4242)</t>
+  </si>
+  <si>
+    <t>9302 CARDS (5076)</t>
+  </si>
+  <si>
+    <t>9303 CARDS (5080 Pink)</t>
+  </si>
+  <si>
+    <t>9304 CARDS (5083 Blue)</t>
+  </si>
+  <si>
+    <t>9305 CARDS (9070) (4701 Nice)</t>
+  </si>
+  <si>
+    <t>9306 CARDS (0543 Nice)</t>
+  </si>
+  <si>
+    <t>9307 CARDS *-* (M) (5243 Nice)</t>
+  </si>
+  <si>
+    <t>9308 CARDS (9852)</t>
+  </si>
+  <si>
+    <t>9309 CARDS *-* (T) (9561 Vp)</t>
+  </si>
+  <si>
+    <t>9310 CARDS (3103)</t>
+  </si>
+  <si>
+    <t>9311 CARDS (3115)</t>
+  </si>
+  <si>
+    <t>9312 CARDS *-* (T) (208 VV)</t>
+  </si>
+  <si>
+    <t>9313 CARDS *-* (T) (216)</t>
+  </si>
+  <si>
+    <t>9314 CARDS (P-1)</t>
+  </si>
+  <si>
+    <t>9315 CARDS (DCU) (P-2)</t>
+  </si>
+  <si>
+    <t>9316 CARDS (DCU) (P-3)</t>
+  </si>
+  <si>
+    <t>9317 CARDS (P-4)</t>
+  </si>
+  <si>
+    <t>9318 CARDS (25905)</t>
+  </si>
+  <si>
+    <t>9319 CARDS (25906)</t>
+  </si>
+  <si>
+    <t>9320 CARDS (S-20)</t>
+  </si>
+  <si>
+    <t>9321 CARDS (22912 GANESH JI)</t>
+  </si>
+  <si>
+    <t>9322 CARDS *-* (M) (22912 COMMON)</t>
+  </si>
+  <si>
+    <t>9323 CARDS (9005 OLD) (9*5 CREAM FOIL NEW)</t>
+  </si>
+  <si>
+    <t>9324 CARDS (9*5 PINK FOIL NEW)</t>
+  </si>
+  <si>
+    <t>9325 CARDS (5229)</t>
+  </si>
+  <si>
+    <t>9326 CARDS (1601)</t>
+  </si>
+  <si>
+    <t>9327 CARDS (25908)</t>
+  </si>
+  <si>
+    <t>9328 CARDS (2543)</t>
+  </si>
+  <si>
+    <t>9329 CARDS (Desgin H/d) (3606)</t>
+  </si>
+  <si>
+    <t>9330 CARDS *-* (T) (9557)</t>
+  </si>
+  <si>
+    <t>9331 CARDS *-*  (T) MONDAY (9560)</t>
+  </si>
+  <si>
+    <t>9332 CARDS (9847)</t>
+  </si>
+  <si>
+    <t>9333 CARDS (6042)</t>
+  </si>
+  <si>
+    <t>9334 CARDS (10X6 WHITE (2898))</t>
+  </si>
+  <si>
+    <t>9335 CARDS (9003 OLD) (9*5 WHITE)</t>
+  </si>
+  <si>
+    <t>9336 CARDS (2884)</t>
+  </si>
+  <si>
+    <t>9337 CARDS (1635 AP)</t>
+  </si>
+  <si>
+    <t>9338 CARDS (1637 AP)</t>
+  </si>
+  <si>
+    <t>9339 CARDS (5361)</t>
+  </si>
+  <si>
+    <t>9340 CARDS (5658)</t>
+  </si>
+  <si>
+    <t>9341 CARDS (5497)</t>
+  </si>
+  <si>
+    <t>9342 CARDS (2861)</t>
+  </si>
+  <si>
+    <t>9343 CARDS (9*5 WHTE GE HEAVY)</t>
+  </si>
+  <si>
+    <t>9344 CARDS (689)</t>
+  </si>
+  <si>
+    <t>9345 CARDS (358 KALYANI)</t>
+  </si>
+  <si>
+    <t>9346 CARDS (359)</t>
+  </si>
+  <si>
+    <t>9347 CARDS (2853)</t>
+  </si>
+  <si>
+    <t>9348 CARDS *-* (डोरी) (S-124)</t>
+  </si>
+  <si>
+    <t>9349 CARDS (W/o Window) (S-120)</t>
+  </si>
+  <si>
+    <t>9350 CARDS *-* (T) (1632)</t>
+  </si>
+  <si>
+    <t>9351 Card - B (1603 B)</t>
+  </si>
+  <si>
+    <t>9351 CARDS *-* (T) (1603)</t>
+  </si>
+  <si>
+    <t>9352 CARDS *-* (T) (1606 AP)</t>
+  </si>
+  <si>
+    <t>9353 CARDS (1618)</t>
+  </si>
+  <si>
+    <t>9354 CARDS (DCU) (345)</t>
+  </si>
+  <si>
+    <t>9355 CARDS (1624)</t>
+  </si>
+  <si>
+    <t>9356 CARDS (2895/2897)</t>
+  </si>
+  <si>
+    <t>9357 CARDS (2872)</t>
+  </si>
+  <si>
+    <t>9358 CARDS (WHITE PATTA)</t>
+  </si>
+  <si>
+    <t>9359 CARDS (PITCH PATTA)</t>
+  </si>
+  <si>
+    <t>9360 CARDS *-* (M) (GOL ANDA)</t>
+  </si>
+  <si>
+    <t>9361 CARDS (25426)</t>
+  </si>
+  <si>
+    <t>9362 CARDS (363)</t>
+  </si>
+  <si>
+    <t>9363 CARDS *-* (T) (1652)</t>
+  </si>
+  <si>
+    <t>9364 CARDS *-* (T) (1612)</t>
+  </si>
+  <si>
+    <t>9365 CARDS (25429)</t>
+  </si>
+  <si>
+    <t>9366 CARDS (25427 GOLDEN)</t>
+  </si>
+  <si>
+    <t>9367 CARDS (5652)</t>
+  </si>
+  <si>
+    <t>9368 CARDS (9*5 SET 25/26 GOLDEN (25425))</t>
+  </si>
+  <si>
+    <t>9369 CARDS (9*5 SET 25/26 YELLOW (25424))</t>
+  </si>
+  <si>
+    <t>9370 CARDS (9*5 SET 25/26 RED (25423))</t>
+  </si>
+  <si>
+    <t>9371 CARDS (3111 VP)</t>
+  </si>
+  <si>
+    <t>9372 CARDS (9*5 YLW SET (2841))</t>
+  </si>
+  <si>
+    <t>9373 CARDS (1482)</t>
+  </si>
+  <si>
+    <t>9374 CARDS (1485)</t>
+  </si>
+  <si>
+    <t>9375 CARDS (1452 WHITE)</t>
+  </si>
+  <si>
+    <t>9376 CARDS (1529 PRINCE)</t>
+  </si>
+  <si>
+    <t>9377 CARDS (DCU) (9*5 SET GREEN (009))</t>
+  </si>
+  <si>
+    <t>9378 CARDS (2892)</t>
   </si>
   <si>
     <t>9379 CARDS - R</t>
@@ -2012,19 +2012,19 @@
     <t>9388 CARDS (DCU)</t>
   </si>
   <si>
-    <t>9389 CARDS</t>
-  </si>
-  <si>
-    <t>9390 CARDS (DCU)</t>
+    <t>9389 CARDS (9147 RJ)</t>
+  </si>
+  <si>
+    <t>9390 CARDS (DCU) (118KBC)</t>
   </si>
   <si>
     <t>9391 CARDS</t>
   </si>
   <si>
-    <t>9*4 ENVELOPE (SBC)</t>
-  </si>
-  <si>
-    <t>9*5 ENVELOPE (FOIL) SBC</t>
+    <t>9*4 ENVELOPE (SBC) (CHOTA ENVELOPE (60/40 BILL))</t>
+  </si>
+  <si>
+    <t>9*5 ENVELOPE (FOIL) SBC (BADA ENVLP WITH FOIL (60/40 BILL))</t>
   </si>
   <si>
     <t>ACRYLIC NAME PLATE</t>
@@ -2048,37 +2048,37 @@
     <t>POCKET ENVELOPE - 300 NO.</t>
   </si>
   <si>
-    <t>Ri-01 ENVELOPE</t>
-  </si>
-  <si>
-    <t>Ri-02 ENVELOPE</t>
-  </si>
-  <si>
-    <t>Ri-03 ENVELOPE</t>
-  </si>
-  <si>
-    <t>Ri-04 ENVELOPE</t>
-  </si>
-  <si>
-    <t>Ri-05 ENVELOPE</t>
-  </si>
-  <si>
-    <t>Ri-06 ENVELOPE</t>
-  </si>
-  <si>
-    <t>Ri-07 ENVELOPE</t>
-  </si>
-  <si>
-    <t>Ri-08 ENVELOPE</t>
-  </si>
-  <si>
-    <t>Ri-09 ENVELOPE</t>
-  </si>
-  <si>
     <t>RIBBON (रिबीन)</t>
   </si>
   <si>
-    <t>गोल गणेश / गोल फ्लावर</t>
+    <t>RX-01 ENVELOPE (LX01)</t>
+  </si>
+  <si>
+    <t>RX-02 ENVELOPE (LX02)</t>
+  </si>
+  <si>
+    <t>RX-03 ENVELOPE (LX03)</t>
+  </si>
+  <si>
+    <t>RX-04 ENVELOPE (LX04)</t>
+  </si>
+  <si>
+    <t>RX-05 ENVELOPE (LX05)</t>
+  </si>
+  <si>
+    <t>RX-06 ENVELOPE (LX06)</t>
+  </si>
+  <si>
+    <t>RX-07 ENVELOPE (LX07)</t>
+  </si>
+  <si>
+    <t>RX-08 ENVELOPE (LX08)</t>
+  </si>
+  <si>
+    <t>RX-09 ENVELOPE (LX09)</t>
+  </si>
+  <si>
+    <t>गोल गणेश / गोल फ्लावर (GOL GANESH OR GOL FLOWER)</t>
   </si>
   <si>
     <t>Grand Total</t>
@@ -2611,7 +2611,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
@@ -2733,16 +2733,16 @@
         <v>14</v>
       </c>
       <c r="B11" s="24">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C11" s="25">
-        <v>72.5</v>
+        <v>68.5</v>
       </c>
       <c r="D11" s="26">
         <v>1.8</v>
       </c>
       <c r="E11" s="27">
-        <v>130.5</v>
+        <v>123.3</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -2750,16 +2750,16 @@
         <v>15</v>
       </c>
       <c r="B12" s="24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" s="25">
-        <v>50.5</v>
+        <v>20.5</v>
       </c>
       <c r="D12" s="26">
         <v>1.95</v>
       </c>
       <c r="E12" s="27">
-        <v>98.48</v>
+        <v>39.979999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -2767,16 +2767,16 @@
         <v>16</v>
       </c>
       <c r="B13" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="25">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="D13" s="26">
         <v>1.95</v>
       </c>
       <c r="E13" s="27">
-        <v>146.25</v>
+        <v>87.75</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -2784,16 +2784,16 @@
         <v>17</v>
       </c>
       <c r="B14" s="24">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" s="25">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D14" s="26">
         <v>2</v>
       </c>
       <c r="E14" s="27">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -2801,16 +2801,16 @@
         <v>18</v>
       </c>
       <c r="B15" s="24">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C15" s="25">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D15" s="26">
         <v>2</v>
       </c>
       <c r="E15" s="27">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -2835,16 +2835,16 @@
         <v>20</v>
       </c>
       <c r="B17" s="24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C17" s="25">
-        <v>43.5</v>
+        <v>42.5</v>
       </c>
       <c r="D17" s="26">
         <v>2.1</v>
       </c>
       <c r="E17" s="27">
-        <v>91.35</v>
+        <v>89.25</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -3022,16 +3022,16 @@
         <v>31</v>
       </c>
       <c r="B28" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C28" s="25">
-        <v>42.5</v>
+        <v>40.5</v>
       </c>
       <c r="D28" s="26">
         <v>2.6</v>
       </c>
       <c r="E28" s="27">
-        <v>110.5</v>
+        <v>105.3</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -3231,16 +3231,16 @@
         <v>44</v>
       </c>
       <c r="B41" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C41" s="25">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="D41" s="26">
         <v>2.35</v>
       </c>
       <c r="E41" s="27">
-        <v>126.9</v>
+        <v>56.4</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -3248,16 +3248,16 @@
         <v>45</v>
       </c>
       <c r="B42" s="24">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C42" s="25">
-        <v>105</v>
+        <v>72.5</v>
       </c>
       <c r="D42" s="26">
         <v>2.35</v>
       </c>
       <c r="E42" s="27">
-        <v>246.75</v>
+        <v>170.38</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -3314,16 +3314,16 @@
         <v>49</v>
       </c>
       <c r="B46" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C46" s="25">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D46" s="26">
         <v>1.25</v>
       </c>
       <c r="E46" s="27">
-        <v>125</v>
+        <v>118.75</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -3467,16 +3467,16 @@
         <v>58</v>
       </c>
       <c r="B55" s="24">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C55" s="25">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="D55" s="26">
         <v>1.8</v>
       </c>
       <c r="E55" s="27">
-        <v>18</v>
+        <v>111.6</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -3535,16 +3535,16 @@
         <v>62</v>
       </c>
       <c r="B59" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C59" s="25">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="D59" s="26">
         <v>1.05</v>
       </c>
       <c r="E59" s="27">
-        <v>133.35</v>
+        <v>112.35</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -3552,16 +3552,16 @@
         <v>63</v>
       </c>
       <c r="B60" s="24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C60" s="25">
-        <v>114.5</v>
+        <v>94.5</v>
       </c>
       <c r="D60" s="26">
         <v>1.05</v>
       </c>
       <c r="E60" s="27">
-        <v>120.23</v>
+        <v>99.23</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -3682,16 +3682,16 @@
         <v>71</v>
       </c>
       <c r="B68" s="24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C68" s="25">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D68" s="26">
         <v>1.4</v>
       </c>
       <c r="E68" s="27">
-        <v>30.8</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -3699,16 +3699,16 @@
         <v>72</v>
       </c>
       <c r="B69" s="24">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C69" s="25">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D69" s="26">
         <v>1.4</v>
       </c>
       <c r="E69" s="27">
-        <v>75.599999999999994</v>
+        <v>54.6</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -3719,13 +3719,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="25">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D70" s="26">
         <v>1.4</v>
       </c>
       <c r="E70" s="27">
-        <v>79.8</v>
+        <v>93.8</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -3736,13 +3736,13 @@
         <v>7</v>
       </c>
       <c r="C71" s="25">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D71" s="26">
         <v>1.4</v>
       </c>
       <c r="E71" s="27">
-        <v>86.8</v>
+        <v>100.8</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -3784,16 +3784,16 @@
         <v>77</v>
       </c>
       <c r="B74" s="24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C74" s="25">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D74" s="26">
         <v>1.2</v>
       </c>
       <c r="E74" s="27">
-        <v>61.2</v>
+        <v>48</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -3850,16 +3850,16 @@
         <v>81</v>
       </c>
       <c r="B78" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C78" s="25">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D78" s="26">
         <v>1.2</v>
       </c>
       <c r="E78" s="27">
-        <v>52.8</v>
+        <v>34.799999999999997</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -3918,16 +3918,16 @@
         <v>85</v>
       </c>
       <c r="B82" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C82" s="25">
-        <v>356</v>
+        <v>423</v>
       </c>
       <c r="D82" s="26">
         <v>1.3</v>
       </c>
       <c r="E82" s="27">
-        <v>462.8</v>
+        <v>549.9</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -3938,39 +3938,47 @@
         <v>2</v>
       </c>
       <c r="C83" s="25">
-        <v>252</v>
+        <v>370</v>
       </c>
       <c r="D83" s="26">
         <v>1.3</v>
       </c>
       <c r="E83" s="27">
-        <v>327.60000000000002</v>
+        <v>481</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="B84" s="24"/>
-      <c r="C84" s="28"/>
-      <c r="D84" s="29"/>
-      <c r="E84" s="28"/>
+      <c r="B84" s="24">
+        <v>2</v>
+      </c>
+      <c r="C84" s="25">
+        <v>99</v>
+      </c>
+      <c r="D84" s="26">
+        <v>1.7</v>
+      </c>
+      <c r="E84" s="27">
+        <v>168.3</v>
+      </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="23" t="s">
         <v>88</v>
       </c>
       <c r="B85" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C85" s="25">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D85" s="26">
         <v>1.7</v>
       </c>
       <c r="E85" s="27">
-        <v>132.6</v>
+        <v>115.6</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -3981,13 +3989,13 @@
         <v>2</v>
       </c>
       <c r="C86" s="25">
-        <v>29</v>
+        <v>60.5</v>
       </c>
       <c r="D86" s="26">
         <v>1.7</v>
       </c>
       <c r="E86" s="27">
-        <v>49.3</v>
+        <v>102.85</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -3995,23 +4003,27 @@
         <v>90</v>
       </c>
       <c r="B87" s="24">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C87" s="25">
-        <v>19</v>
-      </c>
-      <c r="D87" s="29"/>
-      <c r="E87" s="28"/>
+        <v>37.5</v>
+      </c>
+      <c r="D87" s="26">
+        <v>0.64</v>
+      </c>
+      <c r="E87" s="27">
+        <v>24.12</v>
+      </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="23" t="s">
         <v>91</v>
       </c>
       <c r="B88" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C88" s="25">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="D88" s="29"/>
       <c r="E88" s="28"/>
@@ -4021,10 +4033,10 @@
         <v>92</v>
       </c>
       <c r="B89" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C89" s="25">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D89" s="29"/>
       <c r="E89" s="28"/>
@@ -4068,10 +4080,10 @@
         <v>95</v>
       </c>
       <c r="B92" s="24">
+        <v>6</v>
+      </c>
+      <c r="C92" s="25">
         <v>5</v>
-      </c>
-      <c r="C92" s="25">
-        <v>15</v>
       </c>
       <c r="D92" s="29"/>
       <c r="E92" s="28"/>
@@ -4093,9 +4105,11 @@
       <c r="A94" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="B94" s="24"/>
+      <c r="B94" s="24">
+        <v>1</v>
+      </c>
       <c r="C94" s="25">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D94" s="29"/>
       <c r="E94" s="28"/>
@@ -4230,16 +4244,16 @@
         <v>107</v>
       </c>
       <c r="B104" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C104" s="25">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D104" s="26">
         <v>2.5</v>
       </c>
       <c r="E104" s="27">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -4290,10 +4304,10 @@
         <v>111</v>
       </c>
       <c r="B108" s="24">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C108" s="25">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="D108" s="29"/>
       <c r="E108" s="28"/>
@@ -4316,10 +4330,10 @@
         <v>113</v>
       </c>
       <c r="B110" s="24">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C110" s="25">
-        <v>-0.24</v>
+        <v>-0.26</v>
       </c>
       <c r="D110" s="29"/>
       <c r="E110" s="28"/>
@@ -4338,10 +4352,10 @@
         <v>115</v>
       </c>
       <c r="B112" s="24">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C112" s="25">
-        <v>-1.02</v>
+        <v>-1.05</v>
       </c>
       <c r="D112" s="29"/>
       <c r="E112" s="28"/>
@@ -4351,10 +4365,10 @@
         <v>116</v>
       </c>
       <c r="B113" s="24">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C113" s="25">
-        <v>-1.1100000000000001</v>
+        <v>-1.1599999999999999</v>
       </c>
       <c r="D113" s="29"/>
       <c r="E113" s="28"/>
@@ -4449,13 +4463,13 @@
         <v>18</v>
       </c>
       <c r="C120" s="25">
-        <v>23.5</v>
+        <v>22.5</v>
       </c>
       <c r="D120" s="26">
         <v>12.5</v>
       </c>
       <c r="E120" s="27">
-        <v>293.75</v>
+        <v>281.25</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -4463,16 +4477,16 @@
         <v>124</v>
       </c>
       <c r="B121" s="24">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C121" s="25">
-        <v>49.5</v>
+        <v>49</v>
       </c>
       <c r="D121" s="26">
         <v>12.5</v>
       </c>
       <c r="E121" s="27">
-        <v>618.75</v>
+        <v>612.5</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -4531,16 +4545,16 @@
         <v>128</v>
       </c>
       <c r="B125" s="24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C125" s="25">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D125" s="26">
         <v>12.5</v>
       </c>
       <c r="E125" s="27">
-        <v>325</v>
+        <v>300</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -4713,13 +4727,13 @@
         <v>5</v>
       </c>
       <c r="C136" s="25">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D136" s="26">
         <v>18.5</v>
       </c>
       <c r="E136" s="27">
-        <v>351.5</v>
+        <v>536.5</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -4727,16 +4741,16 @@
         <v>140</v>
       </c>
       <c r="B137" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C137" s="25">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D137" s="26">
         <v>18.5</v>
       </c>
       <c r="E137" s="27">
-        <v>351.5</v>
+        <v>314.5</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -4761,16 +4775,16 @@
         <v>142</v>
       </c>
       <c r="B139" s="24">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C139" s="25">
-        <v>26.5</v>
+        <v>25.5</v>
       </c>
       <c r="D139" s="26">
         <v>18.5</v>
       </c>
       <c r="E139" s="27">
-        <v>490.25</v>
+        <v>471.75</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -4829,16 +4843,16 @@
         <v>146</v>
       </c>
       <c r="B143" s="24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C143" s="25">
-        <v>16.5</v>
+        <v>12.5</v>
       </c>
       <c r="D143" s="26">
         <v>11.5</v>
       </c>
       <c r="E143" s="27">
-        <v>189.75</v>
+        <v>143.75</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -5072,16 +5086,16 @@
         <v>161</v>
       </c>
       <c r="B158" s="24">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C158" s="25">
-        <v>-10</v>
+        <v>-20</v>
       </c>
       <c r="D158" s="26">
         <v>1.1499999999999999</v>
       </c>
       <c r="E158" s="27">
-        <v>-11.5</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -5115,17 +5129,11 @@
         <v>164</v>
       </c>
       <c r="B161" s="24">
-        <v>13</v>
-      </c>
-      <c r="C161" s="25">
-        <v>1.5</v>
-      </c>
-      <c r="D161" s="26">
-        <v>3.25</v>
-      </c>
-      <c r="E161" s="27">
-        <v>4.88</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C161" s="28"/>
+      <c r="D161" s="29"/>
+      <c r="E161" s="28"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="23" t="s">
@@ -5375,16 +5383,16 @@
         <v>180</v>
       </c>
       <c r="B177" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C177" s="25">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D177" s="26">
         <v>3.45</v>
       </c>
       <c r="E177" s="27">
-        <v>96.6</v>
+        <v>62.1</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -5526,16 +5534,16 @@
         <v>189</v>
       </c>
       <c r="B186" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C186" s="25">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D186" s="26">
         <v>4.3</v>
       </c>
       <c r="E186" s="27">
-        <v>51.6</v>
+        <v>30.1</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -5739,16 +5747,16 @@
         <v>202</v>
       </c>
       <c r="B199" s="24">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C199" s="25">
-        <v>103</v>
+        <v>88.5</v>
       </c>
       <c r="D199" s="26">
         <v>2.7</v>
       </c>
       <c r="E199" s="27">
-        <v>278.10000000000002</v>
+        <v>238.95</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
@@ -5841,16 +5849,16 @@
         <v>208</v>
       </c>
       <c r="B205" s="24">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C205" s="25">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="D205" s="26">
         <v>3.91</v>
       </c>
       <c r="E205" s="27">
-        <v>305.10000000000002</v>
+        <v>187.75</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
@@ -5892,16 +5900,16 @@
         <v>211</v>
       </c>
       <c r="B208" s="24">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C208" s="25">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D208" s="26">
         <v>2.7</v>
       </c>
       <c r="E208" s="27">
-        <v>164.7</v>
+        <v>151.19999999999999</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -5909,16 +5917,16 @@
         <v>212</v>
       </c>
       <c r="B209" s="24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C209" s="25">
-        <v>30.22</v>
+        <v>29.22</v>
       </c>
       <c r="D209" s="26">
         <v>3.16</v>
       </c>
       <c r="E209" s="27">
-        <v>95.5</v>
+        <v>92.34</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -5926,16 +5934,16 @@
         <v>213</v>
       </c>
       <c r="B210" s="24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C210" s="25">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D210" s="26">
         <v>2.66</v>
       </c>
       <c r="E210" s="27">
-        <v>55.86</v>
+        <v>53.2</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -6187,13 +6195,13 @@
         <v>12</v>
       </c>
       <c r="C226" s="25">
-        <v>6.5</v>
+        <v>56.5</v>
       </c>
       <c r="D226" s="26">
         <v>4.8</v>
       </c>
       <c r="E226" s="27">
-        <v>31.2</v>
+        <v>271.2</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
@@ -6201,16 +6209,16 @@
         <v>230</v>
       </c>
       <c r="B227" s="24">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C227" s="25">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D227" s="26">
         <v>6.3</v>
       </c>
       <c r="E227" s="27">
-        <v>296.10000000000002</v>
+        <v>289.8</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
@@ -6218,16 +6226,16 @@
         <v>231</v>
       </c>
       <c r="B228" s="24">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C228" s="25">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D228" s="26">
         <v>3</v>
       </c>
       <c r="E228" s="27">
-        <v>147</v>
+        <v>132</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
@@ -6269,16 +6277,16 @@
         <v>234</v>
       </c>
       <c r="B231" s="24">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C231" s="25">
-        <v>89.5</v>
+        <v>55.5</v>
       </c>
       <c r="D231" s="26">
         <v>3.9</v>
       </c>
       <c r="E231" s="27">
-        <v>349.05</v>
+        <v>216.45</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
@@ -6353,13 +6361,13 @@
         <v>13</v>
       </c>
       <c r="C236" s="25">
-        <v>19.5</v>
+        <v>79.5</v>
       </c>
       <c r="D236" s="26">
         <v>3.5</v>
       </c>
       <c r="E236" s="27">
-        <v>68.25</v>
+        <v>278.25</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
@@ -6432,15 +6440,17 @@
       <c r="A241" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="B241" s="24"/>
+      <c r="B241" s="24">
+        <v>2</v>
+      </c>
       <c r="C241" s="25">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D241" s="26">
         <v>4.9800000000000004</v>
       </c>
       <c r="E241" s="27">
-        <v>104.58</v>
+        <v>54.78</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
@@ -6470,16 +6480,16 @@
         <v>247</v>
       </c>
       <c r="B244" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C244" s="25">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D244" s="26">
         <v>4.75</v>
       </c>
       <c r="E244" s="27">
-        <v>161.5</v>
+        <v>156.75</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
@@ -6504,16 +6514,16 @@
         <v>249</v>
       </c>
       <c r="B246" s="24">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C246" s="25">
-        <v>60.5</v>
+        <v>30.5</v>
       </c>
       <c r="D246" s="26">
         <v>4.28</v>
       </c>
       <c r="E246" s="27">
-        <v>258.94</v>
+        <v>130.54</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
@@ -6538,31 +6548,33 @@
         <v>251</v>
       </c>
       <c r="B248" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C248" s="25">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D248" s="26">
         <v>4.5</v>
       </c>
       <c r="E248" s="27">
-        <v>112.5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="B249" s="24"/>
+      <c r="B249" s="24">
+        <v>1</v>
+      </c>
       <c r="C249" s="25">
-        <v>19.5</v>
+        <v>14.5</v>
       </c>
       <c r="D249" s="26">
         <v>4.28</v>
       </c>
       <c r="E249" s="27">
-        <v>83.46</v>
+        <v>62.06</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
@@ -6586,32 +6598,28 @@
       <c r="A251" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="B251" s="24"/>
-      <c r="C251" s="25">
-        <v>9</v>
-      </c>
-      <c r="D251" s="26">
-        <v>4.5</v>
-      </c>
-      <c r="E251" s="27">
-        <v>40.5</v>
-      </c>
+      <c r="B251" s="24">
+        <v>2</v>
+      </c>
+      <c r="C251" s="28"/>
+      <c r="D251" s="29"/>
+      <c r="E251" s="28"/>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="23" t="s">
         <v>255</v>
       </c>
       <c r="B252" s="24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C252" s="25">
-        <v>43.5</v>
+        <v>39.5</v>
       </c>
       <c r="D252" s="26">
         <v>4.5</v>
       </c>
       <c r="E252" s="27">
-        <v>195.75</v>
+        <v>177.75</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
@@ -6704,16 +6712,16 @@
         <v>261</v>
       </c>
       <c r="B258" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C258" s="25">
-        <v>10.5</v>
+        <v>5.5</v>
       </c>
       <c r="D258" s="26">
         <v>4.28</v>
       </c>
       <c r="E258" s="27">
-        <v>44.94</v>
+        <v>23.54</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
@@ -6749,16 +6757,16 @@
         <v>264</v>
       </c>
       <c r="B261" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C261" s="25">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D261" s="26">
         <v>5.23</v>
       </c>
       <c r="E261" s="27">
-        <v>88.91</v>
+        <v>73.22</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
@@ -6766,16 +6774,16 @@
         <v>265</v>
       </c>
       <c r="B262" s="24">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C262" s="25">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="D262" s="26">
         <v>4.84</v>
       </c>
       <c r="E262" s="27">
-        <v>571.20000000000005</v>
+        <v>474.39</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
@@ -6811,16 +6819,16 @@
         <v>268</v>
       </c>
       <c r="B265" s="24">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C265" s="25">
-        <v>62.5</v>
+        <v>65.5</v>
       </c>
       <c r="D265" s="26">
         <v>6.18</v>
       </c>
       <c r="E265" s="27">
-        <v>386.27</v>
+        <v>404.81</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
@@ -6929,15 +6937,17 @@
       <c r="A272" s="23" t="s">
         <v>275</v>
       </c>
-      <c r="B272" s="24"/>
+      <c r="B272" s="24">
+        <v>1</v>
+      </c>
       <c r="C272" s="25">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D272" s="26">
         <v>5.76</v>
       </c>
       <c r="E272" s="27">
-        <v>161.28</v>
+        <v>132.47999999999999</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
@@ -7028,16 +7038,16 @@
         <v>281</v>
       </c>
       <c r="B278" s="24">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C278" s="25">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D278" s="26">
         <v>5.98</v>
       </c>
       <c r="E278" s="27">
-        <v>221.12</v>
+        <v>209.17</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
@@ -7062,16 +7072,16 @@
         <v>283</v>
       </c>
       <c r="B280" s="24">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C280" s="25">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D280" s="26">
         <v>4.16</v>
       </c>
       <c r="E280" s="27">
-        <v>145.6</v>
+        <v>62.4</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
@@ -7179,16 +7189,16 @@
         <v>290</v>
       </c>
       <c r="B287" s="24">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C287" s="25">
-        <v>79.5</v>
+        <v>59.5</v>
       </c>
       <c r="D287" s="26">
         <v>5.13</v>
       </c>
       <c r="E287" s="27">
-        <v>407.84</v>
+        <v>305.24</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
@@ -7240,13 +7250,13 @@
         <v>4</v>
       </c>
       <c r="C291" s="25">
-        <v>18.5</v>
+        <v>23.5</v>
       </c>
       <c r="D291" s="26">
         <v>11.5</v>
       </c>
       <c r="E291" s="27">
-        <v>212.75</v>
+        <v>270.25</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
@@ -7303,31 +7313,33 @@
         <v>298</v>
       </c>
       <c r="B295" s="24">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C295" s="25">
-        <v>14.85</v>
+        <v>3.85</v>
       </c>
       <c r="D295" s="26">
         <v>9.4499999999999993</v>
       </c>
       <c r="E295" s="27">
-        <v>140.33000000000001</v>
+        <v>36.380000000000003</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="23" t="s">
         <v>299</v>
       </c>
-      <c r="B296" s="24"/>
+      <c r="B296" s="24">
+        <v>1</v>
+      </c>
       <c r="C296" s="25">
-        <v>10.5</v>
+        <v>5.5</v>
       </c>
       <c r="D296" s="26">
         <v>5.5</v>
       </c>
       <c r="E296" s="27">
-        <v>57.75</v>
+        <v>30.25</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
@@ -7482,16 +7494,16 @@
         <v>309</v>
       </c>
       <c r="B306" s="24">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C306" s="25">
-        <v>44.5</v>
+        <v>29.5</v>
       </c>
       <c r="D306" s="26">
         <v>6.75</v>
       </c>
       <c r="E306" s="27">
-        <v>300.38</v>
+        <v>199.13</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
@@ -7519,13 +7531,13 @@
         <v>12</v>
       </c>
       <c r="C308" s="25">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="D308" s="26">
         <v>10</v>
       </c>
       <c r="E308" s="27">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
@@ -7663,16 +7675,16 @@
         <v>320</v>
       </c>
       <c r="B317" s="24">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C317" s="25">
-        <v>41.5</v>
+        <v>38</v>
       </c>
       <c r="D317" s="26">
         <v>9</v>
       </c>
       <c r="E317" s="27">
-        <v>373.5</v>
+        <v>342</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
@@ -7748,16 +7760,16 @@
         <v>325</v>
       </c>
       <c r="B322" s="24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C322" s="25">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D322" s="26">
         <v>9</v>
       </c>
       <c r="E322" s="27">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
@@ -7799,16 +7811,16 @@
         <v>328</v>
       </c>
       <c r="B325" s="24">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C325" s="25">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="D325" s="26">
         <v>3.4</v>
       </c>
       <c r="E325" s="27">
-        <v>166.6</v>
+        <v>98.6</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
@@ -7844,9 +7856,15 @@
       <c r="B328" s="24">
         <v>4</v>
       </c>
-      <c r="C328" s="28"/>
-      <c r="D328" s="29"/>
-      <c r="E328" s="28"/>
+      <c r="C328" s="25">
+        <v>12</v>
+      </c>
+      <c r="D328" s="26">
+        <v>6.46</v>
+      </c>
+      <c r="E328" s="27">
+        <v>77.52</v>
+      </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="23" t="s">
@@ -7870,33 +7888,27 @@
         <v>333</v>
       </c>
       <c r="B330" s="24">
-        <v>2</v>
-      </c>
-      <c r="C330" s="25">
-        <v>4.5</v>
-      </c>
-      <c r="D330" s="26">
-        <v>5.5</v>
-      </c>
-      <c r="E330" s="27">
-        <v>24.75</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C330" s="28"/>
+      <c r="D330" s="29"/>
+      <c r="E330" s="28"/>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="23" t="s">
         <v>334</v>
       </c>
       <c r="B331" s="24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C331" s="25">
-        <v>41.5</v>
+        <v>39</v>
       </c>
       <c r="D331" s="26">
         <v>5.7</v>
       </c>
       <c r="E331" s="27">
-        <v>236.55</v>
+        <v>222.3</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
@@ -7921,16 +7933,16 @@
         <v>336</v>
       </c>
       <c r="B333" s="24">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C333" s="25">
-        <v>23.5</v>
+        <v>22.5</v>
       </c>
       <c r="D333" s="26">
         <v>6.4</v>
       </c>
       <c r="E333" s="27">
-        <v>150.4</v>
+        <v>144</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
@@ -7972,16 +7984,16 @@
         <v>339</v>
       </c>
       <c r="B336" s="24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C336" s="25">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="D336" s="26">
         <v>9.1999999999999993</v>
       </c>
       <c r="E336" s="27">
-        <v>161</v>
+        <v>142.6</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
@@ -8055,16 +8067,16 @@
         <v>344</v>
       </c>
       <c r="B341" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C341" s="25">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D341" s="26">
         <v>7.3</v>
       </c>
       <c r="E341" s="27">
-        <v>109.5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
@@ -8157,16 +8169,16 @@
         <v>350</v>
       </c>
       <c r="B347" s="24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C347" s="25">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D347" s="26">
         <v>7.2</v>
       </c>
       <c r="E347" s="27">
-        <v>194.4</v>
+        <v>187.2</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
@@ -8194,13 +8206,13 @@
         <v>17</v>
       </c>
       <c r="C349" s="25">
-        <v>8</v>
+        <v>20.5</v>
       </c>
       <c r="D349" s="26">
         <v>7.13</v>
       </c>
       <c r="E349" s="27">
-        <v>57.04</v>
+        <v>146.16999999999999</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
@@ -8225,16 +8237,16 @@
         <v>354</v>
       </c>
       <c r="B351" s="24">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C351" s="25">
-        <v>71.5</v>
+        <v>68.5</v>
       </c>
       <c r="D351" s="26">
         <v>6.6</v>
       </c>
       <c r="E351" s="27">
-        <v>471.9</v>
+        <v>452.1</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
@@ -8296,13 +8308,13 @@
         <v>17</v>
       </c>
       <c r="C355" s="25">
-        <v>11.5</v>
+        <v>47</v>
       </c>
       <c r="D355" s="26">
         <v>8.1999999999999993</v>
       </c>
       <c r="E355" s="27">
-        <v>94.3</v>
+        <v>385.4</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
@@ -8310,16 +8322,16 @@
         <v>359</v>
       </c>
       <c r="B356" s="24">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C356" s="25">
-        <v>105.35</v>
+        <v>104.85</v>
       </c>
       <c r="D356" s="26">
         <v>4.5</v>
       </c>
       <c r="E356" s="27">
-        <v>474.08</v>
+        <v>471.83</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
@@ -8565,16 +8577,16 @@
         <v>374</v>
       </c>
       <c r="B371" s="24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C371" s="25">
-        <v>22.5</v>
+        <v>23</v>
       </c>
       <c r="D371" s="26">
         <v>5.7</v>
       </c>
       <c r="E371" s="27">
-        <v>128.25</v>
+        <v>131.1</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
@@ -8733,16 +8745,16 @@
         <v>384</v>
       </c>
       <c r="B381" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C381" s="25">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D381" s="26">
         <v>6.18</v>
       </c>
       <c r="E381" s="27">
-        <v>129.78</v>
+        <v>123.6</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
@@ -8925,16 +8937,16 @@
         <v>396</v>
       </c>
       <c r="B393" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C393" s="25">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="D393" s="26">
         <v>7.6</v>
       </c>
       <c r="E393" s="27">
-        <v>57</v>
+        <v>19</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
@@ -9066,11 +9078,17 @@
         <v>405</v>
       </c>
       <c r="B402" s="24">
-        <v>12</v>
-      </c>
-      <c r="C402" s="28"/>
-      <c r="D402" s="29"/>
-      <c r="E402" s="28"/>
+        <v>13</v>
+      </c>
+      <c r="C402" s="25">
+        <v>25.5</v>
+      </c>
+      <c r="D402" s="26">
+        <v>6.46</v>
+      </c>
+      <c r="E402" s="27">
+        <v>164.73</v>
+      </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" s="23" t="s">
@@ -9157,15 +9175,17 @@
       <c r="A408" s="23" t="s">
         <v>411</v>
       </c>
-      <c r="B408" s="24"/>
+      <c r="B408" s="24">
+        <v>1</v>
+      </c>
       <c r="C408" s="25">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D408" s="26">
         <v>5</v>
       </c>
       <c r="E408" s="27">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
@@ -9210,28 +9230,30 @@
         <v>13</v>
       </c>
       <c r="C411" s="25">
-        <v>38.5</v>
+        <v>54.5</v>
       </c>
       <c r="D411" s="26">
         <v>5</v>
       </c>
       <c r="E411" s="27">
-        <v>192.5</v>
+        <v>272.5</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" s="23" t="s">
         <v>415</v>
       </c>
-      <c r="B412" s="24"/>
+      <c r="B412" s="24">
+        <v>2</v>
+      </c>
       <c r="C412" s="25">
-        <v>14.5</v>
+        <v>4.5</v>
       </c>
       <c r="D412" s="26">
         <v>6.18</v>
       </c>
       <c r="E412" s="27">
-        <v>89.61</v>
+        <v>27.81</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
@@ -10124,13 +10146,13 @@
         <v>10</v>
       </c>
       <c r="C467" s="25">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D467" s="26">
         <v>10.45</v>
       </c>
       <c r="E467" s="27">
-        <v>20.9</v>
+        <v>355.3</v>
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.25">
@@ -10204,16 +10226,16 @@
         <v>475</v>
       </c>
       <c r="B472" s="24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C472" s="25">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="D472" s="26">
-        <v>10.86</v>
+        <v>10.92</v>
       </c>
       <c r="E472" s="27">
-        <v>65.14</v>
+        <v>371.38</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.25">
@@ -10337,13 +10359,13 @@
         <v>3</v>
       </c>
       <c r="C480" s="25">
-        <v>-0.5</v>
+        <v>2.5</v>
       </c>
       <c r="D480" s="26">
         <v>13.8</v>
       </c>
       <c r="E480" s="27">
-        <v>-6.9</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.25">
@@ -10420,13 +10442,13 @@
         <v>6</v>
       </c>
       <c r="C485" s="25">
-        <v>13.5</v>
+        <v>8.5</v>
       </c>
       <c r="D485" s="26">
         <v>10.17</v>
       </c>
       <c r="E485" s="27">
-        <v>137.25</v>
+        <v>86.42</v>
       </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.25">
@@ -10463,15 +10485,17 @@
       <c r="A488" s="23" t="s">
         <v>491</v>
       </c>
-      <c r="B488" s="24"/>
+      <c r="B488" s="24">
+        <v>1</v>
+      </c>
       <c r="C488" s="25">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="D488" s="26">
         <v>29</v>
       </c>
       <c r="E488" s="27">
-        <v>232</v>
+        <v>217.5</v>
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.25">
@@ -11073,16 +11097,16 @@
         <v>528</v>
       </c>
       <c r="B525" s="24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C525" s="25">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D525" s="26">
         <v>4.28</v>
       </c>
       <c r="E525" s="27">
-        <v>94.16</v>
+        <v>89.88</v>
       </c>
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.25">
@@ -11090,16 +11114,16 @@
         <v>529</v>
       </c>
       <c r="B526" s="24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C526" s="25">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="D526" s="26">
         <v>4.75</v>
       </c>
       <c r="E526" s="27">
-        <v>83.13</v>
+        <v>76</v>
       </c>
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.25">
@@ -11124,16 +11148,16 @@
         <v>531</v>
       </c>
       <c r="B528" s="24">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C528" s="25">
-        <v>14.5</v>
+        <v>9.5</v>
       </c>
       <c r="D528" s="26">
         <v>3.1</v>
       </c>
       <c r="E528" s="27">
-        <v>44.95</v>
+        <v>29.45</v>
       </c>
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.25">
@@ -11141,16 +11165,16 @@
         <v>532</v>
       </c>
       <c r="B529" s="24">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C529" s="25">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D529" s="26">
         <v>9.5</v>
       </c>
       <c r="E529" s="27">
-        <v>446.5</v>
+        <v>351.5</v>
       </c>
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.25">
@@ -11192,16 +11216,16 @@
         <v>535</v>
       </c>
       <c r="B532" s="24">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C532" s="25">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="D532" s="26">
         <v>3.9</v>
       </c>
       <c r="E532" s="27">
-        <v>89.7</v>
+        <v>214.5</v>
       </c>
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.25">
@@ -11379,16 +11403,16 @@
         <v>546</v>
       </c>
       <c r="B543" s="24">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C543" s="25">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D543" s="26">
         <v>3.5</v>
       </c>
       <c r="E543" s="27">
-        <v>150.5</v>
+        <v>143.5</v>
       </c>
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.25">
@@ -11562,16 +11586,16 @@
         <v>557</v>
       </c>
       <c r="B554" s="24">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C554" s="25">
-        <v>221</v>
+        <v>227.5</v>
       </c>
       <c r="D554" s="26">
         <v>1.4</v>
       </c>
       <c r="E554" s="27">
-        <v>309.39999999999998</v>
+        <v>318.5</v>
       </c>
     </row>
     <row r="555" spans="1:5" x14ac:dyDescent="0.25">
@@ -11628,16 +11652,16 @@
         <v>561</v>
       </c>
       <c r="B558" s="24">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C558" s="25">
-        <v>388</v>
+        <v>384.5</v>
       </c>
       <c r="D558" s="26">
         <v>1.5</v>
       </c>
       <c r="E558" s="27">
-        <v>582</v>
+        <v>576.75</v>
       </c>
     </row>
     <row r="559" spans="1:5" x14ac:dyDescent="0.25">
@@ -11645,11 +11669,9 @@
         <v>562</v>
       </c>
       <c r="B559" s="24">
-        <v>25</v>
-      </c>
-      <c r="C559" s="25">
-        <v>-9.5</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C559" s="28"/>
       <c r="D559" s="29"/>
       <c r="E559" s="28"/>
     </row>
@@ -11658,10 +11680,10 @@
         <v>563</v>
       </c>
       <c r="B560" s="24">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C560" s="25">
-        <v>3.5</v>
+        <v>498.5</v>
       </c>
       <c r="D560" s="29"/>
       <c r="E560" s="28"/>
@@ -11674,7 +11696,7 @@
         <v>35</v>
       </c>
       <c r="C561" s="25">
-        <v>-316.5</v>
+        <v>183.5</v>
       </c>
       <c r="D561" s="29"/>
       <c r="E561" s="28"/>
@@ -11687,7 +11709,7 @@
         <v>6</v>
       </c>
       <c r="C562" s="25">
-        <v>41.5</v>
+        <v>29</v>
       </c>
       <c r="D562" s="29"/>
       <c r="E562" s="28"/>
@@ -11700,7 +11722,7 @@
         <v>19</v>
       </c>
       <c r="C563" s="25">
-        <v>-9</v>
+        <v>127.4</v>
       </c>
       <c r="D563" s="29"/>
       <c r="E563" s="28"/>
@@ -11710,16 +11732,16 @@
         <v>567</v>
       </c>
       <c r="B564" s="24">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C564" s="25">
-        <v>402</v>
+        <v>350</v>
       </c>
       <c r="D564" s="26">
         <v>0.87</v>
       </c>
       <c r="E564" s="27">
-        <v>349.74</v>
+        <v>304.5</v>
       </c>
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.25">
@@ -11740,16 +11762,16 @@
         <v>569</v>
       </c>
       <c r="B566" s="24">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C566" s="25">
-        <v>123.5</v>
+        <v>107.5</v>
       </c>
       <c r="D566" s="26">
         <v>0.85</v>
       </c>
       <c r="E566" s="27">
-        <v>104.98</v>
+        <v>91.38</v>
       </c>
     </row>
     <row r="567" spans="1:5" x14ac:dyDescent="0.25">
@@ -11774,16 +11796,16 @@
         <v>571</v>
       </c>
       <c r="B568" s="24">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C568" s="25">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D568" s="26">
         <v>0.85</v>
       </c>
       <c r="E568" s="27">
-        <v>137.69999999999999</v>
+        <v>129.19999999999999</v>
       </c>
     </row>
     <row r="569" spans="1:5" x14ac:dyDescent="0.25">
@@ -11791,16 +11813,16 @@
         <v>572</v>
       </c>
       <c r="B569" s="24">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C569" s="25">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="D569" s="26">
         <v>0.4</v>
       </c>
       <c r="E569" s="27">
-        <v>33.6</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="570" spans="1:5" x14ac:dyDescent="0.25">
@@ -11826,13 +11848,13 @@
         <v>4</v>
       </c>
       <c r="C571" s="25">
-        <v>8.5</v>
+        <v>10.5</v>
       </c>
       <c r="D571" s="26">
         <v>5.5</v>
       </c>
       <c r="E571" s="27">
-        <v>46.75</v>
+        <v>57.75</v>
       </c>
     </row>
     <row r="572" spans="1:5" x14ac:dyDescent="0.25">
@@ -11945,13 +11967,13 @@
         <v>9</v>
       </c>
       <c r="C578" s="25">
-        <v>6.5</v>
+        <v>26.5</v>
       </c>
       <c r="D578" s="26">
         <v>3.5</v>
       </c>
       <c r="E578" s="27">
-        <v>22.75</v>
+        <v>92.75</v>
       </c>
     </row>
     <row r="579" spans="1:5" x14ac:dyDescent="0.25">
@@ -11959,16 +11981,16 @@
         <v>582</v>
       </c>
       <c r="B579" s="24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C579" s="25">
-        <v>35.5</v>
+        <v>34.5</v>
       </c>
       <c r="D579" s="26">
         <v>5.75</v>
       </c>
       <c r="E579" s="27">
-        <v>204.13</v>
+        <v>198.38</v>
       </c>
     </row>
     <row r="580" spans="1:5" x14ac:dyDescent="0.25">
@@ -12027,16 +12049,16 @@
         <v>586</v>
       </c>
       <c r="B583" s="24">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C583" s="25">
-        <v>26.5</v>
+        <v>22.5</v>
       </c>
       <c r="D583" s="26">
         <v>2.79</v>
       </c>
       <c r="E583" s="27">
-        <v>74.06</v>
+        <v>62.88</v>
       </c>
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.25">
@@ -12076,16 +12098,16 @@
         <v>589</v>
       </c>
       <c r="B586" s="24">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C586" s="25">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D586" s="26">
         <v>2.73</v>
       </c>
       <c r="E586" s="27">
-        <v>112.12</v>
+        <v>82.04</v>
       </c>
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.25">
@@ -12127,31 +12149,33 @@
         <v>592</v>
       </c>
       <c r="B589" s="24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C589" s="25">
-        <v>60.5</v>
+        <v>55.5</v>
       </c>
       <c r="D589" s="26">
         <v>1.5</v>
       </c>
       <c r="E589" s="27">
-        <v>90.75</v>
+        <v>83.25</v>
       </c>
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A590" s="23" t="s">
         <v>593</v>
       </c>
-      <c r="B590" s="24"/>
+      <c r="B590" s="24">
+        <v>1</v>
+      </c>
       <c r="C590" s="25">
-        <v>20.5</v>
+        <v>10.5</v>
       </c>
       <c r="D590" s="26">
         <v>1.5</v>
       </c>
       <c r="E590" s="27">
-        <v>30.75</v>
+        <v>15.75</v>
       </c>
     </row>
     <row r="591" spans="1:5" x14ac:dyDescent="0.25">
@@ -12159,16 +12183,16 @@
         <v>594</v>
       </c>
       <c r="B591" s="24">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C591" s="25">
-        <v>11.75</v>
+        <v>7.75</v>
       </c>
       <c r="D591" s="26">
         <v>1.5</v>
       </c>
       <c r="E591" s="27">
-        <v>17.63</v>
+        <v>11.63</v>
       </c>
     </row>
     <row r="592" spans="1:5" x14ac:dyDescent="0.25">
@@ -12176,16 +12200,16 @@
         <v>595</v>
       </c>
       <c r="B592" s="24">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C592" s="25">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D592" s="26">
         <v>2.2799999999999998</v>
       </c>
       <c r="E592" s="27">
-        <v>173.28</v>
+        <v>164.16</v>
       </c>
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.25">
@@ -12255,16 +12279,16 @@
         <v>600</v>
       </c>
       <c r="B597" s="24">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C597" s="25">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D597" s="26">
         <v>4.6500000000000004</v>
       </c>
       <c r="E597" s="27">
-        <v>116.25</v>
+        <v>120.9</v>
       </c>
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.25">
@@ -12357,16 +12381,16 @@
         <v>606</v>
       </c>
       <c r="B603" s="24">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C603" s="25">
-        <v>55.5</v>
+        <v>51.5</v>
       </c>
       <c r="D603" s="26">
         <v>3.1</v>
       </c>
       <c r="E603" s="27">
-        <v>172.05</v>
+        <v>159.65</v>
       </c>
     </row>
     <row r="604" spans="1:5" x14ac:dyDescent="0.25">
@@ -12391,16 +12415,16 @@
         <v>608</v>
       </c>
       <c r="B605" s="24">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C605" s="25">
-        <v>52.5</v>
+        <v>51.5</v>
       </c>
       <c r="D605" s="26">
         <v>3.33</v>
       </c>
       <c r="E605" s="27">
-        <v>174.83</v>
+        <v>171.5</v>
       </c>
     </row>
     <row r="606" spans="1:5" x14ac:dyDescent="0.25">
@@ -12493,16 +12517,16 @@
         <v>614</v>
       </c>
       <c r="B611" s="24">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C611" s="25">
-        <v>29.8</v>
+        <v>17.8</v>
       </c>
       <c r="D611" s="26">
         <v>2.85</v>
       </c>
       <c r="E611" s="27">
-        <v>84.93</v>
+        <v>50.73</v>
       </c>
     </row>
     <row r="612" spans="1:5" x14ac:dyDescent="0.25">
@@ -12578,16 +12602,16 @@
         <v>619</v>
       </c>
       <c r="B616" s="24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C616" s="25">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D616" s="26">
         <v>3.1</v>
       </c>
       <c r="E616" s="27">
-        <v>111.6</v>
+        <v>108.5</v>
       </c>
     </row>
     <row r="617" spans="1:5" x14ac:dyDescent="0.25">
@@ -12595,16 +12619,16 @@
         <v>620</v>
       </c>
       <c r="B617" s="24">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C617" s="25">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="D617" s="26">
         <v>5.5</v>
       </c>
       <c r="E617" s="27">
-        <v>77</v>
+        <v>63.25</v>
       </c>
     </row>
     <row r="618" spans="1:5" x14ac:dyDescent="0.25">
@@ -12698,13 +12722,13 @@
         <v>4</v>
       </c>
       <c r="C623" s="25">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D623" s="26">
         <v>6.75</v>
       </c>
       <c r="E623" s="27">
-        <v>27</v>
+        <v>60.75</v>
       </c>
     </row>
     <row r="624" spans="1:5" x14ac:dyDescent="0.25">
@@ -12747,13 +12771,13 @@
         <v>58</v>
       </c>
       <c r="C626" s="25">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="D626" s="26">
         <v>3.1</v>
       </c>
       <c r="E626" s="27">
-        <v>37.200000000000003</v>
+        <v>130.19999999999999</v>
       </c>
     </row>
     <row r="627" spans="1:5" x14ac:dyDescent="0.25">
@@ -12781,13 +12805,13 @@
         <v>6</v>
       </c>
       <c r="C628" s="25">
-        <v>-4.5</v>
+        <v>15.5</v>
       </c>
       <c r="D628" s="26">
         <v>3.5</v>
       </c>
       <c r="E628" s="27">
-        <v>-15.75</v>
+        <v>54.25</v>
       </c>
     </row>
     <row r="629" spans="1:5" x14ac:dyDescent="0.25">
@@ -12812,16 +12836,16 @@
         <v>633</v>
       </c>
       <c r="B630" s="24">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C630" s="25">
-        <v>27.5</v>
+        <v>66.5</v>
       </c>
       <c r="D630" s="26">
         <v>3.75</v>
       </c>
       <c r="E630" s="27">
-        <v>103.13</v>
+        <v>249.38</v>
       </c>
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.25">
@@ -12849,13 +12873,13 @@
         <v>1</v>
       </c>
       <c r="C632" s="25">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="D632" s="26">
         <v>7</v>
       </c>
       <c r="E632" s="27">
-        <v>122.5</v>
+        <v>108.5</v>
       </c>
     </row>
     <row r="633" spans="1:5" x14ac:dyDescent="0.25">
@@ -12883,13 +12907,13 @@
         <v>9</v>
       </c>
       <c r="C634" s="25">
-        <v>6.5</v>
+        <v>14.5</v>
       </c>
       <c r="D634" s="26">
         <v>5.8</v>
       </c>
       <c r="E634" s="27">
-        <v>37.700000000000003</v>
+        <v>84.1</v>
       </c>
     </row>
     <row r="635" spans="1:5" x14ac:dyDescent="0.25">
@@ -12897,16 +12921,16 @@
         <v>638</v>
       </c>
       <c r="B635" s="24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C635" s="25">
-        <v>64.5</v>
+        <v>62</v>
       </c>
       <c r="D635" s="26">
         <v>2.25</v>
       </c>
       <c r="E635" s="27">
-        <v>145.13</v>
+        <v>139.5</v>
       </c>
     </row>
     <row r="636" spans="1:5" x14ac:dyDescent="0.25">
@@ -12980,16 +13004,16 @@
         <v>643</v>
       </c>
       <c r="B640" s="24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C640" s="25">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D640" s="26">
         <v>2.75</v>
       </c>
       <c r="E640" s="27">
-        <v>162.25</v>
+        <v>159.5</v>
       </c>
     </row>
     <row r="641" spans="1:5" x14ac:dyDescent="0.25">
@@ -13098,15 +13122,17 @@
       <c r="A647" s="23" t="s">
         <v>650</v>
       </c>
-      <c r="B647" s="24"/>
+      <c r="B647" s="24">
+        <v>1</v>
+      </c>
       <c r="C647" s="25">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D647" s="26">
         <v>2.67</v>
       </c>
       <c r="E647" s="27">
-        <v>240</v>
+        <v>226.67</v>
       </c>
     </row>
     <row r="648" spans="1:5" x14ac:dyDescent="0.25">
@@ -13157,10 +13183,10 @@
         <v>654</v>
       </c>
       <c r="B651" s="24">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C651" s="25">
-        <v>44.19</v>
+        <v>45.19</v>
       </c>
       <c r="D651" s="29"/>
       <c r="E651" s="28"/>
@@ -13183,10 +13209,10 @@
         <v>656</v>
       </c>
       <c r="B653" s="24">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C653" s="25">
-        <v>-13</v>
+        <v>12</v>
       </c>
       <c r="D653" s="29"/>
       <c r="E653" s="28"/>
@@ -13198,9 +13224,7 @@
       <c r="B654" s="24">
         <v>11</v>
       </c>
-      <c r="C654" s="25">
-        <v>-7.5</v>
-      </c>
+      <c r="C654" s="28"/>
       <c r="D654" s="29"/>
       <c r="E654" s="28"/>
     </row>
@@ -13212,7 +13236,7 @@
         <v>27</v>
       </c>
       <c r="C655" s="25">
-        <v>-20</v>
+        <v>9</v>
       </c>
       <c r="D655" s="29"/>
       <c r="E655" s="28"/>
@@ -13222,10 +13246,10 @@
         <v>659</v>
       </c>
       <c r="B656" s="24">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C656" s="25">
-        <v>-28</v>
+        <v>21</v>
       </c>
       <c r="D656" s="29"/>
       <c r="E656" s="28"/>
@@ -13235,10 +13259,10 @@
         <v>660</v>
       </c>
       <c r="B657" s="24">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C657" s="25">
-        <v>0.5</v>
+        <v>19</v>
       </c>
       <c r="D657" s="29"/>
       <c r="E657" s="28"/>
@@ -13257,16 +13281,16 @@
         <v>662</v>
       </c>
       <c r="B659" s="24">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C659" s="25">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D659" s="26">
         <v>2.9</v>
       </c>
       <c r="E659" s="27">
-        <v>399.91</v>
+        <v>394.12</v>
       </c>
     </row>
     <row r="660" spans="1:5" x14ac:dyDescent="0.25">
@@ -13288,9 +13312,11 @@
       <c r="A661" s="23" t="s">
         <v>664</v>
       </c>
-      <c r="B661" s="24"/>
+      <c r="B661" s="24">
+        <v>2</v>
+      </c>
       <c r="C661" s="25">
-        <v>9.5</v>
+        <v>-0.5</v>
       </c>
       <c r="D661" s="29"/>
       <c r="E661" s="28"/>
@@ -13389,10 +13415,10 @@
         <v>672</v>
       </c>
       <c r="B669" s="24">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C669" s="25">
-        <v>-0.43</v>
+        <v>-0.48</v>
       </c>
       <c r="D669" s="29"/>
       <c r="E669" s="28"/>
@@ -13402,16 +13428,16 @@
         <v>673</v>
       </c>
       <c r="B670" s="24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C670" s="25">
-        <v>-90</v>
+        <v>-94</v>
       </c>
       <c r="D670" s="26">
         <v>1</v>
       </c>
       <c r="E670" s="27">
-        <v>-90</v>
+        <v>-94</v>
       </c>
     </row>
     <row r="671" spans="1:5" x14ac:dyDescent="0.25">
@@ -13422,30 +13448,26 @@
         <v>14</v>
       </c>
       <c r="C671" s="25">
-        <v>27</v>
-      </c>
-      <c r="D671" s="26">
-        <v>2.5</v>
-      </c>
-      <c r="E671" s="27">
-        <v>67.5</v>
-      </c>
+        <v>-27.5</v>
+      </c>
+      <c r="D671" s="29"/>
+      <c r="E671" s="28"/>
     </row>
     <row r="672" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A672" s="23" t="s">
         <v>675</v>
       </c>
       <c r="B672" s="24">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C672" s="25">
-        <v>34.25</v>
+        <v>27</v>
       </c>
       <c r="D672" s="26">
         <v>2.5</v>
       </c>
       <c r="E672" s="27">
-        <v>85.63</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="673" spans="1:5" x14ac:dyDescent="0.25">
@@ -13453,16 +13475,16 @@
         <v>676</v>
       </c>
       <c r="B673" s="24">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C673" s="25">
-        <v>69.25</v>
+        <v>33.75</v>
       </c>
       <c r="D673" s="26">
         <v>2.5</v>
       </c>
       <c r="E673" s="27">
-        <v>173.13</v>
+        <v>84.38</v>
       </c>
     </row>
     <row r="674" spans="1:5" x14ac:dyDescent="0.25">
@@ -13470,16 +13492,16 @@
         <v>677</v>
       </c>
       <c r="B674" s="24">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C674" s="25">
-        <v>72</v>
+        <v>66.25</v>
       </c>
       <c r="D674" s="26">
         <v>2.5</v>
       </c>
       <c r="E674" s="27">
-        <v>180</v>
+        <v>165.63</v>
       </c>
     </row>
     <row r="675" spans="1:5" x14ac:dyDescent="0.25">
@@ -13487,16 +13509,16 @@
         <v>678</v>
       </c>
       <c r="B675" s="24">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C675" s="25">
-        <v>46.5</v>
+        <v>72</v>
       </c>
       <c r="D675" s="26">
         <v>2.5</v>
       </c>
       <c r="E675" s="27">
-        <v>116.25</v>
+        <v>180</v>
       </c>
     </row>
     <row r="676" spans="1:5" x14ac:dyDescent="0.25">
@@ -13504,16 +13526,16 @@
         <v>679</v>
       </c>
       <c r="B676" s="24">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C676" s="25">
-        <v>47.75</v>
+        <v>43.5</v>
       </c>
       <c r="D676" s="26">
         <v>2.5</v>
       </c>
       <c r="E676" s="27">
-        <v>119.38</v>
+        <v>108.75</v>
       </c>
     </row>
     <row r="677" spans="1:5" x14ac:dyDescent="0.25">
@@ -13521,16 +13543,16 @@
         <v>680</v>
       </c>
       <c r="B677" s="24">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C677" s="25">
-        <v>38</v>
+        <v>41.25</v>
       </c>
       <c r="D677" s="26">
         <v>2.5</v>
       </c>
       <c r="E677" s="27">
-        <v>95</v>
+        <v>103.13</v>
       </c>
     </row>
     <row r="678" spans="1:5" x14ac:dyDescent="0.25">
@@ -13538,16 +13560,16 @@
         <v>681</v>
       </c>
       <c r="B678" s="24">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C678" s="25">
-        <v>50.75</v>
+        <v>32.5</v>
       </c>
       <c r="D678" s="26">
         <v>2.5</v>
       </c>
       <c r="E678" s="27">
-        <v>126.88</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="679" spans="1:5" x14ac:dyDescent="0.25">
@@ -13555,16 +13577,16 @@
         <v>682</v>
       </c>
       <c r="B679" s="24">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C679" s="25">
-        <v>82.5</v>
+        <v>50.75</v>
       </c>
       <c r="D679" s="26">
         <v>2.5</v>
       </c>
       <c r="E679" s="27">
-        <v>206.25</v>
+        <v>126.88</v>
       </c>
     </row>
     <row r="680" spans="1:5" x14ac:dyDescent="0.25">
@@ -13572,23 +13594,27 @@
         <v>683</v>
       </c>
       <c r="B680" s="24">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C680" s="25">
-        <v>-26.5</v>
-      </c>
-      <c r="D680" s="29"/>
-      <c r="E680" s="28"/>
+        <v>77.5</v>
+      </c>
+      <c r="D680" s="26">
+        <v>2.5</v>
+      </c>
+      <c r="E680" s="27">
+        <v>193.75</v>
+      </c>
     </row>
     <row r="681" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A681" s="23" t="s">
         <v>684</v>
       </c>
       <c r="B681" s="24">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C681" s="25">
-        <v>-174</v>
+        <v>-180</v>
       </c>
       <c r="D681" s="29"/>
       <c r="E681" s="28"/>
@@ -13599,11 +13625,11 @@
       </c>
       <c r="B682" s="31"/>
       <c r="C682" s="32">
-        <v>22839.759999999998</v>
+        <v>24032</v>
       </c>
       <c r="D682" s="33"/>
       <c r="E682" s="34">
-        <v>88999.51</v>
+        <v>89541.35</v>
       </c>
     </row>
   </sheetData>

--- a/data/website stock.xlsx
+++ b/data/website stock.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="705">
   <si>
     <t>Order Estimate - (from 1-Jul-2023)</t>
   </si>
@@ -35,7 +35,7 @@
     <t>Stock Group Summary</t>
   </si>
   <si>
-    <t>1-Jul-25 to 27-Nov-25</t>
+    <t>1-Jul-25 to 1-Dec-25</t>
   </si>
   <si>
     <t/>
@@ -2091,6 +2091,9 @@
   </si>
   <si>
     <t>FANCY SAMPLE SET</t>
+  </si>
+  <si>
+    <t>Gift Envelope (Pocket) Sr.</t>
   </si>
   <si>
     <t>INVITATION LOOSE SAMPLES (2025)</t>
@@ -2659,7 +2662,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E700"/>
+  <dimension ref="A1:E701"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2787,16 +2790,16 @@
         <v>14</v>
       </c>
       <c r="B11" s="24">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C11" s="25">
-        <v>66.5</v>
+        <v>62.5</v>
       </c>
       <c r="D11" s="26">
         <v>1.8</v>
       </c>
       <c r="E11" s="27">
-        <v>119.7</v>
+        <v>112.5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -3042,16 +3045,16 @@
         <v>29</v>
       </c>
       <c r="B26" s="24">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C26" s="25">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D26" s="26">
         <v>2</v>
       </c>
       <c r="E26" s="27">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3059,16 +3062,16 @@
         <v>30</v>
       </c>
       <c r="B27" s="24">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C27" s="25">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D27" s="26">
         <v>2</v>
       </c>
       <c r="E27" s="27">
-        <v>234</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -3079,13 +3082,13 @@
         <v>5</v>
       </c>
       <c r="C28" s="25">
-        <v>40.5</v>
+        <v>70.5</v>
       </c>
       <c r="D28" s="26">
         <v>2.6</v>
       </c>
       <c r="E28" s="27">
-        <v>105.3</v>
+        <v>183.3</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -3172,16 +3175,16 @@
         <v>37</v>
       </c>
       <c r="B34" s="24">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C34" s="25">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D34" s="26">
         <v>2.2999999999999998</v>
       </c>
       <c r="E34" s="27">
-        <v>322</v>
+        <v>317.39999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -3189,16 +3192,16 @@
         <v>38</v>
       </c>
       <c r="B35" s="24">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C35" s="25">
-        <v>140.5</v>
+        <v>139</v>
       </c>
       <c r="D35" s="26">
         <v>2.2999999999999998</v>
       </c>
       <c r="E35" s="27">
-        <v>323.14999999999998</v>
+        <v>319.7</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -3370,16 +3373,16 @@
         <v>49</v>
       </c>
       <c r="B46" s="24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C46" s="25">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D46" s="26">
         <v>1.25</v>
       </c>
       <c r="E46" s="27">
-        <v>51.25</v>
+        <v>48.75</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -3404,16 +3407,16 @@
         <v>51</v>
       </c>
       <c r="B48" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C48" s="25">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D48" s="26">
         <v>1.4</v>
       </c>
       <c r="E48" s="27">
-        <v>229.6</v>
+        <v>224</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -3438,16 +3441,16 @@
         <v>53</v>
       </c>
       <c r="B50" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C50" s="25">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="D50" s="26">
         <v>1.8</v>
       </c>
       <c r="E50" s="27">
-        <v>183.6</v>
+        <v>280.8</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -3455,16 +3458,16 @@
         <v>54</v>
       </c>
       <c r="B51" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C51" s="25">
-        <v>149.5</v>
+        <v>144.5</v>
       </c>
       <c r="D51" s="26">
         <v>2.5</v>
       </c>
       <c r="E51" s="27">
-        <v>373.75</v>
+        <v>361.25</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -3472,16 +3475,16 @@
         <v>55</v>
       </c>
       <c r="B52" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C52" s="25">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D52" s="26">
         <v>2.5</v>
       </c>
       <c r="E52" s="27">
-        <v>327.5</v>
+        <v>315</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -3526,13 +3529,13 @@
         <v>10</v>
       </c>
       <c r="C55" s="25">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="D55" s="26">
         <v>1.8</v>
       </c>
       <c r="E55" s="27">
-        <v>108</v>
+        <v>190.8</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -3591,16 +3594,16 @@
         <v>62</v>
       </c>
       <c r="B59" s="24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" s="25">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D59" s="26">
         <v>1.1100000000000001</v>
       </c>
       <c r="E59" s="27">
-        <v>351.87</v>
+        <v>348.54</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -3608,16 +3611,16 @@
         <v>63</v>
       </c>
       <c r="B60" s="24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C60" s="25">
-        <v>315.5</v>
+        <v>305.5</v>
       </c>
       <c r="D60" s="26">
         <v>1.1100000000000001</v>
       </c>
       <c r="E60" s="27">
-        <v>350.21</v>
+        <v>339.11</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -3687,16 +3690,16 @@
         <v>68</v>
       </c>
       <c r="B65" s="24">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C65" s="25">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D65" s="26">
         <v>1.65</v>
       </c>
       <c r="E65" s="27">
-        <v>148.5</v>
+        <v>136.94999999999999</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -3721,16 +3724,16 @@
         <v>70</v>
       </c>
       <c r="B67" s="24">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C67" s="25">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D67" s="26">
         <v>1.65</v>
       </c>
       <c r="E67" s="27">
-        <v>107.25</v>
+        <v>100.65</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -3753,16 +3756,16 @@
         <v>72</v>
       </c>
       <c r="B69" s="24">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C69" s="25">
-        <v>315.5</v>
+        <v>299.5</v>
       </c>
       <c r="D69" s="26">
         <v>1.4</v>
       </c>
       <c r="E69" s="27">
-        <v>441.7</v>
+        <v>419.3</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -3770,16 +3773,16 @@
         <v>73</v>
       </c>
       <c r="B70" s="24">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C70" s="25">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D70" s="26">
         <v>1.4</v>
       </c>
       <c r="E70" s="27">
-        <v>432.6</v>
+        <v>418.6</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -3821,16 +3824,16 @@
         <v>76</v>
       </c>
       <c r="B73" s="24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C73" s="25">
-        <v>644.5</v>
+        <v>642.5</v>
       </c>
       <c r="D73" s="26">
         <v>1.2</v>
       </c>
       <c r="E73" s="27">
-        <v>773.4</v>
+        <v>771</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -3838,16 +3841,16 @@
         <v>77</v>
       </c>
       <c r="B74" s="24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" s="25">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="D74" s="26">
         <v>1.2</v>
       </c>
       <c r="E74" s="27">
-        <v>818.4</v>
+        <v>806.4</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -3887,16 +3890,16 @@
         <v>80</v>
       </c>
       <c r="B77" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C77" s="25">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="D77" s="26">
         <v>1.2</v>
       </c>
       <c r="E77" s="27">
-        <v>846</v>
+        <v>841.2</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -3904,16 +3907,16 @@
         <v>81</v>
       </c>
       <c r="B78" s="24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C78" s="25">
-        <v>722</v>
+        <v>710</v>
       </c>
       <c r="D78" s="26">
         <v>1.2</v>
       </c>
       <c r="E78" s="27">
-        <v>866.4</v>
+        <v>852</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -3989,16 +3992,16 @@
         <v>86</v>
       </c>
       <c r="B83" s="24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" s="25">
-        <v>297</v>
+        <v>267</v>
       </c>
       <c r="D83" s="26">
         <v>1.3</v>
       </c>
       <c r="E83" s="27">
-        <v>386.1</v>
+        <v>347.1</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -4006,16 +4009,16 @@
         <v>87</v>
       </c>
       <c r="B84" s="24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" s="25">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D84" s="26">
         <v>1.3</v>
       </c>
       <c r="E84" s="27">
-        <v>434.2</v>
+        <v>429</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -4023,16 +4026,16 @@
         <v>88</v>
       </c>
       <c r="B85" s="24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C85" s="25">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D85" s="26">
         <v>1.7</v>
       </c>
       <c r="E85" s="27">
-        <v>69.7</v>
+        <v>35.700000000000003</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -4040,16 +4043,16 @@
         <v>89</v>
       </c>
       <c r="B86" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C86" s="25">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D86" s="26">
         <v>1.7</v>
       </c>
       <c r="E86" s="27">
-        <v>47.6</v>
+        <v>30.6</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -4074,16 +4077,16 @@
         <v>91</v>
       </c>
       <c r="B88" s="24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C88" s="25">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D88" s="26">
         <v>0.64</v>
       </c>
       <c r="E88" s="27">
-        <v>9.01</v>
+        <v>6.43</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -4159,10 +4162,10 @@
         <v>96</v>
       </c>
       <c r="B93" s="24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C93" s="25">
-        <v>5</v>
+        <v>-25</v>
       </c>
       <c r="D93" s="29"/>
       <c r="E93" s="28"/>
@@ -4172,10 +4175,10 @@
         <v>97</v>
       </c>
       <c r="B94" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C94" s="25">
-        <v>-8</v>
+        <v>-38</v>
       </c>
       <c r="D94" s="29"/>
       <c r="E94" s="28"/>
@@ -4185,10 +4188,10 @@
         <v>98</v>
       </c>
       <c r="B95" s="24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C95" s="25">
-        <v>24</v>
+        <v>-9</v>
       </c>
       <c r="D95" s="29"/>
       <c r="E95" s="28"/>
@@ -4272,16 +4275,16 @@
         <v>105</v>
       </c>
       <c r="B102" s="24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C102" s="25">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D102" s="26">
         <v>2.5</v>
       </c>
       <c r="E102" s="27">
-        <v>132.5</v>
+        <v>127.5</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -4289,16 +4292,16 @@
         <v>106</v>
       </c>
       <c r="B103" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C103" s="25">
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="D103" s="26">
         <v>2.5</v>
       </c>
       <c r="E103" s="27">
-        <v>20</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -4306,16 +4309,16 @@
         <v>107</v>
       </c>
       <c r="B104" s="24">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C104" s="25">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D104" s="26">
         <v>2.5</v>
       </c>
       <c r="E104" s="27">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -4419,16 +4422,16 @@
         <v>116</v>
       </c>
       <c r="B113" s="24">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C113" s="25">
-        <v>456.5</v>
+        <v>391.5</v>
       </c>
       <c r="D113" s="26">
         <v>0.7</v>
       </c>
       <c r="E113" s="27">
-        <v>319.55</v>
+        <v>274.05</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -4449,10 +4452,10 @@
         <v>118</v>
       </c>
       <c r="B115" s="24">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C115" s="25">
-        <v>-0.17</v>
+        <v>-0.2</v>
       </c>
       <c r="D115" s="29"/>
       <c r="E115" s="28"/>
@@ -4462,10 +4465,10 @@
         <v>119</v>
       </c>
       <c r="B116" s="24">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C116" s="25">
-        <v>-0.36</v>
+        <v>-0.39</v>
       </c>
       <c r="D116" s="29"/>
       <c r="E116" s="28"/>
@@ -4484,10 +4487,10 @@
         <v>121</v>
       </c>
       <c r="B118" s="24">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="C118" s="25">
-        <v>-1.22</v>
+        <v>-1.44</v>
       </c>
       <c r="D118" s="29"/>
       <c r="E118" s="28"/>
@@ -4497,10 +4500,10 @@
         <v>122</v>
       </c>
       <c r="B119" s="24">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="C119" s="25">
-        <v>-2</v>
+        <v>-2.09</v>
       </c>
       <c r="D119" s="29"/>
       <c r="E119" s="28"/>
@@ -4510,10 +4513,10 @@
         <v>123</v>
       </c>
       <c r="B120" s="24">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C120" s="25">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="D120" s="29"/>
       <c r="E120" s="28"/>
@@ -4592,16 +4595,16 @@
         <v>129</v>
       </c>
       <c r="B126" s="24">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C126" s="25">
-        <v>22.5</v>
+        <v>21.5</v>
       </c>
       <c r="D126" s="26">
         <v>12.5</v>
       </c>
       <c r="E126" s="27">
-        <v>281.25</v>
+        <v>268.75</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -4862,16 +4865,16 @@
         <v>145</v>
       </c>
       <c r="B142" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C142" s="25">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="D142" s="26">
         <v>18.5</v>
       </c>
       <c r="E142" s="27">
-        <v>351.5</v>
+        <v>342.25</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -4879,16 +4882,16 @@
         <v>146</v>
       </c>
       <c r="B143" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C143" s="25">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D143" s="26">
         <v>18.5</v>
       </c>
       <c r="E143" s="27">
-        <v>314.5</v>
+        <v>277.5</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -4913,16 +4916,16 @@
         <v>148</v>
       </c>
       <c r="B145" s="24">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C145" s="25">
-        <v>22</v>
+        <v>21.5</v>
       </c>
       <c r="D145" s="26">
         <v>18.5</v>
       </c>
       <c r="E145" s="27">
-        <v>407</v>
+        <v>397.75</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -4981,16 +4984,16 @@
         <v>152</v>
       </c>
       <c r="B149" s="24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C149" s="25">
-        <v>12.5</v>
+        <v>2.5</v>
       </c>
       <c r="D149" s="26">
         <v>11.5</v>
       </c>
       <c r="E149" s="27">
-        <v>143.75</v>
+        <v>28.75</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -5134,16 +5137,16 @@
         <v>161</v>
       </c>
       <c r="B158" s="24">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C158" s="25">
-        <v>33.5</v>
+        <v>31.5</v>
       </c>
       <c r="D158" s="26">
         <v>11.5</v>
       </c>
       <c r="E158" s="27">
-        <v>385.25</v>
+        <v>362.25</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -5196,16 +5199,16 @@
         <v>165</v>
       </c>
       <c r="B162" s="24">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C162" s="25">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D162" s="26">
         <v>1</v>
       </c>
       <c r="E162" s="27">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -5224,16 +5227,16 @@
         <v>167</v>
       </c>
       <c r="B164" s="24">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C164" s="25">
-        <v>-20</v>
+        <v>-17.5</v>
       </c>
       <c r="D164" s="26">
         <v>1.1499999999999999</v>
       </c>
       <c r="E164" s="27">
-        <v>-23</v>
+        <v>-20.12</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -5361,16 +5364,16 @@
         <v>176</v>
       </c>
       <c r="B173" s="24">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C173" s="25">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D173" s="26">
         <v>2.78</v>
       </c>
       <c r="E173" s="27">
-        <v>263.8</v>
+        <v>255.47</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -5378,16 +5381,16 @@
         <v>177</v>
       </c>
       <c r="B174" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C174" s="25">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="D174" s="26">
         <v>4.0999999999999996</v>
       </c>
       <c r="E174" s="27">
-        <v>63.55</v>
+        <v>61.5</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -5508,16 +5511,16 @@
         <v>185</v>
       </c>
       <c r="B182" s="24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C182" s="25">
-        <v>119.5</v>
+        <v>117</v>
       </c>
       <c r="D182" s="26">
         <v>2.65</v>
       </c>
       <c r="E182" s="27">
-        <v>316.68</v>
+        <v>310.05</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
@@ -5574,16 +5577,16 @@
         <v>189</v>
       </c>
       <c r="B186" s="24">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C186" s="25">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D186" s="26">
         <v>5</v>
       </c>
       <c r="E186" s="27">
-        <v>185</v>
+        <v>155</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -5772,16 +5775,16 @@
         <v>201</v>
       </c>
       <c r="B198" s="24">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C198" s="25">
-        <v>51</v>
+        <v>49.5</v>
       </c>
       <c r="D198" s="26">
         <v>2.6</v>
       </c>
       <c r="E198" s="27">
-        <v>132.6</v>
+        <v>128.69999999999999</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -5789,16 +5792,16 @@
         <v>202</v>
       </c>
       <c r="B199" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C199" s="25">
-        <v>65.5</v>
+        <v>60.5</v>
       </c>
       <c r="D199" s="26">
         <v>2.6</v>
       </c>
       <c r="E199" s="27">
-        <v>170.3</v>
+        <v>157.30000000000001</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
@@ -5885,16 +5888,16 @@
         <v>208</v>
       </c>
       <c r="B205" s="24">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C205" s="25">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D205" s="26">
         <v>2.7</v>
       </c>
       <c r="E205" s="27">
-        <v>634.5</v>
+        <v>631.79999999999995</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
@@ -5970,16 +5973,16 @@
         <v>213</v>
       </c>
       <c r="B210" s="24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C210" s="25">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D210" s="26">
         <v>3</v>
       </c>
       <c r="E210" s="27">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -5990,13 +5993,13 @@
         <v>30</v>
       </c>
       <c r="C211" s="25">
-        <v>42.5</v>
+        <v>157.5</v>
       </c>
       <c r="D211" s="26">
-        <v>3.91</v>
+        <v>3.93</v>
       </c>
       <c r="E211" s="27">
-        <v>166.03</v>
+        <v>618.20000000000005</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -6007,13 +6010,13 @@
         <v>26</v>
       </c>
       <c r="C212" s="25">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="D212" s="26">
         <v>3.25</v>
       </c>
       <c r="E212" s="27">
-        <v>221</v>
+        <v>286</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -6174,16 +6177,16 @@
         <v>225</v>
       </c>
       <c r="B222" s="24">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C222" s="25">
-        <v>90</v>
+        <v>88.5</v>
       </c>
       <c r="D222" s="26">
         <v>3.5</v>
       </c>
       <c r="E222" s="27">
-        <v>315</v>
+        <v>309.75</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -6297,8 +6300,12 @@
       <c r="A230" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="B230" s="24"/>
-      <c r="C230" s="28"/>
+      <c r="B230" s="24">
+        <v>1</v>
+      </c>
+      <c r="C230" s="25">
+        <v>10</v>
+      </c>
       <c r="D230" s="29"/>
       <c r="E230" s="28"/>
     </row>
@@ -6334,16 +6341,16 @@
         <v>237</v>
       </c>
       <c r="B234" s="24">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C234" s="25">
-        <v>21.5</v>
+        <v>20</v>
       </c>
       <c r="D234" s="26">
         <v>8.25</v>
       </c>
       <c r="E234" s="27">
-        <v>177.38</v>
+        <v>165</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
@@ -6351,16 +6358,16 @@
         <v>238</v>
       </c>
       <c r="B235" s="24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C235" s="25">
-        <v>18.5</v>
+        <v>14.5</v>
       </c>
       <c r="D235" s="26">
         <v>5.75</v>
       </c>
       <c r="E235" s="27">
-        <v>106.38</v>
+        <v>83.38</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
@@ -6385,16 +6392,16 @@
         <v>240</v>
       </c>
       <c r="B237" s="24">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C237" s="25">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D237" s="26">
         <v>6.3</v>
       </c>
       <c r="E237" s="27">
-        <v>270.89999999999998</v>
+        <v>264.60000000000002</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
@@ -6453,16 +6460,16 @@
         <v>244</v>
       </c>
       <c r="B241" s="24">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C241" s="25">
-        <v>173.5</v>
+        <v>169.5</v>
       </c>
       <c r="D241" s="26">
         <v>3.9</v>
       </c>
       <c r="E241" s="27">
-        <v>676.65</v>
+        <v>661.05</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
@@ -6470,16 +6477,16 @@
         <v>245</v>
       </c>
       <c r="B242" s="24">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C242" s="25">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D242" s="26">
         <v>3.9</v>
       </c>
       <c r="E242" s="27">
-        <v>577.20000000000005</v>
+        <v>565.5</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
@@ -6534,16 +6541,16 @@
         <v>249</v>
       </c>
       <c r="B246" s="24">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C246" s="25">
-        <v>79.5</v>
+        <v>78.5</v>
       </c>
       <c r="D246" s="26">
         <v>3.5</v>
       </c>
       <c r="E246" s="27">
-        <v>278.25</v>
+        <v>274.75</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
@@ -6692,16 +6699,16 @@
         <v>259</v>
       </c>
       <c r="B256" s="24">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C256" s="25">
-        <v>9</v>
+        <v>67.5</v>
       </c>
       <c r="D256" s="26">
         <v>4.28</v>
       </c>
       <c r="E256" s="27">
-        <v>38.520000000000003</v>
+        <v>288.89999999999998</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
@@ -6760,16 +6767,16 @@
         <v>263</v>
       </c>
       <c r="B260" s="24">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C260" s="25">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D260" s="26">
         <v>3.1</v>
       </c>
       <c r="E260" s="27">
-        <v>161.19999999999999</v>
+        <v>145.69999999999999</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
@@ -6805,16 +6812,16 @@
         <v>266</v>
       </c>
       <c r="B263" s="24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C263" s="25">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D263" s="26">
         <v>6.25</v>
       </c>
       <c r="E263" s="27">
-        <v>193.75</v>
+        <v>187.5</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
@@ -7014,16 +7021,16 @@
         <v>279</v>
       </c>
       <c r="B276" s="24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C276" s="25">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D276" s="26">
         <v>5.0999999999999996</v>
       </c>
       <c r="E276" s="27">
-        <v>142.80000000000001</v>
+        <v>132.6</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
@@ -7048,16 +7055,16 @@
         <v>281</v>
       </c>
       <c r="B278" s="24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C278" s="25">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="D278" s="26">
         <v>5</v>
       </c>
       <c r="E278" s="27">
-        <v>82.5</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
@@ -7167,16 +7174,16 @@
         <v>288</v>
       </c>
       <c r="B285" s="24">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C285" s="25">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D285" s="26">
         <v>4.8899999999999997</v>
       </c>
       <c r="E285" s="27">
-        <v>538.27</v>
+        <v>533.38</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
@@ -7199,16 +7206,16 @@
         <v>290</v>
       </c>
       <c r="B287" s="24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C287" s="25">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D287" s="26">
         <v>3.15</v>
       </c>
       <c r="E287" s="27">
-        <v>138.6</v>
+        <v>122.85</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
@@ -7219,13 +7226,13 @@
         <v>50</v>
       </c>
       <c r="C288" s="25">
-        <v>26.5</v>
+        <v>125.5</v>
       </c>
       <c r="D288" s="26">
-        <v>5.98</v>
+        <v>6</v>
       </c>
       <c r="E288" s="27">
-        <v>158.37</v>
+        <v>752.94</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
@@ -7425,16 +7432,16 @@
         <v>304</v>
       </c>
       <c r="B301" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C301" s="25">
-        <v>23.5</v>
+        <v>17.5</v>
       </c>
       <c r="D301" s="26">
         <v>11.5</v>
       </c>
       <c r="E301" s="27">
-        <v>270.25</v>
+        <v>201.25</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
@@ -7755,16 +7762,16 @@
         <v>324</v>
       </c>
       <c r="B321" s="24">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C321" s="25">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D321" s="26">
         <v>4.28</v>
       </c>
       <c r="E321" s="27">
-        <v>479.36</v>
+        <v>475.08</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
@@ -7804,16 +7811,16 @@
         <v>327</v>
       </c>
       <c r="B324" s="24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C324" s="25">
-        <v>38</v>
+        <v>35.5</v>
       </c>
       <c r="D324" s="26">
         <v>7.97</v>
       </c>
       <c r="E324" s="27">
-        <v>302.91000000000003</v>
+        <v>282.99</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
@@ -7887,16 +7894,16 @@
         <v>332</v>
       </c>
       <c r="B329" s="24">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C329" s="25">
-        <v>67</v>
+        <v>63.5</v>
       </c>
       <c r="D329" s="26">
         <v>9</v>
       </c>
       <c r="E329" s="27">
-        <v>603</v>
+        <v>571.5</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
@@ -7955,16 +7962,16 @@
         <v>336</v>
       </c>
       <c r="B333" s="24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C333" s="25">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="D333" s="26">
         <v>9</v>
       </c>
       <c r="E333" s="27">
-        <v>175.5</v>
+        <v>153</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
@@ -8115,16 +8122,16 @@
         <v>346</v>
       </c>
       <c r="B343" s="24">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C343" s="25">
-        <v>22.5</v>
+        <v>14.5</v>
       </c>
       <c r="D343" s="26">
         <v>6.4</v>
       </c>
       <c r="E343" s="27">
-        <v>144</v>
+        <v>92.8</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
@@ -8149,16 +8156,16 @@
         <v>348</v>
       </c>
       <c r="B345" s="24">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C345" s="25">
-        <v>64.849999999999994</v>
+        <v>61.85</v>
       </c>
       <c r="D345" s="26">
         <v>4.75</v>
       </c>
       <c r="E345" s="27">
-        <v>308.04000000000002</v>
+        <v>293.79000000000002</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
@@ -8215,16 +8222,16 @@
         <v>352</v>
       </c>
       <c r="B349" s="24">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C349" s="25">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D349" s="26">
         <v>7.82</v>
       </c>
       <c r="E349" s="27">
-        <v>187.56</v>
+        <v>70.34</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
@@ -8388,13 +8395,13 @@
         <v>20</v>
       </c>
       <c r="C359" s="25">
-        <v>11.5</v>
+        <v>23.5</v>
       </c>
       <c r="D359" s="26">
         <v>7.13</v>
       </c>
       <c r="E359" s="27">
-        <v>82</v>
+        <v>167.56</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
@@ -8419,16 +8426,16 @@
         <v>364</v>
       </c>
       <c r="B361" s="24">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C361" s="25">
-        <v>60.5</v>
+        <v>65.5</v>
       </c>
       <c r="D361" s="26">
         <v>6.6</v>
       </c>
       <c r="E361" s="27">
-        <v>399.3</v>
+        <v>432.3</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
@@ -8504,16 +8511,16 @@
         <v>369</v>
       </c>
       <c r="B366" s="24">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C366" s="25">
-        <v>97.35</v>
+        <v>93.95</v>
       </c>
       <c r="D366" s="26">
         <v>4.5</v>
       </c>
       <c r="E366" s="27">
-        <v>438.08</v>
+        <v>422.78</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
@@ -8742,16 +8749,16 @@
         <v>383</v>
       </c>
       <c r="B380" s="24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C380" s="25">
-        <v>5.5</v>
+        <v>1</v>
       </c>
       <c r="D380" s="26">
         <v>8.5500000000000007</v>
       </c>
       <c r="E380" s="27">
-        <v>47.03</v>
+        <v>8.5500000000000007</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
@@ -9095,13 +9102,13 @@
         <v>13</v>
       </c>
       <c r="C402" s="25">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D402" s="26">
         <v>5.7</v>
       </c>
       <c r="E402" s="27">
-        <v>182.4</v>
+        <v>210.9</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
@@ -9175,16 +9182,16 @@
         <v>410</v>
       </c>
       <c r="B407" s="24">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C407" s="25">
-        <v>66.5</v>
+        <v>65.5</v>
       </c>
       <c r="D407" s="26">
         <v>5.3</v>
       </c>
       <c r="E407" s="27">
-        <v>352.45</v>
+        <v>347.15</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
@@ -9207,16 +9214,16 @@
         <v>412</v>
       </c>
       <c r="B409" s="24">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C409" s="25">
-        <v>105.5</v>
+        <v>103.5</v>
       </c>
       <c r="D409" s="26">
         <v>6.17</v>
       </c>
       <c r="E409" s="27">
-        <v>650.44000000000005</v>
+        <v>638.11</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
@@ -9250,16 +9257,16 @@
         <v>415</v>
       </c>
       <c r="B412" s="24">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C412" s="25">
-        <v>23.5</v>
+        <v>22</v>
       </c>
       <c r="D412" s="26">
         <v>6.46</v>
       </c>
       <c r="E412" s="27">
-        <v>151.81</v>
+        <v>142.12</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
@@ -9528,13 +9535,13 @@
         <v>7</v>
       </c>
       <c r="C429" s="25">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D429" s="26">
         <v>9.75</v>
       </c>
       <c r="E429" s="27">
-        <v>48.75</v>
+        <v>146.25</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
@@ -9542,16 +9549,16 @@
         <v>433</v>
       </c>
       <c r="B430" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C430" s="25">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="D430" s="26">
         <v>15.5</v>
       </c>
       <c r="E430" s="27">
-        <v>131.75</v>
+        <v>124</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
@@ -9576,16 +9583,16 @@
         <v>435</v>
       </c>
       <c r="B432" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C432" s="25">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="D432" s="26">
         <v>13</v>
       </c>
       <c r="E432" s="27">
-        <v>78</v>
+        <v>75.400000000000006</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
@@ -9644,16 +9651,16 @@
         <v>439</v>
       </c>
       <c r="B436" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C436" s="25">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="D436" s="26">
         <v>10.5</v>
       </c>
       <c r="E436" s="27">
-        <v>10.5</v>
+        <v>-5.25</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
@@ -10189,16 +10196,16 @@
         <v>472</v>
       </c>
       <c r="B469" s="24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C469" s="25">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="D469" s="26">
         <v>11.4</v>
       </c>
       <c r="E469" s="27">
-        <v>108.3</v>
+        <v>74.099999999999994</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.25">
@@ -10439,15 +10446,17 @@
       <c r="A484" s="23" t="s">
         <v>487</v>
       </c>
-      <c r="B484" s="24"/>
+      <c r="B484" s="24">
+        <v>1</v>
+      </c>
       <c r="C484" s="25">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="D484" s="26">
         <v>55</v>
       </c>
       <c r="E484" s="27">
-        <v>192.5</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.25">
@@ -10556,13 +10565,13 @@
         <v>7</v>
       </c>
       <c r="C491" s="25">
-        <v>3.5</v>
+        <v>15.5</v>
       </c>
       <c r="D491" s="26">
         <v>18.5</v>
       </c>
       <c r="E491" s="27">
-        <v>64.75</v>
+        <v>286.75</v>
       </c>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.25">
@@ -10845,16 +10854,16 @@
         <v>512</v>
       </c>
       <c r="B509" s="24">
+        <v>12</v>
+      </c>
+      <c r="C509" s="25">
         <v>11</v>
-      </c>
-      <c r="C509" s="25">
-        <v>12</v>
       </c>
       <c r="D509" s="26">
         <v>5.23</v>
       </c>
       <c r="E509" s="27">
-        <v>62.76</v>
+        <v>57.53</v>
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.25">
@@ -10913,16 +10922,16 @@
         <v>516</v>
       </c>
       <c r="B513" s="24">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C513" s="25">
-        <v>154</v>
+        <v>153.5</v>
       </c>
       <c r="D513" s="26">
         <v>1.4</v>
       </c>
       <c r="E513" s="27">
-        <v>215.6</v>
+        <v>214.9</v>
       </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.25">
@@ -10964,16 +10973,16 @@
         <v>519</v>
       </c>
       <c r="B516" s="24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C516" s="25">
-        <v>67.5</v>
+        <v>64.5</v>
       </c>
       <c r="D516" s="26">
         <v>1.95</v>
       </c>
       <c r="E516" s="27">
-        <v>131.63</v>
+        <v>125.78</v>
       </c>
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.25">
@@ -11015,16 +11024,16 @@
         <v>522</v>
       </c>
       <c r="B519" s="24">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C519" s="25">
-        <v>43.5</v>
+        <v>41.5</v>
       </c>
       <c r="D519" s="26">
         <v>3</v>
       </c>
       <c r="E519" s="27">
-        <v>130.5</v>
+        <v>124.5</v>
       </c>
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.25">
@@ -11032,16 +11041,16 @@
         <v>523</v>
       </c>
       <c r="B520" s="24">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C520" s="25">
-        <v>68.5</v>
+        <v>66</v>
       </c>
       <c r="D520" s="26">
         <v>3.8</v>
       </c>
       <c r="E520" s="27">
-        <v>260.3</v>
+        <v>250.8</v>
       </c>
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.25">
@@ -11112,15 +11121,17 @@
       <c r="A525" s="23" t="s">
         <v>528</v>
       </c>
-      <c r="B525" s="24"/>
+      <c r="B525" s="24">
+        <v>1</v>
+      </c>
       <c r="C525" s="25">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D525" s="26">
         <v>4</v>
       </c>
       <c r="E525" s="27">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.25">
@@ -11190,16 +11201,16 @@
         <v>533</v>
       </c>
       <c r="B530" s="24">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C530" s="25">
-        <v>36.5</v>
+        <v>35.5</v>
       </c>
       <c r="D530" s="26">
         <v>4.28</v>
       </c>
       <c r="E530" s="27">
-        <v>156.22</v>
+        <v>151.94</v>
       </c>
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.25">
@@ -11292,16 +11303,16 @@
         <v>539</v>
       </c>
       <c r="B536" s="24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C536" s="25">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D536" s="26">
         <v>4.28</v>
       </c>
       <c r="E536" s="27">
-        <v>89.88</v>
+        <v>77.040000000000006</v>
       </c>
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.25">
@@ -11326,16 +11337,16 @@
         <v>541</v>
       </c>
       <c r="B538" s="24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C538" s="25">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="D538" s="26">
         <v>3.45</v>
       </c>
       <c r="E538" s="27">
-        <v>69</v>
+        <v>63.83</v>
       </c>
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.25">
@@ -11343,16 +11354,16 @@
         <v>542</v>
       </c>
       <c r="B539" s="24">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C539" s="25">
-        <v>27.5</v>
+        <v>26.5</v>
       </c>
       <c r="D539" s="26">
         <v>3.1</v>
       </c>
       <c r="E539" s="27">
-        <v>85.25</v>
+        <v>82.15</v>
       </c>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.25">
@@ -11411,16 +11422,16 @@
         <v>546</v>
       </c>
       <c r="B543" s="24">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C543" s="25">
-        <v>48.5</v>
+        <v>41.5</v>
       </c>
       <c r="D543" s="26">
         <v>3.9</v>
       </c>
       <c r="E543" s="27">
-        <v>189.15</v>
+        <v>161.85</v>
       </c>
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.25">
@@ -11598,16 +11609,16 @@
         <v>557</v>
       </c>
       <c r="B554" s="24">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C554" s="25">
-        <v>36</v>
+        <v>31.5</v>
       </c>
       <c r="D554" s="26">
         <v>3.5</v>
       </c>
       <c r="E554" s="27">
-        <v>126</v>
+        <v>110.25</v>
       </c>
     </row>
     <row r="555" spans="1:5" x14ac:dyDescent="0.25">
@@ -11666,16 +11677,16 @@
         <v>561</v>
       </c>
       <c r="B558" s="24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C558" s="25">
-        <v>22.5</v>
+        <v>18.5</v>
       </c>
       <c r="D558" s="26">
         <v>2.66</v>
       </c>
       <c r="E558" s="27">
-        <v>59.85</v>
+        <v>49.21</v>
       </c>
     </row>
     <row r="559" spans="1:5" x14ac:dyDescent="0.25">
@@ -11715,16 +11726,16 @@
         <v>564</v>
       </c>
       <c r="B561" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C561" s="25">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D561" s="26">
         <v>2.35</v>
       </c>
       <c r="E561" s="27">
-        <v>84.6</v>
+        <v>79.900000000000006</v>
       </c>
     </row>
     <row r="562" spans="1:5" x14ac:dyDescent="0.25">
@@ -11781,16 +11792,16 @@
         <v>568</v>
       </c>
       <c r="B565" s="24">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C565" s="25">
-        <v>216.5</v>
+        <v>215.5</v>
       </c>
       <c r="D565" s="26">
         <v>1.4</v>
       </c>
       <c r="E565" s="27">
-        <v>303.10000000000002</v>
+        <v>301.7</v>
       </c>
     </row>
     <row r="566" spans="1:5" x14ac:dyDescent="0.25">
@@ -11830,16 +11841,16 @@
         <v>571</v>
       </c>
       <c r="B568" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C568" s="25">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D568" s="26">
         <v>1.2</v>
       </c>
       <c r="E568" s="27">
-        <v>69.599999999999994</v>
+        <v>64.8</v>
       </c>
     </row>
     <row r="569" spans="1:5" x14ac:dyDescent="0.25">
@@ -11847,16 +11858,16 @@
         <v>572</v>
       </c>
       <c r="B569" s="24">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C569" s="25">
-        <v>381.5</v>
+        <v>380.5</v>
       </c>
       <c r="D569" s="26">
         <v>1.5</v>
       </c>
       <c r="E569" s="27">
-        <v>572.25</v>
+        <v>570.75</v>
       </c>
     </row>
     <row r="570" spans="1:5" x14ac:dyDescent="0.25">
@@ -11864,10 +11875,10 @@
         <v>573</v>
       </c>
       <c r="B570" s="24">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C570" s="25">
-        <v>-122</v>
+        <v>-132</v>
       </c>
       <c r="D570" s="29"/>
       <c r="E570" s="28"/>
@@ -11877,10 +11888,10 @@
         <v>574</v>
       </c>
       <c r="B571" s="24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C571" s="25">
-        <v>495.5</v>
+        <v>493.5</v>
       </c>
       <c r="D571" s="29"/>
       <c r="E571" s="28"/>
@@ -11903,10 +11914,10 @@
         <v>576</v>
       </c>
       <c r="B573" s="24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C573" s="25">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D573" s="29"/>
       <c r="E573" s="28"/>
@@ -11916,10 +11927,10 @@
         <v>577</v>
       </c>
       <c r="B574" s="24">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C574" s="25">
-        <v>125.4</v>
+        <v>121.4</v>
       </c>
       <c r="D574" s="29"/>
       <c r="E574" s="28"/>
@@ -11946,16 +11957,16 @@
         <v>579</v>
       </c>
       <c r="B576" s="24">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C576" s="25">
-        <v>1228</v>
+        <v>1200</v>
       </c>
       <c r="D576" s="26">
         <v>0.57999999999999996</v>
       </c>
       <c r="E576" s="27">
-        <v>712.24</v>
+        <v>696</v>
       </c>
     </row>
     <row r="577" spans="1:5" x14ac:dyDescent="0.25">
@@ -11963,16 +11974,16 @@
         <v>580</v>
       </c>
       <c r="B577" s="24">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C577" s="25">
-        <v>581.5</v>
+        <v>579.5</v>
       </c>
       <c r="D577" s="26">
         <v>0.85</v>
       </c>
       <c r="E577" s="27">
-        <v>494.28</v>
+        <v>492.58</v>
       </c>
     </row>
     <row r="578" spans="1:5" x14ac:dyDescent="0.25">
@@ -11997,16 +12008,16 @@
         <v>582</v>
       </c>
       <c r="B579" s="24">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C579" s="25">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="D579" s="26">
         <v>0.85</v>
       </c>
       <c r="E579" s="27">
-        <v>503.2</v>
+        <v>498.1</v>
       </c>
     </row>
     <row r="580" spans="1:5" x14ac:dyDescent="0.25">
@@ -12014,16 +12025,16 @@
         <v>583</v>
       </c>
       <c r="B580" s="24">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C580" s="25">
-        <v>28</v>
+        <v>-46</v>
       </c>
       <c r="D580" s="26">
         <v>0.4</v>
       </c>
       <c r="E580" s="27">
-        <v>11.2</v>
+        <v>-18.399999999999999</v>
       </c>
     </row>
     <row r="581" spans="1:5" x14ac:dyDescent="0.25">
@@ -12202,16 +12213,16 @@
         <v>597</v>
       </c>
       <c r="B594" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C594" s="25">
-        <v>13.01</v>
+        <v>12.01</v>
       </c>
       <c r="D594" s="26">
         <v>4.5</v>
       </c>
       <c r="E594" s="27">
-        <v>58.55</v>
+        <v>54.05</v>
       </c>
     </row>
     <row r="595" spans="1:5" x14ac:dyDescent="0.25">
@@ -12270,16 +12281,16 @@
         <v>601</v>
       </c>
       <c r="B598" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C598" s="25">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="D598" s="26">
         <v>6.5</v>
       </c>
       <c r="E598" s="27">
-        <v>22.75</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.25">
@@ -12304,16 +12315,16 @@
         <v>603</v>
       </c>
       <c r="B600" s="24">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C600" s="25">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D600" s="26">
         <v>2.75</v>
       </c>
       <c r="E600" s="27">
-        <v>189.55</v>
+        <v>184.06</v>
       </c>
     </row>
     <row r="601" spans="1:5" x14ac:dyDescent="0.25">
@@ -12389,16 +12400,16 @@
         <v>608</v>
       </c>
       <c r="B605" s="24">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C605" s="25">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D605" s="26">
         <v>4</v>
       </c>
       <c r="E605" s="27">
-        <v>76</v>
+        <v>4</v>
       </c>
     </row>
     <row r="606" spans="1:5" x14ac:dyDescent="0.25">
@@ -12457,16 +12468,16 @@
         <v>612</v>
       </c>
       <c r="B609" s="24">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C609" s="25">
-        <v>32.5</v>
+        <v>22.5</v>
       </c>
       <c r="D609" s="26">
         <v>2.2799999999999998</v>
       </c>
       <c r="E609" s="27">
-        <v>74.099999999999994</v>
+        <v>51.3</v>
       </c>
     </row>
     <row r="610" spans="1:5" x14ac:dyDescent="0.25">
@@ -12655,16 +12666,16 @@
         <v>624</v>
       </c>
       <c r="B621" s="24">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C621" s="25">
-        <v>36.5</v>
+        <v>26.5</v>
       </c>
       <c r="D621" s="26">
         <v>1.7</v>
       </c>
       <c r="E621" s="27">
-        <v>62.05</v>
+        <v>45.05</v>
       </c>
     </row>
     <row r="622" spans="1:5" x14ac:dyDescent="0.25">
@@ -12689,16 +12700,16 @@
         <v>626</v>
       </c>
       <c r="B623" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C623" s="25">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="D623" s="26">
         <v>3.5</v>
       </c>
       <c r="E623" s="27">
-        <v>43.75</v>
+        <v>36.75</v>
       </c>
     </row>
     <row r="624" spans="1:5" x14ac:dyDescent="0.25">
@@ -12706,16 +12717,16 @@
         <v>627</v>
       </c>
       <c r="B624" s="24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C624" s="25">
-        <v>23.5</v>
+        <v>18.5</v>
       </c>
       <c r="D624" s="26">
         <v>3.5</v>
       </c>
       <c r="E624" s="27">
-        <v>82.25</v>
+        <v>64.75</v>
       </c>
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.25">
@@ -12723,16 +12734,16 @@
         <v>628</v>
       </c>
       <c r="B625" s="24">
+        <v>4</v>
+      </c>
+      <c r="C625" s="25">
         <v>3</v>
-      </c>
-      <c r="C625" s="25">
-        <v>5</v>
       </c>
       <c r="D625" s="26">
         <v>7.5</v>
       </c>
       <c r="E625" s="27">
-        <v>37.5</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="626" spans="1:5" x14ac:dyDescent="0.25">
@@ -12774,16 +12785,16 @@
         <v>631</v>
       </c>
       <c r="B628" s="24">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C628" s="25">
-        <v>60.3</v>
+        <v>107.3</v>
       </c>
       <c r="D628" s="26">
         <v>2.85</v>
       </c>
       <c r="E628" s="27">
-        <v>171.86</v>
+        <v>305.81</v>
       </c>
     </row>
     <row r="629" spans="1:5" x14ac:dyDescent="0.25">
@@ -12825,16 +12836,16 @@
         <v>634</v>
       </c>
       <c r="B631" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C631" s="25">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="D631" s="26">
         <v>5.5</v>
       </c>
       <c r="E631" s="27">
-        <v>93.5</v>
+        <v>79.75</v>
       </c>
     </row>
     <row r="632" spans="1:5" x14ac:dyDescent="0.25">
@@ -12859,16 +12870,16 @@
         <v>636</v>
       </c>
       <c r="B633" s="24">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C633" s="25">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D633" s="26">
         <v>3.1</v>
       </c>
       <c r="E633" s="27">
-        <v>108.5</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="634" spans="1:5" x14ac:dyDescent="0.25">
@@ -12893,16 +12904,16 @@
         <v>638</v>
       </c>
       <c r="B635" s="24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C635" s="25">
-        <v>68</v>
+        <v>64.5</v>
       </c>
       <c r="D635" s="26">
         <v>3.97</v>
       </c>
       <c r="E635" s="27">
-        <v>269.85000000000002</v>
+        <v>255.96</v>
       </c>
     </row>
     <row r="636" spans="1:5" x14ac:dyDescent="0.25">
@@ -13059,16 +13070,16 @@
         <v>648</v>
       </c>
       <c r="B645" s="24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C645" s="25">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="D645" s="26">
         <v>3.5</v>
       </c>
       <c r="E645" s="27">
-        <v>26.25</v>
+        <v>22.75</v>
       </c>
     </row>
     <row r="646" spans="1:5" x14ac:dyDescent="0.25">
@@ -13093,16 +13104,16 @@
         <v>650</v>
       </c>
       <c r="B647" s="24">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C647" s="25">
-        <v>60.5</v>
+        <v>66.5</v>
       </c>
       <c r="D647" s="26">
         <v>3.75</v>
       </c>
       <c r="E647" s="27">
-        <v>226.88</v>
+        <v>249.38</v>
       </c>
     </row>
     <row r="648" spans="1:5" x14ac:dyDescent="0.25">
@@ -13161,16 +13172,16 @@
         <v>654</v>
       </c>
       <c r="B651" s="24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C651" s="25">
-        <v>11.5</v>
+        <v>6.5</v>
       </c>
       <c r="D651" s="26">
         <v>5.8</v>
       </c>
       <c r="E651" s="27">
-        <v>66.7</v>
+        <v>37.700000000000003</v>
       </c>
     </row>
     <row r="652" spans="1:5" x14ac:dyDescent="0.25">
@@ -13195,16 +13206,16 @@
         <v>656</v>
       </c>
       <c r="B653" s="24">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C653" s="25">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D653" s="26">
         <v>2.25</v>
       </c>
       <c r="E653" s="27">
-        <v>146.25</v>
+        <v>139.5</v>
       </c>
     </row>
     <row r="654" spans="1:5" x14ac:dyDescent="0.25">
@@ -13244,16 +13255,16 @@
         <v>659</v>
       </c>
       <c r="B656" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C656" s="25">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D656" s="26">
         <v>2.75</v>
       </c>
       <c r="E656" s="27">
-        <v>192.5</v>
+        <v>187</v>
       </c>
     </row>
     <row r="657" spans="1:5" x14ac:dyDescent="0.25">
@@ -13329,16 +13340,16 @@
         <v>664</v>
       </c>
       <c r="B661" s="24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C661" s="25">
-        <v>27.5</v>
+        <v>24</v>
       </c>
       <c r="D661" s="26">
         <v>4.25</v>
       </c>
       <c r="E661" s="27">
-        <v>116.88</v>
+        <v>102</v>
       </c>
     </row>
     <row r="662" spans="1:5" x14ac:dyDescent="0.25">
@@ -13363,16 +13374,16 @@
         <v>666</v>
       </c>
       <c r="B663" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C663" s="25">
-        <v>27</v>
+        <v>26.5</v>
       </c>
       <c r="D663" s="26">
         <v>5</v>
       </c>
       <c r="E663" s="27">
-        <v>135</v>
+        <v>132.5</v>
       </c>
     </row>
     <row r="664" spans="1:5" x14ac:dyDescent="0.25">
@@ -13397,16 +13408,16 @@
         <v>668</v>
       </c>
       <c r="B665" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C665" s="25">
-        <v>35.5</v>
+        <v>34.5</v>
       </c>
       <c r="D665" s="26">
         <v>3.6</v>
       </c>
       <c r="E665" s="27">
-        <v>127.8</v>
+        <v>124.2</v>
       </c>
     </row>
     <row r="666" spans="1:5" x14ac:dyDescent="0.25">
@@ -13490,10 +13501,10 @@
         <v>675</v>
       </c>
       <c r="B672" s="24">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C672" s="25">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D672" s="29"/>
       <c r="E672" s="28"/>
@@ -13503,10 +13514,10 @@
         <v>676</v>
       </c>
       <c r="B673" s="24">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C673" s="25">
-        <v>11.5</v>
+        <v>59.5</v>
       </c>
       <c r="D673" s="29"/>
       <c r="E673" s="28"/>
@@ -13516,10 +13527,10 @@
         <v>677</v>
       </c>
       <c r="B674" s="24">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C674" s="25">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D674" s="29"/>
       <c r="E674" s="28"/>
@@ -13650,16 +13661,16 @@
         <v>687</v>
       </c>
       <c r="B684" s="24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C684" s="25">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D684" s="26">
         <v>1.6</v>
       </c>
       <c r="E684" s="27">
-        <v>28.8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="685" spans="1:5" x14ac:dyDescent="0.25">
@@ -13676,10 +13687,10 @@
         <v>689</v>
       </c>
       <c r="B686" s="24">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="C686" s="25">
-        <v>-0.39</v>
+        <v>-25</v>
       </c>
       <c r="D686" s="29"/>
       <c r="E686" s="28"/>
@@ -13689,10 +13700,10 @@
         <v>690</v>
       </c>
       <c r="B687" s="24">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="C687" s="25">
-        <v>-0.57999999999999996</v>
+        <v>-0.39</v>
       </c>
       <c r="D687" s="29"/>
       <c r="E687" s="28"/>
@@ -13702,30 +13713,30 @@
         <v>691</v>
       </c>
       <c r="B688" s="24">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="C688" s="25">
-        <v>-94</v>
-      </c>
-      <c r="D688" s="26">
-        <v>1</v>
-      </c>
-      <c r="E688" s="27">
-        <v>-94</v>
-      </c>
+        <v>-0.59</v>
+      </c>
+      <c r="D688" s="29"/>
+      <c r="E688" s="28"/>
     </row>
     <row r="689" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A689" s="23" t="s">
         <v>692</v>
       </c>
       <c r="B689" s="24">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C689" s="25">
-        <v>-30.5</v>
-      </c>
-      <c r="D689" s="29"/>
-      <c r="E689" s="28"/>
+        <v>-94</v>
+      </c>
+      <c r="D689" s="26">
+        <v>1</v>
+      </c>
+      <c r="E689" s="27">
+        <v>-94</v>
+      </c>
     </row>
     <row r="690" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A690" s="23" t="s">
@@ -13735,30 +13746,26 @@
         <v>16</v>
       </c>
       <c r="C690" s="25">
-        <v>21</v>
-      </c>
-      <c r="D690" s="26">
-        <v>2.5</v>
-      </c>
-      <c r="E690" s="27">
-        <v>52.5</v>
-      </c>
+        <v>-30.5</v>
+      </c>
+      <c r="D690" s="29"/>
+      <c r="E690" s="28"/>
     </row>
     <row r="691" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A691" s="23" t="s">
         <v>694</v>
       </c>
       <c r="B691" s="24">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C691" s="25">
-        <v>28.75</v>
+        <v>21</v>
       </c>
       <c r="D691" s="26">
         <v>2.5</v>
       </c>
       <c r="E691" s="27">
-        <v>71.88</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="692" spans="1:5" x14ac:dyDescent="0.25">
@@ -13766,16 +13773,16 @@
         <v>695</v>
       </c>
       <c r="B692" s="24">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C692" s="25">
-        <v>45.75</v>
+        <v>25.75</v>
       </c>
       <c r="D692" s="26">
         <v>2.5</v>
       </c>
       <c r="E692" s="27">
-        <v>114.38</v>
+        <v>64.38</v>
       </c>
     </row>
     <row r="693" spans="1:5" x14ac:dyDescent="0.25">
@@ -13783,16 +13790,16 @@
         <v>696</v>
       </c>
       <c r="B693" s="24">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C693" s="25">
-        <v>68</v>
+        <v>45.75</v>
       </c>
       <c r="D693" s="26">
         <v>2.5</v>
       </c>
       <c r="E693" s="27">
-        <v>170</v>
+        <v>114.38</v>
       </c>
     </row>
     <row r="694" spans="1:5" x14ac:dyDescent="0.25">
@@ -13800,16 +13807,16 @@
         <v>697</v>
       </c>
       <c r="B694" s="24">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C694" s="25">
-        <v>28.5</v>
+        <v>68</v>
       </c>
       <c r="D694" s="26">
         <v>2.5</v>
       </c>
       <c r="E694" s="27">
-        <v>71.25</v>
+        <v>170</v>
       </c>
     </row>
     <row r="695" spans="1:5" x14ac:dyDescent="0.25">
@@ -13817,16 +13824,16 @@
         <v>698</v>
       </c>
       <c r="B695" s="24">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C695" s="25">
-        <v>29.75</v>
+        <v>28.5</v>
       </c>
       <c r="D695" s="26">
         <v>2.5</v>
       </c>
       <c r="E695" s="27">
-        <v>74.38</v>
+        <v>71.25</v>
       </c>
     </row>
     <row r="696" spans="1:5" x14ac:dyDescent="0.25">
@@ -13834,16 +13841,16 @@
         <v>699</v>
       </c>
       <c r="B696" s="24">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C696" s="25">
-        <v>25</v>
+        <v>11.75</v>
       </c>
       <c r="D696" s="26">
         <v>2.5</v>
       </c>
       <c r="E696" s="27">
-        <v>62.5</v>
+        <v>29.38</v>
       </c>
     </row>
     <row r="697" spans="1:5" x14ac:dyDescent="0.25">
@@ -13851,16 +13858,16 @@
         <v>700</v>
       </c>
       <c r="B697" s="24">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C697" s="25">
-        <v>47.75</v>
+        <v>25</v>
       </c>
       <c r="D697" s="26">
         <v>2.5</v>
       </c>
       <c r="E697" s="27">
-        <v>119.38</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="698" spans="1:5" x14ac:dyDescent="0.25">
@@ -13868,16 +13875,16 @@
         <v>701</v>
       </c>
       <c r="B698" s="24">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C698" s="25">
-        <v>48</v>
+        <v>42.75</v>
       </c>
       <c r="D698" s="26">
         <v>2.5</v>
       </c>
       <c r="E698" s="27">
-        <v>120</v>
+        <v>106.88</v>
       </c>
     </row>
     <row r="699" spans="1:5" x14ac:dyDescent="0.25">
@@ -13885,25 +13892,42 @@
         <v>702</v>
       </c>
       <c r="B699" s="24">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="C699" s="25">
-        <v>-195</v>
-      </c>
-      <c r="D699" s="29"/>
-      <c r="E699" s="28"/>
+        <v>45.5</v>
+      </c>
+      <c r="D699" s="26">
+        <v>2.5</v>
+      </c>
+      <c r="E699" s="27">
+        <v>113.75</v>
+      </c>
     </row>
     <row r="700" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A700" s="30" t="s">
+      <c r="A700" s="23" t="s">
         <v>703</v>
       </c>
-      <c r="B700" s="31"/>
-      <c r="C700" s="32">
-        <v>36814.92</v>
-      </c>
-      <c r="D700" s="33"/>
-      <c r="E700" s="34">
-        <v>107398.63</v>
+      <c r="B700" s="24">
+        <v>76</v>
+      </c>
+      <c r="C700" s="25">
+        <v>-202</v>
+      </c>
+      <c r="D700" s="29"/>
+      <c r="E700" s="28"/>
+    </row>
+    <row r="701" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A701" s="30" t="s">
+        <v>704</v>
+      </c>
+      <c r="B701" s="31"/>
+      <c r="C701" s="32">
+        <v>36597.43</v>
+      </c>
+      <c r="D701" s="33"/>
+      <c r="E701" s="34">
+        <v>107665.57</v>
       </c>
     </row>
   </sheetData>

--- a/data/website stock.xlsx
+++ b/data/website stock.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="707">
   <si>
     <t>Order Estimate - (from 1-Jul-2023)</t>
   </si>
@@ -35,7 +35,7 @@
     <t>Stock Group Summary</t>
   </si>
   <si>
-    <t>1-Jul-25 to 1-Dec-25</t>
+    <t>1-Jul-25 to 3-Dec-25</t>
   </si>
   <si>
     <t/>
@@ -1796,6 +1796,12 @@
     <t>9236 CARDS (DCU)</t>
   </si>
   <si>
+    <t>9237 CARDS (DCU)</t>
+  </si>
+  <si>
+    <t>9238 CARDS (DCU)</t>
+  </si>
+  <si>
     <t>9301 CARDS</t>
   </si>
   <si>
@@ -2093,7 +2099,7 @@
     <t>FANCY SAMPLE SET</t>
   </si>
   <si>
-    <t>Gift Envelope (Pocket) Sr.</t>
+    <t>Gift Envelope (Pocket) SR...</t>
   </si>
   <si>
     <t>INVITATION LOOSE SAMPLES (2025)</t>
@@ -2662,7 +2668,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E701"/>
+  <dimension ref="A1:E703"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2994,16 +3000,16 @@
         <v>26</v>
       </c>
       <c r="B23" s="24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C23" s="25">
-        <v>53.5</v>
+        <v>43.5</v>
       </c>
       <c r="D23" s="26">
         <v>1.8</v>
       </c>
       <c r="E23" s="27">
-        <v>96.3</v>
+        <v>78.3</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3045,16 +3051,16 @@
         <v>29</v>
       </c>
       <c r="B26" s="24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C26" s="25">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D26" s="26">
         <v>2</v>
       </c>
       <c r="E26" s="27">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3096,16 +3102,16 @@
         <v>32</v>
       </c>
       <c r="B29" s="24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" s="25">
-        <v>50</v>
+        <v>47.5</v>
       </c>
       <c r="D29" s="26">
         <v>2.38</v>
       </c>
       <c r="E29" s="27">
-        <v>119</v>
+        <v>113.05</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -3158,16 +3164,16 @@
         <v>36</v>
       </c>
       <c r="B33" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C33" s="25">
-        <v>16.5</v>
+        <v>11.5</v>
       </c>
       <c r="D33" s="26">
         <v>2.5</v>
       </c>
       <c r="E33" s="27">
-        <v>41.25</v>
+        <v>28.75</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -3223,15 +3229,17 @@
       <c r="A37" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="24"/>
+      <c r="B37" s="24">
+        <v>1</v>
+      </c>
       <c r="C37" s="25">
-        <v>29.5</v>
+        <v>24.5</v>
       </c>
       <c r="D37" s="26">
         <v>2.76</v>
       </c>
       <c r="E37" s="27">
-        <v>81.42</v>
+        <v>67.62</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -3305,16 +3313,16 @@
         <v>45</v>
       </c>
       <c r="B42" s="24">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C42" s="25">
-        <v>67.5</v>
+        <v>62.5</v>
       </c>
       <c r="D42" s="26">
         <v>2.35</v>
       </c>
       <c r="E42" s="27">
-        <v>158.63</v>
+        <v>146.88</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -3322,16 +3330,16 @@
         <v>46</v>
       </c>
       <c r="B43" s="24">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C43" s="25">
-        <v>63.5</v>
+        <v>57</v>
       </c>
       <c r="D43" s="26">
         <v>2.66</v>
       </c>
       <c r="E43" s="27">
-        <v>168.91</v>
+        <v>151.62</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -3407,16 +3415,16 @@
         <v>51</v>
       </c>
       <c r="B48" s="24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C48" s="25">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D48" s="26">
         <v>1.4</v>
       </c>
       <c r="E48" s="27">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -3424,16 +3432,16 @@
         <v>52</v>
       </c>
       <c r="B49" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C49" s="25">
-        <v>187</v>
+        <v>183.5</v>
       </c>
       <c r="D49" s="26">
         <v>1.4</v>
       </c>
       <c r="E49" s="27">
-        <v>261.8</v>
+        <v>256.89999999999998</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -3492,16 +3500,16 @@
         <v>56</v>
       </c>
       <c r="B53" s="24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C53" s="25">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D53" s="26">
         <v>2.75</v>
       </c>
       <c r="E53" s="27">
-        <v>112.75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -3611,16 +3619,16 @@
         <v>63</v>
       </c>
       <c r="B60" s="24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C60" s="25">
-        <v>305.5</v>
+        <v>300.5</v>
       </c>
       <c r="D60" s="26">
         <v>1.1100000000000001</v>
       </c>
       <c r="E60" s="27">
-        <v>339.11</v>
+        <v>333.56</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -3756,16 +3764,16 @@
         <v>72</v>
       </c>
       <c r="B69" s="24">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C69" s="25">
-        <v>299.5</v>
+        <v>293.5</v>
       </c>
       <c r="D69" s="26">
         <v>1.4</v>
       </c>
       <c r="E69" s="27">
-        <v>419.3</v>
+        <v>410.9</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -3773,16 +3781,16 @@
         <v>73</v>
       </c>
       <c r="B70" s="24">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C70" s="25">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D70" s="26">
         <v>1.4</v>
       </c>
       <c r="E70" s="27">
-        <v>418.6</v>
+        <v>414.4</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -3824,16 +3832,16 @@
         <v>76</v>
       </c>
       <c r="B73" s="24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C73" s="25">
-        <v>642.5</v>
+        <v>641.5</v>
       </c>
       <c r="D73" s="26">
         <v>1.2</v>
       </c>
       <c r="E73" s="27">
-        <v>771</v>
+        <v>769.8</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -3841,16 +3849,16 @@
         <v>77</v>
       </c>
       <c r="B74" s="24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C74" s="25">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="D74" s="26">
         <v>1.2</v>
       </c>
       <c r="E74" s="27">
-        <v>806.4</v>
+        <v>794.4</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -3992,16 +4000,16 @@
         <v>86</v>
       </c>
       <c r="B83" s="24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C83" s="25">
-        <v>267</v>
+        <v>167</v>
       </c>
       <c r="D83" s="26">
         <v>1.3</v>
       </c>
       <c r="E83" s="27">
-        <v>347.1</v>
+        <v>217.1</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -4009,16 +4017,16 @@
         <v>87</v>
       </c>
       <c r="B84" s="24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" s="25">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="D84" s="26">
         <v>1.3</v>
       </c>
       <c r="E84" s="27">
-        <v>429</v>
+        <v>364</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -4043,16 +4051,16 @@
         <v>89</v>
       </c>
       <c r="B86" s="24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C86" s="25">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D86" s="26">
         <v>1.7</v>
       </c>
       <c r="E86" s="27">
-        <v>30.6</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -4077,16 +4085,16 @@
         <v>91</v>
       </c>
       <c r="B88" s="24">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C88" s="25">
-        <v>10</v>
+        <v>-85</v>
       </c>
       <c r="D88" s="26">
         <v>0.64</v>
       </c>
       <c r="E88" s="27">
-        <v>6.43</v>
+        <v>-54.68</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -4094,16 +4102,16 @@
         <v>92</v>
       </c>
       <c r="B89" s="24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C89" s="25">
-        <v>94.7</v>
+        <v>64.7</v>
       </c>
       <c r="D89" s="26">
         <v>0.52</v>
       </c>
       <c r="E89" s="27">
-        <v>49.08</v>
+        <v>33.53</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -4165,7 +4173,7 @@
         <v>7</v>
       </c>
       <c r="C93" s="25">
-        <v>-25</v>
+        <v>447</v>
       </c>
       <c r="D93" s="29"/>
       <c r="E93" s="28"/>
@@ -4178,7 +4186,7 @@
         <v>6</v>
       </c>
       <c r="C94" s="25">
-        <v>-38</v>
+        <v>902</v>
       </c>
       <c r="D94" s="29"/>
       <c r="E94" s="28"/>
@@ -4191,7 +4199,7 @@
         <v>4</v>
       </c>
       <c r="C95" s="25">
-        <v>-9</v>
+        <v>461</v>
       </c>
       <c r="D95" s="29"/>
       <c r="E95" s="28"/>
@@ -4275,16 +4283,16 @@
         <v>105</v>
       </c>
       <c r="B102" s="24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C102" s="25">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D102" s="26">
         <v>2.5</v>
       </c>
       <c r="E102" s="27">
-        <v>127.5</v>
+        <v>102.5</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -4309,16 +4317,16 @@
         <v>107</v>
       </c>
       <c r="B104" s="24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" s="25">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D104" s="26">
         <v>2.5</v>
       </c>
       <c r="E104" s="27">
-        <v>220</v>
+        <v>195</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -4326,16 +4334,16 @@
         <v>108</v>
       </c>
       <c r="B105" s="24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" s="25">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D105" s="26">
         <v>2.5</v>
       </c>
       <c r="E105" s="27">
-        <v>175</v>
+        <v>150</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -4385,7 +4393,9 @@
       <c r="A109" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="B109" s="24"/>
+      <c r="B109" s="24">
+        <v>5</v>
+      </c>
       <c r="C109" s="28"/>
       <c r="D109" s="29"/>
       <c r="E109" s="28"/>
@@ -4394,8 +4404,12 @@
       <c r="A110" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="B110" s="24"/>
-      <c r="C110" s="28"/>
+      <c r="B110" s="24">
+        <v>2</v>
+      </c>
+      <c r="C110" s="25">
+        <v>26</v>
+      </c>
       <c r="D110" s="29"/>
       <c r="E110" s="28"/>
     </row>
@@ -4403,8 +4417,12 @@
       <c r="A111" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="B111" s="24"/>
-      <c r="C111" s="28"/>
+      <c r="B111" s="24">
+        <v>2</v>
+      </c>
+      <c r="C111" s="25">
+        <v>26</v>
+      </c>
       <c r="D111" s="29"/>
       <c r="E111" s="28"/>
     </row>
@@ -4412,8 +4430,12 @@
       <c r="A112" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="B112" s="24"/>
-      <c r="C112" s="28"/>
+      <c r="B112" s="24">
+        <v>4</v>
+      </c>
+      <c r="C112" s="25">
+        <v>10</v>
+      </c>
       <c r="D112" s="29"/>
       <c r="E112" s="28"/>
     </row>
@@ -4422,16 +4444,16 @@
         <v>116</v>
       </c>
       <c r="B113" s="24">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C113" s="25">
-        <v>391.5</v>
+        <v>366.5</v>
       </c>
       <c r="D113" s="26">
         <v>0.7</v>
       </c>
       <c r="E113" s="27">
-        <v>274.05</v>
+        <v>256.55</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -4452,10 +4474,10 @@
         <v>118</v>
       </c>
       <c r="B115" s="24">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C115" s="25">
-        <v>-0.2</v>
+        <v>-0.23</v>
       </c>
       <c r="D115" s="29"/>
       <c r="E115" s="28"/>
@@ -4465,10 +4487,10 @@
         <v>119</v>
       </c>
       <c r="B116" s="24">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C116" s="25">
-        <v>-0.39</v>
+        <v>-0.4</v>
       </c>
       <c r="D116" s="29"/>
       <c r="E116" s="28"/>
@@ -4487,10 +4509,10 @@
         <v>121</v>
       </c>
       <c r="B118" s="24">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C118" s="25">
-        <v>-1.44</v>
+        <v>-1.51</v>
       </c>
       <c r="D118" s="29"/>
       <c r="E118" s="28"/>
@@ -4500,10 +4522,10 @@
         <v>122</v>
       </c>
       <c r="B119" s="24">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C119" s="25">
-        <v>-2.09</v>
+        <v>-2.17</v>
       </c>
       <c r="D119" s="29"/>
       <c r="E119" s="28"/>
@@ -4663,16 +4685,16 @@
         <v>133</v>
       </c>
       <c r="B130" s="24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C130" s="25">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D130" s="26">
         <v>12.5</v>
       </c>
       <c r="E130" s="27">
-        <v>137.5</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -4714,16 +4736,16 @@
         <v>136</v>
       </c>
       <c r="B133" s="24">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C133" s="25">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="D133" s="26">
         <v>13.07</v>
       </c>
       <c r="E133" s="27">
-        <v>143.79</v>
+        <v>71.89</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -4865,16 +4887,16 @@
         <v>145</v>
       </c>
       <c r="B142" s="24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C142" s="25">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="D142" s="26">
         <v>18.5</v>
       </c>
       <c r="E142" s="27">
-        <v>342.25</v>
+        <v>351.5</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -4933,16 +4955,16 @@
         <v>149</v>
       </c>
       <c r="B146" s="24">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C146" s="25">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="D146" s="26">
         <v>18.5</v>
       </c>
       <c r="E146" s="27">
-        <v>157.25</v>
+        <v>138.75</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -4967,16 +4989,16 @@
         <v>151</v>
       </c>
       <c r="B148" s="24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C148" s="25">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D148" s="26">
         <v>11.5</v>
       </c>
       <c r="E148" s="27">
-        <v>310.5</v>
+        <v>253</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -5580,13 +5602,13 @@
         <v>13</v>
       </c>
       <c r="C186" s="25">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D186" s="26">
         <v>5</v>
       </c>
       <c r="E186" s="27">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -5662,16 +5684,16 @@
         <v>194</v>
       </c>
       <c r="B191" s="24">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C191" s="25">
-        <v>50</v>
+        <v>47.5</v>
       </c>
       <c r="D191" s="26">
         <v>4.5</v>
       </c>
       <c r="E191" s="27">
-        <v>225</v>
+        <v>213.75</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -5792,16 +5814,16 @@
         <v>202</v>
       </c>
       <c r="B199" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C199" s="25">
-        <v>60.5</v>
+        <v>58</v>
       </c>
       <c r="D199" s="26">
         <v>2.6</v>
       </c>
       <c r="E199" s="27">
-        <v>157.30000000000001</v>
+        <v>150.80000000000001</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
@@ -5820,16 +5842,16 @@
         <v>204</v>
       </c>
       <c r="B201" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C201" s="25">
-        <v>62.5</v>
+        <v>58.5</v>
       </c>
       <c r="D201" s="26">
         <v>3.5</v>
       </c>
       <c r="E201" s="27">
-        <v>218.75</v>
+        <v>204.75</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
@@ -5854,16 +5876,16 @@
         <v>206</v>
       </c>
       <c r="B203" s="24">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C203" s="25">
-        <v>41.5</v>
+        <v>37.5</v>
       </c>
       <c r="D203" s="26">
         <v>3.89</v>
       </c>
       <c r="E203" s="27">
-        <v>161.46</v>
+        <v>145.88999999999999</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
@@ -5888,16 +5910,16 @@
         <v>208</v>
       </c>
       <c r="B205" s="24">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C205" s="25">
-        <v>234</v>
+        <v>232.5</v>
       </c>
       <c r="D205" s="26">
         <v>2.7</v>
       </c>
       <c r="E205" s="27">
-        <v>631.79999999999995</v>
+        <v>627.75</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
@@ -5905,16 +5927,16 @@
         <v>209</v>
       </c>
       <c r="B206" s="24">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C206" s="25">
-        <v>197.5</v>
+        <v>192.5</v>
       </c>
       <c r="D206" s="26">
         <v>2.7</v>
       </c>
       <c r="E206" s="27">
-        <v>533.25</v>
+        <v>519.75</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
@@ -6058,16 +6080,16 @@
         <v>218</v>
       </c>
       <c r="B215" s="24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C215" s="25">
-        <v>59.72</v>
+        <v>58.72</v>
       </c>
       <c r="D215" s="26">
         <v>3.16</v>
       </c>
       <c r="E215" s="27">
-        <v>188.72</v>
+        <v>185.56</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
@@ -6075,16 +6097,16 @@
         <v>219</v>
       </c>
       <c r="B216" s="24">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C216" s="25">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D216" s="26">
         <v>2.66</v>
       </c>
       <c r="E216" s="27">
-        <v>289.94</v>
+        <v>287.27999999999997</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -6109,16 +6131,16 @@
         <v>221</v>
       </c>
       <c r="B218" s="24">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C218" s="25">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D218" s="26">
         <v>4</v>
       </c>
       <c r="E218" s="27">
-        <v>528</v>
+        <v>508</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -6205,16 +6227,16 @@
         <v>227</v>
       </c>
       <c r="B224" s="24">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C224" s="25">
-        <v>89.5</v>
+        <v>89</v>
       </c>
       <c r="D224" s="26">
         <v>3.25</v>
       </c>
       <c r="E224" s="27">
-        <v>290.88</v>
+        <v>289.25</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
@@ -6314,7 +6336,9 @@
         <v>234</v>
       </c>
       <c r="B231" s="24"/>
-      <c r="C231" s="28"/>
+      <c r="C231" s="25">
+        <v>15</v>
+      </c>
       <c r="D231" s="29"/>
       <c r="E231" s="28"/>
     </row>
@@ -6323,7 +6347,9 @@
         <v>235</v>
       </c>
       <c r="B232" s="24"/>
-      <c r="C232" s="28"/>
+      <c r="C232" s="25">
+        <v>25</v>
+      </c>
       <c r="D232" s="29"/>
       <c r="E232" s="28"/>
     </row>
@@ -6332,7 +6358,9 @@
         <v>236</v>
       </c>
       <c r="B233" s="24"/>
-      <c r="C233" s="28"/>
+      <c r="C233" s="25">
+        <v>25</v>
+      </c>
       <c r="D233" s="29"/>
       <c r="E233" s="28"/>
     </row>
@@ -6341,16 +6369,16 @@
         <v>237</v>
       </c>
       <c r="B234" s="24">
+        <v>16</v>
+      </c>
+      <c r="C234" s="25">
         <v>14</v>
-      </c>
-      <c r="C234" s="25">
-        <v>20</v>
       </c>
       <c r="D234" s="26">
         <v>8.25</v>
       </c>
       <c r="E234" s="27">
-        <v>165</v>
+        <v>115.5</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
@@ -6375,16 +6403,16 @@
         <v>239</v>
       </c>
       <c r="B236" s="24">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C236" s="25">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D236" s="26">
         <v>4.8</v>
       </c>
       <c r="E236" s="27">
-        <v>240</v>
+        <v>230.4</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
@@ -6409,16 +6437,16 @@
         <v>241</v>
       </c>
       <c r="B238" s="24">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C238" s="25">
-        <v>42.5</v>
+        <v>37.5</v>
       </c>
       <c r="D238" s="26">
         <v>3</v>
       </c>
       <c r="E238" s="27">
-        <v>127.5</v>
+        <v>112.5</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
@@ -6460,16 +6488,16 @@
         <v>244</v>
       </c>
       <c r="B241" s="24">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C241" s="25">
-        <v>169.5</v>
+        <v>162.5</v>
       </c>
       <c r="D241" s="26">
         <v>3.9</v>
       </c>
       <c r="E241" s="27">
-        <v>661.05</v>
+        <v>633.75</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
@@ -6477,16 +6505,16 @@
         <v>245</v>
       </c>
       <c r="B242" s="24">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C242" s="25">
-        <v>145</v>
+        <v>143.5</v>
       </c>
       <c r="D242" s="26">
         <v>3.9</v>
       </c>
       <c r="E242" s="27">
-        <v>565.5</v>
+        <v>559.65</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
@@ -6575,16 +6603,16 @@
         <v>251</v>
       </c>
       <c r="B248" s="24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C248" s="25">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D248" s="26">
         <v>3.5</v>
       </c>
       <c r="E248" s="27">
-        <v>164.5</v>
+        <v>154</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
@@ -6767,16 +6795,16 @@
         <v>263</v>
       </c>
       <c r="B260" s="24">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C260" s="25">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D260" s="26">
         <v>3.1</v>
       </c>
       <c r="E260" s="27">
-        <v>145.69999999999999</v>
+        <v>120.9</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
@@ -7004,16 +7032,16 @@
         <v>278</v>
       </c>
       <c r="B275" s="24">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C275" s="25">
-        <v>65.5</v>
+        <v>63.5</v>
       </c>
       <c r="D275" s="26">
         <v>6.18</v>
       </c>
       <c r="E275" s="27">
-        <v>404.81</v>
+        <v>392.45</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
@@ -7055,16 +7083,16 @@
         <v>281</v>
       </c>
       <c r="B278" s="24">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C278" s="25">
-        <v>14.5</v>
+        <v>8.5</v>
       </c>
       <c r="D278" s="26">
         <v>5</v>
       </c>
       <c r="E278" s="27">
-        <v>72.5</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
@@ -7106,16 +7134,16 @@
         <v>284</v>
       </c>
       <c r="B281" s="24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C281" s="25">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D281" s="26">
         <v>4.63</v>
       </c>
       <c r="E281" s="27">
-        <v>157.25</v>
+        <v>143.38</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
@@ -7223,16 +7251,16 @@
         <v>291</v>
       </c>
       <c r="B288" s="24">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C288" s="25">
-        <v>125.5</v>
+        <v>125</v>
       </c>
       <c r="D288" s="26">
         <v>6</v>
       </c>
       <c r="E288" s="27">
-        <v>752.94</v>
+        <v>749.94</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
@@ -7762,16 +7790,16 @@
         <v>324</v>
       </c>
       <c r="B321" s="24">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C321" s="25">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D321" s="26">
         <v>4.28</v>
       </c>
       <c r="E321" s="27">
-        <v>475.08</v>
+        <v>449.4</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
@@ -7860,16 +7888,16 @@
         <v>330</v>
       </c>
       <c r="B327" s="24">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C327" s="25">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D327" s="26">
         <v>9</v>
       </c>
       <c r="E327" s="27">
-        <v>342</v>
+        <v>252</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
@@ -7928,16 +7956,16 @@
         <v>334</v>
       </c>
       <c r="B331" s="24">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C331" s="25">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D331" s="26">
         <v>9</v>
       </c>
       <c r="E331" s="27">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
@@ -7945,16 +7973,16 @@
         <v>335</v>
       </c>
       <c r="B332" s="24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C332" s="25">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D332" s="26">
         <v>9</v>
       </c>
       <c r="E332" s="27">
-        <v>189</v>
+        <v>171</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
@@ -8225,13 +8253,13 @@
         <v>15</v>
       </c>
       <c r="C349" s="25">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D349" s="26">
         <v>7.82</v>
       </c>
       <c r="E349" s="27">
-        <v>70.34</v>
+        <v>54.71</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
@@ -8358,16 +8386,16 @@
         <v>360</v>
       </c>
       <c r="B357" s="24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C357" s="25">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D357" s="26">
         <v>7.2</v>
       </c>
       <c r="E357" s="27">
-        <v>180</v>
+        <v>165.6</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
@@ -8429,13 +8457,13 @@
         <v>34</v>
       </c>
       <c r="C361" s="25">
-        <v>65.5</v>
+        <v>259</v>
       </c>
       <c r="D361" s="26">
         <v>6.6</v>
       </c>
       <c r="E361" s="27">
-        <v>432.3</v>
+        <v>1709.4</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
@@ -8766,16 +8794,16 @@
         <v>384</v>
       </c>
       <c r="B381" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C381" s="25">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D381" s="26">
         <v>5.7</v>
       </c>
       <c r="E381" s="27">
-        <v>131.1</v>
+        <v>125.4</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
@@ -8973,16 +9001,16 @@
         <v>397</v>
       </c>
       <c r="B394" s="24">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C394" s="25">
-        <v>20.5</v>
+        <v>17.5</v>
       </c>
       <c r="D394" s="26">
         <v>6.65</v>
       </c>
       <c r="E394" s="27">
-        <v>136.33000000000001</v>
+        <v>116.38</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
@@ -9150,16 +9178,16 @@
         <v>408</v>
       </c>
       <c r="B405" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C405" s="25">
-        <v>23.5</v>
+        <v>22.5</v>
       </c>
       <c r="D405" s="26">
         <v>8</v>
       </c>
       <c r="E405" s="27">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
@@ -9257,16 +9285,16 @@
         <v>415</v>
       </c>
       <c r="B412" s="24">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C412" s="25">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D412" s="26">
         <v>6.46</v>
       </c>
       <c r="E412" s="27">
-        <v>142.12</v>
+        <v>116.28</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
@@ -9515,16 +9543,16 @@
         <v>431</v>
       </c>
       <c r="B428" s="24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C428" s="25">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D428" s="26">
         <v>8.75</v>
       </c>
       <c r="E428" s="27">
-        <v>192.5</v>
+        <v>183.75</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
@@ -9532,16 +9560,16 @@
         <v>432</v>
       </c>
       <c r="B429" s="24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C429" s="25">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D429" s="26">
         <v>9.75</v>
       </c>
       <c r="E429" s="27">
-        <v>146.25</v>
+        <v>136.5</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
@@ -9549,16 +9577,16 @@
         <v>433</v>
       </c>
       <c r="B430" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C430" s="25">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="D430" s="26">
         <v>15.5</v>
       </c>
       <c r="E430" s="27">
-        <v>124</v>
+        <v>116.25</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
@@ -9651,7 +9679,7 @@
         <v>439</v>
       </c>
       <c r="B436" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C436" s="25">
         <v>-0.5</v>
@@ -9853,16 +9881,16 @@
         <v>451</v>
       </c>
       <c r="B448" s="24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C448" s="25">
-        <v>20.5</v>
+        <v>19.5</v>
       </c>
       <c r="D448" s="26">
         <v>10.5</v>
       </c>
       <c r="E448" s="27">
-        <v>215.25</v>
+        <v>204.75</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.25">
@@ -9902,16 +9930,16 @@
         <v>454</v>
       </c>
       <c r="B451" s="24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C451" s="25">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="D451" s="26">
         <v>8.5500000000000007</v>
       </c>
       <c r="E451" s="27">
-        <v>76.95</v>
+        <v>64.13</v>
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.25">
@@ -10017,16 +10045,16 @@
         <v>461</v>
       </c>
       <c r="B458" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C458" s="25">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D458" s="26">
         <v>11.2</v>
       </c>
       <c r="E458" s="27">
-        <v>190.4</v>
+        <v>179.2</v>
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.25">
@@ -10196,16 +10224,16 @@
         <v>472</v>
       </c>
       <c r="B469" s="24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C469" s="25">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="D469" s="26">
         <v>11.4</v>
       </c>
       <c r="E469" s="27">
-        <v>74.099999999999994</v>
+        <v>91.2</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.25">
@@ -10213,16 +10241,16 @@
         <v>473</v>
       </c>
       <c r="B470" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C470" s="25">
-        <v>11.5</v>
+        <v>8.5</v>
       </c>
       <c r="D470" s="26">
         <v>11.88</v>
       </c>
       <c r="E470" s="27">
-        <v>136.62</v>
+        <v>100.98</v>
       </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.25">
@@ -10464,16 +10492,16 @@
         <v>488</v>
       </c>
       <c r="B485" s="24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C485" s="25">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D485" s="26">
         <v>13.39</v>
       </c>
       <c r="E485" s="27">
-        <v>308.01</v>
+        <v>281.22000000000003</v>
       </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.25">
@@ -10481,16 +10509,16 @@
         <v>489</v>
       </c>
       <c r="B486" s="24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C486" s="25">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D486" s="26">
         <v>9</v>
       </c>
       <c r="E486" s="27">
-        <v>243</v>
+        <v>225</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.25">
@@ -10643,16 +10671,16 @@
         <v>499</v>
       </c>
       <c r="B496" s="24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C496" s="25">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="D496" s="26">
         <v>10.17</v>
       </c>
       <c r="E496" s="27">
-        <v>86.42</v>
+        <v>76.25</v>
       </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.25">
@@ -10690,16 +10718,16 @@
         <v>502</v>
       </c>
       <c r="B499" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C499" s="25">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="D499" s="26">
         <v>29</v>
       </c>
       <c r="E499" s="27">
-        <v>217.5</v>
+        <v>188.5</v>
       </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.25">
@@ -10854,16 +10882,16 @@
         <v>512</v>
       </c>
       <c r="B509" s="24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C509" s="25">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D509" s="26">
         <v>5.23</v>
       </c>
       <c r="E509" s="27">
-        <v>57.53</v>
+        <v>31.38</v>
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.25">
@@ -10973,16 +11001,16 @@
         <v>519</v>
       </c>
       <c r="B516" s="24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C516" s="25">
-        <v>64.5</v>
+        <v>63.5</v>
       </c>
       <c r="D516" s="26">
         <v>1.95</v>
       </c>
       <c r="E516" s="27">
-        <v>125.78</v>
+        <v>123.83</v>
       </c>
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.25">
@@ -11007,16 +11035,16 @@
         <v>521</v>
       </c>
       <c r="B518" s="24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C518" s="25">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D518" s="26">
         <v>2.1</v>
       </c>
       <c r="E518" s="27">
-        <v>161.69999999999999</v>
+        <v>147</v>
       </c>
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.25">
@@ -11041,16 +11069,16 @@
         <v>523</v>
       </c>
       <c r="B520" s="24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C520" s="25">
-        <v>66</v>
+        <v>63.5</v>
       </c>
       <c r="D520" s="26">
         <v>3.8</v>
       </c>
       <c r="E520" s="27">
-        <v>250.8</v>
+        <v>241.3</v>
       </c>
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.25">
@@ -11150,16 +11178,16 @@
         <v>530</v>
       </c>
       <c r="B527" s="24">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C527" s="25">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="D527" s="26">
         <v>1.8</v>
       </c>
       <c r="E527" s="27">
-        <v>5.4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.25">
@@ -11184,16 +11212,16 @@
         <v>532</v>
       </c>
       <c r="B529" s="24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C529" s="25">
-        <v>43.5</v>
+        <v>40.5</v>
       </c>
       <c r="D529" s="26">
         <v>4.28</v>
       </c>
       <c r="E529" s="27">
-        <v>186.18</v>
+        <v>173.34</v>
       </c>
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.25">
@@ -11201,16 +11229,16 @@
         <v>533</v>
       </c>
       <c r="B530" s="24">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C530" s="25">
-        <v>35.5</v>
+        <v>30.5</v>
       </c>
       <c r="D530" s="26">
         <v>4.28</v>
       </c>
       <c r="E530" s="27">
-        <v>151.94</v>
+        <v>130.54</v>
       </c>
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.25">
@@ -11269,16 +11297,16 @@
         <v>537</v>
       </c>
       <c r="B534" s="24">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C534" s="25">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D534" s="26">
         <v>4.75</v>
       </c>
       <c r="E534" s="27">
-        <v>152</v>
+        <v>147.25</v>
       </c>
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.25">
@@ -11320,16 +11348,16 @@
         <v>540</v>
       </c>
       <c r="B537" s="24">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C537" s="25">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D537" s="26">
         <v>4.75</v>
       </c>
       <c r="E537" s="27">
-        <v>61.75</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.25">
@@ -11354,16 +11382,16 @@
         <v>542</v>
       </c>
       <c r="B539" s="24">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C539" s="25">
-        <v>26.5</v>
+        <v>24.5</v>
       </c>
       <c r="D539" s="26">
         <v>3.1</v>
       </c>
       <c r="E539" s="27">
-        <v>82.15</v>
+        <v>75.95</v>
       </c>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.25">
@@ -11388,16 +11416,16 @@
         <v>544</v>
       </c>
       <c r="B541" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C541" s="25">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D541" s="26">
         <v>2.8</v>
       </c>
       <c r="E541" s="27">
-        <v>39.200000000000003</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.25">
@@ -11405,16 +11433,16 @@
         <v>545</v>
       </c>
       <c r="B542" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C542" s="25">
-        <v>31.5</v>
+        <v>29.5</v>
       </c>
       <c r="D542" s="26">
         <v>2.38</v>
       </c>
       <c r="E542" s="27">
-        <v>74.97</v>
+        <v>70.209999999999994</v>
       </c>
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.25">
@@ -11422,16 +11450,16 @@
         <v>546</v>
       </c>
       <c r="B543" s="24">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C543" s="25">
-        <v>41.5</v>
+        <v>38.5</v>
       </c>
       <c r="D543" s="26">
         <v>3.9</v>
       </c>
       <c r="E543" s="27">
-        <v>161.85</v>
+        <v>150.15</v>
       </c>
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.25">
@@ -11490,16 +11518,16 @@
         <v>550</v>
       </c>
       <c r="B547" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C547" s="25">
-        <v>27.5</v>
+        <v>26</v>
       </c>
       <c r="D547" s="26">
         <v>2.85</v>
       </c>
       <c r="E547" s="27">
-        <v>78.38</v>
+        <v>74.099999999999994</v>
       </c>
     </row>
     <row r="548" spans="1:5" x14ac:dyDescent="0.25">
@@ -11660,16 +11688,16 @@
         <v>560</v>
       </c>
       <c r="B557" s="24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C557" s="25">
-        <v>51.5</v>
+        <v>46.5</v>
       </c>
       <c r="D557" s="26">
         <v>2.14</v>
       </c>
       <c r="E557" s="27">
-        <v>110.21</v>
+        <v>99.51</v>
       </c>
     </row>
     <row r="558" spans="1:5" x14ac:dyDescent="0.25">
@@ -11694,16 +11722,16 @@
         <v>562</v>
       </c>
       <c r="B559" s="24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C559" s="25">
-        <v>61.5</v>
+        <v>56.5</v>
       </c>
       <c r="D559" s="26">
         <v>2.66</v>
       </c>
       <c r="E559" s="27">
-        <v>163.59</v>
+        <v>150.29</v>
       </c>
     </row>
     <row r="560" spans="1:5" x14ac:dyDescent="0.25">
@@ -11792,16 +11820,16 @@
         <v>568</v>
       </c>
       <c r="B565" s="24">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C565" s="25">
-        <v>215.5</v>
+        <v>211.5</v>
       </c>
       <c r="D565" s="26">
         <v>1.4</v>
       </c>
       <c r="E565" s="27">
-        <v>301.7</v>
+        <v>296.10000000000002</v>
       </c>
     </row>
     <row r="566" spans="1:5" x14ac:dyDescent="0.25">
@@ -11878,7 +11906,7 @@
         <v>32</v>
       </c>
       <c r="C570" s="25">
-        <v>-132</v>
+        <v>357</v>
       </c>
       <c r="D570" s="29"/>
       <c r="E570" s="28"/>
@@ -11888,10 +11916,10 @@
         <v>574</v>
       </c>
       <c r="B571" s="24">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C571" s="25">
-        <v>493.5</v>
+        <v>476.5</v>
       </c>
       <c r="D571" s="29"/>
       <c r="E571" s="28"/>
@@ -11917,7 +11945,7 @@
         <v>10</v>
       </c>
       <c r="C573" s="25">
-        <v>4</v>
+        <v>152</v>
       </c>
       <c r="D573" s="29"/>
       <c r="E573" s="28"/>
@@ -11930,7 +11958,7 @@
         <v>23</v>
       </c>
       <c r="C574" s="25">
-        <v>121.4</v>
+        <v>201.4</v>
       </c>
       <c r="D574" s="29"/>
       <c r="E574" s="28"/>
@@ -11974,16 +12002,16 @@
         <v>580</v>
       </c>
       <c r="B577" s="24">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C577" s="25">
-        <v>579.5</v>
+        <v>569.5</v>
       </c>
       <c r="D577" s="26">
         <v>0.85</v>
       </c>
       <c r="E577" s="27">
-        <v>492.58</v>
+        <v>484.08</v>
       </c>
     </row>
     <row r="578" spans="1:5" x14ac:dyDescent="0.25">
@@ -12008,16 +12036,16 @@
         <v>582</v>
       </c>
       <c r="B579" s="24">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C579" s="25">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="D579" s="26">
         <v>0.85</v>
       </c>
       <c r="E579" s="27">
-        <v>498.1</v>
+        <v>489.6</v>
       </c>
     </row>
     <row r="580" spans="1:5" x14ac:dyDescent="0.25">
@@ -12041,8 +12069,12 @@
       <c r="A581" s="23" t="s">
         <v>584</v>
       </c>
-      <c r="B581" s="24"/>
-      <c r="C581" s="28"/>
+      <c r="B581" s="24">
+        <v>6</v>
+      </c>
+      <c r="C581" s="25">
+        <v>22</v>
+      </c>
       <c r="D581" s="29"/>
       <c r="E581" s="28"/>
     </row>
@@ -12050,8 +12082,12 @@
       <c r="A582" s="23" t="s">
         <v>585</v>
       </c>
-      <c r="B582" s="24"/>
-      <c r="C582" s="28"/>
+      <c r="B582" s="24">
+        <v>7</v>
+      </c>
+      <c r="C582" s="25">
+        <v>8</v>
+      </c>
       <c r="D582" s="29"/>
       <c r="E582" s="28"/>
     </row>
@@ -12059,8 +12095,12 @@
       <c r="A583" s="23" t="s">
         <v>586</v>
       </c>
-      <c r="B583" s="24"/>
-      <c r="C583" s="28"/>
+      <c r="B583" s="24">
+        <v>6</v>
+      </c>
+      <c r="C583" s="25">
+        <v>14</v>
+      </c>
       <c r="D583" s="29"/>
       <c r="E583" s="28"/>
     </row>
@@ -12068,8 +12108,12 @@
       <c r="A584" s="23" t="s">
         <v>587</v>
       </c>
-      <c r="B584" s="24"/>
-      <c r="C584" s="28"/>
+      <c r="B584" s="24">
+        <v>6</v>
+      </c>
+      <c r="C584" s="25">
+        <v>18</v>
+      </c>
       <c r="D584" s="29"/>
       <c r="E584" s="28"/>
     </row>
@@ -12077,8 +12121,12 @@
       <c r="A585" s="23" t="s">
         <v>588</v>
       </c>
-      <c r="B585" s="24"/>
-      <c r="C585" s="28"/>
+      <c r="B585" s="24">
+        <v>4</v>
+      </c>
+      <c r="C585" s="25">
+        <v>30</v>
+      </c>
       <c r="D585" s="29"/>
       <c r="E585" s="28"/>
     </row>
@@ -12086,8 +12134,12 @@
       <c r="A586" s="23" t="s">
         <v>589</v>
       </c>
-      <c r="B586" s="24"/>
-      <c r="C586" s="28"/>
+      <c r="B586" s="24">
+        <v>5</v>
+      </c>
+      <c r="C586" s="25">
+        <v>24</v>
+      </c>
       <c r="D586" s="29"/>
       <c r="E586" s="28"/>
     </row>
@@ -12095,49 +12147,39 @@
       <c r="A587" s="23" t="s">
         <v>590</v>
       </c>
-      <c r="B587" s="24"/>
+      <c r="B587" s="24">
+        <v>1</v>
+      </c>
       <c r="C587" s="25">
-        <v>13</v>
-      </c>
-      <c r="D587" s="26">
-        <v>5.25</v>
-      </c>
-      <c r="E587" s="27">
-        <v>68.25</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D587" s="29"/>
+      <c r="E587" s="28"/>
     </row>
     <row r="588" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A588" s="23" t="s">
         <v>591</v>
       </c>
       <c r="B588" s="24">
-        <v>5</v>
-      </c>
-      <c r="C588" s="25">
-        <v>8</v>
-      </c>
-      <c r="D588" s="26">
-        <v>5.5</v>
-      </c>
-      <c r="E588" s="27">
-        <v>44</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C588" s="28"/>
+      <c r="D588" s="29"/>
+      <c r="E588" s="28"/>
     </row>
     <row r="589" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A589" s="23" t="s">
         <v>592</v>
       </c>
-      <c r="B589" s="24">
-        <v>3</v>
-      </c>
+      <c r="B589" s="24"/>
       <c r="C589" s="25">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D589" s="26">
-        <v>8.25</v>
+        <v>5.25</v>
       </c>
       <c r="E589" s="27">
-        <v>41.25</v>
+        <v>68.25</v>
       </c>
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.25">
@@ -12145,16 +12187,16 @@
         <v>593</v>
       </c>
       <c r="B590" s="24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C590" s="25">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="D590" s="26">
-        <v>8.25</v>
+        <v>5.5</v>
       </c>
       <c r="E590" s="27">
-        <v>61.88</v>
+        <v>44</v>
       </c>
     </row>
     <row r="591" spans="1:5" x14ac:dyDescent="0.25">
@@ -12162,16 +12204,16 @@
         <v>594</v>
       </c>
       <c r="B591" s="24">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C591" s="25">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D591" s="26">
-        <v>10</v>
+        <v>8.25</v>
       </c>
       <c r="E591" s="27">
-        <v>240</v>
+        <v>41.25</v>
       </c>
     </row>
     <row r="592" spans="1:5" x14ac:dyDescent="0.25">
@@ -12179,16 +12221,16 @@
         <v>595</v>
       </c>
       <c r="B592" s="24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C592" s="25">
-        <v>38</v>
+        <v>7.5</v>
       </c>
       <c r="D592" s="26">
-        <v>5.5</v>
+        <v>8.25</v>
       </c>
       <c r="E592" s="27">
-        <v>209</v>
+        <v>61.88</v>
       </c>
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.25">
@@ -12196,16 +12238,16 @@
         <v>596</v>
       </c>
       <c r="B593" s="24">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C593" s="25">
-        <v>12.5</v>
+        <v>24</v>
       </c>
       <c r="D593" s="26">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E593" s="27">
-        <v>62.5</v>
+        <v>240</v>
       </c>
     </row>
     <row r="594" spans="1:5" x14ac:dyDescent="0.25">
@@ -12213,16 +12255,16 @@
         <v>597</v>
       </c>
       <c r="B594" s="24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C594" s="25">
-        <v>12.01</v>
+        <v>38</v>
       </c>
       <c r="D594" s="26">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="E594" s="27">
-        <v>54.05</v>
+        <v>209</v>
       </c>
     </row>
     <row r="595" spans="1:5" x14ac:dyDescent="0.25">
@@ -12230,16 +12272,16 @@
         <v>598</v>
       </c>
       <c r="B595" s="24">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C595" s="25">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="D595" s="26">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="E595" s="27">
-        <v>87.5</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="596" spans="1:5" x14ac:dyDescent="0.25">
@@ -12247,16 +12289,16 @@
         <v>599</v>
       </c>
       <c r="B596" s="24">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C596" s="25">
-        <v>34</v>
+        <v>12.01</v>
       </c>
       <c r="D596" s="26">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="E596" s="27">
-        <v>195.5</v>
+        <v>54.05</v>
       </c>
     </row>
     <row r="597" spans="1:5" x14ac:dyDescent="0.25">
@@ -12264,16 +12306,16 @@
         <v>600</v>
       </c>
       <c r="B597" s="24">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C597" s="25">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D597" s="26">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E597" s="27">
-        <v>80</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.25">
@@ -12281,16 +12323,16 @@
         <v>601</v>
       </c>
       <c r="B598" s="24">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C598" s="25">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D598" s="26">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="E598" s="27">
-        <v>6.5</v>
+        <v>195.5</v>
       </c>
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.25">
@@ -12298,16 +12340,16 @@
         <v>602</v>
       </c>
       <c r="B599" s="24">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C599" s="25">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D599" s="26">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="E599" s="27">
-        <v>45.5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="600" spans="1:5" x14ac:dyDescent="0.25">
@@ -12315,16 +12357,16 @@
         <v>603</v>
       </c>
       <c r="B600" s="24">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="C600" s="25">
-        <v>67</v>
+        <v>-1.5</v>
       </c>
       <c r="D600" s="26">
-        <v>2.75</v>
+        <v>6.5</v>
       </c>
       <c r="E600" s="27">
-        <v>184.06</v>
+        <v>-9.75</v>
       </c>
     </row>
     <row r="601" spans="1:5" x14ac:dyDescent="0.25">
@@ -12335,13 +12377,13 @@
         <v>2</v>
       </c>
       <c r="C601" s="25">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="D601" s="26">
-        <v>2.66</v>
+        <v>6.5</v>
       </c>
       <c r="E601" s="27">
-        <v>6.65</v>
+        <v>45.5</v>
       </c>
     </row>
     <row r="602" spans="1:5" x14ac:dyDescent="0.25">
@@ -12349,16 +12391,16 @@
         <v>605</v>
       </c>
       <c r="B602" s="24">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="C602" s="25">
-        <v>4.5</v>
+        <v>67</v>
       </c>
       <c r="D602" s="26">
-        <v>2.66</v>
+        <v>2.75</v>
       </c>
       <c r="E602" s="27">
-        <v>11.97</v>
+        <v>184.06</v>
       </c>
     </row>
     <row r="603" spans="1:5" x14ac:dyDescent="0.25">
@@ -12366,16 +12408,16 @@
         <v>606</v>
       </c>
       <c r="B603" s="24">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C603" s="25">
-        <v>75</v>
+        <v>2.5</v>
       </c>
       <c r="D603" s="26">
-        <v>2.71</v>
+        <v>2.66</v>
       </c>
       <c r="E603" s="27">
-        <v>203.16</v>
+        <v>6.65</v>
       </c>
     </row>
     <row r="604" spans="1:5" x14ac:dyDescent="0.25">
@@ -12383,16 +12425,16 @@
         <v>607</v>
       </c>
       <c r="B604" s="24">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C604" s="25">
-        <v>54</v>
+        <v>4.5</v>
       </c>
       <c r="D604" s="26">
-        <v>4</v>
+        <v>2.66</v>
       </c>
       <c r="E604" s="27">
-        <v>216</v>
+        <v>11.97</v>
       </c>
     </row>
     <row r="605" spans="1:5" x14ac:dyDescent="0.25">
@@ -12400,16 +12442,16 @@
         <v>608</v>
       </c>
       <c r="B605" s="24">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C605" s="25">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="D605" s="26">
-        <v>4</v>
+        <v>2.71</v>
       </c>
       <c r="E605" s="27">
-        <v>4</v>
+        <v>203.16</v>
       </c>
     </row>
     <row r="606" spans="1:5" x14ac:dyDescent="0.25">
@@ -12420,13 +12462,13 @@
         <v>14</v>
       </c>
       <c r="C606" s="25">
-        <v>52.5</v>
+        <v>54</v>
       </c>
       <c r="D606" s="26">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="E606" s="27">
-        <v>78.75</v>
+        <v>216</v>
       </c>
     </row>
     <row r="607" spans="1:5" x14ac:dyDescent="0.25">
@@ -12434,16 +12476,16 @@
         <v>610</v>
       </c>
       <c r="B607" s="24">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C607" s="25">
-        <v>10.5</v>
+        <v>-1</v>
       </c>
       <c r="D607" s="26">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="E607" s="27">
-        <v>15.75</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="608" spans="1:5" x14ac:dyDescent="0.25">
@@ -12451,16 +12493,16 @@
         <v>611</v>
       </c>
       <c r="B608" s="24">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C608" s="25">
-        <v>10.75</v>
+        <v>51.5</v>
       </c>
       <c r="D608" s="26">
         <v>1.5</v>
       </c>
       <c r="E608" s="27">
-        <v>16.13</v>
+        <v>77.25</v>
       </c>
     </row>
     <row r="609" spans="1:5" x14ac:dyDescent="0.25">
@@ -12468,16 +12510,16 @@
         <v>612</v>
       </c>
       <c r="B609" s="24">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="C609" s="25">
-        <v>22.5</v>
+        <v>10.5</v>
       </c>
       <c r="D609" s="26">
-        <v>2.2799999999999998</v>
+        <v>1.5</v>
       </c>
       <c r="E609" s="27">
-        <v>51.3</v>
+        <v>15.75</v>
       </c>
     </row>
     <row r="610" spans="1:5" x14ac:dyDescent="0.25">
@@ -12485,16 +12527,16 @@
         <v>613</v>
       </c>
       <c r="B610" s="24">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C610" s="25">
-        <v>58</v>
+        <v>8.75</v>
       </c>
       <c r="D610" s="26">
-        <v>2.2799999999999998</v>
+        <v>1.5</v>
       </c>
       <c r="E610" s="27">
-        <v>132.24</v>
+        <v>13.13</v>
       </c>
     </row>
     <row r="611" spans="1:5" x14ac:dyDescent="0.25">
@@ -12502,16 +12544,16 @@
         <v>614</v>
       </c>
       <c r="B611" s="24">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C611" s="25">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="D611" s="26">
-        <v>5</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="E611" s="27">
-        <v>75</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="612" spans="1:5" x14ac:dyDescent="0.25">
@@ -12519,27 +12561,33 @@
         <v>615</v>
       </c>
       <c r="B612" s="24">
-        <v>2</v>
-      </c>
-      <c r="C612" s="28"/>
-      <c r="D612" s="29"/>
-      <c r="E612" s="28"/>
+        <v>15</v>
+      </c>
+      <c r="C612" s="25">
+        <v>55.5</v>
+      </c>
+      <c r="D612" s="26">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="E612" s="27">
+        <v>126.54</v>
+      </c>
     </row>
     <row r="613" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A613" s="23" t="s">
         <v>616</v>
       </c>
       <c r="B613" s="24">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C613" s="25">
-        <v>35.5</v>
+        <v>15</v>
       </c>
       <c r="D613" s="26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E613" s="27">
-        <v>106.5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="614" spans="1:5" x14ac:dyDescent="0.25">
@@ -12547,16 +12595,16 @@
         <v>617</v>
       </c>
       <c r="B614" s="24">
+        <v>2</v>
+      </c>
+      <c r="C614" s="25">
         <v>10</v>
       </c>
-      <c r="C614" s="25">
-        <v>26</v>
-      </c>
       <c r="D614" s="26">
-        <v>4.6500000000000004</v>
+        <v>5.5</v>
       </c>
       <c r="E614" s="27">
-        <v>120.9</v>
+        <v>55</v>
       </c>
     </row>
     <row r="615" spans="1:5" x14ac:dyDescent="0.25">
@@ -12564,16 +12612,16 @@
         <v>618</v>
       </c>
       <c r="B615" s="24">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C615" s="25">
-        <v>17.5</v>
+        <v>35.5</v>
       </c>
       <c r="D615" s="26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E615" s="27">
-        <v>87.5</v>
+        <v>106.5</v>
       </c>
     </row>
     <row r="616" spans="1:5" x14ac:dyDescent="0.25">
@@ -12581,16 +12629,16 @@
         <v>619</v>
       </c>
       <c r="B616" s="24">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C616" s="25">
-        <v>7.5</v>
+        <v>24</v>
       </c>
       <c r="D616" s="26">
-        <v>3.5</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="E616" s="27">
-        <v>26.25</v>
+        <v>111.6</v>
       </c>
     </row>
     <row r="617" spans="1:5" x14ac:dyDescent="0.25">
@@ -12598,16 +12646,16 @@
         <v>620</v>
       </c>
       <c r="B617" s="24">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C617" s="25">
-        <v>26.5</v>
+        <v>17.5</v>
       </c>
       <c r="D617" s="26">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="E617" s="27">
-        <v>92.75</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="618" spans="1:5" x14ac:dyDescent="0.25">
@@ -12615,16 +12663,16 @@
         <v>621</v>
       </c>
       <c r="B618" s="24">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C618" s="25">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="D618" s="26">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="E618" s="27">
-        <v>22.5</v>
+        <v>26.25</v>
       </c>
     </row>
     <row r="619" spans="1:5" x14ac:dyDescent="0.25">
@@ -12632,16 +12680,16 @@
         <v>622</v>
       </c>
       <c r="B619" s="24">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C619" s="25">
-        <v>11.5</v>
+        <v>26.5</v>
       </c>
       <c r="D619" s="26">
-        <v>5.45</v>
+        <v>3.5</v>
       </c>
       <c r="E619" s="27">
-        <v>62.68</v>
+        <v>92.75</v>
       </c>
     </row>
     <row r="620" spans="1:5" x14ac:dyDescent="0.25">
@@ -12649,16 +12697,16 @@
         <v>623</v>
       </c>
       <c r="B620" s="24">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C620" s="25">
-        <v>31.5</v>
+        <v>5</v>
       </c>
       <c r="D620" s="26">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="E620" s="27">
-        <v>97.65</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="621" spans="1:5" x14ac:dyDescent="0.25">
@@ -12666,16 +12714,16 @@
         <v>624</v>
       </c>
       <c r="B621" s="24">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="C621" s="25">
-        <v>26.5</v>
+        <v>11.5</v>
       </c>
       <c r="D621" s="26">
-        <v>1.7</v>
+        <v>5.45</v>
       </c>
       <c r="E621" s="27">
-        <v>45.05</v>
+        <v>62.68</v>
       </c>
     </row>
     <row r="622" spans="1:5" x14ac:dyDescent="0.25">
@@ -12683,16 +12731,16 @@
         <v>625</v>
       </c>
       <c r="B622" s="24">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C622" s="25">
-        <v>40.5</v>
+        <v>23.5</v>
       </c>
       <c r="D622" s="26">
-        <v>3.33</v>
+        <v>3.1</v>
       </c>
       <c r="E622" s="27">
-        <v>134.87</v>
+        <v>72.849999999999994</v>
       </c>
     </row>
     <row r="623" spans="1:5" x14ac:dyDescent="0.25">
@@ -12700,16 +12748,16 @@
         <v>626</v>
       </c>
       <c r="B623" s="24">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C623" s="25">
-        <v>10.5</v>
+        <v>21.5</v>
       </c>
       <c r="D623" s="26">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="E623" s="27">
-        <v>36.75</v>
+        <v>36.549999999999997</v>
       </c>
     </row>
     <row r="624" spans="1:5" x14ac:dyDescent="0.25">
@@ -12717,16 +12765,16 @@
         <v>627</v>
       </c>
       <c r="B624" s="24">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C624" s="25">
-        <v>18.5</v>
+        <v>35.5</v>
       </c>
       <c r="D624" s="26">
-        <v>3.5</v>
+        <v>3.33</v>
       </c>
       <c r="E624" s="27">
-        <v>64.75</v>
+        <v>118.22</v>
       </c>
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.25">
@@ -12734,16 +12782,16 @@
         <v>628</v>
       </c>
       <c r="B625" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C625" s="25">
-        <v>3</v>
+        <v>10.5</v>
       </c>
       <c r="D625" s="26">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="E625" s="27">
-        <v>22.5</v>
+        <v>36.75</v>
       </c>
     </row>
     <row r="626" spans="1:5" x14ac:dyDescent="0.25">
@@ -12751,16 +12799,16 @@
         <v>629</v>
       </c>
       <c r="B626" s="24">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C626" s="25">
-        <v>10.5</v>
+        <v>16.5</v>
       </c>
       <c r="D626" s="26">
-        <v>8.75</v>
+        <v>3.5</v>
       </c>
       <c r="E626" s="27">
-        <v>91.88</v>
+        <v>57.75</v>
       </c>
     </row>
     <row r="627" spans="1:5" x14ac:dyDescent="0.25">
@@ -12771,13 +12819,13 @@
         <v>4</v>
       </c>
       <c r="C627" s="25">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D627" s="26">
-        <v>6.25</v>
+        <v>7.5</v>
       </c>
       <c r="E627" s="27">
-        <v>37.5</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="628" spans="1:5" x14ac:dyDescent="0.25">
@@ -12785,16 +12833,16 @@
         <v>631</v>
       </c>
       <c r="B628" s="24">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="C628" s="25">
-        <v>107.3</v>
+        <v>10.5</v>
       </c>
       <c r="D628" s="26">
-        <v>2.85</v>
+        <v>8.75</v>
       </c>
       <c r="E628" s="27">
-        <v>305.81</v>
+        <v>91.88</v>
       </c>
     </row>
     <row r="629" spans="1:5" x14ac:dyDescent="0.25">
@@ -12802,16 +12850,16 @@
         <v>632</v>
       </c>
       <c r="B629" s="24">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C629" s="25">
-        <v>60.99</v>
+        <v>6</v>
       </c>
       <c r="D629" s="26">
-        <v>2</v>
+        <v>6.25</v>
       </c>
       <c r="E629" s="27">
-        <v>121.98</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="630" spans="1:5" x14ac:dyDescent="0.25">
@@ -12819,16 +12867,16 @@
         <v>633</v>
       </c>
       <c r="B630" s="24">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="C630" s="25">
-        <v>3.5</v>
+        <v>107.3</v>
       </c>
       <c r="D630" s="26">
-        <v>5.6</v>
+        <v>2.85</v>
       </c>
       <c r="E630" s="27">
-        <v>19.600000000000001</v>
+        <v>305.81</v>
       </c>
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.25">
@@ -12836,16 +12884,16 @@
         <v>634</v>
       </c>
       <c r="B631" s="24">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C631" s="25">
-        <v>14.5</v>
+        <v>60.99</v>
       </c>
       <c r="D631" s="26">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="E631" s="27">
-        <v>79.75</v>
+        <v>121.98</v>
       </c>
     </row>
     <row r="632" spans="1:5" x14ac:dyDescent="0.25">
@@ -12853,16 +12901,16 @@
         <v>635</v>
       </c>
       <c r="B632" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C632" s="25">
-        <v>13</v>
+        <v>3.5</v>
       </c>
       <c r="D632" s="26">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="E632" s="27">
-        <v>71.5</v>
+        <v>19.600000000000001</v>
       </c>
     </row>
     <row r="633" spans="1:5" x14ac:dyDescent="0.25">
@@ -12870,16 +12918,16 @@
         <v>636</v>
       </c>
       <c r="B633" s="24">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C633" s="25">
-        <v>32</v>
+        <v>14.5</v>
       </c>
       <c r="D633" s="26">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="E633" s="27">
-        <v>99.2</v>
+        <v>79.75</v>
       </c>
     </row>
     <row r="634" spans="1:5" x14ac:dyDescent="0.25">
@@ -12887,16 +12935,16 @@
         <v>637</v>
       </c>
       <c r="B634" s="24">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C634" s="25">
-        <v>26.5</v>
+        <v>13</v>
       </c>
       <c r="D634" s="26">
-        <v>5.68</v>
+        <v>5.5</v>
       </c>
       <c r="E634" s="27">
-        <v>150.52000000000001</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="635" spans="1:5" x14ac:dyDescent="0.25">
@@ -12904,16 +12952,16 @@
         <v>638</v>
       </c>
       <c r="B635" s="24">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C635" s="25">
-        <v>64.5</v>
+        <v>32</v>
       </c>
       <c r="D635" s="26">
-        <v>3.97</v>
+        <v>3.1</v>
       </c>
       <c r="E635" s="27">
-        <v>255.96</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="636" spans="1:5" x14ac:dyDescent="0.25">
@@ -12921,31 +12969,33 @@
         <v>639</v>
       </c>
       <c r="B636" s="24">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C636" s="25">
-        <v>26</v>
+        <v>26.5</v>
       </c>
       <c r="D636" s="26">
-        <v>4.8</v>
+        <v>5.68</v>
       </c>
       <c r="E636" s="27">
-        <v>124.8</v>
+        <v>150.52000000000001</v>
       </c>
     </row>
     <row r="637" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A637" s="23" t="s">
         <v>640</v>
       </c>
-      <c r="B637" s="24"/>
+      <c r="B637" s="24">
+        <v>7</v>
+      </c>
       <c r="C637" s="25">
-        <v>1</v>
+        <v>64.5</v>
       </c>
       <c r="D637" s="26">
-        <v>6.75</v>
+        <v>3.97</v>
       </c>
       <c r="E637" s="27">
-        <v>6.75</v>
+        <v>255.96</v>
       </c>
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.25">
@@ -12953,33 +13003,31 @@
         <v>641</v>
       </c>
       <c r="B638" s="24">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C638" s="25">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D638" s="26">
-        <v>6.75</v>
+        <v>4.8</v>
       </c>
       <c r="E638" s="27">
-        <v>40.5</v>
+        <v>124.8</v>
       </c>
     </row>
     <row r="639" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A639" s="23" t="s">
         <v>642</v>
       </c>
-      <c r="B639" s="24">
+      <c r="B639" s="24"/>
+      <c r="C639" s="25">
         <v>1</v>
-      </c>
-      <c r="C639" s="25">
-        <v>8</v>
       </c>
       <c r="D639" s="26">
         <v>6.75</v>
       </c>
       <c r="E639" s="27">
-        <v>54</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="640" spans="1:5" x14ac:dyDescent="0.25">
@@ -12987,23 +13035,25 @@
         <v>643</v>
       </c>
       <c r="B640" s="24">
+        <v>8</v>
+      </c>
+      <c r="C640" s="25">
         <v>6</v>
-      </c>
-      <c r="C640" s="25">
-        <v>3</v>
       </c>
       <c r="D640" s="26">
         <v>6.75</v>
       </c>
       <c r="E640" s="27">
-        <v>20.25</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="641" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A641" s="23" t="s">
         <v>644</v>
       </c>
-      <c r="B641" s="24"/>
+      <c r="B641" s="24">
+        <v>1</v>
+      </c>
       <c r="C641" s="25">
         <v>8</v>
       </c>
@@ -13019,33 +13069,31 @@
         <v>645</v>
       </c>
       <c r="B642" s="24">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C642" s="25">
-        <v>8.5</v>
+        <v>3</v>
       </c>
       <c r="D642" s="26">
-        <v>5.5</v>
+        <v>6.75</v>
       </c>
       <c r="E642" s="27">
-        <v>46.75</v>
+        <v>20.25</v>
       </c>
     </row>
     <row r="643" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A643" s="23" t="s">
         <v>646</v>
       </c>
-      <c r="B643" s="24">
-        <v>59</v>
-      </c>
+      <c r="B643" s="24"/>
       <c r="C643" s="25">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="D643" s="26">
-        <v>3.1</v>
+        <v>6.75</v>
       </c>
       <c r="E643" s="27">
-        <v>226.3</v>
+        <v>54</v>
       </c>
     </row>
     <row r="644" spans="1:5" x14ac:dyDescent="0.25">
@@ -13053,16 +13101,16 @@
         <v>647</v>
       </c>
       <c r="B644" s="24">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C644" s="25">
-        <v>45.5</v>
+        <v>8.5</v>
       </c>
       <c r="D644" s="26">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="E644" s="27">
-        <v>163.80000000000001</v>
+        <v>46.75</v>
       </c>
     </row>
     <row r="645" spans="1:5" x14ac:dyDescent="0.25">
@@ -13070,16 +13118,16 @@
         <v>648</v>
       </c>
       <c r="B645" s="24">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C645" s="25">
-        <v>6.5</v>
+        <v>72</v>
       </c>
       <c r="D645" s="26">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="E645" s="27">
-        <v>22.75</v>
+        <v>223.2</v>
       </c>
     </row>
     <row r="646" spans="1:5" x14ac:dyDescent="0.25">
@@ -13087,16 +13135,16 @@
         <v>649</v>
       </c>
       <c r="B646" s="24">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C646" s="25">
-        <v>6</v>
+        <v>44.5</v>
       </c>
       <c r="D646" s="26">
-        <v>4.25</v>
+        <v>3.6</v>
       </c>
       <c r="E646" s="27">
-        <v>25.5</v>
+        <v>160.19999999999999</v>
       </c>
     </row>
     <row r="647" spans="1:5" x14ac:dyDescent="0.25">
@@ -13104,16 +13152,16 @@
         <v>650</v>
       </c>
       <c r="B647" s="24">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C647" s="25">
-        <v>66.5</v>
+        <v>6.5</v>
       </c>
       <c r="D647" s="26">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="E647" s="27">
-        <v>249.38</v>
+        <v>22.75</v>
       </c>
     </row>
     <row r="648" spans="1:5" x14ac:dyDescent="0.25">
@@ -13121,16 +13169,16 @@
         <v>651</v>
       </c>
       <c r="B648" s="24">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C648" s="25">
-        <v>30.5</v>
+        <v>6</v>
       </c>
       <c r="D648" s="26">
-        <v>2.5</v>
+        <v>4.25</v>
       </c>
       <c r="E648" s="27">
-        <v>76.25</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="649" spans="1:5" x14ac:dyDescent="0.25">
@@ -13138,16 +13186,16 @@
         <v>652</v>
       </c>
       <c r="B649" s="24">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C649" s="25">
-        <v>15.5</v>
+        <v>65</v>
       </c>
       <c r="D649" s="26">
-        <v>7.31</v>
+        <v>3.75</v>
       </c>
       <c r="E649" s="27">
-        <v>113.34</v>
+        <v>243.75</v>
       </c>
     </row>
     <row r="650" spans="1:5" x14ac:dyDescent="0.25">
@@ -13155,16 +13203,16 @@
         <v>653</v>
       </c>
       <c r="B650" s="24">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C650" s="25">
-        <v>4</v>
+        <v>26.5</v>
       </c>
       <c r="D650" s="26">
-        <v>5.75</v>
+        <v>2.5</v>
       </c>
       <c r="E650" s="27">
-        <v>23</v>
+        <v>66.25</v>
       </c>
     </row>
     <row r="651" spans="1:5" x14ac:dyDescent="0.25">
@@ -13172,16 +13220,16 @@
         <v>654</v>
       </c>
       <c r="B651" s="24">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C651" s="25">
-        <v>6.5</v>
+        <v>15.5</v>
       </c>
       <c r="D651" s="26">
-        <v>5.8</v>
+        <v>7.31</v>
       </c>
       <c r="E651" s="27">
-        <v>37.700000000000003</v>
+        <v>113.34</v>
       </c>
     </row>
     <row r="652" spans="1:5" x14ac:dyDescent="0.25">
@@ -13189,16 +13237,16 @@
         <v>655</v>
       </c>
       <c r="B652" s="24">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C652" s="25">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="D652" s="26">
-        <v>2.25</v>
+        <v>5.75</v>
       </c>
       <c r="E652" s="27">
-        <v>132.75</v>
+        <v>23</v>
       </c>
     </row>
     <row r="653" spans="1:5" x14ac:dyDescent="0.25">
@@ -13206,31 +13254,33 @@
         <v>656</v>
       </c>
       <c r="B653" s="24">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C653" s="25">
-        <v>62</v>
+        <v>6.5</v>
       </c>
       <c r="D653" s="26">
-        <v>2.25</v>
+        <v>5.8</v>
       </c>
       <c r="E653" s="27">
-        <v>139.5</v>
+        <v>37.700000000000003</v>
       </c>
     </row>
     <row r="654" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A654" s="23" t="s">
         <v>657</v>
       </c>
-      <c r="B654" s="24"/>
+      <c r="B654" s="24">
+        <v>10</v>
+      </c>
       <c r="C654" s="25">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="D654" s="26">
-        <v>8.84</v>
+        <v>2.25</v>
       </c>
       <c r="E654" s="27">
-        <v>132.57</v>
+        <v>132.75</v>
       </c>
     </row>
     <row r="655" spans="1:5" x14ac:dyDescent="0.25">
@@ -13238,33 +13288,31 @@
         <v>658</v>
       </c>
       <c r="B655" s="24">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C655" s="25">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D655" s="26">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="E655" s="27">
-        <v>167.75</v>
+        <v>139.5</v>
       </c>
     </row>
     <row r="656" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A656" s="23" t="s">
         <v>659</v>
       </c>
-      <c r="B656" s="24">
-        <v>6</v>
-      </c>
+      <c r="B656" s="24"/>
       <c r="C656" s="25">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="D656" s="26">
-        <v>2.75</v>
+        <v>8.84</v>
       </c>
       <c r="E656" s="27">
-        <v>187</v>
+        <v>132.57</v>
       </c>
     </row>
     <row r="657" spans="1:5" x14ac:dyDescent="0.25">
@@ -13275,13 +13323,13 @@
         <v>8</v>
       </c>
       <c r="C657" s="25">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D657" s="26">
         <v>2.75</v>
       </c>
       <c r="E657" s="27">
-        <v>159.5</v>
+        <v>167.75</v>
       </c>
     </row>
     <row r="658" spans="1:5" x14ac:dyDescent="0.25">
@@ -13289,16 +13337,16 @@
         <v>661</v>
       </c>
       <c r="B658" s="24">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C658" s="25">
-        <v>37.5</v>
+        <v>68</v>
       </c>
       <c r="D658" s="26">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="E658" s="27">
-        <v>150</v>
+        <v>187</v>
       </c>
     </row>
     <row r="659" spans="1:5" x14ac:dyDescent="0.25">
@@ -13306,16 +13354,16 @@
         <v>662</v>
       </c>
       <c r="B659" s="24">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C659" s="25">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="D659" s="26">
-        <v>2.66</v>
+        <v>2.75</v>
       </c>
       <c r="E659" s="27">
-        <v>58.52</v>
+        <v>159.5</v>
       </c>
     </row>
     <row r="660" spans="1:5" x14ac:dyDescent="0.25">
@@ -13323,16 +13371,16 @@
         <v>663</v>
       </c>
       <c r="B660" s="24">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C660" s="25">
-        <v>17.5</v>
+        <v>37.5</v>
       </c>
       <c r="D660" s="26">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="E660" s="27">
-        <v>74.38</v>
+        <v>150</v>
       </c>
     </row>
     <row r="661" spans="1:5" x14ac:dyDescent="0.25">
@@ -13340,16 +13388,16 @@
         <v>664</v>
       </c>
       <c r="B661" s="24">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C661" s="25">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D661" s="26">
-        <v>4.25</v>
+        <v>2.66</v>
       </c>
       <c r="E661" s="27">
-        <v>102</v>
+        <v>58.52</v>
       </c>
     </row>
     <row r="662" spans="1:5" x14ac:dyDescent="0.25">
@@ -13357,16 +13405,16 @@
         <v>665</v>
       </c>
       <c r="B662" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C662" s="25">
-        <v>18.350000000000001</v>
+        <v>17.5</v>
       </c>
       <c r="D662" s="26">
-        <v>5.5</v>
+        <v>4.25</v>
       </c>
       <c r="E662" s="27">
-        <v>100.93</v>
+        <v>74.38</v>
       </c>
     </row>
     <row r="663" spans="1:5" x14ac:dyDescent="0.25">
@@ -13374,16 +13422,16 @@
         <v>666</v>
       </c>
       <c r="B663" s="24">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C663" s="25">
-        <v>26.5</v>
+        <v>24</v>
       </c>
       <c r="D663" s="26">
-        <v>5</v>
+        <v>4.25</v>
       </c>
       <c r="E663" s="27">
-        <v>132.5</v>
+        <v>102</v>
       </c>
     </row>
     <row r="664" spans="1:5" x14ac:dyDescent="0.25">
@@ -13391,16 +13439,16 @@
         <v>667</v>
       </c>
       <c r="B664" s="24">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C664" s="25">
-        <v>30</v>
+        <v>18.350000000000001</v>
       </c>
       <c r="D664" s="26">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="E664" s="27">
-        <v>82.5</v>
+        <v>100.93</v>
       </c>
     </row>
     <row r="665" spans="1:5" x14ac:dyDescent="0.25">
@@ -13411,13 +13459,13 @@
         <v>6</v>
       </c>
       <c r="C665" s="25">
-        <v>34.5</v>
+        <v>26.5</v>
       </c>
       <c r="D665" s="26">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="E665" s="27">
-        <v>124.2</v>
+        <v>132.5</v>
       </c>
     </row>
     <row r="666" spans="1:5" x14ac:dyDescent="0.25">
@@ -13425,36 +13473,44 @@
         <v>669</v>
       </c>
       <c r="B666" s="24">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C666" s="25">
-        <v>28</v>
-      </c>
-      <c r="D666" s="29"/>
-      <c r="E666" s="28"/>
+        <v>30</v>
+      </c>
+      <c r="D666" s="26">
+        <v>2.75</v>
+      </c>
+      <c r="E666" s="27">
+        <v>82.5</v>
+      </c>
     </row>
     <row r="667" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A667" s="23" t="s">
         <v>670</v>
       </c>
       <c r="B667" s="24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C667" s="25">
-        <v>30.5</v>
-      </c>
-      <c r="D667" s="29"/>
-      <c r="E667" s="28"/>
+        <v>34.5</v>
+      </c>
+      <c r="D667" s="26">
+        <v>3.6</v>
+      </c>
+      <c r="E667" s="27">
+        <v>124.2</v>
+      </c>
     </row>
     <row r="668" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A668" s="23" t="s">
         <v>671</v>
       </c>
       <c r="B668" s="24">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C668" s="25">
-        <v>41.69</v>
+        <v>28</v>
       </c>
       <c r="D668" s="29"/>
       <c r="E668" s="28"/>
@@ -13464,10 +13520,10 @@
         <v>672</v>
       </c>
       <c r="B669" s="24">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C669" s="25">
-        <v>26</v>
+        <v>30.5</v>
       </c>
       <c r="D669" s="29"/>
       <c r="E669" s="28"/>
@@ -13477,10 +13533,10 @@
         <v>673</v>
       </c>
       <c r="B670" s="24">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C670" s="25">
-        <v>8.5</v>
+        <v>41.69</v>
       </c>
       <c r="D670" s="29"/>
       <c r="E670" s="28"/>
@@ -13490,9 +13546,11 @@
         <v>674</v>
       </c>
       <c r="B671" s="24">
-        <v>11</v>
-      </c>
-      <c r="C671" s="28"/>
+        <v>2</v>
+      </c>
+      <c r="C671" s="25">
+        <v>26</v>
+      </c>
       <c r="D671" s="29"/>
       <c r="E671" s="28"/>
     </row>
@@ -13501,10 +13559,10 @@
         <v>675</v>
       </c>
       <c r="B672" s="24">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C672" s="25">
-        <v>12</v>
+        <v>3.5</v>
       </c>
       <c r="D672" s="29"/>
       <c r="E672" s="28"/>
@@ -13514,11 +13572,9 @@
         <v>676</v>
       </c>
       <c r="B673" s="24">
-        <v>30</v>
-      </c>
-      <c r="C673" s="25">
-        <v>59.5</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C673" s="28"/>
       <c r="D673" s="29"/>
       <c r="E673" s="28"/>
     </row>
@@ -13527,10 +13583,10 @@
         <v>677</v>
       </c>
       <c r="B674" s="24">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C674" s="25">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D674" s="29"/>
       <c r="E674" s="28"/>
@@ -13539,8 +13595,12 @@
       <c r="A675" s="23" t="s">
         <v>678</v>
       </c>
-      <c r="B675" s="24"/>
-      <c r="C675" s="28"/>
+      <c r="B675" s="24">
+        <v>30</v>
+      </c>
+      <c r="C675" s="25">
+        <v>59.5</v>
+      </c>
       <c r="D675" s="29"/>
       <c r="E675" s="28"/>
     </row>
@@ -13549,45 +13609,39 @@
         <v>679</v>
       </c>
       <c r="B676" s="24">
+        <v>18</v>
+      </c>
+      <c r="C676" s="25">
         <v>20</v>
       </c>
-      <c r="C676" s="25">
-        <v>106</v>
-      </c>
-      <c r="D676" s="26">
-        <v>2.9</v>
-      </c>
-      <c r="E676" s="27">
-        <v>307.18</v>
-      </c>
+      <c r="D676" s="29"/>
+      <c r="E676" s="28"/>
     </row>
     <row r="677" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A677" s="23" t="s">
         <v>680</v>
       </c>
       <c r="B677" s="24"/>
-      <c r="C677" s="25">
-        <v>14.5</v>
-      </c>
-      <c r="D677" s="26">
-        <v>3.8</v>
-      </c>
-      <c r="E677" s="27">
-        <v>55.1</v>
-      </c>
+      <c r="C677" s="28"/>
+      <c r="D677" s="29"/>
+      <c r="E677" s="28"/>
     </row>
     <row r="678" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A678" s="23" t="s">
         <v>681</v>
       </c>
       <c r="B678" s="24">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C678" s="25">
-        <v>-0.5</v>
-      </c>
-      <c r="D678" s="29"/>
-      <c r="E678" s="28"/>
+        <v>96</v>
+      </c>
+      <c r="D678" s="26">
+        <v>2.9</v>
+      </c>
+      <c r="E678" s="27">
+        <v>278.2</v>
+      </c>
     </row>
     <row r="679" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A679" s="23" t="s">
@@ -13595,63 +13649,67 @@
       </c>
       <c r="B679" s="24"/>
       <c r="C679" s="25">
-        <v>502</v>
+        <v>14.5</v>
       </c>
       <c r="D679" s="26">
-        <v>0.82</v>
+        <v>3.8</v>
       </c>
       <c r="E679" s="27">
-        <v>411.64</v>
+        <v>55.1</v>
       </c>
     </row>
     <row r="680" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A680" s="23" t="s">
         <v>683</v>
       </c>
-      <c r="B680" s="24"/>
+      <c r="B680" s="24">
+        <v>2</v>
+      </c>
       <c r="C680" s="25">
-        <v>500</v>
-      </c>
-      <c r="D680" s="26">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="E680" s="27">
-        <v>575</v>
-      </c>
+        <v>-0.5</v>
+      </c>
+      <c r="D680" s="29"/>
+      <c r="E680" s="28"/>
     </row>
     <row r="681" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A681" s="23" t="s">
         <v>684</v>
       </c>
-      <c r="B681" s="24">
-        <v>1</v>
-      </c>
+      <c r="B681" s="24"/>
       <c r="C681" s="25">
-        <v>-0.5</v>
-      </c>
-      <c r="D681" s="29"/>
-      <c r="E681" s="28"/>
+        <v>502</v>
+      </c>
+      <c r="D681" s="26">
+        <v>0.82</v>
+      </c>
+      <c r="E681" s="27">
+        <v>411.64</v>
+      </c>
     </row>
     <row r="682" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A682" s="23" t="s">
         <v>685</v>
       </c>
-      <c r="B682" s="24">
-        <v>1</v>
-      </c>
-      <c r="C682" s="28"/>
-      <c r="D682" s="29"/>
-      <c r="E682" s="28"/>
+      <c r="B682" s="24"/>
+      <c r="C682" s="25">
+        <v>500</v>
+      </c>
+      <c r="D682" s="26">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E682" s="27">
+        <v>575</v>
+      </c>
     </row>
     <row r="683" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A683" s="23" t="s">
         <v>686</v>
       </c>
       <c r="B683" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C683" s="25">
-        <v>-0.02</v>
+        <v>-0.5</v>
       </c>
       <c r="D683" s="29"/>
       <c r="E683" s="28"/>
@@ -13661,24 +13719,22 @@
         <v>687</v>
       </c>
       <c r="B684" s="24">
-        <v>5</v>
-      </c>
-      <c r="C684" s="25">
-        <v>10</v>
-      </c>
-      <c r="D684" s="26">
-        <v>1.6</v>
-      </c>
-      <c r="E684" s="27">
-        <v>16</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C684" s="28"/>
+      <c r="D684" s="29"/>
+      <c r="E684" s="28"/>
     </row>
     <row r="685" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A685" s="23" t="s">
         <v>688</v>
       </c>
-      <c r="B685" s="24"/>
-      <c r="C685" s="28"/>
+      <c r="B685" s="24">
+        <v>2</v>
+      </c>
+      <c r="C685" s="25">
+        <v>-0.02</v>
+      </c>
       <c r="D685" s="29"/>
       <c r="E685" s="28"/>
     </row>
@@ -13687,24 +13743,24 @@
         <v>689</v>
       </c>
       <c r="B686" s="24">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C686" s="25">
-        <v>-25</v>
-      </c>
-      <c r="D686" s="29"/>
-      <c r="E686" s="28"/>
+        <v>-5</v>
+      </c>
+      <c r="D686" s="26">
+        <v>1.6</v>
+      </c>
+      <c r="E686" s="27">
+        <v>-8</v>
+      </c>
     </row>
     <row r="687" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A687" s="23" t="s">
         <v>690</v>
       </c>
-      <c r="B687" s="24">
-        <v>39</v>
-      </c>
-      <c r="C687" s="25">
-        <v>-0.39</v>
-      </c>
+      <c r="B687" s="24"/>
+      <c r="C687" s="28"/>
       <c r="D687" s="29"/>
       <c r="E687" s="28"/>
     </row>
@@ -13713,10 +13769,10 @@
         <v>691</v>
       </c>
       <c r="B688" s="24">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C688" s="25">
-        <v>-0.59</v>
+        <v>-90</v>
       </c>
       <c r="D688" s="29"/>
       <c r="E688" s="28"/>
@@ -13726,27 +13782,23 @@
         <v>692</v>
       </c>
       <c r="B689" s="24">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C689" s="25">
-        <v>-94</v>
-      </c>
-      <c r="D689" s="26">
-        <v>1</v>
-      </c>
-      <c r="E689" s="27">
-        <v>-94</v>
-      </c>
+        <v>-0.39</v>
+      </c>
+      <c r="D689" s="29"/>
+      <c r="E689" s="28"/>
     </row>
     <row r="690" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A690" s="23" t="s">
         <v>693</v>
       </c>
       <c r="B690" s="24">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="C690" s="25">
-        <v>-30.5</v>
+        <v>-0.63</v>
       </c>
       <c r="D690" s="29"/>
       <c r="E690" s="28"/>
@@ -13756,16 +13808,16 @@
         <v>694</v>
       </c>
       <c r="B691" s="24">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C691" s="25">
-        <v>21</v>
+        <v>-94</v>
       </c>
       <c r="D691" s="26">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="E691" s="27">
-        <v>52.5</v>
+        <v>-94</v>
       </c>
     </row>
     <row r="692" spans="1:5" x14ac:dyDescent="0.25">
@@ -13773,33 +13825,29 @@
         <v>695</v>
       </c>
       <c r="B692" s="24">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C692" s="25">
-        <v>25.75</v>
-      </c>
-      <c r="D692" s="26">
-        <v>2.5</v>
-      </c>
-      <c r="E692" s="27">
-        <v>64.38</v>
-      </c>
+        <v>-31.5</v>
+      </c>
+      <c r="D692" s="29"/>
+      <c r="E692" s="28"/>
     </row>
     <row r="693" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A693" s="23" t="s">
         <v>696</v>
       </c>
       <c r="B693" s="24">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C693" s="25">
-        <v>45.75</v>
+        <v>21</v>
       </c>
       <c r="D693" s="26">
         <v>2.5</v>
       </c>
       <c r="E693" s="27">
-        <v>114.38</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="694" spans="1:5" x14ac:dyDescent="0.25">
@@ -13807,16 +13855,16 @@
         <v>697</v>
       </c>
       <c r="B694" s="24">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C694" s="25">
-        <v>68</v>
+        <v>25.25</v>
       </c>
       <c r="D694" s="26">
         <v>2.5</v>
       </c>
       <c r="E694" s="27">
-        <v>170</v>
+        <v>63.13</v>
       </c>
     </row>
     <row r="695" spans="1:5" x14ac:dyDescent="0.25">
@@ -13824,16 +13872,16 @@
         <v>698</v>
       </c>
       <c r="B695" s="24">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C695" s="25">
-        <v>28.5</v>
+        <v>37.25</v>
       </c>
       <c r="D695" s="26">
         <v>2.5</v>
       </c>
       <c r="E695" s="27">
-        <v>71.25</v>
+        <v>93.13</v>
       </c>
     </row>
     <row r="696" spans="1:5" x14ac:dyDescent="0.25">
@@ -13841,16 +13889,16 @@
         <v>699</v>
       </c>
       <c r="B696" s="24">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="C696" s="25">
-        <v>11.75</v>
+        <v>67.5</v>
       </c>
       <c r="D696" s="26">
         <v>2.5</v>
       </c>
       <c r="E696" s="27">
-        <v>29.38</v>
+        <v>168.75</v>
       </c>
     </row>
     <row r="697" spans="1:5" x14ac:dyDescent="0.25">
@@ -13858,16 +13906,16 @@
         <v>700</v>
       </c>
       <c r="B697" s="24">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C697" s="25">
-        <v>25</v>
+        <v>27.5</v>
       </c>
       <c r="D697" s="26">
         <v>2.5</v>
       </c>
       <c r="E697" s="27">
-        <v>62.5</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="698" spans="1:5" x14ac:dyDescent="0.25">
@@ -13875,16 +13923,16 @@
         <v>701</v>
       </c>
       <c r="B698" s="24">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C698" s="25">
-        <v>42.75</v>
+        <v>8.75</v>
       </c>
       <c r="D698" s="26">
         <v>2.5</v>
       </c>
       <c r="E698" s="27">
-        <v>106.88</v>
+        <v>21.88</v>
       </c>
     </row>
     <row r="699" spans="1:5" x14ac:dyDescent="0.25">
@@ -13892,16 +13940,16 @@
         <v>702</v>
       </c>
       <c r="B699" s="24">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C699" s="25">
-        <v>45.5</v>
+        <v>24.5</v>
       </c>
       <c r="D699" s="26">
         <v>2.5</v>
       </c>
       <c r="E699" s="27">
-        <v>113.75</v>
+        <v>61.25</v>
       </c>
     </row>
     <row r="700" spans="1:5" x14ac:dyDescent="0.25">
@@ -13909,25 +13957,59 @@
         <v>703</v>
       </c>
       <c r="B700" s="24">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="C700" s="25">
-        <v>-202</v>
-      </c>
-      <c r="D700" s="29"/>
-      <c r="E700" s="28"/>
+        <v>39.25</v>
+      </c>
+      <c r="D700" s="26">
+        <v>2.5</v>
+      </c>
+      <c r="E700" s="27">
+        <v>98.13</v>
+      </c>
     </row>
     <row r="701" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A701" s="30" t="s">
+      <c r="A701" s="23" t="s">
         <v>704</v>
       </c>
-      <c r="B701" s="31"/>
-      <c r="C701" s="32">
-        <v>36597.43</v>
-      </c>
-      <c r="D701" s="33"/>
-      <c r="E701" s="34">
-        <v>107665.57</v>
+      <c r="B701" s="24">
+        <v>39</v>
+      </c>
+      <c r="C701" s="25">
+        <v>40</v>
+      </c>
+      <c r="D701" s="26">
+        <v>2.5</v>
+      </c>
+      <c r="E701" s="27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="702" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A702" s="23" t="s">
+        <v>705</v>
+      </c>
+      <c r="B702" s="24">
+        <v>78</v>
+      </c>
+      <c r="C702" s="25">
+        <v>-205</v>
+      </c>
+      <c r="D702" s="29"/>
+      <c r="E702" s="28"/>
+    </row>
+    <row r="703" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A703" s="30" t="s">
+        <v>706</v>
+      </c>
+      <c r="B703" s="31"/>
+      <c r="C703" s="32">
+        <v>38841.699999999997</v>
+      </c>
+      <c r="D703" s="33"/>
+      <c r="E703" s="34">
+        <v>107132.61</v>
       </c>
     </row>
   </sheetData>

--- a/data/website stock.xlsx
+++ b/data/website stock.xlsx
@@ -35,7 +35,7 @@
     <t>Stock Group Summary</t>
   </si>
   <si>
-    <t>1-Jul-25 to 3-Dec-25</t>
+    <t>1-Jul-25 to 4-Dec-25</t>
   </si>
   <si>
     <t/>
@@ -68,310 +68,310 @@
     <t>Value</t>
   </si>
   <si>
-    <t>.1001 PATRIKA</t>
-  </si>
-  <si>
-    <t>1002 PATRIKA</t>
-  </si>
-  <si>
-    <t>1003 PATRIKA</t>
-  </si>
-  <si>
-    <t>1004 PATRIKA</t>
-  </si>
-  <si>
-    <t>1005 PATRIKA</t>
-  </si>
-  <si>
-    <t>1006 PATRIKA</t>
-  </si>
-  <si>
-    <t>1007 PATRIKA</t>
-  </si>
-  <si>
-    <t>1008 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>1009 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>1010 PATRIKA</t>
-  </si>
-  <si>
-    <t>1011 PATRIKA</t>
-  </si>
-  <si>
-    <t>1012 PATRIKA</t>
-  </si>
-  <si>
-    <t>1013 PATRIKA</t>
-  </si>
-  <si>
-    <t>1014 PATRIKA</t>
-  </si>
-  <si>
-    <t>1015 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>1016 PATRIKA</t>
-  </si>
-  <si>
-    <t>1017 PATRIKA</t>
-  </si>
-  <si>
-    <t>1018 PATRIKA</t>
-  </si>
-  <si>
-    <t>1019 PATRIKA</t>
-  </si>
-  <si>
-    <t>1020 PATRIKA</t>
-  </si>
-  <si>
-    <t>1021 PATRIKA</t>
-  </si>
-  <si>
-    <t>1022 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>1023 PATRIKA</t>
-  </si>
-  <si>
-    <t>1024 PATRIKA</t>
-  </si>
-  <si>
-    <t>1025 PATRIKA</t>
-  </si>
-  <si>
-    <t>1026 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>1027 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>1028 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>1029 PATRIKA</t>
-  </si>
-  <si>
-    <t>1030 PATRIKA</t>
-  </si>
-  <si>
-    <t>1031 PATRIKA</t>
-  </si>
-  <si>
-    <t>1032 PATRIKA</t>
-  </si>
-  <si>
-    <t>1033 PATRIKA</t>
-  </si>
-  <si>
-    <t>1034 PATRIKA</t>
-  </si>
-  <si>
-    <t>1035 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>1101 PATRIKA (O.2591)</t>
-  </si>
-  <si>
-    <t>1102 PATRIKA (P.2591)</t>
-  </si>
-  <si>
-    <t>1103 PATRIKA(N-271)</t>
-  </si>
-  <si>
-    <t>1104 PATRIKA(N-272)</t>
-  </si>
-  <si>
-    <t>1105 PATRIKA</t>
-  </si>
-  <si>
-    <t>1106 PATRIKA-YELLOW</t>
-  </si>
-  <si>
-    <t>1107 PATRIKA-RED</t>
-  </si>
-  <si>
-    <t>1109 PATRIKA-BIG Y</t>
-  </si>
-  <si>
-    <t>1110 PATRIKA-BIG R</t>
-  </si>
-  <si>
-    <t>1112 PATRIKA</t>
-  </si>
-  <si>
-    <t>1113 PATRIKA</t>
-  </si>
-  <si>
-    <t>1114 PATRIKA-BROWN</t>
-  </si>
-  <si>
-    <t>1115 PATRIKA-CREAM</t>
-  </si>
-  <si>
-    <t>1116 PATRIKA (1153)</t>
-  </si>
-  <si>
-    <t>1117 PATRIKA (1155)</t>
-  </si>
-  <si>
-    <t>1117 PATRIKA - B</t>
-  </si>
-  <si>
-    <t>1118 PATRIKA - B (DCU)</t>
-  </si>
-  <si>
-    <t>1118 PATRIKA (सवाश्री-57)</t>
-  </si>
-  <si>
-    <t>1119 PATRIKA - B (DCU)</t>
-  </si>
-  <si>
-    <t>1119 PATRIKA(सवाश्री-55)</t>
-  </si>
-  <si>
-    <t>1120 PATRIKA(सवाश्री-59)</t>
-  </si>
-  <si>
-    <t>1121 PATRIKA(सवाश्री-53)</t>
-  </si>
-  <si>
-    <t>1122 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>1123 PATRIKA (LED-51)</t>
-  </si>
-  <si>
-    <t>1124 PATRIKA (LED-52)</t>
-  </si>
-  <si>
-    <t>1125 PATRIKA (LED-53)</t>
-  </si>
-  <si>
-    <t>1126 PATRIKA (LED-54)</t>
-  </si>
-  <si>
-    <t>1127 PATRIKA (Eco-52)</t>
-  </si>
-  <si>
-    <t>1128 PATRIKA (Eco-55)</t>
-  </si>
-  <si>
-    <t>1129 PATRIKA (Eco-56)</t>
-  </si>
-  <si>
-    <t>1130 PATRIKA - B (ECO-60) (DCU)</t>
-  </si>
-  <si>
-    <t>1130 PATRIKA (Eco-59)</t>
-  </si>
-  <si>
-    <t>1131 PATRIKA (DCU) Eco-51</t>
-  </si>
-  <si>
-    <t>1132 PATRIKA (DCU) Eco-53</t>
-  </si>
-  <si>
-    <t>1133 PATRIKA (DCU) Eco-57</t>
-  </si>
-  <si>
-    <t>1134 PATRIKA (DCU) Eco-58</t>
-  </si>
-  <si>
-    <t>1135 PATRIKA (DCU) Eco-54</t>
-  </si>
-  <si>
-    <t>1136 PATRIKA (R)</t>
-  </si>
-  <si>
-    <t>1137 PATRIKA (P)</t>
-  </si>
-  <si>
-    <t>1138 PATRIKA (BR)</t>
-  </si>
-  <si>
-    <t>1139 PATRIKA (BY)</t>
-  </si>
-  <si>
-    <t>1140 PATRIKA (BB)</t>
-  </si>
-  <si>
-    <t>1141 PATRIKA (R)</t>
-  </si>
-  <si>
-    <t>1142 PATRIKA (P)</t>
-  </si>
-  <si>
-    <t>1143 PATRIKA (G)</t>
-  </si>
-  <si>
-    <t>1144 PATRIKA (BR)</t>
-  </si>
-  <si>
-    <t>1145 PATRIKA (BY)</t>
-  </si>
-  <si>
-    <t>1147 PATRIKA (S.201)</t>
-  </si>
-  <si>
-    <t>1148 PATRIKA (S.202)</t>
-  </si>
-  <si>
-    <t>1149 PATRIKA (S.204)</t>
-  </si>
-  <si>
-    <t>1150 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>1151 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>1152 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>1153 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>1154 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>1155 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>1156 PATRIKA-YELLOW</t>
-  </si>
-  <si>
-    <t>1157 PATRIKA-CREAM</t>
-  </si>
-  <si>
-    <t>1158 PATRIKA-GOLDEN</t>
-  </si>
-  <si>
-    <t>1159 PATRIKA-WHITE</t>
-  </si>
-  <si>
-    <t>1160 PATRIKA-PINK</t>
-  </si>
-  <si>
-    <t>1161 PATRIKA (01)</t>
-  </si>
-  <si>
-    <t>1162 PATRIKA (02)</t>
-  </si>
-  <si>
-    <t>1163 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>1164 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>1165 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>1166 PATRIKA (DCU)</t>
+    <t>.1001 PATRIKA (25/251)</t>
+  </si>
+  <si>
+    <t>1002 PATRIKA (25/262)</t>
+  </si>
+  <si>
+    <t>1003 PATRIKA (25/261)</t>
+  </si>
+  <si>
+    <t>1004 PATRIKA (25/361/861)</t>
+  </si>
+  <si>
+    <t>1005 PATRIKA (25/362/862)</t>
+  </si>
+  <si>
+    <t>1006 PATRIKA (25/282)</t>
+  </si>
+  <si>
+    <t>1007 PATRIKA (25/281)</t>
+  </si>
+  <si>
+    <t>1008 PATRIKA (JC) (2595 PINK)</t>
+  </si>
+  <si>
+    <t>1009 PATRIKA (JC) (2595 ORANGE)</t>
+  </si>
+  <si>
+    <t>1010 PATRIKA (6321)</t>
+  </si>
+  <si>
+    <t>1011 PATRIKA (2563 OFFSET NEW)</t>
+  </si>
+  <si>
+    <t>1012 PATRIKA (2564 OFFSET NEW)</t>
+  </si>
+  <si>
+    <t>1013 PATRIKA (2568 OFFSET NEW)</t>
+  </si>
+  <si>
+    <t>1014 PATRIKA (11043 OFFSET)</t>
+  </si>
+  <si>
+    <t>1015 PATRIKA (DCU) (11041 OFFSET NEW)</t>
+  </si>
+  <si>
+    <t>1016 PATRIKA (1011 OFFSET)</t>
+  </si>
+  <si>
+    <t>1017 PATRIKA (1014 OFFSET)</t>
+  </si>
+  <si>
+    <t>1018 PATRIKA (10081 OFFSET NEW)</t>
+  </si>
+  <si>
+    <t>1019 PATRIKA (1222 SBC)</t>
+  </si>
+  <si>
+    <t>1020 PATRIKA (1235)</t>
+  </si>
+  <si>
+    <t>1021 PATRIKA (2101 VV)</t>
+  </si>
+  <si>
+    <t>1022 PATRIKA (JC) (25409)</t>
+  </si>
+  <si>
+    <t>1023 PATRIKA (25418)</t>
+  </si>
+  <si>
+    <t>1024 PATRIKA (25322)</t>
+  </si>
+  <si>
+    <t>1025 PATRIKA (25323)</t>
+  </si>
+  <si>
+    <t>1026 PATRIKA (JC) (1173 SBC)</t>
+  </si>
+  <si>
+    <t>1027 PATRIKA (JC) (5346)</t>
+  </si>
+  <si>
+    <t>1028 PATRIKA (JC) (2596)</t>
+  </si>
+  <si>
+    <t>1029 PATRIKA (1042)</t>
+  </si>
+  <si>
+    <t>1030 PATRIKA (1043)</t>
+  </si>
+  <si>
+    <t>1031 PATRIKA (GOPAL 11)</t>
+  </si>
+  <si>
+    <t>1032 PATRIKA (GOPAL 1)</t>
+  </si>
+  <si>
+    <t>1033 PATRIKA (2002 YLW)</t>
+  </si>
+  <si>
+    <t>1034 PATRIKA (2003 R)</t>
+  </si>
+  <si>
+    <t>1035 PATRIKA (DCU) (2201 ROSHAN)</t>
+  </si>
+  <si>
+    <t>1101 PATRIKA (O.2591) (2591 ORANGE)</t>
+  </si>
+  <si>
+    <t>1102 PATRIKA (P.2591) (2591 PINK)</t>
+  </si>
+  <si>
+    <t>1103 PATRIKA(N-271) (271 NEHA)</t>
+  </si>
+  <si>
+    <t>1104 PATRIKA(N-272) (272 NEHA)</t>
+  </si>
+  <si>
+    <t>1105 PATRIKA (276-A)</t>
+  </si>
+  <si>
+    <t>1106 PATRIKA-YELLOW (25419)</t>
+  </si>
+  <si>
+    <t>1107 PATRIKA-RED (25420)</t>
+  </si>
+  <si>
+    <t>1109 PATRIKA-BIG Y (25421)</t>
+  </si>
+  <si>
+    <t>1110 PATRIKA-BIG R (25422)</t>
+  </si>
+  <si>
+    <t>1112 PATRIKA (277-B)</t>
+  </si>
+  <si>
+    <t>1113 PATRIKA (1819 MONARCH)</t>
+  </si>
+  <si>
+    <t>1114 PATRIKA-BROWN (1709)</t>
+  </si>
+  <si>
+    <t>1115 PATRIKA-CREAM (1678 PRINCE)</t>
+  </si>
+  <si>
+    <t>1116 PATRIKA (1153) (1253 Jsk)</t>
+  </si>
+  <si>
+    <t>1117 PATRIKA (1155) (1155 JSK)</t>
+  </si>
+  <si>
+    <t>1117 PATRIKA - B (KRISHNA 1155-B)</t>
+  </si>
+  <si>
+    <t>1118 PATRIKA - B (DCU) (NEW SAVASHREE- 51)</t>
+  </si>
+  <si>
+    <t>1118 PATRIKA (सवाश्री-57) (NEW SAVASHREE-57)</t>
+  </si>
+  <si>
+    <t>1119 PATRIKA - B (DCU) (NEW SAVASHREE 52)</t>
+  </si>
+  <si>
+    <t>1119 PATRIKA(सवाश्री-55) (NEW SAVASHREE-55)</t>
+  </si>
+  <si>
+    <t>1120 PATRIKA(सवाश्री-59) (NEW SAVASHREE-59)</t>
+  </si>
+  <si>
+    <t>1121 PATRIKA(सवाश्री-53) (NEW SAVASHREE-53)</t>
+  </si>
+  <si>
+    <t>1122 PATRIKA (DCU) (NEW SAVASHREE-54)</t>
+  </si>
+  <si>
+    <t>1123 PATRIKA (LED-51) (LED-51)</t>
+  </si>
+  <si>
+    <t>1124 PATRIKA (LED-52) (LED-52)</t>
+  </si>
+  <si>
+    <t>1125 PATRIKA (LED-53) (LED-53)</t>
+  </si>
+  <si>
+    <t>1126 PATRIKA (LED-54) (LED-54)</t>
+  </si>
+  <si>
+    <t>1127 PATRIKA (Eco-52) (NEW ECO-52)</t>
+  </si>
+  <si>
+    <t>1128 PATRIKA (Eco-55) (NEW ECO-55)</t>
+  </si>
+  <si>
+    <t>1129 PATRIKA (Eco-56) (NEW ECO-56)</t>
+  </si>
+  <si>
+    <t>1130 PATRIKA - B (ECO-60) (DCU) (NEW ECO 60)</t>
+  </si>
+  <si>
+    <t>1130 PATRIKA (Eco-59) (NEW ECO-59)</t>
+  </si>
+  <si>
+    <t>1131 PATRIKA (DCU) Eco-51 (NEW ECO- 51)</t>
+  </si>
+  <si>
+    <t>1132 PATRIKA (DCU) Eco-53 (NEW ECO- 53)</t>
+  </si>
+  <si>
+    <t>1133 PATRIKA (DCU) Eco-57 (NEW ECO- 57)</t>
+  </si>
+  <si>
+    <t>1134 PATRIKA (DCU) Eco-58 (NEW ECO- 58)</t>
+  </si>
+  <si>
+    <t>1135 PATRIKA (DCU) Eco-54 (NEW ECO- 54)</t>
+  </si>
+  <si>
+    <t>1136 PATRIKA (R) (120 GSM RED)</t>
+  </si>
+  <si>
+    <t>1137 PATRIKA (P) (120 GSM YELLOW)</t>
+  </si>
+  <si>
+    <t>1138 PATRIKA (BR) (150 GSM FOIL (RED))</t>
+  </si>
+  <si>
+    <t>1139 PATRIKA (BY) (150 GSM FOIL (YELLOW))</t>
+  </si>
+  <si>
+    <t>1140 PATRIKA (BB) (150 GSM FOIL (BROWN))</t>
+  </si>
+  <si>
+    <t>1141 PATRIKA (R) (120 GSM (RED)SELF)</t>
+  </si>
+  <si>
+    <t>1142 PATRIKA (P) (120 GSM (YELLOW) SELF)</t>
+  </si>
+  <si>
+    <t>1143 PATRIKA (G) (120 GSM (OLD GOLDEN))</t>
+  </si>
+  <si>
+    <t>1144 PATRIKA (BR) (170 GSM WITH FOIL (RED))</t>
+  </si>
+  <si>
+    <t>1145 PATRIKA (BY) (170 GSM WITH FOIL (YELLOW))</t>
+  </si>
+  <si>
+    <t>1147 PATRIKA (S.201) (201 WESTERN)</t>
+  </si>
+  <si>
+    <t>1148 PATRIKA (S.202) (202 WESTERN)</t>
+  </si>
+  <si>
+    <t>1149 PATRIKA (S.204) (204 WESTERN)</t>
+  </si>
+  <si>
+    <t>1150 PATRIKA (DCU) (NEW SAVASHREE-58)</t>
+  </si>
+  <si>
+    <t>1151 PATRIKA (DCU) (NEW SAVASHREE-56)</t>
+  </si>
+  <si>
+    <t>1152 PATRIKA (DCU) (WESTERN 202 OLD)</t>
+  </si>
+  <si>
+    <t>1153 PATRIKA (DCU) (201 WESTERN (OLD))</t>
+  </si>
+  <si>
+    <t>1154 PATRIKA (DCU) (203 WESTERN A)</t>
+  </si>
+  <si>
+    <t>1155 PATRIKA (DCU) (WESTERN (203) B)</t>
+  </si>
+  <si>
+    <t>1156 PATRIKA-YELLOW (LU-51 (YELLOW))</t>
+  </si>
+  <si>
+    <t>1157 PATRIKA-CREAM (LU-52 (CREAM))</t>
+  </si>
+  <si>
+    <t>1158 PATRIKA-GOLDEN (LU-53 (GOLDEN))</t>
+  </si>
+  <si>
+    <t>1159 PATRIKA-WHITE (LU-54 (WHITE))</t>
+  </si>
+  <si>
+    <t>1160 PATRIKA-PINK (LU-55 (PINK))</t>
+  </si>
+  <si>
+    <t>1161 PATRIKA (01) (JCC 01)</t>
+  </si>
+  <si>
+    <t>1162 PATRIKA (02) (JCC 02)</t>
+  </si>
+  <si>
+    <t>1163 PATRIKA (DCU) (BP RED)</t>
+  </si>
+  <si>
+    <t>1164 PATRIKA (DCU) (BP PINK RIYAZ)</t>
+  </si>
+  <si>
+    <t>1165 PATRIKA (DCU) (BP CREAM)</t>
+  </si>
+  <si>
+    <t>1166 PATRIKA (DCU) (BP YELLOW)</t>
   </si>
   <si>
     <t>190 NO. ENVELOPES (POCKET)</t>
@@ -410,109 +410,109 @@
     <t>2025- INVITAION (BOX) SAMPLES</t>
   </si>
   <si>
-    <t>2101 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>2102 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2103 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>2104 PATRIKA</t>
-  </si>
-  <si>
-    <t>2105 PATRIKA</t>
-  </si>
-  <si>
-    <t>2106 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>2107 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2108 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2109 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>2110 PATRIKA</t>
-  </si>
-  <si>
-    <t>2111 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2112 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>2113 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>2114 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>2115 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>2116 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>2117 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2118 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>2119 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>2120 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>2121 PATRIKA</t>
-  </si>
-  <si>
-    <t>2122 PATRIKA</t>
-  </si>
-  <si>
-    <t>2123 PATRIKA</t>
-  </si>
-  <si>
-    <t>2124 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2125 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2126 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2127 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2128 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2129 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2130 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2131 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2132 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2133 PATRIKA</t>
-  </si>
-  <si>
-    <t>2134 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2135 PATRIKA *-* (M)</t>
+    <t>2101 PATRIKA (L) (LUXYA - 51)</t>
+  </si>
+  <si>
+    <t>2102 PATRIKA *-* (M) (LUXYA - 52)</t>
+  </si>
+  <si>
+    <t>2103 PATRIKA (L) (LUXYA - 53)</t>
+  </si>
+  <si>
+    <t>2104 PATRIKA (LUXYA - 54)</t>
+  </si>
+  <si>
+    <t>2105 PATRIKA (LUXYA - 55)</t>
+  </si>
+  <si>
+    <t>2106 PATRIKA (L) (LUXYA - 56)</t>
+  </si>
+  <si>
+    <t>2107 PATRIKA *-* (M) (LUXYA - 57)</t>
+  </si>
+  <si>
+    <t>2108 PATRIKA *-* (M) (LUXYA - 59)</t>
+  </si>
+  <si>
+    <t>2109 PATRIKA (L) (LUXYA - 60)</t>
+  </si>
+  <si>
+    <t>2110 PATRIKA (LUXYA - 61)</t>
+  </si>
+  <si>
+    <t>2111 PATRIKA *-* (M) (LUXYA - 62)</t>
+  </si>
+  <si>
+    <t>2112 PATRIKA (L) (LEGACY - 01)</t>
+  </si>
+  <si>
+    <t>2113 PATRIKA (L) (LEGACY - 02)</t>
+  </si>
+  <si>
+    <t>2114 PATRIKA (L) (LEGACY - 03)</t>
+  </si>
+  <si>
+    <t>2115 PATRIKA (L) (LEGACY - 04)</t>
+  </si>
+  <si>
+    <t>2116 PATRIKA (L) (LEGACY - 05)</t>
+  </si>
+  <si>
+    <t>2117 PATRIKA *-* (M) (LEGACY - 06)</t>
+  </si>
+  <si>
+    <t>2118 PATRIKA (L) (LEGACY - 07)</t>
+  </si>
+  <si>
+    <t>2119 PATRIKA (L) (LEGACY - 08)</t>
+  </si>
+  <si>
+    <t>2120 PATRIKA (L) (LEGACY - 09)</t>
+  </si>
+  <si>
+    <t>2121 PATRIKA (LEGACY - 10)</t>
+  </si>
+  <si>
+    <t>2122 PATRIKA (LEGACY - 11)</t>
+  </si>
+  <si>
+    <t>2123 PATRIKA (LEGACY - 12)</t>
+  </si>
+  <si>
+    <t>2124 PATRIKA *-* (M) (LOTTERY - 71)</t>
+  </si>
+  <si>
+    <t>2125 PATRIKA *-* (M) (LOTTERY - 72)</t>
+  </si>
+  <si>
+    <t>2126 PATRIKA *-* (M) (LOTTERY - 73)</t>
+  </si>
+  <si>
+    <t>2127 PATRIKA *-* (M) (LOTTERY - 74)</t>
+  </si>
+  <si>
+    <t>2128 PATRIKA *-* (M) (LOTTERY - 75)</t>
+  </si>
+  <si>
+    <t>2129 PATRIKA *-* (M) (LOTTERY - 76)</t>
+  </si>
+  <si>
+    <t>2130 PATRIKA *-* (M) (LOTTERY - 77)</t>
+  </si>
+  <si>
+    <t>2131 PATRIKA *-* (M) (LOTTERY - 78)</t>
+  </si>
+  <si>
+    <t>2132 PATRIKA *-* (M) (LOTTERY - 79)</t>
+  </si>
+  <si>
+    <t>2133 PATRIKA (LOTTERY - 80)</t>
+  </si>
+  <si>
+    <t>2134 PATRIKA *-* (M) (LOTTERY - 81)</t>
+  </si>
+  <si>
+    <t>2135 PATRIKA *-* (M) (LOTTERY - 82)</t>
   </si>
   <si>
     <t>240 ENVELOPE</t>
@@ -533,1216 +533,1216 @@
     <t>330 ENVELOPE (B)</t>
   </si>
   <si>
-    <t>4251 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>4252 PATRIKA</t>
-  </si>
-  <si>
-    <t>4253 PATRIKA</t>
-  </si>
-  <si>
-    <t>4254 PATRIKA (4210)</t>
-  </si>
-  <si>
-    <t>4255 PATRIKA - B (DCU)</t>
-  </si>
-  <si>
-    <t>4255 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>4256 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>4257 PATRIKA</t>
-  </si>
-  <si>
-    <t>4258 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>4259 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>4260 PATRIKA</t>
-  </si>
-  <si>
-    <t>4261 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>4262 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>4263 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>4264 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>4265 PATRIKA</t>
-  </si>
-  <si>
-    <t>4266 PATRIKA</t>
-  </si>
-  <si>
-    <t>4267 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>4268 PATRIKA (JC) *-* (M+T)</t>
-  </si>
-  <si>
-    <t>4269 PATRIKA</t>
-  </si>
-  <si>
-    <t>4270 PATRIKA</t>
-  </si>
-  <si>
-    <t>4271 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>4272 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>4273 PATRIKA</t>
-  </si>
-  <si>
-    <t>4274 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>4275 PATRIKA</t>
-  </si>
-  <si>
-    <t>4276 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>4277 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>4278 PATRIKA</t>
-  </si>
-  <si>
-    <t>4279 PATRIKA</t>
-  </si>
-  <si>
-    <t>4280 PATRIKA</t>
-  </si>
-  <si>
-    <t>4281 PATRIKA</t>
-  </si>
-  <si>
-    <t>4282 PATRIKA</t>
-  </si>
-  <si>
-    <t>4283 PATRIKA - B (YELLOW)</t>
-  </si>
-  <si>
-    <t>4283 PATRIKA (GOLDEN)</t>
-  </si>
-  <si>
-    <t>4284 PATRIKA</t>
-  </si>
-  <si>
-    <t>4285 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>4286 PATRIKA</t>
-  </si>
-  <si>
-    <t>4287 PATRIKA</t>
-  </si>
-  <si>
-    <t>4288 PATRIKA</t>
-  </si>
-  <si>
-    <t>4289 PATRIKA</t>
-  </si>
-  <si>
-    <t>4290 PATRIKA</t>
-  </si>
-  <si>
-    <t>4291 PATRIKA</t>
-  </si>
-  <si>
-    <t>4292 PATRIKA</t>
-  </si>
-  <si>
-    <t>4293 PATRIKA</t>
-  </si>
-  <si>
-    <t>4294 PATRIKA</t>
-  </si>
-  <si>
-    <t>4295 PATRIKA</t>
-  </si>
-  <si>
-    <t>4296 PATRIKA</t>
-  </si>
-  <si>
-    <t>4297 PATRIKA</t>
-  </si>
-  <si>
-    <t>4298 PATRIKA</t>
-  </si>
-  <si>
-    <t>4299 PATRIKA</t>
-  </si>
-  <si>
-    <t>4300 PATRIKA</t>
-  </si>
-  <si>
-    <t>4301 PATRIKA</t>
-  </si>
-  <si>
-    <t>4302 PATRIKA</t>
-  </si>
-  <si>
-    <t>4303 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>4304 PATRIKA</t>
-  </si>
-  <si>
-    <t>4305 PATRIKA</t>
-  </si>
-  <si>
-    <t>4306 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>4307 PATRIKA</t>
-  </si>
-  <si>
-    <t>4308 PATRIKA</t>
-  </si>
-  <si>
-    <t>4309 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>4310 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>4311 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>4312 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>4313 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>4314 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>4315 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>4316 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5051 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5052 PATRIKA</t>
-  </si>
-  <si>
-    <t>5053 PATRIKA</t>
-  </si>
-  <si>
-    <t>5054 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5055 PATRIKA</t>
-  </si>
-  <si>
-    <t>5056 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5057 PATRIKA</t>
-  </si>
-  <si>
-    <t>5058 PATRIKA</t>
-  </si>
-  <si>
-    <t>5059 PATRIKA</t>
-  </si>
-  <si>
-    <t>5060 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5061 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5062 PATRIKA</t>
-  </si>
-  <si>
-    <t>5063 PATRIKA</t>
-  </si>
-  <si>
-    <t>5064 PATRIKA</t>
-  </si>
-  <si>
-    <t>5065 PATRIKA</t>
-  </si>
-  <si>
-    <t>5066 PATRIKA</t>
-  </si>
-  <si>
-    <t>5067 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5068 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5069 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5070 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5071 PATRIKA *-* (डोरी)</t>
-  </si>
-  <si>
-    <t>5072 PATRIKA</t>
-  </si>
-  <si>
-    <t>5073 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5074 PATRIKA</t>
-  </si>
-  <si>
-    <t>5075 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5076 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5077 PATRIKA</t>
-  </si>
-  <si>
-    <t>5078 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5079 PATRIKA</t>
-  </si>
-  <si>
-    <t>5080 PATRIKA</t>
-  </si>
-  <si>
-    <t>5081 PATRIKA</t>
-  </si>
-  <si>
-    <t>5083 PATRIKA</t>
-  </si>
-  <si>
-    <t>5084 PATRIKA</t>
-  </si>
-  <si>
-    <t>5085 PATRIKA</t>
-  </si>
-  <si>
-    <t>5086 PATRIKA (JC) *-* (M+D)</t>
-  </si>
-  <si>
-    <t>5087 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5088 PATRIKA</t>
-  </si>
-  <si>
-    <t>5089 PATRIKA</t>
-  </si>
-  <si>
-    <t>5090 PATRIKA</t>
-  </si>
-  <si>
-    <t>5091 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5092 PATRIKA</t>
-  </si>
-  <si>
-    <t>5093 PATRIKA</t>
-  </si>
-  <si>
-    <t>5094 PATRIKA</t>
-  </si>
-  <si>
-    <t>5095 PATRIKA</t>
-  </si>
-  <si>
-    <t>5096 PATRIKA</t>
-  </si>
-  <si>
-    <t>5097 PATRIKA</t>
-  </si>
-  <si>
-    <t>5098 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5099 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5100 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5102 PATRIKA (5021)</t>
-  </si>
-  <si>
-    <t>5103 PATRIKA</t>
-  </si>
-  <si>
-    <t>5104 PATRIKA</t>
-  </si>
-  <si>
-    <t>5105 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5106 PATRIKA</t>
-  </si>
-  <si>
-    <t>5107 PATRIKA</t>
-  </si>
-  <si>
-    <t>5108 PATRIKA</t>
-  </si>
-  <si>
-    <t>5109 PATRIKA</t>
-  </si>
-  <si>
-    <t>5110 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5111 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5112 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5113 PATRIKA</t>
-  </si>
-  <si>
-    <t>5114 PATRIKA *-* (डोरी)</t>
-  </si>
-  <si>
-    <t>5115 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5116 PATRIKA</t>
-  </si>
-  <si>
-    <t>5117 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5118 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5501 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5502 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5503 PATRIKA</t>
-  </si>
-  <si>
-    <t>5504 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5505 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5506 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5507 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5508 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5509 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5510 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5511 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5512 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5513 PATRIKA</t>
-  </si>
-  <si>
-    <t>5514 PATRIKA</t>
-  </si>
-  <si>
-    <t>5515 PATRIKA</t>
-  </si>
-  <si>
-    <t>5516 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5517 PATRIKA *-* (M) (Patti Aayegi)</t>
-  </si>
-  <si>
-    <t>5518 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5519 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5520 PATRIKA</t>
-  </si>
-  <si>
-    <t>5521 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5522 PATRIKA</t>
-  </si>
-  <si>
-    <t>5523 PATRIKA</t>
-  </si>
-  <si>
-    <t>5524 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5525 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5526 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5527 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5528 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5529 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5530 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5531 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5532 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5533 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5534 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5535 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5537 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5538 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5539 PATRIKA-B</t>
-  </si>
-  <si>
-    <t>5539 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5540 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5541 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5542 PATRIKA</t>
-  </si>
-  <si>
-    <t>5543 PATRIKA</t>
-  </si>
-  <si>
-    <t>5544 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5545 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5546 PATRIKA</t>
-  </si>
-  <si>
-    <t>5547 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5548 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5549 PATRIKA</t>
-  </si>
-  <si>
-    <t>5550 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5551 PATRIKA</t>
-  </si>
-  <si>
-    <t>5552 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5553 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5554 PATRIKA *-* (F/G)</t>
-  </si>
-  <si>
-    <t>5555 PATRIKA</t>
-  </si>
-  <si>
-    <t>5556 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5557 PATRIKA</t>
-  </si>
-  <si>
-    <t>5558 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5559 PATRIKA</t>
-  </si>
-  <si>
-    <t>5560 PATRIKA (F/G) *-*</t>
-  </si>
-  <si>
-    <t>5561 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5562 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5563 PATRIKA</t>
-  </si>
-  <si>
-    <t>5564 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5565 PATRIKA</t>
-  </si>
-  <si>
-    <t>5566 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5567 PATRIKA</t>
-  </si>
-  <si>
-    <t>5568 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5569 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5570 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5571 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5572 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5573 PATRIKA</t>
-  </si>
-  <si>
-    <t>5574 PATRIKA</t>
-  </si>
-  <si>
-    <t>5575 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5576 PATRIKA</t>
-  </si>
-  <si>
-    <t>5577 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5578 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5579 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5580 PATRIKA</t>
-  </si>
-  <si>
-    <t>5581 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5582 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5583 PATRIKA</t>
-  </si>
-  <si>
-    <t>5584 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5585 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5586 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5587 PATRIKA</t>
-  </si>
-  <si>
-    <t>5588 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5589 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5590 PATRIKA</t>
-  </si>
-  <si>
-    <t>5591 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5592 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5593 PATRIKA</t>
-  </si>
-  <si>
-    <t>5594 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5595 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5596 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5597 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5599 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5600 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5601 PATRIKA</t>
-  </si>
-  <si>
-    <t>5602 PATRIKA</t>
-  </si>
-  <si>
-    <t>5603 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5604 PATRIKA</t>
-  </si>
-  <si>
-    <t>5605 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5606 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5607 PATRIKA</t>
-  </si>
-  <si>
-    <t>5608 PATRIKA</t>
-  </si>
-  <si>
-    <t>5609 PATRIKA</t>
-  </si>
-  <si>
-    <t>5610 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5611 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5612 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5613 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5614 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5615 PATRIKA</t>
-  </si>
-  <si>
-    <t>5616 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5617 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5618 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5619 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5620 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5621 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5622 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5623 PATRIKA</t>
-  </si>
-  <si>
-    <t>5624 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5625 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>6601 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>6602 PATRIKA</t>
-  </si>
-  <si>
-    <t>6603 PATRIKA</t>
-  </si>
-  <si>
-    <t>6604 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6605 PATRIKA</t>
-  </si>
-  <si>
-    <t>6606 PATRIKA (*-*) R</t>
-  </si>
-  <si>
-    <t>6607 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6608 PATRIKA</t>
-  </si>
-  <si>
-    <t>6609 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6610 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6611 PATRIKA</t>
-  </si>
-  <si>
-    <t>6612 PATRIKA</t>
-  </si>
-  <si>
-    <t>6613 PATRIKA</t>
-  </si>
-  <si>
-    <t>6614 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>6615 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6616 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6617 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6618 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6619 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6620 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6621 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6622 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6623 PATRIKA</t>
-  </si>
-  <si>
-    <t>6624 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6625 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6626 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6627 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6628 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6629 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6630 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6631 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>6632 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>6633 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6634 PATRIKA</t>
-  </si>
-  <si>
-    <t>6635 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6636 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6637 PATRIKA</t>
-  </si>
-  <si>
-    <t>6638 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6639 PATRIKA</t>
-  </si>
-  <si>
-    <t>6639 PATRIKA (B)</t>
-  </si>
-  <si>
-    <t>6640 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6641 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6642 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6643 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6644 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>6645 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6646 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6647 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6648 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6649 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6650 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6651 PATRIKA</t>
-  </si>
-  <si>
-    <t>6652 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6653 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6654 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6655 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6656 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>6657 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6658 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6659 PATRIKA</t>
-  </si>
-  <si>
-    <t>6660 PATRIKA</t>
-  </si>
-  <si>
-    <t>6661 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6662 PATRIKA</t>
-  </si>
-  <si>
-    <t>6663 PATRIKA</t>
-  </si>
-  <si>
-    <t>6664 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6665 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6666 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6667 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6668 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>6669 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>6670 PATRIKA - B (M)</t>
-  </si>
-  <si>
-    <t>6670 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6671 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6672 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6673 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>6674 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>6675 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6676 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>6677 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>7265 PATRIKA (O.C.)</t>
-  </si>
-  <si>
-    <t>7283 PATRIKA {F} (O.C.)</t>
-  </si>
-  <si>
-    <t>7287 PATRIKA (O.C.)</t>
-  </si>
-  <si>
-    <t>7288 PATRIKA (O.C.)</t>
-  </si>
-  <si>
-    <t>7293 PATRIKA (O.C.)</t>
-  </si>
-  <si>
-    <t>7309 PATRIKA (O.C.)</t>
-  </si>
-  <si>
-    <t>7312 PATRIKA (O.C.)</t>
-  </si>
-  <si>
-    <t>7319 PATRIKA (O.C.)</t>
-  </si>
-  <si>
-    <t>7332 PATRIKA (O.C.)</t>
-  </si>
-  <si>
-    <t>7342 PATRIKA (O.C.)</t>
-  </si>
-  <si>
-    <t>7344 PATRIKA (O.C.)</t>
-  </si>
-  <si>
-    <t>7345 PATRIKA (O.C.)</t>
-  </si>
-  <si>
-    <t>7401 PATRIKA</t>
-  </si>
-  <si>
-    <t>7402 PATRIKA</t>
-  </si>
-  <si>
-    <t>7403 PATRIKA</t>
-  </si>
-  <si>
-    <t>7404 PATRIKA</t>
-  </si>
-  <si>
-    <t>7405 PATRIKA</t>
-  </si>
-  <si>
-    <t>7406 PATRIKA</t>
-  </si>
-  <si>
-    <t>7407 PATRIKA *-* (F)</t>
-  </si>
-  <si>
-    <t>7408 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>7409 PATRIKA</t>
-  </si>
-  <si>
-    <t>7410 PATRIKA</t>
-  </si>
-  <si>
-    <t>7411 PATRIKA</t>
-  </si>
-  <si>
-    <t>7412 PATRIKA (Time Lagega) Select Another</t>
-  </si>
-  <si>
-    <t>7413 PATRIKA</t>
-  </si>
-  <si>
-    <t>7414 PATRIKA</t>
-  </si>
-  <si>
-    <t>7415 PATRIKA *-* (F)</t>
-  </si>
-  <si>
-    <t>7416 PATRIKA</t>
-  </si>
-  <si>
-    <t>7417 PATRIKA</t>
-  </si>
-  <si>
-    <t>7418 PATRIKA *-* (डोरी)</t>
-  </si>
-  <si>
-    <t>7419 PATRIKA</t>
-  </si>
-  <si>
-    <t>7420 PATRIKA</t>
-  </si>
-  <si>
-    <t>7421 PATRIKA *-* (F)</t>
-  </si>
-  <si>
-    <t>7422 PATRIKA</t>
-  </si>
-  <si>
-    <t>7423 PATRIKA</t>
-  </si>
-  <si>
-    <t>7424 PATRIKA *-* (F)</t>
-  </si>
-  <si>
-    <t>7425 PATRIKA</t>
-  </si>
-  <si>
-    <t>7426 PATRIKA (F/G) *-*</t>
-  </si>
-  <si>
-    <t>7427 PATRIKA</t>
-  </si>
-  <si>
-    <t>7428 PATRIKA</t>
-  </si>
-  <si>
-    <t>7429 PATRIKA (F/G) *-*</t>
-  </si>
-  <si>
-    <t>7430 PATRIKA</t>
-  </si>
-  <si>
-    <t>7431 PATRIKA</t>
-  </si>
-  <si>
-    <t>7432 PATRIKA</t>
-  </si>
-  <si>
-    <t>7433 PATRIKA</t>
-  </si>
-  <si>
-    <t>7434 PATRIKA</t>
-  </si>
-  <si>
-    <t>7435 PATRIKA</t>
-  </si>
-  <si>
-    <t>7436 PATRIKA</t>
-  </si>
-  <si>
-    <t>7437 PATRIKA</t>
-  </si>
-  <si>
-    <t>7438 PATRIKA</t>
-  </si>
-  <si>
-    <t>7439 PATRIKA</t>
-  </si>
-  <si>
-    <t>7440 PATRIKA</t>
-  </si>
-  <si>
-    <t>7441 PATRIKA *-* (F)</t>
-  </si>
-  <si>
-    <t>7442 PATRIKA</t>
-  </si>
-  <si>
-    <t>7443 PATRIKA</t>
-  </si>
-  <si>
-    <t>7444 PATRIKA</t>
-  </si>
-  <si>
-    <t>7445 PATRIKA</t>
-  </si>
-  <si>
-    <t>7446 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>7447 PATRIKA</t>
-  </si>
-  <si>
-    <t>7448 PATRIKA</t>
-  </si>
-  <si>
-    <t>7449 PATRIKA</t>
-  </si>
-  <si>
-    <t>7450 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>7451 PATRIKA</t>
-  </si>
-  <si>
-    <t>7452 PATRIKA</t>
-  </si>
-  <si>
-    <t>7453 PATRIKA (ECO - 61)</t>
-  </si>
-  <si>
-    <t>7454 PATRIKA (ECO -63)</t>
-  </si>
-  <si>
-    <t>9001 CARD (O.C.)</t>
+    <t>4251 PATRIKA (JC) (5342)</t>
+  </si>
+  <si>
+    <t>4252 PATRIKA (5207)</t>
+  </si>
+  <si>
+    <t>4253 PATRIKA (5206)</t>
+  </si>
+  <si>
+    <t>4254 PATRIKA (4210) (10273/10277)</t>
+  </si>
+  <si>
+    <t>4255 PATRIKA - B (DCU) (AS-02 (B))</t>
+  </si>
+  <si>
+    <t>4255 PATRIKA (JC) (AS-02 (NEW))</t>
+  </si>
+  <si>
+    <t>4256 PATRIKA (JC) *-* (M) (1352 VV)</t>
+  </si>
+  <si>
+    <t>4257 PATRIKA (82)</t>
+  </si>
+  <si>
+    <t>4258 PATRIKA (JC) (1129)</t>
+  </si>
+  <si>
+    <t>4259 PATRIKA (JC) (101 SBC)</t>
+  </si>
+  <si>
+    <t>4260 PATRIKA (1102)</t>
+  </si>
+  <si>
+    <t>4261 PATRIKA (JC) (959)</t>
+  </si>
+  <si>
+    <t>4262 PATRIKA (JC) (S-201 GANESH JI)</t>
+  </si>
+  <si>
+    <t>4263 PATRIKA (JC) (2571)</t>
+  </si>
+  <si>
+    <t>4264 PATRIKA (DCU) (1351)</t>
+  </si>
+  <si>
+    <t>4265 PATRIKA (83)</t>
+  </si>
+  <si>
+    <t>4266 PATRIKA (25-145)</t>
+  </si>
+  <si>
+    <t>4267 PATRIKA (JC) (25-046)</t>
+  </si>
+  <si>
+    <t>4268 PATRIKA (JC) *-* (M+T) (S-296)</t>
+  </si>
+  <si>
+    <t>4269 PATRIKA (111 SBC)</t>
+  </si>
+  <si>
+    <t>4270 PATRIKA (1151 GGN)</t>
+  </si>
+  <si>
+    <t>4271 PATRIKA (JC) (25216)</t>
+  </si>
+  <si>
+    <t>4272 PATRIKA (JC) (1231 SBC CRM)</t>
+  </si>
+  <si>
+    <t>4273 PATRIKA (2547)</t>
+  </si>
+  <si>
+    <t>4274 PATRIKA (JC) (25369)</t>
+  </si>
+  <si>
+    <t>4275 PATRIKA (25367)</t>
+  </si>
+  <si>
+    <t>4276 PATRIKA (JC) *-* (M) (2632)</t>
+  </si>
+  <si>
+    <t>4277 PATRIKA (JC) *-* (M) (25365)</t>
+  </si>
+  <si>
+    <t>4278 PATRIKA (25368)</t>
+  </si>
+  <si>
+    <t>4279 PATRIKA (1031)</t>
+  </si>
+  <si>
+    <t>4280 PATRIKA (25301)</t>
+  </si>
+  <si>
+    <t>4281 PATRIKA (25312 MYRA)</t>
+  </si>
+  <si>
+    <t>4282 PATRIKA (3117)</t>
+  </si>
+  <si>
+    <t>4283 PATRIKA - B (YELLOW) (3116-YLW)</t>
+  </si>
+  <si>
+    <t>4283 PATRIKA (GOLDEN) (3116)</t>
+  </si>
+  <si>
+    <t>4284 PATRIKA (1173 VV)</t>
+  </si>
+  <si>
+    <t>4285 PATRIKA (JC) *-* (M) (4626)</t>
+  </si>
+  <si>
+    <t>4286 PATRIKA (5254  RJN)</t>
+  </si>
+  <si>
+    <t>4287 PATRIKA (25402)</t>
+  </si>
+  <si>
+    <t>4288 PATRIKA (10001 NEW)</t>
+  </si>
+  <si>
+    <t>4289 PATRIKA (10002 NEW)</t>
+  </si>
+  <si>
+    <t>4290 PATRIKA (316 MYRA)</t>
+  </si>
+  <si>
+    <t>4291 PATRIKA (25401)</t>
+  </si>
+  <si>
+    <t>4292 PATRIKA (25311)</t>
+  </si>
+  <si>
+    <t>4293 PATRIKA (25312)</t>
+  </si>
+  <si>
+    <t>4294 PATRIKA (5273)</t>
+  </si>
+  <si>
+    <t>4295 PATRIKA (286-A)</t>
+  </si>
+  <si>
+    <t>4296 PATRIKA (1407)</t>
+  </si>
+  <si>
+    <t>4297 PATRIKA (306)</t>
+  </si>
+  <si>
+    <t>4298 PATRIKA (5501)</t>
+  </si>
+  <si>
+    <t>4299 PATRIKA (2011)</t>
+  </si>
+  <si>
+    <t>4300 PATRIKA (25314)</t>
+  </si>
+  <si>
+    <t>4301 PATRIKA (25315)</t>
+  </si>
+  <si>
+    <t>4302 PATRIKA (1402)</t>
+  </si>
+  <si>
+    <t>4303 PATRIKA (JC) (1234*-M)</t>
+  </si>
+  <si>
+    <t>4304 PATRIKA (5172)</t>
+  </si>
+  <si>
+    <t>4305 PATRIKA (25313)</t>
+  </si>
+  <si>
+    <t>4306 PATRIKA (JC) (427 LOTUS)</t>
+  </si>
+  <si>
+    <t>4307 PATRIKA (BALAJI 5202)</t>
+  </si>
+  <si>
+    <t>4308 PATRIKA (LOTUS 430)</t>
+  </si>
+  <si>
+    <t>4309 PATRIKA (DCU) (3751 Patta)</t>
+  </si>
+  <si>
+    <t>4310 PATRIKA (DCU) (3752 Swastik)</t>
+  </si>
+  <si>
+    <t>4311 PATRIKA (DCU) (251 KBC)</t>
+  </si>
+  <si>
+    <t>4312 PATRIKA (DCU) (273-A)</t>
+  </si>
+  <si>
+    <t>4313 PATRIKA (DCU) (RED- YELLOW PAN PATTA)</t>
+  </si>
+  <si>
+    <t>4314 PATRIKA (DCU) (RED-YELLOW SWASTIK)</t>
+  </si>
+  <si>
+    <t>4315 PATRIKA (DCU) (WHITE-PINK PAN PATA)</t>
+  </si>
+  <si>
+    <t>4316 PATRIKA (DCU) (WHITE -ORANGE PAN PATTA)</t>
+  </si>
+  <si>
+    <t>5051 PATRIKA *-* (M) (5087)</t>
+  </si>
+  <si>
+    <t>5052 PATRIKA (5295)</t>
+  </si>
+  <si>
+    <t>5053 PATRIKA (5213)</t>
+  </si>
+  <si>
+    <t>5054 PATRIKA *-* (M) (25/162)</t>
+  </si>
+  <si>
+    <t>5055 PATRIKA (25/272)</t>
+  </si>
+  <si>
+    <t>5056 PATRIKA (JC) (25/271)</t>
+  </si>
+  <si>
+    <t>5057 PATRIKA (25/171)</t>
+  </si>
+  <si>
+    <t>5058 PATRIKA (8802)</t>
+  </si>
+  <si>
+    <t>5059 PATRIKA (8803)</t>
+  </si>
+  <si>
+    <t>5060 PATRIKA (JC) (7713)</t>
+  </si>
+  <si>
+    <t>5061 PATRIKA (DCU) (1405)</t>
+  </si>
+  <si>
+    <t>5062 PATRIKA (7705)</t>
+  </si>
+  <si>
+    <t>5063 PATRIKA (2522 GE)</t>
+  </si>
+  <si>
+    <t>5064 PATRIKA (2517 GE)</t>
+  </si>
+  <si>
+    <t>5065 PATRIKA (2527)</t>
+  </si>
+  <si>
+    <t>5066 PATRIKA (2536)</t>
+  </si>
+  <si>
+    <t>5067 PATRIKA (JC) (S-301)</t>
+  </si>
+  <si>
+    <t>5068 PATRIKA (DCU) (S-305)</t>
+  </si>
+  <si>
+    <t>5069 PATRIKA (JC) (1103)</t>
+  </si>
+  <si>
+    <t>5070 PATRIKA (JC) (2156  YELLOW)</t>
+  </si>
+  <si>
+    <t>5071 PATRIKA *-* (डोरी) (741)</t>
+  </si>
+  <si>
+    <t>5072 PATRIKA (5347 DIRECT)</t>
+  </si>
+  <si>
+    <t>5073 PATRIKA *-* (M) (3161)</t>
+  </si>
+  <si>
+    <t>5074 PATRIKA (1151 VV)</t>
+  </si>
+  <si>
+    <t>5075 PATRIKA (JC) (25-082)</t>
+  </si>
+  <si>
+    <t>5076 PATRIKA (JC) (3701 SBC)</t>
+  </si>
+  <si>
+    <t>5077 PATRIKA (2081)</t>
+  </si>
+  <si>
+    <t>5078 PATRIKA (DCU) (2156 CREAM)</t>
+  </si>
+  <si>
+    <t>5079 PATRIKA (296-A (NEHA)</t>
+  </si>
+  <si>
+    <t>5080 PATRIKA (2501 GE NEW)</t>
+  </si>
+  <si>
+    <t>5081 PATRIKA (2520 GE)</t>
+  </si>
+  <si>
+    <t>5083 PATRIKA (5267)</t>
+  </si>
+  <si>
+    <t>5084 PATRIKA (5258 RJ)</t>
+  </si>
+  <si>
+    <t>5085 PATRIKA (2023)</t>
+  </si>
+  <si>
+    <t>5086 PATRIKA (JC) *-* (M+D) (942)</t>
+  </si>
+  <si>
+    <t>5087 PATRIKA (JC) (2206)</t>
+  </si>
+  <si>
+    <t>5088 PATRIKA (25214)</t>
+  </si>
+  <si>
+    <t>5089 PATRIKA (2061 SBC)</t>
+  </si>
+  <si>
+    <t>5090 PATRIKA (5236 RJ)</t>
+  </si>
+  <si>
+    <t>5091 PATRIKA (JC) (1411 KBC)</t>
+  </si>
+  <si>
+    <t>5092 PATRIKA (05 NAVIN BHAI)</t>
+  </si>
+  <si>
+    <t>5093 PATRIKA (5350)</t>
+  </si>
+  <si>
+    <t>5094 PATRIKA (5251)</t>
+  </si>
+  <si>
+    <t>5095 PATRIKA (5240)</t>
+  </si>
+  <si>
+    <t>5096 PATRIKA (25316)</t>
+  </si>
+  <si>
+    <t>5097 PATRIKA (25321)</t>
+  </si>
+  <si>
+    <t>5098 PATRIKA *-* (M) (857)</t>
+  </si>
+  <si>
+    <t>5099 PATRIKA *-* (M) (852 DHANESH)</t>
+  </si>
+  <si>
+    <t>5100 PATRIKA (DCU) (5339)</t>
+  </si>
+  <si>
+    <t>5102 PATRIKA (5021) (2456)</t>
+  </si>
+  <si>
+    <t>5103 PATRIKA (2071)</t>
+  </si>
+  <si>
+    <t>5104 PATRIKA (5261 RJND)</t>
+  </si>
+  <si>
+    <t>5105 PATRIKA (JC) (5335)</t>
+  </si>
+  <si>
+    <t>5106 PATRIKA (253-A / 257-A)</t>
+  </si>
+  <si>
+    <t>5107 PATRIKA (5356 RJ)</t>
+  </si>
+  <si>
+    <t>5108 PATRIKA (5333)</t>
+  </si>
+  <si>
+    <t>5109 PATRIKA (5308)</t>
+  </si>
+  <si>
+    <t>5110 PATRIKA (JC) (AS-402)</t>
+  </si>
+  <si>
+    <t>5111 PATRIKA (JC) (5313)</t>
+  </si>
+  <si>
+    <t>5112 PATRIKA (JC) *-* (M) (25437)</t>
+  </si>
+  <si>
+    <t>5113 PATRIKA (5305)</t>
+  </si>
+  <si>
+    <t>5114 PATRIKA *-* (डोरी) (2091)</t>
+  </si>
+  <si>
+    <t>5115 PATRIKA (DCU) (5363 RJND)</t>
+  </si>
+  <si>
+    <t>5116 PATRIKA (2031)</t>
+  </si>
+  <si>
+    <t>5117 PATRIKA (DCU) (3331)</t>
+  </si>
+  <si>
+    <t>5118 PATRIKA (DCU) (25436)</t>
+  </si>
+  <si>
+    <t>5501 PATRIKA (DCU) (985 PISTA)</t>
+  </si>
+  <si>
+    <t>5502 PATRIKA *-* (M) (5355 NICE)</t>
+  </si>
+  <si>
+    <t>5503 PATRIKA (5186)</t>
+  </si>
+  <si>
+    <t>5504 PATRIKA (JC) (7033)</t>
+  </si>
+  <si>
+    <t>5505 PATRIKA (JC) *-* (M) (2282)</t>
+  </si>
+  <si>
+    <t>5506 PATRIKA *-* (M) (25/122)</t>
+  </si>
+  <si>
+    <t>5507 PATRIKA (JC) (8055 VV)</t>
+  </si>
+  <si>
+    <t>5508 PATRIKA (JC) (612 VV)</t>
+  </si>
+  <si>
+    <t>5509 PATRIKA (JC) (25/072)</t>
+  </si>
+  <si>
+    <t>5510 PATRIKA (JC) *-* (M) (AS-950)</t>
+  </si>
+  <si>
+    <t>5511 PATRIKA (JC) *-* (M) (2528)</t>
+  </si>
+  <si>
+    <t>5512 PATRIKA (JC) (2525 /2552)</t>
+  </si>
+  <si>
+    <t>5513 PATRIKA (2515)</t>
+  </si>
+  <si>
+    <t>5514 PATRIKA (2542)</t>
+  </si>
+  <si>
+    <t>5515 PATRIKA (2523)</t>
+  </si>
+  <si>
+    <t>5516 PATRIKA (JC) *-* (M) (5302 VV)</t>
+  </si>
+  <si>
+    <t>5517 PATRIKA *-* (M) (Patti Aayegi) (6301)</t>
+  </si>
+  <si>
+    <t>5518 PATRIKA (JC) *-* (M) (922)</t>
+  </si>
+  <si>
+    <t>5519 PATRIKA *-* (M) (7066)</t>
+  </si>
+  <si>
+    <t>5520 PATRIKA (1054)</t>
+  </si>
+  <si>
+    <t>5521 PATRIKA (JC) *-* (M) (35)</t>
+  </si>
+  <si>
+    <t>5522 PATRIKA (2231)</t>
+  </si>
+  <si>
+    <t>5523 PATRIKA (2232)</t>
+  </si>
+  <si>
+    <t>5524 PATRIKA (DCU) (5382)</t>
+  </si>
+  <si>
+    <t>5525 PATRIKA *-* (M) (5283)</t>
+  </si>
+  <si>
+    <t>5526 PATRIKA (DCU) (NEW LUSTER - 01)</t>
+  </si>
+  <si>
+    <t>5527 PATRIKA (DCU) (NEW LUSTER - 02)</t>
+  </si>
+  <si>
+    <t>5528 PATRIKA *-* (M) (NEW LUSTER - 03)</t>
+  </si>
+  <si>
+    <t>5529 PATRIKA *-* (M) (NEW LUSTER - 04)</t>
+  </si>
+  <si>
+    <t>5530 PATRIKA *-* (M) (NEW LUSTER - 05)</t>
+  </si>
+  <si>
+    <t>5531 PATRIKA (DCU) (NEW LUSTER - 06)</t>
+  </si>
+  <si>
+    <t>5532 PATRIKA *-* (M) (NEW LUSTER - 07)</t>
+  </si>
+  <si>
+    <t>5533 PATRIKA *-* (M) (NEW LUSTER - 08)</t>
+  </si>
+  <si>
+    <t>5534 PATRIKA *-* (M) (NEW LUSTER - 09)</t>
+  </si>
+  <si>
+    <t>5535 PATRIKA (JC) *-* (M) (1007)</t>
+  </si>
+  <si>
+    <t>5537 PATRIKA (JC) (25-052)</t>
+  </si>
+  <si>
+    <t>5538 PATRIKA (JC) *-* (M) (7073)</t>
+  </si>
+  <si>
+    <t>5539 PATRIKA-B (2942-B)</t>
+  </si>
+  <si>
+    <t>5539 PATRIKA (JC) (2942)</t>
+  </si>
+  <si>
+    <t>5540 PATRIKA *-* (M) (S-96)</t>
+  </si>
+  <si>
+    <t>5541 PATRIKA (JC) (2101)</t>
+  </si>
+  <si>
+    <t>5542 PATRIKA (2261)</t>
+  </si>
+  <si>
+    <t>5543 PATRIKA (2353)</t>
+  </si>
+  <si>
+    <t>5544 PATRIKA *-* (M) (2732)</t>
+  </si>
+  <si>
+    <t>5545 PATRIKA *-* (M) (2791)</t>
+  </si>
+  <si>
+    <t>5546 PATRIKA (718)</t>
+  </si>
+  <si>
+    <t>5547 PATRIKA *-* (M) (S-32)</t>
+  </si>
+  <si>
+    <t>5548 PATRIKA (DCU) (2792)</t>
+  </si>
+  <si>
+    <t>5549 PATRIKA (5261 NICE)</t>
+  </si>
+  <si>
+    <t>5550 PATRIKA *-* (M) (5424)</t>
+  </si>
+  <si>
+    <t>5551 PATRIKA (5231)</t>
+  </si>
+  <si>
+    <t>5552 PATRIKA (JC) *-* (M) (S-163)</t>
+  </si>
+  <si>
+    <t>5553 PATRIKA *-* (M) (5004)</t>
+  </si>
+  <si>
+    <t>5554 PATRIKA *-* (F/G) (5379)</t>
+  </si>
+  <si>
+    <t>5555 PATRIKA (2903)</t>
+  </si>
+  <si>
+    <t>5556 PATRIKA *-* (M) (2952)</t>
+  </si>
+  <si>
+    <t>5557 PATRIKA (2312 SBC)</t>
+  </si>
+  <si>
+    <t>5558 PATRIKA *-* (M) (121 NEHA)</t>
+  </si>
+  <si>
+    <t>5559 PATRIKA (2293)</t>
+  </si>
+  <si>
+    <t>5560 PATRIKA (F/G) *-* (2915)</t>
+  </si>
+  <si>
+    <t>5561 PATRIKA *-* (M) (25358)</t>
+  </si>
+  <si>
+    <t>5562 PATRIKA *-* (M) (114-B (NEHA))</t>
+  </si>
+  <si>
+    <t>5563 PATRIKA (5387)</t>
+  </si>
+  <si>
+    <t>5564 PATRIKA (JC) *-* (M) (S-107)</t>
+  </si>
+  <si>
+    <t>5565 PATRIKA (175)</t>
+  </si>
+  <si>
+    <t>5566 PATRIKA *-* (M) (1742-B)</t>
+  </si>
+  <si>
+    <t>5567 PATRIKA (1679)</t>
+  </si>
+  <si>
+    <t>5568 PATRIKA *-* (M) (3002)</t>
+  </si>
+  <si>
+    <t>5569 PATRIKA *-* (M) (S-39)</t>
+  </si>
+  <si>
+    <t>5570 PATRIKA *-* (M) (S-74)</t>
+  </si>
+  <si>
+    <t>5571 PATRIKA *-* (M) (25353)</t>
+  </si>
+  <si>
+    <t>5572 PATRIKA *-* (M) (25351)</t>
+  </si>
+  <si>
+    <t>5573 PATRIKA (2205)</t>
+  </si>
+  <si>
+    <t>5574 PATRIKA (25335)</t>
+  </si>
+  <si>
+    <t>5575 PATRIKA *-* (M) (S-77)</t>
+  </si>
+  <si>
+    <t>5576 PATRIKA (2531)</t>
+  </si>
+  <si>
+    <t>5577 PATRIKA *-* (M) (5808)</t>
+  </si>
+  <si>
+    <t>5578 PATRIKA (JC) *-* (M) (AS-104 / S-50)</t>
+  </si>
+  <si>
+    <t>5579 PATRIKA (JC) *-* (M) (AS-102)</t>
+  </si>
+  <si>
+    <t>5580 PATRIKA (S-326)</t>
+  </si>
+  <si>
+    <t>5581 PATRIKA *-* (M) (3471)</t>
+  </si>
+  <si>
+    <t>5582 PATRIKA *-* (M) (3512 SBC)</t>
+  </si>
+  <si>
+    <t>5583 PATRIKA (3211 SBC)</t>
+  </si>
+  <si>
+    <t>5584 PATRIKA (JC) (2202 SBC)</t>
+  </si>
+  <si>
+    <t>5585 PATRIKA *-* (M) (1201 KBC)</t>
+  </si>
+  <si>
+    <t>5586 PATRIKA *-* (M) (S-51)</t>
+  </si>
+  <si>
+    <t>5587 PATRIKA (2264)</t>
+  </si>
+  <si>
+    <t>5588 PATRIKA (JC) *-* (M) (1006)</t>
+  </si>
+  <si>
+    <t>5589 PATRIKA *-* (M) (25133)</t>
+  </si>
+  <si>
+    <t>5590 PATRIKA (3131 SBC)</t>
+  </si>
+  <si>
+    <t>5591 PATRIKA (DCU) (3735 YLW)</t>
+  </si>
+  <si>
+    <t>5592 PATRIKA *-* (M) (2365)</t>
+  </si>
+  <si>
+    <t>5593 PATRIKA (2803)</t>
+  </si>
+  <si>
+    <t>5594 PATRIKA (JC) (2931)</t>
+  </si>
+  <si>
+    <t>5595 PATRIKA *-* (M) (226)</t>
+  </si>
+  <si>
+    <t>5596 PATRIKA *-* (M) (2541)</t>
+  </si>
+  <si>
+    <t>5597 PATRIKA (JC) *-* (M) (AS-104 (B))</t>
+  </si>
+  <si>
+    <t>5599 PATRIKA *-* (M) (77-B)</t>
+  </si>
+  <si>
+    <t>5600 PATRIKA (JC) (25324)</t>
+  </si>
+  <si>
+    <t>5601 PATRIKA (2771)</t>
+  </si>
+  <si>
+    <t>5602 PATRIKA (3271)</t>
+  </si>
+  <si>
+    <t>5603 PATRIKA *-* (M) (6125)</t>
+  </si>
+  <si>
+    <t>5604 PATRIKA (242-A)</t>
+  </si>
+  <si>
+    <t>5605 PATRIKA (JC) (3102)</t>
+  </si>
+  <si>
+    <t>5606 PATRIKA *-* (M) (221-A)</t>
+  </si>
+  <si>
+    <t>5607 PATRIKA (25442)</t>
+  </si>
+  <si>
+    <t>5608 PATRIKA (25440)</t>
+  </si>
+  <si>
+    <t>5609 PATRIKA (993)</t>
+  </si>
+  <si>
+    <t>5610 PATRIKA (JC) (2373)</t>
+  </si>
+  <si>
+    <t>5611 PATRIKA *-* (M) (1211)</t>
+  </si>
+  <si>
+    <t>5612 PATRIKA (DCU) (5276)</t>
+  </si>
+  <si>
+    <t>5613 PATRIKA (JC) (1841-A)</t>
+  </si>
+  <si>
+    <t>5614 PATRIKA *-* (M) (2331)</t>
+  </si>
+  <si>
+    <t>5615 PATRIKA (2111)</t>
+  </si>
+  <si>
+    <t>5616 PATRIKA (DCU) (7069)</t>
+  </si>
+  <si>
+    <t>5617 PATRIKA *-* (M) (7067)</t>
+  </si>
+  <si>
+    <t>5618 PATRIKA (JC) *-* (M) (S-52)</t>
+  </si>
+  <si>
+    <t>5619 PATRIKA (JC) (1131)</t>
+  </si>
+  <si>
+    <t>5620 PATRIKA (JC) (15)</t>
+  </si>
+  <si>
+    <t>5621 PATRIKA (JC) *-* (M) (5297)</t>
+  </si>
+  <si>
+    <t>5622 PATRIKA *-* (M) (25337)</t>
+  </si>
+  <si>
+    <t>5623 PATRIKA (064)</t>
+  </si>
+  <si>
+    <t>5624 PATRIKA (JC) (2753)</t>
+  </si>
+  <si>
+    <t>5625 PATRIKA (DCU) (772)</t>
+  </si>
+  <si>
+    <t>6601 PATRIKA (L) (5164)</t>
+  </si>
+  <si>
+    <t>6602 PATRIKA (5126)</t>
+  </si>
+  <si>
+    <t>6603 PATRIKA (5111)</t>
+  </si>
+  <si>
+    <t>6604 PATRIKA *-* (M) (5196)</t>
+  </si>
+  <si>
+    <t>6605 PATRIKA (5191)</t>
+  </si>
+  <si>
+    <t>6606 PATRIKA (*-*) R (3023)</t>
+  </si>
+  <si>
+    <t>6607 PATRIKA *-* (M) (0523)</t>
+  </si>
+  <si>
+    <t>6608 PATRIKA (95)</t>
+  </si>
+  <si>
+    <t>6609 PATRIKA *-* (M) (3053)</t>
+  </si>
+  <si>
+    <t>6610 PATRIKA *-* (M) (3019)</t>
+  </si>
+  <si>
+    <t>6611 PATRIKA (3017 VV)</t>
+  </si>
+  <si>
+    <t>6612 PATRIKA (3015)</t>
+  </si>
+  <si>
+    <t>6613 PATRIKA (25164)</t>
+  </si>
+  <si>
+    <t>6614 PATRIKA (DCU) (25131)</t>
+  </si>
+  <si>
+    <t>6615 PATRIKA *-* (M) (915 GAGAN)</t>
+  </si>
+  <si>
+    <t>6616 PATRIKA *-* (M) (911 GAGAN)</t>
+  </si>
+  <si>
+    <t>6617 PATRIKA *-* (M) (3422)</t>
+  </si>
+  <si>
+    <t>6618 PATRIKA *-* (M) (3423)</t>
+  </si>
+  <si>
+    <t>6619 PATRIKA *-* (M) (1193)</t>
+  </si>
+  <si>
+    <t>6620 PATRIKA *-* (M) (1045 GGN (PADDING))</t>
+  </si>
+  <si>
+    <t>6621 PATRIKA *-* (M) (7108 (PADDING))</t>
+  </si>
+  <si>
+    <t>6622 PATRIKA *-* (M) (7259 (PADDING))</t>
+  </si>
+  <si>
+    <t>6623 PATRIKA (25184)</t>
+  </si>
+  <si>
+    <t>6624 PATRIKA *-* (M) (25135)</t>
+  </si>
+  <si>
+    <t>6625 PATRIKA *-* (M) (25116)</t>
+  </si>
+  <si>
+    <t>6626 PATRIKA *-* (M) (25161)</t>
+  </si>
+  <si>
+    <t>6627 PATRIKA *-* (M) (25111)</t>
+  </si>
+  <si>
+    <t>6628 PATRIKA *-* (M) (805 SBC)</t>
+  </si>
+  <si>
+    <t>6629 PATRIKA *-* (M) (812 NEW SBC)</t>
+  </si>
+  <si>
+    <t>6630 PATRIKA *-* (M) (5510 NICE)</t>
+  </si>
+  <si>
+    <t>6631 PATRIKA (DCU) (OLD AP ITEM)</t>
+  </si>
+  <si>
+    <t>6632 PATRIKA (DCU) (932)</t>
+  </si>
+  <si>
+    <t>6633 PATRIKA *-* (M) (7081 VP)</t>
+  </si>
+  <si>
+    <t>6634 PATRIKA (3562)</t>
+  </si>
+  <si>
+    <t>6635 PATRIKA *-* (M) (S-313)</t>
+  </si>
+  <si>
+    <t>6636 PATRIKA *-* (M) (25183)</t>
+  </si>
+  <si>
+    <t>6637 PATRIKA (25162 GE)</t>
+  </si>
+  <si>
+    <t>6638 PATRIKA *-* (M) (3014)</t>
+  </si>
+  <si>
+    <t>6639 PATRIKA (2291)</t>
+  </si>
+  <si>
+    <t>6639 PATRIKA (B) (2291-B)</t>
+  </si>
+  <si>
+    <t>6640 PATRIKA *-* (M) (5737 PADING)</t>
+  </si>
+  <si>
+    <t>6641 PATRIKA *-* (M) (5435)</t>
+  </si>
+  <si>
+    <t>6642 PATRIKA *-* (M) (5411 RJ)</t>
+  </si>
+  <si>
+    <t>6643 PATRIKA *-* (M) (25380)</t>
+  </si>
+  <si>
+    <t>6644 PATRIKA (DCU) (25132)</t>
+  </si>
+  <si>
+    <t>6645 PATRIKA *-* (M) (3031)</t>
+  </si>
+  <si>
+    <t>6646 PATRIKA *-* (M) (3034)</t>
+  </si>
+  <si>
+    <t>6647 PATRIKA *-* (M) (25382)</t>
+  </si>
+  <si>
+    <t>6648 PATRIKA *-* (M) (5011 (PADDING))</t>
+  </si>
+  <si>
+    <t>6649 PATRIKA *-* (M) (3402)</t>
+  </si>
+  <si>
+    <t>6650 PATRIKA *-* (M) (3431)</t>
+  </si>
+  <si>
+    <t>6651 PATRIKA (3421)</t>
+  </si>
+  <si>
+    <t>6652 PATRIKA *-* (M) (2764 SBC)</t>
+  </si>
+  <si>
+    <t>6653 PATRIKA *-* (M) (834 SBC NEW)</t>
+  </si>
+  <si>
+    <t>6654 PATRIKA *-* (M) (3461)</t>
+  </si>
+  <si>
+    <t>6655 PATRIKA *-* (M) (7129 (PADDING))</t>
+  </si>
+  <si>
+    <t>6656 PATRIKA (L) (7113 (PADDING))</t>
+  </si>
+  <si>
+    <t>6657 PATRIKA *-* (M) (563  DHANESH)</t>
+  </si>
+  <si>
+    <t>6658 PATRIKA *-* (M) (5319)</t>
+  </si>
+  <si>
+    <t>6659 PATRIKA (25193 (Padding))</t>
+  </si>
+  <si>
+    <t>6660 PATRIKA (25194 (Padding))</t>
+  </si>
+  <si>
+    <t>6661 PATRIKA *-* (M) (1281)</t>
+  </si>
+  <si>
+    <t>6662 PATRIKA (3424)</t>
+  </si>
+  <si>
+    <t>6663 PATRIKA (7103 (PADDING))</t>
+  </si>
+  <si>
+    <t>6664 PATRIKA *-* (M) (5823)</t>
+  </si>
+  <si>
+    <t>6665 PATRIKA *-* (M) (603 DHANESH)</t>
+  </si>
+  <si>
+    <t>6666 PATRIKA *-* (M) (1192 KBC)</t>
+  </si>
+  <si>
+    <t>6667 PATRIKA *-* (M) (1192 SBC)</t>
+  </si>
+  <si>
+    <t>6668 PATRIKA (DCU) (8102)</t>
+  </si>
+  <si>
+    <t>6669 PATRIKA (DCU) (6197)</t>
+  </si>
+  <si>
+    <t>6670 PATRIKA - B (M) (1868-B)</t>
+  </si>
+  <si>
+    <t>6670 PATRIKA *-* (M) (1868)</t>
+  </si>
+  <si>
+    <t>6671 PATRIKA *-* (M) (1872)</t>
+  </si>
+  <si>
+    <t>6672 PATRIKA *-* (M) (6132)</t>
+  </si>
+  <si>
+    <t>6673 PATRIKA (DCU) (6196)</t>
+  </si>
+  <si>
+    <t>6674 PATRIKA (DCU) (1503)</t>
+  </si>
+  <si>
+    <t>6675 PATRIKA *-* (M) (1282)</t>
+  </si>
+  <si>
+    <t>6676 PATRIKA (DCU) (533 KBC)</t>
+  </si>
+  <si>
+    <t>6677 PATRIKA (DCU) (25191 PADDING)</t>
+  </si>
+  <si>
+    <t>7265 PATRIKA (O.C.) (133)</t>
+  </si>
+  <si>
+    <t>7283 PATRIKA {F} (O.C.) (4148)</t>
+  </si>
+  <si>
+    <t>7287 PATRIKA (O.C.) (1522)</t>
+  </si>
+  <si>
+    <t>7288 PATRIKA (O.C.) (1178)</t>
+  </si>
+  <si>
+    <t>7293 PATRIKA (O.C.) (AS-20)</t>
+  </si>
+  <si>
+    <t>7309 PATRIKA (O.C.) (4087)</t>
+  </si>
+  <si>
+    <t>7312 PATRIKA (O.C.) (SBC 7312)</t>
+  </si>
+  <si>
+    <t>7319 PATRIKA (O.C.) (2204)</t>
+  </si>
+  <si>
+    <t>7332 PATRIKA (O.C.) (2482)</t>
+  </si>
+  <si>
+    <t>7342 PATRIKA (O.C.) (12)</t>
+  </si>
+  <si>
+    <t>7344 PATRIKA (O.C.) (INV B.P. RED (11))</t>
+  </si>
+  <si>
+    <t>7345 PATRIKA (O.C.) (INV B.P. GOLDEN (120) 5)</t>
+  </si>
+  <si>
+    <t>7401 PATRIKA (25/252)</t>
+  </si>
+  <si>
+    <t>7402 PATRIKA (25/264-263)</t>
+  </si>
+  <si>
+    <t>7403 PATRIKA (25/363/863)</t>
+  </si>
+  <si>
+    <t>7404 PATRIKA (25/283)</t>
+  </si>
+  <si>
+    <t>7405 PATRIKA (25/273)</t>
+  </si>
+  <si>
+    <t>7406 PATRIKA (25/172)</t>
+  </si>
+  <si>
+    <t>7407 PATRIKA *-* (F) (7145 VP)</t>
+  </si>
+  <si>
+    <t>7408 PATRIKA (DCU) (25895)</t>
+  </si>
+  <si>
+    <t>7409 PATRIKA (2521)</t>
+  </si>
+  <si>
+    <t>7410 PATRIKA (2526)</t>
+  </si>
+  <si>
+    <t>7411 PATRIKA (2535)</t>
+  </si>
+  <si>
+    <t>7412 PATRIKA (Time Lagega) Select Another (84)</t>
+  </si>
+  <si>
+    <t>7413 PATRIKA (2543 INV OFFSET)</t>
+  </si>
+  <si>
+    <t>7414 PATRIKA (1015 GREEN OFFSET)</t>
+  </si>
+  <si>
+    <t>7415 PATRIKA *-* (F) (3162 SBC)</t>
+  </si>
+  <si>
+    <t>7416 PATRIKA (2234)</t>
+  </si>
+  <si>
+    <t>7417 PATRIKA (S-201 INV)</t>
+  </si>
+  <si>
+    <t>7418 PATRIKA *-* (डोरी) (1639)</t>
+  </si>
+  <si>
+    <t>7419 PATRIKA (5121)</t>
+  </si>
+  <si>
+    <t>7420 PATRIKA (720)</t>
+  </si>
+  <si>
+    <t>7421 PATRIKA *-* (F) (25-146)</t>
+  </si>
+  <si>
+    <t>7422 PATRIKA (3702)</t>
+  </si>
+  <si>
+    <t>7423 PATRIKA (254 SBC)</t>
+  </si>
+  <si>
+    <t>7424 PATRIKA *-* (F) (25-047)</t>
+  </si>
+  <si>
+    <t>7425 PATRIKA (2082)</t>
+  </si>
+  <si>
+    <t>7426 PATRIKA (F/G) *-* (4052)</t>
+  </si>
+  <si>
+    <t>7427 PATRIKA (2103)</t>
+  </si>
+  <si>
+    <t>7428 PATRIKA (1223 SBC)</t>
+  </si>
+  <si>
+    <t>7429 PATRIKA (F/G) *-* (1851 MONARCH)</t>
+  </si>
+  <si>
+    <t>7430 PATRIKA (6310 GE)</t>
+  </si>
+  <si>
+    <t>7431 PATRIKA (2532)</t>
+  </si>
+  <si>
+    <t>7432 PATRIKA (1174)</t>
+  </si>
+  <si>
+    <t>7433 PATRIKA (1034)</t>
+  </si>
+  <si>
+    <t>7434 PATRIKA (2204 INV)</t>
+  </si>
+  <si>
+    <t>7435 PATRIKA (06)</t>
+  </si>
+  <si>
+    <t>7436 PATRIKA (303)</t>
+  </si>
+  <si>
+    <t>7437 PATRIKA (25323 INV)</t>
+  </si>
+  <si>
+    <t>7438 PATRIKA (25413)</t>
+  </si>
+  <si>
+    <t>7439 PATRIKA (2597)</t>
+  </si>
+  <si>
+    <t>7440 PATRIKA (25896)</t>
+  </si>
+  <si>
+    <t>7441 PATRIKA *-* (F) (243-C)</t>
+  </si>
+  <si>
+    <t>7442 PATRIKA (1855)</t>
+  </si>
+  <si>
+    <t>7443 PATRIKA (1044 SBC)</t>
+  </si>
+  <si>
+    <t>7444 PATRIKA (2014)</t>
+  </si>
+  <si>
+    <t>7445 PATRIKA (2006)</t>
+  </si>
+  <si>
+    <t>7446 PATRIKA (DCU) (6106)</t>
+  </si>
+  <si>
+    <t>7447 PATRIKA (GOPAL 32)</t>
+  </si>
+  <si>
+    <t>7448 PATRIKA (2005- G)</t>
+  </si>
+  <si>
+    <t>7449 PATRIKA (5180)</t>
+  </si>
+  <si>
+    <t>7450 PATRIKA (DCU) (3753)</t>
+  </si>
+  <si>
+    <t>7451 PATRIKA (273 NEHA)</t>
+  </si>
+  <si>
+    <t>7452 PATRIKA (278-B)</t>
+  </si>
+  <si>
+    <t>7453 PATRIKA (ECO - 61) (NEW ECO 61)</t>
+  </si>
+  <si>
+    <t>7454 PATRIKA (ECO -63) (NEW ECO 63)</t>
+  </si>
+  <si>
+    <t>9001 CARD (O.C.) (2498 Cream)</t>
   </si>
   <si>
     <t>9221 CARDS - YELLOW</t>
@@ -1766,277 +1766,277 @@
     <t>9227 CARDS (9*5 OFFSET)</t>
   </si>
   <si>
-    <t>9228 CARDS (Y)</t>
-  </si>
-  <si>
-    <t>9229 CARDS - B (DCU)</t>
-  </si>
-  <si>
-    <t>9229 CARDS (C)</t>
+    <t>9228 CARDS (Y) (ORANGE WITH ONLY FOIL)</t>
+  </si>
+  <si>
+    <t>9229 CARDS - B (DCU) (GOLDEN WITH GANESH JI &amp; FOIL)</t>
+  </si>
+  <si>
+    <t>9229 CARDS (C) (CREAM WITH GANESH JI &amp; FOIL)</t>
   </si>
   <si>
     <t>9230 (CARD) 9*5 SCREEN</t>
   </si>
   <si>
-    <t>9231 CARDS (DCU)</t>
-  </si>
-  <si>
-    <t>9232 CARDS (DCU)</t>
-  </si>
-  <si>
-    <t>9233 CARDS (DCU)</t>
-  </si>
-  <si>
-    <t>9234 CARDS (DCU)</t>
-  </si>
-  <si>
-    <t>9235 CARDS (DCU)</t>
-  </si>
-  <si>
-    <t>9236 CARDS (DCU)</t>
-  </si>
-  <si>
-    <t>9237 CARDS (DCU)</t>
-  </si>
-  <si>
-    <t>9238 CARDS (DCU)</t>
-  </si>
-  <si>
-    <t>9301 CARDS</t>
-  </si>
-  <si>
-    <t>9302 CARDS</t>
-  </si>
-  <si>
-    <t>9303 CARDS</t>
-  </si>
-  <si>
-    <t>9304 CARDS</t>
-  </si>
-  <si>
-    <t>9305 CARDS (9070)</t>
-  </si>
-  <si>
-    <t>9306 CARDS</t>
-  </si>
-  <si>
-    <t>9307 CARDS *-* (M)</t>
-  </si>
-  <si>
-    <t>9308 CARDS</t>
-  </si>
-  <si>
-    <t>9309 CARDS *-* (T)</t>
-  </si>
-  <si>
-    <t>9310 CARDS</t>
-  </si>
-  <si>
-    <t>9311 CARDS</t>
-  </si>
-  <si>
-    <t>9312 CARDS *-* (T)</t>
-  </si>
-  <si>
-    <t>9313 CARDS *-* (T)</t>
-  </si>
-  <si>
-    <t>9314 CARDS</t>
-  </si>
-  <si>
-    <t>9315 CARDS (DCU)</t>
-  </si>
-  <si>
-    <t>9316 CARDS (DCU)</t>
-  </si>
-  <si>
-    <t>9317 CARDS</t>
-  </si>
-  <si>
-    <t>9318 CARDS</t>
-  </si>
-  <si>
-    <t>9319 CARDS</t>
-  </si>
-  <si>
-    <t>9320 CARDS</t>
-  </si>
-  <si>
-    <t>9321 CARDS</t>
-  </si>
-  <si>
-    <t>9322 CARDS *-* (M)</t>
-  </si>
-  <si>
-    <t>9323 CARDS (9005 OLD)</t>
-  </si>
-  <si>
-    <t>9324 CARDS</t>
-  </si>
-  <si>
-    <t>9325 CARDS</t>
-  </si>
-  <si>
-    <t>9326 CARDS</t>
-  </si>
-  <si>
-    <t>9327 CARDS</t>
-  </si>
-  <si>
-    <t>9328 CARDS</t>
-  </si>
-  <si>
-    <t>9329 CARDS (Desgin H/d)</t>
-  </si>
-  <si>
-    <t>9330 CARDS *-* (T)</t>
-  </si>
-  <si>
-    <t>9331 CARDS *-*  (T)</t>
-  </si>
-  <si>
-    <t>9332 CARDS</t>
-  </si>
-  <si>
-    <t>9333 CARDS</t>
-  </si>
-  <si>
-    <t>9334 CARDS</t>
-  </si>
-  <si>
-    <t>9335 CARDS (9003 OLD)</t>
-  </si>
-  <si>
-    <t>9336 CARDS</t>
-  </si>
-  <si>
-    <t>9337 CARDS</t>
-  </si>
-  <si>
-    <t>9338 CARDS</t>
-  </si>
-  <si>
-    <t>9339 CARDS</t>
-  </si>
-  <si>
-    <t>9340 CARDS</t>
-  </si>
-  <si>
-    <t>9341 CARDS</t>
-  </si>
-  <si>
-    <t>9342 CARDS</t>
-  </si>
-  <si>
-    <t>9343 CARDS</t>
-  </si>
-  <si>
-    <t>9344 CARDS</t>
-  </si>
-  <si>
-    <t>9345 CARDS</t>
-  </si>
-  <si>
-    <t>9346 CARDS</t>
-  </si>
-  <si>
-    <t>9347 CARDS</t>
-  </si>
-  <si>
-    <t>9348 CARDS *-* (डोरी)</t>
-  </si>
-  <si>
-    <t>9349 CARDS (W/o Window)</t>
-  </si>
-  <si>
-    <t>9350 CARDS *-* (T)</t>
-  </si>
-  <si>
-    <t>9351 Card - B</t>
-  </si>
-  <si>
-    <t>9351 CARDS *-* (T)</t>
-  </si>
-  <si>
-    <t>9352 CARDS *-* (T)</t>
-  </si>
-  <si>
-    <t>9353 CARDS</t>
-  </si>
-  <si>
-    <t>9354 CARDS (DCU)</t>
-  </si>
-  <si>
-    <t>9355 CARDS</t>
-  </si>
-  <si>
-    <t>9356 CARDS</t>
-  </si>
-  <si>
-    <t>9357 CARDS</t>
-  </si>
-  <si>
-    <t>9358 CARDS</t>
-  </si>
-  <si>
-    <t>9359 CARDS</t>
-  </si>
-  <si>
-    <t>9360 CARDS *-* (M)</t>
-  </si>
-  <si>
-    <t>9361 CARDS</t>
-  </si>
-  <si>
-    <t>9362 CARDS</t>
-  </si>
-  <si>
-    <t>9363 CARDS *-* (T)</t>
-  </si>
-  <si>
-    <t>9364 CARDS *-* (T)</t>
-  </si>
-  <si>
-    <t>9365 CARDS</t>
-  </si>
-  <si>
-    <t>9366 CARDS</t>
-  </si>
-  <si>
-    <t>9367 CARDS</t>
-  </si>
-  <si>
-    <t>9368 CARDS</t>
-  </si>
-  <si>
-    <t>9369 CARDS</t>
-  </si>
-  <si>
-    <t>9370 CARDS</t>
-  </si>
-  <si>
-    <t>9371 CARDS</t>
-  </si>
-  <si>
-    <t>9372 CARDS</t>
-  </si>
-  <si>
-    <t>9373 CARDS</t>
-  </si>
-  <si>
-    <t>9374 CARDS</t>
-  </si>
-  <si>
-    <t>9375 CARDS</t>
-  </si>
-  <si>
-    <t>9376 CARDS</t>
-  </si>
-  <si>
-    <t>9377 CARDS (DCU)</t>
-  </si>
-  <si>
-    <t>9378 CARDS</t>
+    <t>9231 CARDS (DCU) (RIYAZ 9*5 PINK)</t>
+  </si>
+  <si>
+    <t>9232 CARDS (DCU) (RIYAZ 9*5 CREAM)</t>
+  </si>
+  <si>
+    <t>9233 CARDS (DCU) (RIYAZ 9*5 YELLOW)</t>
+  </si>
+  <si>
+    <t>9234 CARDS (DCU) (RIYAZ 9*4 PINK)</t>
+  </si>
+  <si>
+    <t>9235 CARDS (DCU) (RIYAZ 9*4 CREAM)</t>
+  </si>
+  <si>
+    <t>9236 CARDS (DCU) (RIYAZ 9*4 YELLOW)</t>
+  </si>
+  <si>
+    <t>9237 CARDS (DCU) (DCU 9*4 RED)</t>
+  </si>
+  <si>
+    <t>9238 CARDS (DCU) (9*5 RED DCU)</t>
+  </si>
+  <si>
+    <t>9301 CARDS (4242)</t>
+  </si>
+  <si>
+    <t>9302 CARDS (5076)</t>
+  </si>
+  <si>
+    <t>9303 CARDS (5080 Pink)</t>
+  </si>
+  <si>
+    <t>9304 CARDS (5083 Blue)</t>
+  </si>
+  <si>
+    <t>9305 CARDS (9070) (4701 Nice)</t>
+  </si>
+  <si>
+    <t>9306 CARDS (0543 Nice)</t>
+  </si>
+  <si>
+    <t>9307 CARDS *-* (M) (5243 Nice)</t>
+  </si>
+  <si>
+    <t>9308 CARDS (9852)</t>
+  </si>
+  <si>
+    <t>9309 CARDS *-* (T) (9561 Vp)</t>
+  </si>
+  <si>
+    <t>9310 CARDS (3103)</t>
+  </si>
+  <si>
+    <t>9311 CARDS (3115)</t>
+  </si>
+  <si>
+    <t>9312 CARDS *-* (T) (208 VV)</t>
+  </si>
+  <si>
+    <t>9313 CARDS *-* (T) (216)</t>
+  </si>
+  <si>
+    <t>9314 CARDS (P-1)</t>
+  </si>
+  <si>
+    <t>9315 CARDS (DCU) (P-2)</t>
+  </si>
+  <si>
+    <t>9316 CARDS (DCU) (P-3)</t>
+  </si>
+  <si>
+    <t>9317 CARDS (P-4)</t>
+  </si>
+  <si>
+    <t>9318 CARDS (25905)</t>
+  </si>
+  <si>
+    <t>9319 CARDS (25906)</t>
+  </si>
+  <si>
+    <t>9320 CARDS (S-20)</t>
+  </si>
+  <si>
+    <t>9321 CARDS (22912 GANESH JI)</t>
+  </si>
+  <si>
+    <t>9322 CARDS *-* (M) (22912 COMMON)</t>
+  </si>
+  <si>
+    <t>9323 CARDS (9005 OLD) (9*5 CREAM FOIL NEW)</t>
+  </si>
+  <si>
+    <t>9324 CARDS (9*5 PINK FOIL NEW)</t>
+  </si>
+  <si>
+    <t>9325 CARDS (5229)</t>
+  </si>
+  <si>
+    <t>9326 CARDS (1601)</t>
+  </si>
+  <si>
+    <t>9327 CARDS (25908)</t>
+  </si>
+  <si>
+    <t>9328 CARDS (2543)</t>
+  </si>
+  <si>
+    <t>9329 CARDS (Desgin H/d) (3606)</t>
+  </si>
+  <si>
+    <t>9330 CARDS *-* (T) (9557)</t>
+  </si>
+  <si>
+    <t>9331 CARDS *-*  (T) (9560)</t>
+  </si>
+  <si>
+    <t>9332 CARDS (9847)</t>
+  </si>
+  <si>
+    <t>9333 CARDS (6042)</t>
+  </si>
+  <si>
+    <t>9334 CARDS (10X6 WHITE (2898))</t>
+  </si>
+  <si>
+    <t>9335 CARDS (9003 OLD) (9*5 WHITE)</t>
+  </si>
+  <si>
+    <t>9336 CARDS (2884)</t>
+  </si>
+  <si>
+    <t>9337 CARDS (1635 AP)</t>
+  </si>
+  <si>
+    <t>9338 CARDS (1637 AP)</t>
+  </si>
+  <si>
+    <t>9339 CARDS (5361)</t>
+  </si>
+  <si>
+    <t>9340 CARDS (5658)</t>
+  </si>
+  <si>
+    <t>9341 CARDS (5497)</t>
+  </si>
+  <si>
+    <t>9342 CARDS (2861)</t>
+  </si>
+  <si>
+    <t>9343 CARDS (9*5 WHTE GE HEAVY)</t>
+  </si>
+  <si>
+    <t>9344 CARDS (689)</t>
+  </si>
+  <si>
+    <t>9345 CARDS (358 KALYANI)</t>
+  </si>
+  <si>
+    <t>9346 CARDS (359)</t>
+  </si>
+  <si>
+    <t>9347 CARDS (2853)</t>
+  </si>
+  <si>
+    <t>9348 CARDS *-* (डोरी) (S-124)</t>
+  </si>
+  <si>
+    <t>9349 CARDS (W/o Window) (S-120)</t>
+  </si>
+  <si>
+    <t>9350 CARDS *-* (T) (1632)</t>
+  </si>
+  <si>
+    <t>9351 Card - B (1603 B)</t>
+  </si>
+  <si>
+    <t>9351 CARDS *-* (T) (1603)</t>
+  </si>
+  <si>
+    <t>9352 CARDS *-* (T) (1606 AP)</t>
+  </si>
+  <si>
+    <t>9353 CARDS (1618)</t>
+  </si>
+  <si>
+    <t>9354 CARDS (DCU) (345)</t>
+  </si>
+  <si>
+    <t>9355 CARDS (1624)</t>
+  </si>
+  <si>
+    <t>9356 CARDS (2895/2897)</t>
+  </si>
+  <si>
+    <t>9357 CARDS (2872)</t>
+  </si>
+  <si>
+    <t>9358 CARDS (WHITE PATTA)</t>
+  </si>
+  <si>
+    <t>9359 CARDS (PITCH PATTA)</t>
+  </si>
+  <si>
+    <t>9360 CARDS *-* (M) (GOL ANDA)</t>
+  </si>
+  <si>
+    <t>9361 CARDS (25426)</t>
+  </si>
+  <si>
+    <t>9362 CARDS (363)</t>
+  </si>
+  <si>
+    <t>9363 CARDS *-* (T) (1652)</t>
+  </si>
+  <si>
+    <t>9364 CARDS *-* (T) (1612)</t>
+  </si>
+  <si>
+    <t>9365 CARDS (25429)</t>
+  </si>
+  <si>
+    <t>9366 CARDS (25427 GOLDEN)</t>
+  </si>
+  <si>
+    <t>9367 CARDS (5652)</t>
+  </si>
+  <si>
+    <t>9368 CARDS (9*5 SET 25/26 GOLDEN (25425))</t>
+  </si>
+  <si>
+    <t>9369 CARDS (9*5 SET 25/26 YELLOW (25424))</t>
+  </si>
+  <si>
+    <t>9370 CARDS (9*5 SET 25/26 RED (25423))</t>
+  </si>
+  <si>
+    <t>9371 CARDS (3111 VP)</t>
+  </si>
+  <si>
+    <t>9372 CARDS (9*5 YLW SET (2841))</t>
+  </si>
+  <si>
+    <t>9373 CARDS (1482)</t>
+  </si>
+  <si>
+    <t>9374 CARDS (1485)</t>
+  </si>
+  <si>
+    <t>9375 CARDS (1452 WHITE)</t>
+  </si>
+  <si>
+    <t>9376 CARDS (1529 PRINCE)</t>
+  </si>
+  <si>
+    <t>9377 CARDS (DCU) (9*5 SET GREEN (009))</t>
+  </si>
+  <si>
+    <t>9378 CARDS (2892)</t>
   </si>
   <si>
     <t>9379 CARDS - R</t>
@@ -2069,19 +2069,19 @@
     <t>9388 CARDS (DCU)</t>
   </si>
   <si>
-    <t>9389 CARDS</t>
-  </si>
-  <si>
-    <t>9390 CARDS (DCU)</t>
+    <t>9389 CARDS (9147 RJ)</t>
+  </si>
+  <si>
+    <t>9390 CARDS (DCU) (118KBC)</t>
   </si>
   <si>
     <t>9391 CARDS</t>
   </si>
   <si>
-    <t>9*4 ENVELOPE (SBC)</t>
-  </si>
-  <si>
-    <t>9*5 ENVELOPE (FOIL) SBC</t>
+    <t>9*4 ENVELOPE (SBC) (CHOTA ENVELOPE (60/40 BILL))</t>
+  </si>
+  <si>
+    <t>9*5 ENVELOPE (FOIL) SBC (BADA ENVLP WITH FOIL (60/40 BILL))</t>
   </si>
   <si>
     <t>ACRYLIC NAME PLATE</t>
@@ -2093,7 +2093,7 @@
     <t>DEV SAMPLE SET</t>
   </si>
   <si>
-    <t>FANCY GIFT ENVELOPE-(SR)</t>
+    <t>FANCY GIFT ENVELOPE-(SR) (SR ENVELOPES)</t>
   </si>
   <si>
     <t>FANCY SAMPLE SET</t>
@@ -2114,34 +2114,34 @@
     <t>RIBBON (रिबीन)</t>
   </si>
   <si>
-    <t>RX-01 ENVELOPE</t>
-  </si>
-  <si>
-    <t>RX-02 ENVELOPE</t>
-  </si>
-  <si>
-    <t>RX-03 ENVELOPE</t>
-  </si>
-  <si>
-    <t>RX-04 ENVELOPE</t>
-  </si>
-  <si>
-    <t>RX-05 ENVELOPE</t>
-  </si>
-  <si>
-    <t>RX-06 ENVELOPE</t>
-  </si>
-  <si>
-    <t>RX-07 ENVELOPE</t>
-  </si>
-  <si>
-    <t>RX-08 ENVELOPE</t>
-  </si>
-  <si>
-    <t>RX-09 ENVELOPE</t>
-  </si>
-  <si>
-    <t>गोल गणेश / गोल फ्लावर</t>
+    <t>RX-01 ENVELOPE (LX01)</t>
+  </si>
+  <si>
+    <t>RX-02 ENVELOPE (LX02)</t>
+  </si>
+  <si>
+    <t>RX-03 ENVELOPE (LX03)</t>
+  </si>
+  <si>
+    <t>RX-04 ENVELOPE (LX04)</t>
+  </si>
+  <si>
+    <t>RX-05 ENVELOPE (LX05)</t>
+  </si>
+  <si>
+    <t>RX-06 ENVELOPE (LX06)</t>
+  </si>
+  <si>
+    <t>RX-07 ENVELOPE (LX07)</t>
+  </si>
+  <si>
+    <t>RX-08 ENVELOPE (LX08)</t>
+  </si>
+  <si>
+    <t>RX-09 ENVELOPE (LX09)</t>
+  </si>
+  <si>
+    <t>गोल गणेश / गोल फ्लावर (GOL GANESH OR GOL FLOWER)</t>
   </si>
   <si>
     <t>Grand Total</t>
@@ -2674,7 +2674,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
@@ -3449,16 +3449,16 @@
         <v>53</v>
       </c>
       <c r="B50" s="24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C50" s="25">
-        <v>156</v>
+        <v>152.5</v>
       </c>
       <c r="D50" s="26">
         <v>1.8</v>
       </c>
       <c r="E50" s="27">
-        <v>280.8</v>
+        <v>274.5</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -3764,16 +3764,16 @@
         <v>72</v>
       </c>
       <c r="B69" s="24">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C69" s="25">
-        <v>293.5</v>
+        <v>286.5</v>
       </c>
       <c r="D69" s="26">
         <v>1.4</v>
       </c>
       <c r="E69" s="27">
-        <v>410.9</v>
+        <v>401.1</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -3849,16 +3849,16 @@
         <v>77</v>
       </c>
       <c r="B74" s="24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C74" s="25">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D74" s="26">
         <v>1.2</v>
       </c>
       <c r="E74" s="27">
-        <v>794.4</v>
+        <v>789.6</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -4474,10 +4474,10 @@
         <v>118</v>
       </c>
       <c r="B115" s="24">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C115" s="25">
-        <v>-0.23</v>
+        <v>-0.27</v>
       </c>
       <c r="D115" s="29"/>
       <c r="E115" s="28"/>
@@ -4509,10 +4509,10 @@
         <v>121</v>
       </c>
       <c r="B118" s="24">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C118" s="25">
-        <v>-1.51</v>
+        <v>-1.56</v>
       </c>
       <c r="D118" s="29"/>
       <c r="E118" s="28"/>
@@ -4522,10 +4522,10 @@
         <v>122</v>
       </c>
       <c r="B119" s="24">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C119" s="25">
-        <v>-2.17</v>
+        <v>-2.1800000000000002</v>
       </c>
       <c r="D119" s="29"/>
       <c r="E119" s="28"/>
@@ -4535,10 +4535,10 @@
         <v>123</v>
       </c>
       <c r="B120" s="24">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C120" s="25">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="D120" s="29"/>
       <c r="E120" s="28"/>
@@ -4802,16 +4802,16 @@
         <v>140</v>
       </c>
       <c r="B137" s="24">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C137" s="25">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="D137" s="26">
         <v>18.5</v>
       </c>
       <c r="E137" s="27">
-        <v>203.5</v>
+        <v>138.75</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -6369,16 +6369,16 @@
         <v>237</v>
       </c>
       <c r="B234" s="24">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C234" s="25">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="D234" s="26">
         <v>8.25</v>
       </c>
       <c r="E234" s="27">
-        <v>115.5</v>
+        <v>103.13</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
@@ -10950,16 +10950,16 @@
         <v>516</v>
       </c>
       <c r="B513" s="24">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C513" s="25">
-        <v>153.5</v>
+        <v>148.5</v>
       </c>
       <c r="D513" s="26">
         <v>1.4</v>
       </c>
       <c r="E513" s="27">
-        <v>214.9</v>
+        <v>207.9</v>
       </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.25">
@@ -11280,16 +11280,16 @@
         <v>536</v>
       </c>
       <c r="B533" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C533" s="25">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D533" s="26">
         <v>6.5</v>
       </c>
       <c r="E533" s="27">
-        <v>123.5</v>
+        <v>104</v>
       </c>
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.25">
@@ -11348,16 +11348,16 @@
         <v>540</v>
       </c>
       <c r="B537" s="24">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C537" s="25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D537" s="26">
         <v>4.75</v>
       </c>
       <c r="E537" s="27">
-        <v>28.5</v>
+        <v>23.75</v>
       </c>
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.25">
@@ -13769,10 +13769,10 @@
         <v>691</v>
       </c>
       <c r="B688" s="24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C688" s="25">
-        <v>-90</v>
+        <v>-102</v>
       </c>
       <c r="D688" s="29"/>
       <c r="E688" s="28"/>
@@ -14005,11 +14005,11 @@
       </c>
       <c r="B703" s="31"/>
       <c r="C703" s="32">
-        <v>38841.699999999997</v>
+        <v>38801.089999999997</v>
       </c>
       <c r="D703" s="33"/>
       <c r="E703" s="34">
-        <v>107132.61</v>
+        <v>107003.34</v>
       </c>
     </row>
   </sheetData>

--- a/data/website stock.xlsx
+++ b/data/website stock.xlsx
@@ -434,7 +434,7 @@
     <t>2108 PATRIKA *-* (M) (LUXYA - 59)</t>
   </si>
   <si>
-    <t>2109 PATRIKA (L) (LUXYA - 60)</t>
+    <t>2109 PATRIKA (L) 150 Hai 4/12 (LUXYA - 60)</t>
   </si>
   <si>
     <t>2110 PATRIKA (LUXYA - 61)</t>
@@ -2898,16 +2898,16 @@
         <v>20</v>
       </c>
       <c r="B17" s="24">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C17" s="25">
-        <v>238</v>
+        <v>237.5</v>
       </c>
       <c r="D17" s="26">
         <v>2.1</v>
       </c>
       <c r="E17" s="27">
-        <v>499.8</v>
+        <v>498.75</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -3017,16 +3017,16 @@
         <v>27</v>
       </c>
       <c r="B24" s="24">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C24" s="25">
-        <v>90.5</v>
+        <v>88.5</v>
       </c>
       <c r="D24" s="26">
         <v>1.65</v>
       </c>
       <c r="E24" s="27">
-        <v>149.33000000000001</v>
+        <v>146.03</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -3136,16 +3136,16 @@
         <v>34</v>
       </c>
       <c r="B31" s="24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C31" s="25">
-        <v>71.5</v>
+        <v>69.5</v>
       </c>
       <c r="D31" s="26">
         <v>2.8</v>
       </c>
       <c r="E31" s="27">
-        <v>200.2</v>
+        <v>194.6</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -3415,16 +3415,16 @@
         <v>51</v>
       </c>
       <c r="B48" s="24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" s="25">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D48" s="26">
         <v>1.4</v>
       </c>
       <c r="E48" s="27">
-        <v>217</v>
+        <v>203</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -3764,16 +3764,16 @@
         <v>72</v>
       </c>
       <c r="B69" s="24">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C69" s="25">
-        <v>286.5</v>
+        <v>284.5</v>
       </c>
       <c r="D69" s="26">
         <v>1.4</v>
       </c>
       <c r="E69" s="27">
-        <v>401.1</v>
+        <v>398.3</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -3781,16 +3781,16 @@
         <v>73</v>
       </c>
       <c r="B70" s="24">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C70" s="25">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D70" s="26">
         <v>1.4</v>
       </c>
       <c r="E70" s="27">
-        <v>414.4</v>
+        <v>411.6</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -3798,16 +3798,16 @@
         <v>74</v>
       </c>
       <c r="B71" s="24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C71" s="25">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D71" s="26">
         <v>1.4</v>
       </c>
       <c r="E71" s="27">
-        <v>555.79999999999995</v>
+        <v>553</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -3832,16 +3832,16 @@
         <v>76</v>
       </c>
       <c r="B73" s="24">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C73" s="25">
-        <v>641.5</v>
+        <v>601.5</v>
       </c>
       <c r="D73" s="26">
         <v>1.2</v>
       </c>
       <c r="E73" s="27">
-        <v>769.8</v>
+        <v>721.8</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -3849,16 +3849,16 @@
         <v>77</v>
       </c>
       <c r="B74" s="24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C74" s="25">
-        <v>658</v>
+        <v>638</v>
       </c>
       <c r="D74" s="26">
         <v>1.2</v>
       </c>
       <c r="E74" s="27">
-        <v>789.6</v>
+        <v>765.6</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -3866,16 +3866,16 @@
         <v>78</v>
       </c>
       <c r="B75" s="24">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C75" s="25">
-        <v>690</v>
+        <v>668</v>
       </c>
       <c r="D75" s="26">
         <v>1.2</v>
       </c>
       <c r="E75" s="27">
-        <v>828</v>
+        <v>801.6</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -3898,16 +3898,16 @@
         <v>80</v>
       </c>
       <c r="B77" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C77" s="25">
-        <v>701</v>
+        <v>681</v>
       </c>
       <c r="D77" s="26">
         <v>1.2</v>
       </c>
       <c r="E77" s="27">
-        <v>841.2</v>
+        <v>817.2</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -3915,16 +3915,16 @@
         <v>81</v>
       </c>
       <c r="B78" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C78" s="25">
-        <v>710</v>
+        <v>690</v>
       </c>
       <c r="D78" s="26">
         <v>1.2</v>
       </c>
       <c r="E78" s="27">
-        <v>852</v>
+        <v>828</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -3932,16 +3932,16 @@
         <v>82</v>
       </c>
       <c r="B79" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C79" s="25">
-        <v>689</v>
+        <v>669</v>
       </c>
       <c r="D79" s="26">
         <v>1.2</v>
       </c>
       <c r="E79" s="27">
-        <v>826.8</v>
+        <v>802.8</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -3949,16 +3949,16 @@
         <v>83</v>
       </c>
       <c r="B80" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C80" s="25">
-        <v>690</v>
+        <v>670</v>
       </c>
       <c r="D80" s="26">
         <v>1.2</v>
       </c>
       <c r="E80" s="27">
-        <v>828</v>
+        <v>804</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -3966,16 +3966,16 @@
         <v>84</v>
       </c>
       <c r="B81" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C81" s="25">
-        <v>694</v>
+        <v>674</v>
       </c>
       <c r="D81" s="26">
         <v>1.2</v>
       </c>
       <c r="E81" s="27">
-        <v>832.8</v>
+        <v>808.8</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -3983,16 +3983,16 @@
         <v>85</v>
       </c>
       <c r="B82" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C82" s="25">
-        <v>704</v>
+        <v>684</v>
       </c>
       <c r="D82" s="26">
         <v>1.2</v>
       </c>
       <c r="E82" s="27">
-        <v>844.8</v>
+        <v>820.8</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -4000,16 +4000,16 @@
         <v>86</v>
       </c>
       <c r="B83" s="24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C83" s="25">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D83" s="26">
         <v>1.3</v>
       </c>
       <c r="E83" s="27">
-        <v>217.1</v>
+        <v>214.5</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -4170,10 +4170,10 @@
         <v>96</v>
       </c>
       <c r="B93" s="24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" s="25">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="D93" s="29"/>
       <c r="E93" s="28"/>
@@ -4196,10 +4196,10 @@
         <v>98</v>
       </c>
       <c r="B95" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C95" s="25">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="D95" s="29"/>
       <c r="E95" s="28"/>
@@ -4509,10 +4509,10 @@
         <v>121</v>
       </c>
       <c r="B118" s="24">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C118" s="25">
-        <v>-1.56</v>
+        <v>-1.61</v>
       </c>
       <c r="D118" s="29"/>
       <c r="E118" s="28"/>
@@ -4522,10 +4522,10 @@
         <v>122</v>
       </c>
       <c r="B119" s="24">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C119" s="25">
-        <v>-2.1800000000000002</v>
+        <v>-2.27</v>
       </c>
       <c r="D119" s="29"/>
       <c r="E119" s="28"/>
@@ -4617,16 +4617,16 @@
         <v>129</v>
       </c>
       <c r="B126" s="24">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C126" s="25">
-        <v>21.5</v>
+        <v>19.5</v>
       </c>
       <c r="D126" s="26">
         <v>12.5</v>
       </c>
       <c r="E126" s="27">
-        <v>268.75</v>
+        <v>243.75</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -4685,16 +4685,16 @@
         <v>133</v>
       </c>
       <c r="B130" s="24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C130" s="25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D130" s="26">
         <v>12.5</v>
       </c>
       <c r="E130" s="27">
-        <v>87.5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -4739,13 +4739,13 @@
         <v>13</v>
       </c>
       <c r="C133" s="25">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="D133" s="26">
         <v>13.07</v>
       </c>
       <c r="E133" s="27">
-        <v>71.89</v>
+        <v>52.29</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -4938,16 +4938,16 @@
         <v>148</v>
       </c>
       <c r="B145" s="24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C145" s="25">
-        <v>21.5</v>
+        <v>20.5</v>
       </c>
       <c r="D145" s="26">
         <v>18.5</v>
       </c>
       <c r="E145" s="27">
-        <v>397.75</v>
+        <v>379.25</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -5471,16 +5471,16 @@
         <v>181</v>
       </c>
       <c r="B178" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C178" s="25">
-        <v>33.5</v>
+        <v>31</v>
       </c>
       <c r="D178" s="26">
         <v>3.56</v>
       </c>
       <c r="E178" s="27">
-        <v>119.26</v>
+        <v>110.36</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -5650,16 +5650,16 @@
         <v>192</v>
       </c>
       <c r="B189" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C189" s="25">
-        <v>25.5</v>
+        <v>24.5</v>
       </c>
       <c r="D189" s="26">
         <v>4.5</v>
       </c>
       <c r="E189" s="27">
-        <v>114.75</v>
+        <v>110.25</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -5684,16 +5684,16 @@
         <v>194</v>
       </c>
       <c r="B191" s="24">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C191" s="25">
-        <v>47.5</v>
+        <v>46</v>
       </c>
       <c r="D191" s="26">
         <v>4.5</v>
       </c>
       <c r="E191" s="27">
-        <v>213.75</v>
+        <v>207</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -5814,16 +5814,16 @@
         <v>202</v>
       </c>
       <c r="B199" s="24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C199" s="25">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D199" s="26">
         <v>2.6</v>
       </c>
       <c r="E199" s="27">
-        <v>150.80000000000001</v>
+        <v>140.4</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
@@ -5927,16 +5927,16 @@
         <v>209</v>
       </c>
       <c r="B206" s="24">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C206" s="25">
-        <v>192.5</v>
+        <v>190.5</v>
       </c>
       <c r="D206" s="26">
         <v>2.7</v>
       </c>
       <c r="E206" s="27">
-        <v>519.75</v>
+        <v>514.35</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
@@ -6012,16 +6012,16 @@
         <v>214</v>
       </c>
       <c r="B211" s="24">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C211" s="25">
-        <v>157.5</v>
+        <v>152</v>
       </c>
       <c r="D211" s="26">
         <v>3.93</v>
       </c>
       <c r="E211" s="27">
-        <v>618.20000000000005</v>
+        <v>596.61</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -6063,16 +6063,16 @@
         <v>217</v>
       </c>
       <c r="B214" s="24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C214" s="25">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D214" s="26">
         <v>2.7</v>
       </c>
       <c r="E214" s="27">
-        <v>137.69999999999999</v>
+        <v>124.2</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -6080,16 +6080,16 @@
         <v>218</v>
       </c>
       <c r="B215" s="24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C215" s="25">
-        <v>58.72</v>
+        <v>56.72</v>
       </c>
       <c r="D215" s="26">
         <v>3.16</v>
       </c>
       <c r="E215" s="27">
-        <v>185.56</v>
+        <v>179.24</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
@@ -6795,16 +6795,16 @@
         <v>263</v>
       </c>
       <c r="B260" s="24">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C260" s="25">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D260" s="26">
         <v>3.1</v>
       </c>
       <c r="E260" s="27">
-        <v>120.9</v>
+        <v>111.6</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
@@ -6840,16 +6840,16 @@
         <v>266</v>
       </c>
       <c r="B263" s="24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C263" s="25">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D263" s="26">
         <v>6.25</v>
       </c>
       <c r="E263" s="27">
-        <v>187.5</v>
+        <v>175</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
@@ -7334,16 +7334,16 @@
         <v>296</v>
       </c>
       <c r="B293" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C293" s="25">
-        <v>35</v>
+        <v>33.5</v>
       </c>
       <c r="D293" s="26">
         <v>4.5</v>
       </c>
       <c r="E293" s="27">
-        <v>157.5</v>
+        <v>150.75</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
@@ -7888,16 +7888,16 @@
         <v>330</v>
       </c>
       <c r="B327" s="24">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C327" s="25">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D327" s="26">
         <v>9</v>
       </c>
       <c r="E327" s="27">
-        <v>252</v>
+        <v>207</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
@@ -7922,16 +7922,16 @@
         <v>332</v>
       </c>
       <c r="B329" s="24">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C329" s="25">
-        <v>63.5</v>
+        <v>59.5</v>
       </c>
       <c r="D329" s="26">
         <v>9</v>
       </c>
       <c r="E329" s="27">
-        <v>571.5</v>
+        <v>535.5</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
@@ -8386,16 +8386,16 @@
         <v>360</v>
       </c>
       <c r="B357" s="24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C357" s="25">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D357" s="26">
         <v>7.2</v>
       </c>
       <c r="E357" s="27">
-        <v>165.6</v>
+        <v>151.19999999999999</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
@@ -9242,16 +9242,16 @@
         <v>412</v>
       </c>
       <c r="B409" s="24">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C409" s="25">
-        <v>103.5</v>
+        <v>102.5</v>
       </c>
       <c r="D409" s="26">
         <v>6.17</v>
       </c>
       <c r="E409" s="27">
-        <v>638.11</v>
+        <v>631.94000000000005</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
@@ -9560,16 +9560,16 @@
         <v>432</v>
       </c>
       <c r="B429" s="24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C429" s="25">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D429" s="26">
         <v>9.75</v>
       </c>
       <c r="E429" s="27">
-        <v>136.5</v>
+        <v>87.75</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
@@ -9679,16 +9679,16 @@
         <v>439</v>
       </c>
       <c r="B436" s="24">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C436" s="25">
-        <v>-0.5</v>
+        <v>-8.5</v>
       </c>
       <c r="D436" s="26">
         <v>10.5</v>
       </c>
       <c r="E436" s="27">
-        <v>-5.25</v>
+        <v>-89.25</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
@@ -10475,16 +10475,16 @@
         <v>487</v>
       </c>
       <c r="B484" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C484" s="25">
-        <v>0.5</v>
+        <v>-2.5</v>
       </c>
       <c r="D484" s="26">
         <v>55</v>
       </c>
       <c r="E484" s="27">
-        <v>27.5</v>
+        <v>-137.5</v>
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.25">
@@ -10882,16 +10882,16 @@
         <v>512</v>
       </c>
       <c r="B509" s="24">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C509" s="25">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="D509" s="26">
         <v>5.23</v>
       </c>
       <c r="E509" s="27">
-        <v>31.38</v>
+        <v>23.54</v>
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.25">
@@ -11018,16 +11018,16 @@
         <v>520</v>
       </c>
       <c r="B517" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C517" s="25">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D517" s="26">
         <v>2</v>
       </c>
       <c r="E517" s="27">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.25">
@@ -11229,16 +11229,16 @@
         <v>533</v>
       </c>
       <c r="B530" s="24">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C530" s="25">
-        <v>30.5</v>
+        <v>27</v>
       </c>
       <c r="D530" s="26">
         <v>4.28</v>
       </c>
       <c r="E530" s="27">
-        <v>130.54</v>
+        <v>115.56</v>
       </c>
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.25">
@@ -11280,16 +11280,16 @@
         <v>536</v>
       </c>
       <c r="B533" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C533" s="25">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D533" s="26">
         <v>6.5</v>
       </c>
       <c r="E533" s="27">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.25">
@@ -11297,16 +11297,16 @@
         <v>537</v>
       </c>
       <c r="B534" s="24">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C534" s="25">
-        <v>31</v>
+        <v>29.5</v>
       </c>
       <c r="D534" s="26">
         <v>4.75</v>
       </c>
       <c r="E534" s="27">
-        <v>147.25</v>
+        <v>140.13</v>
       </c>
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.25">
@@ -11331,16 +11331,16 @@
         <v>539</v>
       </c>
       <c r="B536" s="24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C536" s="25">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D536" s="26">
         <v>4.28</v>
       </c>
       <c r="E536" s="27">
-        <v>77.040000000000006</v>
+        <v>68.48</v>
       </c>
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.25">
@@ -11348,16 +11348,16 @@
         <v>540</v>
       </c>
       <c r="B537" s="24">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C537" s="25">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D537" s="26">
         <v>4.75</v>
       </c>
       <c r="E537" s="27">
-        <v>23.75</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.25">
@@ -11535,16 +11535,16 @@
         <v>551</v>
       </c>
       <c r="B548" s="24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C548" s="25">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="D548" s="26">
         <v>3.6</v>
       </c>
       <c r="E548" s="27">
-        <v>48.6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.25">
@@ -11637,16 +11637,16 @@
         <v>557</v>
       </c>
       <c r="B554" s="24">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C554" s="25">
-        <v>31.5</v>
+        <v>30.5</v>
       </c>
       <c r="D554" s="26">
         <v>3.5</v>
       </c>
       <c r="E554" s="27">
-        <v>110.25</v>
+        <v>106.75</v>
       </c>
     </row>
     <row r="555" spans="1:5" x14ac:dyDescent="0.25">
@@ -11654,16 +11654,16 @@
         <v>558</v>
       </c>
       <c r="B555" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C555" s="25">
-        <v>42.5</v>
+        <v>39.5</v>
       </c>
       <c r="D555" s="26">
         <v>5.7</v>
       </c>
       <c r="E555" s="27">
-        <v>242.25</v>
+        <v>225.15</v>
       </c>
     </row>
     <row r="556" spans="1:5" x14ac:dyDescent="0.25">
@@ -11688,16 +11688,16 @@
         <v>560</v>
       </c>
       <c r="B557" s="24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C557" s="25">
-        <v>46.5</v>
+        <v>44</v>
       </c>
       <c r="D557" s="26">
         <v>2.14</v>
       </c>
       <c r="E557" s="27">
-        <v>99.51</v>
+        <v>94.16</v>
       </c>
     </row>
     <row r="558" spans="1:5" x14ac:dyDescent="0.25">
@@ -11886,16 +11886,16 @@
         <v>572</v>
       </c>
       <c r="B569" s="24">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C569" s="25">
-        <v>380.5</v>
+        <v>374.5</v>
       </c>
       <c r="D569" s="26">
         <v>1.5</v>
       </c>
       <c r="E569" s="27">
-        <v>570.75</v>
+        <v>561.75</v>
       </c>
     </row>
     <row r="570" spans="1:5" x14ac:dyDescent="0.25">
@@ -11929,10 +11929,10 @@
         <v>575</v>
       </c>
       <c r="B572" s="24">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C572" s="25">
-        <v>109.5</v>
+        <v>103.5</v>
       </c>
       <c r="D572" s="29"/>
       <c r="E572" s="28"/>
@@ -11942,10 +11942,10 @@
         <v>576</v>
       </c>
       <c r="B573" s="24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C573" s="25">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D573" s="29"/>
       <c r="E573" s="28"/>
@@ -11958,7 +11958,7 @@
         <v>23</v>
       </c>
       <c r="C574" s="25">
-        <v>201.4</v>
+        <v>151.4</v>
       </c>
       <c r="D574" s="29"/>
       <c r="E574" s="28"/>
@@ -11968,16 +11968,16 @@
         <v>578</v>
       </c>
       <c r="B575" s="24">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C575" s="25">
-        <v>343</v>
+        <v>217</v>
       </c>
       <c r="D575" s="26">
         <v>0.87</v>
       </c>
       <c r="E575" s="27">
-        <v>298.41000000000003</v>
+        <v>188.79</v>
       </c>
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.25">
@@ -12036,16 +12036,16 @@
         <v>582</v>
       </c>
       <c r="B579" s="24">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C579" s="25">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="D579" s="26">
         <v>0.85</v>
       </c>
       <c r="E579" s="27">
-        <v>489.6</v>
+        <v>484.5</v>
       </c>
     </row>
     <row r="580" spans="1:5" x14ac:dyDescent="0.25">
@@ -12109,10 +12109,10 @@
         <v>587</v>
       </c>
       <c r="B584" s="24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C584" s="25">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D584" s="29"/>
       <c r="E584" s="28"/>
@@ -12391,16 +12391,16 @@
         <v>605</v>
       </c>
       <c r="B602" s="24">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C602" s="25">
-        <v>67</v>
+        <v>59.5</v>
       </c>
       <c r="D602" s="26">
         <v>2.75</v>
       </c>
       <c r="E602" s="27">
-        <v>184.06</v>
+        <v>163.44999999999999</v>
       </c>
     </row>
     <row r="603" spans="1:5" x14ac:dyDescent="0.25">
@@ -12459,16 +12459,16 @@
         <v>609</v>
       </c>
       <c r="B606" s="24">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C606" s="25">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D606" s="26">
         <v>4</v>
       </c>
       <c r="E606" s="27">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="607" spans="1:5" x14ac:dyDescent="0.25">
@@ -12629,16 +12629,16 @@
         <v>619</v>
       </c>
       <c r="B616" s="24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C616" s="25">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D616" s="26">
         <v>4.6500000000000004</v>
       </c>
       <c r="E616" s="27">
-        <v>111.6</v>
+        <v>102.3</v>
       </c>
     </row>
     <row r="617" spans="1:5" x14ac:dyDescent="0.25">
@@ -13003,16 +13003,16 @@
         <v>641</v>
       </c>
       <c r="B638" s="24">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C638" s="25">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D638" s="26">
         <v>4.8</v>
       </c>
       <c r="E638" s="27">
-        <v>124.8</v>
+        <v>120</v>
       </c>
     </row>
     <row r="639" spans="1:5" x14ac:dyDescent="0.25">
@@ -13152,16 +13152,16 @@
         <v>650</v>
       </c>
       <c r="B647" s="24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C647" s="25">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="D647" s="26">
         <v>3.5</v>
       </c>
       <c r="E647" s="27">
-        <v>22.75</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="648" spans="1:5" x14ac:dyDescent="0.25">
@@ -13288,16 +13288,16 @@
         <v>658</v>
       </c>
       <c r="B655" s="24">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C655" s="25">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D655" s="26">
         <v>2.25</v>
       </c>
       <c r="E655" s="27">
-        <v>139.5</v>
+        <v>135</v>
       </c>
     </row>
     <row r="656" spans="1:5" x14ac:dyDescent="0.25">
@@ -13562,7 +13562,7 @@
         <v>19</v>
       </c>
       <c r="C672" s="25">
-        <v>3.5</v>
+        <v>53.5</v>
       </c>
       <c r="D672" s="29"/>
       <c r="E672" s="28"/>
@@ -13574,7 +13574,9 @@
       <c r="B673" s="24">
         <v>11</v>
       </c>
-      <c r="C673" s="28"/>
+      <c r="C673" s="25">
+        <v>120</v>
+      </c>
       <c r="D673" s="29"/>
       <c r="E673" s="28"/>
     </row>
@@ -13795,10 +13797,10 @@
         <v>693</v>
       </c>
       <c r="B690" s="24">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C690" s="25">
-        <v>-0.63</v>
+        <v>-0.67</v>
       </c>
       <c r="D690" s="29"/>
       <c r="E690" s="28"/>
@@ -13825,10 +13827,10 @@
         <v>695</v>
       </c>
       <c r="B692" s="24">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C692" s="25">
-        <v>-31.5</v>
+        <v>-36.5</v>
       </c>
       <c r="D692" s="29"/>
       <c r="E692" s="28"/>
@@ -13923,16 +13925,16 @@
         <v>701</v>
       </c>
       <c r="B698" s="24">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C698" s="25">
-        <v>8.75</v>
+        <v>3.75</v>
       </c>
       <c r="D698" s="26">
         <v>2.5</v>
       </c>
       <c r="E698" s="27">
-        <v>21.88</v>
+        <v>9.3800000000000008</v>
       </c>
     </row>
     <row r="699" spans="1:5" x14ac:dyDescent="0.25">
@@ -13957,16 +13959,16 @@
         <v>703</v>
       </c>
       <c r="B700" s="24">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C700" s="25">
-        <v>39.25</v>
+        <v>34.25</v>
       </c>
       <c r="D700" s="26">
         <v>2.5</v>
       </c>
       <c r="E700" s="27">
-        <v>98.13</v>
+        <v>85.63</v>
       </c>
     </row>
     <row r="701" spans="1:5" x14ac:dyDescent="0.25">
@@ -14005,11 +14007,11 @@
       </c>
       <c r="B703" s="31"/>
       <c r="C703" s="32">
-        <v>38801.089999999997</v>
+        <v>38390.910000000003</v>
       </c>
       <c r="D703" s="33"/>
       <c r="E703" s="34">
-        <v>107003.34</v>
+        <v>105834.93</v>
       </c>
     </row>
   </sheetData>

--- a/data/website stock.xlsx
+++ b/data/website stock.xlsx
@@ -68,310 +68,310 @@
     <t>Value</t>
   </si>
   <si>
-    <t>.1001 PATRIKA</t>
-  </si>
-  <si>
-    <t>1002 PATRIKA</t>
-  </si>
-  <si>
-    <t>1003 PATRIKA</t>
-  </si>
-  <si>
-    <t>1004 PATRIKA</t>
-  </si>
-  <si>
-    <t>1005 PATRIKA</t>
-  </si>
-  <si>
-    <t>1006 PATRIKA</t>
-  </si>
-  <si>
-    <t>1007 PATRIKA</t>
-  </si>
-  <si>
-    <t>1008 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>1009 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>1010 PATRIKA</t>
-  </si>
-  <si>
-    <t>1011 PATRIKA</t>
-  </si>
-  <si>
-    <t>1012 PATRIKA</t>
-  </si>
-  <si>
-    <t>1013 PATRIKA</t>
-  </si>
-  <si>
-    <t>1014 PATRIKA</t>
-  </si>
-  <si>
-    <t>1015 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>1016 PATRIKA</t>
-  </si>
-  <si>
-    <t>1017 PATRIKA</t>
-  </si>
-  <si>
-    <t>1018 PATRIKA</t>
-  </si>
-  <si>
-    <t>1019 PATRIKA</t>
-  </si>
-  <si>
-    <t>1020 PATRIKA</t>
-  </si>
-  <si>
-    <t>1021 PATRIKA</t>
-  </si>
-  <si>
-    <t>1023 PATRIKA</t>
-  </si>
-  <si>
-    <t>1024 PATRIKA</t>
-  </si>
-  <si>
-    <t>1025 PATRIKA</t>
-  </si>
-  <si>
-    <t>1026 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>1027 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>1028 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>1029 PATRIKA</t>
-  </si>
-  <si>
-    <t>1030 PATRIKA</t>
-  </si>
-  <si>
-    <t>1031 PATRIKA</t>
-  </si>
-  <si>
-    <t>1032 PATRIKA</t>
-  </si>
-  <si>
-    <t>1033 PATRIKA</t>
-  </si>
-  <si>
-    <t>1034 PATRIKA</t>
-  </si>
-  <si>
-    <t>1035 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>1101 PATRIKA (O.2591)</t>
-  </si>
-  <si>
-    <t>1102 PATRIKA (P.2591)</t>
-  </si>
-  <si>
-    <t>1103 PATRIKA(N-271)</t>
-  </si>
-  <si>
-    <t>1104 PATRIKA(N-272)</t>
-  </si>
-  <si>
-    <t>1105 PATRIKA</t>
-  </si>
-  <si>
-    <t>1106 PATRIKA-YELLOW</t>
-  </si>
-  <si>
-    <t>1107 PATRIKA-RED</t>
-  </si>
-  <si>
-    <t>1109 PATRIKA-BIG Y</t>
-  </si>
-  <si>
-    <t>1110 PATRIKA-BIG R</t>
-  </si>
-  <si>
-    <t>1112 PATRIKA</t>
-  </si>
-  <si>
-    <t>1113 PATRIKA</t>
-  </si>
-  <si>
-    <t>1114 PATRIKA-BROWN</t>
-  </si>
-  <si>
-    <t>1115 PATRIKA-CREAM</t>
-  </si>
-  <si>
-    <t>1116 PATRIKA (1153)</t>
-  </si>
-  <si>
-    <t>1117 PATRIKA (1155)</t>
-  </si>
-  <si>
-    <t>1117 PATRIKA - B</t>
-  </si>
-  <si>
-    <t>1118 PATRIKA - B (DCU)</t>
-  </si>
-  <si>
-    <t>1118 PATRIKA (सवाश्री-57)</t>
-  </si>
-  <si>
-    <t>1119 PATRIKA - B (DCU)</t>
-  </si>
-  <si>
-    <t>1119 PATRIKA(सवाश्री-55)</t>
-  </si>
-  <si>
-    <t>1120 PATRIKA(सवाश्री-59)</t>
-  </si>
-  <si>
-    <t>1121 PATRIKA(सवाश्री-53)</t>
-  </si>
-  <si>
-    <t>1122 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>1123 PATRIKA (LED-51)</t>
-  </si>
-  <si>
-    <t>1124 PATRIKA (LED-52)</t>
-  </si>
-  <si>
-    <t>1125 PATRIKA (LED-53)</t>
-  </si>
-  <si>
-    <t>1126 PATRIKA (LED-54)</t>
-  </si>
-  <si>
-    <t>1127 PATRIKA (Eco-52)</t>
-  </si>
-  <si>
-    <t>1128 PATRIKA (Eco-55)</t>
-  </si>
-  <si>
-    <t>1129 PATRIKA (Eco-56)</t>
-  </si>
-  <si>
-    <t>1130 PATRIKA - B (ECO-60) (DCU)</t>
-  </si>
-  <si>
-    <t>1130 PATRIKA (Eco-59)</t>
-  </si>
-  <si>
-    <t>1131 PATRIKA (DCU) Eco-51</t>
-  </si>
-  <si>
-    <t>1132 PATRIKA (DCU) Eco-53</t>
-  </si>
-  <si>
-    <t>1133 PATRIKA (DCU) Eco-57</t>
-  </si>
-  <si>
-    <t>1134 PATRIKA (DCU) Eco-58</t>
-  </si>
-  <si>
-    <t>1135 PATRIKA (DCU) Eco-54</t>
-  </si>
-  <si>
-    <t>1136 PATRIKA (R)</t>
-  </si>
-  <si>
-    <t>1137 PATRIKA (P)</t>
-  </si>
-  <si>
-    <t>1138 PATRIKA (BR)</t>
-  </si>
-  <si>
-    <t>1139 PATRIKA (BY)</t>
-  </si>
-  <si>
-    <t>1140 PATRIKA (BB)</t>
-  </si>
-  <si>
-    <t>1141 PATRIKA (R)</t>
-  </si>
-  <si>
-    <t>1142 PATRIKA (P)</t>
-  </si>
-  <si>
-    <t>1143 PATRIKA (G)</t>
-  </si>
-  <si>
-    <t>1144 PATRIKA (BR)</t>
-  </si>
-  <si>
-    <t>1145 PATRIKA (BY)</t>
-  </si>
-  <si>
-    <t>1146 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>1147 PATRIKA (S.201)</t>
-  </si>
-  <si>
-    <t>1148 PATRIKA (S.202)</t>
-  </si>
-  <si>
-    <t>1149 PATRIKA (S.204)</t>
-  </si>
-  <si>
-    <t>1150 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>1151 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>1152 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>1153 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>1154 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>1155 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>1156 PATRIKA-YELLOW</t>
-  </si>
-  <si>
-    <t>1157 PATRIKA-CREAM</t>
-  </si>
-  <si>
-    <t>1158 PATRIKA-GOLDEN</t>
-  </si>
-  <si>
-    <t>1159 PATRIKA-WHITE</t>
-  </si>
-  <si>
-    <t>1160 PATRIKA-PINK</t>
-  </si>
-  <si>
-    <t>1161 PATRIKA (01)</t>
-  </si>
-  <si>
-    <t>1162 PATRIKA (02)</t>
-  </si>
-  <si>
-    <t>1163 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>1164 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>1165 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>1166 PATRIKA (DCU)</t>
+    <t>.1001 PATRIKA (25/251)</t>
+  </si>
+  <si>
+    <t>1002 PATRIKA (25/262)</t>
+  </si>
+  <si>
+    <t>1003 PATRIKA (25/261)</t>
+  </si>
+  <si>
+    <t>1004 PATRIKA (25/361/861)</t>
+  </si>
+  <si>
+    <t>1005 PATRIKA (25/362/862)</t>
+  </si>
+  <si>
+    <t>1006 PATRIKA (25/282)</t>
+  </si>
+  <si>
+    <t>1007 PATRIKA (25/281)</t>
+  </si>
+  <si>
+    <t>1008 PATRIKA (JC) (2595 PINK)</t>
+  </si>
+  <si>
+    <t>1009 PATRIKA (JC) (2595 ORANGE)</t>
+  </si>
+  <si>
+    <t>1010 PATRIKA (6321)</t>
+  </si>
+  <si>
+    <t>1011 PATRIKA (2563 OFFSET NEW)</t>
+  </si>
+  <si>
+    <t>1012 PATRIKA (2564 OFFSET NEW)</t>
+  </si>
+  <si>
+    <t>1013 PATRIKA (2568 OFFSET NEW)</t>
+  </si>
+  <si>
+    <t>1014 PATRIKA (11043 OFFSET)</t>
+  </si>
+  <si>
+    <t>1015 PATRIKA (DCU) (11041 OFFSET NEW)</t>
+  </si>
+  <si>
+    <t>1016 PATRIKA (1011 OFFSET)</t>
+  </si>
+  <si>
+    <t>1017 PATRIKA (1014 OFFSET)</t>
+  </si>
+  <si>
+    <t>1018 PATRIKA (10081 OFFSET NEW)</t>
+  </si>
+  <si>
+    <t>1019 PATRIKA (1222 SBC)</t>
+  </si>
+  <si>
+    <t>1020 PATRIKA (1235)</t>
+  </si>
+  <si>
+    <t>1021 PATRIKA (2101 VV)</t>
+  </si>
+  <si>
+    <t>1023 PATRIKA (25418)</t>
+  </si>
+  <si>
+    <t>1024 PATRIKA (25322)</t>
+  </si>
+  <si>
+    <t>1025 PATRIKA (25323)</t>
+  </si>
+  <si>
+    <t>1026 PATRIKA (JC) (1173 SBC)</t>
+  </si>
+  <si>
+    <t>1027 PATRIKA (JC) (5346)</t>
+  </si>
+  <si>
+    <t>1028 PATRIKA (JC) (2596)</t>
+  </si>
+  <si>
+    <t>1029 PATRIKA (1042)</t>
+  </si>
+  <si>
+    <t>1030 PATRIKA (1043)</t>
+  </si>
+  <si>
+    <t>1031 PATRIKA (GOPAL 11)</t>
+  </si>
+  <si>
+    <t>1032 PATRIKA (GOPAL 1)</t>
+  </si>
+  <si>
+    <t>1033 PATRIKA (2002 YLW)</t>
+  </si>
+  <si>
+    <t>1034 PATRIKA (2003 R)</t>
+  </si>
+  <si>
+    <t>1035 PATRIKA (DCU) (2201 ROSHAN)</t>
+  </si>
+  <si>
+    <t>1101 PATRIKA (O.2591) (2591 ORANGE)</t>
+  </si>
+  <si>
+    <t>1102 PATRIKA (P.2591) (2591 PINK)</t>
+  </si>
+  <si>
+    <t>1103 PATRIKA(N-271) (271 NEHA)</t>
+  </si>
+  <si>
+    <t>1104 PATRIKA(N-272) (272 NEHA)</t>
+  </si>
+  <si>
+    <t>1105 PATRIKA (276-A)</t>
+  </si>
+  <si>
+    <t>1106 PATRIKA-YELLOW (25419)</t>
+  </si>
+  <si>
+    <t>1107 PATRIKA-RED (25420)</t>
+  </si>
+  <si>
+    <t>1109 PATRIKA-BIG Y (25421)</t>
+  </si>
+  <si>
+    <t>1110 PATRIKA-BIG R (25422)</t>
+  </si>
+  <si>
+    <t>1112 PATRIKA (277-B)</t>
+  </si>
+  <si>
+    <t>1113 PATRIKA (1819 MONARCH)</t>
+  </si>
+  <si>
+    <t>1114 PATRIKA-BROWN (1709)</t>
+  </si>
+  <si>
+    <t>1115 PATRIKA-CREAM (1678 PRINCE)</t>
+  </si>
+  <si>
+    <t>1116 PATRIKA (1153) (1253 Jsk)</t>
+  </si>
+  <si>
+    <t>1117 PATRIKA (1155) (1155 JSK)</t>
+  </si>
+  <si>
+    <t>1117 PATRIKA - B (KRISHNA 1155-B)</t>
+  </si>
+  <si>
+    <t>1118 PATRIKA - B (DCU) (NEW SAVASHREE- 51)</t>
+  </si>
+  <si>
+    <t>1118 PATRIKA (सवाश्री-57) (NEW SAVASHREE-57)</t>
+  </si>
+  <si>
+    <t>1119 PATRIKA - B (DCU) (NEW SAVASHREE 52)</t>
+  </si>
+  <si>
+    <t>1119 PATRIKA(सवाश्री-55) (NEW SAVASHREE-55)</t>
+  </si>
+  <si>
+    <t>1120 PATRIKA(सवाश्री-59) (NEW SAVASHREE-59)</t>
+  </si>
+  <si>
+    <t>1121 PATRIKA(सवाश्री-53) (NEW SAVASHREE-53)</t>
+  </si>
+  <si>
+    <t>1122 PATRIKA (DCU) (NEW SAVASHREE-54)</t>
+  </si>
+  <si>
+    <t>1123 PATRIKA (LED-51) (LED-51)</t>
+  </si>
+  <si>
+    <t>1124 PATRIKA (LED-52) (LED-52)</t>
+  </si>
+  <si>
+    <t>1125 PATRIKA (LED-53) (LED-53)</t>
+  </si>
+  <si>
+    <t>1126 PATRIKA (LED-54) (LED-54)</t>
+  </si>
+  <si>
+    <t>1127 PATRIKA (Eco-52) (NEW ECO-52)</t>
+  </si>
+  <si>
+    <t>1128 PATRIKA (Eco-55) (NEW ECO-55)</t>
+  </si>
+  <si>
+    <t>1129 PATRIKA (Eco-56) (NEW ECO-56)</t>
+  </si>
+  <si>
+    <t>1130 PATRIKA - B (ECO-60) (DCU) (NEW ECO 60)</t>
+  </si>
+  <si>
+    <t>1130 PATRIKA (Eco-59) (NEW ECO-59)</t>
+  </si>
+  <si>
+    <t>1131 PATRIKA (DCU) Eco-51 (NEW ECO- 51)</t>
+  </si>
+  <si>
+    <t>1132 PATRIKA (DCU) Eco-53 (NEW ECO- 53)</t>
+  </si>
+  <si>
+    <t>1133 PATRIKA (DCU) Eco-57 (NEW ECO- 57)</t>
+  </si>
+  <si>
+    <t>1134 PATRIKA (DCU) Eco-58 (NEW ECO- 58)</t>
+  </si>
+  <si>
+    <t>1135 PATRIKA (DCU) Eco-54 (NEW ECO- 54)</t>
+  </si>
+  <si>
+    <t>1136 PATRIKA (R) (120 GSM RED)</t>
+  </si>
+  <si>
+    <t>1137 PATRIKA (P) (120 GSM YELLOW)</t>
+  </si>
+  <si>
+    <t>1138 PATRIKA (BR) (150 GSM FOIL (RED))</t>
+  </si>
+  <si>
+    <t>1139 PATRIKA (BY) (150 GSM FOIL (YELLOW))</t>
+  </si>
+  <si>
+    <t>1140 PATRIKA (BB) (150 GSM FOIL (BROWN))</t>
+  </si>
+  <si>
+    <t>1141 PATRIKA (R) (120 GSM (RED)SELF)</t>
+  </si>
+  <si>
+    <t>1142 PATRIKA (P) (120 GSM (YELLOW) SELF)</t>
+  </si>
+  <si>
+    <t>1143 PATRIKA (G) (120 GSM (OLD GOLDEN))</t>
+  </si>
+  <si>
+    <t>1144 PATRIKA (BR) (170 GSM WITH FOIL (RED))</t>
+  </si>
+  <si>
+    <t>1145 PATRIKA (BY) (170 GSM WITH FOIL (YELLOW))</t>
+  </si>
+  <si>
+    <t>1146 PATRIKA (DCU) (BROWN 170 GSM FOIL)</t>
+  </si>
+  <si>
+    <t>1147 PATRIKA (S.201) (201 WESTERN)</t>
+  </si>
+  <si>
+    <t>1148 PATRIKA (S.202) (202 WESTERN)</t>
+  </si>
+  <si>
+    <t>1149 PATRIKA (S.204) (204 WESTERN)</t>
+  </si>
+  <si>
+    <t>1150 PATRIKA (DCU) (NEW SAVASHREE-58)</t>
+  </si>
+  <si>
+    <t>1151 PATRIKA (DCU) (NEW SAVASHREE-56)</t>
+  </si>
+  <si>
+    <t>1152 PATRIKA (DCU) (WESTERN 202 OLD)</t>
+  </si>
+  <si>
+    <t>1153 PATRIKA (DCU) (201 WESTERN (OLD))</t>
+  </si>
+  <si>
+    <t>1154 PATRIKA (DCU) (203 WESTERN A)</t>
+  </si>
+  <si>
+    <t>1155 PATRIKA (DCU) (WESTERN (203) B)</t>
+  </si>
+  <si>
+    <t>1156 PATRIKA-YELLOW (LU-51 (YELLOW))</t>
+  </si>
+  <si>
+    <t>1157 PATRIKA-CREAM (LU-52 (CREAM))</t>
+  </si>
+  <si>
+    <t>1158 PATRIKA-GOLDEN (LU-53 (GOLDEN))</t>
+  </si>
+  <si>
+    <t>1159 PATRIKA-WHITE (LU-54 (WHITE))</t>
+  </si>
+  <si>
+    <t>1160 PATRIKA-PINK (LU-55 (PINK))</t>
+  </si>
+  <si>
+    <t>1161 PATRIKA (01) (JCC 01)</t>
+  </si>
+  <si>
+    <t>1162 PATRIKA (02) (JCC 02)</t>
+  </si>
+  <si>
+    <t>1163 PATRIKA (DCU) (BP RED)</t>
+  </si>
+  <si>
+    <t>1164 PATRIKA (DCU) (BP PINK RIYAZ)</t>
+  </si>
+  <si>
+    <t>1165 PATRIKA (DCU) (BP CREAM)</t>
+  </si>
+  <si>
+    <t>1166 PATRIKA (DCU) (BP YELLOW)</t>
   </si>
   <si>
     <t>190 NO. ENVELOPES (POCKET)</t>
@@ -407,109 +407,109 @@
     <t>2025- INVITAION (BOX) SAMPLES</t>
   </si>
   <si>
-    <t>2101 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>2102 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2103 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>2104 PATRIKA</t>
-  </si>
-  <si>
-    <t>2105 PATRIKA</t>
-  </si>
-  <si>
-    <t>2106 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>2107 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2108 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2109 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>2110 PATRIKA</t>
-  </si>
-  <si>
-    <t>2111 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2112 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>2113 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>2114 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>2115 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>2116 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>2117 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2118 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>2119 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>2120 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>2121 PATRIKA</t>
-  </si>
-  <si>
-    <t>2122 PATRIKA</t>
-  </si>
-  <si>
-    <t>2123 PATRIKA</t>
-  </si>
-  <si>
-    <t>2124 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2125 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2126 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2127 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2128 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2129 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2130 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2131 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2132 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2133 PATRIKA</t>
-  </si>
-  <si>
-    <t>2134 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2135 PATRIKA *-* (M)</t>
+    <t>2101 PATRIKA (L) (LUXYA - 51)</t>
+  </si>
+  <si>
+    <t>2102 PATRIKA *-* (M) (LUXYA - 52)</t>
+  </si>
+  <si>
+    <t>2103 PATRIKA (L) (LUXYA - 53)</t>
+  </si>
+  <si>
+    <t>2104 PATRIKA (LUXYA - 54)</t>
+  </si>
+  <si>
+    <t>2105 PATRIKA (LUXYA - 55)</t>
+  </si>
+  <si>
+    <t>2106 PATRIKA (L) (LUXYA - 56)</t>
+  </si>
+  <si>
+    <t>2107 PATRIKA *-* (M) (LUXYA - 57)</t>
+  </si>
+  <si>
+    <t>2108 PATRIKA *-* (M) (LUXYA - 59)</t>
+  </si>
+  <si>
+    <t>2109 PATRIKA (L) (LUXYA - 60)</t>
+  </si>
+  <si>
+    <t>2110 PATRIKA (LUXYA - 61)</t>
+  </si>
+  <si>
+    <t>2111 PATRIKA *-* (M) (LUXYA - 62)</t>
+  </si>
+  <si>
+    <t>2112 PATRIKA (L) (LEGACY - 01)</t>
+  </si>
+  <si>
+    <t>2113 PATRIKA (L) (LEGACY - 02)</t>
+  </si>
+  <si>
+    <t>2114 PATRIKA (L) (LEGACY - 03)</t>
+  </si>
+  <si>
+    <t>2115 PATRIKA (L) (LEGACY - 04)</t>
+  </si>
+  <si>
+    <t>2116 PATRIKA (L) (LEGACY - 05)</t>
+  </si>
+  <si>
+    <t>2117 PATRIKA *-* (M) (LEGACY - 06)</t>
+  </si>
+  <si>
+    <t>2118 PATRIKA (L) (LEGACY - 07)</t>
+  </si>
+  <si>
+    <t>2119 PATRIKA (L) (LEGACY - 08)</t>
+  </si>
+  <si>
+    <t>2120 PATRIKA (L) (LEGACY - 09)</t>
+  </si>
+  <si>
+    <t>2121 PATRIKA (LEGACY - 10)</t>
+  </si>
+  <si>
+    <t>2122 PATRIKA (LEGACY - 11)</t>
+  </si>
+  <si>
+    <t>2123 PATRIKA (LEGACY - 12)</t>
+  </si>
+  <si>
+    <t>2124 PATRIKA *-* (M) (LOTTERY - 71)</t>
+  </si>
+  <si>
+    <t>2125 PATRIKA *-* (M) (LOTTERY - 72)</t>
+  </si>
+  <si>
+    <t>2126 PATRIKA *-* (M) (LOTTERY - 73)</t>
+  </si>
+  <si>
+    <t>2127 PATRIKA *-* (M) (LOTTERY - 74)</t>
+  </si>
+  <si>
+    <t>2128 PATRIKA *-* (M) (LOTTERY - 75)</t>
+  </si>
+  <si>
+    <t>2129 PATRIKA *-* (M) (LOTTERY - 76)</t>
+  </si>
+  <si>
+    <t>2130 PATRIKA *-* (M) (LOTTERY - 77)</t>
+  </si>
+  <si>
+    <t>2131 PATRIKA *-* (M) (LOTTERY - 78)</t>
+  </si>
+  <si>
+    <t>2132 PATRIKA *-* (M) (LOTTERY - 79)</t>
+  </si>
+  <si>
+    <t>2133 PATRIKA (LOTTERY - 80)</t>
+  </si>
+  <si>
+    <t>2134 PATRIKA *-* (M) (LOTTERY - 81)</t>
+  </si>
+  <si>
+    <t>2135 PATRIKA *-* (M) (LOTTERY - 82)</t>
   </si>
   <si>
     <t>290 ENVELOPE 25-26</t>
@@ -527,1144 +527,1144 @@
     <t>330 ENVELOPE</t>
   </si>
   <si>
-    <t>4251 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>4252 PATRIKA</t>
-  </si>
-  <si>
-    <t>4253 PATRIKA</t>
-  </si>
-  <si>
-    <t>4254 PATRIKA (4210)</t>
-  </si>
-  <si>
-    <t>4255 PATRIKA - B (DCU)</t>
-  </si>
-  <si>
-    <t>4255 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>4257 PATRIKA</t>
-  </si>
-  <si>
-    <t>4258 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>4259 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>4260 PATRIKA</t>
-  </si>
-  <si>
-    <t>4261 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>4262 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>4264 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>4265 PATRIKA</t>
-  </si>
-  <si>
-    <t>4266 PATRIKA</t>
-  </si>
-  <si>
-    <t>4267 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>4268 PATRIKA (JC) *-* (M+T)</t>
-  </si>
-  <si>
-    <t>4269 PATRIKA</t>
-  </si>
-  <si>
-    <t>4270 PATRIKA</t>
-  </si>
-  <si>
-    <t>4271 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>4272 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>4273 PATRIKA</t>
-  </si>
-  <si>
-    <t>4274 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>4275 PATRIKA</t>
-  </si>
-  <si>
-    <t>4277 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>4278 PATRIKA</t>
-  </si>
-  <si>
-    <t>4279 PATRIKA</t>
-  </si>
-  <si>
-    <t>4280 PATRIKA</t>
-  </si>
-  <si>
-    <t>4281 PATRIKA</t>
-  </si>
-  <si>
-    <t>4282 PATRIKA</t>
-  </si>
-  <si>
-    <t>4283 PATRIKA - B (YELLOW)</t>
-  </si>
-  <si>
-    <t>4284 PATRIKA</t>
-  </si>
-  <si>
-    <t>4285 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>4286 PATRIKA</t>
-  </si>
-  <si>
-    <t>4287 PATRIKA</t>
-  </si>
-  <si>
-    <t>4288 PATRIKA</t>
-  </si>
-  <si>
-    <t>4289 PATRIKA</t>
-  </si>
-  <si>
-    <t>4290 PATRIKA</t>
-  </si>
-  <si>
-    <t>4291 PATRIKA</t>
-  </si>
-  <si>
-    <t>4292 PATRIKA</t>
-  </si>
-  <si>
-    <t>4293 PATRIKA</t>
-  </si>
-  <si>
-    <t>4294 PATRIKA</t>
-  </si>
-  <si>
-    <t>4295 PATRIKA</t>
-  </si>
-  <si>
-    <t>4296 PATRIKA</t>
-  </si>
-  <si>
-    <t>4297 PATRIKA</t>
-  </si>
-  <si>
-    <t>4298 PATRIKA</t>
-  </si>
-  <si>
-    <t>4299 PATRIKA</t>
-  </si>
-  <si>
-    <t>4300 PATRIKA</t>
-  </si>
-  <si>
-    <t>4301 PATRIKA</t>
-  </si>
-  <si>
-    <t>4302 PATRIKA</t>
-  </si>
-  <si>
-    <t>4303 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>4304 PATRIKA</t>
-  </si>
-  <si>
-    <t>4305 PATRIKA</t>
-  </si>
-  <si>
-    <t>4307 PATRIKA</t>
-  </si>
-  <si>
-    <t>4308 PATRIKA</t>
-  </si>
-  <si>
-    <t>4309 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>4310 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>4311 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>4312 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>4314 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>4315 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>4316 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5051 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5052 PATRIKA</t>
-  </si>
-  <si>
-    <t>5053 PATRIKA</t>
-  </si>
-  <si>
-    <t>5054 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5055 PATRIKA</t>
-  </si>
-  <si>
-    <t>5056 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5057 PATRIKA</t>
-  </si>
-  <si>
-    <t>5058 PATRIKA</t>
-  </si>
-  <si>
-    <t>5059 PATRIKA</t>
-  </si>
-  <si>
-    <t>5060 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5061 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5062 PATRIKA</t>
-  </si>
-  <si>
-    <t>5063 PATRIKA</t>
-  </si>
-  <si>
-    <t>5064 PATRIKA</t>
-  </si>
-  <si>
-    <t>5065 PATRIKA</t>
-  </si>
-  <si>
-    <t>5066 PATRIKA</t>
-  </si>
-  <si>
-    <t>5067 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5071 PATRIKA *-* (डोरी)</t>
-  </si>
-  <si>
-    <t>5072 PATRIKA</t>
-  </si>
-  <si>
-    <t>5073 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5074 PATRIKA</t>
-  </si>
-  <si>
-    <t>5075 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5076 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5077 PATRIKA</t>
-  </si>
-  <si>
-    <t>5079 PATRIKA</t>
-  </si>
-  <si>
-    <t>5080 PATRIKA</t>
-  </si>
-  <si>
-    <t>5081 PATRIKA</t>
-  </si>
-  <si>
-    <t>5083 PATRIKA</t>
-  </si>
-  <si>
-    <t>5084 PATRIKA</t>
-  </si>
-  <si>
-    <t>5085 PATRIKA</t>
-  </si>
-  <si>
-    <t>5086 PATRIKA (JC) *-* (M+D)</t>
-  </si>
-  <si>
-    <t>5088 PATRIKA</t>
-  </si>
-  <si>
-    <t>5089 PATRIKA</t>
-  </si>
-  <si>
-    <t>5090 PATRIKA</t>
-  </si>
-  <si>
-    <t>5092 PATRIKA</t>
-  </si>
-  <si>
-    <t>5093 PATRIKA</t>
-  </si>
-  <si>
-    <t>5094 PATRIKA</t>
-  </si>
-  <si>
-    <t>5095 PATRIKA</t>
-  </si>
-  <si>
-    <t>5096 PATRIKA</t>
-  </si>
-  <si>
-    <t>5097 PATRIKA</t>
-  </si>
-  <si>
-    <t>5098 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5099 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5100 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5102 PATRIKA (5021)</t>
-  </si>
-  <si>
-    <t>5103 PATRIKA</t>
-  </si>
-  <si>
-    <t>5104 PATRIKA</t>
-  </si>
-  <si>
-    <t>5105 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5106 PATRIKA</t>
-  </si>
-  <si>
-    <t>5107 PATRIKA</t>
-  </si>
-  <si>
-    <t>5108 PATRIKA</t>
-  </si>
-  <si>
-    <t>5109 PATRIKA</t>
-  </si>
-  <si>
-    <t>5110 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5111 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5112 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5113 PATRIKA</t>
-  </si>
-  <si>
-    <t>5114 PATRIKA *-* (डोरी)</t>
-  </si>
-  <si>
-    <t>5115 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5116 PATRIKA</t>
-  </si>
-  <si>
-    <t>5117 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5118 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5502 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5503 PATRIKA</t>
-  </si>
-  <si>
-    <t>5504 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5505 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5506 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5508 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5509 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5510 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5511 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5512 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5513 PATRIKA</t>
-  </si>
-  <si>
-    <t>5514 PATRIKA</t>
-  </si>
-  <si>
-    <t>5515 PATRIKA</t>
-  </si>
-  <si>
-    <t>5516 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5517 PATRIKA *-* (M) (Patti Aayegi)</t>
-  </si>
-  <si>
-    <t>5518 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5519 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5520 PATRIKA</t>
-  </si>
-  <si>
-    <t>5521 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5522 PATRIKA</t>
-  </si>
-  <si>
-    <t>5523 PATRIKA</t>
-  </si>
-  <si>
-    <t>5524 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5525 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5526 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5527 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5528 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5529 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5530 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5531 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5532 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5533 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5534 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5535 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5537 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5538 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5539 PATRIKA-B</t>
-  </si>
-  <si>
-    <t>5539 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5540 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5542 PATRIKA</t>
-  </si>
-  <si>
-    <t>5543 PATRIKA</t>
-  </si>
-  <si>
-    <t>5544 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5545 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5546 PATRIKA</t>
-  </si>
-  <si>
-    <t>5547 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5548 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5549 PATRIKA</t>
-  </si>
-  <si>
-    <t>5550 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5551 PATRIKA</t>
-  </si>
-  <si>
-    <t>5552 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5553 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5554 PATRIKA *-* (F/G)</t>
-  </si>
-  <si>
-    <t>5555 PATRIKA</t>
-  </si>
-  <si>
-    <t>5556 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5557 PATRIKA</t>
-  </si>
-  <si>
-    <t>5558 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5559 PATRIKA</t>
-  </si>
-  <si>
-    <t>5560 PATRIKA (F/G) *-*</t>
-  </si>
-  <si>
-    <t>5561 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5562 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5563 PATRIKA</t>
-  </si>
-  <si>
-    <t>5564 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5565 PATRIKA</t>
-  </si>
-  <si>
-    <t>5566 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5567 PATRIKA</t>
-  </si>
-  <si>
-    <t>5568 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5569 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5570 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5571 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5572 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5573 PATRIKA</t>
-  </si>
-  <si>
-    <t>5574 PATRIKA</t>
-  </si>
-  <si>
-    <t>5575 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5576 PATRIKA</t>
-  </si>
-  <si>
-    <t>5577 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5578 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5579 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5580 PATRIKA</t>
-  </si>
-  <si>
-    <t>5581 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5582 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5583 PATRIKA</t>
-  </si>
-  <si>
-    <t>5584 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5585 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5586 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5587 PATRIKA</t>
-  </si>
-  <si>
-    <t>5588 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5589 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5590 PATRIKA</t>
-  </si>
-  <si>
-    <t>5592 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5593 PATRIKA</t>
-  </si>
-  <si>
-    <t>5595 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5596 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5597 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5599 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5601 PATRIKA</t>
-  </si>
-  <si>
-    <t>5602 PATRIKA</t>
-  </si>
-  <si>
-    <t>5603 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5604 PATRIKA</t>
-  </si>
-  <si>
-    <t>5605 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5606 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5607 PATRIKA</t>
-  </si>
-  <si>
-    <t>5608 PATRIKA</t>
-  </si>
-  <si>
-    <t>5609 PATRIKA</t>
-  </si>
-  <si>
-    <t>5610 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5611 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5612 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5614 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5615 PATRIKA</t>
-  </si>
-  <si>
-    <t>5616 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5617 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5618 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5619 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5621 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5622 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5623 PATRIKA</t>
-  </si>
-  <si>
-    <t>5625 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>6601 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>6602 PATRIKA</t>
-  </si>
-  <si>
-    <t>6603 PATRIKA</t>
-  </si>
-  <si>
-    <t>6604 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6605 PATRIKA</t>
-  </si>
-  <si>
-    <t>6606 PATRIKA (*-*) R</t>
-  </si>
-  <si>
-    <t>6607 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6608 PATRIKA</t>
-  </si>
-  <si>
-    <t>6609 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6610 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6611 PATRIKA</t>
-  </si>
-  <si>
-    <t>6612 PATRIKA</t>
-  </si>
-  <si>
-    <t>6613 PATRIKA</t>
-  </si>
-  <si>
-    <t>6614 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>6615 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6616 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6617 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6618 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6619 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6620 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6621 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6622 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6623 PATRIKA</t>
-  </si>
-  <si>
-    <t>6624 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6625 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6626 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6627 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6628 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6629 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6630 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6631 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>6632 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>6633 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6634 PATRIKA</t>
-  </si>
-  <si>
-    <t>6635 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6636 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6637 PATRIKA</t>
-  </si>
-  <si>
-    <t>6638 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6639 PATRIKA (B)</t>
-  </si>
-  <si>
-    <t>6640 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6641 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6642 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6643 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6644 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>6645 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6646 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6647 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6648 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6649 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6650 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6651 PATRIKA</t>
-  </si>
-  <si>
-    <t>6652 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6653 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6654 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6655 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6656 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>6657 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6658 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6659 PATRIKA</t>
-  </si>
-  <si>
-    <t>6660 PATRIKA</t>
-  </si>
-  <si>
-    <t>6661 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6662 PATRIKA</t>
-  </si>
-  <si>
-    <t>6663 PATRIKA</t>
-  </si>
-  <si>
-    <t>6664 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6665 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6667 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6668 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>6669 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>6670 PATRIKA - B (M)</t>
-  </si>
-  <si>
-    <t>6670 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6671 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6672 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6673 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>6674 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>6675 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6676 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>6677 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>7265 PATRIKA (O.C.)</t>
-  </si>
-  <si>
-    <t>7283 PATRIKA {F} (O.C.)</t>
-  </si>
-  <si>
-    <t>7287 PATRIKA (O.C.)</t>
-  </si>
-  <si>
-    <t>7288 PATRIKA (O.C.)</t>
-  </si>
-  <si>
-    <t>7293 PATRIKA (O.C.)</t>
-  </si>
-  <si>
-    <t>7309 PATRIKA (O.C.)</t>
-  </si>
-  <si>
-    <t>7312 PATRIKA (O.C.)</t>
-  </si>
-  <si>
-    <t>7319 PATRIKA (O.C.)</t>
-  </si>
-  <si>
-    <t>7332 PATRIKA (O.C.)</t>
-  </si>
-  <si>
-    <t>7342 PATRIKA (O.C.)</t>
-  </si>
-  <si>
-    <t>7344 PATRIKA (O.C.)</t>
-  </si>
-  <si>
-    <t>7345 PATRIKA (O.C.)</t>
-  </si>
-  <si>
-    <t>7401 PATRIKA</t>
-  </si>
-  <si>
-    <t>7402 PATRIKA</t>
-  </si>
-  <si>
-    <t>7403 PATRIKA</t>
-  </si>
-  <si>
-    <t>7404 PATRIKA</t>
-  </si>
-  <si>
-    <t>7405 PATRIKA</t>
-  </si>
-  <si>
-    <t>7406 PATRIKA</t>
-  </si>
-  <si>
-    <t>7407 PATRIKA *-* (F)</t>
-  </si>
-  <si>
-    <t>7408 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>7409 PATRIKA</t>
-  </si>
-  <si>
-    <t>7410 PATRIKA</t>
-  </si>
-  <si>
-    <t>7411 PATRIKA</t>
-  </si>
-  <si>
-    <t>7413 PATRIKA</t>
-  </si>
-  <si>
-    <t>7414 PATRIKA</t>
-  </si>
-  <si>
-    <t>7415 PATRIKA *-* (F)</t>
-  </si>
-  <si>
-    <t>7416 PATRIKA</t>
-  </si>
-  <si>
-    <t>7417 PATRIKA</t>
-  </si>
-  <si>
-    <t>7418 PATRIKA *-* (डोरी)</t>
-  </si>
-  <si>
-    <t>7419 PATRIKA</t>
-  </si>
-  <si>
-    <t>7420 PATRIKA</t>
-  </si>
-  <si>
-    <t>7421 PATRIKA *-* (F)</t>
-  </si>
-  <si>
-    <t>7422 PATRIKA</t>
-  </si>
-  <si>
-    <t>7423 PATRIKA</t>
-  </si>
-  <si>
-    <t>7424 PATRIKA *-* (F)</t>
-  </si>
-  <si>
-    <t>7425 PATRIKA</t>
-  </si>
-  <si>
-    <t>7426 PATRIKA (F/G) *-*</t>
-  </si>
-  <si>
-    <t>7427 PATRIKA</t>
-  </si>
-  <si>
-    <t>7428 PATRIKA</t>
-  </si>
-  <si>
-    <t>7429 PATRIKA (F/G) *-*</t>
-  </si>
-  <si>
-    <t>7430 PATRIKA</t>
-  </si>
-  <si>
-    <t>7431 PATRIKA</t>
-  </si>
-  <si>
-    <t>7432 PATRIKA</t>
-  </si>
-  <si>
-    <t>7433 PATRIKA</t>
-  </si>
-  <si>
-    <t>7434 PATRIKA</t>
-  </si>
-  <si>
-    <t>7435 PATRIKA</t>
-  </si>
-  <si>
-    <t>7436 PATRIKA</t>
-  </si>
-  <si>
-    <t>7437 PATRIKA</t>
-  </si>
-  <si>
-    <t>7438 PATRIKA</t>
-  </si>
-  <si>
-    <t>7439 PATRIKA</t>
-  </si>
-  <si>
-    <t>7440 PATRIKA</t>
-  </si>
-  <si>
-    <t>7441 PATRIKA *-* (F)</t>
-  </si>
-  <si>
-    <t>7442 PATRIKA</t>
-  </si>
-  <si>
-    <t>7443 PATRIKA</t>
-  </si>
-  <si>
-    <t>7444 PATRIKA</t>
-  </si>
-  <si>
-    <t>7445 PATRIKA</t>
-  </si>
-  <si>
-    <t>7446 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>7447 PATRIKA</t>
-  </si>
-  <si>
-    <t>7448 PATRIKA</t>
-  </si>
-  <si>
-    <t>7449 PATRIKA</t>
-  </si>
-  <si>
-    <t>7450 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>7451 PATRIKA</t>
-  </si>
-  <si>
-    <t>7452 PATRIKA</t>
-  </si>
-  <si>
-    <t>7453 PATRIKA (ECO - 61)</t>
-  </si>
-  <si>
-    <t>7454 PATRIKA (ECO -63)</t>
-  </si>
-  <si>
-    <t>9001 CARD (O.C.)</t>
+    <t>4251 PATRIKA (JC) (5342)</t>
+  </si>
+  <si>
+    <t>4252 PATRIKA (5207)</t>
+  </si>
+  <si>
+    <t>4253 PATRIKA (5206)</t>
+  </si>
+  <si>
+    <t>4254 PATRIKA (4210) (10273/10277)</t>
+  </si>
+  <si>
+    <t>4255 PATRIKA - B (DCU) (AS-02 (B))</t>
+  </si>
+  <si>
+    <t>4255 PATRIKA (JC) (AS-02 (NEW))</t>
+  </si>
+  <si>
+    <t>4257 PATRIKA (82)</t>
+  </si>
+  <si>
+    <t>4258 PATRIKA (JC) (1129)</t>
+  </si>
+  <si>
+    <t>4259 PATRIKA (JC) (101 SBC)</t>
+  </si>
+  <si>
+    <t>4260 PATRIKA (1102)</t>
+  </si>
+  <si>
+    <t>4261 PATRIKA (JC) (959)</t>
+  </si>
+  <si>
+    <t>4262 PATRIKA (JC) (S-201 GANESH JI)</t>
+  </si>
+  <si>
+    <t>4264 PATRIKA (DCU) (1351)</t>
+  </si>
+  <si>
+    <t>4265 PATRIKA (83)</t>
+  </si>
+  <si>
+    <t>4266 PATRIKA (25-145)</t>
+  </si>
+  <si>
+    <t>4267 PATRIKA (JC) (25-046)</t>
+  </si>
+  <si>
+    <t>4268 PATRIKA (JC) *-* (M+T) (S-296)</t>
+  </si>
+  <si>
+    <t>4269 PATRIKA (111 SBC)</t>
+  </si>
+  <si>
+    <t>4270 PATRIKA (1151 GGN)</t>
+  </si>
+  <si>
+    <t>4271 PATRIKA (JC) (25216)</t>
+  </si>
+  <si>
+    <t>4272 PATRIKA (JC) (1231 SBC CRM)</t>
+  </si>
+  <si>
+    <t>4273 PATRIKA (2547)</t>
+  </si>
+  <si>
+    <t>4274 PATRIKA (JC) (25369)</t>
+  </si>
+  <si>
+    <t>4275 PATRIKA (25367)</t>
+  </si>
+  <si>
+    <t>4277 PATRIKA (JC) *-* (M) (25365)</t>
+  </si>
+  <si>
+    <t>4278 PATRIKA (25368)</t>
+  </si>
+  <si>
+    <t>4279 PATRIKA (1031)</t>
+  </si>
+  <si>
+    <t>4280 PATRIKA (25301)</t>
+  </si>
+  <si>
+    <t>4281 PATRIKA (25312 MYRA)</t>
+  </si>
+  <si>
+    <t>4282 PATRIKA (3117)</t>
+  </si>
+  <si>
+    <t>4283 PATRIKA - B (YELLOW) (3116-YLW)</t>
+  </si>
+  <si>
+    <t>4284 PATRIKA (1173 VV)</t>
+  </si>
+  <si>
+    <t>4285 PATRIKA (JC) *-* (M) (4626)</t>
+  </si>
+  <si>
+    <t>4286 PATRIKA (5254  RJN)</t>
+  </si>
+  <si>
+    <t>4287 PATRIKA (25402)</t>
+  </si>
+  <si>
+    <t>4288 PATRIKA (10001 NEW)</t>
+  </si>
+  <si>
+    <t>4289 PATRIKA (10002 NEW)</t>
+  </si>
+  <si>
+    <t>4290 PATRIKA (316 MYRA)</t>
+  </si>
+  <si>
+    <t>4291 PATRIKA (25401)</t>
+  </si>
+  <si>
+    <t>4292 PATRIKA (25311)</t>
+  </si>
+  <si>
+    <t>4293 PATRIKA (25312)</t>
+  </si>
+  <si>
+    <t>4294 PATRIKA (5273)</t>
+  </si>
+  <si>
+    <t>4295 PATRIKA (286-A)</t>
+  </si>
+  <si>
+    <t>4296 PATRIKA (1407)</t>
+  </si>
+  <si>
+    <t>4297 PATRIKA (306)</t>
+  </si>
+  <si>
+    <t>4298 PATRIKA (5501)</t>
+  </si>
+  <si>
+    <t>4299 PATRIKA (2011)</t>
+  </si>
+  <si>
+    <t>4300 PATRIKA (25314)</t>
+  </si>
+  <si>
+    <t>4301 PATRIKA (25315)</t>
+  </si>
+  <si>
+    <t>4302 PATRIKA (1402)</t>
+  </si>
+  <si>
+    <t>4303 PATRIKA (JC) (1234*-M)</t>
+  </si>
+  <si>
+    <t>4304 PATRIKA (5172)</t>
+  </si>
+  <si>
+    <t>4305 PATRIKA (25313)</t>
+  </si>
+  <si>
+    <t>4307 PATRIKA (BALAJI 5202)</t>
+  </si>
+  <si>
+    <t>4308 PATRIKA (LOTUS 430)</t>
+  </si>
+  <si>
+    <t>4309 PATRIKA (DCU) (3751 Patta)</t>
+  </si>
+  <si>
+    <t>4310 PATRIKA (DCU) (3752 Swastik)</t>
+  </si>
+  <si>
+    <t>4311 PATRIKA (DCU) (251 KBC)</t>
+  </si>
+  <si>
+    <t>4312 PATRIKA (DCU) (273-A)</t>
+  </si>
+  <si>
+    <t>4314 PATRIKA (DCU) (RED-YELLOW SWASTIK)</t>
+  </si>
+  <si>
+    <t>4315 PATRIKA (DCU) (WHITE-PINK PAN PATA)</t>
+  </si>
+  <si>
+    <t>4316 PATRIKA (DCU) (WHITE -ORANGE PAN PATTA)</t>
+  </si>
+  <si>
+    <t>5051 PATRIKA *-* (M) (5087)</t>
+  </si>
+  <si>
+    <t>5052 PATRIKA (5295)</t>
+  </si>
+  <si>
+    <t>5053 PATRIKA (5213)</t>
+  </si>
+  <si>
+    <t>5054 PATRIKA *-* (M) (25/162)</t>
+  </si>
+  <si>
+    <t>5055 PATRIKA (25/272)</t>
+  </si>
+  <si>
+    <t>5056 PATRIKA (JC) (25/271)</t>
+  </si>
+  <si>
+    <t>5057 PATRIKA (25/171)</t>
+  </si>
+  <si>
+    <t>5058 PATRIKA (8802)</t>
+  </si>
+  <si>
+    <t>5059 PATRIKA (8803)</t>
+  </si>
+  <si>
+    <t>5060 PATRIKA (JC) (7713)</t>
+  </si>
+  <si>
+    <t>5061 PATRIKA (DCU) (1405)</t>
+  </si>
+  <si>
+    <t>5062 PATRIKA (7705)</t>
+  </si>
+  <si>
+    <t>5063 PATRIKA (2522 GE)</t>
+  </si>
+  <si>
+    <t>5064 PATRIKA (2517 GE)</t>
+  </si>
+  <si>
+    <t>5065 PATRIKA (2527)</t>
+  </si>
+  <si>
+    <t>5066 PATRIKA (2536)</t>
+  </si>
+  <si>
+    <t>5067 PATRIKA (JC) (S-301)</t>
+  </si>
+  <si>
+    <t>5071 PATRIKA *-* (डोरी) (741)</t>
+  </si>
+  <si>
+    <t>5072 PATRIKA (5347 DIRECT)</t>
+  </si>
+  <si>
+    <t>5073 PATRIKA *-* (M) (3161)</t>
+  </si>
+  <si>
+    <t>5074 PATRIKA (1151 VV)</t>
+  </si>
+  <si>
+    <t>5075 PATRIKA (JC) (25-082)</t>
+  </si>
+  <si>
+    <t>5076 PATRIKA (JC) (3701 SBC)</t>
+  </si>
+  <si>
+    <t>5077 PATRIKA (2081)</t>
+  </si>
+  <si>
+    <t>5079 PATRIKA (296-A (NEHA)</t>
+  </si>
+  <si>
+    <t>5080 PATRIKA (2501 GE NEW)</t>
+  </si>
+  <si>
+    <t>5081 PATRIKA (2520 GE)</t>
+  </si>
+  <si>
+    <t>5083 PATRIKA (5267)</t>
+  </si>
+  <si>
+    <t>5084 PATRIKA (5258 RJ)</t>
+  </si>
+  <si>
+    <t>5085 PATRIKA (2023)</t>
+  </si>
+  <si>
+    <t>5086 PATRIKA (JC) *-* (M+D) (942)</t>
+  </si>
+  <si>
+    <t>5088 PATRIKA (25214)</t>
+  </si>
+  <si>
+    <t>5089 PATRIKA (2061 SBC)</t>
+  </si>
+  <si>
+    <t>5090 PATRIKA (5236 RJ)</t>
+  </si>
+  <si>
+    <t>5092 PATRIKA (05 NAVIN BHAI)</t>
+  </si>
+  <si>
+    <t>5093 PATRIKA (5350)</t>
+  </si>
+  <si>
+    <t>5094 PATRIKA (5251)</t>
+  </si>
+  <si>
+    <t>5095 PATRIKA (5240)</t>
+  </si>
+  <si>
+    <t>5096 PATRIKA (25316)</t>
+  </si>
+  <si>
+    <t>5097 PATRIKA (25321)</t>
+  </si>
+  <si>
+    <t>5098 PATRIKA *-* (M) (857)</t>
+  </si>
+  <si>
+    <t>5099 PATRIKA *-* (M) (852 DHANESH)</t>
+  </si>
+  <si>
+    <t>5100 PATRIKA (DCU) (5339)</t>
+  </si>
+  <si>
+    <t>5102 PATRIKA (5021) (2456)</t>
+  </si>
+  <si>
+    <t>5103 PATRIKA (2071)</t>
+  </si>
+  <si>
+    <t>5104 PATRIKA (5261 RJND)</t>
+  </si>
+  <si>
+    <t>5105 PATRIKA (JC) (5335)</t>
+  </si>
+  <si>
+    <t>5106 PATRIKA (253-A / 257-A)</t>
+  </si>
+  <si>
+    <t>5107 PATRIKA (5356 RJ)</t>
+  </si>
+  <si>
+    <t>5108 PATRIKA (5333)</t>
+  </si>
+  <si>
+    <t>5109 PATRIKA (5308)</t>
+  </si>
+  <si>
+    <t>5110 PATRIKA (JC) (AS-402)</t>
+  </si>
+  <si>
+    <t>5111 PATRIKA (JC) (5313)</t>
+  </si>
+  <si>
+    <t>5112 PATRIKA (JC) *-* (M) (25437)</t>
+  </si>
+  <si>
+    <t>5113 PATRIKA (5305)</t>
+  </si>
+  <si>
+    <t>5114 PATRIKA *-* (डोरी) (2091)</t>
+  </si>
+  <si>
+    <t>5115 PATRIKA (DCU) (5363 RJND)</t>
+  </si>
+  <si>
+    <t>5116 PATRIKA (2031)</t>
+  </si>
+  <si>
+    <t>5117 PATRIKA (DCU) (3331)</t>
+  </si>
+  <si>
+    <t>5118 PATRIKA (DCU) (25436)</t>
+  </si>
+  <si>
+    <t>5502 PATRIKA *-* (M) (5355 NICE)</t>
+  </si>
+  <si>
+    <t>5503 PATRIKA (5186)</t>
+  </si>
+  <si>
+    <t>5504 PATRIKA (JC) (7033)</t>
+  </si>
+  <si>
+    <t>5505 PATRIKA (JC) *-* (M) (2282)</t>
+  </si>
+  <si>
+    <t>5506 PATRIKA *-* (M) (25/122)</t>
+  </si>
+  <si>
+    <t>5508 PATRIKA (JC) (612 VV)</t>
+  </si>
+  <si>
+    <t>5509 PATRIKA (JC) (25/072)</t>
+  </si>
+  <si>
+    <t>5510 PATRIKA (JC) *-* (M) (AS-950)</t>
+  </si>
+  <si>
+    <t>5511 PATRIKA (JC) *-* (M) (2528)</t>
+  </si>
+  <si>
+    <t>5512 PATRIKA (JC) (2525 /2552)</t>
+  </si>
+  <si>
+    <t>5513 PATRIKA (2515)</t>
+  </si>
+  <si>
+    <t>5514 PATRIKA (2542)</t>
+  </si>
+  <si>
+    <t>5515 PATRIKA (2523)</t>
+  </si>
+  <si>
+    <t>5516 PATRIKA (JC) *-* (M) (5302 VV)</t>
+  </si>
+  <si>
+    <t>5517 PATRIKA *-* (M) (Patti Aayegi) (6301)</t>
+  </si>
+  <si>
+    <t>5518 PATRIKA (JC) *-* (M) (922)</t>
+  </si>
+  <si>
+    <t>5519 PATRIKA *-* (M) (7066)</t>
+  </si>
+  <si>
+    <t>5520 PATRIKA (1054)</t>
+  </si>
+  <si>
+    <t>5521 PATRIKA (JC) *-* (M) (35)</t>
+  </si>
+  <si>
+    <t>5522 PATRIKA (2231)</t>
+  </si>
+  <si>
+    <t>5523 PATRIKA (2232)</t>
+  </si>
+  <si>
+    <t>5524 PATRIKA (DCU) (5382)</t>
+  </si>
+  <si>
+    <t>5525 PATRIKA *-* (M) (5283)</t>
+  </si>
+  <si>
+    <t>5526 PATRIKA (DCU) (NEW LUSTER - 01)</t>
+  </si>
+  <si>
+    <t>5527 PATRIKA (DCU) (NEW LUSTER - 02)</t>
+  </si>
+  <si>
+    <t>5528 PATRIKA *-* (M) (NEW LUSTER - 03)</t>
+  </si>
+  <si>
+    <t>5529 PATRIKA *-* (M) (NEW LUSTER - 04)</t>
+  </si>
+  <si>
+    <t>5530 PATRIKA *-* (M) (NEW LUSTER - 05)</t>
+  </si>
+  <si>
+    <t>5531 PATRIKA (DCU) (NEW LUSTER - 06)</t>
+  </si>
+  <si>
+    <t>5532 PATRIKA *-* (M) (NEW LUSTER - 07)</t>
+  </si>
+  <si>
+    <t>5533 PATRIKA *-* (M) (NEW LUSTER - 08)</t>
+  </si>
+  <si>
+    <t>5534 PATRIKA *-* (M) (NEW LUSTER - 09)</t>
+  </si>
+  <si>
+    <t>5535 PATRIKA (JC) *-* (M) (1007)</t>
+  </si>
+  <si>
+    <t>5537 PATRIKA (JC) (25-052)</t>
+  </si>
+  <si>
+    <t>5538 PATRIKA (JC) *-* (M) (7073)</t>
+  </si>
+  <si>
+    <t>5539 PATRIKA-B (2942-B)</t>
+  </si>
+  <si>
+    <t>5539 PATRIKA (JC) (2942)</t>
+  </si>
+  <si>
+    <t>5540 PATRIKA *-* (M) (S-96)</t>
+  </si>
+  <si>
+    <t>5542 PATRIKA (2261)</t>
+  </si>
+  <si>
+    <t>5543 PATRIKA (2353)</t>
+  </si>
+  <si>
+    <t>5544 PATRIKA *-* (M) (2732)</t>
+  </si>
+  <si>
+    <t>5545 PATRIKA *-* (M) (2791)</t>
+  </si>
+  <si>
+    <t>5546 PATRIKA (718)</t>
+  </si>
+  <si>
+    <t>5547 PATRIKA *-* (M) (S-32)</t>
+  </si>
+  <si>
+    <t>5548 PATRIKA (DCU) (2792)</t>
+  </si>
+  <si>
+    <t>5549 PATRIKA (5261 NICE)</t>
+  </si>
+  <si>
+    <t>5550 PATRIKA *-* (M) (5424)</t>
+  </si>
+  <si>
+    <t>5551 PATRIKA (5231)</t>
+  </si>
+  <si>
+    <t>5552 PATRIKA (JC) *-* (M) (S-163)</t>
+  </si>
+  <si>
+    <t>5553 PATRIKA *-* (M) (5004)</t>
+  </si>
+  <si>
+    <t>5554 PATRIKA *-* (F/G) (5379)</t>
+  </si>
+  <si>
+    <t>5555 PATRIKA (2903)</t>
+  </si>
+  <si>
+    <t>5556 PATRIKA *-* (M) (2952)</t>
+  </si>
+  <si>
+    <t>5557 PATRIKA (2312 SBC)</t>
+  </si>
+  <si>
+    <t>5558 PATRIKA *-* (M) (121 NEHA)</t>
+  </si>
+  <si>
+    <t>5559 PATRIKA (2293)</t>
+  </si>
+  <si>
+    <t>5560 PATRIKA (F/G) *-* (2915)</t>
+  </si>
+  <si>
+    <t>5561 PATRIKA *-* (M) (25358)</t>
+  </si>
+  <si>
+    <t>5562 PATRIKA *-* (M) (114-B (NEHA))</t>
+  </si>
+  <si>
+    <t>5563 PATRIKA (5387)</t>
+  </si>
+  <si>
+    <t>5564 PATRIKA (JC) *-* (M) (S-107)</t>
+  </si>
+  <si>
+    <t>5565 PATRIKA (175)</t>
+  </si>
+  <si>
+    <t>5566 PATRIKA *-* (M) (1742-B)</t>
+  </si>
+  <si>
+    <t>5567 PATRIKA (1679)</t>
+  </si>
+  <si>
+    <t>5568 PATRIKA *-* (M) (3002)</t>
+  </si>
+  <si>
+    <t>5569 PATRIKA *-* (M) (S-39)</t>
+  </si>
+  <si>
+    <t>5570 PATRIKA *-* (M) (S-74)</t>
+  </si>
+  <si>
+    <t>5571 PATRIKA *-* (M) (25353)</t>
+  </si>
+  <si>
+    <t>5572 PATRIKA *-* (M) (25351)</t>
+  </si>
+  <si>
+    <t>5573 PATRIKA (2205)</t>
+  </si>
+  <si>
+    <t>5574 PATRIKA (25335)</t>
+  </si>
+  <si>
+    <t>5575 PATRIKA *-* (M) (S-77)</t>
+  </si>
+  <si>
+    <t>5576 PATRIKA (2531)</t>
+  </si>
+  <si>
+    <t>5577 PATRIKA *-* (M) (5808)</t>
+  </si>
+  <si>
+    <t>5578 PATRIKA (JC) *-* (M) (AS-104 / S-50)</t>
+  </si>
+  <si>
+    <t>5579 PATRIKA (JC) *-* (M) (AS-102)</t>
+  </si>
+  <si>
+    <t>5580 PATRIKA (S-326)</t>
+  </si>
+  <si>
+    <t>5581 PATRIKA *-* (M) (3471)</t>
+  </si>
+  <si>
+    <t>5582 PATRIKA *-* (M) (3512 SBC)</t>
+  </si>
+  <si>
+    <t>5583 PATRIKA (3211 SBC)</t>
+  </si>
+  <si>
+    <t>5584 PATRIKA (JC) (2202 SBC)</t>
+  </si>
+  <si>
+    <t>5585 PATRIKA *-* (M) (1201 KBC)</t>
+  </si>
+  <si>
+    <t>5586 PATRIKA *-* (M) (S-51)</t>
+  </si>
+  <si>
+    <t>5587 PATRIKA (2264)</t>
+  </si>
+  <si>
+    <t>5588 PATRIKA (JC) *-* (M) (1006)</t>
+  </si>
+  <si>
+    <t>5589 PATRIKA *-* (M) (25133)</t>
+  </si>
+  <si>
+    <t>5590 PATRIKA (3131 SBC)</t>
+  </si>
+  <si>
+    <t>5592 PATRIKA *-* (M) (2365)</t>
+  </si>
+  <si>
+    <t>5593 PATRIKA (2803)</t>
+  </si>
+  <si>
+    <t>5595 PATRIKA *-* (M) (226)</t>
+  </si>
+  <si>
+    <t>5596 PATRIKA *-* (M) (2541)</t>
+  </si>
+  <si>
+    <t>5597 PATRIKA (JC) *-* (M) (AS-104 (B))</t>
+  </si>
+  <si>
+    <t>5599 PATRIKA *-* (M) (77-B)</t>
+  </si>
+  <si>
+    <t>5601 PATRIKA (2771)</t>
+  </si>
+  <si>
+    <t>5602 PATRIKA (3271)</t>
+  </si>
+  <si>
+    <t>5603 PATRIKA *-* (M) (6125)</t>
+  </si>
+  <si>
+    <t>5604 PATRIKA (242-A)</t>
+  </si>
+  <si>
+    <t>5605 PATRIKA (JC) (3102)</t>
+  </si>
+  <si>
+    <t>5606 PATRIKA *-* (M) (221-A)</t>
+  </si>
+  <si>
+    <t>5607 PATRIKA (25442)</t>
+  </si>
+  <si>
+    <t>5608 PATRIKA (25440)</t>
+  </si>
+  <si>
+    <t>5609 PATRIKA (993)</t>
+  </si>
+  <si>
+    <t>5610 PATRIKA (JC) (2373)</t>
+  </si>
+  <si>
+    <t>5611 PATRIKA *-* (M) (1211)</t>
+  </si>
+  <si>
+    <t>5612 PATRIKA (DCU) (5276)</t>
+  </si>
+  <si>
+    <t>5614 PATRIKA *-* (M) (2331)</t>
+  </si>
+  <si>
+    <t>5615 PATRIKA (2111)</t>
+  </si>
+  <si>
+    <t>5616 PATRIKA (DCU) (7069)</t>
+  </si>
+  <si>
+    <t>5617 PATRIKA *-* (M) (7067)</t>
+  </si>
+  <si>
+    <t>5618 PATRIKA (JC) *-* (M) (S-52)</t>
+  </si>
+  <si>
+    <t>5619 PATRIKA (JC) (1131)</t>
+  </si>
+  <si>
+    <t>5621 PATRIKA (JC) *-* (M) (5297)</t>
+  </si>
+  <si>
+    <t>5622 PATRIKA *-* (M) (25337)</t>
+  </si>
+  <si>
+    <t>5623 PATRIKA (064)</t>
+  </si>
+  <si>
+    <t>5625 PATRIKA (DCU) (772)</t>
+  </si>
+  <si>
+    <t>6601 PATRIKA (L) (5164)</t>
+  </si>
+  <si>
+    <t>6602 PATRIKA (5126)</t>
+  </si>
+  <si>
+    <t>6603 PATRIKA (5111)</t>
+  </si>
+  <si>
+    <t>6604 PATRIKA *-* (M) (5196)</t>
+  </si>
+  <si>
+    <t>6605 PATRIKA (5191)</t>
+  </si>
+  <si>
+    <t>6606 PATRIKA (*-*) R (3023)</t>
+  </si>
+  <si>
+    <t>6607 PATRIKA *-* (M) (0523)</t>
+  </si>
+  <si>
+    <t>6608 PATRIKA (95)</t>
+  </si>
+  <si>
+    <t>6609 PATRIKA *-* (M) (3053)</t>
+  </si>
+  <si>
+    <t>6610 PATRIKA *-* (M) (3019)</t>
+  </si>
+  <si>
+    <t>6611 PATRIKA (3017 VV)</t>
+  </si>
+  <si>
+    <t>6612 PATRIKA (3015)</t>
+  </si>
+  <si>
+    <t>6613 PATRIKA (25164)</t>
+  </si>
+  <si>
+    <t>6614 PATRIKA (DCU) (25131)</t>
+  </si>
+  <si>
+    <t>6615 PATRIKA *-* (M) (915 GAGAN)</t>
+  </si>
+  <si>
+    <t>6616 PATRIKA *-* (M) (911 GAGAN)</t>
+  </si>
+  <si>
+    <t>6617 PATRIKA *-* (M) (3422)</t>
+  </si>
+  <si>
+    <t>6618 PATRIKA *-* (M) (3423)</t>
+  </si>
+  <si>
+    <t>6619 PATRIKA *-* (M) (1193)</t>
+  </si>
+  <si>
+    <t>6620 PATRIKA *-* (M) (1045 GGN (PADDING))</t>
+  </si>
+  <si>
+    <t>6621 PATRIKA *-* (M) (7108 (PADDING))</t>
+  </si>
+  <si>
+    <t>6622 PATRIKA *-* (M) (7259 (PADDING))</t>
+  </si>
+  <si>
+    <t>6623 PATRIKA (25184)</t>
+  </si>
+  <si>
+    <t>6624 PATRIKA *-* (M) (25135)</t>
+  </si>
+  <si>
+    <t>6625 PATRIKA *-* (M) (25116)</t>
+  </si>
+  <si>
+    <t>6626 PATRIKA *-* (M) (25161)</t>
+  </si>
+  <si>
+    <t>6627 PATRIKA *-* (M) (25111)</t>
+  </si>
+  <si>
+    <t>6628 PATRIKA *-* (M) (805 SBC)</t>
+  </si>
+  <si>
+    <t>6629 PATRIKA *-* (M) (812 NEW SBC)</t>
+  </si>
+  <si>
+    <t>6630 PATRIKA *-* (M) (5510 NICE)</t>
+  </si>
+  <si>
+    <t>6631 PATRIKA (DCU) (OLD AP ITEM)</t>
+  </si>
+  <si>
+    <t>6632 PATRIKA (DCU) (932)</t>
+  </si>
+  <si>
+    <t>6633 PATRIKA *-* (M) (7081 VP)</t>
+  </si>
+  <si>
+    <t>6634 PATRIKA (3562)</t>
+  </si>
+  <si>
+    <t>6635 PATRIKA *-* (M) (S-313)</t>
+  </si>
+  <si>
+    <t>6636 PATRIKA *-* (M) (25183)</t>
+  </si>
+  <si>
+    <t>6637 PATRIKA (25162 GE)</t>
+  </si>
+  <si>
+    <t>6638 PATRIKA *-* (M) (3014)</t>
+  </si>
+  <si>
+    <t>6639 PATRIKA (B) (2291-B)</t>
+  </si>
+  <si>
+    <t>6640 PATRIKA *-* (M) (5737 PADING)</t>
+  </si>
+  <si>
+    <t>6641 PATRIKA *-* (M) (5435)</t>
+  </si>
+  <si>
+    <t>6642 PATRIKA *-* (M) (5411 RJ)</t>
+  </si>
+  <si>
+    <t>6643 PATRIKA *-* (M) (25380)</t>
+  </si>
+  <si>
+    <t>6644 PATRIKA (DCU) (25132)</t>
+  </si>
+  <si>
+    <t>6645 PATRIKA *-* (M) (3031)</t>
+  </si>
+  <si>
+    <t>6646 PATRIKA *-* (M) (3034)</t>
+  </si>
+  <si>
+    <t>6647 PATRIKA *-* (M) (25382)</t>
+  </si>
+  <si>
+    <t>6648 PATRIKA *-* (M) (5011 (PADDING))</t>
+  </si>
+  <si>
+    <t>6649 PATRIKA *-* (M) (3402)</t>
+  </si>
+  <si>
+    <t>6650 PATRIKA *-* (M) (3431)</t>
+  </si>
+  <si>
+    <t>6651 PATRIKA (3421)</t>
+  </si>
+  <si>
+    <t>6652 PATRIKA *-* (M) (2764 SBC)</t>
+  </si>
+  <si>
+    <t>6653 PATRIKA *-* (M) (834 SBC NEW)</t>
+  </si>
+  <si>
+    <t>6654 PATRIKA *-* (M) (3461)</t>
+  </si>
+  <si>
+    <t>6655 PATRIKA *-* (M) (7129 (PADDING))</t>
+  </si>
+  <si>
+    <t>6656 PATRIKA (L) (7113 (PADDING))</t>
+  </si>
+  <si>
+    <t>6657 PATRIKA *-* (M) (563  DHANESH)</t>
+  </si>
+  <si>
+    <t>6658 PATRIKA *-* (M) (5319)</t>
+  </si>
+  <si>
+    <t>6659 PATRIKA (25193 (Padding))</t>
+  </si>
+  <si>
+    <t>6660 PATRIKA (25194 (Padding))</t>
+  </si>
+  <si>
+    <t>6661 PATRIKA *-* (M) (1281)</t>
+  </si>
+  <si>
+    <t>6662 PATRIKA (3424)</t>
+  </si>
+  <si>
+    <t>6663 PATRIKA (7103 (PADDING))</t>
+  </si>
+  <si>
+    <t>6664 PATRIKA *-* (M) (5823)</t>
+  </si>
+  <si>
+    <t>6665 PATRIKA *-* (M) (603 DHANESH)</t>
+  </si>
+  <si>
+    <t>6667 PATRIKA *-* (M) (1192 SBC)</t>
+  </si>
+  <si>
+    <t>6668 PATRIKA (DCU) (8102)</t>
+  </si>
+  <si>
+    <t>6669 PATRIKA (DCU) (6197)</t>
+  </si>
+  <si>
+    <t>6670 PATRIKA - B (M) (1868-B)</t>
+  </si>
+  <si>
+    <t>6670 PATRIKA *-* (M) (1868)</t>
+  </si>
+  <si>
+    <t>6671 PATRIKA *-* (M) (1872)</t>
+  </si>
+  <si>
+    <t>6672 PATRIKA *-* (M) (6132)</t>
+  </si>
+  <si>
+    <t>6673 PATRIKA (DCU) (6196)</t>
+  </si>
+  <si>
+    <t>6674 PATRIKA (DCU) (1503)</t>
+  </si>
+  <si>
+    <t>6675 PATRIKA *-* (M) (1282)</t>
+  </si>
+  <si>
+    <t>6676 PATRIKA (DCU) (533 KBC)</t>
+  </si>
+  <si>
+    <t>6677 PATRIKA (DCU) (25191 PADDING)</t>
+  </si>
+  <si>
+    <t>7265 PATRIKA (O.C.) (133)</t>
+  </si>
+  <si>
+    <t>7283 PATRIKA {F} (O.C.) (4148)</t>
+  </si>
+  <si>
+    <t>7287 PATRIKA (O.C.) (1522)</t>
+  </si>
+  <si>
+    <t>7288 PATRIKA (O.C.) (1178)</t>
+  </si>
+  <si>
+    <t>7293 PATRIKA (O.C.) (AS-20)</t>
+  </si>
+  <si>
+    <t>7309 PATRIKA (O.C.) (4087)</t>
+  </si>
+  <si>
+    <t>7312 PATRIKA (O.C.) (SBC 7312)</t>
+  </si>
+  <si>
+    <t>7319 PATRIKA (O.C.) (2204)</t>
+  </si>
+  <si>
+    <t>7332 PATRIKA (O.C.) (2482)</t>
+  </si>
+  <si>
+    <t>7342 PATRIKA (O.C.) (12)</t>
+  </si>
+  <si>
+    <t>7344 PATRIKA (O.C.) (INV B.P. RED (11))</t>
+  </si>
+  <si>
+    <t>7345 PATRIKA (O.C.) (INV B.P. GOLDEN (120) 5)</t>
+  </si>
+  <si>
+    <t>7401 PATRIKA (25/252)</t>
+  </si>
+  <si>
+    <t>7402 PATRIKA (25/264-263)</t>
+  </si>
+  <si>
+    <t>7403 PATRIKA (25/363/863)</t>
+  </si>
+  <si>
+    <t>7404 PATRIKA (25/283)</t>
+  </si>
+  <si>
+    <t>7405 PATRIKA (25/273)</t>
+  </si>
+  <si>
+    <t>7406 PATRIKA (25/172)</t>
+  </si>
+  <si>
+    <t>7407 PATRIKA *-* (F) (7145 VP)</t>
+  </si>
+  <si>
+    <t>7408 PATRIKA (DCU) (25895)</t>
+  </si>
+  <si>
+    <t>7409 PATRIKA (2521)</t>
+  </si>
+  <si>
+    <t>7410 PATRIKA (2526)</t>
+  </si>
+  <si>
+    <t>7411 PATRIKA (2535)</t>
+  </si>
+  <si>
+    <t>7413 PATRIKA (2543 INV OFFSET)</t>
+  </si>
+  <si>
+    <t>7414 PATRIKA (1015 GREEN OFFSET)</t>
+  </si>
+  <si>
+    <t>7415 PATRIKA *-* (F) (3162 SBC)</t>
+  </si>
+  <si>
+    <t>7416 PATRIKA (2234)</t>
+  </si>
+  <si>
+    <t>7417 PATRIKA (S-201 INV)</t>
+  </si>
+  <si>
+    <t>7418 PATRIKA *-* (डोरी) (1639)</t>
+  </si>
+  <si>
+    <t>7419 PATRIKA (5121)</t>
+  </si>
+  <si>
+    <t>7420 PATRIKA (720)</t>
+  </si>
+  <si>
+    <t>7421 PATRIKA *-* (F) (25-146)</t>
+  </si>
+  <si>
+    <t>7422 PATRIKA (3702)</t>
+  </si>
+  <si>
+    <t>7423 PATRIKA (254 SBC)</t>
+  </si>
+  <si>
+    <t>7424 PATRIKA *-* (F) (25-047)</t>
+  </si>
+  <si>
+    <t>7425 PATRIKA (2082)</t>
+  </si>
+  <si>
+    <t>7426 PATRIKA (F/G) *-* (4052)</t>
+  </si>
+  <si>
+    <t>7427 PATRIKA (2103)</t>
+  </si>
+  <si>
+    <t>7428 PATRIKA (1223 SBC)</t>
+  </si>
+  <si>
+    <t>7429 PATRIKA (F/G) *-* (1851 MONARCH)</t>
+  </si>
+  <si>
+    <t>7430 PATRIKA (6310 GE)</t>
+  </si>
+  <si>
+    <t>7431 PATRIKA (2532)</t>
+  </si>
+  <si>
+    <t>7432 PATRIKA (1174)</t>
+  </si>
+  <si>
+    <t>7433 PATRIKA (1034)</t>
+  </si>
+  <si>
+    <t>7434 PATRIKA (2204 INV)</t>
+  </si>
+  <si>
+    <t>7435 PATRIKA (06)</t>
+  </si>
+  <si>
+    <t>7436 PATRIKA (303)</t>
+  </si>
+  <si>
+    <t>7437 PATRIKA (25323 INV)</t>
+  </si>
+  <si>
+    <t>7438 PATRIKA (25413)</t>
+  </si>
+  <si>
+    <t>7439 PATRIKA (2597)</t>
+  </si>
+  <si>
+    <t>7440 PATRIKA (25896)</t>
+  </si>
+  <si>
+    <t>7441 PATRIKA *-* (F) (243-C)</t>
+  </si>
+  <si>
+    <t>7442 PATRIKA (1855)</t>
+  </si>
+  <si>
+    <t>7443 PATRIKA (1044 SBC)</t>
+  </si>
+  <si>
+    <t>7444 PATRIKA (2014)</t>
+  </si>
+  <si>
+    <t>7445 PATRIKA (2006)</t>
+  </si>
+  <si>
+    <t>7446 PATRIKA (DCU) (6106)</t>
+  </si>
+  <si>
+    <t>7447 PATRIKA (GOPAL 32)</t>
+  </si>
+  <si>
+    <t>7448 PATRIKA (2005- G)</t>
+  </si>
+  <si>
+    <t>7449 PATRIKA (5180)</t>
+  </si>
+  <si>
+    <t>7450 PATRIKA (DCU) (3753)</t>
+  </si>
+  <si>
+    <t>7451 PATRIKA (273 NEHA)</t>
+  </si>
+  <si>
+    <t>7452 PATRIKA (278-B)</t>
+  </si>
+  <si>
+    <t>7453 PATRIKA (ECO - 61) (NEW ECO 61)</t>
+  </si>
+  <si>
+    <t>7454 PATRIKA (ECO -63) (NEW ECO 63)</t>
+  </si>
+  <si>
+    <t>9001 CARD (O.C.) (2498 Cream)</t>
   </si>
   <si>
     <t>9221 CARDS - YELLOW</t>
@@ -1688,268 +1688,268 @@
     <t>9227 CARDS (9*5 OFFSET)</t>
   </si>
   <si>
-    <t>9228 CARDS (Y)</t>
-  </si>
-  <si>
-    <t>9229 CARDS - B (DCU)</t>
-  </si>
-  <si>
-    <t>9229 CARDS (C)</t>
+    <t>9228 CARDS (Y) (ORANGE WITH ONLY FOIL)</t>
+  </si>
+  <si>
+    <t>9229 CARDS - B (DCU) (GOLDEN WITH GANESH JI &amp; FOIL)</t>
+  </si>
+  <si>
+    <t>9229 CARDS (C) (CREAM WITH GANESH JI &amp; FOIL)</t>
   </si>
   <si>
     <t>9230 (CARD) 9*5 SCREEN</t>
   </si>
   <si>
-    <t>9231 CARDS (DCU)</t>
-  </si>
-  <si>
-    <t>9232 CARDS (DCU)</t>
-  </si>
-  <si>
-    <t>9233 CARDS (DCU)</t>
-  </si>
-  <si>
-    <t>9235 CARDS (DCU)</t>
-  </si>
-  <si>
-    <t>9236 CARDS (DCU)</t>
-  </si>
-  <si>
-    <t>9237 CARDS (DCU)</t>
-  </si>
-  <si>
-    <t>9301 CARDS</t>
-  </si>
-  <si>
-    <t>9302 CARDS</t>
-  </si>
-  <si>
-    <t>9303 CARDS</t>
-  </si>
-  <si>
-    <t>9304 CARDS</t>
-  </si>
-  <si>
-    <t>9305 CARDS (9070)</t>
-  </si>
-  <si>
-    <t>9306 CARDS</t>
-  </si>
-  <si>
-    <t>9307 CARDS *-* (M)</t>
-  </si>
-  <si>
-    <t>9308 CARDS</t>
-  </si>
-  <si>
-    <t>9309 CARDS *-* (T)</t>
-  </si>
-  <si>
-    <t>9310 CARDS</t>
-  </si>
-  <si>
-    <t>9311 CARDS</t>
-  </si>
-  <si>
-    <t>9312 CARDS *-* (T)</t>
-  </si>
-  <si>
-    <t>9313 CARDS *-* (T)</t>
-  </si>
-  <si>
-    <t>9314 CARDS</t>
-  </si>
-  <si>
-    <t>9315 CARDS (DCU)</t>
-  </si>
-  <si>
-    <t>9316 CARDS (DCU)</t>
-  </si>
-  <si>
-    <t>9317 CARDS</t>
-  </si>
-  <si>
-    <t>9318 CARDS</t>
-  </si>
-  <si>
-    <t>9320 CARDS</t>
-  </si>
-  <si>
-    <t>9321 CARDS</t>
-  </si>
-  <si>
-    <t>9322 CARDS *-* (M)</t>
-  </si>
-  <si>
-    <t>9323 CARDS (9005 OLD)</t>
-  </si>
-  <si>
-    <t>9324 CARDS</t>
-  </si>
-  <si>
-    <t>9325 CARDS</t>
-  </si>
-  <si>
-    <t>9326 CARDS</t>
-  </si>
-  <si>
-    <t>9327 CARDS</t>
-  </si>
-  <si>
-    <t>9328 CARDS</t>
-  </si>
-  <si>
-    <t>9329 CARDS (Desgin H/d)</t>
-  </si>
-  <si>
-    <t>9330 CARDS *-* (T)</t>
-  </si>
-  <si>
-    <t>9331 CARDS *-*  (T)</t>
-  </si>
-  <si>
-    <t>9332 CARDS</t>
-  </si>
-  <si>
-    <t>9333 CARDS</t>
-  </si>
-  <si>
-    <t>9334 CARDS</t>
-  </si>
-  <si>
-    <t>9335 CARDS (9003 OLD)</t>
-  </si>
-  <si>
-    <t>9336 CARDS</t>
-  </si>
-  <si>
-    <t>9337 CARDS</t>
-  </si>
-  <si>
-    <t>9338 CARDS</t>
-  </si>
-  <si>
-    <t>9339 CARDS</t>
-  </si>
-  <si>
-    <t>9340 CARDS</t>
-  </si>
-  <si>
-    <t>9341 CARDS</t>
-  </si>
-  <si>
-    <t>9342 CARDS</t>
-  </si>
-  <si>
-    <t>9343 CARDS</t>
-  </si>
-  <si>
-    <t>9344 CARDS</t>
-  </si>
-  <si>
-    <t>9345 CARDS</t>
-  </si>
-  <si>
-    <t>9346 CARDS</t>
-  </si>
-  <si>
-    <t>9347 CARDS</t>
-  </si>
-  <si>
-    <t>9348 CARDS *-* (डोरी)</t>
-  </si>
-  <si>
-    <t>9349 CARDS (W/o Window)</t>
-  </si>
-  <si>
-    <t>9350 CARDS *-* (T)</t>
-  </si>
-  <si>
-    <t>9351 Card - B</t>
-  </si>
-  <si>
-    <t>9351 CARDS *-* (T)</t>
-  </si>
-  <si>
-    <t>9352 CARDS *-* (T)</t>
-  </si>
-  <si>
-    <t>9353 CARDS</t>
-  </si>
-  <si>
-    <t>9354 CARDS (DCU)</t>
-  </si>
-  <si>
-    <t>9355 CARDS</t>
-  </si>
-  <si>
-    <t>9356 CARDS</t>
-  </si>
-  <si>
-    <t>9357 CARDS</t>
-  </si>
-  <si>
-    <t>9358 CARDS</t>
-  </si>
-  <si>
-    <t>9359 CARDS</t>
-  </si>
-  <si>
-    <t>9360 CARDS *-* (M)</t>
-  </si>
-  <si>
-    <t>9361 CARDS</t>
-  </si>
-  <si>
-    <t>9362 CARDS</t>
-  </si>
-  <si>
-    <t>9363 CARDS *-* (T)</t>
-  </si>
-  <si>
-    <t>9364 CARDS *-* (T)</t>
-  </si>
-  <si>
-    <t>9365 CARDS</t>
-  </si>
-  <si>
-    <t>9366 CARDS</t>
-  </si>
-  <si>
-    <t>9367 CARDS</t>
-  </si>
-  <si>
-    <t>9368 CARDS</t>
-  </si>
-  <si>
-    <t>9369 CARDS</t>
-  </si>
-  <si>
-    <t>9370 CARDS</t>
-  </si>
-  <si>
-    <t>9371 CARDS</t>
-  </si>
-  <si>
-    <t>9372 CARDS</t>
-  </si>
-  <si>
-    <t>9373 CARDS</t>
-  </si>
-  <si>
-    <t>9374 CARDS</t>
-  </si>
-  <si>
-    <t>9375 CARDS</t>
-  </si>
-  <si>
-    <t>9376 CARDS</t>
-  </si>
-  <si>
-    <t>9377 CARDS (DCU)</t>
-  </si>
-  <si>
-    <t>9378 CARDS</t>
+    <t>9231 CARDS (DCU) (RIYAZ 9*5 PINK)</t>
+  </si>
+  <si>
+    <t>9232 CARDS (DCU) (RIYAZ 9*5 CREAM)</t>
+  </si>
+  <si>
+    <t>9233 CARDS (DCU) (RIYAZ 9*5 YELLOW)</t>
+  </si>
+  <si>
+    <t>9235 CARDS (DCU) (RIYAZ 9*4 CREAM)</t>
+  </si>
+  <si>
+    <t>9236 CARDS (DCU) (RIYAZ 9*4 YELLOW)</t>
+  </si>
+  <si>
+    <t>9237 CARDS (DCU) (DCU 9*4 RED)</t>
+  </si>
+  <si>
+    <t>9301 CARDS (4242)</t>
+  </si>
+  <si>
+    <t>9302 CARDS (5076)</t>
+  </si>
+  <si>
+    <t>9303 CARDS (5080 Pink)</t>
+  </si>
+  <si>
+    <t>9304 CARDS (5083 Blue)</t>
+  </si>
+  <si>
+    <t>9305 CARDS (9070) (4701 Nice)</t>
+  </si>
+  <si>
+    <t>9306 CARDS (0543 Nice)</t>
+  </si>
+  <si>
+    <t>9307 CARDS *-* (M) (5243 Nice)</t>
+  </si>
+  <si>
+    <t>9308 CARDS (9852)</t>
+  </si>
+  <si>
+    <t>9309 CARDS *-* (T) (9561 Vp)</t>
+  </si>
+  <si>
+    <t>9310 CARDS (3103)</t>
+  </si>
+  <si>
+    <t>9311 CARDS (3115)</t>
+  </si>
+  <si>
+    <t>9312 CARDS *-* (T) (208 VV)</t>
+  </si>
+  <si>
+    <t>9313 CARDS *-* (T) (216)</t>
+  </si>
+  <si>
+    <t>9314 CARDS (P-1)</t>
+  </si>
+  <si>
+    <t>9315 CARDS (DCU) (P-2)</t>
+  </si>
+  <si>
+    <t>9316 CARDS (DCU) (P-3)</t>
+  </si>
+  <si>
+    <t>9317 CARDS (P-4)</t>
+  </si>
+  <si>
+    <t>9318 CARDS (25905)</t>
+  </si>
+  <si>
+    <t>9320 CARDS (S-20)</t>
+  </si>
+  <si>
+    <t>9321 CARDS (22912 GANESH JI)</t>
+  </si>
+  <si>
+    <t>9322 CARDS *-* (M) (22912 COMMON)</t>
+  </si>
+  <si>
+    <t>9323 CARDS (9005 OLD) (9*5 CREAM FOIL NEW)</t>
+  </si>
+  <si>
+    <t>9324 CARDS (9*5 PINK FOIL NEW)</t>
+  </si>
+  <si>
+    <t>9325 CARDS (5229)</t>
+  </si>
+  <si>
+    <t>9326 CARDS (1601)</t>
+  </si>
+  <si>
+    <t>9327 CARDS (25908)</t>
+  </si>
+  <si>
+    <t>9328 CARDS (2543)</t>
+  </si>
+  <si>
+    <t>9329 CARDS (Desgin H/d) (3606)</t>
+  </si>
+  <si>
+    <t>9330 CARDS *-* (T) (9557)</t>
+  </si>
+  <si>
+    <t>9331 CARDS *-*  (T) (9560)</t>
+  </si>
+  <si>
+    <t>9332 CARDS (9847)</t>
+  </si>
+  <si>
+    <t>9333 CARDS (6042)</t>
+  </si>
+  <si>
+    <t>9334 CARDS (10X6 WHITE (2898))</t>
+  </si>
+  <si>
+    <t>9335 CARDS (9003 OLD) (9*5 WHITE)</t>
+  </si>
+  <si>
+    <t>9336 CARDS (2884)</t>
+  </si>
+  <si>
+    <t>9337 CARDS (1635 AP)</t>
+  </si>
+  <si>
+    <t>9338 CARDS (1637 AP)</t>
+  </si>
+  <si>
+    <t>9339 CARDS (5361)</t>
+  </si>
+  <si>
+    <t>9340 CARDS (5658)</t>
+  </si>
+  <si>
+    <t>9341 CARDS (5497)</t>
+  </si>
+  <si>
+    <t>9342 CARDS (2861)</t>
+  </si>
+  <si>
+    <t>9343 CARDS (9*5 WHTE GE HEAVY)</t>
+  </si>
+  <si>
+    <t>9344 CARDS (689)</t>
+  </si>
+  <si>
+    <t>9345 CARDS (358 KALYANI)</t>
+  </si>
+  <si>
+    <t>9346 CARDS (359)</t>
+  </si>
+  <si>
+    <t>9347 CARDS (2853)</t>
+  </si>
+  <si>
+    <t>9348 CARDS *-* (डोरी) (S-124)</t>
+  </si>
+  <si>
+    <t>9349 CARDS (W/o Window) (S-120)</t>
+  </si>
+  <si>
+    <t>9350 CARDS *-* (T) (1632)</t>
+  </si>
+  <si>
+    <t>9351 Card - B (1603 B)</t>
+  </si>
+  <si>
+    <t>9351 CARDS *-* (T) (1603)</t>
+  </si>
+  <si>
+    <t>9352 CARDS *-* (T) (1606 AP)</t>
+  </si>
+  <si>
+    <t>9353 CARDS (1618)</t>
+  </si>
+  <si>
+    <t>9354 CARDS (DCU) (345)</t>
+  </si>
+  <si>
+    <t>9355 CARDS (1624)</t>
+  </si>
+  <si>
+    <t>9356 CARDS (2895/2897)</t>
+  </si>
+  <si>
+    <t>9357 CARDS (2872)</t>
+  </si>
+  <si>
+    <t>9358 CARDS (WHITE PATTA)</t>
+  </si>
+  <si>
+    <t>9359 CARDS (PITCH PATTA)</t>
+  </si>
+  <si>
+    <t>9360 CARDS *-* (M) (GOL ANDA)</t>
+  </si>
+  <si>
+    <t>9361 CARDS (25426)</t>
+  </si>
+  <si>
+    <t>9362 CARDS (363)</t>
+  </si>
+  <si>
+    <t>9363 CARDS *-* (T) (1652)</t>
+  </si>
+  <si>
+    <t>9364 CARDS *-* (T) (1612)</t>
+  </si>
+  <si>
+    <t>9365 CARDS (25429)</t>
+  </si>
+  <si>
+    <t>9366 CARDS (25427 GOLDEN)</t>
+  </si>
+  <si>
+    <t>9367 CARDS (5652)</t>
+  </si>
+  <si>
+    <t>9368 CARDS (9*5 SET 25/26 GOLDEN (25425))</t>
+  </si>
+  <si>
+    <t>9369 CARDS (9*5 SET 25/26 YELLOW (25424))</t>
+  </si>
+  <si>
+    <t>9370 CARDS (9*5 SET 25/26 RED (25423))</t>
+  </si>
+  <si>
+    <t>9371 CARDS (3111 VP)</t>
+  </si>
+  <si>
+    <t>9372 CARDS (9*5 YLW SET (2841))</t>
+  </si>
+  <si>
+    <t>9373 CARDS (1482)</t>
+  </si>
+  <si>
+    <t>9374 CARDS (1485)</t>
+  </si>
+  <si>
+    <t>9375 CARDS (1452 WHITE)</t>
+  </si>
+  <si>
+    <t>9376 CARDS (1529 PRINCE)</t>
+  </si>
+  <si>
+    <t>9377 CARDS (DCU) (9*5 SET GREEN (009))</t>
+  </si>
+  <si>
+    <t>9378 CARDS (2892)</t>
   </si>
   <si>
     <t>9379 CARDS - R</t>
@@ -1979,19 +1979,19 @@
     <t>9387 CARDS - GOLDEN (Mil Jayega)</t>
   </si>
   <si>
-    <t>9389 CARDS</t>
-  </si>
-  <si>
-    <t>9390 CARDS (DCU)</t>
+    <t>9389 CARDS (9147 RJ)</t>
+  </si>
+  <si>
+    <t>9390 CARDS (DCU) (118KBC)</t>
   </si>
   <si>
     <t>9391 CARDS</t>
   </si>
   <si>
-    <t>9*4 ENVELOPE (SBC)</t>
-  </si>
-  <si>
-    <t>9*5 ENVELOPE (FOIL) SBC</t>
+    <t>9*4 ENVELOPE (SBC) (CHOTA ENVELOPE (60/40 BILL))</t>
+  </si>
+  <si>
+    <t>9*5 ENVELOPE (FOIL) SBC (BADA ENVLP WITH FOIL (60/40 BILL))</t>
   </si>
   <si>
     <t>ACRYLIC NAME PLATE</t>
@@ -2000,7 +2000,7 @@
     <t>DEV SAMPLE SET</t>
   </si>
   <si>
-    <t>FANCY GIFT ENVELOPE-(SR)</t>
+    <t>FANCY GIFT ENVELOPE-(SR) (SR ENVELOPES)</t>
   </si>
   <si>
     <t>Gift Envelope (Pocket) SR...</t>
@@ -2018,34 +2018,34 @@
     <t>RIBBON (रिबीन)</t>
   </si>
   <si>
-    <t>RX-01 ENVELOPE</t>
-  </si>
-  <si>
-    <t>RX-02 ENVELOPE</t>
-  </si>
-  <si>
-    <t>RX-03 ENVELOPE</t>
-  </si>
-  <si>
-    <t>RX-04 ENVELOPE</t>
-  </si>
-  <si>
-    <t>RX-05 ENVELOPE</t>
-  </si>
-  <si>
-    <t>RX-06 ENVELOPE</t>
-  </si>
-  <si>
-    <t>RX-07 ENVELOPE</t>
-  </si>
-  <si>
-    <t>RX-08 ENVELOPE</t>
-  </si>
-  <si>
-    <t>RX-09 ENVELOPE</t>
-  </si>
-  <si>
-    <t>गोल गणेश / गोल फ्लावर</t>
+    <t>RX-01 ENVELOPE (LX01)</t>
+  </si>
+  <si>
+    <t>RX-02 ENVELOPE (LX02)</t>
+  </si>
+  <si>
+    <t>RX-03 ENVELOPE (LX03)</t>
+  </si>
+  <si>
+    <t>RX-04 ENVELOPE (LX04)</t>
+  </si>
+  <si>
+    <t>RX-05 ENVELOPE (LX05)</t>
+  </si>
+  <si>
+    <t>RX-06 ENVELOPE (LX06)</t>
+  </si>
+  <si>
+    <t>RX-07 ENVELOPE (LX07)</t>
+  </si>
+  <si>
+    <t>RX-08 ENVELOPE (LX08)</t>
+  </si>
+  <si>
+    <t>RX-09 ENVELOPE (LX09)</t>
+  </si>
+  <si>
+    <t>गोल गणेश / गोल फ्लावर (GOL GANESH OR GOL FLOWER)</t>
   </si>
   <si>
     <t>Grand Total</t>
@@ -2578,7 +2578,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
@@ -4081,7 +4081,7 @@
         <v>9</v>
       </c>
       <c r="C93" s="25">
-        <v>425</v>
+        <v>189</v>
       </c>
       <c r="D93" s="28"/>
       <c r="E93" s="29"/>
@@ -4094,7 +4094,7 @@
         <v>7</v>
       </c>
       <c r="C94" s="25">
-        <v>900</v>
+        <v>430</v>
       </c>
       <c r="D94" s="28"/>
       <c r="E94" s="29"/>
@@ -4107,7 +4107,7 @@
         <v>5</v>
       </c>
       <c r="C95" s="25">
-        <v>456</v>
+        <v>221</v>
       </c>
       <c r="D95" s="28"/>
       <c r="E95" s="29"/>
@@ -5874,10 +5874,10 @@
         <v>152</v>
       </c>
       <c r="D205" s="26">
-        <v>3.93</v>
+        <v>3.92</v>
       </c>
       <c r="E205" s="27">
-        <v>596.61</v>
+        <v>595.96</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
@@ -8002,10 +8002,10 @@
         <v>57</v>
       </c>
       <c r="D333" s="26">
-        <v>6.5</v>
+        <v>6.64</v>
       </c>
       <c r="E333" s="27">
-        <v>370.5</v>
+        <v>378.55</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
@@ -11991,10 +11991,10 @@
         <v>56.5</v>
       </c>
       <c r="D574" s="26">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="E574" s="27">
-        <v>155.21</v>
+        <v>157.26</v>
       </c>
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.25">
@@ -12042,10 +12042,10 @@
         <v>73</v>
       </c>
       <c r="D577" s="26">
-        <v>2.71</v>
+        <v>2.74</v>
       </c>
       <c r="E577" s="27">
-        <v>197.74</v>
+        <v>200.19</v>
       </c>
     </row>
     <row r="578" spans="1:5" x14ac:dyDescent="0.25">
@@ -13557,11 +13557,11 @@
       </c>
       <c r="B671" s="31"/>
       <c r="C671" s="32">
-        <v>39538.839999999997</v>
+        <v>38597.839999999997</v>
       </c>
       <c r="D671" s="33"/>
       <c r="E671" s="34">
-        <v>107553.91</v>
+        <v>107565.81</v>
       </c>
     </row>
   </sheetData>

--- a/data/website stock.xlsx
+++ b/data/website stock.xlsx
@@ -35,7 +35,7 @@
     <t>Stock Group Summary</t>
   </si>
   <si>
-    <t>1-Jul-25 to 9-Dec-25</t>
+    <t>1-Jul-25 to 10-Dec-25</t>
   </si>
   <si>
     <t/>
@@ -68,310 +68,310 @@
     <t>Value</t>
   </si>
   <si>
-    <t>.1001 PATRIKA (25/251)</t>
-  </si>
-  <si>
-    <t>1002 PATRIKA (25/262)</t>
-  </si>
-  <si>
-    <t>1003 PATRIKA (25/261)</t>
-  </si>
-  <si>
-    <t>1004 PATRIKA (25/361/861)</t>
-  </si>
-  <si>
-    <t>1005 PATRIKA (25/362/862)</t>
-  </si>
-  <si>
-    <t>1006 PATRIKA (25/282)</t>
-  </si>
-  <si>
-    <t>1007 PATRIKA (25/281)</t>
-  </si>
-  <si>
-    <t>1008 PATRIKA (JC) (2595 PINK)</t>
-  </si>
-  <si>
-    <t>1009 PATRIKA (JC) (2595 ORANGE)</t>
-  </si>
-  <si>
-    <t>1010 PATRIKA (6321)</t>
-  </si>
-  <si>
-    <t>1011 PATRIKA (2563 OFFSET NEW)</t>
-  </si>
-  <si>
-    <t>1012 PATRIKA (2564 OFFSET NEW)</t>
-  </si>
-  <si>
-    <t>1013 PATRIKA (2568 OFFSET NEW)</t>
-  </si>
-  <si>
-    <t>1014 PATRIKA (11043 OFFSET)</t>
-  </si>
-  <si>
-    <t>1015 PATRIKA (DCU) (11041 OFFSET NEW)</t>
-  </si>
-  <si>
-    <t>1016 PATRIKA (1011 OFFSET)</t>
-  </si>
-  <si>
-    <t>1017 PATRIKA (1014 OFFSET)</t>
-  </si>
-  <si>
-    <t>1018 PATRIKA (10081 OFFSET NEW)</t>
-  </si>
-  <si>
-    <t>1019 PATRIKA (1222 SBC)</t>
-  </si>
-  <si>
-    <t>1020 PATRIKA (1235)</t>
-  </si>
-  <si>
-    <t>1021 PATRIKA (2101 VV)</t>
-  </si>
-  <si>
-    <t>1023 PATRIKA (25418)</t>
-  </si>
-  <si>
-    <t>1024 PATRIKA (25322)</t>
-  </si>
-  <si>
-    <t>1025 PATRIKA (25323)</t>
-  </si>
-  <si>
-    <t>1026 PATRIKA (JC) (1173 SBC)</t>
-  </si>
-  <si>
-    <t>1027 PATRIKA (JC) (5346)</t>
-  </si>
-  <si>
-    <t>1028 PATRIKA (JC) (2596)</t>
-  </si>
-  <si>
-    <t>1029 PATRIKA (1042)</t>
-  </si>
-  <si>
-    <t>1030 PATRIKA (1043)</t>
-  </si>
-  <si>
-    <t>1031 PATRIKA (GOPAL 11)</t>
-  </si>
-  <si>
-    <t>1032 PATRIKA (GOPAL 1)</t>
-  </si>
-  <si>
-    <t>1033 PATRIKA (2002 YLW)</t>
-  </si>
-  <si>
-    <t>1034 PATRIKA (2003 R)</t>
-  </si>
-  <si>
-    <t>1035 PATRIKA (DCU) (2201 ROSHAN)</t>
-  </si>
-  <si>
-    <t>1101 PATRIKA (O.2591) (2591 ORANGE)</t>
-  </si>
-  <si>
-    <t>1102 PATRIKA (P.2591) (2591 PINK)</t>
-  </si>
-  <si>
-    <t>1103 PATRIKA(N-271) (271 NEHA)</t>
-  </si>
-  <si>
-    <t>1104 PATRIKA(N-272) (272 NEHA)</t>
-  </si>
-  <si>
-    <t>1105 PATRIKA (276-A)</t>
-  </si>
-  <si>
-    <t>1106 PATRIKA-YELLOW (25419)</t>
-  </si>
-  <si>
-    <t>1107 PATRIKA-RED (25420)</t>
-  </si>
-  <si>
-    <t>1109 PATRIKA-BIG Y (25421)</t>
-  </si>
-  <si>
-    <t>1110 PATRIKA-BIG R (25422)</t>
-  </si>
-  <si>
-    <t>1112 PATRIKA (277-B)</t>
-  </si>
-  <si>
-    <t>1113 PATRIKA (1819 MONARCH)</t>
-  </si>
-  <si>
-    <t>1114 PATRIKA-BROWN (1709)</t>
-  </si>
-  <si>
-    <t>1115 PATRIKA-CREAM (1678 PRINCE)</t>
-  </si>
-  <si>
-    <t>1116 PATRIKA (1153) (1253 Jsk)</t>
-  </si>
-  <si>
-    <t>1117 PATRIKA (1155) (1155 JSK)</t>
-  </si>
-  <si>
-    <t>1117 PATRIKA - B (KRISHNA 1155-B)</t>
-  </si>
-  <si>
-    <t>1118 PATRIKA - B (DCU) (NEW SAVASHREE- 51)</t>
-  </si>
-  <si>
-    <t>1118 PATRIKA (सवाश्री-57) (NEW SAVASHREE-57)</t>
-  </si>
-  <si>
-    <t>1119 PATRIKA - B (DCU) (NEW SAVASHREE 52)</t>
-  </si>
-  <si>
-    <t>1119 PATRIKA(सवाश्री-55) (NEW SAVASHREE-55)</t>
-  </si>
-  <si>
-    <t>1120 PATRIKA(सवाश्री-59) (NEW SAVASHREE-59)</t>
-  </si>
-  <si>
-    <t>1121 PATRIKA(सवाश्री-53) (NEW SAVASHREE-53)</t>
-  </si>
-  <si>
-    <t>1122 PATRIKA (DCU) (NEW SAVASHREE-54)</t>
-  </si>
-  <si>
-    <t>1123 PATRIKA (LED-51) (LED-51)</t>
-  </si>
-  <si>
-    <t>1124 PATRIKA (LED-52) (LED-52)</t>
-  </si>
-  <si>
-    <t>1125 PATRIKA (LED-53) (LED-53)</t>
-  </si>
-  <si>
-    <t>1126 PATRIKA (LED-54) (LED-54)</t>
-  </si>
-  <si>
-    <t>1127 PATRIKA (Eco-52) (NEW ECO-52)</t>
-  </si>
-  <si>
-    <t>1128 PATRIKA (Eco-55) (NEW ECO-55)</t>
-  </si>
-  <si>
-    <t>1129 PATRIKA (Eco-56) (NEW ECO-56)</t>
-  </si>
-  <si>
-    <t>1130 PATRIKA - B (ECO-60) (DCU) (NEW ECO 60)</t>
-  </si>
-  <si>
-    <t>1130 PATRIKA (Eco-59) (NEW ECO-59)</t>
-  </si>
-  <si>
-    <t>1131 PATRIKA (DCU) Eco-51 (NEW ECO- 51)</t>
-  </si>
-  <si>
-    <t>1132 PATRIKA (DCU) Eco-53 (NEW ECO- 53)</t>
-  </si>
-  <si>
-    <t>1133 PATRIKA (DCU) Eco-57 (NEW ECO- 57)</t>
-  </si>
-  <si>
-    <t>1134 PATRIKA (DCU) Eco-58 (NEW ECO- 58)</t>
-  </si>
-  <si>
-    <t>1135 PATRIKA (DCU) Eco-54 (NEW ECO- 54)</t>
-  </si>
-  <si>
-    <t>1136 PATRIKA (R) (120 GSM RED)</t>
-  </si>
-  <si>
-    <t>1137 PATRIKA (P) (120 GSM YELLOW)</t>
-  </si>
-  <si>
-    <t>1138 PATRIKA (BR) (150 GSM FOIL (RED))</t>
-  </si>
-  <si>
-    <t>1139 PATRIKA (BY) (150 GSM FOIL (YELLOW))</t>
-  </si>
-  <si>
-    <t>1140 PATRIKA (BB) (150 GSM FOIL (BROWN))</t>
-  </si>
-  <si>
-    <t>1141 PATRIKA (R) (120 GSM (RED)SELF)</t>
-  </si>
-  <si>
-    <t>1142 PATRIKA (P) (120 GSM (YELLOW) SELF)</t>
-  </si>
-  <si>
-    <t>1143 PATRIKA (G) (120 GSM (OLD GOLDEN))</t>
-  </si>
-  <si>
-    <t>1144 PATRIKA (BR) (170 GSM WITH FOIL (RED))</t>
-  </si>
-  <si>
-    <t>1145 PATRIKA (BY) (170 GSM WITH FOIL (YELLOW))</t>
-  </si>
-  <si>
-    <t>1146 PATRIKA (DCU) (BROWN 170 GSM FOIL)</t>
-  </si>
-  <si>
-    <t>1147 PATRIKA (S.201) (201 WESTERN)</t>
-  </si>
-  <si>
-    <t>1148 PATRIKA (S.202) (202 WESTERN)</t>
-  </si>
-  <si>
-    <t>1149 PATRIKA (S.204) (204 WESTERN)</t>
-  </si>
-  <si>
-    <t>1150 PATRIKA (DCU) (NEW SAVASHREE-58)</t>
-  </si>
-  <si>
-    <t>1151 PATRIKA (DCU) (NEW SAVASHREE-56)</t>
-  </si>
-  <si>
-    <t>1152 PATRIKA (DCU) (WESTERN 202 OLD)</t>
-  </si>
-  <si>
-    <t>1153 PATRIKA (DCU) (201 WESTERN (OLD))</t>
-  </si>
-  <si>
-    <t>1154 PATRIKA (DCU) (203 WESTERN A)</t>
-  </si>
-  <si>
-    <t>1155 PATRIKA (DCU) (WESTERN (203) B)</t>
-  </si>
-  <si>
-    <t>1156 PATRIKA-YELLOW (LU-51 (YELLOW))</t>
-  </si>
-  <si>
-    <t>1157 PATRIKA-CREAM (LU-52 (CREAM))</t>
-  </si>
-  <si>
-    <t>1158 PATRIKA-GOLDEN (LU-53 (GOLDEN))</t>
-  </si>
-  <si>
-    <t>1159 PATRIKA-WHITE (LU-54 (WHITE))</t>
-  </si>
-  <si>
-    <t>1160 PATRIKA-PINK (LU-55 (PINK))</t>
-  </si>
-  <si>
-    <t>1161 PATRIKA (01) (JCC 01)</t>
-  </si>
-  <si>
-    <t>1162 PATRIKA (02) (JCC 02)</t>
-  </si>
-  <si>
-    <t>1163 PATRIKA (DCU) (BP RED)</t>
-  </si>
-  <si>
-    <t>1164 PATRIKA (DCU) (BP PINK RIYAZ)</t>
-  </si>
-  <si>
-    <t>1165 PATRIKA (DCU) (BP CREAM)</t>
-  </si>
-  <si>
-    <t>1166 PATRIKA (DCU) (BP YELLOW)</t>
+    <t>.1001 PATRIKA</t>
+  </si>
+  <si>
+    <t>1002 PATRIKA</t>
+  </si>
+  <si>
+    <t>1003 PATRIKA</t>
+  </si>
+  <si>
+    <t>1004 PATRIKA</t>
+  </si>
+  <si>
+    <t>1005 PATRIKA</t>
+  </si>
+  <si>
+    <t>1006 PATRIKA</t>
+  </si>
+  <si>
+    <t>1007 PATRIKA</t>
+  </si>
+  <si>
+    <t>1008 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>1009 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>1010 PATRIKA</t>
+  </si>
+  <si>
+    <t>1011 PATRIKA</t>
+  </si>
+  <si>
+    <t>1012 PATRIKA</t>
+  </si>
+  <si>
+    <t>1013 PATRIKA</t>
+  </si>
+  <si>
+    <t>1014 PATRIKA</t>
+  </si>
+  <si>
+    <t>1015 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>1016 PATRIKA</t>
+  </si>
+  <si>
+    <t>1017 PATRIKA</t>
+  </si>
+  <si>
+    <t>1018 PATRIKA</t>
+  </si>
+  <si>
+    <t>1019 PATRIKA</t>
+  </si>
+  <si>
+    <t>1020 PATRIKA</t>
+  </si>
+  <si>
+    <t>1021 PATRIKA</t>
+  </si>
+  <si>
+    <t>1023 PATRIKA</t>
+  </si>
+  <si>
+    <t>1024 PATRIKA</t>
+  </si>
+  <si>
+    <t>1025 PATRIKA</t>
+  </si>
+  <si>
+    <t>1026 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>1027 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>1028 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>1029 PATRIKA</t>
+  </si>
+  <si>
+    <t>1030 PATRIKA</t>
+  </si>
+  <si>
+    <t>1031 PATRIKA</t>
+  </si>
+  <si>
+    <t>1032 PATRIKA</t>
+  </si>
+  <si>
+    <t>1033 PATRIKA</t>
+  </si>
+  <si>
+    <t>1034 PATRIKA</t>
+  </si>
+  <si>
+    <t>1035 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>1101 PATRIKA (O.2591)</t>
+  </si>
+  <si>
+    <t>1102 PATRIKA (P.2591)</t>
+  </si>
+  <si>
+    <t>1103 PATRIKA(N-271)</t>
+  </si>
+  <si>
+    <t>1104 PATRIKA(N-272)</t>
+  </si>
+  <si>
+    <t>1105 PATRIKA</t>
+  </si>
+  <si>
+    <t>1106 PATRIKA-YELLOW</t>
+  </si>
+  <si>
+    <t>1107 PATRIKA-RED</t>
+  </si>
+  <si>
+    <t>1109 PATRIKA-BIG Y</t>
+  </si>
+  <si>
+    <t>1110 PATRIKA-BIG R</t>
+  </si>
+  <si>
+    <t>1112 PATRIKA</t>
+  </si>
+  <si>
+    <t>1113 PATRIKA</t>
+  </si>
+  <si>
+    <t>1114 PATRIKA-BROWN</t>
+  </si>
+  <si>
+    <t>1115 PATRIKA-CREAM</t>
+  </si>
+  <si>
+    <t>1116 PATRIKA (1153)</t>
+  </si>
+  <si>
+    <t>1117 PATRIKA (1155)</t>
+  </si>
+  <si>
+    <t>1117 PATRIKA - B</t>
+  </si>
+  <si>
+    <t>1118 PATRIKA - B (DCU)</t>
+  </si>
+  <si>
+    <t>1118 PATRIKA (सवाश्री-57)</t>
+  </si>
+  <si>
+    <t>1119 PATRIKA - B (DCU)</t>
+  </si>
+  <si>
+    <t>1119 PATRIKA(सवाश्री-55)</t>
+  </si>
+  <si>
+    <t>1120 PATRIKA(सवाश्री-59)</t>
+  </si>
+  <si>
+    <t>1121 PATRIKA(सवाश्री-53)</t>
+  </si>
+  <si>
+    <t>1122 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>1123 PATRIKA (LED-51)</t>
+  </si>
+  <si>
+    <t>1124 PATRIKA (LED-52)</t>
+  </si>
+  <si>
+    <t>1125 PATRIKA (LED-53)</t>
+  </si>
+  <si>
+    <t>1126 PATRIKA (LED-54)</t>
+  </si>
+  <si>
+    <t>1127 PATRIKA (Eco-52)</t>
+  </si>
+  <si>
+    <t>1128 PATRIKA (Eco-55)</t>
+  </si>
+  <si>
+    <t>1129 PATRIKA (Eco-56)</t>
+  </si>
+  <si>
+    <t>1130 PATRIKA - B (ECO-60) (DCU)</t>
+  </si>
+  <si>
+    <t>1130 PATRIKA (Eco-59)</t>
+  </si>
+  <si>
+    <t>1131 PATRIKA (DCU) Eco-51</t>
+  </si>
+  <si>
+    <t>1132 PATRIKA (DCU) Eco-53</t>
+  </si>
+  <si>
+    <t>1133 PATRIKA (DCU) Eco-57</t>
+  </si>
+  <si>
+    <t>1134 PATRIKA (DCU) Eco-58</t>
+  </si>
+  <si>
+    <t>1135 PATRIKA (DCU) Eco-54</t>
+  </si>
+  <si>
+    <t>1136 PATRIKA (R)</t>
+  </si>
+  <si>
+    <t>1137 PATRIKA (P)</t>
+  </si>
+  <si>
+    <t>1138 PATRIKA (BR)</t>
+  </si>
+  <si>
+    <t>1139 PATRIKA (BY)</t>
+  </si>
+  <si>
+    <t>1140 PATRIKA (BB)</t>
+  </si>
+  <si>
+    <t>1141 PATRIKA (R)</t>
+  </si>
+  <si>
+    <t>1142 PATRIKA (P)</t>
+  </si>
+  <si>
+    <t>1143 PATRIKA (G)</t>
+  </si>
+  <si>
+    <t>1144 PATRIKA (BR)</t>
+  </si>
+  <si>
+    <t>1145 PATRIKA (BY)</t>
+  </si>
+  <si>
+    <t>1146 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>1147 PATRIKA (S.201)</t>
+  </si>
+  <si>
+    <t>1148 PATRIKA (S.202)</t>
+  </si>
+  <si>
+    <t>1149 PATRIKA (S.204)</t>
+  </si>
+  <si>
+    <t>1150 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>1151 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>1152 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>1153 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>1154 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>1155 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>1156 PATRIKA-YELLOW</t>
+  </si>
+  <si>
+    <t>1157 PATRIKA-CREAM</t>
+  </si>
+  <si>
+    <t>1158 PATRIKA-GOLDEN</t>
+  </si>
+  <si>
+    <t>1159 PATRIKA-WHITE</t>
+  </si>
+  <si>
+    <t>1160 PATRIKA-PINK</t>
+  </si>
+  <si>
+    <t>1161 PATRIKA (01)</t>
+  </si>
+  <si>
+    <t>1162 PATRIKA (02)</t>
+  </si>
+  <si>
+    <t>1163 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>1164 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>1165 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>1166 PATRIKA (DCU)</t>
   </si>
   <si>
     <t>190 NO. ENVELOPES (POCKET)</t>
@@ -407,109 +407,109 @@
     <t>2025- INVITAION (BOX) SAMPLES</t>
   </si>
   <si>
-    <t>2101 PATRIKA (L) (LUXYA - 51)</t>
-  </si>
-  <si>
-    <t>2102 PATRIKA *-* (M) (LUXYA - 52)</t>
-  </si>
-  <si>
-    <t>2103 PATRIKA (L) (LUXYA - 53)</t>
-  </si>
-  <si>
-    <t>2104 PATRIKA (LUXYA - 54)</t>
-  </si>
-  <si>
-    <t>2105 PATRIKA (LUXYA - 55)</t>
-  </si>
-  <si>
-    <t>2106 PATRIKA (L) (LUXYA - 56)</t>
-  </si>
-  <si>
-    <t>2107 PATRIKA *-* (M) (LUXYA - 57)</t>
-  </si>
-  <si>
-    <t>2108 PATRIKA *-* (M) (LUXYA - 59)</t>
-  </si>
-  <si>
-    <t>2109 PATRIKA (L) (LUXYA - 60)</t>
-  </si>
-  <si>
-    <t>2110 PATRIKA (LUXYA - 61)</t>
-  </si>
-  <si>
-    <t>2111 PATRIKA *-* (M) (LUXYA - 62)</t>
-  </si>
-  <si>
-    <t>2112 PATRIKA (L) (LEGACY - 01)</t>
-  </si>
-  <si>
-    <t>2113 PATRIKA (L) (LEGACY - 02)</t>
-  </si>
-  <si>
-    <t>2114 PATRIKA (L) (LEGACY - 03)</t>
-  </si>
-  <si>
-    <t>2115 PATRIKA (L) (LEGACY - 04)</t>
-  </si>
-  <si>
-    <t>2116 PATRIKA (L) (LEGACY - 05)</t>
-  </si>
-  <si>
-    <t>2117 PATRIKA *-* (M) (LEGACY - 06)</t>
-  </si>
-  <si>
-    <t>2118 PATRIKA (L) (LEGACY - 07)</t>
-  </si>
-  <si>
-    <t>2119 PATRIKA (L) (LEGACY - 08)</t>
-  </si>
-  <si>
-    <t>2120 PATRIKA (L) (LEGACY - 09)</t>
-  </si>
-  <si>
-    <t>2121 PATRIKA (LEGACY - 10)</t>
-  </si>
-  <si>
-    <t>2122 PATRIKA (LEGACY - 11)</t>
-  </si>
-  <si>
-    <t>2123 PATRIKA (LEGACY - 12)</t>
-  </si>
-  <si>
-    <t>2124 PATRIKA *-* (M) (LOTTERY - 71)</t>
-  </si>
-  <si>
-    <t>2125 PATRIKA *-* (M) (LOTTERY - 72)</t>
-  </si>
-  <si>
-    <t>2126 PATRIKA *-* (M) (LOTTERY - 73)</t>
-  </si>
-  <si>
-    <t>2127 PATRIKA *-* (M) (LOTTERY - 74)</t>
-  </si>
-  <si>
-    <t>2128 PATRIKA *-* (M) (LOTTERY - 75)</t>
-  </si>
-  <si>
-    <t>2129 PATRIKA *-* (M) (LOTTERY - 76)</t>
-  </si>
-  <si>
-    <t>2130 PATRIKA *-* (M) (LOTTERY - 77)</t>
-  </si>
-  <si>
-    <t>2131 PATRIKA *-* (M) (LOTTERY - 78)</t>
-  </si>
-  <si>
-    <t>2132 PATRIKA *-* (M) (LOTTERY - 79)</t>
-  </si>
-  <si>
-    <t>2133 PATRIKA (LOTTERY - 80)</t>
-  </si>
-  <si>
-    <t>2134 PATRIKA *-* (M) (LOTTERY - 81)</t>
-  </si>
-  <si>
-    <t>2135 PATRIKA *-* (M) (LOTTERY - 82)</t>
+    <t>2101 PATRIKA (L)</t>
+  </si>
+  <si>
+    <t>2102 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>2103 PATRIKA (L)</t>
+  </si>
+  <si>
+    <t>2104 PATRIKA</t>
+  </si>
+  <si>
+    <t>2105 PATRIKA</t>
+  </si>
+  <si>
+    <t>2106 PATRIKA (L)</t>
+  </si>
+  <si>
+    <t>2107 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>2108 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>2109 PATRIKA (L)</t>
+  </si>
+  <si>
+    <t>2110 PATRIKA</t>
+  </si>
+  <si>
+    <t>2111 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>2112 PATRIKA (L)</t>
+  </si>
+  <si>
+    <t>2113 PATRIKA (L)</t>
+  </si>
+  <si>
+    <t>2114 PATRIKA (L)</t>
+  </si>
+  <si>
+    <t>2115 PATRIKA (L)</t>
+  </si>
+  <si>
+    <t>2116 PATRIKA (L)</t>
+  </si>
+  <si>
+    <t>2117 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>2118 PATRIKA (L)</t>
+  </si>
+  <si>
+    <t>2119 PATRIKA (L)</t>
+  </si>
+  <si>
+    <t>2120 PATRIKA (L)</t>
+  </si>
+  <si>
+    <t>2121 PATRIKA</t>
+  </si>
+  <si>
+    <t>2122 PATRIKA</t>
+  </si>
+  <si>
+    <t>2123 PATRIKA</t>
+  </si>
+  <si>
+    <t>2124 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>2125 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>2126 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>2127 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>2128 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>2129 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>2130 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>2131 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>2132 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>2133 PATRIKA</t>
+  </si>
+  <si>
+    <t>2134 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>2135 PATRIKA *-* (M)</t>
   </si>
   <si>
     <t>290 ENVELOPE 25-26</t>
@@ -527,1144 +527,1144 @@
     <t>330 ENVELOPE</t>
   </si>
   <si>
-    <t>4251 PATRIKA (JC) (5342)</t>
-  </si>
-  <si>
-    <t>4252 PATRIKA (5207)</t>
-  </si>
-  <si>
-    <t>4253 PATRIKA (5206)</t>
-  </si>
-  <si>
-    <t>4254 PATRIKA (4210) (10273/10277)</t>
-  </si>
-  <si>
-    <t>4255 PATRIKA - B (DCU) (AS-02 (B))</t>
-  </si>
-  <si>
-    <t>4255 PATRIKA (JC) (AS-02 (NEW))</t>
-  </si>
-  <si>
-    <t>4257 PATRIKA (82)</t>
-  </si>
-  <si>
-    <t>4258 PATRIKA (JC) (1129)</t>
-  </si>
-  <si>
-    <t>4259 PATRIKA (JC) (101 SBC)</t>
-  </si>
-  <si>
-    <t>4260 PATRIKA (1102)</t>
-  </si>
-  <si>
-    <t>4261 PATRIKA (JC) (959)</t>
-  </si>
-  <si>
-    <t>4262 PATRIKA (JC) (S-201 GANESH JI)</t>
-  </si>
-  <si>
-    <t>4264 PATRIKA (DCU) (1351)</t>
-  </si>
-  <si>
-    <t>4265 PATRIKA (83)</t>
-  </si>
-  <si>
-    <t>4266 PATRIKA (25-145)</t>
-  </si>
-  <si>
-    <t>4267 PATRIKA (JC) (25-046)</t>
-  </si>
-  <si>
-    <t>4268 PATRIKA (JC) *-* (M+T) (S-296)</t>
-  </si>
-  <si>
-    <t>4269 PATRIKA (111 SBC)</t>
-  </si>
-  <si>
-    <t>4270 PATRIKA (1151 GGN)</t>
-  </si>
-  <si>
-    <t>4271 PATRIKA (JC) (25216)</t>
-  </si>
-  <si>
-    <t>4272 PATRIKA (JC) (1231 SBC CRM)</t>
-  </si>
-  <si>
-    <t>4273 PATRIKA (2547)</t>
-  </si>
-  <si>
-    <t>4274 PATRIKA (JC) (25369)</t>
-  </si>
-  <si>
-    <t>4275 PATRIKA (25367)</t>
-  </si>
-  <si>
-    <t>4277 PATRIKA (JC) *-* (M) (25365)</t>
-  </si>
-  <si>
-    <t>4278 PATRIKA (25368)</t>
-  </si>
-  <si>
-    <t>4279 PATRIKA (1031)</t>
-  </si>
-  <si>
-    <t>4280 PATRIKA (25301)</t>
-  </si>
-  <si>
-    <t>4281 PATRIKA (25312 MYRA)</t>
-  </si>
-  <si>
-    <t>4282 PATRIKA (3117)</t>
-  </si>
-  <si>
-    <t>4283 PATRIKA - B (YELLOW) (3116-YLW)</t>
-  </si>
-  <si>
-    <t>4284 PATRIKA (1173 VV)</t>
-  </si>
-  <si>
-    <t>4285 PATRIKA (JC) *-* (M) (4626)</t>
-  </si>
-  <si>
-    <t>4286 PATRIKA (5254  RJN)</t>
-  </si>
-  <si>
-    <t>4287 PATRIKA (25402)</t>
-  </si>
-  <si>
-    <t>4288 PATRIKA (10001 NEW)</t>
-  </si>
-  <si>
-    <t>4289 PATRIKA (10002 NEW)</t>
-  </si>
-  <si>
-    <t>4290 PATRIKA (316 MYRA)</t>
-  </si>
-  <si>
-    <t>4291 PATRIKA (25401)</t>
-  </si>
-  <si>
-    <t>4292 PATRIKA (25311)</t>
-  </si>
-  <si>
-    <t>4293 PATRIKA (25312)</t>
-  </si>
-  <si>
-    <t>4294 PATRIKA (5273)</t>
-  </si>
-  <si>
-    <t>4295 PATRIKA (286-A)</t>
-  </si>
-  <si>
-    <t>4296 PATRIKA (1407)</t>
-  </si>
-  <si>
-    <t>4297 PATRIKA (306)</t>
-  </si>
-  <si>
-    <t>4298 PATRIKA (5501)</t>
-  </si>
-  <si>
-    <t>4299 PATRIKA (2011)</t>
-  </si>
-  <si>
-    <t>4300 PATRIKA (25314)</t>
-  </si>
-  <si>
-    <t>4301 PATRIKA (25315)</t>
-  </si>
-  <si>
-    <t>4302 PATRIKA (1402)</t>
-  </si>
-  <si>
-    <t>4303 PATRIKA (JC) (1234*-M)</t>
-  </si>
-  <si>
-    <t>4304 PATRIKA (5172)</t>
-  </si>
-  <si>
-    <t>4305 PATRIKA (25313)</t>
-  </si>
-  <si>
-    <t>4307 PATRIKA (BALAJI 5202)</t>
-  </si>
-  <si>
-    <t>4308 PATRIKA (LOTUS 430)</t>
-  </si>
-  <si>
-    <t>4309 PATRIKA (DCU) (3751 Patta)</t>
-  </si>
-  <si>
-    <t>4310 PATRIKA (DCU) (3752 Swastik)</t>
-  </si>
-  <si>
-    <t>4311 PATRIKA (DCU) (251 KBC)</t>
-  </si>
-  <si>
-    <t>4312 PATRIKA (DCU) (273-A)</t>
-  </si>
-  <si>
-    <t>4314 PATRIKA (DCU) (RED-YELLOW SWASTIK)</t>
-  </si>
-  <si>
-    <t>4315 PATRIKA (DCU) (WHITE-PINK PAN PATA)</t>
-  </si>
-  <si>
-    <t>4316 PATRIKA (DCU) (WHITE -ORANGE PAN PATTA)</t>
-  </si>
-  <si>
-    <t>5051 PATRIKA *-* (M) (5087)</t>
-  </si>
-  <si>
-    <t>5052 PATRIKA (5295)</t>
-  </si>
-  <si>
-    <t>5053 PATRIKA (5213)</t>
-  </si>
-  <si>
-    <t>5054 PATRIKA *-* (M) (25/162)</t>
-  </si>
-  <si>
-    <t>5055 PATRIKA (25/272)</t>
-  </si>
-  <si>
-    <t>5056 PATRIKA (JC) (25/271)</t>
-  </si>
-  <si>
-    <t>5057 PATRIKA (25/171)</t>
-  </si>
-  <si>
-    <t>5058 PATRIKA (8802)</t>
-  </si>
-  <si>
-    <t>5059 PATRIKA (8803)</t>
-  </si>
-  <si>
-    <t>5060 PATRIKA (JC) (7713)</t>
-  </si>
-  <si>
-    <t>5061 PATRIKA (DCU) (1405)</t>
-  </si>
-  <si>
-    <t>5062 PATRIKA (7705)</t>
-  </si>
-  <si>
-    <t>5063 PATRIKA (2522 GE)</t>
-  </si>
-  <si>
-    <t>5064 PATRIKA (2517 GE)</t>
-  </si>
-  <si>
-    <t>5065 PATRIKA (2527)</t>
-  </si>
-  <si>
-    <t>5066 PATRIKA (2536)</t>
-  </si>
-  <si>
-    <t>5067 PATRIKA (JC) (S-301)</t>
-  </si>
-  <si>
-    <t>5071 PATRIKA *-* (डोरी) (741)</t>
-  </si>
-  <si>
-    <t>5072 PATRIKA (5347 DIRECT)</t>
-  </si>
-  <si>
-    <t>5073 PATRIKA *-* (M) (3161)</t>
-  </si>
-  <si>
-    <t>5074 PATRIKA (1151 VV)</t>
-  </si>
-  <si>
-    <t>5075 PATRIKA (JC) (25-082)</t>
-  </si>
-  <si>
-    <t>5076 PATRIKA (JC) (3701 SBC)</t>
-  </si>
-  <si>
-    <t>5077 PATRIKA (2081)</t>
-  </si>
-  <si>
-    <t>5079 PATRIKA (296-A (NEHA)</t>
-  </si>
-  <si>
-    <t>5080 PATRIKA (2501 GE NEW)</t>
-  </si>
-  <si>
-    <t>5081 PATRIKA (2520 GE)</t>
-  </si>
-  <si>
-    <t>5083 PATRIKA (5267)</t>
-  </si>
-  <si>
-    <t>5084 PATRIKA (5258 RJ)</t>
-  </si>
-  <si>
-    <t>5085 PATRIKA (2023)</t>
-  </si>
-  <si>
-    <t>5086 PATRIKA (JC) *-* (M+D) (942)</t>
-  </si>
-  <si>
-    <t>5088 PATRIKA (25214)</t>
-  </si>
-  <si>
-    <t>5089 PATRIKA (2061 SBC)</t>
-  </si>
-  <si>
-    <t>5090 PATRIKA (5236 RJ)</t>
-  </si>
-  <si>
-    <t>5092 PATRIKA (05 NAVIN BHAI)</t>
-  </si>
-  <si>
-    <t>5093 PATRIKA (5350)</t>
-  </si>
-  <si>
-    <t>5094 PATRIKA (5251)</t>
-  </si>
-  <si>
-    <t>5095 PATRIKA (5240)</t>
-  </si>
-  <si>
-    <t>5096 PATRIKA (25316)</t>
-  </si>
-  <si>
-    <t>5097 PATRIKA (25321)</t>
-  </si>
-  <si>
-    <t>5098 PATRIKA *-* (M) (857)</t>
-  </si>
-  <si>
-    <t>5099 PATRIKA *-* (M) (852 DHANESH)</t>
-  </si>
-  <si>
-    <t>5100 PATRIKA (DCU) (5339)</t>
-  </si>
-  <si>
-    <t>5102 PATRIKA (5021) (2456)</t>
-  </si>
-  <si>
-    <t>5103 PATRIKA (2071)</t>
-  </si>
-  <si>
-    <t>5104 PATRIKA (5261 RJND)</t>
-  </si>
-  <si>
-    <t>5105 PATRIKA (JC) (5335)</t>
-  </si>
-  <si>
-    <t>5106 PATRIKA (253-A / 257-A)</t>
-  </si>
-  <si>
-    <t>5107 PATRIKA (5356 RJ)</t>
-  </si>
-  <si>
-    <t>5108 PATRIKA (5333)</t>
-  </si>
-  <si>
-    <t>5109 PATRIKA (5308)</t>
-  </si>
-  <si>
-    <t>5110 PATRIKA (JC) (AS-402)</t>
-  </si>
-  <si>
-    <t>5111 PATRIKA (JC) (5313)</t>
-  </si>
-  <si>
-    <t>5112 PATRIKA (JC) *-* (M) (25437)</t>
-  </si>
-  <si>
-    <t>5113 PATRIKA (5305)</t>
-  </si>
-  <si>
-    <t>5114 PATRIKA *-* (डोरी) (2091)</t>
-  </si>
-  <si>
-    <t>5115 PATRIKA (DCU) (5363 RJND)</t>
-  </si>
-  <si>
-    <t>5116 PATRIKA (2031)</t>
-  </si>
-  <si>
-    <t>5117 PATRIKA (DCU) (3331)</t>
-  </si>
-  <si>
-    <t>5118 PATRIKA (DCU) (25436)</t>
-  </si>
-  <si>
-    <t>5502 PATRIKA *-* (M) (5355 NICE)</t>
-  </si>
-  <si>
-    <t>5503 PATRIKA (5186)</t>
-  </si>
-  <si>
-    <t>5504 PATRIKA (JC) (7033)</t>
-  </si>
-  <si>
-    <t>5505 PATRIKA (JC) *-* (M) (2282)</t>
-  </si>
-  <si>
-    <t>5506 PATRIKA *-* (M) (25/122)</t>
-  </si>
-  <si>
-    <t>5508 PATRIKA (JC) (612 VV)</t>
-  </si>
-  <si>
-    <t>5509 PATRIKA (JC) (25/072)</t>
-  </si>
-  <si>
-    <t>5510 PATRIKA (JC) *-* (M) (AS-950)</t>
-  </si>
-  <si>
-    <t>5511 PATRIKA (JC) *-* (M) (2528)</t>
-  </si>
-  <si>
-    <t>5512 PATRIKA (JC) (2525 /2552)</t>
-  </si>
-  <si>
-    <t>5513 PATRIKA (2515)</t>
-  </si>
-  <si>
-    <t>5514 PATRIKA (2542)</t>
-  </si>
-  <si>
-    <t>5515 PATRIKA (2523)</t>
-  </si>
-  <si>
-    <t>5516 PATRIKA (JC) *-* (M) (5302 VV)</t>
-  </si>
-  <si>
-    <t>5517 PATRIKA *-* (M) (Patti Aayegi) (6301)</t>
-  </si>
-  <si>
-    <t>5518 PATRIKA (JC) *-* (M) (922)</t>
-  </si>
-  <si>
-    <t>5519 PATRIKA *-* (M) (7066)</t>
-  </si>
-  <si>
-    <t>5520 PATRIKA (1054)</t>
-  </si>
-  <si>
-    <t>5521 PATRIKA (JC) *-* (M) (35)</t>
-  </si>
-  <si>
-    <t>5522 PATRIKA (2231)</t>
-  </si>
-  <si>
-    <t>5523 PATRIKA (2232)</t>
-  </si>
-  <si>
-    <t>5524 PATRIKA (DCU) (5382)</t>
-  </si>
-  <si>
-    <t>5525 PATRIKA *-* (M) (5283)</t>
-  </si>
-  <si>
-    <t>5526 PATRIKA (DCU) (NEW LUSTER - 01)</t>
-  </si>
-  <si>
-    <t>5527 PATRIKA (DCU) (NEW LUSTER - 02)</t>
-  </si>
-  <si>
-    <t>5528 PATRIKA *-* (M) (NEW LUSTER - 03)</t>
-  </si>
-  <si>
-    <t>5529 PATRIKA *-* (M) (NEW LUSTER - 04)</t>
-  </si>
-  <si>
-    <t>5530 PATRIKA *-* (M) (NEW LUSTER - 05)</t>
-  </si>
-  <si>
-    <t>5531 PATRIKA (DCU) (NEW LUSTER - 06)</t>
-  </si>
-  <si>
-    <t>5532 PATRIKA *-* (M) (NEW LUSTER - 07)</t>
-  </si>
-  <si>
-    <t>5533 PATRIKA *-* (M) (NEW LUSTER - 08)</t>
-  </si>
-  <si>
-    <t>5534 PATRIKA *-* (M) (NEW LUSTER - 09)</t>
-  </si>
-  <si>
-    <t>5535 PATRIKA (JC) *-* (M) (1007)</t>
-  </si>
-  <si>
-    <t>5537 PATRIKA (JC) (25-052)</t>
-  </si>
-  <si>
-    <t>5538 PATRIKA (JC) *-* (M) (7073)</t>
-  </si>
-  <si>
-    <t>5539 PATRIKA-B (2942-B)</t>
-  </si>
-  <si>
-    <t>5539 PATRIKA (JC) (2942)</t>
-  </si>
-  <si>
-    <t>5540 PATRIKA *-* (M) (S-96)</t>
-  </si>
-  <si>
-    <t>5542 PATRIKA (2261)</t>
-  </si>
-  <si>
-    <t>5543 PATRIKA (2353)</t>
-  </si>
-  <si>
-    <t>5544 PATRIKA *-* (M) (2732)</t>
-  </si>
-  <si>
-    <t>5545 PATRIKA *-* (M) (2791)</t>
-  </si>
-  <si>
-    <t>5546 PATRIKA (718)</t>
-  </si>
-  <si>
-    <t>5547 PATRIKA *-* (M) (S-32)</t>
-  </si>
-  <si>
-    <t>5548 PATRIKA (DCU) (2792)</t>
-  </si>
-  <si>
-    <t>5549 PATRIKA (5261 NICE)</t>
-  </si>
-  <si>
-    <t>5550 PATRIKA *-* (M) (5424)</t>
-  </si>
-  <si>
-    <t>5551 PATRIKA (5231)</t>
-  </si>
-  <si>
-    <t>5552 PATRIKA (JC) *-* (M) (S-163)</t>
-  </si>
-  <si>
-    <t>5553 PATRIKA *-* (M) (5004)</t>
-  </si>
-  <si>
-    <t>5554 PATRIKA *-* (F/G) (5379)</t>
-  </si>
-  <si>
-    <t>5555 PATRIKA (2903)</t>
-  </si>
-  <si>
-    <t>5556 PATRIKA *-* (M) (2952)</t>
-  </si>
-  <si>
-    <t>5557 PATRIKA (2312 SBC)</t>
-  </si>
-  <si>
-    <t>5558 PATRIKA *-* (M) (121 NEHA)</t>
-  </si>
-  <si>
-    <t>5559 PATRIKA (2293)</t>
-  </si>
-  <si>
-    <t>5560 PATRIKA (F/G) *-* (2915)</t>
-  </si>
-  <si>
-    <t>5561 PATRIKA *-* (M) (25358)</t>
-  </si>
-  <si>
-    <t>5562 PATRIKA *-* (M) (114-B (NEHA))</t>
-  </si>
-  <si>
-    <t>5563 PATRIKA (5387)</t>
-  </si>
-  <si>
-    <t>5564 PATRIKA (JC) *-* (M) (S-107)</t>
-  </si>
-  <si>
-    <t>5565 PATRIKA (175)</t>
-  </si>
-  <si>
-    <t>5566 PATRIKA *-* (M) (1742-B)</t>
-  </si>
-  <si>
-    <t>5567 PATRIKA (1679)</t>
-  </si>
-  <si>
-    <t>5568 PATRIKA *-* (M) (3002)</t>
-  </si>
-  <si>
-    <t>5569 PATRIKA *-* (M) (S-39)</t>
-  </si>
-  <si>
-    <t>5570 PATRIKA *-* (M) (S-74)</t>
-  </si>
-  <si>
-    <t>5571 PATRIKA *-* (M) (25353)</t>
-  </si>
-  <si>
-    <t>5572 PATRIKA *-* (M) (25351)</t>
-  </si>
-  <si>
-    <t>5573 PATRIKA (2205)</t>
-  </si>
-  <si>
-    <t>5574 PATRIKA (25335)</t>
-  </si>
-  <si>
-    <t>5575 PATRIKA *-* (M) (S-77)</t>
-  </si>
-  <si>
-    <t>5576 PATRIKA (2531)</t>
-  </si>
-  <si>
-    <t>5577 PATRIKA *-* (M) (5808)</t>
-  </si>
-  <si>
-    <t>5578 PATRIKA (JC) *-* (M) (AS-104 / S-50)</t>
-  </si>
-  <si>
-    <t>5579 PATRIKA (JC) *-* (M) (AS-102)</t>
-  </si>
-  <si>
-    <t>5580 PATRIKA (S-326)</t>
-  </si>
-  <si>
-    <t>5581 PATRIKA *-* (M) (3471)</t>
-  </si>
-  <si>
-    <t>5582 PATRIKA *-* (M) (3512 SBC)</t>
-  </si>
-  <si>
-    <t>5583 PATRIKA (3211 SBC)</t>
-  </si>
-  <si>
-    <t>5584 PATRIKA (JC) (2202 SBC)</t>
-  </si>
-  <si>
-    <t>5585 PATRIKA *-* (M) (1201 KBC)</t>
-  </si>
-  <si>
-    <t>5586 PATRIKA *-* (M) (S-51)</t>
-  </si>
-  <si>
-    <t>5587 PATRIKA (2264)</t>
-  </si>
-  <si>
-    <t>5588 PATRIKA (JC) *-* (M) (1006)</t>
-  </si>
-  <si>
-    <t>5589 PATRIKA *-* (M) (25133)</t>
-  </si>
-  <si>
-    <t>5590 PATRIKA (3131 SBC)</t>
-  </si>
-  <si>
-    <t>5592 PATRIKA *-* (M) (2365)</t>
-  </si>
-  <si>
-    <t>5593 PATRIKA (2803)</t>
-  </si>
-  <si>
-    <t>5595 PATRIKA *-* (M) (226)</t>
-  </si>
-  <si>
-    <t>5596 PATRIKA *-* (M) (2541)</t>
-  </si>
-  <si>
-    <t>5597 PATRIKA (JC) *-* (M) (AS-104 (B))</t>
-  </si>
-  <si>
-    <t>5599 PATRIKA *-* (M) (77-B)</t>
-  </si>
-  <si>
-    <t>5601 PATRIKA (2771)</t>
-  </si>
-  <si>
-    <t>5602 PATRIKA (3271)</t>
-  </si>
-  <si>
-    <t>5603 PATRIKA *-* (M) (6125)</t>
-  </si>
-  <si>
-    <t>5604 PATRIKA (242-A)</t>
-  </si>
-  <si>
-    <t>5605 PATRIKA (JC) (3102)</t>
-  </si>
-  <si>
-    <t>5606 PATRIKA *-* (M) (221-A)</t>
-  </si>
-  <si>
-    <t>5607 PATRIKA (25442)</t>
-  </si>
-  <si>
-    <t>5608 PATRIKA (25440)</t>
-  </si>
-  <si>
-    <t>5609 PATRIKA (993)</t>
-  </si>
-  <si>
-    <t>5610 PATRIKA (JC) (2373)</t>
-  </si>
-  <si>
-    <t>5611 PATRIKA *-* (M) (1211)</t>
-  </si>
-  <si>
-    <t>5612 PATRIKA (DCU) (5276)</t>
-  </si>
-  <si>
-    <t>5614 PATRIKA *-* (M) (2331)</t>
-  </si>
-  <si>
-    <t>5615 PATRIKA (2111)</t>
-  </si>
-  <si>
-    <t>5616 PATRIKA (DCU) (7069)</t>
-  </si>
-  <si>
-    <t>5617 PATRIKA *-* (M) (7067)</t>
-  </si>
-  <si>
-    <t>5618 PATRIKA (JC) *-* (M) (S-52)</t>
-  </si>
-  <si>
-    <t>5619 PATRIKA (JC) (1131)</t>
-  </si>
-  <si>
-    <t>5621 PATRIKA (JC) *-* (M) (5297)</t>
-  </si>
-  <si>
-    <t>5622 PATRIKA *-* (M) (25337)</t>
-  </si>
-  <si>
-    <t>5623 PATRIKA (064)</t>
-  </si>
-  <si>
-    <t>5625 PATRIKA (DCU) (772)</t>
-  </si>
-  <si>
-    <t>6601 PATRIKA (L) (5164)</t>
-  </si>
-  <si>
-    <t>6602 PATRIKA (5126)</t>
-  </si>
-  <si>
-    <t>6603 PATRIKA (5111)</t>
-  </si>
-  <si>
-    <t>6604 PATRIKA *-* (M) (5196)</t>
-  </si>
-  <si>
-    <t>6605 PATRIKA (5191)</t>
-  </si>
-  <si>
-    <t>6606 PATRIKA (*-*) R (3023)</t>
-  </si>
-  <si>
-    <t>6607 PATRIKA *-* (M) (0523)</t>
-  </si>
-  <si>
-    <t>6608 PATRIKA (95)</t>
-  </si>
-  <si>
-    <t>6609 PATRIKA *-* (M) (3053)</t>
-  </si>
-  <si>
-    <t>6610 PATRIKA *-* (M) (3019)</t>
-  </si>
-  <si>
-    <t>6611 PATRIKA (3017 VV)</t>
-  </si>
-  <si>
-    <t>6612 PATRIKA (3015)</t>
-  </si>
-  <si>
-    <t>6613 PATRIKA (25164)</t>
-  </si>
-  <si>
-    <t>6614 PATRIKA (DCU) (25131)</t>
-  </si>
-  <si>
-    <t>6615 PATRIKA *-* (M) (915 GAGAN)</t>
-  </si>
-  <si>
-    <t>6616 PATRIKA *-* (M) (911 GAGAN)</t>
-  </si>
-  <si>
-    <t>6617 PATRIKA *-* (M) (3422)</t>
-  </si>
-  <si>
-    <t>6618 PATRIKA *-* (M) (3423)</t>
-  </si>
-  <si>
-    <t>6619 PATRIKA *-* (M) (1193)</t>
-  </si>
-  <si>
-    <t>6620 PATRIKA *-* (M) (1045 GGN (PADDING))</t>
-  </si>
-  <si>
-    <t>6621 PATRIKA *-* (M) (7108 (PADDING))</t>
-  </si>
-  <si>
-    <t>6622 PATRIKA *-* (M) (7259 (PADDING))</t>
-  </si>
-  <si>
-    <t>6623 PATRIKA (25184)</t>
-  </si>
-  <si>
-    <t>6624 PATRIKA *-* (M) (25135)</t>
-  </si>
-  <si>
-    <t>6625 PATRIKA *-* (M) (25116)</t>
-  </si>
-  <si>
-    <t>6626 PATRIKA *-* (M) (25161)</t>
-  </si>
-  <si>
-    <t>6627 PATRIKA *-* (M) (25111)</t>
-  </si>
-  <si>
-    <t>6628 PATRIKA *-* (M) (805 SBC)</t>
-  </si>
-  <si>
-    <t>6629 PATRIKA *-* (M) (812 NEW SBC)</t>
-  </si>
-  <si>
-    <t>6630 PATRIKA *-* (M) (5510 NICE)</t>
-  </si>
-  <si>
-    <t>6631 PATRIKA (DCU) (OLD AP ITEM)</t>
-  </si>
-  <si>
-    <t>6632 PATRIKA (DCU) (932)</t>
-  </si>
-  <si>
-    <t>6633 PATRIKA *-* (M) (7081 VP)</t>
-  </si>
-  <si>
-    <t>6634 PATRIKA (3562)</t>
-  </si>
-  <si>
-    <t>6635 PATRIKA *-* (M) (S-313)</t>
-  </si>
-  <si>
-    <t>6636 PATRIKA *-* (M) (25183)</t>
-  </si>
-  <si>
-    <t>6637 PATRIKA (25162 GE)</t>
-  </si>
-  <si>
-    <t>6638 PATRIKA *-* (M) (3014)</t>
-  </si>
-  <si>
-    <t>6639 PATRIKA (B) (2291-B)</t>
-  </si>
-  <si>
-    <t>6640 PATRIKA *-* (M) (5737 PADING)</t>
-  </si>
-  <si>
-    <t>6641 PATRIKA *-* (M) (5435)</t>
-  </si>
-  <si>
-    <t>6642 PATRIKA *-* (M) (5411 RJ)</t>
-  </si>
-  <si>
-    <t>6643 PATRIKA *-* (M) (25380)</t>
-  </si>
-  <si>
-    <t>6644 PATRIKA (DCU) (25132)</t>
-  </si>
-  <si>
-    <t>6645 PATRIKA *-* (M) (3031)</t>
-  </si>
-  <si>
-    <t>6646 PATRIKA *-* (M) (3034)</t>
-  </si>
-  <si>
-    <t>6647 PATRIKA *-* (M) (25382)</t>
-  </si>
-  <si>
-    <t>6648 PATRIKA *-* (M) (5011 (PADDING))</t>
-  </si>
-  <si>
-    <t>6649 PATRIKA *-* (M) (3402)</t>
-  </si>
-  <si>
-    <t>6650 PATRIKA *-* (M) (3431)</t>
-  </si>
-  <si>
-    <t>6651 PATRIKA (3421)</t>
-  </si>
-  <si>
-    <t>6652 PATRIKA *-* (M) (2764 SBC)</t>
-  </si>
-  <si>
-    <t>6653 PATRIKA *-* (M) (834 SBC NEW)</t>
-  </si>
-  <si>
-    <t>6654 PATRIKA *-* (M) (3461)</t>
-  </si>
-  <si>
-    <t>6655 PATRIKA *-* (M) (7129 (PADDING))</t>
-  </si>
-  <si>
-    <t>6656 PATRIKA (L) (7113 (PADDING))</t>
-  </si>
-  <si>
-    <t>6657 PATRIKA *-* (M) (563  DHANESH)</t>
-  </si>
-  <si>
-    <t>6658 PATRIKA *-* (M) (5319)</t>
-  </si>
-  <si>
-    <t>6659 PATRIKA (25193 (Padding))</t>
-  </si>
-  <si>
-    <t>6660 PATRIKA (25194 (Padding))</t>
-  </si>
-  <si>
-    <t>6661 PATRIKA *-* (M) (1281)</t>
-  </si>
-  <si>
-    <t>6662 PATRIKA (3424)</t>
-  </si>
-  <si>
-    <t>6663 PATRIKA (7103 (PADDING))</t>
-  </si>
-  <si>
-    <t>6664 PATRIKA *-* (M) (5823)</t>
-  </si>
-  <si>
-    <t>6665 PATRIKA *-* (M) (603 DHANESH)</t>
-  </si>
-  <si>
-    <t>6667 PATRIKA *-* (M) (1192 SBC)</t>
-  </si>
-  <si>
-    <t>6668 PATRIKA (DCU) (8102)</t>
-  </si>
-  <si>
-    <t>6669 PATRIKA (DCU) (6197)</t>
-  </si>
-  <si>
-    <t>6670 PATRIKA - B (M) (1868-B)</t>
-  </si>
-  <si>
-    <t>6670 PATRIKA *-* (M) (1868)</t>
-  </si>
-  <si>
-    <t>6671 PATRIKA *-* (M) (1872)</t>
-  </si>
-  <si>
-    <t>6672 PATRIKA *-* (M) (6132)</t>
-  </si>
-  <si>
-    <t>6673 PATRIKA (DCU) (6196)</t>
-  </si>
-  <si>
-    <t>6674 PATRIKA (DCU) (1503)</t>
-  </si>
-  <si>
-    <t>6675 PATRIKA *-* (M) (1282)</t>
-  </si>
-  <si>
-    <t>6676 PATRIKA (DCU) (533 KBC)</t>
-  </si>
-  <si>
-    <t>6677 PATRIKA (DCU) (25191 PADDING)</t>
-  </si>
-  <si>
-    <t>7265 PATRIKA (O.C.) (133)</t>
-  </si>
-  <si>
-    <t>7283 PATRIKA {F} (O.C.) (4148)</t>
-  </si>
-  <si>
-    <t>7287 PATRIKA (O.C.) (1522)</t>
-  </si>
-  <si>
-    <t>7288 PATRIKA (O.C.) (1178)</t>
-  </si>
-  <si>
-    <t>7293 PATRIKA (O.C.) (AS-20)</t>
-  </si>
-  <si>
-    <t>7309 PATRIKA (O.C.) (4087)</t>
-  </si>
-  <si>
-    <t>7312 PATRIKA (O.C.) (SBC 7312)</t>
-  </si>
-  <si>
-    <t>7319 PATRIKA (O.C.) (2204)</t>
-  </si>
-  <si>
-    <t>7332 PATRIKA (O.C.) (2482)</t>
-  </si>
-  <si>
-    <t>7342 PATRIKA (O.C.) (12)</t>
-  </si>
-  <si>
-    <t>7344 PATRIKA (O.C.) (INV B.P. RED (11))</t>
-  </si>
-  <si>
-    <t>7345 PATRIKA (O.C.) (INV B.P. GOLDEN (120) 5)</t>
-  </si>
-  <si>
-    <t>7401 PATRIKA (25/252)</t>
-  </si>
-  <si>
-    <t>7402 PATRIKA (25/264-263)</t>
-  </si>
-  <si>
-    <t>7403 PATRIKA (25/363/863)</t>
-  </si>
-  <si>
-    <t>7404 PATRIKA (25/283)</t>
-  </si>
-  <si>
-    <t>7405 PATRIKA (25/273)</t>
-  </si>
-  <si>
-    <t>7406 PATRIKA (25/172)</t>
-  </si>
-  <si>
-    <t>7407 PATRIKA *-* (F) (7145 VP)</t>
-  </si>
-  <si>
-    <t>7408 PATRIKA (DCU) (25895)</t>
-  </si>
-  <si>
-    <t>7409 PATRIKA (2521)</t>
-  </si>
-  <si>
-    <t>7410 PATRIKA (2526)</t>
-  </si>
-  <si>
-    <t>7411 PATRIKA (2535)</t>
-  </si>
-  <si>
-    <t>7413 PATRIKA (2543 INV OFFSET)</t>
-  </si>
-  <si>
-    <t>7414 PATRIKA (1015 GREEN OFFSET)</t>
-  </si>
-  <si>
-    <t>7415 PATRIKA *-* (F) (3162 SBC)</t>
-  </si>
-  <si>
-    <t>7416 PATRIKA (2234)</t>
-  </si>
-  <si>
-    <t>7417 PATRIKA (S-201 INV)</t>
-  </si>
-  <si>
-    <t>7418 PATRIKA *-* (डोरी) (1639)</t>
-  </si>
-  <si>
-    <t>7419 PATRIKA (5121)</t>
-  </si>
-  <si>
-    <t>7420 PATRIKA (720)</t>
-  </si>
-  <si>
-    <t>7421 PATRIKA *-* (F) (25-146)</t>
-  </si>
-  <si>
-    <t>7422 PATRIKA (3702)</t>
-  </si>
-  <si>
-    <t>7423 PATRIKA (254 SBC)</t>
-  </si>
-  <si>
-    <t>7424 PATRIKA *-* (F) (25-047)</t>
-  </si>
-  <si>
-    <t>7425 PATRIKA (2082)</t>
-  </si>
-  <si>
-    <t>7426 PATRIKA (F/G) *-* (4052)</t>
-  </si>
-  <si>
-    <t>7427 PATRIKA (2103)</t>
-  </si>
-  <si>
-    <t>7428 PATRIKA (1223 SBC)</t>
-  </si>
-  <si>
-    <t>7429 PATRIKA (F/G) *-* (1851 MONARCH)</t>
-  </si>
-  <si>
-    <t>7430 PATRIKA (6310 GE)</t>
-  </si>
-  <si>
-    <t>7431 PATRIKA (2532)</t>
-  </si>
-  <si>
-    <t>7432 PATRIKA (1174)</t>
-  </si>
-  <si>
-    <t>7433 PATRIKA (1034)</t>
-  </si>
-  <si>
-    <t>7434 PATRIKA (2204 INV)</t>
-  </si>
-  <si>
-    <t>7435 PATRIKA (06)</t>
-  </si>
-  <si>
-    <t>7436 PATRIKA (303)</t>
-  </si>
-  <si>
-    <t>7437 PATRIKA (25323 INV)</t>
-  </si>
-  <si>
-    <t>7438 PATRIKA (25413)</t>
-  </si>
-  <si>
-    <t>7439 PATRIKA (2597)</t>
-  </si>
-  <si>
-    <t>7440 PATRIKA (25896)</t>
-  </si>
-  <si>
-    <t>7441 PATRIKA *-* (F) (243-C)</t>
-  </si>
-  <si>
-    <t>7442 PATRIKA (1855)</t>
-  </si>
-  <si>
-    <t>7443 PATRIKA (1044 SBC)</t>
-  </si>
-  <si>
-    <t>7444 PATRIKA (2014)</t>
-  </si>
-  <si>
-    <t>7445 PATRIKA (2006)</t>
-  </si>
-  <si>
-    <t>7446 PATRIKA (DCU) (6106)</t>
-  </si>
-  <si>
-    <t>7447 PATRIKA (GOPAL 32)</t>
-  </si>
-  <si>
-    <t>7448 PATRIKA (2005- G)</t>
-  </si>
-  <si>
-    <t>7449 PATRIKA (5180)</t>
-  </si>
-  <si>
-    <t>7450 PATRIKA (DCU) (3753)</t>
-  </si>
-  <si>
-    <t>7451 PATRIKA (273 NEHA)</t>
-  </si>
-  <si>
-    <t>7452 PATRIKA (278-B)</t>
-  </si>
-  <si>
-    <t>7453 PATRIKA (ECO - 61) (NEW ECO 61)</t>
-  </si>
-  <si>
-    <t>7454 PATRIKA (ECO -63) (NEW ECO 63)</t>
-  </si>
-  <si>
-    <t>9001 CARD (O.C.) (2498 Cream)</t>
+    <t>4251 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>4252 PATRIKA</t>
+  </si>
+  <si>
+    <t>4253 PATRIKA</t>
+  </si>
+  <si>
+    <t>4254 PATRIKA (4210)</t>
+  </si>
+  <si>
+    <t>4255 PATRIKA - B (DCU)</t>
+  </si>
+  <si>
+    <t>4255 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>4257 PATRIKA</t>
+  </si>
+  <si>
+    <t>4258 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>4259 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>4260 PATRIKA</t>
+  </si>
+  <si>
+    <t>4261 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>4262 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>4264 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>4265 PATRIKA</t>
+  </si>
+  <si>
+    <t>4266 PATRIKA</t>
+  </si>
+  <si>
+    <t>4267 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>4268 PATRIKA (JC) *-* (M+T)</t>
+  </si>
+  <si>
+    <t>4269 PATRIKA</t>
+  </si>
+  <si>
+    <t>4270 PATRIKA</t>
+  </si>
+  <si>
+    <t>4271 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>4272 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>4273 PATRIKA</t>
+  </si>
+  <si>
+    <t>4274 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>4275 PATRIKA</t>
+  </si>
+  <si>
+    <t>4277 PATRIKA (JC) *-* (M)</t>
+  </si>
+  <si>
+    <t>4278 PATRIKA</t>
+  </si>
+  <si>
+    <t>4279 PATRIKA</t>
+  </si>
+  <si>
+    <t>4280 PATRIKA</t>
+  </si>
+  <si>
+    <t>4281 PATRIKA</t>
+  </si>
+  <si>
+    <t>4282 PATRIKA</t>
+  </si>
+  <si>
+    <t>4283 PATRIKA - B (YELLOW)</t>
+  </si>
+  <si>
+    <t>4284 PATRIKA</t>
+  </si>
+  <si>
+    <t>4285 PATRIKA (JC) *-* (M)</t>
+  </si>
+  <si>
+    <t>4286 PATRIKA</t>
+  </si>
+  <si>
+    <t>4287 PATRIKA</t>
+  </si>
+  <si>
+    <t>4288 PATRIKA</t>
+  </si>
+  <si>
+    <t>4289 PATRIKA</t>
+  </si>
+  <si>
+    <t>4290 PATRIKA</t>
+  </si>
+  <si>
+    <t>4291 PATRIKA</t>
+  </si>
+  <si>
+    <t>4292 PATRIKA</t>
+  </si>
+  <si>
+    <t>4293 PATRIKA</t>
+  </si>
+  <si>
+    <t>4294 PATRIKA</t>
+  </si>
+  <si>
+    <t>4295 PATRIKA</t>
+  </si>
+  <si>
+    <t>4296 PATRIKA</t>
+  </si>
+  <si>
+    <t>4297 PATRIKA</t>
+  </si>
+  <si>
+    <t>4298 PATRIKA</t>
+  </si>
+  <si>
+    <t>4299 PATRIKA</t>
+  </si>
+  <si>
+    <t>4300 PATRIKA</t>
+  </si>
+  <si>
+    <t>4301 PATRIKA</t>
+  </si>
+  <si>
+    <t>4302 PATRIKA</t>
+  </si>
+  <si>
+    <t>4303 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>4304 PATRIKA</t>
+  </si>
+  <si>
+    <t>4305 PATRIKA</t>
+  </si>
+  <si>
+    <t>4307 PATRIKA</t>
+  </si>
+  <si>
+    <t>4308 PATRIKA</t>
+  </si>
+  <si>
+    <t>4309 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>4310 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>4311 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>4312 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>4314 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>4315 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>4316 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>5051 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5052 PATRIKA</t>
+  </si>
+  <si>
+    <t>5053 PATRIKA</t>
+  </si>
+  <si>
+    <t>5054 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5055 PATRIKA</t>
+  </si>
+  <si>
+    <t>5056 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>5057 PATRIKA</t>
+  </si>
+  <si>
+    <t>5058 PATRIKA</t>
+  </si>
+  <si>
+    <t>5059 PATRIKA</t>
+  </si>
+  <si>
+    <t>5060 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>5061 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>5062 PATRIKA</t>
+  </si>
+  <si>
+    <t>5063 PATRIKA</t>
+  </si>
+  <si>
+    <t>5064 PATRIKA</t>
+  </si>
+  <si>
+    <t>5065 PATRIKA</t>
+  </si>
+  <si>
+    <t>5066 PATRIKA</t>
+  </si>
+  <si>
+    <t>5067 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>5071 PATRIKA *-* (डोरी)</t>
+  </si>
+  <si>
+    <t>5072 PATRIKA</t>
+  </si>
+  <si>
+    <t>5073 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5074 PATRIKA</t>
+  </si>
+  <si>
+    <t>5075 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>5076 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>5077 PATRIKA</t>
+  </si>
+  <si>
+    <t>5079 PATRIKA</t>
+  </si>
+  <si>
+    <t>5080 PATRIKA</t>
+  </si>
+  <si>
+    <t>5081 PATRIKA</t>
+  </si>
+  <si>
+    <t>5083 PATRIKA</t>
+  </si>
+  <si>
+    <t>5084 PATRIKA</t>
+  </si>
+  <si>
+    <t>5085 PATRIKA</t>
+  </si>
+  <si>
+    <t>5086 PATRIKA (JC) *-* (M+D)</t>
+  </si>
+  <si>
+    <t>5088 PATRIKA</t>
+  </si>
+  <si>
+    <t>5089 PATRIKA</t>
+  </si>
+  <si>
+    <t>5090 PATRIKA</t>
+  </si>
+  <si>
+    <t>5092 PATRIKA</t>
+  </si>
+  <si>
+    <t>5093 PATRIKA</t>
+  </si>
+  <si>
+    <t>5094 PATRIKA</t>
+  </si>
+  <si>
+    <t>5095 PATRIKA</t>
+  </si>
+  <si>
+    <t>5096 PATRIKA</t>
+  </si>
+  <si>
+    <t>5097 PATRIKA</t>
+  </si>
+  <si>
+    <t>5098 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5099 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5100 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>5102 PATRIKA (5021)</t>
+  </si>
+  <si>
+    <t>5103 PATRIKA</t>
+  </si>
+  <si>
+    <t>5104 PATRIKA</t>
+  </si>
+  <si>
+    <t>5105 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>5106 PATRIKA</t>
+  </si>
+  <si>
+    <t>5107 PATRIKA</t>
+  </si>
+  <si>
+    <t>5108 PATRIKA</t>
+  </si>
+  <si>
+    <t>5109 PATRIKA</t>
+  </si>
+  <si>
+    <t>5110 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>5111 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>5112 PATRIKA (JC) *-* (M)</t>
+  </si>
+  <si>
+    <t>5113 PATRIKA</t>
+  </si>
+  <si>
+    <t>5114 PATRIKA *-* (डोरी)</t>
+  </si>
+  <si>
+    <t>5115 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>5116 PATRIKA</t>
+  </si>
+  <si>
+    <t>5117 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>5118 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>5502 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5503 PATRIKA</t>
+  </si>
+  <si>
+    <t>5504 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>5505 PATRIKA (JC) *-* (M)</t>
+  </si>
+  <si>
+    <t>5506 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5508 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>5509 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>5510 PATRIKA (JC) *-* (M)</t>
+  </si>
+  <si>
+    <t>5511 PATRIKA (JC) *-* (M)</t>
+  </si>
+  <si>
+    <t>5512 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>5513 PATRIKA</t>
+  </si>
+  <si>
+    <t>5514 PATRIKA</t>
+  </si>
+  <si>
+    <t>5515 PATRIKA</t>
+  </si>
+  <si>
+    <t>5516 PATRIKA (JC) *-* (M)</t>
+  </si>
+  <si>
+    <t>5517 PATRIKA *-* (M) (Patti Aayegi)</t>
+  </si>
+  <si>
+    <t>5518 PATRIKA (JC) *-* (M)</t>
+  </si>
+  <si>
+    <t>5519 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5520 PATRIKA</t>
+  </si>
+  <si>
+    <t>5521 PATRIKA (JC) *-* (M)</t>
+  </si>
+  <si>
+    <t>5522 PATRIKA</t>
+  </si>
+  <si>
+    <t>5523 PATRIKA</t>
+  </si>
+  <si>
+    <t>5524 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>5525 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5526 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>5527 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>5528 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5529 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5530 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5531 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>5532 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5533 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5534 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5535 PATRIKA (JC) *-* (M)</t>
+  </si>
+  <si>
+    <t>5537 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>5538 PATRIKA (JC) *-* (M)</t>
+  </si>
+  <si>
+    <t>5539 PATRIKA-B</t>
+  </si>
+  <si>
+    <t>5539 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>5540 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5542 PATRIKA</t>
+  </si>
+  <si>
+    <t>5543 PATRIKA</t>
+  </si>
+  <si>
+    <t>5544 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5545 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5546 PATRIKA</t>
+  </si>
+  <si>
+    <t>5547 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5548 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>5549 PATRIKA</t>
+  </si>
+  <si>
+    <t>5550 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5551 PATRIKA</t>
+  </si>
+  <si>
+    <t>5552 PATRIKA (JC) *-* (M)</t>
+  </si>
+  <si>
+    <t>5553 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5554 PATRIKA *-* (F/G)</t>
+  </si>
+  <si>
+    <t>5555 PATRIKA</t>
+  </si>
+  <si>
+    <t>5556 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5557 PATRIKA</t>
+  </si>
+  <si>
+    <t>5558 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5559 PATRIKA</t>
+  </si>
+  <si>
+    <t>5560 PATRIKA (F/G) *-*</t>
+  </si>
+  <si>
+    <t>5561 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5562 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5563 PATRIKA</t>
+  </si>
+  <si>
+    <t>5564 PATRIKA (JC) *-* (M)</t>
+  </si>
+  <si>
+    <t>5565 PATRIKA</t>
+  </si>
+  <si>
+    <t>5566 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5567 PATRIKA</t>
+  </si>
+  <si>
+    <t>5568 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5569 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5570 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5571 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5572 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5573 PATRIKA</t>
+  </si>
+  <si>
+    <t>5574 PATRIKA</t>
+  </si>
+  <si>
+    <t>5575 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5576 PATRIKA</t>
+  </si>
+  <si>
+    <t>5577 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5578 PATRIKA (JC) *-* (M)</t>
+  </si>
+  <si>
+    <t>5579 PATRIKA (JC) *-* (M)</t>
+  </si>
+  <si>
+    <t>5580 PATRIKA</t>
+  </si>
+  <si>
+    <t>5581 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5582 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5583 PATRIKA</t>
+  </si>
+  <si>
+    <t>5584 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>5585 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5586 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5587 PATRIKA</t>
+  </si>
+  <si>
+    <t>5588 PATRIKA (JC) *-* (M)</t>
+  </si>
+  <si>
+    <t>5589 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5590 PATRIKA</t>
+  </si>
+  <si>
+    <t>5592 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5593 PATRIKA</t>
+  </si>
+  <si>
+    <t>5595 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5596 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5597 PATRIKA (JC) *-* (M)</t>
+  </si>
+  <si>
+    <t>5599 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5601 PATRIKA</t>
+  </si>
+  <si>
+    <t>5602 PATRIKA</t>
+  </si>
+  <si>
+    <t>5603 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5604 PATRIKA</t>
+  </si>
+  <si>
+    <t>5605 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>5606 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5607 PATRIKA</t>
+  </si>
+  <si>
+    <t>5608 PATRIKA</t>
+  </si>
+  <si>
+    <t>5609 PATRIKA</t>
+  </si>
+  <si>
+    <t>5610 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>5611 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5612 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>5614 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5615 PATRIKA</t>
+  </si>
+  <si>
+    <t>5616 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>5617 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5618 PATRIKA (JC) *-* (M)</t>
+  </si>
+  <si>
+    <t>5619 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>5621 PATRIKA (JC) *-* (M)</t>
+  </si>
+  <si>
+    <t>5622 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5623 PATRIKA</t>
+  </si>
+  <si>
+    <t>5625 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>6601 PATRIKA (L)</t>
+  </si>
+  <si>
+    <t>6602 PATRIKA</t>
+  </si>
+  <si>
+    <t>6603 PATRIKA</t>
+  </si>
+  <si>
+    <t>6604 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6605 PATRIKA</t>
+  </si>
+  <si>
+    <t>6606 PATRIKA (*-*) R</t>
+  </si>
+  <si>
+    <t>6607 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6608 PATRIKA</t>
+  </si>
+  <si>
+    <t>6609 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6610 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6611 PATRIKA</t>
+  </si>
+  <si>
+    <t>6612 PATRIKA</t>
+  </si>
+  <si>
+    <t>6613 PATRIKA</t>
+  </si>
+  <si>
+    <t>6614 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>6615 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6616 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6617 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6618 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6619 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6620 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6621 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6622 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6623 PATRIKA</t>
+  </si>
+  <si>
+    <t>6624 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6625 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6626 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6627 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6628 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6629 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6630 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6631 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>6632 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>6633 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6634 PATRIKA</t>
+  </si>
+  <si>
+    <t>6635 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6636 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6637 PATRIKA</t>
+  </si>
+  <si>
+    <t>6638 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6639 PATRIKA (B)</t>
+  </si>
+  <si>
+    <t>6640 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6641 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6642 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6643 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6644 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>6645 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6646 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6647 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6648 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6649 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6650 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6651 PATRIKA</t>
+  </si>
+  <si>
+    <t>6652 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6653 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6654 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6655 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6656 PATRIKA (L)</t>
+  </si>
+  <si>
+    <t>6657 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6658 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6659 PATRIKA</t>
+  </si>
+  <si>
+    <t>6660 PATRIKA</t>
+  </si>
+  <si>
+    <t>6661 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6662 PATRIKA</t>
+  </si>
+  <si>
+    <t>6663 PATRIKA</t>
+  </si>
+  <si>
+    <t>6664 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6665 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6667 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6668 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>6669 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>6670 PATRIKA - B (M)</t>
+  </si>
+  <si>
+    <t>6670 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6671 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6672 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6673 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>6674 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>6675 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6676 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>6677 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>7265 PATRIKA (O.C.)</t>
+  </si>
+  <si>
+    <t>7283 PATRIKA {F} (O.C.)</t>
+  </si>
+  <si>
+    <t>7287 PATRIKA (O.C.)</t>
+  </si>
+  <si>
+    <t>7288 PATRIKA (O.C.)</t>
+  </si>
+  <si>
+    <t>7293 PATRIKA (O.C.)</t>
+  </si>
+  <si>
+    <t>7309 PATRIKA (O.C.)</t>
+  </si>
+  <si>
+    <t>7312 PATRIKA (O.C.)</t>
+  </si>
+  <si>
+    <t>7319 PATRIKA (O.C.)</t>
+  </si>
+  <si>
+    <t>7332 PATRIKA (O.C.)</t>
+  </si>
+  <si>
+    <t>7342 PATRIKA (O.C.)</t>
+  </si>
+  <si>
+    <t>7344 PATRIKA (O.C.)</t>
+  </si>
+  <si>
+    <t>7345 PATRIKA (O.C.)</t>
+  </si>
+  <si>
+    <t>7401 PATRIKA</t>
+  </si>
+  <si>
+    <t>7402 PATRIKA</t>
+  </si>
+  <si>
+    <t>7403 PATRIKA</t>
+  </si>
+  <si>
+    <t>7404 PATRIKA</t>
+  </si>
+  <si>
+    <t>7405 PATRIKA</t>
+  </si>
+  <si>
+    <t>7406 PATRIKA</t>
+  </si>
+  <si>
+    <t>7407 PATRIKA *-* (F)</t>
+  </si>
+  <si>
+    <t>7408 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>7409 PATRIKA</t>
+  </si>
+  <si>
+    <t>7410 PATRIKA</t>
+  </si>
+  <si>
+    <t>7411 PATRIKA</t>
+  </si>
+  <si>
+    <t>7413 PATRIKA</t>
+  </si>
+  <si>
+    <t>7414 PATRIKA</t>
+  </si>
+  <si>
+    <t>7415 PATRIKA *-* (F)</t>
+  </si>
+  <si>
+    <t>7416 PATRIKA</t>
+  </si>
+  <si>
+    <t>7417 PATRIKA</t>
+  </si>
+  <si>
+    <t>7418 PATRIKA *-* (डोरी)</t>
+  </si>
+  <si>
+    <t>7419 PATRIKA</t>
+  </si>
+  <si>
+    <t>7420 PATRIKA</t>
+  </si>
+  <si>
+    <t>7421 PATRIKA *-* (F)</t>
+  </si>
+  <si>
+    <t>7422 PATRIKA</t>
+  </si>
+  <si>
+    <t>7423 PATRIKA</t>
+  </si>
+  <si>
+    <t>7424 PATRIKA *-* (F)</t>
+  </si>
+  <si>
+    <t>7425 PATRIKA</t>
+  </si>
+  <si>
+    <t>7426 PATRIKA (F/G) *-*</t>
+  </si>
+  <si>
+    <t>7427 PATRIKA</t>
+  </si>
+  <si>
+    <t>7428 PATRIKA</t>
+  </si>
+  <si>
+    <t>7429 PATRIKA (F/G) *-*</t>
+  </si>
+  <si>
+    <t>7430 PATRIKA</t>
+  </si>
+  <si>
+    <t>7431 PATRIKA</t>
+  </si>
+  <si>
+    <t>7432 PATRIKA</t>
+  </si>
+  <si>
+    <t>7433 PATRIKA</t>
+  </si>
+  <si>
+    <t>7434 PATRIKA</t>
+  </si>
+  <si>
+    <t>7435 PATRIKA</t>
+  </si>
+  <si>
+    <t>7436 PATRIKA</t>
+  </si>
+  <si>
+    <t>7437 PATRIKA</t>
+  </si>
+  <si>
+    <t>7438 PATRIKA</t>
+  </si>
+  <si>
+    <t>7439 PATRIKA</t>
+  </si>
+  <si>
+    <t>7440 PATRIKA</t>
+  </si>
+  <si>
+    <t>7441 PATRIKA *-* (F)</t>
+  </si>
+  <si>
+    <t>7442 PATRIKA</t>
+  </si>
+  <si>
+    <t>7443 PATRIKA</t>
+  </si>
+  <si>
+    <t>7444 PATRIKA</t>
+  </si>
+  <si>
+    <t>7445 PATRIKA</t>
+  </si>
+  <si>
+    <t>7446 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>7447 PATRIKA</t>
+  </si>
+  <si>
+    <t>7448 PATRIKA</t>
+  </si>
+  <si>
+    <t>7449 PATRIKA</t>
+  </si>
+  <si>
+    <t>7450 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>7451 PATRIKA</t>
+  </si>
+  <si>
+    <t>7452 PATRIKA</t>
+  </si>
+  <si>
+    <t>7453 PATRIKA (ECO - 61)</t>
+  </si>
+  <si>
+    <t>7454 PATRIKA (ECO -63)</t>
+  </si>
+  <si>
+    <t>9001 CARD (O.C.)</t>
   </si>
   <si>
     <t>9221 CARDS - YELLOW</t>
@@ -1688,268 +1688,268 @@
     <t>9227 CARDS (9*5 OFFSET)</t>
   </si>
   <si>
-    <t>9228 CARDS (Y) (ORANGE WITH ONLY FOIL)</t>
-  </si>
-  <si>
-    <t>9229 CARDS - B (DCU) (GOLDEN WITH GANESH JI &amp; FOIL)</t>
-  </si>
-  <si>
-    <t>9229 CARDS (C) (CREAM WITH GANESH JI &amp; FOIL)</t>
+    <t>9228 CARDS (Y)</t>
+  </si>
+  <si>
+    <t>9229 CARDS - B (DCU)</t>
+  </si>
+  <si>
+    <t>9229 CARDS (C)</t>
   </si>
   <si>
     <t>9230 (CARD) 9*5 SCREEN</t>
   </si>
   <si>
-    <t>9231 CARDS (DCU) (RIYAZ 9*5 PINK)</t>
-  </si>
-  <si>
-    <t>9232 CARDS (DCU) (RIYAZ 9*5 CREAM)</t>
-  </si>
-  <si>
-    <t>9233 CARDS (DCU) (RIYAZ 9*5 YELLOW)</t>
-  </si>
-  <si>
-    <t>9235 CARDS (DCU) (RIYAZ 9*4 CREAM)</t>
-  </si>
-  <si>
-    <t>9236 CARDS (DCU) (RIYAZ 9*4 YELLOW)</t>
-  </si>
-  <si>
-    <t>9237 CARDS (DCU) (DCU 9*4 RED)</t>
-  </si>
-  <si>
-    <t>9301 CARDS (4242)</t>
-  </si>
-  <si>
-    <t>9302 CARDS (5076)</t>
-  </si>
-  <si>
-    <t>9303 CARDS (5080 Pink)</t>
-  </si>
-  <si>
-    <t>9304 CARDS (5083 Blue)</t>
-  </si>
-  <si>
-    <t>9305 CARDS (9070) (4701 Nice)</t>
-  </si>
-  <si>
-    <t>9306 CARDS (0543 Nice)</t>
-  </si>
-  <si>
-    <t>9307 CARDS *-* (M) (5243 Nice)</t>
-  </si>
-  <si>
-    <t>9308 CARDS (9852)</t>
-  </si>
-  <si>
-    <t>9309 CARDS *-* (T) (9561 Vp)</t>
-  </si>
-  <si>
-    <t>9310 CARDS (3103)</t>
-  </si>
-  <si>
-    <t>9311 CARDS (3115)</t>
-  </si>
-  <si>
-    <t>9312 CARDS *-* (T) (208 VV)</t>
-  </si>
-  <si>
-    <t>9313 CARDS *-* (T) (216)</t>
-  </si>
-  <si>
-    <t>9314 CARDS (P-1)</t>
-  </si>
-  <si>
-    <t>9315 CARDS (DCU) (P-2)</t>
-  </si>
-  <si>
-    <t>9316 CARDS (DCU) (P-3)</t>
-  </si>
-  <si>
-    <t>9317 CARDS (P-4)</t>
-  </si>
-  <si>
-    <t>9318 CARDS (25905)</t>
-  </si>
-  <si>
-    <t>9320 CARDS (S-20)</t>
-  </si>
-  <si>
-    <t>9321 CARDS (22912 GANESH JI)</t>
-  </si>
-  <si>
-    <t>9322 CARDS *-* (M) (22912 COMMON)</t>
-  </si>
-  <si>
-    <t>9323 CARDS (9005 OLD) (9*5 CREAM FOIL NEW)</t>
-  </si>
-  <si>
-    <t>9324 CARDS (9*5 PINK FOIL NEW)</t>
-  </si>
-  <si>
-    <t>9325 CARDS (5229)</t>
-  </si>
-  <si>
-    <t>9326 CARDS (1601)</t>
-  </si>
-  <si>
-    <t>9327 CARDS (25908)</t>
-  </si>
-  <si>
-    <t>9328 CARDS (2543)</t>
-  </si>
-  <si>
-    <t>9329 CARDS (Desgin H/d) (3606)</t>
-  </si>
-  <si>
-    <t>9330 CARDS *-* (T) (9557)</t>
-  </si>
-  <si>
-    <t>9331 CARDS *-*  (T) (9560)</t>
-  </si>
-  <si>
-    <t>9332 CARDS (9847)</t>
-  </si>
-  <si>
-    <t>9333 CARDS (6042)</t>
-  </si>
-  <si>
-    <t>9334 CARDS (10X6 WHITE (2898))</t>
-  </si>
-  <si>
-    <t>9335 CARDS (9003 OLD) (9*5 WHITE)</t>
-  </si>
-  <si>
-    <t>9336 CARDS (2884)</t>
-  </si>
-  <si>
-    <t>9337 CARDS (1635 AP)</t>
-  </si>
-  <si>
-    <t>9338 CARDS (1637 AP)</t>
-  </si>
-  <si>
-    <t>9339 CARDS (5361)</t>
-  </si>
-  <si>
-    <t>9340 CARDS (5658)</t>
-  </si>
-  <si>
-    <t>9341 CARDS (5497)</t>
-  </si>
-  <si>
-    <t>9342 CARDS (2861)</t>
-  </si>
-  <si>
-    <t>9343 CARDS (9*5 WHTE GE HEAVY)</t>
-  </si>
-  <si>
-    <t>9344 CARDS (689)</t>
-  </si>
-  <si>
-    <t>9345 CARDS (358 KALYANI)</t>
-  </si>
-  <si>
-    <t>9346 CARDS (359)</t>
-  </si>
-  <si>
-    <t>9347 CARDS (2853)</t>
-  </si>
-  <si>
-    <t>9348 CARDS *-* (डोरी) (S-124)</t>
-  </si>
-  <si>
-    <t>9349 CARDS (W/o Window) (S-120)</t>
-  </si>
-  <si>
-    <t>9350 CARDS *-* (T) (1632)</t>
-  </si>
-  <si>
-    <t>9351 Card - B (1603 B)</t>
-  </si>
-  <si>
-    <t>9351 CARDS *-* (T) (1603)</t>
-  </si>
-  <si>
-    <t>9352 CARDS *-* (T) (1606 AP)</t>
-  </si>
-  <si>
-    <t>9353 CARDS (1618)</t>
-  </si>
-  <si>
-    <t>9354 CARDS (DCU) (345)</t>
-  </si>
-  <si>
-    <t>9355 CARDS (1624)</t>
-  </si>
-  <si>
-    <t>9356 CARDS (2895/2897)</t>
-  </si>
-  <si>
-    <t>9357 CARDS (2872)</t>
-  </si>
-  <si>
-    <t>9358 CARDS (WHITE PATTA)</t>
-  </si>
-  <si>
-    <t>9359 CARDS (PITCH PATTA)</t>
-  </si>
-  <si>
-    <t>9360 CARDS *-* (M) (GOL ANDA)</t>
-  </si>
-  <si>
-    <t>9361 CARDS (25426)</t>
-  </si>
-  <si>
-    <t>9362 CARDS (363)</t>
-  </si>
-  <si>
-    <t>9363 CARDS *-* (T) (1652)</t>
-  </si>
-  <si>
-    <t>9364 CARDS *-* (T) (1612)</t>
-  </si>
-  <si>
-    <t>9365 CARDS (25429)</t>
-  </si>
-  <si>
-    <t>9366 CARDS (25427 GOLDEN)</t>
-  </si>
-  <si>
-    <t>9367 CARDS (5652)</t>
-  </si>
-  <si>
-    <t>9368 CARDS (9*5 SET 25/26 GOLDEN (25425))</t>
-  </si>
-  <si>
-    <t>9369 CARDS (9*5 SET 25/26 YELLOW (25424))</t>
-  </si>
-  <si>
-    <t>9370 CARDS (9*5 SET 25/26 RED (25423))</t>
-  </si>
-  <si>
-    <t>9371 CARDS (3111 VP)</t>
-  </si>
-  <si>
-    <t>9372 CARDS (9*5 YLW SET (2841))</t>
-  </si>
-  <si>
-    <t>9373 CARDS (1482)</t>
-  </si>
-  <si>
-    <t>9374 CARDS (1485)</t>
-  </si>
-  <si>
-    <t>9375 CARDS (1452 WHITE)</t>
-  </si>
-  <si>
-    <t>9376 CARDS (1529 PRINCE)</t>
-  </si>
-  <si>
-    <t>9377 CARDS (DCU) (9*5 SET GREEN (009))</t>
-  </si>
-  <si>
-    <t>9378 CARDS (2892)</t>
+    <t>9231 CARDS (DCU)</t>
+  </si>
+  <si>
+    <t>9232 CARDS (DCU)</t>
+  </si>
+  <si>
+    <t>9233 CARDS (DCU)</t>
+  </si>
+  <si>
+    <t>9235 CARDS (DCU)</t>
+  </si>
+  <si>
+    <t>9236 CARDS (DCU)</t>
+  </si>
+  <si>
+    <t>9237 CARDS (DCU)</t>
+  </si>
+  <si>
+    <t>9301 CARDS</t>
+  </si>
+  <si>
+    <t>9302 CARDS</t>
+  </si>
+  <si>
+    <t>9303 CARDS</t>
+  </si>
+  <si>
+    <t>9304 CARDS</t>
+  </si>
+  <si>
+    <t>9305 CARDS (9070)</t>
+  </si>
+  <si>
+    <t>9306 CARDS</t>
+  </si>
+  <si>
+    <t>9307 CARDS *-* (M)</t>
+  </si>
+  <si>
+    <t>9308 CARDS</t>
+  </si>
+  <si>
+    <t>9309 CARDS *-* (T)</t>
+  </si>
+  <si>
+    <t>9310 CARDS</t>
+  </si>
+  <si>
+    <t>9311 CARDS</t>
+  </si>
+  <si>
+    <t>9312 CARDS *-* (T)</t>
+  </si>
+  <si>
+    <t>9313 CARDS *-* (T)</t>
+  </si>
+  <si>
+    <t>9314 CARDS</t>
+  </si>
+  <si>
+    <t>9315 CARDS (DCU)</t>
+  </si>
+  <si>
+    <t>9316 CARDS (DCU)</t>
+  </si>
+  <si>
+    <t>9317 CARDS</t>
+  </si>
+  <si>
+    <t>9318 CARDS</t>
+  </si>
+  <si>
+    <t>9320 CARDS</t>
+  </si>
+  <si>
+    <t>9321 CARDS</t>
+  </si>
+  <si>
+    <t>9322 CARDS *-* (M)</t>
+  </si>
+  <si>
+    <t>9323 CARDS (9005 OLD)</t>
+  </si>
+  <si>
+    <t>9324 CARDS</t>
+  </si>
+  <si>
+    <t>9325 CARDS</t>
+  </si>
+  <si>
+    <t>9326 CARDS</t>
+  </si>
+  <si>
+    <t>9327 CARDS</t>
+  </si>
+  <si>
+    <t>9328 CARDS</t>
+  </si>
+  <si>
+    <t>9329 CARDS (Desgin H/d)</t>
+  </si>
+  <si>
+    <t>9330 CARDS *-* (T)</t>
+  </si>
+  <si>
+    <t>9331 CARDS *-*  (T)</t>
+  </si>
+  <si>
+    <t>9332 CARDS</t>
+  </si>
+  <si>
+    <t>9333 CARDS</t>
+  </si>
+  <si>
+    <t>9334 CARDS</t>
+  </si>
+  <si>
+    <t>9335 CARDS (9003 OLD)</t>
+  </si>
+  <si>
+    <t>9336 CARDS</t>
+  </si>
+  <si>
+    <t>9337 CARDS</t>
+  </si>
+  <si>
+    <t>9338 CARDS</t>
+  </si>
+  <si>
+    <t>9339 CARDS</t>
+  </si>
+  <si>
+    <t>9340 CARDS</t>
+  </si>
+  <si>
+    <t>9341 CARDS</t>
+  </si>
+  <si>
+    <t>9342 CARDS</t>
+  </si>
+  <si>
+    <t>9343 CARDS</t>
+  </si>
+  <si>
+    <t>9344 CARDS</t>
+  </si>
+  <si>
+    <t>9345 CARDS</t>
+  </si>
+  <si>
+    <t>9346 CARDS</t>
+  </si>
+  <si>
+    <t>9347 CARDS</t>
+  </si>
+  <si>
+    <t>9348 CARDS *-* (डोरी)</t>
+  </si>
+  <si>
+    <t>9349 CARDS (W/o Window)</t>
+  </si>
+  <si>
+    <t>9350 CARDS *-* (T)</t>
+  </si>
+  <si>
+    <t>9351 Card - B</t>
+  </si>
+  <si>
+    <t>9351 CARDS *-* (T)</t>
+  </si>
+  <si>
+    <t>9352 CARDS *-* (T)</t>
+  </si>
+  <si>
+    <t>9353 CARDS</t>
+  </si>
+  <si>
+    <t>9354 CARDS (DCU)</t>
+  </si>
+  <si>
+    <t>9355 CARDS</t>
+  </si>
+  <si>
+    <t>9356 CARDS</t>
+  </si>
+  <si>
+    <t>9357 CARDS</t>
+  </si>
+  <si>
+    <t>9358 CARDS</t>
+  </si>
+  <si>
+    <t>9359 CARDS</t>
+  </si>
+  <si>
+    <t>9360 CARDS *-* (M)</t>
+  </si>
+  <si>
+    <t>9361 CARDS</t>
+  </si>
+  <si>
+    <t>9362 CARDS</t>
+  </si>
+  <si>
+    <t>9363 CARDS *-* (T)</t>
+  </si>
+  <si>
+    <t>9364 CARDS *-* (T)</t>
+  </si>
+  <si>
+    <t>9365 CARDS</t>
+  </si>
+  <si>
+    <t>9366 CARDS</t>
+  </si>
+  <si>
+    <t>9367 CARDS</t>
+  </si>
+  <si>
+    <t>9368 CARDS</t>
+  </si>
+  <si>
+    <t>9369 CARDS</t>
+  </si>
+  <si>
+    <t>9370 CARDS</t>
+  </si>
+  <si>
+    <t>9371 CARDS</t>
+  </si>
+  <si>
+    <t>9372 CARDS</t>
+  </si>
+  <si>
+    <t>9373 CARDS</t>
+  </si>
+  <si>
+    <t>9374 CARDS</t>
+  </si>
+  <si>
+    <t>9375 CARDS</t>
+  </si>
+  <si>
+    <t>9376 CARDS</t>
+  </si>
+  <si>
+    <t>9377 CARDS (DCU)</t>
+  </si>
+  <si>
+    <t>9378 CARDS</t>
   </si>
   <si>
     <t>9379 CARDS - R</t>
@@ -1979,19 +1979,19 @@
     <t>9387 CARDS - GOLDEN (Mil Jayega)</t>
   </si>
   <si>
-    <t>9389 CARDS (9147 RJ)</t>
-  </si>
-  <si>
-    <t>9390 CARDS (DCU) (118KBC)</t>
+    <t>9389 CARDS</t>
+  </si>
+  <si>
+    <t>9390 CARDS (DCU)</t>
   </si>
   <si>
     <t>9391 CARDS</t>
   </si>
   <si>
-    <t>9*4 ENVELOPE (SBC) (CHOTA ENVELOPE (60/40 BILL))</t>
-  </si>
-  <si>
-    <t>9*5 ENVELOPE (FOIL) SBC (BADA ENVLP WITH FOIL (60/40 BILL))</t>
+    <t>9*4 ENVELOPE (SBC)</t>
+  </si>
+  <si>
+    <t>9*5 ENVELOPE (FOIL) SBC</t>
   </si>
   <si>
     <t>ACRYLIC NAME PLATE</t>
@@ -2000,7 +2000,7 @@
     <t>DEV SAMPLE SET</t>
   </si>
   <si>
-    <t>FANCY GIFT ENVELOPE-(SR) (SR ENVELOPES)</t>
+    <t>FANCY GIFT ENVELOPE-(SR)</t>
   </si>
   <si>
     <t>Gift Envelope (Pocket) SR...</t>
@@ -2018,34 +2018,34 @@
     <t>RIBBON (रिबीन)</t>
   </si>
   <si>
-    <t>RX-01 ENVELOPE (LX01)</t>
-  </si>
-  <si>
-    <t>RX-02 ENVELOPE (LX02)</t>
-  </si>
-  <si>
-    <t>RX-03 ENVELOPE (LX03)</t>
-  </si>
-  <si>
-    <t>RX-04 ENVELOPE (LX04)</t>
-  </si>
-  <si>
-    <t>RX-05 ENVELOPE (LX05)</t>
-  </si>
-  <si>
-    <t>RX-06 ENVELOPE (LX06)</t>
-  </si>
-  <si>
-    <t>RX-07 ENVELOPE (LX07)</t>
-  </si>
-  <si>
-    <t>RX-08 ENVELOPE (LX08)</t>
-  </si>
-  <si>
-    <t>RX-09 ENVELOPE (LX09)</t>
-  </si>
-  <si>
-    <t>गोल गणेश / गोल फ्लावर (GOL GANESH OR GOL FLOWER)</t>
+    <t>RX-01 ENVELOPE</t>
+  </si>
+  <si>
+    <t>RX-02 ENVELOPE</t>
+  </si>
+  <si>
+    <t>RX-03 ENVELOPE</t>
+  </si>
+  <si>
+    <t>RX-04 ENVELOPE</t>
+  </si>
+  <si>
+    <t>RX-05 ENVELOPE</t>
+  </si>
+  <si>
+    <t>RX-06 ENVELOPE</t>
+  </si>
+  <si>
+    <t>RX-07 ENVELOPE</t>
+  </si>
+  <si>
+    <t>RX-08 ENVELOPE</t>
+  </si>
+  <si>
+    <t>RX-09 ENVELOPE</t>
+  </si>
+  <si>
+    <t>गोल गणेश / गोल फ्लावर</t>
   </si>
   <si>
     <t>Grand Total</t>
@@ -2578,7 +2578,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
@@ -2751,16 +2751,16 @@
         <v>17</v>
       </c>
       <c r="B14" s="24">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" s="25">
-        <v>104.5</v>
+        <v>101.5</v>
       </c>
       <c r="D14" s="26">
         <v>2</v>
       </c>
       <c r="E14" s="27">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -2955,16 +2955,16 @@
         <v>29</v>
       </c>
       <c r="B26" s="24">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C26" s="25">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D26" s="26">
         <v>2</v>
       </c>
       <c r="E26" s="27">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3174,16 +3174,16 @@
         <v>42</v>
       </c>
       <c r="B39" s="24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" s="25">
-        <v>53.5</v>
+        <v>49.5</v>
       </c>
       <c r="D39" s="26">
         <v>2.14</v>
       </c>
       <c r="E39" s="27">
-        <v>114.49</v>
+        <v>105.93</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -3276,16 +3276,16 @@
         <v>48</v>
       </c>
       <c r="B45" s="24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C45" s="25">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D45" s="26">
         <v>1.25</v>
       </c>
       <c r="E45" s="27">
-        <v>48.75</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -3361,16 +3361,16 @@
         <v>53</v>
       </c>
       <c r="B50" s="24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C50" s="25">
-        <v>144.5</v>
+        <v>143.5</v>
       </c>
       <c r="D50" s="26">
         <v>2.5</v>
       </c>
       <c r="E50" s="27">
-        <v>361.25</v>
+        <v>358.75</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -3676,16 +3676,16 @@
         <v>72</v>
       </c>
       <c r="B69" s="24">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C69" s="25">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D69" s="26">
         <v>1.4</v>
       </c>
       <c r="E69" s="27">
-        <v>394.8</v>
+        <v>392</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -3744,16 +3744,16 @@
         <v>76</v>
       </c>
       <c r="B73" s="24">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C73" s="25">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D73" s="26">
         <v>1.2</v>
       </c>
       <c r="E73" s="27">
-        <v>762</v>
+        <v>759.6</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -3980,16 +3980,16 @@
         <v>90</v>
       </c>
       <c r="B87" s="24">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C87" s="25">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D87" s="26">
         <v>1.2</v>
       </c>
       <c r="E87" s="27">
-        <v>101.75</v>
+        <v>100.56</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -4397,10 +4397,10 @@
         <v>119</v>
       </c>
       <c r="B116" s="24">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C116" s="25">
-        <v>-0.41</v>
+        <v>-0.42</v>
       </c>
       <c r="D116" s="28"/>
       <c r="E116" s="29"/>
@@ -4535,16 +4535,16 @@
         <v>129</v>
       </c>
       <c r="B126" s="24">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C126" s="25">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D126" s="26">
         <v>12.5</v>
       </c>
       <c r="E126" s="27">
-        <v>600</v>
+        <v>587.5</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -4603,16 +4603,16 @@
         <v>133</v>
       </c>
       <c r="B130" s="24">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C130" s="25">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D130" s="26">
         <v>12.5</v>
       </c>
       <c r="E130" s="27">
-        <v>287.5</v>
+        <v>275</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -4856,16 +4856,16 @@
         <v>148</v>
       </c>
       <c r="B145" s="24">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C145" s="25">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="D145" s="26">
         <v>18.5</v>
       </c>
       <c r="E145" s="27">
-        <v>120.25</v>
+        <v>83.25</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -5160,16 +5160,16 @@
         <v>166</v>
       </c>
       <c r="B163" s="24">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C163" s="25">
-        <v>1.5</v>
+        <v>-6.5</v>
       </c>
       <c r="D163" s="26">
         <v>1.1499999999999999</v>
       </c>
       <c r="E163" s="27">
-        <v>1.72</v>
+        <v>-7.47</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -5394,16 +5394,16 @@
         <v>180</v>
       </c>
       <c r="B177" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C177" s="25">
-        <v>30.5</v>
+        <v>28.5</v>
       </c>
       <c r="D177" s="26">
         <v>2.76</v>
       </c>
       <c r="E177" s="27">
-        <v>84.24</v>
+        <v>78.72</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -5477,16 +5477,16 @@
         <v>185</v>
       </c>
       <c r="B182" s="24">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C182" s="25">
-        <v>32</v>
+        <v>30.5</v>
       </c>
       <c r="D182" s="26">
         <v>5</v>
       </c>
       <c r="E182" s="27">
-        <v>160</v>
+        <v>152.5</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
@@ -5562,16 +5562,16 @@
         <v>190</v>
       </c>
       <c r="B187" s="24">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C187" s="25">
-        <v>44.5</v>
+        <v>42.5</v>
       </c>
       <c r="D187" s="26">
         <v>4.5</v>
       </c>
       <c r="E187" s="27">
-        <v>200.25</v>
+        <v>191.25</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -5902,16 +5902,16 @@
         <v>210</v>
       </c>
       <c r="B207" s="24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C207" s="25">
-        <v>70</v>
+        <v>66.5</v>
       </c>
       <c r="D207" s="26">
         <v>3.57</v>
       </c>
       <c r="E207" s="27">
-        <v>250.04</v>
+        <v>237.53</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
@@ -6209,16 +6209,16 @@
         <v>229</v>
       </c>
       <c r="B226" s="24">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C226" s="25">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="D226" s="26">
         <v>8.25</v>
       </c>
       <c r="E226" s="27">
-        <v>140.25</v>
+        <v>111.38</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
@@ -6260,16 +6260,16 @@
         <v>232</v>
       </c>
       <c r="B229" s="24">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C229" s="25">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D229" s="26">
         <v>6.3</v>
       </c>
       <c r="E229" s="27">
-        <v>264.60000000000002</v>
+        <v>245.7</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
@@ -6528,16 +6528,16 @@
         <v>248</v>
       </c>
       <c r="B245" s="24">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C245" s="25">
-        <v>419.5</v>
+        <v>417</v>
       </c>
       <c r="D245" s="26">
         <v>4.28</v>
       </c>
       <c r="E245" s="27">
-        <v>1795.46</v>
+        <v>1784.76</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
@@ -7022,13 +7022,13 @@
         <v>56</v>
       </c>
       <c r="C274" s="25">
-        <v>100.5</v>
+        <v>105.5</v>
       </c>
       <c r="D274" s="26">
         <v>6</v>
       </c>
       <c r="E274" s="27">
-        <v>602.95000000000005</v>
+        <v>632.95000000000005</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
@@ -7879,16 +7879,16 @@
         <v>329</v>
       </c>
       <c r="B326" s="24">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C326" s="25">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="D326" s="26">
         <v>6.4</v>
       </c>
       <c r="E326" s="27">
-        <v>67.2</v>
+        <v>60.8</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
@@ -8149,16 +8149,16 @@
         <v>345</v>
       </c>
       <c r="B342" s="24">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C342" s="25">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D342" s="26">
         <v>7.13</v>
       </c>
       <c r="E342" s="27">
-        <v>149.72999999999999</v>
+        <v>128.34</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
@@ -8251,16 +8251,16 @@
         <v>351</v>
       </c>
       <c r="B348" s="24">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C348" s="25">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="D348" s="26">
         <v>8.1999999999999993</v>
       </c>
       <c r="E348" s="27">
-        <v>328</v>
+        <v>307.5</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
@@ -8370,16 +8370,16 @@
         <v>358</v>
       </c>
       <c r="B355" s="24">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C355" s="25">
-        <v>35.5</v>
+        <v>34.5</v>
       </c>
       <c r="D355" s="26">
         <v>3.6</v>
       </c>
       <c r="E355" s="27">
-        <v>127.8</v>
+        <v>124.2</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
@@ -9085,16 +9085,16 @@
         <v>401</v>
       </c>
       <c r="B398" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C398" s="25">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D398" s="26">
         <v>6</v>
       </c>
       <c r="E398" s="27">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
@@ -9251,16 +9251,16 @@
         <v>411</v>
       </c>
       <c r="B408" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C408" s="25">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="D408" s="26">
         <v>16</v>
       </c>
       <c r="E408" s="27">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
@@ -9621,16 +9621,16 @@
         <v>433</v>
       </c>
       <c r="B430" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C430" s="25">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="D430" s="26">
         <v>15.5</v>
       </c>
       <c r="E430" s="27">
-        <v>186</v>
+        <v>162.75</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
@@ -9719,16 +9719,16 @@
         <v>439</v>
       </c>
       <c r="B436" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C436" s="25">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D436" s="26">
         <v>18</v>
       </c>
       <c r="E436" s="27">
-        <v>252</v>
+        <v>198</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
@@ -9753,16 +9753,16 @@
         <v>441</v>
       </c>
       <c r="B438" s="24">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C438" s="25">
-        <v>21.5</v>
+        <v>26.5</v>
       </c>
       <c r="D438" s="26">
         <v>9.5</v>
       </c>
       <c r="E438" s="27">
-        <v>204.25</v>
+        <v>251.75</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.25">
@@ -9939,13 +9939,13 @@
         <v>5</v>
       </c>
       <c r="C449" s="25">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="D449" s="26">
         <v>9.26</v>
       </c>
       <c r="E449" s="27">
-        <v>171.31</v>
+        <v>180.57</v>
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.25">
@@ -10087,16 +10087,16 @@
         <v>461</v>
       </c>
       <c r="B458" s="24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C458" s="25">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D458" s="26">
         <v>11.15</v>
       </c>
       <c r="E458" s="27">
-        <v>401.54</v>
+        <v>356.92</v>
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.25">
@@ -10681,16 +10681,16 @@
         <v>497</v>
       </c>
       <c r="B494" s="24">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C494" s="25">
-        <v>37.5</v>
+        <v>35.5</v>
       </c>
       <c r="D494" s="26">
         <v>3</v>
       </c>
       <c r="E494" s="27">
-        <v>112.5</v>
+        <v>106.5</v>
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.25">
@@ -10698,16 +10698,16 @@
         <v>498</v>
       </c>
       <c r="B495" s="24">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C495" s="25">
-        <v>58</v>
+        <v>55.5</v>
       </c>
       <c r="D495" s="26">
         <v>3.8</v>
       </c>
       <c r="E495" s="27">
-        <v>220.4</v>
+        <v>210.9</v>
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.25">
@@ -10813,16 +10813,16 @@
         <v>505</v>
       </c>
       <c r="B502" s="24">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C502" s="25">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D502" s="26">
         <v>2</v>
       </c>
       <c r="E502" s="27">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.25">
@@ -10847,16 +10847,16 @@
         <v>507</v>
       </c>
       <c r="B504" s="24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C504" s="25">
-        <v>27</v>
+        <v>25.5</v>
       </c>
       <c r="D504" s="26">
         <v>4.28</v>
       </c>
       <c r="E504" s="27">
-        <v>115.56</v>
+        <v>109.14</v>
       </c>
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.25">
@@ -10915,16 +10915,16 @@
         <v>511</v>
       </c>
       <c r="B508" s="24">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C508" s="25">
-        <v>29.5</v>
+        <v>27.5</v>
       </c>
       <c r="D508" s="26">
         <v>4.75</v>
       </c>
       <c r="E508" s="27">
-        <v>140.13</v>
+        <v>130.63</v>
       </c>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.25">
@@ -11068,16 +11068,16 @@
         <v>520</v>
       </c>
       <c r="B517" s="24">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C517" s="25">
-        <v>123.5</v>
+        <v>124.5</v>
       </c>
       <c r="D517" s="26">
         <v>3.9</v>
       </c>
       <c r="E517" s="27">
-        <v>481.65</v>
+        <v>485.55</v>
       </c>
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.25">
@@ -11187,16 +11187,16 @@
         <v>527</v>
       </c>
       <c r="B524" s="24">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C524" s="25">
-        <v>39.799999999999997</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="D524" s="26">
         <v>3.14</v>
       </c>
       <c r="E524" s="27">
-        <v>124.97</v>
+        <v>121.83</v>
       </c>
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.25">
@@ -11255,16 +11255,16 @@
         <v>531</v>
       </c>
       <c r="B528" s="24">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C528" s="25">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D528" s="26">
         <v>3.5</v>
       </c>
       <c r="E528" s="27">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.25">
@@ -11323,16 +11323,16 @@
         <v>535</v>
       </c>
       <c r="B532" s="24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C532" s="25">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="D532" s="26">
         <v>2.66</v>
       </c>
       <c r="E532" s="27">
-        <v>49.21</v>
+        <v>41.23</v>
       </c>
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.25">
@@ -11340,16 +11340,16 @@
         <v>536</v>
       </c>
       <c r="B533" s="24">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C533" s="25">
-        <v>54.5</v>
+        <v>50.5</v>
       </c>
       <c r="D533" s="26">
         <v>2.66</v>
       </c>
       <c r="E533" s="27">
-        <v>144.97</v>
+        <v>134.33000000000001</v>
       </c>
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.25">
@@ -11438,16 +11438,16 @@
         <v>542</v>
       </c>
       <c r="B539" s="24">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C539" s="25">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D539" s="26">
         <v>1.4</v>
       </c>
       <c r="E539" s="27">
-        <v>253.4</v>
+        <v>250.6</v>
       </c>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.25">
@@ -11603,16 +11603,16 @@
         <v>553</v>
       </c>
       <c r="B550" s="24">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C550" s="25">
-        <v>1190</v>
+        <v>1110</v>
       </c>
       <c r="D550" s="26">
         <v>0.57999999999999996</v>
       </c>
       <c r="E550" s="27">
-        <v>690.2</v>
+        <v>643.79999999999995</v>
       </c>
     </row>
     <row r="551" spans="1:5" x14ac:dyDescent="0.25">
@@ -12104,16 +12104,16 @@
         <v>584</v>
       </c>
       <c r="B581" s="24">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C581" s="25">
-        <v>3.25</v>
+        <v>1.75</v>
       </c>
       <c r="D581" s="26">
         <v>1.5</v>
       </c>
       <c r="E581" s="27">
-        <v>4.88</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="582" spans="1:5" x14ac:dyDescent="0.25">
@@ -12124,13 +12124,13 @@
         <v>38</v>
       </c>
       <c r="C582" s="25">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D582" s="26">
         <v>2.2799999999999998</v>
       </c>
       <c r="E582" s="27">
-        <v>13.68</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.25">
@@ -12274,16 +12274,16 @@
         <v>594</v>
       </c>
       <c r="B591" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C591" s="25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D591" s="26">
         <v>4.5</v>
       </c>
       <c r="E591" s="27">
-        <v>22.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="592" spans="1:5" x14ac:dyDescent="0.25">
@@ -12444,16 +12444,16 @@
         <v>604</v>
       </c>
       <c r="B601" s="24">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C601" s="25">
-        <v>99.8</v>
+        <v>97.8</v>
       </c>
       <c r="D601" s="26">
         <v>2.85</v>
       </c>
       <c r="E601" s="27">
-        <v>284.43</v>
+        <v>278.73</v>
       </c>
     </row>
     <row r="602" spans="1:5" x14ac:dyDescent="0.25">
@@ -12529,16 +12529,16 @@
         <v>609</v>
       </c>
       <c r="B606" s="24">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C606" s="25">
-        <v>32</v>
+        <v>29.5</v>
       </c>
       <c r="D606" s="26">
         <v>3.1</v>
       </c>
       <c r="E606" s="27">
-        <v>99.2</v>
+        <v>91.45</v>
       </c>
     </row>
     <row r="607" spans="1:5" x14ac:dyDescent="0.25">
@@ -12712,16 +12712,16 @@
         <v>620</v>
       </c>
       <c r="B617" s="24">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C617" s="25">
-        <v>44.5</v>
+        <v>43.5</v>
       </c>
       <c r="D617" s="26">
         <v>3.6</v>
       </c>
       <c r="E617" s="27">
-        <v>160.19999999999999</v>
+        <v>156.6</v>
       </c>
     </row>
     <row r="618" spans="1:5" x14ac:dyDescent="0.25">
@@ -12950,16 +12950,16 @@
         <v>634</v>
       </c>
       <c r="B631" s="24">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C631" s="25">
-        <v>34.5</v>
+        <v>32.5</v>
       </c>
       <c r="D631" s="26">
         <v>4</v>
       </c>
       <c r="E631" s="27">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="632" spans="1:5" x14ac:dyDescent="0.25">
@@ -13001,16 +13001,16 @@
         <v>637</v>
       </c>
       <c r="B634" s="24">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C634" s="25">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="D634" s="26">
         <v>4.25</v>
       </c>
       <c r="E634" s="27">
-        <v>68</v>
+        <v>74.38</v>
       </c>
     </row>
     <row r="635" spans="1:5" x14ac:dyDescent="0.25">
@@ -13138,10 +13138,10 @@
         <v>646</v>
       </c>
       <c r="B643" s="24">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C643" s="25">
-        <v>48.5</v>
+        <v>44.5</v>
       </c>
       <c r="D643" s="28"/>
       <c r="E643" s="29"/>
@@ -13424,16 +13424,16 @@
         <v>666</v>
       </c>
       <c r="B663" s="24">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C663" s="25">
-        <v>30.25</v>
+        <v>28.25</v>
       </c>
       <c r="D663" s="26">
         <v>2.5</v>
       </c>
       <c r="E663" s="27">
-        <v>75.63</v>
+        <v>70.63</v>
       </c>
     </row>
     <row r="664" spans="1:5" x14ac:dyDescent="0.25">
@@ -13441,16 +13441,16 @@
         <v>667</v>
       </c>
       <c r="B664" s="24">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C664" s="25">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D664" s="26">
         <v>2.5</v>
       </c>
       <c r="E664" s="27">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="665" spans="1:5" x14ac:dyDescent="0.25">
@@ -13475,16 +13475,16 @@
         <v>669</v>
       </c>
       <c r="B666" s="24">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C666" s="25">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="D666" s="26">
         <v>2.5</v>
       </c>
       <c r="E666" s="27">
-        <v>13.75</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="667" spans="1:5" x14ac:dyDescent="0.25">
@@ -13509,16 +13509,16 @@
         <v>671</v>
       </c>
       <c r="B668" s="24">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C668" s="25">
-        <v>22.25</v>
+        <v>19.25</v>
       </c>
       <c r="D668" s="26">
         <v>2.5</v>
       </c>
       <c r="E668" s="27">
-        <v>55.63</v>
+        <v>48.13</v>
       </c>
     </row>
     <row r="669" spans="1:5" x14ac:dyDescent="0.25">
@@ -13526,16 +13526,16 @@
         <v>672</v>
       </c>
       <c r="B669" s="24">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C669" s="25">
-        <v>33.5</v>
+        <v>32.5</v>
       </c>
       <c r="D669" s="26">
         <v>2.5</v>
       </c>
       <c r="E669" s="27">
-        <v>83.75</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="670" spans="1:5" x14ac:dyDescent="0.25">
@@ -13546,7 +13546,7 @@
         <v>86</v>
       </c>
       <c r="C670" s="25">
-        <v>-222</v>
+        <v>-224</v>
       </c>
       <c r="D670" s="28"/>
       <c r="E670" s="29"/>
@@ -13557,11 +13557,11 @@
       </c>
       <c r="B671" s="31"/>
       <c r="C671" s="32">
-        <v>38597.839999999997</v>
+        <v>38419.83</v>
       </c>
       <c r="D671" s="33"/>
       <c r="E671" s="34">
-        <v>107565.81</v>
+        <v>107116.64</v>
       </c>
     </row>
   </sheetData>

--- a/data/website stock.xlsx
+++ b/data/website stock.xlsx
@@ -35,7 +35,7 @@
     <t>Stock Group Summary</t>
   </si>
   <si>
-    <t>1-Jul-25 to 10-Dec-25</t>
+    <t>1-Jul-25 to 11-Dec-25</t>
   </si>
   <si>
     <t/>
@@ -68,310 +68,310 @@
     <t>Value</t>
   </si>
   <si>
-    <t>.1001 PATRIKA</t>
-  </si>
-  <si>
-    <t>1002 PATRIKA</t>
-  </si>
-  <si>
-    <t>1003 PATRIKA</t>
-  </si>
-  <si>
-    <t>1004 PATRIKA</t>
-  </si>
-  <si>
-    <t>1005 PATRIKA</t>
-  </si>
-  <si>
-    <t>1006 PATRIKA</t>
-  </si>
-  <si>
-    <t>1007 PATRIKA</t>
-  </si>
-  <si>
-    <t>1008 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>1009 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>1010 PATRIKA</t>
-  </si>
-  <si>
-    <t>1011 PATRIKA</t>
-  </si>
-  <si>
-    <t>1012 PATRIKA</t>
-  </si>
-  <si>
-    <t>1013 PATRIKA</t>
-  </si>
-  <si>
-    <t>1014 PATRIKA</t>
-  </si>
-  <si>
-    <t>1015 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>1016 PATRIKA</t>
-  </si>
-  <si>
-    <t>1017 PATRIKA</t>
-  </si>
-  <si>
-    <t>1018 PATRIKA</t>
-  </si>
-  <si>
-    <t>1019 PATRIKA</t>
-  </si>
-  <si>
-    <t>1020 PATRIKA</t>
-  </si>
-  <si>
-    <t>1021 PATRIKA</t>
-  </si>
-  <si>
-    <t>1023 PATRIKA</t>
-  </si>
-  <si>
-    <t>1024 PATRIKA</t>
-  </si>
-  <si>
-    <t>1025 PATRIKA</t>
-  </si>
-  <si>
-    <t>1026 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>1027 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>1028 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>1029 PATRIKA</t>
-  </si>
-  <si>
-    <t>1030 PATRIKA</t>
-  </si>
-  <si>
-    <t>1031 PATRIKA</t>
-  </si>
-  <si>
-    <t>1032 PATRIKA</t>
-  </si>
-  <si>
-    <t>1033 PATRIKA</t>
-  </si>
-  <si>
-    <t>1034 PATRIKA</t>
-  </si>
-  <si>
-    <t>1035 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>1101 PATRIKA (O.2591)</t>
-  </si>
-  <si>
-    <t>1102 PATRIKA (P.2591)</t>
-  </si>
-  <si>
-    <t>1103 PATRIKA(N-271)</t>
-  </si>
-  <si>
-    <t>1104 PATRIKA(N-272)</t>
-  </si>
-  <si>
-    <t>1105 PATRIKA</t>
-  </si>
-  <si>
-    <t>1106 PATRIKA-YELLOW</t>
-  </si>
-  <si>
-    <t>1107 PATRIKA-RED</t>
-  </si>
-  <si>
-    <t>1109 PATRIKA-BIG Y</t>
-  </si>
-  <si>
-    <t>1110 PATRIKA-BIG R</t>
-  </si>
-  <si>
-    <t>1112 PATRIKA</t>
-  </si>
-  <si>
-    <t>1113 PATRIKA</t>
-  </si>
-  <si>
-    <t>1114 PATRIKA-BROWN</t>
-  </si>
-  <si>
-    <t>1115 PATRIKA-CREAM</t>
-  </si>
-  <si>
-    <t>1116 PATRIKA (1153)</t>
-  </si>
-  <si>
-    <t>1117 PATRIKA (1155)</t>
-  </si>
-  <si>
-    <t>1117 PATRIKA - B</t>
-  </si>
-  <si>
-    <t>1118 PATRIKA - B (DCU)</t>
-  </si>
-  <si>
-    <t>1118 PATRIKA (सवाश्री-57)</t>
-  </si>
-  <si>
-    <t>1119 PATRIKA - B (DCU)</t>
-  </si>
-  <si>
-    <t>1119 PATRIKA(सवाश्री-55)</t>
-  </si>
-  <si>
-    <t>1120 PATRIKA(सवाश्री-59)</t>
-  </si>
-  <si>
-    <t>1121 PATRIKA(सवाश्री-53)</t>
-  </si>
-  <si>
-    <t>1122 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>1123 PATRIKA (LED-51)</t>
-  </si>
-  <si>
-    <t>1124 PATRIKA (LED-52)</t>
-  </si>
-  <si>
-    <t>1125 PATRIKA (LED-53)</t>
-  </si>
-  <si>
-    <t>1126 PATRIKA (LED-54)</t>
-  </si>
-  <si>
-    <t>1127 PATRIKA (Eco-52)</t>
-  </si>
-  <si>
-    <t>1128 PATRIKA (Eco-55)</t>
-  </si>
-  <si>
-    <t>1129 PATRIKA (Eco-56)</t>
-  </si>
-  <si>
-    <t>1130 PATRIKA - B (ECO-60) (DCU)</t>
-  </si>
-  <si>
-    <t>1130 PATRIKA (Eco-59)</t>
-  </si>
-  <si>
-    <t>1131 PATRIKA (DCU) Eco-51</t>
-  </si>
-  <si>
-    <t>1132 PATRIKA (DCU) Eco-53</t>
-  </si>
-  <si>
-    <t>1133 PATRIKA (DCU) Eco-57</t>
-  </si>
-  <si>
-    <t>1134 PATRIKA (DCU) Eco-58</t>
-  </si>
-  <si>
-    <t>1135 PATRIKA (DCU) Eco-54</t>
-  </si>
-  <si>
-    <t>1136 PATRIKA (R)</t>
-  </si>
-  <si>
-    <t>1137 PATRIKA (P)</t>
-  </si>
-  <si>
-    <t>1138 PATRIKA (BR)</t>
-  </si>
-  <si>
-    <t>1139 PATRIKA (BY)</t>
-  </si>
-  <si>
-    <t>1140 PATRIKA (BB)</t>
-  </si>
-  <si>
-    <t>1141 PATRIKA (R)</t>
-  </si>
-  <si>
-    <t>1142 PATRIKA (P)</t>
-  </si>
-  <si>
-    <t>1143 PATRIKA (G)</t>
-  </si>
-  <si>
-    <t>1144 PATRIKA (BR)</t>
-  </si>
-  <si>
-    <t>1145 PATRIKA (BY)</t>
-  </si>
-  <si>
-    <t>1146 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>1147 PATRIKA (S.201)</t>
-  </si>
-  <si>
-    <t>1148 PATRIKA (S.202)</t>
-  </si>
-  <si>
-    <t>1149 PATRIKA (S.204)</t>
-  </si>
-  <si>
-    <t>1150 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>1151 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>1152 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>1153 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>1154 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>1155 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>1156 PATRIKA-YELLOW</t>
-  </si>
-  <si>
-    <t>1157 PATRIKA-CREAM</t>
-  </si>
-  <si>
-    <t>1158 PATRIKA-GOLDEN</t>
-  </si>
-  <si>
-    <t>1159 PATRIKA-WHITE</t>
-  </si>
-  <si>
-    <t>1160 PATRIKA-PINK</t>
-  </si>
-  <si>
-    <t>1161 PATRIKA (01)</t>
-  </si>
-  <si>
-    <t>1162 PATRIKA (02)</t>
-  </si>
-  <si>
-    <t>1163 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>1164 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>1165 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>1166 PATRIKA (DCU)</t>
+    <t>.1001 PATRIKA (25/251)</t>
+  </si>
+  <si>
+    <t>1002 PATRIKA (25/262)</t>
+  </si>
+  <si>
+    <t>1003 PATRIKA (25/261)</t>
+  </si>
+  <si>
+    <t>1004 PATRIKA (25/361/861)</t>
+  </si>
+  <si>
+    <t>1005 PATRIKA (25/362/862)</t>
+  </si>
+  <si>
+    <t>1006 PATRIKA (25/282)</t>
+  </si>
+  <si>
+    <t>1007 PATRIKA (25/281)</t>
+  </si>
+  <si>
+    <t>1008 PATRIKA (JC) (2595 PINK)</t>
+  </si>
+  <si>
+    <t>1009 PATRIKA (JC) (2595 ORANGE)</t>
+  </si>
+  <si>
+    <t>1010 PATRIKA (6321)</t>
+  </si>
+  <si>
+    <t>1011 PATRIKA (2563 OFFSET NEW)</t>
+  </si>
+  <si>
+    <t>1012 PATRIKA (2564 OFFSET NEW)</t>
+  </si>
+  <si>
+    <t>1013 PATRIKA (2568 OFFSET NEW)</t>
+  </si>
+  <si>
+    <t>1014 PATRIKA (11043 OFFSET)</t>
+  </si>
+  <si>
+    <t>1015 PATRIKA (DCU) (11041 OFFSET NEW)</t>
+  </si>
+  <si>
+    <t>1016 PATRIKA (1011 OFFSET)</t>
+  </si>
+  <si>
+    <t>1017 PATRIKA (1014 OFFSET)</t>
+  </si>
+  <si>
+    <t>1018 PATRIKA (10081 OFFSET NEW)</t>
+  </si>
+  <si>
+    <t>1019 PATRIKA (1222 SBC)</t>
+  </si>
+  <si>
+    <t>1020 PATRIKA (1235)</t>
+  </si>
+  <si>
+    <t>1021 PATRIKA (2101 VV)</t>
+  </si>
+  <si>
+    <t>1023 PATRIKA (25418)</t>
+  </si>
+  <si>
+    <t>1024 PATRIKA (25322)</t>
+  </si>
+  <si>
+    <t>1025 PATRIKA (25323)</t>
+  </si>
+  <si>
+    <t>1026 PATRIKA (JC) (1173 SBC)</t>
+  </si>
+  <si>
+    <t>1027 PATRIKA (JC) (5346)</t>
+  </si>
+  <si>
+    <t>1028 PATRIKA (JC) (2596)</t>
+  </si>
+  <si>
+    <t>1029 PATRIKA (1042)</t>
+  </si>
+  <si>
+    <t>1030 PATRIKA (1043)</t>
+  </si>
+  <si>
+    <t>1031 PATRIKA (GOPAL 11)</t>
+  </si>
+  <si>
+    <t>1032 PATRIKA (GOPAL 1)</t>
+  </si>
+  <si>
+    <t>1033 PATRIKA (2002 YLW)</t>
+  </si>
+  <si>
+    <t>1034 PATRIKA (2003 R)</t>
+  </si>
+  <si>
+    <t>1035 PATRIKA (DCU) (2201 ROSHAN)</t>
+  </si>
+  <si>
+    <t>1101 PATRIKA (O.2591) (2591 ORANGE)</t>
+  </si>
+  <si>
+    <t>1102 PATRIKA (P.2591) (2591 PINK)</t>
+  </si>
+  <si>
+    <t>1103 PATRIKA(N-271) (271 NEHA)</t>
+  </si>
+  <si>
+    <t>1104 PATRIKA(N-272) (272 NEHA)</t>
+  </si>
+  <si>
+    <t>1105 PATRIKA (276-A)</t>
+  </si>
+  <si>
+    <t>1106 PATRIKA-YELLOW (25419)</t>
+  </si>
+  <si>
+    <t>1107 PATRIKA-RED (25420)</t>
+  </si>
+  <si>
+    <t>1109 PATRIKA-BIG Y (25421)</t>
+  </si>
+  <si>
+    <t>1110 PATRIKA-BIG R (25422)</t>
+  </si>
+  <si>
+    <t>1112 PATRIKA (277-B)</t>
+  </si>
+  <si>
+    <t>1113 PATRIKA (1819 MONARCH)</t>
+  </si>
+  <si>
+    <t>1114 PATRIKA-BROWN (1709)</t>
+  </si>
+  <si>
+    <t>1115 PATRIKA-CREAM (1678 PRINCE)</t>
+  </si>
+  <si>
+    <t>1116 PATRIKA (1153) (1253 Jsk)</t>
+  </si>
+  <si>
+    <t>1117 PATRIKA (1155) (1155 JSK)</t>
+  </si>
+  <si>
+    <t>1117 PATRIKA - B (KRISHNA 1155-B)</t>
+  </si>
+  <si>
+    <t>1118 PATRIKA - B (DCU) (NEW SAVASHREE- 51)</t>
+  </si>
+  <si>
+    <t>1118 PATRIKA (सवाश्री-57) (NEW SAVASHREE-57)</t>
+  </si>
+  <si>
+    <t>1119 PATRIKA - B (DCU) (NEW SAVASHREE 52)</t>
+  </si>
+  <si>
+    <t>1119 PATRIKA(सवाश्री-55) (NEW SAVASHREE-55)</t>
+  </si>
+  <si>
+    <t>1120 PATRIKA(सवाश्री-59) (NEW SAVASHREE-59)</t>
+  </si>
+  <si>
+    <t>1121 PATRIKA(सवाश्री-53) (NEW SAVASHREE-53)</t>
+  </si>
+  <si>
+    <t>1122 PATRIKA (DCU) (NEW SAVASHREE-54)</t>
+  </si>
+  <si>
+    <t>1123 PATRIKA (LED-51) (LED-51)</t>
+  </si>
+  <si>
+    <t>1124 PATRIKA (LED-52) (LED-52)</t>
+  </si>
+  <si>
+    <t>1125 PATRIKA (LED-53) (LED-53)</t>
+  </si>
+  <si>
+    <t>1126 PATRIKA (LED-54) (LED-54)</t>
+  </si>
+  <si>
+    <t>1127 PATRIKA (Eco-52) (NEW ECO-52)</t>
+  </si>
+  <si>
+    <t>1128 PATRIKA (Eco-55) (NEW ECO-55)</t>
+  </si>
+  <si>
+    <t>1129 PATRIKA (Eco-56) (NEW ECO-56)</t>
+  </si>
+  <si>
+    <t>1130 PATRIKA - B (ECO-60) (DCU) (NEW ECO 60)</t>
+  </si>
+  <si>
+    <t>1130 PATRIKA (Eco-59) (NEW ECO-59)</t>
+  </si>
+  <si>
+    <t>1131 PATRIKA (DCU) Eco-51 (NEW ECO- 51)</t>
+  </si>
+  <si>
+    <t>1132 PATRIKA (DCU) Eco-53 (NEW ECO- 53)</t>
+  </si>
+  <si>
+    <t>1133 PATRIKA (DCU) Eco-57 (NEW ECO- 57)</t>
+  </si>
+  <si>
+    <t>1134 PATRIKA (DCU) Eco-58 (NEW ECO- 58)</t>
+  </si>
+  <si>
+    <t>1135 PATRIKA (DCU) Eco-54 (NEW ECO- 54)</t>
+  </si>
+  <si>
+    <t>1136 PATRIKA (R) (120 GSM RED)</t>
+  </si>
+  <si>
+    <t>1137 PATRIKA (P) (120 GSM YELLOW)</t>
+  </si>
+  <si>
+    <t>1138 PATRIKA (BR) (150 GSM FOIL (RED))</t>
+  </si>
+  <si>
+    <t>1139 PATRIKA (BY) (150 GSM FOIL (YELLOW))</t>
+  </si>
+  <si>
+    <t>1140 PATRIKA (BB) (150 GSM FOIL (BROWN))</t>
+  </si>
+  <si>
+    <t>1141 PATRIKA (R) (120 GSM (RED)SELF)</t>
+  </si>
+  <si>
+    <t>1142 PATRIKA (P) (120 GSM (YELLOW) SELF)</t>
+  </si>
+  <si>
+    <t>1143 PATRIKA (G) (120 GSM (OLD GOLDEN))</t>
+  </si>
+  <si>
+    <t>1144 PATRIKA (BR) (170 GSM WITH FOIL (RED))</t>
+  </si>
+  <si>
+    <t>1145 PATRIKA (BY) (170 GSM WITH FOIL (YELLOW))</t>
+  </si>
+  <si>
+    <t>1146 PATRIKA (DCU) (BROWN 170 GSM FOIL)</t>
+  </si>
+  <si>
+    <t>1147 PATRIKA (S.201) (201 WESTERN)</t>
+  </si>
+  <si>
+    <t>1148 PATRIKA (S.202) (202 WESTERN)</t>
+  </si>
+  <si>
+    <t>1149 PATRIKA (S.204) (204 WESTERN)</t>
+  </si>
+  <si>
+    <t>1150 PATRIKA (DCU) (NEW SAVASHREE-58)</t>
+  </si>
+  <si>
+    <t>1151 PATRIKA (DCU) (NEW SAVASHREE-56)</t>
+  </si>
+  <si>
+    <t>1152 PATRIKA (DCU) (WESTERN 202 OLD)</t>
+  </si>
+  <si>
+    <t>1153 PATRIKA (DCU) (201 WESTERN (OLD))</t>
+  </si>
+  <si>
+    <t>1154 PATRIKA (DCU) (203 WESTERN A)</t>
+  </si>
+  <si>
+    <t>1155 PATRIKA (DCU) (WESTERN (203) B)</t>
+  </si>
+  <si>
+    <t>1156 PATRIKA-YELLOW (LU-51 (YELLOW))</t>
+  </si>
+  <si>
+    <t>1157 PATRIKA-CREAM (LU-52 (CREAM))</t>
+  </si>
+  <si>
+    <t>1158 PATRIKA-GOLDEN (LU-53 (GOLDEN))</t>
+  </si>
+  <si>
+    <t>1159 PATRIKA-WHITE (LU-54 (WHITE))</t>
+  </si>
+  <si>
+    <t>1160 PATRIKA-PINK (LU-55 (PINK))</t>
+  </si>
+  <si>
+    <t>1161 PATRIKA (01) (JCC 01)</t>
+  </si>
+  <si>
+    <t>1162 PATRIKA (02) (JCC 02)</t>
+  </si>
+  <si>
+    <t>1163 PATRIKA (DCU) (BP RED)</t>
+  </si>
+  <si>
+    <t>1164 PATRIKA (DCU) (BP PINK RIYAZ)</t>
+  </si>
+  <si>
+    <t>1165 PATRIKA (DCU) (BP CREAM)</t>
+  </si>
+  <si>
+    <t>1166 PATRIKA (DCU) (BP YELLOW)</t>
   </si>
   <si>
     <t>190 NO. ENVELOPES (POCKET)</t>
@@ -407,109 +407,109 @@
     <t>2025- INVITAION (BOX) SAMPLES</t>
   </si>
   <si>
-    <t>2101 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>2102 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2103 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>2104 PATRIKA</t>
-  </si>
-  <si>
-    <t>2105 PATRIKA</t>
-  </si>
-  <si>
-    <t>2106 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>2107 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2108 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2109 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>2110 PATRIKA</t>
-  </si>
-  <si>
-    <t>2111 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2112 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>2113 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>2114 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>2115 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>2116 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>2117 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2118 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>2119 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>2120 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>2121 PATRIKA</t>
-  </si>
-  <si>
-    <t>2122 PATRIKA</t>
-  </si>
-  <si>
-    <t>2123 PATRIKA</t>
-  </si>
-  <si>
-    <t>2124 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2125 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2126 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2127 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2128 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2129 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2130 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2131 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2132 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2133 PATRIKA</t>
-  </si>
-  <si>
-    <t>2134 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2135 PATRIKA *-* (M)</t>
+    <t>2101 PATRIKA (L) (LUXYA - 51)</t>
+  </si>
+  <si>
+    <t>2102 PATRIKA *-* (M) (LUXYA - 52)</t>
+  </si>
+  <si>
+    <t>2103 PATRIKA (L) (LUXYA - 53)</t>
+  </si>
+  <si>
+    <t>2104 PATRIKA (LUXYA - 54)</t>
+  </si>
+  <si>
+    <t>2105 PATRIKA (LUXYA - 55)</t>
+  </si>
+  <si>
+    <t>2106 PATRIKA (L) (LUXYA - 56)</t>
+  </si>
+  <si>
+    <t>2107 PATRIKA *-* (M) (LUXYA - 57)</t>
+  </si>
+  <si>
+    <t>2108 PATRIKA *-* (M) (LUXYA - 59)</t>
+  </si>
+  <si>
+    <t>2109 PATRIKA (L) (LUXYA - 60)</t>
+  </si>
+  <si>
+    <t>2110 PATRIKA (LUXYA - 61)</t>
+  </si>
+  <si>
+    <t>2111 PATRIKA *-* (M) (LUXYA - 62)</t>
+  </si>
+  <si>
+    <t>2112 PATRIKA (L) (LEGACY - 01)</t>
+  </si>
+  <si>
+    <t>2113 PATRIKA (L) (LEGACY - 02)</t>
+  </si>
+  <si>
+    <t>2114 PATRIKA (L) (LEGACY - 03)</t>
+  </si>
+  <si>
+    <t>2115 PATRIKA (L) (LEGACY - 04)</t>
+  </si>
+  <si>
+    <t>2116 PATRIKA (L) (LEGACY - 05)</t>
+  </si>
+  <si>
+    <t>2117 PATRIKA *-* (M) (LEGACY - 06)</t>
+  </si>
+  <si>
+    <t>2118 PATRIKA (L) (LEGACY - 07)</t>
+  </si>
+  <si>
+    <t>2119 PATRIKA (L) (LEGACY - 08)</t>
+  </si>
+  <si>
+    <t>2120 PATRIKA (L) (LEGACY - 09)</t>
+  </si>
+  <si>
+    <t>2121 PATRIKA (LEGACY - 10)</t>
+  </si>
+  <si>
+    <t>2122 PATRIKA (LEGACY - 11)</t>
+  </si>
+  <si>
+    <t>2123 PATRIKA (LEGACY - 12)</t>
+  </si>
+  <si>
+    <t>2124 PATRIKA *-* (M) (LOTTERY - 71)</t>
+  </si>
+  <si>
+    <t>2125 PATRIKA *-* (M) (LOTTERY - 72)</t>
+  </si>
+  <si>
+    <t>2126 PATRIKA *-* (M) (LOTTERY - 73)</t>
+  </si>
+  <si>
+    <t>2127 PATRIKA *-* (M) (LOTTERY - 74)</t>
+  </si>
+  <si>
+    <t>2128 PATRIKA *-* (M) (LOTTERY - 75)</t>
+  </si>
+  <si>
+    <t>2129 PATRIKA *-* (M) (LOTTERY - 76)</t>
+  </si>
+  <si>
+    <t>2130 PATRIKA *-* (M) (LOTTERY - 77)</t>
+  </si>
+  <si>
+    <t>2131 PATRIKA *-* (M) (LOTTERY - 78)</t>
+  </si>
+  <si>
+    <t>2132 PATRIKA *-* (M) (LOTTERY - 79)</t>
+  </si>
+  <si>
+    <t>2133 PATRIKA (LOTTERY - 80)</t>
+  </si>
+  <si>
+    <t>2134 PATRIKA *-* (M) (LOTTERY - 81)</t>
+  </si>
+  <si>
+    <t>2135 PATRIKA *-* (M) (LOTTERY - 82)</t>
   </si>
   <si>
     <t>290 ENVELOPE 25-26</t>
@@ -527,1144 +527,1144 @@
     <t>330 ENVELOPE</t>
   </si>
   <si>
-    <t>4251 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>4252 PATRIKA</t>
-  </si>
-  <si>
-    <t>4253 PATRIKA</t>
-  </si>
-  <si>
-    <t>4254 PATRIKA (4210)</t>
-  </si>
-  <si>
-    <t>4255 PATRIKA - B (DCU)</t>
-  </si>
-  <si>
-    <t>4255 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>4257 PATRIKA</t>
-  </si>
-  <si>
-    <t>4258 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>4259 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>4260 PATRIKA</t>
-  </si>
-  <si>
-    <t>4261 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>4262 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>4264 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>4265 PATRIKA</t>
-  </si>
-  <si>
-    <t>4266 PATRIKA</t>
-  </si>
-  <si>
-    <t>4267 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>4268 PATRIKA (JC) *-* (M+T)</t>
-  </si>
-  <si>
-    <t>4269 PATRIKA</t>
-  </si>
-  <si>
-    <t>4270 PATRIKA</t>
-  </si>
-  <si>
-    <t>4271 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>4272 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>4273 PATRIKA</t>
-  </si>
-  <si>
-    <t>4274 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>4275 PATRIKA</t>
-  </si>
-  <si>
-    <t>4277 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>4278 PATRIKA</t>
-  </si>
-  <si>
-    <t>4279 PATRIKA</t>
-  </si>
-  <si>
-    <t>4280 PATRIKA</t>
-  </si>
-  <si>
-    <t>4281 PATRIKA</t>
-  </si>
-  <si>
-    <t>4282 PATRIKA</t>
-  </si>
-  <si>
-    <t>4283 PATRIKA - B (YELLOW)</t>
-  </si>
-  <si>
-    <t>4284 PATRIKA</t>
-  </si>
-  <si>
-    <t>4285 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>4286 PATRIKA</t>
-  </si>
-  <si>
-    <t>4287 PATRIKA</t>
-  </si>
-  <si>
-    <t>4288 PATRIKA</t>
-  </si>
-  <si>
-    <t>4289 PATRIKA</t>
-  </si>
-  <si>
-    <t>4290 PATRIKA</t>
-  </si>
-  <si>
-    <t>4291 PATRIKA</t>
-  </si>
-  <si>
-    <t>4292 PATRIKA</t>
-  </si>
-  <si>
-    <t>4293 PATRIKA</t>
-  </si>
-  <si>
-    <t>4294 PATRIKA</t>
-  </si>
-  <si>
-    <t>4295 PATRIKA</t>
-  </si>
-  <si>
-    <t>4296 PATRIKA</t>
-  </si>
-  <si>
-    <t>4297 PATRIKA</t>
-  </si>
-  <si>
-    <t>4298 PATRIKA</t>
-  </si>
-  <si>
-    <t>4299 PATRIKA</t>
-  </si>
-  <si>
-    <t>4300 PATRIKA</t>
-  </si>
-  <si>
-    <t>4301 PATRIKA</t>
-  </si>
-  <si>
-    <t>4302 PATRIKA</t>
-  </si>
-  <si>
-    <t>4303 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>4304 PATRIKA</t>
-  </si>
-  <si>
-    <t>4305 PATRIKA</t>
-  </si>
-  <si>
-    <t>4307 PATRIKA</t>
-  </si>
-  <si>
-    <t>4308 PATRIKA</t>
-  </si>
-  <si>
-    <t>4309 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>4310 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>4311 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>4312 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>4314 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>4315 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>4316 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5051 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5052 PATRIKA</t>
-  </si>
-  <si>
-    <t>5053 PATRIKA</t>
-  </si>
-  <si>
-    <t>5054 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5055 PATRIKA</t>
-  </si>
-  <si>
-    <t>5056 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5057 PATRIKA</t>
-  </si>
-  <si>
-    <t>5058 PATRIKA</t>
-  </si>
-  <si>
-    <t>5059 PATRIKA</t>
-  </si>
-  <si>
-    <t>5060 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5061 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5062 PATRIKA</t>
-  </si>
-  <si>
-    <t>5063 PATRIKA</t>
-  </si>
-  <si>
-    <t>5064 PATRIKA</t>
-  </si>
-  <si>
-    <t>5065 PATRIKA</t>
-  </si>
-  <si>
-    <t>5066 PATRIKA</t>
-  </si>
-  <si>
-    <t>5067 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5071 PATRIKA *-* (डोरी)</t>
-  </si>
-  <si>
-    <t>5072 PATRIKA</t>
-  </si>
-  <si>
-    <t>5073 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5074 PATRIKA</t>
-  </si>
-  <si>
-    <t>5075 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5076 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5077 PATRIKA</t>
-  </si>
-  <si>
-    <t>5079 PATRIKA</t>
-  </si>
-  <si>
-    <t>5080 PATRIKA</t>
-  </si>
-  <si>
-    <t>5081 PATRIKA</t>
-  </si>
-  <si>
-    <t>5083 PATRIKA</t>
-  </si>
-  <si>
-    <t>5084 PATRIKA</t>
-  </si>
-  <si>
-    <t>5085 PATRIKA</t>
-  </si>
-  <si>
-    <t>5086 PATRIKA (JC) *-* (M+D)</t>
-  </si>
-  <si>
-    <t>5088 PATRIKA</t>
-  </si>
-  <si>
-    <t>5089 PATRIKA</t>
-  </si>
-  <si>
-    <t>5090 PATRIKA</t>
-  </si>
-  <si>
-    <t>5092 PATRIKA</t>
-  </si>
-  <si>
-    <t>5093 PATRIKA</t>
-  </si>
-  <si>
-    <t>5094 PATRIKA</t>
-  </si>
-  <si>
-    <t>5095 PATRIKA</t>
-  </si>
-  <si>
-    <t>5096 PATRIKA</t>
-  </si>
-  <si>
-    <t>5097 PATRIKA</t>
-  </si>
-  <si>
-    <t>5098 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5099 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5100 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5102 PATRIKA (5021)</t>
-  </si>
-  <si>
-    <t>5103 PATRIKA</t>
-  </si>
-  <si>
-    <t>5104 PATRIKA</t>
-  </si>
-  <si>
-    <t>5105 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5106 PATRIKA</t>
-  </si>
-  <si>
-    <t>5107 PATRIKA</t>
-  </si>
-  <si>
-    <t>5108 PATRIKA</t>
-  </si>
-  <si>
-    <t>5109 PATRIKA</t>
-  </si>
-  <si>
-    <t>5110 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5111 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5112 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5113 PATRIKA</t>
-  </si>
-  <si>
-    <t>5114 PATRIKA *-* (डोरी)</t>
-  </si>
-  <si>
-    <t>5115 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5116 PATRIKA</t>
-  </si>
-  <si>
-    <t>5117 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5118 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5502 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5503 PATRIKA</t>
-  </si>
-  <si>
-    <t>5504 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5505 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5506 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5508 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5509 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5510 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5511 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5512 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5513 PATRIKA</t>
-  </si>
-  <si>
-    <t>5514 PATRIKA</t>
-  </si>
-  <si>
-    <t>5515 PATRIKA</t>
-  </si>
-  <si>
-    <t>5516 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5517 PATRIKA *-* (M) (Patti Aayegi)</t>
-  </si>
-  <si>
-    <t>5518 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5519 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5520 PATRIKA</t>
-  </si>
-  <si>
-    <t>5521 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5522 PATRIKA</t>
-  </si>
-  <si>
-    <t>5523 PATRIKA</t>
-  </si>
-  <si>
-    <t>5524 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5525 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5526 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5527 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5528 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5529 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5530 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5531 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5532 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5533 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5534 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5535 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5537 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5538 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5539 PATRIKA-B</t>
-  </si>
-  <si>
-    <t>5539 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5540 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5542 PATRIKA</t>
-  </si>
-  <si>
-    <t>5543 PATRIKA</t>
-  </si>
-  <si>
-    <t>5544 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5545 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5546 PATRIKA</t>
-  </si>
-  <si>
-    <t>5547 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5548 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5549 PATRIKA</t>
-  </si>
-  <si>
-    <t>5550 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5551 PATRIKA</t>
-  </si>
-  <si>
-    <t>5552 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5553 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5554 PATRIKA *-* (F/G)</t>
-  </si>
-  <si>
-    <t>5555 PATRIKA</t>
-  </si>
-  <si>
-    <t>5556 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5557 PATRIKA</t>
-  </si>
-  <si>
-    <t>5558 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5559 PATRIKA</t>
-  </si>
-  <si>
-    <t>5560 PATRIKA (F/G) *-*</t>
-  </si>
-  <si>
-    <t>5561 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5562 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5563 PATRIKA</t>
-  </si>
-  <si>
-    <t>5564 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5565 PATRIKA</t>
-  </si>
-  <si>
-    <t>5566 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5567 PATRIKA</t>
-  </si>
-  <si>
-    <t>5568 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5569 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5570 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5571 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5572 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5573 PATRIKA</t>
-  </si>
-  <si>
-    <t>5574 PATRIKA</t>
-  </si>
-  <si>
-    <t>5575 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5576 PATRIKA</t>
-  </si>
-  <si>
-    <t>5577 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5578 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5579 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5580 PATRIKA</t>
-  </si>
-  <si>
-    <t>5581 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5582 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5583 PATRIKA</t>
-  </si>
-  <si>
-    <t>5584 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5585 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5586 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5587 PATRIKA</t>
-  </si>
-  <si>
-    <t>5588 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5589 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5590 PATRIKA</t>
-  </si>
-  <si>
-    <t>5592 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5593 PATRIKA</t>
-  </si>
-  <si>
-    <t>5595 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5596 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5597 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5599 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5601 PATRIKA</t>
-  </si>
-  <si>
-    <t>5602 PATRIKA</t>
-  </si>
-  <si>
-    <t>5603 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5604 PATRIKA</t>
-  </si>
-  <si>
-    <t>5605 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5606 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5607 PATRIKA</t>
-  </si>
-  <si>
-    <t>5608 PATRIKA</t>
-  </si>
-  <si>
-    <t>5609 PATRIKA</t>
-  </si>
-  <si>
-    <t>5610 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5611 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5612 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5614 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5615 PATRIKA</t>
-  </si>
-  <si>
-    <t>5616 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5617 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5618 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5619 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5621 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5622 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5623 PATRIKA</t>
-  </si>
-  <si>
-    <t>5625 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>6601 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>6602 PATRIKA</t>
-  </si>
-  <si>
-    <t>6603 PATRIKA</t>
-  </si>
-  <si>
-    <t>6604 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6605 PATRIKA</t>
-  </si>
-  <si>
-    <t>6606 PATRIKA (*-*) R</t>
-  </si>
-  <si>
-    <t>6607 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6608 PATRIKA</t>
-  </si>
-  <si>
-    <t>6609 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6610 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6611 PATRIKA</t>
-  </si>
-  <si>
-    <t>6612 PATRIKA</t>
-  </si>
-  <si>
-    <t>6613 PATRIKA</t>
-  </si>
-  <si>
-    <t>6614 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>6615 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6616 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6617 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6618 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6619 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6620 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6621 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6622 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6623 PATRIKA</t>
-  </si>
-  <si>
-    <t>6624 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6625 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6626 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6627 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6628 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6629 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6630 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6631 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>6632 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>6633 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6634 PATRIKA</t>
-  </si>
-  <si>
-    <t>6635 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6636 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6637 PATRIKA</t>
-  </si>
-  <si>
-    <t>6638 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6639 PATRIKA (B)</t>
-  </si>
-  <si>
-    <t>6640 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6641 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6642 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6643 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6644 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>6645 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6646 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6647 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6648 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6649 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6650 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6651 PATRIKA</t>
-  </si>
-  <si>
-    <t>6652 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6653 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6654 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6655 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6656 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>6657 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6658 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6659 PATRIKA</t>
-  </si>
-  <si>
-    <t>6660 PATRIKA</t>
-  </si>
-  <si>
-    <t>6661 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6662 PATRIKA</t>
-  </si>
-  <si>
-    <t>6663 PATRIKA</t>
-  </si>
-  <si>
-    <t>6664 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6665 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6667 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6668 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>6669 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>6670 PATRIKA - B (M)</t>
-  </si>
-  <si>
-    <t>6670 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6671 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6672 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6673 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>6674 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>6675 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6676 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>6677 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>7265 PATRIKA (O.C.)</t>
-  </si>
-  <si>
-    <t>7283 PATRIKA {F} (O.C.)</t>
-  </si>
-  <si>
-    <t>7287 PATRIKA (O.C.)</t>
-  </si>
-  <si>
-    <t>7288 PATRIKA (O.C.)</t>
-  </si>
-  <si>
-    <t>7293 PATRIKA (O.C.)</t>
-  </si>
-  <si>
-    <t>7309 PATRIKA (O.C.)</t>
-  </si>
-  <si>
-    <t>7312 PATRIKA (O.C.)</t>
-  </si>
-  <si>
-    <t>7319 PATRIKA (O.C.)</t>
-  </si>
-  <si>
-    <t>7332 PATRIKA (O.C.)</t>
-  </si>
-  <si>
-    <t>7342 PATRIKA (O.C.)</t>
-  </si>
-  <si>
-    <t>7344 PATRIKA (O.C.)</t>
-  </si>
-  <si>
-    <t>7345 PATRIKA (O.C.)</t>
-  </si>
-  <si>
-    <t>7401 PATRIKA</t>
-  </si>
-  <si>
-    <t>7402 PATRIKA</t>
-  </si>
-  <si>
-    <t>7403 PATRIKA</t>
-  </si>
-  <si>
-    <t>7404 PATRIKA</t>
-  </si>
-  <si>
-    <t>7405 PATRIKA</t>
-  </si>
-  <si>
-    <t>7406 PATRIKA</t>
-  </si>
-  <si>
-    <t>7407 PATRIKA *-* (F)</t>
-  </si>
-  <si>
-    <t>7408 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>7409 PATRIKA</t>
-  </si>
-  <si>
-    <t>7410 PATRIKA</t>
-  </si>
-  <si>
-    <t>7411 PATRIKA</t>
-  </si>
-  <si>
-    <t>7413 PATRIKA</t>
-  </si>
-  <si>
-    <t>7414 PATRIKA</t>
-  </si>
-  <si>
-    <t>7415 PATRIKA *-* (F)</t>
-  </si>
-  <si>
-    <t>7416 PATRIKA</t>
-  </si>
-  <si>
-    <t>7417 PATRIKA</t>
-  </si>
-  <si>
-    <t>7418 PATRIKA *-* (डोरी)</t>
-  </si>
-  <si>
-    <t>7419 PATRIKA</t>
-  </si>
-  <si>
-    <t>7420 PATRIKA</t>
-  </si>
-  <si>
-    <t>7421 PATRIKA *-* (F)</t>
-  </si>
-  <si>
-    <t>7422 PATRIKA</t>
-  </si>
-  <si>
-    <t>7423 PATRIKA</t>
-  </si>
-  <si>
-    <t>7424 PATRIKA *-* (F)</t>
-  </si>
-  <si>
-    <t>7425 PATRIKA</t>
-  </si>
-  <si>
-    <t>7426 PATRIKA (F/G) *-*</t>
-  </si>
-  <si>
-    <t>7427 PATRIKA</t>
-  </si>
-  <si>
-    <t>7428 PATRIKA</t>
-  </si>
-  <si>
-    <t>7429 PATRIKA (F/G) *-*</t>
-  </si>
-  <si>
-    <t>7430 PATRIKA</t>
-  </si>
-  <si>
-    <t>7431 PATRIKA</t>
-  </si>
-  <si>
-    <t>7432 PATRIKA</t>
-  </si>
-  <si>
-    <t>7433 PATRIKA</t>
-  </si>
-  <si>
-    <t>7434 PATRIKA</t>
-  </si>
-  <si>
-    <t>7435 PATRIKA</t>
-  </si>
-  <si>
-    <t>7436 PATRIKA</t>
-  </si>
-  <si>
-    <t>7437 PATRIKA</t>
-  </si>
-  <si>
-    <t>7438 PATRIKA</t>
-  </si>
-  <si>
-    <t>7439 PATRIKA</t>
-  </si>
-  <si>
-    <t>7440 PATRIKA</t>
-  </si>
-  <si>
-    <t>7441 PATRIKA *-* (F)</t>
-  </si>
-  <si>
-    <t>7442 PATRIKA</t>
-  </si>
-  <si>
-    <t>7443 PATRIKA</t>
-  </si>
-  <si>
-    <t>7444 PATRIKA</t>
-  </si>
-  <si>
-    <t>7445 PATRIKA</t>
-  </si>
-  <si>
-    <t>7446 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>7447 PATRIKA</t>
-  </si>
-  <si>
-    <t>7448 PATRIKA</t>
-  </si>
-  <si>
-    <t>7449 PATRIKA</t>
-  </si>
-  <si>
-    <t>7450 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>7451 PATRIKA</t>
-  </si>
-  <si>
-    <t>7452 PATRIKA</t>
-  </si>
-  <si>
-    <t>7453 PATRIKA (ECO - 61)</t>
-  </si>
-  <si>
-    <t>7454 PATRIKA (ECO -63)</t>
-  </si>
-  <si>
-    <t>9001 CARD (O.C.)</t>
+    <t>4251 PATRIKA (JC) (5342)</t>
+  </si>
+  <si>
+    <t>4252 PATRIKA (5207)</t>
+  </si>
+  <si>
+    <t>4253 PATRIKA (5206)</t>
+  </si>
+  <si>
+    <t>4254 PATRIKA (4210) (10273/10277)</t>
+  </si>
+  <si>
+    <t>4255 PATRIKA - B (DCU) (AS-02 (B))</t>
+  </si>
+  <si>
+    <t>4255 PATRIKA (JC) (AS-02 (NEW))</t>
+  </si>
+  <si>
+    <t>4257 PATRIKA (82)</t>
+  </si>
+  <si>
+    <t>4258 PATRIKA (JC) (1129)</t>
+  </si>
+  <si>
+    <t>4259 PATRIKA (JC) (101 SBC)</t>
+  </si>
+  <si>
+    <t>4260 PATRIKA (1102)</t>
+  </si>
+  <si>
+    <t>4261 PATRIKA (JC) (959)</t>
+  </si>
+  <si>
+    <t>4262 PATRIKA (JC) (S-201 GANESH JI)</t>
+  </si>
+  <si>
+    <t>4264 PATRIKA (DCU) (1351)</t>
+  </si>
+  <si>
+    <t>4265 PATRIKA (83)</t>
+  </si>
+  <si>
+    <t>4266 PATRIKA (25-145)</t>
+  </si>
+  <si>
+    <t>4267 PATRIKA (JC) (25-046)</t>
+  </si>
+  <si>
+    <t>4268 PATRIKA (JC) *-* (M+T) (S-296)</t>
+  </si>
+  <si>
+    <t>4269 PATRIKA (111 SBC)</t>
+  </si>
+  <si>
+    <t>4270 PATRIKA (1151 GGN)</t>
+  </si>
+  <si>
+    <t>4271 PATRIKA (JC) (25216)</t>
+  </si>
+  <si>
+    <t>4272 PATRIKA (JC) (1231 SBC CRM)</t>
+  </si>
+  <si>
+    <t>4273 PATRIKA (2547)</t>
+  </si>
+  <si>
+    <t>4274 PATRIKA (JC) (25369)</t>
+  </si>
+  <si>
+    <t>4275 PATRIKA (25367)</t>
+  </si>
+  <si>
+    <t>4277 PATRIKA (JC) *-* (M) (25365)</t>
+  </si>
+  <si>
+    <t>4278 PATRIKA (25368)</t>
+  </si>
+  <si>
+    <t>4279 PATRIKA (1031)</t>
+  </si>
+  <si>
+    <t>4280 PATRIKA (25301)</t>
+  </si>
+  <si>
+    <t>4281 PATRIKA (25312 MYRA)</t>
+  </si>
+  <si>
+    <t>4282 PATRIKA (3117)</t>
+  </si>
+  <si>
+    <t>4283 PATRIKA - B (YELLOW) (3116-YLW)</t>
+  </si>
+  <si>
+    <t>4284 PATRIKA (1173 VV)</t>
+  </si>
+  <si>
+    <t>4285 PATRIKA (JC) *-* (M) (4626)</t>
+  </si>
+  <si>
+    <t>4286 PATRIKA (5254  RJN)</t>
+  </si>
+  <si>
+    <t>4287 PATRIKA (25402)</t>
+  </si>
+  <si>
+    <t>4288 PATRIKA (10001 NEW)</t>
+  </si>
+  <si>
+    <t>4289 PATRIKA (10002 NEW)</t>
+  </si>
+  <si>
+    <t>4290 PATRIKA (316 MYRA)</t>
+  </si>
+  <si>
+    <t>4291 PATRIKA (25401)</t>
+  </si>
+  <si>
+    <t>4292 PATRIKA (25311)</t>
+  </si>
+  <si>
+    <t>4293 PATRIKA (25312)</t>
+  </si>
+  <si>
+    <t>4294 PATRIKA (5273)</t>
+  </si>
+  <si>
+    <t>4295 PATRIKA (286-A)</t>
+  </si>
+  <si>
+    <t>4296 PATRIKA (1407)</t>
+  </si>
+  <si>
+    <t>4297 PATRIKA (306)</t>
+  </si>
+  <si>
+    <t>4298 PATRIKA (5501)</t>
+  </si>
+  <si>
+    <t>4299 PATRIKA (2011)</t>
+  </si>
+  <si>
+    <t>4300 PATRIKA (25314)</t>
+  </si>
+  <si>
+    <t>4301 PATRIKA (25315)</t>
+  </si>
+  <si>
+    <t>4302 PATRIKA (1402)</t>
+  </si>
+  <si>
+    <t>4303 PATRIKA (JC) (1234*-M)</t>
+  </si>
+  <si>
+    <t>4304 PATRIKA (5172)</t>
+  </si>
+  <si>
+    <t>4305 PATRIKA (25313)</t>
+  </si>
+  <si>
+    <t>4307 PATRIKA (BALAJI 5202)</t>
+  </si>
+  <si>
+    <t>4308 PATRIKA (LOTUS 430)</t>
+  </si>
+  <si>
+    <t>4309 PATRIKA (DCU) (3751 Patta)</t>
+  </si>
+  <si>
+    <t>4310 PATRIKA (DCU) (3752 Swastik)</t>
+  </si>
+  <si>
+    <t>4311 PATRIKA (DCU) (251 KBC)</t>
+  </si>
+  <si>
+    <t>4312 PATRIKA (DCU) (273-A)</t>
+  </si>
+  <si>
+    <t>4314 PATRIKA (DCU) (RED-YELLOW SWASTIK)</t>
+  </si>
+  <si>
+    <t>4315 PATRIKA (DCU) (WHITE-PINK PAN PATA)</t>
+  </si>
+  <si>
+    <t>4316 PATRIKA (DCU) (WHITE -ORANGE PAN PATTA)</t>
+  </si>
+  <si>
+    <t>5051 PATRIKA *-* (M) (5087)</t>
+  </si>
+  <si>
+    <t>5052 PATRIKA (5295)</t>
+  </si>
+  <si>
+    <t>5053 PATRIKA (5213)</t>
+  </si>
+  <si>
+    <t>5054 PATRIKA *-* (M) (25/162)</t>
+  </si>
+  <si>
+    <t>5055 PATRIKA (25/272)</t>
+  </si>
+  <si>
+    <t>5056 PATRIKA (JC) (25/271)</t>
+  </si>
+  <si>
+    <t>5057 PATRIKA (25/171)</t>
+  </si>
+  <si>
+    <t>5058 PATRIKA (8802)</t>
+  </si>
+  <si>
+    <t>5059 PATRIKA (8803)</t>
+  </si>
+  <si>
+    <t>5060 PATRIKA (JC) (7713)</t>
+  </si>
+  <si>
+    <t>5061 PATRIKA (DCU) (1405)</t>
+  </si>
+  <si>
+    <t>5062 PATRIKA (7705)</t>
+  </si>
+  <si>
+    <t>5063 PATRIKA (2522 GE)</t>
+  </si>
+  <si>
+    <t>5064 PATRIKA (2517 GE)</t>
+  </si>
+  <si>
+    <t>5065 PATRIKA (2527)</t>
+  </si>
+  <si>
+    <t>5066 PATRIKA (2536)</t>
+  </si>
+  <si>
+    <t>5067 PATRIKA (JC) (S-301)</t>
+  </si>
+  <si>
+    <t>5071 PATRIKA *-* (डोरी) (741)</t>
+  </si>
+  <si>
+    <t>5072 PATRIKA (5347 DIRECT)</t>
+  </si>
+  <si>
+    <t>5073 PATRIKA *-* (M) (3161)</t>
+  </si>
+  <si>
+    <t>5074 PATRIKA (1151 VV)</t>
+  </si>
+  <si>
+    <t>5075 PATRIKA (JC) (25-082)</t>
+  </si>
+  <si>
+    <t>5076 PATRIKA (JC) (3701 SBC)</t>
+  </si>
+  <si>
+    <t>5077 PATRIKA (2081)</t>
+  </si>
+  <si>
+    <t>5079 PATRIKA (296-A (NEHA)</t>
+  </si>
+  <si>
+    <t>5080 PATRIKA (2501 GE NEW)</t>
+  </si>
+  <si>
+    <t>5081 PATRIKA (2520 GE)</t>
+  </si>
+  <si>
+    <t>5083 PATRIKA (5267)</t>
+  </si>
+  <si>
+    <t>5084 PATRIKA (5258 RJ)</t>
+  </si>
+  <si>
+    <t>5085 PATRIKA (2023)</t>
+  </si>
+  <si>
+    <t>5086 PATRIKA (JC) *-* (M+D) (942)</t>
+  </si>
+  <si>
+    <t>5088 PATRIKA (25214)</t>
+  </si>
+  <si>
+    <t>5089 PATRIKA (2061 SBC)</t>
+  </si>
+  <si>
+    <t>5090 PATRIKA (5236 RJ)</t>
+  </si>
+  <si>
+    <t>5092 PATRIKA (05 NAVIN BHAI)</t>
+  </si>
+  <si>
+    <t>5093 PATRIKA (5350)</t>
+  </si>
+  <si>
+    <t>5094 PATRIKA (5251)</t>
+  </si>
+  <si>
+    <t>5095 PATRIKA (5240)</t>
+  </si>
+  <si>
+    <t>5096 PATRIKA (25316)</t>
+  </si>
+  <si>
+    <t>5097 PATRIKA (25321)</t>
+  </si>
+  <si>
+    <t>5098 PATRIKA *-* (M) (857)</t>
+  </si>
+  <si>
+    <t>5099 PATRIKA *-* (M) (852 DHANESH)</t>
+  </si>
+  <si>
+    <t>5100 PATRIKA (DCU) (5339)</t>
+  </si>
+  <si>
+    <t>5102 PATRIKA (5021) (2456)</t>
+  </si>
+  <si>
+    <t>5103 PATRIKA (2071)</t>
+  </si>
+  <si>
+    <t>5104 PATRIKA (5261 RJND)</t>
+  </si>
+  <si>
+    <t>5105 PATRIKA (JC) (5335)</t>
+  </si>
+  <si>
+    <t>5106 PATRIKA (253-A / 257-A)</t>
+  </si>
+  <si>
+    <t>5107 PATRIKA (5356 RJ)</t>
+  </si>
+  <si>
+    <t>5108 PATRIKA (5333)</t>
+  </si>
+  <si>
+    <t>5109 PATRIKA (5308)</t>
+  </si>
+  <si>
+    <t>5110 PATRIKA (JC) (AS-402)</t>
+  </si>
+  <si>
+    <t>5111 PATRIKA (JC) (5313)</t>
+  </si>
+  <si>
+    <t>5112 PATRIKA (JC) *-* (M) (25437)</t>
+  </si>
+  <si>
+    <t>5113 PATRIKA (5305)</t>
+  </si>
+  <si>
+    <t>5114 PATRIKA *-* (डोरी) (2091)</t>
+  </si>
+  <si>
+    <t>5115 PATRIKA (DCU) (5363 RJND)</t>
+  </si>
+  <si>
+    <t>5116 PATRIKA (2031)</t>
+  </si>
+  <si>
+    <t>5117 PATRIKA (DCU) (3331)</t>
+  </si>
+  <si>
+    <t>5118 PATRIKA (DCU) (25436)</t>
+  </si>
+  <si>
+    <t>5502 PATRIKA *-* (M) (5355 NICE)</t>
+  </si>
+  <si>
+    <t>5503 PATRIKA (5186)</t>
+  </si>
+  <si>
+    <t>5504 PATRIKA (JC) (7033)</t>
+  </si>
+  <si>
+    <t>5505 PATRIKA (JC) *-* (M) (2282)</t>
+  </si>
+  <si>
+    <t>5506 PATRIKA *-* (M) (25/122)</t>
+  </si>
+  <si>
+    <t>5508 PATRIKA (JC) (612 VV)</t>
+  </si>
+  <si>
+    <t>5509 PATRIKA (JC) (25/072)</t>
+  </si>
+  <si>
+    <t>5510 PATRIKA (JC) *-* (M) (AS-950)</t>
+  </si>
+  <si>
+    <t>5511 PATRIKA (JC) *-* (M) (2528)</t>
+  </si>
+  <si>
+    <t>5512 PATRIKA (JC) (2525 /2552)</t>
+  </si>
+  <si>
+    <t>5513 PATRIKA (2515)</t>
+  </si>
+  <si>
+    <t>5514 PATRIKA (2542)</t>
+  </si>
+  <si>
+    <t>5515 PATRIKA (2523)</t>
+  </si>
+  <si>
+    <t>5516 PATRIKA (JC) *-* (M) (5302 VV)</t>
+  </si>
+  <si>
+    <t>5517 PATRIKA *-* (M) (Patti Aayegi) (6301)</t>
+  </si>
+  <si>
+    <t>5518 PATRIKA (JC) *-* (M) (922)</t>
+  </si>
+  <si>
+    <t>5519 PATRIKA *-* (M) (7066)</t>
+  </si>
+  <si>
+    <t>5520 PATRIKA (1054)</t>
+  </si>
+  <si>
+    <t>5521 PATRIKA (JC) *-* (M) (35)</t>
+  </si>
+  <si>
+    <t>5522 PATRIKA (2231)</t>
+  </si>
+  <si>
+    <t>5523 PATRIKA (2232)</t>
+  </si>
+  <si>
+    <t>5524 PATRIKA (DCU) (5382)</t>
+  </si>
+  <si>
+    <t>5525 PATRIKA *-* (M) (5283)</t>
+  </si>
+  <si>
+    <t>5526 PATRIKA (DCU) (NEW LUSTER - 01)</t>
+  </si>
+  <si>
+    <t>5527 PATRIKA (DCU) (NEW LUSTER - 02)</t>
+  </si>
+  <si>
+    <t>5528 PATRIKA *-* (M) (NEW LUSTER - 03)</t>
+  </si>
+  <si>
+    <t>5529 PATRIKA *-* (M) (NEW LUSTER - 04)</t>
+  </si>
+  <si>
+    <t>5530 PATRIKA *-* (M) (NEW LUSTER - 05)</t>
+  </si>
+  <si>
+    <t>5531 PATRIKA (DCU) (NEW LUSTER - 06)</t>
+  </si>
+  <si>
+    <t>5532 PATRIKA *-* (M) (NEW LUSTER - 07)</t>
+  </si>
+  <si>
+    <t>5533 PATRIKA *-* (M) (NEW LUSTER - 08)</t>
+  </si>
+  <si>
+    <t>5534 PATRIKA *-* (M) (NEW LUSTER - 09)</t>
+  </si>
+  <si>
+    <t>5535 PATRIKA (JC) *-* (M) (1007)</t>
+  </si>
+  <si>
+    <t>5537 PATRIKA (JC) (25-052)</t>
+  </si>
+  <si>
+    <t>5538 PATRIKA (JC) *-* (M) (7073)</t>
+  </si>
+  <si>
+    <t>5539 PATRIKA-B (2942-B)</t>
+  </si>
+  <si>
+    <t>5539 PATRIKA (JC) (2942)</t>
+  </si>
+  <si>
+    <t>5540 PATRIKA *-* (M) (S-96)</t>
+  </si>
+  <si>
+    <t>5542 PATRIKA (2261)</t>
+  </si>
+  <si>
+    <t>5543 PATRIKA (2353)</t>
+  </si>
+  <si>
+    <t>5544 PATRIKA *-* (M) (2732)</t>
+  </si>
+  <si>
+    <t>5545 PATRIKA *-* (M) (2791)</t>
+  </si>
+  <si>
+    <t>5546 PATRIKA (718)</t>
+  </si>
+  <si>
+    <t>5547 PATRIKA *-* (M) (S-32)</t>
+  </si>
+  <si>
+    <t>5548 PATRIKA (DCU) (2792)</t>
+  </si>
+  <si>
+    <t>5549 PATRIKA (5261 NICE)</t>
+  </si>
+  <si>
+    <t>5550 PATRIKA *-* (M) (5424)</t>
+  </si>
+  <si>
+    <t>5551 PATRIKA (5231)</t>
+  </si>
+  <si>
+    <t>5552 PATRIKA (JC) *-* (M) (S-163)</t>
+  </si>
+  <si>
+    <t>5553 PATRIKA *-* (M) (5004)</t>
+  </si>
+  <si>
+    <t>5554 PATRIKA *-* (F/G) (5379)</t>
+  </si>
+  <si>
+    <t>5555 PATRIKA (2903)</t>
+  </si>
+  <si>
+    <t>5556 PATRIKA *-* (M) (2952)</t>
+  </si>
+  <si>
+    <t>5557 PATRIKA (2312 SBC)</t>
+  </si>
+  <si>
+    <t>5558 PATRIKA *-* (M) (121 NEHA)</t>
+  </si>
+  <si>
+    <t>5559 PATRIKA (2293)</t>
+  </si>
+  <si>
+    <t>5560 PATRIKA (F/G) *-* (2915)</t>
+  </si>
+  <si>
+    <t>5561 PATRIKA *-* (M) (25358)</t>
+  </si>
+  <si>
+    <t>5562 PATRIKA *-* (M) (114-B (NEHA))</t>
+  </si>
+  <si>
+    <t>5563 PATRIKA (5387)</t>
+  </si>
+  <si>
+    <t>5564 PATRIKA (JC) *-* (M) (S-107)</t>
+  </si>
+  <si>
+    <t>5565 PATRIKA (175)</t>
+  </si>
+  <si>
+    <t>5566 PATRIKA *-* (M) (1742-B)</t>
+  </si>
+  <si>
+    <t>5567 PATRIKA (1679)</t>
+  </si>
+  <si>
+    <t>5568 PATRIKA *-* (M) (3002)</t>
+  </si>
+  <si>
+    <t>5569 PATRIKA *-* (M) (S-39)</t>
+  </si>
+  <si>
+    <t>5570 PATRIKA *-* (M) (S-74)</t>
+  </si>
+  <si>
+    <t>5571 PATRIKA *-* (M) (25353)</t>
+  </si>
+  <si>
+    <t>5572 PATRIKA *-* (M) (25351)</t>
+  </si>
+  <si>
+    <t>5573 PATRIKA (2205)</t>
+  </si>
+  <si>
+    <t>5574 PATRIKA (25335)</t>
+  </si>
+  <si>
+    <t>5575 PATRIKA *-* (M) (S-77)</t>
+  </si>
+  <si>
+    <t>5576 PATRIKA (2531)</t>
+  </si>
+  <si>
+    <t>5577 PATRIKA *-* (M) (5808)</t>
+  </si>
+  <si>
+    <t>5578 PATRIKA (JC) *-* (M) (AS-104 / S-50)</t>
+  </si>
+  <si>
+    <t>5579 PATRIKA (JC) *-* (M) (AS-102)</t>
+  </si>
+  <si>
+    <t>5580 PATRIKA (S-326)</t>
+  </si>
+  <si>
+    <t>5581 PATRIKA *-* (M) (3471)</t>
+  </si>
+  <si>
+    <t>5582 PATRIKA *-* (M) (3512 SBC)</t>
+  </si>
+  <si>
+    <t>5583 PATRIKA (3211 SBC)</t>
+  </si>
+  <si>
+    <t>5584 PATRIKA (JC) (2202 SBC)</t>
+  </si>
+  <si>
+    <t>5585 PATRIKA *-* (M) (1201 KBC)</t>
+  </si>
+  <si>
+    <t>5586 PATRIKA *-* (M) (S-51)</t>
+  </si>
+  <si>
+    <t>5587 PATRIKA (2264)</t>
+  </si>
+  <si>
+    <t>5588 PATRIKA (JC) *-* (M) (1006)</t>
+  </si>
+  <si>
+    <t>5589 PATRIKA *-* (M) (25133)</t>
+  </si>
+  <si>
+    <t>5590 PATRIKA (3131 SBC)</t>
+  </si>
+  <si>
+    <t>5592 PATRIKA *-* (M) (2365)</t>
+  </si>
+  <si>
+    <t>5593 PATRIKA (2803)</t>
+  </si>
+  <si>
+    <t>5595 PATRIKA *-* (M) (226)</t>
+  </si>
+  <si>
+    <t>5596 PATRIKA *-* (M) (2541)</t>
+  </si>
+  <si>
+    <t>5597 PATRIKA (JC) *-* (M) (AS-104 (B))</t>
+  </si>
+  <si>
+    <t>5599 PATRIKA *-* (M) (77-B)</t>
+  </si>
+  <si>
+    <t>5601 PATRIKA (2771)</t>
+  </si>
+  <si>
+    <t>5602 PATRIKA (3271)</t>
+  </si>
+  <si>
+    <t>5603 PATRIKA *-* (M) (6125)</t>
+  </si>
+  <si>
+    <t>5604 PATRIKA (242-A)</t>
+  </si>
+  <si>
+    <t>5605 PATRIKA (JC) (3102)</t>
+  </si>
+  <si>
+    <t>5606 PATRIKA *-* (M) (221-A)</t>
+  </si>
+  <si>
+    <t>5607 PATRIKA (25442)</t>
+  </si>
+  <si>
+    <t>5608 PATRIKA (25440)</t>
+  </si>
+  <si>
+    <t>5609 PATRIKA (993)</t>
+  </si>
+  <si>
+    <t>5610 PATRIKA (JC) (2373)</t>
+  </si>
+  <si>
+    <t>5611 PATRIKA *-* (M) (1211)</t>
+  </si>
+  <si>
+    <t>5612 PATRIKA (DCU) (5276)</t>
+  </si>
+  <si>
+    <t>5614 PATRIKA *-* (M) (2331)</t>
+  </si>
+  <si>
+    <t>5615 PATRIKA (2111)</t>
+  </si>
+  <si>
+    <t>5616 PATRIKA (DCU) (7069)</t>
+  </si>
+  <si>
+    <t>5617 PATRIKA *-* (M) (7067)</t>
+  </si>
+  <si>
+    <t>5618 PATRIKA (JC) *-* (M) (S-52)</t>
+  </si>
+  <si>
+    <t>5619 PATRIKA (JC) (1131)</t>
+  </si>
+  <si>
+    <t>5621 PATRIKA (JC) *-* (M) (5297)</t>
+  </si>
+  <si>
+    <t>5622 PATRIKA *-* (M) (25337)</t>
+  </si>
+  <si>
+    <t>5623 PATRIKA (064)</t>
+  </si>
+  <si>
+    <t>5625 PATRIKA (DCU) (772)</t>
+  </si>
+  <si>
+    <t>6601 PATRIKA (L) (5164)</t>
+  </si>
+  <si>
+    <t>6602 PATRIKA (5126)</t>
+  </si>
+  <si>
+    <t>6603 PATRIKA (5111)</t>
+  </si>
+  <si>
+    <t>6604 PATRIKA *-* (M) (5196)</t>
+  </si>
+  <si>
+    <t>6605 PATRIKA (5191)</t>
+  </si>
+  <si>
+    <t>6606 PATRIKA (*-*) R (3023)</t>
+  </si>
+  <si>
+    <t>6607 PATRIKA *-* (M) (0523)</t>
+  </si>
+  <si>
+    <t>6608 PATRIKA (95)</t>
+  </si>
+  <si>
+    <t>6609 PATRIKA *-* (M) (3053)</t>
+  </si>
+  <si>
+    <t>6610 PATRIKA *-* (M) (3019)</t>
+  </si>
+  <si>
+    <t>6611 PATRIKA (3017 VV)</t>
+  </si>
+  <si>
+    <t>6612 PATRIKA (3015)</t>
+  </si>
+  <si>
+    <t>6613 PATRIKA (25164)</t>
+  </si>
+  <si>
+    <t>6614 PATRIKA (DCU) (25131)</t>
+  </si>
+  <si>
+    <t>6615 PATRIKA *-* (M) (915 GAGAN)</t>
+  </si>
+  <si>
+    <t>6616 PATRIKA *-* (M) (911 GAGAN)</t>
+  </si>
+  <si>
+    <t>6617 PATRIKA *-* (M) (3422)</t>
+  </si>
+  <si>
+    <t>6618 PATRIKA *-* (M) (3423)</t>
+  </si>
+  <si>
+    <t>6619 PATRIKA *-* (M) (1193)</t>
+  </si>
+  <si>
+    <t>6620 PATRIKA *-* (M) (1045 GGN (PADDING))</t>
+  </si>
+  <si>
+    <t>6621 PATRIKA *-* (M) (7108 (PADDING))</t>
+  </si>
+  <si>
+    <t>6622 PATRIKA *-* (M) (7259 (PADDING))</t>
+  </si>
+  <si>
+    <t>6623 PATRIKA (25184)</t>
+  </si>
+  <si>
+    <t>6624 PATRIKA *-* (M) (25135)</t>
+  </si>
+  <si>
+    <t>6625 PATRIKA *-* (M) (25116)</t>
+  </si>
+  <si>
+    <t>6626 PATRIKA *-* (M) (25161)</t>
+  </si>
+  <si>
+    <t>6627 PATRIKA *-* (M) (25111)</t>
+  </si>
+  <si>
+    <t>6628 PATRIKA *-* (M) (805 SBC)</t>
+  </si>
+  <si>
+    <t>6629 PATRIKA *-* (M) (812 NEW SBC)</t>
+  </si>
+  <si>
+    <t>6630 PATRIKA *-* (M) (5510 NICE)</t>
+  </si>
+  <si>
+    <t>6631 PATRIKA (DCU) (OLD AP ITEM)</t>
+  </si>
+  <si>
+    <t>6632 PATRIKA (DCU) (932)</t>
+  </si>
+  <si>
+    <t>6633 PATRIKA *-* (M) (7081 VP)</t>
+  </si>
+  <si>
+    <t>6634 PATRIKA (3562)</t>
+  </si>
+  <si>
+    <t>6635 PATRIKA *-* (M) (S-313)</t>
+  </si>
+  <si>
+    <t>6636 PATRIKA *-* (M) (25183)</t>
+  </si>
+  <si>
+    <t>6637 PATRIKA (25162 GE)</t>
+  </si>
+  <si>
+    <t>6638 PATRIKA *-* (M) (3014)</t>
+  </si>
+  <si>
+    <t>6639 PATRIKA (B) (2291-B)</t>
+  </si>
+  <si>
+    <t>6640 PATRIKA *-* (M) (5737 PADING)</t>
+  </si>
+  <si>
+    <t>6641 PATRIKA *-* (M) (5435)</t>
+  </si>
+  <si>
+    <t>6642 PATRIKA *-* (M) (5411 RJ)</t>
+  </si>
+  <si>
+    <t>6643 PATRIKA *-* (M) (25380)</t>
+  </si>
+  <si>
+    <t>6644 PATRIKA (DCU) (25132)</t>
+  </si>
+  <si>
+    <t>6645 PATRIKA *-* (M) (3031)</t>
+  </si>
+  <si>
+    <t>6646 PATRIKA *-* (M) (3034)</t>
+  </si>
+  <si>
+    <t>6647 PATRIKA *-* (M) (25382)</t>
+  </si>
+  <si>
+    <t>6648 PATRIKA *-* (M) (5011 (PADDING))</t>
+  </si>
+  <si>
+    <t>6649 PATRIKA *-* (M) (3402)</t>
+  </si>
+  <si>
+    <t>6650 PATRIKA *-* (M) (3431)</t>
+  </si>
+  <si>
+    <t>6651 PATRIKA (3421)</t>
+  </si>
+  <si>
+    <t>6652 PATRIKA *-* (M) (2764 SBC)</t>
+  </si>
+  <si>
+    <t>6653 PATRIKA *-* (M) (834 SBC NEW)</t>
+  </si>
+  <si>
+    <t>6654 PATRIKA *-* (M) (3461)</t>
+  </si>
+  <si>
+    <t>6655 PATRIKA *-* (M) (7129 (PADDING))</t>
+  </si>
+  <si>
+    <t>6656 PATRIKA (L) (7113 (PADDING))</t>
+  </si>
+  <si>
+    <t>6657 PATRIKA *-* (M) (563  DHANESH)</t>
+  </si>
+  <si>
+    <t>6658 PATRIKA *-* (M) (5319)</t>
+  </si>
+  <si>
+    <t>6659 PATRIKA (25193 (Padding))</t>
+  </si>
+  <si>
+    <t>6660 PATRIKA (25194 (Padding))</t>
+  </si>
+  <si>
+    <t>6661 PATRIKA *-* (M) (1281)</t>
+  </si>
+  <si>
+    <t>6662 PATRIKA (3424)</t>
+  </si>
+  <si>
+    <t>6663 PATRIKA (7103 (PADDING))</t>
+  </si>
+  <si>
+    <t>6664 PATRIKA *-* (M) (5823)</t>
+  </si>
+  <si>
+    <t>6665 PATRIKA *-* (M) (603 DHANESH)</t>
+  </si>
+  <si>
+    <t>6667 PATRIKA *-* (M) (1192 SBC)</t>
+  </si>
+  <si>
+    <t>6668 PATRIKA (DCU) (8102)</t>
+  </si>
+  <si>
+    <t>6669 PATRIKA (DCU) (6197)</t>
+  </si>
+  <si>
+    <t>6670 PATRIKA - B (M) (1868-B)</t>
+  </si>
+  <si>
+    <t>6670 PATRIKA *-* (M) (1868)</t>
+  </si>
+  <si>
+    <t>6671 PATRIKA *-* (M) (1872)</t>
+  </si>
+  <si>
+    <t>6672 PATRIKA *-* (M) (6132)</t>
+  </si>
+  <si>
+    <t>6673 PATRIKA (DCU) (6196)</t>
+  </si>
+  <si>
+    <t>6674 PATRIKA (DCU) (1503)</t>
+  </si>
+  <si>
+    <t>6675 PATRIKA *-* (M) (1282)</t>
+  </si>
+  <si>
+    <t>6676 PATRIKA (DCU) (533 KBC)</t>
+  </si>
+  <si>
+    <t>6677 PATRIKA (DCU) (25191 PADDING)</t>
+  </si>
+  <si>
+    <t>7265 PATRIKA (O.C.) (133)</t>
+  </si>
+  <si>
+    <t>7283 PATRIKA {F} (O.C.) (4148)</t>
+  </si>
+  <si>
+    <t>7287 PATRIKA (O.C.) (1522)</t>
+  </si>
+  <si>
+    <t>7288 PATRIKA (O.C.) (1178)</t>
+  </si>
+  <si>
+    <t>7293 PATRIKA (O.C.) (AS-20)</t>
+  </si>
+  <si>
+    <t>7309 PATRIKA (O.C.) (4087)</t>
+  </si>
+  <si>
+    <t>7312 PATRIKA (O.C.) (SBC 7312)</t>
+  </si>
+  <si>
+    <t>7319 PATRIKA (O.C.) (2204)</t>
+  </si>
+  <si>
+    <t>7332 PATRIKA (O.C.) (2482)</t>
+  </si>
+  <si>
+    <t>7342 PATRIKA (O.C.) (12)</t>
+  </si>
+  <si>
+    <t>7344 PATRIKA (O.C.) (INV B.P. RED (11))</t>
+  </si>
+  <si>
+    <t>7345 PATRIKA (O.C.) (INV B.P. GOLDEN (120) 5)</t>
+  </si>
+  <si>
+    <t>7401 PATRIKA (25/252)</t>
+  </si>
+  <si>
+    <t>7402 PATRIKA (25/264-263)</t>
+  </si>
+  <si>
+    <t>7403 PATRIKA (25/363/863)</t>
+  </si>
+  <si>
+    <t>7404 PATRIKA (25/283)</t>
+  </si>
+  <si>
+    <t>7405 PATRIKA (25/273)</t>
+  </si>
+  <si>
+    <t>7406 PATRIKA (25/172)</t>
+  </si>
+  <si>
+    <t>7407 PATRIKA *-* (F) (7145 VP)</t>
+  </si>
+  <si>
+    <t>7408 PATRIKA (DCU) (25895)</t>
+  </si>
+  <si>
+    <t>7409 PATRIKA (2521)</t>
+  </si>
+  <si>
+    <t>7410 PATRIKA (2526)</t>
+  </si>
+  <si>
+    <t>7411 PATRIKA (2535)</t>
+  </si>
+  <si>
+    <t>7413 PATRIKA (2543 INV OFFSET)</t>
+  </si>
+  <si>
+    <t>7414 PATRIKA (1015 GREEN OFFSET)</t>
+  </si>
+  <si>
+    <t>7415 PATRIKA *-* (F) (3162 SBC)</t>
+  </si>
+  <si>
+    <t>7416 PATRIKA (2234)</t>
+  </si>
+  <si>
+    <t>7417 PATRIKA (S-201 INV)</t>
+  </si>
+  <si>
+    <t>7418 PATRIKA *-* (डोरी) (1639)</t>
+  </si>
+  <si>
+    <t>7419 PATRIKA (5121)</t>
+  </si>
+  <si>
+    <t>7420 PATRIKA (720)</t>
+  </si>
+  <si>
+    <t>7421 PATRIKA *-* (F) (25-146)</t>
+  </si>
+  <si>
+    <t>7422 PATRIKA (3702)</t>
+  </si>
+  <si>
+    <t>7423 PATRIKA (254 SBC)</t>
+  </si>
+  <si>
+    <t>7424 PATRIKA *-* (F) (25-047)</t>
+  </si>
+  <si>
+    <t>7425 PATRIKA (2082)</t>
+  </si>
+  <si>
+    <t>7426 PATRIKA (F/G) *-* (4052)</t>
+  </si>
+  <si>
+    <t>7427 PATRIKA (2103)</t>
+  </si>
+  <si>
+    <t>7428 PATRIKA (1223 SBC)</t>
+  </si>
+  <si>
+    <t>7429 PATRIKA (F/G) *-* (1851 MONARCH)</t>
+  </si>
+  <si>
+    <t>7430 PATRIKA (6310 GE)</t>
+  </si>
+  <si>
+    <t>7431 PATRIKA (2532)</t>
+  </si>
+  <si>
+    <t>7432 PATRIKA (1174)</t>
+  </si>
+  <si>
+    <t>7433 PATRIKA (1034)</t>
+  </si>
+  <si>
+    <t>7434 PATRIKA (2204 INV)</t>
+  </si>
+  <si>
+    <t>7435 PATRIKA (06)</t>
+  </si>
+  <si>
+    <t>7436 PATRIKA (303)</t>
+  </si>
+  <si>
+    <t>7437 PATRIKA (25323 INV)</t>
+  </si>
+  <si>
+    <t>7438 PATRIKA (25413)</t>
+  </si>
+  <si>
+    <t>7439 PATRIKA (2597)</t>
+  </si>
+  <si>
+    <t>7440 PATRIKA (25896)</t>
+  </si>
+  <si>
+    <t>7441 PATRIKA *-* (F) (243-C)</t>
+  </si>
+  <si>
+    <t>7442 PATRIKA (1855)</t>
+  </si>
+  <si>
+    <t>7443 PATRIKA (1044 SBC)</t>
+  </si>
+  <si>
+    <t>7444 PATRIKA (2014)</t>
+  </si>
+  <si>
+    <t>7445 PATRIKA (2006)</t>
+  </si>
+  <si>
+    <t>7446 PATRIKA (DCU) (6106)</t>
+  </si>
+  <si>
+    <t>7447 PATRIKA (GOPAL 32)</t>
+  </si>
+  <si>
+    <t>7448 PATRIKA (2005- G)</t>
+  </si>
+  <si>
+    <t>7449 PATRIKA (5180)</t>
+  </si>
+  <si>
+    <t>7450 PATRIKA (DCU) (3753)</t>
+  </si>
+  <si>
+    <t>7451 PATRIKA (273 NEHA)</t>
+  </si>
+  <si>
+    <t>7452 PATRIKA (278-B)</t>
+  </si>
+  <si>
+    <t>7453 PATRIKA (ECO - 61) (NEW ECO 61)</t>
+  </si>
+  <si>
+    <t>7454 PATRIKA (ECO -63) (NEW ECO 63)</t>
+  </si>
+  <si>
+    <t>9001 CARD (O.C.) (2498 Cream)</t>
   </si>
   <si>
     <t>9221 CARDS - YELLOW</t>
@@ -1688,268 +1688,268 @@
     <t>9227 CARDS (9*5 OFFSET)</t>
   </si>
   <si>
-    <t>9228 CARDS (Y)</t>
-  </si>
-  <si>
-    <t>9229 CARDS - B (DCU)</t>
-  </si>
-  <si>
-    <t>9229 CARDS (C)</t>
+    <t>9228 CARDS (Y) (ORANGE WITH ONLY FOIL)</t>
+  </si>
+  <si>
+    <t>9229 CARDS - B (DCU) (GOLDEN WITH GANESH JI &amp; FOIL)</t>
+  </si>
+  <si>
+    <t>9229 CARDS (C) (CREAM WITH GANESH JI &amp; FOIL)</t>
   </si>
   <si>
     <t>9230 (CARD) 9*5 SCREEN</t>
   </si>
   <si>
-    <t>9231 CARDS (DCU)</t>
-  </si>
-  <si>
-    <t>9232 CARDS (DCU)</t>
-  </si>
-  <si>
-    <t>9233 CARDS (DCU)</t>
-  </si>
-  <si>
-    <t>9235 CARDS (DCU)</t>
-  </si>
-  <si>
-    <t>9236 CARDS (DCU)</t>
-  </si>
-  <si>
-    <t>9237 CARDS (DCU)</t>
-  </si>
-  <si>
-    <t>9301 CARDS</t>
-  </si>
-  <si>
-    <t>9302 CARDS</t>
-  </si>
-  <si>
-    <t>9303 CARDS</t>
-  </si>
-  <si>
-    <t>9304 CARDS</t>
-  </si>
-  <si>
-    <t>9305 CARDS (9070)</t>
-  </si>
-  <si>
-    <t>9306 CARDS</t>
-  </si>
-  <si>
-    <t>9307 CARDS *-* (M)</t>
-  </si>
-  <si>
-    <t>9308 CARDS</t>
-  </si>
-  <si>
-    <t>9309 CARDS *-* (T)</t>
-  </si>
-  <si>
-    <t>9310 CARDS</t>
-  </si>
-  <si>
-    <t>9311 CARDS</t>
-  </si>
-  <si>
-    <t>9312 CARDS *-* (T)</t>
-  </si>
-  <si>
-    <t>9313 CARDS *-* (T)</t>
-  </si>
-  <si>
-    <t>9314 CARDS</t>
-  </si>
-  <si>
-    <t>9315 CARDS (DCU)</t>
-  </si>
-  <si>
-    <t>9316 CARDS (DCU)</t>
-  </si>
-  <si>
-    <t>9317 CARDS</t>
-  </si>
-  <si>
-    <t>9318 CARDS</t>
-  </si>
-  <si>
-    <t>9320 CARDS</t>
-  </si>
-  <si>
-    <t>9321 CARDS</t>
-  </si>
-  <si>
-    <t>9322 CARDS *-* (M)</t>
-  </si>
-  <si>
-    <t>9323 CARDS (9005 OLD)</t>
-  </si>
-  <si>
-    <t>9324 CARDS</t>
-  </si>
-  <si>
-    <t>9325 CARDS</t>
-  </si>
-  <si>
-    <t>9326 CARDS</t>
-  </si>
-  <si>
-    <t>9327 CARDS</t>
-  </si>
-  <si>
-    <t>9328 CARDS</t>
-  </si>
-  <si>
-    <t>9329 CARDS (Desgin H/d)</t>
-  </si>
-  <si>
-    <t>9330 CARDS *-* (T)</t>
-  </si>
-  <si>
-    <t>9331 CARDS *-*  (T)</t>
-  </si>
-  <si>
-    <t>9332 CARDS</t>
-  </si>
-  <si>
-    <t>9333 CARDS</t>
-  </si>
-  <si>
-    <t>9334 CARDS</t>
-  </si>
-  <si>
-    <t>9335 CARDS (9003 OLD)</t>
-  </si>
-  <si>
-    <t>9336 CARDS</t>
-  </si>
-  <si>
-    <t>9337 CARDS</t>
-  </si>
-  <si>
-    <t>9338 CARDS</t>
-  </si>
-  <si>
-    <t>9339 CARDS</t>
-  </si>
-  <si>
-    <t>9340 CARDS</t>
-  </si>
-  <si>
-    <t>9341 CARDS</t>
-  </si>
-  <si>
-    <t>9342 CARDS</t>
-  </si>
-  <si>
-    <t>9343 CARDS</t>
-  </si>
-  <si>
-    <t>9344 CARDS</t>
-  </si>
-  <si>
-    <t>9345 CARDS</t>
-  </si>
-  <si>
-    <t>9346 CARDS</t>
-  </si>
-  <si>
-    <t>9347 CARDS</t>
-  </si>
-  <si>
-    <t>9348 CARDS *-* (डोरी)</t>
-  </si>
-  <si>
-    <t>9349 CARDS (W/o Window)</t>
-  </si>
-  <si>
-    <t>9350 CARDS *-* (T)</t>
-  </si>
-  <si>
-    <t>9351 Card - B</t>
-  </si>
-  <si>
-    <t>9351 CARDS *-* (T)</t>
-  </si>
-  <si>
-    <t>9352 CARDS *-* (T)</t>
-  </si>
-  <si>
-    <t>9353 CARDS</t>
-  </si>
-  <si>
-    <t>9354 CARDS (DCU)</t>
-  </si>
-  <si>
-    <t>9355 CARDS</t>
-  </si>
-  <si>
-    <t>9356 CARDS</t>
-  </si>
-  <si>
-    <t>9357 CARDS</t>
-  </si>
-  <si>
-    <t>9358 CARDS</t>
-  </si>
-  <si>
-    <t>9359 CARDS</t>
-  </si>
-  <si>
-    <t>9360 CARDS *-* (M)</t>
-  </si>
-  <si>
-    <t>9361 CARDS</t>
-  </si>
-  <si>
-    <t>9362 CARDS</t>
-  </si>
-  <si>
-    <t>9363 CARDS *-* (T)</t>
-  </si>
-  <si>
-    <t>9364 CARDS *-* (T)</t>
-  </si>
-  <si>
-    <t>9365 CARDS</t>
-  </si>
-  <si>
-    <t>9366 CARDS</t>
-  </si>
-  <si>
-    <t>9367 CARDS</t>
-  </si>
-  <si>
-    <t>9368 CARDS</t>
-  </si>
-  <si>
-    <t>9369 CARDS</t>
-  </si>
-  <si>
-    <t>9370 CARDS</t>
-  </si>
-  <si>
-    <t>9371 CARDS</t>
-  </si>
-  <si>
-    <t>9372 CARDS</t>
-  </si>
-  <si>
-    <t>9373 CARDS</t>
-  </si>
-  <si>
-    <t>9374 CARDS</t>
-  </si>
-  <si>
-    <t>9375 CARDS</t>
-  </si>
-  <si>
-    <t>9376 CARDS</t>
-  </si>
-  <si>
-    <t>9377 CARDS (DCU)</t>
-  </si>
-  <si>
-    <t>9378 CARDS</t>
+    <t>9231 CARDS (DCU) (RIYAZ 9*5 PINK)</t>
+  </si>
+  <si>
+    <t>9232 CARDS (DCU) (RIYAZ 9*5 CREAM)</t>
+  </si>
+  <si>
+    <t>9233 CARDS (DCU) (RIYAZ 9*5 YELLOW)</t>
+  </si>
+  <si>
+    <t>9235 CARDS (DCU) (RIYAZ 9*4 CREAM)</t>
+  </si>
+  <si>
+    <t>9236 CARDS (DCU) (RIYAZ 9*4 YELLOW)</t>
+  </si>
+  <si>
+    <t>9237 CARDS (DCU) (DCU 9*4 RED)</t>
+  </si>
+  <si>
+    <t>9301 CARDS (4242)</t>
+  </si>
+  <si>
+    <t>9302 CARDS (5076)</t>
+  </si>
+  <si>
+    <t>9303 CARDS (5080 Pink)</t>
+  </si>
+  <si>
+    <t>9304 CARDS (5083 Blue)</t>
+  </si>
+  <si>
+    <t>9305 CARDS (9070) (4701 Nice)</t>
+  </si>
+  <si>
+    <t>9306 CARDS (0543 Nice)</t>
+  </si>
+  <si>
+    <t>9307 CARDS *-* (M) (5243 Nice)</t>
+  </si>
+  <si>
+    <t>9308 CARDS (9852)</t>
+  </si>
+  <si>
+    <t>9309 CARDS *-* (T) (9561 Vp)</t>
+  </si>
+  <si>
+    <t>9310 CARDS (3103)</t>
+  </si>
+  <si>
+    <t>9311 CARDS (3115)</t>
+  </si>
+  <si>
+    <t>9312 CARDS *-* (T) (208 VV)</t>
+  </si>
+  <si>
+    <t>9313 CARDS *-* (T) (216)</t>
+  </si>
+  <si>
+    <t>9314 CARDS (P-1)</t>
+  </si>
+  <si>
+    <t>9315 CARDS (DCU) (P-2)</t>
+  </si>
+  <si>
+    <t>9316 CARDS (DCU) (P-3)</t>
+  </si>
+  <si>
+    <t>9317 CARDS (P-4)</t>
+  </si>
+  <si>
+    <t>9318 CARDS (25905)</t>
+  </si>
+  <si>
+    <t>9320 CARDS (S-20)</t>
+  </si>
+  <si>
+    <t>9321 CARDS (22912 GANESH JI)</t>
+  </si>
+  <si>
+    <t>9322 CARDS *-* (M) (22912 COMMON)</t>
+  </si>
+  <si>
+    <t>9323 CARDS (9005 OLD) (9*5 CREAM FOIL NEW)</t>
+  </si>
+  <si>
+    <t>9324 CARDS (9*5 PINK FOIL NEW)</t>
+  </si>
+  <si>
+    <t>9325 CARDS (5229)</t>
+  </si>
+  <si>
+    <t>9326 CARDS (1601)</t>
+  </si>
+  <si>
+    <t>9327 CARDS (25908)</t>
+  </si>
+  <si>
+    <t>9328 CARDS (2543)</t>
+  </si>
+  <si>
+    <t>9329 CARDS (Desgin H/d) (3606)</t>
+  </si>
+  <si>
+    <t>9330 CARDS *-* (T) (9557)</t>
+  </si>
+  <si>
+    <t>9331 CARDS *-*  (T) (9560)</t>
+  </si>
+  <si>
+    <t>9332 CARDS (9847)</t>
+  </si>
+  <si>
+    <t>9333 CARDS (6042)</t>
+  </si>
+  <si>
+    <t>9334 CARDS (10X6 WHITE (2898))</t>
+  </si>
+  <si>
+    <t>9335 CARDS (9003 OLD) (9*5 WHITE)</t>
+  </si>
+  <si>
+    <t>9336 CARDS (2884)</t>
+  </si>
+  <si>
+    <t>9337 CARDS (1635 AP)</t>
+  </si>
+  <si>
+    <t>9338 CARDS (1637 AP)</t>
+  </si>
+  <si>
+    <t>9339 CARDS (5361)</t>
+  </si>
+  <si>
+    <t>9340 CARDS (5658)</t>
+  </si>
+  <si>
+    <t>9341 CARDS (5497)</t>
+  </si>
+  <si>
+    <t>9342 CARDS (2861)</t>
+  </si>
+  <si>
+    <t>9343 CARDS (9*5 WHTE GE HEAVY)</t>
+  </si>
+  <si>
+    <t>9344 CARDS (689)</t>
+  </si>
+  <si>
+    <t>9345 CARDS (358 KALYANI)</t>
+  </si>
+  <si>
+    <t>9346 CARDS (359)</t>
+  </si>
+  <si>
+    <t>9347 CARDS (2853)</t>
+  </si>
+  <si>
+    <t>9348 CARDS *-* (डोरी) (S-124)</t>
+  </si>
+  <si>
+    <t>9349 CARDS (W/o Window) (S-120)</t>
+  </si>
+  <si>
+    <t>9350 CARDS *-* (T) (1632)</t>
+  </si>
+  <si>
+    <t>9351 Card - B (1603 B)</t>
+  </si>
+  <si>
+    <t>9351 CARDS *-* (T) (1603)</t>
+  </si>
+  <si>
+    <t>9352 CARDS *-* (T) (1606 AP)</t>
+  </si>
+  <si>
+    <t>9353 CARDS (1618)</t>
+  </si>
+  <si>
+    <t>9354 CARDS (DCU) (345)</t>
+  </si>
+  <si>
+    <t>9355 CARDS (1624)</t>
+  </si>
+  <si>
+    <t>9356 CARDS (2895/2897)</t>
+  </si>
+  <si>
+    <t>9357 CARDS (2872)</t>
+  </si>
+  <si>
+    <t>9358 CARDS (WHITE PATTA)</t>
+  </si>
+  <si>
+    <t>9359 CARDS (PITCH PATTA)</t>
+  </si>
+  <si>
+    <t>9360 CARDS *-* (M) (GOL ANDA)</t>
+  </si>
+  <si>
+    <t>9361 CARDS (25426)</t>
+  </si>
+  <si>
+    <t>9362 CARDS (363)</t>
+  </si>
+  <si>
+    <t>9363 CARDS *-* (T) (1652)</t>
+  </si>
+  <si>
+    <t>9364 CARDS *-* (T) (1612)</t>
+  </si>
+  <si>
+    <t>9365 CARDS (25429)</t>
+  </si>
+  <si>
+    <t>9366 CARDS (25427 GOLDEN)</t>
+  </si>
+  <si>
+    <t>9367 CARDS (5652)</t>
+  </si>
+  <si>
+    <t>9368 CARDS (9*5 SET 25/26 GOLDEN (25425))</t>
+  </si>
+  <si>
+    <t>9369 CARDS (9*5 SET 25/26 YELLOW (25424))</t>
+  </si>
+  <si>
+    <t>9370 CARDS (9*5 SET 25/26 RED (25423))</t>
+  </si>
+  <si>
+    <t>9371 CARDS (3111 VP)</t>
+  </si>
+  <si>
+    <t>9372 CARDS (9*5 YLW SET (2841))</t>
+  </si>
+  <si>
+    <t>9373 CARDS (1482)</t>
+  </si>
+  <si>
+    <t>9374 CARDS (1485)</t>
+  </si>
+  <si>
+    <t>9375 CARDS (1452 WHITE)</t>
+  </si>
+  <si>
+    <t>9376 CARDS (1529 PRINCE)</t>
+  </si>
+  <si>
+    <t>9377 CARDS (DCU) (9*5 SET GREEN (009))</t>
+  </si>
+  <si>
+    <t>9378 CARDS (2892)</t>
   </si>
   <si>
     <t>9379 CARDS - R</t>
@@ -1979,19 +1979,19 @@
     <t>9387 CARDS - GOLDEN (Mil Jayega)</t>
   </si>
   <si>
-    <t>9389 CARDS</t>
-  </si>
-  <si>
-    <t>9390 CARDS (DCU)</t>
+    <t>9389 CARDS (9147 RJ)</t>
+  </si>
+  <si>
+    <t>9390 CARDS (DCU) (118KBC)</t>
   </si>
   <si>
     <t>9391 CARDS</t>
   </si>
   <si>
-    <t>9*4 ENVELOPE (SBC)</t>
-  </si>
-  <si>
-    <t>9*5 ENVELOPE (FOIL) SBC</t>
+    <t>9*4 ENVELOPE (SBC) (CHOTA ENVELOPE (60/40 BILL))</t>
+  </si>
+  <si>
+    <t>9*5 ENVELOPE (FOIL) SBC (BADA ENVLP WITH FOIL (60/40 BILL))</t>
   </si>
   <si>
     <t>ACRYLIC NAME PLATE</t>
@@ -2000,7 +2000,7 @@
     <t>DEV SAMPLE SET</t>
   </si>
   <si>
-    <t>FANCY GIFT ENVELOPE-(SR)</t>
+    <t>FANCY GIFT ENVELOPE-(SR) (SR ENVELOPES)</t>
   </si>
   <si>
     <t>Gift Envelope (Pocket) SR...</t>
@@ -2018,34 +2018,34 @@
     <t>RIBBON (रिबीन)</t>
   </si>
   <si>
-    <t>RX-01 ENVELOPE</t>
-  </si>
-  <si>
-    <t>RX-02 ENVELOPE</t>
-  </si>
-  <si>
-    <t>RX-03 ENVELOPE</t>
-  </si>
-  <si>
-    <t>RX-04 ENVELOPE</t>
-  </si>
-  <si>
-    <t>RX-05 ENVELOPE</t>
-  </si>
-  <si>
-    <t>RX-06 ENVELOPE</t>
-  </si>
-  <si>
-    <t>RX-07 ENVELOPE</t>
-  </si>
-  <si>
-    <t>RX-08 ENVELOPE</t>
-  </si>
-  <si>
-    <t>RX-09 ENVELOPE</t>
-  </si>
-  <si>
-    <t>गोल गणेश / गोल फ्लावर</t>
+    <t>RX-01 ENVELOPE (LX01)</t>
+  </si>
+  <si>
+    <t>RX-02 ENVELOPE (LX02)</t>
+  </si>
+  <si>
+    <t>RX-03 ENVELOPE (LX03)</t>
+  </si>
+  <si>
+    <t>RX-04 ENVELOPE (LX04)</t>
+  </si>
+  <si>
+    <t>RX-05 ENVELOPE (LX05)</t>
+  </si>
+  <si>
+    <t>RX-06 ENVELOPE (LX06)</t>
+  </si>
+  <si>
+    <t>RX-07 ENVELOPE (LX07)</t>
+  </si>
+  <si>
+    <t>RX-08 ENVELOPE (LX08)</t>
+  </si>
+  <si>
+    <t>RX-09 ENVELOPE (LX09)</t>
+  </si>
+  <si>
+    <t>गोल गणेश / गोल फ्लावर (GOL GANESH OR GOL FLOWER)</t>
   </si>
   <si>
     <t>Grand Total</t>
@@ -2578,7 +2578,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
@@ -2972,16 +2972,16 @@
         <v>30</v>
       </c>
       <c r="B27" s="24">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C27" s="25">
-        <v>102.5</v>
+        <v>99.5</v>
       </c>
       <c r="D27" s="26">
         <v>2</v>
       </c>
       <c r="E27" s="27">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -3429,16 +3429,16 @@
         <v>57</v>
       </c>
       <c r="B54" s="24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C54" s="25">
-        <v>96</v>
+        <v>93.5</v>
       </c>
       <c r="D54" s="26">
         <v>1.8</v>
       </c>
       <c r="E54" s="27">
-        <v>172.8</v>
+        <v>168.3</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -3497,16 +3497,16 @@
         <v>61</v>
       </c>
       <c r="B58" s="24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C58" s="25">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D58" s="26">
         <v>1.1100000000000001</v>
       </c>
       <c r="E58" s="27">
-        <v>335.22</v>
+        <v>327.45</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -3693,16 +3693,16 @@
         <v>73</v>
       </c>
       <c r="B70" s="24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C70" s="25">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="D70" s="26">
         <v>1.4</v>
       </c>
       <c r="E70" s="27">
-        <v>553</v>
+        <v>546</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -3744,16 +3744,16 @@
         <v>76</v>
       </c>
       <c r="B73" s="24">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C73" s="25">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="D73" s="26">
         <v>1.2</v>
       </c>
       <c r="E73" s="27">
-        <v>759.6</v>
+        <v>752.4</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -3793,16 +3793,16 @@
         <v>79</v>
       </c>
       <c r="B76" s="24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" s="25">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="D76" s="26">
         <v>1.2</v>
       </c>
       <c r="E76" s="27">
-        <v>806.4</v>
+        <v>801.6</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -4535,16 +4535,16 @@
         <v>129</v>
       </c>
       <c r="B126" s="24">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C126" s="25">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D126" s="26">
         <v>12.5</v>
       </c>
       <c r="E126" s="27">
-        <v>587.5</v>
+        <v>525</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -4637,16 +4637,16 @@
         <v>135</v>
       </c>
       <c r="B132" s="24">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C132" s="25">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="D132" s="26">
         <v>13</v>
       </c>
       <c r="E132" s="27">
-        <v>71.510000000000005</v>
+        <v>32.51</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -4720,16 +4720,16 @@
         <v>140</v>
       </c>
       <c r="B137" s="24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" s="25">
-        <v>10.5</v>
+        <v>8.5</v>
       </c>
       <c r="D137" s="26">
         <v>18.5</v>
       </c>
       <c r="E137" s="27">
-        <v>194.25</v>
+        <v>157.25</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -5411,16 +5411,16 @@
         <v>181</v>
       </c>
       <c r="B178" s="24">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C178" s="25">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D178" s="26">
         <v>2.65</v>
       </c>
       <c r="E178" s="27">
-        <v>310.05</v>
+        <v>307.39999999999998</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -5902,16 +5902,16 @@
         <v>210</v>
       </c>
       <c r="B207" s="24">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C207" s="25">
-        <v>66.5</v>
+        <v>61.5</v>
       </c>
       <c r="D207" s="26">
         <v>3.57</v>
       </c>
       <c r="E207" s="27">
-        <v>237.53</v>
+        <v>219.67</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
@@ -6260,16 +6260,16 @@
         <v>232</v>
       </c>
       <c r="B229" s="24">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C229" s="25">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D229" s="26">
         <v>6.3</v>
       </c>
       <c r="E229" s="27">
-        <v>245.7</v>
+        <v>220.5</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
@@ -6766,16 +6766,16 @@
         <v>262</v>
       </c>
       <c r="B259" s="24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C259" s="25">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D259" s="26">
         <v>4.84</v>
       </c>
       <c r="E259" s="27">
-        <v>421.14</v>
+        <v>406.62</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
@@ -6851,16 +6851,16 @@
         <v>267</v>
       </c>
       <c r="B264" s="24">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C264" s="25">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="D264" s="26">
         <v>5</v>
       </c>
       <c r="E264" s="27">
-        <v>62.5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
@@ -7019,16 +7019,16 @@
         <v>277</v>
       </c>
       <c r="B274" s="24">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C274" s="25">
-        <v>105.5</v>
+        <v>100</v>
       </c>
       <c r="D274" s="26">
         <v>6</v>
       </c>
       <c r="E274" s="27">
-        <v>632.95000000000005</v>
+        <v>599.96</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
@@ -7447,16 +7447,16 @@
         <v>303</v>
       </c>
       <c r="B300" s="24">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C300" s="25">
-        <v>39.5</v>
+        <v>37.5</v>
       </c>
       <c r="D300" s="26">
         <v>6.75</v>
       </c>
       <c r="E300" s="27">
-        <v>266.63</v>
+        <v>253.13</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
@@ -7879,16 +7879,16 @@
         <v>329</v>
       </c>
       <c r="B326" s="24">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C326" s="25">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="D326" s="26">
         <v>6.4</v>
       </c>
       <c r="E326" s="27">
-        <v>60.8</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
@@ -8183,16 +8183,16 @@
         <v>347</v>
       </c>
       <c r="B344" s="24">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C344" s="25">
-        <v>256</v>
+        <v>248.5</v>
       </c>
       <c r="D344" s="26">
         <v>6.6</v>
       </c>
       <c r="E344" s="27">
-        <v>1689.6</v>
+        <v>1640.1</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
@@ -9621,16 +9621,16 @@
         <v>433</v>
       </c>
       <c r="B430" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C430" s="25">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="D430" s="26">
         <v>15.5</v>
       </c>
       <c r="E430" s="27">
-        <v>162.75</v>
+        <v>139.5</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
@@ -9821,16 +9821,16 @@
         <v>445</v>
       </c>
       <c r="B442" s="24">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C442" s="25">
-        <v>24.5</v>
+        <v>22.5</v>
       </c>
       <c r="D442" s="26">
         <v>10.27</v>
       </c>
       <c r="E442" s="27">
-        <v>251.51</v>
+        <v>230.98</v>
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.25">
@@ -10596,16 +10596,16 @@
         <v>492</v>
       </c>
       <c r="B489" s="24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C489" s="25">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D489" s="26">
         <v>1.4</v>
       </c>
       <c r="E489" s="27">
-        <v>177.8</v>
+        <v>176.4</v>
       </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.25">
@@ -11187,16 +11187,16 @@
         <v>527</v>
       </c>
       <c r="B524" s="24">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C524" s="25">
-        <v>38.799999999999997</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="D524" s="26">
         <v>3.14</v>
       </c>
       <c r="E524" s="27">
-        <v>121.83</v>
+        <v>110.84</v>
       </c>
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.25">
@@ -11521,10 +11521,10 @@
         <v>547</v>
       </c>
       <c r="B544" s="24">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C544" s="25">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D544" s="28"/>
       <c r="E544" s="29"/>
@@ -11573,10 +11573,10 @@
         <v>551</v>
       </c>
       <c r="B548" s="24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C548" s="25">
-        <v>151.4</v>
+        <v>149.9</v>
       </c>
       <c r="D548" s="28"/>
       <c r="E548" s="29"/>
@@ -11603,16 +11603,16 @@
         <v>553</v>
       </c>
       <c r="B550" s="24">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C550" s="25">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="D550" s="26">
         <v>0.57999999999999996</v>
       </c>
       <c r="E550" s="27">
-        <v>643.79999999999995</v>
+        <v>641.48</v>
       </c>
     </row>
     <row r="551" spans="1:5" x14ac:dyDescent="0.25">
@@ -11654,16 +11654,16 @@
         <v>556</v>
       </c>
       <c r="B553" s="24">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C553" s="25">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="D553" s="26">
         <v>0.85</v>
       </c>
       <c r="E553" s="27">
-        <v>460.7</v>
+        <v>456.45</v>
       </c>
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.25">
@@ -12240,16 +12240,16 @@
         <v>592</v>
       </c>
       <c r="B589" s="24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C589" s="25">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="D589" s="26">
         <v>3.5</v>
       </c>
       <c r="E589" s="27">
-        <v>8.75</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.25">
@@ -12308,16 +12308,16 @@
         <v>596</v>
       </c>
       <c r="B593" s="24">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C593" s="25">
-        <v>23.5</v>
+        <v>22</v>
       </c>
       <c r="D593" s="26">
         <v>3.1</v>
       </c>
       <c r="E593" s="27">
-        <v>72.849999999999994</v>
+        <v>68.2</v>
       </c>
     </row>
     <row r="594" spans="1:5" x14ac:dyDescent="0.25">
@@ -12410,16 +12410,16 @@
         <v>602</v>
       </c>
       <c r="B599" s="24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C599" s="25">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="D599" s="26">
         <v>8.75</v>
       </c>
       <c r="E599" s="27">
-        <v>91.88</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="600" spans="1:5" x14ac:dyDescent="0.25">
@@ -12695,16 +12695,16 @@
         <v>619</v>
       </c>
       <c r="B616" s="24">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C616" s="25">
-        <v>72</v>
+        <v>66.5</v>
       </c>
       <c r="D616" s="26">
         <v>3.1</v>
       </c>
       <c r="E616" s="27">
-        <v>223.2</v>
+        <v>206.15</v>
       </c>
     </row>
     <row r="617" spans="1:5" x14ac:dyDescent="0.25">
@@ -12899,16 +12899,16 @@
         <v>631</v>
       </c>
       <c r="B628" s="24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C628" s="25">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D628" s="26">
         <v>2.75</v>
       </c>
       <c r="E628" s="27">
-        <v>162.25</v>
+        <v>159.5</v>
       </c>
     </row>
     <row r="629" spans="1:5" x14ac:dyDescent="0.25">
@@ -13475,16 +13475,16 @@
         <v>669</v>
       </c>
       <c r="B666" s="24">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C666" s="25">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="D666" s="26">
         <v>2.5</v>
       </c>
       <c r="E666" s="27">
-        <v>11.25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="667" spans="1:5" x14ac:dyDescent="0.25">
@@ -13509,16 +13509,16 @@
         <v>671</v>
       </c>
       <c r="B668" s="24">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C668" s="25">
-        <v>19.25</v>
+        <v>17.75</v>
       </c>
       <c r="D668" s="26">
         <v>2.5</v>
       </c>
       <c r="E668" s="27">
-        <v>48.13</v>
+        <v>44.38</v>
       </c>
     </row>
     <row r="669" spans="1:5" x14ac:dyDescent="0.25">
@@ -13557,11 +13557,11 @@
       </c>
       <c r="B671" s="31"/>
       <c r="C671" s="32">
-        <v>38419.83</v>
+        <v>38316.33</v>
       </c>
       <c r="D671" s="33"/>
       <c r="E671" s="34">
-        <v>107116.64</v>
+        <v>106673.88</v>
       </c>
     </row>
   </sheetData>

--- a/data/website stock.xlsx
+++ b/data/website stock.xlsx
@@ -68,310 +68,310 @@
     <t>Value</t>
   </si>
   <si>
-    <t>.1001 PATRIKA (25/251)</t>
-  </si>
-  <si>
-    <t>1002 PATRIKA (25/262)</t>
-  </si>
-  <si>
-    <t>1003 PATRIKA (25/261)</t>
-  </si>
-  <si>
-    <t>1004 PATRIKA (25/361/861)</t>
-  </si>
-  <si>
-    <t>1005 PATRIKA (25/362/862)</t>
-  </si>
-  <si>
-    <t>1006 PATRIKA (25/282)</t>
-  </si>
-  <si>
-    <t>1007 PATRIKA (25/281)</t>
-  </si>
-  <si>
-    <t>1008 PATRIKA (JC) (2595 PINK)</t>
-  </si>
-  <si>
-    <t>1009 PATRIKA (JC) (2595 ORANGE)</t>
-  </si>
-  <si>
-    <t>1010 PATRIKA (6321)</t>
-  </si>
-  <si>
-    <t>1011 PATRIKA (2563 OFFSET NEW)</t>
-  </si>
-  <si>
-    <t>1012 PATRIKA (2564 OFFSET NEW)</t>
-  </si>
-  <si>
-    <t>1013 PATRIKA (2568 OFFSET NEW)</t>
-  </si>
-  <si>
-    <t>1014 PATRIKA (11043 OFFSET)</t>
-  </si>
-  <si>
-    <t>1015 PATRIKA (DCU) (11041 OFFSET NEW)</t>
-  </si>
-  <si>
-    <t>1016 PATRIKA (1011 OFFSET)</t>
-  </si>
-  <si>
-    <t>1017 PATRIKA (1014 OFFSET)</t>
-  </si>
-  <si>
-    <t>1018 PATRIKA (10081 OFFSET NEW)</t>
-  </si>
-  <si>
-    <t>1019 PATRIKA (1222 SBC)</t>
-  </si>
-  <si>
-    <t>1020 PATRIKA (1235)</t>
-  </si>
-  <si>
-    <t>1021 PATRIKA (2101 VV)</t>
-  </si>
-  <si>
-    <t>1023 PATRIKA (25418)</t>
-  </si>
-  <si>
-    <t>1024 PATRIKA (25322)</t>
-  </si>
-  <si>
-    <t>1025 PATRIKA (25323)</t>
-  </si>
-  <si>
-    <t>1026 PATRIKA (JC) (1173 SBC)</t>
-  </si>
-  <si>
-    <t>1027 PATRIKA (JC) (5346)</t>
-  </si>
-  <si>
-    <t>1028 PATRIKA (JC) (2596)</t>
-  </si>
-  <si>
-    <t>1029 PATRIKA (1042)</t>
-  </si>
-  <si>
-    <t>1030 PATRIKA (1043)</t>
-  </si>
-  <si>
-    <t>1031 PATRIKA (GOPAL 11)</t>
-  </si>
-  <si>
-    <t>1032 PATRIKA (GOPAL 1)</t>
-  </si>
-  <si>
-    <t>1033 PATRIKA (2002 YLW)</t>
-  </si>
-  <si>
-    <t>1034 PATRIKA (2003 R)</t>
-  </si>
-  <si>
-    <t>1035 PATRIKA (DCU) (2201 ROSHAN)</t>
-  </si>
-  <si>
-    <t>1101 PATRIKA (O.2591) (2591 ORANGE)</t>
-  </si>
-  <si>
-    <t>1102 PATRIKA (P.2591) (2591 PINK)</t>
-  </si>
-  <si>
-    <t>1103 PATRIKA(N-271) (271 NEHA)</t>
-  </si>
-  <si>
-    <t>1104 PATRIKA(N-272) (272 NEHA)</t>
-  </si>
-  <si>
-    <t>1105 PATRIKA (276-A)</t>
-  </si>
-  <si>
-    <t>1106 PATRIKA-YELLOW (25419)</t>
-  </si>
-  <si>
-    <t>1107 PATRIKA-RED (25420)</t>
-  </si>
-  <si>
-    <t>1109 PATRIKA-BIG Y (25421)</t>
-  </si>
-  <si>
-    <t>1110 PATRIKA-BIG R (25422)</t>
-  </si>
-  <si>
-    <t>1112 PATRIKA (277-B)</t>
-  </si>
-  <si>
-    <t>1113 PATRIKA (1819 MONARCH)</t>
-  </si>
-  <si>
-    <t>1114 PATRIKA-BROWN (1709)</t>
-  </si>
-  <si>
-    <t>1115 PATRIKA-CREAM (1678 PRINCE)</t>
-  </si>
-  <si>
-    <t>1116 PATRIKA (1153) (1253 Jsk)</t>
-  </si>
-  <si>
-    <t>1117 PATRIKA (1155) (1155 JSK)</t>
-  </si>
-  <si>
-    <t>1117 PATRIKA - B (KRISHNA 1155-B)</t>
-  </si>
-  <si>
-    <t>1118 PATRIKA - B (DCU) (NEW SAVASHREE- 51)</t>
-  </si>
-  <si>
-    <t>1118 PATRIKA (सवाश्री-57) (NEW SAVASHREE-57)</t>
-  </si>
-  <si>
-    <t>1119 PATRIKA - B (DCU) (NEW SAVASHREE 52)</t>
-  </si>
-  <si>
-    <t>1119 PATRIKA(सवाश्री-55) (NEW SAVASHREE-55)</t>
-  </si>
-  <si>
-    <t>1120 PATRIKA(सवाश्री-59) (NEW SAVASHREE-59)</t>
-  </si>
-  <si>
-    <t>1121 PATRIKA(सवाश्री-53) (NEW SAVASHREE-53)</t>
-  </si>
-  <si>
-    <t>1122 PATRIKA (DCU) (NEW SAVASHREE-54)</t>
-  </si>
-  <si>
-    <t>1123 PATRIKA (LED-51) (LED-51)</t>
-  </si>
-  <si>
-    <t>1124 PATRIKA (LED-52) (LED-52)</t>
-  </si>
-  <si>
-    <t>1125 PATRIKA (LED-53) (LED-53)</t>
-  </si>
-  <si>
-    <t>1126 PATRIKA (LED-54) (LED-54)</t>
-  </si>
-  <si>
-    <t>1127 PATRIKA (Eco-52) (NEW ECO-52)</t>
-  </si>
-  <si>
-    <t>1128 PATRIKA (Eco-55) (NEW ECO-55)</t>
-  </si>
-  <si>
-    <t>1129 PATRIKA (Eco-56) (NEW ECO-56)</t>
-  </si>
-  <si>
-    <t>1130 PATRIKA - B (ECO-60) (DCU) (NEW ECO 60)</t>
-  </si>
-  <si>
-    <t>1130 PATRIKA (Eco-59) (NEW ECO-59)</t>
-  </si>
-  <si>
-    <t>1131 PATRIKA (DCU) Eco-51 (NEW ECO- 51)</t>
-  </si>
-  <si>
-    <t>1132 PATRIKA (DCU) Eco-53 (NEW ECO- 53)</t>
-  </si>
-  <si>
-    <t>1133 PATRIKA (DCU) Eco-57 (NEW ECO- 57)</t>
-  </si>
-  <si>
-    <t>1134 PATRIKA (DCU) Eco-58 (NEW ECO- 58)</t>
-  </si>
-  <si>
-    <t>1135 PATRIKA (DCU) Eco-54 (NEW ECO- 54)</t>
-  </si>
-  <si>
-    <t>1136 PATRIKA (R) (120 GSM RED)</t>
-  </si>
-  <si>
-    <t>1137 PATRIKA (P) (120 GSM YELLOW)</t>
-  </si>
-  <si>
-    <t>1138 PATRIKA (BR) (150 GSM FOIL (RED))</t>
-  </si>
-  <si>
-    <t>1139 PATRIKA (BY) (150 GSM FOIL (YELLOW))</t>
-  </si>
-  <si>
-    <t>1140 PATRIKA (BB) (150 GSM FOIL (BROWN))</t>
-  </si>
-  <si>
-    <t>1141 PATRIKA (R) (120 GSM (RED)SELF)</t>
-  </si>
-  <si>
-    <t>1142 PATRIKA (P) (120 GSM (YELLOW) SELF)</t>
-  </si>
-  <si>
-    <t>1143 PATRIKA (G) (120 GSM (OLD GOLDEN))</t>
-  </si>
-  <si>
-    <t>1144 PATRIKA (BR) (170 GSM WITH FOIL (RED))</t>
-  </si>
-  <si>
-    <t>1145 PATRIKA (BY) (170 GSM WITH FOIL (YELLOW))</t>
-  </si>
-  <si>
-    <t>1146 PATRIKA (DCU) (BROWN 170 GSM FOIL)</t>
-  </si>
-  <si>
-    <t>1147 PATRIKA (S.201) (201 WESTERN)</t>
-  </si>
-  <si>
-    <t>1148 PATRIKA (S.202) (202 WESTERN)</t>
-  </si>
-  <si>
-    <t>1149 PATRIKA (S.204) (204 WESTERN)</t>
-  </si>
-  <si>
-    <t>1150 PATRIKA (DCU) (NEW SAVASHREE-58)</t>
-  </si>
-  <si>
-    <t>1151 PATRIKA (DCU) (NEW SAVASHREE-56)</t>
-  </si>
-  <si>
-    <t>1152 PATRIKA (DCU) (WESTERN 202 OLD)</t>
-  </si>
-  <si>
-    <t>1153 PATRIKA (DCU) (201 WESTERN (OLD))</t>
-  </si>
-  <si>
-    <t>1154 PATRIKA (DCU) (203 WESTERN A)</t>
-  </si>
-  <si>
-    <t>1155 PATRIKA (DCU) (WESTERN (203) B)</t>
-  </si>
-  <si>
-    <t>1156 PATRIKA-YELLOW (LU-51 (YELLOW))</t>
-  </si>
-  <si>
-    <t>1157 PATRIKA-CREAM (LU-52 (CREAM))</t>
-  </si>
-  <si>
-    <t>1158 PATRIKA-GOLDEN (LU-53 (GOLDEN))</t>
-  </si>
-  <si>
-    <t>1159 PATRIKA-WHITE (LU-54 (WHITE))</t>
-  </si>
-  <si>
-    <t>1160 PATRIKA-PINK (LU-55 (PINK))</t>
-  </si>
-  <si>
-    <t>1161 PATRIKA (01) (JCC 01)</t>
-  </si>
-  <si>
-    <t>1162 PATRIKA (02) (JCC 02)</t>
-  </si>
-  <si>
-    <t>1163 PATRIKA (DCU) (BP RED)</t>
-  </si>
-  <si>
-    <t>1164 PATRIKA (DCU) (BP PINK RIYAZ)</t>
-  </si>
-  <si>
-    <t>1165 PATRIKA (DCU) (BP CREAM)</t>
-  </si>
-  <si>
-    <t>1166 PATRIKA (DCU) (BP YELLOW)</t>
+    <t>.1001 PATRIKA</t>
+  </si>
+  <si>
+    <t>1002 PATRIKA</t>
+  </si>
+  <si>
+    <t>1003 PATRIKA</t>
+  </si>
+  <si>
+    <t>1004 PATRIKA</t>
+  </si>
+  <si>
+    <t>1005 PATRIKA</t>
+  </si>
+  <si>
+    <t>1006 PATRIKA</t>
+  </si>
+  <si>
+    <t>1007 PATRIKA</t>
+  </si>
+  <si>
+    <t>1008 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>1009 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>1010 PATRIKA</t>
+  </si>
+  <si>
+    <t>1011 PATRIKA</t>
+  </si>
+  <si>
+    <t>1012 PATRIKA</t>
+  </si>
+  <si>
+    <t>1013 PATRIKA</t>
+  </si>
+  <si>
+    <t>1014 PATRIKA</t>
+  </si>
+  <si>
+    <t>1015 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>1016 PATRIKA</t>
+  </si>
+  <si>
+    <t>1017 PATRIKA</t>
+  </si>
+  <si>
+    <t>1018 PATRIKA</t>
+  </si>
+  <si>
+    <t>1019 PATRIKA</t>
+  </si>
+  <si>
+    <t>1020 PATRIKA</t>
+  </si>
+  <si>
+    <t>1021 PATRIKA</t>
+  </si>
+  <si>
+    <t>1023 PATRIKA</t>
+  </si>
+  <si>
+    <t>1024 PATRIKA</t>
+  </si>
+  <si>
+    <t>1025 PATRIKA</t>
+  </si>
+  <si>
+    <t>1026 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>1027 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>1028 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>1029 PATRIKA</t>
+  </si>
+  <si>
+    <t>1030 PATRIKA</t>
+  </si>
+  <si>
+    <t>1031 PATRIKA</t>
+  </si>
+  <si>
+    <t>1032 PATRIKA</t>
+  </si>
+  <si>
+    <t>1033 PATRIKA</t>
+  </si>
+  <si>
+    <t>1034 PATRIKA</t>
+  </si>
+  <si>
+    <t>1035 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>1101 PATRIKA (O.2591)</t>
+  </si>
+  <si>
+    <t>1102 PATRIKA (P.2591)</t>
+  </si>
+  <si>
+    <t>1103 PATRIKA(N-271)</t>
+  </si>
+  <si>
+    <t>1104 PATRIKA(N-272)</t>
+  </si>
+  <si>
+    <t>1105 PATRIKA</t>
+  </si>
+  <si>
+    <t>1106 PATRIKA-YELLOW</t>
+  </si>
+  <si>
+    <t>1107 PATRIKA-RED</t>
+  </si>
+  <si>
+    <t>1109 PATRIKA-BIG Y</t>
+  </si>
+  <si>
+    <t>1110 PATRIKA-BIG R</t>
+  </si>
+  <si>
+    <t>1112 PATRIKA</t>
+  </si>
+  <si>
+    <t>1113 PATRIKA</t>
+  </si>
+  <si>
+    <t>1114 PATRIKA-BROWN</t>
+  </si>
+  <si>
+    <t>1115 PATRIKA-CREAM</t>
+  </si>
+  <si>
+    <t>1116 PATRIKA (1153)</t>
+  </si>
+  <si>
+    <t>1117 PATRIKA (1155)</t>
+  </si>
+  <si>
+    <t>1117 PATRIKA - B</t>
+  </si>
+  <si>
+    <t>1118 PATRIKA - B (DCU)</t>
+  </si>
+  <si>
+    <t>1118 PATRIKA (सवाश्री-57)</t>
+  </si>
+  <si>
+    <t>1119 PATRIKA - B (DCU)</t>
+  </si>
+  <si>
+    <t>1119 PATRIKA(सवाश्री-55)</t>
+  </si>
+  <si>
+    <t>1120 PATRIKA(सवाश्री-59)</t>
+  </si>
+  <si>
+    <t>1121 PATRIKA(सवाश्री-53)</t>
+  </si>
+  <si>
+    <t>1122 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>1123 PATRIKA (LED-51)</t>
+  </si>
+  <si>
+    <t>1124 PATRIKA (LED-52)</t>
+  </si>
+  <si>
+    <t>1125 PATRIKA (LED-53)</t>
+  </si>
+  <si>
+    <t>1126 PATRIKA (LED-54)</t>
+  </si>
+  <si>
+    <t>1127 PATRIKA (Eco-52)</t>
+  </si>
+  <si>
+    <t>1128 PATRIKA (Eco-55)</t>
+  </si>
+  <si>
+    <t>1129 PATRIKA (Eco-56)</t>
+  </si>
+  <si>
+    <t>1130 PATRIKA - B (ECO-60) (DCU)</t>
+  </si>
+  <si>
+    <t>1130 PATRIKA (Eco-59)</t>
+  </si>
+  <si>
+    <t>1131 PATRIKA (DCU) Eco-51</t>
+  </si>
+  <si>
+    <t>1132 PATRIKA (DCU) Eco-53</t>
+  </si>
+  <si>
+    <t>1133 PATRIKA (DCU) Eco-57</t>
+  </si>
+  <si>
+    <t>1134 PATRIKA (DCU) Eco-58</t>
+  </si>
+  <si>
+    <t>1135 PATRIKA (DCU) Eco-54</t>
+  </si>
+  <si>
+    <t>1136 PATRIKA (R)</t>
+  </si>
+  <si>
+    <t>1137 PATRIKA (P)</t>
+  </si>
+  <si>
+    <t>1138 PATRIKA (BR)</t>
+  </si>
+  <si>
+    <t>1139 PATRIKA (BY)</t>
+  </si>
+  <si>
+    <t>1140 PATRIKA (BB)</t>
+  </si>
+  <si>
+    <t>1141 PATRIKA (R)</t>
+  </si>
+  <si>
+    <t>1142 PATRIKA (P)</t>
+  </si>
+  <si>
+    <t>1143 PATRIKA (G)</t>
+  </si>
+  <si>
+    <t>1144 PATRIKA (BR)</t>
+  </si>
+  <si>
+    <t>1145 PATRIKA (BY)</t>
+  </si>
+  <si>
+    <t>1146 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>1147 PATRIKA (S.201)</t>
+  </si>
+  <si>
+    <t>1148 PATRIKA (S.202)</t>
+  </si>
+  <si>
+    <t>1149 PATRIKA (S.204)</t>
+  </si>
+  <si>
+    <t>1150 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>1151 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>1152 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>1153 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>1154 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>1155 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>1156 PATRIKA-YELLOW</t>
+  </si>
+  <si>
+    <t>1157 PATRIKA-CREAM</t>
+  </si>
+  <si>
+    <t>1158 PATRIKA-GOLDEN</t>
+  </si>
+  <si>
+    <t>1159 PATRIKA-WHITE</t>
+  </si>
+  <si>
+    <t>1160 PATRIKA-PINK</t>
+  </si>
+  <si>
+    <t>1161 PATRIKA (01)</t>
+  </si>
+  <si>
+    <t>1162 PATRIKA (02)</t>
+  </si>
+  <si>
+    <t>1163 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>1164 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>1165 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>1166 PATRIKA (DCU)</t>
   </si>
   <si>
     <t>190 NO. ENVELOPES (POCKET)</t>
@@ -407,109 +407,109 @@
     <t>2025- INVITAION (BOX) SAMPLES</t>
   </si>
   <si>
-    <t>2101 PATRIKA (L) (LUXYA - 51)</t>
-  </si>
-  <si>
-    <t>2102 PATRIKA *-* (M) (LUXYA - 52)</t>
-  </si>
-  <si>
-    <t>2103 PATRIKA (L) (LUXYA - 53)</t>
-  </si>
-  <si>
-    <t>2104 PATRIKA (LUXYA - 54)</t>
-  </si>
-  <si>
-    <t>2105 PATRIKA (LUXYA - 55)</t>
-  </si>
-  <si>
-    <t>2106 PATRIKA (L) (LUXYA - 56)</t>
-  </si>
-  <si>
-    <t>2107 PATRIKA *-* (M) (LUXYA - 57)</t>
-  </si>
-  <si>
-    <t>2108 PATRIKA *-* (M) (LUXYA - 59)</t>
-  </si>
-  <si>
-    <t>2109 PATRIKA (L) (LUXYA - 60)</t>
-  </si>
-  <si>
-    <t>2110 PATRIKA (LUXYA - 61)</t>
-  </si>
-  <si>
-    <t>2111 PATRIKA *-* (M) (LUXYA - 62)</t>
-  </si>
-  <si>
-    <t>2112 PATRIKA (L) (LEGACY - 01)</t>
-  </si>
-  <si>
-    <t>2113 PATRIKA (L) (LEGACY - 02)</t>
-  </si>
-  <si>
-    <t>2114 PATRIKA (L) (LEGACY - 03)</t>
-  </si>
-  <si>
-    <t>2115 PATRIKA (L) (LEGACY - 04)</t>
-  </si>
-  <si>
-    <t>2116 PATRIKA (L) (LEGACY - 05)</t>
-  </si>
-  <si>
-    <t>2117 PATRIKA *-* (M) (LEGACY - 06)</t>
-  </si>
-  <si>
-    <t>2118 PATRIKA (L) (LEGACY - 07)</t>
-  </si>
-  <si>
-    <t>2119 PATRIKA (L) (LEGACY - 08)</t>
-  </si>
-  <si>
-    <t>2120 PATRIKA (L) (LEGACY - 09)</t>
-  </si>
-  <si>
-    <t>2121 PATRIKA (LEGACY - 10)</t>
-  </si>
-  <si>
-    <t>2122 PATRIKA (LEGACY - 11)</t>
-  </si>
-  <si>
-    <t>2123 PATRIKA (LEGACY - 12)</t>
-  </si>
-  <si>
-    <t>2124 PATRIKA *-* (M) (LOTTERY - 71)</t>
-  </si>
-  <si>
-    <t>2125 PATRIKA *-* (M) (LOTTERY - 72)</t>
-  </si>
-  <si>
-    <t>2126 PATRIKA *-* (M) (LOTTERY - 73)</t>
-  </si>
-  <si>
-    <t>2127 PATRIKA *-* (M) (LOTTERY - 74)</t>
-  </si>
-  <si>
-    <t>2128 PATRIKA *-* (M) (LOTTERY - 75)</t>
-  </si>
-  <si>
-    <t>2129 PATRIKA *-* (M) (LOTTERY - 76)</t>
-  </si>
-  <si>
-    <t>2130 PATRIKA *-* (M) (LOTTERY - 77)</t>
-  </si>
-  <si>
-    <t>2131 PATRIKA *-* (M) (LOTTERY - 78)</t>
-  </si>
-  <si>
-    <t>2132 PATRIKA *-* (M) (LOTTERY - 79)</t>
-  </si>
-  <si>
-    <t>2133 PATRIKA (LOTTERY - 80)</t>
-  </si>
-  <si>
-    <t>2134 PATRIKA *-* (M) (LOTTERY - 81)</t>
-  </si>
-  <si>
-    <t>2135 PATRIKA *-* (M) (LOTTERY - 82)</t>
+    <t>2101 PATRIKA (L)</t>
+  </si>
+  <si>
+    <t>2102 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>2103 PATRIKA (L)</t>
+  </si>
+  <si>
+    <t>2104 PATRIKA</t>
+  </si>
+  <si>
+    <t>2105 PATRIKA</t>
+  </si>
+  <si>
+    <t>2106 PATRIKA (L)</t>
+  </si>
+  <si>
+    <t>2107 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>2108 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>2109 PATRIKA (L)</t>
+  </si>
+  <si>
+    <t>2110 PATRIKA</t>
+  </si>
+  <si>
+    <t>2111 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>2112 PATRIKA (L)</t>
+  </si>
+  <si>
+    <t>2113 PATRIKA (L)</t>
+  </si>
+  <si>
+    <t>2114 PATRIKA (L)</t>
+  </si>
+  <si>
+    <t>2115 PATRIKA (L)</t>
+  </si>
+  <si>
+    <t>2116 PATRIKA (L)</t>
+  </si>
+  <si>
+    <t>2117 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>2118 PATRIKA (L)</t>
+  </si>
+  <si>
+    <t>2119 PATRIKA (L)</t>
+  </si>
+  <si>
+    <t>2120 PATRIKA (L)</t>
+  </si>
+  <si>
+    <t>2121 PATRIKA</t>
+  </si>
+  <si>
+    <t>2122 PATRIKA</t>
+  </si>
+  <si>
+    <t>2123 PATRIKA</t>
+  </si>
+  <si>
+    <t>2124 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>2125 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>2126 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>2127 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>2128 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>2129 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>2130 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>2131 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>2132 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>2133 PATRIKA</t>
+  </si>
+  <si>
+    <t>2134 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>2135 PATRIKA *-* (M)</t>
   </si>
   <si>
     <t>290 ENVELOPE 25-26</t>
@@ -527,1144 +527,1144 @@
     <t>330 ENVELOPE</t>
   </si>
   <si>
-    <t>4251 PATRIKA (JC) (5342)</t>
-  </si>
-  <si>
-    <t>4252 PATRIKA (5207)</t>
-  </si>
-  <si>
-    <t>4253 PATRIKA (5206)</t>
-  </si>
-  <si>
-    <t>4254 PATRIKA (4210) (10273/10277)</t>
-  </si>
-  <si>
-    <t>4255 PATRIKA - B (DCU) (AS-02 (B))</t>
-  </si>
-  <si>
-    <t>4255 PATRIKA (JC) (AS-02 (NEW))</t>
-  </si>
-  <si>
-    <t>4257 PATRIKA (82)</t>
-  </si>
-  <si>
-    <t>4258 PATRIKA (JC) (1129)</t>
-  </si>
-  <si>
-    <t>4259 PATRIKA (JC) (101 SBC)</t>
-  </si>
-  <si>
-    <t>4260 PATRIKA (1102)</t>
-  </si>
-  <si>
-    <t>4261 PATRIKA (JC) (959)</t>
-  </si>
-  <si>
-    <t>4262 PATRIKA (JC) (S-201 GANESH JI)</t>
-  </si>
-  <si>
-    <t>4264 PATRIKA (DCU) (1351)</t>
-  </si>
-  <si>
-    <t>4265 PATRIKA (83)</t>
-  </si>
-  <si>
-    <t>4266 PATRIKA (25-145)</t>
-  </si>
-  <si>
-    <t>4267 PATRIKA (JC) (25-046)</t>
-  </si>
-  <si>
-    <t>4268 PATRIKA (JC) *-* (M+T) (S-296)</t>
-  </si>
-  <si>
-    <t>4269 PATRIKA (111 SBC)</t>
-  </si>
-  <si>
-    <t>4270 PATRIKA (1151 GGN)</t>
-  </si>
-  <si>
-    <t>4271 PATRIKA (JC) (25216)</t>
-  </si>
-  <si>
-    <t>4272 PATRIKA (JC) (1231 SBC CRM)</t>
-  </si>
-  <si>
-    <t>4273 PATRIKA (2547)</t>
-  </si>
-  <si>
-    <t>4274 PATRIKA (JC) (25369)</t>
-  </si>
-  <si>
-    <t>4275 PATRIKA (25367)</t>
-  </si>
-  <si>
-    <t>4277 PATRIKA (JC) *-* (M) (25365)</t>
-  </si>
-  <si>
-    <t>4278 PATRIKA (25368)</t>
-  </si>
-  <si>
-    <t>4279 PATRIKA (1031)</t>
-  </si>
-  <si>
-    <t>4280 PATRIKA (25301)</t>
-  </si>
-  <si>
-    <t>4281 PATRIKA (25312 MYRA)</t>
-  </si>
-  <si>
-    <t>4282 PATRIKA (3117)</t>
-  </si>
-  <si>
-    <t>4283 PATRIKA - B (YELLOW) (3116-YLW)</t>
-  </si>
-  <si>
-    <t>4284 PATRIKA (1173 VV)</t>
-  </si>
-  <si>
-    <t>4285 PATRIKA (JC) *-* (M) (4626)</t>
-  </si>
-  <si>
-    <t>4286 PATRIKA (5254  RJN)</t>
-  </si>
-  <si>
-    <t>4287 PATRIKA (25402)</t>
-  </si>
-  <si>
-    <t>4288 PATRIKA (10001 NEW)</t>
-  </si>
-  <si>
-    <t>4289 PATRIKA (10002 NEW)</t>
-  </si>
-  <si>
-    <t>4290 PATRIKA (316 MYRA)</t>
-  </si>
-  <si>
-    <t>4291 PATRIKA (25401)</t>
-  </si>
-  <si>
-    <t>4292 PATRIKA (25311)</t>
-  </si>
-  <si>
-    <t>4293 PATRIKA (25312)</t>
-  </si>
-  <si>
-    <t>4294 PATRIKA (5273)</t>
-  </si>
-  <si>
-    <t>4295 PATRIKA (286-A)</t>
-  </si>
-  <si>
-    <t>4296 PATRIKA (1407)</t>
-  </si>
-  <si>
-    <t>4297 PATRIKA (306)</t>
-  </si>
-  <si>
-    <t>4298 PATRIKA (5501)</t>
-  </si>
-  <si>
-    <t>4299 PATRIKA (2011)</t>
-  </si>
-  <si>
-    <t>4300 PATRIKA (25314)</t>
-  </si>
-  <si>
-    <t>4301 PATRIKA (25315)</t>
-  </si>
-  <si>
-    <t>4302 PATRIKA (1402)</t>
-  </si>
-  <si>
-    <t>4303 PATRIKA (JC) (1234*-M)</t>
-  </si>
-  <si>
-    <t>4304 PATRIKA (5172)</t>
-  </si>
-  <si>
-    <t>4305 PATRIKA (25313)</t>
-  </si>
-  <si>
-    <t>4307 PATRIKA (BALAJI 5202)</t>
-  </si>
-  <si>
-    <t>4308 PATRIKA (LOTUS 430)</t>
-  </si>
-  <si>
-    <t>4309 PATRIKA (DCU) (3751 Patta)</t>
-  </si>
-  <si>
-    <t>4310 PATRIKA (DCU) (3752 Swastik)</t>
-  </si>
-  <si>
-    <t>4311 PATRIKA (DCU) (251 KBC)</t>
-  </si>
-  <si>
-    <t>4312 PATRIKA (DCU) (273-A)</t>
-  </si>
-  <si>
-    <t>4314 PATRIKA (DCU) (RED-YELLOW SWASTIK)</t>
-  </si>
-  <si>
-    <t>4315 PATRIKA (DCU) (WHITE-PINK PAN PATA)</t>
-  </si>
-  <si>
-    <t>4316 PATRIKA (DCU) (WHITE -ORANGE PAN PATTA)</t>
-  </si>
-  <si>
-    <t>5051 PATRIKA *-* (M) (5087)</t>
-  </si>
-  <si>
-    <t>5052 PATRIKA (5295)</t>
-  </si>
-  <si>
-    <t>5053 PATRIKA (5213)</t>
-  </si>
-  <si>
-    <t>5054 PATRIKA *-* (M) (25/162)</t>
-  </si>
-  <si>
-    <t>5055 PATRIKA (25/272)</t>
-  </si>
-  <si>
-    <t>5056 PATRIKA (JC) (25/271)</t>
-  </si>
-  <si>
-    <t>5057 PATRIKA (25/171)</t>
-  </si>
-  <si>
-    <t>5058 PATRIKA (8802)</t>
-  </si>
-  <si>
-    <t>5059 PATRIKA (8803)</t>
-  </si>
-  <si>
-    <t>5060 PATRIKA (JC) (7713)</t>
-  </si>
-  <si>
-    <t>5061 PATRIKA (DCU) (1405)</t>
-  </si>
-  <si>
-    <t>5062 PATRIKA (7705)</t>
-  </si>
-  <si>
-    <t>5063 PATRIKA (2522 GE)</t>
-  </si>
-  <si>
-    <t>5064 PATRIKA (2517 GE)</t>
-  </si>
-  <si>
-    <t>5065 PATRIKA (2527)</t>
-  </si>
-  <si>
-    <t>5066 PATRIKA (2536)</t>
-  </si>
-  <si>
-    <t>5067 PATRIKA (JC) (S-301)</t>
-  </si>
-  <si>
-    <t>5071 PATRIKA *-* (डोरी) (741)</t>
-  </si>
-  <si>
-    <t>5072 PATRIKA (5347 DIRECT)</t>
-  </si>
-  <si>
-    <t>5073 PATRIKA *-* (M) (3161)</t>
-  </si>
-  <si>
-    <t>5074 PATRIKA (1151 VV)</t>
-  </si>
-  <si>
-    <t>5075 PATRIKA (JC) (25-082)</t>
-  </si>
-  <si>
-    <t>5076 PATRIKA (JC) (3701 SBC)</t>
-  </si>
-  <si>
-    <t>5077 PATRIKA (2081)</t>
-  </si>
-  <si>
-    <t>5079 PATRIKA (296-A (NEHA)</t>
-  </si>
-  <si>
-    <t>5080 PATRIKA (2501 GE NEW)</t>
-  </si>
-  <si>
-    <t>5081 PATRIKA (2520 GE)</t>
-  </si>
-  <si>
-    <t>5083 PATRIKA (5267)</t>
-  </si>
-  <si>
-    <t>5084 PATRIKA (5258 RJ)</t>
-  </si>
-  <si>
-    <t>5085 PATRIKA (2023)</t>
-  </si>
-  <si>
-    <t>5086 PATRIKA (JC) *-* (M+D) (942)</t>
-  </si>
-  <si>
-    <t>5088 PATRIKA (25214)</t>
-  </si>
-  <si>
-    <t>5089 PATRIKA (2061 SBC)</t>
-  </si>
-  <si>
-    <t>5090 PATRIKA (5236 RJ)</t>
-  </si>
-  <si>
-    <t>5092 PATRIKA (05 NAVIN BHAI)</t>
-  </si>
-  <si>
-    <t>5093 PATRIKA (5350)</t>
-  </si>
-  <si>
-    <t>5094 PATRIKA (5251)</t>
-  </si>
-  <si>
-    <t>5095 PATRIKA (5240)</t>
-  </si>
-  <si>
-    <t>5096 PATRIKA (25316)</t>
-  </si>
-  <si>
-    <t>5097 PATRIKA (25321)</t>
-  </si>
-  <si>
-    <t>5098 PATRIKA *-* (M) (857)</t>
-  </si>
-  <si>
-    <t>5099 PATRIKA *-* (M) (852 DHANESH)</t>
-  </si>
-  <si>
-    <t>5100 PATRIKA (DCU) (5339)</t>
-  </si>
-  <si>
-    <t>5102 PATRIKA (5021) (2456)</t>
-  </si>
-  <si>
-    <t>5103 PATRIKA (2071)</t>
-  </si>
-  <si>
-    <t>5104 PATRIKA (5261 RJND)</t>
-  </si>
-  <si>
-    <t>5105 PATRIKA (JC) (5335)</t>
-  </si>
-  <si>
-    <t>5106 PATRIKA (253-A / 257-A)</t>
-  </si>
-  <si>
-    <t>5107 PATRIKA (5356 RJ)</t>
-  </si>
-  <si>
-    <t>5108 PATRIKA (5333)</t>
-  </si>
-  <si>
-    <t>5109 PATRIKA (5308)</t>
-  </si>
-  <si>
-    <t>5110 PATRIKA (JC) (AS-402)</t>
-  </si>
-  <si>
-    <t>5111 PATRIKA (JC) (5313)</t>
-  </si>
-  <si>
-    <t>5112 PATRIKA (JC) *-* (M) (25437)</t>
-  </si>
-  <si>
-    <t>5113 PATRIKA (5305)</t>
-  </si>
-  <si>
-    <t>5114 PATRIKA *-* (डोरी) (2091)</t>
-  </si>
-  <si>
-    <t>5115 PATRIKA (DCU) (5363 RJND)</t>
-  </si>
-  <si>
-    <t>5116 PATRIKA (2031)</t>
-  </si>
-  <si>
-    <t>5117 PATRIKA (DCU) (3331)</t>
-  </si>
-  <si>
-    <t>5118 PATRIKA (DCU) (25436)</t>
-  </si>
-  <si>
-    <t>5502 PATRIKA *-* (M) (5355 NICE)</t>
-  </si>
-  <si>
-    <t>5503 PATRIKA (5186)</t>
-  </si>
-  <si>
-    <t>5504 PATRIKA (JC) (7033)</t>
-  </si>
-  <si>
-    <t>5505 PATRIKA (JC) *-* (M) (2282)</t>
-  </si>
-  <si>
-    <t>5506 PATRIKA *-* (M) (25/122)</t>
-  </si>
-  <si>
-    <t>5508 PATRIKA (JC) (612 VV)</t>
-  </si>
-  <si>
-    <t>5509 PATRIKA (JC) (25/072)</t>
-  </si>
-  <si>
-    <t>5510 PATRIKA (JC) *-* (M) (AS-950)</t>
-  </si>
-  <si>
-    <t>5511 PATRIKA (JC) *-* (M) (2528)</t>
-  </si>
-  <si>
-    <t>5512 PATRIKA (JC) (2525 /2552)</t>
-  </si>
-  <si>
-    <t>5513 PATRIKA (2515)</t>
-  </si>
-  <si>
-    <t>5514 PATRIKA (2542)</t>
-  </si>
-  <si>
-    <t>5515 PATRIKA (2523)</t>
-  </si>
-  <si>
-    <t>5516 PATRIKA (JC) *-* (M) (5302 VV)</t>
-  </si>
-  <si>
-    <t>5517 PATRIKA *-* (M) (Patti Aayegi) (6301)</t>
-  </si>
-  <si>
-    <t>5518 PATRIKA (JC) *-* (M) (922)</t>
-  </si>
-  <si>
-    <t>5519 PATRIKA *-* (M) (7066)</t>
-  </si>
-  <si>
-    <t>5520 PATRIKA (1054)</t>
-  </si>
-  <si>
-    <t>5521 PATRIKA (JC) *-* (M) (35)</t>
-  </si>
-  <si>
-    <t>5522 PATRIKA (2231)</t>
-  </si>
-  <si>
-    <t>5523 PATRIKA (2232)</t>
-  </si>
-  <si>
-    <t>5524 PATRIKA (DCU) (5382)</t>
-  </si>
-  <si>
-    <t>5525 PATRIKA *-* (M) (5283)</t>
-  </si>
-  <si>
-    <t>5526 PATRIKA (DCU) (NEW LUSTER - 01)</t>
-  </si>
-  <si>
-    <t>5527 PATRIKA (DCU) (NEW LUSTER - 02)</t>
-  </si>
-  <si>
-    <t>5528 PATRIKA *-* (M) (NEW LUSTER - 03)</t>
-  </si>
-  <si>
-    <t>5529 PATRIKA *-* (M) (NEW LUSTER - 04)</t>
-  </si>
-  <si>
-    <t>5530 PATRIKA *-* (M) (NEW LUSTER - 05)</t>
-  </si>
-  <si>
-    <t>5531 PATRIKA (DCU) (NEW LUSTER - 06)</t>
-  </si>
-  <si>
-    <t>5532 PATRIKA *-* (M) (NEW LUSTER - 07)</t>
-  </si>
-  <si>
-    <t>5533 PATRIKA *-* (M) (NEW LUSTER - 08)</t>
-  </si>
-  <si>
-    <t>5534 PATRIKA *-* (M) (NEW LUSTER - 09)</t>
-  </si>
-  <si>
-    <t>5535 PATRIKA (JC) *-* (M) (1007)</t>
-  </si>
-  <si>
-    <t>5537 PATRIKA (JC) (25-052)</t>
-  </si>
-  <si>
-    <t>5538 PATRIKA (JC) *-* (M) (7073)</t>
-  </si>
-  <si>
-    <t>5539 PATRIKA-B (2942-B)</t>
-  </si>
-  <si>
-    <t>5539 PATRIKA (JC) (2942)</t>
-  </si>
-  <si>
-    <t>5540 PATRIKA *-* (M) (S-96)</t>
-  </si>
-  <si>
-    <t>5542 PATRIKA (2261)</t>
-  </si>
-  <si>
-    <t>5543 PATRIKA (2353)</t>
-  </si>
-  <si>
-    <t>5544 PATRIKA *-* (M) (2732)</t>
-  </si>
-  <si>
-    <t>5545 PATRIKA *-* (M) (2791)</t>
-  </si>
-  <si>
-    <t>5546 PATRIKA (718)</t>
-  </si>
-  <si>
-    <t>5547 PATRIKA *-* (M) (S-32)</t>
-  </si>
-  <si>
-    <t>5548 PATRIKA (DCU) (2792)</t>
-  </si>
-  <si>
-    <t>5549 PATRIKA (5261 NICE)</t>
-  </si>
-  <si>
-    <t>5550 PATRIKA *-* (M) (5424)</t>
-  </si>
-  <si>
-    <t>5551 PATRIKA (5231)</t>
-  </si>
-  <si>
-    <t>5552 PATRIKA (JC) *-* (M) (S-163)</t>
-  </si>
-  <si>
-    <t>5553 PATRIKA *-* (M) (5004)</t>
-  </si>
-  <si>
-    <t>5554 PATRIKA *-* (F/G) (5379)</t>
-  </si>
-  <si>
-    <t>5555 PATRIKA (2903)</t>
-  </si>
-  <si>
-    <t>5556 PATRIKA *-* (M) (2952)</t>
-  </si>
-  <si>
-    <t>5557 PATRIKA (2312 SBC)</t>
-  </si>
-  <si>
-    <t>5558 PATRIKA *-* (M) (121 NEHA)</t>
-  </si>
-  <si>
-    <t>5559 PATRIKA (2293)</t>
-  </si>
-  <si>
-    <t>5560 PATRIKA (F/G) *-* (2915)</t>
-  </si>
-  <si>
-    <t>5561 PATRIKA *-* (M) (25358)</t>
-  </si>
-  <si>
-    <t>5562 PATRIKA *-* (M) (114-B (NEHA))</t>
-  </si>
-  <si>
-    <t>5563 PATRIKA (5387)</t>
-  </si>
-  <si>
-    <t>5564 PATRIKA (JC) *-* (M) (S-107)</t>
-  </si>
-  <si>
-    <t>5565 PATRIKA (175)</t>
-  </si>
-  <si>
-    <t>5566 PATRIKA *-* (M) (1742-B)</t>
-  </si>
-  <si>
-    <t>5567 PATRIKA (1679)</t>
-  </si>
-  <si>
-    <t>5568 PATRIKA *-* (M) (3002)</t>
-  </si>
-  <si>
-    <t>5569 PATRIKA *-* (M) (S-39)</t>
-  </si>
-  <si>
-    <t>5570 PATRIKA *-* (M) (S-74)</t>
-  </si>
-  <si>
-    <t>5571 PATRIKA *-* (M) (25353)</t>
-  </si>
-  <si>
-    <t>5572 PATRIKA *-* (M) (25351)</t>
-  </si>
-  <si>
-    <t>5573 PATRIKA (2205)</t>
-  </si>
-  <si>
-    <t>5574 PATRIKA (25335)</t>
-  </si>
-  <si>
-    <t>5575 PATRIKA *-* (M) (S-77)</t>
-  </si>
-  <si>
-    <t>5576 PATRIKA (2531)</t>
-  </si>
-  <si>
-    <t>5577 PATRIKA *-* (M) (5808)</t>
-  </si>
-  <si>
-    <t>5578 PATRIKA (JC) *-* (M) (AS-104 / S-50)</t>
-  </si>
-  <si>
-    <t>5579 PATRIKA (JC) *-* (M) (AS-102)</t>
-  </si>
-  <si>
-    <t>5580 PATRIKA (S-326)</t>
-  </si>
-  <si>
-    <t>5581 PATRIKA *-* (M) (3471)</t>
-  </si>
-  <si>
-    <t>5582 PATRIKA *-* (M) (3512 SBC)</t>
-  </si>
-  <si>
-    <t>5583 PATRIKA (3211 SBC)</t>
-  </si>
-  <si>
-    <t>5584 PATRIKA (JC) (2202 SBC)</t>
-  </si>
-  <si>
-    <t>5585 PATRIKA *-* (M) (1201 KBC)</t>
-  </si>
-  <si>
-    <t>5586 PATRIKA *-* (M) (S-51)</t>
-  </si>
-  <si>
-    <t>5587 PATRIKA (2264)</t>
-  </si>
-  <si>
-    <t>5588 PATRIKA (JC) *-* (M) (1006)</t>
-  </si>
-  <si>
-    <t>5589 PATRIKA *-* (M) (25133)</t>
-  </si>
-  <si>
-    <t>5590 PATRIKA (3131 SBC)</t>
-  </si>
-  <si>
-    <t>5592 PATRIKA *-* (M) (2365)</t>
-  </si>
-  <si>
-    <t>5593 PATRIKA (2803)</t>
-  </si>
-  <si>
-    <t>5595 PATRIKA *-* (M) (226)</t>
-  </si>
-  <si>
-    <t>5596 PATRIKA *-* (M) (2541)</t>
-  </si>
-  <si>
-    <t>5597 PATRIKA (JC) *-* (M) (AS-104 (B))</t>
-  </si>
-  <si>
-    <t>5599 PATRIKA *-* (M) (77-B)</t>
-  </si>
-  <si>
-    <t>5601 PATRIKA (2771)</t>
-  </si>
-  <si>
-    <t>5602 PATRIKA (3271)</t>
-  </si>
-  <si>
-    <t>5603 PATRIKA *-* (M) (6125)</t>
-  </si>
-  <si>
-    <t>5604 PATRIKA (242-A)</t>
-  </si>
-  <si>
-    <t>5605 PATRIKA (JC) (3102)</t>
-  </si>
-  <si>
-    <t>5606 PATRIKA *-* (M) (221-A)</t>
-  </si>
-  <si>
-    <t>5607 PATRIKA (25442)</t>
-  </si>
-  <si>
-    <t>5608 PATRIKA (25440)</t>
-  </si>
-  <si>
-    <t>5609 PATRIKA (993)</t>
-  </si>
-  <si>
-    <t>5610 PATRIKA (JC) (2373)</t>
-  </si>
-  <si>
-    <t>5611 PATRIKA *-* (M) (1211)</t>
-  </si>
-  <si>
-    <t>5612 PATRIKA (DCU) (5276)</t>
-  </si>
-  <si>
-    <t>5614 PATRIKA *-* (M) (2331)</t>
-  </si>
-  <si>
-    <t>5615 PATRIKA (2111)</t>
-  </si>
-  <si>
-    <t>5616 PATRIKA (DCU) (7069)</t>
-  </si>
-  <si>
-    <t>5617 PATRIKA *-* (M) (7067)</t>
-  </si>
-  <si>
-    <t>5618 PATRIKA (JC) *-* (M) (S-52)</t>
-  </si>
-  <si>
-    <t>5619 PATRIKA (JC) (1131)</t>
-  </si>
-  <si>
-    <t>5621 PATRIKA (JC) *-* (M) (5297)</t>
-  </si>
-  <si>
-    <t>5622 PATRIKA *-* (M) (25337)</t>
-  </si>
-  <si>
-    <t>5623 PATRIKA (064)</t>
-  </si>
-  <si>
-    <t>5625 PATRIKA (DCU) (772)</t>
-  </si>
-  <si>
-    <t>6601 PATRIKA (L) (5164)</t>
-  </si>
-  <si>
-    <t>6602 PATRIKA (5126)</t>
-  </si>
-  <si>
-    <t>6603 PATRIKA (5111)</t>
-  </si>
-  <si>
-    <t>6604 PATRIKA *-* (M) (5196)</t>
-  </si>
-  <si>
-    <t>6605 PATRIKA (5191)</t>
-  </si>
-  <si>
-    <t>6606 PATRIKA (*-*) R (3023)</t>
-  </si>
-  <si>
-    <t>6607 PATRIKA *-* (M) (0523)</t>
-  </si>
-  <si>
-    <t>6608 PATRIKA (95)</t>
-  </si>
-  <si>
-    <t>6609 PATRIKA *-* (M) (3053)</t>
-  </si>
-  <si>
-    <t>6610 PATRIKA *-* (M) (3019)</t>
-  </si>
-  <si>
-    <t>6611 PATRIKA (3017 VV)</t>
-  </si>
-  <si>
-    <t>6612 PATRIKA (3015)</t>
-  </si>
-  <si>
-    <t>6613 PATRIKA (25164)</t>
-  </si>
-  <si>
-    <t>6614 PATRIKA (DCU) (25131)</t>
-  </si>
-  <si>
-    <t>6615 PATRIKA *-* (M) (915 GAGAN)</t>
-  </si>
-  <si>
-    <t>6616 PATRIKA *-* (M) (911 GAGAN)</t>
-  </si>
-  <si>
-    <t>6617 PATRIKA *-* (M) (3422)</t>
-  </si>
-  <si>
-    <t>6618 PATRIKA *-* (M) (3423)</t>
-  </si>
-  <si>
-    <t>6619 PATRIKA *-* (M) (1193)</t>
-  </si>
-  <si>
-    <t>6620 PATRIKA *-* (M) (1045 GGN (PADDING))</t>
-  </si>
-  <si>
-    <t>6621 PATRIKA *-* (M) (7108 (PADDING))</t>
-  </si>
-  <si>
-    <t>6622 PATRIKA *-* (M) (7259 (PADDING))</t>
-  </si>
-  <si>
-    <t>6623 PATRIKA (25184)</t>
-  </si>
-  <si>
-    <t>6624 PATRIKA *-* (M) (25135)</t>
-  </si>
-  <si>
-    <t>6625 PATRIKA *-* (M) (25116)</t>
-  </si>
-  <si>
-    <t>6626 PATRIKA *-* (M) (25161)</t>
-  </si>
-  <si>
-    <t>6627 PATRIKA *-* (M) (25111)</t>
-  </si>
-  <si>
-    <t>6628 PATRIKA *-* (M) (805 SBC)</t>
-  </si>
-  <si>
-    <t>6629 PATRIKA *-* (M) (812 NEW SBC)</t>
-  </si>
-  <si>
-    <t>6630 PATRIKA *-* (M) (5510 NICE)</t>
-  </si>
-  <si>
-    <t>6631 PATRIKA (DCU) (OLD AP ITEM)</t>
-  </si>
-  <si>
-    <t>6632 PATRIKA (DCU) (932)</t>
-  </si>
-  <si>
-    <t>6633 PATRIKA *-* (M) (7081 VP)</t>
-  </si>
-  <si>
-    <t>6634 PATRIKA (3562)</t>
-  </si>
-  <si>
-    <t>6635 PATRIKA *-* (M) (S-313)</t>
-  </si>
-  <si>
-    <t>6636 PATRIKA *-* (M) (25183)</t>
-  </si>
-  <si>
-    <t>6637 PATRIKA (25162 GE)</t>
-  </si>
-  <si>
-    <t>6638 PATRIKA *-* (M) (3014)</t>
-  </si>
-  <si>
-    <t>6639 PATRIKA (B) (2291-B)</t>
-  </si>
-  <si>
-    <t>6640 PATRIKA *-* (M) (5737 PADING)</t>
-  </si>
-  <si>
-    <t>6641 PATRIKA *-* (M) (5435)</t>
-  </si>
-  <si>
-    <t>6642 PATRIKA *-* (M) (5411 RJ)</t>
-  </si>
-  <si>
-    <t>6643 PATRIKA *-* (M) (25380)</t>
-  </si>
-  <si>
-    <t>6644 PATRIKA (DCU) (25132)</t>
-  </si>
-  <si>
-    <t>6645 PATRIKA *-* (M) (3031)</t>
-  </si>
-  <si>
-    <t>6646 PATRIKA *-* (M) (3034)</t>
-  </si>
-  <si>
-    <t>6647 PATRIKA *-* (M) (25382)</t>
-  </si>
-  <si>
-    <t>6648 PATRIKA *-* (M) (5011 (PADDING))</t>
-  </si>
-  <si>
-    <t>6649 PATRIKA *-* (M) (3402)</t>
-  </si>
-  <si>
-    <t>6650 PATRIKA *-* (M) (3431)</t>
-  </si>
-  <si>
-    <t>6651 PATRIKA (3421)</t>
-  </si>
-  <si>
-    <t>6652 PATRIKA *-* (M) (2764 SBC)</t>
-  </si>
-  <si>
-    <t>6653 PATRIKA *-* (M) (834 SBC NEW)</t>
-  </si>
-  <si>
-    <t>6654 PATRIKA *-* (M) (3461)</t>
-  </si>
-  <si>
-    <t>6655 PATRIKA *-* (M) (7129 (PADDING))</t>
-  </si>
-  <si>
-    <t>6656 PATRIKA (L) (7113 (PADDING))</t>
-  </si>
-  <si>
-    <t>6657 PATRIKA *-* (M) (563  DHANESH)</t>
-  </si>
-  <si>
-    <t>6658 PATRIKA *-* (M) (5319)</t>
-  </si>
-  <si>
-    <t>6659 PATRIKA (25193 (Padding))</t>
-  </si>
-  <si>
-    <t>6660 PATRIKA (25194 (Padding))</t>
-  </si>
-  <si>
-    <t>6661 PATRIKA *-* (M) (1281)</t>
-  </si>
-  <si>
-    <t>6662 PATRIKA (3424)</t>
-  </si>
-  <si>
-    <t>6663 PATRIKA (7103 (PADDING))</t>
-  </si>
-  <si>
-    <t>6664 PATRIKA *-* (M) (5823)</t>
-  </si>
-  <si>
-    <t>6665 PATRIKA *-* (M) (603 DHANESH)</t>
-  </si>
-  <si>
-    <t>6667 PATRIKA *-* (M) (1192 SBC)</t>
-  </si>
-  <si>
-    <t>6668 PATRIKA (DCU) (8102)</t>
-  </si>
-  <si>
-    <t>6669 PATRIKA (DCU) (6197)</t>
-  </si>
-  <si>
-    <t>6670 PATRIKA - B (M) (1868-B)</t>
-  </si>
-  <si>
-    <t>6670 PATRIKA *-* (M) (1868)</t>
-  </si>
-  <si>
-    <t>6671 PATRIKA *-* (M) (1872)</t>
-  </si>
-  <si>
-    <t>6672 PATRIKA *-* (M) (6132)</t>
-  </si>
-  <si>
-    <t>6673 PATRIKA (DCU) (6196)</t>
-  </si>
-  <si>
-    <t>6674 PATRIKA (DCU) (1503)</t>
-  </si>
-  <si>
-    <t>6675 PATRIKA *-* (M) (1282)</t>
-  </si>
-  <si>
-    <t>6676 PATRIKA (DCU) (533 KBC)</t>
-  </si>
-  <si>
-    <t>6677 PATRIKA (DCU) (25191 PADDING)</t>
-  </si>
-  <si>
-    <t>7265 PATRIKA (O.C.) (133)</t>
-  </si>
-  <si>
-    <t>7283 PATRIKA {F} (O.C.) (4148)</t>
-  </si>
-  <si>
-    <t>7287 PATRIKA (O.C.) (1522)</t>
-  </si>
-  <si>
-    <t>7288 PATRIKA (O.C.) (1178)</t>
-  </si>
-  <si>
-    <t>7293 PATRIKA (O.C.) (AS-20)</t>
-  </si>
-  <si>
-    <t>7309 PATRIKA (O.C.) (4087)</t>
-  </si>
-  <si>
-    <t>7312 PATRIKA (O.C.) (SBC 7312)</t>
-  </si>
-  <si>
-    <t>7319 PATRIKA (O.C.) (2204)</t>
-  </si>
-  <si>
-    <t>7332 PATRIKA (O.C.) (2482)</t>
-  </si>
-  <si>
-    <t>7342 PATRIKA (O.C.) (12)</t>
-  </si>
-  <si>
-    <t>7344 PATRIKA (O.C.) (INV B.P. RED (11))</t>
-  </si>
-  <si>
-    <t>7345 PATRIKA (O.C.) (INV B.P. GOLDEN (120) 5)</t>
-  </si>
-  <si>
-    <t>7401 PATRIKA (25/252)</t>
-  </si>
-  <si>
-    <t>7402 PATRIKA (25/264-263)</t>
-  </si>
-  <si>
-    <t>7403 PATRIKA (25/363/863)</t>
-  </si>
-  <si>
-    <t>7404 PATRIKA (25/283)</t>
-  </si>
-  <si>
-    <t>7405 PATRIKA (25/273)</t>
-  </si>
-  <si>
-    <t>7406 PATRIKA (25/172)</t>
-  </si>
-  <si>
-    <t>7407 PATRIKA *-* (F) (7145 VP)</t>
-  </si>
-  <si>
-    <t>7408 PATRIKA (DCU) (25895)</t>
-  </si>
-  <si>
-    <t>7409 PATRIKA (2521)</t>
-  </si>
-  <si>
-    <t>7410 PATRIKA (2526)</t>
-  </si>
-  <si>
-    <t>7411 PATRIKA (2535)</t>
-  </si>
-  <si>
-    <t>7413 PATRIKA (2543 INV OFFSET)</t>
-  </si>
-  <si>
-    <t>7414 PATRIKA (1015 GREEN OFFSET)</t>
-  </si>
-  <si>
-    <t>7415 PATRIKA *-* (F) (3162 SBC)</t>
-  </si>
-  <si>
-    <t>7416 PATRIKA (2234)</t>
-  </si>
-  <si>
-    <t>7417 PATRIKA (S-201 INV)</t>
-  </si>
-  <si>
-    <t>7418 PATRIKA *-* (डोरी) (1639)</t>
-  </si>
-  <si>
-    <t>7419 PATRIKA (5121)</t>
-  </si>
-  <si>
-    <t>7420 PATRIKA (720)</t>
-  </si>
-  <si>
-    <t>7421 PATRIKA *-* (F) (25-146)</t>
-  </si>
-  <si>
-    <t>7422 PATRIKA (3702)</t>
-  </si>
-  <si>
-    <t>7423 PATRIKA (254 SBC)</t>
-  </si>
-  <si>
-    <t>7424 PATRIKA *-* (F) (25-047)</t>
-  </si>
-  <si>
-    <t>7425 PATRIKA (2082)</t>
-  </si>
-  <si>
-    <t>7426 PATRIKA (F/G) *-* (4052)</t>
-  </si>
-  <si>
-    <t>7427 PATRIKA (2103)</t>
-  </si>
-  <si>
-    <t>7428 PATRIKA (1223 SBC)</t>
-  </si>
-  <si>
-    <t>7429 PATRIKA (F/G) *-* (1851 MONARCH)</t>
-  </si>
-  <si>
-    <t>7430 PATRIKA (6310 GE)</t>
-  </si>
-  <si>
-    <t>7431 PATRIKA (2532)</t>
-  </si>
-  <si>
-    <t>7432 PATRIKA (1174)</t>
-  </si>
-  <si>
-    <t>7433 PATRIKA (1034)</t>
-  </si>
-  <si>
-    <t>7434 PATRIKA (2204 INV)</t>
-  </si>
-  <si>
-    <t>7435 PATRIKA (06)</t>
-  </si>
-  <si>
-    <t>7436 PATRIKA (303)</t>
-  </si>
-  <si>
-    <t>7437 PATRIKA (25323 INV)</t>
-  </si>
-  <si>
-    <t>7438 PATRIKA (25413)</t>
-  </si>
-  <si>
-    <t>7439 PATRIKA (2597)</t>
-  </si>
-  <si>
-    <t>7440 PATRIKA (25896)</t>
-  </si>
-  <si>
-    <t>7441 PATRIKA *-* (F) (243-C)</t>
-  </si>
-  <si>
-    <t>7442 PATRIKA (1855)</t>
-  </si>
-  <si>
-    <t>7443 PATRIKA (1044 SBC)</t>
-  </si>
-  <si>
-    <t>7444 PATRIKA (2014)</t>
-  </si>
-  <si>
-    <t>7445 PATRIKA (2006)</t>
-  </si>
-  <si>
-    <t>7446 PATRIKA (DCU) (6106)</t>
-  </si>
-  <si>
-    <t>7447 PATRIKA (GOPAL 32)</t>
-  </si>
-  <si>
-    <t>7448 PATRIKA (2005- G)</t>
-  </si>
-  <si>
-    <t>7449 PATRIKA (5180)</t>
-  </si>
-  <si>
-    <t>7450 PATRIKA (DCU) (3753)</t>
-  </si>
-  <si>
-    <t>7451 PATRIKA (273 NEHA)</t>
-  </si>
-  <si>
-    <t>7452 PATRIKA (278-B)</t>
-  </si>
-  <si>
-    <t>7453 PATRIKA (ECO - 61) (NEW ECO 61)</t>
-  </si>
-  <si>
-    <t>7454 PATRIKA (ECO -63) (NEW ECO 63)</t>
-  </si>
-  <si>
-    <t>9001 CARD (O.C.) (2498 Cream)</t>
+    <t>4251 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>4252 PATRIKA</t>
+  </si>
+  <si>
+    <t>4253 PATRIKA</t>
+  </si>
+  <si>
+    <t>4254 PATRIKA (4210)</t>
+  </si>
+  <si>
+    <t>4255 PATRIKA - B (DCU)</t>
+  </si>
+  <si>
+    <t>4255 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>4257 PATRIKA</t>
+  </si>
+  <si>
+    <t>4258 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>4259 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>4260 PATRIKA</t>
+  </si>
+  <si>
+    <t>4261 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>4262 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>4264 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>4265 PATRIKA</t>
+  </si>
+  <si>
+    <t>4266 PATRIKA</t>
+  </si>
+  <si>
+    <t>4267 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>4268 PATRIKA (JC) *-* (M+T)</t>
+  </si>
+  <si>
+    <t>4269 PATRIKA</t>
+  </si>
+  <si>
+    <t>4270 PATRIKA</t>
+  </si>
+  <si>
+    <t>4271 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>4272 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>4273 PATRIKA</t>
+  </si>
+  <si>
+    <t>4274 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>4275 PATRIKA</t>
+  </si>
+  <si>
+    <t>4277 PATRIKA (JC) *-* (M)</t>
+  </si>
+  <si>
+    <t>4278 PATRIKA</t>
+  </si>
+  <si>
+    <t>4279 PATRIKA</t>
+  </si>
+  <si>
+    <t>4280 PATRIKA</t>
+  </si>
+  <si>
+    <t>4281 PATRIKA</t>
+  </si>
+  <si>
+    <t>4282 PATRIKA</t>
+  </si>
+  <si>
+    <t>4283 PATRIKA - B (YELLOW)</t>
+  </si>
+  <si>
+    <t>4284 PATRIKA</t>
+  </si>
+  <si>
+    <t>4285 PATRIKA (JC) *-* (M)</t>
+  </si>
+  <si>
+    <t>4286 PATRIKA</t>
+  </si>
+  <si>
+    <t>4287 PATRIKA</t>
+  </si>
+  <si>
+    <t>4288 PATRIKA</t>
+  </si>
+  <si>
+    <t>4289 PATRIKA</t>
+  </si>
+  <si>
+    <t>4290 PATRIKA</t>
+  </si>
+  <si>
+    <t>4291 PATRIKA</t>
+  </si>
+  <si>
+    <t>4292 PATRIKA</t>
+  </si>
+  <si>
+    <t>4293 PATRIKA</t>
+  </si>
+  <si>
+    <t>4294 PATRIKA</t>
+  </si>
+  <si>
+    <t>4295 PATRIKA</t>
+  </si>
+  <si>
+    <t>4296 PATRIKA</t>
+  </si>
+  <si>
+    <t>4297 PATRIKA</t>
+  </si>
+  <si>
+    <t>4298 PATRIKA</t>
+  </si>
+  <si>
+    <t>4299 PATRIKA</t>
+  </si>
+  <si>
+    <t>4300 PATRIKA</t>
+  </si>
+  <si>
+    <t>4301 PATRIKA</t>
+  </si>
+  <si>
+    <t>4302 PATRIKA</t>
+  </si>
+  <si>
+    <t>4303 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>4304 PATRIKA</t>
+  </si>
+  <si>
+    <t>4305 PATRIKA</t>
+  </si>
+  <si>
+    <t>4307 PATRIKA</t>
+  </si>
+  <si>
+    <t>4308 PATRIKA</t>
+  </si>
+  <si>
+    <t>4309 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>4310 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>4311 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>4312 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>4314 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>4315 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>4316 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>5051 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5052 PATRIKA</t>
+  </si>
+  <si>
+    <t>5053 PATRIKA</t>
+  </si>
+  <si>
+    <t>5054 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5055 PATRIKA</t>
+  </si>
+  <si>
+    <t>5056 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>5057 PATRIKA</t>
+  </si>
+  <si>
+    <t>5058 PATRIKA</t>
+  </si>
+  <si>
+    <t>5059 PATRIKA</t>
+  </si>
+  <si>
+    <t>5060 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>5061 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>5062 PATRIKA</t>
+  </si>
+  <si>
+    <t>5063 PATRIKA</t>
+  </si>
+  <si>
+    <t>5064 PATRIKA</t>
+  </si>
+  <si>
+    <t>5065 PATRIKA</t>
+  </si>
+  <si>
+    <t>5066 PATRIKA</t>
+  </si>
+  <si>
+    <t>5067 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>5071 PATRIKA *-* (डोरी)</t>
+  </si>
+  <si>
+    <t>5072 PATRIKA</t>
+  </si>
+  <si>
+    <t>5073 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5074 PATRIKA</t>
+  </si>
+  <si>
+    <t>5075 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>5076 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>5077 PATRIKA</t>
+  </si>
+  <si>
+    <t>5079 PATRIKA</t>
+  </si>
+  <si>
+    <t>5080 PATRIKA</t>
+  </si>
+  <si>
+    <t>5081 PATRIKA</t>
+  </si>
+  <si>
+    <t>5083 PATRIKA</t>
+  </si>
+  <si>
+    <t>5084 PATRIKA</t>
+  </si>
+  <si>
+    <t>5085 PATRIKA</t>
+  </si>
+  <si>
+    <t>5086 PATRIKA (JC) *-* (M+D)</t>
+  </si>
+  <si>
+    <t>5088 PATRIKA</t>
+  </si>
+  <si>
+    <t>5089 PATRIKA</t>
+  </si>
+  <si>
+    <t>5090 PATRIKA</t>
+  </si>
+  <si>
+    <t>5092 PATRIKA</t>
+  </si>
+  <si>
+    <t>5093 PATRIKA</t>
+  </si>
+  <si>
+    <t>5094 PATRIKA</t>
+  </si>
+  <si>
+    <t>5095 PATRIKA</t>
+  </si>
+  <si>
+    <t>5096 PATRIKA</t>
+  </si>
+  <si>
+    <t>5097 PATRIKA</t>
+  </si>
+  <si>
+    <t>5098 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5099 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5100 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>5102 PATRIKA (5021)</t>
+  </si>
+  <si>
+    <t>5103 PATRIKA</t>
+  </si>
+  <si>
+    <t>5104 PATRIKA</t>
+  </si>
+  <si>
+    <t>5105 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>5106 PATRIKA</t>
+  </si>
+  <si>
+    <t>5107 PATRIKA</t>
+  </si>
+  <si>
+    <t>5108 PATRIKA</t>
+  </si>
+  <si>
+    <t>5109 PATRIKA</t>
+  </si>
+  <si>
+    <t>5110 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>5111 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>5112 PATRIKA (JC) *-* (M)</t>
+  </si>
+  <si>
+    <t>5113 PATRIKA</t>
+  </si>
+  <si>
+    <t>5114 PATRIKA *-* (डोरी)</t>
+  </si>
+  <si>
+    <t>5115 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>5116 PATRIKA</t>
+  </si>
+  <si>
+    <t>5117 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>5118 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>5502 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5503 PATRIKA</t>
+  </si>
+  <si>
+    <t>5504 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>5505 PATRIKA (JC) *-* (M)</t>
+  </si>
+  <si>
+    <t>5506 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5508 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>5509 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>5510 PATRIKA (JC) *-* (M)</t>
+  </si>
+  <si>
+    <t>5511 PATRIKA (JC) *-* (M)</t>
+  </si>
+  <si>
+    <t>5512 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>5513 PATRIKA</t>
+  </si>
+  <si>
+    <t>5514 PATRIKA</t>
+  </si>
+  <si>
+    <t>5515 PATRIKA</t>
+  </si>
+  <si>
+    <t>5516 PATRIKA (JC) *-* (M)</t>
+  </si>
+  <si>
+    <t>5517 PATRIKA *-* (M) (Patti Aayegi)</t>
+  </si>
+  <si>
+    <t>5518 PATRIKA (JC) *-* (M)</t>
+  </si>
+  <si>
+    <t>5519 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5520 PATRIKA</t>
+  </si>
+  <si>
+    <t>5521 PATRIKA (JC) *-* (M)</t>
+  </si>
+  <si>
+    <t>5522 PATRIKA</t>
+  </si>
+  <si>
+    <t>5523 PATRIKA</t>
+  </si>
+  <si>
+    <t>5524 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>5525 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5526 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>5527 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>5528 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5529 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5530 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5531 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>5532 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5533 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5534 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5535 PATRIKA (JC) *-* (M)</t>
+  </si>
+  <si>
+    <t>5537 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>5538 PATRIKA (JC) *-* (M)</t>
+  </si>
+  <si>
+    <t>5539 PATRIKA-B</t>
+  </si>
+  <si>
+    <t>5539 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>5540 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5542 PATRIKA</t>
+  </si>
+  <si>
+    <t>5543 PATRIKA</t>
+  </si>
+  <si>
+    <t>5544 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5545 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5546 PATRIKA</t>
+  </si>
+  <si>
+    <t>5547 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5548 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>5549 PATRIKA</t>
+  </si>
+  <si>
+    <t>5550 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5551 PATRIKA</t>
+  </si>
+  <si>
+    <t>5552 PATRIKA (JC) *-* (M)</t>
+  </si>
+  <si>
+    <t>5553 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5554 PATRIKA *-* (F/G)</t>
+  </si>
+  <si>
+    <t>5555 PATRIKA</t>
+  </si>
+  <si>
+    <t>5556 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5557 PATRIKA</t>
+  </si>
+  <si>
+    <t>5558 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5559 PATRIKA</t>
+  </si>
+  <si>
+    <t>5560 PATRIKA (F/G) *-*</t>
+  </si>
+  <si>
+    <t>5561 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5562 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5563 PATRIKA</t>
+  </si>
+  <si>
+    <t>5564 PATRIKA (JC) *-* (M)</t>
+  </si>
+  <si>
+    <t>5565 PATRIKA</t>
+  </si>
+  <si>
+    <t>5566 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5567 PATRIKA</t>
+  </si>
+  <si>
+    <t>5568 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5569 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5570 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5571 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5572 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5573 PATRIKA</t>
+  </si>
+  <si>
+    <t>5574 PATRIKA</t>
+  </si>
+  <si>
+    <t>5575 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5576 PATRIKA</t>
+  </si>
+  <si>
+    <t>5577 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5578 PATRIKA (JC) *-* (M)</t>
+  </si>
+  <si>
+    <t>5579 PATRIKA (JC) *-* (M)</t>
+  </si>
+  <si>
+    <t>5580 PATRIKA</t>
+  </si>
+  <si>
+    <t>5581 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5582 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5583 PATRIKA</t>
+  </si>
+  <si>
+    <t>5584 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>5585 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5586 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5587 PATRIKA</t>
+  </si>
+  <si>
+    <t>5588 PATRIKA (JC) *-* (M)</t>
+  </si>
+  <si>
+    <t>5589 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5590 PATRIKA</t>
+  </si>
+  <si>
+    <t>5592 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5593 PATRIKA</t>
+  </si>
+  <si>
+    <t>5595 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5596 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5597 PATRIKA (JC) *-* (M)</t>
+  </si>
+  <si>
+    <t>5599 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5601 PATRIKA</t>
+  </si>
+  <si>
+    <t>5602 PATRIKA</t>
+  </si>
+  <si>
+    <t>5603 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5604 PATRIKA</t>
+  </si>
+  <si>
+    <t>5605 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>5606 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5607 PATRIKA</t>
+  </si>
+  <si>
+    <t>5608 PATRIKA</t>
+  </si>
+  <si>
+    <t>5609 PATRIKA</t>
+  </si>
+  <si>
+    <t>5610 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>5611 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5612 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>5614 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5615 PATRIKA</t>
+  </si>
+  <si>
+    <t>5616 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>5617 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5618 PATRIKA (JC) *-* (M)</t>
+  </si>
+  <si>
+    <t>5619 PATRIKA (JC)</t>
+  </si>
+  <si>
+    <t>5621 PATRIKA (JC) *-* (M)</t>
+  </si>
+  <si>
+    <t>5622 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>5623 PATRIKA</t>
+  </si>
+  <si>
+    <t>5625 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>6601 PATRIKA (L)</t>
+  </si>
+  <si>
+    <t>6602 PATRIKA</t>
+  </si>
+  <si>
+    <t>6603 PATRIKA</t>
+  </si>
+  <si>
+    <t>6604 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6605 PATRIKA</t>
+  </si>
+  <si>
+    <t>6606 PATRIKA (*-*) R</t>
+  </si>
+  <si>
+    <t>6607 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6608 PATRIKA</t>
+  </si>
+  <si>
+    <t>6609 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6610 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6611 PATRIKA</t>
+  </si>
+  <si>
+    <t>6612 PATRIKA</t>
+  </si>
+  <si>
+    <t>6613 PATRIKA</t>
+  </si>
+  <si>
+    <t>6614 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>6615 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6616 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6617 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6618 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6619 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6620 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6621 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6622 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6623 PATRIKA</t>
+  </si>
+  <si>
+    <t>6624 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6625 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6626 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6627 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6628 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6629 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6630 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6631 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>6632 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>6633 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6634 PATRIKA</t>
+  </si>
+  <si>
+    <t>6635 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6636 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6637 PATRIKA</t>
+  </si>
+  <si>
+    <t>6638 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6639 PATRIKA (B)</t>
+  </si>
+  <si>
+    <t>6640 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6641 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6642 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6643 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6644 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>6645 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6646 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6647 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6648 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6649 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6650 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6651 PATRIKA</t>
+  </si>
+  <si>
+    <t>6652 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6653 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6654 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6655 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6656 PATRIKA (L)</t>
+  </si>
+  <si>
+    <t>6657 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6658 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6659 PATRIKA</t>
+  </si>
+  <si>
+    <t>6660 PATRIKA</t>
+  </si>
+  <si>
+    <t>6661 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6662 PATRIKA</t>
+  </si>
+  <si>
+    <t>6663 PATRIKA</t>
+  </si>
+  <si>
+    <t>6664 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6665 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6667 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6668 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>6669 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>6670 PATRIKA - B (M)</t>
+  </si>
+  <si>
+    <t>6670 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6671 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6672 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6673 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>6674 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>6675 PATRIKA *-* (M)</t>
+  </si>
+  <si>
+    <t>6676 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>6677 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>7265 PATRIKA (O.C.)</t>
+  </si>
+  <si>
+    <t>7283 PATRIKA {F} (O.C.)</t>
+  </si>
+  <si>
+    <t>7287 PATRIKA (O.C.)</t>
+  </si>
+  <si>
+    <t>7288 PATRIKA (O.C.)</t>
+  </si>
+  <si>
+    <t>7293 PATRIKA (O.C.)</t>
+  </si>
+  <si>
+    <t>7309 PATRIKA (O.C.)</t>
+  </si>
+  <si>
+    <t>7312 PATRIKA (O.C.)</t>
+  </si>
+  <si>
+    <t>7319 PATRIKA (O.C.)</t>
+  </si>
+  <si>
+    <t>7332 PATRIKA (O.C.)</t>
+  </si>
+  <si>
+    <t>7342 PATRIKA (O.C.)</t>
+  </si>
+  <si>
+    <t>7344 PATRIKA (O.C.)</t>
+  </si>
+  <si>
+    <t>7345 PATRIKA (O.C.)</t>
+  </si>
+  <si>
+    <t>7401 PATRIKA</t>
+  </si>
+  <si>
+    <t>7402 PATRIKA</t>
+  </si>
+  <si>
+    <t>7403 PATRIKA</t>
+  </si>
+  <si>
+    <t>7404 PATRIKA</t>
+  </si>
+  <si>
+    <t>7405 PATRIKA</t>
+  </si>
+  <si>
+    <t>7406 PATRIKA</t>
+  </si>
+  <si>
+    <t>7407 PATRIKA *-* (F)</t>
+  </si>
+  <si>
+    <t>7408 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>7409 PATRIKA</t>
+  </si>
+  <si>
+    <t>7410 PATRIKA</t>
+  </si>
+  <si>
+    <t>7411 PATRIKA</t>
+  </si>
+  <si>
+    <t>7413 PATRIKA</t>
+  </si>
+  <si>
+    <t>7414 PATRIKA</t>
+  </si>
+  <si>
+    <t>7415 PATRIKA *-* (F)</t>
+  </si>
+  <si>
+    <t>7416 PATRIKA</t>
+  </si>
+  <si>
+    <t>7417 PATRIKA</t>
+  </si>
+  <si>
+    <t>7418 PATRIKA *-* (डोरी)</t>
+  </si>
+  <si>
+    <t>7419 PATRIKA</t>
+  </si>
+  <si>
+    <t>7420 PATRIKA</t>
+  </si>
+  <si>
+    <t>7421 PATRIKA *-* (F)</t>
+  </si>
+  <si>
+    <t>7422 PATRIKA</t>
+  </si>
+  <si>
+    <t>7423 PATRIKA</t>
+  </si>
+  <si>
+    <t>7424 PATRIKA *-* (F)</t>
+  </si>
+  <si>
+    <t>7425 PATRIKA</t>
+  </si>
+  <si>
+    <t>7426 PATRIKA (F/G) *-*</t>
+  </si>
+  <si>
+    <t>7427 PATRIKA</t>
+  </si>
+  <si>
+    <t>7428 PATRIKA</t>
+  </si>
+  <si>
+    <t>7429 PATRIKA (F/G) *-*</t>
+  </si>
+  <si>
+    <t>7430 PATRIKA</t>
+  </si>
+  <si>
+    <t>7431 PATRIKA</t>
+  </si>
+  <si>
+    <t>7432 PATRIKA</t>
+  </si>
+  <si>
+    <t>7433 PATRIKA</t>
+  </si>
+  <si>
+    <t>7434 PATRIKA</t>
+  </si>
+  <si>
+    <t>7435 PATRIKA</t>
+  </si>
+  <si>
+    <t>7436 PATRIKA</t>
+  </si>
+  <si>
+    <t>7437 PATRIKA</t>
+  </si>
+  <si>
+    <t>7438 PATRIKA</t>
+  </si>
+  <si>
+    <t>7439 PATRIKA</t>
+  </si>
+  <si>
+    <t>7440 PATRIKA</t>
+  </si>
+  <si>
+    <t>7441 PATRIKA *-* (F)</t>
+  </si>
+  <si>
+    <t>7442 PATRIKA</t>
+  </si>
+  <si>
+    <t>7443 PATRIKA</t>
+  </si>
+  <si>
+    <t>7444 PATRIKA</t>
+  </si>
+  <si>
+    <t>7445 PATRIKA</t>
+  </si>
+  <si>
+    <t>7446 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>7447 PATRIKA</t>
+  </si>
+  <si>
+    <t>7448 PATRIKA</t>
+  </si>
+  <si>
+    <t>7449 PATRIKA</t>
+  </si>
+  <si>
+    <t>7450 PATRIKA (DCU)</t>
+  </si>
+  <si>
+    <t>7451 PATRIKA</t>
+  </si>
+  <si>
+    <t>7452 PATRIKA</t>
+  </si>
+  <si>
+    <t>7453 PATRIKA (ECO - 61)</t>
+  </si>
+  <si>
+    <t>7454 PATRIKA (ECO -63)</t>
+  </si>
+  <si>
+    <t>9001 CARD (O.C.)</t>
   </si>
   <si>
     <t>9221 CARDS - YELLOW</t>
@@ -1688,268 +1688,268 @@
     <t>9227 CARDS (9*5 OFFSET)</t>
   </si>
   <si>
-    <t>9228 CARDS (Y) (ORANGE WITH ONLY FOIL)</t>
-  </si>
-  <si>
-    <t>9229 CARDS - B (DCU) (GOLDEN WITH GANESH JI &amp; FOIL)</t>
-  </si>
-  <si>
-    <t>9229 CARDS (C) (CREAM WITH GANESH JI &amp; FOIL)</t>
+    <t>9228 CARDS (Y)</t>
+  </si>
+  <si>
+    <t>9229 CARDS - B (DCU)</t>
+  </si>
+  <si>
+    <t>9229 CARDS (C)</t>
   </si>
   <si>
     <t>9230 (CARD) 9*5 SCREEN</t>
   </si>
   <si>
-    <t>9231 CARDS (DCU) (RIYAZ 9*5 PINK)</t>
-  </si>
-  <si>
-    <t>9232 CARDS (DCU) (RIYAZ 9*5 CREAM)</t>
-  </si>
-  <si>
-    <t>9233 CARDS (DCU) (RIYAZ 9*5 YELLOW)</t>
-  </si>
-  <si>
-    <t>9235 CARDS (DCU) (RIYAZ 9*4 CREAM)</t>
-  </si>
-  <si>
-    <t>9236 CARDS (DCU) (RIYAZ 9*4 YELLOW)</t>
-  </si>
-  <si>
-    <t>9237 CARDS (DCU) (DCU 9*4 RED)</t>
-  </si>
-  <si>
-    <t>9301 CARDS (4242)</t>
-  </si>
-  <si>
-    <t>9302 CARDS (5076)</t>
-  </si>
-  <si>
-    <t>9303 CARDS (5080 Pink)</t>
-  </si>
-  <si>
-    <t>9304 CARDS (5083 Blue)</t>
-  </si>
-  <si>
-    <t>9305 CARDS (9070) (4701 Nice)</t>
-  </si>
-  <si>
-    <t>9306 CARDS (0543 Nice)</t>
-  </si>
-  <si>
-    <t>9307 CARDS *-* (M) (5243 Nice)</t>
-  </si>
-  <si>
-    <t>9308 CARDS (9852)</t>
-  </si>
-  <si>
-    <t>9309 CARDS *-* (T) (9561 Vp)</t>
-  </si>
-  <si>
-    <t>9310 CARDS (3103)</t>
-  </si>
-  <si>
-    <t>9311 CARDS (3115)</t>
-  </si>
-  <si>
-    <t>9312 CARDS *-* (T) (208 VV)</t>
-  </si>
-  <si>
-    <t>9313 CARDS *-* (T) (216)</t>
-  </si>
-  <si>
-    <t>9314 CARDS (P-1)</t>
-  </si>
-  <si>
-    <t>9315 CARDS (DCU) (P-2)</t>
-  </si>
-  <si>
-    <t>9316 CARDS (DCU) (P-3)</t>
-  </si>
-  <si>
-    <t>9317 CARDS (P-4)</t>
-  </si>
-  <si>
-    <t>9318 CARDS (25905)</t>
-  </si>
-  <si>
-    <t>9320 CARDS (S-20)</t>
-  </si>
-  <si>
-    <t>9321 CARDS (22912 GANESH JI)</t>
-  </si>
-  <si>
-    <t>9322 CARDS *-* (M) (22912 COMMON)</t>
-  </si>
-  <si>
-    <t>9323 CARDS (9005 OLD) (9*5 CREAM FOIL NEW)</t>
-  </si>
-  <si>
-    <t>9324 CARDS (9*5 PINK FOIL NEW)</t>
-  </si>
-  <si>
-    <t>9325 CARDS (5229)</t>
-  </si>
-  <si>
-    <t>9326 CARDS (1601)</t>
-  </si>
-  <si>
-    <t>9327 CARDS (25908)</t>
-  </si>
-  <si>
-    <t>9328 CARDS (2543)</t>
-  </si>
-  <si>
-    <t>9329 CARDS (Desgin H/d) (3606)</t>
-  </si>
-  <si>
-    <t>9330 CARDS *-* (T) (9557)</t>
-  </si>
-  <si>
-    <t>9331 CARDS *-*  (T) (9560)</t>
-  </si>
-  <si>
-    <t>9332 CARDS (9847)</t>
-  </si>
-  <si>
-    <t>9333 CARDS (6042)</t>
-  </si>
-  <si>
-    <t>9334 CARDS (10X6 WHITE (2898))</t>
-  </si>
-  <si>
-    <t>9335 CARDS (9003 OLD) (9*5 WHITE)</t>
-  </si>
-  <si>
-    <t>9336 CARDS (2884)</t>
-  </si>
-  <si>
-    <t>9337 CARDS (1635 AP)</t>
-  </si>
-  <si>
-    <t>9338 CARDS (1637 AP)</t>
-  </si>
-  <si>
-    <t>9339 CARDS (5361)</t>
-  </si>
-  <si>
-    <t>9340 CARDS (5658)</t>
-  </si>
-  <si>
-    <t>9341 CARDS (5497)</t>
-  </si>
-  <si>
-    <t>9342 CARDS (2861)</t>
-  </si>
-  <si>
-    <t>9343 CARDS (9*5 WHTE GE HEAVY)</t>
-  </si>
-  <si>
-    <t>9344 CARDS (689)</t>
-  </si>
-  <si>
-    <t>9345 CARDS (358 KALYANI)</t>
-  </si>
-  <si>
-    <t>9346 CARDS (359)</t>
-  </si>
-  <si>
-    <t>9347 CARDS (2853)</t>
-  </si>
-  <si>
-    <t>9348 CARDS *-* (डोरी) (S-124)</t>
-  </si>
-  <si>
-    <t>9349 CARDS (W/o Window) (S-120)</t>
-  </si>
-  <si>
-    <t>9350 CARDS *-* (T) (1632)</t>
-  </si>
-  <si>
-    <t>9351 Card - B (1603 B)</t>
-  </si>
-  <si>
-    <t>9351 CARDS *-* (T) (1603)</t>
-  </si>
-  <si>
-    <t>9352 CARDS *-* (T) (1606 AP)</t>
-  </si>
-  <si>
-    <t>9353 CARDS (1618)</t>
-  </si>
-  <si>
-    <t>9354 CARDS (DCU) (345)</t>
-  </si>
-  <si>
-    <t>9355 CARDS (1624)</t>
-  </si>
-  <si>
-    <t>9356 CARDS (2895/2897)</t>
-  </si>
-  <si>
-    <t>9357 CARDS (2872)</t>
-  </si>
-  <si>
-    <t>9358 CARDS (WHITE PATTA)</t>
-  </si>
-  <si>
-    <t>9359 CARDS (PITCH PATTA)</t>
-  </si>
-  <si>
-    <t>9360 CARDS *-* (M) (GOL ANDA)</t>
-  </si>
-  <si>
-    <t>9361 CARDS (25426)</t>
-  </si>
-  <si>
-    <t>9362 CARDS (363)</t>
-  </si>
-  <si>
-    <t>9363 CARDS *-* (T) (1652)</t>
-  </si>
-  <si>
-    <t>9364 CARDS *-* (T) (1612)</t>
-  </si>
-  <si>
-    <t>9365 CARDS (25429)</t>
-  </si>
-  <si>
-    <t>9366 CARDS (25427 GOLDEN)</t>
-  </si>
-  <si>
-    <t>9367 CARDS (5652)</t>
-  </si>
-  <si>
-    <t>9368 CARDS (9*5 SET 25/26 GOLDEN (25425))</t>
-  </si>
-  <si>
-    <t>9369 CARDS (9*5 SET 25/26 YELLOW (25424))</t>
-  </si>
-  <si>
-    <t>9370 CARDS (9*5 SET 25/26 RED (25423))</t>
-  </si>
-  <si>
-    <t>9371 CARDS (3111 VP)</t>
-  </si>
-  <si>
-    <t>9372 CARDS (9*5 YLW SET (2841))</t>
-  </si>
-  <si>
-    <t>9373 CARDS (1482)</t>
-  </si>
-  <si>
-    <t>9374 CARDS (1485)</t>
-  </si>
-  <si>
-    <t>9375 CARDS (1452 WHITE)</t>
-  </si>
-  <si>
-    <t>9376 CARDS (1529 PRINCE)</t>
-  </si>
-  <si>
-    <t>9377 CARDS (DCU) (9*5 SET GREEN (009))</t>
-  </si>
-  <si>
-    <t>9378 CARDS (2892)</t>
+    <t>9231 CARDS (DCU)</t>
+  </si>
+  <si>
+    <t>9232 CARDS (DCU)</t>
+  </si>
+  <si>
+    <t>9233 CARDS (DCU)</t>
+  </si>
+  <si>
+    <t>9235 CARDS (DCU)</t>
+  </si>
+  <si>
+    <t>9236 CARDS (DCU)</t>
+  </si>
+  <si>
+    <t>9237 CARDS (DCU)</t>
+  </si>
+  <si>
+    <t>9301 CARDS</t>
+  </si>
+  <si>
+    <t>9302 CARDS</t>
+  </si>
+  <si>
+    <t>9303 CARDS</t>
+  </si>
+  <si>
+    <t>9304 CARDS</t>
+  </si>
+  <si>
+    <t>9305 CARDS (9070)</t>
+  </si>
+  <si>
+    <t>9306 CARDS</t>
+  </si>
+  <si>
+    <t>9307 CARDS *-* (M)</t>
+  </si>
+  <si>
+    <t>9308 CARDS</t>
+  </si>
+  <si>
+    <t>9309 CARDS *-* (T)</t>
+  </si>
+  <si>
+    <t>9310 CARDS</t>
+  </si>
+  <si>
+    <t>9311 CARDS</t>
+  </si>
+  <si>
+    <t>9312 CARDS *-* (T)</t>
+  </si>
+  <si>
+    <t>9313 CARDS *-* (T)</t>
+  </si>
+  <si>
+    <t>9314 CARDS</t>
+  </si>
+  <si>
+    <t>9315 CARDS (DCU)</t>
+  </si>
+  <si>
+    <t>9316 CARDS (DCU)</t>
+  </si>
+  <si>
+    <t>9317 CARDS</t>
+  </si>
+  <si>
+    <t>9318 CARDS</t>
+  </si>
+  <si>
+    <t>9320 CARDS</t>
+  </si>
+  <si>
+    <t>9321 CARDS</t>
+  </si>
+  <si>
+    <t>9322 CARDS *-* (M)</t>
+  </si>
+  <si>
+    <t>9323 CARDS (9005 OLD)</t>
+  </si>
+  <si>
+    <t>9324 CARDS</t>
+  </si>
+  <si>
+    <t>9325 CARDS</t>
+  </si>
+  <si>
+    <t>9326 CARDS</t>
+  </si>
+  <si>
+    <t>9327 CARDS</t>
+  </si>
+  <si>
+    <t>9328 CARDS</t>
+  </si>
+  <si>
+    <t>9329 CARDS (Desgin H/d)</t>
+  </si>
+  <si>
+    <t>9330 CARDS *-* (T)</t>
+  </si>
+  <si>
+    <t>9331 CARDS *-*  (T)</t>
+  </si>
+  <si>
+    <t>9332 CARDS</t>
+  </si>
+  <si>
+    <t>9333 CARDS</t>
+  </si>
+  <si>
+    <t>9334 CARDS</t>
+  </si>
+  <si>
+    <t>9335 CARDS (9003 OLD)</t>
+  </si>
+  <si>
+    <t>9336 CARDS</t>
+  </si>
+  <si>
+    <t>9337 CARDS</t>
+  </si>
+  <si>
+    <t>9338 CARDS</t>
+  </si>
+  <si>
+    <t>9339 CARDS</t>
+  </si>
+  <si>
+    <t>9340 CARDS</t>
+  </si>
+  <si>
+    <t>9341 CARDS</t>
+  </si>
+  <si>
+    <t>9342 CARDS</t>
+  </si>
+  <si>
+    <t>9343 CARDS</t>
+  </si>
+  <si>
+    <t>9344 CARDS</t>
+  </si>
+  <si>
+    <t>9345 CARDS</t>
+  </si>
+  <si>
+    <t>9346 CARDS</t>
+  </si>
+  <si>
+    <t>9347 CARDS</t>
+  </si>
+  <si>
+    <t>9348 CARDS *-* (डोरी)</t>
+  </si>
+  <si>
+    <t>9349 CARDS (W/o Window)</t>
+  </si>
+  <si>
+    <t>9350 CARDS *-* (T)</t>
+  </si>
+  <si>
+    <t>9351 Card - B</t>
+  </si>
+  <si>
+    <t>9351 CARDS *-* (T)</t>
+  </si>
+  <si>
+    <t>9352 CARDS *-* (T)</t>
+  </si>
+  <si>
+    <t>9353 CARDS</t>
+  </si>
+  <si>
+    <t>9354 CARDS (DCU)</t>
+  </si>
+  <si>
+    <t>9355 CARDS</t>
+  </si>
+  <si>
+    <t>9356 CARDS</t>
+  </si>
+  <si>
+    <t>9357 CARDS</t>
+  </si>
+  <si>
+    <t>9358 CARDS</t>
+  </si>
+  <si>
+    <t>9359 CARDS</t>
+  </si>
+  <si>
+    <t>9360 CARDS *-* (M)</t>
+  </si>
+  <si>
+    <t>9361 CARDS</t>
+  </si>
+  <si>
+    <t>9362 CARDS</t>
+  </si>
+  <si>
+    <t>9363 CARDS *-* (T)</t>
+  </si>
+  <si>
+    <t>9364 CARDS *-* (T)</t>
+  </si>
+  <si>
+    <t>9365 CARDS</t>
+  </si>
+  <si>
+    <t>9366 CARDS</t>
+  </si>
+  <si>
+    <t>9367 CARDS</t>
+  </si>
+  <si>
+    <t>9368 CARDS</t>
+  </si>
+  <si>
+    <t>9369 CARDS</t>
+  </si>
+  <si>
+    <t>9370 CARDS</t>
+  </si>
+  <si>
+    <t>9371 CARDS</t>
+  </si>
+  <si>
+    <t>9372 CARDS</t>
+  </si>
+  <si>
+    <t>9373 CARDS</t>
+  </si>
+  <si>
+    <t>9374 CARDS</t>
+  </si>
+  <si>
+    <t>9375 CARDS</t>
+  </si>
+  <si>
+    <t>9376 CARDS</t>
+  </si>
+  <si>
+    <t>9377 CARDS (DCU)</t>
+  </si>
+  <si>
+    <t>9378 CARDS</t>
   </si>
   <si>
     <t>9379 CARDS - R</t>
@@ -1979,19 +1979,19 @@
     <t>9387 CARDS - GOLDEN (Mil Jayega)</t>
   </si>
   <si>
-    <t>9389 CARDS (9147 RJ)</t>
-  </si>
-  <si>
-    <t>9390 CARDS (DCU) (118KBC)</t>
+    <t>9389 CARDS</t>
+  </si>
+  <si>
+    <t>9390 CARDS (DCU)</t>
   </si>
   <si>
     <t>9391 CARDS</t>
   </si>
   <si>
-    <t>9*4 ENVELOPE (SBC) (CHOTA ENVELOPE (60/40 BILL))</t>
-  </si>
-  <si>
-    <t>9*5 ENVELOPE (FOIL) SBC (BADA ENVLP WITH FOIL (60/40 BILL))</t>
+    <t>9*4 ENVELOPE (SBC)</t>
+  </si>
+  <si>
+    <t>9*5 ENVELOPE (FOIL) SBC</t>
   </si>
   <si>
     <t>ACRYLIC NAME PLATE</t>
@@ -2000,7 +2000,7 @@
     <t>DEV SAMPLE SET</t>
   </si>
   <si>
-    <t>FANCY GIFT ENVELOPE-(SR) (SR ENVELOPES)</t>
+    <t>FANCY GIFT ENVELOPE-(SR)</t>
   </si>
   <si>
     <t>Gift Envelope (Pocket) SR...</t>
@@ -2018,34 +2018,34 @@
     <t>RIBBON (रिबीन)</t>
   </si>
   <si>
-    <t>RX-01 ENVELOPE (LX01)</t>
-  </si>
-  <si>
-    <t>RX-02 ENVELOPE (LX02)</t>
-  </si>
-  <si>
-    <t>RX-03 ENVELOPE (LX03)</t>
-  </si>
-  <si>
-    <t>RX-04 ENVELOPE (LX04)</t>
-  </si>
-  <si>
-    <t>RX-05 ENVELOPE (LX05)</t>
-  </si>
-  <si>
-    <t>RX-06 ENVELOPE (LX06)</t>
-  </si>
-  <si>
-    <t>RX-07 ENVELOPE (LX07)</t>
-  </si>
-  <si>
-    <t>RX-08 ENVELOPE (LX08)</t>
-  </si>
-  <si>
-    <t>RX-09 ENVELOPE (LX09)</t>
-  </si>
-  <si>
-    <t>गोल गणेश / गोल फ्लावर (GOL GANESH OR GOL FLOWER)</t>
+    <t>RX-01 ENVELOPE</t>
+  </si>
+  <si>
+    <t>RX-02 ENVELOPE</t>
+  </si>
+  <si>
+    <t>RX-03 ENVELOPE</t>
+  </si>
+  <si>
+    <t>RX-04 ENVELOPE</t>
+  </si>
+  <si>
+    <t>RX-05 ENVELOPE</t>
+  </si>
+  <si>
+    <t>RX-06 ENVELOPE</t>
+  </si>
+  <si>
+    <t>RX-07 ENVELOPE</t>
+  </si>
+  <si>
+    <t>RX-08 ENVELOPE</t>
+  </si>
+  <si>
+    <t>RX-09 ENVELOPE</t>
+  </si>
+  <si>
+    <t>गोल गणेश / गोल फ्लावर</t>
   </si>
   <si>
     <t>Grand Total</t>
@@ -2578,7 +2578,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
@@ -2768,16 +2768,16 @@
         <v>18</v>
       </c>
       <c r="B15" s="24">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" s="25">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D15" s="26">
         <v>2</v>
       </c>
       <c r="E15" s="27">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -3659,16 +3659,16 @@
         <v>71</v>
       </c>
       <c r="B68" s="24">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C68" s="25">
-        <v>273.5</v>
+        <v>267.5</v>
       </c>
       <c r="D68" s="26">
         <v>1.4</v>
       </c>
       <c r="E68" s="27">
-        <v>382.9</v>
+        <v>374.5</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -3676,16 +3676,16 @@
         <v>72</v>
       </c>
       <c r="B69" s="24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C69" s="25">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D69" s="26">
         <v>1.4</v>
       </c>
       <c r="E69" s="27">
-        <v>392</v>
+        <v>386.4</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -3744,16 +3744,16 @@
         <v>76</v>
       </c>
       <c r="B73" s="24">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C73" s="25">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="D73" s="26">
         <v>1.2</v>
       </c>
       <c r="E73" s="27">
-        <v>752.4</v>
+        <v>742.8</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -3761,16 +3761,16 @@
         <v>77</v>
       </c>
       <c r="B74" s="24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C74" s="25">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="D74" s="26">
         <v>1.2</v>
       </c>
       <c r="E74" s="27">
-        <v>795.6</v>
+        <v>790.8</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -4354,16 +4354,16 @@
         <v>116</v>
       </c>
       <c r="B113" s="24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C113" s="25">
-        <v>346.5</v>
+        <v>306.5</v>
       </c>
       <c r="D113" s="26">
         <v>0.7</v>
       </c>
       <c r="E113" s="27">
-        <v>242.55</v>
+        <v>214.55</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -4569,16 +4569,16 @@
         <v>131</v>
       </c>
       <c r="B128" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C128" s="25">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="D128" s="26">
         <v>12.5</v>
       </c>
       <c r="E128" s="27">
-        <v>262.5</v>
+        <v>243.75</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -4805,16 +4805,16 @@
         <v>145</v>
       </c>
       <c r="B142" s="24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C142" s="25">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D142" s="26">
         <v>18.5</v>
       </c>
       <c r="E142" s="27">
-        <v>92.5</v>
+        <v>277.5</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -5111,16 +5111,16 @@
         <v>163</v>
       </c>
       <c r="B160" s="24">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C160" s="25">
-        <v>83.25</v>
+        <v>58.25</v>
       </c>
       <c r="D160" s="26">
         <v>1</v>
       </c>
       <c r="E160" s="27">
-        <v>83.25</v>
+        <v>58.25</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -5144,15 +5144,17 @@
       <c r="A162" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="B162" s="24"/>
+      <c r="B162" s="24">
+        <v>1</v>
+      </c>
       <c r="C162" s="25">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D162" s="26">
         <v>1.3</v>
       </c>
       <c r="E162" s="27">
-        <v>390</v>
+        <v>384.8</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -5163,13 +5165,13 @@
         <v>65</v>
       </c>
       <c r="C163" s="25">
-        <v>-6.5</v>
+        <v>-22.5</v>
       </c>
       <c r="D163" s="26">
         <v>1.1499999999999999</v>
       </c>
       <c r="E163" s="27">
-        <v>-7.47</v>
+        <v>-25.87</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -5394,16 +5396,16 @@
         <v>180</v>
       </c>
       <c r="B177" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C177" s="25">
-        <v>28.5</v>
+        <v>26.5</v>
       </c>
       <c r="D177" s="26">
         <v>2.76</v>
       </c>
       <c r="E177" s="27">
-        <v>78.72</v>
+        <v>73.19</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -5565,13 +5567,13 @@
         <v>21</v>
       </c>
       <c r="C187" s="25">
-        <v>42.5</v>
+        <v>86.5</v>
       </c>
       <c r="D187" s="26">
         <v>4.5</v>
       </c>
       <c r="E187" s="27">
-        <v>191.25</v>
+        <v>389.25</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -6246,13 +6248,13 @@
         <v>17</v>
       </c>
       <c r="C228" s="25">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="D228" s="26">
         <v>4.8</v>
       </c>
       <c r="E228" s="27">
-        <v>211.2</v>
+        <v>360</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
@@ -6260,16 +6262,16 @@
         <v>232</v>
       </c>
       <c r="B229" s="24">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C229" s="25">
-        <v>35</v>
+        <v>33.5</v>
       </c>
       <c r="D229" s="26">
         <v>6.3</v>
       </c>
       <c r="E229" s="27">
-        <v>220.5</v>
+        <v>211.05</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
@@ -6528,16 +6530,16 @@
         <v>248</v>
       </c>
       <c r="B245" s="24">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C245" s="25">
-        <v>417</v>
+        <v>414.5</v>
       </c>
       <c r="D245" s="26">
         <v>4.28</v>
       </c>
       <c r="E245" s="27">
-        <v>1784.76</v>
+        <v>1774.06</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
@@ -6647,16 +6649,16 @@
         <v>255</v>
       </c>
       <c r="B252" s="24">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C252" s="25">
-        <v>35.369999999999997</v>
+        <v>133.87</v>
       </c>
       <c r="D252" s="26">
         <v>4.25</v>
       </c>
       <c r="E252" s="27">
-        <v>150.32</v>
+        <v>568.95000000000005</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
@@ -6800,16 +6802,16 @@
         <v>264</v>
       </c>
       <c r="B261" s="24">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C261" s="25">
-        <v>63.5</v>
+        <v>62</v>
       </c>
       <c r="D261" s="26">
         <v>6.18</v>
       </c>
       <c r="E261" s="27">
-        <v>392.45</v>
+        <v>383.18</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
@@ -6854,13 +6856,13 @@
         <v>26</v>
       </c>
       <c r="C264" s="25">
-        <v>11</v>
+        <v>161</v>
       </c>
       <c r="D264" s="26">
         <v>5</v>
       </c>
       <c r="E264" s="27">
-        <v>55</v>
+        <v>805</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
@@ -6871,13 +6873,13 @@
         <v>6</v>
       </c>
       <c r="C265" s="25">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="D265" s="26">
         <v>6</v>
       </c>
       <c r="E265" s="27">
-        <v>120</v>
+        <v>312</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
@@ -6939,13 +6941,13 @@
         <v>17</v>
       </c>
       <c r="C269" s="25">
-        <v>47</v>
+        <v>147</v>
       </c>
       <c r="D269" s="26">
         <v>4.5</v>
       </c>
       <c r="E269" s="27">
-        <v>211.5</v>
+        <v>661.5</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
@@ -7019,16 +7021,16 @@
         <v>277</v>
       </c>
       <c r="B274" s="24">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C274" s="25">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D274" s="26">
         <v>6</v>
       </c>
       <c r="E274" s="27">
-        <v>599.96</v>
+        <v>629.95000000000005</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
@@ -7056,13 +7058,13 @@
         <v>22</v>
       </c>
       <c r="C276" s="25">
-        <v>129</v>
+        <v>319</v>
       </c>
       <c r="D276" s="26">
-        <v>4.24</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="E276" s="27">
-        <v>546.78</v>
+        <v>1361.58</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
@@ -7122,13 +7124,13 @@
         <v>23</v>
       </c>
       <c r="C280" s="25">
-        <v>120</v>
+        <v>270</v>
       </c>
       <c r="D280" s="26">
         <v>4.29</v>
       </c>
       <c r="E280" s="27">
-        <v>514.23</v>
+        <v>1158.78</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
@@ -7484,13 +7486,13 @@
         <v>16</v>
       </c>
       <c r="C302" s="25">
-        <v>6.2</v>
+        <v>26.2</v>
       </c>
       <c r="D302" s="26">
         <v>10</v>
       </c>
       <c r="E302" s="27">
-        <v>62</v>
+        <v>262</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
@@ -7896,16 +7898,16 @@
         <v>330</v>
       </c>
       <c r="B327" s="24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C327" s="25">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="D327" s="26">
         <v>7.36</v>
       </c>
       <c r="E327" s="27">
-        <v>92</v>
+        <v>77.28</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
@@ -8152,13 +8154,13 @@
         <v>22</v>
       </c>
       <c r="C342" s="25">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="D342" s="26">
         <v>7.13</v>
       </c>
       <c r="E342" s="27">
-        <v>128.34</v>
+        <v>385.02</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
@@ -8217,16 +8219,16 @@
         <v>349</v>
       </c>
       <c r="B346" s="24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C346" s="25">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D346" s="26">
         <v>8.1999999999999993</v>
       </c>
       <c r="E346" s="27">
-        <v>106.6</v>
+        <v>131.19999999999999</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
@@ -8390,13 +8392,13 @@
         <v>15</v>
       </c>
       <c r="C356" s="25">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="D356" s="26">
         <v>6</v>
       </c>
       <c r="E356" s="27">
-        <v>246</v>
+        <v>402</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
@@ -9088,13 +9090,13 @@
         <v>6</v>
       </c>
       <c r="C398" s="25">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D398" s="26">
         <v>6</v>
       </c>
       <c r="E398" s="27">
-        <v>66</v>
+        <v>210</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
@@ -9285,16 +9287,16 @@
         <v>413</v>
       </c>
       <c r="B410" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C410" s="25">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="D410" s="26">
         <v>11</v>
       </c>
       <c r="E410" s="27">
-        <v>88</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
@@ -9621,16 +9623,16 @@
         <v>433</v>
       </c>
       <c r="B430" s="24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C430" s="25">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="D430" s="26">
         <v>15.5</v>
       </c>
       <c r="E430" s="27">
-        <v>139.5</v>
+        <v>162.75</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
@@ -11255,16 +11257,16 @@
         <v>531</v>
       </c>
       <c r="B528" s="24">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C528" s="25">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="D528" s="26">
         <v>3.5</v>
       </c>
       <c r="E528" s="27">
-        <v>84</v>
+        <v>238</v>
       </c>
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.25">
@@ -11547,10 +11549,10 @@
         <v>549</v>
       </c>
       <c r="B546" s="24">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C546" s="25">
-        <v>96.5</v>
+        <v>94.5</v>
       </c>
       <c r="D546" s="28"/>
       <c r="E546" s="29"/>
@@ -11573,10 +11575,10 @@
         <v>551</v>
       </c>
       <c r="B548" s="24">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C548" s="25">
-        <v>149.9</v>
+        <v>146.9</v>
       </c>
       <c r="D548" s="28"/>
       <c r="E548" s="29"/>
@@ -11603,16 +11605,16 @@
         <v>553</v>
       </c>
       <c r="B550" s="24">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C550" s="25">
-        <v>1106</v>
+        <v>1088</v>
       </c>
       <c r="D550" s="26">
         <v>0.57999999999999996</v>
       </c>
       <c r="E550" s="27">
-        <v>641.48</v>
+        <v>631.04</v>
       </c>
     </row>
     <row r="551" spans="1:5" x14ac:dyDescent="0.25">
@@ -11620,16 +11622,16 @@
         <v>554</v>
       </c>
       <c r="B551" s="24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C551" s="25">
-        <v>564.5</v>
+        <v>554.5</v>
       </c>
       <c r="D551" s="26">
         <v>0.85</v>
       </c>
       <c r="E551" s="27">
-        <v>479.83</v>
+        <v>471.33</v>
       </c>
     </row>
     <row r="552" spans="1:5" x14ac:dyDescent="0.25">
@@ -11815,16 +11817,16 @@
         <v>567</v>
       </c>
       <c r="B564" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C564" s="25">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="D564" s="26">
         <v>8.25</v>
       </c>
       <c r="E564" s="27">
-        <v>61.88</v>
+        <v>45.38</v>
       </c>
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.25">
@@ -13001,16 +13003,16 @@
         <v>637</v>
       </c>
       <c r="B634" s="24">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C634" s="25">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="D634" s="26">
         <v>4.25</v>
       </c>
       <c r="E634" s="27">
-        <v>74.38</v>
+        <v>72.25</v>
       </c>
     </row>
     <row r="635" spans="1:5" x14ac:dyDescent="0.25">
@@ -13321,10 +13323,10 @@
         <v>659</v>
       </c>
       <c r="B656" s="24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C656" s="25">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="D656" s="28"/>
       <c r="E656" s="29"/>
@@ -13475,16 +13477,16 @@
         <v>669</v>
       </c>
       <c r="B666" s="24">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C666" s="25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D666" s="26">
         <v>2.5</v>
       </c>
       <c r="E666" s="27">
-        <v>10</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="667" spans="1:5" x14ac:dyDescent="0.25">
@@ -13557,11 +13559,11 @@
       </c>
       <c r="B671" s="31"/>
       <c r="C671" s="32">
-        <v>38316.33</v>
+        <v>39112.33</v>
       </c>
       <c r="D671" s="33"/>
       <c r="E671" s="34">
-        <v>106673.88</v>
+        <v>111232.19</v>
       </c>
     </row>
   </sheetData>

--- a/data/website stock.xlsx
+++ b/data/website stock.xlsx
@@ -35,7 +35,7 @@
     <t>Stock Group Summary</t>
   </si>
   <si>
-    <t>1-Jul-25 to 12-Dec-25</t>
+    <t>1-Jul-25 to 13-Dec-25</t>
   </si>
   <si>
     <t/>
@@ -3189,16 +3189,16 @@
         <v>42</v>
       </c>
       <c r="B39" s="24">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C39" s="25">
-        <v>45.5</v>
+        <v>49.5</v>
       </c>
       <c r="D39" s="26">
         <v>2.14</v>
       </c>
       <c r="E39" s="27">
-        <v>97.37</v>
+        <v>105.93</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -4664,16 +4664,16 @@
         <v>135</v>
       </c>
       <c r="B132" s="24">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C132" s="25">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="D132" s="26">
         <v>13</v>
       </c>
       <c r="E132" s="27">
-        <v>19.5</v>
+        <v>32.51</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -4781,16 +4781,16 @@
         <v>142</v>
       </c>
       <c r="B139" s="24">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C139" s="25">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="D139" s="26">
         <v>18.5</v>
       </c>
       <c r="E139" s="27">
-        <v>203.5</v>
+        <v>175.75</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -4866,16 +4866,16 @@
         <v>147</v>
       </c>
       <c r="B144" s="24">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C144" s="25">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="D144" s="26">
         <v>18.5</v>
       </c>
       <c r="E144" s="27">
-        <v>296</v>
+        <v>323.75</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -5440,16 +5440,16 @@
         <v>181</v>
       </c>
       <c r="B178" s="24">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C178" s="25">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D178" s="26">
         <v>2.65</v>
       </c>
       <c r="E178" s="27">
-        <v>307.39999999999998</v>
+        <v>299.45</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -5914,16 +5914,16 @@
         <v>209</v>
       </c>
       <c r="B206" s="24">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C206" s="25">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D206" s="26">
         <v>3.25</v>
       </c>
       <c r="E206" s="27">
-        <v>250.25</v>
+        <v>214.5</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
@@ -6238,16 +6238,16 @@
         <v>229</v>
       </c>
       <c r="B226" s="24">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C226" s="25">
-        <v>10</v>
+        <v>13.5</v>
       </c>
       <c r="D226" s="26">
         <v>8.25</v>
       </c>
       <c r="E226" s="27">
-        <v>82.5</v>
+        <v>111.38</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
@@ -6289,16 +6289,16 @@
         <v>232</v>
       </c>
       <c r="B229" s="24">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C229" s="25">
-        <v>32</v>
+        <v>33.5</v>
       </c>
       <c r="D229" s="26">
         <v>6.3</v>
       </c>
       <c r="E229" s="27">
-        <v>201.6</v>
+        <v>211.05</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
@@ -6357,16 +6357,16 @@
         <v>236</v>
       </c>
       <c r="B233" s="24">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C233" s="25">
-        <v>152.5</v>
+        <v>151.5</v>
       </c>
       <c r="D233" s="26">
         <v>3.9</v>
       </c>
       <c r="E233" s="27">
-        <v>594.75</v>
+        <v>590.85</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
@@ -6676,16 +6676,16 @@
         <v>255</v>
       </c>
       <c r="B252" s="24">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C252" s="25">
-        <v>132.37</v>
+        <v>133.87</v>
       </c>
       <c r="D252" s="26">
         <v>4.25</v>
       </c>
       <c r="E252" s="27">
-        <v>562.57000000000005</v>
+        <v>568.95000000000005</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
@@ -6716,10 +6716,10 @@
         <v>125.5</v>
       </c>
       <c r="D254" s="26">
-        <v>4.3</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="E254" s="27">
-        <v>540.19000000000005</v>
+        <v>550.91999999999996</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
@@ -6829,16 +6829,16 @@
         <v>264</v>
       </c>
       <c r="B261" s="24">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C261" s="25">
-        <v>60.5</v>
+        <v>62</v>
       </c>
       <c r="D261" s="26">
         <v>6.18</v>
       </c>
       <c r="E261" s="27">
-        <v>373.91</v>
+        <v>383.18</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
@@ -8144,16 +8144,16 @@
         <v>343</v>
       </c>
       <c r="B340" s="24">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C340" s="25">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D340" s="26">
         <v>7.2</v>
       </c>
       <c r="E340" s="27">
-        <v>115.2</v>
+        <v>136.80000000000001</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
@@ -8263,16 +8263,16 @@
         <v>350</v>
       </c>
       <c r="B347" s="24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C347" s="25">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D347" s="26">
         <v>8.1999999999999993</v>
       </c>
       <c r="E347" s="27">
-        <v>131.19999999999999</v>
+        <v>106.6</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
@@ -9169,10 +9169,10 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="D401" s="26">
-        <v>5.35</v>
+        <v>5.19</v>
       </c>
       <c r="E401" s="27">
-        <v>52.43</v>
+        <v>50.83</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
@@ -9181,13 +9181,13 @@
       </c>
       <c r="B402" s="24"/>
       <c r="C402" s="25">
-        <v>27.2</v>
+        <v>28.2</v>
       </c>
       <c r="D402" s="26">
         <v>5.31</v>
       </c>
       <c r="E402" s="27">
-        <v>144.46</v>
+        <v>149.81</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
@@ -9443,13 +9443,13 @@
         <v>8</v>
       </c>
       <c r="C418" s="25">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="D418" s="26">
         <v>10.5</v>
       </c>
       <c r="E418" s="27">
-        <v>78.75</v>
+        <v>99.75</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
@@ -9725,16 +9725,16 @@
         <v>438</v>
       </c>
       <c r="B435" s="24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C435" s="25">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="D435" s="26">
         <v>15.5</v>
       </c>
       <c r="E435" s="27">
-        <v>100.75</v>
+        <v>131.75</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
@@ -10802,16 +10802,16 @@
         <v>503</v>
       </c>
       <c r="B500" s="24">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C500" s="25">
-        <v>54.5</v>
+        <v>52.5</v>
       </c>
       <c r="D500" s="26">
         <v>3.8</v>
       </c>
       <c r="E500" s="27">
-        <v>207.1</v>
+        <v>199.5</v>
       </c>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.25">
@@ -10866,16 +10866,16 @@
         <v>507</v>
       </c>
       <c r="B504" s="24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C504" s="25">
-        <v>39</v>
+        <v>37.5</v>
       </c>
       <c r="D504" s="26">
         <v>3.5</v>
       </c>
       <c r="E504" s="27">
-        <v>136.5</v>
+        <v>131.25</v>
       </c>
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.25">
@@ -10900,16 +10900,16 @@
         <v>509</v>
       </c>
       <c r="B506" s="24">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C506" s="25">
-        <v>39.5</v>
+        <v>38.5</v>
       </c>
       <c r="D506" s="26">
         <v>1.8</v>
       </c>
       <c r="E506" s="27">
-        <v>71.099999999999994</v>
+        <v>69.3</v>
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.25">
@@ -11104,16 +11104,16 @@
         <v>521</v>
       </c>
       <c r="B518" s="24">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C518" s="25">
-        <v>24.5</v>
+        <v>21</v>
       </c>
       <c r="D518" s="26">
         <v>3.1</v>
       </c>
       <c r="E518" s="27">
-        <v>75.95</v>
+        <v>65.099999999999994</v>
       </c>
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.25">
@@ -11291,16 +11291,16 @@
         <v>532</v>
       </c>
       <c r="B529" s="24">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C529" s="25">
-        <v>34.299999999999997</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="D529" s="26">
         <v>3.14</v>
       </c>
       <c r="E529" s="27">
-        <v>107.7</v>
+        <v>120.26</v>
       </c>
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.25">
@@ -11359,16 +11359,16 @@
         <v>536</v>
       </c>
       <c r="B533" s="24">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C533" s="25">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D533" s="26">
         <v>3.5</v>
       </c>
       <c r="E533" s="27">
-        <v>231</v>
+        <v>238</v>
       </c>
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.25">
@@ -11758,16 +11758,16 @@
         <v>561</v>
       </c>
       <c r="B558" s="24">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C558" s="25">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="D558" s="26">
         <v>0.85</v>
       </c>
       <c r="E558" s="27">
-        <v>453.05</v>
+        <v>454.75</v>
       </c>
     </row>
     <row r="559" spans="1:5" x14ac:dyDescent="0.25">
@@ -11953,16 +11953,16 @@
         <v>574</v>
       </c>
       <c r="B571" s="24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C571" s="25">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D571" s="26">
         <v>5.5</v>
       </c>
       <c r="E571" s="27">
-        <v>148.5</v>
+        <v>165</v>
       </c>
     </row>
     <row r="572" spans="1:5" x14ac:dyDescent="0.25">
@@ -12208,16 +12208,16 @@
         <v>589</v>
       </c>
       <c r="B586" s="24">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C586" s="25">
-        <v>0.25</v>
+        <v>1.75</v>
       </c>
       <c r="D586" s="26">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="E586" s="27">
-        <v>0.38</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.25">
@@ -12480,16 +12480,16 @@
         <v>605</v>
       </c>
       <c r="B602" s="24">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C602" s="25">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="D602" s="26">
         <v>3.5</v>
       </c>
       <c r="E602" s="27">
-        <v>45.5</v>
+        <v>33.25</v>
       </c>
     </row>
     <row r="603" spans="1:5" x14ac:dyDescent="0.25">
@@ -12684,16 +12684,16 @@
         <v>617</v>
       </c>
       <c r="B614" s="24">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C614" s="25">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D614" s="26">
         <v>4.8</v>
       </c>
       <c r="E614" s="27">
-        <v>100.8</v>
+        <v>96</v>
       </c>
     </row>
     <row r="615" spans="1:5" x14ac:dyDescent="0.25">
@@ -12716,16 +12716,16 @@
         <v>619</v>
       </c>
       <c r="B616" s="24">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C616" s="25">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D616" s="26">
         <v>6.75</v>
       </c>
       <c r="E616" s="27">
-        <v>20.25</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="617" spans="1:5" x14ac:dyDescent="0.25">
@@ -12799,16 +12799,16 @@
         <v>624</v>
       </c>
       <c r="B621" s="24">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C621" s="25">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D621" s="26">
         <v>3.1</v>
       </c>
       <c r="E621" s="27">
-        <v>192.2</v>
+        <v>198.4</v>
       </c>
     </row>
     <row r="622" spans="1:5" x14ac:dyDescent="0.25">
@@ -13139,16 +13139,16 @@
         <v>644</v>
       </c>
       <c r="B641" s="24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C641" s="25">
-        <v>26.5</v>
+        <v>25.5</v>
       </c>
       <c r="D641" s="26">
         <v>5</v>
       </c>
       <c r="E641" s="27">
-        <v>132.5</v>
+        <v>127.5</v>
       </c>
     </row>
     <row r="642" spans="1:5" x14ac:dyDescent="0.25">
@@ -13661,11 +13661,11 @@
       </c>
       <c r="B676" s="31"/>
       <c r="C676" s="32">
-        <v>39297.78</v>
+        <v>39304.78</v>
       </c>
       <c r="D676" s="33"/>
       <c r="E676" s="34">
-        <v>112795.82</v>
+        <v>112906.16</v>
       </c>
     </row>
   </sheetData>

--- a/data/website stock.xlsx
+++ b/data/website stock.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="677">
   <si>
     <t>Order Estimate - (from 1-Jul-2023)</t>
   </si>
@@ -35,7 +35,7 @@
     <t>Stock Group Summary</t>
   </si>
   <si>
-    <t>1-Jul-25 to 13-Dec-25</t>
+    <t>1-Jul-25 to 15-Dec-25</t>
   </si>
   <si>
     <t/>
@@ -740,9 +740,6 @@
     <t>5059 PATRIKA (8803)</t>
   </si>
   <si>
-    <t>5060 PATRIKA (JC) (7713)</t>
-  </si>
-  <si>
     <t>5061 PATRIKA (DCU) (1405)</t>
   </si>
   <si>
@@ -833,9 +830,6 @@
     <t>5097 PATRIKA (25321)</t>
   </si>
   <si>
-    <t>5098 PATRIKA *-* (M) (857)</t>
-  </si>
-  <si>
     <t>5099 PATRIKA *-* (M) (852 DHANESH)</t>
   </si>
   <si>
@@ -1223,9 +1217,6 @@
     <t>5618 PATRIKA (JC) *-* (M) (S-52)</t>
   </si>
   <si>
-    <t>5619 PATRIKA (JC) (1131)</t>
-  </si>
-  <si>
     <t>5621 PATRIKA (JC) *-* (M) (5297)</t>
   </si>
   <si>
@@ -1679,6 +1670,9 @@
     <t>7454 PATRIKA (ECO -63) (NEW ECO 63)</t>
   </si>
   <si>
+    <t>7604 PATRIKA</t>
+  </si>
+  <si>
     <t>9001 CARD (O.C.) (2498 Cream)</t>
   </si>
   <si>
@@ -1713,9 +1707,6 @@
   </si>
   <si>
     <t>9230 (CARD) 9*5 SCREEN</t>
-  </si>
-  <si>
-    <t>9231 CARDS (DCU) (RIYAZ 9*5 PINK)</t>
   </si>
   <si>
     <t>9232 CARDS (DCU) (RIYAZ 9*5 CREAM)</t>
@@ -2587,7 +2578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E676"/>
+  <dimension ref="A1:E673"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2766,16 +2757,16 @@
         <v>17</v>
       </c>
       <c r="B14" s="24">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" s="25">
-        <v>101.5</v>
+        <v>91.5</v>
       </c>
       <c r="D14" s="26">
         <v>2</v>
       </c>
       <c r="E14" s="27">
-        <v>203</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -2970,16 +2961,16 @@
         <v>29</v>
       </c>
       <c r="B26" s="24">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C26" s="25">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D26" s="26">
         <v>2</v>
       </c>
       <c r="E26" s="27">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3089,16 +3080,16 @@
         <v>36</v>
       </c>
       <c r="B33" s="24">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C33" s="25">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D33" s="26">
         <v>2.2999999999999998</v>
       </c>
       <c r="E33" s="27">
-        <v>312.8</v>
+        <v>301.3</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -3122,15 +3113,17 @@
       <c r="A35" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="24"/>
+      <c r="B35" s="24">
+        <v>1</v>
+      </c>
       <c r="C35" s="25">
-        <v>25.5</v>
+        <v>23</v>
       </c>
       <c r="D35" s="26">
         <v>2.66</v>
       </c>
       <c r="E35" s="27">
-        <v>67.83</v>
+        <v>61.18</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -3206,16 +3199,16 @@
         <v>43</v>
       </c>
       <c r="B40" s="24">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C40" s="25">
-        <v>23.5</v>
+        <v>12.5</v>
       </c>
       <c r="D40" s="26">
         <v>2.35</v>
       </c>
       <c r="E40" s="27">
-        <v>55.23</v>
+        <v>29.38</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -3223,16 +3216,16 @@
         <v>44</v>
       </c>
       <c r="B41" s="24">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C41" s="25">
-        <v>57.5</v>
+        <v>37.5</v>
       </c>
       <c r="D41" s="26">
         <v>2.35</v>
       </c>
       <c r="E41" s="27">
-        <v>135.13</v>
+        <v>88.13</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -3308,16 +3301,16 @@
         <v>49</v>
       </c>
       <c r="B46" s="24">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C46" s="25">
-        <v>52.5</v>
+        <v>36.5</v>
       </c>
       <c r="D46" s="26">
         <v>1.26</v>
       </c>
       <c r="E46" s="27">
-        <v>66.17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -3325,16 +3318,16 @@
         <v>50</v>
       </c>
       <c r="B47" s="24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C47" s="25">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D47" s="26">
         <v>1.4</v>
       </c>
       <c r="E47" s="27">
-        <v>161</v>
+        <v>158.19999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -3359,16 +3352,16 @@
         <v>52</v>
       </c>
       <c r="B49" s="24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C49" s="25">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D49" s="26">
         <v>1.8</v>
       </c>
       <c r="E49" s="27">
-        <v>219.6</v>
+        <v>212.4</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -3410,16 +3403,16 @@
         <v>55</v>
       </c>
       <c r="B52" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C52" s="25">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D52" s="26">
         <v>2.75</v>
       </c>
       <c r="E52" s="27">
-        <v>88</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -3725,16 +3718,16 @@
         <v>74</v>
       </c>
       <c r="B71" s="24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C71" s="25">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D71" s="26">
         <v>1.4</v>
       </c>
       <c r="E71" s="27">
-        <v>697.2</v>
+        <v>695.8</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -3742,16 +3735,16 @@
         <v>75</v>
       </c>
       <c r="B72" s="24">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C72" s="25">
-        <v>600.5</v>
+        <v>594.5</v>
       </c>
       <c r="D72" s="26">
         <v>1.2</v>
       </c>
       <c r="E72" s="27">
-        <v>720.6</v>
+        <v>713.4</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -3759,16 +3752,16 @@
         <v>76</v>
       </c>
       <c r="B73" s="24">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C73" s="25">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="D73" s="26">
         <v>1.2</v>
       </c>
       <c r="E73" s="27">
-        <v>741.6</v>
+        <v>730.8</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -3808,16 +3801,16 @@
         <v>79</v>
       </c>
       <c r="B76" s="24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C76" s="25">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="D76" s="26">
         <v>1.2</v>
       </c>
       <c r="E76" s="27">
-        <v>800.4</v>
+        <v>788.4</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -3910,16 +3903,16 @@
         <v>85</v>
       </c>
       <c r="B82" s="24">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C82" s="25">
-        <v>140</v>
+        <v>106.5</v>
       </c>
       <c r="D82" s="26">
         <v>1.3</v>
       </c>
       <c r="E82" s="27">
-        <v>182</v>
+        <v>138.44999999999999</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -3927,16 +3920,16 @@
         <v>86</v>
       </c>
       <c r="B83" s="24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C83" s="25">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="D83" s="26">
         <v>1.3</v>
       </c>
       <c r="E83" s="27">
-        <v>357.5</v>
+        <v>318.5</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -3944,16 +3937,16 @@
         <v>87</v>
       </c>
       <c r="B84" s="24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" s="25">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D84" s="26">
         <v>1.7</v>
       </c>
       <c r="E84" s="27">
-        <v>59.5</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -3961,16 +3954,16 @@
         <v>88</v>
       </c>
       <c r="B85" s="24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C85" s="25">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D85" s="26">
         <v>1.7</v>
       </c>
       <c r="E85" s="27">
-        <v>27.2</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -4029,16 +4022,16 @@
         <v>92</v>
       </c>
       <c r="B89" s="24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C89" s="25">
-        <v>181.5</v>
+        <v>180.5</v>
       </c>
       <c r="D89" s="26">
         <v>0.66</v>
       </c>
       <c r="E89" s="27">
-        <v>120.66</v>
+        <v>120</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -4063,16 +4056,16 @@
         <v>94</v>
       </c>
       <c r="B91" s="24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C91" s="25">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D91" s="26">
         <v>2.76</v>
       </c>
       <c r="E91" s="27">
-        <v>206.96</v>
+        <v>201.44</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -4329,10 +4322,10 @@
         <v>112</v>
       </c>
       <c r="B109" s="24">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C109" s="25">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="D109" s="28"/>
       <c r="E109" s="29"/>
@@ -4342,10 +4335,10 @@
         <v>113</v>
       </c>
       <c r="B110" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C110" s="25">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D110" s="28"/>
       <c r="E110" s="29"/>
@@ -4355,10 +4348,10 @@
         <v>114</v>
       </c>
       <c r="B111" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C111" s="25">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D111" s="28"/>
       <c r="E111" s="29"/>
@@ -4381,16 +4374,16 @@
         <v>116</v>
       </c>
       <c r="B113" s="24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C113" s="25">
-        <v>306.5</v>
+        <v>266.5</v>
       </c>
       <c r="D113" s="26">
         <v>0.7</v>
       </c>
       <c r="E113" s="27">
-        <v>214.55</v>
+        <v>186.55</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -4411,10 +4404,10 @@
         <v>118</v>
       </c>
       <c r="B115" s="24">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C115" s="25">
-        <v>-0.28000000000000003</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="D115" s="28"/>
       <c r="E115" s="29"/>
@@ -4424,10 +4417,10 @@
         <v>119</v>
       </c>
       <c r="B116" s="24">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C116" s="25">
-        <v>-0.43</v>
+        <v>-0.44</v>
       </c>
       <c r="D116" s="28"/>
       <c r="E116" s="29"/>
@@ -4437,10 +4430,10 @@
         <v>120</v>
       </c>
       <c r="B117" s="24">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C117" s="25">
-        <v>-1.64</v>
+        <v>-1.65</v>
       </c>
       <c r="D117" s="28"/>
       <c r="E117" s="29"/>
@@ -4450,10 +4443,10 @@
         <v>121</v>
       </c>
       <c r="B118" s="24">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C118" s="25">
-        <v>-2.34</v>
+        <v>-2.37</v>
       </c>
       <c r="D118" s="28"/>
       <c r="E118" s="29"/>
@@ -4476,10 +4469,10 @@
         <v>123</v>
       </c>
       <c r="B120" s="24">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C120" s="25">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="D120" s="28"/>
       <c r="E120" s="29"/>
@@ -4528,16 +4521,16 @@
         <v>127</v>
       </c>
       <c r="B124" s="24">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C124" s="25">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="D124" s="26">
         <v>12.5</v>
       </c>
       <c r="E124" s="27">
-        <v>168.75</v>
+        <v>162.5</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -4713,16 +4706,16 @@
         <v>138</v>
       </c>
       <c r="B135" s="24">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C135" s="25">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="D135" s="26">
         <v>18.5</v>
       </c>
       <c r="E135" s="27">
-        <v>610.5</v>
+        <v>601.25</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -4781,16 +4774,16 @@
         <v>142</v>
       </c>
       <c r="B139" s="24">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C139" s="25">
-        <v>9.5</v>
+        <v>3.5</v>
       </c>
       <c r="D139" s="26">
         <v>18.5</v>
       </c>
       <c r="E139" s="27">
-        <v>175.75</v>
+        <v>64.75</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -4866,16 +4859,16 @@
         <v>147</v>
       </c>
       <c r="B144" s="24">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C144" s="25">
-        <v>17.5</v>
+        <v>10.5</v>
       </c>
       <c r="D144" s="26">
         <v>18.5</v>
       </c>
       <c r="E144" s="27">
-        <v>323.75</v>
+        <v>194.25</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -4883,16 +4876,16 @@
         <v>148</v>
       </c>
       <c r="B145" s="24">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C145" s="25">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="D145" s="26">
         <v>18.5</v>
       </c>
       <c r="E145" s="27">
-        <v>83.25</v>
+        <v>74</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -4917,16 +4910,16 @@
         <v>150</v>
       </c>
       <c r="B147" s="24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" s="25">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D147" s="26">
         <v>11.5</v>
       </c>
       <c r="E147" s="27">
-        <v>253</v>
+        <v>23</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -4951,16 +4944,16 @@
         <v>152</v>
       </c>
       <c r="B149" s="24">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C149" s="25">
-        <v>18.5</v>
+        <v>13.5</v>
       </c>
       <c r="D149" s="26">
         <v>11.5</v>
       </c>
       <c r="E149" s="27">
-        <v>212.75</v>
+        <v>155.25</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -5087,16 +5080,16 @@
         <v>160</v>
       </c>
       <c r="B157" s="24">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C157" s="25">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D157" s="26">
         <v>11.5</v>
       </c>
       <c r="E157" s="27">
-        <v>345</v>
+        <v>310.5</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -5172,16 +5165,16 @@
         <v>165</v>
       </c>
       <c r="B162" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C162" s="25">
-        <v>296</v>
+        <v>283.5</v>
       </c>
       <c r="D162" s="26">
         <v>1.3</v>
       </c>
       <c r="E162" s="27">
-        <v>384.8</v>
+        <v>368.55</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -5205,15 +5198,17 @@
       <c r="A164" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="B164" s="24"/>
+      <c r="B164" s="24">
+        <v>1</v>
+      </c>
       <c r="C164" s="25">
-        <v>20.5</v>
+        <v>10.5</v>
       </c>
       <c r="D164" s="26">
         <v>3.5</v>
       </c>
       <c r="E164" s="27">
-        <v>71.75</v>
+        <v>36.75</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -5304,16 +5299,16 @@
         <v>173</v>
       </c>
       <c r="B170" s="24">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C170" s="25">
-        <v>92</v>
+        <v>88.5</v>
       </c>
       <c r="D170" s="26">
         <v>2.78</v>
       </c>
       <c r="E170" s="27">
-        <v>255.47</v>
+        <v>245.75</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -5440,16 +5435,16 @@
         <v>181</v>
       </c>
       <c r="B178" s="24">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C178" s="25">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D178" s="26">
         <v>2.65</v>
       </c>
       <c r="E178" s="27">
-        <v>299.45</v>
+        <v>286.2</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -5710,16 +5705,16 @@
         <v>197</v>
       </c>
       <c r="B194" s="24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" s="25">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D194" s="26">
         <v>2.6</v>
       </c>
       <c r="E194" s="27">
-        <v>140.4</v>
+        <v>137.80000000000001</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
@@ -5795,16 +5790,16 @@
         <v>202</v>
       </c>
       <c r="B199" s="24">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C199" s="25">
-        <v>226.5</v>
+        <v>225</v>
       </c>
       <c r="D199" s="26">
         <v>2.7</v>
       </c>
       <c r="E199" s="27">
-        <v>611.54999999999995</v>
+        <v>607.5</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
@@ -5880,16 +5875,16 @@
         <v>207</v>
       </c>
       <c r="B204" s="24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C204" s="25">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D204" s="26">
         <v>3</v>
       </c>
       <c r="E204" s="27">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
@@ -5931,16 +5926,16 @@
         <v>210</v>
       </c>
       <c r="B207" s="24">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C207" s="25">
-        <v>61.5</v>
+        <v>56.5</v>
       </c>
       <c r="D207" s="26">
         <v>3.57</v>
       </c>
       <c r="E207" s="27">
-        <v>219.67</v>
+        <v>201.81</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
@@ -5948,16 +5943,16 @@
         <v>211</v>
       </c>
       <c r="B208" s="24">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C208" s="25">
-        <v>43.5</v>
+        <v>42</v>
       </c>
       <c r="D208" s="26">
         <v>2.7</v>
       </c>
       <c r="E208" s="27">
-        <v>117.45</v>
+        <v>113.4</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -6101,16 +6096,16 @@
         <v>220</v>
       </c>
       <c r="B217" s="24">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C217" s="25">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D217" s="26">
         <v>3.25</v>
       </c>
       <c r="E217" s="27">
-        <v>289.25</v>
+        <v>286</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
@@ -6357,16 +6352,16 @@
         <v>236</v>
       </c>
       <c r="B233" s="24">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C233" s="25">
-        <v>151.5</v>
+        <v>148.5</v>
       </c>
       <c r="D233" s="26">
         <v>3.9</v>
       </c>
       <c r="E233" s="27">
-        <v>590.85</v>
+        <v>579.15</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
@@ -6392,28 +6387,30 @@
       </c>
       <c r="B235" s="24"/>
       <c r="C235" s="25">
-        <v>10.5</v>
+        <v>8</v>
       </c>
       <c r="D235" s="26">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="E235" s="27">
-        <v>68.25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="B236" s="24"/>
+      <c r="B236" s="24">
+        <v>1</v>
+      </c>
       <c r="C236" s="25">
-        <v>8</v>
+        <v>26.5</v>
       </c>
       <c r="D236" s="26">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="E236" s="27">
-        <v>44</v>
+        <v>159</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
@@ -6421,16 +6418,16 @@
         <v>240</v>
       </c>
       <c r="B237" s="24">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C237" s="25">
-        <v>26.5</v>
+        <v>77</v>
       </c>
       <c r="D237" s="26">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="E237" s="27">
-        <v>159</v>
+        <v>269.5</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
@@ -6438,16 +6435,16 @@
         <v>241</v>
       </c>
       <c r="B238" s="24">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C238" s="25">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="D238" s="26">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="E238" s="27">
-        <v>269.5</v>
+        <v>140.25</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
@@ -6455,16 +6452,16 @@
         <v>242</v>
       </c>
       <c r="B239" s="24">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C239" s="25">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D239" s="26">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="E239" s="27">
-        <v>140.25</v>
+        <v>150.5</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
@@ -6472,16 +6469,16 @@
         <v>243</v>
       </c>
       <c r="B240" s="24">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C240" s="25">
-        <v>43</v>
+        <v>22.5</v>
       </c>
       <c r="D240" s="26">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E240" s="27">
-        <v>150.5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
@@ -6489,16 +6486,16 @@
         <v>244</v>
       </c>
       <c r="B241" s="24">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C241" s="25">
-        <v>22.5</v>
+        <v>9.5</v>
       </c>
       <c r="D241" s="26">
-        <v>4</v>
+        <v>4.95</v>
       </c>
       <c r="E241" s="27">
-        <v>90</v>
+        <v>47.03</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
@@ -6506,16 +6503,16 @@
         <v>245</v>
       </c>
       <c r="B242" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C242" s="25">
-        <v>9.5</v>
+        <v>33</v>
       </c>
       <c r="D242" s="26">
-        <v>4.95</v>
+        <v>4.75</v>
       </c>
       <c r="E242" s="27">
-        <v>47.03</v>
+        <v>156.75</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
@@ -6523,16 +6520,16 @@
         <v>246</v>
       </c>
       <c r="B243" s="24">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C243" s="25">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D243" s="26">
-        <v>4.75</v>
+        <v>6.12</v>
       </c>
       <c r="E243" s="27">
-        <v>156.75</v>
+        <v>195.9</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
@@ -6540,16 +6537,16 @@
         <v>247</v>
       </c>
       <c r="B244" s="24">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="C244" s="25">
-        <v>37</v>
+        <v>399</v>
       </c>
       <c r="D244" s="26">
-        <v>6.12</v>
+        <v>4.28</v>
       </c>
       <c r="E244" s="27">
-        <v>226.51</v>
+        <v>1707.72</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
@@ -6557,16 +6554,16 @@
         <v>248</v>
       </c>
       <c r="B245" s="24">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="C245" s="25">
-        <v>414.5</v>
+        <v>13</v>
       </c>
       <c r="D245" s="26">
-        <v>4.28</v>
+        <v>6</v>
       </c>
       <c r="E245" s="27">
-        <v>1774.06</v>
+        <v>78</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
@@ -6574,16 +6571,16 @@
         <v>249</v>
       </c>
       <c r="B246" s="24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C246" s="25">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D246" s="26">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="E246" s="27">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
@@ -6591,16 +6588,16 @@
         <v>250</v>
       </c>
       <c r="B247" s="24">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C247" s="25">
-        <v>20</v>
+        <v>12.5</v>
       </c>
       <c r="D247" s="26">
-        <v>4.5</v>
+        <v>4.28</v>
       </c>
       <c r="E247" s="27">
-        <v>90</v>
+        <v>53.5</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
@@ -6608,16 +6605,16 @@
         <v>251</v>
       </c>
       <c r="B248" s="24">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C248" s="25">
-        <v>12.5</v>
+        <v>39</v>
       </c>
       <c r="D248" s="26">
-        <v>4.28</v>
+        <v>3.1</v>
       </c>
       <c r="E248" s="27">
-        <v>53.5</v>
+        <v>120.9</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
@@ -6625,16 +6622,16 @@
         <v>252</v>
       </c>
       <c r="B249" s="24">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C249" s="25">
-        <v>39</v>
+        <v>33.5</v>
       </c>
       <c r="D249" s="26">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="E249" s="27">
-        <v>120.9</v>
+        <v>150.75</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
@@ -6642,16 +6639,16 @@
         <v>253</v>
       </c>
       <c r="B250" s="24">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C250" s="25">
-        <v>33.5</v>
+        <v>24.5</v>
       </c>
       <c r="D250" s="26">
-        <v>4.5</v>
+        <v>6.25</v>
       </c>
       <c r="E250" s="27">
-        <v>150.75</v>
+        <v>153.13</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
@@ -6659,16 +6656,16 @@
         <v>254</v>
       </c>
       <c r="B251" s="24">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C251" s="25">
-        <v>24.5</v>
+        <v>133.87</v>
       </c>
       <c r="D251" s="26">
-        <v>6.25</v>
+        <v>4.25</v>
       </c>
       <c r="E251" s="27">
-        <v>153.13</v>
+        <v>568.95000000000005</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
@@ -6676,16 +6673,16 @@
         <v>255</v>
       </c>
       <c r="B252" s="24">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C252" s="25">
-        <v>133.87</v>
+        <v>40</v>
       </c>
       <c r="D252" s="26">
-        <v>4.25</v>
+        <v>4.42</v>
       </c>
       <c r="E252" s="27">
-        <v>568.95000000000005</v>
+        <v>176.76</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
@@ -6693,16 +6690,16 @@
         <v>256</v>
       </c>
       <c r="B253" s="24">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C253" s="25">
-        <v>45</v>
+        <v>119.5</v>
       </c>
       <c r="D253" s="26">
-        <v>4.42</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="E253" s="27">
-        <v>198.85</v>
+        <v>524.58000000000004</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
@@ -6710,16 +6707,16 @@
         <v>257</v>
       </c>
       <c r="B254" s="24">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C254" s="25">
-        <v>125.5</v>
+        <v>28.5</v>
       </c>
       <c r="D254" s="26">
-        <v>4.3899999999999997</v>
+        <v>4.28</v>
       </c>
       <c r="E254" s="27">
-        <v>550.91999999999996</v>
+        <v>121.98</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
@@ -6727,16 +6724,16 @@
         <v>258</v>
       </c>
       <c r="B255" s="24">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C255" s="25">
-        <v>28.5</v>
+        <v>5.5</v>
       </c>
       <c r="D255" s="26">
         <v>4.28</v>
       </c>
       <c r="E255" s="27">
-        <v>121.98</v>
+        <v>23.54</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
@@ -6744,16 +6741,16 @@
         <v>259</v>
       </c>
       <c r="B256" s="24">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C256" s="25">
-        <v>5.5</v>
+        <v>47</v>
       </c>
       <c r="D256" s="26">
-        <v>4.28</v>
+        <v>6.5</v>
       </c>
       <c r="E256" s="27">
-        <v>23.54</v>
+        <v>305.5</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
@@ -6761,16 +6758,16 @@
         <v>260</v>
       </c>
       <c r="B257" s="24">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C257" s="25">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="D257" s="26">
-        <v>6.5</v>
+        <v>5.23</v>
       </c>
       <c r="E257" s="27">
-        <v>305.5</v>
+        <v>73.22</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
@@ -6778,16 +6775,16 @@
         <v>261</v>
       </c>
       <c r="B258" s="24">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C258" s="25">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="D258" s="26">
-        <v>5.23</v>
+        <v>4.84</v>
       </c>
       <c r="E258" s="27">
-        <v>73.22</v>
+        <v>406.62</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
@@ -6795,16 +6792,16 @@
         <v>262</v>
       </c>
       <c r="B259" s="24">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C259" s="25">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="D259" s="26">
-        <v>4.84</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E259" s="27">
-        <v>406.62</v>
+        <v>179.31</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
@@ -6812,16 +6809,16 @@
         <v>263</v>
       </c>
       <c r="B260" s="24">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C260" s="25">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="D260" s="26">
-        <v>4.5999999999999996</v>
+        <v>6.18</v>
       </c>
       <c r="E260" s="27">
-        <v>179.31</v>
+        <v>383.18</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
@@ -6829,16 +6826,16 @@
         <v>264</v>
       </c>
       <c r="B261" s="24">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C261" s="25">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="D261" s="26">
-        <v>6.18</v>
+        <v>5.16</v>
       </c>
       <c r="E261" s="27">
-        <v>383.18</v>
+        <v>520.71</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
@@ -6846,16 +6843,16 @@
         <v>265</v>
       </c>
       <c r="B262" s="24">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C262" s="25">
-        <v>101</v>
+        <v>47.5</v>
       </c>
       <c r="D262" s="26">
-        <v>5.16</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E262" s="27">
-        <v>520.71</v>
+        <v>242.09</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
@@ -6863,16 +6860,16 @@
         <v>266</v>
       </c>
       <c r="B263" s="24">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C263" s="25">
-        <v>47.5</v>
+        <v>160</v>
       </c>
       <c r="D263" s="26">
-        <v>5.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="E263" s="27">
-        <v>242.09</v>
+        <v>800</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
@@ -6880,16 +6877,16 @@
         <v>267</v>
       </c>
       <c r="B264" s="24">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C264" s="25">
-        <v>161</v>
+        <v>52</v>
       </c>
       <c r="D264" s="26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E264" s="27">
-        <v>805</v>
+        <v>312</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
@@ -6897,16 +6894,16 @@
         <v>268</v>
       </c>
       <c r="B265" s="24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C265" s="25">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D265" s="26">
-        <v>6</v>
+        <v>4.63</v>
       </c>
       <c r="E265" s="27">
-        <v>312</v>
+        <v>143.38</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
@@ -6914,16 +6911,16 @@
         <v>269</v>
       </c>
       <c r="B266" s="24">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C266" s="25">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D266" s="26">
         <v>5.76</v>
       </c>
       <c r="E266" s="27">
-        <v>46.08</v>
+        <v>74.88</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
@@ -6931,16 +6928,16 @@
         <v>270</v>
       </c>
       <c r="B267" s="24">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C267" s="25">
-        <v>31</v>
+        <v>147</v>
       </c>
       <c r="D267" s="26">
-        <v>4.63</v>
+        <v>4.5</v>
       </c>
       <c r="E267" s="27">
-        <v>143.38</v>
+        <v>661.5</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
@@ -6948,16 +6945,16 @@
         <v>271</v>
       </c>
       <c r="B268" s="24">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C268" s="25">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D268" s="26">
-        <v>5.76</v>
+        <v>3.8</v>
       </c>
       <c r="E268" s="27">
-        <v>132.47999999999999</v>
+        <v>114</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
@@ -6965,33 +6962,31 @@
         <v>272</v>
       </c>
       <c r="B269" s="24">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C269" s="25">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="D269" s="26">
-        <v>4.5</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="E269" s="27">
-        <v>661.5</v>
+        <v>533.38</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="B270" s="24">
-        <v>12</v>
-      </c>
+      <c r="B270" s="24"/>
       <c r="C270" s="25">
-        <v>30</v>
+        <v>27.5</v>
       </c>
       <c r="D270" s="26">
-        <v>3.8</v>
+        <v>5.76</v>
       </c>
       <c r="E270" s="27">
-        <v>114</v>
+        <v>158.4</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
@@ -6999,31 +6994,33 @@
         <v>274</v>
       </c>
       <c r="B271" s="24">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C271" s="25">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="D271" s="26">
-        <v>4.8899999999999997</v>
+        <v>3.15</v>
       </c>
       <c r="E271" s="27">
-        <v>533.38</v>
+        <v>122.85</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="23" t="s">
         <v>275</v>
       </c>
-      <c r="B272" s="24"/>
+      <c r="B272" s="24">
+        <v>59</v>
+      </c>
       <c r="C272" s="25">
-        <v>27.5</v>
+        <v>102</v>
       </c>
       <c r="D272" s="26">
-        <v>5.76</v>
+        <v>6</v>
       </c>
       <c r="E272" s="27">
-        <v>158.4</v>
+        <v>611.95000000000005</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
@@ -7031,16 +7028,16 @@
         <v>276</v>
       </c>
       <c r="B273" s="24">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C273" s="25">
-        <v>39</v>
+        <v>20.5</v>
       </c>
       <c r="D273" s="26">
-        <v>3.15</v>
+        <v>5.4</v>
       </c>
       <c r="E273" s="27">
-        <v>122.85</v>
+        <v>110.7</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
@@ -7048,16 +7045,16 @@
         <v>277</v>
       </c>
       <c r="B274" s="24">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="C274" s="25">
-        <v>105</v>
+        <v>319</v>
       </c>
       <c r="D274" s="26">
-        <v>6</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="E274" s="27">
-        <v>629.95000000000005</v>
+        <v>1361.58</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
@@ -7065,33 +7062,31 @@
         <v>278</v>
       </c>
       <c r="B275" s="24">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C275" s="25">
-        <v>20.5</v>
+        <v>16.5</v>
       </c>
       <c r="D275" s="26">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="E275" s="27">
-        <v>110.7</v>
+        <v>94.05</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="23" t="s">
         <v>279</v>
       </c>
-      <c r="B276" s="24">
-        <v>22</v>
-      </c>
+      <c r="B276" s="24"/>
       <c r="C276" s="25">
-        <v>319</v>
+        <v>18.5</v>
       </c>
       <c r="D276" s="26">
-        <v>4.2699999999999996</v>
+        <v>5.43</v>
       </c>
       <c r="E276" s="27">
-        <v>1361.58</v>
+        <v>100.48</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
@@ -7099,31 +7094,33 @@
         <v>280</v>
       </c>
       <c r="B277" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C277" s="25">
-        <v>16.5</v>
+        <v>33</v>
       </c>
       <c r="D277" s="26">
-        <v>5.7</v>
+        <v>4.5</v>
       </c>
       <c r="E277" s="27">
-        <v>94.05</v>
+        <v>148.5</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="23" t="s">
         <v>281</v>
       </c>
-      <c r="B278" s="24"/>
+      <c r="B278" s="24">
+        <v>25</v>
+      </c>
       <c r="C278" s="25">
-        <v>18.5</v>
+        <v>267</v>
       </c>
       <c r="D278" s="26">
-        <v>5.43</v>
+        <v>4.29</v>
       </c>
       <c r="E278" s="27">
-        <v>100.48</v>
+        <v>1145.9000000000001</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
@@ -7131,16 +7128,16 @@
         <v>282</v>
       </c>
       <c r="B279" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C279" s="25">
-        <v>33</v>
+        <v>25.5</v>
       </c>
       <c r="D279" s="26">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="E279" s="27">
-        <v>148.5</v>
+        <v>121.13</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
@@ -7148,16 +7145,16 @@
         <v>283</v>
       </c>
       <c r="B280" s="24">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C280" s="25">
-        <v>270</v>
+        <v>22.5</v>
       </c>
       <c r="D280" s="26">
-        <v>4.29</v>
+        <v>5.8</v>
       </c>
       <c r="E280" s="27">
-        <v>1158.78</v>
+        <v>130.5</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
@@ -7165,16 +7162,16 @@
         <v>284</v>
       </c>
       <c r="B281" s="24">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C281" s="25">
-        <v>25.5</v>
+        <v>54.5</v>
       </c>
       <c r="D281" s="26">
-        <v>4.75</v>
+        <v>5.13</v>
       </c>
       <c r="E281" s="27">
-        <v>121.13</v>
+        <v>279.58999999999997</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
@@ -7182,63 +7179,65 @@
         <v>285</v>
       </c>
       <c r="B282" s="24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C282" s="25">
-        <v>22.5</v>
+        <v>8</v>
       </c>
       <c r="D282" s="26">
-        <v>5.8</v>
+        <v>5</v>
       </c>
       <c r="E282" s="27">
-        <v>130.5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="B283" s="24">
-        <v>15</v>
-      </c>
+      <c r="B283" s="24"/>
       <c r="C283" s="25">
-        <v>54.5</v>
+        <v>22</v>
       </c>
       <c r="D283" s="26">
-        <v>5.13</v>
+        <v>4.5</v>
       </c>
       <c r="E283" s="27">
-        <v>279.58999999999997</v>
+        <v>99</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="B284" s="24"/>
+      <c r="B284" s="24">
+        <v>5</v>
+      </c>
       <c r="C284" s="25">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="D284" s="26">
-        <v>5</v>
+        <v>11.5</v>
       </c>
       <c r="E284" s="27">
-        <v>90</v>
+        <v>201.25</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="23" t="s">
         <v>288</v>
       </c>
-      <c r="B285" s="24"/>
+      <c r="B285" s="24">
+        <v>1</v>
+      </c>
       <c r="C285" s="25">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D285" s="26">
-        <v>4.5</v>
+        <v>7.75</v>
       </c>
       <c r="E285" s="27">
-        <v>99</v>
+        <v>100.75</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
@@ -7246,33 +7245,31 @@
         <v>289</v>
       </c>
       <c r="B286" s="24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C286" s="25">
-        <v>17.5</v>
+        <v>10</v>
       </c>
       <c r="D286" s="26">
-        <v>11.5</v>
+        <v>7.85</v>
       </c>
       <c r="E286" s="27">
-        <v>201.25</v>
+        <v>78.5</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="23" t="s">
         <v>290</v>
       </c>
-      <c r="B287" s="24">
-        <v>1</v>
-      </c>
+      <c r="B287" s="24"/>
       <c r="C287" s="25">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="D287" s="26">
-        <v>7.75</v>
+        <v>11.5</v>
       </c>
       <c r="E287" s="27">
-        <v>100.75</v>
+        <v>97.75</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
@@ -7280,16 +7277,16 @@
         <v>291</v>
       </c>
       <c r="B288" s="24">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C288" s="25">
-        <v>10</v>
+        <v>25.85</v>
       </c>
       <c r="D288" s="26">
-        <v>7.85</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="E288" s="27">
-        <v>78.5</v>
+        <v>244.28</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
@@ -7298,13 +7295,13 @@
       </c>
       <c r="B289" s="24"/>
       <c r="C289" s="25">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="D289" s="26">
-        <v>11.5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E289" s="27">
-        <v>97.75</v>
+        <v>30.75</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
@@ -7312,16 +7309,16 @@
         <v>293</v>
       </c>
       <c r="B290" s="24">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C290" s="25">
-        <v>25.85</v>
+        <v>7.5</v>
       </c>
       <c r="D290" s="26">
-        <v>9.4499999999999993</v>
+        <v>8.1</v>
       </c>
       <c r="E290" s="27">
-        <v>244.28</v>
+        <v>60.75</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
@@ -7330,13 +7327,13 @@
       </c>
       <c r="B291" s="24"/>
       <c r="C291" s="25">
-        <v>7.5</v>
+        <v>21.5</v>
       </c>
       <c r="D291" s="26">
-        <v>4.0999999999999996</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="E291" s="27">
-        <v>30.75</v>
+        <v>183.83</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
@@ -7344,31 +7341,33 @@
         <v>295</v>
       </c>
       <c r="B292" s="24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C292" s="25">
         <v>7.5</v>
       </c>
       <c r="D292" s="26">
-        <v>8.1</v>
+        <v>6.5</v>
       </c>
       <c r="E292" s="27">
-        <v>60.75</v>
+        <v>48.75</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="23" t="s">
         <v>296</v>
       </c>
-      <c r="B293" s="24"/>
+      <c r="B293" s="24">
+        <v>1</v>
+      </c>
       <c r="C293" s="25">
-        <v>21.5</v>
+        <v>7.5</v>
       </c>
       <c r="D293" s="26">
-        <v>8.5500000000000007</v>
+        <v>7.75</v>
       </c>
       <c r="E293" s="27">
-        <v>183.83</v>
+        <v>58.13</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
@@ -7376,16 +7375,16 @@
         <v>297</v>
       </c>
       <c r="B294" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C294" s="25">
-        <v>7.5</v>
+        <v>34</v>
       </c>
       <c r="D294" s="26">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="E294" s="27">
-        <v>48.75</v>
+        <v>224.4</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
@@ -7396,13 +7395,13 @@
         <v>1</v>
       </c>
       <c r="C295" s="25">
-        <v>7.5</v>
+        <v>12.5</v>
       </c>
       <c r="D295" s="26">
-        <v>7.75</v>
+        <v>5.5</v>
       </c>
       <c r="E295" s="27">
-        <v>58.13</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
@@ -7410,33 +7409,31 @@
         <v>299</v>
       </c>
       <c r="B296" s="24">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C296" s="25">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D296" s="26">
-        <v>6.6</v>
+        <v>5.25</v>
       </c>
       <c r="E296" s="27">
-        <v>224.4</v>
+        <v>136.5</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="23" t="s">
         <v>300</v>
       </c>
-      <c r="B297" s="24">
-        <v>1</v>
-      </c>
+      <c r="B297" s="24"/>
       <c r="C297" s="25">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="D297" s="26">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="E297" s="27">
-        <v>68.75</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
@@ -7444,31 +7441,33 @@
         <v>301</v>
       </c>
       <c r="B298" s="24">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C298" s="25">
-        <v>26</v>
+        <v>37.5</v>
       </c>
       <c r="D298" s="26">
-        <v>5.25</v>
+        <v>6.75</v>
       </c>
       <c r="E298" s="27">
-        <v>136.5</v>
+        <v>253.13</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="B299" s="24"/>
+      <c r="B299" s="24">
+        <v>2</v>
+      </c>
       <c r="C299" s="25">
-        <v>10.5</v>
+        <v>4</v>
       </c>
       <c r="D299" s="26">
         <v>9</v>
       </c>
       <c r="E299" s="27">
-        <v>94.5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
@@ -7476,16 +7475,16 @@
         <v>303</v>
       </c>
       <c r="B300" s="24">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C300" s="25">
-        <v>37.5</v>
+        <v>26.2</v>
       </c>
       <c r="D300" s="26">
-        <v>6.75</v>
+        <v>10</v>
       </c>
       <c r="E300" s="27">
-        <v>253.13</v>
+        <v>262</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
@@ -7493,33 +7492,31 @@
         <v>304</v>
       </c>
       <c r="B301" s="24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C301" s="25">
-        <v>4</v>
+        <v>9.5</v>
       </c>
       <c r="D301" s="26">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E301" s="27">
-        <v>36</v>
+        <v>104.5</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="B302" s="24">
-        <v>16</v>
-      </c>
+      <c r="B302" s="24"/>
       <c r="C302" s="25">
-        <v>26.2</v>
+        <v>14.5</v>
       </c>
       <c r="D302" s="26">
-        <v>10</v>
+        <v>5.7</v>
       </c>
       <c r="E302" s="27">
-        <v>262</v>
+        <v>82.65</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
@@ -7527,48 +7524,48 @@
         <v>306</v>
       </c>
       <c r="B303" s="24">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C303" s="25">
-        <v>9.5</v>
+        <v>105</v>
       </c>
       <c r="D303" s="26">
-        <v>11</v>
+        <v>4.28</v>
       </c>
       <c r="E303" s="27">
-        <v>104.5</v>
+        <v>449.4</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="23" t="s">
         <v>307</v>
       </c>
-      <c r="B304" s="24"/>
+      <c r="B304" s="24">
+        <v>15</v>
+      </c>
       <c r="C304" s="25">
-        <v>14.5</v>
+        <v>132.5</v>
       </c>
       <c r="D304" s="26">
-        <v>5.7</v>
+        <v>4.28</v>
       </c>
       <c r="E304" s="27">
-        <v>82.65</v>
+        <v>567.1</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="23" t="s">
         <v>308</v>
       </c>
-      <c r="B305" s="24">
-        <v>23</v>
-      </c>
+      <c r="B305" s="24"/>
       <c r="C305" s="25">
-        <v>105</v>
+        <v>28.5</v>
       </c>
       <c r="D305" s="26">
-        <v>4.28</v>
+        <v>7.5</v>
       </c>
       <c r="E305" s="27">
-        <v>449.4</v>
+        <v>213.75</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
@@ -7576,48 +7573,48 @@
         <v>309</v>
       </c>
       <c r="B306" s="24">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C306" s="25">
-        <v>132.5</v>
+        <v>34.5</v>
       </c>
       <c r="D306" s="26">
-        <v>4.28</v>
+        <v>7.97</v>
       </c>
       <c r="E306" s="27">
-        <v>567.1</v>
+        <v>275.01</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="23" t="s">
         <v>310</v>
       </c>
-      <c r="B307" s="24"/>
+      <c r="B307" s="24">
+        <v>2</v>
+      </c>
       <c r="C307" s="25">
-        <v>28.5</v>
+        <v>15</v>
       </c>
       <c r="D307" s="26">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="E307" s="27">
-        <v>213.75</v>
+        <v>135</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="23" t="s">
         <v>311</v>
       </c>
-      <c r="B308" s="24">
+      <c r="B308" s="24"/>
+      <c r="C308" s="25">
+        <v>10</v>
+      </c>
+      <c r="D308" s="26">
         <v>9</v>
       </c>
-      <c r="C308" s="25">
-        <v>34.5</v>
-      </c>
-      <c r="D308" s="26">
-        <v>7.97</v>
-      </c>
       <c r="E308" s="27">
-        <v>275.01</v>
+        <v>90</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
@@ -7625,31 +7622,33 @@
         <v>312</v>
       </c>
       <c r="B309" s="24">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C309" s="25">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D309" s="26">
         <v>9</v>
       </c>
       <c r="E309" s="27">
-        <v>135</v>
+        <v>216</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="23" t="s">
         <v>313</v>
       </c>
-      <c r="B310" s="24"/>
+      <c r="B310" s="24">
+        <v>8</v>
+      </c>
       <c r="C310" s="25">
-        <v>10</v>
+        <v>13.5</v>
       </c>
       <c r="D310" s="26">
         <v>9</v>
       </c>
       <c r="E310" s="27">
-        <v>90</v>
+        <v>121.5</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
@@ -7657,16 +7656,16 @@
         <v>314</v>
       </c>
       <c r="B311" s="24">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C311" s="25">
-        <v>24</v>
+        <v>59.5</v>
       </c>
       <c r="D311" s="26">
         <v>9</v>
       </c>
       <c r="E311" s="27">
-        <v>216</v>
+        <v>535.5</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
@@ -7674,16 +7673,16 @@
         <v>315</v>
       </c>
       <c r="B312" s="24">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C312" s="25">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="D312" s="26">
         <v>9</v>
       </c>
       <c r="E312" s="27">
-        <v>121.5</v>
+        <v>135</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
@@ -7691,16 +7690,16 @@
         <v>316</v>
       </c>
       <c r="B313" s="24">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C313" s="25">
-        <v>59.5</v>
+        <v>28</v>
       </c>
       <c r="D313" s="26">
         <v>9</v>
       </c>
       <c r="E313" s="27">
-        <v>535.5</v>
+        <v>252</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
@@ -7708,16 +7707,16 @@
         <v>317</v>
       </c>
       <c r="B314" s="24">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C314" s="25">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="D314" s="26">
         <v>9</v>
       </c>
       <c r="E314" s="27">
-        <v>135</v>
+        <v>157.5</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
@@ -7725,16 +7724,16 @@
         <v>318</v>
       </c>
       <c r="B315" s="24">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C315" s="25">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D315" s="26">
         <v>9</v>
       </c>
       <c r="E315" s="27">
-        <v>252</v>
+        <v>153</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
@@ -7742,16 +7741,16 @@
         <v>319</v>
       </c>
       <c r="B316" s="24">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C316" s="25">
-        <v>17.5</v>
+        <v>5.5</v>
       </c>
       <c r="D316" s="26">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E316" s="27">
-        <v>157.5</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
@@ -7762,77 +7761,77 @@
         <v>7</v>
       </c>
       <c r="C317" s="25">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D317" s="26">
-        <v>9</v>
+        <v>3.4</v>
       </c>
       <c r="E317" s="27">
-        <v>153</v>
+        <v>47.6</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="23" t="s">
         <v>321</v>
       </c>
-      <c r="B318" s="24">
-        <v>1</v>
-      </c>
+      <c r="B318" s="24"/>
       <c r="C318" s="25">
-        <v>5.5</v>
+        <v>10.5</v>
       </c>
       <c r="D318" s="26">
-        <v>7</v>
+        <v>9.1</v>
       </c>
       <c r="E318" s="27">
-        <v>38.5</v>
+        <v>95.55</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="23" t="s">
         <v>322</v>
       </c>
-      <c r="B319" s="24">
-        <v>7</v>
-      </c>
+      <c r="B319" s="24"/>
       <c r="C319" s="25">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D319" s="26">
-        <v>3.4</v>
+        <v>6.46</v>
       </c>
       <c r="E319" s="27">
-        <v>47.6</v>
+        <v>77.52</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="B320" s="24"/>
+      <c r="B320" s="24">
+        <v>4</v>
+      </c>
       <c r="C320" s="25">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="D320" s="26">
-        <v>9.1</v>
+        <v>6.46</v>
       </c>
       <c r="E320" s="27">
-        <v>95.55</v>
+        <v>77.52</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="23" t="s">
         <v>324</v>
       </c>
-      <c r="B321" s="24"/>
+      <c r="B321" s="24">
+        <v>3</v>
+      </c>
       <c r="C321" s="25">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="D321" s="26">
-        <v>6.46</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="E321" s="27">
-        <v>77.52</v>
+        <v>108.75</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
@@ -7840,16 +7839,16 @@
         <v>325</v>
       </c>
       <c r="B322" s="24">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C322" s="25">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D322" s="26">
-        <v>6.46</v>
+        <v>5.7</v>
       </c>
       <c r="E322" s="27">
-        <v>77.52</v>
+        <v>159.6</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
@@ -7857,16 +7856,16 @@
         <v>326</v>
       </c>
       <c r="B323" s="24">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C323" s="25">
-        <v>12.5</v>
+        <v>79.5</v>
       </c>
       <c r="D323" s="26">
-        <v>8.6999999999999993</v>
+        <v>5.94</v>
       </c>
       <c r="E323" s="27">
-        <v>108.75</v>
+        <v>472.23</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
@@ -7874,16 +7873,16 @@
         <v>327</v>
       </c>
       <c r="B324" s="24">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C324" s="25">
-        <v>28</v>
+        <v>7.5</v>
       </c>
       <c r="D324" s="26">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="E324" s="27">
-        <v>159.6</v>
+        <v>48</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
@@ -7891,16 +7890,16 @@
         <v>328</v>
       </c>
       <c r="B325" s="24">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C325" s="25">
-        <v>79.5</v>
+        <v>10.5</v>
       </c>
       <c r="D325" s="26">
-        <v>5.94</v>
+        <v>7.36</v>
       </c>
       <c r="E325" s="27">
-        <v>472.23</v>
+        <v>77.28</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
@@ -7908,16 +7907,16 @@
         <v>329</v>
       </c>
       <c r="B326" s="24">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C326" s="25">
-        <v>7.5</v>
+        <v>61.85</v>
       </c>
       <c r="D326" s="26">
-        <v>6.4</v>
+        <v>4.75</v>
       </c>
       <c r="E326" s="27">
-        <v>48</v>
+        <v>293.79000000000002</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
@@ -7925,33 +7924,31 @@
         <v>330</v>
       </c>
       <c r="B327" s="24">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C327" s="25">
-        <v>10.5</v>
+        <v>15.5</v>
       </c>
       <c r="D327" s="26">
-        <v>7.36</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="E327" s="27">
-        <v>77.28</v>
+        <v>142.6</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="23" t="s">
         <v>331</v>
       </c>
-      <c r="B328" s="24">
-        <v>26</v>
-      </c>
+      <c r="B328" s="24"/>
       <c r="C328" s="25">
-        <v>61.85</v>
+        <v>11</v>
       </c>
       <c r="D328" s="26">
-        <v>4.75</v>
+        <v>7.36</v>
       </c>
       <c r="E328" s="27">
-        <v>293.79000000000002</v>
+        <v>80.959999999999994</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
@@ -7959,31 +7956,33 @@
         <v>332</v>
       </c>
       <c r="B329" s="24">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C329" s="25">
-        <v>15.5</v>
+        <v>29</v>
       </c>
       <c r="D329" s="26">
-        <v>9.1999999999999993</v>
+        <v>10.5</v>
       </c>
       <c r="E329" s="27">
-        <v>142.6</v>
+        <v>304.5</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="23" t="s">
         <v>333</v>
       </c>
-      <c r="B330" s="24"/>
+      <c r="B330" s="24">
+        <v>15</v>
+      </c>
       <c r="C330" s="25">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D330" s="26">
-        <v>7.36</v>
+        <v>7.82</v>
       </c>
       <c r="E330" s="27">
-        <v>80.959999999999994</v>
+        <v>54.71</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
@@ -7991,16 +7990,16 @@
         <v>334</v>
       </c>
       <c r="B331" s="24">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C331" s="25">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="D331" s="26">
-        <v>10.5</v>
+        <v>6.64</v>
       </c>
       <c r="E331" s="27">
-        <v>304.5</v>
+        <v>378.55</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
@@ -8008,16 +8007,16 @@
         <v>335</v>
       </c>
       <c r="B332" s="24">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C332" s="25">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D332" s="26">
-        <v>7.82</v>
+        <v>7.3</v>
       </c>
       <c r="E332" s="27">
-        <v>54.71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
@@ -8025,16 +8024,16 @@
         <v>336</v>
       </c>
       <c r="B333" s="24">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C333" s="25">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="D333" s="26">
-        <v>6.64</v>
+        <v>10.5</v>
       </c>
       <c r="E333" s="27">
-        <v>378.55</v>
+        <v>168</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
@@ -8042,16 +8041,16 @@
         <v>337</v>
       </c>
       <c r="B334" s="24">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C334" s="25">
-        <v>10</v>
+        <v>128.5</v>
       </c>
       <c r="D334" s="26">
-        <v>7.3</v>
+        <v>7.76</v>
       </c>
       <c r="E334" s="27">
-        <v>73</v>
+        <v>996.81</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
@@ -8059,16 +8058,16 @@
         <v>338</v>
       </c>
       <c r="B335" s="24">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C335" s="25">
-        <v>16</v>
+        <v>60.5</v>
       </c>
       <c r="D335" s="26">
-        <v>10.5</v>
+        <v>7.13</v>
       </c>
       <c r="E335" s="27">
-        <v>168</v>
+        <v>431.37</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
@@ -8076,16 +8075,16 @@
         <v>339</v>
       </c>
       <c r="B336" s="24">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C336" s="25">
-        <v>128.5</v>
+        <v>36.5</v>
       </c>
       <c r="D336" s="26">
-        <v>7.76</v>
+        <v>6.65</v>
       </c>
       <c r="E336" s="27">
-        <v>996.81</v>
+        <v>242.73</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
@@ -8093,16 +8092,16 @@
         <v>340</v>
       </c>
       <c r="B337" s="24">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C337" s="25">
-        <v>60.5</v>
+        <v>30</v>
       </c>
       <c r="D337" s="26">
-        <v>7.13</v>
+        <v>5.94</v>
       </c>
       <c r="E337" s="27">
-        <v>431.37</v>
+        <v>178.2</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
@@ -8110,16 +8109,16 @@
         <v>341</v>
       </c>
       <c r="B338" s="24">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C338" s="25">
-        <v>36.5</v>
+        <v>19</v>
       </c>
       <c r="D338" s="26">
-        <v>6.65</v>
+        <v>7.2</v>
       </c>
       <c r="E338" s="27">
-        <v>242.73</v>
+        <v>136.80000000000001</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
@@ -8127,16 +8126,16 @@
         <v>342</v>
       </c>
       <c r="B339" s="24">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C339" s="25">
-        <v>30</v>
+        <v>30.5</v>
       </c>
       <c r="D339" s="26">
-        <v>5.94</v>
+        <v>6.18</v>
       </c>
       <c r="E339" s="27">
-        <v>178.2</v>
+        <v>188.49</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
@@ -8144,16 +8143,16 @@
         <v>343</v>
       </c>
       <c r="B340" s="24">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C340" s="25">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="D340" s="26">
-        <v>7.2</v>
+        <v>7.13</v>
       </c>
       <c r="E340" s="27">
-        <v>136.80000000000001</v>
+        <v>385.02</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
@@ -8161,16 +8160,16 @@
         <v>344</v>
       </c>
       <c r="B341" s="24">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C341" s="25">
         <v>30.5</v>
       </c>
       <c r="D341" s="26">
-        <v>6.18</v>
+        <v>7</v>
       </c>
       <c r="E341" s="27">
-        <v>188.49</v>
+        <v>213.5</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
@@ -8178,16 +8177,16 @@
         <v>345</v>
       </c>
       <c r="B342" s="24">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C342" s="25">
-        <v>54</v>
+        <v>247</v>
       </c>
       <c r="D342" s="26">
-        <v>7.13</v>
+        <v>6.6</v>
       </c>
       <c r="E342" s="27">
-        <v>385.02</v>
+        <v>1630.2</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
@@ -8195,16 +8194,16 @@
         <v>346</v>
       </c>
       <c r="B343" s="24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C343" s="25">
-        <v>30.5</v>
+        <v>14</v>
       </c>
       <c r="D343" s="26">
-        <v>7</v>
+        <v>7.52</v>
       </c>
       <c r="E343" s="27">
-        <v>213.5</v>
+        <v>105.28</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
@@ -8212,16 +8211,16 @@
         <v>347</v>
       </c>
       <c r="B344" s="24">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="C344" s="25">
-        <v>247</v>
+        <v>16</v>
       </c>
       <c r="D344" s="26">
-        <v>6.6</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="E344" s="27">
-        <v>1630.2</v>
+        <v>131.19999999999999</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
@@ -8229,16 +8228,16 @@
         <v>348</v>
       </c>
       <c r="B345" s="24">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C345" s="25">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D345" s="26">
-        <v>7.52</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="E345" s="27">
-        <v>105.28</v>
+        <v>106.6</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
@@ -8246,16 +8245,16 @@
         <v>349</v>
       </c>
       <c r="B346" s="24">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C346" s="25">
-        <v>16</v>
+        <v>37.5</v>
       </c>
       <c r="D346" s="26">
         <v>8.1999999999999993</v>
       </c>
       <c r="E346" s="27">
-        <v>131.19999999999999</v>
+        <v>307.5</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
@@ -8263,16 +8262,16 @@
         <v>350</v>
       </c>
       <c r="B347" s="24">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="C347" s="25">
-        <v>13</v>
+        <v>83.45</v>
       </c>
       <c r="D347" s="26">
-        <v>8.1999999999999993</v>
+        <v>4.5</v>
       </c>
       <c r="E347" s="27">
-        <v>106.6</v>
+        <v>375.53</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
@@ -8280,16 +8279,16 @@
         <v>351</v>
       </c>
       <c r="B348" s="24">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C348" s="25">
-        <v>37.5</v>
+        <v>42.5</v>
       </c>
       <c r="D348" s="26">
-        <v>8.1999999999999993</v>
+        <v>8.08</v>
       </c>
       <c r="E348" s="27">
-        <v>307.5</v>
+        <v>343.4</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
@@ -8297,16 +8296,16 @@
         <v>352</v>
       </c>
       <c r="B349" s="24">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="C349" s="25">
-        <v>87.45</v>
+        <v>25</v>
       </c>
       <c r="D349" s="26">
-        <v>4.5</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="E349" s="27">
-        <v>393.53</v>
+        <v>230</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
@@ -8314,16 +8313,16 @@
         <v>353</v>
       </c>
       <c r="B350" s="24">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C350" s="25">
-        <v>42.5</v>
+        <v>36.5</v>
       </c>
       <c r="D350" s="26">
-        <v>8.08</v>
+        <v>8.25</v>
       </c>
       <c r="E350" s="27">
-        <v>343.4</v>
+        <v>301.13</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
@@ -8331,16 +8330,16 @@
         <v>354</v>
       </c>
       <c r="B351" s="24">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C351" s="25">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="D351" s="26">
-        <v>9.1999999999999993</v>
+        <v>7</v>
       </c>
       <c r="E351" s="27">
-        <v>230</v>
+        <v>385</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
@@ -8348,16 +8347,16 @@
         <v>355</v>
       </c>
       <c r="B352" s="24">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C352" s="25">
-        <v>36.5</v>
+        <v>5.5</v>
       </c>
       <c r="D352" s="26">
-        <v>8.25</v>
+        <v>9.5</v>
       </c>
       <c r="E352" s="27">
-        <v>301.13</v>
+        <v>52.25</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
@@ -8365,16 +8364,16 @@
         <v>356</v>
       </c>
       <c r="B353" s="24">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C353" s="25">
-        <v>55</v>
+        <v>34.5</v>
       </c>
       <c r="D353" s="26">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="E353" s="27">
-        <v>385</v>
+        <v>124.2</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
@@ -8382,16 +8381,16 @@
         <v>357</v>
       </c>
       <c r="B354" s="24">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C354" s="25">
-        <v>5.5</v>
+        <v>67</v>
       </c>
       <c r="D354" s="26">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="E354" s="27">
-        <v>52.25</v>
+        <v>402</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
@@ -8399,16 +8398,16 @@
         <v>358</v>
       </c>
       <c r="B355" s="24">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C355" s="25">
-        <v>34.5</v>
+        <v>7.5</v>
       </c>
       <c r="D355" s="26">
-        <v>3.6</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="E355" s="27">
-        <v>124.2</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
@@ -8416,16 +8415,16 @@
         <v>359</v>
       </c>
       <c r="B356" s="24">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C356" s="25">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="D356" s="26">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="E356" s="27">
-        <v>402</v>
+        <v>184.5</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
@@ -8433,16 +8432,16 @@
         <v>360</v>
       </c>
       <c r="B357" s="24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C357" s="25">
-        <v>7.5</v>
+        <v>12.5</v>
       </c>
       <c r="D357" s="26">
-        <v>10.199999999999999</v>
+        <v>9.75</v>
       </c>
       <c r="E357" s="27">
-        <v>76.5</v>
+        <v>121.88</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
@@ -8450,16 +8449,16 @@
         <v>361</v>
       </c>
       <c r="B358" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C358" s="25">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D358" s="26">
-        <v>4.5</v>
+        <v>8.4700000000000006</v>
       </c>
       <c r="E358" s="27">
-        <v>184.5</v>
+        <v>220.3</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
@@ -8467,16 +8466,16 @@
         <v>362</v>
       </c>
       <c r="B359" s="24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C359" s="25">
-        <v>12.5</v>
+        <v>24</v>
       </c>
       <c r="D359" s="26">
-        <v>9.75</v>
+        <v>8</v>
       </c>
       <c r="E359" s="27">
-        <v>121.88</v>
+        <v>192</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
@@ -8484,16 +8483,16 @@
         <v>363</v>
       </c>
       <c r="B360" s="24">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C360" s="25">
-        <v>26</v>
+        <v>28.5</v>
       </c>
       <c r="D360" s="26">
-        <v>8.4700000000000006</v>
+        <v>5.3</v>
       </c>
       <c r="E360" s="27">
-        <v>220.3</v>
+        <v>151.05000000000001</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
@@ -8501,16 +8500,16 @@
         <v>364</v>
       </c>
       <c r="B361" s="24">
+        <v>4</v>
+      </c>
+      <c r="C361" s="25">
         <v>1</v>
       </c>
-      <c r="C361" s="25">
-        <v>24</v>
-      </c>
       <c r="D361" s="26">
-        <v>8</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="E361" s="27">
-        <v>192</v>
+        <v>8.5500000000000007</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
@@ -8518,16 +8517,16 @@
         <v>365</v>
       </c>
       <c r="B362" s="24">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C362" s="25">
-        <v>28.5</v>
+        <v>22</v>
       </c>
       <c r="D362" s="26">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="E362" s="27">
-        <v>151.05000000000001</v>
+        <v>125.4</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
@@ -8535,16 +8534,16 @@
         <v>366</v>
       </c>
       <c r="B363" s="24">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C363" s="25">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D363" s="26">
-        <v>8.5500000000000007</v>
+        <v>5.7</v>
       </c>
       <c r="E363" s="27">
-        <v>8.5500000000000007</v>
+        <v>102.6</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
@@ -8552,16 +8551,16 @@
         <v>367</v>
       </c>
       <c r="B364" s="24">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C364" s="25">
-        <v>22</v>
+        <v>-4.5</v>
       </c>
       <c r="D364" s="26">
-        <v>5.7</v>
+        <v>3.6</v>
       </c>
       <c r="E364" s="27">
-        <v>125.4</v>
+        <v>-16.2</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
@@ -8569,16 +8568,16 @@
         <v>368</v>
       </c>
       <c r="B365" s="24">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C365" s="25">
-        <v>18</v>
+        <v>27.5</v>
       </c>
       <c r="D365" s="26">
-        <v>5.7</v>
+        <v>9.85</v>
       </c>
       <c r="E365" s="27">
-        <v>102.6</v>
+        <v>270.82</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
@@ -8586,33 +8585,31 @@
         <v>369</v>
       </c>
       <c r="B366" s="24">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C366" s="25">
-        <v>5.5</v>
+        <v>12.5</v>
       </c>
       <c r="D366" s="26">
-        <v>3.6</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="E366" s="27">
-        <v>19.8</v>
+        <v>108.75</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="23" t="s">
         <v>370</v>
       </c>
-      <c r="B367" s="24">
-        <v>14</v>
-      </c>
+      <c r="B367" s="24"/>
       <c r="C367" s="25">
-        <v>27.5</v>
+        <v>28</v>
       </c>
       <c r="D367" s="26">
-        <v>9.85</v>
+        <v>5.7</v>
       </c>
       <c r="E367" s="27">
-        <v>270.82</v>
+        <v>159.6</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
@@ -8620,31 +8617,33 @@
         <v>371</v>
       </c>
       <c r="B368" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C368" s="25">
-        <v>12.5</v>
+        <v>1</v>
       </c>
       <c r="D368" s="26">
-        <v>8.6999999999999993</v>
+        <v>7</v>
       </c>
       <c r="E368" s="27">
-        <v>108.75</v>
+        <v>7</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="23" t="s">
         <v>372</v>
       </c>
-      <c r="B369" s="24"/>
+      <c r="B369" s="24">
+        <v>15</v>
+      </c>
       <c r="C369" s="25">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D369" s="26">
-        <v>5.7</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="E369" s="27">
-        <v>159.6</v>
+        <v>145.35</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
@@ -8652,16 +8651,16 @@
         <v>373</v>
       </c>
       <c r="B370" s="24">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C370" s="25">
-        <v>1</v>
+        <v>30.5</v>
       </c>
       <c r="D370" s="26">
-        <v>7</v>
+        <v>6.65</v>
       </c>
       <c r="E370" s="27">
-        <v>7</v>
+        <v>202.83</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
@@ -8669,16 +8668,16 @@
         <v>374</v>
       </c>
       <c r="B371" s="24">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C371" s="25">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D371" s="26">
-        <v>8.5500000000000007</v>
+        <v>6.18</v>
       </c>
       <c r="E371" s="27">
-        <v>145.35</v>
+        <v>123.6</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
@@ -8686,16 +8685,16 @@
         <v>375</v>
       </c>
       <c r="B372" s="24">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C372" s="25">
-        <v>30.5</v>
+        <v>20</v>
       </c>
       <c r="D372" s="26">
-        <v>6.65</v>
+        <v>6.4</v>
       </c>
       <c r="E372" s="27">
-        <v>202.83</v>
+        <v>128</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
@@ -8703,16 +8702,16 @@
         <v>376</v>
       </c>
       <c r="B373" s="24">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C373" s="25">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="D373" s="26">
-        <v>6.18</v>
+        <v>6.65</v>
       </c>
       <c r="E373" s="27">
-        <v>123.6</v>
+        <v>116.38</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
@@ -8720,33 +8719,31 @@
         <v>377</v>
       </c>
       <c r="B374" s="24">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C374" s="25">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D374" s="26">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="E374" s="27">
-        <v>128</v>
+        <v>217</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="23" t="s">
         <v>378</v>
       </c>
-      <c r="B375" s="24">
-        <v>19</v>
-      </c>
+      <c r="B375" s="24"/>
       <c r="C375" s="25">
-        <v>17.5</v>
+        <v>2.5</v>
       </c>
       <c r="D375" s="26">
-        <v>6.65</v>
+        <v>7.8</v>
       </c>
       <c r="E375" s="27">
-        <v>116.38</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
@@ -8754,16 +8751,16 @@
         <v>379</v>
       </c>
       <c r="B376" s="24">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C376" s="25">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D376" s="26">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="E376" s="27">
-        <v>217</v>
+        <v>262.5</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
@@ -8772,13 +8769,13 @@
       </c>
       <c r="B377" s="24"/>
       <c r="C377" s="25">
-        <v>2.5</v>
+        <v>20</v>
       </c>
       <c r="D377" s="26">
-        <v>7.8</v>
+        <v>7.13</v>
       </c>
       <c r="E377" s="27">
-        <v>19.5</v>
+        <v>142.6</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
@@ -8786,31 +8783,33 @@
         <v>381</v>
       </c>
       <c r="B378" s="24">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C378" s="25">
-        <v>35</v>
+        <v>28.5</v>
       </c>
       <c r="D378" s="26">
-        <v>7.5</v>
+        <v>7.13</v>
       </c>
       <c r="E378" s="27">
-        <v>262.5</v>
+        <v>203.21</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="23" t="s">
         <v>382</v>
       </c>
-      <c r="B379" s="24"/>
+      <c r="B379" s="24">
+        <v>2</v>
+      </c>
       <c r="C379" s="25">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D379" s="26">
-        <v>7.13</v>
+        <v>10</v>
       </c>
       <c r="E379" s="27">
-        <v>142.6</v>
+        <v>150</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
@@ -8818,16 +8817,16 @@
         <v>383</v>
       </c>
       <c r="B380" s="24">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C380" s="25">
-        <v>28.5</v>
+        <v>37</v>
       </c>
       <c r="D380" s="26">
-        <v>7.13</v>
+        <v>5.7</v>
       </c>
       <c r="E380" s="27">
-        <v>203.21</v>
+        <v>210.9</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
@@ -8838,13 +8837,13 @@
         <v>2</v>
       </c>
       <c r="C381" s="25">
-        <v>15</v>
+        <v>2.5</v>
       </c>
       <c r="D381" s="26">
-        <v>10</v>
+        <v>7.6</v>
       </c>
       <c r="E381" s="27">
-        <v>150</v>
+        <v>19</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
@@ -8852,16 +8851,16 @@
         <v>385</v>
       </c>
       <c r="B382" s="24">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C382" s="25">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="D382" s="26">
-        <v>5.7</v>
+        <v>5.2</v>
       </c>
       <c r="E382" s="27">
-        <v>210.9</v>
+        <v>452.4</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
@@ -8869,33 +8868,31 @@
         <v>386</v>
       </c>
       <c r="B383" s="24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C383" s="25">
-        <v>2.5</v>
+        <v>22.5</v>
       </c>
       <c r="D383" s="26">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="E383" s="27">
-        <v>19</v>
+        <v>180</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="23" t="s">
         <v>387</v>
       </c>
-      <c r="B384" s="24">
-        <v>30</v>
-      </c>
+      <c r="B384" s="24"/>
       <c r="C384" s="25">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="D384" s="26">
-        <v>5.2</v>
+        <v>8</v>
       </c>
       <c r="E384" s="27">
-        <v>452.4</v>
+        <v>192</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
@@ -8903,16 +8900,16 @@
         <v>388</v>
       </c>
       <c r="B385" s="24">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C385" s="25">
-        <v>22.5</v>
+        <v>62.5</v>
       </c>
       <c r="D385" s="26">
-        <v>8</v>
+        <v>5.3</v>
       </c>
       <c r="E385" s="27">
-        <v>180</v>
+        <v>331.25</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
@@ -8921,13 +8918,13 @@
       </c>
       <c r="B386" s="24"/>
       <c r="C386" s="25">
-        <v>24</v>
+        <v>16.5</v>
       </c>
       <c r="D386" s="26">
-        <v>8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E386" s="27">
-        <v>192</v>
+        <v>80.849999999999994</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
@@ -8935,16 +8932,16 @@
         <v>390</v>
       </c>
       <c r="B387" s="24">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C387" s="25">
-        <v>62.5</v>
+        <v>97.5</v>
       </c>
       <c r="D387" s="26">
-        <v>5.3</v>
+        <v>6.17</v>
       </c>
       <c r="E387" s="27">
-        <v>331.25</v>
+        <v>601.11</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
@@ -8953,13 +8950,13 @@
       </c>
       <c r="B388" s="24"/>
       <c r="C388" s="25">
-        <v>16.5</v>
+        <v>27</v>
       </c>
       <c r="D388" s="26">
-        <v>4.9000000000000004</v>
+        <v>7.8</v>
       </c>
       <c r="E388" s="27">
-        <v>80.849999999999994</v>
+        <v>210.6</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
@@ -8967,48 +8964,48 @@
         <v>392</v>
       </c>
       <c r="B389" s="24">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C389" s="25">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="D389" s="26">
-        <v>6.17</v>
+        <v>6.46</v>
       </c>
       <c r="E389" s="27">
-        <v>616.53</v>
+        <v>116.28</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="B390" s="24"/>
+      <c r="B390" s="24">
+        <v>4</v>
+      </c>
       <c r="C390" s="25">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D390" s="26">
-        <v>7.8</v>
+        <v>6.46</v>
       </c>
       <c r="E390" s="27">
-        <v>210.6</v>
+        <v>71.06</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" s="23" t="s">
         <v>394</v>
       </c>
-      <c r="B391" s="24">
-        <v>17</v>
-      </c>
+      <c r="B391" s="24"/>
       <c r="C391" s="25">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D391" s="26">
-        <v>6.46</v>
+        <v>9</v>
       </c>
       <c r="E391" s="27">
-        <v>116.28</v>
+        <v>99</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
@@ -9016,16 +9013,16 @@
         <v>395</v>
       </c>
       <c r="B392" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C392" s="25">
-        <v>11</v>
+        <v>21.5</v>
       </c>
       <c r="D392" s="26">
-        <v>6.46</v>
+        <v>9</v>
       </c>
       <c r="E392" s="27">
-        <v>71.06</v>
+        <v>193.5</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
@@ -9034,13 +9031,13 @@
       </c>
       <c r="B393" s="24"/>
       <c r="C393" s="25">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="D393" s="26">
-        <v>9</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="E393" s="27">
-        <v>99</v>
+        <v>126.15</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
@@ -9048,31 +9045,33 @@
         <v>397</v>
       </c>
       <c r="B394" s="24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C394" s="25">
-        <v>21.5</v>
+        <v>41</v>
       </c>
       <c r="D394" s="26">
-        <v>9</v>
+        <v>8.35</v>
       </c>
       <c r="E394" s="27">
-        <v>193.5</v>
+        <v>342.18</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="23" t="s">
         <v>398</v>
       </c>
-      <c r="B395" s="24"/>
+      <c r="B395" s="24">
+        <v>6</v>
+      </c>
       <c r="C395" s="25">
-        <v>14.5</v>
+        <v>35</v>
       </c>
       <c r="D395" s="26">
-        <v>8.6999999999999993</v>
+        <v>6</v>
       </c>
       <c r="E395" s="27">
-        <v>126.15</v>
+        <v>210</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
@@ -9080,16 +9079,16 @@
         <v>399</v>
       </c>
       <c r="B396" s="24">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C396" s="25">
-        <v>7.5</v>
+        <v>49.5</v>
       </c>
       <c r="D396" s="26">
-        <v>5.23</v>
+        <v>5</v>
       </c>
       <c r="E396" s="27">
-        <v>39.229999999999997</v>
+        <v>247.5</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
@@ -9097,67 +9096,61 @@
         <v>400</v>
       </c>
       <c r="B397" s="24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C397" s="25">
-        <v>41</v>
+        <v>0.5</v>
       </c>
       <c r="D397" s="26">
-        <v>8.35</v>
+        <v>6.2</v>
       </c>
       <c r="E397" s="27">
-        <v>342.18</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" s="23" t="s">
         <v>401</v>
       </c>
-      <c r="B398" s="24">
-        <v>6</v>
-      </c>
+      <c r="B398" s="24"/>
       <c r="C398" s="25">
-        <v>35</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="D398" s="26">
-        <v>6</v>
+        <v>5.19</v>
       </c>
       <c r="E398" s="27">
-        <v>210</v>
+        <v>50.83</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="23" t="s">
         <v>402</v>
       </c>
-      <c r="B399" s="24">
-        <v>13</v>
-      </c>
+      <c r="B399" s="24"/>
       <c r="C399" s="25">
-        <v>54.5</v>
+        <v>28.2</v>
       </c>
       <c r="D399" s="26">
-        <v>5</v>
+        <v>5.31</v>
       </c>
       <c r="E399" s="27">
-        <v>272.5</v>
+        <v>149.81</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="23" t="s">
         <v>403</v>
       </c>
-      <c r="B400" s="24">
-        <v>4</v>
-      </c>
+      <c r="B400" s="24"/>
       <c r="C400" s="25">
-        <v>0.5</v>
+        <v>29</v>
       </c>
       <c r="D400" s="26">
-        <v>6.2</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="E400" s="27">
-        <v>3.1</v>
+        <v>140.65</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
@@ -9166,13 +9159,13 @@
       </c>
       <c r="B401" s="24"/>
       <c r="C401" s="25">
-        <v>9.8000000000000007</v>
+        <v>26</v>
       </c>
       <c r="D401" s="26">
-        <v>5.19</v>
+        <v>5.35</v>
       </c>
       <c r="E401" s="27">
-        <v>50.83</v>
+        <v>139.1</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
@@ -9181,13 +9174,13 @@
       </c>
       <c r="B402" s="24"/>
       <c r="C402" s="25">
-        <v>28.2</v>
+        <v>5</v>
       </c>
       <c r="D402" s="26">
-        <v>5.31</v>
+        <v>5.35</v>
       </c>
       <c r="E402" s="27">
-        <v>149.81</v>
+        <v>26.75</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
@@ -9196,13 +9189,13 @@
       </c>
       <c r="B403" s="24"/>
       <c r="C403" s="25">
-        <v>29</v>
+        <v>15.5</v>
       </c>
       <c r="D403" s="26">
-        <v>4.8499999999999996</v>
+        <v>16</v>
       </c>
       <c r="E403" s="27">
-        <v>140.65</v>
+        <v>248</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
@@ -9211,58 +9204,64 @@
       </c>
       <c r="B404" s="24"/>
       <c r="C404" s="25">
-        <v>26</v>
+        <v>15.5</v>
       </c>
       <c r="D404" s="26">
-        <v>5.35</v>
+        <v>15.5</v>
       </c>
       <c r="E404" s="27">
-        <v>139.1</v>
+        <v>240.25</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" s="23" t="s">
         <v>408</v>
       </c>
-      <c r="B405" s="24"/>
+      <c r="B405" s="24">
+        <v>1</v>
+      </c>
       <c r="C405" s="25">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D405" s="26">
-        <v>5.35</v>
+        <v>13</v>
       </c>
       <c r="E405" s="27">
-        <v>26.75</v>
+        <v>91</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" s="23" t="s">
         <v>409</v>
       </c>
-      <c r="B406" s="24"/>
+      <c r="B406" s="24">
+        <v>7</v>
+      </c>
       <c r="C406" s="25">
-        <v>15.5</v>
+        <v>19.5</v>
       </c>
       <c r="D406" s="26">
-        <v>16</v>
+        <v>11.75</v>
       </c>
       <c r="E406" s="27">
-        <v>248</v>
+        <v>229.13</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" s="23" t="s">
         <v>410</v>
       </c>
-      <c r="B407" s="24"/>
+      <c r="B407" s="24">
+        <v>4</v>
+      </c>
       <c r="C407" s="25">
-        <v>15.5</v>
+        <v>21.5</v>
       </c>
       <c r="D407" s="26">
-        <v>15.5</v>
+        <v>8.75</v>
       </c>
       <c r="E407" s="27">
-        <v>240.25</v>
+        <v>188.13</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
@@ -9270,16 +9269,16 @@
         <v>411</v>
       </c>
       <c r="B408" s="24">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C408" s="25">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="D408" s="26">
-        <v>13</v>
+        <v>9.75</v>
       </c>
       <c r="E408" s="27">
-        <v>91</v>
+        <v>24.38</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
@@ -9287,16 +9286,16 @@
         <v>412</v>
       </c>
       <c r="B409" s="24">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C409" s="25">
-        <v>19.5</v>
+        <v>8</v>
       </c>
       <c r="D409" s="26">
-        <v>11.75</v>
+        <v>15.5</v>
       </c>
       <c r="E409" s="27">
-        <v>229.13</v>
+        <v>124</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
@@ -9304,16 +9303,16 @@
         <v>413</v>
       </c>
       <c r="B410" s="24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C410" s="25">
-        <v>21.5</v>
+        <v>8.5</v>
       </c>
       <c r="D410" s="26">
-        <v>8.75</v>
+        <v>16</v>
       </c>
       <c r="E410" s="27">
-        <v>188.13</v>
+        <v>136</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
@@ -9321,16 +9320,16 @@
         <v>414</v>
       </c>
       <c r="B411" s="24">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C411" s="25">
-        <v>2.5</v>
+        <v>5.8</v>
       </c>
       <c r="D411" s="26">
-        <v>9.75</v>
+        <v>13</v>
       </c>
       <c r="E411" s="27">
-        <v>24.38</v>
+        <v>75.400000000000006</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
@@ -9341,13 +9340,13 @@
         <v>2</v>
       </c>
       <c r="C412" s="25">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="D412" s="26">
-        <v>15.5</v>
+        <v>11</v>
       </c>
       <c r="E412" s="27">
-        <v>124</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
@@ -9358,13 +9357,13 @@
         <v>2</v>
       </c>
       <c r="C413" s="25">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="D413" s="26">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E413" s="27">
-        <v>136</v>
+        <v>63</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
@@ -9372,16 +9371,16 @@
         <v>417</v>
       </c>
       <c r="B414" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C414" s="25">
-        <v>5.8</v>
+        <v>8</v>
       </c>
       <c r="D414" s="26">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E414" s="27">
-        <v>75.400000000000006</v>
+        <v>72</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
@@ -9389,16 +9388,16 @@
         <v>418</v>
       </c>
       <c r="B415" s="24">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C415" s="25">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="D415" s="26">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="E415" s="27">
-        <v>71.5</v>
+        <v>99.75</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
@@ -9409,13 +9408,13 @@
         <v>2</v>
       </c>
       <c r="C416" s="25">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="D416" s="26">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E416" s="27">
-        <v>63</v>
+        <v>171</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
@@ -9426,13 +9425,13 @@
         <v>1</v>
       </c>
       <c r="C417" s="25">
-        <v>8</v>
+        <v>15.5</v>
       </c>
       <c r="D417" s="26">
-        <v>9</v>
+        <v>16.3</v>
       </c>
       <c r="E417" s="27">
-        <v>72</v>
+        <v>252.65</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
@@ -9440,16 +9439,16 @@
         <v>421</v>
       </c>
       <c r="B418" s="24">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C418" s="25">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="D418" s="26">
-        <v>10.5</v>
+        <v>16.3</v>
       </c>
       <c r="E418" s="27">
-        <v>99.75</v>
+        <v>163</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
@@ -9457,16 +9456,16 @@
         <v>422</v>
       </c>
       <c r="B419" s="24">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C419" s="25">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="D419" s="26">
-        <v>18</v>
+        <v>9.75</v>
       </c>
       <c r="E419" s="27">
-        <v>171</v>
+        <v>146.25</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
@@ -9474,16 +9473,16 @@
         <v>423</v>
       </c>
       <c r="B420" s="24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C420" s="25">
-        <v>15.5</v>
+        <v>8</v>
       </c>
       <c r="D420" s="26">
-        <v>16.3</v>
+        <v>9.75</v>
       </c>
       <c r="E420" s="27">
-        <v>252.65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
@@ -9491,16 +9490,16 @@
         <v>424</v>
       </c>
       <c r="B421" s="24">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C421" s="25">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="D421" s="26">
-        <v>16.3</v>
+        <v>14.25</v>
       </c>
       <c r="E421" s="27">
-        <v>163</v>
+        <v>135.38</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
@@ -9508,33 +9507,31 @@
         <v>425</v>
       </c>
       <c r="B422" s="24">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C422" s="25">
-        <v>15</v>
+        <v>8.5</v>
       </c>
       <c r="D422" s="26">
-        <v>9.75</v>
+        <v>29.7</v>
       </c>
       <c r="E422" s="27">
-        <v>146.25</v>
+        <v>252.45</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" s="23" t="s">
         <v>426</v>
       </c>
-      <c r="B423" s="24">
-        <v>4</v>
-      </c>
+      <c r="B423" s="24"/>
       <c r="C423" s="25">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D423" s="26">
-        <v>9.75</v>
+        <v>28.5</v>
       </c>
       <c r="E423" s="27">
-        <v>78</v>
+        <v>142.5</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
@@ -9542,16 +9539,16 @@
         <v>427</v>
       </c>
       <c r="B424" s="24">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C424" s="25">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="D424" s="26">
-        <v>14.25</v>
+        <v>22.5</v>
       </c>
       <c r="E424" s="27">
-        <v>135.38</v>
+        <v>157.5</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
@@ -9562,28 +9559,30 @@
         <v>1</v>
       </c>
       <c r="C425" s="25">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="D425" s="26">
-        <v>29.7</v>
+        <v>18</v>
       </c>
       <c r="E425" s="27">
-        <v>252.45</v>
+        <v>180</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" s="23" t="s">
         <v>429</v>
       </c>
-      <c r="B426" s="24"/>
+      <c r="B426" s="24">
+        <v>1</v>
+      </c>
       <c r="C426" s="25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D426" s="26">
-        <v>28.5</v>
+        <v>14</v>
       </c>
       <c r="E426" s="27">
-        <v>142.5</v>
+        <v>56</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
@@ -9591,16 +9590,16 @@
         <v>430</v>
       </c>
       <c r="B427" s="24">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C427" s="25">
-        <v>7</v>
+        <v>19.5</v>
       </c>
       <c r="D427" s="26">
-        <v>22.5</v>
+        <v>10.5</v>
       </c>
       <c r="E427" s="27">
-        <v>157.5</v>
+        <v>204.75</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
@@ -9608,33 +9607,31 @@
         <v>431</v>
       </c>
       <c r="B428" s="24">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C428" s="25">
+        <v>11</v>
+      </c>
+      <c r="D428" s="26">
         <v>10</v>
       </c>
-      <c r="D428" s="26">
-        <v>18</v>
-      </c>
       <c r="E428" s="27">
-        <v>180</v>
+        <v>110</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" s="23" t="s">
         <v>432</v>
       </c>
-      <c r="B429" s="24">
-        <v>1</v>
-      </c>
+      <c r="B429" s="24"/>
       <c r="C429" s="25">
-        <v>4</v>
+        <v>14.5</v>
       </c>
       <c r="D429" s="26">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E429" s="27">
-        <v>56</v>
+        <v>159.5</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
@@ -9642,16 +9639,16 @@
         <v>433</v>
       </c>
       <c r="B430" s="24">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C430" s="25">
-        <v>19.5</v>
+        <v>35.5</v>
       </c>
       <c r="D430" s="26">
-        <v>10.5</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="E430" s="27">
-        <v>204.75</v>
+        <v>303.52999999999997</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
@@ -9659,31 +9656,33 @@
         <v>434</v>
       </c>
       <c r="B431" s="24">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C431" s="25">
-        <v>11</v>
+        <v>12.16</v>
       </c>
       <c r="D431" s="26">
-        <v>10</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="E431" s="27">
-        <v>110</v>
+        <v>103.97</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="B432" s="24"/>
+      <c r="B432" s="24">
+        <v>6</v>
+      </c>
       <c r="C432" s="25">
-        <v>14.5</v>
+        <v>8.5</v>
       </c>
       <c r="D432" s="26">
-        <v>11</v>
+        <v>15.5</v>
       </c>
       <c r="E432" s="27">
-        <v>159.5</v>
+        <v>131.75</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
@@ -9691,33 +9690,29 @@
         <v>436</v>
       </c>
       <c r="B433" s="24">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C433" s="25">
-        <v>35.5</v>
-      </c>
-      <c r="D433" s="26">
-        <v>8.5500000000000007</v>
-      </c>
-      <c r="E433" s="27">
-        <v>303.52999999999997</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D433" s="28"/>
+      <c r="E433" s="29"/>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" s="23" t="s">
         <v>437</v>
       </c>
       <c r="B434" s="24">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C434" s="25">
-        <v>20.16</v>
+        <v>9</v>
       </c>
       <c r="D434" s="26">
-        <v>8.5500000000000007</v>
+        <v>13.5</v>
       </c>
       <c r="E434" s="27">
-        <v>172.37</v>
+        <v>121.5</v>
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.25">
@@ -9725,16 +9720,16 @@
         <v>438</v>
       </c>
       <c r="B435" s="24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C435" s="25">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="D435" s="26">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="E435" s="27">
-        <v>131.75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
@@ -9742,29 +9737,33 @@
         <v>439</v>
       </c>
       <c r="B436" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C436" s="25">
-        <v>4</v>
-      </c>
-      <c r="D436" s="28"/>
-      <c r="E436" s="29"/>
+        <v>15.5</v>
+      </c>
+      <c r="D436" s="26">
+        <v>12.5</v>
+      </c>
+      <c r="E436" s="27">
+        <v>193.75</v>
+      </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" s="23" t="s">
         <v>440</v>
       </c>
       <c r="B437" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C437" s="25">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D437" s="26">
-        <v>13.5</v>
+        <v>11.2</v>
       </c>
       <c r="E437" s="27">
-        <v>121.5</v>
+        <v>179.2</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
@@ -9772,16 +9771,16 @@
         <v>441</v>
       </c>
       <c r="B438" s="24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C438" s="25">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D438" s="26">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E438" s="27">
-        <v>80</v>
+        <v>198</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.25">
@@ -9789,16 +9788,16 @@
         <v>442</v>
       </c>
       <c r="B439" s="24">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C439" s="25">
-        <v>15.5</v>
+        <v>19.5</v>
       </c>
       <c r="D439" s="26">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="E439" s="27">
-        <v>193.75</v>
+        <v>195</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.25">
@@ -9806,16 +9805,16 @@
         <v>443</v>
       </c>
       <c r="B440" s="24">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C440" s="25">
-        <v>16</v>
+        <v>26.5</v>
       </c>
       <c r="D440" s="26">
-        <v>11.2</v>
+        <v>9.5</v>
       </c>
       <c r="E440" s="27">
-        <v>179.2</v>
+        <v>251.75</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
@@ -9823,16 +9822,16 @@
         <v>444</v>
       </c>
       <c r="B441" s="24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C441" s="25">
-        <v>11</v>
+        <v>1.25</v>
       </c>
       <c r="D441" s="26">
-        <v>18</v>
+        <v>9.82</v>
       </c>
       <c r="E441" s="27">
-        <v>198</v>
+        <v>12.27</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.25">
@@ -9840,16 +9839,16 @@
         <v>445</v>
       </c>
       <c r="B442" s="24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C442" s="25">
-        <v>19.5</v>
+        <v>8.5</v>
       </c>
       <c r="D442" s="26">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E442" s="27">
-        <v>195</v>
+        <v>212.5</v>
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.25">
@@ -9857,16 +9856,16 @@
         <v>446</v>
       </c>
       <c r="B443" s="24">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="C443" s="25">
-        <v>26.5</v>
+        <v>7.5</v>
       </c>
       <c r="D443" s="26">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="E443" s="27">
-        <v>251.75</v>
+        <v>75</v>
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.25">
@@ -9874,16 +9873,16 @@
         <v>447</v>
       </c>
       <c r="B444" s="24">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C444" s="25">
-        <v>1.25</v>
+        <v>22.5</v>
       </c>
       <c r="D444" s="26">
-        <v>9.82</v>
+        <v>10.27</v>
       </c>
       <c r="E444" s="27">
-        <v>12.27</v>
+        <v>230.98</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.25">
@@ -9891,33 +9890,31 @@
         <v>448</v>
       </c>
       <c r="B445" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C445" s="25">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="D445" s="26">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E445" s="27">
-        <v>212.5</v>
+        <v>130</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" s="23" t="s">
         <v>449</v>
       </c>
-      <c r="B446" s="24">
-        <v>4</v>
-      </c>
+      <c r="B446" s="24"/>
       <c r="C446" s="25">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="D446" s="26">
-        <v>10</v>
+        <v>16.5</v>
       </c>
       <c r="E446" s="27">
-        <v>75</v>
+        <v>99</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.25">
@@ -9925,16 +9922,16 @@
         <v>450</v>
       </c>
       <c r="B447" s="24">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C447" s="25">
-        <v>22.5</v>
+        <v>6.5</v>
       </c>
       <c r="D447" s="26">
-        <v>10.27</v>
+        <v>11.4</v>
       </c>
       <c r="E447" s="27">
-        <v>230.98</v>
+        <v>74.099999999999994</v>
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.25">
@@ -9942,48 +9939,48 @@
         <v>451</v>
       </c>
       <c r="B448" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C448" s="25">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D448" s="26">
-        <v>13</v>
+        <v>11.88</v>
       </c>
       <c r="E448" s="27">
-        <v>130</v>
+        <v>71.28</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="B449" s="24"/>
+      <c r="B449" s="24">
+        <v>7</v>
+      </c>
       <c r="C449" s="25">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="D449" s="26">
-        <v>16.5</v>
+        <v>13</v>
       </c>
       <c r="E449" s="27">
-        <v>99</v>
+        <v>110.5</v>
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" s="23" t="s">
         <v>453</v>
       </c>
-      <c r="B450" s="24">
+      <c r="B450" s="24"/>
+      <c r="C450" s="25">
         <v>4</v>
       </c>
-      <c r="C450" s="25">
-        <v>6.5</v>
-      </c>
       <c r="D450" s="26">
-        <v>11.4</v>
+        <v>30</v>
       </c>
       <c r="E450" s="27">
-        <v>74.099999999999994</v>
+        <v>120</v>
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.25">
@@ -9991,16 +9988,16 @@
         <v>454</v>
       </c>
       <c r="B451" s="24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C451" s="25">
-        <v>6</v>
+        <v>19.5</v>
       </c>
       <c r="D451" s="26">
-        <v>11.88</v>
+        <v>9.26</v>
       </c>
       <c r="E451" s="27">
-        <v>71.28</v>
+        <v>180.57</v>
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.25">
@@ -10008,31 +10005,33 @@
         <v>455</v>
       </c>
       <c r="B452" s="24">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C452" s="25">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="D452" s="26">
-        <v>13</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="E452" s="27">
-        <v>110.5</v>
+        <v>153</v>
       </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" s="23" t="s">
         <v>456</v>
       </c>
-      <c r="B453" s="24"/>
+      <c r="B453" s="24">
+        <v>6</v>
+      </c>
       <c r="C453" s="25">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D453" s="26">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E453" s="27">
-        <v>120</v>
+        <v>153</v>
       </c>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.25">
@@ -10040,16 +10039,16 @@
         <v>457</v>
       </c>
       <c r="B454" s="24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C454" s="25">
-        <v>19.5</v>
+        <v>10</v>
       </c>
       <c r="D454" s="26">
         <v>9.26</v>
       </c>
       <c r="E454" s="27">
-        <v>180.57</v>
+        <v>92.6</v>
       </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.25">
@@ -10057,16 +10056,16 @@
         <v>458</v>
       </c>
       <c r="B455" s="24">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C455" s="25">
-        <v>15</v>
+        <v>29.5</v>
       </c>
       <c r="D455" s="26">
-        <v>10.199999999999999</v>
+        <v>10.45</v>
       </c>
       <c r="E455" s="27">
-        <v>153</v>
+        <v>308.27999999999997</v>
       </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.25">
@@ -10074,16 +10073,16 @@
         <v>459</v>
       </c>
       <c r="B456" s="24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C456" s="25">
-        <v>27</v>
+        <v>12.5</v>
       </c>
       <c r="D456" s="26">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E456" s="27">
-        <v>243</v>
+        <v>125</v>
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.25">
@@ -10091,16 +10090,16 @@
         <v>460</v>
       </c>
       <c r="B457" s="24">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C457" s="25">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D457" s="26">
-        <v>9.26</v>
+        <v>26</v>
       </c>
       <c r="E457" s="27">
-        <v>92.6</v>
+        <v>520</v>
       </c>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.25">
@@ -10108,33 +10107,31 @@
         <v>461</v>
       </c>
       <c r="B458" s="24">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C458" s="25">
-        <v>29.5</v>
+        <v>9</v>
       </c>
       <c r="D458" s="26">
-        <v>10.45</v>
+        <v>32</v>
       </c>
       <c r="E458" s="27">
-        <v>308.27999999999997</v>
+        <v>288</v>
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" s="23" t="s">
         <v>462</v>
       </c>
-      <c r="B459" s="24">
-        <v>2</v>
-      </c>
+      <c r="B459" s="24"/>
       <c r="C459" s="25">
-        <v>12.5</v>
+        <v>8.5</v>
       </c>
       <c r="D459" s="26">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="E459" s="27">
-        <v>125</v>
+        <v>89.25</v>
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.25">
@@ -10142,16 +10139,16 @@
         <v>463</v>
       </c>
       <c r="B460" s="24">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C460" s="25">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D460" s="26">
-        <v>26</v>
+        <v>11.15</v>
       </c>
       <c r="E460" s="27">
-        <v>520</v>
+        <v>323.45999999999998</v>
       </c>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.25">
@@ -10159,31 +10156,33 @@
         <v>464</v>
       </c>
       <c r="B461" s="24">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C461" s="25">
-        <v>9</v>
+        <v>-1.5</v>
       </c>
       <c r="D461" s="26">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="E461" s="27">
-        <v>288</v>
+        <v>-82.5</v>
       </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462" s="23" t="s">
         <v>465</v>
       </c>
-      <c r="B462" s="24"/>
+      <c r="B462" s="24">
+        <v>1</v>
+      </c>
       <c r="C462" s="25">
-        <v>8.5</v>
+        <v>0.5</v>
       </c>
       <c r="D462" s="26">
-        <v>10.5</v>
+        <v>55</v>
       </c>
       <c r="E462" s="27">
-        <v>89.25</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.25">
@@ -10194,13 +10193,13 @@
         <v>11</v>
       </c>
       <c r="C463" s="25">
-        <v>32</v>
+        <v>13.5</v>
       </c>
       <c r="D463" s="26">
-        <v>11.15</v>
+        <v>13.39</v>
       </c>
       <c r="E463" s="27">
-        <v>356.92</v>
+        <v>180.79</v>
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.25">
@@ -10208,33 +10207,31 @@
         <v>467</v>
       </c>
       <c r="B464" s="24">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C464" s="25">
-        <v>-1.5</v>
+        <v>25</v>
       </c>
       <c r="D464" s="26">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="E464" s="27">
-        <v>-82.5</v>
+        <v>225</v>
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465" s="23" t="s">
         <v>468</v>
       </c>
-      <c r="B465" s="24">
-        <v>1</v>
-      </c>
+      <c r="B465" s="24"/>
       <c r="C465" s="25">
-        <v>0.5</v>
+        <v>10.5</v>
       </c>
       <c r="D465" s="26">
-        <v>55</v>
+        <v>16.63</v>
       </c>
       <c r="E465" s="27">
-        <v>27.5</v>
+        <v>174.62</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.25">
@@ -10242,112 +10239,112 @@
         <v>469</v>
       </c>
       <c r="B466" s="24">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C466" s="25">
-        <v>13.5</v>
+        <v>19.5</v>
       </c>
       <c r="D466" s="26">
-        <v>13.39</v>
+        <v>11.25</v>
       </c>
       <c r="E466" s="27">
-        <v>180.79</v>
+        <v>219.38</v>
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467" s="23" t="s">
         <v>470</v>
       </c>
-      <c r="B467" s="24">
-        <v>8</v>
-      </c>
+      <c r="B467" s="24"/>
       <c r="C467" s="25">
-        <v>25</v>
+        <v>9.5</v>
       </c>
       <c r="D467" s="26">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E467" s="27">
-        <v>225</v>
+        <v>161.5</v>
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468" s="23" t="s">
         <v>471</v>
       </c>
-      <c r="B468" s="24"/>
+      <c r="B468" s="24">
+        <v>7</v>
+      </c>
       <c r="C468" s="25">
-        <v>10.5</v>
+        <v>15.5</v>
       </c>
       <c r="D468" s="26">
-        <v>16.63</v>
+        <v>18.5</v>
       </c>
       <c r="E468" s="27">
-        <v>174.62</v>
+        <v>286.75</v>
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469" s="23" t="s">
         <v>472</v>
       </c>
-      <c r="B469" s="24">
-        <v>16</v>
-      </c>
+      <c r="B469" s="24"/>
       <c r="C469" s="25">
-        <v>19.5</v>
+        <v>11</v>
       </c>
       <c r="D469" s="26">
-        <v>11.25</v>
+        <v>8.9</v>
       </c>
       <c r="E469" s="27">
-        <v>219.38</v>
+        <v>97.9</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470" s="23" t="s">
         <v>473</v>
       </c>
-      <c r="B470" s="24"/>
+      <c r="B470" s="24">
+        <v>1</v>
+      </c>
       <c r="C470" s="25">
-        <v>9.5</v>
+        <v>2.5</v>
       </c>
       <c r="D470" s="26">
-        <v>17</v>
+        <v>24.25</v>
       </c>
       <c r="E470" s="27">
-        <v>161.5</v>
+        <v>60.63</v>
       </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471" s="23" t="s">
         <v>474</v>
       </c>
-      <c r="B471" s="24">
-        <v>7</v>
-      </c>
+      <c r="B471" s="24"/>
       <c r="C471" s="25">
-        <v>15.5</v>
+        <v>1.5</v>
       </c>
       <c r="D471" s="26">
-        <v>18.5</v>
+        <v>12.5</v>
       </c>
       <c r="E471" s="27">
-        <v>286.75</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472" s="23" t="s">
         <v>475</v>
       </c>
-      <c r="B472" s="24"/>
+      <c r="B472" s="24">
+        <v>1</v>
+      </c>
       <c r="C472" s="25">
-        <v>11</v>
+        <v>16.25</v>
       </c>
       <c r="D472" s="26">
-        <v>8.9</v>
+        <v>12.28</v>
       </c>
       <c r="E472" s="27">
-        <v>97.9</v>
+        <v>199.5</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.25">
@@ -10355,16 +10352,16 @@
         <v>476</v>
       </c>
       <c r="B473" s="24">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C473" s="25">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="D473" s="26">
-        <v>24.25</v>
+        <v>10.17</v>
       </c>
       <c r="E473" s="27">
-        <v>60.63</v>
+        <v>76.25</v>
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.25">
@@ -10373,30 +10370,28 @@
       </c>
       <c r="B474" s="24"/>
       <c r="C474" s="25">
-        <v>1.5</v>
+        <v>13</v>
       </c>
       <c r="D474" s="26">
-        <v>12.5</v>
+        <v>11.4</v>
       </c>
       <c r="E474" s="27">
-        <v>18.75</v>
+        <v>148.19999999999999</v>
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475" s="23" t="s">
         <v>478</v>
       </c>
-      <c r="B475" s="24">
-        <v>1</v>
-      </c>
+      <c r="B475" s="24"/>
       <c r="C475" s="25">
-        <v>16.25</v>
+        <v>7</v>
       </c>
       <c r="D475" s="26">
-        <v>12.28</v>
+        <v>24.25</v>
       </c>
       <c r="E475" s="27">
-        <v>199.5</v>
+        <v>169.75</v>
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.25">
@@ -10404,31 +10399,33 @@
         <v>479</v>
       </c>
       <c r="B476" s="24">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C476" s="25">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="D476" s="26">
-        <v>10.17</v>
+        <v>29</v>
       </c>
       <c r="E476" s="27">
-        <v>76.25</v>
+        <v>188.5</v>
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477" s="23" t="s">
         <v>480</v>
       </c>
-      <c r="B477" s="24"/>
+      <c r="B477" s="24">
+        <v>5</v>
+      </c>
       <c r="C477" s="25">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D477" s="26">
-        <v>11.4</v>
+        <v>12.8</v>
       </c>
       <c r="E477" s="27">
-        <v>148.19999999999999</v>
+        <v>230.4</v>
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.25">
@@ -10437,30 +10434,28 @@
       </c>
       <c r="B478" s="24"/>
       <c r="C478" s="25">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D478" s="26">
-        <v>24.25</v>
+        <v>15.5</v>
       </c>
       <c r="E478" s="27">
-        <v>169.75</v>
+        <v>186</v>
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479" s="23" t="s">
         <v>482</v>
       </c>
-      <c r="B479" s="24">
-        <v>2</v>
-      </c>
+      <c r="B479" s="24"/>
       <c r="C479" s="25">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="D479" s="26">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="E479" s="27">
-        <v>188.5</v>
+        <v>165</v>
       </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.25">
@@ -10468,46 +10463,50 @@
         <v>483</v>
       </c>
       <c r="B480" s="24">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C480" s="25">
-        <v>18</v>
+        <v>22.5</v>
       </c>
       <c r="D480" s="26">
-        <v>12.8</v>
+        <v>2.6</v>
       </c>
       <c r="E480" s="27">
-        <v>230.4</v>
+        <v>58.5</v>
       </c>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481" s="23" t="s">
         <v>484</v>
       </c>
-      <c r="B481" s="24"/>
+      <c r="B481" s="24">
+        <v>6</v>
+      </c>
       <c r="C481" s="25">
-        <v>12</v>
+        <v>25.3</v>
       </c>
       <c r="D481" s="26">
-        <v>15.5</v>
+        <v>3.25</v>
       </c>
       <c r="E481" s="27">
-        <v>186</v>
+        <v>82.23</v>
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482" s="23" t="s">
         <v>485</v>
       </c>
-      <c r="B482" s="24"/>
+      <c r="B482" s="24">
+        <v>4</v>
+      </c>
       <c r="C482" s="25">
-        <v>3</v>
+        <v>29.5</v>
       </c>
       <c r="D482" s="26">
-        <v>55</v>
+        <v>3.8</v>
       </c>
       <c r="E482" s="27">
-        <v>165</v>
+        <v>112.1</v>
       </c>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.25">
@@ -10515,16 +10514,16 @@
         <v>486</v>
       </c>
       <c r="B483" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C483" s="25">
-        <v>22.5</v>
+        <v>15.5</v>
       </c>
       <c r="D483" s="26">
-        <v>2.6</v>
+        <v>3.9</v>
       </c>
       <c r="E483" s="27">
-        <v>58.5</v>
+        <v>60.45</v>
       </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.25">
@@ -10535,30 +10534,28 @@
         <v>6</v>
       </c>
       <c r="C484" s="25">
-        <v>25.3</v>
+        <v>26.5</v>
       </c>
       <c r="D484" s="26">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="E484" s="27">
-        <v>82.23</v>
+        <v>100.7</v>
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485" s="23" t="s">
         <v>488</v>
       </c>
-      <c r="B485" s="24">
-        <v>3</v>
-      </c>
+      <c r="B485" s="24"/>
       <c r="C485" s="25">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D485" s="26">
-        <v>3.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E485" s="27">
-        <v>114</v>
+        <v>101.2</v>
       </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.25">
@@ -10566,16 +10563,16 @@
         <v>489</v>
       </c>
       <c r="B486" s="24">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C486" s="25">
-        <v>15.5</v>
+        <v>0.5</v>
       </c>
       <c r="D486" s="26">
-        <v>3.9</v>
+        <v>5.24</v>
       </c>
       <c r="E486" s="27">
-        <v>60.45</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.25">
@@ -10583,31 +10580,33 @@
         <v>490</v>
       </c>
       <c r="B487" s="24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C487" s="25">
-        <v>26.5</v>
+        <v>14.5</v>
       </c>
       <c r="D487" s="26">
-        <v>3.8</v>
+        <v>6.75</v>
       </c>
       <c r="E487" s="27">
-        <v>100.7</v>
+        <v>97.88</v>
       </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488" s="23" t="s">
         <v>491</v>
       </c>
-      <c r="B488" s="24"/>
+      <c r="B488" s="24">
+        <v>4</v>
+      </c>
       <c r="C488" s="25">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D488" s="26">
-        <v>4.5999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="E488" s="27">
-        <v>101.2</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.25">
@@ -10615,16 +10614,16 @@
         <v>492</v>
       </c>
       <c r="B489" s="24">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C489" s="25">
-        <v>0.5</v>
+        <v>41</v>
       </c>
       <c r="D489" s="26">
-        <v>5.24</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="E489" s="27">
-        <v>2.62</v>
+        <v>170.15</v>
       </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.25">
@@ -10632,16 +10631,16 @@
         <v>493</v>
       </c>
       <c r="B490" s="24">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C490" s="25">
-        <v>14.5</v>
+        <v>145.5</v>
       </c>
       <c r="D490" s="26">
-        <v>6.75</v>
+        <v>1.4</v>
       </c>
       <c r="E490" s="27">
-        <v>97.88</v>
+        <v>203.7</v>
       </c>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.25">
@@ -10649,16 +10648,16 @@
         <v>494</v>
       </c>
       <c r="B491" s="24">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C491" s="25">
-        <v>19</v>
+        <v>126</v>
       </c>
       <c r="D491" s="26">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="E491" s="27">
-        <v>85.5</v>
+        <v>176.4</v>
       </c>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.25">
@@ -10669,13 +10668,13 @@
         <v>4</v>
       </c>
       <c r="C492" s="25">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="D492" s="26">
-        <v>4.1500000000000004</v>
+        <v>1.8</v>
       </c>
       <c r="E492" s="27">
-        <v>170.15</v>
+        <v>216</v>
       </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.25">
@@ -10683,16 +10682,16 @@
         <v>496</v>
       </c>
       <c r="B493" s="24">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C493" s="25">
-        <v>145.5</v>
+        <v>63.5</v>
       </c>
       <c r="D493" s="26">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="E493" s="27">
-        <v>203.7</v>
+        <v>123.83</v>
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.25">
@@ -10700,16 +10699,16 @@
         <v>497</v>
       </c>
       <c r="B494" s="24">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C494" s="25">
-        <v>126</v>
+        <v>59</v>
       </c>
       <c r="D494" s="26">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="E494" s="27">
-        <v>176.4</v>
+        <v>118</v>
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.25">
@@ -10717,16 +10716,16 @@
         <v>498</v>
       </c>
       <c r="B495" s="24">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C495" s="25">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="D495" s="26">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="E495" s="27">
-        <v>216</v>
+        <v>140.69999999999999</v>
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.25">
@@ -10734,16 +10733,16 @@
         <v>499</v>
       </c>
       <c r="B496" s="24">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C496" s="25">
-        <v>63.5</v>
+        <v>25</v>
       </c>
       <c r="D496" s="26">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="E496" s="27">
-        <v>123.83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.25">
@@ -10751,50 +10750,46 @@
         <v>500</v>
       </c>
       <c r="B497" s="24">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C497" s="25">
-        <v>61</v>
+        <v>52.5</v>
       </c>
       <c r="D497" s="26">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="E497" s="27">
-        <v>122</v>
+        <v>199.5</v>
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498" s="23" t="s">
         <v>501</v>
       </c>
-      <c r="B498" s="24">
-        <v>14</v>
-      </c>
+      <c r="B498" s="24"/>
       <c r="C498" s="25">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D498" s="26">
-        <v>2.1</v>
+        <v>7.3</v>
       </c>
       <c r="E498" s="27">
-        <v>140.69999999999999</v>
+        <v>65.7</v>
       </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499" s="23" t="s">
         <v>502</v>
       </c>
-      <c r="B499" s="24">
-        <v>20</v>
-      </c>
+      <c r="B499" s="24"/>
       <c r="C499" s="25">
-        <v>29.5</v>
+        <v>10</v>
       </c>
       <c r="D499" s="26">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E499" s="27">
-        <v>88.5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.25">
@@ -10802,46 +10797,50 @@
         <v>503</v>
       </c>
       <c r="B500" s="24">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="C500" s="25">
-        <v>52.5</v>
+        <v>20.5</v>
       </c>
       <c r="D500" s="26">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="E500" s="27">
-        <v>199.5</v>
+        <v>71.75</v>
       </c>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501" s="23" t="s">
         <v>504</v>
       </c>
-      <c r="B501" s="24"/>
+      <c r="B501" s="24">
+        <v>9</v>
+      </c>
       <c r="C501" s="25">
-        <v>9</v>
+        <v>36.5</v>
       </c>
       <c r="D501" s="26">
-        <v>7.3</v>
+        <v>3.5</v>
       </c>
       <c r="E501" s="27">
-        <v>65.7</v>
+        <v>127.75</v>
       </c>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502" s="23" t="s">
         <v>505</v>
       </c>
-      <c r="B502" s="24"/>
+      <c r="B502" s="24">
+        <v>1</v>
+      </c>
       <c r="C502" s="25">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D502" s="26">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E502" s="27">
-        <v>35</v>
+        <v>56</v>
       </c>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.25">
@@ -10849,16 +10848,16 @@
         <v>506</v>
       </c>
       <c r="B503" s="24">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C503" s="25">
-        <v>20.5</v>
+        <v>38.5</v>
       </c>
       <c r="D503" s="26">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="E503" s="27">
-        <v>71.75</v>
+        <v>69.3</v>
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.25">
@@ -10866,16 +10865,16 @@
         <v>507</v>
       </c>
       <c r="B504" s="24">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C504" s="25">
-        <v>37.5</v>
+        <v>42.5</v>
       </c>
       <c r="D504" s="26">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="E504" s="27">
-        <v>131.25</v>
+        <v>85</v>
       </c>
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.25">
@@ -10883,16 +10882,16 @@
         <v>508</v>
       </c>
       <c r="B505" s="24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C505" s="25">
-        <v>14</v>
+        <v>40.5</v>
       </c>
       <c r="D505" s="26">
-        <v>4</v>
+        <v>4.28</v>
       </c>
       <c r="E505" s="27">
-        <v>56</v>
+        <v>173.34</v>
       </c>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.25">
@@ -10900,16 +10899,16 @@
         <v>509</v>
       </c>
       <c r="B506" s="24">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C506" s="25">
-        <v>38.5</v>
+        <v>25.5</v>
       </c>
       <c r="D506" s="26">
-        <v>1.8</v>
+        <v>4.28</v>
       </c>
       <c r="E506" s="27">
-        <v>69.3</v>
+        <v>109.14</v>
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.25">
@@ -10917,16 +10916,16 @@
         <v>510</v>
       </c>
       <c r="B507" s="24">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C507" s="25">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="D507" s="26">
-        <v>2</v>
+        <v>3.56</v>
       </c>
       <c r="E507" s="27">
-        <v>90</v>
+        <v>46.28</v>
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.25">
@@ -10934,16 +10933,16 @@
         <v>511</v>
       </c>
       <c r="B508" s="24">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C508" s="25">
-        <v>40.5</v>
+        <v>11.4</v>
       </c>
       <c r="D508" s="26">
-        <v>4.28</v>
+        <v>4.5</v>
       </c>
       <c r="E508" s="27">
-        <v>173.34</v>
+        <v>51.3</v>
       </c>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.25">
@@ -10951,16 +10950,16 @@
         <v>512</v>
       </c>
       <c r="B509" s="24">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C509" s="25">
-        <v>25.5</v>
+        <v>10</v>
       </c>
       <c r="D509" s="26">
-        <v>4.28</v>
+        <v>6.5</v>
       </c>
       <c r="E509" s="27">
-        <v>109.14</v>
+        <v>65</v>
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.25">
@@ -10968,16 +10967,16 @@
         <v>513</v>
       </c>
       <c r="B510" s="24">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C510" s="25">
-        <v>13</v>
+        <v>26.5</v>
       </c>
       <c r="D510" s="26">
-        <v>3.56</v>
+        <v>4.75</v>
       </c>
       <c r="E510" s="27">
-        <v>46.28</v>
+        <v>125.88</v>
       </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.25">
@@ -10985,16 +10984,16 @@
         <v>514</v>
       </c>
       <c r="B511" s="24">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C511" s="25">
-        <v>11.4</v>
+        <v>64</v>
       </c>
       <c r="D511" s="26">
-        <v>4.5</v>
+        <v>2.65</v>
       </c>
       <c r="E511" s="27">
-        <v>51.3</v>
+        <v>169.6</v>
       </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.25">
@@ -11002,16 +11001,16 @@
         <v>515</v>
       </c>
       <c r="B512" s="24">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C512" s="25">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="D512" s="26">
-        <v>6.5</v>
+        <v>4.28</v>
       </c>
       <c r="E512" s="27">
-        <v>81.25</v>
+        <v>47.08</v>
       </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.25">
@@ -11019,16 +11018,16 @@
         <v>516</v>
       </c>
       <c r="B513" s="24">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C513" s="25">
-        <v>26.5</v>
+        <v>1</v>
       </c>
       <c r="D513" s="26">
         <v>4.75</v>
       </c>
       <c r="E513" s="27">
-        <v>125.88</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.25">
@@ -11036,16 +11035,16 @@
         <v>517</v>
       </c>
       <c r="B514" s="24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C514" s="25">
-        <v>64</v>
+        <v>17.5</v>
       </c>
       <c r="D514" s="26">
-        <v>2.65</v>
+        <v>3.45</v>
       </c>
       <c r="E514" s="27">
-        <v>169.6</v>
+        <v>60.38</v>
       </c>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.25">
@@ -11053,16 +11052,16 @@
         <v>518</v>
       </c>
       <c r="B515" s="24">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C515" s="25">
-        <v>16</v>
+        <v>11.5</v>
       </c>
       <c r="D515" s="26">
-        <v>4.28</v>
+        <v>3.1</v>
       </c>
       <c r="E515" s="27">
-        <v>68.48</v>
+        <v>35.65</v>
       </c>
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.25">
@@ -11070,16 +11069,16 @@
         <v>519</v>
       </c>
       <c r="B516" s="24">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C516" s="25">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="D516" s="26">
-        <v>4.75</v>
+        <v>9.5</v>
       </c>
       <c r="E516" s="27">
-        <v>9.5</v>
+        <v>294.5</v>
       </c>
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.25">
@@ -11087,16 +11086,16 @@
         <v>520</v>
       </c>
       <c r="B517" s="24">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C517" s="25">
-        <v>17.5</v>
+        <v>9</v>
       </c>
       <c r="D517" s="26">
-        <v>3.45</v>
+        <v>2.8</v>
       </c>
       <c r="E517" s="27">
-        <v>60.38</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.25">
@@ -11104,16 +11103,16 @@
         <v>521</v>
       </c>
       <c r="B518" s="24">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C518" s="25">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D518" s="26">
-        <v>3.1</v>
+        <v>2.38</v>
       </c>
       <c r="E518" s="27">
-        <v>65.099999999999994</v>
+        <v>66.64</v>
       </c>
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.25">
@@ -11121,16 +11120,16 @@
         <v>522</v>
       </c>
       <c r="B519" s="24">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="C519" s="25">
-        <v>34</v>
+        <v>124.5</v>
       </c>
       <c r="D519" s="26">
-        <v>9.5</v>
+        <v>3.9</v>
       </c>
       <c r="E519" s="27">
-        <v>323</v>
+        <v>485.55</v>
       </c>
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.25">
@@ -11138,16 +11137,16 @@
         <v>523</v>
       </c>
       <c r="B520" s="24">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C520" s="25">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D520" s="26">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="E520" s="27">
-        <v>25.2</v>
+        <v>64.8</v>
       </c>
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.25">
@@ -11155,16 +11154,16 @@
         <v>524</v>
       </c>
       <c r="B521" s="24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C521" s="25">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D521" s="26">
-        <v>2.38</v>
+        <v>4.5</v>
       </c>
       <c r="E521" s="27">
-        <v>66.64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.25">
@@ -11172,16 +11171,16 @@
         <v>525</v>
       </c>
       <c r="B522" s="24">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="C522" s="25">
-        <v>124.5</v>
+        <v>22.5</v>
       </c>
       <c r="D522" s="26">
-        <v>3.9</v>
+        <v>2.66</v>
       </c>
       <c r="E522" s="27">
-        <v>485.55</v>
+        <v>59.85</v>
       </c>
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.25">
@@ -11189,16 +11188,16 @@
         <v>526</v>
       </c>
       <c r="B523" s="24">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C523" s="25">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D523" s="26">
-        <v>1.8</v>
+        <v>2.85</v>
       </c>
       <c r="E523" s="27">
-        <v>64.8</v>
+        <v>74.099999999999994</v>
       </c>
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.25">
@@ -11206,16 +11205,16 @@
         <v>527</v>
       </c>
       <c r="B524" s="24">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C524" s="25">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="D524" s="26">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="E524" s="27">
-        <v>63</v>
+        <v>45</v>
       </c>
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.25">
@@ -11223,16 +11222,16 @@
         <v>528</v>
       </c>
       <c r="B525" s="24">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C525" s="25">
-        <v>22.5</v>
+        <v>46.97</v>
       </c>
       <c r="D525" s="26">
-        <v>2.66</v>
+        <v>4.5</v>
       </c>
       <c r="E525" s="27">
-        <v>59.85</v>
+        <v>211.37</v>
       </c>
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.25">
@@ -11240,16 +11239,16 @@
         <v>529</v>
       </c>
       <c r="B526" s="24">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="C526" s="25">
-        <v>26</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="D526" s="26">
-        <v>2.85</v>
+        <v>3.14</v>
       </c>
       <c r="E526" s="27">
-        <v>74.099999999999994</v>
+        <v>120.26</v>
       </c>
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.25">
@@ -11257,16 +11256,16 @@
         <v>530</v>
       </c>
       <c r="B527" s="24">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C527" s="25">
-        <v>12.5</v>
+        <v>96.25</v>
       </c>
       <c r="D527" s="26">
-        <v>3.6</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E527" s="27">
-        <v>45</v>
+        <v>221.38</v>
       </c>
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.25">
@@ -11277,13 +11276,13 @@
         <v>4</v>
       </c>
       <c r="C528" s="25">
-        <v>46.97</v>
+        <v>29</v>
       </c>
       <c r="D528" s="26">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="E528" s="27">
-        <v>211.37</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.25">
@@ -11291,16 +11290,16 @@
         <v>532</v>
       </c>
       <c r="B529" s="24">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="C529" s="25">
-        <v>38.299999999999997</v>
+        <v>44.5</v>
       </c>
       <c r="D529" s="26">
-        <v>3.14</v>
+        <v>2.5</v>
       </c>
       <c r="E529" s="27">
-        <v>120.26</v>
+        <v>111.25</v>
       </c>
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.25">
@@ -11308,16 +11307,16 @@
         <v>533</v>
       </c>
       <c r="B530" s="24">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="C530" s="25">
-        <v>98.25</v>
+        <v>68</v>
       </c>
       <c r="D530" s="26">
-        <v>2.2999999999999998</v>
+        <v>3.5</v>
       </c>
       <c r="E530" s="27">
-        <v>225.98</v>
+        <v>238</v>
       </c>
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.25">
@@ -11325,16 +11324,16 @@
         <v>534</v>
       </c>
       <c r="B531" s="24">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C531" s="25">
-        <v>31</v>
+        <v>39.5</v>
       </c>
       <c r="D531" s="26">
-        <v>2.5</v>
+        <v>5.7</v>
       </c>
       <c r="E531" s="27">
-        <v>77.5</v>
+        <v>225.15</v>
       </c>
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.25">
@@ -11345,13 +11344,13 @@
         <v>2</v>
       </c>
       <c r="C532" s="25">
-        <v>44.5</v>
+        <v>25</v>
       </c>
       <c r="D532" s="26">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="E532" s="27">
-        <v>111.25</v>
+        <v>90</v>
       </c>
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.25">
@@ -11359,16 +11358,16 @@
         <v>536</v>
       </c>
       <c r="B533" s="24">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="C533" s="25">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="D533" s="26">
-        <v>3.5</v>
+        <v>2.14</v>
       </c>
       <c r="E533" s="27">
-        <v>238</v>
+        <v>87.74</v>
       </c>
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.25">
@@ -11376,16 +11375,16 @@
         <v>537</v>
       </c>
       <c r="B534" s="24">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C534" s="25">
-        <v>39.5</v>
+        <v>14.5</v>
       </c>
       <c r="D534" s="26">
-        <v>5.7</v>
+        <v>2.66</v>
       </c>
       <c r="E534" s="27">
-        <v>225.15</v>
+        <v>38.57</v>
       </c>
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.25">
@@ -11393,33 +11392,31 @@
         <v>538</v>
       </c>
       <c r="B535" s="24">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C535" s="25">
-        <v>25</v>
+        <v>50.5</v>
       </c>
       <c r="D535" s="26">
-        <v>3.6</v>
+        <v>2.66</v>
       </c>
       <c r="E535" s="27">
-        <v>90</v>
+        <v>134.33000000000001</v>
       </c>
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A536" s="23" t="s">
         <v>539</v>
       </c>
-      <c r="B536" s="24">
-        <v>14</v>
-      </c>
+      <c r="B536" s="24"/>
       <c r="C536" s="25">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D536" s="26">
-        <v>2.14</v>
+        <v>6.18</v>
       </c>
       <c r="E536" s="27">
-        <v>87.74</v>
+        <v>80.34</v>
       </c>
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.25">
@@ -11427,16 +11424,16 @@
         <v>540</v>
       </c>
       <c r="B537" s="24">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C537" s="25">
-        <v>15.5</v>
+        <v>29.5</v>
       </c>
       <c r="D537" s="26">
-        <v>2.66</v>
+        <v>2.35</v>
       </c>
       <c r="E537" s="27">
-        <v>41.23</v>
+        <v>69.33</v>
       </c>
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.25">
@@ -11444,48 +11441,48 @@
         <v>541</v>
       </c>
       <c r="B538" s="24">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C538" s="25">
-        <v>50.5</v>
+        <v>15.5</v>
       </c>
       <c r="D538" s="26">
         <v>2.66</v>
       </c>
       <c r="E538" s="27">
-        <v>134.33000000000001</v>
+        <v>41.23</v>
       </c>
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A539" s="23" t="s">
         <v>542</v>
       </c>
-      <c r="B539" s="24"/>
+      <c r="B539" s="24">
+        <v>3</v>
+      </c>
       <c r="C539" s="25">
-        <v>13</v>
+        <v>45.5</v>
       </c>
       <c r="D539" s="26">
-        <v>6.18</v>
+        <v>3.8</v>
       </c>
       <c r="E539" s="27">
-        <v>80.34</v>
+        <v>172.9</v>
       </c>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A540" s="23" t="s">
         <v>543</v>
       </c>
-      <c r="B540" s="24">
-        <v>7</v>
-      </c>
+      <c r="B540" s="24"/>
       <c r="C540" s="25">
-        <v>29.5</v>
+        <v>30</v>
       </c>
       <c r="D540" s="26">
-        <v>2.35</v>
+        <v>3.33</v>
       </c>
       <c r="E540" s="27">
-        <v>69.33</v>
+        <v>99.9</v>
       </c>
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.25">
@@ -11493,16 +11490,16 @@
         <v>544</v>
       </c>
       <c r="B541" s="24">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C541" s="25">
-        <v>15.5</v>
+        <v>173</v>
       </c>
       <c r="D541" s="26">
-        <v>2.66</v>
+        <v>1.4</v>
       </c>
       <c r="E541" s="27">
-        <v>41.23</v>
+        <v>242.2</v>
       </c>
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.25">
@@ -11510,16 +11507,16 @@
         <v>545</v>
       </c>
       <c r="B542" s="24">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C542" s="25">
-        <v>45.5</v>
+        <v>128.5</v>
       </c>
       <c r="D542" s="26">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="E542" s="27">
-        <v>172.9</v>
+        <v>231.3</v>
       </c>
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.25">
@@ -11528,13 +11525,13 @@
       </c>
       <c r="B543" s="24"/>
       <c r="C543" s="25">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D543" s="26">
-        <v>3.33</v>
+        <v>1.2</v>
       </c>
       <c r="E543" s="27">
-        <v>99.9</v>
+        <v>72</v>
       </c>
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.25">
@@ -11542,16 +11539,16 @@
         <v>547</v>
       </c>
       <c r="B544" s="24">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C544" s="25">
-        <v>177</v>
+        <v>54</v>
       </c>
       <c r="D544" s="26">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="E544" s="27">
-        <v>247.8</v>
+        <v>64.8</v>
       </c>
     </row>
     <row r="545" spans="1:5" x14ac:dyDescent="0.25">
@@ -11559,31 +11556,29 @@
         <v>548</v>
       </c>
       <c r="B545" s="24">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C545" s="25">
-        <v>132.5</v>
-      </c>
-      <c r="D545" s="26">
-        <v>1.8</v>
-      </c>
-      <c r="E545" s="27">
-        <v>238.5</v>
-      </c>
+        <v>-2</v>
+      </c>
+      <c r="D545" s="28"/>
+      <c r="E545" s="29"/>
     </row>
     <row r="546" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A546" s="23" t="s">
         <v>549</v>
       </c>
-      <c r="B546" s="24"/>
+      <c r="B546" s="24">
+        <v>40</v>
+      </c>
       <c r="C546" s="25">
-        <v>60</v>
+        <v>366.5</v>
       </c>
       <c r="D546" s="26">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="E546" s="27">
-        <v>72</v>
+        <v>549.75</v>
       </c>
     </row>
     <row r="547" spans="1:5" x14ac:dyDescent="0.25">
@@ -11591,44 +11586,36 @@
         <v>550</v>
       </c>
       <c r="B547" s="24">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="C547" s="25">
-        <v>54</v>
-      </c>
-      <c r="D547" s="26">
-        <v>1.2</v>
-      </c>
-      <c r="E547" s="27">
-        <v>64.8</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="D547" s="28"/>
+      <c r="E547" s="29"/>
     </row>
     <row r="548" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A548" s="23" t="s">
         <v>551</v>
       </c>
       <c r="B548" s="24">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C548" s="25">
-        <v>366.5</v>
-      </c>
-      <c r="D548" s="26">
-        <v>1.5</v>
-      </c>
-      <c r="E548" s="27">
-        <v>549.75</v>
-      </c>
+        <v>438.5</v>
+      </c>
+      <c r="D548" s="28"/>
+      <c r="E548" s="29"/>
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A549" s="23" t="s">
         <v>552</v>
       </c>
       <c r="B549" s="24">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C549" s="25">
-        <v>304</v>
+        <v>82.5</v>
       </c>
       <c r="D549" s="28"/>
       <c r="E549" s="29"/>
@@ -11638,10 +11625,10 @@
         <v>553</v>
       </c>
       <c r="B550" s="24">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C550" s="25">
-        <v>454.5</v>
+        <v>131</v>
       </c>
       <c r="D550" s="28"/>
       <c r="E550" s="29"/>
@@ -11651,10 +11638,10 @@
         <v>554</v>
       </c>
       <c r="B551" s="24">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="C551" s="25">
-        <v>94.5</v>
+        <v>83.9</v>
       </c>
       <c r="D551" s="28"/>
       <c r="E551" s="29"/>
@@ -11664,42 +11651,50 @@
         <v>555</v>
       </c>
       <c r="B552" s="24">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C552" s="25">
-        <v>141</v>
-      </c>
-      <c r="D552" s="28"/>
-      <c r="E552" s="29"/>
+        <v>193</v>
+      </c>
+      <c r="D552" s="26">
+        <v>0.87</v>
+      </c>
+      <c r="E552" s="27">
+        <v>167.91</v>
+      </c>
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A553" s="23" t="s">
         <v>556</v>
       </c>
       <c r="B553" s="24">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C553" s="25">
-        <v>96.9</v>
-      </c>
-      <c r="D553" s="28"/>
-      <c r="E553" s="29"/>
+        <v>1086</v>
+      </c>
+      <c r="D553" s="26">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E553" s="27">
+        <v>629.88</v>
+      </c>
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A554" s="23" t="s">
         <v>557</v>
       </c>
       <c r="B554" s="24">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C554" s="25">
-        <v>213</v>
+        <v>534.5</v>
       </c>
       <c r="D554" s="26">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="E554" s="27">
-        <v>185.31</v>
+        <v>454.33</v>
       </c>
     </row>
     <row r="555" spans="1:5" x14ac:dyDescent="0.25">
@@ -11707,16 +11702,16 @@
         <v>558</v>
       </c>
       <c r="B555" s="24">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C555" s="25">
-        <v>1088</v>
+        <v>497.5</v>
       </c>
       <c r="D555" s="26">
-        <v>0.57999999999999996</v>
+        <v>0.85</v>
       </c>
       <c r="E555" s="27">
-        <v>631.04</v>
+        <v>422.88</v>
       </c>
     </row>
     <row r="556" spans="1:5" x14ac:dyDescent="0.25">
@@ -11724,16 +11719,16 @@
         <v>559</v>
       </c>
       <c r="B556" s="24">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C556" s="25">
-        <v>554.5</v>
+        <v>524.5</v>
       </c>
       <c r="D556" s="26">
         <v>0.85</v>
       </c>
       <c r="E556" s="27">
-        <v>471.33</v>
+        <v>445.83</v>
       </c>
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.25">
@@ -11741,16 +11736,16 @@
         <v>560</v>
       </c>
       <c r="B557" s="24">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C557" s="25">
-        <v>497.5</v>
+        <v>-46</v>
       </c>
       <c r="D557" s="26">
-        <v>0.85</v>
+        <v>0.4</v>
       </c>
       <c r="E557" s="27">
-        <v>422.88</v>
+        <v>-18.399999999999999</v>
       </c>
     </row>
     <row r="558" spans="1:5" x14ac:dyDescent="0.25">
@@ -11758,44 +11753,36 @@
         <v>561</v>
       </c>
       <c r="B558" s="24">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="C558" s="25">
-        <v>535</v>
-      </c>
-      <c r="D558" s="26">
-        <v>0.85</v>
-      </c>
-      <c r="E558" s="27">
-        <v>454.75</v>
-      </c>
+        <v>-6</v>
+      </c>
+      <c r="D558" s="28"/>
+      <c r="E558" s="29"/>
     </row>
     <row r="559" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A559" s="23" t="s">
         <v>562</v>
       </c>
       <c r="B559" s="24">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C559" s="25">
-        <v>-46</v>
-      </c>
-      <c r="D559" s="26">
-        <v>0.4</v>
-      </c>
-      <c r="E559" s="27">
-        <v>-18.399999999999999</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D559" s="28"/>
+      <c r="E559" s="29"/>
     </row>
     <row r="560" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A560" s="23" t="s">
         <v>563</v>
       </c>
       <c r="B560" s="24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C560" s="25">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="D560" s="28"/>
       <c r="E560" s="29"/>
@@ -11805,10 +11792,10 @@
         <v>564</v>
       </c>
       <c r="B561" s="24">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C561" s="25">
-        <v>-6</v>
+        <v>20</v>
       </c>
       <c r="D561" s="28"/>
       <c r="E561" s="29"/>
@@ -11818,10 +11805,10 @@
         <v>565</v>
       </c>
       <c r="B562" s="24">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C562" s="25">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D562" s="28"/>
       <c r="E562" s="29"/>
@@ -11830,54 +11817,66 @@
       <c r="A563" s="23" t="s">
         <v>566</v>
       </c>
-      <c r="B563" s="24">
-        <v>7</v>
-      </c>
+      <c r="B563" s="24"/>
       <c r="C563" s="25">
-        <v>120</v>
-      </c>
-      <c r="D563" s="28"/>
-      <c r="E563" s="29"/>
+        <v>13</v>
+      </c>
+      <c r="D563" s="26">
+        <v>5.25</v>
+      </c>
+      <c r="E563" s="27">
+        <v>68.25</v>
+      </c>
     </row>
     <row r="564" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A564" s="23" t="s">
         <v>567</v>
       </c>
       <c r="B564" s="24">
+        <v>5</v>
+      </c>
+      <c r="C564" s="25">
         <v>8</v>
       </c>
-      <c r="C564" s="25">
-        <v>20</v>
-      </c>
-      <c r="D564" s="28"/>
-      <c r="E564" s="29"/>
+      <c r="D564" s="26">
+        <v>5.5</v>
+      </c>
+      <c r="E564" s="27">
+        <v>44</v>
+      </c>
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A565" s="23" t="s">
         <v>568</v>
       </c>
       <c r="B565" s="24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C565" s="25">
-        <v>10</v>
-      </c>
-      <c r="D565" s="28"/>
-      <c r="E565" s="29"/>
+        <v>5</v>
+      </c>
+      <c r="D565" s="26">
+        <v>8.25</v>
+      </c>
+      <c r="E565" s="27">
+        <v>41.25</v>
+      </c>
     </row>
     <row r="566" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A566" s="23" t="s">
         <v>569</v>
       </c>
-      <c r="B566" s="24"/>
+      <c r="B566" s="24">
+        <v>2</v>
+      </c>
       <c r="C566" s="25">
-        <v>13</v>
+        <v>5.5</v>
       </c>
       <c r="D566" s="26">
-        <v>5.25</v>
+        <v>8.25</v>
       </c>
       <c r="E566" s="27">
-        <v>68.25</v>
+        <v>45.38</v>
       </c>
     </row>
     <row r="567" spans="1:5" x14ac:dyDescent="0.25">
@@ -11885,16 +11884,16 @@
         <v>570</v>
       </c>
       <c r="B567" s="24">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C567" s="25">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D567" s="26">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="E567" s="27">
-        <v>44</v>
+        <v>220</v>
       </c>
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.25">
@@ -11902,16 +11901,16 @@
         <v>571</v>
       </c>
       <c r="B568" s="24">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C568" s="25">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D568" s="26">
-        <v>8.25</v>
+        <v>5.5</v>
       </c>
       <c r="E568" s="27">
-        <v>41.25</v>
+        <v>165</v>
       </c>
     </row>
     <row r="569" spans="1:5" x14ac:dyDescent="0.25">
@@ -11922,13 +11921,13 @@
         <v>2</v>
       </c>
       <c r="C569" s="25">
-        <v>5.5</v>
+        <v>12.5</v>
       </c>
       <c r="D569" s="26">
-        <v>8.25</v>
+        <v>5</v>
       </c>
       <c r="E569" s="27">
-        <v>45.38</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="570" spans="1:5" x14ac:dyDescent="0.25">
@@ -11936,16 +11935,16 @@
         <v>573</v>
       </c>
       <c r="B570" s="24">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C570" s="25">
-        <v>22</v>
+        <v>12.01</v>
       </c>
       <c r="D570" s="26">
-        <v>10</v>
+        <v>4.5</v>
       </c>
       <c r="E570" s="27">
-        <v>220</v>
+        <v>54.05</v>
       </c>
     </row>
     <row r="571" spans="1:5" x14ac:dyDescent="0.25">
@@ -11953,16 +11952,16 @@
         <v>574</v>
       </c>
       <c r="B571" s="24">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C571" s="25">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D571" s="26">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="E571" s="27">
-        <v>165</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="572" spans="1:5" x14ac:dyDescent="0.25">
@@ -11970,16 +11969,16 @@
         <v>575</v>
       </c>
       <c r="B572" s="24">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C572" s="25">
-        <v>12.5</v>
+        <v>34</v>
       </c>
       <c r="D572" s="26">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="E572" s="27">
-        <v>62.5</v>
+        <v>195.5</v>
       </c>
     </row>
     <row r="573" spans="1:5" x14ac:dyDescent="0.25">
@@ -11987,16 +11986,16 @@
         <v>576</v>
       </c>
       <c r="B573" s="24">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C573" s="25">
-        <v>12.01</v>
+        <v>19</v>
       </c>
       <c r="D573" s="26">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="E573" s="27">
-        <v>54.05</v>
+        <v>76</v>
       </c>
     </row>
     <row r="574" spans="1:5" x14ac:dyDescent="0.25">
@@ -12004,16 +12003,16 @@
         <v>577</v>
       </c>
       <c r="B574" s="24">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C574" s="25">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D574" s="26">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="E574" s="27">
-        <v>87.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.25">
@@ -12021,16 +12020,16 @@
         <v>578</v>
       </c>
       <c r="B575" s="24">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C575" s="25">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="D575" s="26">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="E575" s="27">
-        <v>195.5</v>
+        <v>45.5</v>
       </c>
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.25">
@@ -12038,16 +12037,16 @@
         <v>579</v>
       </c>
       <c r="B576" s="24">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="C576" s="25">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="D576" s="26">
-        <v>4</v>
+        <v>2.78</v>
       </c>
       <c r="E576" s="27">
-        <v>80</v>
+        <v>155.86000000000001</v>
       </c>
     </row>
     <row r="577" spans="1:5" x14ac:dyDescent="0.25">
@@ -12055,16 +12054,16 @@
         <v>580</v>
       </c>
       <c r="B577" s="24">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C577" s="25">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="D577" s="26">
-        <v>6.5</v>
+        <v>2.66</v>
       </c>
       <c r="E577" s="27">
-        <v>6.5</v>
+        <v>6.65</v>
       </c>
     </row>
     <row r="578" spans="1:5" x14ac:dyDescent="0.25">
@@ -12072,16 +12071,16 @@
         <v>581</v>
       </c>
       <c r="B578" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C578" s="25">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="D578" s="26">
-        <v>6.5</v>
+        <v>2.66</v>
       </c>
       <c r="E578" s="27">
-        <v>45.5</v>
+        <v>11.97</v>
       </c>
     </row>
     <row r="579" spans="1:5" x14ac:dyDescent="0.25">
@@ -12089,16 +12088,16 @@
         <v>582</v>
       </c>
       <c r="B579" s="24">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C579" s="25">
-        <v>56.5</v>
+        <v>63</v>
       </c>
       <c r="D579" s="26">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="E579" s="27">
-        <v>157.26</v>
+        <v>172.77</v>
       </c>
     </row>
     <row r="580" spans="1:5" x14ac:dyDescent="0.25">
@@ -12106,16 +12105,16 @@
         <v>583</v>
       </c>
       <c r="B580" s="24">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C580" s="25">
-        <v>2.5</v>
+        <v>36.5</v>
       </c>
       <c r="D580" s="26">
-        <v>2.66</v>
+        <v>4</v>
       </c>
       <c r="E580" s="27">
-        <v>6.65</v>
+        <v>146</v>
       </c>
     </row>
     <row r="581" spans="1:5" x14ac:dyDescent="0.25">
@@ -12123,16 +12122,16 @@
         <v>584</v>
       </c>
       <c r="B581" s="24">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C581" s="25">
-        <v>4.5</v>
+        <v>49.5</v>
       </c>
       <c r="D581" s="26">
-        <v>2.66</v>
+        <v>1.5</v>
       </c>
       <c r="E581" s="27">
-        <v>11.97</v>
+        <v>74.25</v>
       </c>
     </row>
     <row r="582" spans="1:5" x14ac:dyDescent="0.25">
@@ -12140,16 +12139,16 @@
         <v>585</v>
       </c>
       <c r="B582" s="24">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C582" s="25">
-        <v>73</v>
+        <v>10.5</v>
       </c>
       <c r="D582" s="26">
-        <v>2.74</v>
+        <v>1.5</v>
       </c>
       <c r="E582" s="27">
-        <v>200.19</v>
+        <v>15.75</v>
       </c>
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.25">
@@ -12157,16 +12156,16 @@
         <v>586</v>
       </c>
       <c r="B583" s="24">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C583" s="25">
-        <v>50.5</v>
+        <v>1.75</v>
       </c>
       <c r="D583" s="26">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="E583" s="27">
-        <v>202</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.25">
@@ -12174,16 +12173,16 @@
         <v>587</v>
       </c>
       <c r="B584" s="24">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C584" s="25">
-        <v>50.5</v>
+        <v>10</v>
       </c>
       <c r="D584" s="26">
-        <v>1.5</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="E584" s="27">
-        <v>75.75</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="585" spans="1:5" x14ac:dyDescent="0.25">
@@ -12191,16 +12190,16 @@
         <v>588</v>
       </c>
       <c r="B585" s="24">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C585" s="25">
-        <v>10.5</v>
+        <v>49.5</v>
       </c>
       <c r="D585" s="26">
-        <v>1.5</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="E585" s="27">
-        <v>15.75</v>
+        <v>112.86</v>
       </c>
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.25">
@@ -12208,16 +12207,16 @@
         <v>589</v>
       </c>
       <c r="B586" s="24">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="C586" s="25">
-        <v>1.75</v>
+        <v>15</v>
       </c>
       <c r="D586" s="26">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="E586" s="27">
-        <v>2.63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.25">
@@ -12225,16 +12224,16 @@
         <v>590</v>
       </c>
       <c r="B587" s="24">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="C587" s="25">
         <v>10</v>
       </c>
       <c r="D587" s="26">
-        <v>2.2799999999999998</v>
+        <v>5.5</v>
       </c>
       <c r="E587" s="27">
-        <v>22.8</v>
+        <v>55</v>
       </c>
     </row>
     <row r="588" spans="1:5" x14ac:dyDescent="0.25">
@@ -12242,16 +12241,16 @@
         <v>591</v>
       </c>
       <c r="B588" s="24">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C588" s="25">
-        <v>49.5</v>
+        <v>34</v>
       </c>
       <c r="D588" s="26">
-        <v>2.2799999999999998</v>
+        <v>3</v>
       </c>
       <c r="E588" s="27">
-        <v>112.86</v>
+        <v>102</v>
       </c>
     </row>
     <row r="589" spans="1:5" x14ac:dyDescent="0.25">
@@ -12259,16 +12258,16 @@
         <v>592</v>
       </c>
       <c r="B589" s="24">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C589" s="25">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D589" s="26">
-        <v>5</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="E589" s="27">
-        <v>75</v>
+        <v>102.3</v>
       </c>
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.25">
@@ -12276,16 +12275,16 @@
         <v>593</v>
       </c>
       <c r="B590" s="24">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C590" s="25">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D590" s="26">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="E590" s="27">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="591" spans="1:5" x14ac:dyDescent="0.25">
@@ -12296,13 +12295,13 @@
         <v>8</v>
       </c>
       <c r="C591" s="25">
-        <v>34</v>
+        <v>1.5</v>
       </c>
       <c r="D591" s="26">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E591" s="27">
-        <v>102</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="592" spans="1:5" x14ac:dyDescent="0.25">
@@ -12310,16 +12309,16 @@
         <v>595</v>
       </c>
       <c r="B592" s="24">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C592" s="25">
-        <v>22</v>
+        <v>26.5</v>
       </c>
       <c r="D592" s="26">
-        <v>4.6500000000000004</v>
+        <v>3.5</v>
       </c>
       <c r="E592" s="27">
-        <v>102.3</v>
+        <v>92.75</v>
       </c>
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.25">
@@ -12327,16 +12326,16 @@
         <v>596</v>
       </c>
       <c r="B593" s="24">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C593" s="25">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D593" s="26">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="E593" s="27">
-        <v>60</v>
+        <v>18</v>
       </c>
     </row>
     <row r="594" spans="1:5" x14ac:dyDescent="0.25">
@@ -12344,16 +12343,16 @@
         <v>597</v>
       </c>
       <c r="B594" s="24">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C594" s="25">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="D594" s="26">
-        <v>3.5</v>
+        <v>5.45</v>
       </c>
       <c r="E594" s="27">
-        <v>5.25</v>
+        <v>54.5</v>
       </c>
     </row>
     <row r="595" spans="1:5" x14ac:dyDescent="0.25">
@@ -12361,16 +12360,16 @@
         <v>598</v>
       </c>
       <c r="B595" s="24">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C595" s="25">
-        <v>26.5</v>
+        <v>21.5</v>
       </c>
       <c r="D595" s="26">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="E595" s="27">
-        <v>92.75</v>
+        <v>66.650000000000006</v>
       </c>
     </row>
     <row r="596" spans="1:5" x14ac:dyDescent="0.25">
@@ -12378,16 +12377,16 @@
         <v>599</v>
       </c>
       <c r="B596" s="24">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="C596" s="25">
-        <v>4</v>
+        <v>9.5</v>
       </c>
       <c r="D596" s="26">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="E596" s="27">
-        <v>18</v>
+        <v>16.149999999999999</v>
       </c>
     </row>
     <row r="597" spans="1:5" x14ac:dyDescent="0.25">
@@ -12395,16 +12394,16 @@
         <v>600</v>
       </c>
       <c r="B597" s="24">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C597" s="25">
-        <v>10</v>
+        <v>30.5</v>
       </c>
       <c r="D597" s="26">
-        <v>5.45</v>
+        <v>3.33</v>
       </c>
       <c r="E597" s="27">
-        <v>54.5</v>
+        <v>101.57</v>
       </c>
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.25">
@@ -12412,16 +12411,16 @@
         <v>601</v>
       </c>
       <c r="B598" s="24">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C598" s="25">
-        <v>21.5</v>
+        <v>10.5</v>
       </c>
       <c r="D598" s="26">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="E598" s="27">
-        <v>66.650000000000006</v>
+        <v>36.75</v>
       </c>
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.25">
@@ -12429,16 +12428,16 @@
         <v>602</v>
       </c>
       <c r="B599" s="24">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="C599" s="25">
-        <v>16.5</v>
+        <v>9.5</v>
       </c>
       <c r="D599" s="26">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="E599" s="27">
-        <v>28.05</v>
+        <v>33.25</v>
       </c>
     </row>
     <row r="600" spans="1:5" x14ac:dyDescent="0.25">
@@ -12446,16 +12445,16 @@
         <v>603</v>
       </c>
       <c r="B600" s="24">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C600" s="25">
-        <v>35.5</v>
+        <v>-1</v>
       </c>
       <c r="D600" s="26">
-        <v>3.33</v>
+        <v>7.5</v>
       </c>
       <c r="E600" s="27">
-        <v>118.22</v>
+        <v>-7.5</v>
       </c>
     </row>
     <row r="601" spans="1:5" x14ac:dyDescent="0.25">
@@ -12463,16 +12462,16 @@
         <v>604</v>
       </c>
       <c r="B601" s="24">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C601" s="25">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="D601" s="26">
-        <v>3.5</v>
+        <v>8.75</v>
       </c>
       <c r="E601" s="27">
-        <v>36.75</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="602" spans="1:5" x14ac:dyDescent="0.25">
@@ -12480,16 +12479,16 @@
         <v>605</v>
       </c>
       <c r="B602" s="24">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C602" s="25">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="D602" s="26">
-        <v>3.5</v>
+        <v>6.25</v>
       </c>
       <c r="E602" s="27">
-        <v>33.25</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="603" spans="1:5" x14ac:dyDescent="0.25">
@@ -12497,16 +12496,16 @@
         <v>606</v>
       </c>
       <c r="B603" s="24">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="C603" s="25">
-        <v>-1</v>
+        <v>97.8</v>
       </c>
       <c r="D603" s="26">
-        <v>7.5</v>
+        <v>2.85</v>
       </c>
       <c r="E603" s="27">
-        <v>-7.5</v>
+        <v>278.73</v>
       </c>
     </row>
     <row r="604" spans="1:5" x14ac:dyDescent="0.25">
@@ -12514,16 +12513,16 @@
         <v>607</v>
       </c>
       <c r="B604" s="24">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C604" s="25">
-        <v>10</v>
+        <v>60.99</v>
       </c>
       <c r="D604" s="26">
-        <v>8.75</v>
+        <v>2</v>
       </c>
       <c r="E604" s="27">
-        <v>87.5</v>
+        <v>121.98</v>
       </c>
     </row>
     <row r="605" spans="1:5" x14ac:dyDescent="0.25">
@@ -12531,16 +12530,16 @@
         <v>608</v>
       </c>
       <c r="B605" s="24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C605" s="25">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="D605" s="26">
-        <v>6.25</v>
+        <v>5.6</v>
       </c>
       <c r="E605" s="27">
-        <v>37.5</v>
+        <v>19.600000000000001</v>
       </c>
     </row>
     <row r="606" spans="1:5" x14ac:dyDescent="0.25">
@@ -12548,16 +12547,16 @@
         <v>609</v>
       </c>
       <c r="B606" s="24">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="C606" s="25">
-        <v>97.8</v>
+        <v>14.5</v>
       </c>
       <c r="D606" s="26">
-        <v>2.85</v>
+        <v>5.5</v>
       </c>
       <c r="E606" s="27">
-        <v>278.73</v>
+        <v>79.75</v>
       </c>
     </row>
     <row r="607" spans="1:5" x14ac:dyDescent="0.25">
@@ -12565,16 +12564,16 @@
         <v>610</v>
       </c>
       <c r="B607" s="24">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C607" s="25">
-        <v>60.99</v>
+        <v>13</v>
       </c>
       <c r="D607" s="26">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="E607" s="27">
-        <v>121.98</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="608" spans="1:5" x14ac:dyDescent="0.25">
@@ -12582,16 +12581,16 @@
         <v>611</v>
       </c>
       <c r="B608" s="24">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C608" s="25">
-        <v>3.5</v>
+        <v>29.5</v>
       </c>
       <c r="D608" s="26">
-        <v>5.6</v>
+        <v>3.1</v>
       </c>
       <c r="E608" s="27">
-        <v>19.600000000000001</v>
+        <v>91.45</v>
       </c>
     </row>
     <row r="609" spans="1:5" x14ac:dyDescent="0.25">
@@ -12599,16 +12598,16 @@
         <v>612</v>
       </c>
       <c r="B609" s="24">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C609" s="25">
-        <v>14.5</v>
+        <v>26.5</v>
       </c>
       <c r="D609" s="26">
-        <v>5.5</v>
+        <v>5.68</v>
       </c>
       <c r="E609" s="27">
-        <v>79.75</v>
+        <v>150.52000000000001</v>
       </c>
     </row>
     <row r="610" spans="1:5" x14ac:dyDescent="0.25">
@@ -12616,16 +12615,16 @@
         <v>613</v>
       </c>
       <c r="B610" s="24">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C610" s="25">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="D610" s="26">
-        <v>5.5</v>
+        <v>3.97</v>
       </c>
       <c r="E610" s="27">
-        <v>71.5</v>
+        <v>246.04</v>
       </c>
     </row>
     <row r="611" spans="1:5" x14ac:dyDescent="0.25">
@@ -12633,33 +12632,31 @@
         <v>614</v>
       </c>
       <c r="B611" s="24">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C611" s="25">
-        <v>29.5</v>
+        <v>20</v>
       </c>
       <c r="D611" s="26">
-        <v>3.1</v>
+        <v>4.8</v>
       </c>
       <c r="E611" s="27">
-        <v>91.45</v>
+        <v>96</v>
       </c>
     </row>
     <row r="612" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A612" s="23" t="s">
         <v>615</v>
       </c>
-      <c r="B612" s="24">
-        <v>16</v>
-      </c>
+      <c r="B612" s="24"/>
       <c r="C612" s="25">
-        <v>26.5</v>
+        <v>1</v>
       </c>
       <c r="D612" s="26">
-        <v>5.68</v>
+        <v>6.75</v>
       </c>
       <c r="E612" s="27">
-        <v>150.52000000000001</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="613" spans="1:5" x14ac:dyDescent="0.25">
@@ -12667,16 +12664,16 @@
         <v>616</v>
       </c>
       <c r="B613" s="24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C613" s="25">
-        <v>64.5</v>
+        <v>6</v>
       </c>
       <c r="D613" s="26">
-        <v>3.97</v>
+        <v>6.75</v>
       </c>
       <c r="E613" s="27">
-        <v>255.96</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="614" spans="1:5" x14ac:dyDescent="0.25">
@@ -12684,48 +12681,48 @@
         <v>617</v>
       </c>
       <c r="B614" s="24">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C614" s="25">
-        <v>20</v>
+        <v>7.5</v>
       </c>
       <c r="D614" s="26">
-        <v>4.8</v>
+        <v>6.75</v>
       </c>
       <c r="E614" s="27">
-        <v>96</v>
+        <v>50.63</v>
       </c>
     </row>
     <row r="615" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A615" s="23" t="s">
         <v>618</v>
       </c>
-      <c r="B615" s="24"/>
+      <c r="B615" s="24">
+        <v>6</v>
+      </c>
       <c r="C615" s="25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D615" s="26">
         <v>6.75</v>
       </c>
       <c r="E615" s="27">
-        <v>6.75</v>
+        <v>20.25</v>
       </c>
     </row>
     <row r="616" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A616" s="23" t="s">
         <v>619</v>
       </c>
-      <c r="B616" s="24">
+      <c r="B616" s="24"/>
+      <c r="C616" s="25">
         <v>8</v>
-      </c>
-      <c r="C616" s="25">
-        <v>6</v>
       </c>
       <c r="D616" s="26">
         <v>6.75</v>
       </c>
       <c r="E616" s="27">
-        <v>40.5</v>
+        <v>54</v>
       </c>
     </row>
     <row r="617" spans="1:5" x14ac:dyDescent="0.25">
@@ -12733,16 +12730,16 @@
         <v>620</v>
       </c>
       <c r="B617" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C617" s="25">
         <v>7.5</v>
       </c>
       <c r="D617" s="26">
-        <v>6.75</v>
+        <v>5.5</v>
       </c>
       <c r="E617" s="27">
-        <v>50.63</v>
+        <v>41.25</v>
       </c>
     </row>
     <row r="618" spans="1:5" x14ac:dyDescent="0.25">
@@ -12750,31 +12747,33 @@
         <v>621</v>
       </c>
       <c r="B618" s="24">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="C618" s="25">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="D618" s="26">
-        <v>6.75</v>
+        <v>3.1</v>
       </c>
       <c r="E618" s="27">
-        <v>20.25</v>
+        <v>186</v>
       </c>
     </row>
     <row r="619" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A619" s="23" t="s">
         <v>622</v>
       </c>
-      <c r="B619" s="24"/>
+      <c r="B619" s="24">
+        <v>22</v>
+      </c>
       <c r="C619" s="25">
-        <v>8</v>
+        <v>42.5</v>
       </c>
       <c r="D619" s="26">
-        <v>6.75</v>
+        <v>3.6</v>
       </c>
       <c r="E619" s="27">
-        <v>54</v>
+        <v>153</v>
       </c>
     </row>
     <row r="620" spans="1:5" x14ac:dyDescent="0.25">
@@ -12782,16 +12781,16 @@
         <v>623</v>
       </c>
       <c r="B620" s="24">
+        <v>11</v>
+      </c>
+      <c r="C620" s="25">
         <v>3</v>
       </c>
-      <c r="C620" s="25">
-        <v>7.5</v>
-      </c>
       <c r="D620" s="26">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="E620" s="27">
-        <v>41.25</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="621" spans="1:5" x14ac:dyDescent="0.25">
@@ -12799,16 +12798,16 @@
         <v>624</v>
       </c>
       <c r="B621" s="24">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="C621" s="25">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="D621" s="26">
-        <v>3.1</v>
+        <v>4.25</v>
       </c>
       <c r="E621" s="27">
-        <v>198.4</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="622" spans="1:5" x14ac:dyDescent="0.25">
@@ -12816,16 +12815,16 @@
         <v>625</v>
       </c>
       <c r="B622" s="24">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C622" s="25">
-        <v>43.5</v>
+        <v>64</v>
       </c>
       <c r="D622" s="26">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="E622" s="27">
-        <v>156.6</v>
+        <v>240</v>
       </c>
     </row>
     <row r="623" spans="1:5" x14ac:dyDescent="0.25">
@@ -12833,16 +12832,16 @@
         <v>626</v>
       </c>
       <c r="B623" s="24">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C623" s="25">
-        <v>3</v>
+        <v>23.5</v>
       </c>
       <c r="D623" s="26">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="E623" s="27">
-        <v>10.5</v>
+        <v>58.75</v>
       </c>
     </row>
     <row r="624" spans="1:5" x14ac:dyDescent="0.25">
@@ -12850,16 +12849,16 @@
         <v>627</v>
       </c>
       <c r="B624" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C624" s="25">
-        <v>6</v>
+        <v>15.5</v>
       </c>
       <c r="D624" s="26">
-        <v>4.25</v>
+        <v>7.31</v>
       </c>
       <c r="E624" s="27">
-        <v>25.5</v>
+        <v>113.34</v>
       </c>
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.25">
@@ -12867,16 +12866,16 @@
         <v>628</v>
       </c>
       <c r="B625" s="24">
+        <v>4</v>
+      </c>
+      <c r="C625" s="25">
+        <v>4</v>
+      </c>
+      <c r="D625" s="26">
+        <v>5.75</v>
+      </c>
+      <c r="E625" s="27">
         <v>23</v>
-      </c>
-      <c r="C625" s="25">
-        <v>64</v>
-      </c>
-      <c r="D625" s="26">
-        <v>3.75</v>
-      </c>
-      <c r="E625" s="27">
-        <v>240</v>
       </c>
     </row>
     <row r="626" spans="1:5" x14ac:dyDescent="0.25">
@@ -12887,13 +12886,13 @@
         <v>14</v>
       </c>
       <c r="C626" s="25">
-        <v>23.5</v>
+        <v>1.5</v>
       </c>
       <c r="D626" s="26">
-        <v>2.5</v>
+        <v>5.8</v>
       </c>
       <c r="E626" s="27">
-        <v>58.75</v>
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="627" spans="1:5" x14ac:dyDescent="0.25">
@@ -12901,16 +12900,16 @@
         <v>630</v>
       </c>
       <c r="B627" s="24">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C627" s="25">
-        <v>15.5</v>
+        <v>53</v>
       </c>
       <c r="D627" s="26">
-        <v>7.31</v>
+        <v>2.25</v>
       </c>
       <c r="E627" s="27">
-        <v>113.34</v>
+        <v>119.25</v>
       </c>
     </row>
     <row r="628" spans="1:5" x14ac:dyDescent="0.25">
@@ -12918,16 +12917,16 @@
         <v>631</v>
       </c>
       <c r="B628" s="24">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C628" s="25">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="D628" s="26">
-        <v>5.75</v>
+        <v>2.25</v>
       </c>
       <c r="E628" s="27">
-        <v>23</v>
+        <v>135</v>
       </c>
     </row>
     <row r="629" spans="1:5" x14ac:dyDescent="0.25">
@@ -12935,16 +12934,16 @@
         <v>632</v>
       </c>
       <c r="B629" s="24">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C629" s="25">
-        <v>1.5</v>
+        <v>13</v>
       </c>
       <c r="D629" s="26">
-        <v>5.8</v>
+        <v>8.84</v>
       </c>
       <c r="E629" s="27">
-        <v>8.6999999999999993</v>
+        <v>114.9</v>
       </c>
     </row>
     <row r="630" spans="1:5" x14ac:dyDescent="0.25">
@@ -12952,16 +12951,16 @@
         <v>633</v>
       </c>
       <c r="B630" s="24">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C630" s="25">
         <v>58</v>
       </c>
       <c r="D630" s="26">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="E630" s="27">
-        <v>130.5</v>
+        <v>159.5</v>
       </c>
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.25">
@@ -12969,16 +12968,16 @@
         <v>634</v>
       </c>
       <c r="B631" s="24">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C631" s="25">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D631" s="26">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="E631" s="27">
-        <v>135</v>
+        <v>187</v>
       </c>
     </row>
     <row r="632" spans="1:5" x14ac:dyDescent="0.25">
@@ -12986,16 +12985,16 @@
         <v>635</v>
       </c>
       <c r="B632" s="24">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C632" s="25">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="D632" s="26">
-        <v>8.84</v>
+        <v>2.75</v>
       </c>
       <c r="E632" s="27">
-        <v>114.9</v>
+        <v>159.5</v>
       </c>
     </row>
     <row r="633" spans="1:5" x14ac:dyDescent="0.25">
@@ -13003,16 +13002,16 @@
         <v>636</v>
       </c>
       <c r="B633" s="24">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C633" s="25">
-        <v>58</v>
+        <v>32.5</v>
       </c>
       <c r="D633" s="26">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="E633" s="27">
-        <v>159.5</v>
+        <v>130</v>
       </c>
     </row>
     <row r="634" spans="1:5" x14ac:dyDescent="0.25">
@@ -13020,16 +13019,16 @@
         <v>637</v>
       </c>
       <c r="B634" s="24">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C634" s="25">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="D634" s="26">
-        <v>2.75</v>
+        <v>2.66</v>
       </c>
       <c r="E634" s="27">
-        <v>187</v>
+        <v>58.52</v>
       </c>
     </row>
     <row r="635" spans="1:5" x14ac:dyDescent="0.25">
@@ -13037,16 +13036,16 @@
         <v>638</v>
       </c>
       <c r="B635" s="24">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C635" s="25">
-        <v>58</v>
+        <v>17.5</v>
       </c>
       <c r="D635" s="26">
-        <v>2.75</v>
+        <v>4.25</v>
       </c>
       <c r="E635" s="27">
-        <v>159.5</v>
+        <v>74.38</v>
       </c>
     </row>
     <row r="636" spans="1:5" x14ac:dyDescent="0.25">
@@ -13054,16 +13053,16 @@
         <v>639</v>
       </c>
       <c r="B636" s="24">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C636" s="25">
-        <v>32.5</v>
+        <v>17</v>
       </c>
       <c r="D636" s="26">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="E636" s="27">
-        <v>130</v>
+        <v>72.25</v>
       </c>
     </row>
     <row r="637" spans="1:5" x14ac:dyDescent="0.25">
@@ -13074,13 +13073,13 @@
         <v>2</v>
       </c>
       <c r="C637" s="25">
-        <v>22</v>
+        <v>18.350000000000001</v>
       </c>
       <c r="D637" s="26">
-        <v>2.66</v>
+        <v>5.5</v>
       </c>
       <c r="E637" s="27">
-        <v>58.52</v>
+        <v>100.93</v>
       </c>
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.25">
@@ -13088,16 +13087,16 @@
         <v>641</v>
       </c>
       <c r="B638" s="24">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C638" s="25">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="D638" s="26">
-        <v>4.25</v>
+        <v>5</v>
       </c>
       <c r="E638" s="27">
-        <v>74.38</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="639" spans="1:5" x14ac:dyDescent="0.25">
@@ -13105,16 +13104,16 @@
         <v>642</v>
       </c>
       <c r="B639" s="24">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C639" s="25">
-        <v>17</v>
+        <v>28.5</v>
       </c>
       <c r="D639" s="26">
-        <v>4.25</v>
+        <v>2.75</v>
       </c>
       <c r="E639" s="27">
-        <v>72.25</v>
+        <v>78.38</v>
       </c>
     </row>
     <row r="640" spans="1:5" x14ac:dyDescent="0.25">
@@ -13122,16 +13121,16 @@
         <v>643</v>
       </c>
       <c r="B640" s="24">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C640" s="25">
-        <v>18.350000000000001</v>
+        <v>34.5</v>
       </c>
       <c r="D640" s="26">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="E640" s="27">
-        <v>100.93</v>
+        <v>124.2</v>
       </c>
     </row>
     <row r="641" spans="1:5" x14ac:dyDescent="0.25">
@@ -13139,61 +13138,49 @@
         <v>644</v>
       </c>
       <c r="B641" s="24">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C641" s="25">
-        <v>25.5</v>
-      </c>
-      <c r="D641" s="26">
-        <v>5</v>
-      </c>
-      <c r="E641" s="27">
-        <v>127.5</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D641" s="28"/>
+      <c r="E641" s="29"/>
     </row>
     <row r="642" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A642" s="23" t="s">
         <v>645</v>
       </c>
       <c r="B642" s="24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C642" s="25">
-        <v>28.5</v>
-      </c>
-      <c r="D642" s="26">
-        <v>2.75</v>
-      </c>
-      <c r="E642" s="27">
-        <v>78.38</v>
-      </c>
+        <v>30.5</v>
+      </c>
+      <c r="D642" s="28"/>
+      <c r="E642" s="29"/>
     </row>
     <row r="643" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A643" s="23" t="s">
         <v>646</v>
       </c>
       <c r="B643" s="24">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C643" s="25">
-        <v>34.5</v>
-      </c>
-      <c r="D643" s="26">
-        <v>3.6</v>
-      </c>
-      <c r="E643" s="27">
-        <v>124.2</v>
-      </c>
+        <v>36.69</v>
+      </c>
+      <c r="D643" s="28"/>
+      <c r="E643" s="29"/>
     </row>
     <row r="644" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A644" s="23" t="s">
         <v>647</v>
       </c>
       <c r="B644" s="24">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C644" s="25">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D644" s="28"/>
       <c r="E644" s="29"/>
@@ -13203,10 +13190,10 @@
         <v>648</v>
       </c>
       <c r="B645" s="24">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C645" s="25">
-        <v>30.5</v>
+        <v>91.5</v>
       </c>
       <c r="D645" s="28"/>
       <c r="E645" s="29"/>
@@ -13216,10 +13203,10 @@
         <v>649</v>
       </c>
       <c r="B646" s="24">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C646" s="25">
-        <v>36.69</v>
+        <v>120</v>
       </c>
       <c r="D646" s="28"/>
       <c r="E646" s="29"/>
@@ -13229,10 +13216,10 @@
         <v>650</v>
       </c>
       <c r="B647" s="24">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C647" s="25">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D647" s="28"/>
       <c r="E647" s="29"/>
@@ -13242,10 +13229,10 @@
         <v>651</v>
       </c>
       <c r="B648" s="24">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C648" s="25">
-        <v>91.5</v>
+        <v>59.5</v>
       </c>
       <c r="D648" s="28"/>
       <c r="E648" s="29"/>
@@ -13255,10 +13242,10 @@
         <v>652</v>
       </c>
       <c r="B649" s="24">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C649" s="25">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="D649" s="28"/>
       <c r="E649" s="29"/>
@@ -13268,36 +13255,42 @@
         <v>653</v>
       </c>
       <c r="B650" s="24">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C650" s="25">
-        <v>9</v>
-      </c>
-      <c r="D650" s="28"/>
-      <c r="E650" s="29"/>
+        <v>86.5</v>
+      </c>
+      <c r="D650" s="26">
+        <v>2.9</v>
+      </c>
+      <c r="E650" s="27">
+        <v>250.67</v>
+      </c>
     </row>
     <row r="651" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A651" s="23" t="s">
         <v>654</v>
       </c>
-      <c r="B651" s="24">
-        <v>30</v>
-      </c>
+      <c r="B651" s="24"/>
       <c r="C651" s="25">
-        <v>59.5</v>
-      </c>
-      <c r="D651" s="28"/>
-      <c r="E651" s="29"/>
+        <v>14.5</v>
+      </c>
+      <c r="D651" s="26">
+        <v>3.8</v>
+      </c>
+      <c r="E651" s="27">
+        <v>55.1</v>
+      </c>
     </row>
     <row r="652" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A652" s="23" t="s">
         <v>655</v>
       </c>
       <c r="B652" s="24">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C652" s="25">
-        <v>20</v>
+        <v>-0.5</v>
       </c>
       <c r="D652" s="28"/>
       <c r="E652" s="29"/>
@@ -13306,17 +13299,15 @@
       <c r="A653" s="23" t="s">
         <v>656</v>
       </c>
-      <c r="B653" s="24">
-        <v>24</v>
-      </c>
+      <c r="B653" s="24"/>
       <c r="C653" s="25">
-        <v>86.5</v>
+        <v>502</v>
       </c>
       <c r="D653" s="26">
-        <v>2.9</v>
+        <v>0.82</v>
       </c>
       <c r="E653" s="27">
-        <v>250.67</v>
+        <v>411.64</v>
       </c>
     </row>
     <row r="654" spans="1:5" x14ac:dyDescent="0.25">
@@ -13325,13 +13316,13 @@
       </c>
       <c r="B654" s="24"/>
       <c r="C654" s="25">
-        <v>14.5</v>
+        <v>500</v>
       </c>
       <c r="D654" s="26">
-        <v>3.8</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="E654" s="27">
-        <v>55.1</v>
+        <v>575</v>
       </c>
     </row>
     <row r="655" spans="1:5" x14ac:dyDescent="0.25">
@@ -13339,7 +13330,7 @@
         <v>658</v>
       </c>
       <c r="B655" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C655" s="25">
         <v>-0.5</v>
@@ -13351,30 +13342,30 @@
       <c r="A656" s="23" t="s">
         <v>659</v>
       </c>
-      <c r="B656" s="24"/>
+      <c r="B656" s="24">
+        <v>2</v>
+      </c>
       <c r="C656" s="25">
-        <v>502</v>
-      </c>
-      <c r="D656" s="26">
-        <v>0.82</v>
-      </c>
-      <c r="E656" s="27">
-        <v>411.64</v>
-      </c>
+        <v>-0.02</v>
+      </c>
+      <c r="D656" s="28"/>
+      <c r="E656" s="29"/>
     </row>
     <row r="657" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A657" s="23" t="s">
         <v>660</v>
       </c>
-      <c r="B657" s="24"/>
+      <c r="B657" s="24">
+        <v>6</v>
+      </c>
       <c r="C657" s="25">
-        <v>500</v>
+        <v>-5</v>
       </c>
       <c r="D657" s="26">
-        <v>1.1499999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="E657" s="27">
-        <v>575</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="658" spans="1:5" x14ac:dyDescent="0.25">
@@ -13382,10 +13373,10 @@
         <v>661</v>
       </c>
       <c r="B658" s="24">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C658" s="25">
-        <v>-0.5</v>
+        <v>271</v>
       </c>
       <c r="D658" s="28"/>
       <c r="E658" s="29"/>
@@ -13395,10 +13386,10 @@
         <v>662</v>
       </c>
       <c r="B659" s="24">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="C659" s="25">
-        <v>-0.02</v>
+        <v>-0.39</v>
       </c>
       <c r="D659" s="28"/>
       <c r="E659" s="29"/>
@@ -13408,40 +13399,40 @@
         <v>663</v>
       </c>
       <c r="B660" s="24">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="C660" s="25">
-        <v>-5</v>
-      </c>
-      <c r="D660" s="26">
-        <v>1.6</v>
-      </c>
-      <c r="E660" s="27">
-        <v>-8</v>
-      </c>
+        <v>-0.67</v>
+      </c>
+      <c r="D660" s="28"/>
+      <c r="E660" s="29"/>
     </row>
     <row r="661" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A661" s="23" t="s">
         <v>664</v>
       </c>
       <c r="B661" s="24">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C661" s="25">
-        <v>271</v>
-      </c>
-      <c r="D661" s="28"/>
-      <c r="E661" s="29"/>
+        <v>-149</v>
+      </c>
+      <c r="D661" s="26">
+        <v>1</v>
+      </c>
+      <c r="E661" s="27">
+        <v>-149</v>
+      </c>
     </row>
     <row r="662" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A662" s="23" t="s">
         <v>665</v>
       </c>
       <c r="B662" s="24">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C662" s="25">
-        <v>-0.39</v>
+        <v>-43.15</v>
       </c>
       <c r="D662" s="28"/>
       <c r="E662" s="29"/>
@@ -13451,29 +13442,33 @@
         <v>666</v>
       </c>
       <c r="B663" s="24">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="C663" s="25">
-        <v>-0.67</v>
-      </c>
-      <c r="D663" s="28"/>
-      <c r="E663" s="29"/>
+        <v>15.5</v>
+      </c>
+      <c r="D663" s="26">
+        <v>2.5</v>
+      </c>
+      <c r="E663" s="27">
+        <v>38.75</v>
+      </c>
     </row>
     <row r="664" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A664" s="23" t="s">
         <v>667</v>
       </c>
       <c r="B664" s="24">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C664" s="25">
-        <v>-149</v>
+        <v>22.5</v>
       </c>
       <c r="D664" s="26">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E664" s="27">
-        <v>-149</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="665" spans="1:5" x14ac:dyDescent="0.25">
@@ -13481,29 +13476,33 @@
         <v>668</v>
       </c>
       <c r="B665" s="24">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="C665" s="25">
-        <v>-43.15</v>
-      </c>
-      <c r="D665" s="28"/>
-      <c r="E665" s="29"/>
+        <v>25.25</v>
+      </c>
+      <c r="D665" s="26">
+        <v>2.5</v>
+      </c>
+      <c r="E665" s="27">
+        <v>63.13</v>
+      </c>
     </row>
     <row r="666" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A666" s="23" t="s">
         <v>669</v>
       </c>
       <c r="B666" s="24">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C666" s="25">
-        <v>17.5</v>
+        <v>56</v>
       </c>
       <c r="D666" s="26">
         <v>2.5</v>
       </c>
       <c r="E666" s="27">
-        <v>43.75</v>
+        <v>140</v>
       </c>
     </row>
     <row r="667" spans="1:5" x14ac:dyDescent="0.25">
@@ -13511,16 +13510,16 @@
         <v>670</v>
       </c>
       <c r="B667" s="24">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C667" s="25">
-        <v>22.5</v>
+        <v>24.75</v>
       </c>
       <c r="D667" s="26">
         <v>2.5</v>
       </c>
       <c r="E667" s="27">
-        <v>56.25</v>
+        <v>61.88</v>
       </c>
     </row>
     <row r="668" spans="1:5" x14ac:dyDescent="0.25">
@@ -13528,16 +13527,16 @@
         <v>671</v>
       </c>
       <c r="B668" s="24">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C668" s="25">
-        <v>28.25</v>
+        <v>0.5</v>
       </c>
       <c r="D668" s="26">
         <v>2.5</v>
       </c>
       <c r="E668" s="27">
-        <v>70.63</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="669" spans="1:5" x14ac:dyDescent="0.25">
@@ -13545,16 +13544,16 @@
         <v>672</v>
       </c>
       <c r="B669" s="24">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C669" s="25">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="D669" s="26">
         <v>2.5</v>
       </c>
       <c r="E669" s="27">
-        <v>145</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="670" spans="1:5" x14ac:dyDescent="0.25">
@@ -13562,16 +13561,16 @@
         <v>673</v>
       </c>
       <c r="B670" s="24">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C670" s="25">
-        <v>24.75</v>
+        <v>13.75</v>
       </c>
       <c r="D670" s="26">
         <v>2.5</v>
       </c>
       <c r="E670" s="27">
-        <v>61.88</v>
+        <v>34.380000000000003</v>
       </c>
     </row>
     <row r="671" spans="1:5" x14ac:dyDescent="0.25">
@@ -13579,16 +13578,16 @@
         <v>674</v>
       </c>
       <c r="B671" s="24">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C671" s="25">
-        <v>3</v>
+        <v>28.5</v>
       </c>
       <c r="D671" s="26">
         <v>2.5</v>
       </c>
       <c r="E671" s="27">
-        <v>7.5</v>
+        <v>71.25</v>
       </c>
     </row>
     <row r="672" spans="1:5" x14ac:dyDescent="0.25">
@@ -13596,76 +13595,25 @@
         <v>675</v>
       </c>
       <c r="B672" s="24">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="C672" s="25">
-        <v>21</v>
-      </c>
-      <c r="D672" s="26">
-        <v>2.5</v>
-      </c>
-      <c r="E672" s="27">
-        <v>52.5</v>
-      </c>
+        <v>-224</v>
+      </c>
+      <c r="D672" s="28"/>
+      <c r="E672" s="29"/>
     </row>
     <row r="673" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A673" s="23" t="s">
+      <c r="A673" s="30" t="s">
         <v>676</v>
       </c>
-      <c r="B673" s="24">
-        <v>37</v>
-      </c>
-      <c r="C673" s="25">
-        <v>16.75</v>
-      </c>
-      <c r="D673" s="26">
-        <v>2.5</v>
-      </c>
-      <c r="E673" s="27">
-        <v>41.88</v>
-      </c>
-    </row>
-    <row r="674" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A674" s="23" t="s">
-        <v>677</v>
-      </c>
-      <c r="B674" s="24">
-        <v>43</v>
-      </c>
-      <c r="C674" s="25">
-        <v>32.5</v>
-      </c>
-      <c r="D674" s="26">
-        <v>2.5</v>
-      </c>
-      <c r="E674" s="27">
-        <v>81.25</v>
-      </c>
-    </row>
-    <row r="675" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A675" s="23" t="s">
-        <v>678</v>
-      </c>
-      <c r="B675" s="24">
-        <v>86</v>
-      </c>
-      <c r="C675" s="25">
-        <v>-224</v>
-      </c>
-      <c r="D675" s="28"/>
-      <c r="E675" s="29"/>
-    </row>
-    <row r="676" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A676" s="30" t="s">
-        <v>679</v>
-      </c>
-      <c r="B676" s="31"/>
-      <c r="C676" s="32">
-        <v>39304.78</v>
-      </c>
-      <c r="D676" s="33"/>
-      <c r="E676" s="34">
-        <v>112906.16</v>
+      <c r="B673" s="31"/>
+      <c r="C673" s="32">
+        <v>38596.71</v>
+      </c>
+      <c r="D673" s="33"/>
+      <c r="E673" s="34">
+        <v>110706.6</v>
       </c>
     </row>
   </sheetData>

--- a/data/website stock.xlsx
+++ b/data/website stock.xlsx
@@ -35,7 +35,7 @@
     <t>Stock Group Summary</t>
   </si>
   <si>
-    <t>1-Jul-25 to 17-Dec-25</t>
+    <t>1-Jul-25 to 18-Dec-25</t>
   </si>
   <si>
     <t/>
@@ -68,307 +68,307 @@
     <t>Value</t>
   </si>
   <si>
-    <t>.1001 PATRIKA</t>
-  </si>
-  <si>
-    <t>1002 PATRIKA</t>
-  </si>
-  <si>
-    <t>1003 PATRIKA</t>
-  </si>
-  <si>
-    <t>1004 PATRIKA</t>
-  </si>
-  <si>
-    <t>1005 PATRIKA</t>
-  </si>
-  <si>
-    <t>1006 PATRIKA</t>
-  </si>
-  <si>
-    <t>1007 PATRIKA</t>
-  </si>
-  <si>
-    <t>1008 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>1009 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>1010 PATRIKA</t>
-  </si>
-  <si>
-    <t>1011 PATRIKA</t>
-  </si>
-  <si>
-    <t>1012 PATRIKA</t>
-  </si>
-  <si>
-    <t>1013 PATRIKA</t>
-  </si>
-  <si>
-    <t>1014 PATRIKA</t>
-  </si>
-  <si>
-    <t>1015 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>1016 PATRIKA</t>
-  </si>
-  <si>
-    <t>1017 PATRIKA</t>
-  </si>
-  <si>
-    <t>1018 PATRIKA</t>
-  </si>
-  <si>
-    <t>1019 PATRIKA</t>
-  </si>
-  <si>
-    <t>1020 PATRIKA</t>
-  </si>
-  <si>
-    <t>1021 PATRIKA</t>
-  </si>
-  <si>
-    <t>1023 PATRIKA</t>
-  </si>
-  <si>
-    <t>1024 PATRIKA</t>
-  </si>
-  <si>
-    <t>1025 PATRIKA</t>
-  </si>
-  <si>
-    <t>1026 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>1027 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>1028 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>1029 PATRIKA</t>
-  </si>
-  <si>
-    <t>1030 PATRIKA</t>
-  </si>
-  <si>
-    <t>1031 PATRIKA</t>
-  </si>
-  <si>
-    <t>1032 PATRIKA</t>
-  </si>
-  <si>
-    <t>1033 PATRIKA</t>
-  </si>
-  <si>
-    <t>1034 PATRIKA</t>
-  </si>
-  <si>
-    <t>1035 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>1101 PATRIKA (O.2591)</t>
-  </si>
-  <si>
-    <t>1102 PATRIKA (P.2591)</t>
-  </si>
-  <si>
-    <t>1103 PATRIKA(N-271)</t>
-  </si>
-  <si>
-    <t>1104 PATRIKA(N-272)</t>
-  </si>
-  <si>
-    <t>1105 PATRIKA</t>
-  </si>
-  <si>
-    <t>1106 PATRIKA-YELLOW</t>
-  </si>
-  <si>
-    <t>1107 PATRIKA-RED</t>
-  </si>
-  <si>
-    <t>1109 PATRIKA-BIG Y</t>
-  </si>
-  <si>
-    <t>1110 PATRIKA-BIG R</t>
-  </si>
-  <si>
-    <t>1112 PATRIKA</t>
-  </si>
-  <si>
-    <t>1113 PATRIKA</t>
-  </si>
-  <si>
-    <t>1114 PATRIKA-BROWN</t>
-  </si>
-  <si>
-    <t>1115 PATRIKA-CREAM</t>
-  </si>
-  <si>
-    <t>1116 PATRIKA (1153)</t>
-  </si>
-  <si>
-    <t>1117 PATRIKA (1155)</t>
-  </si>
-  <si>
-    <t>1117 PATRIKA - B</t>
-  </si>
-  <si>
-    <t>1118 PATRIKA - B (DCU)</t>
-  </si>
-  <si>
-    <t>1118 PATRIKA (सवाश्री-57)</t>
-  </si>
-  <si>
-    <t>1119 PATRIKA - B (DCU)</t>
-  </si>
-  <si>
-    <t>1119 PATRIKA(सवाश्री-55)</t>
-  </si>
-  <si>
-    <t>1120 PATRIKA(सवाश्री-59)</t>
-  </si>
-  <si>
-    <t>1121 PATRIKA(सवाश्री-53)</t>
-  </si>
-  <si>
-    <t>1122 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>1123 PATRIKA (LED-51)</t>
-  </si>
-  <si>
-    <t>1124 PATRIKA (LED-52)</t>
-  </si>
-  <si>
-    <t>1125 PATRIKA (LED-53)</t>
-  </si>
-  <si>
-    <t>1126 PATRIKA (LED-54)</t>
-  </si>
-  <si>
-    <t>1127 PATRIKA (Eco-52)</t>
-  </si>
-  <si>
-    <t>1128 PATRIKA (Eco-55)</t>
-  </si>
-  <si>
-    <t>1129 PATRIKA (Eco-56)</t>
-  </si>
-  <si>
-    <t>1130 PATRIKA - B (ECO-60) (DCU)</t>
-  </si>
-  <si>
-    <t>1130 PATRIKA (Eco-59)</t>
-  </si>
-  <si>
-    <t>1131 PATRIKA (DCU) Eco-51</t>
-  </si>
-  <si>
-    <t>1132 PATRIKA (DCU) Eco-53</t>
-  </si>
-  <si>
-    <t>1133 PATRIKA (DCU) Eco-57</t>
-  </si>
-  <si>
-    <t>1134 PATRIKA (DCU) Eco-58</t>
-  </si>
-  <si>
-    <t>1135 PATRIKA (DCU) Eco-54</t>
-  </si>
-  <si>
-    <t>1136 PATRIKA (R)</t>
-  </si>
-  <si>
-    <t>1137 PATRIKA (P)</t>
-  </si>
-  <si>
-    <t>1138 PATRIKA (BR)</t>
-  </si>
-  <si>
-    <t>1139 PATRIKA (BY)</t>
-  </si>
-  <si>
-    <t>1140 PATRIKA (BB)</t>
-  </si>
-  <si>
-    <t>1141 PATRIKA (R)</t>
-  </si>
-  <si>
-    <t>1142 PATRIKA (P)</t>
-  </si>
-  <si>
-    <t>1143 PATRIKA (G)</t>
-  </si>
-  <si>
-    <t>1144 PATRIKA (BR)</t>
-  </si>
-  <si>
-    <t>1145 PATRIKA (BY)</t>
-  </si>
-  <si>
-    <t>1146 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>1147 PATRIKA (S.201)</t>
-  </si>
-  <si>
-    <t>1148 PATRIKA (S.202)</t>
-  </si>
-  <si>
-    <t>1149 PATRIKA (S.204)</t>
-  </si>
-  <si>
-    <t>1150 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>1151 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>1152 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>1153 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>1154 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>1155 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>1157 PATRIKA-CREAM</t>
-  </si>
-  <si>
-    <t>1158 PATRIKA-GOLDEN</t>
-  </si>
-  <si>
-    <t>1159 PATRIKA-WHITE</t>
-  </si>
-  <si>
-    <t>1160 PATRIKA-PINK</t>
-  </si>
-  <si>
-    <t>1161 PATRIKA (01)</t>
-  </si>
-  <si>
-    <t>1162 PATRIKA (02)</t>
-  </si>
-  <si>
-    <t>1163 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>1164 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>1165 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>1166 PATRIKA (DCU)</t>
+    <t>.1001 PATRIKA (25/251)</t>
+  </si>
+  <si>
+    <t>1002 PATRIKA (25/262)</t>
+  </si>
+  <si>
+    <t>1003 PATRIKA (25/261)</t>
+  </si>
+  <si>
+    <t>1004 PATRIKA (25/361/861)</t>
+  </si>
+  <si>
+    <t>1005 PATRIKA (25/362/862)</t>
+  </si>
+  <si>
+    <t>1006 PATRIKA (25/282)</t>
+  </si>
+  <si>
+    <t>1007 PATRIKA (25/281)</t>
+  </si>
+  <si>
+    <t>1008 PATRIKA (JC) (2595 PINK)</t>
+  </si>
+  <si>
+    <t>1009 PATRIKA (JC) (2595 ORANGE)</t>
+  </si>
+  <si>
+    <t>1010 PATRIKA (6321)</t>
+  </si>
+  <si>
+    <t>1011 PATRIKA (2563 OFFSET NEW)</t>
+  </si>
+  <si>
+    <t>1012 PATRIKA (2564 OFFSET NEW)</t>
+  </si>
+  <si>
+    <t>1013 PATRIKA (2568 OFFSET NEW)</t>
+  </si>
+  <si>
+    <t>1014 PATRIKA (11043 OFFSET)</t>
+  </si>
+  <si>
+    <t>1015 PATRIKA (DCU) (11041 OFFSET NEW)</t>
+  </si>
+  <si>
+    <t>1016 PATRIKA (1011 OFFSET)</t>
+  </si>
+  <si>
+    <t>1017 PATRIKA (1014 OFFSET)</t>
+  </si>
+  <si>
+    <t>1018 PATRIKA (10081 OFFSET NEW)</t>
+  </si>
+  <si>
+    <t>1019 PATRIKA (1222 SBC)</t>
+  </si>
+  <si>
+    <t>1020 PATRIKA (1235)</t>
+  </si>
+  <si>
+    <t>1021 PATRIKA (2101 VV)</t>
+  </si>
+  <si>
+    <t>1023 PATRIKA (25418)</t>
+  </si>
+  <si>
+    <t>1024 PATRIKA (25322)</t>
+  </si>
+  <si>
+    <t>1025 PATRIKA (25323)</t>
+  </si>
+  <si>
+    <t>1026 PATRIKA (JC) (1173 SBC)</t>
+  </si>
+  <si>
+    <t>1027 PATRIKA (JC) (5346)</t>
+  </si>
+  <si>
+    <t>1028 PATRIKA (JC) (2596)</t>
+  </si>
+  <si>
+    <t>1029 PATRIKA (1042)</t>
+  </si>
+  <si>
+    <t>1030 PATRIKA (1043)</t>
+  </si>
+  <si>
+    <t>1031 PATRIKA (GOPAL 11)</t>
+  </si>
+  <si>
+    <t>1032 PATRIKA (GOPAL 1)</t>
+  </si>
+  <si>
+    <t>1033 PATRIKA (2002 YLW)</t>
+  </si>
+  <si>
+    <t>1034 PATRIKA (2003 R)</t>
+  </si>
+  <si>
+    <t>1035 PATRIKA (DCU) (2201 ROSHAN)</t>
+  </si>
+  <si>
+    <t>1101 PATRIKA (O.2591) (2591 ORANGE)</t>
+  </si>
+  <si>
+    <t>1102 PATRIKA (P.2591) (2591 PINK)</t>
+  </si>
+  <si>
+    <t>1103 PATRIKA(N-271) (271 NEHA)</t>
+  </si>
+  <si>
+    <t>1104 PATRIKA(N-272) (272 NEHA)</t>
+  </si>
+  <si>
+    <t>1105 PATRIKA (276-A)</t>
+  </si>
+  <si>
+    <t>1106 PATRIKA-YELLOW (25419)</t>
+  </si>
+  <si>
+    <t>1107 PATRIKA-RED (25420)</t>
+  </si>
+  <si>
+    <t>1109 PATRIKA-BIG Y (25421)</t>
+  </si>
+  <si>
+    <t>1110 PATRIKA-BIG R (25422)</t>
+  </si>
+  <si>
+    <t>1112 PATRIKA (277-B)</t>
+  </si>
+  <si>
+    <t>1113 PATRIKA (1819 MONARCH)</t>
+  </si>
+  <si>
+    <t>1114 PATRIKA-BROWN (1709)</t>
+  </si>
+  <si>
+    <t>1115 PATRIKA-CREAM (1678 PRINCE)</t>
+  </si>
+  <si>
+    <t>1116 PATRIKA (1153) (1253 Jsk)</t>
+  </si>
+  <si>
+    <t>1117 PATRIKA (1155) (1155 JSK)</t>
+  </si>
+  <si>
+    <t>1117 PATRIKA - B (KRISHNA 1155-B)</t>
+  </si>
+  <si>
+    <t>1118 PATRIKA - B (DCU) (NEW SAVASHREE- 51)</t>
+  </si>
+  <si>
+    <t>1118 PATRIKA (सवाश्री-57) (NEW SAVASHREE-57)</t>
+  </si>
+  <si>
+    <t>1119 PATRIKA - B (DCU) (NEW SAVASHREE 52)</t>
+  </si>
+  <si>
+    <t>1119 PATRIKA(सवाश्री-55) (NEW SAVASHREE-55)</t>
+  </si>
+  <si>
+    <t>1120 PATRIKA(सवाश्री-59) (NEW SAVASHREE-59)</t>
+  </si>
+  <si>
+    <t>1121 PATRIKA(सवाश्री-53) (NEW SAVASHREE-53)</t>
+  </si>
+  <si>
+    <t>1122 PATRIKA (DCU) (NEW SAVASHREE-54)</t>
+  </si>
+  <si>
+    <t>1123 PATRIKA (LED-51) (LED-51)</t>
+  </si>
+  <si>
+    <t>1124 PATRIKA (LED-52) (LED-52)</t>
+  </si>
+  <si>
+    <t>1125 PATRIKA (LED-53) (LED-53)</t>
+  </si>
+  <si>
+    <t>1126 PATRIKA (LED-54) (LED-54)</t>
+  </si>
+  <si>
+    <t>1127 PATRIKA (Eco-52) (NEW ECO-52)</t>
+  </si>
+  <si>
+    <t>1128 PATRIKA (Eco-55) (NEW ECO-55)</t>
+  </si>
+  <si>
+    <t>1129 PATRIKA (Eco-56) (NEW ECO-56)</t>
+  </si>
+  <si>
+    <t>1130 PATRIKA - B (ECO-60) (DCU) (NEW ECO 60)</t>
+  </si>
+  <si>
+    <t>1130 PATRIKA (Eco-59) (NEW ECO-59)</t>
+  </si>
+  <si>
+    <t>1131 PATRIKA (DCU) Eco-51 (NEW ECO- 51)</t>
+  </si>
+  <si>
+    <t>1132 PATRIKA (DCU) Eco-53 (NEW ECO- 53)</t>
+  </si>
+  <si>
+    <t>1133 PATRIKA (DCU) Eco-57 (NEW ECO- 57)</t>
+  </si>
+  <si>
+    <t>1134 PATRIKA (DCU) Eco-58 (NEW ECO- 58)</t>
+  </si>
+  <si>
+    <t>1135 PATRIKA (DCU) Eco-54 (NEW ECO- 54)</t>
+  </si>
+  <si>
+    <t>1136 PATRIKA (R) (120 GSM RED)</t>
+  </si>
+  <si>
+    <t>1137 PATRIKA (P) (120 GSM YELLOW)</t>
+  </si>
+  <si>
+    <t>1138 PATRIKA (BR) (150 GSM FOIL (RED))</t>
+  </si>
+  <si>
+    <t>1139 PATRIKA (BY) (150 GSM FOIL (YELLOW))</t>
+  </si>
+  <si>
+    <t>1140 PATRIKA (BB) (150 GSM FOIL (BROWN))</t>
+  </si>
+  <si>
+    <t>1141 PATRIKA (R) (120 GSM (RED)SELF)</t>
+  </si>
+  <si>
+    <t>1142 PATRIKA (P) (120 GSM (YELLOW) SELF)</t>
+  </si>
+  <si>
+    <t>1143 PATRIKA (G) (120 GSM (OLD GOLDEN))</t>
+  </si>
+  <si>
+    <t>1144 PATRIKA (BR) (170 GSM WITH FOIL (RED))</t>
+  </si>
+  <si>
+    <t>1145 PATRIKA (BY) (170 GSM WITH FOIL (YELLOW))</t>
+  </si>
+  <si>
+    <t>1146 PATRIKA (DCU) (BROWN 170 GSM FOIL)</t>
+  </si>
+  <si>
+    <t>1147 PATRIKA (S.201) (201 WESTERN)</t>
+  </si>
+  <si>
+    <t>1148 PATRIKA (S.202) (202 WESTERN)</t>
+  </si>
+  <si>
+    <t>1149 PATRIKA (S.204) (204 WESTERN)</t>
+  </si>
+  <si>
+    <t>1150 PATRIKA (DCU) (NEW SAVASHREE-58)</t>
+  </si>
+  <si>
+    <t>1151 PATRIKA (DCU) (NEW SAVASHREE-56)</t>
+  </si>
+  <si>
+    <t>1152 PATRIKA (DCU) (WESTERN 202 OLD)</t>
+  </si>
+  <si>
+    <t>1153 PATRIKA (DCU) (201 WESTERN (OLD))</t>
+  </si>
+  <si>
+    <t>1154 PATRIKA (DCU) (203 WESTERN A)</t>
+  </si>
+  <si>
+    <t>1155 PATRIKA (DCU) (WESTERN (203) B)</t>
+  </si>
+  <si>
+    <t>1157 PATRIKA-CREAM (LU-52 (CREAM))</t>
+  </si>
+  <si>
+    <t>1158 PATRIKA-GOLDEN (LU-53 (GOLDEN))</t>
+  </si>
+  <si>
+    <t>1159 PATRIKA-WHITE (LU-54 (WHITE))</t>
+  </si>
+  <si>
+    <t>1160 PATRIKA-PINK (LU-55 (PINK))</t>
+  </si>
+  <si>
+    <t>1161 PATRIKA (01) (JCC 01)</t>
+  </si>
+  <si>
+    <t>1162 PATRIKA (02) (JCC 02)</t>
+  </si>
+  <si>
+    <t>1163 PATRIKA (DCU) (BP RED)</t>
+  </si>
+  <si>
+    <t>1164 PATRIKA (DCU) (BP PINK RIYAZ)</t>
+  </si>
+  <si>
+    <t>1165 PATRIKA (DCU) (BP CREAM)</t>
+  </si>
+  <si>
+    <t>1166 PATRIKA (DCU) (BP YELLOW)</t>
   </si>
   <si>
     <t>190 NO. ENVELOPES (POCKET)</t>
@@ -404,106 +404,106 @@
     <t>2025- INVITAION (BOX) SAMPLES</t>
   </si>
   <si>
-    <t>2101 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>2102 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2103 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>2104 PATRIKA</t>
-  </si>
-  <si>
-    <t>2105 PATRIKA</t>
-  </si>
-  <si>
-    <t>2106 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>2107 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2108 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2110 PATRIKA</t>
-  </si>
-  <si>
-    <t>2111 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2112 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>2113 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>2114 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>2115 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>2116 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>2117 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2118 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>2119 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>2120 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>2121 PATRIKA</t>
-  </si>
-  <si>
-    <t>2122 PATRIKA</t>
-  </si>
-  <si>
-    <t>2123 PATRIKA</t>
-  </si>
-  <si>
-    <t>2124 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2125 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2126 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2127 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2128 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2129 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2130 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2131 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2132 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2133 PATRIKA</t>
-  </si>
-  <si>
-    <t>2134 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>2135 PATRIKA *-* (M)</t>
+    <t>2101 PATRIKA (L) (LUXYA - 51)</t>
+  </si>
+  <si>
+    <t>2102 PATRIKA *-* (M) (LUXYA - 52)</t>
+  </si>
+  <si>
+    <t>2103 PATRIKA (L) (LUXYA - 53)</t>
+  </si>
+  <si>
+    <t>2104 PATRIKA (LUXYA - 54)</t>
+  </si>
+  <si>
+    <t>2105 PATRIKA (LUXYA - 55)</t>
+  </si>
+  <si>
+    <t>2106 PATRIKA (L) (LUXYA - 56)</t>
+  </si>
+  <si>
+    <t>2107 PATRIKA *-* (M) (LUXYA - 57)</t>
+  </si>
+  <si>
+    <t>2108 PATRIKA *-* (M) (LUXYA - 59)</t>
+  </si>
+  <si>
+    <t>2110 PATRIKA (LUXYA - 61)</t>
+  </si>
+  <si>
+    <t>2111 PATRIKA *-* (M) (LUXYA - 62)</t>
+  </si>
+  <si>
+    <t>2112 PATRIKA (L) (LEGACY - 01)</t>
+  </si>
+  <si>
+    <t>2113 PATRIKA (L) (LEGACY - 02)</t>
+  </si>
+  <si>
+    <t>2114 PATRIKA (L) (LEGACY - 03)</t>
+  </si>
+  <si>
+    <t>2115 PATRIKA (L) (LEGACY - 04)</t>
+  </si>
+  <si>
+    <t>2116 PATRIKA (L) (LEGACY - 05)</t>
+  </si>
+  <si>
+    <t>2117 PATRIKA *-* (M) (LEGACY - 06)</t>
+  </si>
+  <si>
+    <t>2118 PATRIKA (L) (LEGACY - 07)</t>
+  </si>
+  <si>
+    <t>2119 PATRIKA (L) (LEGACY - 08)</t>
+  </si>
+  <si>
+    <t>2120 PATRIKA (L) (LEGACY - 09)</t>
+  </si>
+  <si>
+    <t>2121 PATRIKA (LEGACY - 10)</t>
+  </si>
+  <si>
+    <t>2122 PATRIKA (LEGACY - 11)</t>
+  </si>
+  <si>
+    <t>2123 PATRIKA (LEGACY - 12)</t>
+  </si>
+  <si>
+    <t>2124 PATRIKA *-* (M) (LOTTERY - 71)</t>
+  </si>
+  <si>
+    <t>2125 PATRIKA *-* (M) (LOTTERY - 72)</t>
+  </si>
+  <si>
+    <t>2126 PATRIKA *-* (M) (LOTTERY - 73)</t>
+  </si>
+  <si>
+    <t>2127 PATRIKA *-* (M) (LOTTERY - 74)</t>
+  </si>
+  <si>
+    <t>2128 PATRIKA *-* (M) (LOTTERY - 75)</t>
+  </si>
+  <si>
+    <t>2129 PATRIKA *-* (M) (LOTTERY - 76)</t>
+  </si>
+  <si>
+    <t>2130 PATRIKA *-* (M) (LOTTERY - 77)</t>
+  </si>
+  <si>
+    <t>2131 PATRIKA *-* (M) (LOTTERY - 78)</t>
+  </si>
+  <si>
+    <t>2132 PATRIKA *-* (M) (LOTTERY - 79)</t>
+  </si>
+  <si>
+    <t>2133 PATRIKA (LOTTERY - 80)</t>
+  </si>
+  <si>
+    <t>2134 PATRIKA *-* (M) (LOTTERY - 81)</t>
+  </si>
+  <si>
+    <t>2135 PATRIKA *-* (M) (LOTTERY - 82)</t>
   </si>
   <si>
     <t>290 ENVELOPE 25-26</t>
@@ -521,1147 +521,1147 @@
     <t>330 ENVELOPE</t>
   </si>
   <si>
-    <t>4251 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>4252 PATRIKA</t>
-  </si>
-  <si>
-    <t>4253 PATRIKA</t>
-  </si>
-  <si>
-    <t>4254 PATRIKA (4210)</t>
-  </si>
-  <si>
-    <t>4255 PATRIKA - B (DCU)</t>
-  </si>
-  <si>
-    <t>4255 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>4257 PATRIKA</t>
-  </si>
-  <si>
-    <t>4258 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>4259 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>4260 PATRIKA</t>
-  </si>
-  <si>
-    <t>4261 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>4262 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>4264 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>4265 PATRIKA</t>
-  </si>
-  <si>
-    <t>4266 PATRIKA</t>
-  </si>
-  <si>
-    <t>4267 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>4268 PATRIKA (JC) *-* (M+T)</t>
-  </si>
-  <si>
-    <t>4269 PATRIKA</t>
-  </si>
-  <si>
-    <t>4270 PATRIKA</t>
-  </si>
-  <si>
-    <t>4271 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>4272 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>4273 PATRIKA</t>
-  </si>
-  <si>
-    <t>4274 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>4275 PATRIKA</t>
-  </si>
-  <si>
-    <t>4277 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>4278 PATRIKA</t>
-  </si>
-  <si>
-    <t>4279 PATRIKA</t>
-  </si>
-  <si>
-    <t>4280 PATRIKA</t>
-  </si>
-  <si>
-    <t>4281 PATRIKA</t>
-  </si>
-  <si>
-    <t>4282 PATRIKA</t>
-  </si>
-  <si>
-    <t>4283 PATRIKA - B (YELLOW)</t>
-  </si>
-  <si>
-    <t>4284 PATRIKA</t>
-  </si>
-  <si>
-    <t>4285 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>4286 PATRIKA</t>
-  </si>
-  <si>
-    <t>4287 PATRIKA</t>
-  </si>
-  <si>
-    <t>4288 PATRIKA</t>
-  </si>
-  <si>
-    <t>4289 PATRIKA</t>
-  </si>
-  <si>
-    <t>4290 PATRIKA</t>
-  </si>
-  <si>
-    <t>4291 PATRIKA</t>
-  </si>
-  <si>
-    <t>4292 PATRIKA</t>
-  </si>
-  <si>
-    <t>4293 PATRIKA</t>
-  </si>
-  <si>
-    <t>4294 PATRIKA</t>
-  </si>
-  <si>
-    <t>4295 PATRIKA</t>
-  </si>
-  <si>
-    <t>4296 PATRIKA</t>
-  </si>
-  <si>
-    <t>4297 PATRIKA</t>
-  </si>
-  <si>
-    <t>4298 PATRIKA</t>
-  </si>
-  <si>
-    <t>4299 PATRIKA</t>
-  </si>
-  <si>
-    <t>4300 PATRIKA</t>
-  </si>
-  <si>
-    <t>4301 PATRIKA</t>
-  </si>
-  <si>
-    <t>4302 PATRIKA</t>
-  </si>
-  <si>
-    <t>4303 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>4304 PATRIKA</t>
-  </si>
-  <si>
-    <t>4305 PATRIKA</t>
-  </si>
-  <si>
-    <t>4307 PATRIKA</t>
-  </si>
-  <si>
-    <t>4308 PATRIKA</t>
-  </si>
-  <si>
-    <t>4309 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>4310 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>4311 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>4312 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>4314 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>4315 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>4316 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5051 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5052 PATRIKA</t>
-  </si>
-  <si>
-    <t>5053 PATRIKA</t>
-  </si>
-  <si>
-    <t>5054 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5055 PATRIKA</t>
-  </si>
-  <si>
-    <t>5056 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5057 PATRIKA</t>
-  </si>
-  <si>
-    <t>5058 PATRIKA</t>
-  </si>
-  <si>
-    <t>5059 PATRIKA</t>
-  </si>
-  <si>
-    <t>5061 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5062 PATRIKA</t>
-  </si>
-  <si>
-    <t>5063 PATRIKA</t>
-  </si>
-  <si>
-    <t>5064 PATRIKA</t>
-  </si>
-  <si>
-    <t>5065 PATRIKA</t>
-  </si>
-  <si>
-    <t>5066 PATRIKA</t>
-  </si>
-  <si>
-    <t>5067 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5071 PATRIKA *-* (डोरी)</t>
-  </si>
-  <si>
-    <t>5072 PATRIKA</t>
-  </si>
-  <si>
-    <t>5073 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5074 PATRIKA</t>
-  </si>
-  <si>
-    <t>5075 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5076 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5077 PATRIKA</t>
-  </si>
-  <si>
-    <t>5079 PATRIKA</t>
-  </si>
-  <si>
-    <t>5080 PATRIKA</t>
-  </si>
-  <si>
-    <t>5081 PATRIKA</t>
-  </si>
-  <si>
-    <t>5083 PATRIKA</t>
-  </si>
-  <si>
-    <t>5084 PATRIKA</t>
-  </si>
-  <si>
-    <t>5085 PATRIKA</t>
-  </si>
-  <si>
-    <t>5086 PATRIKA (JC) *-* (M+D)</t>
-  </si>
-  <si>
-    <t>5088 PATRIKA</t>
-  </si>
-  <si>
-    <t>5089 PATRIKA</t>
-  </si>
-  <si>
-    <t>5090 PATRIKA</t>
-  </si>
-  <si>
-    <t>5092 PATRIKA</t>
-  </si>
-  <si>
-    <t>5093 PATRIKA</t>
-  </si>
-  <si>
-    <t>5094 PATRIKA</t>
-  </si>
-  <si>
-    <t>5095 PATRIKA</t>
-  </si>
-  <si>
-    <t>5096 PATRIKA</t>
-  </si>
-  <si>
-    <t>5097 PATRIKA</t>
-  </si>
-  <si>
-    <t>5099 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5100 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5102 PATRIKA (5021)</t>
-  </si>
-  <si>
-    <t>5103 PATRIKA</t>
-  </si>
-  <si>
-    <t>5104 PATRIKA</t>
-  </si>
-  <si>
-    <t>5105 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5106 PATRIKA</t>
-  </si>
-  <si>
-    <t>5107 PATRIKA</t>
-  </si>
-  <si>
-    <t>5108 PATRIKA</t>
-  </si>
-  <si>
-    <t>5109 PATRIKA</t>
-  </si>
-  <si>
-    <t>5110 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5111 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5112 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5113 PATRIKA</t>
-  </si>
-  <si>
-    <t>5114 PATRIKA *-* (डोरी)</t>
-  </si>
-  <si>
-    <t>5115 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5116 PATRIKA</t>
-  </si>
-  <si>
-    <t>5117 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5118 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5502 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5503 PATRIKA</t>
-  </si>
-  <si>
-    <t>5504 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5505 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5506 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5508 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5509 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5510 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5511 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5512 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5513 PATRIKA</t>
-  </si>
-  <si>
-    <t>5514 PATRIKA</t>
-  </si>
-  <si>
-    <t>5515 PATRIKA</t>
-  </si>
-  <si>
-    <t>5516 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5517 PATRIKA *-* (M) (Patti Aayegi)</t>
-  </si>
-  <si>
-    <t>5518 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5519 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5520 PATRIKA</t>
-  </si>
-  <si>
-    <t>5521 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5522 PATRIKA</t>
-  </si>
-  <si>
-    <t>5523 PATRIKA</t>
-  </si>
-  <si>
-    <t>5524 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5525 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5526 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5527 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5528 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5529 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5530 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5531 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5532 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5533 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5534 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5535 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5537 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5538 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5539 PATRIKA-B</t>
-  </si>
-  <si>
-    <t>5539 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5540 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5542 PATRIKA</t>
-  </si>
-  <si>
-    <t>5543 PATRIKA</t>
-  </si>
-  <si>
-    <t>5544 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5545 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5546 PATRIKA</t>
-  </si>
-  <si>
-    <t>5547 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5548 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5549 PATRIKA</t>
-  </si>
-  <si>
-    <t>5550 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5551 PATRIKA</t>
-  </si>
-  <si>
-    <t>5552 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5553 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5554 PATRIKA *-* (F/G)</t>
-  </si>
-  <si>
-    <t>5555 PATRIKA</t>
-  </si>
-  <si>
-    <t>5556 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5557 PATRIKA</t>
-  </si>
-  <si>
-    <t>5558 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5559 PATRIKA</t>
-  </si>
-  <si>
-    <t>5560 PATRIKA (F/G) *-*</t>
-  </si>
-  <si>
-    <t>5561 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5562 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5563 PATRIKA</t>
-  </si>
-  <si>
-    <t>5564 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5565 PATRIKA</t>
-  </si>
-  <si>
-    <t>5566 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5567 PATRIKA</t>
-  </si>
-  <si>
-    <t>5568 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5569 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5570 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5571 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5572 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5573 PATRIKA</t>
-  </si>
-  <si>
-    <t>5574 PATRIKA</t>
-  </si>
-  <si>
-    <t>5575 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5576 PATRIKA</t>
-  </si>
-  <si>
-    <t>5577 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5578 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5579 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5580 PATRIKA</t>
-  </si>
-  <si>
-    <t>5581 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5582 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5583 PATRIKA</t>
-  </si>
-  <si>
-    <t>5584 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5585 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5586 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5587 PATRIKA</t>
-  </si>
-  <si>
-    <t>5588 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5589 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5590 PATRIKA</t>
-  </si>
-  <si>
-    <t>5592 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5593 PATRIKA</t>
-  </si>
-  <si>
-    <t>5595 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5596 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5597 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5599 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5601 PATRIKA</t>
-  </si>
-  <si>
-    <t>5602 PATRIKA</t>
-  </si>
-  <si>
-    <t>5603 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5604 PATRIKA</t>
-  </si>
-  <si>
-    <t>5605 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5606 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5607 PATRIKA</t>
-  </si>
-  <si>
-    <t>5608 PATRIKA</t>
-  </si>
-  <si>
-    <t>5609 PATRIKA</t>
-  </si>
-  <si>
-    <t>5610 PATRIKA (JC)</t>
-  </si>
-  <si>
-    <t>5611 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5612 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5615 PATRIKA</t>
-  </si>
-  <si>
-    <t>5616 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5617 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5618 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5621 PATRIKA (JC) *-* (M)</t>
-  </si>
-  <si>
-    <t>5622 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>5623 PATRIKA</t>
-  </si>
-  <si>
-    <t>5625 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5626 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5627 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5628 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5629 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>5630 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>6601 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>6602 PATRIKA</t>
-  </si>
-  <si>
-    <t>6603 PATRIKA</t>
-  </si>
-  <si>
-    <t>6604 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6605 PATRIKA</t>
-  </si>
-  <si>
-    <t>6606 PATRIKA (*-*) R</t>
-  </si>
-  <si>
-    <t>6607 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6608 PATRIKA</t>
-  </si>
-  <si>
-    <t>6609 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6610 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6611 PATRIKA</t>
-  </si>
-  <si>
-    <t>6612 PATRIKA</t>
-  </si>
-  <si>
-    <t>6613 PATRIKA</t>
-  </si>
-  <si>
-    <t>6614 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>6615 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6616 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6617 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6618 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6619 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6620 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6621 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6622 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6623 PATRIKA</t>
-  </si>
-  <si>
-    <t>6624 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6625 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6626 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6627 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6628 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6629 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6630 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6631 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>6632 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>6633 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6634 PATRIKA</t>
-  </si>
-  <si>
-    <t>6635 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6636 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6637 PATRIKA</t>
-  </si>
-  <si>
-    <t>6638 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6639 PATRIKA (B)</t>
-  </si>
-  <si>
-    <t>6640 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6641 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6642 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6643 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6644 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>6645 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6646 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6647 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6648 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6649 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6650 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6651 PATRIKA</t>
-  </si>
-  <si>
-    <t>6652 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6653 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6654 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6655 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6656 PATRIKA (L)</t>
-  </si>
-  <si>
-    <t>6657 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6658 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6659 PATRIKA</t>
-  </si>
-  <si>
-    <t>6660 PATRIKA</t>
-  </si>
-  <si>
-    <t>6661 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6662 PATRIKA</t>
-  </si>
-  <si>
-    <t>6663 PATRIKA</t>
-  </si>
-  <si>
-    <t>6664 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6665 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6667 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6668 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>6669 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>6670 PATRIKA - B (M)</t>
-  </si>
-  <si>
-    <t>6670 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6671 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6672 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6673 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>6674 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>6675 PATRIKA *-* (M)</t>
-  </si>
-  <si>
-    <t>6676 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>6677 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>7265 PATRIKA (O.C.)</t>
-  </si>
-  <si>
-    <t>7283 PATRIKA {F} (O.C.)</t>
-  </si>
-  <si>
-    <t>7287 PATRIKA (O.C.)</t>
-  </si>
-  <si>
-    <t>7288 PATRIKA (O.C.)</t>
-  </si>
-  <si>
-    <t>7293 PATRIKA (O.C.)</t>
-  </si>
-  <si>
-    <t>7309 PATRIKA (O.C.)</t>
-  </si>
-  <si>
-    <t>7312 PATRIKA (O.C.)</t>
-  </si>
-  <si>
-    <t>7319 PATRIKA (O.C.)</t>
-  </si>
-  <si>
-    <t>7332 PATRIKA (O.C.)</t>
-  </si>
-  <si>
-    <t>7342 PATRIKA (O.C.)</t>
-  </si>
-  <si>
-    <t>7344 PATRIKA (O.C.)</t>
-  </si>
-  <si>
-    <t>7345 PATRIKA (O.C.)</t>
-  </si>
-  <si>
-    <t>7401 PATRIKA</t>
-  </si>
-  <si>
-    <t>7402 PATRIKA</t>
-  </si>
-  <si>
-    <t>7403 PATRIKA</t>
-  </si>
-  <si>
-    <t>7404 PATRIKA</t>
-  </si>
-  <si>
-    <t>7405 PATRIKA</t>
-  </si>
-  <si>
-    <t>7406 PATRIKA</t>
-  </si>
-  <si>
-    <t>7407 PATRIKA *-* (F)</t>
-  </si>
-  <si>
-    <t>7408 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>7409 PATRIKA</t>
-  </si>
-  <si>
-    <t>7410 PATRIKA</t>
-  </si>
-  <si>
-    <t>7411 PATRIKA</t>
-  </si>
-  <si>
-    <t>7413 PATRIKA</t>
-  </si>
-  <si>
-    <t>7414 PATRIKA</t>
-  </si>
-  <si>
-    <t>7415 PATRIKA *-* (F)</t>
-  </si>
-  <si>
-    <t>7416 PATRIKA</t>
-  </si>
-  <si>
-    <t>7417 PATRIKA</t>
-  </si>
-  <si>
-    <t>7418 PATRIKA *-* (डोरी)</t>
-  </si>
-  <si>
-    <t>7419 PATRIKA</t>
-  </si>
-  <si>
-    <t>7420 PATRIKA</t>
-  </si>
-  <si>
-    <t>7421 PATRIKA *-* (F)</t>
-  </si>
-  <si>
-    <t>7422 PATRIKA</t>
-  </si>
-  <si>
-    <t>7424 PATRIKA *-* (F)</t>
-  </si>
-  <si>
-    <t>7425 PATRIKA</t>
-  </si>
-  <si>
-    <t>7426 PATRIKA (F/G) *-*</t>
-  </si>
-  <si>
-    <t>7427 PATRIKA</t>
-  </si>
-  <si>
-    <t>7428 PATRIKA</t>
-  </si>
-  <si>
-    <t>7429 PATRIKA (F/G) *-*</t>
-  </si>
-  <si>
-    <t>7430 PATRIKA</t>
-  </si>
-  <si>
-    <t>7431 PATRIKA</t>
-  </si>
-  <si>
-    <t>7432 PATRIKA</t>
-  </si>
-  <si>
-    <t>7433 PATRIKA</t>
-  </si>
-  <si>
-    <t>7434 PATRIKA</t>
-  </si>
-  <si>
-    <t>7435 PATRIKA</t>
-  </si>
-  <si>
-    <t>7436 PATRIKA</t>
-  </si>
-  <si>
-    <t>7437 PATRIKA</t>
-  </si>
-  <si>
-    <t>7438 PATRIKA</t>
-  </si>
-  <si>
-    <t>7439 PATRIKA</t>
-  </si>
-  <si>
-    <t>7440 PATRIKA</t>
-  </si>
-  <si>
-    <t>7441 PATRIKA *-* (F)</t>
-  </si>
-  <si>
-    <t>7442 PATRIKA</t>
-  </si>
-  <si>
-    <t>7443 PATRIKA</t>
-  </si>
-  <si>
-    <t>7444 PATRIKA</t>
-  </si>
-  <si>
-    <t>7445 PATRIKA</t>
-  </si>
-  <si>
-    <t>7446 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>7447 PATRIKA</t>
-  </si>
-  <si>
-    <t>7448 PATRIKA</t>
-  </si>
-  <si>
-    <t>7449 PATRIKA</t>
-  </si>
-  <si>
-    <t>7450 PATRIKA (DCU)</t>
-  </si>
-  <si>
-    <t>7451 PATRIKA</t>
-  </si>
-  <si>
-    <t>7452 PATRIKA</t>
-  </si>
-  <si>
-    <t>7453 PATRIKA (ECO - 61)</t>
-  </si>
-  <si>
-    <t>7454 PATRIKA (ECO -63)</t>
+    <t>4251 PATRIKA (JC) (5342)</t>
+  </si>
+  <si>
+    <t>4252 PATRIKA (5207)</t>
+  </si>
+  <si>
+    <t>4253 PATRIKA (5206)</t>
+  </si>
+  <si>
+    <t>4254 PATRIKA (4210) (10273/10277)</t>
+  </si>
+  <si>
+    <t>4255 PATRIKA - B (DCU) (AS-02 (B))</t>
+  </si>
+  <si>
+    <t>4255 PATRIKA (JC) (AS-02 (NEW))</t>
+  </si>
+  <si>
+    <t>4257 PATRIKA (82)</t>
+  </si>
+  <si>
+    <t>4258 PATRIKA (JC) (1129)</t>
+  </si>
+  <si>
+    <t>4259 PATRIKA (JC) (101 SBC)</t>
+  </si>
+  <si>
+    <t>4260 PATRIKA (1102)</t>
+  </si>
+  <si>
+    <t>4261 PATRIKA (JC) (959)</t>
+  </si>
+  <si>
+    <t>4262 PATRIKA (JC) (S-201 GANESH JI)</t>
+  </si>
+  <si>
+    <t>4264 PATRIKA (DCU) (1351)</t>
+  </si>
+  <si>
+    <t>4265 PATRIKA (83)</t>
+  </si>
+  <si>
+    <t>4266 PATRIKA (25-145)</t>
+  </si>
+  <si>
+    <t>4267 PATRIKA (JC) (25-046)</t>
+  </si>
+  <si>
+    <t>4268 PATRIKA (JC) *-* (M+T) (S-296)</t>
+  </si>
+  <si>
+    <t>4269 PATRIKA (111 SBC)</t>
+  </si>
+  <si>
+    <t>4270 PATRIKA (1151 GGN)</t>
+  </si>
+  <si>
+    <t>4271 PATRIKA (JC) (25216)</t>
+  </si>
+  <si>
+    <t>4272 PATRIKA (JC) (1231 SBC CRM)</t>
+  </si>
+  <si>
+    <t>4273 PATRIKA (2547)</t>
+  </si>
+  <si>
+    <t>4274 PATRIKA (JC) (25369)</t>
+  </si>
+  <si>
+    <t>4275 PATRIKA (25367)</t>
+  </si>
+  <si>
+    <t>4277 PATRIKA (JC) *-* (M) (25365)</t>
+  </si>
+  <si>
+    <t>4278 PATRIKA (25368)</t>
+  </si>
+  <si>
+    <t>4279 PATRIKA (1031)</t>
+  </si>
+  <si>
+    <t>4280 PATRIKA (25301)</t>
+  </si>
+  <si>
+    <t>4281 PATRIKA (25312 MYRA)</t>
+  </si>
+  <si>
+    <t>4282 PATRIKA (3117)</t>
+  </si>
+  <si>
+    <t>4283 PATRIKA - B (YELLOW) (3116-YLW)</t>
+  </si>
+  <si>
+    <t>4284 PATRIKA (1173 VV)</t>
+  </si>
+  <si>
+    <t>4285 PATRIKA (JC) *-* (M) (4626)</t>
+  </si>
+  <si>
+    <t>4286 PATRIKA (5254  RJN)</t>
+  </si>
+  <si>
+    <t>4287 PATRIKA (25402)</t>
+  </si>
+  <si>
+    <t>4288 PATRIKA (10001 NEW)</t>
+  </si>
+  <si>
+    <t>4289 PATRIKA (10002 NEW)</t>
+  </si>
+  <si>
+    <t>4290 PATRIKA (316 MYRA)</t>
+  </si>
+  <si>
+    <t>4291 PATRIKA (25401)</t>
+  </si>
+  <si>
+    <t>4292 PATRIKA (25311)</t>
+  </si>
+  <si>
+    <t>4293 PATRIKA (25312)</t>
+  </si>
+  <si>
+    <t>4294 PATRIKA (5273)</t>
+  </si>
+  <si>
+    <t>4295 PATRIKA (286-A)</t>
+  </si>
+  <si>
+    <t>4296 PATRIKA (1407)</t>
+  </si>
+  <si>
+    <t>4297 PATRIKA (306)</t>
+  </si>
+  <si>
+    <t>4298 PATRIKA (5501)</t>
+  </si>
+  <si>
+    <t>4299 PATRIKA (2011)</t>
+  </si>
+  <si>
+    <t>4300 PATRIKA (25314)</t>
+  </si>
+  <si>
+    <t>4301 PATRIKA (25315)</t>
+  </si>
+  <si>
+    <t>4302 PATRIKA (1402)</t>
+  </si>
+  <si>
+    <t>4303 PATRIKA (JC) (1234*-M)</t>
+  </si>
+  <si>
+    <t>4304 PATRIKA (5172)</t>
+  </si>
+  <si>
+    <t>4305 PATRIKA (25313)</t>
+  </si>
+  <si>
+    <t>4307 PATRIKA (BALAJI 5202)</t>
+  </si>
+  <si>
+    <t>4308 PATRIKA (LOTUS 430)</t>
+  </si>
+  <si>
+    <t>4309 PATRIKA (DCU) (3751 Patta)</t>
+  </si>
+  <si>
+    <t>4310 PATRIKA (DCU) (3752 Swastik)</t>
+  </si>
+  <si>
+    <t>4311 PATRIKA (DCU) (251 KBC)</t>
+  </si>
+  <si>
+    <t>4312 PATRIKA (DCU) (273-A)</t>
+  </si>
+  <si>
+    <t>4314 PATRIKA (DCU) (RED-YELLOW SWASTIK)</t>
+  </si>
+  <si>
+    <t>4315 PATRIKA (DCU) (WHITE-PINK PAN PATA)</t>
+  </si>
+  <si>
+    <t>4316 PATRIKA (DCU) (WHITE -ORANGE PAN PATTA)</t>
+  </si>
+  <si>
+    <t>5051 PATRIKA *-* (M) (5087)</t>
+  </si>
+  <si>
+    <t>5052 PATRIKA (5295)</t>
+  </si>
+  <si>
+    <t>5053 PATRIKA (5213)</t>
+  </si>
+  <si>
+    <t>5054 PATRIKA *-* (M) (25/162)</t>
+  </si>
+  <si>
+    <t>5055 PATRIKA (25/272)</t>
+  </si>
+  <si>
+    <t>5056 PATRIKA (JC) (25/271)</t>
+  </si>
+  <si>
+    <t>5057 PATRIKA (25/171)</t>
+  </si>
+  <si>
+    <t>5058 PATRIKA (8802)</t>
+  </si>
+  <si>
+    <t>5059 PATRIKA (8803)</t>
+  </si>
+  <si>
+    <t>5061 PATRIKA (DCU) (1405)</t>
+  </si>
+  <si>
+    <t>5062 PATRIKA (7705)</t>
+  </si>
+  <si>
+    <t>5063 PATRIKA (2522 GE)</t>
+  </si>
+  <si>
+    <t>5064 PATRIKA (2517 GE)</t>
+  </si>
+  <si>
+    <t>5065 PATRIKA (2527)</t>
+  </si>
+  <si>
+    <t>5066 PATRIKA (2536)</t>
+  </si>
+  <si>
+    <t>5067 PATRIKA (JC) (S-301)</t>
+  </si>
+  <si>
+    <t>5071 PATRIKA *-* (डोरी) (741)</t>
+  </si>
+  <si>
+    <t>5072 PATRIKA (5347 DIRECT)</t>
+  </si>
+  <si>
+    <t>5073 PATRIKA *-* (M) (3161)</t>
+  </si>
+  <si>
+    <t>5074 PATRIKA (1151 VV)</t>
+  </si>
+  <si>
+    <t>5075 PATRIKA (JC) (25-082)</t>
+  </si>
+  <si>
+    <t>5076 PATRIKA (JC) (3701 SBC)</t>
+  </si>
+  <si>
+    <t>5077 PATRIKA (2081)</t>
+  </si>
+  <si>
+    <t>5079 PATRIKA (296-A (NEHA)</t>
+  </si>
+  <si>
+    <t>5080 PATRIKA (2501 GE NEW)</t>
+  </si>
+  <si>
+    <t>5081 PATRIKA (2520 GE)</t>
+  </si>
+  <si>
+    <t>5083 PATRIKA (5267)</t>
+  </si>
+  <si>
+    <t>5084 PATRIKA (5258 RJ)</t>
+  </si>
+  <si>
+    <t>5085 PATRIKA (2023)</t>
+  </si>
+  <si>
+    <t>5086 PATRIKA (JC) *-* (M+D) (942)</t>
+  </si>
+  <si>
+    <t>5088 PATRIKA (25214)</t>
+  </si>
+  <si>
+    <t>5089 PATRIKA (2061 SBC)</t>
+  </si>
+  <si>
+    <t>5090 PATRIKA (5236 RJ)</t>
+  </si>
+  <si>
+    <t>5092 PATRIKA (05 NAVIN BHAI)</t>
+  </si>
+  <si>
+    <t>5093 PATRIKA (5350)</t>
+  </si>
+  <si>
+    <t>5094 PATRIKA (5251)</t>
+  </si>
+  <si>
+    <t>5095 PATRIKA (5240)</t>
+  </si>
+  <si>
+    <t>5096 PATRIKA (25316)</t>
+  </si>
+  <si>
+    <t>5097 PATRIKA (25321)</t>
+  </si>
+  <si>
+    <t>5099 PATRIKA *-* (M) (852 DHANESH)</t>
+  </si>
+  <si>
+    <t>5100 PATRIKA (DCU) (5339)</t>
+  </si>
+  <si>
+    <t>5102 PATRIKA (5021) (2456)</t>
+  </si>
+  <si>
+    <t>5103 PATRIKA (2071)</t>
+  </si>
+  <si>
+    <t>5104 PATRIKA (5261 RJND)</t>
+  </si>
+  <si>
+    <t>5105 PATRIKA (JC) (5335)</t>
+  </si>
+  <si>
+    <t>5106 PATRIKA (253-A / 257-A)</t>
+  </si>
+  <si>
+    <t>5107 PATRIKA (5356 RJ)</t>
+  </si>
+  <si>
+    <t>5108 PATRIKA (5333)</t>
+  </si>
+  <si>
+    <t>5109 PATRIKA (5308)</t>
+  </si>
+  <si>
+    <t>5110 PATRIKA (JC) (AS-402)</t>
+  </si>
+  <si>
+    <t>5111 PATRIKA (JC) (5313)</t>
+  </si>
+  <si>
+    <t>5112 PATRIKA (JC) *-* (M) (25437)</t>
+  </si>
+  <si>
+    <t>5113 PATRIKA (5305)</t>
+  </si>
+  <si>
+    <t>5114 PATRIKA *-* (डोरी) (2091)</t>
+  </si>
+  <si>
+    <t>5115 PATRIKA (DCU) (5363 RJND)</t>
+  </si>
+  <si>
+    <t>5116 PATRIKA (2031)</t>
+  </si>
+  <si>
+    <t>5117 PATRIKA (DCU) (3331)</t>
+  </si>
+  <si>
+    <t>5118 PATRIKA (DCU) (25436)</t>
+  </si>
+  <si>
+    <t>5502 PATRIKA *-* (M) (5355 NICE)</t>
+  </si>
+  <si>
+    <t>5503 PATRIKA (5186)</t>
+  </si>
+  <si>
+    <t>5504 PATRIKA (JC) (7033)</t>
+  </si>
+  <si>
+    <t>5505 PATRIKA (JC) *-* (M) (2282)</t>
+  </si>
+  <si>
+    <t>5506 PATRIKA *-* (M) (25/122)</t>
+  </si>
+  <si>
+    <t>5508 PATRIKA (JC) (612 VV)</t>
+  </si>
+  <si>
+    <t>5509 PATRIKA (JC) (25/072)</t>
+  </si>
+  <si>
+    <t>5510 PATRIKA (JC) *-* (M) (AS-950)</t>
+  </si>
+  <si>
+    <t>5511 PATRIKA (JC) *-* (M) (2528)</t>
+  </si>
+  <si>
+    <t>5512 PATRIKA (JC) (2525 /2552)</t>
+  </si>
+  <si>
+    <t>5513 PATRIKA (2515)</t>
+  </si>
+  <si>
+    <t>5514 PATRIKA (2542)</t>
+  </si>
+  <si>
+    <t>5515 PATRIKA (2523)</t>
+  </si>
+  <si>
+    <t>5516 PATRIKA (JC) *-* (M) (5302 VV)</t>
+  </si>
+  <si>
+    <t>5517 PATRIKA *-* (M) (Patti Aayegi) (6301)</t>
+  </si>
+  <si>
+    <t>5518 PATRIKA (JC) *-* (M) (922)</t>
+  </si>
+  <si>
+    <t>5519 PATRIKA *-* (M) (7066)</t>
+  </si>
+  <si>
+    <t>5520 PATRIKA (1054)</t>
+  </si>
+  <si>
+    <t>5521 PATRIKA (JC) *-* (M) (35)</t>
+  </si>
+  <si>
+    <t>5522 PATRIKA (2231)</t>
+  </si>
+  <si>
+    <t>5523 PATRIKA (2232)</t>
+  </si>
+  <si>
+    <t>5524 PATRIKA (DCU) (5382)</t>
+  </si>
+  <si>
+    <t>5525 PATRIKA *-* (M) (5283)</t>
+  </si>
+  <si>
+    <t>5526 PATRIKA (DCU) (NEW LUSTER - 01)</t>
+  </si>
+  <si>
+    <t>5527 PATRIKA (DCU) (NEW LUSTER - 02)</t>
+  </si>
+  <si>
+    <t>5528 PATRIKA *-* (M) (NEW LUSTER - 03)</t>
+  </si>
+  <si>
+    <t>5529 PATRIKA *-* (M) (NEW LUSTER - 04)</t>
+  </si>
+  <si>
+    <t>5530 PATRIKA *-* (M) (NEW LUSTER - 05)</t>
+  </si>
+  <si>
+    <t>5531 PATRIKA (DCU) (NEW LUSTER - 06)</t>
+  </si>
+  <si>
+    <t>5532 PATRIKA *-* (M) (NEW LUSTER - 07)</t>
+  </si>
+  <si>
+    <t>5533 PATRIKA *-* (M) (NEW LUSTER - 08)</t>
+  </si>
+  <si>
+    <t>5534 PATRIKA *-* (M) (NEW LUSTER - 09)</t>
+  </si>
+  <si>
+    <t>5535 PATRIKA (JC) *-* (M) (1007)</t>
+  </si>
+  <si>
+    <t>5537 PATRIKA (JC) (25-052)</t>
+  </si>
+  <si>
+    <t>5538 PATRIKA (JC) *-* (M) (7073)</t>
+  </si>
+  <si>
+    <t>5539 PATRIKA-B (2942-B)</t>
+  </si>
+  <si>
+    <t>5539 PATRIKA (JC) (2942)</t>
+  </si>
+  <si>
+    <t>5540 PATRIKA *-* (M) (S-96)</t>
+  </si>
+  <si>
+    <t>5542 PATRIKA (2261)</t>
+  </si>
+  <si>
+    <t>5543 PATRIKA (2353)</t>
+  </si>
+  <si>
+    <t>5544 PATRIKA *-* (M) (2732)</t>
+  </si>
+  <si>
+    <t>5545 PATRIKA *-* (M) (2791)</t>
+  </si>
+  <si>
+    <t>5546 PATRIKA (718)</t>
+  </si>
+  <si>
+    <t>5547 PATRIKA *-* (M) (S-32)</t>
+  </si>
+  <si>
+    <t>5548 PATRIKA (DCU) (2792)</t>
+  </si>
+  <si>
+    <t>5549 PATRIKA (5261 NICE)</t>
+  </si>
+  <si>
+    <t>5550 PATRIKA *-* (M) (5424)</t>
+  </si>
+  <si>
+    <t>5551 PATRIKA (5231)</t>
+  </si>
+  <si>
+    <t>5552 PATRIKA (JC) *-* (M) (S-163)</t>
+  </si>
+  <si>
+    <t>5553 PATRIKA *-* (M) (5004)</t>
+  </si>
+  <si>
+    <t>5554 PATRIKA *-* (F/G) (5379)</t>
+  </si>
+  <si>
+    <t>5555 PATRIKA (2903)</t>
+  </si>
+  <si>
+    <t>5556 PATRIKA *-* (M) (2952)</t>
+  </si>
+  <si>
+    <t>5557 PATRIKA (2312 SBC)</t>
+  </si>
+  <si>
+    <t>5558 PATRIKA *-* (M) (121 NEHA)</t>
+  </si>
+  <si>
+    <t>5559 PATRIKA (2293)</t>
+  </si>
+  <si>
+    <t>5560 PATRIKA (F/G) *-* (2915)</t>
+  </si>
+  <si>
+    <t>5561 PATRIKA *-* (M) (25358)</t>
+  </si>
+  <si>
+    <t>5562 PATRIKA *-* (M) (114-B (NEHA))</t>
+  </si>
+  <si>
+    <t>5563 PATRIKA (5387)</t>
+  </si>
+  <si>
+    <t>5564 PATRIKA (JC) *-* (M) (S-107)</t>
+  </si>
+  <si>
+    <t>5565 PATRIKA (175)</t>
+  </si>
+  <si>
+    <t>5566 PATRIKA *-* (M) (1742-B)</t>
+  </si>
+  <si>
+    <t>5567 PATRIKA (1679)</t>
+  </si>
+  <si>
+    <t>5568 PATRIKA *-* (M) (3002)</t>
+  </si>
+  <si>
+    <t>5569 PATRIKA *-* (M) (S-39)</t>
+  </si>
+  <si>
+    <t>5570 PATRIKA *-* (M) (S-74)</t>
+  </si>
+  <si>
+    <t>5571 PATRIKA *-* (M) (25353)</t>
+  </si>
+  <si>
+    <t>5572 PATRIKA *-* (M) (25351)</t>
+  </si>
+  <si>
+    <t>5573 PATRIKA (2205)</t>
+  </si>
+  <si>
+    <t>5574 PATRIKA (25335)</t>
+  </si>
+  <si>
+    <t>5575 PATRIKA *-* (M) (S-77)</t>
+  </si>
+  <si>
+    <t>5576 PATRIKA (2531)</t>
+  </si>
+  <si>
+    <t>5577 PATRIKA *-* (M) (5808)</t>
+  </si>
+  <si>
+    <t>5578 PATRIKA (JC) *-* (M) (AS-104 / S-50)</t>
+  </si>
+  <si>
+    <t>5579 PATRIKA (JC) *-* (M) (AS-102)</t>
+  </si>
+  <si>
+    <t>5580 PATRIKA (S-326)</t>
+  </si>
+  <si>
+    <t>5581 PATRIKA *-* (M) (3471)</t>
+  </si>
+  <si>
+    <t>5582 PATRIKA *-* (M) (3512 SBC)</t>
+  </si>
+  <si>
+    <t>5583 PATRIKA (3211 SBC)</t>
+  </si>
+  <si>
+    <t>5584 PATRIKA (JC) (2202 SBC)</t>
+  </si>
+  <si>
+    <t>5585 PATRIKA *-* (M) (1201 KBC)</t>
+  </si>
+  <si>
+    <t>5586 PATRIKA *-* (M) (S-51)</t>
+  </si>
+  <si>
+    <t>5587 PATRIKA (2264)</t>
+  </si>
+  <si>
+    <t>5588 PATRIKA (JC) *-* (M) (1006)</t>
+  </si>
+  <si>
+    <t>5589 PATRIKA *-* (M) (25133)</t>
+  </si>
+  <si>
+    <t>5590 PATRIKA (3131 SBC)</t>
+  </si>
+  <si>
+    <t>5592 PATRIKA *-* (M) (2365)</t>
+  </si>
+  <si>
+    <t>5593 PATRIKA (2803)</t>
+  </si>
+  <si>
+    <t>5595 PATRIKA *-* (M) (226)</t>
+  </si>
+  <si>
+    <t>5596 PATRIKA *-* (M) (2541)</t>
+  </si>
+  <si>
+    <t>5597 PATRIKA (JC) *-* (M) (AS-104 (B))</t>
+  </si>
+  <si>
+    <t>5599 PATRIKA *-* (M) (77-B)</t>
+  </si>
+  <si>
+    <t>5601 PATRIKA (2771)</t>
+  </si>
+  <si>
+    <t>5602 PATRIKA (3271)</t>
+  </si>
+  <si>
+    <t>5603 PATRIKA *-* (M) (6125)</t>
+  </si>
+  <si>
+    <t>5604 PATRIKA (242-A)</t>
+  </si>
+  <si>
+    <t>5605 PATRIKA (JC) (3102)</t>
+  </si>
+  <si>
+    <t>5606 PATRIKA *-* (M) (221-A)</t>
+  </si>
+  <si>
+    <t>5607 PATRIKA (25442)</t>
+  </si>
+  <si>
+    <t>5608 PATRIKA (25440)</t>
+  </si>
+  <si>
+    <t>5609 PATRIKA (993)</t>
+  </si>
+  <si>
+    <t>5610 PATRIKA (JC) (2373)</t>
+  </si>
+  <si>
+    <t>5611 PATRIKA *-* (M) (1211)</t>
+  </si>
+  <si>
+    <t>5612 PATRIKA (DCU) (5276)</t>
+  </si>
+  <si>
+    <t>5615 PATRIKA (2111)</t>
+  </si>
+  <si>
+    <t>5616 PATRIKA (DCU) (7069)</t>
+  </si>
+  <si>
+    <t>5617 PATRIKA *-* (M) (7067)</t>
+  </si>
+  <si>
+    <t>5618 PATRIKA (JC) *-* (M) (S-52)</t>
+  </si>
+  <si>
+    <t>5621 PATRIKA (JC) *-* (M) (5297)</t>
+  </si>
+  <si>
+    <t>5622 PATRIKA *-* (M) (25337)</t>
+  </si>
+  <si>
+    <t>5623 PATRIKA (064)</t>
+  </si>
+  <si>
+    <t>5625 PATRIKA (DCU) (772)</t>
+  </si>
+  <si>
+    <t>5626 PATRIKA (DCU) (FULL JALI)</t>
+  </si>
+  <si>
+    <t>5627 PATRIKA (DCU) (HALF JALI)</t>
+  </si>
+  <si>
+    <t>5628 PATRIKA (DCU) (GOL)</t>
+  </si>
+  <si>
+    <t>5629 PATRIKA (DCU) (9*5 X 6*5 PATTA)</t>
+  </si>
+  <si>
+    <t>5630 PATRIKA (DCU) (SATHIYA)</t>
+  </si>
+  <si>
+    <t>6601 PATRIKA (L) (5164)</t>
+  </si>
+  <si>
+    <t>6602 PATRIKA (5126)</t>
+  </si>
+  <si>
+    <t>6603 PATRIKA (5111)</t>
+  </si>
+  <si>
+    <t>6604 PATRIKA *-* (M) (5196)</t>
+  </si>
+  <si>
+    <t>6605 PATRIKA (5191)</t>
+  </si>
+  <si>
+    <t>6606 PATRIKA (*-*) R (3023)</t>
+  </si>
+  <si>
+    <t>6607 PATRIKA *-* (M) (0523)</t>
+  </si>
+  <si>
+    <t>6608 PATRIKA (95)</t>
+  </si>
+  <si>
+    <t>6609 PATRIKA *-* (M) (3053)</t>
+  </si>
+  <si>
+    <t>6610 PATRIKA *-* (M) (3019)</t>
+  </si>
+  <si>
+    <t>6611 PATRIKA (3017 VV)</t>
+  </si>
+  <si>
+    <t>6612 PATRIKA (3015)</t>
+  </si>
+  <si>
+    <t>6613 PATRIKA (25164)</t>
+  </si>
+  <si>
+    <t>6614 PATRIKA (DCU) (25131)</t>
+  </si>
+  <si>
+    <t>6615 PATRIKA *-* (M) (915 GAGAN)</t>
+  </si>
+  <si>
+    <t>6616 PATRIKA *-* (M) (911 GAGAN)</t>
+  </si>
+  <si>
+    <t>6617 PATRIKA *-* (M) (3422)</t>
+  </si>
+  <si>
+    <t>6618 PATRIKA *-* (M) (3423)</t>
+  </si>
+  <si>
+    <t>6619 PATRIKA *-* (M) (1193)</t>
+  </si>
+  <si>
+    <t>6620 PATRIKA *-* (M) (1045 GGN (PADDING))</t>
+  </si>
+  <si>
+    <t>6621 PATRIKA *-* (M) (7108 (PADDING))</t>
+  </si>
+  <si>
+    <t>6622 PATRIKA *-* (M) (7259 (PADDING))</t>
+  </si>
+  <si>
+    <t>6623 PATRIKA (25184)</t>
+  </si>
+  <si>
+    <t>6624 PATRIKA *-* (M) (25135)</t>
+  </si>
+  <si>
+    <t>6625 PATRIKA *-* (M) (25116)</t>
+  </si>
+  <si>
+    <t>6626 PATRIKA *-* (M) (25161)</t>
+  </si>
+  <si>
+    <t>6627 PATRIKA *-* (M) (25111)</t>
+  </si>
+  <si>
+    <t>6628 PATRIKA *-* (M) (805 SBC)</t>
+  </si>
+  <si>
+    <t>6629 PATRIKA *-* (M) (812 NEW SBC)</t>
+  </si>
+  <si>
+    <t>6630 PATRIKA *-* (M) (5510 NICE)</t>
+  </si>
+  <si>
+    <t>6631 PATRIKA (DCU) (OLD AP ITEM)</t>
+  </si>
+  <si>
+    <t>6632 PATRIKA (DCU) (932)</t>
+  </si>
+  <si>
+    <t>6633 PATRIKA *-* (M) (7081 VP)</t>
+  </si>
+  <si>
+    <t>6634 PATRIKA (3562)</t>
+  </si>
+  <si>
+    <t>6635 PATRIKA *-* (M) (S-313)</t>
+  </si>
+  <si>
+    <t>6636 PATRIKA *-* (M) (25183)</t>
+  </si>
+  <si>
+    <t>6637 PATRIKA (25162 GE)</t>
+  </si>
+  <si>
+    <t>6638 PATRIKA *-* (M) (3014)</t>
+  </si>
+  <si>
+    <t>6639 PATRIKA (B) (2291-B)</t>
+  </si>
+  <si>
+    <t>6640 PATRIKA *-* (M) (5737 PADING)</t>
+  </si>
+  <si>
+    <t>6641 PATRIKA *-* (M) (5435)</t>
+  </si>
+  <si>
+    <t>6642 PATRIKA *-* (M) (5411 RJ)</t>
+  </si>
+  <si>
+    <t>6643 PATRIKA *-* (M) (25380)</t>
+  </si>
+  <si>
+    <t>6644 PATRIKA (DCU) (25132)</t>
+  </si>
+  <si>
+    <t>6645 PATRIKA *-* (M) (3031)</t>
+  </si>
+  <si>
+    <t>6646 PATRIKA *-* (M) (3034)</t>
+  </si>
+  <si>
+    <t>6647 PATRIKA *-* (M) (25382)</t>
+  </si>
+  <si>
+    <t>6648 PATRIKA *-* (M) (5011 (PADDING))</t>
+  </si>
+  <si>
+    <t>6649 PATRIKA *-* (M) (3402)</t>
+  </si>
+  <si>
+    <t>6650 PATRIKA *-* (M) (3431)</t>
+  </si>
+  <si>
+    <t>6651 PATRIKA (3421)</t>
+  </si>
+  <si>
+    <t>6652 PATRIKA *-* (M) (2764 SBC)</t>
+  </si>
+  <si>
+    <t>6653 PATRIKA *-* (M) (834 SBC NEW)</t>
+  </si>
+  <si>
+    <t>6654 PATRIKA *-* (M) (3461)</t>
+  </si>
+  <si>
+    <t>6655 PATRIKA *-* (M) (7129 (PADDING))</t>
+  </si>
+  <si>
+    <t>6656 PATRIKA (L) (7113 (PADDING))</t>
+  </si>
+  <si>
+    <t>6657 PATRIKA *-* (M) (563  DHANESH)</t>
+  </si>
+  <si>
+    <t>6658 PATRIKA *-* (M) (5319)</t>
+  </si>
+  <si>
+    <t>6659 PATRIKA (25193 (Padding))</t>
+  </si>
+  <si>
+    <t>6660 PATRIKA (25194 (Padding))</t>
+  </si>
+  <si>
+    <t>6661 PATRIKA *-* (M) (1281)</t>
+  </si>
+  <si>
+    <t>6662 PATRIKA (3424)</t>
+  </si>
+  <si>
+    <t>6663 PATRIKA (7103 (PADDING))</t>
+  </si>
+  <si>
+    <t>6664 PATRIKA *-* (M) (5823)</t>
+  </si>
+  <si>
+    <t>6665 PATRIKA *-* (M) (603 DHANESH)</t>
+  </si>
+  <si>
+    <t>6667 PATRIKA *-* (M) (1192 SBC)</t>
+  </si>
+  <si>
+    <t>6668 PATRIKA (DCU) (8102)</t>
+  </si>
+  <si>
+    <t>6669 PATRIKA (DCU) (6197)</t>
+  </si>
+  <si>
+    <t>6670 PATRIKA - B (M) (1868-B)</t>
+  </si>
+  <si>
+    <t>6670 PATRIKA *-* (M) (1868)</t>
+  </si>
+  <si>
+    <t>6671 PATRIKA *-* (M) (1872)</t>
+  </si>
+  <si>
+    <t>6672 PATRIKA *-* (M) (6132)</t>
+  </si>
+  <si>
+    <t>6673 PATRIKA (DCU) (6196)</t>
+  </si>
+  <si>
+    <t>6674 PATRIKA (DCU) (1503)</t>
+  </si>
+  <si>
+    <t>6675 PATRIKA *-* (M) (1282)</t>
+  </si>
+  <si>
+    <t>6676 PATRIKA (DCU) (533 KBC)</t>
+  </si>
+  <si>
+    <t>6677 PATRIKA (DCU) (25191 PADDING)</t>
+  </si>
+  <si>
+    <t>7265 PATRIKA (O.C.) (133)</t>
+  </si>
+  <si>
+    <t>7283 PATRIKA {F} (O.C.) (4148)</t>
+  </si>
+  <si>
+    <t>7287 PATRIKA (O.C.) (1522)</t>
+  </si>
+  <si>
+    <t>7288 PATRIKA (O.C.) (1178)</t>
+  </si>
+  <si>
+    <t>7293 PATRIKA (O.C.) (AS-20)</t>
+  </si>
+  <si>
+    <t>7309 PATRIKA (O.C.) (4087)</t>
+  </si>
+  <si>
+    <t>7312 PATRIKA (O.C.) (SBC 7312)</t>
+  </si>
+  <si>
+    <t>7319 PATRIKA (O.C.) (2204)</t>
+  </si>
+  <si>
+    <t>7332 PATRIKA (O.C.) (2482)</t>
+  </si>
+  <si>
+    <t>7342 PATRIKA (O.C.) (12)</t>
+  </si>
+  <si>
+    <t>7344 PATRIKA (O.C.) (INV B.P. RED (11))</t>
+  </si>
+  <si>
+    <t>7345 PATRIKA (O.C.) (INV B.P. GOLDEN (120) 5)</t>
+  </si>
+  <si>
+    <t>7401 PATRIKA (25/252)</t>
+  </si>
+  <si>
+    <t>7402 PATRIKA (25/264-263)</t>
+  </si>
+  <si>
+    <t>7403 PATRIKA (25/363/863)</t>
+  </si>
+  <si>
+    <t>7404 PATRIKA (25/283)</t>
+  </si>
+  <si>
+    <t>7405 PATRIKA (25/273)</t>
+  </si>
+  <si>
+    <t>7406 PATRIKA (25/172)</t>
+  </si>
+  <si>
+    <t>7407 PATRIKA *-* (F) (7145 VP)</t>
+  </si>
+  <si>
+    <t>7408 PATRIKA (DCU) (25895)</t>
+  </si>
+  <si>
+    <t>7409 PATRIKA (2521)</t>
+  </si>
+  <si>
+    <t>7410 PATRIKA (2526)</t>
+  </si>
+  <si>
+    <t>7411 PATRIKA (2535)</t>
+  </si>
+  <si>
+    <t>7413 PATRIKA (2543 INV OFFSET)</t>
+  </si>
+  <si>
+    <t>7414 PATRIKA (1015 GREEN OFFSET)</t>
+  </si>
+  <si>
+    <t>7415 PATRIKA *-* (F) (3162 SBC)</t>
+  </si>
+  <si>
+    <t>7416 PATRIKA (2234)</t>
+  </si>
+  <si>
+    <t>7417 PATRIKA (S-201 INV)</t>
+  </si>
+  <si>
+    <t>7418 PATRIKA *-* (डोरी) (1639)</t>
+  </si>
+  <si>
+    <t>7419 PATRIKA (5121)</t>
+  </si>
+  <si>
+    <t>7420 PATRIKA (720)</t>
+  </si>
+  <si>
+    <t>7421 PATRIKA *-* (F) (25-146)</t>
+  </si>
+  <si>
+    <t>7422 PATRIKA (3702)</t>
+  </si>
+  <si>
+    <t>7424 PATRIKA *-* (F) (25-047)</t>
+  </si>
+  <si>
+    <t>7425 PATRIKA (2082)</t>
+  </si>
+  <si>
+    <t>7426 PATRIKA (F/G) *-* (4052)</t>
+  </si>
+  <si>
+    <t>7427 PATRIKA (2103)</t>
+  </si>
+  <si>
+    <t>7428 PATRIKA (1223 SBC)</t>
+  </si>
+  <si>
+    <t>7429 PATRIKA (F/G) *-* (1851 MONARCH)</t>
+  </si>
+  <si>
+    <t>7430 PATRIKA (6310 GE)</t>
+  </si>
+  <si>
+    <t>7431 PATRIKA (2532)</t>
+  </si>
+  <si>
+    <t>7432 PATRIKA (1174)</t>
+  </si>
+  <si>
+    <t>7433 PATRIKA (1034)</t>
+  </si>
+  <si>
+    <t>7434 PATRIKA (2204 INV)</t>
+  </si>
+  <si>
+    <t>7435 PATRIKA (06)</t>
+  </si>
+  <si>
+    <t>7436 PATRIKA (303)</t>
+  </si>
+  <si>
+    <t>7437 PATRIKA (25323 INV)</t>
+  </si>
+  <si>
+    <t>7438 PATRIKA (25413)</t>
+  </si>
+  <si>
+    <t>7439 PATRIKA (2597)</t>
+  </si>
+  <si>
+    <t>7440 PATRIKA (25896)</t>
+  </si>
+  <si>
+    <t>7441 PATRIKA *-* (F) (243-C)</t>
+  </si>
+  <si>
+    <t>7442 PATRIKA (1855)</t>
+  </si>
+  <si>
+    <t>7443 PATRIKA (1044 SBC)</t>
+  </si>
+  <si>
+    <t>7444 PATRIKA (2014)</t>
+  </si>
+  <si>
+    <t>7445 PATRIKA (2006)</t>
+  </si>
+  <si>
+    <t>7446 PATRIKA (DCU) (6106)</t>
+  </si>
+  <si>
+    <t>7447 PATRIKA (GOPAL 32)</t>
+  </si>
+  <si>
+    <t>7448 PATRIKA (2005- G)</t>
+  </si>
+  <si>
+    <t>7449 PATRIKA (5180)</t>
+  </si>
+  <si>
+    <t>7450 PATRIKA (DCU) (3753)</t>
+  </si>
+  <si>
+    <t>7451 PATRIKA (273 NEHA)</t>
+  </si>
+  <si>
+    <t>7452 PATRIKA (278-B)</t>
+  </si>
+  <si>
+    <t>7453 PATRIKA (ECO - 61) (NEW ECO 61)</t>
+  </si>
+  <si>
+    <t>7454 PATRIKA (ECO -63) (NEW ECO 63)</t>
   </si>
   <si>
     <t>7604 PATRIKA</t>
   </si>
   <si>
-    <t>9001 CARD (O.C.)</t>
+    <t>9001 CARD (O.C.) (2498 Cream)</t>
   </si>
   <si>
     <t>9221 CARDS - YELLOW</t>
@@ -1685,262 +1685,262 @@
     <t>9227 CARDS (9*5 OFFSET)</t>
   </si>
   <si>
-    <t>9228 CARDS (Y)</t>
-  </si>
-  <si>
-    <t>9229 CARDS - B (DCU)</t>
-  </si>
-  <si>
-    <t>9229 CARDS (C)</t>
+    <t>9228 CARDS (Y) (ORANGE WITH ONLY FOIL)</t>
+  </si>
+  <si>
+    <t>9229 CARDS - B (DCU) (GOLDEN WITH GANESH JI &amp; FOIL)</t>
+  </si>
+  <si>
+    <t>9229 CARDS (C) (CREAM WITH GANESH JI &amp; FOIL)</t>
   </si>
   <si>
     <t>9230 (CARD) 9*5 SCREEN</t>
   </si>
   <si>
-    <t>9232 CARDS (DCU)</t>
-  </si>
-  <si>
-    <t>9233 CARDS (DCU)</t>
-  </si>
-  <si>
-    <t>9235 CARDS (DCU)</t>
-  </si>
-  <si>
-    <t>9236 CARDS (DCU)</t>
-  </si>
-  <si>
-    <t>9237 CARDS (DCU)</t>
-  </si>
-  <si>
-    <t>9301 CARDS</t>
-  </si>
-  <si>
-    <t>9302 CARDS</t>
-  </si>
-  <si>
-    <t>9303 CARDS</t>
-  </si>
-  <si>
-    <t>9304 CARDS</t>
-  </si>
-  <si>
-    <t>9305 CARDS (9070)</t>
-  </si>
-  <si>
-    <t>9306 CARDS</t>
-  </si>
-  <si>
-    <t>9307 CARDS *-* (M)</t>
-  </si>
-  <si>
-    <t>9308 CARDS</t>
-  </si>
-  <si>
-    <t>9309 CARDS *-* (T)</t>
-  </si>
-  <si>
-    <t>9310 CARDS</t>
-  </si>
-  <si>
-    <t>9311 CARDS</t>
-  </si>
-  <si>
-    <t>9312 CARDS *-* (T)</t>
-  </si>
-  <si>
-    <t>9313 CARDS *-* (T)</t>
-  </si>
-  <si>
-    <t>9314 CARDS</t>
-  </si>
-  <si>
-    <t>9315 CARDS (DCU)</t>
-  </si>
-  <si>
-    <t>9316 CARDS (DCU)</t>
-  </si>
-  <si>
-    <t>9317 CARDS</t>
-  </si>
-  <si>
-    <t>9318 CARDS</t>
-  </si>
-  <si>
-    <t>9320 CARDS</t>
-  </si>
-  <si>
-    <t>9321 CARDS</t>
-  </si>
-  <si>
-    <t>9322 CARDS *-* (M)</t>
-  </si>
-  <si>
-    <t>9323 CARDS (9005 OLD)</t>
-  </si>
-  <si>
-    <t>9324 CARDS</t>
-  </si>
-  <si>
-    <t>9325 CARDS</t>
-  </si>
-  <si>
-    <t>9326 CARDS</t>
-  </si>
-  <si>
-    <t>9327 CARDS</t>
-  </si>
-  <si>
-    <t>9328 CARDS</t>
-  </si>
-  <si>
-    <t>9329 CARDS (Desgin H/d)</t>
-  </si>
-  <si>
-    <t>9330 CARDS *-* (T)</t>
-  </si>
-  <si>
-    <t>9331 CARDS *-*  (T)</t>
-  </si>
-  <si>
-    <t>9332 CARDS</t>
-  </si>
-  <si>
-    <t>9333 CARDS</t>
-  </si>
-  <si>
-    <t>9334 CARDS</t>
-  </si>
-  <si>
-    <t>9335 CARDS (9003 OLD)</t>
-  </si>
-  <si>
-    <t>9336 CARDS</t>
-  </si>
-  <si>
-    <t>9337 CARDS</t>
-  </si>
-  <si>
-    <t>9338 CARDS</t>
-  </si>
-  <si>
-    <t>9339 CARDS</t>
-  </si>
-  <si>
-    <t>9340 CARDS</t>
-  </si>
-  <si>
-    <t>9341 CARDS</t>
-  </si>
-  <si>
-    <t>9342 CARDS</t>
-  </si>
-  <si>
-    <t>9343 CARDS</t>
-  </si>
-  <si>
-    <t>9344 CARDS</t>
-  </si>
-  <si>
-    <t>9345 CARDS</t>
-  </si>
-  <si>
-    <t>9346 CARDS</t>
-  </si>
-  <si>
-    <t>9347 CARDS</t>
-  </si>
-  <si>
-    <t>9348 CARDS *-* (डोरी)</t>
-  </si>
-  <si>
-    <t>9349 CARDS (W/o Window)</t>
-  </si>
-  <si>
-    <t>9350 CARDS *-* (T)</t>
-  </si>
-  <si>
-    <t>9351 Card - B</t>
-  </si>
-  <si>
-    <t>9351 CARDS *-* (T)</t>
-  </si>
-  <si>
-    <t>9352 CARDS *-* (T)</t>
-  </si>
-  <si>
-    <t>9353 CARDS</t>
-  </si>
-  <si>
-    <t>9354 CARDS (DCU)</t>
-  </si>
-  <si>
-    <t>9355 CARDS</t>
-  </si>
-  <si>
-    <t>9356 CARDS</t>
-  </si>
-  <si>
-    <t>9357 CARDS</t>
-  </si>
-  <si>
-    <t>9358 CARDS</t>
-  </si>
-  <si>
-    <t>9359 CARDS</t>
-  </si>
-  <si>
-    <t>9360 CARDS *-* (M)</t>
-  </si>
-  <si>
-    <t>9361 CARDS</t>
-  </si>
-  <si>
-    <t>9362 CARDS</t>
-  </si>
-  <si>
-    <t>9363 CARDS *-* (T)</t>
-  </si>
-  <si>
-    <t>9364 CARDS *-* (T)</t>
-  </si>
-  <si>
-    <t>9365 CARDS</t>
-  </si>
-  <si>
-    <t>9366 CARDS</t>
-  </si>
-  <si>
-    <t>9367 CARDS</t>
-  </si>
-  <si>
-    <t>9368 CARDS</t>
-  </si>
-  <si>
-    <t>9369 CARDS</t>
-  </si>
-  <si>
-    <t>9370 CARDS</t>
-  </si>
-  <si>
-    <t>9371 CARDS</t>
-  </si>
-  <si>
-    <t>9372 CARDS</t>
-  </si>
-  <si>
-    <t>9373 CARDS</t>
-  </si>
-  <si>
-    <t>9374 CARDS</t>
-  </si>
-  <si>
-    <t>9375 CARDS</t>
-  </si>
-  <si>
-    <t>9376 CARDS</t>
-  </si>
-  <si>
-    <t>9378 CARDS</t>
+    <t>9232 CARDS (DCU) (RIYAZ 9*5 CREAM)</t>
+  </si>
+  <si>
+    <t>9233 CARDS (DCU) (RIYAZ 9*5 YELLOW)</t>
+  </si>
+  <si>
+    <t>9235 CARDS (DCU) (RIYAZ 9*4 CREAM)</t>
+  </si>
+  <si>
+    <t>9236 CARDS (DCU) (RIYAZ 9*4 YELLOW)</t>
+  </si>
+  <si>
+    <t>9237 CARDS (DCU) (DCU 9*4 RED)</t>
+  </si>
+  <si>
+    <t>9301 CARDS (4242)</t>
+  </si>
+  <si>
+    <t>9302 CARDS (5076)</t>
+  </si>
+  <si>
+    <t>9303 CARDS (5080 Pink)</t>
+  </si>
+  <si>
+    <t>9304 CARDS (5083 Blue)</t>
+  </si>
+  <si>
+    <t>9305 CARDS (9070) (4701 Nice)</t>
+  </si>
+  <si>
+    <t>9306 CARDS (0543 Nice)</t>
+  </si>
+  <si>
+    <t>9307 CARDS *-* (M) (5243 Nice)</t>
+  </si>
+  <si>
+    <t>9308 CARDS (9852)</t>
+  </si>
+  <si>
+    <t>9309 CARDS *-* (T) (9561 Vp)</t>
+  </si>
+  <si>
+    <t>9310 CARDS (3103)</t>
+  </si>
+  <si>
+    <t>9311 CARDS (3115)</t>
+  </si>
+  <si>
+    <t>9312 CARDS *-* (T) (208 VV)</t>
+  </si>
+  <si>
+    <t>9313 CARDS *-* (T) (216)</t>
+  </si>
+  <si>
+    <t>9314 CARDS (P-1)</t>
+  </si>
+  <si>
+    <t>9315 CARDS (DCU) (P-2)</t>
+  </si>
+  <si>
+    <t>9316 CARDS (DCU) (P-3)</t>
+  </si>
+  <si>
+    <t>9317 CARDS (P-4)</t>
+  </si>
+  <si>
+    <t>9318 CARDS (25905)</t>
+  </si>
+  <si>
+    <t>9320 CARDS (S-20)</t>
+  </si>
+  <si>
+    <t>9321 CARDS (22912 GANESH JI)</t>
+  </si>
+  <si>
+    <t>9322 CARDS *-* (M) (22912 COMMON)</t>
+  </si>
+  <si>
+    <t>9323 CARDS (9005 OLD) (9*5 CREAM FOIL NEW)</t>
+  </si>
+  <si>
+    <t>9324 CARDS (9*5 PINK FOIL NEW)</t>
+  </si>
+  <si>
+    <t>9325 CARDS (5229)</t>
+  </si>
+  <si>
+    <t>9326 CARDS (1601)</t>
+  </si>
+  <si>
+    <t>9327 CARDS (25908)</t>
+  </si>
+  <si>
+    <t>9328 CARDS (2543)</t>
+  </si>
+  <si>
+    <t>9329 CARDS (Desgin H/d) (3606)</t>
+  </si>
+  <si>
+    <t>9330 CARDS *-* (T) (9557)</t>
+  </si>
+  <si>
+    <t>9331 CARDS *-*  (T) (9560)</t>
+  </si>
+  <si>
+    <t>9332 CARDS (9847)</t>
+  </si>
+  <si>
+    <t>9333 CARDS (6042)</t>
+  </si>
+  <si>
+    <t>9334 CARDS (10X6 WHITE (2898))</t>
+  </si>
+  <si>
+    <t>9335 CARDS (9003 OLD) (9*5 WHITE)</t>
+  </si>
+  <si>
+    <t>9336 CARDS (2884)</t>
+  </si>
+  <si>
+    <t>9337 CARDS (1635 AP)</t>
+  </si>
+  <si>
+    <t>9338 CARDS (1637 AP)</t>
+  </si>
+  <si>
+    <t>9339 CARDS (5361)</t>
+  </si>
+  <si>
+    <t>9340 CARDS (5658)</t>
+  </si>
+  <si>
+    <t>9341 CARDS (5497)</t>
+  </si>
+  <si>
+    <t>9342 CARDS (2861)</t>
+  </si>
+  <si>
+    <t>9343 CARDS (9*5 WHTE GE HEAVY)</t>
+  </si>
+  <si>
+    <t>9344 CARDS (689)</t>
+  </si>
+  <si>
+    <t>9345 CARDS (358 KALYANI)</t>
+  </si>
+  <si>
+    <t>9346 CARDS (359)</t>
+  </si>
+  <si>
+    <t>9347 CARDS (2853)</t>
+  </si>
+  <si>
+    <t>9348 CARDS *-* (डोरी) (S-124)</t>
+  </si>
+  <si>
+    <t>9349 CARDS (W/o Window) (S-120)</t>
+  </si>
+  <si>
+    <t>9350 CARDS *-* (T) (1632)</t>
+  </si>
+  <si>
+    <t>9351 Card - B (1603 B)</t>
+  </si>
+  <si>
+    <t>9351 CARDS *-* (T) (1603)</t>
+  </si>
+  <si>
+    <t>9352 CARDS *-* (T) (1606 AP)</t>
+  </si>
+  <si>
+    <t>9353 CARDS (1618)</t>
+  </si>
+  <si>
+    <t>9354 CARDS (DCU) (345)</t>
+  </si>
+  <si>
+    <t>9355 CARDS (1624)</t>
+  </si>
+  <si>
+    <t>9356 CARDS (2895/2897)</t>
+  </si>
+  <si>
+    <t>9357 CARDS (2872)</t>
+  </si>
+  <si>
+    <t>9358 CARDS (WHITE PATTA)</t>
+  </si>
+  <si>
+    <t>9359 CARDS (PITCH PATTA)</t>
+  </si>
+  <si>
+    <t>9360 CARDS *-* (M) (GOL ANDA)</t>
+  </si>
+  <si>
+    <t>9361 CARDS (25426)</t>
+  </si>
+  <si>
+    <t>9362 CARDS (363)</t>
+  </si>
+  <si>
+    <t>9363 CARDS *-* (T) (1652)</t>
+  </si>
+  <si>
+    <t>9364 CARDS *-* (T) (1612)</t>
+  </si>
+  <si>
+    <t>9365 CARDS (25429)</t>
+  </si>
+  <si>
+    <t>9366 CARDS (25427 GOLDEN)</t>
+  </si>
+  <si>
+    <t>9367 CARDS (5652)</t>
+  </si>
+  <si>
+    <t>9368 CARDS (9*5 SET 25/26 GOLDEN (25425))</t>
+  </si>
+  <si>
+    <t>9369 CARDS (9*5 SET 25/26 YELLOW (25424))</t>
+  </si>
+  <si>
+    <t>9370 CARDS (9*5 SET 25/26 RED (25423))</t>
+  </si>
+  <si>
+    <t>9371 CARDS (3111 VP)</t>
+  </si>
+  <si>
+    <t>9372 CARDS (9*5 YLW SET (2841))</t>
+  </si>
+  <si>
+    <t>9373 CARDS (1482)</t>
+  </si>
+  <si>
+    <t>9374 CARDS (1485)</t>
+  </si>
+  <si>
+    <t>9375 CARDS (1452 WHITE)</t>
+  </si>
+  <si>
+    <t>9376 CARDS (1529 PRINCE)</t>
+  </si>
+  <si>
+    <t>9378 CARDS (2892)</t>
   </si>
   <si>
     <t>9379 CARDS - R</t>
@@ -1970,19 +1970,19 @@
     <t>9387 CARDS - GOLDEN (Mil Jayega)</t>
   </si>
   <si>
-    <t>9389 CARDS</t>
-  </si>
-  <si>
-    <t>9390 CARDS (DCU)</t>
+    <t>9389 CARDS (9147 RJ)</t>
+  </si>
+  <si>
+    <t>9390 CARDS (DCU) (118KBC)</t>
   </si>
   <si>
     <t>9391 CARDS</t>
   </si>
   <si>
-    <t>9*4 ENVELOPE (SBC)</t>
-  </si>
-  <si>
-    <t>9*5 ENVELOPE (FOIL) SBC</t>
+    <t>9*4 ENVELOPE (SBC) (CHOTA ENVELOPE (60/40 BILL))</t>
+  </si>
+  <si>
+    <t>9*5 ENVELOPE (FOIL) SBC (BADA ENVLP WITH FOIL (60/40 BILL))</t>
   </si>
   <si>
     <t>ACRYLIC NAME PLATE</t>
@@ -1991,7 +1991,7 @@
     <t>DEV SAMPLE SET</t>
   </si>
   <si>
-    <t>FANCY GIFT ENVELOPE-(SR)</t>
+    <t>FANCY GIFT ENVELOPE-(SR) (SR ENVELOPES)</t>
   </si>
   <si>
     <t>Gift Envelope (Pocket) SR...</t>
@@ -2009,31 +2009,31 @@
     <t>RIBBON (रिबीन)</t>
   </si>
   <si>
-    <t>RX-01 ENVELOPE</t>
-  </si>
-  <si>
-    <t>RX-02 ENVELOPE</t>
-  </si>
-  <si>
-    <t>RX-03 ENVELOPE</t>
-  </si>
-  <si>
-    <t>RX-04 ENVELOPE</t>
-  </si>
-  <si>
-    <t>RX-05 ENVELOPE</t>
-  </si>
-  <si>
-    <t>RX-07 ENVELOPE</t>
-  </si>
-  <si>
-    <t>RX-08 ENVELOPE</t>
-  </si>
-  <si>
-    <t>RX-09 ENVELOPE</t>
-  </si>
-  <si>
-    <t>गोल गणेश / गोल फ्लावर</t>
+    <t>RX-01 ENVELOPE (LX01)</t>
+  </si>
+  <si>
+    <t>RX-02 ENVELOPE (LX02)</t>
+  </si>
+  <si>
+    <t>RX-03 ENVELOPE (LX03)</t>
+  </si>
+  <si>
+    <t>RX-04 ENVELOPE (LX04)</t>
+  </si>
+  <si>
+    <t>RX-05 ENVELOPE (LX05)</t>
+  </si>
+  <si>
+    <t>RX-07 ENVELOPE (LX07)</t>
+  </si>
+  <si>
+    <t>RX-08 ENVELOPE (LX08)</t>
+  </si>
+  <si>
+    <t>RX-09 ENVELOPE (LX09)</t>
+  </si>
+  <si>
+    <t>गोल गणेश / गोल फ्लावर (GOL GANESH OR GOL FLOWER)</t>
   </si>
   <si>
     <t>Grand Total</t>
@@ -2566,7 +2566,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
@@ -2739,16 +2739,16 @@
         <v>17</v>
       </c>
       <c r="B14" s="24">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="25">
-        <v>88.5</v>
+        <v>83.5</v>
       </c>
       <c r="D14" s="26">
         <v>2</v>
       </c>
       <c r="E14" s="27">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -2790,16 +2790,16 @@
         <v>20</v>
       </c>
       <c r="B17" s="24">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C17" s="25">
-        <v>237.5</v>
+        <v>232.5</v>
       </c>
       <c r="D17" s="26">
         <v>2.1</v>
       </c>
       <c r="E17" s="27">
-        <v>498.75</v>
+        <v>488.25</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -3283,16 +3283,16 @@
         <v>49</v>
       </c>
       <c r="B46" s="24">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C46" s="25">
-        <v>16.5</v>
+        <v>11.5</v>
       </c>
       <c r="D46" s="26">
         <v>1.26</v>
       </c>
       <c r="E46" s="27">
-        <v>20.79</v>
+        <v>14.49</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -3487,16 +3487,16 @@
         <v>61</v>
       </c>
       <c r="B58" s="24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C58" s="25">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="D58" s="26">
         <v>1.1100000000000001</v>
       </c>
       <c r="E58" s="27">
-        <v>327.45</v>
+        <v>316.35000000000002</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -3504,16 +3504,16 @@
         <v>62</v>
       </c>
       <c r="B59" s="24">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C59" s="25">
-        <v>282.5</v>
+        <v>272.5</v>
       </c>
       <c r="D59" s="26">
         <v>1.1100000000000001</v>
       </c>
       <c r="E59" s="27">
-        <v>313.58</v>
+        <v>302.48</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -3649,16 +3649,16 @@
         <v>71</v>
       </c>
       <c r="B68" s="24">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C68" s="25">
-        <v>247.5</v>
+        <v>227.5</v>
       </c>
       <c r="D68" s="26">
         <v>1.4</v>
       </c>
       <c r="E68" s="27">
-        <v>346.5</v>
+        <v>318.5</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -3666,16 +3666,16 @@
         <v>72</v>
       </c>
       <c r="B69" s="24">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C69" s="25">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="D69" s="26">
         <v>1.4</v>
       </c>
       <c r="E69" s="27">
-        <v>358.4</v>
+        <v>330.4</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -3734,16 +3734,16 @@
         <v>76</v>
       </c>
       <c r="B73" s="24">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C73" s="25">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D73" s="26">
         <v>1.2</v>
       </c>
       <c r="E73" s="27">
-        <v>726</v>
+        <v>723.6</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -3751,16 +3751,16 @@
         <v>77</v>
       </c>
       <c r="B74" s="24">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C74" s="25">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D74" s="26">
         <v>1.2</v>
       </c>
       <c r="E74" s="27">
-        <v>772.8</v>
+        <v>770.4</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -3919,16 +3919,16 @@
         <v>87</v>
       </c>
       <c r="B84" s="24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C84" s="25">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D84" s="26">
         <v>1.7</v>
       </c>
       <c r="E84" s="27">
-        <v>30.6</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -4068,16 +4068,16 @@
         <v>96</v>
       </c>
       <c r="B93" s="24">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C93" s="25">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="D93" s="26">
         <v>0.73</v>
       </c>
       <c r="E93" s="27">
-        <v>134.49</v>
+        <v>125.67</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -4085,16 +4085,16 @@
         <v>97</v>
       </c>
       <c r="B94" s="24">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C94" s="25">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="D94" s="26">
         <v>0.81</v>
       </c>
       <c r="E94" s="27">
-        <v>343.58</v>
+        <v>333.86</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -4807,16 +4807,16 @@
         <v>145</v>
       </c>
       <c r="B142" s="24">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C142" s="25">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D142" s="26">
         <v>18.5</v>
       </c>
       <c r="E142" s="27">
-        <v>166.5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -6553,16 +6553,16 @@
         <v>249</v>
       </c>
       <c r="B246" s="24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C246" s="25">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D246" s="26">
         <v>3.1</v>
       </c>
       <c r="E246" s="27">
-        <v>114.7</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
@@ -6825,16 +6825,16 @@
         <v>265</v>
       </c>
       <c r="B262" s="24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C262" s="25">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D262" s="26">
         <v>6</v>
       </c>
       <c r="E262" s="27">
-        <v>312</v>
+        <v>282</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
@@ -7706,16 +7706,16 @@
         <v>318</v>
       </c>
       <c r="B315" s="24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C315" s="25">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D315" s="26">
         <v>3.4</v>
       </c>
       <c r="E315" s="27">
-        <v>47.6</v>
+        <v>44.2</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
@@ -8108,16 +8108,16 @@
         <v>342</v>
       </c>
       <c r="B339" s="24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C339" s="25">
-        <v>30.5</v>
+        <v>25.5</v>
       </c>
       <c r="D339" s="26">
         <v>7</v>
       </c>
       <c r="E339" s="27">
-        <v>213.5</v>
+        <v>178.5</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
@@ -8193,16 +8193,16 @@
         <v>347</v>
       </c>
       <c r="B344" s="24">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C344" s="25">
-        <v>33.5</v>
+        <v>26.5</v>
       </c>
       <c r="D344" s="26">
         <v>8.1999999999999993</v>
       </c>
       <c r="E344" s="27">
-        <v>274.7</v>
+        <v>217.3</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
@@ -8210,16 +8210,16 @@
         <v>348</v>
       </c>
       <c r="B345" s="24">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C345" s="25">
-        <v>78.45</v>
+        <v>73.45</v>
       </c>
       <c r="D345" s="26">
         <v>4.5</v>
       </c>
       <c r="E345" s="27">
-        <v>353.03</v>
+        <v>330.53</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
@@ -9593,16 +9593,16 @@
         <v>431</v>
       </c>
       <c r="B428" s="24">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C428" s="25">
-        <v>12.16</v>
+        <v>11.16</v>
       </c>
       <c r="D428" s="26">
         <v>8.5500000000000007</v>
       </c>
       <c r="E428" s="27">
-        <v>103.97</v>
+        <v>95.42</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
@@ -9876,16 +9876,16 @@
         <v>448</v>
       </c>
       <c r="B445" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C445" s="25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D445" s="26">
         <v>11.88</v>
       </c>
       <c r="E445" s="27">
-        <v>47.52</v>
+        <v>23.76</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.25">
@@ -9961,16 +9961,16 @@
         <v>453</v>
       </c>
       <c r="B450" s="24">
+        <v>8</v>
+      </c>
+      <c r="C450" s="25">
         <v>7</v>
-      </c>
-      <c r="C450" s="25">
-        <v>13</v>
       </c>
       <c r="D450" s="26">
         <v>9</v>
       </c>
       <c r="E450" s="27">
-        <v>117</v>
+        <v>63</v>
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.25">
@@ -10623,16 +10623,16 @@
         <v>493</v>
       </c>
       <c r="B490" s="24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C490" s="25">
-        <v>63.5</v>
+        <v>62</v>
       </c>
       <c r="D490" s="26">
         <v>1.95</v>
       </c>
       <c r="E490" s="27">
-        <v>123.83</v>
+        <v>120.9</v>
       </c>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.25">
@@ -10657,16 +10657,16 @@
         <v>495</v>
       </c>
       <c r="B492" s="24">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C492" s="25">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D492" s="26">
         <v>2.1</v>
       </c>
       <c r="E492" s="27">
-        <v>138.6</v>
+        <v>136.5</v>
       </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.25">
@@ -10738,16 +10738,16 @@
         <v>500</v>
       </c>
       <c r="B497" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C497" s="25">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="D497" s="26">
         <v>3.5</v>
       </c>
       <c r="E497" s="27">
-        <v>63</v>
+        <v>54.25</v>
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.25">
@@ -11493,16 +11493,16 @@
         <v>545</v>
       </c>
       <c r="B542" s="24">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C542" s="25">
-        <v>366.5</v>
+        <v>361.5</v>
       </c>
       <c r="D542" s="26">
         <v>1.5</v>
       </c>
       <c r="E542" s="27">
-        <v>549.75</v>
+        <v>542.25</v>
       </c>
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.25">
@@ -11510,10 +11510,10 @@
         <v>546</v>
       </c>
       <c r="B543" s="24">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C543" s="25">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="D543" s="28"/>
       <c r="E543" s="29"/>
@@ -11523,10 +11523,10 @@
         <v>547</v>
       </c>
       <c r="B544" s="24">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C544" s="25">
-        <v>433.5</v>
+        <v>423.5</v>
       </c>
       <c r="D544" s="28"/>
       <c r="E544" s="29"/>
@@ -11536,10 +11536,10 @@
         <v>548</v>
       </c>
       <c r="B545" s="24">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C545" s="25">
-        <v>73.5</v>
+        <v>63.5</v>
       </c>
       <c r="D545" s="28"/>
       <c r="E545" s="29"/>
@@ -11549,10 +11549,10 @@
         <v>549</v>
       </c>
       <c r="B546" s="24">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C546" s="25">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D546" s="28"/>
       <c r="E546" s="29"/>
@@ -11575,16 +11575,16 @@
         <v>551</v>
       </c>
       <c r="B548" s="24">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C548" s="25">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="D548" s="26">
         <v>0.87</v>
       </c>
       <c r="E548" s="27">
-        <v>167.91</v>
+        <v>159.21</v>
       </c>
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.25">
@@ -11609,16 +11609,16 @@
         <v>553</v>
       </c>
       <c r="B550" s="24">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C550" s="25">
-        <v>534.5</v>
+        <v>504.5</v>
       </c>
       <c r="D550" s="26">
         <v>0.85</v>
       </c>
       <c r="E550" s="27">
-        <v>454.33</v>
+        <v>428.83</v>
       </c>
     </row>
     <row r="551" spans="1:5" x14ac:dyDescent="0.25">
@@ -11643,16 +11643,16 @@
         <v>555</v>
       </c>
       <c r="B552" s="24">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C552" s="25">
-        <v>520.5</v>
+        <v>490.5</v>
       </c>
       <c r="D552" s="26">
         <v>0.85</v>
       </c>
       <c r="E552" s="27">
-        <v>442.43</v>
+        <v>416.93</v>
       </c>
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.25">
@@ -11825,16 +11825,16 @@
         <v>567</v>
       </c>
       <c r="B564" s="24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C564" s="25">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D564" s="26">
         <v>5.5</v>
       </c>
       <c r="E564" s="27">
-        <v>143</v>
+        <v>121</v>
       </c>
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.25">
@@ -12420,16 +12420,16 @@
         <v>602</v>
       </c>
       <c r="B599" s="24">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C599" s="25">
-        <v>97.8</v>
+        <v>96.8</v>
       </c>
       <c r="D599" s="26">
         <v>2.85</v>
       </c>
       <c r="E599" s="27">
-        <v>278.73</v>
+        <v>275.88</v>
       </c>
     </row>
     <row r="600" spans="1:5" x14ac:dyDescent="0.25">
@@ -12539,16 +12539,16 @@
         <v>609</v>
       </c>
       <c r="B606" s="24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C606" s="25">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D606" s="26">
         <v>3.97</v>
       </c>
       <c r="E606" s="27">
-        <v>246.04</v>
+        <v>226.2</v>
       </c>
     </row>
     <row r="607" spans="1:5" x14ac:dyDescent="0.25">
@@ -13499,11 +13499,11 @@
       </c>
       <c r="B667" s="31"/>
       <c r="C667" s="32">
-        <v>37771.410000000003</v>
+        <v>37484.410000000003</v>
       </c>
       <c r="D667" s="33"/>
       <c r="E667" s="34">
-        <v>106882.1</v>
+        <v>106231.48</v>
       </c>
     </row>
   </sheetData>

--- a/data/website stock.xlsx
+++ b/data/website stock.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="670">
   <si>
     <t>Order Estimate - (from 1-Jul-2023)</t>
   </si>
@@ -35,7 +35,7 @@
     <t>Stock Group Summary</t>
   </si>
   <si>
-    <t>1-Jul-25 to 19-Dec-25</t>
+    <t>1-Jul-25 to 20-Dec-25</t>
   </si>
   <si>
     <t/>
@@ -956,9 +956,6 @@
     <t>5526 PATRIKA (DCU) (NEW LUSTER - 01)</t>
   </si>
   <si>
-    <t>5527 PATRIKA (DCU) (NEW LUSTER - 02)</t>
-  </si>
-  <si>
     <t>5528 PATRIKA *-* (M) (NEW LUSTER - 03)</t>
   </si>
   <si>
@@ -966,9 +963,6 @@
   </si>
   <si>
     <t>5530 PATRIKA *-* (M) (NEW LUSTER - 05)</t>
-  </si>
-  <si>
-    <t>5531 PATRIKA (DCU) (NEW LUSTER - 06)</t>
   </si>
   <si>
     <t>5532 PATRIKA *-* (M) (NEW LUSTER - 07)</t>
@@ -2563,7 +2557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E669"/>
+  <dimension ref="A1:E667"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3286,16 +3280,16 @@
         <v>48</v>
       </c>
       <c r="B46" s="24">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C46" s="25">
-        <v>11.5</v>
+        <v>9</v>
       </c>
       <c r="D46" s="26">
         <v>1.26</v>
       </c>
       <c r="E46" s="27">
-        <v>14.49</v>
+        <v>11.34</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -3422,16 +3416,16 @@
         <v>56</v>
       </c>
       <c r="B54" s="24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C54" s="25">
-        <v>93.5</v>
+        <v>83.5</v>
       </c>
       <c r="D54" s="26">
         <v>1.8</v>
       </c>
       <c r="E54" s="27">
-        <v>168.3</v>
+        <v>150.30000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -3720,16 +3714,16 @@
         <v>74</v>
       </c>
       <c r="B72" s="24">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C72" s="25">
-        <v>588.5</v>
+        <v>578.5</v>
       </c>
       <c r="D72" s="26">
         <v>1.2</v>
       </c>
       <c r="E72" s="27">
-        <v>706.2</v>
+        <v>694.2</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -4105,16 +4099,16 @@
         <v>97</v>
       </c>
       <c r="B95" s="24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C95" s="25">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="D95" s="26">
         <v>0.73</v>
       </c>
       <c r="E95" s="27">
-        <v>148.34</v>
+        <v>141</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -5724,16 +5718,16 @@
         <v>198</v>
       </c>
       <c r="B196" s="24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C196" s="25">
-        <v>52.5</v>
+        <v>48.5</v>
       </c>
       <c r="D196" s="26">
         <v>3.9</v>
       </c>
       <c r="E196" s="27">
-        <v>204.77</v>
+        <v>189.17</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
@@ -6610,13 +6604,13 @@
         <v>12</v>
       </c>
       <c r="C249" s="25">
-        <v>33.5</v>
+        <v>92.5</v>
       </c>
       <c r="D249" s="26">
         <v>4.5</v>
       </c>
       <c r="E249" s="27">
-        <v>150.75</v>
+        <v>416.25</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
@@ -7542,15 +7536,17 @@
       <c r="A305" s="23" t="s">
         <v>307</v>
       </c>
-      <c r="B305" s="24"/>
+      <c r="B305" s="24">
+        <v>1</v>
+      </c>
       <c r="C305" s="25">
-        <v>28.5</v>
+        <v>8.5</v>
       </c>
       <c r="D305" s="26">
         <v>7.5</v>
       </c>
       <c r="E305" s="27">
-        <v>213.75</v>
+        <v>63.75</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
@@ -7591,15 +7587,17 @@
       <c r="A308" s="23" t="s">
         <v>310</v>
       </c>
-      <c r="B308" s="24"/>
+      <c r="B308" s="24">
+        <v>32</v>
+      </c>
       <c r="C308" s="25">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D308" s="26">
         <v>9</v>
       </c>
       <c r="E308" s="27">
-        <v>90</v>
+        <v>216</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
@@ -7607,16 +7605,16 @@
         <v>311</v>
       </c>
       <c r="B309" s="24">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C309" s="25">
-        <v>24</v>
+        <v>13.5</v>
       </c>
       <c r="D309" s="26">
         <v>9</v>
       </c>
       <c r="E309" s="27">
-        <v>216</v>
+        <v>121.5</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
@@ -7624,16 +7622,16 @@
         <v>312</v>
       </c>
       <c r="B310" s="24">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C310" s="25">
-        <v>13.5</v>
+        <v>57.5</v>
       </c>
       <c r="D310" s="26">
         <v>9</v>
       </c>
       <c r="E310" s="27">
-        <v>121.5</v>
+        <v>517.5</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
@@ -7641,16 +7639,16 @@
         <v>313</v>
       </c>
       <c r="B311" s="24">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C311" s="25">
-        <v>57.5</v>
+        <v>26</v>
       </c>
       <c r="D311" s="26">
         <v>9</v>
       </c>
       <c r="E311" s="27">
-        <v>517.5</v>
+        <v>234</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
@@ -7658,16 +7656,16 @@
         <v>314</v>
       </c>
       <c r="B312" s="24">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C312" s="25">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="D312" s="26">
         <v>9</v>
       </c>
       <c r="E312" s="27">
-        <v>135</v>
+        <v>157.5</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
@@ -7675,16 +7673,16 @@
         <v>315</v>
       </c>
       <c r="B313" s="24">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C313" s="25">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D313" s="26">
         <v>9</v>
       </c>
       <c r="E313" s="27">
-        <v>234</v>
+        <v>117</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
@@ -7692,16 +7690,16 @@
         <v>316</v>
       </c>
       <c r="B314" s="24">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C314" s="25">
-        <v>17.5</v>
+        <v>5.5</v>
       </c>
       <c r="D314" s="26">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E314" s="27">
-        <v>157.5</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
@@ -7715,74 +7713,74 @@
         <v>13</v>
       </c>
       <c r="D315" s="26">
-        <v>9</v>
+        <v>3.4</v>
       </c>
       <c r="E315" s="27">
-        <v>117</v>
+        <v>44.2</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="23" t="s">
         <v>318</v>
       </c>
-      <c r="B316" s="24">
-        <v>1</v>
-      </c>
+      <c r="B316" s="24"/>
       <c r="C316" s="25">
-        <v>5.5</v>
+        <v>10.5</v>
       </c>
       <c r="D316" s="26">
-        <v>7</v>
+        <v>9.1</v>
       </c>
       <c r="E316" s="27">
-        <v>38.5</v>
+        <v>95.55</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="23" t="s">
         <v>319</v>
       </c>
-      <c r="B317" s="24">
-        <v>8</v>
-      </c>
+      <c r="B317" s="24"/>
       <c r="C317" s="25">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D317" s="26">
-        <v>3.4</v>
+        <v>6.46</v>
       </c>
       <c r="E317" s="27">
-        <v>44.2</v>
+        <v>77.52</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="23" t="s">
         <v>320</v>
       </c>
-      <c r="B318" s="24"/>
+      <c r="B318" s="24">
+        <v>5</v>
+      </c>
       <c r="C318" s="25">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="D318" s="26">
-        <v>9.1</v>
+        <v>6.46</v>
       </c>
       <c r="E318" s="27">
-        <v>95.55</v>
+        <v>64.599999999999994</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="23" t="s">
         <v>321</v>
       </c>
-      <c r="B319" s="24"/>
+      <c r="B319" s="24">
+        <v>3</v>
+      </c>
       <c r="C319" s="25">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="D319" s="26">
-        <v>6.46</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="E319" s="27">
-        <v>77.52</v>
+        <v>108.75</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
@@ -7790,16 +7788,16 @@
         <v>322</v>
       </c>
       <c r="B320" s="24">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C320" s="25">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="D320" s="26">
-        <v>6.46</v>
+        <v>5.7</v>
       </c>
       <c r="E320" s="27">
-        <v>64.599999999999994</v>
+        <v>353.4</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
@@ -7807,16 +7805,16 @@
         <v>323</v>
       </c>
       <c r="B321" s="24">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C321" s="25">
-        <v>12.5</v>
+        <v>78</v>
       </c>
       <c r="D321" s="26">
-        <v>8.6999999999999993</v>
+        <v>5.94</v>
       </c>
       <c r="E321" s="27">
-        <v>108.75</v>
+        <v>463.32</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
@@ -7824,16 +7822,16 @@
         <v>324</v>
       </c>
       <c r="B322" s="24">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C322" s="25">
-        <v>62</v>
+        <v>19.5</v>
       </c>
       <c r="D322" s="26">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="E322" s="27">
-        <v>353.4</v>
+        <v>124.8</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
@@ -7841,16 +7839,16 @@
         <v>325</v>
       </c>
       <c r="B323" s="24">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C323" s="25">
-        <v>78</v>
+        <v>12.5</v>
       </c>
       <c r="D323" s="26">
-        <v>5.94</v>
+        <v>7.36</v>
       </c>
       <c r="E323" s="27">
-        <v>463.32</v>
+        <v>92</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
@@ -7858,16 +7856,16 @@
         <v>326</v>
       </c>
       <c r="B324" s="24">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C324" s="25">
-        <v>19.5</v>
+        <v>61.85</v>
       </c>
       <c r="D324" s="26">
-        <v>6.4</v>
+        <v>4.75</v>
       </c>
       <c r="E324" s="27">
-        <v>124.8</v>
+        <v>293.79000000000002</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
@@ -7875,33 +7873,31 @@
         <v>327</v>
       </c>
       <c r="B325" s="24">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C325" s="25">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="D325" s="26">
-        <v>7.36</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="E325" s="27">
-        <v>92</v>
+        <v>142.6</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="23" t="s">
         <v>328</v>
       </c>
-      <c r="B326" s="24">
-        <v>26</v>
-      </c>
+      <c r="B326" s="24"/>
       <c r="C326" s="25">
-        <v>61.85</v>
+        <v>11</v>
       </c>
       <c r="D326" s="26">
-        <v>4.75</v>
+        <v>7.36</v>
       </c>
       <c r="E326" s="27">
-        <v>293.79000000000002</v>
+        <v>80.959999999999994</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
@@ -7909,31 +7905,33 @@
         <v>329</v>
       </c>
       <c r="B327" s="24">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C327" s="25">
-        <v>15.5</v>
+        <v>29</v>
       </c>
       <c r="D327" s="26">
-        <v>9.1999999999999993</v>
+        <v>10.5</v>
       </c>
       <c r="E327" s="27">
-        <v>142.6</v>
+        <v>304.5</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="23" t="s">
         <v>330</v>
       </c>
-      <c r="B328" s="24"/>
+      <c r="B328" s="24">
+        <v>15</v>
+      </c>
       <c r="C328" s="25">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D328" s="26">
-        <v>7.36</v>
+        <v>7.82</v>
       </c>
       <c r="E328" s="27">
-        <v>80.959999999999994</v>
+        <v>54.71</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
@@ -7941,16 +7939,16 @@
         <v>331</v>
       </c>
       <c r="B329" s="24">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C329" s="25">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="D329" s="26">
-        <v>10.5</v>
+        <v>6.64</v>
       </c>
       <c r="E329" s="27">
-        <v>304.5</v>
+        <v>378.55</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
@@ -7958,16 +7956,16 @@
         <v>332</v>
       </c>
       <c r="B330" s="24">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C330" s="25">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D330" s="26">
-        <v>7.82</v>
+        <v>7.3</v>
       </c>
       <c r="E330" s="27">
-        <v>54.71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
@@ -7975,16 +7973,16 @@
         <v>333</v>
       </c>
       <c r="B331" s="24">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C331" s="25">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="D331" s="26">
-        <v>6.64</v>
+        <v>10.5</v>
       </c>
       <c r="E331" s="27">
-        <v>378.55</v>
+        <v>168</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
@@ -7992,16 +7990,16 @@
         <v>334</v>
       </c>
       <c r="B332" s="24">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C332" s="25">
-        <v>10</v>
+        <v>125.5</v>
       </c>
       <c r="D332" s="26">
-        <v>7.3</v>
+        <v>7.76</v>
       </c>
       <c r="E332" s="27">
-        <v>73</v>
+        <v>973.54</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
@@ -8009,16 +8007,16 @@
         <v>335</v>
       </c>
       <c r="B333" s="24">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C333" s="25">
-        <v>16</v>
+        <v>58.5</v>
       </c>
       <c r="D333" s="26">
-        <v>10.5</v>
+        <v>7.13</v>
       </c>
       <c r="E333" s="27">
-        <v>168</v>
+        <v>417.11</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
@@ -8026,16 +8024,16 @@
         <v>336</v>
       </c>
       <c r="B334" s="24">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C334" s="25">
-        <v>125.5</v>
+        <v>36.5</v>
       </c>
       <c r="D334" s="26">
-        <v>7.76</v>
+        <v>6.65</v>
       </c>
       <c r="E334" s="27">
-        <v>973.54</v>
+        <v>242.73</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
@@ -8043,16 +8041,16 @@
         <v>337</v>
       </c>
       <c r="B335" s="24">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C335" s="25">
-        <v>58.5</v>
+        <v>30</v>
       </c>
       <c r="D335" s="26">
-        <v>7.13</v>
+        <v>5.94</v>
       </c>
       <c r="E335" s="27">
-        <v>417.11</v>
+        <v>178.2</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
@@ -8060,16 +8058,16 @@
         <v>338</v>
       </c>
       <c r="B336" s="24">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C336" s="25">
-        <v>36.5</v>
+        <v>19</v>
       </c>
       <c r="D336" s="26">
-        <v>6.65</v>
+        <v>7.2</v>
       </c>
       <c r="E336" s="27">
-        <v>242.73</v>
+        <v>136.80000000000001</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
@@ -8077,16 +8075,16 @@
         <v>339</v>
       </c>
       <c r="B337" s="24">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C337" s="25">
-        <v>30</v>
+        <v>30.5</v>
       </c>
       <c r="D337" s="26">
-        <v>5.94</v>
+        <v>6.18</v>
       </c>
       <c r="E337" s="27">
-        <v>178.2</v>
+        <v>188.49</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
@@ -8094,16 +8092,16 @@
         <v>340</v>
       </c>
       <c r="B338" s="24">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C338" s="25">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="D338" s="26">
-        <v>7.2</v>
+        <v>7.13</v>
       </c>
       <c r="E338" s="27">
-        <v>136.80000000000001</v>
+        <v>385.02</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
@@ -8111,16 +8109,16 @@
         <v>341</v>
       </c>
       <c r="B339" s="24">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C339" s="25">
-        <v>30.5</v>
+        <v>25.5</v>
       </c>
       <c r="D339" s="26">
-        <v>6.18</v>
+        <v>7</v>
       </c>
       <c r="E339" s="27">
-        <v>188.49</v>
+        <v>178.5</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
@@ -8128,16 +8126,16 @@
         <v>342</v>
       </c>
       <c r="B340" s="24">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C340" s="25">
-        <v>54</v>
+        <v>237</v>
       </c>
       <c r="D340" s="26">
-        <v>7.13</v>
+        <v>6.6</v>
       </c>
       <c r="E340" s="27">
-        <v>385.02</v>
+        <v>1564.2</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
@@ -8145,16 +8143,16 @@
         <v>343</v>
       </c>
       <c r="B341" s="24">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C341" s="25">
-        <v>25.5</v>
+        <v>14</v>
       </c>
       <c r="D341" s="26">
-        <v>7</v>
+        <v>7.52</v>
       </c>
       <c r="E341" s="27">
-        <v>178.5</v>
+        <v>105.28</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
@@ -8162,16 +8160,16 @@
         <v>344</v>
       </c>
       <c r="B342" s="24">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="C342" s="25">
-        <v>237</v>
+        <v>16</v>
       </c>
       <c r="D342" s="26">
-        <v>6.6</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="E342" s="27">
-        <v>1564.2</v>
+        <v>131.19999999999999</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
@@ -8179,16 +8177,16 @@
         <v>345</v>
       </c>
       <c r="B343" s="24">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C343" s="25">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D343" s="26">
-        <v>7.52</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="E343" s="27">
-        <v>105.28</v>
+        <v>73.8</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
@@ -8196,16 +8194,16 @@
         <v>346</v>
       </c>
       <c r="B344" s="24">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C344" s="25">
-        <v>16</v>
+        <v>26.5</v>
       </c>
       <c r="D344" s="26">
         <v>8.1999999999999993</v>
       </c>
       <c r="E344" s="27">
-        <v>131.19999999999999</v>
+        <v>217.3</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
@@ -8213,16 +8211,16 @@
         <v>347</v>
       </c>
       <c r="B345" s="24">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="C345" s="25">
-        <v>9</v>
+        <v>124.95</v>
       </c>
       <c r="D345" s="26">
-        <v>8.1999999999999993</v>
+        <v>4.5</v>
       </c>
       <c r="E345" s="27">
-        <v>73.8</v>
+        <v>562.28</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
@@ -8230,16 +8228,16 @@
         <v>348</v>
       </c>
       <c r="B346" s="24">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C346" s="25">
-        <v>26.5</v>
+        <v>42.5</v>
       </c>
       <c r="D346" s="26">
-        <v>8.1999999999999993</v>
+        <v>8.08</v>
       </c>
       <c r="E346" s="27">
-        <v>217.3</v>
+        <v>343.4</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
@@ -8247,16 +8245,16 @@
         <v>349</v>
       </c>
       <c r="B347" s="24">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="C347" s="25">
-        <v>124.95</v>
+        <v>22</v>
       </c>
       <c r="D347" s="26">
-        <v>4.5</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="E347" s="27">
-        <v>562.28</v>
+        <v>202.4</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
@@ -8264,16 +8262,16 @@
         <v>350</v>
       </c>
       <c r="B348" s="24">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C348" s="25">
-        <v>42.5</v>
+        <v>36.5</v>
       </c>
       <c r="D348" s="26">
-        <v>8.08</v>
+        <v>8.25</v>
       </c>
       <c r="E348" s="27">
-        <v>343.4</v>
+        <v>301.13</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
@@ -8281,16 +8279,16 @@
         <v>351</v>
       </c>
       <c r="B349" s="24">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C349" s="25">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="D349" s="26">
-        <v>9.1999999999999993</v>
+        <v>7</v>
       </c>
       <c r="E349" s="27">
-        <v>230</v>
+        <v>385</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
@@ -8298,16 +8296,16 @@
         <v>352</v>
       </c>
       <c r="B350" s="24">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C350" s="25">
-        <v>36.5</v>
+        <v>5.5</v>
       </c>
       <c r="D350" s="26">
-        <v>8.25</v>
+        <v>9.5</v>
       </c>
       <c r="E350" s="27">
-        <v>301.13</v>
+        <v>52.25</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
@@ -8315,16 +8313,16 @@
         <v>353</v>
       </c>
       <c r="B351" s="24">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C351" s="25">
-        <v>55</v>
+        <v>94.5</v>
       </c>
       <c r="D351" s="26">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="E351" s="27">
-        <v>385</v>
+        <v>340.2</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
@@ -8332,16 +8330,16 @@
         <v>354</v>
       </c>
       <c r="B352" s="24">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C352" s="25">
-        <v>5.5</v>
+        <v>66</v>
       </c>
       <c r="D352" s="26">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="E352" s="27">
-        <v>52.25</v>
+        <v>396</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
@@ -8349,16 +8347,16 @@
         <v>355</v>
       </c>
       <c r="B353" s="24">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C353" s="25">
-        <v>94.5</v>
+        <v>7.5</v>
       </c>
       <c r="D353" s="26">
-        <v>3.6</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="E353" s="27">
-        <v>340.2</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
@@ -8366,16 +8364,16 @@
         <v>356</v>
       </c>
       <c r="B354" s="24">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C354" s="25">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="D354" s="26">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="E354" s="27">
-        <v>396</v>
+        <v>184.5</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
@@ -8383,16 +8381,16 @@
         <v>357</v>
       </c>
       <c r="B355" s="24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C355" s="25">
-        <v>7.5</v>
+        <v>12.5</v>
       </c>
       <c r="D355" s="26">
-        <v>10.199999999999999</v>
+        <v>9.75</v>
       </c>
       <c r="E355" s="27">
-        <v>76.5</v>
+        <v>121.88</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
@@ -8400,16 +8398,16 @@
         <v>358</v>
       </c>
       <c r="B356" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C356" s="25">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D356" s="26">
-        <v>4.5</v>
+        <v>8.4700000000000006</v>
       </c>
       <c r="E356" s="27">
-        <v>184.5</v>
+        <v>220.3</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
@@ -8417,16 +8415,16 @@
         <v>359</v>
       </c>
       <c r="B357" s="24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C357" s="25">
-        <v>12.5</v>
+        <v>24</v>
       </c>
       <c r="D357" s="26">
-        <v>9.75</v>
+        <v>8</v>
       </c>
       <c r="E357" s="27">
-        <v>121.88</v>
+        <v>192</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
@@ -8434,16 +8432,16 @@
         <v>360</v>
       </c>
       <c r="B358" s="24">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C358" s="25">
-        <v>26</v>
+        <v>28.5</v>
       </c>
       <c r="D358" s="26">
-        <v>8.4700000000000006</v>
+        <v>5.3</v>
       </c>
       <c r="E358" s="27">
-        <v>220.3</v>
+        <v>151.05000000000001</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
@@ -8451,16 +8449,16 @@
         <v>361</v>
       </c>
       <c r="B359" s="24">
+        <v>4</v>
+      </c>
+      <c r="C359" s="25">
         <v>1</v>
       </c>
-      <c r="C359" s="25">
-        <v>24</v>
-      </c>
       <c r="D359" s="26">
-        <v>8</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="E359" s="27">
-        <v>192</v>
+        <v>8.5500000000000007</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
@@ -8468,16 +8466,16 @@
         <v>362</v>
       </c>
       <c r="B360" s="24">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C360" s="25">
-        <v>28.5</v>
+        <v>22</v>
       </c>
       <c r="D360" s="26">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="E360" s="27">
-        <v>151.05000000000001</v>
+        <v>125.4</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
@@ -8485,16 +8483,16 @@
         <v>363</v>
       </c>
       <c r="B361" s="24">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C361" s="25">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D361" s="26">
-        <v>8.5500000000000007</v>
+        <v>5.7</v>
       </c>
       <c r="E361" s="27">
-        <v>8.5500000000000007</v>
+        <v>193.8</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
@@ -8502,16 +8500,16 @@
         <v>364</v>
       </c>
       <c r="B362" s="24">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C362" s="25">
-        <v>22</v>
+        <v>55.5</v>
       </c>
       <c r="D362" s="26">
-        <v>5.7</v>
+        <v>3.6</v>
       </c>
       <c r="E362" s="27">
-        <v>125.4</v>
+        <v>199.8</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
@@ -8519,16 +8517,16 @@
         <v>365</v>
       </c>
       <c r="B363" s="24">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C363" s="25">
-        <v>34</v>
+        <v>27.5</v>
       </c>
       <c r="D363" s="26">
-        <v>5.7</v>
+        <v>9.85</v>
       </c>
       <c r="E363" s="27">
-        <v>193.8</v>
+        <v>270.82</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
@@ -8536,33 +8534,31 @@
         <v>366</v>
       </c>
       <c r="B364" s="24">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C364" s="25">
-        <v>55.5</v>
+        <v>12.5</v>
       </c>
       <c r="D364" s="26">
-        <v>3.6</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="E364" s="27">
-        <v>199.8</v>
+        <v>108.75</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="23" t="s">
         <v>367</v>
       </c>
-      <c r="B365" s="24">
-        <v>14</v>
-      </c>
+      <c r="B365" s="24"/>
       <c r="C365" s="25">
-        <v>27.5</v>
+        <v>28</v>
       </c>
       <c r="D365" s="26">
-        <v>9.85</v>
+        <v>5.7</v>
       </c>
       <c r="E365" s="27">
-        <v>270.82</v>
+        <v>159.6</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
@@ -8570,31 +8566,33 @@
         <v>368</v>
       </c>
       <c r="B366" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C366" s="25">
-        <v>12.5</v>
+        <v>1</v>
       </c>
       <c r="D366" s="26">
-        <v>8.6999999999999993</v>
+        <v>7</v>
       </c>
       <c r="E366" s="27">
-        <v>108.75</v>
+        <v>7</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="23" t="s">
         <v>369</v>
       </c>
-      <c r="B367" s="24"/>
+      <c r="B367" s="24">
+        <v>15</v>
+      </c>
       <c r="C367" s="25">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D367" s="26">
-        <v>5.7</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="E367" s="27">
-        <v>159.6</v>
+        <v>145.35</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
@@ -8602,16 +8600,16 @@
         <v>370</v>
       </c>
       <c r="B368" s="24">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C368" s="25">
-        <v>1</v>
+        <v>30.5</v>
       </c>
       <c r="D368" s="26">
-        <v>7</v>
+        <v>6.65</v>
       </c>
       <c r="E368" s="27">
-        <v>7</v>
+        <v>202.83</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
@@ -8619,16 +8617,16 @@
         <v>371</v>
       </c>
       <c r="B369" s="24">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C369" s="25">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D369" s="26">
-        <v>8.5500000000000007</v>
+        <v>6.18</v>
       </c>
       <c r="E369" s="27">
-        <v>145.35</v>
+        <v>123.6</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
@@ -8636,16 +8634,16 @@
         <v>372</v>
       </c>
       <c r="B370" s="24">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C370" s="25">
-        <v>30.5</v>
+        <v>20</v>
       </c>
       <c r="D370" s="26">
-        <v>6.65</v>
+        <v>6.4</v>
       </c>
       <c r="E370" s="27">
-        <v>202.83</v>
+        <v>128</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
@@ -8653,16 +8651,16 @@
         <v>373</v>
       </c>
       <c r="B371" s="24">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C371" s="25">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="D371" s="26">
-        <v>6.18</v>
+        <v>6.65</v>
       </c>
       <c r="E371" s="27">
-        <v>123.6</v>
+        <v>285.95</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
@@ -8670,33 +8668,31 @@
         <v>374</v>
       </c>
       <c r="B372" s="24">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C372" s="25">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D372" s="26">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="E372" s="27">
-        <v>128</v>
+        <v>203</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="B373" s="24">
-        <v>20</v>
-      </c>
+      <c r="B373" s="24"/>
       <c r="C373" s="25">
-        <v>43</v>
+        <v>2.5</v>
       </c>
       <c r="D373" s="26">
-        <v>6.65</v>
+        <v>7.8</v>
       </c>
       <c r="E373" s="27">
-        <v>285.95</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
@@ -8704,16 +8700,16 @@
         <v>376</v>
       </c>
       <c r="B374" s="24">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C374" s="25">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D374" s="26">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="E374" s="27">
-        <v>203</v>
+        <v>262.5</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
@@ -8722,13 +8718,13 @@
       </c>
       <c r="B375" s="24"/>
       <c r="C375" s="25">
-        <v>2.5</v>
+        <v>20</v>
       </c>
       <c r="D375" s="26">
-        <v>7.8</v>
+        <v>7.13</v>
       </c>
       <c r="E375" s="27">
-        <v>19.5</v>
+        <v>142.6</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
@@ -8736,31 +8732,33 @@
         <v>378</v>
       </c>
       <c r="B376" s="24">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C376" s="25">
-        <v>35</v>
+        <v>28.5</v>
       </c>
       <c r="D376" s="26">
-        <v>7.5</v>
+        <v>7.13</v>
       </c>
       <c r="E376" s="27">
-        <v>262.5</v>
+        <v>203.21</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="23" t="s">
         <v>379</v>
       </c>
-      <c r="B377" s="24"/>
+      <c r="B377" s="24">
+        <v>2</v>
+      </c>
       <c r="C377" s="25">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D377" s="26">
-        <v>7.13</v>
+        <v>10</v>
       </c>
       <c r="E377" s="27">
-        <v>142.6</v>
+        <v>150</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
@@ -8768,16 +8766,16 @@
         <v>380</v>
       </c>
       <c r="B378" s="24">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C378" s="25">
-        <v>28.5</v>
+        <v>76.5</v>
       </c>
       <c r="D378" s="26">
-        <v>7.13</v>
+        <v>5.7</v>
       </c>
       <c r="E378" s="27">
-        <v>203.21</v>
+        <v>436.05</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
@@ -8788,13 +8786,13 @@
         <v>2</v>
       </c>
       <c r="C379" s="25">
-        <v>15</v>
+        <v>2.5</v>
       </c>
       <c r="D379" s="26">
-        <v>10</v>
+        <v>7.6</v>
       </c>
       <c r="E379" s="27">
-        <v>150</v>
+        <v>19</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
@@ -8802,16 +8800,16 @@
         <v>382</v>
       </c>
       <c r="B380" s="24">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C380" s="25">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="D380" s="26">
-        <v>5.7</v>
+        <v>5.2</v>
       </c>
       <c r="E380" s="27">
-        <v>210.9</v>
+        <v>447.2</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
@@ -8819,33 +8817,31 @@
         <v>383</v>
       </c>
       <c r="B381" s="24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C381" s="25">
-        <v>2.5</v>
+        <v>22.5</v>
       </c>
       <c r="D381" s="26">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="E381" s="27">
-        <v>19</v>
+        <v>180</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="23" t="s">
         <v>384</v>
       </c>
-      <c r="B382" s="24">
-        <v>31</v>
-      </c>
+      <c r="B382" s="24"/>
       <c r="C382" s="25">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="D382" s="26">
-        <v>5.2</v>
+        <v>8</v>
       </c>
       <c r="E382" s="27">
-        <v>447.2</v>
+        <v>192</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
@@ -8853,16 +8849,16 @@
         <v>385</v>
       </c>
       <c r="B383" s="24">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C383" s="25">
-        <v>22.5</v>
+        <v>59.5</v>
       </c>
       <c r="D383" s="26">
-        <v>8</v>
+        <v>5.3</v>
       </c>
       <c r="E383" s="27">
-        <v>180</v>
+        <v>315.35000000000002</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
@@ -8871,13 +8867,13 @@
       </c>
       <c r="B384" s="24"/>
       <c r="C384" s="25">
-        <v>24</v>
+        <v>16.5</v>
       </c>
       <c r="D384" s="26">
-        <v>8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E384" s="27">
-        <v>192</v>
+        <v>80.849999999999994</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
@@ -8885,16 +8881,16 @@
         <v>387</v>
       </c>
       <c r="B385" s="24">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C385" s="25">
-        <v>59.5</v>
+        <v>97.5</v>
       </c>
       <c r="D385" s="26">
-        <v>5.3</v>
+        <v>6.17</v>
       </c>
       <c r="E385" s="27">
-        <v>315.35000000000002</v>
+        <v>601.11</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
@@ -8903,13 +8899,13 @@
       </c>
       <c r="B386" s="24"/>
       <c r="C386" s="25">
-        <v>16.5</v>
+        <v>27</v>
       </c>
       <c r="D386" s="26">
-        <v>4.9000000000000004</v>
+        <v>7.8</v>
       </c>
       <c r="E386" s="27">
-        <v>80.849999999999994</v>
+        <v>210.6</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
@@ -8917,16 +8913,16 @@
         <v>389</v>
       </c>
       <c r="B387" s="24">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="C387" s="25">
-        <v>97.5</v>
+        <v>11</v>
       </c>
       <c r="D387" s="26">
-        <v>6.17</v>
+        <v>6.46</v>
       </c>
       <c r="E387" s="27">
-        <v>601.11</v>
+        <v>71.06</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
@@ -8935,13 +8931,13 @@
       </c>
       <c r="B388" s="24"/>
       <c r="C388" s="25">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D388" s="26">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="E388" s="27">
-        <v>210.6</v>
+        <v>99</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
@@ -8949,16 +8945,16 @@
         <v>391</v>
       </c>
       <c r="B389" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C389" s="25">
-        <v>11</v>
+        <v>21.5</v>
       </c>
       <c r="D389" s="26">
-        <v>6.46</v>
+        <v>9</v>
       </c>
       <c r="E389" s="27">
-        <v>71.06</v>
+        <v>193.5</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
@@ -8967,13 +8963,13 @@
       </c>
       <c r="B390" s="24"/>
       <c r="C390" s="25">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="D390" s="26">
-        <v>9</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="E390" s="27">
-        <v>99</v>
+        <v>126.15</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
@@ -8981,31 +8977,33 @@
         <v>393</v>
       </c>
       <c r="B391" s="24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C391" s="25">
-        <v>21.5</v>
+        <v>41</v>
       </c>
       <c r="D391" s="26">
-        <v>9</v>
+        <v>8.35</v>
       </c>
       <c r="E391" s="27">
-        <v>193.5</v>
+        <v>342.18</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" s="23" t="s">
         <v>394</v>
       </c>
-      <c r="B392" s="24"/>
+      <c r="B392" s="24">
+        <v>6</v>
+      </c>
       <c r="C392" s="25">
-        <v>14.5</v>
+        <v>35</v>
       </c>
       <c r="D392" s="26">
-        <v>8.6999999999999993</v>
+        <v>6</v>
       </c>
       <c r="E392" s="27">
-        <v>126.15</v>
+        <v>210</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
@@ -9013,16 +9011,16 @@
         <v>395</v>
       </c>
       <c r="B393" s="24">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C393" s="25">
-        <v>41</v>
+        <v>49.5</v>
       </c>
       <c r="D393" s="26">
-        <v>8.35</v>
+        <v>5</v>
       </c>
       <c r="E393" s="27">
-        <v>342.18</v>
+        <v>247.5</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
@@ -9030,50 +9028,46 @@
         <v>396</v>
       </c>
       <c r="B394" s="24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C394" s="25">
-        <v>35</v>
+        <v>0.5</v>
       </c>
       <c r="D394" s="26">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="E394" s="27">
-        <v>210</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="23" t="s">
         <v>397</v>
       </c>
-      <c r="B395" s="24">
-        <v>14</v>
-      </c>
+      <c r="B395" s="24"/>
       <c r="C395" s="25">
-        <v>49.5</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="D395" s="26">
-        <v>5</v>
+        <v>5.19</v>
       </c>
       <c r="E395" s="27">
-        <v>247.5</v>
+        <v>50.83</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" s="23" t="s">
         <v>398</v>
       </c>
-      <c r="B396" s="24">
-        <v>4</v>
-      </c>
+      <c r="B396" s="24"/>
       <c r="C396" s="25">
-        <v>0.5</v>
+        <v>28.2</v>
       </c>
       <c r="D396" s="26">
-        <v>6.2</v>
+        <v>5.31</v>
       </c>
       <c r="E396" s="27">
-        <v>3.1</v>
+        <v>149.81</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
@@ -9082,107 +9076,111 @@
       </c>
       <c r="B397" s="24"/>
       <c r="C397" s="25">
-        <v>9.8000000000000007</v>
+        <v>29</v>
       </c>
       <c r="D397" s="26">
-        <v>5.19</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="E397" s="27">
-        <v>50.83</v>
+        <v>140.65</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" s="23" t="s">
         <v>400</v>
       </c>
-      <c r="B398" s="24"/>
+      <c r="B398" s="24">
+        <v>2</v>
+      </c>
       <c r="C398" s="25">
-        <v>28.2</v>
+        <v>6</v>
       </c>
       <c r="D398" s="26">
-        <v>5.31</v>
+        <v>5.35</v>
       </c>
       <c r="E398" s="27">
-        <v>149.81</v>
+        <v>32.1</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="23" t="s">
         <v>401</v>
       </c>
-      <c r="B399" s="24"/>
+      <c r="B399" s="24">
+        <v>1</v>
+      </c>
       <c r="C399" s="25">
-        <v>29</v>
+        <v>-5</v>
       </c>
       <c r="D399" s="26">
-        <v>4.8499999999999996</v>
+        <v>5.35</v>
       </c>
       <c r="E399" s="27">
-        <v>140.65</v>
+        <v>-26.75</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="23" t="s">
         <v>402</v>
       </c>
-      <c r="B400" s="24">
-        <v>2</v>
-      </c>
+      <c r="B400" s="24"/>
       <c r="C400" s="25">
-        <v>6</v>
+        <v>15.5</v>
       </c>
       <c r="D400" s="26">
-        <v>5.35</v>
+        <v>16</v>
       </c>
       <c r="E400" s="27">
-        <v>32.1</v>
+        <v>248</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" s="23" t="s">
         <v>403</v>
       </c>
-      <c r="B401" s="24">
-        <v>1</v>
-      </c>
+      <c r="B401" s="24"/>
       <c r="C401" s="25">
-        <v>-5</v>
+        <v>15.5</v>
       </c>
       <c r="D401" s="26">
-        <v>5.35</v>
+        <v>15.5</v>
       </c>
       <c r="E401" s="27">
-        <v>-26.75</v>
+        <v>240.25</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" s="23" t="s">
         <v>404</v>
       </c>
-      <c r="B402" s="24"/>
+      <c r="B402" s="24">
+        <v>1</v>
+      </c>
       <c r="C402" s="25">
-        <v>15.5</v>
+        <v>7</v>
       </c>
       <c r="D402" s="26">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E402" s="27">
-        <v>248</v>
+        <v>91</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" s="23" t="s">
         <v>405</v>
       </c>
-      <c r="B403" s="24"/>
+      <c r="B403" s="24">
+        <v>7</v>
+      </c>
       <c r="C403" s="25">
-        <v>15.5</v>
+        <v>19.5</v>
       </c>
       <c r="D403" s="26">
-        <v>15.5</v>
+        <v>11.75</v>
       </c>
       <c r="E403" s="27">
-        <v>240.25</v>
+        <v>229.13</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
@@ -9190,16 +9188,16 @@
         <v>406</v>
       </c>
       <c r="B404" s="24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C404" s="25">
-        <v>7</v>
+        <v>21.5</v>
       </c>
       <c r="D404" s="26">
-        <v>13</v>
+        <v>8.75</v>
       </c>
       <c r="E404" s="27">
-        <v>91</v>
+        <v>188.13</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
@@ -9207,16 +9205,16 @@
         <v>407</v>
       </c>
       <c r="B405" s="24">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C405" s="25">
-        <v>19.5</v>
+        <v>12.5</v>
       </c>
       <c r="D405" s="26">
-        <v>11.75</v>
+        <v>9.75</v>
       </c>
       <c r="E405" s="27">
-        <v>229.13</v>
+        <v>121.88</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
@@ -9224,16 +9222,16 @@
         <v>408</v>
       </c>
       <c r="B406" s="24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C406" s="25">
-        <v>21.5</v>
+        <v>8</v>
       </c>
       <c r="D406" s="26">
-        <v>8.75</v>
+        <v>15.5</v>
       </c>
       <c r="E406" s="27">
-        <v>188.13</v>
+        <v>124</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
@@ -9241,16 +9239,16 @@
         <v>409</v>
       </c>
       <c r="B407" s="24">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C407" s="25">
-        <v>12.5</v>
+        <v>8.5</v>
       </c>
       <c r="D407" s="26">
-        <v>9.75</v>
+        <v>16</v>
       </c>
       <c r="E407" s="27">
-        <v>121.88</v>
+        <v>136</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
@@ -9261,13 +9259,13 @@
         <v>2</v>
       </c>
       <c r="C408" s="25">
-        <v>8</v>
+        <v>5.8</v>
       </c>
       <c r="D408" s="26">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="E408" s="27">
-        <v>124</v>
+        <v>75.400000000000006</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
@@ -9278,13 +9276,13 @@
         <v>2</v>
       </c>
       <c r="C409" s="25">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="D409" s="26">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E409" s="27">
-        <v>136</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
@@ -9295,13 +9293,13 @@
         <v>2</v>
       </c>
       <c r="C410" s="25">
-        <v>5.8</v>
+        <v>7</v>
       </c>
       <c r="D410" s="26">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E410" s="27">
-        <v>75.400000000000006</v>
+        <v>63</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
@@ -9309,16 +9307,16 @@
         <v>413</v>
       </c>
       <c r="B411" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C411" s="25">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="D411" s="26">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E411" s="27">
-        <v>71.5</v>
+        <v>72</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
@@ -9326,16 +9324,16 @@
         <v>414</v>
       </c>
       <c r="B412" s="24">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C412" s="25">
-        <v>7</v>
+        <v>-6.5</v>
       </c>
       <c r="D412" s="26">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="E412" s="27">
-        <v>63</v>
+        <v>-68.25</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
@@ -9343,16 +9341,16 @@
         <v>415</v>
       </c>
       <c r="B413" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C413" s="25">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="D413" s="26">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E413" s="27">
-        <v>72</v>
+        <v>171</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
@@ -9360,16 +9358,16 @@
         <v>416</v>
       </c>
       <c r="B414" s="24">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C414" s="25">
-        <v>-3</v>
+        <v>10.5</v>
       </c>
       <c r="D414" s="26">
-        <v>10.5</v>
+        <v>16.3</v>
       </c>
       <c r="E414" s="27">
-        <v>-31.5</v>
+        <v>171.15</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
@@ -9377,16 +9375,16 @@
         <v>417</v>
       </c>
       <c r="B415" s="24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C415" s="25">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="D415" s="26">
-        <v>18</v>
+        <v>16.3</v>
       </c>
       <c r="E415" s="27">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
@@ -9394,16 +9392,16 @@
         <v>418</v>
       </c>
       <c r="B416" s="24">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C416" s="25">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="D416" s="26">
-        <v>16.3</v>
+        <v>9.75</v>
       </c>
       <c r="E416" s="27">
-        <v>171.15</v>
+        <v>146.25</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
@@ -9411,16 +9409,16 @@
         <v>419</v>
       </c>
       <c r="B417" s="24">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C417" s="25">
-        <v>10</v>
+        <v>-2</v>
       </c>
       <c r="D417" s="26">
-        <v>16.3</v>
+        <v>9.75</v>
       </c>
       <c r="E417" s="27">
-        <v>163</v>
+        <v>-19.5</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
@@ -9428,16 +9426,16 @@
         <v>420</v>
       </c>
       <c r="B418" s="24">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C418" s="25">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="D418" s="26">
-        <v>9.75</v>
+        <v>14.25</v>
       </c>
       <c r="E418" s="27">
-        <v>146.25</v>
+        <v>135.38</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
@@ -9445,16 +9443,16 @@
         <v>421</v>
       </c>
       <c r="B419" s="24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C419" s="25">
-        <v>3</v>
+        <v>8.5</v>
       </c>
       <c r="D419" s="26">
-        <v>9.75</v>
+        <v>29.7</v>
       </c>
       <c r="E419" s="27">
-        <v>29.25</v>
+        <v>252.45</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
@@ -9462,16 +9460,16 @@
         <v>422</v>
       </c>
       <c r="B420" s="24">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C420" s="25">
-        <v>9.5</v>
+        <v>1</v>
       </c>
       <c r="D420" s="26">
-        <v>14.25</v>
+        <v>28.5</v>
       </c>
       <c r="E420" s="27">
-        <v>135.38</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
@@ -9479,16 +9477,16 @@
         <v>423</v>
       </c>
       <c r="B421" s="24">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C421" s="25">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="D421" s="26">
-        <v>29.7</v>
+        <v>22.5</v>
       </c>
       <c r="E421" s="27">
-        <v>252.45</v>
+        <v>146.25</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
@@ -9499,13 +9497,13 @@
         <v>1</v>
       </c>
       <c r="C422" s="25">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D422" s="26">
-        <v>28.5</v>
+        <v>18</v>
       </c>
       <c r="E422" s="27">
-        <v>28.5</v>
+        <v>180</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
@@ -9513,16 +9511,16 @@
         <v>425</v>
       </c>
       <c r="B423" s="24">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C423" s="25">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="D423" s="26">
-        <v>22.5</v>
+        <v>14</v>
       </c>
       <c r="E423" s="27">
-        <v>146.25</v>
+        <v>56</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
@@ -9530,16 +9528,16 @@
         <v>426</v>
       </c>
       <c r="B424" s="24">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C424" s="25">
-        <v>10</v>
+        <v>19.5</v>
       </c>
       <c r="D424" s="26">
-        <v>18</v>
+        <v>10.5</v>
       </c>
       <c r="E424" s="27">
-        <v>180</v>
+        <v>204.75</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
@@ -9547,33 +9545,31 @@
         <v>427</v>
       </c>
       <c r="B425" s="24">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C425" s="25">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D425" s="26">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E425" s="27">
-        <v>56</v>
+        <v>110</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" s="23" t="s">
         <v>428</v>
       </c>
-      <c r="B426" s="24">
-        <v>13</v>
-      </c>
+      <c r="B426" s="24"/>
       <c r="C426" s="25">
-        <v>19.5</v>
+        <v>14.5</v>
       </c>
       <c r="D426" s="26">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="E426" s="27">
-        <v>204.75</v>
+        <v>159.5</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
@@ -9581,31 +9577,33 @@
         <v>429</v>
       </c>
       <c r="B427" s="24">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C427" s="25">
-        <v>11</v>
+        <v>35.5</v>
       </c>
       <c r="D427" s="26">
-        <v>10</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="E427" s="27">
-        <v>110</v>
+        <v>303.52999999999997</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" s="23" t="s">
         <v>430</v>
       </c>
-      <c r="B428" s="24"/>
+      <c r="B428" s="24">
+        <v>20</v>
+      </c>
       <c r="C428" s="25">
-        <v>14.5</v>
+        <v>10.16</v>
       </c>
       <c r="D428" s="26">
-        <v>11</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="E428" s="27">
-        <v>159.5</v>
+        <v>86.87</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
@@ -9613,16 +9611,16 @@
         <v>431</v>
       </c>
       <c r="B429" s="24">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C429" s="25">
-        <v>35.5</v>
+        <v>8.5</v>
       </c>
       <c r="D429" s="26">
-        <v>8.5500000000000007</v>
+        <v>15.5</v>
       </c>
       <c r="E429" s="27">
-        <v>303.52999999999997</v>
+        <v>131.75</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
@@ -9630,33 +9628,29 @@
         <v>432</v>
       </c>
       <c r="B430" s="24">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C430" s="25">
-        <v>10.16</v>
-      </c>
-      <c r="D430" s="26">
-        <v>8.5500000000000007</v>
-      </c>
-      <c r="E430" s="27">
-        <v>86.87</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D430" s="28"/>
+      <c r="E430" s="29"/>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" s="23" t="s">
         <v>433</v>
       </c>
       <c r="B431" s="24">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C431" s="25">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="D431" s="26">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="E431" s="27">
-        <v>131.75</v>
+        <v>121.5</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
@@ -9664,29 +9658,33 @@
         <v>434</v>
       </c>
       <c r="B432" s="24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C432" s="25">
-        <v>4</v>
-      </c>
-      <c r="D432" s="28"/>
-      <c r="E432" s="29"/>
+        <v>5</v>
+      </c>
+      <c r="D432" s="26">
+        <v>16</v>
+      </c>
+      <c r="E432" s="27">
+        <v>80</v>
+      </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" s="23" t="s">
         <v>435</v>
       </c>
       <c r="B433" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C433" s="25">
-        <v>9</v>
+        <v>15.5</v>
       </c>
       <c r="D433" s="26">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="E433" s="27">
-        <v>121.5</v>
+        <v>193.75</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.25">
@@ -9694,16 +9692,16 @@
         <v>436</v>
       </c>
       <c r="B434" s="24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C434" s="25">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D434" s="26">
-        <v>16</v>
+        <v>11.2</v>
       </c>
       <c r="E434" s="27">
-        <v>80</v>
+        <v>179.2</v>
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.25">
@@ -9711,16 +9709,16 @@
         <v>437</v>
       </c>
       <c r="B435" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C435" s="25">
-        <v>15.5</v>
+        <v>11</v>
       </c>
       <c r="D435" s="26">
-        <v>12.5</v>
+        <v>18</v>
       </c>
       <c r="E435" s="27">
-        <v>193.75</v>
+        <v>198</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
@@ -9728,16 +9726,16 @@
         <v>438</v>
       </c>
       <c r="B436" s="24">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C436" s="25">
-        <v>16</v>
+        <v>19.5</v>
       </c>
       <c r="D436" s="26">
-        <v>11.2</v>
+        <v>10</v>
       </c>
       <c r="E436" s="27">
-        <v>179.2</v>
+        <v>195</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
@@ -9745,16 +9743,16 @@
         <v>439</v>
       </c>
       <c r="B437" s="24">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C437" s="25">
-        <v>11</v>
+        <v>25.5</v>
       </c>
       <c r="D437" s="26">
-        <v>18</v>
+        <v>9.5</v>
       </c>
       <c r="E437" s="27">
-        <v>198</v>
+        <v>242.25</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
@@ -9762,16 +9760,16 @@
         <v>440</v>
       </c>
       <c r="B438" s="24">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C438" s="25">
-        <v>19.5</v>
+        <v>1.25</v>
       </c>
       <c r="D438" s="26">
-        <v>10</v>
+        <v>9.82</v>
       </c>
       <c r="E438" s="27">
-        <v>195</v>
+        <v>12.27</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.25">
@@ -9779,16 +9777,16 @@
         <v>441</v>
       </c>
       <c r="B439" s="24">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C439" s="25">
-        <v>25.5</v>
+        <v>8.5</v>
       </c>
       <c r="D439" s="26">
-        <v>9.5</v>
+        <v>25</v>
       </c>
       <c r="E439" s="27">
-        <v>242.25</v>
+        <v>212.5</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.25">
@@ -9796,16 +9794,16 @@
         <v>442</v>
       </c>
       <c r="B440" s="24">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C440" s="25">
-        <v>1.25</v>
+        <v>6</v>
       </c>
       <c r="D440" s="26">
-        <v>9.82</v>
+        <v>10</v>
       </c>
       <c r="E440" s="27">
-        <v>12.27</v>
+        <v>60</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
@@ -9813,16 +9811,16 @@
         <v>443</v>
       </c>
       <c r="B441" s="24">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C441" s="25">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="D441" s="26">
-        <v>25</v>
+        <v>10.27</v>
       </c>
       <c r="E441" s="27">
-        <v>212.5</v>
+        <v>112.92</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.25">
@@ -9830,33 +9828,31 @@
         <v>444</v>
       </c>
       <c r="B442" s="24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C442" s="25">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D442" s="26">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E442" s="27">
-        <v>60</v>
+        <v>104</v>
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" s="23" t="s">
         <v>445</v>
       </c>
-      <c r="B443" s="24">
-        <v>25</v>
-      </c>
+      <c r="B443" s="24"/>
       <c r="C443" s="25">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D443" s="26">
-        <v>10.27</v>
+        <v>16.5</v>
       </c>
       <c r="E443" s="27">
-        <v>112.92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.25">
@@ -9870,25 +9866,27 @@
         <v>8</v>
       </c>
       <c r="D444" s="26">
-        <v>13</v>
+        <v>11.4</v>
       </c>
       <c r="E444" s="27">
-        <v>104</v>
+        <v>91.2</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" s="23" t="s">
         <v>447</v>
       </c>
-      <c r="B445" s="24"/>
+      <c r="B445" s="24">
+        <v>4</v>
+      </c>
       <c r="C445" s="25">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D445" s="26">
-        <v>16.5</v>
+        <v>11.88</v>
       </c>
       <c r="E445" s="27">
-        <v>99</v>
+        <v>47.52</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.25">
@@ -9896,16 +9894,16 @@
         <v>448</v>
       </c>
       <c r="B446" s="24">
+        <v>9</v>
+      </c>
+      <c r="C446" s="25">
         <v>3</v>
       </c>
-      <c r="C446" s="25">
-        <v>8</v>
-      </c>
       <c r="D446" s="26">
-        <v>11.4</v>
+        <v>13</v>
       </c>
       <c r="E446" s="27">
-        <v>91.2</v>
+        <v>39</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.25">
@@ -9913,16 +9911,16 @@
         <v>449</v>
       </c>
       <c r="B447" s="24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C447" s="25">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="D447" s="26">
-        <v>11.88</v>
+        <v>30</v>
       </c>
       <c r="E447" s="27">
-        <v>47.52</v>
+        <v>75</v>
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.25">
@@ -9930,16 +9928,16 @@
         <v>450</v>
       </c>
       <c r="B448" s="24">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C448" s="25">
-        <v>3</v>
+        <v>19.5</v>
       </c>
       <c r="D448" s="26">
-        <v>13</v>
+        <v>9.26</v>
       </c>
       <c r="E448" s="27">
-        <v>39</v>
+        <v>180.57</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.25">
@@ -9950,13 +9948,13 @@
         <v>1</v>
       </c>
       <c r="C449" s="25">
-        <v>2.5</v>
+        <v>15</v>
       </c>
       <c r="D449" s="26">
-        <v>30</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="E449" s="27">
-        <v>75</v>
+        <v>153</v>
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.25">
@@ -9964,16 +9962,16 @@
         <v>452</v>
       </c>
       <c r="B450" s="24">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C450" s="25">
-        <v>19.5</v>
+        <v>12</v>
       </c>
       <c r="D450" s="26">
-        <v>9.26</v>
+        <v>9</v>
       </c>
       <c r="E450" s="27">
-        <v>180.57</v>
+        <v>108</v>
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.25">
@@ -9981,16 +9979,16 @@
         <v>453</v>
       </c>
       <c r="B451" s="24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C451" s="25">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D451" s="26">
-        <v>10.199999999999999</v>
+        <v>9.26</v>
       </c>
       <c r="E451" s="27">
-        <v>153</v>
+        <v>92.6</v>
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.25">
@@ -9998,16 +9996,16 @@
         <v>454</v>
       </c>
       <c r="B452" s="24">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C452" s="25">
-        <v>17</v>
+        <v>29.5</v>
       </c>
       <c r="D452" s="26">
-        <v>9</v>
+        <v>10.45</v>
       </c>
       <c r="E452" s="27">
-        <v>153</v>
+        <v>308.27999999999997</v>
       </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.25">
@@ -10015,16 +10013,16 @@
         <v>455</v>
       </c>
       <c r="B453" s="24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C453" s="25">
+        <v>12.5</v>
+      </c>
+      <c r="D453" s="26">
         <v>10</v>
       </c>
-      <c r="D453" s="26">
-        <v>9.26</v>
-      </c>
       <c r="E453" s="27">
-        <v>92.6</v>
+        <v>125</v>
       </c>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.25">
@@ -10032,16 +10030,16 @@
         <v>456</v>
       </c>
       <c r="B454" s="24">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C454" s="25">
-        <v>29.5</v>
+        <v>20</v>
       </c>
       <c r="D454" s="26">
-        <v>10.45</v>
+        <v>26</v>
       </c>
       <c r="E454" s="27">
-        <v>308.27999999999997</v>
+        <v>520</v>
       </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.25">
@@ -10049,16 +10047,16 @@
         <v>457</v>
       </c>
       <c r="B455" s="24">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C455" s="25">
-        <v>12.5</v>
+        <v>9</v>
       </c>
       <c r="D455" s="26">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E455" s="27">
-        <v>125</v>
+        <v>288</v>
       </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.25">
@@ -10066,16 +10064,16 @@
         <v>458</v>
       </c>
       <c r="B456" s="24">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C456" s="25">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D456" s="26">
-        <v>26</v>
+        <v>10.5</v>
       </c>
       <c r="E456" s="27">
-        <v>520</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.25">
@@ -10083,16 +10081,16 @@
         <v>459</v>
       </c>
       <c r="B457" s="24">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C457" s="25">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D457" s="26">
-        <v>32</v>
+        <v>11.15</v>
       </c>
       <c r="E457" s="27">
-        <v>288</v>
+        <v>267.69</v>
       </c>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.25">
@@ -10100,16 +10098,16 @@
         <v>460</v>
       </c>
       <c r="B458" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C458" s="25">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="D458" s="26">
-        <v>10.5</v>
+        <v>55</v>
       </c>
       <c r="E458" s="27">
-        <v>31.5</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.25">
@@ -10117,16 +10115,16 @@
         <v>461</v>
       </c>
       <c r="B459" s="24">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C459" s="25">
-        <v>24</v>
+        <v>0.5</v>
       </c>
       <c r="D459" s="26">
-        <v>11.15</v>
+        <v>55</v>
       </c>
       <c r="E459" s="27">
-        <v>267.69</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.25">
@@ -10134,16 +10132,16 @@
         <v>462</v>
       </c>
       <c r="B460" s="24">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C460" s="25">
-        <v>1.5</v>
+        <v>16</v>
       </c>
       <c r="D460" s="26">
-        <v>55</v>
+        <v>13.39</v>
       </c>
       <c r="E460" s="27">
-        <v>82.5</v>
+        <v>214.27</v>
       </c>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.25">
@@ -10151,33 +10149,31 @@
         <v>463</v>
       </c>
       <c r="B461" s="24">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C461" s="25">
-        <v>0.5</v>
+        <v>25</v>
       </c>
       <c r="D461" s="26">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="E461" s="27">
-        <v>27.5</v>
+        <v>225</v>
       </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462" s="23" t="s">
         <v>464</v>
       </c>
-      <c r="B462" s="24">
-        <v>10</v>
-      </c>
+      <c r="B462" s="24"/>
       <c r="C462" s="25">
-        <v>16</v>
+        <v>10.5</v>
       </c>
       <c r="D462" s="26">
-        <v>13.39</v>
+        <v>16.63</v>
       </c>
       <c r="E462" s="27">
-        <v>214.27</v>
+        <v>174.62</v>
       </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.25">
@@ -10185,16 +10181,16 @@
         <v>465</v>
       </c>
       <c r="B463" s="24">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C463" s="25">
-        <v>25</v>
+        <v>19.5</v>
       </c>
       <c r="D463" s="26">
-        <v>9</v>
+        <v>11.25</v>
       </c>
       <c r="E463" s="27">
-        <v>225</v>
+        <v>219.38</v>
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.25">
@@ -10203,13 +10199,13 @@
       </c>
       <c r="B464" s="24"/>
       <c r="C464" s="25">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="D464" s="26">
-        <v>16.63</v>
+        <v>17</v>
       </c>
       <c r="E464" s="27">
-        <v>174.62</v>
+        <v>161.5</v>
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.25">
@@ -10217,16 +10213,16 @@
         <v>467</v>
       </c>
       <c r="B465" s="24">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C465" s="25">
-        <v>19.5</v>
+        <v>15.5</v>
       </c>
       <c r="D465" s="26">
-        <v>11.25</v>
+        <v>18.5</v>
       </c>
       <c r="E465" s="27">
-        <v>219.38</v>
+        <v>286.75</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.25">
@@ -10235,13 +10231,13 @@
       </c>
       <c r="B466" s="24"/>
       <c r="C466" s="25">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="D466" s="26">
-        <v>17</v>
+        <v>8.9</v>
       </c>
       <c r="E466" s="27">
-        <v>161.5</v>
+        <v>97.9</v>
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.25">
@@ -10249,16 +10245,16 @@
         <v>469</v>
       </c>
       <c r="B467" s="24">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C467" s="25">
-        <v>15.5</v>
+        <v>2.5</v>
       </c>
       <c r="D467" s="26">
-        <v>18.5</v>
+        <v>24.25</v>
       </c>
       <c r="E467" s="27">
-        <v>286.75</v>
+        <v>60.63</v>
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.25">
@@ -10267,13 +10263,13 @@
       </c>
       <c r="B468" s="24"/>
       <c r="C468" s="25">
-        <v>11</v>
+        <v>1.5</v>
       </c>
       <c r="D468" s="26">
-        <v>8.9</v>
+        <v>12.5</v>
       </c>
       <c r="E468" s="27">
-        <v>97.9</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.25">
@@ -10284,156 +10280,158 @@
         <v>1</v>
       </c>
       <c r="C469" s="25">
-        <v>2.5</v>
+        <v>16.25</v>
       </c>
       <c r="D469" s="26">
-        <v>24.25</v>
+        <v>12.28</v>
       </c>
       <c r="E469" s="27">
-        <v>60.63</v>
+        <v>199.5</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470" s="23" t="s">
         <v>472</v>
       </c>
-      <c r="B470" s="24"/>
+      <c r="B470" s="24">
+        <v>7</v>
+      </c>
       <c r="C470" s="25">
-        <v>1.5</v>
+        <v>12.5</v>
       </c>
       <c r="D470" s="26">
-        <v>12.5</v>
+        <v>10.07</v>
       </c>
       <c r="E470" s="27">
-        <v>18.75</v>
+        <v>125.89</v>
       </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471" s="23" t="s">
         <v>473</v>
       </c>
-      <c r="B471" s="24">
-        <v>1</v>
-      </c>
+      <c r="B471" s="24"/>
       <c r="C471" s="25">
-        <v>16.25</v>
+        <v>13</v>
       </c>
       <c r="D471" s="26">
-        <v>12.28</v>
+        <v>11.4</v>
       </c>
       <c r="E471" s="27">
-        <v>199.5</v>
+        <v>148.19999999999999</v>
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472" s="23" t="s">
         <v>474</v>
       </c>
-      <c r="B472" s="24">
+      <c r="B472" s="24"/>
+      <c r="C472" s="25">
         <v>7</v>
       </c>
-      <c r="C472" s="25">
-        <v>12.5</v>
-      </c>
       <c r="D472" s="26">
-        <v>10.07</v>
+        <v>24.25</v>
       </c>
       <c r="E472" s="27">
-        <v>125.89</v>
+        <v>169.75</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473" s="23" t="s">
         <v>475</v>
       </c>
-      <c r="B473" s="24"/>
+      <c r="B473" s="24">
+        <v>2</v>
+      </c>
       <c r="C473" s="25">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="D473" s="26">
-        <v>11.4</v>
+        <v>29</v>
       </c>
       <c r="E473" s="27">
-        <v>148.19999999999999</v>
+        <v>188.5</v>
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474" s="23" t="s">
         <v>476</v>
       </c>
-      <c r="B474" s="24"/>
+      <c r="B474" s="24">
+        <v>5</v>
+      </c>
       <c r="C474" s="25">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D474" s="26">
-        <v>24.25</v>
+        <v>12.8</v>
       </c>
       <c r="E474" s="27">
-        <v>169.75</v>
+        <v>230.4</v>
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475" s="23" t="s">
         <v>477</v>
       </c>
-      <c r="B475" s="24">
-        <v>2</v>
-      </c>
+      <c r="B475" s="24"/>
       <c r="C475" s="25">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="D475" s="26">
-        <v>29</v>
+        <v>15.5</v>
       </c>
       <c r="E475" s="27">
-        <v>188.5</v>
+        <v>186</v>
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476" s="23" t="s">
         <v>478</v>
       </c>
-      <c r="B476" s="24">
-        <v>5</v>
-      </c>
+      <c r="B476" s="24"/>
       <c r="C476" s="25">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D476" s="26">
-        <v>12.8</v>
+        <v>55</v>
       </c>
       <c r="E476" s="27">
-        <v>230.4</v>
+        <v>165</v>
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477" s="23" t="s">
         <v>479</v>
       </c>
-      <c r="B477" s="24"/>
+      <c r="B477" s="24">
+        <v>3</v>
+      </c>
       <c r="C477" s="25">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D477" s="26">
-        <v>15.5</v>
+        <v>2.6</v>
       </c>
       <c r="E477" s="27">
-        <v>186</v>
+        <v>54.6</v>
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478" s="23" t="s">
         <v>480</v>
       </c>
-      <c r="B478" s="24"/>
+      <c r="B478" s="24">
+        <v>6</v>
+      </c>
       <c r="C478" s="25">
-        <v>3</v>
+        <v>25.3</v>
       </c>
       <c r="D478" s="26">
-        <v>55</v>
+        <v>3.25</v>
       </c>
       <c r="E478" s="27">
-        <v>165</v>
+        <v>82.23</v>
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.25">
@@ -10441,16 +10439,16 @@
         <v>481</v>
       </c>
       <c r="B479" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C479" s="25">
-        <v>21</v>
+        <v>29.5</v>
       </c>
       <c r="D479" s="26">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="E479" s="27">
-        <v>54.6</v>
+        <v>112.1</v>
       </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.25">
@@ -10458,16 +10456,16 @@
         <v>482</v>
       </c>
       <c r="B480" s="24">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C480" s="25">
-        <v>25.3</v>
+        <v>15.5</v>
       </c>
       <c r="D480" s="26">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="E480" s="27">
-        <v>82.23</v>
+        <v>60.45</v>
       </c>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.25">
@@ -10475,33 +10473,31 @@
         <v>483</v>
       </c>
       <c r="B481" s="24">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C481" s="25">
-        <v>29.5</v>
+        <v>26.5</v>
       </c>
       <c r="D481" s="26">
         <v>3.8</v>
       </c>
       <c r="E481" s="27">
-        <v>112.1</v>
+        <v>100.7</v>
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482" s="23" t="s">
         <v>484</v>
       </c>
-      <c r="B482" s="24">
-        <v>3</v>
-      </c>
+      <c r="B482" s="24"/>
       <c r="C482" s="25">
-        <v>15.5</v>
+        <v>22</v>
       </c>
       <c r="D482" s="26">
-        <v>3.9</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E482" s="27">
-        <v>60.45</v>
+        <v>101.2</v>
       </c>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.25">
@@ -10509,31 +10505,33 @@
         <v>485</v>
       </c>
       <c r="B483" s="24">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C483" s="25">
-        <v>26.5</v>
+        <v>0.5</v>
       </c>
       <c r="D483" s="26">
-        <v>3.8</v>
+        <v>5.24</v>
       </c>
       <c r="E483" s="27">
-        <v>100.7</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484" s="23" t="s">
         <v>486</v>
       </c>
-      <c r="B484" s="24"/>
+      <c r="B484" s="24">
+        <v>4</v>
+      </c>
       <c r="C484" s="25">
-        <v>22</v>
+        <v>14.5</v>
       </c>
       <c r="D484" s="26">
-        <v>4.5999999999999996</v>
+        <v>6.75</v>
       </c>
       <c r="E484" s="27">
-        <v>101.2</v>
+        <v>97.88</v>
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.25">
@@ -10541,16 +10539,16 @@
         <v>487</v>
       </c>
       <c r="B485" s="24">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C485" s="25">
-        <v>0.5</v>
+        <v>19</v>
       </c>
       <c r="D485" s="26">
-        <v>5.24</v>
+        <v>4.5</v>
       </c>
       <c r="E485" s="27">
-        <v>2.62</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.25">
@@ -10561,13 +10559,13 @@
         <v>4</v>
       </c>
       <c r="C486" s="25">
-        <v>14.5</v>
+        <v>41</v>
       </c>
       <c r="D486" s="26">
-        <v>6.75</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="E486" s="27">
-        <v>97.88</v>
+        <v>170.15</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.25">
@@ -10575,16 +10573,16 @@
         <v>489</v>
       </c>
       <c r="B487" s="24">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C487" s="25">
-        <v>19</v>
+        <v>145.5</v>
       </c>
       <c r="D487" s="26">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="E487" s="27">
-        <v>85.5</v>
+        <v>203.7</v>
       </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.25">
@@ -10592,16 +10590,16 @@
         <v>490</v>
       </c>
       <c r="B488" s="24">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C488" s="25">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="D488" s="26">
-        <v>4.1500000000000004</v>
+        <v>1.4</v>
       </c>
       <c r="E488" s="27">
-        <v>170.15</v>
+        <v>176.4</v>
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.25">
@@ -10609,16 +10607,16 @@
         <v>491</v>
       </c>
       <c r="B489" s="24">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C489" s="25">
-        <v>145.5</v>
+        <v>119</v>
       </c>
       <c r="D489" s="26">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="E489" s="27">
-        <v>203.7</v>
+        <v>214.2</v>
       </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.25">
@@ -10626,16 +10624,16 @@
         <v>492</v>
       </c>
       <c r="B490" s="24">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C490" s="25">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="D490" s="26">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="E490" s="27">
-        <v>176.4</v>
+        <v>117</v>
       </c>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.25">
@@ -10643,16 +10641,16 @@
         <v>493</v>
       </c>
       <c r="B491" s="24">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C491" s="25">
-        <v>119</v>
+        <v>59</v>
       </c>
       <c r="D491" s="26">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="E491" s="27">
-        <v>214.2</v>
+        <v>118</v>
       </c>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.25">
@@ -10660,16 +10658,16 @@
         <v>494</v>
       </c>
       <c r="B492" s="24">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C492" s="25">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D492" s="26">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="E492" s="27">
-        <v>117</v>
+        <v>136.5</v>
       </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.25">
@@ -10677,16 +10675,16 @@
         <v>495</v>
       </c>
       <c r="B493" s="24">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C493" s="25">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="D493" s="26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E493" s="27">
-        <v>118</v>
+        <v>87</v>
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.25">
@@ -10694,80 +10692,80 @@
         <v>496</v>
       </c>
       <c r="B494" s="24">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C494" s="25">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="D494" s="26">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="E494" s="27">
-        <v>136.5</v>
+        <v>174.8</v>
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495" s="23" t="s">
         <v>497</v>
       </c>
-      <c r="B495" s="24">
-        <v>21</v>
-      </c>
+      <c r="B495" s="24"/>
       <c r="C495" s="25">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D495" s="26">
-        <v>3</v>
+        <v>7.3</v>
       </c>
       <c r="E495" s="27">
-        <v>87</v>
+        <v>65.7</v>
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496" s="23" t="s">
         <v>498</v>
       </c>
-      <c r="B496" s="24">
-        <v>31</v>
-      </c>
+      <c r="B496" s="24"/>
       <c r="C496" s="25">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="D496" s="26">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="E496" s="27">
-        <v>174.8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497" s="23" t="s">
         <v>499</v>
       </c>
-      <c r="B497" s="24"/>
+      <c r="B497" s="24">
+        <v>5</v>
+      </c>
       <c r="C497" s="25">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D497" s="26">
-        <v>7.3</v>
+        <v>3.5</v>
       </c>
       <c r="E497" s="27">
-        <v>65.7</v>
+        <v>63</v>
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498" s="23" t="s">
         <v>500</v>
       </c>
-      <c r="B498" s="24"/>
+      <c r="B498" s="24">
+        <v>9</v>
+      </c>
       <c r="C498" s="25">
-        <v>10</v>
+        <v>36.5</v>
       </c>
       <c r="D498" s="26">
         <v>3.5</v>
       </c>
       <c r="E498" s="27">
-        <v>35</v>
+        <v>127.75</v>
       </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.25">
@@ -10775,16 +10773,16 @@
         <v>501</v>
       </c>
       <c r="B499" s="24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C499" s="25">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D499" s="26">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E499" s="27">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.25">
@@ -10792,16 +10790,16 @@
         <v>502</v>
       </c>
       <c r="B500" s="24">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C500" s="25">
-        <v>36.5</v>
+        <v>25</v>
       </c>
       <c r="D500" s="26">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="E500" s="27">
-        <v>127.75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.25">
@@ -10809,16 +10807,16 @@
         <v>503</v>
       </c>
       <c r="B501" s="24">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C501" s="25">
-        <v>14</v>
+        <v>38.5</v>
       </c>
       <c r="D501" s="26">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="E501" s="27">
-        <v>56</v>
+        <v>69.3</v>
       </c>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.25">
@@ -10826,16 +10824,16 @@
         <v>504</v>
       </c>
       <c r="B502" s="24">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C502" s="25">
-        <v>25</v>
+        <v>40.5</v>
       </c>
       <c r="D502" s="26">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="E502" s="27">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.25">
@@ -10843,16 +10841,16 @@
         <v>505</v>
       </c>
       <c r="B503" s="24">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C503" s="25">
-        <v>38.5</v>
+        <v>40.5</v>
       </c>
       <c r="D503" s="26">
-        <v>1.8</v>
+        <v>4.28</v>
       </c>
       <c r="E503" s="27">
-        <v>69.3</v>
+        <v>173.34</v>
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.25">
@@ -10860,16 +10858,16 @@
         <v>506</v>
       </c>
       <c r="B504" s="24">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C504" s="25">
-        <v>40.5</v>
+        <v>19</v>
       </c>
       <c r="D504" s="26">
-        <v>2</v>
+        <v>4.28</v>
       </c>
       <c r="E504" s="27">
-        <v>81</v>
+        <v>81.319999999999993</v>
       </c>
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.25">
@@ -10877,16 +10875,16 @@
         <v>507</v>
       </c>
       <c r="B505" s="24">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C505" s="25">
-        <v>40.5</v>
+        <v>13</v>
       </c>
       <c r="D505" s="26">
-        <v>4.28</v>
+        <v>3.56</v>
       </c>
       <c r="E505" s="27">
-        <v>173.34</v>
+        <v>46.28</v>
       </c>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.25">
@@ -10894,16 +10892,16 @@
         <v>508</v>
       </c>
       <c r="B506" s="24">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C506" s="25">
-        <v>19</v>
+        <v>11.4</v>
       </c>
       <c r="D506" s="26">
-        <v>4.28</v>
+        <v>4.5</v>
       </c>
       <c r="E506" s="27">
-        <v>81.319999999999993</v>
+        <v>51.3</v>
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.25">
@@ -10911,16 +10909,16 @@
         <v>509</v>
       </c>
       <c r="B507" s="24">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C507" s="25">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D507" s="26">
-        <v>3.56</v>
+        <v>6.5</v>
       </c>
       <c r="E507" s="27">
-        <v>46.28</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.25">
@@ -10928,16 +10926,16 @@
         <v>510</v>
       </c>
       <c r="B508" s="24">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C508" s="25">
-        <v>11.4</v>
+        <v>26</v>
       </c>
       <c r="D508" s="26">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="E508" s="27">
-        <v>51.3</v>
+        <v>123.5</v>
       </c>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.25">
@@ -10948,13 +10946,13 @@
         <v>9</v>
       </c>
       <c r="C509" s="25">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="D509" s="26">
-        <v>6.5</v>
+        <v>2.65</v>
       </c>
       <c r="E509" s="27">
-        <v>71.5</v>
+        <v>169.6</v>
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.25">
@@ -10962,16 +10960,16 @@
         <v>512</v>
       </c>
       <c r="B510" s="24">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C510" s="25">
-        <v>26.5</v>
+        <v>13.5</v>
       </c>
       <c r="D510" s="26">
-        <v>4.75</v>
+        <v>4.28</v>
       </c>
       <c r="E510" s="27">
-        <v>125.88</v>
+        <v>57.78</v>
       </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.25">
@@ -10979,16 +10977,16 @@
         <v>513</v>
       </c>
       <c r="B511" s="24">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C511" s="25">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="D511" s="26">
-        <v>2.65</v>
+        <v>3.45</v>
       </c>
       <c r="E511" s="27">
-        <v>169.6</v>
+        <v>58.65</v>
       </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.25">
@@ -10996,16 +10994,16 @@
         <v>514</v>
       </c>
       <c r="B512" s="24">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C512" s="25">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="D512" s="26">
-        <v>4.28</v>
+        <v>3.1</v>
       </c>
       <c r="E512" s="27">
-        <v>57.78</v>
+        <v>40.299999999999997</v>
       </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.25">
@@ -11013,16 +11011,16 @@
         <v>515</v>
       </c>
       <c r="B513" s="24">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C513" s="25">
-        <v>17.5</v>
+        <v>30.5</v>
       </c>
       <c r="D513" s="26">
-        <v>3.45</v>
+        <v>9.5</v>
       </c>
       <c r="E513" s="27">
-        <v>60.38</v>
+        <v>289.75</v>
       </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.25">
@@ -11030,16 +11028,16 @@
         <v>516</v>
       </c>
       <c r="B514" s="24">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C514" s="25">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D514" s="26">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="E514" s="27">
-        <v>40.299999999999997</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.25">
@@ -11047,16 +11045,16 @@
         <v>517</v>
       </c>
       <c r="B515" s="24">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="C515" s="25">
-        <v>30.5</v>
+        <v>28</v>
       </c>
       <c r="D515" s="26">
-        <v>9.5</v>
+        <v>2.38</v>
       </c>
       <c r="E515" s="27">
-        <v>289.75</v>
+        <v>66.64</v>
       </c>
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.25">
@@ -11064,16 +11062,16 @@
         <v>518</v>
       </c>
       <c r="B516" s="24">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="C516" s="25">
-        <v>9</v>
+        <v>124.5</v>
       </c>
       <c r="D516" s="26">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="E516" s="27">
-        <v>25.2</v>
+        <v>485.55</v>
       </c>
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.25">
@@ -11081,16 +11079,16 @@
         <v>519</v>
       </c>
       <c r="B517" s="24">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C517" s="25">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D517" s="26">
-        <v>2.38</v>
+        <v>1.8</v>
       </c>
       <c r="E517" s="27">
-        <v>66.64</v>
+        <v>64.8</v>
       </c>
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.25">
@@ -11098,16 +11096,16 @@
         <v>520</v>
       </c>
       <c r="B518" s="24">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="C518" s="25">
-        <v>124.5</v>
+        <v>14</v>
       </c>
       <c r="D518" s="26">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="E518" s="27">
-        <v>485.55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.25">
@@ -11115,16 +11113,16 @@
         <v>521</v>
       </c>
       <c r="B519" s="24">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C519" s="25">
-        <v>36</v>
+        <v>22.5</v>
       </c>
       <c r="D519" s="26">
-        <v>1.8</v>
+        <v>2.66</v>
       </c>
       <c r="E519" s="27">
-        <v>64.8</v>
+        <v>59.85</v>
       </c>
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.25">
@@ -11132,16 +11130,16 @@
         <v>522</v>
       </c>
       <c r="B520" s="24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C520" s="25">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D520" s="26">
-        <v>4.5</v>
+        <v>2.85</v>
       </c>
       <c r="E520" s="27">
-        <v>63</v>
+        <v>62.7</v>
       </c>
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.25">
@@ -11149,16 +11147,16 @@
         <v>523</v>
       </c>
       <c r="B521" s="24">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C521" s="25">
-        <v>22.5</v>
+        <v>12.5</v>
       </c>
       <c r="D521" s="26">
-        <v>2.66</v>
+        <v>3.6</v>
       </c>
       <c r="E521" s="27">
-        <v>59.85</v>
+        <v>45</v>
       </c>
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.25">
@@ -11169,13 +11167,13 @@
         <v>5</v>
       </c>
       <c r="C522" s="25">
-        <v>22</v>
+        <v>44.97</v>
       </c>
       <c r="D522" s="26">
-        <v>2.85</v>
+        <v>4.5</v>
       </c>
       <c r="E522" s="27">
-        <v>62.7</v>
+        <v>202.37</v>
       </c>
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.25">
@@ -11183,16 +11181,16 @@
         <v>525</v>
       </c>
       <c r="B523" s="24">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C523" s="25">
-        <v>12.5</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="D523" s="26">
-        <v>3.6</v>
+        <v>3.14</v>
       </c>
       <c r="E523" s="27">
-        <v>45</v>
+        <v>120.26</v>
       </c>
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.25">
@@ -11200,16 +11198,16 @@
         <v>526</v>
       </c>
       <c r="B524" s="24">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C524" s="25">
-        <v>44.97</v>
+        <v>93.75</v>
       </c>
       <c r="D524" s="26">
-        <v>4.5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E524" s="27">
-        <v>202.37</v>
+        <v>215.63</v>
       </c>
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.25">
@@ -11217,16 +11215,16 @@
         <v>527</v>
       </c>
       <c r="B525" s="24">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="C525" s="25">
-        <v>38.299999999999997</v>
+        <v>29</v>
       </c>
       <c r="D525" s="26">
-        <v>3.14</v>
+        <v>2.5</v>
       </c>
       <c r="E525" s="27">
-        <v>120.26</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.25">
@@ -11234,16 +11232,16 @@
         <v>528</v>
       </c>
       <c r="B526" s="24">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C526" s="25">
-        <v>93.75</v>
+        <v>44.5</v>
       </c>
       <c r="D526" s="26">
-        <v>2.2999999999999998</v>
+        <v>2.5</v>
       </c>
       <c r="E526" s="27">
-        <v>215.63</v>
+        <v>111.25</v>
       </c>
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.25">
@@ -11251,16 +11249,16 @@
         <v>529</v>
       </c>
       <c r="B527" s="24">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C527" s="25">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="D527" s="26">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="E527" s="27">
-        <v>72.5</v>
+        <v>238</v>
       </c>
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.25">
@@ -11268,16 +11266,16 @@
         <v>530</v>
       </c>
       <c r="B528" s="24">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C528" s="25">
-        <v>44.5</v>
+        <v>39.5</v>
       </c>
       <c r="D528" s="26">
-        <v>2.5</v>
+        <v>5.7</v>
       </c>
       <c r="E528" s="27">
-        <v>111.25</v>
+        <v>225.15</v>
       </c>
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.25">
@@ -11285,16 +11283,16 @@
         <v>531</v>
       </c>
       <c r="B529" s="24">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="C529" s="25">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="D529" s="26">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="E529" s="27">
-        <v>238</v>
+        <v>72</v>
       </c>
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.25">
@@ -11302,16 +11300,16 @@
         <v>532</v>
       </c>
       <c r="B530" s="24">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C530" s="25">
-        <v>39.5</v>
+        <v>27</v>
       </c>
       <c r="D530" s="26">
-        <v>5.7</v>
+        <v>2.14</v>
       </c>
       <c r="E530" s="27">
-        <v>225.15</v>
+        <v>57.78</v>
       </c>
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.25">
@@ -11319,16 +11317,16 @@
         <v>533</v>
       </c>
       <c r="B531" s="24">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C531" s="25">
-        <v>20</v>
+        <v>9.5</v>
       </c>
       <c r="D531" s="26">
-        <v>3.6</v>
+        <v>2.66</v>
       </c>
       <c r="E531" s="27">
-        <v>72</v>
+        <v>25.27</v>
       </c>
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.25">
@@ -11336,33 +11334,31 @@
         <v>534</v>
       </c>
       <c r="B532" s="24">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C532" s="25">
-        <v>27</v>
+        <v>50.5</v>
       </c>
       <c r="D532" s="26">
-        <v>2.14</v>
+        <v>2.66</v>
       </c>
       <c r="E532" s="27">
-        <v>57.78</v>
+        <v>134.33000000000001</v>
       </c>
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A533" s="23" t="s">
         <v>535</v>
       </c>
-      <c r="B533" s="24">
-        <v>15</v>
-      </c>
+      <c r="B533" s="24"/>
       <c r="C533" s="25">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="D533" s="26">
-        <v>2.66</v>
+        <v>6.18</v>
       </c>
       <c r="E533" s="27">
-        <v>25.27</v>
+        <v>80.34</v>
       </c>
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.25">
@@ -11370,31 +11366,33 @@
         <v>536</v>
       </c>
       <c r="B534" s="24">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C534" s="25">
-        <v>50.5</v>
+        <v>28.5</v>
       </c>
       <c r="D534" s="26">
-        <v>2.66</v>
+        <v>2.35</v>
       </c>
       <c r="E534" s="27">
-        <v>134.33000000000001</v>
+        <v>66.98</v>
       </c>
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A535" s="23" t="s">
         <v>537</v>
       </c>
-      <c r="B535" s="24"/>
+      <c r="B535" s="24">
+        <v>13</v>
+      </c>
       <c r="C535" s="25">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="D535" s="26">
-        <v>6.18</v>
+        <v>2.66</v>
       </c>
       <c r="E535" s="27">
-        <v>80.34</v>
+        <v>41.23</v>
       </c>
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.25">
@@ -11402,33 +11400,31 @@
         <v>538</v>
       </c>
       <c r="B536" s="24">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C536" s="25">
-        <v>28.5</v>
+        <v>45.5</v>
       </c>
       <c r="D536" s="26">
-        <v>2.35</v>
+        <v>3.8</v>
       </c>
       <c r="E536" s="27">
-        <v>66.98</v>
+        <v>172.9</v>
       </c>
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A537" s="23" t="s">
         <v>539</v>
       </c>
-      <c r="B537" s="24">
-        <v>13</v>
-      </c>
+      <c r="B537" s="24"/>
       <c r="C537" s="25">
-        <v>15.5</v>
+        <v>30</v>
       </c>
       <c r="D537" s="26">
-        <v>2.66</v>
+        <v>3.33</v>
       </c>
       <c r="E537" s="27">
-        <v>41.23</v>
+        <v>99.9</v>
       </c>
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.25">
@@ -11436,48 +11432,48 @@
         <v>540</v>
       </c>
       <c r="B538" s="24">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C538" s="25">
-        <v>45.5</v>
+        <v>166</v>
       </c>
       <c r="D538" s="26">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="E538" s="27">
-        <v>172.9</v>
+        <v>232.4</v>
       </c>
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A539" s="23" t="s">
         <v>541</v>
       </c>
-      <c r="B539" s="24"/>
+      <c r="B539" s="24">
+        <v>24</v>
+      </c>
       <c r="C539" s="25">
-        <v>30</v>
+        <v>120.5</v>
       </c>
       <c r="D539" s="26">
-        <v>3.33</v>
+        <v>1.8</v>
       </c>
       <c r="E539" s="27">
-        <v>99.9</v>
+        <v>216.9</v>
       </c>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A540" s="23" t="s">
         <v>542</v>
       </c>
-      <c r="B540" s="24">
-        <v>27</v>
-      </c>
+      <c r="B540" s="24"/>
       <c r="C540" s="25">
-        <v>166</v>
+        <v>60</v>
       </c>
       <c r="D540" s="26">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="E540" s="27">
-        <v>232.4</v>
+        <v>72</v>
       </c>
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.25">
@@ -11485,48 +11481,46 @@
         <v>543</v>
       </c>
       <c r="B541" s="24">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="C541" s="25">
-        <v>120.5</v>
+        <v>54</v>
       </c>
       <c r="D541" s="26">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="E541" s="27">
-        <v>216.9</v>
+        <v>64.8</v>
       </c>
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A542" s="23" t="s">
         <v>544</v>
       </c>
-      <c r="B542" s="24"/>
+      <c r="B542" s="24">
+        <v>1</v>
+      </c>
       <c r="C542" s="25">
-        <v>60</v>
-      </c>
-      <c r="D542" s="26">
-        <v>1.2</v>
-      </c>
-      <c r="E542" s="27">
-        <v>72</v>
-      </c>
+        <v>-2</v>
+      </c>
+      <c r="D542" s="28"/>
+      <c r="E542" s="29"/>
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A543" s="23" t="s">
         <v>545</v>
       </c>
       <c r="B543" s="24">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="C543" s="25">
-        <v>54</v>
+        <v>361.5</v>
       </c>
       <c r="D543" s="26">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="E543" s="27">
-        <v>64.8</v>
+        <v>542.25</v>
       </c>
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.25">
@@ -11534,10 +11528,10 @@
         <v>546</v>
       </c>
       <c r="B544" s="24">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="C544" s="25">
-        <v>-2</v>
+        <v>256</v>
       </c>
       <c r="D544" s="28"/>
       <c r="E544" s="29"/>
@@ -11547,27 +11541,23 @@
         <v>547</v>
       </c>
       <c r="B545" s="24">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C545" s="25">
-        <v>361.5</v>
-      </c>
-      <c r="D545" s="26">
-        <v>1.5</v>
-      </c>
-      <c r="E545" s="27">
-        <v>542.25</v>
-      </c>
+        <v>412.5</v>
+      </c>
+      <c r="D545" s="28"/>
+      <c r="E545" s="29"/>
     </row>
     <row r="546" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A546" s="23" t="s">
         <v>548</v>
       </c>
       <c r="B546" s="24">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C546" s="25">
-        <v>256</v>
+        <v>59.5</v>
       </c>
       <c r="D546" s="28"/>
       <c r="E546" s="29"/>
@@ -11577,10 +11567,10 @@
         <v>549</v>
       </c>
       <c r="B547" s="24">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C547" s="25">
-        <v>412.5</v>
+        <v>120</v>
       </c>
       <c r="D547" s="28"/>
       <c r="E547" s="29"/>
@@ -11590,10 +11580,10 @@
         <v>550</v>
       </c>
       <c r="B548" s="24">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C548" s="25">
-        <v>59.5</v>
+        <v>37.9</v>
       </c>
       <c r="D548" s="28"/>
       <c r="E548" s="29"/>
@@ -11603,42 +11593,50 @@
         <v>551</v>
       </c>
       <c r="B549" s="24">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C549" s="25">
-        <v>120</v>
-      </c>
-      <c r="D549" s="28"/>
-      <c r="E549" s="29"/>
+        <v>163</v>
+      </c>
+      <c r="D549" s="26">
+        <v>0.87</v>
+      </c>
+      <c r="E549" s="27">
+        <v>141.81</v>
+      </c>
     </row>
     <row r="550" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A550" s="23" t="s">
         <v>552</v>
       </c>
       <c r="B550" s="24">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C550" s="25">
-        <v>37.9</v>
-      </c>
-      <c r="D550" s="28"/>
-      <c r="E550" s="29"/>
+        <v>1074</v>
+      </c>
+      <c r="D550" s="26">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E550" s="27">
+        <v>622.91999999999996</v>
+      </c>
     </row>
     <row r="551" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A551" s="23" t="s">
         <v>553</v>
       </c>
       <c r="B551" s="24">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C551" s="25">
-        <v>169</v>
+        <v>494.5</v>
       </c>
       <c r="D551" s="26">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="E551" s="27">
-        <v>147.03</v>
+        <v>420.33</v>
       </c>
     </row>
     <row r="552" spans="1:5" x14ac:dyDescent="0.25">
@@ -11646,16 +11644,16 @@
         <v>554</v>
       </c>
       <c r="B552" s="24">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C552" s="25">
-        <v>1074</v>
+        <v>497.5</v>
       </c>
       <c r="D552" s="26">
-        <v>0.57999999999999996</v>
+        <v>0.85</v>
       </c>
       <c r="E552" s="27">
-        <v>622.91999999999996</v>
+        <v>422.88</v>
       </c>
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.25">
@@ -11663,16 +11661,16 @@
         <v>555</v>
       </c>
       <c r="B553" s="24">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C553" s="25">
-        <v>494.5</v>
+        <v>482</v>
       </c>
       <c r="D553" s="26">
         <v>0.85</v>
       </c>
       <c r="E553" s="27">
-        <v>420.33</v>
+        <v>409.7</v>
       </c>
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.25">
@@ -11680,16 +11678,16 @@
         <v>556</v>
       </c>
       <c r="B554" s="24">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C554" s="25">
-        <v>497.5</v>
+        <v>-46</v>
       </c>
       <c r="D554" s="26">
-        <v>0.85</v>
+        <v>0.4</v>
       </c>
       <c r="E554" s="27">
-        <v>422.88</v>
+        <v>-18.399999999999999</v>
       </c>
     </row>
     <row r="555" spans="1:5" x14ac:dyDescent="0.25">
@@ -11697,44 +11695,36 @@
         <v>557</v>
       </c>
       <c r="B555" s="24">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="C555" s="25">
-        <v>482</v>
-      </c>
-      <c r="D555" s="26">
-        <v>0.85</v>
-      </c>
-      <c r="E555" s="27">
-        <v>409.7</v>
-      </c>
+        <v>-6</v>
+      </c>
+      <c r="D555" s="28"/>
+      <c r="E555" s="29"/>
     </row>
     <row r="556" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A556" s="23" t="s">
         <v>558</v>
       </c>
       <c r="B556" s="24">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C556" s="25">
-        <v>-46</v>
-      </c>
-      <c r="D556" s="26">
-        <v>0.4</v>
-      </c>
-      <c r="E556" s="27">
-        <v>-18.399999999999999</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D556" s="28"/>
+      <c r="E556" s="29"/>
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A557" s="23" t="s">
         <v>559</v>
       </c>
       <c r="B557" s="24">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C557" s="25">
-        <v>-6</v>
+        <v>114</v>
       </c>
       <c r="D557" s="28"/>
       <c r="E557" s="29"/>
@@ -11744,10 +11734,10 @@
         <v>560</v>
       </c>
       <c r="B558" s="24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C558" s="25">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D558" s="28"/>
       <c r="E558" s="29"/>
@@ -11757,10 +11747,10 @@
         <v>561</v>
       </c>
       <c r="B559" s="24">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C559" s="25">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="D559" s="28"/>
       <c r="E559" s="29"/>
@@ -11769,41 +11759,49 @@
       <c r="A560" s="23" t="s">
         <v>562</v>
       </c>
-      <c r="B560" s="24">
-        <v>9</v>
-      </c>
+      <c r="B560" s="24"/>
       <c r="C560" s="25">
-        <v>10</v>
-      </c>
-      <c r="D560" s="28"/>
-      <c r="E560" s="29"/>
+        <v>13</v>
+      </c>
+      <c r="D560" s="26">
+        <v>5.25</v>
+      </c>
+      <c r="E560" s="27">
+        <v>68.25</v>
+      </c>
     </row>
     <row r="561" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A561" s="23" t="s">
         <v>563</v>
       </c>
       <c r="B561" s="24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C561" s="25">
-        <v>10</v>
-      </c>
-      <c r="D561" s="28"/>
-      <c r="E561" s="29"/>
+        <v>8</v>
+      </c>
+      <c r="D561" s="26">
+        <v>5.5</v>
+      </c>
+      <c r="E561" s="27">
+        <v>44</v>
+      </c>
     </row>
     <row r="562" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A562" s="23" t="s">
         <v>564</v>
       </c>
-      <c r="B562" s="24"/>
+      <c r="B562" s="24">
+        <v>3</v>
+      </c>
       <c r="C562" s="25">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D562" s="26">
-        <v>5.25</v>
+        <v>8.25</v>
       </c>
       <c r="E562" s="27">
-        <v>68.25</v>
+        <v>41.25</v>
       </c>
     </row>
     <row r="563" spans="1:5" x14ac:dyDescent="0.25">
@@ -11811,16 +11809,16 @@
         <v>565</v>
       </c>
       <c r="B563" s="24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C563" s="25">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="D563" s="26">
-        <v>5.5</v>
+        <v>8.25</v>
       </c>
       <c r="E563" s="27">
-        <v>44</v>
+        <v>61.88</v>
       </c>
     </row>
     <row r="564" spans="1:5" x14ac:dyDescent="0.25">
@@ -11828,16 +11826,16 @@
         <v>566</v>
       </c>
       <c r="B564" s="24">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C564" s="25">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D564" s="26">
-        <v>8.25</v>
+        <v>10</v>
       </c>
       <c r="E564" s="27">
-        <v>41.25</v>
+        <v>220</v>
       </c>
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.25">
@@ -11845,16 +11843,16 @@
         <v>567</v>
       </c>
       <c r="B565" s="24">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C565" s="25">
-        <v>7.5</v>
+        <v>23</v>
       </c>
       <c r="D565" s="26">
-        <v>8.25</v>
+        <v>5.5</v>
       </c>
       <c r="E565" s="27">
-        <v>61.88</v>
+        <v>126.5</v>
       </c>
     </row>
     <row r="566" spans="1:5" x14ac:dyDescent="0.25">
@@ -11862,16 +11860,16 @@
         <v>568</v>
       </c>
       <c r="B566" s="24">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C566" s="25">
-        <v>22</v>
+        <v>12.5</v>
       </c>
       <c r="D566" s="26">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E566" s="27">
-        <v>220</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="567" spans="1:5" x14ac:dyDescent="0.25">
@@ -11879,16 +11877,16 @@
         <v>569</v>
       </c>
       <c r="B567" s="24">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C567" s="25">
-        <v>23</v>
+        <v>12.01</v>
       </c>
       <c r="D567" s="26">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="E567" s="27">
-        <v>126.5</v>
+        <v>54.05</v>
       </c>
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.25">
@@ -11896,16 +11894,16 @@
         <v>570</v>
       </c>
       <c r="B568" s="24">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C568" s="25">
-        <v>12.5</v>
+        <v>21.5</v>
       </c>
       <c r="D568" s="26">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="E568" s="27">
-        <v>62.5</v>
+        <v>75.25</v>
       </c>
     </row>
     <row r="569" spans="1:5" x14ac:dyDescent="0.25">
@@ -11913,16 +11911,16 @@
         <v>571</v>
       </c>
       <c r="B569" s="24">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C569" s="25">
-        <v>12.01</v>
+        <v>31.5</v>
       </c>
       <c r="D569" s="26">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="E569" s="27">
-        <v>54.05</v>
+        <v>181.13</v>
       </c>
     </row>
     <row r="570" spans="1:5" x14ac:dyDescent="0.25">
@@ -11930,16 +11928,16 @@
         <v>572</v>
       </c>
       <c r="B570" s="24">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C570" s="25">
-        <v>21.5</v>
+        <v>19</v>
       </c>
       <c r="D570" s="26">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E570" s="27">
-        <v>75.25</v>
+        <v>76</v>
       </c>
     </row>
     <row r="571" spans="1:5" x14ac:dyDescent="0.25">
@@ -11947,16 +11945,16 @@
         <v>573</v>
       </c>
       <c r="B571" s="24">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C571" s="25">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D571" s="26">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="E571" s="27">
-        <v>195.5</v>
+        <v>58.5</v>
       </c>
     </row>
     <row r="572" spans="1:5" x14ac:dyDescent="0.25">
@@ -11964,16 +11962,16 @@
         <v>574</v>
       </c>
       <c r="B572" s="24">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C572" s="25">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D572" s="26">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="E572" s="27">
-        <v>76</v>
+        <v>45.5</v>
       </c>
     </row>
     <row r="573" spans="1:5" x14ac:dyDescent="0.25">
@@ -11981,16 +11979,16 @@
         <v>575</v>
       </c>
       <c r="B573" s="24">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="C573" s="25">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D573" s="26">
-        <v>6.5</v>
+        <v>2.78</v>
       </c>
       <c r="E573" s="27">
-        <v>58.5</v>
+        <v>111.33</v>
       </c>
     </row>
     <row r="574" spans="1:5" x14ac:dyDescent="0.25">
@@ -12001,13 +11999,13 @@
         <v>2</v>
       </c>
       <c r="C574" s="25">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="D574" s="26">
-        <v>6.5</v>
+        <v>2.66</v>
       </c>
       <c r="E574" s="27">
-        <v>45.5</v>
+        <v>6.65</v>
       </c>
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.25">
@@ -12015,16 +12013,16 @@
         <v>577</v>
       </c>
       <c r="B575" s="24">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="C575" s="25">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="D575" s="26">
-        <v>2.78</v>
+        <v>2.66</v>
       </c>
       <c r="E575" s="27">
-        <v>111.33</v>
+        <v>5.32</v>
       </c>
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.25">
@@ -12032,16 +12030,16 @@
         <v>578</v>
       </c>
       <c r="B576" s="24">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="C576" s="25">
-        <v>2.5</v>
+        <v>53</v>
       </c>
       <c r="D576" s="26">
-        <v>2.66</v>
+        <v>2.74</v>
       </c>
       <c r="E576" s="27">
-        <v>6.65</v>
+        <v>145.35</v>
       </c>
     </row>
     <row r="577" spans="1:5" x14ac:dyDescent="0.25">
@@ -12049,16 +12047,16 @@
         <v>579</v>
       </c>
       <c r="B577" s="24">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C577" s="25">
-        <v>4.5</v>
+        <v>35.5</v>
       </c>
       <c r="D577" s="26">
-        <v>2.66</v>
+        <v>4</v>
       </c>
       <c r="E577" s="27">
-        <v>11.97</v>
+        <v>142</v>
       </c>
     </row>
     <row r="578" spans="1:5" x14ac:dyDescent="0.25">
@@ -12066,16 +12064,16 @@
         <v>580</v>
       </c>
       <c r="B578" s="24">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C578" s="25">
-        <v>53</v>
+        <v>47.5</v>
       </c>
       <c r="D578" s="26">
-        <v>2.74</v>
+        <v>1.5</v>
       </c>
       <c r="E578" s="27">
-        <v>145.35</v>
+        <v>71.25</v>
       </c>
     </row>
     <row r="579" spans="1:5" x14ac:dyDescent="0.25">
@@ -12083,16 +12081,16 @@
         <v>581</v>
       </c>
       <c r="B579" s="24">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C579" s="25">
-        <v>35.5</v>
+        <v>10.5</v>
       </c>
       <c r="D579" s="26">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="E579" s="27">
-        <v>142</v>
+        <v>15.75</v>
       </c>
     </row>
     <row r="580" spans="1:5" x14ac:dyDescent="0.25">
@@ -12100,16 +12098,16 @@
         <v>582</v>
       </c>
       <c r="B580" s="24">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C580" s="25">
-        <v>47.5</v>
+        <v>1.75</v>
       </c>
       <c r="D580" s="26">
         <v>1.5</v>
       </c>
       <c r="E580" s="27">
-        <v>71.25</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="581" spans="1:5" x14ac:dyDescent="0.25">
@@ -12117,16 +12115,16 @@
         <v>583</v>
       </c>
       <c r="B581" s="24">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C581" s="25">
-        <v>10.5</v>
+        <v>49.5</v>
       </c>
       <c r="D581" s="26">
-        <v>1.5</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="E581" s="27">
-        <v>15.75</v>
+        <v>112.86</v>
       </c>
     </row>
     <row r="582" spans="1:5" x14ac:dyDescent="0.25">
@@ -12134,16 +12132,16 @@
         <v>584</v>
       </c>
       <c r="B582" s="24">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="C582" s="25">
-        <v>1.75</v>
+        <v>15</v>
       </c>
       <c r="D582" s="26">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="E582" s="27">
-        <v>2.63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.25">
@@ -12151,16 +12149,16 @@
         <v>585</v>
       </c>
       <c r="B583" s="24">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C583" s="25">
-        <v>49.5</v>
+        <v>10</v>
       </c>
       <c r="D583" s="26">
-        <v>2.2799999999999998</v>
+        <v>5.5</v>
       </c>
       <c r="E583" s="27">
-        <v>112.86</v>
+        <v>55</v>
       </c>
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.25">
@@ -12168,16 +12166,16 @@
         <v>586</v>
       </c>
       <c r="B584" s="24">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C584" s="25">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D584" s="26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E584" s="27">
-        <v>75</v>
+        <v>96</v>
       </c>
     </row>
     <row r="585" spans="1:5" x14ac:dyDescent="0.25">
@@ -12185,16 +12183,16 @@
         <v>587</v>
       </c>
       <c r="B585" s="24">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C585" s="25">
-        <v>10</v>
+        <v>19.5</v>
       </c>
       <c r="D585" s="26">
-        <v>5.5</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="E585" s="27">
-        <v>55</v>
+        <v>90.68</v>
       </c>
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.25">
@@ -12202,16 +12200,16 @@
         <v>588</v>
       </c>
       <c r="B586" s="24">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C586" s="25">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D586" s="26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E586" s="27">
-        <v>96</v>
+        <v>75</v>
       </c>
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.25">
@@ -12219,16 +12217,16 @@
         <v>589</v>
       </c>
       <c r="B587" s="24">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C587" s="25">
-        <v>22</v>
+        <v>1.5</v>
       </c>
       <c r="D587" s="26">
-        <v>4.6500000000000004</v>
+        <v>3.5</v>
       </c>
       <c r="E587" s="27">
-        <v>102.3</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="588" spans="1:5" x14ac:dyDescent="0.25">
@@ -12236,16 +12234,16 @@
         <v>590</v>
       </c>
       <c r="B588" s="24">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C588" s="25">
-        <v>15</v>
+        <v>26.5</v>
       </c>
       <c r="D588" s="26">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="E588" s="27">
-        <v>75</v>
+        <v>92.75</v>
       </c>
     </row>
     <row r="589" spans="1:5" x14ac:dyDescent="0.25">
@@ -12253,16 +12251,16 @@
         <v>591</v>
       </c>
       <c r="B589" s="24">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C589" s="25">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="D589" s="26">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="E589" s="27">
-        <v>5.25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.25">
@@ -12270,16 +12268,16 @@
         <v>592</v>
       </c>
       <c r="B590" s="24">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C590" s="25">
-        <v>26.5</v>
+        <v>8</v>
       </c>
       <c r="D590" s="26">
-        <v>3.5</v>
+        <v>5.45</v>
       </c>
       <c r="E590" s="27">
-        <v>92.75</v>
+        <v>43.6</v>
       </c>
     </row>
     <row r="591" spans="1:5" x14ac:dyDescent="0.25">
@@ -12287,16 +12285,16 @@
         <v>593</v>
       </c>
       <c r="B591" s="24">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C591" s="25">
-        <v>4</v>
+        <v>18.5</v>
       </c>
       <c r="D591" s="26">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="E591" s="27">
-        <v>18</v>
+        <v>57.35</v>
       </c>
     </row>
     <row r="592" spans="1:5" x14ac:dyDescent="0.25">
@@ -12304,16 +12302,16 @@
         <v>594</v>
       </c>
       <c r="B592" s="24">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="C592" s="25">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="D592" s="26">
-        <v>5.45</v>
+        <v>1.7</v>
       </c>
       <c r="E592" s="27">
-        <v>43.6</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.25">
@@ -12321,16 +12319,16 @@
         <v>595</v>
       </c>
       <c r="B593" s="24">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C593" s="25">
-        <v>18.5</v>
+        <v>27.5</v>
       </c>
       <c r="D593" s="26">
-        <v>3.1</v>
+        <v>3.33</v>
       </c>
       <c r="E593" s="27">
-        <v>57.35</v>
+        <v>91.58</v>
       </c>
     </row>
     <row r="594" spans="1:5" x14ac:dyDescent="0.25">
@@ -12338,16 +12336,16 @@
         <v>596</v>
       </c>
       <c r="B594" s="24">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C594" s="25">
-        <v>0.5</v>
+        <v>8.5</v>
       </c>
       <c r="D594" s="26">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="E594" s="27">
-        <v>0.85</v>
+        <v>29.75</v>
       </c>
     </row>
     <row r="595" spans="1:5" x14ac:dyDescent="0.25">
@@ -12355,16 +12353,16 @@
         <v>597</v>
       </c>
       <c r="B595" s="24">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C595" s="25">
-        <v>27.5</v>
+        <v>11</v>
       </c>
       <c r="D595" s="26">
-        <v>3.33</v>
+        <v>3.5</v>
       </c>
       <c r="E595" s="27">
-        <v>91.58</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="596" spans="1:5" x14ac:dyDescent="0.25">
@@ -12372,16 +12370,16 @@
         <v>598</v>
       </c>
       <c r="B596" s="24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C596" s="25">
-        <v>8.5</v>
+        <v>-1</v>
       </c>
       <c r="D596" s="26">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="E596" s="27">
-        <v>29.75</v>
+        <v>-7.5</v>
       </c>
     </row>
     <row r="597" spans="1:5" x14ac:dyDescent="0.25">
@@ -12389,16 +12387,16 @@
         <v>599</v>
       </c>
       <c r="B597" s="24">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C597" s="25">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D597" s="26">
-        <v>3.5</v>
+        <v>8.75</v>
       </c>
       <c r="E597" s="27">
-        <v>38.5</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.25">
@@ -12406,16 +12404,16 @@
         <v>600</v>
       </c>
       <c r="B598" s="24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C598" s="25">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="D598" s="26">
-        <v>7.5</v>
+        <v>6.25</v>
       </c>
       <c r="E598" s="27">
-        <v>-7.5</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.25">
@@ -12423,16 +12421,16 @@
         <v>601</v>
       </c>
       <c r="B599" s="24">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C599" s="25">
-        <v>10</v>
+        <v>96.8</v>
       </c>
       <c r="D599" s="26">
-        <v>8.75</v>
+        <v>2.85</v>
       </c>
       <c r="E599" s="27">
-        <v>87.5</v>
+        <v>275.88</v>
       </c>
     </row>
     <row r="600" spans="1:5" x14ac:dyDescent="0.25">
@@ -12440,16 +12438,16 @@
         <v>602</v>
       </c>
       <c r="B600" s="24">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C600" s="25">
-        <v>14</v>
+        <v>58.99</v>
       </c>
       <c r="D600" s="26">
-        <v>6.25</v>
+        <v>2</v>
       </c>
       <c r="E600" s="27">
-        <v>87.5</v>
+        <v>117.98</v>
       </c>
     </row>
     <row r="601" spans="1:5" x14ac:dyDescent="0.25">
@@ -12457,16 +12455,16 @@
         <v>603</v>
       </c>
       <c r="B601" s="24">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="C601" s="25">
-        <v>96.8</v>
+        <v>3.5</v>
       </c>
       <c r="D601" s="26">
-        <v>2.85</v>
+        <v>5.6</v>
       </c>
       <c r="E601" s="27">
-        <v>275.88</v>
+        <v>19.600000000000001</v>
       </c>
     </row>
     <row r="602" spans="1:5" x14ac:dyDescent="0.25">
@@ -12474,16 +12472,16 @@
         <v>604</v>
       </c>
       <c r="B602" s="24">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C602" s="25">
-        <v>58.99</v>
+        <v>14.5</v>
       </c>
       <c r="D602" s="26">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="E602" s="27">
-        <v>117.98</v>
+        <v>79.75</v>
       </c>
     </row>
     <row r="603" spans="1:5" x14ac:dyDescent="0.25">
@@ -12491,16 +12489,16 @@
         <v>605</v>
       </c>
       <c r="B603" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C603" s="25">
-        <v>3.5</v>
+        <v>13</v>
       </c>
       <c r="D603" s="26">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="E603" s="27">
-        <v>19.600000000000001</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="604" spans="1:5" x14ac:dyDescent="0.25">
@@ -12508,16 +12506,16 @@
         <v>606</v>
       </c>
       <c r="B604" s="24">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C604" s="25">
-        <v>14.5</v>
+        <v>29.5</v>
       </c>
       <c r="D604" s="26">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="E604" s="27">
-        <v>79.75</v>
+        <v>91.45</v>
       </c>
     </row>
     <row r="605" spans="1:5" x14ac:dyDescent="0.25">
@@ -12525,16 +12523,16 @@
         <v>607</v>
       </c>
       <c r="B605" s="24">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C605" s="25">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D605" s="26">
-        <v>5.5</v>
+        <v>5.68</v>
       </c>
       <c r="E605" s="27">
-        <v>71.5</v>
+        <v>130.63999999999999</v>
       </c>
     </row>
     <row r="606" spans="1:5" x14ac:dyDescent="0.25">
@@ -12542,16 +12540,16 @@
         <v>608</v>
       </c>
       <c r="B606" s="24">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C606" s="25">
-        <v>29.5</v>
+        <v>57</v>
       </c>
       <c r="D606" s="26">
-        <v>3.1</v>
+        <v>3.97</v>
       </c>
       <c r="E606" s="27">
-        <v>91.45</v>
+        <v>226.2</v>
       </c>
     </row>
     <row r="607" spans="1:5" x14ac:dyDescent="0.25">
@@ -12559,33 +12557,31 @@
         <v>609</v>
       </c>
       <c r="B607" s="24">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C607" s="25">
-        <v>23.5</v>
+        <v>11</v>
       </c>
       <c r="D607" s="26">
-        <v>5.68</v>
+        <v>4.8</v>
       </c>
       <c r="E607" s="27">
-        <v>133.47999999999999</v>
+        <v>52.8</v>
       </c>
     </row>
     <row r="608" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A608" s="23" t="s">
         <v>610</v>
       </c>
-      <c r="B608" s="24">
-        <v>9</v>
-      </c>
+      <c r="B608" s="24"/>
       <c r="C608" s="25">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="D608" s="26">
-        <v>3.97</v>
+        <v>6.75</v>
       </c>
       <c r="E608" s="27">
-        <v>226.2</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="609" spans="1:5" x14ac:dyDescent="0.25">
@@ -12593,31 +12589,33 @@
         <v>611</v>
       </c>
       <c r="B609" s="24">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C609" s="25">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="D609" s="26">
-        <v>4.8</v>
+        <v>6.75</v>
       </c>
       <c r="E609" s="27">
-        <v>52.8</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="610" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A610" s="23" t="s">
         <v>612</v>
       </c>
-      <c r="B610" s="24"/>
+      <c r="B610" s="24">
+        <v>3</v>
+      </c>
       <c r="C610" s="25">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D610" s="26">
         <v>6.75</v>
       </c>
       <c r="E610" s="27">
-        <v>6.75</v>
+        <v>47.25</v>
       </c>
     </row>
     <row r="611" spans="1:5" x14ac:dyDescent="0.25">
@@ -12625,33 +12623,31 @@
         <v>613</v>
       </c>
       <c r="B611" s="24">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C611" s="25">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="D611" s="26">
         <v>6.75</v>
       </c>
       <c r="E611" s="27">
-        <v>30.38</v>
+        <v>10.130000000000001</v>
       </c>
     </row>
     <row r="612" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A612" s="23" t="s">
         <v>614</v>
       </c>
-      <c r="B612" s="24">
-        <v>3</v>
-      </c>
+      <c r="B612" s="24"/>
       <c r="C612" s="25">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D612" s="26">
         <v>6.75</v>
       </c>
       <c r="E612" s="27">
-        <v>47.25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="613" spans="1:5" x14ac:dyDescent="0.25">
@@ -12659,31 +12655,33 @@
         <v>615</v>
       </c>
       <c r="B613" s="24">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C613" s="25">
-        <v>1.5</v>
+        <v>7.5</v>
       </c>
       <c r="D613" s="26">
-        <v>6.75</v>
+        <v>5.5</v>
       </c>
       <c r="E613" s="27">
-        <v>10.130000000000001</v>
+        <v>41.25</v>
       </c>
     </row>
     <row r="614" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A614" s="23" t="s">
         <v>616</v>
       </c>
-      <c r="B614" s="24"/>
+      <c r="B614" s="24">
+        <v>70</v>
+      </c>
       <c r="C614" s="25">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="D614" s="26">
-        <v>6.75</v>
+        <v>3.1</v>
       </c>
       <c r="E614" s="27">
-        <v>54</v>
+        <v>517.70000000000005</v>
       </c>
     </row>
     <row r="615" spans="1:5" x14ac:dyDescent="0.25">
@@ -12691,16 +12689,16 @@
         <v>617</v>
       </c>
       <c r="B615" s="24">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C615" s="25">
-        <v>7.5</v>
+        <v>42.5</v>
       </c>
       <c r="D615" s="26">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="E615" s="27">
-        <v>41.25</v>
+        <v>153</v>
       </c>
     </row>
     <row r="616" spans="1:5" x14ac:dyDescent="0.25">
@@ -12708,16 +12706,16 @@
         <v>618</v>
       </c>
       <c r="B616" s="24">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="C616" s="25">
-        <v>167</v>
+        <v>22</v>
       </c>
       <c r="D616" s="26">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="E616" s="27">
-        <v>517.70000000000005</v>
+        <v>77</v>
       </c>
     </row>
     <row r="617" spans="1:5" x14ac:dyDescent="0.25">
@@ -12725,16 +12723,16 @@
         <v>619</v>
       </c>
       <c r="B617" s="24">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C617" s="25">
-        <v>42.5</v>
+        <v>6</v>
       </c>
       <c r="D617" s="26">
-        <v>3.6</v>
+        <v>4.25</v>
       </c>
       <c r="E617" s="27">
-        <v>153</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="618" spans="1:5" x14ac:dyDescent="0.25">
@@ -12742,16 +12740,16 @@
         <v>620</v>
       </c>
       <c r="B618" s="24">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C618" s="25">
-        <v>22</v>
+        <v>3.5</v>
       </c>
       <c r="D618" s="26">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="E618" s="27">
-        <v>77</v>
+        <v>13.13</v>
       </c>
     </row>
     <row r="619" spans="1:5" x14ac:dyDescent="0.25">
@@ -12759,16 +12757,16 @@
         <v>621</v>
       </c>
       <c r="B619" s="24">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C619" s="25">
-        <v>6</v>
+        <v>21.5</v>
       </c>
       <c r="D619" s="26">
-        <v>4.25</v>
+        <v>2.5</v>
       </c>
       <c r="E619" s="27">
-        <v>25.5</v>
+        <v>53.75</v>
       </c>
     </row>
     <row r="620" spans="1:5" x14ac:dyDescent="0.25">
@@ -12776,16 +12774,16 @@
         <v>622</v>
       </c>
       <c r="B620" s="24">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C620" s="25">
-        <v>3.5</v>
+        <v>15.5</v>
       </c>
       <c r="D620" s="26">
-        <v>3.75</v>
+        <v>7.31</v>
       </c>
       <c r="E620" s="27">
-        <v>13.13</v>
+        <v>113.34</v>
       </c>
     </row>
     <row r="621" spans="1:5" x14ac:dyDescent="0.25">
@@ -12793,16 +12791,16 @@
         <v>623</v>
       </c>
       <c r="B621" s="24">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C621" s="25">
-        <v>21.5</v>
+        <v>4</v>
       </c>
       <c r="D621" s="26">
-        <v>2.5</v>
+        <v>5.75</v>
       </c>
       <c r="E621" s="27">
-        <v>53.75</v>
+        <v>23</v>
       </c>
     </row>
     <row r="622" spans="1:5" x14ac:dyDescent="0.25">
@@ -12810,16 +12808,16 @@
         <v>624</v>
       </c>
       <c r="B622" s="24">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C622" s="25">
-        <v>15.5</v>
+        <v>8.5</v>
       </c>
       <c r="D622" s="26">
-        <v>7.31</v>
+        <v>5.8</v>
       </c>
       <c r="E622" s="27">
-        <v>113.34</v>
+        <v>49.3</v>
       </c>
     </row>
     <row r="623" spans="1:5" x14ac:dyDescent="0.25">
@@ -12827,16 +12825,16 @@
         <v>625</v>
       </c>
       <c r="B623" s="24">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C623" s="25">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="D623" s="26">
-        <v>5.75</v>
+        <v>2.25</v>
       </c>
       <c r="E623" s="27">
-        <v>23</v>
+        <v>119.25</v>
       </c>
     </row>
     <row r="624" spans="1:5" x14ac:dyDescent="0.25">
@@ -12844,16 +12842,16 @@
         <v>626</v>
       </c>
       <c r="B624" s="24">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C624" s="25">
-        <v>8.5</v>
+        <v>55.5</v>
       </c>
       <c r="D624" s="26">
-        <v>5.8</v>
+        <v>2.25</v>
       </c>
       <c r="E624" s="27">
-        <v>49.3</v>
+        <v>124.88</v>
       </c>
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.25">
@@ -12861,16 +12859,16 @@
         <v>627</v>
       </c>
       <c r="B625" s="24">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C625" s="25">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="D625" s="26">
-        <v>2.25</v>
+        <v>8.84</v>
       </c>
       <c r="E625" s="27">
-        <v>119.25</v>
+        <v>114.9</v>
       </c>
     </row>
     <row r="626" spans="1:5" x14ac:dyDescent="0.25">
@@ -12878,16 +12876,16 @@
         <v>628</v>
       </c>
       <c r="B626" s="24">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C626" s="25">
-        <v>55.5</v>
+        <v>58</v>
       </c>
       <c r="D626" s="26">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="E626" s="27">
-        <v>124.88</v>
+        <v>159.5</v>
       </c>
     </row>
     <row r="627" spans="1:5" x14ac:dyDescent="0.25">
@@ -12895,16 +12893,16 @@
         <v>629</v>
       </c>
       <c r="B627" s="24">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C627" s="25">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="D627" s="26">
-        <v>8.84</v>
+        <v>2.75</v>
       </c>
       <c r="E627" s="27">
-        <v>114.9</v>
+        <v>187</v>
       </c>
     </row>
     <row r="628" spans="1:5" x14ac:dyDescent="0.25">
@@ -12912,7 +12910,7 @@
         <v>630</v>
       </c>
       <c r="B628" s="24">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C628" s="25">
         <v>58</v>
@@ -12929,16 +12927,16 @@
         <v>631</v>
       </c>
       <c r="B629" s="24">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C629" s="25">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="D629" s="26">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="E629" s="27">
-        <v>187</v>
+        <v>136</v>
       </c>
     </row>
     <row r="630" spans="1:5" x14ac:dyDescent="0.25">
@@ -12946,16 +12944,16 @@
         <v>632</v>
       </c>
       <c r="B630" s="24">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C630" s="25">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="D630" s="26">
-        <v>2.75</v>
+        <v>2.66</v>
       </c>
       <c r="E630" s="27">
-        <v>159.5</v>
+        <v>58.52</v>
       </c>
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.25">
@@ -12963,16 +12961,16 @@
         <v>633</v>
       </c>
       <c r="B631" s="24">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C631" s="25">
-        <v>34</v>
+        <v>17.5</v>
       </c>
       <c r="D631" s="26">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="E631" s="27">
-        <v>136</v>
+        <v>74.38</v>
       </c>
     </row>
     <row r="632" spans="1:5" x14ac:dyDescent="0.25">
@@ -12980,16 +12978,16 @@
         <v>634</v>
       </c>
       <c r="B632" s="24">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C632" s="25">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D632" s="26">
-        <v>2.66</v>
+        <v>4.25</v>
       </c>
       <c r="E632" s="27">
-        <v>58.52</v>
+        <v>72.25</v>
       </c>
     </row>
     <row r="633" spans="1:5" x14ac:dyDescent="0.25">
@@ -12997,16 +12995,16 @@
         <v>635</v>
       </c>
       <c r="B633" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C633" s="25">
-        <v>17.5</v>
+        <v>18.350000000000001</v>
       </c>
       <c r="D633" s="26">
-        <v>4.25</v>
+        <v>5.5</v>
       </c>
       <c r="E633" s="27">
-        <v>74.38</v>
+        <v>100.93</v>
       </c>
     </row>
     <row r="634" spans="1:5" x14ac:dyDescent="0.25">
@@ -13014,16 +13012,16 @@
         <v>636</v>
       </c>
       <c r="B634" s="24">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C634" s="25">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="D634" s="26">
-        <v>4.25</v>
+        <v>5</v>
       </c>
       <c r="E634" s="27">
-        <v>72.25</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="635" spans="1:5" x14ac:dyDescent="0.25">
@@ -13031,16 +13029,16 @@
         <v>637</v>
       </c>
       <c r="B635" s="24">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C635" s="25">
-        <v>18.350000000000001</v>
+        <v>34.5</v>
       </c>
       <c r="D635" s="26">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="E635" s="27">
-        <v>100.93</v>
+        <v>124.2</v>
       </c>
     </row>
     <row r="636" spans="1:5" x14ac:dyDescent="0.25">
@@ -13048,44 +13046,36 @@
         <v>638</v>
       </c>
       <c r="B636" s="24">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C636" s="25">
-        <v>19.5</v>
-      </c>
-      <c r="D636" s="26">
-        <v>5</v>
-      </c>
-      <c r="E636" s="27">
-        <v>97.5</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D636" s="28"/>
+      <c r="E636" s="29"/>
     </row>
     <row r="637" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A637" s="23" t="s">
         <v>639</v>
       </c>
       <c r="B637" s="24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C637" s="25">
-        <v>34.5</v>
-      </c>
-      <c r="D637" s="26">
-        <v>3.6</v>
-      </c>
-      <c r="E637" s="27">
-        <v>124.2</v>
-      </c>
+        <v>30.5</v>
+      </c>
+      <c r="D637" s="28"/>
+      <c r="E637" s="29"/>
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A638" s="23" t="s">
         <v>640</v>
       </c>
       <c r="B638" s="24">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C638" s="25">
-        <v>27</v>
+        <v>32.69</v>
       </c>
       <c r="D638" s="28"/>
       <c r="E638" s="29"/>
@@ -13095,10 +13085,10 @@
         <v>641</v>
       </c>
       <c r="B639" s="24">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C639" s="25">
-        <v>30.5</v>
+        <v>22</v>
       </c>
       <c r="D639" s="28"/>
       <c r="E639" s="29"/>
@@ -13108,10 +13098,10 @@
         <v>642</v>
       </c>
       <c r="B640" s="24">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C640" s="25">
-        <v>32.69</v>
+        <v>71.5</v>
       </c>
       <c r="D640" s="28"/>
       <c r="E640" s="29"/>
@@ -13121,10 +13111,10 @@
         <v>643</v>
       </c>
       <c r="B641" s="24">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C641" s="25">
-        <v>22</v>
+        <v>118.5</v>
       </c>
       <c r="D641" s="28"/>
       <c r="E641" s="29"/>
@@ -13134,10 +13124,10 @@
         <v>644</v>
       </c>
       <c r="B642" s="24">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C642" s="25">
-        <v>71.5</v>
+        <v>75.5</v>
       </c>
       <c r="D642" s="28"/>
       <c r="E642" s="29"/>
@@ -13147,10 +13137,10 @@
         <v>645</v>
       </c>
       <c r="B643" s="24">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C643" s="25">
-        <v>118.5</v>
+        <v>59.5</v>
       </c>
       <c r="D643" s="28"/>
       <c r="E643" s="29"/>
@@ -13160,10 +13150,10 @@
         <v>646</v>
       </c>
       <c r="B644" s="24">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C644" s="25">
-        <v>75.5</v>
+        <v>103</v>
       </c>
       <c r="D644" s="28"/>
       <c r="E644" s="29"/>
@@ -13173,43 +13163,45 @@
         <v>647</v>
       </c>
       <c r="B645" s="24">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C645" s="25">
-        <v>59.5</v>
-      </c>
-      <c r="D645" s="28"/>
-      <c r="E645" s="29"/>
+        <v>86.5</v>
+      </c>
+      <c r="D645" s="26">
+        <v>2.9</v>
+      </c>
+      <c r="E645" s="27">
+        <v>250.67</v>
+      </c>
     </row>
     <row r="646" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A646" s="23" t="s">
         <v>648</v>
       </c>
-      <c r="B646" s="24">
-        <v>19</v>
-      </c>
+      <c r="B646" s="24"/>
       <c r="C646" s="25">
-        <v>103</v>
-      </c>
-      <c r="D646" s="28"/>
-      <c r="E646" s="29"/>
+        <v>14.5</v>
+      </c>
+      <c r="D646" s="26">
+        <v>3.8</v>
+      </c>
+      <c r="E646" s="27">
+        <v>55.1</v>
+      </c>
     </row>
     <row r="647" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A647" s="23" t="s">
         <v>649</v>
       </c>
       <c r="B647" s="24">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="C647" s="25">
-        <v>86.5</v>
-      </c>
-      <c r="D647" s="26">
-        <v>2.9</v>
-      </c>
-      <c r="E647" s="27">
-        <v>250.67</v>
-      </c>
+        <v>-0.5</v>
+      </c>
+      <c r="D647" s="28"/>
+      <c r="E647" s="29"/>
     </row>
     <row r="648" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A648" s="23" t="s">
@@ -13217,80 +13209,82 @@
       </c>
       <c r="B648" s="24"/>
       <c r="C648" s="25">
-        <v>14.5</v>
+        <v>502</v>
       </c>
       <c r="D648" s="26">
-        <v>3.8</v>
+        <v>0.82</v>
       </c>
       <c r="E648" s="27">
-        <v>55.1</v>
+        <v>411.64</v>
       </c>
     </row>
     <row r="649" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A649" s="23" t="s">
         <v>651</v>
       </c>
-      <c r="B649" s="24">
-        <v>2</v>
-      </c>
+      <c r="B649" s="24"/>
       <c r="C649" s="25">
-        <v>-0.5</v>
-      </c>
-      <c r="D649" s="28"/>
-      <c r="E649" s="29"/>
+        <v>500</v>
+      </c>
+      <c r="D649" s="26">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E649" s="27">
+        <v>575</v>
+      </c>
     </row>
     <row r="650" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A650" s="23" t="s">
         <v>652</v>
       </c>
-      <c r="B650" s="24"/>
+      <c r="B650" s="24">
+        <v>1</v>
+      </c>
       <c r="C650" s="25">
-        <v>502</v>
-      </c>
-      <c r="D650" s="26">
-        <v>0.82</v>
-      </c>
-      <c r="E650" s="27">
-        <v>411.64</v>
-      </c>
+        <v>-0.5</v>
+      </c>
+      <c r="D650" s="28"/>
+      <c r="E650" s="29"/>
     </row>
     <row r="651" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A651" s="23" t="s">
         <v>653</v>
       </c>
-      <c r="B651" s="24"/>
+      <c r="B651" s="24">
+        <v>2</v>
+      </c>
       <c r="C651" s="25">
-        <v>500</v>
-      </c>
-      <c r="D651" s="26">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="E651" s="27">
-        <v>575</v>
-      </c>
+        <v>-0.02</v>
+      </c>
+      <c r="D651" s="28"/>
+      <c r="E651" s="29"/>
     </row>
     <row r="652" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A652" s="23" t="s">
         <v>654</v>
       </c>
       <c r="B652" s="24">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C652" s="25">
-        <v>-0.5</v>
-      </c>
-      <c r="D652" s="28"/>
-      <c r="E652" s="29"/>
+        <v>-5</v>
+      </c>
+      <c r="D652" s="26">
+        <v>1.6</v>
+      </c>
+      <c r="E652" s="27">
+        <v>-8</v>
+      </c>
     </row>
     <row r="653" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A653" s="23" t="s">
         <v>655</v>
       </c>
       <c r="B653" s="24">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C653" s="25">
-        <v>-0.02</v>
+        <v>266</v>
       </c>
       <c r="D653" s="28"/>
       <c r="E653" s="29"/>
@@ -13300,27 +13294,23 @@
         <v>656</v>
       </c>
       <c r="B654" s="24">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C654" s="25">
-        <v>-5</v>
-      </c>
-      <c r="D654" s="26">
-        <v>1.6</v>
-      </c>
-      <c r="E654" s="27">
-        <v>-8</v>
-      </c>
+        <v>-0.39</v>
+      </c>
+      <c r="D654" s="28"/>
+      <c r="E654" s="29"/>
     </row>
     <row r="655" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A655" s="23" t="s">
         <v>657</v>
       </c>
       <c r="B655" s="24">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="C655" s="25">
-        <v>266</v>
+        <v>-0.67</v>
       </c>
       <c r="D655" s="28"/>
       <c r="E655" s="29"/>
@@ -13330,23 +13320,27 @@
         <v>658</v>
       </c>
       <c r="B656" s="24">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C656" s="25">
-        <v>-0.39</v>
-      </c>
-      <c r="D656" s="28"/>
-      <c r="E656" s="29"/>
+        <v>-149</v>
+      </c>
+      <c r="D656" s="26">
+        <v>1</v>
+      </c>
+      <c r="E656" s="27">
+        <v>-149</v>
+      </c>
     </row>
     <row r="657" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A657" s="23" t="s">
         <v>659</v>
       </c>
       <c r="B657" s="24">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="C657" s="25">
-        <v>-0.67</v>
+        <v>-43.15</v>
       </c>
       <c r="D657" s="28"/>
       <c r="E657" s="29"/>
@@ -13356,16 +13350,16 @@
         <v>660</v>
       </c>
       <c r="B658" s="24">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C658" s="25">
-        <v>-149</v>
+        <v>14.5</v>
       </c>
       <c r="D658" s="26">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E658" s="27">
-        <v>-149</v>
+        <v>36.25</v>
       </c>
     </row>
     <row r="659" spans="1:5" x14ac:dyDescent="0.25">
@@ -13373,29 +13367,33 @@
         <v>661</v>
       </c>
       <c r="B659" s="24">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C659" s="25">
-        <v>-43.15</v>
-      </c>
-      <c r="D659" s="28"/>
-      <c r="E659" s="29"/>
+        <v>22.25</v>
+      </c>
+      <c r="D659" s="26">
+        <v>2.5</v>
+      </c>
+      <c r="E659" s="27">
+        <v>55.63</v>
+      </c>
     </row>
     <row r="660" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A660" s="23" t="s">
         <v>662</v>
       </c>
       <c r="B660" s="24">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C660" s="25">
-        <v>15.5</v>
+        <v>17.25</v>
       </c>
       <c r="D660" s="26">
         <v>2.5</v>
       </c>
       <c r="E660" s="27">
-        <v>38.75</v>
+        <v>43.13</v>
       </c>
     </row>
     <row r="661" spans="1:5" x14ac:dyDescent="0.25">
@@ -13403,16 +13401,16 @@
         <v>663</v>
       </c>
       <c r="B661" s="24">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C661" s="25">
-        <v>22.25</v>
+        <v>55</v>
       </c>
       <c r="D661" s="26">
         <v>2.5</v>
       </c>
       <c r="E661" s="27">
-        <v>55.63</v>
+        <v>137.5</v>
       </c>
     </row>
     <row r="662" spans="1:5" x14ac:dyDescent="0.25">
@@ -13420,16 +13418,16 @@
         <v>664</v>
       </c>
       <c r="B662" s="24">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C662" s="25">
-        <v>23.25</v>
+        <v>23.75</v>
       </c>
       <c r="D662" s="26">
         <v>2.5</v>
       </c>
       <c r="E662" s="27">
-        <v>58.13</v>
+        <v>59.38</v>
       </c>
     </row>
     <row r="663" spans="1:5" x14ac:dyDescent="0.25">
@@ -13437,16 +13435,16 @@
         <v>665</v>
       </c>
       <c r="B663" s="24">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C663" s="25">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="D663" s="26">
         <v>2.5</v>
       </c>
       <c r="E663" s="27">
-        <v>137.5</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="664" spans="1:5" x14ac:dyDescent="0.25">
@@ -13454,16 +13452,16 @@
         <v>666</v>
       </c>
       <c r="B664" s="24">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C664" s="25">
-        <v>24.75</v>
+        <v>13.75</v>
       </c>
       <c r="D664" s="26">
         <v>2.5</v>
       </c>
       <c r="E664" s="27">
-        <v>61.88</v>
+        <v>34.380000000000003</v>
       </c>
     </row>
     <row r="665" spans="1:5" x14ac:dyDescent="0.25">
@@ -13471,16 +13469,16 @@
         <v>667</v>
       </c>
       <c r="B665" s="24">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C665" s="25">
-        <v>20</v>
+        <v>27.5</v>
       </c>
       <c r="D665" s="26">
         <v>2.5</v>
       </c>
       <c r="E665" s="27">
-        <v>50</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="666" spans="1:5" x14ac:dyDescent="0.25">
@@ -13488,59 +13486,25 @@
         <v>668</v>
       </c>
       <c r="B666" s="24">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="C666" s="25">
-        <v>13.75</v>
-      </c>
-      <c r="D666" s="26">
-        <v>2.5</v>
-      </c>
-      <c r="E666" s="27">
-        <v>34.380000000000003</v>
-      </c>
+        <v>-224</v>
+      </c>
+      <c r="D666" s="28"/>
+      <c r="E666" s="29"/>
     </row>
     <row r="667" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A667" s="23" t="s">
+      <c r="A667" s="30" t="s">
         <v>669</v>
       </c>
-      <c r="B667" s="24">
-        <v>46</v>
-      </c>
-      <c r="C667" s="25">
-        <v>27.5</v>
-      </c>
-      <c r="D667" s="26">
-        <v>2.5</v>
-      </c>
-      <c r="E667" s="27">
-        <v>68.75</v>
-      </c>
-    </row>
-    <row r="668" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A668" s="23" t="s">
-        <v>670</v>
-      </c>
-      <c r="B668" s="24">
-        <v>86</v>
-      </c>
-      <c r="C668" s="25">
-        <v>-224</v>
-      </c>
-      <c r="D668" s="28"/>
-      <c r="E668" s="29"/>
-    </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A669" s="30" t="s">
-        <v>671</v>
-      </c>
-      <c r="B669" s="31"/>
-      <c r="C669" s="32">
-        <v>38325.39</v>
-      </c>
-      <c r="D669" s="33"/>
-      <c r="E669" s="34">
-        <v>111532.16</v>
+      <c r="B667" s="31"/>
+      <c r="C667" s="32">
+        <v>38301.89</v>
+      </c>
+      <c r="D667" s="33"/>
+      <c r="E667" s="34">
+        <v>111366.31</v>
       </c>
     </row>
   </sheetData>

--- a/data/website stock.xlsx
+++ b/data/website stock.xlsx
@@ -35,7 +35,7 @@
     <t>Stock Group Summary</t>
   </si>
   <si>
-    <t>1-Jul-25 to 20-Dec-25</t>
+    <t>1-Jul-25 to 22-Dec-25</t>
   </si>
   <si>
     <t/>
@@ -3178,16 +3178,16 @@
         <v>42</v>
       </c>
       <c r="B40" s="24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C40" s="25">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="D40" s="26">
         <v>2.35</v>
       </c>
       <c r="E40" s="27">
-        <v>29.38</v>
+        <v>24.68</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -3212,16 +3212,16 @@
         <v>44</v>
       </c>
       <c r="B42" s="24">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C42" s="25">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D42" s="26">
         <v>2.66</v>
       </c>
       <c r="E42" s="27">
-        <v>151.62</v>
+        <v>140.97999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -3433,16 +3433,16 @@
         <v>57</v>
       </c>
       <c r="B55" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C55" s="25">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D55" s="26">
         <v>1.9</v>
       </c>
       <c r="E55" s="27">
-        <v>294.5</v>
+        <v>288.8</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -3501,16 +3501,16 @@
         <v>61</v>
       </c>
       <c r="B59" s="24">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C59" s="25">
-        <v>262.5</v>
+        <v>259.5</v>
       </c>
       <c r="D59" s="26">
         <v>1.1100000000000001</v>
       </c>
       <c r="E59" s="27">
-        <v>291.38</v>
+        <v>288.05</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -3548,16 +3548,16 @@
         <v>64</v>
       </c>
       <c r="B62" s="24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C62" s="25">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D62" s="26">
         <v>1.65</v>
       </c>
       <c r="E62" s="27">
-        <v>176.55</v>
+        <v>171.6</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -3646,16 +3646,16 @@
         <v>70</v>
       </c>
       <c r="B68" s="24">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C68" s="25">
-        <v>223.5</v>
+        <v>217.5</v>
       </c>
       <c r="D68" s="26">
         <v>1.4</v>
       </c>
       <c r="E68" s="27">
-        <v>312.89999999999998</v>
+        <v>304.5</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -3731,16 +3731,16 @@
         <v>75</v>
       </c>
       <c r="B73" s="24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C73" s="25">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="D73" s="26">
         <v>1.2</v>
       </c>
       <c r="E73" s="27">
-        <v>723.6</v>
+        <v>716.4</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -3780,16 +3780,16 @@
         <v>78</v>
       </c>
       <c r="B76" s="24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C76" s="25">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D76" s="26">
         <v>1.2</v>
       </c>
       <c r="E76" s="27">
-        <v>786</v>
+        <v>783.6</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -3882,16 +3882,16 @@
         <v>84</v>
       </c>
       <c r="B82" s="24">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C82" s="25">
-        <v>101.5</v>
+        <v>95.5</v>
       </c>
       <c r="D82" s="26">
         <v>1.3</v>
       </c>
       <c r="E82" s="27">
-        <v>131.94999999999999</v>
+        <v>124.15</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -4082,16 +4082,16 @@
         <v>96</v>
       </c>
       <c r="B94" s="24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C94" s="25">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="D94" s="26">
         <v>0.81</v>
       </c>
       <c r="E94" s="27">
-        <v>333.86</v>
+        <v>325.76</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -4271,10 +4271,10 @@
         <v>109</v>
       </c>
       <c r="B107" s="24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C107" s="25">
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="D107" s="28"/>
       <c r="E107" s="29"/>
@@ -4336,16 +4336,16 @@
         <v>114</v>
       </c>
       <c r="B112" s="24">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C112" s="25">
-        <v>251.5</v>
+        <v>241.5</v>
       </c>
       <c r="D112" s="26">
         <v>0.7</v>
       </c>
       <c r="E112" s="27">
-        <v>176.05</v>
+        <v>169.05</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -4392,10 +4392,10 @@
         <v>118</v>
       </c>
       <c r="B116" s="24">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C116" s="25">
-        <v>-1.71</v>
+        <v>-1.72</v>
       </c>
       <c r="D116" s="28"/>
       <c r="E116" s="29"/>
@@ -4753,16 +4753,16 @@
         <v>141</v>
       </c>
       <c r="B139" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C139" s="25">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="D139" s="26">
         <v>18.5</v>
       </c>
       <c r="E139" s="27">
-        <v>55.5</v>
+        <v>-55.5</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -5093,16 +5093,16 @@
         <v>161</v>
       </c>
       <c r="B159" s="24">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C159" s="25">
-        <v>58.25</v>
+        <v>48.25</v>
       </c>
       <c r="D159" s="26">
         <v>1</v>
       </c>
       <c r="E159" s="27">
-        <v>58.25</v>
+        <v>48.25</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -5127,16 +5127,16 @@
         <v>163</v>
       </c>
       <c r="B161" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C161" s="25">
-        <v>267.5</v>
+        <v>257.5</v>
       </c>
       <c r="D161" s="26">
         <v>1.3</v>
       </c>
       <c r="E161" s="27">
-        <v>347.75</v>
+        <v>334.75</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -5178,16 +5178,16 @@
         <v>166</v>
       </c>
       <c r="B164" s="24">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C164" s="25">
-        <v>42</v>
+        <v>40.5</v>
       </c>
       <c r="D164" s="26">
         <v>3.25</v>
       </c>
       <c r="E164" s="27">
-        <v>136.5</v>
+        <v>131.63</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -5397,16 +5397,16 @@
         <v>179</v>
       </c>
       <c r="B177" s="24">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C177" s="25">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D177" s="26">
         <v>2.65</v>
       </c>
       <c r="E177" s="27">
-        <v>270.3</v>
+        <v>265</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -5582,16 +5582,16 @@
         <v>190</v>
       </c>
       <c r="B188" s="24">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C188" s="25">
-        <v>80.5</v>
+        <v>77</v>
       </c>
       <c r="D188" s="26">
         <v>4.5</v>
       </c>
       <c r="E188" s="27">
-        <v>362.25</v>
+        <v>346.5</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -5633,16 +5633,16 @@
         <v>193</v>
       </c>
       <c r="B191" s="24">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C191" s="25">
-        <v>71.5</v>
+        <v>69.5</v>
       </c>
       <c r="D191" s="26">
         <v>2.7</v>
       </c>
       <c r="E191" s="27">
-        <v>193.05</v>
+        <v>187.65</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -5667,16 +5667,16 @@
         <v>195</v>
       </c>
       <c r="B193" s="24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C193" s="25">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D193" s="26">
         <v>2.6</v>
       </c>
       <c r="E193" s="27">
-        <v>137.80000000000001</v>
+        <v>122.2</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
@@ -5854,16 +5854,16 @@
         <v>206</v>
       </c>
       <c r="B204" s="24">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C204" s="25">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D204" s="26">
         <v>3.92</v>
       </c>
       <c r="E204" s="27">
-        <v>595.96</v>
+        <v>576.36</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
@@ -6263,16 +6263,16 @@
         <v>231</v>
       </c>
       <c r="B229" s="24">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C229" s="25">
-        <v>37.5</v>
+        <v>35.5</v>
       </c>
       <c r="D229" s="26">
         <v>3</v>
       </c>
       <c r="E229" s="27">
-        <v>112.5</v>
+        <v>106.5</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
@@ -6314,16 +6314,16 @@
         <v>234</v>
       </c>
       <c r="B232" s="24">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C232" s="25">
-        <v>144.5</v>
+        <v>142.5</v>
       </c>
       <c r="D232" s="26">
         <v>3.9</v>
       </c>
       <c r="E232" s="27">
-        <v>563.54999999999995</v>
+        <v>555.75</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
@@ -6516,16 +6516,16 @@
         <v>246</v>
       </c>
       <c r="B244" s="24">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C244" s="25">
-        <v>376.5</v>
+        <v>375</v>
       </c>
       <c r="D244" s="26">
         <v>4.28</v>
       </c>
       <c r="E244" s="27">
-        <v>1611.42</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
@@ -6584,16 +6584,16 @@
         <v>250</v>
       </c>
       <c r="B248" s="24">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C248" s="25">
-        <v>26.5</v>
+        <v>21</v>
       </c>
       <c r="D248" s="26">
         <v>3.1</v>
       </c>
       <c r="E248" s="27">
-        <v>82.15</v>
+        <v>65.099999999999994</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
@@ -6618,16 +6618,16 @@
         <v>252</v>
       </c>
       <c r="B250" s="24">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C250" s="25">
-        <v>54.5</v>
+        <v>50.5</v>
       </c>
       <c r="D250" s="26">
         <v>6.25</v>
       </c>
       <c r="E250" s="27">
-        <v>340.63</v>
+        <v>315.63</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
@@ -7622,16 +7622,16 @@
         <v>312</v>
       </c>
       <c r="B310" s="24">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C310" s="25">
-        <v>57.5</v>
+        <v>53.5</v>
       </c>
       <c r="D310" s="26">
         <v>9</v>
       </c>
       <c r="E310" s="27">
-        <v>517.5</v>
+        <v>481.5</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
@@ -8160,16 +8160,16 @@
         <v>344</v>
       </c>
       <c r="B342" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C342" s="25">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="D342" s="26">
         <v>8.1999999999999993</v>
       </c>
       <c r="E342" s="27">
-        <v>131.19999999999999</v>
+        <v>110.7</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
@@ -8881,16 +8881,16 @@
         <v>387</v>
       </c>
       <c r="B385" s="24">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C385" s="25">
-        <v>97.5</v>
+        <v>95.5</v>
       </c>
       <c r="D385" s="26">
         <v>6.17</v>
       </c>
       <c r="E385" s="27">
-        <v>601.11</v>
+        <v>588.78</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
@@ -9409,16 +9409,16 @@
         <v>419</v>
       </c>
       <c r="B417" s="24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C417" s="25">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="D417" s="26">
         <v>9.75</v>
       </c>
       <c r="E417" s="27">
-        <v>-19.5</v>
+        <v>29.25</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
@@ -9443,16 +9443,16 @@
         <v>421</v>
       </c>
       <c r="B419" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C419" s="25">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="D419" s="26">
         <v>29.7</v>
       </c>
       <c r="E419" s="27">
-        <v>252.45</v>
+        <v>237.6</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
@@ -9877,16 +9877,16 @@
         <v>447</v>
       </c>
       <c r="B445" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C445" s="25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D445" s="26">
         <v>11.88</v>
       </c>
       <c r="E445" s="27">
-        <v>47.52</v>
+        <v>11.88</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.25">
@@ -9928,16 +9928,16 @@
         <v>450</v>
       </c>
       <c r="B448" s="24">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C448" s="25">
-        <v>19.5</v>
+        <v>13.5</v>
       </c>
       <c r="D448" s="26">
         <v>9.26</v>
       </c>
       <c r="E448" s="27">
-        <v>180.57</v>
+        <v>125.01</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.25">
@@ -10573,16 +10573,16 @@
         <v>489</v>
       </c>
       <c r="B487" s="24">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C487" s="25">
-        <v>145.5</v>
+        <v>142.5</v>
       </c>
       <c r="D487" s="26">
         <v>1.4</v>
       </c>
       <c r="E487" s="27">
-        <v>203.7</v>
+        <v>199.5</v>
       </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.25">
@@ -10658,16 +10658,16 @@
         <v>494</v>
       </c>
       <c r="B492" s="24">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C492" s="25">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D492" s="26">
         <v>2.1</v>
       </c>
       <c r="E492" s="27">
-        <v>136.5</v>
+        <v>132.30000000000001</v>
       </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.25">
@@ -10739,16 +10739,16 @@
         <v>499</v>
       </c>
       <c r="B497" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C497" s="25">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D497" s="26">
         <v>3.5</v>
       </c>
       <c r="E497" s="27">
-        <v>63</v>
+        <v>59.5</v>
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.25">
@@ -11011,16 +11011,16 @@
         <v>515</v>
       </c>
       <c r="B513" s="24">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C513" s="25">
-        <v>30.5</v>
+        <v>28.5</v>
       </c>
       <c r="D513" s="26">
         <v>9.5</v>
       </c>
       <c r="E513" s="27">
-        <v>289.75</v>
+        <v>270.75</v>
       </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.25">
@@ -11062,16 +11062,16 @@
         <v>518</v>
       </c>
       <c r="B516" s="24">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C516" s="25">
-        <v>124.5</v>
+        <v>123.5</v>
       </c>
       <c r="D516" s="26">
         <v>3.9</v>
       </c>
       <c r="E516" s="27">
-        <v>485.55</v>
+        <v>481.65</v>
       </c>
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.25">
@@ -11432,16 +11432,16 @@
         <v>540</v>
       </c>
       <c r="B538" s="24">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C538" s="25">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D538" s="26">
         <v>1.4</v>
       </c>
       <c r="E538" s="27">
-        <v>232.4</v>
+        <v>231</v>
       </c>
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.25">
@@ -11511,16 +11511,16 @@
         <v>545</v>
       </c>
       <c r="B543" s="24">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C543" s="25">
-        <v>361.5</v>
+        <v>356.5</v>
       </c>
       <c r="D543" s="26">
         <v>1.5</v>
       </c>
       <c r="E543" s="27">
-        <v>542.25</v>
+        <v>534.75</v>
       </c>
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.25">
@@ -11528,10 +11528,10 @@
         <v>546</v>
       </c>
       <c r="B544" s="24">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C544" s="25">
-        <v>256</v>
+        <v>202</v>
       </c>
       <c r="D544" s="28"/>
       <c r="E544" s="29"/>
@@ -11541,10 +11541,10 @@
         <v>547</v>
       </c>
       <c r="B545" s="24">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C545" s="25">
-        <v>412.5</v>
+        <v>410.5</v>
       </c>
       <c r="D545" s="28"/>
       <c r="E545" s="29"/>
@@ -11580,10 +11580,10 @@
         <v>550</v>
       </c>
       <c r="B548" s="24">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C548" s="25">
-        <v>37.9</v>
+        <v>27.9</v>
       </c>
       <c r="D548" s="28"/>
       <c r="E548" s="29"/>
@@ -11945,16 +11945,16 @@
         <v>573</v>
       </c>
       <c r="B571" s="24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C571" s="25">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D571" s="26">
         <v>6.5</v>
       </c>
       <c r="E571" s="27">
-        <v>58.5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="572" spans="1:5" x14ac:dyDescent="0.25">
@@ -12251,16 +12251,16 @@
         <v>591</v>
       </c>
       <c r="B589" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C589" s="25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D589" s="26">
         <v>4.5</v>
       </c>
       <c r="E589" s="27">
-        <v>18</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.25">
@@ -13015,13 +13015,13 @@
         <v>8</v>
       </c>
       <c r="C634" s="25">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="D634" s="26">
         <v>5</v>
       </c>
       <c r="E634" s="27">
-        <v>97.5</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="635" spans="1:5" x14ac:dyDescent="0.25">
@@ -13320,16 +13320,16 @@
         <v>658</v>
       </c>
       <c r="B656" s="24">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C656" s="25">
-        <v>-149</v>
+        <v>-155</v>
       </c>
       <c r="D656" s="26">
         <v>1</v>
       </c>
       <c r="E656" s="27">
-        <v>-149</v>
+        <v>-155</v>
       </c>
     </row>
     <row r="657" spans="1:5" x14ac:dyDescent="0.25">
@@ -13486,10 +13486,10 @@
         <v>668</v>
       </c>
       <c r="B666" s="24">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C666" s="25">
-        <v>-224</v>
+        <v>-225</v>
       </c>
       <c r="D666" s="28"/>
       <c r="E666" s="29"/>
@@ -13500,11 +13500,11 @@
       </c>
       <c r="B667" s="31"/>
       <c r="C667" s="32">
-        <v>38301.89</v>
+        <v>38073.879999999997</v>
       </c>
       <c r="D667" s="33"/>
       <c r="E667" s="34">
-        <v>111366.31</v>
+        <v>110809.47</v>
       </c>
     </row>
   </sheetData>

--- a/data/website stock.xlsx
+++ b/data/website stock.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="672">
   <si>
     <t>Order Estimate - (from 1-Jul-2023)</t>
   </si>
@@ -35,7 +35,7 @@
     <t>Stock Group Summary</t>
   </si>
   <si>
-    <t>1-Jul-25 to 22-Dec-25</t>
+    <t>1-Jul-25 to 25-Dec-25</t>
   </si>
   <si>
     <t/>
@@ -464,9 +464,6 @@
     <t>2121 PATRIKA (LEGACY - 10)</t>
   </si>
   <si>
-    <t>2122 PATRIKA (LEGACY - 11)</t>
-  </si>
-  <si>
     <t>2123 PATRIKA (LEGACY - 12)</t>
   </si>
   <si>
@@ -773,9 +770,6 @@
     <t>5075 PATRIKA (JC) (25-082)</t>
   </si>
   <si>
-    <t>5076 PATRIKA (JC) (3701 SBC)</t>
-  </si>
-  <si>
     <t>5077 PATRIKA (2081)</t>
   </si>
   <si>
@@ -827,6 +821,9 @@
     <t>5097 PATRIKA (25321)</t>
   </si>
   <si>
+    <t>5098 PATRIKA *-* (M) (31.12) (857)</t>
+  </si>
+  <si>
     <t>5099 PATRIKA *-* (M) (852 DHANESH)</t>
   </si>
   <si>
@@ -1193,6 +1190,9 @@
     <t>5612 PATRIKA (DCU) (5276)</t>
   </si>
   <si>
+    <t>5614 PATRIKA *-* (M) (2331)</t>
+  </si>
+  <si>
     <t>5615 PATRIKA (2111)</t>
   </si>
   <si>
@@ -1565,6 +1565,9 @@
     <t>7422 PATRIKA (3702)</t>
   </si>
   <si>
+    <t>7423 PATRIKA (254 SBC)</t>
+  </si>
+  <si>
     <t>7424 PATRIKA *-* (F) (25-047)</t>
   </si>
   <si>
@@ -1773,6 +1776,9 @@
   </si>
   <si>
     <t>9322 CARDS *-* (M) (22912 COMMON)</t>
+  </si>
+  <si>
+    <t>9323 CARDS (9005 OLD) (9*5 CREAM FOIL NEW)</t>
   </si>
   <si>
     <t>9324 CARDS (9*5 PINK FOIL NEW)</t>
@@ -2557,7 +2563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E667"/>
+  <dimension ref="A1:E669"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2685,16 +2691,16 @@
         <v>13</v>
       </c>
       <c r="B11" s="24">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C11" s="25">
-        <v>61</v>
+        <v>47.5</v>
       </c>
       <c r="D11" s="26">
         <v>1.8</v>
       </c>
       <c r="E11" s="27">
-        <v>109.8</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -2736,16 +2742,16 @@
         <v>16</v>
       </c>
       <c r="B14" s="24">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" s="25">
-        <v>83.5</v>
+        <v>82</v>
       </c>
       <c r="D14" s="26">
         <v>2</v>
       </c>
       <c r="E14" s="27">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -2753,16 +2759,16 @@
         <v>17</v>
       </c>
       <c r="B15" s="24">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" s="25">
-        <v>79</v>
+        <v>75.5</v>
       </c>
       <c r="D15" s="26">
         <v>2</v>
       </c>
       <c r="E15" s="27">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -2838,16 +2844,16 @@
         <v>22</v>
       </c>
       <c r="B20" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C20" s="25">
-        <v>21.5</v>
+        <v>19.5</v>
       </c>
       <c r="D20" s="26">
         <v>2.6</v>
       </c>
       <c r="E20" s="27">
-        <v>55.9</v>
+        <v>50.7</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -2991,16 +2997,16 @@
         <v>31</v>
       </c>
       <c r="B29" s="24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C29" s="25">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="D29" s="26">
         <v>2.38</v>
       </c>
       <c r="E29" s="27">
-        <v>95.2</v>
+        <v>89.25</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -3008,16 +3014,16 @@
         <v>32</v>
       </c>
       <c r="B30" s="24">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C30" s="25">
-        <v>62</v>
+        <v>60.5</v>
       </c>
       <c r="D30" s="26">
         <v>2.85</v>
       </c>
       <c r="E30" s="27">
-        <v>176.7</v>
+        <v>172.43</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -3025,16 +3031,16 @@
         <v>33</v>
       </c>
       <c r="B31" s="24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C31" s="25">
-        <v>69.5</v>
+        <v>67.5</v>
       </c>
       <c r="D31" s="26">
         <v>2.8</v>
       </c>
       <c r="E31" s="27">
-        <v>194.6</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -3042,16 +3048,16 @@
         <v>34</v>
       </c>
       <c r="B32" s="24">
+        <v>6</v>
+      </c>
+      <c r="C32" s="25">
         <v>5</v>
-      </c>
-      <c r="C32" s="25">
-        <v>8</v>
       </c>
       <c r="D32" s="26">
         <v>2.5</v>
       </c>
       <c r="E32" s="27">
-        <v>20</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -3147,13 +3153,13 @@
         <v>10</v>
       </c>
       <c r="C38" s="25">
-        <v>0.5</v>
+        <v>59.5</v>
       </c>
       <c r="D38" s="26">
         <v>2.14</v>
       </c>
       <c r="E38" s="27">
-        <v>1.07</v>
+        <v>127.33</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -3212,16 +3218,16 @@
         <v>44</v>
       </c>
       <c r="B42" s="24">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C42" s="25">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D42" s="26">
         <v>2.66</v>
       </c>
       <c r="E42" s="27">
-        <v>140.97999999999999</v>
+        <v>135.66</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -3229,16 +3235,16 @@
         <v>45</v>
       </c>
       <c r="B43" s="24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" s="25">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D43" s="26">
         <v>2.66</v>
       </c>
       <c r="E43" s="27">
-        <v>101.08</v>
+        <v>98.42</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -3280,16 +3286,16 @@
         <v>48</v>
       </c>
       <c r="B46" s="24">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C46" s="25">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="D46" s="26">
         <v>1.26</v>
       </c>
       <c r="E46" s="27">
-        <v>11.34</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -3331,16 +3337,16 @@
         <v>51</v>
       </c>
       <c r="B49" s="24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C49" s="25">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D49" s="26">
         <v>1.8</v>
       </c>
       <c r="E49" s="27">
-        <v>212.4</v>
+        <v>203.4</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -3365,16 +3371,16 @@
         <v>53</v>
       </c>
       <c r="B51" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C51" s="25">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D51" s="26">
         <v>2.5</v>
       </c>
       <c r="E51" s="27">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -3416,16 +3422,16 @@
         <v>56</v>
       </c>
       <c r="B54" s="24">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C54" s="25">
-        <v>83.5</v>
+        <v>63.5</v>
       </c>
       <c r="D54" s="26">
         <v>1.8</v>
       </c>
       <c r="E54" s="27">
-        <v>150.30000000000001</v>
+        <v>114.3</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -3433,16 +3439,16 @@
         <v>57</v>
       </c>
       <c r="B55" s="24">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C55" s="25">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="D55" s="26">
         <v>1.9</v>
       </c>
       <c r="E55" s="27">
-        <v>288.8</v>
+        <v>260.3</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -3484,16 +3490,16 @@
         <v>60</v>
       </c>
       <c r="B58" s="24">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C58" s="25">
-        <v>285</v>
+        <v>275.5</v>
       </c>
       <c r="D58" s="26">
         <v>1.1100000000000001</v>
       </c>
       <c r="E58" s="27">
-        <v>316.35000000000002</v>
+        <v>305.81</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -3501,16 +3507,16 @@
         <v>61</v>
       </c>
       <c r="B59" s="24">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C59" s="25">
-        <v>259.5</v>
+        <v>248.5</v>
       </c>
       <c r="D59" s="26">
         <v>1.1100000000000001</v>
       </c>
       <c r="E59" s="27">
-        <v>288.05</v>
+        <v>275.83999999999997</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -3548,16 +3554,16 @@
         <v>64</v>
       </c>
       <c r="B62" s="24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" s="25">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D62" s="26">
         <v>1.65</v>
       </c>
       <c r="E62" s="27">
-        <v>171.6</v>
+        <v>166.65</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -3580,16 +3586,16 @@
         <v>66</v>
       </c>
       <c r="B64" s="24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C64" s="25">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D64" s="26">
         <v>1.65</v>
       </c>
       <c r="E64" s="27">
-        <v>82.5</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -3614,16 +3620,16 @@
         <v>68</v>
       </c>
       <c r="B66" s="24">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C66" s="25">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D66" s="26">
         <v>1.65</v>
       </c>
       <c r="E66" s="27">
-        <v>26.4</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -3646,16 +3652,16 @@
         <v>70</v>
       </c>
       <c r="B68" s="24">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C68" s="25">
-        <v>217.5</v>
+        <v>194</v>
       </c>
       <c r="D68" s="26">
         <v>1.4</v>
       </c>
       <c r="E68" s="27">
-        <v>304.5</v>
+        <v>271.60000000000002</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -3663,16 +3669,16 @@
         <v>71</v>
       </c>
       <c r="B69" s="24">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C69" s="25">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="D69" s="26">
         <v>1.4</v>
       </c>
       <c r="E69" s="27">
-        <v>330.4</v>
+        <v>302.39999999999998</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -3680,16 +3686,16 @@
         <v>72</v>
       </c>
       <c r="B70" s="24">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C70" s="25">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="D70" s="26">
         <v>1.4</v>
       </c>
       <c r="E70" s="27">
-        <v>518</v>
+        <v>490</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -3697,16 +3703,16 @@
         <v>73</v>
       </c>
       <c r="B71" s="24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C71" s="25">
-        <v>477</v>
+        <v>457</v>
       </c>
       <c r="D71" s="26">
         <v>1.4</v>
       </c>
       <c r="E71" s="27">
-        <v>667.8</v>
+        <v>639.79999999999995</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -3714,16 +3720,16 @@
         <v>74</v>
       </c>
       <c r="B72" s="24">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C72" s="25">
-        <v>578.5</v>
+        <v>532.5</v>
       </c>
       <c r="D72" s="26">
         <v>1.2</v>
       </c>
       <c r="E72" s="27">
-        <v>694.2</v>
+        <v>639</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -3731,16 +3737,16 @@
         <v>75</v>
       </c>
       <c r="B73" s="24">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C73" s="25">
-        <v>597</v>
+        <v>547</v>
       </c>
       <c r="D73" s="26">
         <v>1.2</v>
       </c>
       <c r="E73" s="27">
-        <v>716.4</v>
+        <v>656.4</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -3748,16 +3754,16 @@
         <v>76</v>
       </c>
       <c r="B74" s="24">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C74" s="25">
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="D74" s="26">
         <v>1.2</v>
       </c>
       <c r="E74" s="27">
-        <v>765.6</v>
+        <v>750</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -3780,16 +3786,16 @@
         <v>78</v>
       </c>
       <c r="B76" s="24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C76" s="25">
-        <v>653</v>
+        <v>650.5</v>
       </c>
       <c r="D76" s="26">
         <v>1.2</v>
       </c>
       <c r="E76" s="27">
-        <v>783.6</v>
+        <v>780.6</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -3797,16 +3803,16 @@
         <v>79</v>
       </c>
       <c r="B77" s="24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C77" s="25">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="D77" s="26">
         <v>1.2</v>
       </c>
       <c r="E77" s="27">
-        <v>828</v>
+        <v>820.8</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -3882,16 +3888,16 @@
         <v>84</v>
       </c>
       <c r="B82" s="24">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C82" s="25">
-        <v>95.5</v>
+        <v>87.5</v>
       </c>
       <c r="D82" s="26">
         <v>1.3</v>
       </c>
       <c r="E82" s="27">
-        <v>124.15</v>
+        <v>113.75</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -3899,16 +3905,16 @@
         <v>85</v>
       </c>
       <c r="B83" s="24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C83" s="25">
-        <v>245</v>
+        <v>1624</v>
       </c>
       <c r="D83" s="26">
         <v>1.3</v>
       </c>
       <c r="E83" s="27">
-        <v>318.5</v>
+        <v>2111.1999999999998</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -3967,16 +3973,16 @@
         <v>89</v>
       </c>
       <c r="B87" s="24">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C87" s="25">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="D87" s="26">
         <v>1.34</v>
       </c>
       <c r="E87" s="27">
-        <v>373.86</v>
+        <v>346.96</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -3984,16 +3990,16 @@
         <v>90</v>
       </c>
       <c r="B88" s="24">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C88" s="25">
-        <v>124.7</v>
+        <v>102.7</v>
       </c>
       <c r="D88" s="26">
         <v>0.84</v>
       </c>
       <c r="E88" s="27">
-        <v>105.05</v>
+        <v>86.52</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -4018,16 +4024,16 @@
         <v>92</v>
       </c>
       <c r="B90" s="24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" s="25">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="D90" s="26">
         <v>1.52</v>
       </c>
       <c r="E90" s="27">
-        <v>472.03</v>
+        <v>456.8</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -4082,16 +4088,16 @@
         <v>96</v>
       </c>
       <c r="B94" s="24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C94" s="25">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="D94" s="26">
         <v>0.81</v>
       </c>
       <c r="E94" s="27">
-        <v>325.76</v>
+        <v>320.89</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -4099,16 +4105,16 @@
         <v>97</v>
       </c>
       <c r="B95" s="24">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C95" s="25">
-        <v>192</v>
+        <v>186.5</v>
       </c>
       <c r="D95" s="26">
         <v>0.73</v>
       </c>
       <c r="E95" s="27">
-        <v>141</v>
+        <v>136.96</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -4190,16 +4196,16 @@
         <v>104</v>
       </c>
       <c r="B102" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C102" s="25">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D102" s="26">
         <v>2.5</v>
       </c>
       <c r="E102" s="27">
-        <v>20</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -4258,10 +4264,10 @@
         <v>108</v>
       </c>
       <c r="B106" s="24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C106" s="25">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D106" s="28"/>
       <c r="E106" s="29"/>
@@ -4297,10 +4303,10 @@
         <v>111</v>
       </c>
       <c r="B109" s="24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C109" s="25">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D109" s="28"/>
       <c r="E109" s="29"/>
@@ -4310,10 +4316,10 @@
         <v>112</v>
       </c>
       <c r="B110" s="24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C110" s="25">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D110" s="28"/>
       <c r="E110" s="29"/>
@@ -4379,10 +4385,10 @@
         <v>117</v>
       </c>
       <c r="B115" s="24">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C115" s="25">
-        <v>-0.44</v>
+        <v>-0.45</v>
       </c>
       <c r="D115" s="28"/>
       <c r="E115" s="29"/>
@@ -4392,10 +4398,10 @@
         <v>118</v>
       </c>
       <c r="B116" s="24">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C116" s="25">
-        <v>-1.72</v>
+        <v>-1.73</v>
       </c>
       <c r="D116" s="28"/>
       <c r="E116" s="29"/>
@@ -4405,10 +4411,10 @@
         <v>119</v>
       </c>
       <c r="B117" s="24">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C117" s="25">
-        <v>-2.37</v>
+        <v>-2.38</v>
       </c>
       <c r="D117" s="28"/>
       <c r="E117" s="29"/>
@@ -4431,10 +4437,10 @@
         <v>121</v>
       </c>
       <c r="B119" s="24">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C119" s="25">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="D119" s="28"/>
       <c r="E119" s="29"/>
@@ -4483,16 +4489,16 @@
         <v>125</v>
       </c>
       <c r="B123" s="24">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C123" s="25">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="D123" s="26">
         <v>12.5</v>
       </c>
       <c r="E123" s="27">
-        <v>162.5</v>
+        <v>131.25</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -4500,16 +4506,16 @@
         <v>126</v>
       </c>
       <c r="B124" s="24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C124" s="25">
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="D124" s="26">
         <v>12.5</v>
       </c>
       <c r="E124" s="27">
-        <v>143.75</v>
+        <v>118.75</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -4534,7 +4540,7 @@
         <v>128</v>
       </c>
       <c r="B126" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C126" s="25">
         <v>25</v>
@@ -4568,16 +4574,16 @@
         <v>130</v>
       </c>
       <c r="B128" s="24">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C128" s="25">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="D128" s="26">
         <v>12.5</v>
       </c>
       <c r="E128" s="27">
-        <v>43.75</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -4585,16 +4591,16 @@
         <v>131</v>
       </c>
       <c r="B129" s="24">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C129" s="25">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="D129" s="26">
         <v>12.5</v>
       </c>
       <c r="E129" s="27">
-        <v>150</v>
+        <v>118.75</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -4636,16 +4642,16 @@
         <v>134</v>
       </c>
       <c r="B132" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C132" s="25">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="D132" s="26">
         <v>12.5</v>
       </c>
       <c r="E132" s="27">
-        <v>212.5</v>
+        <v>206.25</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -4671,13 +4677,13 @@
         <v>20</v>
       </c>
       <c r="C134" s="25">
-        <v>28.5</v>
+        <v>27.5</v>
       </c>
       <c r="D134" s="26">
         <v>18.5</v>
       </c>
       <c r="E134" s="27">
-        <v>527.25</v>
+        <v>508.75</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -4702,16 +4708,16 @@
         <v>138</v>
       </c>
       <c r="B136" s="24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" s="25">
-        <v>10.5</v>
+        <v>8.5</v>
       </c>
       <c r="D136" s="26">
         <v>18.5</v>
       </c>
       <c r="E136" s="27">
-        <v>194.25</v>
+        <v>157.25</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -4753,7 +4759,7 @@
         <v>141</v>
       </c>
       <c r="B139" s="24">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C139" s="25">
         <v>-3</v>
@@ -4838,16 +4844,16 @@
         <v>146</v>
       </c>
       <c r="B144" s="24">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C144" s="25">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D144" s="26">
         <v>18.5</v>
       </c>
       <c r="E144" s="27">
-        <v>37</v>
+        <v>222</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -4855,16 +4861,16 @@
         <v>147</v>
       </c>
       <c r="B145" s="24">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C145" s="25">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D145" s="26">
-        <v>18.5</v>
+        <v>11.5</v>
       </c>
       <c r="E145" s="27">
-        <v>222</v>
+        <v>80.5</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -4872,16 +4878,16 @@
         <v>148</v>
       </c>
       <c r="B146" s="24">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C146" s="25">
-        <v>7</v>
+        <v>15.5</v>
       </c>
       <c r="D146" s="26">
         <v>11.5</v>
       </c>
       <c r="E146" s="27">
-        <v>80.5</v>
+        <v>178.25</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -4889,16 +4895,16 @@
         <v>149</v>
       </c>
       <c r="B147" s="24">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C147" s="25">
-        <v>0.5</v>
+        <v>13.5</v>
       </c>
       <c r="D147" s="26">
         <v>11.5</v>
       </c>
       <c r="E147" s="27">
-        <v>5.75</v>
+        <v>155.25</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -4906,16 +4912,16 @@
         <v>150</v>
       </c>
       <c r="B148" s="24">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C148" s="25">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="D148" s="26">
         <v>11.5</v>
       </c>
       <c r="E148" s="27">
-        <v>155.25</v>
+        <v>149.5</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -4923,16 +4929,16 @@
         <v>151</v>
       </c>
       <c r="B149" s="24">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C149" s="25">
-        <v>13</v>
+        <v>22.5</v>
       </c>
       <c r="D149" s="26">
         <v>11.5</v>
       </c>
       <c r="E149" s="27">
-        <v>149.5</v>
+        <v>258.75</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -4940,16 +4946,16 @@
         <v>152</v>
       </c>
       <c r="B150" s="24">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C150" s="25">
-        <v>22.5</v>
+        <v>10</v>
       </c>
       <c r="D150" s="26">
         <v>11.5</v>
       </c>
       <c r="E150" s="27">
-        <v>258.75</v>
+        <v>115</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -4957,16 +4963,16 @@
         <v>153</v>
       </c>
       <c r="B151" s="24">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C151" s="25">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="D151" s="26">
         <v>11.5</v>
       </c>
       <c r="E151" s="27">
-        <v>115</v>
+        <v>120.75</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -4974,16 +4980,16 @@
         <v>154</v>
       </c>
       <c r="B152" s="24">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C152" s="25">
-        <v>18.5</v>
+        <v>27</v>
       </c>
       <c r="D152" s="26">
         <v>11.5</v>
       </c>
       <c r="E152" s="27">
-        <v>212.75</v>
+        <v>310.5</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -4991,16 +4997,16 @@
         <v>155</v>
       </c>
       <c r="B153" s="24">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C153" s="25">
-        <v>27</v>
+        <v>13.5</v>
       </c>
       <c r="D153" s="26">
         <v>11.5</v>
       </c>
       <c r="E153" s="27">
-        <v>310.5</v>
+        <v>155.25</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -5011,13 +5017,13 @@
         <v>7</v>
       </c>
       <c r="C154" s="25">
-        <v>20.5</v>
+        <v>12.5</v>
       </c>
       <c r="D154" s="26">
         <v>11.5</v>
       </c>
       <c r="E154" s="27">
-        <v>235.75</v>
+        <v>143.75</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -5025,16 +5031,16 @@
         <v>157</v>
       </c>
       <c r="B155" s="24">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C155" s="25">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="D155" s="26">
         <v>11.5</v>
       </c>
       <c r="E155" s="27">
-        <v>143.75</v>
+        <v>155.25</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -5042,16 +5048,16 @@
         <v>158</v>
       </c>
       <c r="B156" s="24">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C156" s="25">
-        <v>17</v>
+        <v>20.5</v>
       </c>
       <c r="D156" s="26">
         <v>11.5</v>
       </c>
       <c r="E156" s="27">
-        <v>195.5</v>
+        <v>235.75</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -5059,16 +5065,16 @@
         <v>159</v>
       </c>
       <c r="B157" s="24">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C157" s="25">
-        <v>20.5</v>
+        <v>216</v>
       </c>
       <c r="D157" s="26">
-        <v>11.5</v>
+        <v>0.95</v>
       </c>
       <c r="E157" s="27">
-        <v>235.75</v>
+        <v>205.2</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -5076,16 +5082,16 @@
         <v>160</v>
       </c>
       <c r="B158" s="24">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C158" s="25">
-        <v>216</v>
+        <v>48.25</v>
       </c>
       <c r="D158" s="26">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E158" s="27">
-        <v>205.2</v>
+        <v>48.25</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -5093,16 +5099,16 @@
         <v>161</v>
       </c>
       <c r="B159" s="24">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C159" s="25">
-        <v>48.25</v>
+        <v>113.5</v>
       </c>
       <c r="D159" s="26">
         <v>1</v>
       </c>
       <c r="E159" s="27">
-        <v>48.25</v>
+        <v>113.5</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -5110,16 +5116,16 @@
         <v>162</v>
       </c>
       <c r="B160" s="24">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C160" s="25">
-        <v>115</v>
+        <v>265.5</v>
       </c>
       <c r="D160" s="26">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="E160" s="27">
-        <v>115</v>
+        <v>345.15</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -5127,16 +5133,16 @@
         <v>163</v>
       </c>
       <c r="B161" s="24">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="C161" s="25">
-        <v>257.5</v>
+        <v>-36.5</v>
       </c>
       <c r="D161" s="26">
-        <v>1.3</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="E161" s="27">
-        <v>334.75</v>
+        <v>-41.97</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -5144,16 +5150,16 @@
         <v>164</v>
       </c>
       <c r="B162" s="24">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="C162" s="25">
-        <v>-36.5</v>
+        <v>10.5</v>
       </c>
       <c r="D162" s="26">
-        <v>1.1499999999999999</v>
+        <v>3.5</v>
       </c>
       <c r="E162" s="27">
-        <v>-41.97</v>
+        <v>36.75</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -5161,16 +5167,16 @@
         <v>165</v>
       </c>
       <c r="B163" s="24">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C163" s="25">
-        <v>10.5</v>
+        <v>40.5</v>
       </c>
       <c r="D163" s="26">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="E163" s="27">
-        <v>36.75</v>
+        <v>131.63</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -5178,16 +5184,16 @@
         <v>166</v>
       </c>
       <c r="B164" s="24">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C164" s="25">
-        <v>40.5</v>
+        <v>19.95</v>
       </c>
       <c r="D164" s="26">
         <v>3.25</v>
       </c>
       <c r="E164" s="27">
-        <v>131.63</v>
+        <v>64.84</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -5195,48 +5201,48 @@
         <v>167</v>
       </c>
       <c r="B165" s="24">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C165" s="25">
-        <v>19.95</v>
+        <v>85</v>
       </c>
       <c r="D165" s="26">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="E165" s="27">
-        <v>64.84</v>
+        <v>229.5</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="B166" s="24">
-        <v>8</v>
-      </c>
+      <c r="B166" s="24"/>
       <c r="C166" s="25">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="D166" s="26">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="E166" s="27">
-        <v>229.5</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="B167" s="24"/>
+      <c r="B167" s="24">
+        <v>1</v>
+      </c>
       <c r="C167" s="25">
-        <v>4</v>
+        <v>42.82</v>
       </c>
       <c r="D167" s="26">
         <v>3.3</v>
       </c>
       <c r="E167" s="27">
-        <v>13.2</v>
+        <v>141.31</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -5244,16 +5250,16 @@
         <v>170</v>
       </c>
       <c r="B168" s="24">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C168" s="25">
-        <v>42.82</v>
+        <v>156.5</v>
       </c>
       <c r="D168" s="26">
-        <v>3.3</v>
+        <v>2.78</v>
       </c>
       <c r="E168" s="27">
-        <v>141.31</v>
+        <v>435.72</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -5261,16 +5267,16 @@
         <v>171</v>
       </c>
       <c r="B169" s="24">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C169" s="25">
-        <v>158.5</v>
+        <v>11</v>
       </c>
       <c r="D169" s="26">
-        <v>2.78</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E169" s="27">
-        <v>441.29</v>
+        <v>45.1</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -5278,16 +5284,16 @@
         <v>172</v>
       </c>
       <c r="B170" s="24">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C170" s="25">
-        <v>11</v>
+        <v>21.5</v>
       </c>
       <c r="D170" s="26">
-        <v>4.0999999999999996</v>
+        <v>3.33</v>
       </c>
       <c r="E170" s="27">
-        <v>45.1</v>
+        <v>71.599999999999994</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -5295,16 +5301,16 @@
         <v>173</v>
       </c>
       <c r="B171" s="24">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C171" s="25">
-        <v>21.5</v>
+        <v>52.5</v>
       </c>
       <c r="D171" s="26">
         <v>3.33</v>
       </c>
       <c r="E171" s="27">
-        <v>71.599999999999994</v>
+        <v>174.83</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -5312,16 +5318,16 @@
         <v>174</v>
       </c>
       <c r="B172" s="24">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C172" s="25">
-        <v>52.5</v>
+        <v>10.5</v>
       </c>
       <c r="D172" s="26">
-        <v>3.33</v>
+        <v>4.25</v>
       </c>
       <c r="E172" s="27">
-        <v>174.83</v>
+        <v>44.63</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -5329,16 +5335,16 @@
         <v>175</v>
       </c>
       <c r="B173" s="24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C173" s="25">
-        <v>10.5</v>
+        <v>31</v>
       </c>
       <c r="D173" s="26">
-        <v>4.25</v>
+        <v>3.56</v>
       </c>
       <c r="E173" s="27">
-        <v>44.63</v>
+        <v>110.36</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -5346,16 +5352,16 @@
         <v>176</v>
       </c>
       <c r="B174" s="24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C174" s="25">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D174" s="26">
-        <v>3.56</v>
+        <v>4.75</v>
       </c>
       <c r="E174" s="27">
-        <v>110.36</v>
+        <v>57</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -5363,16 +5369,16 @@
         <v>177</v>
       </c>
       <c r="B175" s="24">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C175" s="25">
-        <v>12</v>
+        <v>25.5</v>
       </c>
       <c r="D175" s="26">
-        <v>4.75</v>
+        <v>2.76</v>
       </c>
       <c r="E175" s="27">
-        <v>57</v>
+        <v>70.430000000000007</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -5380,16 +5386,16 @@
         <v>178</v>
       </c>
       <c r="B176" s="24">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C176" s="25">
-        <v>25.5</v>
+        <v>100</v>
       </c>
       <c r="D176" s="26">
-        <v>2.76</v>
+        <v>2.65</v>
       </c>
       <c r="E176" s="27">
-        <v>70.430000000000007</v>
+        <v>265</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -5397,48 +5403,48 @@
         <v>179</v>
       </c>
       <c r="B177" s="24">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="C177" s="25">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="D177" s="26">
-        <v>2.65</v>
+        <v>3.45</v>
       </c>
       <c r="E177" s="27">
-        <v>265</v>
+        <v>10.35</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="B178" s="24">
-        <v>6</v>
-      </c>
+      <c r="B178" s="24"/>
       <c r="C178" s="25">
-        <v>3</v>
+        <v>17.5</v>
       </c>
       <c r="D178" s="26">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="E178" s="27">
-        <v>10.35</v>
+        <v>61.25</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="B179" s="24"/>
+      <c r="B179" s="24">
+        <v>4</v>
+      </c>
       <c r="C179" s="25">
-        <v>17.5</v>
+        <v>42</v>
       </c>
       <c r="D179" s="26">
-        <v>3.5</v>
+        <v>3.56</v>
       </c>
       <c r="E179" s="27">
-        <v>61.25</v>
+        <v>149.52000000000001</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
@@ -5446,16 +5452,16 @@
         <v>182</v>
       </c>
       <c r="B180" s="24">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C180" s="25">
-        <v>42</v>
+        <v>30.5</v>
       </c>
       <c r="D180" s="26">
-        <v>3.56</v>
+        <v>5</v>
       </c>
       <c r="E180" s="27">
-        <v>149.52000000000001</v>
+        <v>152.5</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
@@ -5463,16 +5469,16 @@
         <v>183</v>
       </c>
       <c r="B181" s="24">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C181" s="25">
-        <v>30.5</v>
+        <v>14.5</v>
       </c>
       <c r="D181" s="26">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="E181" s="27">
-        <v>152.5</v>
+        <v>49.3</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
@@ -5480,16 +5486,16 @@
         <v>184</v>
       </c>
       <c r="B182" s="24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C182" s="25">
-        <v>14.5</v>
+        <v>24</v>
       </c>
       <c r="D182" s="26">
-        <v>3.4</v>
+        <v>3.14</v>
       </c>
       <c r="E182" s="27">
-        <v>49.3</v>
+        <v>75.36</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
@@ -5497,16 +5503,16 @@
         <v>185</v>
       </c>
       <c r="B183" s="24">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C183" s="25">
-        <v>24</v>
+        <v>20.5</v>
       </c>
       <c r="D183" s="26">
-        <v>3.14</v>
+        <v>4.5</v>
       </c>
       <c r="E183" s="27">
-        <v>75.36</v>
+        <v>92.25</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
@@ -5514,16 +5520,16 @@
         <v>186</v>
       </c>
       <c r="B184" s="24">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C184" s="25">
-        <v>22.5</v>
+        <v>19</v>
       </c>
       <c r="D184" s="26">
         <v>4.5</v>
       </c>
       <c r="E184" s="27">
-        <v>101.25</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -5531,16 +5537,16 @@
         <v>187</v>
       </c>
       <c r="B185" s="24">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C185" s="25">
-        <v>19</v>
+        <v>85.5</v>
       </c>
       <c r="D185" s="26">
         <v>4.5</v>
       </c>
       <c r="E185" s="27">
-        <v>85.5</v>
+        <v>384.75</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
@@ -5548,16 +5554,16 @@
         <v>188</v>
       </c>
       <c r="B186" s="24">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C186" s="25">
-        <v>85.5</v>
+        <v>17.5</v>
       </c>
       <c r="D186" s="26">
         <v>4.5</v>
       </c>
       <c r="E186" s="27">
-        <v>384.75</v>
+        <v>78.75</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -5565,16 +5571,16 @@
         <v>189</v>
       </c>
       <c r="B187" s="24">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C187" s="25">
-        <v>17.5</v>
+        <v>77</v>
       </c>
       <c r="D187" s="26">
         <v>4.5</v>
       </c>
       <c r="E187" s="27">
-        <v>78.75</v>
+        <v>346.5</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -5582,16 +5588,16 @@
         <v>190</v>
       </c>
       <c r="B188" s="24">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C188" s="25">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="D188" s="26">
-        <v>4.5</v>
+        <v>2.85</v>
       </c>
       <c r="E188" s="27">
-        <v>346.5</v>
+        <v>65.55</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -5599,16 +5605,16 @@
         <v>191</v>
       </c>
       <c r="B189" s="24">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C189" s="25">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="D189" s="26">
-        <v>2.85</v>
+        <v>3.4</v>
       </c>
       <c r="E189" s="27">
-        <v>65.55</v>
+        <v>459</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -5616,16 +5622,16 @@
         <v>192</v>
       </c>
       <c r="B190" s="24">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C190" s="25">
-        <v>135</v>
+        <v>64.5</v>
       </c>
       <c r="D190" s="26">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="E190" s="27">
-        <v>459</v>
+        <v>174.15</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -5633,16 +5639,16 @@
         <v>193</v>
       </c>
       <c r="B191" s="24">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C191" s="25">
-        <v>69.5</v>
+        <v>44.5</v>
       </c>
       <c r="D191" s="26">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="E191" s="27">
-        <v>187.65</v>
+        <v>115.7</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -5650,16 +5656,16 @@
         <v>194</v>
       </c>
       <c r="B192" s="24">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C192" s="25">
-        <v>49.5</v>
+        <v>44</v>
       </c>
       <c r="D192" s="26">
         <v>2.6</v>
       </c>
       <c r="E192" s="27">
-        <v>128.69999999999999</v>
+        <v>114.4</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
@@ -5667,16 +5673,16 @@
         <v>195</v>
       </c>
       <c r="B193" s="24">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C193" s="25">
-        <v>47</v>
+        <v>58.5</v>
       </c>
       <c r="D193" s="26">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="E193" s="27">
-        <v>122.2</v>
+        <v>204.75</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
@@ -5684,16 +5690,16 @@
         <v>196</v>
       </c>
       <c r="B194" s="24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C194" s="25">
-        <v>58.5</v>
+        <v>0.5</v>
       </c>
       <c r="D194" s="26">
-        <v>3.5</v>
+        <v>5.26</v>
       </c>
       <c r="E194" s="27">
-        <v>204.75</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
@@ -5701,16 +5707,16 @@
         <v>197</v>
       </c>
       <c r="B195" s="24">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C195" s="25">
-        <v>5.5</v>
+        <v>46.5</v>
       </c>
       <c r="D195" s="26">
-        <v>5.25</v>
+        <v>3.9</v>
       </c>
       <c r="E195" s="27">
-        <v>28.88</v>
+        <v>181.37</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
@@ -5718,16 +5724,16 @@
         <v>198</v>
       </c>
       <c r="B196" s="24">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C196" s="25">
-        <v>48.5</v>
+        <v>59.5</v>
       </c>
       <c r="D196" s="26">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="E196" s="27">
-        <v>189.17</v>
+        <v>267.75</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
@@ -5735,16 +5741,16 @@
         <v>199</v>
       </c>
       <c r="B197" s="24">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="C197" s="25">
-        <v>64</v>
+        <v>219</v>
       </c>
       <c r="D197" s="26">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="E197" s="27">
-        <v>288</v>
+        <v>591.29999999999995</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
@@ -5752,16 +5758,16 @@
         <v>200</v>
       </c>
       <c r="B198" s="24">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="C198" s="25">
-        <v>220.5</v>
+        <v>187.5</v>
       </c>
       <c r="D198" s="26">
         <v>2.7</v>
       </c>
       <c r="E198" s="27">
-        <v>595.35</v>
+        <v>506.25</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -5769,16 +5775,16 @@
         <v>201</v>
       </c>
       <c r="B199" s="24">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C199" s="25">
-        <v>187.5</v>
+        <v>99</v>
       </c>
       <c r="D199" s="26">
-        <v>2.7</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E199" s="27">
-        <v>506.25</v>
+        <v>227.7</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
@@ -5786,16 +5792,16 @@
         <v>202</v>
       </c>
       <c r="B200" s="24">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C200" s="25">
-        <v>99</v>
+        <v>40.5</v>
       </c>
       <c r="D200" s="26">
-        <v>2.2999999999999998</v>
+        <v>4.5</v>
       </c>
       <c r="E200" s="27">
-        <v>227.7</v>
+        <v>182.25</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
@@ -5803,16 +5809,16 @@
         <v>203</v>
       </c>
       <c r="B201" s="24">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C201" s="25">
-        <v>40.5</v>
+        <v>3</v>
       </c>
       <c r="D201" s="26">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="E201" s="27">
-        <v>182.25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
@@ -5820,16 +5826,16 @@
         <v>204</v>
       </c>
       <c r="B202" s="24">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C202" s="25">
-        <v>7</v>
+        <v>76.5</v>
       </c>
       <c r="D202" s="26">
         <v>3</v>
       </c>
       <c r="E202" s="27">
-        <v>21</v>
+        <v>229.5</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
@@ -5837,16 +5843,16 @@
         <v>205</v>
       </c>
       <c r="B203" s="24">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C203" s="25">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="D203" s="26">
-        <v>3</v>
+        <v>3.92</v>
       </c>
       <c r="E203" s="27">
-        <v>234</v>
+        <v>576.36</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
@@ -5854,16 +5860,16 @@
         <v>206</v>
       </c>
       <c r="B204" s="24">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C204" s="25">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D204" s="26">
-        <v>3.92</v>
+        <v>3.25</v>
       </c>
       <c r="E204" s="27">
-        <v>576.36</v>
+        <v>448.5</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
@@ -5871,16 +5877,16 @@
         <v>207</v>
       </c>
       <c r="B205" s="24">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C205" s="25">
-        <v>138</v>
+        <v>52.5</v>
       </c>
       <c r="D205" s="26">
-        <v>3.25</v>
+        <v>3.57</v>
       </c>
       <c r="E205" s="27">
-        <v>448.5</v>
+        <v>187.53</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
@@ -5888,16 +5894,16 @@
         <v>208</v>
       </c>
       <c r="B206" s="24">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C206" s="25">
-        <v>56.5</v>
+        <v>38.5</v>
       </c>
       <c r="D206" s="26">
-        <v>3.57</v>
+        <v>2.7</v>
       </c>
       <c r="E206" s="27">
-        <v>201.81</v>
+        <v>103.95</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
@@ -5905,16 +5911,16 @@
         <v>209</v>
       </c>
       <c r="B207" s="24">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C207" s="25">
-        <v>39.5</v>
+        <v>56.72</v>
       </c>
       <c r="D207" s="26">
-        <v>2.7</v>
+        <v>3.16</v>
       </c>
       <c r="E207" s="27">
-        <v>106.65</v>
+        <v>179.24</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
@@ -5922,16 +5928,16 @@
         <v>210</v>
       </c>
       <c r="B208" s="24">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C208" s="25">
-        <v>56.72</v>
+        <v>106</v>
       </c>
       <c r="D208" s="26">
-        <v>3.16</v>
+        <v>2.66</v>
       </c>
       <c r="E208" s="27">
-        <v>179.24</v>
+        <v>281.95999999999998</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -5939,16 +5945,16 @@
         <v>211</v>
       </c>
       <c r="B209" s="24">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C209" s="25">
-        <v>106</v>
+        <v>69.5</v>
       </c>
       <c r="D209" s="26">
-        <v>2.66</v>
+        <v>4</v>
       </c>
       <c r="E209" s="27">
-        <v>281.95999999999998</v>
+        <v>278</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -5956,16 +5962,16 @@
         <v>212</v>
       </c>
       <c r="B210" s="24">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C210" s="25">
-        <v>69.5</v>
+        <v>122</v>
       </c>
       <c r="D210" s="26">
         <v>4</v>
       </c>
       <c r="E210" s="27">
-        <v>278</v>
+        <v>488</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -5973,16 +5979,16 @@
         <v>213</v>
       </c>
       <c r="B211" s="24">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C211" s="25">
-        <v>122</v>
+        <v>62</v>
       </c>
       <c r="D211" s="26">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E211" s="27">
-        <v>488</v>
+        <v>217</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -5990,16 +5996,16 @@
         <v>214</v>
       </c>
       <c r="B212" s="24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C212" s="25">
-        <v>62</v>
+        <v>11.5</v>
       </c>
       <c r="D212" s="26">
-        <v>3.5</v>
+        <v>3.33</v>
       </c>
       <c r="E212" s="27">
-        <v>217</v>
+        <v>38.299999999999997</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -6007,16 +6013,16 @@
         <v>215</v>
       </c>
       <c r="B213" s="24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C213" s="25">
-        <v>11.5</v>
+        <v>113</v>
       </c>
       <c r="D213" s="26">
-        <v>3.33</v>
+        <v>3.96</v>
       </c>
       <c r="E213" s="27">
-        <v>38.299999999999997</v>
+        <v>447.13</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -6024,16 +6030,16 @@
         <v>216</v>
       </c>
       <c r="B214" s="24">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C214" s="25">
-        <v>113</v>
+        <v>75.5</v>
       </c>
       <c r="D214" s="26">
-        <v>3.96</v>
+        <v>3.5</v>
       </c>
       <c r="E214" s="27">
-        <v>447.13</v>
+        <v>264.25</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -6041,16 +6047,16 @@
         <v>217</v>
       </c>
       <c r="B215" s="24">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C215" s="25">
-        <v>75.5</v>
+        <v>79</v>
       </c>
       <c r="D215" s="26">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="E215" s="27">
-        <v>264.25</v>
+        <v>256.75</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
@@ -6058,33 +6064,31 @@
         <v>218</v>
       </c>
       <c r="B216" s="24">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C216" s="25">
-        <v>83</v>
+        <v>70.5</v>
       </c>
       <c r="D216" s="26">
         <v>3.25</v>
       </c>
       <c r="E216" s="27">
-        <v>269.75</v>
+        <v>229.13</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="B217" s="24">
-        <v>22</v>
-      </c>
+      <c r="B217" s="24"/>
       <c r="C217" s="25">
-        <v>70.5</v>
+        <v>29</v>
       </c>
       <c r="D217" s="26">
-        <v>3.25</v>
+        <v>3.33</v>
       </c>
       <c r="E217" s="27">
-        <v>229.13</v>
+        <v>96.57</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
@@ -6093,28 +6097,30 @@
       </c>
       <c r="B218" s="24"/>
       <c r="C218" s="25">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D218" s="26">
         <v>3.33</v>
       </c>
       <c r="E218" s="27">
-        <v>96.57</v>
+        <v>99.9</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="B219" s="24"/>
+      <c r="B219" s="24">
+        <v>1</v>
+      </c>
       <c r="C219" s="25">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D219" s="26">
-        <v>3.33</v>
+        <v>4</v>
       </c>
       <c r="E219" s="27">
-        <v>99.9</v>
+        <v>52</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -6122,16 +6128,16 @@
         <v>222</v>
       </c>
       <c r="B220" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C220" s="25">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D220" s="26">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="E220" s="27">
-        <v>52</v>
+        <v>76</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
@@ -6139,27 +6145,23 @@
         <v>223</v>
       </c>
       <c r="B221" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C221" s="25">
-        <v>20</v>
-      </c>
-      <c r="D221" s="26">
-        <v>3.8</v>
-      </c>
-      <c r="E221" s="27">
-        <v>76</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D221" s="28"/>
+      <c r="E221" s="29"/>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="23" t="s">
         <v>224</v>
       </c>
       <c r="B222" s="24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C222" s="25">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D222" s="28"/>
       <c r="E222" s="29"/>
@@ -6172,7 +6174,7 @@
         <v>2</v>
       </c>
       <c r="C223" s="25">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D223" s="28"/>
       <c r="E223" s="29"/>
@@ -6182,29 +6184,33 @@
         <v>226</v>
       </c>
       <c r="B224" s="24">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C224" s="25">
-        <v>20</v>
-      </c>
-      <c r="D224" s="28"/>
-      <c r="E224" s="29"/>
+        <v>13.5</v>
+      </c>
+      <c r="D224" s="26">
+        <v>8.25</v>
+      </c>
+      <c r="E224" s="27">
+        <v>111.38</v>
+      </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="23" t="s">
         <v>227</v>
       </c>
       <c r="B225" s="24">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C225" s="25">
-        <v>13.5</v>
+        <v>4.5</v>
       </c>
       <c r="D225" s="26">
-        <v>8.25</v>
+        <v>5.75</v>
       </c>
       <c r="E225" s="27">
-        <v>111.38</v>
+        <v>25.88</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
@@ -6212,16 +6218,16 @@
         <v>228</v>
       </c>
       <c r="B226" s="24">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C226" s="25">
-        <v>5.5</v>
+        <v>71</v>
       </c>
       <c r="D226" s="26">
-        <v>5.75</v>
+        <v>4.8</v>
       </c>
       <c r="E226" s="27">
-        <v>31.63</v>
+        <v>340.8</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
@@ -6229,16 +6235,16 @@
         <v>229</v>
       </c>
       <c r="B227" s="24">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="C227" s="25">
-        <v>74</v>
+        <v>27.5</v>
       </c>
       <c r="D227" s="26">
-        <v>4.8</v>
+        <v>6.3</v>
       </c>
       <c r="E227" s="27">
-        <v>355.2</v>
+        <v>173.25</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
@@ -6246,16 +6252,16 @@
         <v>230</v>
       </c>
       <c r="B228" s="24">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="C228" s="25">
-        <v>33.5</v>
+        <v>35.5</v>
       </c>
       <c r="D228" s="26">
-        <v>6.3</v>
+        <v>3</v>
       </c>
       <c r="E228" s="27">
-        <v>211.05</v>
+        <v>106.5</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
@@ -6263,16 +6269,16 @@
         <v>231</v>
       </c>
       <c r="B229" s="24">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="C229" s="25">
-        <v>35.5</v>
+        <v>68</v>
       </c>
       <c r="D229" s="26">
         <v>3</v>
       </c>
       <c r="E229" s="27">
-        <v>106.5</v>
+        <v>204</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
@@ -6280,16 +6286,16 @@
         <v>232</v>
       </c>
       <c r="B230" s="24">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C230" s="25">
-        <v>68</v>
+        <v>53.5</v>
       </c>
       <c r="D230" s="26">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="E230" s="27">
-        <v>204</v>
+        <v>203.3</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
@@ -6297,16 +6303,16 @@
         <v>233</v>
       </c>
       <c r="B231" s="24">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="C231" s="25">
-        <v>53.5</v>
+        <v>135.5</v>
       </c>
       <c r="D231" s="26">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="E231" s="27">
-        <v>203.3</v>
+        <v>528.45000000000005</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
@@ -6314,48 +6320,48 @@
         <v>234</v>
       </c>
       <c r="B232" s="24">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="C232" s="25">
-        <v>142.5</v>
+        <v>130</v>
       </c>
       <c r="D232" s="26">
         <v>3.9</v>
       </c>
       <c r="E232" s="27">
-        <v>555.75</v>
+        <v>507</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="B233" s="24">
-        <v>45</v>
-      </c>
+      <c r="B233" s="24"/>
       <c r="C233" s="25">
-        <v>141.5</v>
+        <v>8</v>
       </c>
       <c r="D233" s="26">
-        <v>3.9</v>
+        <v>5.5</v>
       </c>
       <c r="E233" s="27">
-        <v>551.85</v>
+        <v>44</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="B234" s="24"/>
+      <c r="B234" s="24">
+        <v>1</v>
+      </c>
       <c r="C234" s="25">
-        <v>8</v>
+        <v>26.5</v>
       </c>
       <c r="D234" s="26">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="E234" s="27">
-        <v>44</v>
+        <v>159</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
@@ -6363,16 +6369,16 @@
         <v>237</v>
       </c>
       <c r="B235" s="24">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C235" s="25">
-        <v>26.5</v>
+        <v>68</v>
       </c>
       <c r="D235" s="26">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="E235" s="27">
-        <v>159</v>
+        <v>238</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
@@ -6380,16 +6386,16 @@
         <v>238</v>
       </c>
       <c r="B236" s="24">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C236" s="25">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="D236" s="26">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="E236" s="27">
-        <v>255.5</v>
+        <v>140.25</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
@@ -6397,16 +6403,16 @@
         <v>239</v>
       </c>
       <c r="B237" s="24">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C237" s="25">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D237" s="26">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="E237" s="27">
-        <v>140.25</v>
+        <v>150.5</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
@@ -6414,16 +6420,16 @@
         <v>240</v>
       </c>
       <c r="B238" s="24">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C238" s="25">
-        <v>43</v>
+        <v>22.5</v>
       </c>
       <c r="D238" s="26">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E238" s="27">
-        <v>150.5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
@@ -6431,16 +6437,16 @@
         <v>241</v>
       </c>
       <c r="B239" s="24">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C239" s="25">
-        <v>22.5</v>
+        <v>9.5</v>
       </c>
       <c r="D239" s="26">
-        <v>4</v>
+        <v>4.95</v>
       </c>
       <c r="E239" s="27">
-        <v>90</v>
+        <v>47.03</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
@@ -6451,13 +6457,13 @@
         <v>2</v>
       </c>
       <c r="C240" s="25">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="D240" s="26">
-        <v>4.95</v>
+        <v>5.75</v>
       </c>
       <c r="E240" s="27">
-        <v>47.03</v>
+        <v>86.25</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
@@ -6465,16 +6471,16 @@
         <v>243</v>
       </c>
       <c r="B241" s="24">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C241" s="25">
-        <v>15</v>
+        <v>30.5</v>
       </c>
       <c r="D241" s="26">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="E241" s="27">
-        <v>86.25</v>
+        <v>144.88</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
@@ -6482,16 +6488,16 @@
         <v>244</v>
       </c>
       <c r="B242" s="24">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C242" s="25">
         <v>32</v>
       </c>
       <c r="D242" s="26">
-        <v>4.75</v>
+        <v>6.12</v>
       </c>
       <c r="E242" s="27">
-        <v>152</v>
+        <v>195.9</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
@@ -6499,16 +6505,16 @@
         <v>245</v>
       </c>
       <c r="B243" s="24">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="C243" s="25">
-        <v>32</v>
+        <v>365</v>
       </c>
       <c r="D243" s="26">
-        <v>6.12</v>
+        <v>4.28</v>
       </c>
       <c r="E243" s="27">
-        <v>195.9</v>
+        <v>1562.2</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
@@ -6516,16 +6522,16 @@
         <v>246</v>
       </c>
       <c r="B244" s="24">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="C244" s="25">
-        <v>375</v>
+        <v>13</v>
       </c>
       <c r="D244" s="26">
-        <v>4.28</v>
+        <v>6</v>
       </c>
       <c r="E244" s="27">
-        <v>1605</v>
+        <v>78</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
@@ -6533,16 +6539,16 @@
         <v>247</v>
       </c>
       <c r="B245" s="24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C245" s="25">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D245" s="26">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="E245" s="27">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
@@ -6550,16 +6556,16 @@
         <v>248</v>
       </c>
       <c r="B246" s="24">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C246" s="25">
-        <v>20</v>
+        <v>25.5</v>
       </c>
       <c r="D246" s="26">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="E246" s="27">
-        <v>90</v>
+        <v>79.05</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
@@ -6567,16 +6573,16 @@
         <v>249</v>
       </c>
       <c r="B247" s="24">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C247" s="25">
-        <v>12.5</v>
+        <v>92.5</v>
       </c>
       <c r="D247" s="26">
-        <v>4.28</v>
+        <v>4.5</v>
       </c>
       <c r="E247" s="27">
-        <v>53.5</v>
+        <v>416.25</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
@@ -6584,16 +6590,16 @@
         <v>250</v>
       </c>
       <c r="B248" s="24">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C248" s="25">
-        <v>21</v>
+        <v>53.5</v>
       </c>
       <c r="D248" s="26">
-        <v>3.1</v>
+        <v>6.25</v>
       </c>
       <c r="E248" s="27">
-        <v>65.099999999999994</v>
+        <v>334.38</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
@@ -6601,16 +6607,16 @@
         <v>251</v>
       </c>
       <c r="B249" s="24">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C249" s="25">
-        <v>92.5</v>
+        <v>132.87</v>
       </c>
       <c r="D249" s="26">
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="E249" s="27">
-        <v>416.25</v>
+        <v>564.70000000000005</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
@@ -6618,16 +6624,16 @@
         <v>252</v>
       </c>
       <c r="B250" s="24">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C250" s="25">
-        <v>50.5</v>
+        <v>40</v>
       </c>
       <c r="D250" s="26">
-        <v>6.25</v>
+        <v>4.42</v>
       </c>
       <c r="E250" s="27">
-        <v>315.63</v>
+        <v>176.76</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
@@ -6635,16 +6641,16 @@
         <v>253</v>
       </c>
       <c r="B251" s="24">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C251" s="25">
-        <v>133.87</v>
+        <v>119</v>
       </c>
       <c r="D251" s="26">
-        <v>4.25</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="E251" s="27">
-        <v>568.95000000000005</v>
+        <v>522.39</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
@@ -6652,16 +6658,16 @@
         <v>254</v>
       </c>
       <c r="B252" s="24">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C252" s="25">
-        <v>40</v>
+        <v>27.5</v>
       </c>
       <c r="D252" s="26">
-        <v>4.42</v>
+        <v>4.28</v>
       </c>
       <c r="E252" s="27">
-        <v>176.76</v>
+        <v>117.7</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
@@ -6669,16 +6675,16 @@
         <v>255</v>
       </c>
       <c r="B253" s="24">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C253" s="25">
-        <v>119</v>
+        <v>5.5</v>
       </c>
       <c r="D253" s="26">
-        <v>4.3899999999999997</v>
+        <v>4.28</v>
       </c>
       <c r="E253" s="27">
-        <v>522.39</v>
+        <v>23.54</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
@@ -6686,16 +6692,16 @@
         <v>256</v>
       </c>
       <c r="B254" s="24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C254" s="25">
-        <v>27.5</v>
+        <v>47</v>
       </c>
       <c r="D254" s="26">
-        <v>4.28</v>
+        <v>6.5</v>
       </c>
       <c r="E254" s="27">
-        <v>117.7</v>
+        <v>305.5</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
@@ -6703,16 +6709,16 @@
         <v>257</v>
       </c>
       <c r="B255" s="24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C255" s="25">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="D255" s="26">
-        <v>4.28</v>
+        <v>5.23</v>
       </c>
       <c r="E255" s="27">
-        <v>23.54</v>
+        <v>52.3</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
@@ -6720,16 +6726,16 @@
         <v>258</v>
       </c>
       <c r="B256" s="24">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C256" s="25">
-        <v>47</v>
+        <v>178.5</v>
       </c>
       <c r="D256" s="26">
-        <v>6.5</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="E256" s="27">
-        <v>305.5</v>
+        <v>866.62</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
@@ -6737,16 +6743,16 @@
         <v>259</v>
       </c>
       <c r="B257" s="24">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C257" s="25">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D257" s="26">
-        <v>5.23</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E257" s="27">
-        <v>52.3</v>
+        <v>179.31</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
@@ -6754,16 +6760,16 @@
         <v>260</v>
       </c>
       <c r="B258" s="24">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C258" s="25">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D258" s="26">
-        <v>4.8499999999999996</v>
+        <v>6.2</v>
       </c>
       <c r="E258" s="27">
-        <v>528.20000000000005</v>
+        <v>631.98</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
@@ -6771,16 +6777,16 @@
         <v>261</v>
       </c>
       <c r="B259" s="24">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C259" s="25">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="D259" s="26">
-        <v>4.5999999999999996</v>
+        <v>5.16</v>
       </c>
       <c r="E259" s="27">
-        <v>179.31</v>
+        <v>598.55999999999995</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
@@ -6788,16 +6794,16 @@
         <v>262</v>
       </c>
       <c r="B260" s="24">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C260" s="25">
-        <v>102</v>
+        <v>47.5</v>
       </c>
       <c r="D260" s="26">
-        <v>6.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E260" s="27">
-        <v>631.98</v>
+        <v>242.09</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
@@ -6805,16 +6811,16 @@
         <v>263</v>
       </c>
       <c r="B261" s="24">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C261" s="25">
-        <v>116</v>
+        <v>158</v>
       </c>
       <c r="D261" s="26">
-        <v>5.16</v>
+        <v>5</v>
       </c>
       <c r="E261" s="27">
-        <v>598.55999999999995</v>
+        <v>790</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
@@ -6822,16 +6828,16 @@
         <v>264</v>
       </c>
       <c r="B262" s="24">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C262" s="25">
-        <v>47.5</v>
+        <v>47</v>
       </c>
       <c r="D262" s="26">
-        <v>5.0999999999999996</v>
+        <v>6</v>
       </c>
       <c r="E262" s="27">
-        <v>242.09</v>
+        <v>282</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
@@ -6839,16 +6845,16 @@
         <v>265</v>
       </c>
       <c r="B263" s="24">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C263" s="25">
-        <v>158</v>
+        <v>-1</v>
       </c>
       <c r="D263" s="26">
-        <v>5</v>
+        <v>5.76</v>
       </c>
       <c r="E263" s="27">
-        <v>790</v>
+        <v>-5.76</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
@@ -6856,16 +6862,16 @@
         <v>266</v>
       </c>
       <c r="B264" s="24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C264" s="25">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="D264" s="26">
-        <v>6</v>
+        <v>4.63</v>
       </c>
       <c r="E264" s="27">
-        <v>282</v>
+        <v>138.75</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
@@ -6873,16 +6879,16 @@
         <v>267</v>
       </c>
       <c r="B265" s="24">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C265" s="25">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D265" s="26">
-        <v>4.63</v>
+        <v>5.76</v>
       </c>
       <c r="E265" s="27">
-        <v>143.38</v>
+        <v>74.88</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
@@ -6890,16 +6896,16 @@
         <v>268</v>
       </c>
       <c r="B266" s="24">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C266" s="25">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="D266" s="26">
-        <v>5.76</v>
+        <v>4.5</v>
       </c>
       <c r="E266" s="27">
-        <v>74.88</v>
+        <v>661.5</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
@@ -6907,16 +6913,16 @@
         <v>269</v>
       </c>
       <c r="B267" s="24">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C267" s="25">
-        <v>147</v>
+        <v>30</v>
       </c>
       <c r="D267" s="26">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="E267" s="27">
-        <v>661.5</v>
+        <v>114</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
@@ -6924,48 +6930,48 @@
         <v>270</v>
       </c>
       <c r="B268" s="24">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C268" s="25">
-        <v>30</v>
+        <v>192</v>
       </c>
       <c r="D268" s="26">
-        <v>3.8</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="E268" s="27">
-        <v>114</v>
+        <v>938.74</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="B269" s="24">
-        <v>33</v>
-      </c>
+      <c r="B269" s="24"/>
       <c r="C269" s="25">
-        <v>159</v>
+        <v>27.5</v>
       </c>
       <c r="D269" s="26">
-        <v>4.8899999999999997</v>
+        <v>5.76</v>
       </c>
       <c r="E269" s="27">
-        <v>777.6</v>
+        <v>158.4</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="23" t="s">
         <v>272</v>
       </c>
-      <c r="B270" s="24"/>
+      <c r="B270" s="24">
+        <v>13</v>
+      </c>
       <c r="C270" s="25">
-        <v>27.5</v>
+        <v>36</v>
       </c>
       <c r="D270" s="26">
-        <v>5.76</v>
+        <v>3.15</v>
       </c>
       <c r="E270" s="27">
-        <v>158.4</v>
+        <v>113.4</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
@@ -6973,16 +6979,16 @@
         <v>273</v>
       </c>
       <c r="B271" s="24">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="C271" s="25">
-        <v>39</v>
+        <v>262</v>
       </c>
       <c r="D271" s="26">
-        <v>3.15</v>
+        <v>6.01</v>
       </c>
       <c r="E271" s="27">
-        <v>122.85</v>
+        <v>1575.89</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
@@ -6990,16 +6996,16 @@
         <v>274</v>
       </c>
       <c r="B272" s="24">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="C272" s="25">
-        <v>224</v>
+        <v>46.5</v>
       </c>
       <c r="D272" s="26">
-        <v>6.01</v>
+        <v>5.4</v>
       </c>
       <c r="E272" s="27">
-        <v>1346.71</v>
+        <v>251.1</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
@@ -7007,16 +7013,16 @@
         <v>275</v>
       </c>
       <c r="B273" s="24">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C273" s="25">
-        <v>46.5</v>
+        <v>318.5</v>
       </c>
       <c r="D273" s="26">
-        <v>5.4</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="E273" s="27">
-        <v>251.1</v>
+        <v>1359.45</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
@@ -7024,48 +7030,48 @@
         <v>276</v>
       </c>
       <c r="B274" s="24">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C274" s="25">
-        <v>319</v>
+        <v>16.5</v>
       </c>
       <c r="D274" s="26">
-        <v>4.2699999999999996</v>
+        <v>5.7</v>
       </c>
       <c r="E274" s="27">
-        <v>1361.58</v>
+        <v>94.05</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="23" t="s">
         <v>277</v>
       </c>
-      <c r="B275" s="24">
-        <v>4</v>
-      </c>
+      <c r="B275" s="24"/>
       <c r="C275" s="25">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="D275" s="26">
-        <v>5.7</v>
+        <v>5.43</v>
       </c>
       <c r="E275" s="27">
-        <v>94.05</v>
+        <v>100.48</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="23" t="s">
         <v>278</v>
       </c>
-      <c r="B276" s="24"/>
+      <c r="B276" s="24">
+        <v>5</v>
+      </c>
       <c r="C276" s="25">
-        <v>18.5</v>
+        <v>33</v>
       </c>
       <c r="D276" s="26">
-        <v>5.43</v>
+        <v>4.5</v>
       </c>
       <c r="E276" s="27">
-        <v>100.48</v>
+        <v>148.5</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
@@ -7073,16 +7079,16 @@
         <v>279</v>
       </c>
       <c r="B277" s="24">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C277" s="25">
-        <v>33</v>
+        <v>257.5</v>
       </c>
       <c r="D277" s="26">
-        <v>4.5</v>
+        <v>4.29</v>
       </c>
       <c r="E277" s="27">
-        <v>148.5</v>
+        <v>1105.1300000000001</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
@@ -7090,16 +7096,16 @@
         <v>280</v>
       </c>
       <c r="B278" s="24">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C278" s="25">
-        <v>262</v>
+        <v>25.5</v>
       </c>
       <c r="D278" s="26">
-        <v>4.29</v>
+        <v>4.75</v>
       </c>
       <c r="E278" s="27">
-        <v>1124.44</v>
+        <v>121.13</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
@@ -7107,16 +7113,16 @@
         <v>281</v>
       </c>
       <c r="B279" s="24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C279" s="25">
-        <v>25.5</v>
+        <v>22.5</v>
       </c>
       <c r="D279" s="26">
-        <v>4.75</v>
+        <v>5.8</v>
       </c>
       <c r="E279" s="27">
-        <v>121.13</v>
+        <v>130.5</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
@@ -7124,16 +7130,16 @@
         <v>282</v>
       </c>
       <c r="B280" s="24">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C280" s="25">
-        <v>22.5</v>
+        <v>102.5</v>
       </c>
       <c r="D280" s="26">
-        <v>5.8</v>
+        <v>5.13</v>
       </c>
       <c r="E280" s="27">
-        <v>130.5</v>
+        <v>525.83000000000004</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
@@ -7141,48 +7147,48 @@
         <v>283</v>
       </c>
       <c r="B281" s="24">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C281" s="25">
-        <v>102.5</v>
+        <v>8</v>
       </c>
       <c r="D281" s="26">
-        <v>5.13</v>
+        <v>5</v>
       </c>
       <c r="E281" s="27">
-        <v>525.83000000000004</v>
+        <v>40</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="23" t="s">
         <v>284</v>
       </c>
-      <c r="B282" s="24">
-        <v>1</v>
-      </c>
+      <c r="B282" s="24"/>
       <c r="C282" s="25">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D282" s="26">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="E282" s="27">
-        <v>40</v>
+        <v>99</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="B283" s="24"/>
+      <c r="B283" s="24">
+        <v>5</v>
+      </c>
       <c r="C283" s="25">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="D283" s="26">
-        <v>4.5</v>
+        <v>11.5</v>
       </c>
       <c r="E283" s="27">
-        <v>99</v>
+        <v>201.25</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
@@ -7190,16 +7196,16 @@
         <v>286</v>
       </c>
       <c r="B284" s="24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C284" s="25">
-        <v>17.5</v>
+        <v>13</v>
       </c>
       <c r="D284" s="26">
-        <v>11.5</v>
+        <v>7.75</v>
       </c>
       <c r="E284" s="27">
-        <v>201.25</v>
+        <v>100.75</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
@@ -7210,109 +7216,109 @@
         <v>1</v>
       </c>
       <c r="C285" s="25">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D285" s="26">
-        <v>7.75</v>
+        <v>7.85</v>
       </c>
       <c r="E285" s="27">
-        <v>100.75</v>
+        <v>78.5</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="23" t="s">
         <v>288</v>
       </c>
-      <c r="B286" s="24">
-        <v>1</v>
-      </c>
+      <c r="B286" s="24"/>
       <c r="C286" s="25">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="D286" s="26">
-        <v>7.85</v>
+        <v>11.5</v>
       </c>
       <c r="E286" s="27">
-        <v>78.5</v>
+        <v>97.75</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="23" t="s">
         <v>289</v>
       </c>
-      <c r="B287" s="24"/>
+      <c r="B287" s="24">
+        <v>15</v>
+      </c>
       <c r="C287" s="25">
-        <v>8.5</v>
+        <v>25.85</v>
       </c>
       <c r="D287" s="26">
-        <v>11.5</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="E287" s="27">
-        <v>97.75</v>
+        <v>244.28</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="23" t="s">
         <v>290</v>
       </c>
-      <c r="B288" s="24">
-        <v>16</v>
-      </c>
+      <c r="B288" s="24"/>
       <c r="C288" s="25">
-        <v>24.85</v>
+        <v>7.5</v>
       </c>
       <c r="D288" s="26">
-        <v>9.4499999999999993</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E288" s="27">
-        <v>234.83</v>
+        <v>30.75</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="23" t="s">
         <v>291</v>
       </c>
-      <c r="B289" s="24"/>
+      <c r="B289" s="24">
+        <v>3</v>
+      </c>
       <c r="C289" s="25">
-        <v>7.5</v>
+        <v>12.5</v>
       </c>
       <c r="D289" s="26">
-        <v>4.0999999999999996</v>
+        <v>8.1</v>
       </c>
       <c r="E289" s="27">
-        <v>30.75</v>
+        <v>101.25</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="23" t="s">
         <v>292</v>
       </c>
-      <c r="B290" s="24">
-        <v>3</v>
-      </c>
+      <c r="B290" s="24"/>
       <c r="C290" s="25">
-        <v>7.5</v>
+        <v>21.5</v>
       </c>
       <c r="D290" s="26">
-        <v>8.1</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="E290" s="27">
-        <v>60.75</v>
+        <v>183.83</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="23" t="s">
         <v>293</v>
       </c>
-      <c r="B291" s="24"/>
+      <c r="B291" s="24">
+        <v>1</v>
+      </c>
       <c r="C291" s="25">
-        <v>21.5</v>
+        <v>7.5</v>
       </c>
       <c r="D291" s="26">
-        <v>8.5500000000000007</v>
+        <v>6.5</v>
       </c>
       <c r="E291" s="27">
-        <v>183.83</v>
+        <v>48.75</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
@@ -7326,10 +7332,10 @@
         <v>7.5</v>
       </c>
       <c r="D292" s="26">
-        <v>6.5</v>
+        <v>7.75</v>
       </c>
       <c r="E292" s="27">
-        <v>48.75</v>
+        <v>58.13</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
@@ -7337,16 +7343,16 @@
         <v>295</v>
       </c>
       <c r="B293" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C293" s="25">
-        <v>7.5</v>
+        <v>34</v>
       </c>
       <c r="D293" s="26">
-        <v>7.75</v>
+        <v>6.6</v>
       </c>
       <c r="E293" s="27">
-        <v>58.13</v>
+        <v>224.4</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
@@ -7354,16 +7360,16 @@
         <v>296</v>
       </c>
       <c r="B294" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C294" s="25">
-        <v>34</v>
+        <v>12.5</v>
       </c>
       <c r="D294" s="26">
-        <v>6.6</v>
+        <v>5.5</v>
       </c>
       <c r="E294" s="27">
-        <v>224.4</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
@@ -7371,48 +7377,48 @@
         <v>297</v>
       </c>
       <c r="B295" s="24">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C295" s="25">
-        <v>12.5</v>
+        <v>26</v>
       </c>
       <c r="D295" s="26">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="E295" s="27">
-        <v>68.75</v>
+        <v>136.5</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="23" t="s">
         <v>298</v>
       </c>
-      <c r="B296" s="24">
-        <v>6</v>
-      </c>
+      <c r="B296" s="24"/>
       <c r="C296" s="25">
-        <v>26</v>
+        <v>10.5</v>
       </c>
       <c r="D296" s="26">
-        <v>5.25</v>
+        <v>9</v>
       </c>
       <c r="E296" s="27">
-        <v>136.5</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="23" t="s">
         <v>299</v>
       </c>
-      <c r="B297" s="24"/>
+      <c r="B297" s="24">
+        <v>15</v>
+      </c>
       <c r="C297" s="25">
-        <v>10.5</v>
+        <v>37.5</v>
       </c>
       <c r="D297" s="26">
-        <v>9</v>
+        <v>6.75</v>
       </c>
       <c r="E297" s="27">
-        <v>94.5</v>
+        <v>253.13</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
@@ -7420,16 +7426,16 @@
         <v>300</v>
       </c>
       <c r="B298" s="24">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C298" s="25">
-        <v>37.5</v>
+        <v>4</v>
       </c>
       <c r="D298" s="26">
-        <v>6.75</v>
+        <v>9</v>
       </c>
       <c r="E298" s="27">
-        <v>253.13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
@@ -7437,16 +7443,16 @@
         <v>301</v>
       </c>
       <c r="B299" s="24">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C299" s="25">
-        <v>4</v>
+        <v>20.7</v>
       </c>
       <c r="D299" s="26">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E299" s="27">
-        <v>36</v>
+        <v>207</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
@@ -7454,48 +7460,48 @@
         <v>302</v>
       </c>
       <c r="B300" s="24">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C300" s="25">
-        <v>26.2</v>
+        <v>9.5</v>
       </c>
       <c r="D300" s="26">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E300" s="27">
-        <v>262</v>
+        <v>104.5</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="23" t="s">
         <v>303</v>
       </c>
-      <c r="B301" s="24">
-        <v>4</v>
-      </c>
+      <c r="B301" s="24"/>
       <c r="C301" s="25">
-        <v>9.5</v>
+        <v>14.5</v>
       </c>
       <c r="D301" s="26">
-        <v>11</v>
+        <v>5.7</v>
       </c>
       <c r="E301" s="27">
-        <v>104.5</v>
+        <v>82.65</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="23" t="s">
         <v>304</v>
       </c>
-      <c r="B302" s="24"/>
+      <c r="B302" s="24">
+        <v>26</v>
+      </c>
       <c r="C302" s="25">
-        <v>14.5</v>
+        <v>99</v>
       </c>
       <c r="D302" s="26">
-        <v>5.7</v>
+        <v>4.28</v>
       </c>
       <c r="E302" s="27">
-        <v>82.65</v>
+        <v>423.72</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
@@ -7503,16 +7509,16 @@
         <v>305</v>
       </c>
       <c r="B303" s="24">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C303" s="25">
-        <v>102.5</v>
+        <v>131.5</v>
       </c>
       <c r="D303" s="26">
         <v>4.28</v>
       </c>
       <c r="E303" s="27">
-        <v>438.7</v>
+        <v>562.82000000000005</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
@@ -7520,16 +7526,16 @@
         <v>306</v>
       </c>
       <c r="B304" s="24">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C304" s="25">
-        <v>132.5</v>
+        <v>8.5</v>
       </c>
       <c r="D304" s="26">
-        <v>4.28</v>
+        <v>7.5</v>
       </c>
       <c r="E304" s="27">
-        <v>567.1</v>
+        <v>63.75</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
@@ -7537,16 +7543,16 @@
         <v>307</v>
       </c>
       <c r="B305" s="24">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C305" s="25">
-        <v>8.5</v>
+        <v>30</v>
       </c>
       <c r="D305" s="26">
-        <v>7.5</v>
+        <v>7.97</v>
       </c>
       <c r="E305" s="27">
-        <v>63.75</v>
+        <v>239.14</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
@@ -7554,16 +7560,16 @@
         <v>308</v>
       </c>
       <c r="B306" s="24">
+        <v>2</v>
+      </c>
+      <c r="C306" s="25">
+        <v>15</v>
+      </c>
+      <c r="D306" s="26">
         <v>9</v>
       </c>
-      <c r="C306" s="25">
-        <v>34.5</v>
-      </c>
-      <c r="D306" s="26">
-        <v>7.97</v>
-      </c>
       <c r="E306" s="27">
-        <v>275.01</v>
+        <v>135</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
@@ -7571,16 +7577,16 @@
         <v>309</v>
       </c>
       <c r="B307" s="24">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="C307" s="25">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D307" s="26">
         <v>9</v>
       </c>
       <c r="E307" s="27">
-        <v>135</v>
+        <v>198</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
@@ -7588,16 +7594,16 @@
         <v>310</v>
       </c>
       <c r="B308" s="24">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C308" s="25">
-        <v>24</v>
+        <v>13.5</v>
       </c>
       <c r="D308" s="26">
         <v>9</v>
       </c>
       <c r="E308" s="27">
-        <v>216</v>
+        <v>121.5</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
@@ -7605,16 +7611,16 @@
         <v>311</v>
       </c>
       <c r="B309" s="24">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C309" s="25">
-        <v>13.5</v>
+        <v>52</v>
       </c>
       <c r="D309" s="26">
         <v>9</v>
       </c>
       <c r="E309" s="27">
-        <v>121.5</v>
+        <v>468</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
@@ -7622,16 +7628,16 @@
         <v>312</v>
       </c>
       <c r="B310" s="24">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C310" s="25">
-        <v>53.5</v>
+        <v>28</v>
       </c>
       <c r="D310" s="26">
         <v>9</v>
       </c>
       <c r="E310" s="27">
-        <v>481.5</v>
+        <v>252</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
@@ -7639,16 +7645,16 @@
         <v>313</v>
       </c>
       <c r="B311" s="24">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C311" s="25">
-        <v>26</v>
+        <v>17.5</v>
       </c>
       <c r="D311" s="26">
         <v>9</v>
       </c>
       <c r="E311" s="27">
-        <v>234</v>
+        <v>157.5</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
@@ -7656,16 +7662,16 @@
         <v>314</v>
       </c>
       <c r="B312" s="24">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C312" s="25">
-        <v>17.5</v>
+        <v>11.5</v>
       </c>
       <c r="D312" s="26">
         <v>9</v>
       </c>
       <c r="E312" s="27">
-        <v>157.5</v>
+        <v>103.5</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
@@ -7673,16 +7679,16 @@
         <v>315</v>
       </c>
       <c r="B313" s="24">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C313" s="25">
-        <v>13</v>
+        <v>5.5</v>
       </c>
       <c r="D313" s="26">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E313" s="27">
-        <v>117</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
@@ -7690,33 +7696,31 @@
         <v>316</v>
       </c>
       <c r="B314" s="24">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C314" s="25">
-        <v>5.5</v>
+        <v>13</v>
       </c>
       <c r="D314" s="26">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="E314" s="27">
-        <v>38.5</v>
+        <v>44.2</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="23" t="s">
         <v>317</v>
       </c>
-      <c r="B315" s="24">
-        <v>8</v>
-      </c>
+      <c r="B315" s="24"/>
       <c r="C315" s="25">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="D315" s="26">
-        <v>3.4</v>
+        <v>9.1</v>
       </c>
       <c r="E315" s="27">
-        <v>44.2</v>
+        <v>95.55</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
@@ -7725,28 +7729,30 @@
       </c>
       <c r="B316" s="24"/>
       <c r="C316" s="25">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="D316" s="26">
-        <v>9.1</v>
+        <v>6.46</v>
       </c>
       <c r="E316" s="27">
-        <v>95.55</v>
+        <v>77.52</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="23" t="s">
         <v>319</v>
       </c>
-      <c r="B317" s="24"/>
+      <c r="B317" s="24">
+        <v>5</v>
+      </c>
       <c r="C317" s="25">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D317" s="26">
         <v>6.46</v>
       </c>
       <c r="E317" s="27">
-        <v>77.52</v>
+        <v>64.599999999999994</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
@@ -7754,16 +7760,16 @@
         <v>320</v>
       </c>
       <c r="B318" s="24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C318" s="25">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="D318" s="26">
-        <v>6.46</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="E318" s="27">
-        <v>64.599999999999994</v>
+        <v>108.75</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
@@ -7771,16 +7777,16 @@
         <v>321</v>
       </c>
       <c r="B319" s="24">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C319" s="25">
-        <v>12.5</v>
+        <v>62</v>
       </c>
       <c r="D319" s="26">
-        <v>8.6999999999999993</v>
+        <v>5.7</v>
       </c>
       <c r="E319" s="27">
-        <v>108.75</v>
+        <v>353.4</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
@@ -7788,16 +7794,16 @@
         <v>322</v>
       </c>
       <c r="B320" s="24">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C320" s="25">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D320" s="26">
-        <v>5.7</v>
+        <v>5.94</v>
       </c>
       <c r="E320" s="27">
-        <v>353.4</v>
+        <v>463.32</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
@@ -7808,13 +7814,13 @@
         <v>22</v>
       </c>
       <c r="C321" s="25">
-        <v>78</v>
+        <v>19.5</v>
       </c>
       <c r="D321" s="26">
-        <v>5.94</v>
+        <v>6.4</v>
       </c>
       <c r="E321" s="27">
-        <v>463.32</v>
+        <v>124.8</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
@@ -7822,16 +7828,16 @@
         <v>324</v>
       </c>
       <c r="B322" s="24">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C322" s="25">
-        <v>19.5</v>
+        <v>7.5</v>
       </c>
       <c r="D322" s="26">
-        <v>6.4</v>
+        <v>7.36</v>
       </c>
       <c r="E322" s="27">
-        <v>124.8</v>
+        <v>55.2</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
@@ -7839,16 +7845,16 @@
         <v>325</v>
       </c>
       <c r="B323" s="24">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C323" s="25">
-        <v>12.5</v>
+        <v>60.35</v>
       </c>
       <c r="D323" s="26">
-        <v>7.36</v>
+        <v>4.75</v>
       </c>
       <c r="E323" s="27">
-        <v>92</v>
+        <v>286.66000000000003</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
@@ -7856,48 +7862,48 @@
         <v>326</v>
       </c>
       <c r="B324" s="24">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C324" s="25">
-        <v>61.85</v>
+        <v>15.5</v>
       </c>
       <c r="D324" s="26">
-        <v>4.75</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="E324" s="27">
-        <v>293.79000000000002</v>
+        <v>142.6</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="B325" s="24">
-        <v>10</v>
-      </c>
+      <c r="B325" s="24"/>
       <c r="C325" s="25">
-        <v>15.5</v>
+        <v>11</v>
       </c>
       <c r="D325" s="26">
-        <v>9.1999999999999993</v>
+        <v>7.36</v>
       </c>
       <c r="E325" s="27">
-        <v>142.6</v>
+        <v>80.959999999999994</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="23" t="s">
         <v>328</v>
       </c>
-      <c r="B326" s="24"/>
+      <c r="B326" s="24">
+        <v>1</v>
+      </c>
       <c r="C326" s="25">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D326" s="26">
-        <v>7.36</v>
+        <v>10.5</v>
       </c>
       <c r="E326" s="27">
-        <v>80.959999999999994</v>
+        <v>304.5</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
@@ -7905,16 +7911,16 @@
         <v>329</v>
       </c>
       <c r="B327" s="24">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C327" s="25">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D327" s="26">
-        <v>10.5</v>
+        <v>7.82</v>
       </c>
       <c r="E327" s="27">
-        <v>304.5</v>
+        <v>54.71</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
@@ -7922,16 +7928,16 @@
         <v>330</v>
       </c>
       <c r="B328" s="24">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C328" s="25">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="D328" s="26">
-        <v>7.82</v>
+        <v>6.64</v>
       </c>
       <c r="E328" s="27">
-        <v>54.71</v>
+        <v>378.55</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
@@ -7939,16 +7945,16 @@
         <v>331</v>
       </c>
       <c r="B329" s="24">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C329" s="25">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="D329" s="26">
-        <v>6.64</v>
+        <v>7.3</v>
       </c>
       <c r="E329" s="27">
-        <v>378.55</v>
+        <v>73</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
@@ -7959,13 +7965,13 @@
         <v>3</v>
       </c>
       <c r="C330" s="25">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D330" s="26">
-        <v>7.3</v>
+        <v>10.5</v>
       </c>
       <c r="E330" s="27">
-        <v>73</v>
+        <v>168</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
@@ -7973,16 +7979,16 @@
         <v>333</v>
       </c>
       <c r="B331" s="24">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C331" s="25">
-        <v>16</v>
+        <v>125.5</v>
       </c>
       <c r="D331" s="26">
-        <v>10.5</v>
+        <v>7.76</v>
       </c>
       <c r="E331" s="27">
-        <v>168</v>
+        <v>973.54</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
@@ -7990,16 +7996,16 @@
         <v>334</v>
       </c>
       <c r="B332" s="24">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C332" s="25">
-        <v>125.5</v>
+        <v>58.5</v>
       </c>
       <c r="D332" s="26">
-        <v>7.76</v>
+        <v>7.13</v>
       </c>
       <c r="E332" s="27">
-        <v>973.54</v>
+        <v>417.11</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
@@ -8007,16 +8013,16 @@
         <v>335</v>
       </c>
       <c r="B333" s="24">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C333" s="25">
-        <v>58.5</v>
+        <v>36.5</v>
       </c>
       <c r="D333" s="26">
-        <v>7.13</v>
+        <v>6.65</v>
       </c>
       <c r="E333" s="27">
-        <v>417.11</v>
+        <v>242.73</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
@@ -8024,16 +8030,16 @@
         <v>336</v>
       </c>
       <c r="B334" s="24">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C334" s="25">
-        <v>36.5</v>
+        <v>28.5</v>
       </c>
       <c r="D334" s="26">
-        <v>6.65</v>
+        <v>5.94</v>
       </c>
       <c r="E334" s="27">
-        <v>242.73</v>
+        <v>169.29</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
@@ -8041,16 +8047,16 @@
         <v>337</v>
       </c>
       <c r="B335" s="24">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C335" s="25">
-        <v>30</v>
+        <v>17.5</v>
       </c>
       <c r="D335" s="26">
-        <v>5.94</v>
+        <v>7.2</v>
       </c>
       <c r="E335" s="27">
-        <v>178.2</v>
+        <v>126</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
@@ -8058,16 +8064,16 @@
         <v>338</v>
       </c>
       <c r="B336" s="24">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C336" s="25">
-        <v>19</v>
+        <v>30.5</v>
       </c>
       <c r="D336" s="26">
-        <v>7.2</v>
+        <v>6.18</v>
       </c>
       <c r="E336" s="27">
-        <v>136.80000000000001</v>
+        <v>188.49</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
@@ -8075,16 +8081,16 @@
         <v>339</v>
       </c>
       <c r="B337" s="24">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C337" s="25">
-        <v>30.5</v>
+        <v>54</v>
       </c>
       <c r="D337" s="26">
-        <v>6.18</v>
+        <v>7.13</v>
       </c>
       <c r="E337" s="27">
-        <v>188.49</v>
+        <v>385.02</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
@@ -8092,16 +8098,16 @@
         <v>340</v>
       </c>
       <c r="B338" s="24">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C338" s="25">
-        <v>54</v>
+        <v>24.5</v>
       </c>
       <c r="D338" s="26">
-        <v>7.13</v>
+        <v>7</v>
       </c>
       <c r="E338" s="27">
-        <v>385.02</v>
+        <v>171.5</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
@@ -8109,16 +8115,16 @@
         <v>341</v>
       </c>
       <c r="B339" s="24">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C339" s="25">
-        <v>25.5</v>
+        <v>236</v>
       </c>
       <c r="D339" s="26">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="E339" s="27">
-        <v>178.5</v>
+        <v>1557.6</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
@@ -8126,16 +8132,16 @@
         <v>342</v>
       </c>
       <c r="B340" s="24">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="C340" s="25">
-        <v>237</v>
+        <v>14</v>
       </c>
       <c r="D340" s="26">
-        <v>6.6</v>
+        <v>7.52</v>
       </c>
       <c r="E340" s="27">
-        <v>1564.2</v>
+        <v>105.28</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
@@ -8143,16 +8149,16 @@
         <v>343</v>
       </c>
       <c r="B341" s="24">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C341" s="25">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="D341" s="26">
-        <v>7.52</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="E341" s="27">
-        <v>105.28</v>
+        <v>110.7</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
@@ -8160,16 +8166,16 @@
         <v>344</v>
       </c>
       <c r="B342" s="24">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C342" s="25">
-        <v>13.5</v>
+        <v>9</v>
       </c>
       <c r="D342" s="26">
         <v>8.1999999999999993</v>
       </c>
       <c r="E342" s="27">
-        <v>110.7</v>
+        <v>73.8</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
@@ -8177,16 +8183,16 @@
         <v>345</v>
       </c>
       <c r="B343" s="24">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C343" s="25">
-        <v>9</v>
+        <v>20.5</v>
       </c>
       <c r="D343" s="26">
         <v>8.1999999999999993</v>
       </c>
       <c r="E343" s="27">
-        <v>73.8</v>
+        <v>168.1</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
@@ -8194,16 +8200,16 @@
         <v>346</v>
       </c>
       <c r="B344" s="24">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="C344" s="25">
-        <v>26.5</v>
+        <v>124.95</v>
       </c>
       <c r="D344" s="26">
-        <v>8.1999999999999993</v>
+        <v>4.5</v>
       </c>
       <c r="E344" s="27">
-        <v>217.3</v>
+        <v>562.28</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
@@ -8211,16 +8217,16 @@
         <v>347</v>
       </c>
       <c r="B345" s="24">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C345" s="25">
-        <v>124.95</v>
+        <v>42.5</v>
       </c>
       <c r="D345" s="26">
-        <v>4.5</v>
+        <v>8.08</v>
       </c>
       <c r="E345" s="27">
-        <v>562.28</v>
+        <v>343.4</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
@@ -8228,16 +8234,16 @@
         <v>348</v>
       </c>
       <c r="B346" s="24">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C346" s="25">
-        <v>42.5</v>
+        <v>25</v>
       </c>
       <c r="D346" s="26">
-        <v>8.08</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="E346" s="27">
-        <v>343.4</v>
+        <v>230</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
@@ -8245,16 +8251,16 @@
         <v>349</v>
       </c>
       <c r="B347" s="24">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C347" s="25">
-        <v>22</v>
+        <v>36.5</v>
       </c>
       <c r="D347" s="26">
-        <v>9.1999999999999993</v>
+        <v>8.25</v>
       </c>
       <c r="E347" s="27">
-        <v>202.4</v>
+        <v>301.13</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
@@ -8262,16 +8268,16 @@
         <v>350</v>
       </c>
       <c r="B348" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C348" s="25">
-        <v>36.5</v>
+        <v>55</v>
       </c>
       <c r="D348" s="26">
-        <v>8.25</v>
+        <v>7</v>
       </c>
       <c r="E348" s="27">
-        <v>301.13</v>
+        <v>385</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
@@ -8279,16 +8285,16 @@
         <v>351</v>
       </c>
       <c r="B349" s="24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C349" s="25">
-        <v>55</v>
+        <v>5.5</v>
       </c>
       <c r="D349" s="26">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="E349" s="27">
-        <v>385</v>
+        <v>52.25</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
@@ -8296,16 +8302,16 @@
         <v>352</v>
       </c>
       <c r="B350" s="24">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C350" s="25">
-        <v>5.5</v>
+        <v>93.5</v>
       </c>
       <c r="D350" s="26">
-        <v>9.5</v>
+        <v>3.6</v>
       </c>
       <c r="E350" s="27">
-        <v>52.25</v>
+        <v>336.6</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
@@ -8313,16 +8319,16 @@
         <v>353</v>
       </c>
       <c r="B351" s="24">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C351" s="25">
-        <v>94.5</v>
+        <v>66</v>
       </c>
       <c r="D351" s="26">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="E351" s="27">
-        <v>340.2</v>
+        <v>396</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
@@ -8330,16 +8336,16 @@
         <v>354</v>
       </c>
       <c r="B352" s="24">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C352" s="25">
-        <v>66</v>
+        <v>7.5</v>
       </c>
       <c r="D352" s="26">
-        <v>6</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="E352" s="27">
-        <v>396</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
@@ -8347,16 +8353,16 @@
         <v>355</v>
       </c>
       <c r="B353" s="24">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C353" s="25">
-        <v>7.5</v>
+        <v>41</v>
       </c>
       <c r="D353" s="26">
-        <v>10.199999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="E353" s="27">
-        <v>76.5</v>
+        <v>184.5</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
@@ -8364,16 +8370,16 @@
         <v>356</v>
       </c>
       <c r="B354" s="24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C354" s="25">
-        <v>41</v>
+        <v>12.5</v>
       </c>
       <c r="D354" s="26">
-        <v>4.5</v>
+        <v>9.75</v>
       </c>
       <c r="E354" s="27">
-        <v>184.5</v>
+        <v>121.88</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
@@ -8381,16 +8387,16 @@
         <v>357</v>
       </c>
       <c r="B355" s="24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C355" s="25">
-        <v>12.5</v>
+        <v>26</v>
       </c>
       <c r="D355" s="26">
-        <v>9.75</v>
+        <v>8.4700000000000006</v>
       </c>
       <c r="E355" s="27">
-        <v>121.88</v>
+        <v>220.3</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
@@ -8401,13 +8407,13 @@
         <v>1</v>
       </c>
       <c r="C356" s="25">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D356" s="26">
-        <v>8.4700000000000006</v>
+        <v>8</v>
       </c>
       <c r="E356" s="27">
-        <v>220.3</v>
+        <v>192</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
@@ -8415,16 +8421,16 @@
         <v>359</v>
       </c>
       <c r="B357" s="24">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C357" s="25">
-        <v>24</v>
+        <v>57.2</v>
       </c>
       <c r="D357" s="26">
-        <v>8</v>
+        <v>5.3</v>
       </c>
       <c r="E357" s="27">
-        <v>192</v>
+        <v>303.16000000000003</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
@@ -8432,16 +8438,16 @@
         <v>360</v>
       </c>
       <c r="B358" s="24">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C358" s="25">
-        <v>28.5</v>
+        <v>1</v>
       </c>
       <c r="D358" s="26">
-        <v>5.3</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="E358" s="27">
-        <v>151.05000000000001</v>
+        <v>8.5500000000000007</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
@@ -8452,13 +8458,13 @@
         <v>4</v>
       </c>
       <c r="C359" s="25">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D359" s="26">
-        <v>8.5500000000000007</v>
+        <v>5.7</v>
       </c>
       <c r="E359" s="27">
-        <v>8.5500000000000007</v>
+        <v>125.4</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
@@ -8466,16 +8472,16 @@
         <v>362</v>
       </c>
       <c r="B360" s="24">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C360" s="25">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D360" s="26">
         <v>5.7</v>
       </c>
       <c r="E360" s="27">
-        <v>125.4</v>
+        <v>165.3</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
@@ -8483,16 +8489,16 @@
         <v>363</v>
       </c>
       <c r="B361" s="24">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C361" s="25">
-        <v>34</v>
+        <v>50.5</v>
       </c>
       <c r="D361" s="26">
-        <v>5.7</v>
+        <v>3.6</v>
       </c>
       <c r="E361" s="27">
-        <v>193.8</v>
+        <v>181.8</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
@@ -8500,16 +8506,16 @@
         <v>364</v>
       </c>
       <c r="B362" s="24">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C362" s="25">
-        <v>55.5</v>
+        <v>27.5</v>
       </c>
       <c r="D362" s="26">
-        <v>3.6</v>
+        <v>9.85</v>
       </c>
       <c r="E362" s="27">
-        <v>199.8</v>
+        <v>270.82</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
@@ -8517,48 +8523,48 @@
         <v>365</v>
       </c>
       <c r="B363" s="24">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C363" s="25">
-        <v>27.5</v>
+        <v>12.5</v>
       </c>
       <c r="D363" s="26">
-        <v>9.85</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="E363" s="27">
-        <v>270.82</v>
+        <v>108.75</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="23" t="s">
         <v>366</v>
       </c>
-      <c r="B364" s="24">
-        <v>3</v>
-      </c>
+      <c r="B364" s="24"/>
       <c r="C364" s="25">
-        <v>12.5</v>
+        <v>28</v>
       </c>
       <c r="D364" s="26">
-        <v>8.6999999999999993</v>
+        <v>5.7</v>
       </c>
       <c r="E364" s="27">
-        <v>108.75</v>
+        <v>159.6</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="23" t="s">
         <v>367</v>
       </c>
-      <c r="B365" s="24"/>
+      <c r="B365" s="24">
+        <v>4</v>
+      </c>
       <c r="C365" s="25">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D365" s="26">
-        <v>5.7</v>
+        <v>7</v>
       </c>
       <c r="E365" s="27">
-        <v>159.6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
@@ -8566,16 +8572,16 @@
         <v>368</v>
       </c>
       <c r="B366" s="24">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C366" s="25">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D366" s="26">
-        <v>7</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="E366" s="27">
-        <v>7</v>
+        <v>145.35</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
@@ -8583,16 +8589,16 @@
         <v>369</v>
       </c>
       <c r="B367" s="24">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C367" s="25">
-        <v>17</v>
+        <v>30.5</v>
       </c>
       <c r="D367" s="26">
-        <v>8.5500000000000007</v>
+        <v>6.65</v>
       </c>
       <c r="E367" s="27">
-        <v>145.35</v>
+        <v>202.83</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
@@ -8600,16 +8606,16 @@
         <v>370</v>
       </c>
       <c r="B368" s="24">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C368" s="25">
-        <v>30.5</v>
+        <v>20</v>
       </c>
       <c r="D368" s="26">
-        <v>6.65</v>
+        <v>6.18</v>
       </c>
       <c r="E368" s="27">
-        <v>202.83</v>
+        <v>123.6</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
@@ -8617,16 +8623,16 @@
         <v>371</v>
       </c>
       <c r="B369" s="24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C369" s="25">
         <v>20</v>
       </c>
       <c r="D369" s="26">
-        <v>6.18</v>
+        <v>6.4</v>
       </c>
       <c r="E369" s="27">
-        <v>123.6</v>
+        <v>128</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
@@ -8634,16 +8640,16 @@
         <v>372</v>
       </c>
       <c r="B370" s="24">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C370" s="25">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="D370" s="26">
-        <v>6.4</v>
+        <v>6.65</v>
       </c>
       <c r="E370" s="27">
-        <v>128</v>
+        <v>285.95</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
@@ -8651,80 +8657,80 @@
         <v>373</v>
       </c>
       <c r="B371" s="24">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C371" s="25">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D371" s="26">
-        <v>6.65</v>
+        <v>7</v>
       </c>
       <c r="E371" s="27">
-        <v>285.95</v>
+        <v>203</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="23" t="s">
         <v>374</v>
       </c>
-      <c r="B372" s="24">
-        <v>23</v>
-      </c>
+      <c r="B372" s="24"/>
       <c r="C372" s="25">
-        <v>29</v>
+        <v>2.5</v>
       </c>
       <c r="D372" s="26">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="E372" s="27">
-        <v>203</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="B373" s="24"/>
+      <c r="B373" s="24">
+        <v>5</v>
+      </c>
       <c r="C373" s="25">
-        <v>2.5</v>
+        <v>35</v>
       </c>
       <c r="D373" s="26">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="E373" s="27">
-        <v>19.5</v>
+        <v>262.5</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="23" t="s">
         <v>376</v>
       </c>
-      <c r="B374" s="24">
-        <v>5</v>
-      </c>
+      <c r="B374" s="24"/>
       <c r="C374" s="25">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D374" s="26">
-        <v>7.5</v>
+        <v>7.13</v>
       </c>
       <c r="E374" s="27">
-        <v>262.5</v>
+        <v>142.6</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="23" t="s">
         <v>377</v>
       </c>
-      <c r="B375" s="24"/>
+      <c r="B375" s="24">
+        <v>7</v>
+      </c>
       <c r="C375" s="25">
-        <v>20</v>
+        <v>28.5</v>
       </c>
       <c r="D375" s="26">
         <v>7.13</v>
       </c>
       <c r="E375" s="27">
-        <v>142.6</v>
+        <v>203.21</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
@@ -8732,16 +8738,16 @@
         <v>378</v>
       </c>
       <c r="B376" s="24">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C376" s="25">
-        <v>28.5</v>
+        <v>15</v>
       </c>
       <c r="D376" s="26">
-        <v>7.13</v>
+        <v>10</v>
       </c>
       <c r="E376" s="27">
-        <v>203.21</v>
+        <v>150</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
@@ -8749,16 +8755,16 @@
         <v>379</v>
       </c>
       <c r="B377" s="24">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C377" s="25">
-        <v>15</v>
+        <v>76.5</v>
       </c>
       <c r="D377" s="26">
-        <v>10</v>
+        <v>5.7</v>
       </c>
       <c r="E377" s="27">
-        <v>150</v>
+        <v>436.05</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
@@ -8766,16 +8772,16 @@
         <v>380</v>
       </c>
       <c r="B378" s="24">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C378" s="25">
-        <v>76.5</v>
+        <v>2.5</v>
       </c>
       <c r="D378" s="26">
-        <v>5.7</v>
+        <v>7.6</v>
       </c>
       <c r="E378" s="27">
-        <v>436.05</v>
+        <v>19</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
@@ -8783,16 +8789,16 @@
         <v>381</v>
       </c>
       <c r="B379" s="24">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C379" s="25">
-        <v>2.5</v>
+        <v>91</v>
       </c>
       <c r="D379" s="26">
-        <v>7.6</v>
+        <v>5.2</v>
       </c>
       <c r="E379" s="27">
-        <v>19</v>
+        <v>473.2</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
@@ -8800,112 +8806,112 @@
         <v>382</v>
       </c>
       <c r="B380" s="24">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C380" s="25">
-        <v>86</v>
+        <v>22.5</v>
       </c>
       <c r="D380" s="26">
-        <v>5.2</v>
+        <v>8</v>
       </c>
       <c r="E380" s="27">
-        <v>447.2</v>
+        <v>180</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="B381" s="24">
-        <v>4</v>
-      </c>
+      <c r="B381" s="24"/>
       <c r="C381" s="25">
-        <v>22.5</v>
+        <v>24</v>
       </c>
       <c r="D381" s="26">
         <v>8</v>
       </c>
       <c r="E381" s="27">
-        <v>180</v>
+        <v>192</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="23" t="s">
         <v>384</v>
       </c>
-      <c r="B382" s="24"/>
+      <c r="B382" s="24">
+        <v>26</v>
+      </c>
       <c r="C382" s="25">
-        <v>24</v>
+        <v>58.5</v>
       </c>
       <c r="D382" s="26">
-        <v>8</v>
+        <v>5.3</v>
       </c>
       <c r="E382" s="27">
-        <v>192</v>
+        <v>310.05</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="B383" s="24">
-        <v>25</v>
-      </c>
+      <c r="B383" s="24"/>
       <c r="C383" s="25">
-        <v>59.5</v>
+        <v>16.5</v>
       </c>
       <c r="D383" s="26">
-        <v>5.3</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E383" s="27">
-        <v>315.35000000000002</v>
+        <v>80.849999999999994</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="23" t="s">
         <v>386</v>
       </c>
-      <c r="B384" s="24"/>
+      <c r="B384" s="24">
+        <v>38</v>
+      </c>
       <c r="C384" s="25">
-        <v>16.5</v>
+        <v>95.5</v>
       </c>
       <c r="D384" s="26">
-        <v>4.9000000000000004</v>
+        <v>6.17</v>
       </c>
       <c r="E384" s="27">
-        <v>80.849999999999994</v>
+        <v>588.78</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="23" t="s">
         <v>387</v>
       </c>
-      <c r="B385" s="24">
-        <v>38</v>
-      </c>
+      <c r="B385" s="24"/>
       <c r="C385" s="25">
-        <v>95.5</v>
+        <v>27</v>
       </c>
       <c r="D385" s="26">
-        <v>6.17</v>
+        <v>7.8</v>
       </c>
       <c r="E385" s="27">
-        <v>588.78</v>
+        <v>210.6</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="23" t="s">
         <v>388</v>
       </c>
-      <c r="B386" s="24"/>
+      <c r="B386" s="24">
+        <v>18</v>
+      </c>
       <c r="C386" s="25">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D386" s="26">
-        <v>7.8</v>
+        <v>6.46</v>
       </c>
       <c r="E386" s="27">
-        <v>210.6</v>
+        <v>96.9</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
@@ -8913,16 +8919,16 @@
         <v>389</v>
       </c>
       <c r="B387" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C387" s="25">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="D387" s="26">
         <v>6.46</v>
       </c>
       <c r="E387" s="27">
-        <v>71.06</v>
+        <v>67.83</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
@@ -9011,16 +9017,16 @@
         <v>395</v>
       </c>
       <c r="B393" s="24">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C393" s="25">
-        <v>49.5</v>
+        <v>35.5</v>
       </c>
       <c r="D393" s="26">
         <v>5</v>
       </c>
       <c r="E393" s="27">
-        <v>247.5</v>
+        <v>177.5</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
@@ -9205,16 +9211,16 @@
         <v>407</v>
       </c>
       <c r="B405" s="24">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C405" s="25">
-        <v>12.5</v>
+        <v>0.5</v>
       </c>
       <c r="D405" s="26">
-        <v>9.75</v>
+        <v>9.76</v>
       </c>
       <c r="E405" s="27">
-        <v>121.88</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
@@ -9324,16 +9330,16 @@
         <v>414</v>
       </c>
       <c r="B412" s="24">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C412" s="25">
-        <v>-6.5</v>
+        <v>-2.5</v>
       </c>
       <c r="D412" s="26">
         <v>10.5</v>
       </c>
       <c r="E412" s="27">
-        <v>-68.25</v>
+        <v>-26.25</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
@@ -9358,16 +9364,16 @@
         <v>416</v>
       </c>
       <c r="B414" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C414" s="25">
-        <v>10.5</v>
+        <v>5.5</v>
       </c>
       <c r="D414" s="26">
         <v>16.3</v>
       </c>
       <c r="E414" s="27">
-        <v>171.15</v>
+        <v>89.65</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
@@ -9378,13 +9384,13 @@
         <v>4</v>
       </c>
       <c r="C415" s="25">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="D415" s="26">
         <v>16.3</v>
       </c>
       <c r="E415" s="27">
-        <v>163</v>
+        <v>122.25</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
@@ -9409,16 +9415,16 @@
         <v>419</v>
       </c>
       <c r="B417" s="24">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C417" s="25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D417" s="26">
         <v>9.75</v>
       </c>
       <c r="E417" s="27">
-        <v>29.25</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
@@ -9459,17 +9465,15 @@
       <c r="A420" s="23" t="s">
         <v>422</v>
       </c>
-      <c r="B420" s="24">
-        <v>1</v>
-      </c>
+      <c r="B420" s="24"/>
       <c r="C420" s="25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D420" s="26">
         <v>28.5</v>
       </c>
       <c r="E420" s="27">
-        <v>28.5</v>
+        <v>142.5</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
@@ -9577,16 +9581,16 @@
         <v>429</v>
       </c>
       <c r="B427" s="24">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C427" s="25">
-        <v>35.5</v>
+        <v>33.5</v>
       </c>
       <c r="D427" s="26">
         <v>8.5500000000000007</v>
       </c>
       <c r="E427" s="27">
-        <v>303.52999999999997</v>
+        <v>286.43</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
@@ -9594,16 +9598,16 @@
         <v>430</v>
       </c>
       <c r="B428" s="24">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C428" s="25">
-        <v>10.16</v>
+        <v>11.16</v>
       </c>
       <c r="D428" s="26">
         <v>8.5500000000000007</v>
       </c>
       <c r="E428" s="27">
-        <v>86.87</v>
+        <v>95.42</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
@@ -9658,16 +9662,16 @@
         <v>434</v>
       </c>
       <c r="B432" s="24">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C432" s="25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D432" s="26">
         <v>16</v>
       </c>
       <c r="E432" s="27">
-        <v>80</v>
+        <v>48</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
@@ -9709,16 +9713,16 @@
         <v>437</v>
       </c>
       <c r="B435" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C435" s="25">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D435" s="26">
         <v>18</v>
       </c>
       <c r="E435" s="27">
-        <v>198</v>
+        <v>162</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
@@ -9726,16 +9730,16 @@
         <v>438</v>
       </c>
       <c r="B436" s="24">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C436" s="25">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="D436" s="26">
         <v>10</v>
       </c>
       <c r="E436" s="27">
-        <v>195</v>
+        <v>165</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
@@ -9743,16 +9747,16 @@
         <v>439</v>
       </c>
       <c r="B437" s="24">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C437" s="25">
-        <v>25.5</v>
+        <v>22.5</v>
       </c>
       <c r="D437" s="26">
         <v>9.5</v>
       </c>
       <c r="E437" s="27">
-        <v>242.25</v>
+        <v>213.75</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
@@ -9811,16 +9815,16 @@
         <v>443</v>
       </c>
       <c r="B441" s="24">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C441" s="25">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D441" s="26">
         <v>10.27</v>
       </c>
       <c r="E441" s="27">
-        <v>112.92</v>
+        <v>41.06</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.25">
@@ -9877,16 +9881,16 @@
         <v>447</v>
       </c>
       <c r="B445" s="24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C445" s="25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D445" s="26">
         <v>11.88</v>
       </c>
       <c r="E445" s="27">
-        <v>11.88</v>
+        <v>47.52</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.25">
@@ -9928,16 +9932,16 @@
         <v>450</v>
       </c>
       <c r="B448" s="24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C448" s="25">
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="D448" s="26">
         <v>9.26</v>
       </c>
       <c r="E448" s="27">
-        <v>125.01</v>
+        <v>152.79</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.25">
@@ -9996,16 +10000,16 @@
         <v>454</v>
       </c>
       <c r="B452" s="24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C452" s="25">
-        <v>29.5</v>
+        <v>27</v>
       </c>
       <c r="D452" s="26">
         <v>10.45</v>
       </c>
       <c r="E452" s="27">
-        <v>308.27999999999997</v>
+        <v>282.14999999999998</v>
       </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.25">
@@ -10098,16 +10102,16 @@
         <v>460</v>
       </c>
       <c r="B458" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C458" s="25">
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="D458" s="26">
         <v>55</v>
       </c>
       <c r="E458" s="27">
-        <v>82.5</v>
+        <v>-27.5</v>
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.25">
@@ -10149,16 +10153,16 @@
         <v>463</v>
       </c>
       <c r="B461" s="24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C461" s="25">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D461" s="26">
         <v>9</v>
       </c>
       <c r="E461" s="27">
-        <v>225</v>
+        <v>207</v>
       </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.25">
@@ -10181,16 +10185,16 @@
         <v>465</v>
       </c>
       <c r="B463" s="24">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C463" s="25">
-        <v>19.5</v>
+        <v>13</v>
       </c>
       <c r="D463" s="26">
         <v>11.25</v>
       </c>
       <c r="E463" s="27">
-        <v>219.38</v>
+        <v>146.25</v>
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.25">
@@ -10675,16 +10679,16 @@
         <v>495</v>
       </c>
       <c r="B493" s="24">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C493" s="25">
-        <v>29</v>
+        <v>27.5</v>
       </c>
       <c r="D493" s="26">
         <v>3</v>
       </c>
       <c r="E493" s="27">
-        <v>87</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.25">
@@ -10692,16 +10696,16 @@
         <v>496</v>
       </c>
       <c r="B494" s="24">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C494" s="25">
-        <v>46</v>
+        <v>40.5</v>
       </c>
       <c r="D494" s="26">
         <v>3.8</v>
       </c>
       <c r="E494" s="27">
-        <v>174.8</v>
+        <v>153.9</v>
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.25">
@@ -10790,16 +10794,16 @@
         <v>502</v>
       </c>
       <c r="B500" s="24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C500" s="25">
-        <v>25</v>
+        <v>23.5</v>
       </c>
       <c r="D500" s="26">
         <v>2.8</v>
       </c>
       <c r="E500" s="27">
-        <v>70</v>
+        <v>65.8</v>
       </c>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.25">
@@ -10909,16 +10913,16 @@
         <v>509</v>
       </c>
       <c r="B507" s="24">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C507" s="25">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D507" s="26">
         <v>6.5</v>
       </c>
       <c r="E507" s="27">
-        <v>71.5</v>
+        <v>45.5</v>
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.25">
@@ -10977,16 +10981,16 @@
         <v>513</v>
       </c>
       <c r="B511" s="24">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C511" s="25">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D511" s="26">
-        <v>3.45</v>
+        <v>4.75</v>
       </c>
       <c r="E511" s="27">
-        <v>58.65</v>
+        <v>114</v>
       </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.25">
@@ -10994,16 +10998,16 @@
         <v>514</v>
       </c>
       <c r="B512" s="24">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C512" s="25">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D512" s="26">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="E512" s="27">
-        <v>40.299999999999997</v>
+        <v>58.65</v>
       </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.25">
@@ -11011,16 +11015,16 @@
         <v>515</v>
       </c>
       <c r="B513" s="24">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C513" s="25">
-        <v>28.5</v>
+        <v>7</v>
       </c>
       <c r="D513" s="26">
-        <v>9.5</v>
+        <v>3.1</v>
       </c>
       <c r="E513" s="27">
-        <v>270.75</v>
+        <v>21.7</v>
       </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.25">
@@ -11028,16 +11032,16 @@
         <v>516</v>
       </c>
       <c r="B514" s="24">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C514" s="25">
-        <v>9</v>
+        <v>28.5</v>
       </c>
       <c r="D514" s="26">
-        <v>2.8</v>
+        <v>9.5</v>
       </c>
       <c r="E514" s="27">
-        <v>25.2</v>
+        <v>270.75</v>
       </c>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.25">
@@ -11048,13 +11052,13 @@
         <v>4</v>
       </c>
       <c r="C515" s="25">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D515" s="26">
-        <v>2.38</v>
+        <v>2.8</v>
       </c>
       <c r="E515" s="27">
-        <v>66.64</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.25">
@@ -11062,16 +11066,16 @@
         <v>518</v>
       </c>
       <c r="B516" s="24">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="C516" s="25">
-        <v>123.5</v>
+        <v>28</v>
       </c>
       <c r="D516" s="26">
-        <v>3.9</v>
+        <v>2.38</v>
       </c>
       <c r="E516" s="27">
-        <v>481.65</v>
+        <v>66.64</v>
       </c>
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.25">
@@ -11079,16 +11083,16 @@
         <v>519</v>
       </c>
       <c r="B517" s="24">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="C517" s="25">
-        <v>36</v>
+        <v>111.5</v>
       </c>
       <c r="D517" s="26">
-        <v>1.8</v>
+        <v>3.9</v>
       </c>
       <c r="E517" s="27">
-        <v>64.8</v>
+        <v>434.85</v>
       </c>
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.25">
@@ -11096,16 +11100,16 @@
         <v>520</v>
       </c>
       <c r="B518" s="24">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C518" s="25">
-        <v>14</v>
+        <v>30.5</v>
       </c>
       <c r="D518" s="26">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="E518" s="27">
-        <v>63</v>
+        <v>54.9</v>
       </c>
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.25">
@@ -11113,16 +11117,16 @@
         <v>521</v>
       </c>
       <c r="B519" s="24">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C519" s="25">
-        <v>22.5</v>
+        <v>14</v>
       </c>
       <c r="D519" s="26">
-        <v>2.66</v>
+        <v>4.5</v>
       </c>
       <c r="E519" s="27">
-        <v>59.85</v>
+        <v>63</v>
       </c>
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.25">
@@ -11130,16 +11134,16 @@
         <v>522</v>
       </c>
       <c r="B520" s="24">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C520" s="25">
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="D520" s="26">
-        <v>2.85</v>
+        <v>2.66</v>
       </c>
       <c r="E520" s="27">
-        <v>62.7</v>
+        <v>59.85</v>
       </c>
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.25">
@@ -11147,16 +11151,16 @@
         <v>523</v>
       </c>
       <c r="B521" s="24">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C521" s="25">
-        <v>12.5</v>
+        <v>22</v>
       </c>
       <c r="D521" s="26">
-        <v>3.6</v>
+        <v>2.85</v>
       </c>
       <c r="E521" s="27">
-        <v>45</v>
+        <v>62.7</v>
       </c>
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.25">
@@ -11164,16 +11168,16 @@
         <v>524</v>
       </c>
       <c r="B522" s="24">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C522" s="25">
-        <v>44.97</v>
+        <v>12.5</v>
       </c>
       <c r="D522" s="26">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="E522" s="27">
-        <v>202.37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.25">
@@ -11181,16 +11185,16 @@
         <v>525</v>
       </c>
       <c r="B523" s="24">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C523" s="25">
-        <v>38.299999999999997</v>
+        <v>44.97</v>
       </c>
       <c r="D523" s="26">
-        <v>3.14</v>
+        <v>4.5</v>
       </c>
       <c r="E523" s="27">
-        <v>120.26</v>
+        <v>202.37</v>
       </c>
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.25">
@@ -11198,16 +11202,16 @@
         <v>526</v>
       </c>
       <c r="B524" s="24">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C524" s="25">
-        <v>93.75</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="D524" s="26">
-        <v>2.2999999999999998</v>
+        <v>3.14</v>
       </c>
       <c r="E524" s="27">
-        <v>215.63</v>
+        <v>120.26</v>
       </c>
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.25">
@@ -11215,16 +11219,16 @@
         <v>527</v>
       </c>
       <c r="B525" s="24">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C525" s="25">
-        <v>29</v>
+        <v>93.75</v>
       </c>
       <c r="D525" s="26">
-        <v>2.5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E525" s="27">
-        <v>72.5</v>
+        <v>215.63</v>
       </c>
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.25">
@@ -11232,16 +11236,16 @@
         <v>528</v>
       </c>
       <c r="B526" s="24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C526" s="25">
-        <v>44.5</v>
+        <v>29</v>
       </c>
       <c r="D526" s="26">
         <v>2.5</v>
       </c>
       <c r="E526" s="27">
-        <v>111.25</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.25">
@@ -11249,16 +11253,16 @@
         <v>529</v>
       </c>
       <c r="B527" s="24">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="C527" s="25">
-        <v>68</v>
+        <v>44.5</v>
       </c>
       <c r="D527" s="26">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="E527" s="27">
-        <v>238</v>
+        <v>111.25</v>
       </c>
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.25">
@@ -11266,16 +11270,16 @@
         <v>530</v>
       </c>
       <c r="B528" s="24">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="C528" s="25">
-        <v>39.5</v>
+        <v>70.5</v>
       </c>
       <c r="D528" s="26">
-        <v>5.7</v>
+        <v>3.5</v>
       </c>
       <c r="E528" s="27">
-        <v>225.15</v>
+        <v>246.75</v>
       </c>
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.25">
@@ -11283,16 +11287,16 @@
         <v>531</v>
       </c>
       <c r="B529" s="24">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C529" s="25">
-        <v>20</v>
+        <v>39.5</v>
       </c>
       <c r="D529" s="26">
-        <v>3.6</v>
+        <v>5.7</v>
       </c>
       <c r="E529" s="27">
-        <v>72</v>
+        <v>225.15</v>
       </c>
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.25">
@@ -11300,16 +11304,16 @@
         <v>532</v>
       </c>
       <c r="B530" s="24">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C530" s="25">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D530" s="26">
-        <v>2.14</v>
+        <v>3.6</v>
       </c>
       <c r="E530" s="27">
-        <v>57.78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.25">
@@ -11317,16 +11321,16 @@
         <v>533</v>
       </c>
       <c r="B531" s="24">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C531" s="25">
-        <v>9.5</v>
+        <v>27</v>
       </c>
       <c r="D531" s="26">
-        <v>2.66</v>
+        <v>2.14</v>
       </c>
       <c r="E531" s="27">
-        <v>25.27</v>
+        <v>57.78</v>
       </c>
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.25">
@@ -11334,48 +11338,48 @@
         <v>534</v>
       </c>
       <c r="B532" s="24">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C532" s="25">
-        <v>50.5</v>
+        <v>3.5</v>
       </c>
       <c r="D532" s="26">
         <v>2.66</v>
       </c>
       <c r="E532" s="27">
-        <v>134.33000000000001</v>
+        <v>9.31</v>
       </c>
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A533" s="23" t="s">
         <v>535</v>
       </c>
-      <c r="B533" s="24"/>
+      <c r="B533" s="24">
+        <v>16</v>
+      </c>
       <c r="C533" s="25">
-        <v>13</v>
+        <v>50.5</v>
       </c>
       <c r="D533" s="26">
-        <v>6.18</v>
+        <v>2.66</v>
       </c>
       <c r="E533" s="27">
-        <v>80.34</v>
+        <v>134.33000000000001</v>
       </c>
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A534" s="23" t="s">
         <v>536</v>
       </c>
-      <c r="B534" s="24">
-        <v>8</v>
-      </c>
+      <c r="B534" s="24"/>
       <c r="C534" s="25">
-        <v>28.5</v>
+        <v>13</v>
       </c>
       <c r="D534" s="26">
-        <v>2.35</v>
+        <v>6.18</v>
       </c>
       <c r="E534" s="27">
-        <v>66.98</v>
+        <v>80.34</v>
       </c>
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.25">
@@ -11383,16 +11387,16 @@
         <v>537</v>
       </c>
       <c r="B535" s="24">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C535" s="25">
-        <v>15.5</v>
+        <v>28.5</v>
       </c>
       <c r="D535" s="26">
-        <v>2.66</v>
+        <v>2.35</v>
       </c>
       <c r="E535" s="27">
-        <v>41.23</v>
+        <v>66.98</v>
       </c>
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.25">
@@ -11400,31 +11404,33 @@
         <v>538</v>
       </c>
       <c r="B536" s="24">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C536" s="25">
-        <v>45.5</v>
+        <v>15.5</v>
       </c>
       <c r="D536" s="26">
-        <v>3.8</v>
+        <v>2.66</v>
       </c>
       <c r="E536" s="27">
-        <v>172.9</v>
+        <v>41.23</v>
       </c>
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A537" s="23" t="s">
         <v>539</v>
       </c>
-      <c r="B537" s="24"/>
+      <c r="B537" s="24">
+        <v>3</v>
+      </c>
       <c r="C537" s="25">
-        <v>30</v>
+        <v>45.5</v>
       </c>
       <c r="D537" s="26">
-        <v>3.33</v>
+        <v>3.8</v>
       </c>
       <c r="E537" s="27">
-        <v>99.9</v>
+        <v>172.9</v>
       </c>
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.25">
@@ -11432,16 +11438,16 @@
         <v>540</v>
       </c>
       <c r="B538" s="24">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C538" s="25">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="D538" s="26">
-        <v>1.4</v>
+        <v>3.33</v>
       </c>
       <c r="E538" s="27">
-        <v>231</v>
+        <v>33.299999999999997</v>
       </c>
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.25">
@@ -11449,48 +11455,48 @@
         <v>541</v>
       </c>
       <c r="B539" s="24">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C539" s="25">
-        <v>120.5</v>
+        <v>155</v>
       </c>
       <c r="D539" s="26">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="E539" s="27">
-        <v>216.9</v>
+        <v>217</v>
       </c>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A540" s="23" t="s">
         <v>542</v>
       </c>
-      <c r="B540" s="24"/>
+      <c r="B540" s="24">
+        <v>25</v>
+      </c>
       <c r="C540" s="25">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="D540" s="26">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="E540" s="27">
-        <v>72</v>
+        <v>214.2</v>
       </c>
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A541" s="23" t="s">
         <v>543</v>
       </c>
-      <c r="B541" s="24">
-        <v>2</v>
-      </c>
+      <c r="B541" s="24"/>
       <c r="C541" s="25">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D541" s="26">
         <v>1.2</v>
       </c>
       <c r="E541" s="27">
-        <v>64.8</v>
+        <v>72</v>
       </c>
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.25">
@@ -11498,53 +11504,57 @@
         <v>544</v>
       </c>
       <c r="B542" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C542" s="25">
-        <v>-2</v>
-      </c>
-      <c r="D542" s="28"/>
-      <c r="E542" s="29"/>
+        <v>54</v>
+      </c>
+      <c r="D542" s="26">
+        <v>1.2</v>
+      </c>
+      <c r="E542" s="27">
+        <v>64.8</v>
+      </c>
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A543" s="23" t="s">
         <v>545</v>
       </c>
       <c r="B543" s="24">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C543" s="25">
-        <v>356.5</v>
-      </c>
-      <c r="D543" s="26">
-        <v>1.5</v>
-      </c>
-      <c r="E543" s="27">
-        <v>534.75</v>
-      </c>
+        <v>-2</v>
+      </c>
+      <c r="D543" s="28"/>
+      <c r="E543" s="29"/>
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A544" s="23" t="s">
         <v>546</v>
       </c>
       <c r="B544" s="24">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C544" s="25">
-        <v>202</v>
-      </c>
-      <c r="D544" s="28"/>
-      <c r="E544" s="29"/>
+        <v>356.5</v>
+      </c>
+      <c r="D544" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="E544" s="27">
+        <v>534.75</v>
+      </c>
     </row>
     <row r="545" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A545" s="23" t="s">
         <v>547</v>
       </c>
       <c r="B545" s="24">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C545" s="25">
-        <v>410.5</v>
+        <v>176</v>
       </c>
       <c r="D545" s="28"/>
       <c r="E545" s="29"/>
@@ -11554,10 +11564,10 @@
         <v>548</v>
       </c>
       <c r="B546" s="24">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C546" s="25">
-        <v>59.5</v>
+        <v>388.5</v>
       </c>
       <c r="D546" s="28"/>
       <c r="E546" s="29"/>
@@ -11567,10 +11577,10 @@
         <v>549</v>
       </c>
       <c r="B547" s="24">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="C547" s="25">
-        <v>120</v>
+        <v>41.5</v>
       </c>
       <c r="D547" s="28"/>
       <c r="E547" s="29"/>
@@ -11580,10 +11590,10 @@
         <v>550</v>
       </c>
       <c r="B548" s="24">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C548" s="25">
-        <v>27.9</v>
+        <v>108</v>
       </c>
       <c r="D548" s="28"/>
       <c r="E548" s="29"/>
@@ -11593,33 +11603,29 @@
         <v>551</v>
       </c>
       <c r="B549" s="24">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C549" s="25">
-        <v>163</v>
-      </c>
-      <c r="D549" s="26">
-        <v>0.87</v>
-      </c>
-      <c r="E549" s="27">
-        <v>141.81</v>
-      </c>
+        <v>23.4</v>
+      </c>
+      <c r="D549" s="28"/>
+      <c r="E549" s="29"/>
     </row>
     <row r="550" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A550" s="23" t="s">
         <v>552</v>
       </c>
       <c r="B550" s="24">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="C550" s="25">
-        <v>1074</v>
+        <v>141</v>
       </c>
       <c r="D550" s="26">
-        <v>0.57999999999999996</v>
+        <v>0.87</v>
       </c>
       <c r="E550" s="27">
-        <v>622.91999999999996</v>
+        <v>122.67</v>
       </c>
     </row>
     <row r="551" spans="1:5" x14ac:dyDescent="0.25">
@@ -11627,16 +11633,16 @@
         <v>553</v>
       </c>
       <c r="B551" s="24">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C551" s="25">
-        <v>494.5</v>
+        <v>1064</v>
       </c>
       <c r="D551" s="26">
-        <v>0.85</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="E551" s="27">
-        <v>420.33</v>
+        <v>617.12</v>
       </c>
     </row>
     <row r="552" spans="1:5" x14ac:dyDescent="0.25">
@@ -11644,16 +11650,16 @@
         <v>554</v>
       </c>
       <c r="B552" s="24">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C552" s="25">
-        <v>497.5</v>
+        <v>484.5</v>
       </c>
       <c r="D552" s="26">
         <v>0.85</v>
       </c>
       <c r="E552" s="27">
-        <v>422.88</v>
+        <v>411.83</v>
       </c>
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.25">
@@ -11661,16 +11667,16 @@
         <v>555</v>
       </c>
       <c r="B553" s="24">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="C553" s="25">
-        <v>482</v>
+        <v>497.5</v>
       </c>
       <c r="D553" s="26">
         <v>0.85</v>
       </c>
       <c r="E553" s="27">
-        <v>409.7</v>
+        <v>422.88</v>
       </c>
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.25">
@@ -11678,16 +11684,16 @@
         <v>556</v>
       </c>
       <c r="B554" s="24">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="C554" s="25">
-        <v>-46</v>
+        <v>445.5</v>
       </c>
       <c r="D554" s="26">
-        <v>0.4</v>
+        <v>0.85</v>
       </c>
       <c r="E554" s="27">
-        <v>-18.399999999999999</v>
+        <v>378.68</v>
       </c>
     </row>
     <row r="555" spans="1:5" x14ac:dyDescent="0.25">
@@ -11695,23 +11701,27 @@
         <v>557</v>
       </c>
       <c r="B555" s="24">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C555" s="25">
-        <v>-6</v>
-      </c>
-      <c r="D555" s="28"/>
-      <c r="E555" s="29"/>
+        <v>-46</v>
+      </c>
+      <c r="D555" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="E555" s="27">
+        <v>-18.399999999999999</v>
+      </c>
     </row>
     <row r="556" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A556" s="23" t="s">
         <v>558</v>
       </c>
       <c r="B556" s="24">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C556" s="25">
-        <v>2</v>
+        <v>-6</v>
       </c>
       <c r="D556" s="28"/>
       <c r="E556" s="29"/>
@@ -11721,10 +11731,10 @@
         <v>559</v>
       </c>
       <c r="B557" s="24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C557" s="25">
-        <v>114</v>
+        <v>-6</v>
       </c>
       <c r="D557" s="28"/>
       <c r="E557" s="29"/>
@@ -11734,10 +11744,10 @@
         <v>560</v>
       </c>
       <c r="B558" s="24">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C558" s="25">
-        <v>10</v>
+        <v>114</v>
       </c>
       <c r="D558" s="28"/>
       <c r="E558" s="29"/>
@@ -11747,7 +11757,7 @@
         <v>561</v>
       </c>
       <c r="B559" s="24">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C559" s="25">
         <v>10</v>
@@ -11759,32 +11769,28 @@
       <c r="A560" s="23" t="s">
         <v>562</v>
       </c>
-      <c r="B560" s="24"/>
+      <c r="B560" s="24">
+        <v>1</v>
+      </c>
       <c r="C560" s="25">
-        <v>13</v>
-      </c>
-      <c r="D560" s="26">
-        <v>5.25</v>
-      </c>
-      <c r="E560" s="27">
-        <v>68.25</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D560" s="28"/>
+      <c r="E560" s="29"/>
     </row>
     <row r="561" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A561" s="23" t="s">
         <v>563</v>
       </c>
-      <c r="B561" s="24">
-        <v>5</v>
-      </c>
+      <c r="B561" s="24"/>
       <c r="C561" s="25">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D561" s="26">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="E561" s="27">
-        <v>44</v>
+        <v>68.25</v>
       </c>
     </row>
     <row r="562" spans="1:5" x14ac:dyDescent="0.25">
@@ -11792,16 +11798,16 @@
         <v>564</v>
       </c>
       <c r="B562" s="24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C562" s="25">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D562" s="26">
-        <v>8.25</v>
+        <v>5.5</v>
       </c>
       <c r="E562" s="27">
-        <v>41.25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="563" spans="1:5" x14ac:dyDescent="0.25">
@@ -11809,16 +11815,16 @@
         <v>565</v>
       </c>
       <c r="B563" s="24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C563" s="25">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="D563" s="26">
         <v>8.25</v>
       </c>
       <c r="E563" s="27">
-        <v>61.88</v>
+        <v>41.25</v>
       </c>
     </row>
     <row r="564" spans="1:5" x14ac:dyDescent="0.25">
@@ -11826,16 +11832,16 @@
         <v>566</v>
       </c>
       <c r="B564" s="24">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C564" s="25">
-        <v>22</v>
+        <v>5.5</v>
       </c>
       <c r="D564" s="26">
-        <v>10</v>
+        <v>8.25</v>
       </c>
       <c r="E564" s="27">
-        <v>220</v>
+        <v>45.38</v>
       </c>
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.25">
@@ -11843,16 +11849,16 @@
         <v>567</v>
       </c>
       <c r="B565" s="24">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C565" s="25">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D565" s="26">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="E565" s="27">
-        <v>126.5</v>
+        <v>220</v>
       </c>
     </row>
     <row r="566" spans="1:5" x14ac:dyDescent="0.25">
@@ -11860,16 +11866,16 @@
         <v>568</v>
       </c>
       <c r="B566" s="24">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C566" s="25">
-        <v>12.5</v>
+        <v>23</v>
       </c>
       <c r="D566" s="26">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="E566" s="27">
-        <v>62.5</v>
+        <v>126.5</v>
       </c>
     </row>
     <row r="567" spans="1:5" x14ac:dyDescent="0.25">
@@ -11877,16 +11883,16 @@
         <v>569</v>
       </c>
       <c r="B567" s="24">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C567" s="25">
-        <v>12.01</v>
+        <v>8.5</v>
       </c>
       <c r="D567" s="26">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="E567" s="27">
-        <v>54.05</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.25">
@@ -11894,16 +11900,16 @@
         <v>570</v>
       </c>
       <c r="B568" s="24">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C568" s="25">
-        <v>21.5</v>
+        <v>12.01</v>
       </c>
       <c r="D568" s="26">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="E568" s="27">
-        <v>75.25</v>
+        <v>54.05</v>
       </c>
     </row>
     <row r="569" spans="1:5" x14ac:dyDescent="0.25">
@@ -11911,16 +11917,16 @@
         <v>571</v>
       </c>
       <c r="B569" s="24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C569" s="25">
-        <v>31.5</v>
+        <v>20.5</v>
       </c>
       <c r="D569" s="26">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="E569" s="27">
-        <v>181.13</v>
+        <v>71.75</v>
       </c>
     </row>
     <row r="570" spans="1:5" x14ac:dyDescent="0.25">
@@ -11928,16 +11934,16 @@
         <v>572</v>
       </c>
       <c r="B570" s="24">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C570" s="25">
-        <v>19</v>
+        <v>31.5</v>
       </c>
       <c r="D570" s="26">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="E570" s="27">
-        <v>76</v>
+        <v>181.13</v>
       </c>
     </row>
     <row r="571" spans="1:5" x14ac:dyDescent="0.25">
@@ -11945,16 +11951,16 @@
         <v>573</v>
       </c>
       <c r="B571" s="24">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C571" s="25">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D571" s="26">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="E571" s="27">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="572" spans="1:5" x14ac:dyDescent="0.25">
@@ -11962,16 +11968,16 @@
         <v>574</v>
       </c>
       <c r="B572" s="24">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C572" s="25">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D572" s="26">
         <v>6.5</v>
       </c>
       <c r="E572" s="27">
-        <v>45.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="573" spans="1:5" x14ac:dyDescent="0.25">
@@ -11979,16 +11985,16 @@
         <v>575</v>
       </c>
       <c r="B573" s="24">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="C573" s="25">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="D573" s="26">
-        <v>2.78</v>
+        <v>6.5</v>
       </c>
       <c r="E573" s="27">
-        <v>111.33</v>
+        <v>45.5</v>
       </c>
     </row>
     <row r="574" spans="1:5" x14ac:dyDescent="0.25">
@@ -11996,16 +12002,16 @@
         <v>576</v>
       </c>
       <c r="B574" s="24">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="C574" s="25">
-        <v>2.5</v>
+        <v>32</v>
       </c>
       <c r="D574" s="26">
-        <v>2.66</v>
+        <v>2.78</v>
       </c>
       <c r="E574" s="27">
-        <v>6.65</v>
+        <v>89.06</v>
       </c>
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.25">
@@ -12016,13 +12022,13 @@
         <v>2</v>
       </c>
       <c r="C575" s="25">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D575" s="26">
         <v>2.66</v>
       </c>
       <c r="E575" s="27">
-        <v>5.32</v>
+        <v>6.65</v>
       </c>
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.25">
@@ -12030,16 +12036,16 @@
         <v>578</v>
       </c>
       <c r="B576" s="24">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="C576" s="25">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="D576" s="26">
-        <v>2.74</v>
+        <v>2.66</v>
       </c>
       <c r="E576" s="27">
-        <v>145.35</v>
+        <v>5.32</v>
       </c>
     </row>
     <row r="577" spans="1:5" x14ac:dyDescent="0.25">
@@ -12047,16 +12053,16 @@
         <v>579</v>
       </c>
       <c r="B577" s="24">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C577" s="25">
-        <v>35.5</v>
+        <v>53</v>
       </c>
       <c r="D577" s="26">
-        <v>4</v>
+        <v>2.74</v>
       </c>
       <c r="E577" s="27">
-        <v>142</v>
+        <v>145.35</v>
       </c>
     </row>
     <row r="578" spans="1:5" x14ac:dyDescent="0.25">
@@ -12064,16 +12070,16 @@
         <v>580</v>
       </c>
       <c r="B578" s="24">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C578" s="25">
-        <v>47.5</v>
+        <v>35.5</v>
       </c>
       <c r="D578" s="26">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="E578" s="27">
-        <v>71.25</v>
+        <v>142</v>
       </c>
     </row>
     <row r="579" spans="1:5" x14ac:dyDescent="0.25">
@@ -12081,16 +12087,16 @@
         <v>581</v>
       </c>
       <c r="B579" s="24">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C579" s="25">
-        <v>10.5</v>
+        <v>47.5</v>
       </c>
       <c r="D579" s="26">
         <v>1.5</v>
       </c>
       <c r="E579" s="27">
-        <v>15.75</v>
+        <v>71.25</v>
       </c>
     </row>
     <row r="580" spans="1:5" x14ac:dyDescent="0.25">
@@ -12098,16 +12104,16 @@
         <v>582</v>
       </c>
       <c r="B580" s="24">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="C580" s="25">
-        <v>1.75</v>
+        <v>10.5</v>
       </c>
       <c r="D580" s="26">
         <v>1.5</v>
       </c>
       <c r="E580" s="27">
-        <v>2.63</v>
+        <v>15.75</v>
       </c>
     </row>
     <row r="581" spans="1:5" x14ac:dyDescent="0.25">
@@ -12115,16 +12121,16 @@
         <v>583</v>
       </c>
       <c r="B581" s="24">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C581" s="25">
-        <v>49.5</v>
+        <v>1.75</v>
       </c>
       <c r="D581" s="26">
-        <v>2.2799999999999998</v>
+        <v>1.5</v>
       </c>
       <c r="E581" s="27">
-        <v>112.86</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="582" spans="1:5" x14ac:dyDescent="0.25">
@@ -12132,16 +12138,16 @@
         <v>584</v>
       </c>
       <c r="B582" s="24">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="C582" s="25">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D582" s="26">
-        <v>5</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="E582" s="27">
-        <v>75</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.25">
@@ -12149,16 +12155,16 @@
         <v>585</v>
       </c>
       <c r="B583" s="24">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C583" s="25">
-        <v>10</v>
+        <v>49.5</v>
       </c>
       <c r="D583" s="26">
-        <v>5.5</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="E583" s="27">
-        <v>55</v>
+        <v>112.86</v>
       </c>
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.25">
@@ -12166,16 +12172,16 @@
         <v>586</v>
       </c>
       <c r="B584" s="24">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C584" s="25">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D584" s="26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E584" s="27">
-        <v>96</v>
+        <v>75</v>
       </c>
     </row>
     <row r="585" spans="1:5" x14ac:dyDescent="0.25">
@@ -12183,16 +12189,16 @@
         <v>587</v>
       </c>
       <c r="B585" s="24">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C585" s="25">
-        <v>19.5</v>
+        <v>10</v>
       </c>
       <c r="D585" s="26">
-        <v>4.6500000000000004</v>
+        <v>5.5</v>
       </c>
       <c r="E585" s="27">
-        <v>90.68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.25">
@@ -12200,16 +12206,16 @@
         <v>588</v>
       </c>
       <c r="B586" s="24">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C586" s="25">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D586" s="26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E586" s="27">
-        <v>75</v>
+        <v>93</v>
       </c>
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.25">
@@ -12217,16 +12223,16 @@
         <v>589</v>
       </c>
       <c r="B587" s="24">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C587" s="25">
-        <v>1.5</v>
+        <v>19.5</v>
       </c>
       <c r="D587" s="26">
-        <v>3.5</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="E587" s="27">
-        <v>5.25</v>
+        <v>90.68</v>
       </c>
     </row>
     <row r="588" spans="1:5" x14ac:dyDescent="0.25">
@@ -12234,16 +12240,16 @@
         <v>590</v>
       </c>
       <c r="B588" s="24">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C588" s="25">
-        <v>26.5</v>
+        <v>9</v>
       </c>
       <c r="D588" s="26">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="E588" s="27">
-        <v>92.75</v>
+        <v>45</v>
       </c>
     </row>
     <row r="589" spans="1:5" x14ac:dyDescent="0.25">
@@ -12251,16 +12257,16 @@
         <v>591</v>
       </c>
       <c r="B589" s="24">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C589" s="25">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D589" s="26">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="E589" s="27">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.25">
@@ -12268,16 +12274,16 @@
         <v>592</v>
       </c>
       <c r="B590" s="24">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C590" s="25">
-        <v>8</v>
+        <v>23.5</v>
       </c>
       <c r="D590" s="26">
-        <v>5.45</v>
+        <v>3.5</v>
       </c>
       <c r="E590" s="27">
-        <v>43.6</v>
+        <v>82.25</v>
       </c>
     </row>
     <row r="591" spans="1:5" x14ac:dyDescent="0.25">
@@ -12285,16 +12291,16 @@
         <v>593</v>
       </c>
       <c r="B591" s="24">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C591" s="25">
-        <v>18.5</v>
+        <v>1</v>
       </c>
       <c r="D591" s="26">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="E591" s="27">
-        <v>57.35</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="592" spans="1:5" x14ac:dyDescent="0.25">
@@ -12302,16 +12308,16 @@
         <v>594</v>
       </c>
       <c r="B592" s="24">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="C592" s="25">
-        <v>0.5</v>
+        <v>8</v>
       </c>
       <c r="D592" s="26">
-        <v>1.7</v>
+        <v>5.45</v>
       </c>
       <c r="E592" s="27">
-        <v>0.85</v>
+        <v>43.6</v>
       </c>
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.25">
@@ -12319,16 +12325,16 @@
         <v>595</v>
       </c>
       <c r="B593" s="24">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C593" s="25">
-        <v>27.5</v>
+        <v>84.5</v>
       </c>
       <c r="D593" s="26">
-        <v>3.33</v>
+        <v>3.1</v>
       </c>
       <c r="E593" s="27">
-        <v>91.58</v>
+        <v>261.95</v>
       </c>
     </row>
     <row r="594" spans="1:5" x14ac:dyDescent="0.25">
@@ -12336,16 +12342,16 @@
         <v>596</v>
       </c>
       <c r="B594" s="24">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C594" s="25">
-        <v>8.5</v>
+        <v>399.5</v>
       </c>
       <c r="D594" s="26">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="E594" s="27">
-        <v>29.75</v>
+        <v>679.15</v>
       </c>
     </row>
     <row r="595" spans="1:5" x14ac:dyDescent="0.25">
@@ -12353,16 +12359,16 @@
         <v>597</v>
       </c>
       <c r="B595" s="24">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C595" s="25">
-        <v>11</v>
+        <v>27.5</v>
       </c>
       <c r="D595" s="26">
-        <v>3.5</v>
+        <v>3.33</v>
       </c>
       <c r="E595" s="27">
-        <v>38.5</v>
+        <v>91.58</v>
       </c>
     </row>
     <row r="596" spans="1:5" x14ac:dyDescent="0.25">
@@ -12370,16 +12376,16 @@
         <v>598</v>
       </c>
       <c r="B596" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C596" s="25">
-        <v>-1</v>
+        <v>8.5</v>
       </c>
       <c r="D596" s="26">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="E596" s="27">
-        <v>-7.5</v>
+        <v>29.75</v>
       </c>
     </row>
     <row r="597" spans="1:5" x14ac:dyDescent="0.25">
@@ -12387,16 +12393,16 @@
         <v>599</v>
       </c>
       <c r="B597" s="24">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C597" s="25">
         <v>10</v>
       </c>
       <c r="D597" s="26">
-        <v>8.75</v>
+        <v>3.5</v>
       </c>
       <c r="E597" s="27">
-        <v>87.5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.25">
@@ -12404,16 +12410,16 @@
         <v>600</v>
       </c>
       <c r="B598" s="24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C598" s="25">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="D598" s="26">
-        <v>6.25</v>
+        <v>7.5</v>
       </c>
       <c r="E598" s="27">
-        <v>87.5</v>
+        <v>-7.5</v>
       </c>
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.25">
@@ -12421,16 +12427,16 @@
         <v>601</v>
       </c>
       <c r="B599" s="24">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="C599" s="25">
-        <v>96.8</v>
+        <v>10</v>
       </c>
       <c r="D599" s="26">
-        <v>2.85</v>
+        <v>8.75</v>
       </c>
       <c r="E599" s="27">
-        <v>275.88</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="600" spans="1:5" x14ac:dyDescent="0.25">
@@ -12438,16 +12444,16 @@
         <v>602</v>
       </c>
       <c r="B600" s="24">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C600" s="25">
-        <v>58.99</v>
+        <v>14</v>
       </c>
       <c r="D600" s="26">
-        <v>2</v>
+        <v>6.25</v>
       </c>
       <c r="E600" s="27">
-        <v>117.98</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="601" spans="1:5" x14ac:dyDescent="0.25">
@@ -12455,16 +12461,16 @@
         <v>603</v>
       </c>
       <c r="B601" s="24">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="C601" s="25">
-        <v>3.5</v>
+        <v>94.8</v>
       </c>
       <c r="D601" s="26">
-        <v>5.6</v>
+        <v>2.85</v>
       </c>
       <c r="E601" s="27">
-        <v>19.600000000000001</v>
+        <v>270.18</v>
       </c>
     </row>
     <row r="602" spans="1:5" x14ac:dyDescent="0.25">
@@ -12472,16 +12478,16 @@
         <v>604</v>
       </c>
       <c r="B602" s="24">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C602" s="25">
-        <v>14.5</v>
+        <v>58.99</v>
       </c>
       <c r="D602" s="26">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="E602" s="27">
-        <v>79.75</v>
+        <v>117.98</v>
       </c>
     </row>
     <row r="603" spans="1:5" x14ac:dyDescent="0.25">
@@ -12489,16 +12495,16 @@
         <v>605</v>
       </c>
       <c r="B603" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C603" s="25">
-        <v>13</v>
+        <v>3.5</v>
       </c>
       <c r="D603" s="26">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="E603" s="27">
-        <v>71.5</v>
+        <v>19.600000000000001</v>
       </c>
     </row>
     <row r="604" spans="1:5" x14ac:dyDescent="0.25">
@@ -12506,16 +12512,16 @@
         <v>606</v>
       </c>
       <c r="B604" s="24">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C604" s="25">
-        <v>29.5</v>
+        <v>14.5</v>
       </c>
       <c r="D604" s="26">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="E604" s="27">
-        <v>91.45</v>
+        <v>79.75</v>
       </c>
     </row>
     <row r="605" spans="1:5" x14ac:dyDescent="0.25">
@@ -12523,16 +12529,16 @@
         <v>607</v>
       </c>
       <c r="B605" s="24">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C605" s="25">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D605" s="26">
-        <v>5.68</v>
+        <v>5.5</v>
       </c>
       <c r="E605" s="27">
-        <v>130.63999999999999</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="606" spans="1:5" x14ac:dyDescent="0.25">
@@ -12540,16 +12546,16 @@
         <v>608</v>
       </c>
       <c r="B606" s="24">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C606" s="25">
-        <v>57</v>
+        <v>29.5</v>
       </c>
       <c r="D606" s="26">
-        <v>3.97</v>
+        <v>3.1</v>
       </c>
       <c r="E606" s="27">
-        <v>226.2</v>
+        <v>91.45</v>
       </c>
     </row>
     <row r="607" spans="1:5" x14ac:dyDescent="0.25">
@@ -12557,31 +12563,33 @@
         <v>609</v>
       </c>
       <c r="B607" s="24">
+        <v>19</v>
+      </c>
+      <c r="C607" s="25">
         <v>24</v>
       </c>
-      <c r="C607" s="25">
-        <v>11</v>
-      </c>
       <c r="D607" s="26">
-        <v>4.8</v>
+        <v>5.68</v>
       </c>
       <c r="E607" s="27">
-        <v>52.8</v>
+        <v>136.32</v>
       </c>
     </row>
     <row r="608" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A608" s="23" t="s">
         <v>610</v>
       </c>
-      <c r="B608" s="24"/>
+      <c r="B608" s="24">
+        <v>10</v>
+      </c>
       <c r="C608" s="25">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="D608" s="26">
-        <v>6.75</v>
+        <v>3.97</v>
       </c>
       <c r="E608" s="27">
-        <v>6.75</v>
+        <v>214.29</v>
       </c>
     </row>
     <row r="609" spans="1:5" x14ac:dyDescent="0.25">
@@ -12589,33 +12597,31 @@
         <v>611</v>
       </c>
       <c r="B609" s="24">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C609" s="25">
-        <v>4.5</v>
+        <v>11</v>
       </c>
       <c r="D609" s="26">
-        <v>6.75</v>
+        <v>4.8</v>
       </c>
       <c r="E609" s="27">
-        <v>30.38</v>
+        <v>52.8</v>
       </c>
     </row>
     <row r="610" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A610" s="23" t="s">
         <v>612</v>
       </c>
-      <c r="B610" s="24">
-        <v>3</v>
-      </c>
+      <c r="B610" s="24"/>
       <c r="C610" s="25">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D610" s="26">
         <v>6.75</v>
       </c>
       <c r="E610" s="27">
-        <v>47.25</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="611" spans="1:5" x14ac:dyDescent="0.25">
@@ -12623,7 +12629,7 @@
         <v>613</v>
       </c>
       <c r="B611" s="24">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C611" s="25">
         <v>1.5</v>
@@ -12639,15 +12645,17 @@
       <c r="A612" s="23" t="s">
         <v>614</v>
       </c>
-      <c r="B612" s="24"/>
+      <c r="B612" s="24">
+        <v>3</v>
+      </c>
       <c r="C612" s="25">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D612" s="26">
         <v>6.75</v>
       </c>
       <c r="E612" s="27">
-        <v>54</v>
+        <v>47.25</v>
       </c>
     </row>
     <row r="613" spans="1:5" x14ac:dyDescent="0.25">
@@ -12655,33 +12663,31 @@
         <v>615</v>
       </c>
       <c r="B613" s="24">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C613" s="25">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
       <c r="D613" s="26">
-        <v>5.5</v>
+        <v>6.75</v>
       </c>
       <c r="E613" s="27">
-        <v>41.25</v>
+        <v>10.130000000000001</v>
       </c>
     </row>
     <row r="614" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A614" s="23" t="s">
         <v>616</v>
       </c>
-      <c r="B614" s="24">
-        <v>70</v>
-      </c>
+      <c r="B614" s="24"/>
       <c r="C614" s="25">
-        <v>167</v>
+        <v>8</v>
       </c>
       <c r="D614" s="26">
-        <v>3.1</v>
+        <v>6.75</v>
       </c>
       <c r="E614" s="27">
-        <v>517.70000000000005</v>
+        <v>54</v>
       </c>
     </row>
     <row r="615" spans="1:5" x14ac:dyDescent="0.25">
@@ -12689,16 +12695,16 @@
         <v>617</v>
       </c>
       <c r="B615" s="24">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C615" s="25">
-        <v>42.5</v>
+        <v>7.5</v>
       </c>
       <c r="D615" s="26">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="E615" s="27">
-        <v>153</v>
+        <v>41.25</v>
       </c>
     </row>
     <row r="616" spans="1:5" x14ac:dyDescent="0.25">
@@ -12706,16 +12712,16 @@
         <v>618</v>
       </c>
       <c r="B616" s="24">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="C616" s="25">
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="D616" s="26">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="E616" s="27">
-        <v>77</v>
+        <v>486.7</v>
       </c>
     </row>
     <row r="617" spans="1:5" x14ac:dyDescent="0.25">
@@ -12723,16 +12729,16 @@
         <v>619</v>
       </c>
       <c r="B617" s="24">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C617" s="25">
-        <v>6</v>
+        <v>42.5</v>
       </c>
       <c r="D617" s="26">
-        <v>4.25</v>
+        <v>3.6</v>
       </c>
       <c r="E617" s="27">
-        <v>25.5</v>
+        <v>153</v>
       </c>
     </row>
     <row r="618" spans="1:5" x14ac:dyDescent="0.25">
@@ -12740,16 +12746,16 @@
         <v>620</v>
       </c>
       <c r="B618" s="24">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C618" s="25">
+        <v>18.5</v>
+      </c>
+      <c r="D618" s="26">
         <v>3.5</v>
       </c>
-      <c r="D618" s="26">
-        <v>3.75</v>
-      </c>
       <c r="E618" s="27">
-        <v>13.13</v>
+        <v>64.75</v>
       </c>
     </row>
     <row r="619" spans="1:5" x14ac:dyDescent="0.25">
@@ -12757,16 +12763,16 @@
         <v>621</v>
       </c>
       <c r="B619" s="24">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C619" s="25">
-        <v>21.5</v>
+        <v>6</v>
       </c>
       <c r="D619" s="26">
-        <v>2.5</v>
+        <v>4.25</v>
       </c>
       <c r="E619" s="27">
-        <v>53.75</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="620" spans="1:5" x14ac:dyDescent="0.25">
@@ -12774,16 +12780,16 @@
         <v>622</v>
       </c>
       <c r="B620" s="24">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C620" s="25">
-        <v>15.5</v>
+        <v>3.5</v>
       </c>
       <c r="D620" s="26">
-        <v>7.31</v>
+        <v>3.75</v>
       </c>
       <c r="E620" s="27">
-        <v>113.34</v>
+        <v>13.13</v>
       </c>
     </row>
     <row r="621" spans="1:5" x14ac:dyDescent="0.25">
@@ -12791,16 +12797,16 @@
         <v>623</v>
       </c>
       <c r="B621" s="24">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C621" s="25">
-        <v>4</v>
+        <v>20.5</v>
       </c>
       <c r="D621" s="26">
-        <v>5.75</v>
+        <v>2.5</v>
       </c>
       <c r="E621" s="27">
-        <v>23</v>
+        <v>51.25</v>
       </c>
     </row>
     <row r="622" spans="1:5" x14ac:dyDescent="0.25">
@@ -12808,16 +12814,16 @@
         <v>624</v>
       </c>
       <c r="B622" s="24">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C622" s="25">
-        <v>8.5</v>
+        <v>15.5</v>
       </c>
       <c r="D622" s="26">
-        <v>5.8</v>
+        <v>7.31</v>
       </c>
       <c r="E622" s="27">
-        <v>49.3</v>
+        <v>113.34</v>
       </c>
     </row>
     <row r="623" spans="1:5" x14ac:dyDescent="0.25">
@@ -12825,16 +12831,16 @@
         <v>625</v>
       </c>
       <c r="B623" s="24">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C623" s="25">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="D623" s="26">
-        <v>2.25</v>
+        <v>5.75</v>
       </c>
       <c r="E623" s="27">
-        <v>119.25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="624" spans="1:5" x14ac:dyDescent="0.25">
@@ -12842,16 +12848,16 @@
         <v>626</v>
       </c>
       <c r="B624" s="24">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C624" s="25">
-        <v>55.5</v>
+        <v>-3.5</v>
       </c>
       <c r="D624" s="26">
-        <v>2.25</v>
+        <v>5.8</v>
       </c>
       <c r="E624" s="27">
-        <v>124.88</v>
+        <v>-20.3</v>
       </c>
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.25">
@@ -12859,16 +12865,16 @@
         <v>627</v>
       </c>
       <c r="B625" s="24">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C625" s="25">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="D625" s="26">
-        <v>8.84</v>
+        <v>2.25</v>
       </c>
       <c r="E625" s="27">
-        <v>114.9</v>
+        <v>119.25</v>
       </c>
     </row>
     <row r="626" spans="1:5" x14ac:dyDescent="0.25">
@@ -12876,16 +12882,16 @@
         <v>628</v>
       </c>
       <c r="B626" s="24">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C626" s="25">
-        <v>58</v>
+        <v>52.5</v>
       </c>
       <c r="D626" s="26">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="E626" s="27">
-        <v>159.5</v>
+        <v>118.13</v>
       </c>
     </row>
     <row r="627" spans="1:5" x14ac:dyDescent="0.25">
@@ -12893,16 +12899,16 @@
         <v>629</v>
       </c>
       <c r="B627" s="24">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C627" s="25">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="D627" s="26">
-        <v>2.75</v>
+        <v>8.84</v>
       </c>
       <c r="E627" s="27">
-        <v>187</v>
+        <v>114.9</v>
       </c>
     </row>
     <row r="628" spans="1:5" x14ac:dyDescent="0.25">
@@ -12910,16 +12916,16 @@
         <v>630</v>
       </c>
       <c r="B628" s="24">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C628" s="25">
-        <v>58</v>
+        <v>56.5</v>
       </c>
       <c r="D628" s="26">
         <v>2.75</v>
       </c>
       <c r="E628" s="27">
-        <v>159.5</v>
+        <v>155.38</v>
       </c>
     </row>
     <row r="629" spans="1:5" x14ac:dyDescent="0.25">
@@ -12927,16 +12933,16 @@
         <v>631</v>
       </c>
       <c r="B629" s="24">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C629" s="25">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="D629" s="26">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="E629" s="27">
-        <v>136</v>
+        <v>187</v>
       </c>
     </row>
     <row r="630" spans="1:5" x14ac:dyDescent="0.25">
@@ -12944,16 +12950,16 @@
         <v>632</v>
       </c>
       <c r="B630" s="24">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C630" s="25">
-        <v>22</v>
+        <v>56.5</v>
       </c>
       <c r="D630" s="26">
-        <v>2.66</v>
+        <v>2.75</v>
       </c>
       <c r="E630" s="27">
-        <v>58.52</v>
+        <v>155.38</v>
       </c>
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.25">
@@ -12961,16 +12967,16 @@
         <v>633</v>
       </c>
       <c r="B631" s="24">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C631" s="25">
-        <v>17.5</v>
+        <v>30</v>
       </c>
       <c r="D631" s="26">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="E631" s="27">
-        <v>74.38</v>
+        <v>120</v>
       </c>
     </row>
     <row r="632" spans="1:5" x14ac:dyDescent="0.25">
@@ -12978,16 +12984,16 @@
         <v>634</v>
       </c>
       <c r="B632" s="24">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C632" s="25">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D632" s="26">
-        <v>4.25</v>
+        <v>2.66</v>
       </c>
       <c r="E632" s="27">
-        <v>72.25</v>
+        <v>58.52</v>
       </c>
     </row>
     <row r="633" spans="1:5" x14ac:dyDescent="0.25">
@@ -12995,16 +13001,16 @@
         <v>635</v>
       </c>
       <c r="B633" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C633" s="25">
-        <v>18.350000000000001</v>
+        <v>17.5</v>
       </c>
       <c r="D633" s="26">
-        <v>5.5</v>
+        <v>4.25</v>
       </c>
       <c r="E633" s="27">
-        <v>100.93</v>
+        <v>74.38</v>
       </c>
     </row>
     <row r="634" spans="1:5" x14ac:dyDescent="0.25">
@@ -13012,16 +13018,16 @@
         <v>636</v>
       </c>
       <c r="B634" s="24">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C634" s="25">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="D634" s="26">
-        <v>5</v>
+        <v>4.25</v>
       </c>
       <c r="E634" s="27">
-        <v>82.5</v>
+        <v>72.25</v>
       </c>
     </row>
     <row r="635" spans="1:5" x14ac:dyDescent="0.25">
@@ -13029,16 +13035,16 @@
         <v>637</v>
       </c>
       <c r="B635" s="24">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C635" s="25">
-        <v>34.5</v>
+        <v>18.350000000000001</v>
       </c>
       <c r="D635" s="26">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="E635" s="27">
-        <v>124.2</v>
+        <v>100.93</v>
       </c>
     </row>
     <row r="636" spans="1:5" x14ac:dyDescent="0.25">
@@ -13046,36 +13052,44 @@
         <v>638</v>
       </c>
       <c r="B636" s="24">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C636" s="25">
-        <v>27</v>
-      </c>
-      <c r="D636" s="28"/>
-      <c r="E636" s="29"/>
+        <v>16.5</v>
+      </c>
+      <c r="D636" s="26">
+        <v>5</v>
+      </c>
+      <c r="E636" s="27">
+        <v>82.5</v>
+      </c>
     </row>
     <row r="637" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A637" s="23" t="s">
         <v>639</v>
       </c>
       <c r="B637" s="24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C637" s="25">
-        <v>30.5</v>
-      </c>
-      <c r="D637" s="28"/>
-      <c r="E637" s="29"/>
+        <v>34.5</v>
+      </c>
+      <c r="D637" s="26">
+        <v>3.6</v>
+      </c>
+      <c r="E637" s="27">
+        <v>124.2</v>
+      </c>
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A638" s="23" t="s">
         <v>640</v>
       </c>
       <c r="B638" s="24">
+        <v>14</v>
+      </c>
+      <c r="C638" s="25">
         <v>27</v>
-      </c>
-      <c r="C638" s="25">
-        <v>32.69</v>
       </c>
       <c r="D638" s="28"/>
       <c r="E638" s="29"/>
@@ -13085,10 +13099,10 @@
         <v>641</v>
       </c>
       <c r="B639" s="24">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C639" s="25">
-        <v>22</v>
+        <v>30.5</v>
       </c>
       <c r="D639" s="28"/>
       <c r="E639" s="29"/>
@@ -13098,10 +13112,10 @@
         <v>642</v>
       </c>
       <c r="B640" s="24">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C640" s="25">
-        <v>71.5</v>
+        <v>28.19</v>
       </c>
       <c r="D640" s="28"/>
       <c r="E640" s="29"/>
@@ -13111,10 +13125,10 @@
         <v>643</v>
       </c>
       <c r="B641" s="24">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C641" s="25">
-        <v>118.5</v>
+        <v>22</v>
       </c>
       <c r="D641" s="28"/>
       <c r="E641" s="29"/>
@@ -13124,10 +13138,10 @@
         <v>644</v>
       </c>
       <c r="B642" s="24">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C642" s="25">
-        <v>75.5</v>
+        <v>71.5</v>
       </c>
       <c r="D642" s="28"/>
       <c r="E642" s="29"/>
@@ -13137,10 +13151,10 @@
         <v>645</v>
       </c>
       <c r="B643" s="24">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C643" s="25">
-        <v>59.5</v>
+        <v>115.5</v>
       </c>
       <c r="D643" s="28"/>
       <c r="E643" s="29"/>
@@ -13150,10 +13164,10 @@
         <v>646</v>
       </c>
       <c r="B644" s="24">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C644" s="25">
-        <v>103</v>
+        <v>73.5</v>
       </c>
       <c r="D644" s="28"/>
       <c r="E644" s="29"/>
@@ -13163,45 +13177,43 @@
         <v>647</v>
       </c>
       <c r="B645" s="24">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C645" s="25">
-        <v>86.5</v>
-      </c>
-      <c r="D645" s="26">
-        <v>2.9</v>
-      </c>
-      <c r="E645" s="27">
-        <v>250.67</v>
-      </c>
+        <v>56.5</v>
+      </c>
+      <c r="D645" s="28"/>
+      <c r="E645" s="29"/>
     </row>
     <row r="646" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A646" s="23" t="s">
         <v>648</v>
       </c>
-      <c r="B646" s="24"/>
+      <c r="B646" s="24">
+        <v>19</v>
+      </c>
       <c r="C646" s="25">
-        <v>14.5</v>
-      </c>
-      <c r="D646" s="26">
-        <v>3.8</v>
-      </c>
-      <c r="E646" s="27">
-        <v>55.1</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="D646" s="28"/>
+      <c r="E646" s="29"/>
     </row>
     <row r="647" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A647" s="23" t="s">
         <v>649</v>
       </c>
       <c r="B647" s="24">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C647" s="25">
-        <v>-0.5</v>
-      </c>
-      <c r="D647" s="28"/>
-      <c r="E647" s="29"/>
+        <v>86.5</v>
+      </c>
+      <c r="D647" s="26">
+        <v>2.9</v>
+      </c>
+      <c r="E647" s="27">
+        <v>250.67</v>
+      </c>
     </row>
     <row r="648" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A648" s="23" t="s">
@@ -13209,82 +13221,80 @@
       </c>
       <c r="B648" s="24"/>
       <c r="C648" s="25">
-        <v>502</v>
+        <v>14.5</v>
       </c>
       <c r="D648" s="26">
-        <v>0.82</v>
+        <v>3.8</v>
       </c>
       <c r="E648" s="27">
-        <v>411.64</v>
+        <v>55.1</v>
       </c>
     </row>
     <row r="649" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A649" s="23" t="s">
         <v>651</v>
       </c>
-      <c r="B649" s="24"/>
+      <c r="B649" s="24">
+        <v>2</v>
+      </c>
       <c r="C649" s="25">
-        <v>500</v>
-      </c>
-      <c r="D649" s="26">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="E649" s="27">
-        <v>575</v>
-      </c>
+        <v>-0.5</v>
+      </c>
+      <c r="D649" s="28"/>
+      <c r="E649" s="29"/>
     </row>
     <row r="650" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A650" s="23" t="s">
         <v>652</v>
       </c>
-      <c r="B650" s="24">
-        <v>1</v>
-      </c>
+      <c r="B650" s="24"/>
       <c r="C650" s="25">
-        <v>-0.5</v>